--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="132">
   <si>
     <t>Process</t>
   </si>
@@ -199,6 +199,9 @@
     <t>0.750</t>
   </si>
   <si>
+    <t>error</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -299,9 +302,6 @@
   </si>
   <si>
     <t>tsmc2p (13)</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>tsmc2p (14)</t>
@@ -440,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,12 +450,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6FFF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,11 +466,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,29 +959,29 @@
       <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>61</v>
+      <c r="M2">
+        <v>50.8628</v>
+      </c>
+      <c r="N2">
+        <v>4.16334</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>61</v>
+      <c r="P2">
+        <v>51.6994</v>
+      </c>
+      <c r="Q2">
+        <v>50.8614</v>
+      </c>
+      <c r="R2">
+        <v>99.99720000000001</v>
+      </c>
+      <c r="S2">
+        <v>50.8316</v>
+      </c>
+      <c r="T2">
+        <v>51.6994</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>61</v>
@@ -1005,8 +998,8 @@
       <c r="Y2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>61</v>
+      <c r="Z2">
+        <v>3.93689</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>61</v>
@@ -1023,29 +1016,29 @@
       <c r="AE2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>61</v>
+      <c r="AF2">
+        <v>4.16334</v>
+      </c>
+      <c r="AG2">
+        <v>0.767347</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>61</v>
@@ -1080,511 +1073,511 @@
     </row>
     <row r="3" spans="1:49">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:49">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:49">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:49">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="M6">
+        <v>50.4422</v>
+      </c>
+      <c r="N6">
+        <v>4.57132</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>61</v>
+      <c r="P6">
+        <v>40.3722</v>
+      </c>
+      <c r="Q6">
+        <v>50.4451</v>
+      </c>
+      <c r="R6">
+        <v>100.006</v>
+      </c>
+      <c r="S6">
+        <v>39.923</v>
+      </c>
+      <c r="T6">
+        <v>40.3722</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>61</v>
@@ -1601,8 +1594,8 @@
       <c r="Y6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z6" s="2" t="s">
-        <v>61</v>
+      <c r="Z6">
+        <v>4.27566</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>61</v>
@@ -1619,29 +1612,29 @@
       <c r="AE6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>61</v>
+      <c r="AF6">
+        <v>4.57132</v>
+      </c>
+      <c r="AG6">
+        <v>0.832131</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN6" s="2" t="s">
         <v>61</v>
@@ -1676,1343 +1669,1343 @@
     </row>
     <row r="7" spans="1:49">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:49">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:49">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:49">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:49">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:49">
       <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" s="3">
-        <v>38.1803</v>
+        <v>73</v>
+      </c>
+      <c r="M15">
+        <v>51.0112</v>
       </c>
       <c r="N15">
-        <v>5.211670000000001</v>
+        <v>5.03983</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="P15">
-        <v>195.926</v>
+        <v>79.93220000000001</v>
       </c>
       <c r="Q15">
-        <v>38.18470000000001</v>
+        <v>51.0119</v>
       </c>
       <c r="R15">
-        <v>100.012</v>
+        <v>100.001</v>
       </c>
       <c r="S15">
-        <v>195.926</v>
+        <v>78.92529999999999</v>
       </c>
       <c r="T15">
-        <v>184.144</v>
+        <v>79.93220000000001</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="Z15">
-        <v>4.98666</v>
+        <v>4.81964</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="AF15">
-        <v>5.211670000000001</v>
+        <v>5.03983</v>
       </c>
       <c r="AG15">
-        <v>0.695343</v>
+        <v>0.697497</v>
       </c>
       <c r="AH15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AI15" s="2" t="s">
+      <c r="AO15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AJ15" s="2" t="s">
+      <c r="AP15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AK15" s="2" t="s">
+      <c r="AQ15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AL15" s="2" t="s">
+      <c r="AR15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AM15" s="2" t="s">
+      <c r="AS15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AN15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS15" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="AT15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="AV15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -3020,148 +3013,148 @@
         <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:49">
@@ -3169,148 +3162,148 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:49">
@@ -3318,148 +3311,148 @@
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:49">
@@ -3479,136 +3472,136 @@
         <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:49">
@@ -3628,136 +3621,136 @@
         <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:49">
@@ -3777,136 +3770,136 @@
         <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:49">
@@ -3926,136 +3919,136 @@
         <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:49">
@@ -4075,136 +4068,136 @@
         <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:49">
@@ -4224,136 +4217,136 @@
         <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:49">
@@ -4373,136 +4366,136 @@
         <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:49">
@@ -4522,136 +4515,136 @@
         <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:49">
@@ -4671,136 +4664,136 @@
         <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:49">
@@ -4820,136 +4813,136 @@
         <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:49">
@@ -4969,136 +4962,136 @@
         <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:49">
@@ -5118,136 +5111,136 @@
         <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:49">
@@ -5267,136 +5260,136 @@
         <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:49">
@@ -5416,136 +5409,136 @@
         <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:49">
@@ -5565,136 +5558,136 @@
         <v>115</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:49">
@@ -5714,136 +5707,136 @@
         <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:49" s="1" customFormat="1">
@@ -5999,232 +5992,232 @@
       <c r="L36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="3">
-        <v>38.1803</v>
+      <c r="M36" s="1">
+        <v>50.4422</v>
       </c>
       <c r="N36" s="1">
-        <v>5.211670000000001</v>
+        <v>4.16334</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P36" s="1">
-        <v>195.926</v>
+        <v>40.3722</v>
       </c>
       <c r="Q36" s="1">
-        <v>38.18470000000001</v>
+        <v>50.4451</v>
       </c>
       <c r="R36" s="1">
-        <v>100.012</v>
+        <v>99.99720000000001</v>
       </c>
       <c r="S36" s="1">
-        <v>195.926</v>
+        <v>39.923</v>
       </c>
       <c r="T36" s="1">
-        <v>184.144</v>
+        <v>40.3722</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z36" s="1">
-        <v>4.98666</v>
+        <v>3.93689</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF36" s="1">
-        <v>5.211670000000001</v>
+        <v>4.16334</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.695343</v>
+        <v>0.697497</v>
       </c>
       <c r="AH36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:49" s="1" customFormat="1">
       <c r="L37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M37" s="3">
-        <v>38.1803</v>
+      <c r="M37" s="1">
+        <v>51.0112</v>
       </c>
       <c r="N37" s="1">
-        <v>5.211670000000001</v>
+        <v>5.03983</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P37" s="1">
-        <v>195.926</v>
+        <v>79.93220000000001</v>
       </c>
       <c r="Q37" s="1">
-        <v>38.18470000000001</v>
+        <v>51.0119</v>
       </c>
       <c r="R37" s="1">
-        <v>100.012</v>
+        <v>100.006</v>
       </c>
       <c r="S37" s="1">
-        <v>195.926</v>
+        <v>78.92529999999999</v>
       </c>
       <c r="T37" s="1">
-        <v>184.144</v>
+        <v>79.93220000000001</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z37" s="1">
-        <v>4.98666</v>
+        <v>4.81964</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF37" s="1">
-        <v>5.211670000000001</v>
+        <v>5.03983</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.695343</v>
+        <v>0.832131</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:49" s="1" customFormat="1">
@@ -6267,115 +6260,115 @@
         <v>129</v>
       </c>
       <c r="M42" s="1">
-        <v>38.1803</v>
+        <v>50.77206666666667</v>
       </c>
       <c r="N42" s="1">
-        <v>5.211670000000001</v>
+        <v>4.591496666666667</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P42" s="1">
-        <v>195.926</v>
+        <v>57.3346</v>
       </c>
       <c r="Q42" s="1">
-        <v>38.18470000000001</v>
+        <v>50.7728</v>
       </c>
       <c r="R42" s="1">
-        <v>100.012</v>
+        <v>100.0014</v>
       </c>
       <c r="S42" s="1">
-        <v>195.926</v>
+        <v>56.55996666666667</v>
       </c>
       <c r="T42" s="1">
-        <v>184.144</v>
+        <v>57.3346</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z42" s="1">
-        <v>4.98666</v>
+        <v>4.344063333333334</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF42" s="1">
-        <v>5.211670000000001</v>
+        <v>4.591496666666667</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.695343</v>
+        <v>0.7656583333333332</v>
       </c>
       <c r="AH42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:49" s="1" customFormat="1">
@@ -6383,115 +6376,115 @@
         <v>130</v>
       </c>
       <c r="M43" s="1">
-        <v>0</v>
+        <v>0.2409905300121895</v>
       </c>
       <c r="N43" s="1">
-        <v>0</v>
+        <v>0.3581098559877341</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P43" s="1">
-        <v>0</v>
+        <v>16.63460267594831</v>
       </c>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>0.2397262744604054</v>
       </c>
       <c r="R43" s="1">
-        <v>0</v>
+        <v>0.003603701800461273</v>
       </c>
       <c r="S43" s="1">
-        <v>0</v>
+        <v>16.42975937789581</v>
       </c>
       <c r="T43" s="1">
-        <v>0</v>
+        <v>16.63460267594831</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z43" s="1">
-        <v>0</v>
+        <v>0.3636125709536943</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF43" s="1">
-        <v>0</v>
+        <v>0.3581098559877341</v>
       </c>
       <c r="AG43" s="1">
-        <v>0</v>
+        <v>0.05497706907025467</v>
       </c>
       <c r="AH43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:49" s="1" customFormat="1">
@@ -6499,115 +6492,115 @@
         <v>131</v>
       </c>
       <c r="M44" s="1">
-        <v>0</v>
+        <v>0.474651803312168</v>
       </c>
       <c r="N44" s="1">
-        <v>0</v>
+        <v>7.799414482592113</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P44" s="1">
-        <v>0</v>
+        <v>29.0132008873321</v>
       </c>
       <c r="Q44" s="1">
-        <v>0</v>
+        <v>0.4721549224395846</v>
       </c>
       <c r="R44" s="1">
-        <v>0</v>
+        <v>0.003603651349342382</v>
       </c>
       <c r="S44" s="1">
-        <v>0</v>
+        <v>29.04838942838099</v>
       </c>
       <c r="T44" s="1">
-        <v>0</v>
+        <v>29.0132008873321</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z44" s="1">
-        <v>0</v>
+        <v>8.370333097208395</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF44" s="1">
-        <v>0</v>
+        <v>7.799414482592113</v>
       </c>
       <c r="AG44" s="1">
-        <v>0</v>
+        <v>7.180365794610913</v>
       </c>
       <c r="AH44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AP44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AQ44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:49" s="1" customFormat="1"/>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="132">
   <si>
     <t>Process</t>
   </si>
@@ -199,109 +199,109 @@
     <t>0.750</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>tsmc2p (1)</t>
+  </si>
+  <si>
+    <t>mos_ff</t>
+  </si>
+  <si>
+    <t>moslvt_ff</t>
+  </si>
+  <si>
+    <t>mosulvt_ff</t>
+  </si>
+  <si>
+    <t>moselvt_ff</t>
+  </si>
+  <si>
+    <t>res_l</t>
+  </si>
+  <si>
+    <t>cap_l</t>
+  </si>
+  <si>
+    <t>beol_rcbest</t>
+  </si>
+  <si>
+    <t>rcbest_ccbest</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>tsmc2p (2)</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>tsmc2p (3)</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>tsmc2p (4)</t>
+  </si>
+  <si>
+    <t>tsmc2p (5)</t>
+  </si>
+  <si>
+    <t>res_h</t>
+  </si>
+  <si>
+    <t>cap_h</t>
+  </si>
+  <si>
+    <t>beol_rcworst</t>
+  </si>
+  <si>
+    <t>rcworst_ccworst</t>
+  </si>
+  <si>
+    <t>tsmc2p (6)</t>
+  </si>
+  <si>
+    <t>tsmc2p (7)</t>
+  </si>
+  <si>
+    <t>tsmc2p (8)</t>
+  </si>
+  <si>
+    <t>tsmc2p (9)</t>
+  </si>
+  <si>
+    <t>mos_ss</t>
+  </si>
+  <si>
+    <t>moslvt_ss</t>
+  </si>
+  <si>
+    <t>mosulvt_ss</t>
+  </si>
+  <si>
+    <t>moselvt_ss</t>
+  </si>
+  <si>
+    <t>tsmc2p (10)</t>
+  </si>
+  <si>
+    <t>tsmc2p (11)</t>
+  </si>
+  <si>
+    <t>tsmc2p (12)</t>
+  </si>
+  <si>
+    <t>tsmc2p (13)</t>
+  </si>
+  <si>
     <t>error</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>tsmc2p (1)</t>
-  </si>
-  <si>
-    <t>mos_ff</t>
-  </si>
-  <si>
-    <t>moslvt_ff</t>
-  </si>
-  <si>
-    <t>mosulvt_ff</t>
-  </si>
-  <si>
-    <t>moselvt_ff</t>
-  </si>
-  <si>
-    <t>res_l</t>
-  </si>
-  <si>
-    <t>cap_l</t>
-  </si>
-  <si>
-    <t>beol_rcbest</t>
-  </si>
-  <si>
-    <t>rcbest_ccbest</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>tsmc2p (2)</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>tsmc2p (3)</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>tsmc2p (4)</t>
-  </si>
-  <si>
-    <t>tsmc2p (5)</t>
-  </si>
-  <si>
-    <t>res_h</t>
-  </si>
-  <si>
-    <t>cap_h</t>
-  </si>
-  <si>
-    <t>beol_rcworst</t>
-  </si>
-  <si>
-    <t>rcworst_ccworst</t>
-  </si>
-  <si>
-    <t>tsmc2p (6)</t>
-  </si>
-  <si>
-    <t>tsmc2p (7)</t>
-  </si>
-  <si>
-    <t>tsmc2p (8)</t>
-  </si>
-  <si>
-    <t>tsmc2p (9)</t>
-  </si>
-  <si>
-    <t>mos_ss</t>
-  </si>
-  <si>
-    <t>moslvt_ss</t>
-  </si>
-  <si>
-    <t>mosulvt_ss</t>
-  </si>
-  <si>
-    <t>moselvt_ss</t>
-  </si>
-  <si>
-    <t>tsmc2p (10)</t>
-  </si>
-  <si>
-    <t>tsmc2p (11)</t>
-  </si>
-  <si>
-    <t>tsmc2p (12)</t>
-  </si>
-  <si>
-    <t>tsmc2p (13)</t>
   </si>
   <si>
     <t>tsmc2p (14)</t>
@@ -959,29 +959,29 @@
       <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="M2">
-        <v>50.8628</v>
-      </c>
-      <c r="N2">
-        <v>4.16334</v>
+      <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P2">
-        <v>51.6994</v>
-      </c>
-      <c r="Q2">
-        <v>50.8614</v>
-      </c>
-      <c r="R2">
-        <v>99.99720000000001</v>
-      </c>
-      <c r="S2">
-        <v>50.8316</v>
-      </c>
-      <c r="T2">
-        <v>51.6994</v>
+      <c r="P2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>61</v>
@@ -998,8 +998,8 @@
       <c r="Y2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z2">
-        <v>3.93689</v>
+      <c r="Z2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>61</v>
@@ -1016,29 +1016,29 @@
       <c r="AE2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF2">
-        <v>4.16334</v>
-      </c>
-      <c r="AG2">
-        <v>0.767347</v>
+      <c r="AF2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>61</v>
@@ -1073,511 +1073,511 @@
     </row>
     <row r="3" spans="1:49">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
       </c>
       <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
         <v>70</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>71</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>72</v>
       </c>
-      <c r="L3" t="s">
-        <v>73</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:49">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>67</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:49">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
       </c>
       <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:49">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
       </c>
       <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
         <v>70</v>
       </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6">
-        <v>50.4422</v>
-      </c>
-      <c r="N6">
-        <v>4.57132</v>
+        <v>74</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P6">
-        <v>40.3722</v>
-      </c>
-      <c r="Q6">
-        <v>50.4451</v>
-      </c>
-      <c r="R6">
-        <v>100.006</v>
-      </c>
-      <c r="S6">
-        <v>39.923</v>
-      </c>
-      <c r="T6">
-        <v>40.3722</v>
+      <c r="P6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>61</v>
@@ -1594,8 +1594,8 @@
       <c r="Y6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z6">
-        <v>4.27566</v>
+      <c r="Z6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>61</v>
@@ -1612,29 +1612,29 @@
       <c r="AE6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF6">
-        <v>4.57132</v>
-      </c>
-      <c r="AG6">
-        <v>0.832131</v>
+      <c r="AF6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN6" s="2" t="s">
         <v>61</v>
@@ -1669,1343 +1669,1343 @@
     </row>
     <row r="7" spans="1:49">
       <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
         <v>79</v>
       </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
       </c>
       <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
       <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
         <v>72</v>
       </c>
-      <c r="L7" t="s">
-        <v>73</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:49">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
-        <v>67</v>
-      </c>
       <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
         <v>80</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
       </c>
       <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
         <v>82</v>
       </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:49">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>65</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
       <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
         <v>80</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
       </c>
       <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
         <v>82</v>
       </c>
-      <c r="J9" t="s">
-        <v>83</v>
-      </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:49">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
       <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
         <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
       </c>
       <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
         <v>82</v>
       </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:49">
       <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>88</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>89</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>90</v>
       </c>
-      <c r="E11" t="s">
-        <v>91</v>
-      </c>
       <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
         <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
       </c>
       <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
         <v>70</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>71</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>72</v>
       </c>
-      <c r="L11" t="s">
-        <v>73</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:49">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
         <v>88</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>89</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>90</v>
       </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
       <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
         <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
       </c>
       <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
         <v>70</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>71</v>
       </c>
-      <c r="K12" t="s">
-        <v>72</v>
-      </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="E13" t="s">
-        <v>91</v>
-      </c>
       <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
         <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
       </c>
       <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
         <v>70</v>
       </c>
-      <c r="J13" t="s">
-        <v>71</v>
-      </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>89</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>90</v>
       </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
       <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
         <v>68</v>
-      </c>
-      <c r="G14" t="s">
-        <v>69</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
       </c>
       <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
         <v>70</v>
       </c>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>89</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>90</v>
       </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
       <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
         <v>80</v>
-      </c>
-      <c r="G15" t="s">
-        <v>81</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
       </c>
       <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s">
         <v>82</v>
       </c>
-      <c r="J15" t="s">
-        <v>83</v>
-      </c>
       <c r="K15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" t="s">
         <v>72</v>
       </c>
-      <c r="L15" t="s">
-        <v>73</v>
-      </c>
       <c r="M15">
-        <v>51.0112</v>
+        <v>52.4859</v>
       </c>
       <c r="N15">
-        <v>5.03983</v>
+        <v>4.88218</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="P15">
-        <v>79.93220000000001</v>
+        <v>71.20140000000001</v>
       </c>
       <c r="Q15">
-        <v>51.0119</v>
+        <v>52.4832</v>
       </c>
       <c r="R15">
-        <v>100.001</v>
+        <v>99.995</v>
       </c>
       <c r="S15">
-        <v>78.92529999999999</v>
+        <v>68.7158</v>
       </c>
       <c r="T15">
-        <v>79.93220000000001</v>
+        <v>71.20140000000001</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Z15">
-        <v>4.81964</v>
+        <v>4.64263</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AF15">
-        <v>5.03983</v>
+        <v>4.88218</v>
       </c>
       <c r="AG15">
-        <v>0.697497</v>
+        <v>0.700148</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AR15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AV15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -3013,148 +3013,148 @@
         <v>96</v>
       </c>
       <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>89</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
       <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
         <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
       </c>
       <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
         <v>82</v>
       </c>
-      <c r="J16" t="s">
-        <v>83</v>
-      </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:49">
@@ -3162,148 +3162,148 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
         <v>88</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>89</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>90</v>
       </c>
-      <c r="E17" t="s">
-        <v>91</v>
-      </c>
       <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
         <v>80</v>
-      </c>
-      <c r="G17" t="s">
-        <v>81</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
       </c>
       <c r="I17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s">
         <v>82</v>
       </c>
-      <c r="J17" t="s">
-        <v>83</v>
-      </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:49">
@@ -3311,148 +3311,148 @@
         <v>98</v>
       </c>
       <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
         <v>88</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
       <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
         <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>81</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
       </c>
       <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
         <v>82</v>
       </c>
-      <c r="J18" t="s">
-        <v>83</v>
-      </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:49">
@@ -3472,136 +3472,136 @@
         <v>103</v>
       </c>
       <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
         <v>68</v>
-      </c>
-      <c r="G19" t="s">
-        <v>69</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
       </c>
       <c r="I19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" t="s">
         <v>70</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>71</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>72</v>
       </c>
-      <c r="L19" t="s">
-        <v>73</v>
-      </c>
       <c r="M19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:49">
@@ -3621,136 +3621,136 @@
         <v>103</v>
       </c>
       <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
         <v>68</v>
-      </c>
-      <c r="G20" t="s">
-        <v>69</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
       </c>
       <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
         <v>70</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>71</v>
       </c>
-      <c r="K20" t="s">
-        <v>72</v>
-      </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:49">
@@ -3770,136 +3770,136 @@
         <v>103</v>
       </c>
       <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
         <v>68</v>
-      </c>
-      <c r="G21" t="s">
-        <v>69</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
       </c>
       <c r="I21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" t="s">
         <v>70</v>
       </c>
-      <c r="J21" t="s">
-        <v>71</v>
-      </c>
       <c r="K21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:49">
@@ -3919,136 +3919,136 @@
         <v>103</v>
       </c>
       <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
         <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
       </c>
       <c r="I22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" t="s">
         <v>70</v>
       </c>
-      <c r="J22" t="s">
-        <v>71</v>
-      </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:49">
@@ -4068,136 +4068,136 @@
         <v>103</v>
       </c>
       <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
         <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>81</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
       </c>
       <c r="I23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" t="s">
         <v>82</v>
       </c>
-      <c r="J23" t="s">
-        <v>83</v>
-      </c>
       <c r="K23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" t="s">
         <v>72</v>
       </c>
-      <c r="L23" t="s">
-        <v>73</v>
-      </c>
       <c r="M23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:49">
@@ -4217,136 +4217,136 @@
         <v>103</v>
       </c>
       <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
         <v>80</v>
-      </c>
-      <c r="G24" t="s">
-        <v>81</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
       </c>
       <c r="I24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" t="s">
         <v>82</v>
       </c>
-      <c r="J24" t="s">
-        <v>83</v>
-      </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:49">
@@ -4366,136 +4366,136 @@
         <v>103</v>
       </c>
       <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
         <v>80</v>
-      </c>
-      <c r="G25" t="s">
-        <v>81</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
       </c>
       <c r="I25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" t="s">
         <v>82</v>
       </c>
-      <c r="J25" t="s">
-        <v>83</v>
-      </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:49">
@@ -4515,136 +4515,136 @@
         <v>103</v>
       </c>
       <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
         <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>81</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
       </c>
       <c r="I26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" t="s">
         <v>82</v>
       </c>
-      <c r="J26" t="s">
-        <v>83</v>
-      </c>
       <c r="K26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:49">
@@ -4664,136 +4664,136 @@
         <v>115</v>
       </c>
       <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
         <v>68</v>
-      </c>
-      <c r="G27" t="s">
-        <v>69</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
       </c>
       <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" t="s">
         <v>70</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>71</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>72</v>
       </c>
-      <c r="L27" t="s">
-        <v>73</v>
-      </c>
       <c r="M27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:49">
@@ -4813,136 +4813,136 @@
         <v>115</v>
       </c>
       <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
         <v>68</v>
-      </c>
-      <c r="G28" t="s">
-        <v>69</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
       </c>
       <c r="I28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" t="s">
         <v>70</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>71</v>
       </c>
-      <c r="K28" t="s">
-        <v>72</v>
-      </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:49">
@@ -4962,136 +4962,136 @@
         <v>115</v>
       </c>
       <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
         <v>68</v>
-      </c>
-      <c r="G29" t="s">
-        <v>69</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
       </c>
       <c r="I29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" t="s">
         <v>70</v>
       </c>
-      <c r="J29" t="s">
-        <v>71</v>
-      </c>
       <c r="K29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:49">
@@ -5111,136 +5111,136 @@
         <v>115</v>
       </c>
       <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
         <v>68</v>
-      </c>
-      <c r="G30" t="s">
-        <v>69</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
       </c>
       <c r="I30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" t="s">
         <v>70</v>
       </c>
-      <c r="J30" t="s">
-        <v>71</v>
-      </c>
       <c r="K30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:49">
@@ -5260,136 +5260,136 @@
         <v>115</v>
       </c>
       <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
         <v>80</v>
-      </c>
-      <c r="G31" t="s">
-        <v>81</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
       </c>
       <c r="I31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" t="s">
         <v>82</v>
       </c>
-      <c r="J31" t="s">
-        <v>83</v>
-      </c>
       <c r="K31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" t="s">
         <v>72</v>
       </c>
-      <c r="L31" t="s">
-        <v>73</v>
-      </c>
       <c r="M31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:49">
@@ -5409,136 +5409,136 @@
         <v>115</v>
       </c>
       <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s">
         <v>80</v>
-      </c>
-      <c r="G32" t="s">
-        <v>81</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
       </c>
       <c r="I32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" t="s">
         <v>82</v>
       </c>
-      <c r="J32" t="s">
-        <v>83</v>
-      </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:49">
@@ -5558,136 +5558,136 @@
         <v>115</v>
       </c>
       <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s">
         <v>80</v>
-      </c>
-      <c r="G33" t="s">
-        <v>81</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
       </c>
       <c r="I33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" t="s">
         <v>82</v>
       </c>
-      <c r="J33" t="s">
-        <v>83</v>
-      </c>
       <c r="K33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:49">
@@ -5707,136 +5707,136 @@
         <v>115</v>
       </c>
       <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s">
         <v>80</v>
-      </c>
-      <c r="G34" t="s">
-        <v>81</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
       </c>
       <c r="I34" t="s">
+        <v>81</v>
+      </c>
+      <c r="J34" t="s">
         <v>82</v>
       </c>
-      <c r="J34" t="s">
-        <v>83</v>
-      </c>
       <c r="K34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:49" s="1" customFormat="1">
@@ -5993,115 +5993,115 @@
         <v>123</v>
       </c>
       <c r="M36" s="1">
-        <v>50.4422</v>
+        <v>52.4859</v>
       </c>
       <c r="N36" s="1">
-        <v>4.16334</v>
+        <v>4.88218</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P36" s="1">
-        <v>40.3722</v>
+        <v>71.20140000000001</v>
       </c>
       <c r="Q36" s="1">
-        <v>50.4451</v>
+        <v>52.4832</v>
       </c>
       <c r="R36" s="1">
-        <v>99.99720000000001</v>
+        <v>99.995</v>
       </c>
       <c r="S36" s="1">
-        <v>39.923</v>
+        <v>68.7158</v>
       </c>
       <c r="T36" s="1">
-        <v>40.3722</v>
+        <v>71.20140000000001</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z36" s="1">
-        <v>3.93689</v>
+        <v>4.64263</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF36" s="1">
-        <v>4.16334</v>
+        <v>4.88218</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.697497</v>
+        <v>0.700148</v>
       </c>
       <c r="AH36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:49" s="1" customFormat="1">
@@ -6109,115 +6109,115 @@
         <v>124</v>
       </c>
       <c r="M37" s="1">
-        <v>51.0112</v>
+        <v>52.4859</v>
       </c>
       <c r="N37" s="1">
-        <v>5.03983</v>
+        <v>4.88218</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P37" s="1">
-        <v>79.93220000000001</v>
+        <v>71.20140000000001</v>
       </c>
       <c r="Q37" s="1">
-        <v>51.0119</v>
+        <v>52.4832</v>
       </c>
       <c r="R37" s="1">
-        <v>100.006</v>
+        <v>99.995</v>
       </c>
       <c r="S37" s="1">
-        <v>78.92529999999999</v>
+        <v>68.7158</v>
       </c>
       <c r="T37" s="1">
-        <v>79.93220000000001</v>
+        <v>71.20140000000001</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z37" s="1">
-        <v>4.81964</v>
+        <v>4.64263</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF37" s="1">
-        <v>5.03983</v>
+        <v>4.88218</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.832131</v>
+        <v>0.700148</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:49" s="1" customFormat="1">
@@ -6260,115 +6260,115 @@
         <v>129</v>
       </c>
       <c r="M42" s="1">
-        <v>50.77206666666667</v>
+        <v>52.4859</v>
       </c>
       <c r="N42" s="1">
-        <v>4.591496666666667</v>
+        <v>4.88218</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P42" s="1">
-        <v>57.3346</v>
+        <v>71.20140000000001</v>
       </c>
       <c r="Q42" s="1">
-        <v>50.7728</v>
+        <v>52.4832</v>
       </c>
       <c r="R42" s="1">
-        <v>100.0014</v>
+        <v>99.995</v>
       </c>
       <c r="S42" s="1">
-        <v>56.55996666666667</v>
+        <v>68.7158</v>
       </c>
       <c r="T42" s="1">
-        <v>57.3346</v>
+        <v>71.20140000000001</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z42" s="1">
-        <v>4.344063333333334</v>
+        <v>4.64263</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF42" s="1">
-        <v>4.591496666666667</v>
+        <v>4.88218</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7656583333333332</v>
+        <v>0.700148</v>
       </c>
       <c r="AH42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:49" s="1" customFormat="1">
@@ -6376,115 +6376,115 @@
         <v>130</v>
       </c>
       <c r="M43" s="1">
-        <v>0.2409905300121895</v>
+        <v>0</v>
       </c>
       <c r="N43" s="1">
-        <v>0.3581098559877341</v>
+        <v>0</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P43" s="1">
-        <v>16.63460267594831</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>0.2397262744604054</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>0.003603701800461273</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1">
-        <v>16.42975937789581</v>
+        <v>0</v>
       </c>
       <c r="T43" s="1">
-        <v>16.63460267594831</v>
+        <v>0</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z43" s="1">
-        <v>0.3636125709536943</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF43" s="1">
-        <v>0.3581098559877341</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.05497706907025467</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:49" s="1" customFormat="1">
@@ -6492,115 +6492,115 @@
         <v>131</v>
       </c>
       <c r="M44" s="1">
-        <v>0.474651803312168</v>
+        <v>0</v>
       </c>
       <c r="N44" s="1">
-        <v>7.799414482592113</v>
+        <v>0</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P44" s="1">
-        <v>29.0132008873321</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>0.4721549224395846</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1">
-        <v>0.003603651349342382</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1">
-        <v>29.04838942838099</v>
+        <v>0</v>
       </c>
       <c r="T44" s="1">
-        <v>29.0132008873321</v>
+        <v>0</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z44" s="1">
-        <v>8.370333097208395</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF44" s="1">
-        <v>7.799414482592113</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="1">
-        <v>7.180365794610913</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AQ44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:49" s="1" customFormat="1"/>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="131">
   <si>
     <t>Process</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>tsmc2p (13)</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>tsmc2p (14)</t>
@@ -2897,120 +2894,120 @@
         <v>72</v>
       </c>
       <c r="M15">
-        <v>52.4859</v>
+        <v>52.4853</v>
       </c>
       <c r="N15">
-        <v>4.88218</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>95</v>
+        <v>4.88161</v>
+      </c>
+      <c r="O15">
+        <v>18.5907</v>
       </c>
       <c r="P15">
-        <v>71.20140000000001</v>
+        <v>70.8253</v>
       </c>
       <c r="Q15">
-        <v>52.4832</v>
+        <v>52.4845</v>
       </c>
       <c r="R15">
-        <v>99.995</v>
+        <v>99.9984</v>
       </c>
       <c r="S15">
-        <v>68.7158</v>
+        <v>68.3355</v>
       </c>
       <c r="T15">
-        <v>71.20140000000001</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>95</v>
+        <v>70.8253</v>
+      </c>
+      <c r="U15">
+        <v>18.2921</v>
+      </c>
+      <c r="V15">
+        <v>17.3425</v>
+      </c>
+      <c r="W15">
+        <v>12.7185</v>
+      </c>
+      <c r="X15">
+        <v>17.9795</v>
+      </c>
+      <c r="Y15">
+        <v>17.9795</v>
       </c>
       <c r="Z15">
-        <v>4.64263</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>95</v>
+        <v>4.64228</v>
+      </c>
+      <c r="AA15">
+        <v>18.5907</v>
+      </c>
+      <c r="AB15">
+        <v>17.5591</v>
+      </c>
+      <c r="AC15">
+        <v>12.7772</v>
+      </c>
+      <c r="AD15">
+        <v>18.1074</v>
+      </c>
+      <c r="AE15">
+        <v>18.1074</v>
       </c>
       <c r="AF15">
-        <v>4.88218</v>
+        <v>4.88161</v>
       </c>
       <c r="AG15">
-        <v>0.700148</v>
-      </c>
-      <c r="AH15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW15" s="2" t="s">
-        <v>95</v>
+        <v>0.700052</v>
+      </c>
+      <c r="AH15">
+        <v>1.37261</v>
+      </c>
+      <c r="AI15">
+        <v>0.0204489</v>
+      </c>
+      <c r="AJ15">
+        <v>0.124872</v>
+      </c>
+      <c r="AK15">
+        <v>0.132244</v>
+      </c>
+      <c r="AL15">
+        <v>0.08742979999999999</v>
+      </c>
+      <c r="AM15">
+        <v>0.177183</v>
+      </c>
+      <c r="AN15">
+        <v>882.629</v>
+      </c>
+      <c r="AO15">
+        <v>846.404</v>
+      </c>
+      <c r="AP15">
+        <v>907.987</v>
+      </c>
+      <c r="AQ15">
+        <v>769.8579999999999</v>
+      </c>
+      <c r="AR15">
+        <v>831.998</v>
+      </c>
+      <c r="AS15">
+        <v>732.274</v>
+      </c>
+      <c r="AT15">
+        <v>796.724</v>
+      </c>
+      <c r="AU15">
+        <v>757.6080000000001</v>
+      </c>
+      <c r="AV15">
+        <v>820.432</v>
+      </c>
+      <c r="AW15">
+        <v>779.395</v>
       </c>
     </row>
     <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -3159,7 +3156,7 @@
     </row>
     <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -3308,7 +3305,7 @@
     </row>
     <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -3457,19 +3454,19 @@
     </row>
     <row r="19" spans="1:49">
       <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
         <v>99</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>100</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>101</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>102</v>
-      </c>
-      <c r="E19" t="s">
-        <v>103</v>
       </c>
       <c r="F19" t="s">
         <v>67</v>
@@ -3606,19 +3603,19 @@
     </row>
     <row r="20" spans="1:49">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
         <v>100</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>101</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>103</v>
       </c>
       <c r="F20" t="s">
         <v>67</v>
@@ -3755,19 +3752,19 @@
     </row>
     <row r="21" spans="1:49">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>101</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>102</v>
-      </c>
-      <c r="E21" t="s">
-        <v>103</v>
       </c>
       <c r="F21" t="s">
         <v>67</v>
@@ -3904,19 +3901,19 @@
     </row>
     <row r="22" spans="1:49">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>101</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>102</v>
-      </c>
-      <c r="E22" t="s">
-        <v>103</v>
       </c>
       <c r="F22" t="s">
         <v>67</v>
@@ -4053,19 +4050,19 @@
     </row>
     <row r="23" spans="1:49">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
         <v>100</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>101</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>102</v>
-      </c>
-      <c r="E23" t="s">
-        <v>103</v>
       </c>
       <c r="F23" t="s">
         <v>79</v>
@@ -4202,19 +4199,19 @@
     </row>
     <row r="24" spans="1:49">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>101</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>102</v>
-      </c>
-      <c r="E24" t="s">
-        <v>103</v>
       </c>
       <c r="F24" t="s">
         <v>79</v>
@@ -4351,19 +4348,19 @@
     </row>
     <row r="25" spans="1:49">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
         <v>100</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>101</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
       </c>
       <c r="F25" t="s">
         <v>79</v>
@@ -4500,19 +4497,19 @@
     </row>
     <row r="26" spans="1:49">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>103</v>
       </c>
       <c r="F26" t="s">
         <v>79</v>
@@ -4649,19 +4646,19 @@
     </row>
     <row r="27" spans="1:49">
       <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
         <v>111</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>113</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>114</v>
-      </c>
-      <c r="E27" t="s">
-        <v>115</v>
       </c>
       <c r="F27" t="s">
         <v>67</v>
@@ -4798,19 +4795,19 @@
     </row>
     <row r="28" spans="1:49">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
         <v>112</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>113</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>115</v>
       </c>
       <c r="F28" t="s">
         <v>67</v>
@@ -4947,19 +4944,19 @@
     </row>
     <row r="29" spans="1:49">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
         <v>112</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>113</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>114</v>
-      </c>
-      <c r="E29" t="s">
-        <v>115</v>
       </c>
       <c r="F29" t="s">
         <v>67</v>
@@ -5096,19 +5093,19 @@
     </row>
     <row r="30" spans="1:49">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
         <v>112</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>113</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>114</v>
-      </c>
-      <c r="E30" t="s">
-        <v>115</v>
       </c>
       <c r="F30" t="s">
         <v>67</v>
@@ -5245,19 +5242,19 @@
     </row>
     <row r="31" spans="1:49">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
         <v>112</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>113</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>114</v>
-      </c>
-      <c r="E31" t="s">
-        <v>115</v>
       </c>
       <c r="F31" t="s">
         <v>79</v>
@@ -5394,19 +5391,19 @@
     </row>
     <row r="32" spans="1:49">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
         <v>112</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>113</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>114</v>
-      </c>
-      <c r="E32" t="s">
-        <v>115</v>
       </c>
       <c r="F32" t="s">
         <v>79</v>
@@ -5543,19 +5540,19 @@
     </row>
     <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
         <v>112</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>113</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>114</v>
-      </c>
-      <c r="E33" t="s">
-        <v>115</v>
       </c>
       <c r="F33" t="s">
         <v>79</v>
@@ -5692,19 +5689,19 @@
     </row>
     <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
         <v>112</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>113</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>114</v>
-      </c>
-      <c r="E34" t="s">
-        <v>115</v>
       </c>
       <c r="F34" t="s">
         <v>79</v>
@@ -5990,249 +5987,249 @@
     </row>
     <row r="36" spans="1:49" s="1" customFormat="1">
       <c r="L36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M36" s="1">
-        <v>52.4859</v>
+        <v>52.4853</v>
       </c>
       <c r="N36" s="1">
-        <v>4.88218</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>61</v>
+        <v>4.88161</v>
+      </c>
+      <c r="O36" s="1">
+        <v>18.5907</v>
       </c>
       <c r="P36" s="1">
-        <v>71.20140000000001</v>
+        <v>70.8253</v>
       </c>
       <c r="Q36" s="1">
-        <v>52.4832</v>
+        <v>52.4845</v>
       </c>
       <c r="R36" s="1">
-        <v>99.995</v>
+        <v>99.9984</v>
       </c>
       <c r="S36" s="1">
-        <v>68.7158</v>
+        <v>68.3355</v>
       </c>
       <c r="T36" s="1">
-        <v>71.20140000000001</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>61</v>
+        <v>70.8253</v>
+      </c>
+      <c r="U36" s="1">
+        <v>18.2921</v>
+      </c>
+      <c r="V36" s="1">
+        <v>17.3425</v>
+      </c>
+      <c r="W36" s="1">
+        <v>12.7185</v>
+      </c>
+      <c r="X36" s="1">
+        <v>17.9795</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>17.9795</v>
       </c>
       <c r="Z36" s="1">
-        <v>4.64263</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE36" s="1" t="s">
-        <v>61</v>
+        <v>4.64228</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>18.5907</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>17.5591</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>12.7772</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>18.1074</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>18.1074</v>
       </c>
       <c r="AF36" s="1">
-        <v>4.88218</v>
+        <v>4.88161</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.700148</v>
-      </c>
-      <c r="AH36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW36" s="1" t="s">
-        <v>61</v>
+        <v>0.700052</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>1.37261</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>0.0204489</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>0.124872</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>0.132244</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0.08742979999999999</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>0.177183</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>882.629</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>846.404</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>907.987</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>769.8579999999999</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>831.998</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>732.274</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>796.724</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>757.6080000000001</v>
+      </c>
+      <c r="AV36" s="1">
+        <v>820.432</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>779.395</v>
       </c>
     </row>
     <row r="37" spans="1:49" s="1" customFormat="1">
       <c r="L37" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M37" s="1">
-        <v>52.4859</v>
+        <v>52.4853</v>
       </c>
       <c r="N37" s="1">
-        <v>4.88218</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>61</v>
+        <v>4.88161</v>
+      </c>
+      <c r="O37" s="1">
+        <v>18.5907</v>
       </c>
       <c r="P37" s="1">
-        <v>71.20140000000001</v>
+        <v>70.8253</v>
       </c>
       <c r="Q37" s="1">
-        <v>52.4832</v>
+        <v>52.4845</v>
       </c>
       <c r="R37" s="1">
-        <v>99.995</v>
+        <v>99.9984</v>
       </c>
       <c r="S37" s="1">
-        <v>68.7158</v>
+        <v>68.3355</v>
       </c>
       <c r="T37" s="1">
-        <v>71.20140000000001</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>61</v>
+        <v>70.8253</v>
+      </c>
+      <c r="U37" s="1">
+        <v>18.2921</v>
+      </c>
+      <c r="V37" s="1">
+        <v>17.3425</v>
+      </c>
+      <c r="W37" s="1">
+        <v>12.7185</v>
+      </c>
+      <c r="X37" s="1">
+        <v>17.9795</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>17.9795</v>
       </c>
       <c r="Z37" s="1">
-        <v>4.64263</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE37" s="1" t="s">
-        <v>61</v>
+        <v>4.64228</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>18.5907</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>17.5591</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>12.7772</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>18.1074</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>18.1074</v>
       </c>
       <c r="AF37" s="1">
-        <v>4.88218</v>
+        <v>4.88161</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.700148</v>
-      </c>
-      <c r="AH37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW37" s="1" t="s">
-        <v>61</v>
+        <v>0.700052</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>1.37261</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>0.0204489</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>0.124872</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>0.132244</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0.08742979999999999</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>0.177183</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>882.629</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>846.404</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>907.987</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>769.8579999999999</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>831.998</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>732.274</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>796.724</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>757.6080000000001</v>
+      </c>
+      <c r="AV37" s="1">
+        <v>820.432</v>
+      </c>
+      <c r="AW37" s="1">
+        <v>779.395</v>
       </c>
     </row>
     <row r="38" spans="1:49" s="1" customFormat="1">
       <c r="L38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:49" s="1" customFormat="1">
       <c r="L39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:49" s="1" customFormat="1">
       <c r="L40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M40" s="1">
         <v>53</v>
@@ -6249,7 +6246,7 @@
     </row>
     <row r="41" spans="1:49" s="1" customFormat="1">
       <c r="L41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M41" s="1">
         <v>47</v>
@@ -6257,123 +6254,123 @@
     </row>
     <row r="42" spans="1:49" s="1" customFormat="1">
       <c r="L42" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M42" s="1">
-        <v>52.4859</v>
+        <v>52.4853</v>
       </c>
       <c r="N42" s="1">
-        <v>4.88218</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>61</v>
+        <v>4.88161</v>
+      </c>
+      <c r="O42" s="1">
+        <v>18.5907</v>
       </c>
       <c r="P42" s="1">
-        <v>71.20140000000001</v>
+        <v>70.8253</v>
       </c>
       <c r="Q42" s="1">
-        <v>52.4832</v>
+        <v>52.4845</v>
       </c>
       <c r="R42" s="1">
-        <v>99.995</v>
+        <v>99.9984</v>
       </c>
       <c r="S42" s="1">
-        <v>68.7158</v>
+        <v>68.3355</v>
       </c>
       <c r="T42" s="1">
-        <v>71.20140000000001</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y42" s="1" t="s">
-        <v>61</v>
+        <v>70.8253</v>
+      </c>
+      <c r="U42" s="1">
+        <v>18.2921</v>
+      </c>
+      <c r="V42" s="1">
+        <v>17.3425</v>
+      </c>
+      <c r="W42" s="1">
+        <v>12.7185</v>
+      </c>
+      <c r="X42" s="1">
+        <v>17.9795</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>17.9795</v>
       </c>
       <c r="Z42" s="1">
-        <v>4.64263</v>
-      </c>
-      <c r="AA42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE42" s="1" t="s">
-        <v>61</v>
+        <v>4.64228</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>18.5907</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>17.5591</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>12.7772</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>18.1074</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>18.1074</v>
       </c>
       <c r="AF42" s="1">
-        <v>4.88218</v>
+        <v>4.88161</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.700148</v>
-      </c>
-      <c r="AH42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW42" s="1" t="s">
-        <v>61</v>
+        <v>0.700052</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>1.37261</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>0.0204489</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>0.124872</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>0.132244</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0.08742979999999999</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>0.177183</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>882.629</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>846.404</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>907.987</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>769.8579999999999</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>831.998</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>732.274</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>796.724</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>757.6080000000001</v>
+      </c>
+      <c r="AV42" s="1">
+        <v>820.432</v>
+      </c>
+      <c r="AW42" s="1">
+        <v>779.395</v>
       </c>
     </row>
     <row r="43" spans="1:49" s="1" customFormat="1">
       <c r="L43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6381,8 +6378,8 @@
       <c r="N43" s="1">
         <v>0</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>61</v>
+      <c r="O43" s="1">
+        <v>0</v>
       </c>
       <c r="P43" s="1">
         <v>0</v>
@@ -6399,38 +6396,38 @@
       <c r="T43" s="1">
         <v>0</v>
       </c>
-      <c r="U43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y43" s="1" t="s">
-        <v>61</v>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
       </c>
       <c r="Z43" s="1">
         <v>0</v>
       </c>
-      <c r="AA43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE43" s="1" t="s">
-        <v>61</v>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0</v>
       </c>
       <c r="AF43" s="1">
         <v>0</v>
@@ -6438,58 +6435,58 @@
       <c r="AG43" s="1">
         <v>0</v>
       </c>
-      <c r="AH43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW43" s="1" t="s">
-        <v>61</v>
+      <c r="AH43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:49" s="1" customFormat="1">
       <c r="L44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6497,8 +6494,8 @@
       <c r="N44" s="1">
         <v>0</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>61</v>
+      <c r="O44" s="1">
+        <v>0</v>
       </c>
       <c r="P44" s="1">
         <v>0</v>
@@ -6515,38 +6512,38 @@
       <c r="T44" s="1">
         <v>0</v>
       </c>
-      <c r="U44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>61</v>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
       </c>
       <c r="Z44" s="1">
         <v>0</v>
       </c>
-      <c r="AA44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE44" s="1" t="s">
-        <v>61</v>
+      <c r="AA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>0</v>
       </c>
       <c r="AF44" s="1">
         <v>0</v>
@@ -6554,53 +6551,53 @@
       <c r="AG44" s="1">
         <v>0</v>
       </c>
-      <c r="AH44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW44" s="1" t="s">
-        <v>61</v>
+      <c r="AH44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:49" s="1" customFormat="1"/>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="132">
   <si>
     <t>Process</t>
   </si>
@@ -199,190 +199,193 @@
     <t>0.750</t>
   </si>
   <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>tsmc2p (1)</t>
+  </si>
+  <si>
+    <t>mos_ff</t>
+  </si>
+  <si>
+    <t>moslvt_ff</t>
+  </si>
+  <si>
+    <t>mosulvt_ff</t>
+  </si>
+  <si>
+    <t>moselvt_ff</t>
+  </si>
+  <si>
+    <t>res_l</t>
+  </si>
+  <si>
+    <t>cap_l</t>
+  </si>
+  <si>
+    <t>beol_rcbest</t>
+  </si>
+  <si>
+    <t>rcbest_ccbest</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>tsmc2p (2)</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>tsmc2p (3)</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>tsmc2p (4)</t>
+  </si>
+  <si>
+    <t>tsmc2p (5)</t>
+  </si>
+  <si>
+    <t>res_h</t>
+  </si>
+  <si>
+    <t>cap_h</t>
+  </si>
+  <si>
+    <t>beol_rcworst</t>
+  </si>
+  <si>
+    <t>rcworst_ccworst</t>
+  </si>
+  <si>
+    <t>tsmc2p (6)</t>
+  </si>
+  <si>
+    <t>tsmc2p (7)</t>
+  </si>
+  <si>
+    <t>tsmc2p (8)</t>
+  </si>
+  <si>
+    <t>tsmc2p (9)</t>
+  </si>
+  <si>
+    <t>mos_ss</t>
+  </si>
+  <si>
+    <t>moslvt_ss</t>
+  </si>
+  <si>
+    <t>mosulvt_ss</t>
+  </si>
+  <si>
+    <t>moselvt_ss</t>
+  </si>
+  <si>
+    <t>tsmc2p (10)</t>
+  </si>
+  <si>
+    <t>tsmc2p (11)</t>
+  </si>
+  <si>
+    <t>tsmc2p (12)</t>
+  </si>
+  <si>
+    <t>tsmc2p (13)</t>
+  </si>
+  <si>
+    <t>tsmc2p (14)</t>
+  </si>
+  <si>
+    <t>tsmc2p (15)</t>
+  </si>
+  <si>
+    <t>tsmc2p (16)</t>
+  </si>
+  <si>
+    <t>tsmc2p (17)</t>
+  </si>
+  <si>
+    <t>mos_fs</t>
+  </si>
+  <si>
+    <t>moslvt_fs</t>
+  </si>
+  <si>
+    <t>mosulvt_fs</t>
+  </si>
+  <si>
+    <t>moselvt_fs</t>
+  </si>
+  <si>
+    <t>tsmc2p (18)</t>
+  </si>
+  <si>
+    <t>tsmc2p (19)</t>
+  </si>
+  <si>
+    <t>tsmc2p (20)</t>
+  </si>
+  <si>
+    <t>tsmc2p (21)</t>
+  </si>
+  <si>
+    <t>tsmc2p (22)</t>
+  </si>
+  <si>
+    <t>tsmc2p (23)</t>
+  </si>
+  <si>
+    <t>tsmc2p (24)</t>
+  </si>
+  <si>
+    <t>tsmc2p (25)</t>
+  </si>
+  <si>
+    <t>mos_sf</t>
+  </si>
+  <si>
+    <t>moslvt_sf</t>
+  </si>
+  <si>
+    <t>mosulvt_sf</t>
+  </si>
+  <si>
+    <t>moselvt_sf</t>
+  </si>
+  <si>
+    <t>tsmc2p (26)</t>
+  </si>
+  <si>
+    <t>tsmc2p (27)</t>
+  </si>
+  <si>
+    <t>tsmc2p (28)</t>
+  </si>
+  <si>
+    <t>tsmc2p (29)</t>
+  </si>
+  <si>
+    <t>tsmc2p (30)</t>
+  </si>
+  <si>
+    <t>tsmc2p (31)</t>
+  </si>
+  <si>
+    <t>tsmc2p (32)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>tsmc2p (1)</t>
-  </si>
-  <si>
-    <t>mos_ff</t>
-  </si>
-  <si>
-    <t>moslvt_ff</t>
-  </si>
-  <si>
-    <t>mosulvt_ff</t>
-  </si>
-  <si>
-    <t>moselvt_ff</t>
-  </si>
-  <si>
-    <t>res_l</t>
-  </si>
-  <si>
-    <t>cap_l</t>
-  </si>
-  <si>
-    <t>beol_rcbest</t>
-  </si>
-  <si>
-    <t>rcbest_ccbest</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>tsmc2p (2)</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>tsmc2p (3)</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>tsmc2p (4)</t>
-  </si>
-  <si>
-    <t>tsmc2p (5)</t>
-  </si>
-  <si>
-    <t>res_h</t>
-  </si>
-  <si>
-    <t>cap_h</t>
-  </si>
-  <si>
-    <t>beol_rcworst</t>
-  </si>
-  <si>
-    <t>rcworst_ccworst</t>
-  </si>
-  <si>
-    <t>tsmc2p (6)</t>
-  </si>
-  <si>
-    <t>tsmc2p (7)</t>
-  </si>
-  <si>
-    <t>tsmc2p (8)</t>
-  </si>
-  <si>
-    <t>tsmc2p (9)</t>
-  </si>
-  <si>
-    <t>mos_ss</t>
-  </si>
-  <si>
-    <t>moslvt_ss</t>
-  </si>
-  <si>
-    <t>mosulvt_ss</t>
-  </si>
-  <si>
-    <t>moselvt_ss</t>
-  </si>
-  <si>
-    <t>tsmc2p (10)</t>
-  </si>
-  <si>
-    <t>tsmc2p (11)</t>
-  </si>
-  <si>
-    <t>tsmc2p (12)</t>
-  </si>
-  <si>
-    <t>tsmc2p (13)</t>
-  </si>
-  <si>
-    <t>tsmc2p (14)</t>
-  </si>
-  <si>
-    <t>tsmc2p (15)</t>
-  </si>
-  <si>
-    <t>tsmc2p (16)</t>
-  </si>
-  <si>
-    <t>tsmc2p (17)</t>
-  </si>
-  <si>
-    <t>mos_fs</t>
-  </si>
-  <si>
-    <t>moslvt_fs</t>
-  </si>
-  <si>
-    <t>mosulvt_fs</t>
-  </si>
-  <si>
-    <t>moselvt_fs</t>
-  </si>
-  <si>
-    <t>tsmc2p (18)</t>
-  </si>
-  <si>
-    <t>tsmc2p (19)</t>
-  </si>
-  <si>
-    <t>tsmc2p (20)</t>
-  </si>
-  <si>
-    <t>tsmc2p (21)</t>
-  </si>
-  <si>
-    <t>tsmc2p (22)</t>
-  </si>
-  <si>
-    <t>tsmc2p (23)</t>
-  </si>
-  <si>
-    <t>tsmc2p (24)</t>
-  </si>
-  <si>
-    <t>tsmc2p (25)</t>
-  </si>
-  <si>
-    <t>mos_sf</t>
-  </si>
-  <si>
-    <t>moslvt_sf</t>
-  </si>
-  <si>
-    <t>mosulvt_sf</t>
-  </si>
-  <si>
-    <t>moselvt_sf</t>
-  </si>
-  <si>
-    <t>tsmc2p (26)</t>
-  </si>
-  <si>
-    <t>tsmc2p (27)</t>
-  </si>
-  <si>
-    <t>tsmc2p (28)</t>
-  </si>
-  <si>
-    <t>tsmc2p (29)</t>
-  </si>
-  <si>
-    <t>tsmc2p (30)</t>
-  </si>
-  <si>
-    <t>tsmc2p (31)</t>
-  </si>
-  <si>
-    <t>tsmc2p (32)</t>
-  </si>
-  <si>
-    <t>Min</t>
   </si>
   <si>
     <t>Max</t>
@@ -437,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,12 +450,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +466,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,8 +965,8 @@
       <c r="N2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>61</v>
+      <c r="O2">
+        <v>15.3548</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>61</v>
@@ -987,38 +983,38 @@
       <c r="T2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>61</v>
+      <c r="U2">
+        <v>15.3548</v>
+      </c>
+      <c r="V2">
+        <v>12.5434</v>
+      </c>
+      <c r="W2">
+        <v>12.7729</v>
+      </c>
+      <c r="X2">
+        <v>12.2975</v>
+      </c>
+      <c r="Y2">
+        <v>12.2975</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>61</v>
+      <c r="AA2">
+        <v>15.1841</v>
+      </c>
+      <c r="AB2">
+        <v>11.6282</v>
+      </c>
+      <c r="AC2">
+        <v>12.0703</v>
+      </c>
+      <c r="AD2">
+        <v>12.8351</v>
+      </c>
+      <c r="AE2">
+        <v>12.8351</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>61</v>
@@ -1026,53 +1022,53 @@
       <c r="AG2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>61</v>
+      <c r="AH2">
+        <v>1.56857</v>
+      </c>
+      <c r="AI2">
+        <v>0.108487</v>
+      </c>
+      <c r="AJ2">
+        <v>0.0603019</v>
+      </c>
+      <c r="AK2">
+        <v>0.0614506</v>
+      </c>
+      <c r="AL2">
+        <v>0.0637258</v>
+      </c>
+      <c r="AM2">
+        <v>0.210076</v>
+      </c>
+      <c r="AN2">
+        <v>877.721</v>
+      </c>
+      <c r="AO2">
+        <v>836.215</v>
+      </c>
+      <c r="AP2">
+        <v>894.6310000000001</v>
+      </c>
+      <c r="AQ2">
+        <v>752.274</v>
+      </c>
+      <c r="AR2">
+        <v>810.6129999999999</v>
+      </c>
+      <c r="AS2">
+        <v>727.389</v>
+      </c>
+      <c r="AT2">
+        <v>785.8779999999999</v>
+      </c>
+      <c r="AU2">
+        <v>744.414</v>
+      </c>
+      <c r="AV2">
+        <v>802.9540000000001</v>
+      </c>
+      <c r="AW2">
+        <v>758.596</v>
       </c>
     </row>
     <row r="3" spans="1:49">
@@ -1112,29 +1108,29 @@
       <c r="L3" t="s">
         <v>72</v>
       </c>
-      <c r="M3">
-        <v>52.1221</v>
-      </c>
-      <c r="N3">
-        <v>3.76549</v>
+      <c r="M3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O3">
         <v>14.3641</v>
       </c>
-      <c r="P3">
-        <v>42.6586</v>
-      </c>
-      <c r="Q3">
-        <v>52.1206</v>
-      </c>
-      <c r="R3">
-        <v>99.99720000000001</v>
-      </c>
-      <c r="S3">
-        <v>40.53590000000001</v>
-      </c>
-      <c r="T3">
-        <v>42.6586</v>
+      <c r="P3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U3">
         <v>14.3641</v>
@@ -1151,8 +1147,8 @@
       <c r="Y3">
         <v>10.5791</v>
       </c>
-      <c r="Z3">
-        <v>3.55019</v>
+      <c r="Z3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA3">
         <v>14.1074</v>
@@ -1169,11 +1165,11 @@
       <c r="AE3">
         <v>10.9406</v>
       </c>
-      <c r="AF3">
-        <v>3.76549</v>
-      </c>
-      <c r="AG3">
-        <v>0.694997</v>
+      <c r="AF3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH3">
         <v>1.44851</v>
@@ -1267,8 +1263,8 @@
       <c r="N4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>61</v>
+      <c r="O4">
+        <v>13.5432</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>61</v>
@@ -1285,38 +1281,38 @@
       <c r="T4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>61</v>
+      <c r="U4">
+        <v>13.5432</v>
+      </c>
+      <c r="V4">
+        <v>9.447859999999999</v>
+      </c>
+      <c r="W4">
+        <v>9.455769999999999</v>
+      </c>
+      <c r="X4">
+        <v>9.09474</v>
+      </c>
+      <c r="Y4">
+        <v>9.09474</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>61</v>
+      <c r="AA4">
+        <v>13.2721</v>
+      </c>
+      <c r="AB4">
+        <v>8.766640000000001</v>
+      </c>
+      <c r="AC4">
+        <v>8.843530000000001</v>
+      </c>
+      <c r="AD4">
+        <v>9.532349999999999</v>
+      </c>
+      <c r="AE4">
+        <v>9.532349999999999</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>61</v>
@@ -1324,53 +1320,53 @@
       <c r="AG4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AH4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>61</v>
+      <c r="AH4">
+        <v>2.00321</v>
+      </c>
+      <c r="AI4">
+        <v>0.241084</v>
+      </c>
+      <c r="AJ4">
+        <v>0.0781176</v>
+      </c>
+      <c r="AK4">
+        <v>0.0737558</v>
+      </c>
+      <c r="AL4">
+        <v>0.0756357</v>
+      </c>
+      <c r="AM4">
+        <v>0.245578</v>
+      </c>
+      <c r="AN4">
+        <v>875.159</v>
+      </c>
+      <c r="AO4">
+        <v>830.759</v>
+      </c>
+      <c r="AP4">
+        <v>887.088</v>
+      </c>
+      <c r="AQ4">
+        <v>741.957</v>
+      </c>
+      <c r="AR4">
+        <v>798.85</v>
+      </c>
+      <c r="AS4">
+        <v>724.3390000000001</v>
+      </c>
+      <c r="AT4">
+        <v>780.884</v>
+      </c>
+      <c r="AU4">
+        <v>736.389</v>
+      </c>
+      <c r="AV4">
+        <v>792.942</v>
+      </c>
+      <c r="AW4">
+        <v>746.788</v>
       </c>
     </row>
     <row r="5" spans="1:49">
@@ -1410,29 +1406,29 @@
       <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="M5">
-        <v>51.8282</v>
-      </c>
-      <c r="N5">
-        <v>4.77904</v>
+      <c r="M5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O5">
         <v>16.3925</v>
       </c>
-      <c r="P5">
-        <v>43.1063</v>
-      </c>
-      <c r="Q5">
-        <v>51.8298</v>
-      </c>
-      <c r="R5">
-        <v>100.003</v>
-      </c>
-      <c r="S5">
-        <v>41.2788</v>
-      </c>
-      <c r="T5">
-        <v>43.1063</v>
+      <c r="P5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U5">
         <v>16.3925</v>
@@ -1449,8 +1445,8 @@
       <c r="Y5">
         <v>12.3399</v>
       </c>
-      <c r="Z5">
-        <v>4.445539999999999</v>
+      <c r="Z5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA5">
         <v>16.1305</v>
@@ -1467,11 +1463,11 @@
       <c r="AE5">
         <v>13.1633</v>
       </c>
-      <c r="AF5">
-        <v>4.77904</v>
-      </c>
-      <c r="AG5">
-        <v>0.683944</v>
+      <c r="AF5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH5">
         <v>1.84456</v>
@@ -1559,29 +1555,29 @@
       <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="M6">
-        <v>51.5901</v>
-      </c>
-      <c r="N6">
-        <v>4.34192</v>
+      <c r="M6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O6">
         <v>15.5633</v>
       </c>
-      <c r="P6">
-        <v>37.2715</v>
-      </c>
-      <c r="Q6">
-        <v>51.5886</v>
-      </c>
-      <c r="R6">
-        <v>99.9971</v>
-      </c>
-      <c r="S6">
-        <v>35.68</v>
-      </c>
-      <c r="T6">
-        <v>37.2715</v>
+      <c r="P6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U6">
         <v>15.5633</v>
@@ -1598,8 +1594,8 @@
       <c r="Y6">
         <v>10.8126</v>
       </c>
-      <c r="Z6">
-        <v>4.03758</v>
+      <c r="Z6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA6">
         <v>15.3452</v>
@@ -1616,11 +1612,11 @@
       <c r="AE6">
         <v>11.5902</v>
       </c>
-      <c r="AF6">
-        <v>4.34192</v>
-      </c>
-      <c r="AG6">
-        <v>0.834174</v>
+      <c r="AF6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH6">
         <v>2.48748</v>
@@ -1708,29 +1704,29 @@
       <c r="L7" t="s">
         <v>72</v>
       </c>
-      <c r="M7">
-        <v>52.1221</v>
-      </c>
-      <c r="N7">
-        <v>3.76549</v>
+      <c r="M7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O7">
         <v>14.3641</v>
       </c>
-      <c r="P7">
-        <v>42.6586</v>
-      </c>
-      <c r="Q7">
-        <v>52.1206</v>
-      </c>
-      <c r="R7">
-        <v>99.99720000000001</v>
-      </c>
-      <c r="S7">
-        <v>40.53590000000001</v>
-      </c>
-      <c r="T7">
-        <v>42.6586</v>
+      <c r="P7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U7">
         <v>14.3641</v>
@@ -1747,8 +1743,8 @@
       <c r="Y7">
         <v>10.5791</v>
       </c>
-      <c r="Z7">
-        <v>3.55019</v>
+      <c r="Z7" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA7">
         <v>14.1074</v>
@@ -1765,11 +1761,11 @@
       <c r="AE7">
         <v>10.9406</v>
       </c>
-      <c r="AF7">
-        <v>3.76549</v>
-      </c>
-      <c r="AG7">
-        <v>0.694997</v>
+      <c r="AF7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH7">
         <v>1.44851</v>
@@ -1857,29 +1853,29 @@
       <c r="L8" t="s">
         <v>74</v>
       </c>
-      <c r="M8">
-        <v>51.7873</v>
-      </c>
-      <c r="N8">
-        <v>3.29786</v>
+      <c r="M8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O8">
         <v>13.5432</v>
       </c>
-      <c r="P8">
-        <v>35.3552</v>
-      </c>
-      <c r="Q8">
-        <v>51.7866</v>
-      </c>
-      <c r="R8">
-        <v>99.9986</v>
-      </c>
-      <c r="S8">
-        <v>33.5673</v>
-      </c>
-      <c r="T8">
-        <v>35.3552</v>
+      <c r="P8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U8">
         <v>13.5432</v>
@@ -1896,8 +1892,8 @@
       <c r="Y8">
         <v>9.09474</v>
       </c>
-      <c r="Z8">
-        <v>3.1125</v>
+      <c r="Z8" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA8">
         <v>13.2721</v>
@@ -1914,11 +1910,11 @@
       <c r="AE8">
         <v>9.532349999999999</v>
       </c>
-      <c r="AF8">
-        <v>3.29786</v>
-      </c>
-      <c r="AG8">
-        <v>0.8460299999999999</v>
+      <c r="AF8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH8">
         <v>2.00321</v>
@@ -2006,29 +2002,29 @@
       <c r="L9" t="s">
         <v>72</v>
       </c>
-      <c r="M9">
-        <v>51.8282</v>
-      </c>
-      <c r="N9">
-        <v>4.77904</v>
+      <c r="M9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O9">
         <v>16.3925</v>
       </c>
-      <c r="P9">
-        <v>43.1063</v>
-      </c>
-      <c r="Q9">
-        <v>51.8298</v>
-      </c>
-      <c r="R9">
-        <v>100.003</v>
-      </c>
-      <c r="S9">
-        <v>41.2788</v>
-      </c>
-      <c r="T9">
-        <v>43.1063</v>
+      <c r="P9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U9">
         <v>16.3925</v>
@@ -2045,8 +2041,8 @@
       <c r="Y9">
         <v>12.3399</v>
       </c>
-      <c r="Z9">
-        <v>4.445539999999999</v>
+      <c r="Z9" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA9">
         <v>16.1305</v>
@@ -2063,11 +2059,11 @@
       <c r="AE9">
         <v>13.1633</v>
       </c>
-      <c r="AF9">
-        <v>4.77904</v>
-      </c>
-      <c r="AG9">
-        <v>0.683944</v>
+      <c r="AF9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH9">
         <v>1.84456</v>
@@ -2155,29 +2151,29 @@
       <c r="L10" t="s">
         <v>74</v>
       </c>
-      <c r="M10">
-        <v>51.5901</v>
-      </c>
-      <c r="N10">
-        <v>4.34192</v>
+      <c r="M10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O10">
         <v>15.5633</v>
       </c>
-      <c r="P10">
-        <v>37.2715</v>
-      </c>
-      <c r="Q10">
-        <v>51.5886</v>
-      </c>
-      <c r="R10">
-        <v>99.9971</v>
-      </c>
-      <c r="S10">
-        <v>35.68</v>
-      </c>
-      <c r="T10">
-        <v>37.2715</v>
+      <c r="P10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U10">
         <v>15.5633</v>
@@ -2194,8 +2190,8 @@
       <c r="Y10">
         <v>10.8126</v>
       </c>
-      <c r="Z10">
-        <v>4.03758</v>
+      <c r="Z10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA10">
         <v>15.3452</v>
@@ -2212,11 +2208,11 @@
       <c r="AE10">
         <v>11.5902</v>
       </c>
-      <c r="AF10">
-        <v>4.34192</v>
-      </c>
-      <c r="AG10">
-        <v>0.834174</v>
+      <c r="AF10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH10">
         <v>2.48748</v>
@@ -2304,29 +2300,29 @@
       <c r="L11" t="s">
         <v>72</v>
       </c>
-      <c r="M11">
-        <v>51.9934</v>
-      </c>
-      <c r="N11">
-        <v>4.82704</v>
+      <c r="M11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O11">
         <v>18.5953</v>
       </c>
-      <c r="P11">
-        <v>74.6913</v>
-      </c>
-      <c r="Q11">
-        <v>51.9971</v>
-      </c>
-      <c r="R11">
-        <v>100.007</v>
-      </c>
-      <c r="S11">
-        <v>72.69460000000001</v>
-      </c>
-      <c r="T11">
-        <v>74.6913</v>
+      <c r="P11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U11">
         <v>18.5264</v>
@@ -2343,8 +2339,8 @@
       <c r="Y11">
         <v>17.5243</v>
       </c>
-      <c r="Z11">
-        <v>4.59267</v>
+      <c r="Z11" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA11">
         <v>18.5953</v>
@@ -2361,11 +2357,11 @@
       <c r="AE11">
         <v>17.7401</v>
       </c>
-      <c r="AF11">
-        <v>4.82704</v>
-      </c>
-      <c r="AG11">
-        <v>0.7009339999999999</v>
+      <c r="AF11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH11">
         <v>1.18003</v>
@@ -2453,29 +2449,29 @@
       <c r="L12" t="s">
         <v>74</v>
       </c>
-      <c r="M12">
-        <v>51.5472</v>
-      </c>
-      <c r="N12">
-        <v>3.74697</v>
+      <c r="M12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O12">
         <v>15.5865</v>
       </c>
-      <c r="P12">
-        <v>53.8634</v>
-      </c>
-      <c r="Q12">
-        <v>51.5469</v>
-      </c>
-      <c r="R12">
-        <v>99.99930000000001</v>
-      </c>
-      <c r="S12">
-        <v>52.3205</v>
-      </c>
-      <c r="T12">
-        <v>53.8634</v>
+      <c r="P12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U12">
         <v>15.4548</v>
@@ -2492,8 +2488,8 @@
       <c r="Y12">
         <v>13.2205</v>
       </c>
-      <c r="Z12">
-        <v>3.56532</v>
+      <c r="Z12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA12">
         <v>15.5865</v>
@@ -2510,11 +2506,11 @@
       <c r="AE12">
         <v>13.66</v>
       </c>
-      <c r="AF12">
-        <v>3.74697</v>
-      </c>
-      <c r="AG12">
-        <v>0.851339</v>
+      <c r="AF12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH12">
         <v>1.56285</v>
@@ -2602,29 +2598,29 @@
       <c r="L13" t="s">
         <v>72</v>
       </c>
-      <c r="M13">
-        <v>51.7118</v>
-      </c>
-      <c r="N13">
-        <v>5.445320000000001</v>
+      <c r="M13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O13">
         <v>20.3307</v>
       </c>
-      <c r="P13">
-        <v>70.36190000000001</v>
-      </c>
-      <c r="Q13">
-        <v>51.714</v>
-      </c>
-      <c r="R13">
-        <v>100.004</v>
-      </c>
-      <c r="S13">
-        <v>68.6571</v>
-      </c>
-      <c r="T13">
-        <v>70.36190000000001</v>
+      <c r="P13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U13">
         <v>19.8539</v>
@@ -2641,8 +2637,8 @@
       <c r="Y13">
         <v>18.9385</v>
       </c>
-      <c r="Z13">
-        <v>5.13503</v>
+      <c r="Z13" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA13">
         <v>20.3307</v>
@@ -2659,11 +2655,11 @@
       <c r="AE13">
         <v>20.104</v>
       </c>
-      <c r="AF13">
-        <v>5.445320000000001</v>
-      </c>
-      <c r="AG13">
-        <v>0.6902779999999999</v>
+      <c r="AF13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH13">
         <v>1.31413</v>
@@ -2751,29 +2747,29 @@
       <c r="L14" t="s">
         <v>74</v>
       </c>
-      <c r="M14">
-        <v>51.4634</v>
-      </c>
-      <c r="N14">
-        <v>4.51786</v>
+      <c r="M14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O14">
         <v>17.3441</v>
       </c>
-      <c r="P14">
-        <v>54.1972</v>
-      </c>
-      <c r="Q14">
-        <v>51.4673</v>
-      </c>
-      <c r="R14">
-        <v>100.007</v>
-      </c>
-      <c r="S14">
-        <v>52.7242</v>
-      </c>
-      <c r="T14">
-        <v>54.1972</v>
+      <c r="P14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U14">
         <v>17.1161</v>
@@ -2790,8 +2786,8 @@
       <c r="Y14">
         <v>15.0052</v>
       </c>
-      <c r="Z14">
-        <v>4.236070000000001</v>
+      <c r="Z14" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA14">
         <v>17.3441</v>
@@ -2808,11 +2804,11 @@
       <c r="AE14">
         <v>15.99</v>
       </c>
-      <c r="AF14">
-        <v>4.51786</v>
-      </c>
-      <c r="AG14">
-        <v>0.842868</v>
+      <c r="AF14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH14">
         <v>1.75991</v>
@@ -2900,29 +2896,29 @@
       <c r="L15" t="s">
         <v>72</v>
       </c>
-      <c r="M15">
-        <v>51.9934</v>
-      </c>
-      <c r="N15">
-        <v>4.82704</v>
+      <c r="M15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O15">
         <v>18.5953</v>
       </c>
-      <c r="P15">
-        <v>74.6913</v>
-      </c>
-      <c r="Q15">
-        <v>51.9971</v>
-      </c>
-      <c r="R15">
-        <v>100.007</v>
-      </c>
-      <c r="S15">
-        <v>72.69460000000001</v>
-      </c>
-      <c r="T15">
-        <v>74.6913</v>
+      <c r="P15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U15">
         <v>18.5264</v>
@@ -2939,8 +2935,8 @@
       <c r="Y15">
         <v>17.5243</v>
       </c>
-      <c r="Z15">
-        <v>4.59267</v>
+      <c r="Z15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA15">
         <v>18.5953</v>
@@ -2957,11 +2953,11 @@
       <c r="AE15">
         <v>17.7401</v>
       </c>
-      <c r="AF15">
-        <v>4.82704</v>
-      </c>
-      <c r="AG15">
-        <v>0.7009339999999999</v>
+      <c r="AF15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH15">
         <v>1.18003</v>
@@ -3049,29 +3045,29 @@
       <c r="L16" t="s">
         <v>74</v>
       </c>
-      <c r="M16">
-        <v>51.5472</v>
-      </c>
-      <c r="N16">
-        <v>3.74697</v>
+      <c r="M16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O16">
         <v>15.5865</v>
       </c>
-      <c r="P16">
-        <v>53.8634</v>
-      </c>
-      <c r="Q16">
-        <v>51.5469</v>
-      </c>
-      <c r="R16">
-        <v>99.99930000000001</v>
-      </c>
-      <c r="S16">
-        <v>52.3205</v>
-      </c>
-      <c r="T16">
-        <v>53.8634</v>
+      <c r="P16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U16">
         <v>15.4548</v>
@@ -3088,8 +3084,8 @@
       <c r="Y16">
         <v>13.2205</v>
       </c>
-      <c r="Z16">
-        <v>3.56532</v>
+      <c r="Z16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA16">
         <v>15.5865</v>
@@ -3106,11 +3102,11 @@
       <c r="AE16">
         <v>13.66</v>
       </c>
-      <c r="AF16">
-        <v>3.74697</v>
-      </c>
-      <c r="AG16">
-        <v>0.851339</v>
+      <c r="AF16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH16">
         <v>1.56285</v>
@@ -3198,29 +3194,29 @@
       <c r="L17" t="s">
         <v>72</v>
       </c>
-      <c r="M17">
-        <v>51.7118</v>
-      </c>
-      <c r="N17">
-        <v>5.445320000000001</v>
+      <c r="M17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O17">
         <v>20.3307</v>
       </c>
-      <c r="P17">
-        <v>70.36190000000001</v>
-      </c>
-      <c r="Q17">
-        <v>51.714</v>
-      </c>
-      <c r="R17">
-        <v>100.004</v>
-      </c>
-      <c r="S17">
-        <v>68.6571</v>
-      </c>
-      <c r="T17">
-        <v>70.36190000000001</v>
+      <c r="P17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U17">
         <v>19.8539</v>
@@ -3237,8 +3233,8 @@
       <c r="Y17">
         <v>18.9385</v>
       </c>
-      <c r="Z17">
-        <v>5.13503</v>
+      <c r="Z17" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA17">
         <v>20.3307</v>
@@ -3255,11 +3251,11 @@
       <c r="AE17">
         <v>20.104</v>
       </c>
-      <c r="AF17">
-        <v>5.445320000000001</v>
-      </c>
-      <c r="AG17">
-        <v>0.6902779999999999</v>
+      <c r="AF17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH17">
         <v>1.31413</v>
@@ -3347,29 +3343,29 @@
       <c r="L18" t="s">
         <v>74</v>
       </c>
-      <c r="M18">
-        <v>51.4634</v>
-      </c>
-      <c r="N18">
-        <v>4.51786</v>
+      <c r="M18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O18">
         <v>17.3441</v>
       </c>
-      <c r="P18">
-        <v>54.1972</v>
-      </c>
-      <c r="Q18">
-        <v>51.4673</v>
-      </c>
-      <c r="R18">
-        <v>100.007</v>
-      </c>
-      <c r="S18">
-        <v>52.7242</v>
-      </c>
-      <c r="T18">
-        <v>54.1972</v>
+      <c r="P18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U18">
         <v>17.1161</v>
@@ -3386,8 +3382,8 @@
       <c r="Y18">
         <v>15.0052</v>
       </c>
-      <c r="Z18">
-        <v>4.236070000000001</v>
+      <c r="Z18" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA18">
         <v>17.3441</v>
@@ -3404,11 +3400,11 @@
       <c r="AE18">
         <v>15.99</v>
       </c>
-      <c r="AF18">
-        <v>4.51786</v>
-      </c>
-      <c r="AG18">
-        <v>0.842868</v>
+      <c r="AF18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH18">
         <v>1.75991</v>
@@ -3496,29 +3492,29 @@
       <c r="L19" t="s">
         <v>72</v>
       </c>
-      <c r="M19" s="3">
-        <v>55.0977</v>
-      </c>
-      <c r="N19">
-        <v>4.236560000000001</v>
+      <c r="M19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O19">
         <v>18.0614</v>
       </c>
-      <c r="P19">
-        <v>57.2806</v>
-      </c>
-      <c r="Q19">
-        <v>55.0981</v>
-      </c>
-      <c r="R19">
-        <v>100.001</v>
-      </c>
-      <c r="S19">
-        <v>52.1752</v>
-      </c>
-      <c r="T19">
-        <v>57.2806</v>
+      <c r="P19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U19">
         <v>18.0614</v>
@@ -3535,8 +3531,8 @@
       <c r="Y19">
         <v>16.2466</v>
       </c>
-      <c r="Z19">
-        <v>4.15425</v>
+      <c r="Z19" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA19">
         <v>14.5068</v>
@@ -3553,11 +3549,11 @@
       <c r="AE19">
         <v>12.3557</v>
       </c>
-      <c r="AF19">
-        <v>4.236560000000001</v>
-      </c>
-      <c r="AG19">
-        <v>0.696933</v>
+      <c r="AF19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH19">
         <v>1.28668</v>
@@ -3645,29 +3641,29 @@
       <c r="L20" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="3">
-        <v>54.3127</v>
-      </c>
-      <c r="N20">
-        <v>3.46976</v>
+      <c r="M20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O20">
         <v>15.241</v>
       </c>
-      <c r="P20">
-        <v>44.1876</v>
-      </c>
-      <c r="Q20">
-        <v>54.3159</v>
-      </c>
-      <c r="R20">
-        <v>100.006</v>
-      </c>
-      <c r="S20">
-        <v>39.87110000000001</v>
-      </c>
-      <c r="T20">
-        <v>44.1876</v>
+      <c r="P20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U20">
         <v>15.241</v>
@@ -3684,8 +3680,8 @@
       <c r="Y20">
         <v>12.4533</v>
       </c>
-      <c r="Z20">
-        <v>3.37219</v>
+      <c r="Z20" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA20">
         <v>13.5023</v>
@@ -3702,11 +3698,11 @@
       <c r="AE20">
         <v>10.3196</v>
       </c>
-      <c r="AF20">
-        <v>3.46976</v>
-      </c>
-      <c r="AG20">
-        <v>0.848651</v>
+      <c r="AF20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH20">
         <v>1.74607</v>
@@ -3794,29 +3790,29 @@
       <c r="L21" t="s">
         <v>72</v>
       </c>
-      <c r="M21" s="3">
-        <v>54.64</v>
-      </c>
-      <c r="N21">
-        <v>5.02985</v>
+      <c r="M21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O21">
         <v>19.4331</v>
       </c>
-      <c r="P21">
-        <v>55.467</v>
-      </c>
-      <c r="Q21">
-        <v>54.63890000000001</v>
-      </c>
-      <c r="R21">
-        <v>99.998</v>
-      </c>
-      <c r="S21">
-        <v>50.8371</v>
-      </c>
-      <c r="T21">
-        <v>55.467</v>
+      <c r="P21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U21">
         <v>19.4331</v>
@@ -3833,8 +3829,8 @@
       <c r="Y21">
         <v>17.3209</v>
       </c>
-      <c r="Z21">
-        <v>4.84673</v>
+      <c r="Z21" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA21">
         <v>16.2862</v>
@@ -3851,11 +3847,11 @@
       <c r="AE21">
         <v>14.384</v>
       </c>
-      <c r="AF21">
-        <v>5.02985</v>
-      </c>
-      <c r="AG21">
-        <v>0.687389</v>
+      <c r="AF21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH21">
         <v>1.51813</v>
@@ -3943,29 +3939,29 @@
       <c r="L22" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="3">
-        <v>54.0476</v>
-      </c>
-      <c r="N22">
-        <v>4.36788</v>
+      <c r="M22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O22">
         <v>17.0451</v>
       </c>
-      <c r="P22">
-        <v>45.3331</v>
-      </c>
-      <c r="Q22">
-        <v>54.0482</v>
-      </c>
-      <c r="R22">
-        <v>100.001</v>
-      </c>
-      <c r="S22">
-        <v>41.289</v>
-      </c>
-      <c r="T22">
-        <v>45.3331</v>
+      <c r="P22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U22">
         <v>17.0451</v>
@@ -3982,8 +3978,8 @@
       <c r="Y22">
         <v>14.051</v>
       </c>
-      <c r="Z22">
-        <v>4.1929</v>
+      <c r="Z22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA22">
         <v>15.2091</v>
@@ -4000,11 +3996,11 @@
       <c r="AE22">
         <v>12.267</v>
       </c>
-      <c r="AF22">
-        <v>4.36788</v>
-      </c>
-      <c r="AG22">
-        <v>0.838768</v>
+      <c r="AF22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH22">
         <v>2.03971</v>
@@ -4092,29 +4088,29 @@
       <c r="L23" t="s">
         <v>72</v>
       </c>
-      <c r="M23" s="3">
-        <v>55.0977</v>
-      </c>
-      <c r="N23">
-        <v>4.236560000000001</v>
+      <c r="M23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O23">
         <v>18.0614</v>
       </c>
-      <c r="P23">
-        <v>57.2806</v>
-      </c>
-      <c r="Q23">
-        <v>55.0981</v>
-      </c>
-      <c r="R23">
-        <v>100.001</v>
-      </c>
-      <c r="S23">
-        <v>52.1752</v>
-      </c>
-      <c r="T23">
-        <v>57.2806</v>
+      <c r="P23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U23">
         <v>18.0614</v>
@@ -4131,8 +4127,8 @@
       <c r="Y23">
         <v>16.2466</v>
       </c>
-      <c r="Z23">
-        <v>4.15425</v>
+      <c r="Z23" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA23">
         <v>14.5068</v>
@@ -4149,11 +4145,11 @@
       <c r="AE23">
         <v>12.3557</v>
       </c>
-      <c r="AF23">
-        <v>4.236560000000001</v>
-      </c>
-      <c r="AG23">
-        <v>0.696933</v>
+      <c r="AF23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH23">
         <v>1.28668</v>
@@ -4241,29 +4237,29 @@
       <c r="L24" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="3">
-        <v>54.3127</v>
-      </c>
-      <c r="N24">
-        <v>3.46976</v>
+      <c r="M24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O24">
         <v>15.241</v>
       </c>
-      <c r="P24">
-        <v>44.1876</v>
-      </c>
-      <c r="Q24">
-        <v>54.3159</v>
-      </c>
-      <c r="R24">
-        <v>100.006</v>
-      </c>
-      <c r="S24">
-        <v>39.87110000000001</v>
-      </c>
-      <c r="T24">
-        <v>44.1876</v>
+      <c r="P24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U24">
         <v>15.241</v>
@@ -4280,8 +4276,8 @@
       <c r="Y24">
         <v>12.4533</v>
       </c>
-      <c r="Z24">
-        <v>3.37219</v>
+      <c r="Z24" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA24">
         <v>13.5023</v>
@@ -4298,11 +4294,11 @@
       <c r="AE24">
         <v>10.3196</v>
       </c>
-      <c r="AF24">
-        <v>3.46976</v>
-      </c>
-      <c r="AG24">
-        <v>0.848651</v>
+      <c r="AF24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH24">
         <v>1.74607</v>
@@ -4390,29 +4386,29 @@
       <c r="L25" t="s">
         <v>72</v>
       </c>
-      <c r="M25" s="3">
-        <v>54.64</v>
-      </c>
-      <c r="N25">
-        <v>5.02985</v>
+      <c r="M25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O25">
         <v>19.4331</v>
       </c>
-      <c r="P25">
-        <v>55.467</v>
-      </c>
-      <c r="Q25">
-        <v>54.63890000000001</v>
-      </c>
-      <c r="R25">
-        <v>99.998</v>
-      </c>
-      <c r="S25">
-        <v>50.8371</v>
-      </c>
-      <c r="T25">
-        <v>55.467</v>
+      <c r="P25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U25">
         <v>19.4331</v>
@@ -4429,8 +4425,8 @@
       <c r="Y25">
         <v>17.3209</v>
       </c>
-      <c r="Z25">
-        <v>4.84673</v>
+      <c r="Z25" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA25">
         <v>16.2862</v>
@@ -4447,11 +4443,11 @@
       <c r="AE25">
         <v>14.384</v>
       </c>
-      <c r="AF25">
-        <v>5.02985</v>
-      </c>
-      <c r="AG25">
-        <v>0.687389</v>
+      <c r="AF25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH25">
         <v>1.51813</v>
@@ -4539,29 +4535,29 @@
       <c r="L26" t="s">
         <v>74</v>
       </c>
-      <c r="M26" s="3">
-        <v>54.0476</v>
-      </c>
-      <c r="N26">
-        <v>4.36788</v>
+      <c r="M26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O26">
         <v>17.0451</v>
       </c>
-      <c r="P26">
-        <v>45.3331</v>
-      </c>
-      <c r="Q26">
-        <v>54.0482</v>
-      </c>
-      <c r="R26">
-        <v>100.001</v>
-      </c>
-      <c r="S26">
-        <v>41.289</v>
-      </c>
-      <c r="T26">
-        <v>45.3331</v>
+      <c r="P26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U26">
         <v>17.0451</v>
@@ -4578,8 +4574,8 @@
       <c r="Y26">
         <v>14.051</v>
       </c>
-      <c r="Z26">
-        <v>4.1929</v>
+      <c r="Z26" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA26">
         <v>15.2091</v>
@@ -4596,11 +4592,11 @@
       <c r="AE26">
         <v>12.267</v>
       </c>
-      <c r="AF26">
-        <v>4.36788</v>
-      </c>
-      <c r="AG26">
-        <v>0.838768</v>
+      <c r="AF26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH26">
         <v>2.03971</v>
@@ -4688,29 +4684,29 @@
       <c r="L27" t="s">
         <v>72</v>
       </c>
-      <c r="M27">
-        <v>49.0762</v>
-      </c>
-      <c r="N27">
-        <v>4.25068</v>
+      <c r="M27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O27">
         <v>17.9044</v>
       </c>
-      <c r="P27">
-        <v>55.5689</v>
-      </c>
-      <c r="Q27">
-        <v>49.07640000000001</v>
-      </c>
-      <c r="R27">
-        <v>100</v>
-      </c>
-      <c r="S27">
-        <v>55.5689</v>
-      </c>
-      <c r="T27">
-        <v>54.6453</v>
+      <c r="P27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U27">
         <v>14.7662</v>
@@ -4727,8 +4723,8 @@
       <c r="Y27">
         <v>11.8341</v>
       </c>
-      <c r="Z27">
-        <v>3.89861</v>
+      <c r="Z27" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA27">
         <v>17.9044</v>
@@ -4745,11 +4741,11 @@
       <c r="AE27">
         <v>16.4466</v>
       </c>
-      <c r="AF27">
-        <v>4.25068</v>
-      </c>
-      <c r="AG27">
-        <v>0.696958</v>
+      <c r="AF27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH27">
         <v>1.2815</v>
@@ -4837,29 +4833,29 @@
       <c r="L28" t="s">
         <v>74</v>
       </c>
-      <c r="M28">
-        <v>49.081</v>
-      </c>
-      <c r="N28">
-        <v>3.49095</v>
+      <c r="M28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O28">
         <v>15.2447</v>
       </c>
-      <c r="P28">
-        <v>42.8779</v>
-      </c>
-      <c r="Q28">
-        <v>49.0803</v>
-      </c>
-      <c r="R28">
-        <v>99.9986</v>
-      </c>
-      <c r="S28">
-        <v>42.8779</v>
-      </c>
-      <c r="T28">
-        <v>41.9592</v>
+      <c r="P28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U28">
         <v>13.7227</v>
@@ -4876,8 +4872,8 @@
       <c r="Y28">
         <v>9.844330000000001</v>
       </c>
-      <c r="Z28">
-        <v>3.21877</v>
+      <c r="Z28" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA28">
         <v>15.2447</v>
@@ -4894,11 +4890,11 @@
       <c r="AE28">
         <v>12.8729</v>
       </c>
-      <c r="AF28">
-        <v>3.49095</v>
-      </c>
-      <c r="AG28">
-        <v>0.848651</v>
+      <c r="AF28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH28">
         <v>1.7449</v>
@@ -4986,29 +4982,29 @@
       <c r="L29" t="s">
         <v>72</v>
       </c>
-      <c r="M29">
-        <v>48.9754</v>
-      </c>
-      <c r="N29">
-        <v>5.08623</v>
+      <c r="M29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O29">
         <v>19.8847</v>
       </c>
-      <c r="P29">
-        <v>54.3007</v>
-      </c>
-      <c r="Q29">
-        <v>48.9715</v>
-      </c>
-      <c r="R29">
-        <v>99.992</v>
-      </c>
-      <c r="S29">
-        <v>54.3007</v>
-      </c>
-      <c r="T29">
-        <v>53.2733</v>
+      <c r="P29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U29">
         <v>16.6516</v>
@@ -5025,8 +5021,8 @@
       <c r="Y29">
         <v>13.6182</v>
       </c>
-      <c r="Z29">
-        <v>4.60195</v>
+      <c r="Z29" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA29">
         <v>19.8847</v>
@@ -5043,11 +5039,11 @@
       <c r="AE29">
         <v>18.7049</v>
       </c>
-      <c r="AF29">
-        <v>5.08623</v>
-      </c>
-      <c r="AG29">
-        <v>0.686928</v>
+      <c r="AF29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH29">
         <v>1.54203</v>
@@ -5135,29 +5131,29 @@
       <c r="L30" t="s">
         <v>74</v>
       </c>
-      <c r="M30">
-        <v>49.0395</v>
-      </c>
-      <c r="N30">
-        <v>4.42004</v>
+      <c r="M30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O30">
         <v>17.2312</v>
       </c>
-      <c r="P30">
-        <v>44.1781</v>
-      </c>
-      <c r="Q30">
-        <v>49.0411</v>
-      </c>
-      <c r="R30">
-        <v>100.003</v>
-      </c>
-      <c r="S30">
-        <v>44.1781</v>
-      </c>
-      <c r="T30">
-        <v>43.2241</v>
+      <c r="P30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U30">
         <v>15.4563</v>
@@ -5174,8 +5170,8 @@
       <c r="Y30">
         <v>11.5717</v>
       </c>
-      <c r="Z30">
-        <v>4.00292</v>
+      <c r="Z30" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA30">
         <v>17.2312</v>
@@ -5192,11 +5188,11 @@
       <c r="AE30">
         <v>15.1392</v>
       </c>
-      <c r="AF30">
-        <v>4.42004</v>
-      </c>
-      <c r="AG30">
-        <v>0.838656</v>
+      <c r="AF30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH30">
         <v>2.09034</v>
@@ -5284,29 +5280,29 @@
       <c r="L31" t="s">
         <v>72</v>
       </c>
-      <c r="M31">
-        <v>49.0762</v>
-      </c>
-      <c r="N31">
-        <v>4.25068</v>
+      <c r="M31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O31">
         <v>17.9044</v>
       </c>
-      <c r="P31">
-        <v>55.5689</v>
-      </c>
-      <c r="Q31">
-        <v>49.07640000000001</v>
-      </c>
-      <c r="R31">
-        <v>100</v>
-      </c>
-      <c r="S31">
-        <v>55.5689</v>
-      </c>
-      <c r="T31">
-        <v>54.6453</v>
+      <c r="P31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U31">
         <v>14.7662</v>
@@ -5323,8 +5319,8 @@
       <c r="Y31">
         <v>11.8341</v>
       </c>
-      <c r="Z31">
-        <v>3.89861</v>
+      <c r="Z31" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA31">
         <v>17.9044</v>
@@ -5341,11 +5337,11 @@
       <c r="AE31">
         <v>16.4466</v>
       </c>
-      <c r="AF31">
-        <v>4.25068</v>
-      </c>
-      <c r="AG31">
-        <v>0.696958</v>
+      <c r="AF31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH31">
         <v>1.2815</v>
@@ -5433,29 +5429,29 @@
       <c r="L32" t="s">
         <v>74</v>
       </c>
-      <c r="M32">
-        <v>49.081</v>
-      </c>
-      <c r="N32">
-        <v>3.49095</v>
+      <c r="M32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O32">
         <v>15.2447</v>
       </c>
-      <c r="P32">
-        <v>42.8779</v>
-      </c>
-      <c r="Q32">
-        <v>49.0803</v>
-      </c>
-      <c r="R32">
-        <v>99.9986</v>
-      </c>
-      <c r="S32">
-        <v>42.8779</v>
-      </c>
-      <c r="T32">
-        <v>41.9592</v>
+      <c r="P32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U32">
         <v>13.7227</v>
@@ -5472,8 +5468,8 @@
       <c r="Y32">
         <v>9.844330000000001</v>
       </c>
-      <c r="Z32">
-        <v>3.21877</v>
+      <c r="Z32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA32">
         <v>15.2447</v>
@@ -5490,11 +5486,11 @@
       <c r="AE32">
         <v>12.8729</v>
       </c>
-      <c r="AF32">
-        <v>3.49095</v>
-      </c>
-      <c r="AG32">
-        <v>0.848651</v>
+      <c r="AF32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH32">
         <v>1.7449</v>
@@ -5582,29 +5578,29 @@
       <c r="L33" t="s">
         <v>72</v>
       </c>
-      <c r="M33">
-        <v>48.9754</v>
-      </c>
-      <c r="N33">
-        <v>5.08623</v>
+      <c r="M33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O33">
         <v>19.8847</v>
       </c>
-      <c r="P33">
-        <v>54.3007</v>
-      </c>
-      <c r="Q33">
-        <v>48.9715</v>
-      </c>
-      <c r="R33">
-        <v>99.992</v>
-      </c>
-      <c r="S33">
-        <v>54.3007</v>
-      </c>
-      <c r="T33">
-        <v>53.2733</v>
+      <c r="P33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U33">
         <v>16.6516</v>
@@ -5621,8 +5617,8 @@
       <c r="Y33">
         <v>13.6182</v>
       </c>
-      <c r="Z33">
-        <v>4.60195</v>
+      <c r="Z33" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA33">
         <v>19.8847</v>
@@ -5639,11 +5635,11 @@
       <c r="AE33">
         <v>18.7049</v>
       </c>
-      <c r="AF33">
-        <v>5.08623</v>
-      </c>
-      <c r="AG33">
-        <v>0.686928</v>
+      <c r="AF33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG33" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH33">
         <v>1.54203</v>
@@ -5731,29 +5727,29 @@
       <c r="L34" t="s">
         <v>74</v>
       </c>
-      <c r="M34">
-        <v>49.0395</v>
-      </c>
-      <c r="N34">
-        <v>4.42004</v>
+      <c r="M34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="O34">
         <v>17.2312</v>
       </c>
-      <c r="P34">
-        <v>44.1781</v>
-      </c>
-      <c r="Q34">
-        <v>49.0411</v>
-      </c>
-      <c r="R34">
-        <v>100.003</v>
-      </c>
-      <c r="S34">
-        <v>44.1781</v>
-      </c>
-      <c r="T34">
-        <v>43.2241</v>
+      <c r="P34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="U34">
         <v>15.4563</v>
@@ -5770,8 +5766,8 @@
       <c r="Y34">
         <v>11.5717</v>
       </c>
-      <c r="Z34">
-        <v>4.00292</v>
+      <c r="Z34" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AA34">
         <v>17.2312</v>
@@ -5788,11 +5784,11 @@
       <c r="AE34">
         <v>15.1392</v>
       </c>
-      <c r="AF34">
-        <v>4.42004</v>
-      </c>
-      <c r="AG34">
-        <v>0.838656</v>
+      <c r="AF34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG34" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="AH34">
         <v>2.09034</v>
@@ -5996,29 +5992,29 @@
       <c r="L36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M36" s="1">
-        <v>48.9754</v>
-      </c>
-      <c r="N36" s="1">
-        <v>3.29786</v>
+      <c r="M36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="O36" s="1">
         <v>13.5432</v>
       </c>
-      <c r="P36" s="1">
-        <v>35.3552</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>48.9715</v>
-      </c>
-      <c r="R36" s="1">
-        <v>99.992</v>
-      </c>
-      <c r="S36" s="1">
-        <v>33.5673</v>
-      </c>
-      <c r="T36" s="1">
-        <v>35.3552</v>
+      <c r="P36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="U36" s="1">
         <v>13.5432</v>
@@ -6035,8 +6031,8 @@
       <c r="Y36" s="1">
         <v>9.09474</v>
       </c>
-      <c r="Z36" s="1">
-        <v>3.1125</v>
+      <c r="Z36" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AA36" s="1">
         <v>13.2721</v>
@@ -6053,11 +6049,11 @@
       <c r="AE36" s="1">
         <v>9.532349999999999</v>
       </c>
-      <c r="AF36" s="1">
-        <v>3.29786</v>
-      </c>
-      <c r="AG36" s="1">
-        <v>0.683944</v>
+      <c r="AF36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AH36" s="1">
         <v>1.18003</v>
@@ -6110,31 +6106,31 @@
     </row>
     <row r="37" spans="1:49" s="1" customFormat="1">
       <c r="L37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M37" s="3">
-        <v>55.0977</v>
-      </c>
-      <c r="N37" s="1">
-        <v>5.445320000000001</v>
+      <c r="N37" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="O37" s="1">
         <v>20.3307</v>
       </c>
-      <c r="P37" s="1">
-        <v>74.6913</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>55.0981</v>
-      </c>
-      <c r="R37" s="1">
-        <v>100.007</v>
-      </c>
-      <c r="S37" s="1">
-        <v>72.69460000000001</v>
-      </c>
-      <c r="T37" s="1">
-        <v>74.6913</v>
+      <c r="P37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="U37" s="1">
         <v>19.8539</v>
@@ -6151,8 +6147,8 @@
       <c r="Y37" s="1">
         <v>18.9385</v>
       </c>
-      <c r="Z37" s="1">
-        <v>5.13503</v>
+      <c r="Z37" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AA37" s="1">
         <v>20.3307</v>
@@ -6169,11 +6165,11 @@
       <c r="AE37" s="1">
         <v>20.104</v>
       </c>
-      <c r="AF37" s="1">
-        <v>5.445320000000001</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>0.851339</v>
+      <c r="AF37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AH37" s="1">
         <v>2.48748</v>
@@ -6226,17 +6222,17 @@
     </row>
     <row r="38" spans="1:49" s="1" customFormat="1">
       <c r="L38" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:49" s="1" customFormat="1">
       <c r="L39" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:49" s="1" customFormat="1">
       <c r="L40" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M40" s="1">
         <v>53</v>
@@ -6253,7 +6249,7 @@
     </row>
     <row r="41" spans="1:49" s="1" customFormat="1">
       <c r="L41" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M41" s="1">
         <v>47</v>
@@ -6261,350 +6257,350 @@
     </row>
     <row r="42" spans="1:49" s="1" customFormat="1">
       <c r="L42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M42" s="1">
-        <v>51.76902903225806</v>
-      </c>
-      <c r="N42" s="1">
-        <v>4.349969032258064</v>
+        <v>129</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="O42" s="1">
-        <v>17.09636774193548</v>
-      </c>
-      <c r="P42" s="1">
-        <v>51.16269032258064</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>51.76954838709678</v>
-      </c>
-      <c r="R42" s="1">
-        <v>100.000870967742</v>
-      </c>
-      <c r="S42" s="1">
-        <v>49.14662903225807</v>
-      </c>
-      <c r="T42" s="1">
-        <v>50.91599999999999</v>
+        <v>16.93592121212122</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="U42" s="1">
-        <v>16.4142</v>
+        <v>16.29509696969697</v>
       </c>
       <c r="V42" s="1">
-        <v>13.91615677419355</v>
+        <v>13.73915515151515</v>
       </c>
       <c r="W42" s="1">
-        <v>14.06061838709677</v>
+        <v>13.88205575757576</v>
       </c>
       <c r="X42" s="1">
-        <v>13.54242580645161</v>
+        <v>13.36992242424243</v>
       </c>
       <c r="Y42" s="1">
-        <v>13.54242580645161</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>4.090772258064517</v>
+        <v>13.36992242424243</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AA42" s="1">
-        <v>16.37710645161291</v>
+        <v>16.24686363636364</v>
       </c>
       <c r="AB42" s="1">
-        <v>13.00881032258065</v>
+        <v>12.83842303030303</v>
       </c>
       <c r="AC42" s="1">
-        <v>13.45575516129032</v>
+        <v>13.27400727272727</v>
       </c>
       <c r="AD42" s="1">
-        <v>14.22221129032258</v>
+        <v>14.03806060606061</v>
       </c>
       <c r="AE42" s="1">
-        <v>14.22221129032258</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>4.349969032258064</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>0.7654505161290323</v>
+        <v>14.03806060606061</v>
+      </c>
+      <c r="AF42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AH42" s="1">
-        <v>1.667640967741935</v>
+        <v>1.674807575757576</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1515338580645162</v>
+        <v>0.1529430484848485</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.06227638709677419</v>
+        <v>0.06269659090909091</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.06294302580645157</v>
+        <v>0.06322546060606059</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.06458582258064516</v>
+        <v>0.06489460606060607</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.2127274838709677</v>
+        <v>0.213642606060606</v>
       </c>
       <c r="AN42" s="1">
-        <v>878.0052580645162</v>
+        <v>877.9103939393939</v>
       </c>
       <c r="AO42" s="1">
-        <v>837.4347419354838</v>
+        <v>837.1954848484846</v>
       </c>
       <c r="AP42" s="1">
-        <v>896.4226451612901</v>
+        <v>896.0854848484846</v>
       </c>
       <c r="AQ42" s="1">
-        <v>754.9299677419355</v>
+        <v>754.4563636363636</v>
       </c>
       <c r="AR42" s="1">
-        <v>813.5733548387099</v>
+        <v>813.037484848485</v>
       </c>
       <c r="AS42" s="1">
-        <v>727.895451612903</v>
+        <v>727.7723333333333</v>
       </c>
       <c r="AT42" s="1">
-        <v>786.9392258064515</v>
+        <v>786.7235757575756</v>
       </c>
       <c r="AU42" s="1">
-        <v>746.4568709677418</v>
+        <v>746.0898787878788</v>
       </c>
       <c r="AV42" s="1">
-        <v>805.4945806451611</v>
+        <v>805.037212121212</v>
       </c>
       <c r="AW42" s="1">
-        <v>761.617870967742</v>
+        <v>761.0769090909092</v>
       </c>
     </row>
     <row r="43" spans="1:49" s="1" customFormat="1">
       <c r="L43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M43" s="1">
-        <v>1.984988341266412</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0.5926096161041124</v>
+        <v>130</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="O43" s="1">
-        <v>1.855827400446965</v>
-      </c>
-      <c r="P43" s="1">
-        <v>10.40815957324658</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>1.985475512537109</v>
-      </c>
-      <c r="R43" s="1">
-        <v>0.003983206161064163</v>
-      </c>
-      <c r="S43" s="1">
-        <v>10.43688892158076</v>
-      </c>
-      <c r="T43" s="1">
-        <v>10.45973249913918</v>
+        <v>1.919402470271251</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="U43" s="1">
-        <v>1.81907872162913</v>
+        <v>1.837960959041436</v>
       </c>
       <c r="V43" s="1">
-        <v>2.808598872114209</v>
+        <v>2.835656717399705</v>
       </c>
       <c r="W43" s="1">
-        <v>2.894139143602058</v>
+        <v>2.920501918014685</v>
       </c>
       <c r="X43" s="1">
-        <v>2.762708051805008</v>
+        <v>2.79045441995215</v>
       </c>
       <c r="Y43" s="1">
-        <v>2.762708051805008</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>0.5511068731708864</v>
+        <v>2.79045441995215</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.015934664829593</v>
+        <v>2.033718149748652</v>
       </c>
       <c r="AB43" s="1">
-        <v>2.69941764033495</v>
+        <v>2.723837350219617</v>
       </c>
       <c r="AC43" s="1">
-        <v>2.900434079981013</v>
+        <v>2.927870746801746</v>
       </c>
       <c r="AD43" s="1">
-        <v>2.901550920537033</v>
+        <v>2.932517421342697</v>
       </c>
       <c r="AE43" s="1">
-        <v>2.901550920537033</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>0.5926096161041124</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>0.07576893500035783</v>
+        <v>2.932517421342697</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.3456256497477864</v>
+        <v>0.3404051296575205</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.1035251522912147</v>
+        <v>0.1018090755900091</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.01053974061129504</v>
+        <v>0.01057825939632688</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.008722589142212888</v>
+        <v>0.00866043149509165</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.008688406005992929</v>
+        <v>0.008633678484370289</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.02680494608772547</v>
+        <v>0.02659016117304384</v>
       </c>
       <c r="AN43" s="1">
-        <v>2.772172316570086</v>
+        <v>2.730956841301999</v>
       </c>
       <c r="AO43" s="1">
-        <v>4.476084038587676</v>
+        <v>4.48991944397744</v>
       </c>
       <c r="AP43" s="1">
-        <v>6.59270578622822</v>
+        <v>6.591939766573584</v>
       </c>
       <c r="AQ43" s="1">
-        <v>8.726683464483044</v>
+        <v>8.753796166367705</v>
       </c>
       <c r="AR43" s="1">
-        <v>9.928121485403375</v>
+        <v>9.956968311024198</v>
       </c>
       <c r="AS43" s="1">
-        <v>2.979215331189444</v>
+        <v>2.95189752703258</v>
       </c>
       <c r="AT43" s="1">
-        <v>4.178202783183036</v>
+        <v>4.183068433218369</v>
       </c>
       <c r="AU43" s="1">
-        <v>6.929869969184304</v>
+        <v>6.940890763538092</v>
       </c>
       <c r="AV43" s="1">
-        <v>8.481005987857625</v>
+        <v>8.504669009138716</v>
       </c>
       <c r="AW43" s="1">
-        <v>9.962719957476082</v>
+        <v>9.994436517121184</v>
       </c>
     </row>
     <row r="44" spans="1:49" s="1" customFormat="1">
       <c r="L44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M44" s="1">
-        <v>3.834316343908123</v>
-      </c>
-      <c r="N44" s="1">
-        <v>13.62330655021904</v>
+        <v>131</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="O44" s="1">
-        <v>10.85509757663218</v>
-      </c>
-      <c r="P44" s="1">
-        <v>20.34326089504511</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>3.835218916130194</v>
-      </c>
-      <c r="R44" s="1">
-        <v>0.003983171468925562</v>
-      </c>
-      <c r="S44" s="1">
-        <v>21.23622540770877</v>
-      </c>
-      <c r="T44" s="1">
-        <v>20.54311512911302</v>
+        <v>11.33332191518176</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="U44" s="1">
-        <v>11.08234773323787</v>
+        <v>11.2792268892869</v>
       </c>
       <c r="V44" s="1">
-        <v>20.18228824011628</v>
+        <v>20.63923644596873</v>
       </c>
       <c r="W44" s="1">
-        <v>20.58329914037044</v>
+        <v>21.03796418207656</v>
       </c>
       <c r="X44" s="1">
-        <v>20.40039274565457</v>
+        <v>20.87113396329422</v>
       </c>
       <c r="Y44" s="1">
-        <v>20.40039274565457</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>13.47195195441248</v>
+        <v>20.87113396329422</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AA44" s="1">
-        <v>12.30946791965838</v>
+        <v>12.51760459906117</v>
       </c>
       <c r="AB44" s="1">
-        <v>20.75068798296883</v>
+        <v>21.21629224859188</v>
       </c>
       <c r="AC44" s="1">
-        <v>21.55534226964099</v>
+        <v>22.05717298963168</v>
       </c>
       <c r="AD44" s="1">
-        <v>20.40154559165758</v>
+        <v>20.88976179570453</v>
       </c>
       <c r="AE44" s="1">
-        <v>20.40154559165758</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>13.62330655021904</v>
-      </c>
-      <c r="AG44" s="1">
-        <v>9.898606559641465</v>
+        <v>20.88976179570453</v>
+      </c>
+      <c r="AF44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG44" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AH44" s="1">
-        <v>20.72542330354117</v>
+        <v>20.32502925021359</v>
       </c>
       <c r="AI44" s="1">
-        <v>68.31816573107936</v>
+        <v>66.56665771906263</v>
       </c>
       <c r="AJ44" s="1">
-        <v>16.92413626197814</v>
+        <v>16.87214447060637</v>
       </c>
       <c r="AK44" s="1">
-        <v>13.85791202512993</v>
+        <v>13.69769616871955</v>
       </c>
       <c r="AL44" s="1">
-        <v>13.45249724913566</v>
+        <v>13.30415424096598</v>
       </c>
       <c r="AM44" s="1">
-        <v>12.60060317546196</v>
+        <v>12.44609474830164</v>
       </c>
       <c r="AN44" s="1">
-        <v>0.315735275057588</v>
+        <v>0.311074667774184</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.5344994438901026</v>
+        <v>0.5363047848723198</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.7354461449422686</v>
+        <v>0.7356373781334253</v>
       </c>
       <c r="AQ44" s="1">
-        <v>1.15595933892853</v>
+        <v>1.160278657360083</v>
       </c>
       <c r="AR44" s="1">
-        <v>1.220310550530704</v>
+        <v>1.22466288413255</v>
       </c>
       <c r="AS44" s="1">
-        <v>0.4092916537104287</v>
+        <v>0.4056072746695849</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.5309435145898634</v>
+        <v>0.5317075224535228</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.9283684347630284</v>
+        <v>0.9303022277710673</v>
       </c>
       <c r="AV44" s="1">
-        <v>1.052894233138696</v>
+        <v>1.056431787386518</v>
       </c>
       <c r="AW44" s="1">
-        <v>1.308099551920578</v>
+        <v>1.313196655651967</v>
       </c>
     </row>
     <row r="45" spans="1:49" s="1" customFormat="1"/>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="131">
   <si>
     <t>Process</t>
   </si>
@@ -133,6 +133,9 @@
     <t>i_agv_inv_out (mA)</t>
   </si>
   <si>
+    <t>i_avg_dca_base_sub (mA)</t>
+  </si>
+  <si>
     <t>tsr_dccin (ps)</t>
   </si>
   <si>
@@ -199,9 +202,6 @@
     <t>0.750</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>tsmc2p (1)</t>
   </si>
   <si>
@@ -383,9 +383,6 @@
   </si>
   <si>
     <t>Min</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Max</t>
@@ -449,7 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW45"/>
+  <dimension ref="A1:AX45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -773,7 +770,7 @@
     <col min="1" max="101" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1">
+    <row r="1" spans="1:50" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,157 +918,163 @@
       <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>61</v>
+      <c r="M2">
+        <v>50.4811</v>
+      </c>
+      <c r="N2">
+        <v>12.4959</v>
       </c>
       <c r="O2">
-        <v>15.3548</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>61</v>
+        <v>16.2302</v>
+      </c>
+      <c r="P2">
+        <v>31.9644</v>
+      </c>
+      <c r="Q2">
+        <v>50.4811</v>
+      </c>
+      <c r="R2">
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <v>31.4835</v>
+      </c>
+      <c r="T2">
+        <v>31.9644</v>
       </c>
       <c r="U2">
-        <v>15.3548</v>
+        <v>16.2302</v>
       </c>
       <c r="V2">
-        <v>12.5434</v>
+        <v>8.879510000000002</v>
       </c>
       <c r="W2">
-        <v>12.7729</v>
+        <v>7.71257</v>
       </c>
       <c r="X2">
-        <v>12.2975</v>
+        <v>12.4959</v>
       </c>
       <c r="Y2">
-        <v>12.2975</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>61</v>
+        <v>12.4959</v>
+      </c>
+      <c r="Z2">
+        <v>12.4959</v>
       </c>
       <c r="AA2">
-        <v>15.1841</v>
+        <v>16.1106</v>
       </c>
       <c r="AB2">
-        <v>11.6282</v>
+        <v>8.880730000000002</v>
       </c>
       <c r="AC2">
-        <v>12.0703</v>
+        <v>7.781440000000001</v>
       </c>
       <c r="AD2">
-        <v>12.8351</v>
+        <v>12.3052</v>
       </c>
       <c r="AE2">
-        <v>12.8351</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>61</v>
+        <v>12.3052</v>
+      </c>
+      <c r="AF2">
+        <v>12.3052</v>
+      </c>
+      <c r="AG2">
+        <v>0.757356</v>
       </c>
       <c r="AH2">
-        <v>1.56857</v>
+        <v>1.58223</v>
       </c>
       <c r="AI2">
-        <v>0.108487</v>
+        <v>0.108496</v>
       </c>
       <c r="AJ2">
-        <v>0.0603019</v>
+        <v>0.0642079</v>
       </c>
       <c r="AK2">
-        <v>0.0614506</v>
+        <v>0.0689645</v>
       </c>
       <c r="AL2">
-        <v>0.0637258</v>
+        <v>0.06744310000000001</v>
       </c>
       <c r="AM2">
-        <v>0.210076</v>
+        <v>0.207936</v>
       </c>
       <c r="AN2">
-        <v>877.721</v>
+        <v>0.409155</v>
       </c>
       <c r="AO2">
-        <v>836.215</v>
+        <v>878.1799999999999</v>
       </c>
       <c r="AP2">
-        <v>894.6310000000001</v>
+        <v>834.1840000000001</v>
       </c>
       <c r="AQ2">
-        <v>752.274</v>
+        <v>890.198</v>
       </c>
       <c r="AR2">
-        <v>810.6129999999999</v>
+        <v>747.111</v>
       </c>
       <c r="AS2">
-        <v>727.389</v>
+        <v>805.254</v>
       </c>
       <c r="AT2">
-        <v>785.8779999999999</v>
+        <v>727.746</v>
       </c>
       <c r="AU2">
-        <v>744.414</v>
+        <v>784.665</v>
       </c>
       <c r="AV2">
-        <v>802.9540000000001</v>
+        <v>739.741</v>
       </c>
       <c r="AW2">
-        <v>758.596</v>
+        <v>797.5890000000001</v>
+      </c>
+      <c r="AX2">
+        <v>753.5210000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
         <v>69</v>
@@ -1108,119 +1111,122 @@
       <c r="L3" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>61</v>
+      <c r="M3">
+        <v>50.901</v>
+      </c>
+      <c r="N3">
+        <v>10.7711</v>
       </c>
       <c r="O3">
-        <v>14.3641</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>61</v>
+        <v>15.206</v>
+      </c>
+      <c r="P3">
+        <v>28.4223</v>
+      </c>
+      <c r="Q3">
+        <v>50.9016</v>
+      </c>
+      <c r="R3">
+        <v>100.001</v>
+      </c>
+      <c r="S3">
+        <v>27.5221</v>
+      </c>
+      <c r="T3">
+        <v>28.4223</v>
       </c>
       <c r="U3">
-        <v>14.3641</v>
+        <v>15.206</v>
       </c>
       <c r="V3">
-        <v>10.9496</v>
+        <v>7.890779999999999</v>
       </c>
       <c r="W3">
-        <v>11.0904</v>
+        <v>6.76806</v>
       </c>
       <c r="X3">
-        <v>10.5791</v>
+        <v>10.7699</v>
       </c>
       <c r="Y3">
-        <v>10.5791</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>61</v>
+        <v>10.7699</v>
+      </c>
+      <c r="Z3">
+        <v>10.7711</v>
       </c>
       <c r="AA3">
-        <v>14.1074</v>
+        <v>14.8942</v>
       </c>
       <c r="AB3">
-        <v>10.0355</v>
+        <v>7.85669</v>
       </c>
       <c r="AC3">
-        <v>10.2839</v>
+        <v>6.74796</v>
       </c>
       <c r="AD3">
-        <v>10.9406</v>
+        <v>10.4664</v>
       </c>
       <c r="AE3">
-        <v>10.9406</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>61</v>
+        <v>10.4664</v>
+      </c>
+      <c r="AF3">
+        <v>10.4664</v>
+      </c>
+      <c r="AG3">
+        <v>0.681575</v>
       </c>
       <c r="AH3">
-        <v>1.44851</v>
+        <v>1.46351</v>
       </c>
       <c r="AI3">
-        <v>0.129802</v>
+        <v>0.129809</v>
       </c>
       <c r="AJ3">
-        <v>0.05701349999999999</v>
+        <v>0.060757</v>
       </c>
       <c r="AK3">
-        <v>0.0570363</v>
+        <v>0.0650447</v>
       </c>
       <c r="AL3">
-        <v>0.0592888</v>
+        <v>0.06292349999999999</v>
       </c>
       <c r="AM3">
-        <v>0.193061</v>
+        <v>0.190318</v>
       </c>
       <c r="AN3">
-        <v>876.8299999999999</v>
+        <v>0.379483</v>
       </c>
       <c r="AO3">
-        <v>833.634</v>
+        <v>877.284</v>
       </c>
       <c r="AP3">
-        <v>891.336</v>
+        <v>831.938</v>
       </c>
       <c r="AQ3">
-        <v>747.331</v>
+        <v>887.715</v>
       </c>
       <c r="AR3">
-        <v>805.602</v>
+        <v>743.149</v>
       </c>
       <c r="AS3">
-        <v>725.8630000000001</v>
+        <v>801.268</v>
       </c>
       <c r="AT3">
-        <v>783.747</v>
+        <v>726.2120000000001</v>
       </c>
       <c r="AU3">
-        <v>740.501</v>
+        <v>782.865</v>
       </c>
       <c r="AV3">
-        <v>798.4060000000001</v>
+        <v>736.6799999999999</v>
       </c>
       <c r="AW3">
-        <v>753.215</v>
+        <v>794.047</v>
+      </c>
+      <c r="AX3">
+        <v>749.158</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>69</v>
@@ -1257,119 +1263,122 @@
       <c r="L4" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>61</v>
+      <c r="M4">
+        <v>50.8631</v>
+      </c>
+      <c r="N4">
+        <v>9.27651</v>
       </c>
       <c r="O4">
-        <v>13.5432</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>61</v>
+        <v>14.3237</v>
+      </c>
+      <c r="P4">
+        <v>23.9102</v>
+      </c>
+      <c r="Q4">
+        <v>50.8626</v>
+      </c>
+      <c r="R4">
+        <v>99.99890000000001</v>
+      </c>
+      <c r="S4">
+        <v>23.0482</v>
+      </c>
+      <c r="T4">
+        <v>23.9102</v>
       </c>
       <c r="U4">
-        <v>13.5432</v>
+        <v>14.3237</v>
       </c>
       <c r="V4">
-        <v>9.447859999999999</v>
+        <v>6.985910000000001</v>
       </c>
       <c r="W4">
-        <v>9.455769999999999</v>
+        <v>5.83343</v>
       </c>
       <c r="X4">
-        <v>9.09474</v>
+        <v>9.27679</v>
       </c>
       <c r="Y4">
-        <v>9.09474</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>61</v>
+        <v>9.27679</v>
+      </c>
+      <c r="Z4">
+        <v>9.27651</v>
       </c>
       <c r="AA4">
-        <v>13.2721</v>
+        <v>14.1658</v>
       </c>
       <c r="AB4">
-        <v>8.766640000000001</v>
+        <v>6.97422</v>
       </c>
       <c r="AC4">
-        <v>8.843530000000001</v>
+        <v>5.852910000000001</v>
       </c>
       <c r="AD4">
-        <v>9.532349999999999</v>
+        <v>9.156180000000001</v>
       </c>
       <c r="AE4">
-        <v>9.532349999999999</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>61</v>
+        <v>9.156180000000001</v>
+      </c>
+      <c r="AF4">
+        <v>9.156180000000001</v>
+      </c>
+      <c r="AG4">
+        <v>0.83209</v>
       </c>
       <c r="AH4">
-        <v>2.00321</v>
+        <v>2.02304</v>
       </c>
       <c r="AI4">
-        <v>0.241084</v>
+        <v>0.241094</v>
       </c>
       <c r="AJ4">
-        <v>0.0781176</v>
+        <v>0.0828034</v>
       </c>
       <c r="AK4">
-        <v>0.0737558</v>
+        <v>0.08738659999999999</v>
       </c>
       <c r="AL4">
-        <v>0.0756357</v>
+        <v>0.08089250000000001</v>
       </c>
       <c r="AM4">
-        <v>0.245578</v>
+        <v>0.239484</v>
       </c>
       <c r="AN4">
-        <v>875.159</v>
+        <v>0.4911219999999999</v>
       </c>
       <c r="AO4">
-        <v>830.759</v>
+        <v>875.586</v>
       </c>
       <c r="AP4">
-        <v>887.088</v>
+        <v>829.3870000000001</v>
       </c>
       <c r="AQ4">
-        <v>741.957</v>
+        <v>884.218</v>
       </c>
       <c r="AR4">
-        <v>798.85</v>
+        <v>738.672</v>
       </c>
       <c r="AS4">
-        <v>724.3390000000001</v>
+        <v>795.465</v>
       </c>
       <c r="AT4">
-        <v>780.884</v>
+        <v>724.682</v>
       </c>
       <c r="AU4">
-        <v>736.389</v>
+        <v>780.2560000000001</v>
       </c>
       <c r="AV4">
-        <v>792.942</v>
+        <v>733.327</v>
       </c>
       <c r="AW4">
-        <v>746.788</v>
+        <v>789.535</v>
+      </c>
+      <c r="AX4">
+        <v>743.5930000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:50">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
         <v>69</v>
@@ -1406,119 +1415,122 @@
       <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>61</v>
+      <c r="M5">
+        <v>50.6326</v>
+      </c>
+      <c r="N5">
+        <v>12.5481</v>
       </c>
       <c r="O5">
-        <v>16.3925</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>61</v>
+        <v>17.3804</v>
+      </c>
+      <c r="P5">
+        <v>28.681</v>
+      </c>
+      <c r="Q5">
+        <v>50.6314</v>
+      </c>
+      <c r="R5">
+        <v>99.99760000000001</v>
+      </c>
+      <c r="S5">
+        <v>28.0482</v>
+      </c>
+      <c r="T5">
+        <v>28.681</v>
       </c>
       <c r="U5">
-        <v>16.3925</v>
+        <v>17.3804</v>
       </c>
       <c r="V5">
-        <v>12.7788</v>
+        <v>9.49315</v>
       </c>
       <c r="W5">
-        <v>12.8228</v>
+        <v>7.9251</v>
       </c>
       <c r="X5">
-        <v>12.3399</v>
+        <v>12.3873</v>
       </c>
       <c r="Y5">
-        <v>12.3399</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>61</v>
+        <v>12.3873</v>
+      </c>
+      <c r="Z5">
+        <v>12.384</v>
       </c>
       <c r="AA5">
-        <v>16.1305</v>
+        <v>17.3089</v>
       </c>
       <c r="AB5">
-        <v>11.9954</v>
+        <v>9.592510000000001</v>
       </c>
       <c r="AC5">
-        <v>12.2657</v>
+        <v>8.07452</v>
       </c>
       <c r="AD5">
-        <v>13.1633</v>
+        <v>12.5481</v>
       </c>
       <c r="AE5">
-        <v>13.1633</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>61</v>
+        <v>12.5481</v>
+      </c>
+      <c r="AF5">
+        <v>12.5481</v>
+      </c>
+      <c r="AG5">
+        <v>0.677546</v>
       </c>
       <c r="AH5">
-        <v>1.84456</v>
+        <v>1.86051</v>
       </c>
       <c r="AI5">
-        <v>0.289081</v>
+        <v>0.289891</v>
       </c>
       <c r="AJ5">
-        <v>0.06430620000000001</v>
+        <v>0.0680386</v>
       </c>
       <c r="AK5">
-        <v>0.06333079999999999</v>
+        <v>0.07713959999999999</v>
       </c>
       <c r="AL5">
-        <v>0.06419320000000001</v>
+        <v>0.06970459999999999</v>
       </c>
       <c r="AM5">
-        <v>0.206195</v>
+        <v>0.197897</v>
       </c>
       <c r="AN5">
-        <v>876.066</v>
+        <v>0.464528</v>
       </c>
       <c r="AO5">
-        <v>833.72</v>
+        <v>876.538</v>
       </c>
       <c r="AP5">
-        <v>891.155</v>
+        <v>831.8869999999999</v>
       </c>
       <c r="AQ5">
-        <v>748.001</v>
+        <v>887.403</v>
       </c>
       <c r="AR5">
-        <v>806.068</v>
+        <v>743.6750000000001</v>
       </c>
       <c r="AS5">
-        <v>725.97</v>
+        <v>801.588</v>
       </c>
       <c r="AT5">
-        <v>783.4010000000001</v>
+        <v>726.354</v>
       </c>
       <c r="AU5">
-        <v>741.1180000000001</v>
+        <v>782.518</v>
       </c>
       <c r="AV5">
-        <v>798.794</v>
+        <v>737.0509999999999</v>
       </c>
       <c r="AW5">
-        <v>754.0780000000001</v>
+        <v>794.306</v>
+      </c>
+      <c r="AX5">
+        <v>749.854</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1541,7 +1553,7 @@
         <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
         <v>69</v>
@@ -1555,119 +1567,122 @@
       <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>61</v>
+      <c r="M6">
+        <v>50.5976</v>
+      </c>
+      <c r="N6">
+        <v>11.0375</v>
       </c>
       <c r="O6">
-        <v>15.5633</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>61</v>
+        <v>16.4492</v>
+      </c>
+      <c r="P6">
+        <v>25.0822</v>
+      </c>
+      <c r="Q6">
+        <v>50.5963</v>
+      </c>
+      <c r="R6">
+        <v>99.9974</v>
+      </c>
+      <c r="S6">
+        <v>24.4845</v>
+      </c>
+      <c r="T6">
+        <v>25.0822</v>
       </c>
       <c r="U6">
-        <v>15.5633</v>
+        <v>16.4492</v>
       </c>
       <c r="V6">
-        <v>11.3003</v>
+        <v>8.575519999999999</v>
       </c>
       <c r="W6">
-        <v>11.1795</v>
+        <v>6.98144</v>
       </c>
       <c r="X6">
-        <v>10.8126</v>
+        <v>10.8649</v>
       </c>
       <c r="Y6">
-        <v>10.8126</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>61</v>
+        <v>10.8649</v>
+      </c>
+      <c r="Z6">
+        <v>10.8638</v>
       </c>
       <c r="AA6">
-        <v>15.3452</v>
+        <v>16.4048</v>
       </c>
       <c r="AB6">
-        <v>10.66</v>
+        <v>8.66023</v>
       </c>
       <c r="AC6">
-        <v>10.7017</v>
+        <v>7.10193</v>
       </c>
       <c r="AD6">
-        <v>11.5902</v>
+        <v>11.0375</v>
       </c>
       <c r="AE6">
-        <v>11.5902</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>61</v>
+        <v>11.0375</v>
+      </c>
+      <c r="AF6">
+        <v>11.0375</v>
+      </c>
+      <c r="AG6">
+        <v>0.827819</v>
       </c>
       <c r="AH6">
-        <v>2.48748</v>
+        <v>2.50951</v>
       </c>
       <c r="AI6">
-        <v>0.424958</v>
+        <v>0.425881</v>
       </c>
       <c r="AJ6">
-        <v>0.0873423</v>
+        <v>0.0919864</v>
       </c>
       <c r="AK6">
-        <v>0.0819236</v>
+        <v>0.103118</v>
       </c>
       <c r="AL6">
-        <v>0.0815757</v>
+        <v>0.0893133</v>
       </c>
       <c r="AM6">
-        <v>0.261547</v>
+        <v>0.248396</v>
       </c>
       <c r="AN6">
-        <v>874.933</v>
+        <v>0.591548</v>
       </c>
       <c r="AO6">
-        <v>831.5060000000001</v>
+        <v>875.379</v>
       </c>
       <c r="AP6">
-        <v>887.827</v>
+        <v>829.9770000000001</v>
       </c>
       <c r="AQ6">
-        <v>743.669</v>
+        <v>884.729</v>
       </c>
       <c r="AR6">
-        <v>800.6640000000001</v>
+        <v>740.1080000000001</v>
       </c>
       <c r="AS6">
-        <v>724.826</v>
+        <v>796.994</v>
       </c>
       <c r="AT6">
-        <v>781.212</v>
+        <v>725.204</v>
       </c>
       <c r="AU6">
-        <v>737.7969999999999</v>
+        <v>780.556</v>
       </c>
       <c r="AV6">
-        <v>794.3960000000001</v>
+        <v>734.414</v>
       </c>
       <c r="AW6">
-        <v>748.849</v>
+        <v>790.707</v>
+      </c>
+      <c r="AX6">
+        <v>745.374</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:50">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1690,7 +1705,7 @@
         <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -1704,119 +1719,122 @@
       <c r="L7" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>61</v>
+      <c r="M7">
+        <v>50.901</v>
+      </c>
+      <c r="N7">
+        <v>10.7711</v>
       </c>
       <c r="O7">
-        <v>14.3641</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>61</v>
+        <v>15.206</v>
+      </c>
+      <c r="P7">
+        <v>28.4223</v>
+      </c>
+      <c r="Q7">
+        <v>50.9016</v>
+      </c>
+      <c r="R7">
+        <v>100.001</v>
+      </c>
+      <c r="S7">
+        <v>27.5221</v>
+      </c>
+      <c r="T7">
+        <v>28.4223</v>
       </c>
       <c r="U7">
-        <v>14.3641</v>
+        <v>15.206</v>
       </c>
       <c r="V7">
-        <v>10.9496</v>
+        <v>7.890779999999999</v>
       </c>
       <c r="W7">
-        <v>11.0904</v>
+        <v>6.76806</v>
       </c>
       <c r="X7">
-        <v>10.5791</v>
+        <v>10.7699</v>
       </c>
       <c r="Y7">
-        <v>10.5791</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>61</v>
+        <v>10.7699</v>
+      </c>
+      <c r="Z7">
+        <v>10.7711</v>
       </c>
       <c r="AA7">
-        <v>14.1074</v>
+        <v>14.8942</v>
       </c>
       <c r="AB7">
-        <v>10.0355</v>
+        <v>7.85669</v>
       </c>
       <c r="AC7">
-        <v>10.2839</v>
+        <v>6.74796</v>
       </c>
       <c r="AD7">
-        <v>10.9406</v>
+        <v>10.4664</v>
       </c>
       <c r="AE7">
-        <v>10.9406</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>61</v>
+        <v>10.4664</v>
+      </c>
+      <c r="AF7">
+        <v>10.4664</v>
+      </c>
+      <c r="AG7">
+        <v>0.681575</v>
       </c>
       <c r="AH7">
-        <v>1.44851</v>
+        <v>1.46351</v>
       </c>
       <c r="AI7">
-        <v>0.129802</v>
+        <v>0.129809</v>
       </c>
       <c r="AJ7">
-        <v>0.05701349999999999</v>
+        <v>0.060757</v>
       </c>
       <c r="AK7">
-        <v>0.0570363</v>
+        <v>0.0650447</v>
       </c>
       <c r="AL7">
-        <v>0.0592888</v>
+        <v>0.06292349999999999</v>
       </c>
       <c r="AM7">
-        <v>0.193061</v>
+        <v>0.190318</v>
       </c>
       <c r="AN7">
-        <v>876.8299999999999</v>
+        <v>0.379483</v>
       </c>
       <c r="AO7">
-        <v>833.634</v>
+        <v>877.284</v>
       </c>
       <c r="AP7">
-        <v>891.336</v>
+        <v>831.938</v>
       </c>
       <c r="AQ7">
-        <v>747.331</v>
+        <v>887.715</v>
       </c>
       <c r="AR7">
-        <v>805.602</v>
+        <v>743.149</v>
       </c>
       <c r="AS7">
-        <v>725.8630000000001</v>
+        <v>801.268</v>
       </c>
       <c r="AT7">
-        <v>783.747</v>
+        <v>726.2120000000001</v>
       </c>
       <c r="AU7">
-        <v>740.501</v>
+        <v>782.865</v>
       </c>
       <c r="AV7">
-        <v>798.4060000000001</v>
+        <v>736.6799999999999</v>
       </c>
       <c r="AW7">
-        <v>753.215</v>
+        <v>794.047</v>
+      </c>
+      <c r="AX7">
+        <v>749.158</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1839,7 +1857,7 @@
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
         <v>81</v>
@@ -1853,119 +1871,122 @@
       <c r="L8" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>61</v>
+      <c r="M8">
+        <v>50.8631</v>
+      </c>
+      <c r="N8">
+        <v>9.27651</v>
       </c>
       <c r="O8">
-        <v>13.5432</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>61</v>
+        <v>14.3237</v>
+      </c>
+      <c r="P8">
+        <v>23.9102</v>
+      </c>
+      <c r="Q8">
+        <v>50.8626</v>
+      </c>
+      <c r="R8">
+        <v>99.99890000000001</v>
+      </c>
+      <c r="S8">
+        <v>23.0482</v>
+      </c>
+      <c r="T8">
+        <v>23.9102</v>
       </c>
       <c r="U8">
-        <v>13.5432</v>
+        <v>14.3237</v>
       </c>
       <c r="V8">
-        <v>9.447859999999999</v>
+        <v>6.985910000000001</v>
       </c>
       <c r="W8">
-        <v>9.455769999999999</v>
+        <v>5.83343</v>
       </c>
       <c r="X8">
-        <v>9.09474</v>
+        <v>9.27679</v>
       </c>
       <c r="Y8">
-        <v>9.09474</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>61</v>
+        <v>9.27679</v>
+      </c>
+      <c r="Z8">
+        <v>9.27651</v>
       </c>
       <c r="AA8">
-        <v>13.2721</v>
+        <v>14.1658</v>
       </c>
       <c r="AB8">
-        <v>8.766640000000001</v>
+        <v>6.97422</v>
       </c>
       <c r="AC8">
-        <v>8.843530000000001</v>
+        <v>5.852910000000001</v>
       </c>
       <c r="AD8">
-        <v>9.532349999999999</v>
+        <v>9.156180000000001</v>
       </c>
       <c r="AE8">
-        <v>9.532349999999999</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>61</v>
+        <v>9.156180000000001</v>
+      </c>
+      <c r="AF8">
+        <v>9.156180000000001</v>
+      </c>
+      <c r="AG8">
+        <v>0.83209</v>
       </c>
       <c r="AH8">
-        <v>2.00321</v>
+        <v>2.02304</v>
       </c>
       <c r="AI8">
-        <v>0.241084</v>
+        <v>0.241094</v>
       </c>
       <c r="AJ8">
-        <v>0.0781176</v>
+        <v>0.0828034</v>
       </c>
       <c r="AK8">
-        <v>0.0737558</v>
+        <v>0.08738659999999999</v>
       </c>
       <c r="AL8">
-        <v>0.0756357</v>
+        <v>0.08089250000000001</v>
       </c>
       <c r="AM8">
-        <v>0.245578</v>
+        <v>0.239484</v>
       </c>
       <c r="AN8">
-        <v>875.159</v>
+        <v>0.4911219999999999</v>
       </c>
       <c r="AO8">
-        <v>830.759</v>
+        <v>875.586</v>
       </c>
       <c r="AP8">
-        <v>887.088</v>
+        <v>829.3870000000001</v>
       </c>
       <c r="AQ8">
-        <v>741.957</v>
+        <v>884.218</v>
       </c>
       <c r="AR8">
-        <v>798.85</v>
+        <v>738.672</v>
       </c>
       <c r="AS8">
-        <v>724.3390000000001</v>
+        <v>795.465</v>
       </c>
       <c r="AT8">
-        <v>780.884</v>
+        <v>724.682</v>
       </c>
       <c r="AU8">
-        <v>736.389</v>
+        <v>780.2560000000001</v>
       </c>
       <c r="AV8">
-        <v>792.942</v>
+        <v>733.327</v>
       </c>
       <c r="AW8">
-        <v>746.788</v>
+        <v>789.535</v>
+      </c>
+      <c r="AX8">
+        <v>743.5930000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:50">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1988,7 +2009,7 @@
         <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
         <v>81</v>
@@ -2002,119 +2023,122 @@
       <c r="L9" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>61</v>
+      <c r="M9">
+        <v>50.6326</v>
+      </c>
+      <c r="N9">
+        <v>12.5481</v>
       </c>
       <c r="O9">
-        <v>16.3925</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>61</v>
+        <v>17.3804</v>
+      </c>
+      <c r="P9">
+        <v>28.681</v>
+      </c>
+      <c r="Q9">
+        <v>50.6314</v>
+      </c>
+      <c r="R9">
+        <v>99.99760000000001</v>
+      </c>
+      <c r="S9">
+        <v>28.0482</v>
+      </c>
+      <c r="T9">
+        <v>28.681</v>
       </c>
       <c r="U9">
-        <v>16.3925</v>
+        <v>17.3804</v>
       </c>
       <c r="V9">
-        <v>12.7788</v>
+        <v>9.49315</v>
       </c>
       <c r="W9">
-        <v>12.8228</v>
+        <v>7.9251</v>
       </c>
       <c r="X9">
-        <v>12.3399</v>
+        <v>12.3873</v>
       </c>
       <c r="Y9">
-        <v>12.3399</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>61</v>
+        <v>12.3873</v>
+      </c>
+      <c r="Z9">
+        <v>12.384</v>
       </c>
       <c r="AA9">
-        <v>16.1305</v>
+        <v>17.3089</v>
       </c>
       <c r="AB9">
-        <v>11.9954</v>
+        <v>9.592510000000001</v>
       </c>
       <c r="AC9">
-        <v>12.2657</v>
+        <v>8.07452</v>
       </c>
       <c r="AD9">
-        <v>13.1633</v>
+        <v>12.5481</v>
       </c>
       <c r="AE9">
-        <v>13.1633</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>61</v>
+        <v>12.5481</v>
+      </c>
+      <c r="AF9">
+        <v>12.5481</v>
+      </c>
+      <c r="AG9">
+        <v>0.677546</v>
       </c>
       <c r="AH9">
-        <v>1.84456</v>
+        <v>1.86051</v>
       </c>
       <c r="AI9">
-        <v>0.289081</v>
+        <v>0.289891</v>
       </c>
       <c r="AJ9">
-        <v>0.06430620000000001</v>
+        <v>0.0680386</v>
       </c>
       <c r="AK9">
-        <v>0.06333079999999999</v>
+        <v>0.07713959999999999</v>
       </c>
       <c r="AL9">
-        <v>0.06419320000000001</v>
+        <v>0.06970459999999999</v>
       </c>
       <c r="AM9">
-        <v>0.206195</v>
+        <v>0.197897</v>
       </c>
       <c r="AN9">
-        <v>876.066</v>
+        <v>0.464528</v>
       </c>
       <c r="AO9">
-        <v>833.72</v>
+        <v>876.538</v>
       </c>
       <c r="AP9">
-        <v>891.155</v>
+        <v>831.8869999999999</v>
       </c>
       <c r="AQ9">
-        <v>748.001</v>
+        <v>887.403</v>
       </c>
       <c r="AR9">
-        <v>806.068</v>
+        <v>743.6750000000001</v>
       </c>
       <c r="AS9">
-        <v>725.97</v>
+        <v>801.588</v>
       </c>
       <c r="AT9">
-        <v>783.4010000000001</v>
+        <v>726.354</v>
       </c>
       <c r="AU9">
-        <v>741.1180000000001</v>
+        <v>782.518</v>
       </c>
       <c r="AV9">
-        <v>798.794</v>
+        <v>737.0509999999999</v>
       </c>
       <c r="AW9">
-        <v>754.0780000000001</v>
+        <v>794.306</v>
+      </c>
+      <c r="AX9">
+        <v>749.854</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -2137,7 +2161,7 @@
         <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
         <v>81</v>
@@ -2151,119 +2175,122 @@
       <c r="L10" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>61</v>
+      <c r="M10">
+        <v>50.5976</v>
+      </c>
+      <c r="N10">
+        <v>11.0375</v>
       </c>
       <c r="O10">
-        <v>15.5633</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>61</v>
+        <v>16.4492</v>
+      </c>
+      <c r="P10">
+        <v>25.0822</v>
+      </c>
+      <c r="Q10">
+        <v>50.5963</v>
+      </c>
+      <c r="R10">
+        <v>99.9974</v>
+      </c>
+      <c r="S10">
+        <v>24.4845</v>
+      </c>
+      <c r="T10">
+        <v>25.0822</v>
       </c>
       <c r="U10">
-        <v>15.5633</v>
+        <v>16.4492</v>
       </c>
       <c r="V10">
-        <v>11.3003</v>
+        <v>8.575519999999999</v>
       </c>
       <c r="W10">
-        <v>11.1795</v>
+        <v>6.98144</v>
       </c>
       <c r="X10">
-        <v>10.8126</v>
+        <v>10.8649</v>
       </c>
       <c r="Y10">
-        <v>10.8126</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>61</v>
+        <v>10.8649</v>
+      </c>
+      <c r="Z10">
+        <v>10.8638</v>
       </c>
       <c r="AA10">
-        <v>15.3452</v>
+        <v>16.4048</v>
       </c>
       <c r="AB10">
-        <v>10.66</v>
+        <v>8.66023</v>
       </c>
       <c r="AC10">
-        <v>10.7017</v>
+        <v>7.10193</v>
       </c>
       <c r="AD10">
-        <v>11.5902</v>
+        <v>11.0375</v>
       </c>
       <c r="AE10">
-        <v>11.5902</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>61</v>
+        <v>11.0375</v>
+      </c>
+      <c r="AF10">
+        <v>11.0375</v>
+      </c>
+      <c r="AG10">
+        <v>0.827819</v>
       </c>
       <c r="AH10">
-        <v>2.48748</v>
+        <v>2.50951</v>
       </c>
       <c r="AI10">
-        <v>0.424958</v>
+        <v>0.425881</v>
       </c>
       <c r="AJ10">
-        <v>0.0873423</v>
+        <v>0.0919864</v>
       </c>
       <c r="AK10">
-        <v>0.0819236</v>
+        <v>0.103118</v>
       </c>
       <c r="AL10">
-        <v>0.0815757</v>
+        <v>0.0893133</v>
       </c>
       <c r="AM10">
-        <v>0.261547</v>
+        <v>0.248396</v>
       </c>
       <c r="AN10">
-        <v>874.933</v>
+        <v>0.591548</v>
       </c>
       <c r="AO10">
-        <v>831.5060000000001</v>
+        <v>875.379</v>
       </c>
       <c r="AP10">
-        <v>887.827</v>
+        <v>829.9770000000001</v>
       </c>
       <c r="AQ10">
-        <v>743.669</v>
+        <v>884.729</v>
       </c>
       <c r="AR10">
-        <v>800.6640000000001</v>
+        <v>740.1080000000001</v>
       </c>
       <c r="AS10">
-        <v>724.826</v>
+        <v>796.994</v>
       </c>
       <c r="AT10">
-        <v>781.212</v>
+        <v>725.204</v>
       </c>
       <c r="AU10">
-        <v>737.7969999999999</v>
+        <v>780.556</v>
       </c>
       <c r="AV10">
-        <v>794.3960000000001</v>
+        <v>734.414</v>
       </c>
       <c r="AW10">
-        <v>748.849</v>
+        <v>790.707</v>
+      </c>
+      <c r="AX10">
+        <v>745.374</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:50">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -2286,7 +2313,7 @@
         <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
         <v>69</v>
@@ -2300,119 +2327,122 @@
       <c r="L11" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>61</v>
+      <c r="M11">
+        <v>49.9464</v>
+      </c>
+      <c r="N11">
+        <v>17.7431</v>
       </c>
       <c r="O11">
-        <v>18.5953</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>61</v>
+        <v>19.4462</v>
+      </c>
+      <c r="P11">
+        <v>49.2671</v>
+      </c>
+      <c r="Q11">
+        <v>49.9458</v>
+      </c>
+      <c r="R11">
+        <v>99.9988</v>
+      </c>
+      <c r="S11">
+        <v>49.2671</v>
+      </c>
+      <c r="T11">
+        <v>49.2146</v>
       </c>
       <c r="U11">
-        <v>18.5264</v>
+        <v>19.3741</v>
       </c>
       <c r="V11">
-        <v>18.2736</v>
+        <v>12.4708</v>
       </c>
       <c r="W11">
-        <v>18.3169</v>
+        <v>10.7706</v>
       </c>
       <c r="X11">
-        <v>17.5243</v>
+        <v>17.7444</v>
       </c>
       <c r="Y11">
-        <v>17.5243</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>61</v>
+        <v>17.7444</v>
+      </c>
+      <c r="Z11">
+        <v>17.7431</v>
       </c>
       <c r="AA11">
-        <v>18.5953</v>
+        <v>19.4462</v>
       </c>
       <c r="AB11">
-        <v>16.896</v>
+        <v>12.3022</v>
       </c>
       <c r="AC11">
-        <v>17.3165</v>
+        <v>10.7361</v>
       </c>
       <c r="AD11">
-        <v>17.7401</v>
+        <v>16.8546</v>
       </c>
       <c r="AE11">
-        <v>17.7401</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>61</v>
+        <v>16.8546</v>
+      </c>
+      <c r="AF11">
+        <v>16.8546</v>
+      </c>
+      <c r="AG11">
+        <v>0.684044</v>
       </c>
       <c r="AH11">
-        <v>1.18003</v>
+        <v>1.19302</v>
       </c>
       <c r="AI11">
-        <v>0.0204485</v>
+        <v>0.0204486</v>
       </c>
       <c r="AJ11">
-        <v>0.0487749</v>
+        <v>0.0520046</v>
       </c>
       <c r="AK11">
-        <v>0.0516284</v>
+        <v>0.0562769</v>
       </c>
       <c r="AL11">
-        <v>0.0523198</v>
+        <v>0.0553613</v>
       </c>
       <c r="AM11">
-        <v>0.177522</v>
+        <v>0.177694</v>
       </c>
       <c r="AN11">
-        <v>882.6950000000001</v>
+        <v>0.341341</v>
       </c>
       <c r="AO11">
-        <v>847.338</v>
+        <v>883.197</v>
       </c>
       <c r="AP11">
-        <v>911.042</v>
+        <v>844.159</v>
       </c>
       <c r="AQ11">
-        <v>774.444</v>
+        <v>903.384</v>
       </c>
       <c r="AR11">
-        <v>835.899</v>
+        <v>764.889</v>
       </c>
       <c r="AS11">
-        <v>732.538</v>
+        <v>826.136</v>
       </c>
       <c r="AT11">
-        <v>796.381</v>
+        <v>732.91</v>
       </c>
       <c r="AU11">
-        <v>761.264</v>
+        <v>794.194</v>
       </c>
       <c r="AV11">
-        <v>824.6320000000001</v>
+        <v>753.182</v>
       </c>
       <c r="AW11">
-        <v>783.785</v>
+        <v>814.8399999999999</v>
+      </c>
+      <c r="AX11">
+        <v>774.426</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2435,7 +2465,7 @@
         <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
         <v>69</v>
@@ -2449,119 +2479,122 @@
       <c r="L12" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>61</v>
+      <c r="M12">
+        <v>50.0946</v>
+      </c>
+      <c r="N12">
+        <v>13.428</v>
       </c>
       <c r="O12">
-        <v>15.5865</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>61</v>
+        <v>16.3694</v>
+      </c>
+      <c r="P12">
+        <v>36.1707</v>
+      </c>
+      <c r="Q12">
+        <v>50.094</v>
+      </c>
+      <c r="R12">
+        <v>99.9988</v>
+      </c>
+      <c r="S12">
+        <v>36.0741</v>
+      </c>
+      <c r="T12">
+        <v>36.1707</v>
       </c>
       <c r="U12">
-        <v>15.4548</v>
+        <v>16.2029</v>
       </c>
       <c r="V12">
-        <v>13.4785</v>
+        <v>9.335889999999999</v>
       </c>
       <c r="W12">
-        <v>13.6825</v>
+        <v>8.145519999999999</v>
       </c>
       <c r="X12">
-        <v>13.2205</v>
+        <v>13.4301</v>
       </c>
       <c r="Y12">
-        <v>13.2205</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>61</v>
+        <v>13.4301</v>
+      </c>
+      <c r="Z12">
+        <v>13.428</v>
       </c>
       <c r="AA12">
-        <v>15.5865</v>
+        <v>16.3694</v>
       </c>
       <c r="AB12">
-        <v>12.57</v>
+        <v>9.295160000000001</v>
       </c>
       <c r="AC12">
-        <v>13.0573</v>
+        <v>8.221680000000001</v>
       </c>
       <c r="AD12">
-        <v>13.66</v>
+        <v>13.1228</v>
       </c>
       <c r="AE12">
-        <v>13.66</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>61</v>
+        <v>13.1228</v>
+      </c>
+      <c r="AF12">
+        <v>13.1228</v>
+      </c>
+      <c r="AG12">
+        <v>0.835347</v>
       </c>
       <c r="AH12">
-        <v>1.56285</v>
+        <v>1.57692</v>
       </c>
       <c r="AI12">
-        <v>0.0684795</v>
+        <v>0.0684797</v>
       </c>
       <c r="AJ12">
-        <v>0.0622858</v>
+        <v>0.0664029</v>
       </c>
       <c r="AK12">
-        <v>0.06485589999999999</v>
+        <v>0.07070900000000001</v>
       </c>
       <c r="AL12">
-        <v>0.0669352</v>
+        <v>0.07052269999999999</v>
       </c>
       <c r="AM12">
-        <v>0.223989</v>
+        <v>0.223412</v>
       </c>
       <c r="AN12">
-        <v>879.327</v>
+        <v>0.431058</v>
       </c>
       <c r="AO12">
-        <v>839.3919999999999</v>
+        <v>879.771</v>
       </c>
       <c r="AP12">
-        <v>898.907</v>
+        <v>837.083</v>
       </c>
       <c r="AQ12">
-        <v>758.067</v>
+        <v>893.549</v>
       </c>
       <c r="AR12">
-        <v>816.5</v>
+        <v>751.7</v>
       </c>
       <c r="AS12">
-        <v>729.1990000000001</v>
+        <v>809.928</v>
       </c>
       <c r="AT12">
-        <v>788.76</v>
+        <v>729.5409999999999</v>
       </c>
       <c r="AU12">
-        <v>748.9589999999999</v>
+        <v>787.2020000000001</v>
       </c>
       <c r="AV12">
-        <v>808.383</v>
+        <v>743.3819999999999</v>
       </c>
       <c r="AW12">
-        <v>764.776</v>
+        <v>801.796</v>
+      </c>
+      <c r="AX12">
+        <v>758.524</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:50">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -2584,7 +2617,7 @@
         <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
         <v>69</v>
@@ -2598,119 +2631,122 @@
       <c r="L13" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>61</v>
+      <c r="M13">
+        <v>49.7717</v>
+      </c>
+      <c r="N13">
+        <v>19.1737</v>
       </c>
       <c r="O13">
-        <v>20.3307</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>61</v>
+        <v>21.6066</v>
+      </c>
+      <c r="P13">
+        <v>46.7618</v>
+      </c>
+      <c r="Q13">
+        <v>49.7724</v>
+      </c>
+      <c r="R13">
+        <v>100.002</v>
+      </c>
+      <c r="S13">
+        <v>46.7618</v>
+      </c>
+      <c r="T13">
+        <v>46.5346</v>
       </c>
       <c r="U13">
-        <v>19.8539</v>
+        <v>20.884</v>
       </c>
       <c r="V13">
-        <v>19.3184</v>
+        <v>13.4036</v>
       </c>
       <c r="W13">
-        <v>19.5057</v>
+        <v>11.5928</v>
       </c>
       <c r="X13">
-        <v>18.9385</v>
+        <v>18.8827</v>
       </c>
       <c r="Y13">
-        <v>18.9385</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>61</v>
+        <v>18.8827</v>
+      </c>
+      <c r="Z13">
+        <v>18.883</v>
       </c>
       <c r="AA13">
-        <v>20.3307</v>
+        <v>21.6066</v>
       </c>
       <c r="AB13">
-        <v>18.4227</v>
+        <v>13.5067</v>
       </c>
       <c r="AC13">
-        <v>19.1437</v>
+        <v>11.9534</v>
       </c>
       <c r="AD13">
-        <v>20.104</v>
+        <v>19.1737</v>
       </c>
       <c r="AE13">
-        <v>20.104</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>61</v>
+        <v>19.1737</v>
+      </c>
+      <c r="AF13">
+        <v>19.1737</v>
+      </c>
+      <c r="AG13">
+        <v>0.680082</v>
       </c>
       <c r="AH13">
-        <v>1.31413</v>
+        <v>1.326</v>
       </c>
       <c r="AI13">
-        <v>0.0514044</v>
+        <v>0.0514337</v>
       </c>
       <c r="AJ13">
-        <v>0.0500251</v>
+        <v>0.0532789</v>
       </c>
       <c r="AK13">
-        <v>0.0527171</v>
+        <v>0.05836</v>
       </c>
       <c r="AL13">
-        <v>0.0535012</v>
+        <v>0.05699489999999999</v>
       </c>
       <c r="AM13">
-        <v>0.180748</v>
+        <v>0.179654</v>
       </c>
       <c r="AN13">
-        <v>881.063</v>
+        <v>0.350214</v>
       </c>
       <c r="AO13">
-        <v>845.471</v>
+        <v>881.547</v>
       </c>
       <c r="AP13">
-        <v>907.9440000000001</v>
+        <v>842.252</v>
       </c>
       <c r="AQ13">
-        <v>771.333</v>
+        <v>900.5840000000001</v>
       </c>
       <c r="AR13">
-        <v>832.023</v>
+        <v>762.388</v>
       </c>
       <c r="AS13">
-        <v>731.787</v>
+        <v>822.826</v>
       </c>
       <c r="AT13">
-        <v>794.269</v>
+        <v>732.183</v>
       </c>
       <c r="AU13">
-        <v>759.066</v>
+        <v>792.0170000000001</v>
       </c>
       <c r="AV13">
-        <v>821.355</v>
+        <v>751.217</v>
       </c>
       <c r="AW13">
-        <v>780.299</v>
+        <v>812.1600000000001</v>
+      </c>
+      <c r="AX13">
+        <v>771.4680000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -2733,7 +2769,7 @@
         <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
         <v>69</v>
@@ -2747,119 +2783,122 @@
       <c r="L14" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>61</v>
+      <c r="M14">
+        <v>49.9654</v>
+      </c>
+      <c r="N14">
+        <v>15.3311</v>
       </c>
       <c r="O14">
-        <v>17.3441</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>61</v>
+        <v>18.6025</v>
+      </c>
+      <c r="P14">
+        <v>36.2876</v>
+      </c>
+      <c r="Q14">
+        <v>49.966</v>
+      </c>
+      <c r="R14">
+        <v>100.001</v>
+      </c>
+      <c r="S14">
+        <v>36.2876</v>
+      </c>
+      <c r="T14">
+        <v>36.2493</v>
       </c>
       <c r="U14">
-        <v>17.1161</v>
+        <v>18.0884</v>
       </c>
       <c r="V14">
-        <v>15.1404</v>
+        <v>10.6209</v>
       </c>
       <c r="W14">
-        <v>15.394</v>
+        <v>9.22439</v>
       </c>
       <c r="X14">
-        <v>15.0052</v>
+        <v>15.0747</v>
       </c>
       <c r="Y14">
-        <v>15.0052</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>61</v>
+        <v>15.0747</v>
+      </c>
+      <c r="Z14">
+        <v>15.0763</v>
       </c>
       <c r="AA14">
-        <v>17.3441</v>
+        <v>18.6025</v>
       </c>
       <c r="AB14">
-        <v>14.3719</v>
+        <v>10.7191</v>
       </c>
       <c r="AC14">
-        <v>15.0139</v>
+        <v>9.498099999999999</v>
       </c>
       <c r="AD14">
-        <v>15.99</v>
+        <v>15.3311</v>
       </c>
       <c r="AE14">
-        <v>15.99</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>61</v>
+        <v>15.3311</v>
+      </c>
+      <c r="AF14">
+        <v>15.3311</v>
+      </c>
+      <c r="AG14">
+        <v>0.8321499999999999</v>
       </c>
       <c r="AH14">
-        <v>1.75991</v>
+        <v>1.77423</v>
       </c>
       <c r="AI14">
-        <v>0.103143</v>
+        <v>0.103176</v>
       </c>
       <c r="AJ14">
-        <v>0.0647177</v>
+        <v>0.06890489999999999</v>
       </c>
       <c r="AK14">
-        <v>0.06665890000000001</v>
+        <v>0.0747051</v>
       </c>
       <c r="AL14">
-        <v>0.0686143</v>
+        <v>0.07274510000000001</v>
       </c>
       <c r="AM14">
-        <v>0.22882</v>
+        <v>0.225923</v>
       </c>
       <c r="AN14">
-        <v>878.4390000000001</v>
+        <v>0.444453</v>
       </c>
       <c r="AO14">
-        <v>839.183</v>
+        <v>878.9240000000001</v>
       </c>
       <c r="AP14">
-        <v>898.55</v>
+        <v>836.7049999999999</v>
       </c>
       <c r="AQ14">
-        <v>758.386</v>
+        <v>893.024</v>
       </c>
       <c r="AR14">
-        <v>816.866</v>
+        <v>751.915</v>
       </c>
       <c r="AS14">
-        <v>728.9960000000001</v>
+        <v>810.155</v>
       </c>
       <c r="AT14">
-        <v>788.303</v>
+        <v>729.386</v>
       </c>
       <c r="AU14">
-        <v>749.2460000000001</v>
+        <v>786.6350000000001</v>
       </c>
       <c r="AV14">
-        <v>808.592</v>
+        <v>743.4000000000001</v>
       </c>
       <c r="AW14">
-        <v>765.266</v>
+        <v>801.874</v>
+      </c>
+      <c r="AX14">
+        <v>758.8860000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:50">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -2882,7 +2921,7 @@
         <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
         <v>81</v>
@@ -2896,119 +2935,122 @@
       <c r="L15" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>61</v>
+      <c r="M15">
+        <v>49.9464</v>
+      </c>
+      <c r="N15">
+        <v>17.7431</v>
       </c>
       <c r="O15">
-        <v>18.5953</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>61</v>
+        <v>19.4462</v>
+      </c>
+      <c r="P15">
+        <v>49.2671</v>
+      </c>
+      <c r="Q15">
+        <v>49.9458</v>
+      </c>
+      <c r="R15">
+        <v>99.9988</v>
+      </c>
+      <c r="S15">
+        <v>49.2671</v>
+      </c>
+      <c r="T15">
+        <v>49.2146</v>
       </c>
       <c r="U15">
-        <v>18.5264</v>
+        <v>19.3741</v>
       </c>
       <c r="V15">
-        <v>18.2736</v>
+        <v>12.4708</v>
       </c>
       <c r="W15">
-        <v>18.3169</v>
+        <v>10.7706</v>
       </c>
       <c r="X15">
-        <v>17.5243</v>
+        <v>17.7444</v>
       </c>
       <c r="Y15">
-        <v>17.5243</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>61</v>
+        <v>17.7444</v>
+      </c>
+      <c r="Z15">
+        <v>17.7431</v>
       </c>
       <c r="AA15">
-        <v>18.5953</v>
+        <v>19.4462</v>
       </c>
       <c r="AB15">
-        <v>16.896</v>
+        <v>12.3022</v>
       </c>
       <c r="AC15">
-        <v>17.3165</v>
+        <v>10.7361</v>
       </c>
       <c r="AD15">
-        <v>17.7401</v>
+        <v>16.8546</v>
       </c>
       <c r="AE15">
-        <v>17.7401</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>61</v>
+        <v>16.8546</v>
+      </c>
+      <c r="AF15">
+        <v>16.8546</v>
+      </c>
+      <c r="AG15">
+        <v>0.684044</v>
       </c>
       <c r="AH15">
-        <v>1.18003</v>
+        <v>1.19302</v>
       </c>
       <c r="AI15">
-        <v>0.0204485</v>
+        <v>0.0204486</v>
       </c>
       <c r="AJ15">
-        <v>0.0487749</v>
+        <v>0.0520046</v>
       </c>
       <c r="AK15">
-        <v>0.0516284</v>
+        <v>0.0562769</v>
       </c>
       <c r="AL15">
-        <v>0.0523198</v>
+        <v>0.0553613</v>
       </c>
       <c r="AM15">
-        <v>0.177522</v>
+        <v>0.177694</v>
       </c>
       <c r="AN15">
-        <v>882.6950000000001</v>
+        <v>0.341341</v>
       </c>
       <c r="AO15">
-        <v>847.338</v>
+        <v>883.197</v>
       </c>
       <c r="AP15">
-        <v>911.042</v>
+        <v>844.159</v>
       </c>
       <c r="AQ15">
-        <v>774.444</v>
+        <v>903.384</v>
       </c>
       <c r="AR15">
-        <v>835.899</v>
+        <v>764.889</v>
       </c>
       <c r="AS15">
-        <v>732.538</v>
+        <v>826.136</v>
       </c>
       <c r="AT15">
-        <v>796.381</v>
+        <v>732.91</v>
       </c>
       <c r="AU15">
-        <v>761.264</v>
+        <v>794.194</v>
       </c>
       <c r="AV15">
-        <v>824.6320000000001</v>
+        <v>753.182</v>
       </c>
       <c r="AW15">
-        <v>783.785</v>
+        <v>814.8399999999999</v>
+      </c>
+      <c r="AX15">
+        <v>774.426</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:50">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -3031,7 +3073,7 @@
         <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
         <v>81</v>
@@ -3045,119 +3087,122 @@
       <c r="L16" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>61</v>
+      <c r="M16">
+        <v>50.0946</v>
+      </c>
+      <c r="N16">
+        <v>13.428</v>
       </c>
       <c r="O16">
-        <v>15.5865</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>61</v>
+        <v>16.3694</v>
+      </c>
+      <c r="P16">
+        <v>36.1707</v>
+      </c>
+      <c r="Q16">
+        <v>50.094</v>
+      </c>
+      <c r="R16">
+        <v>99.9988</v>
+      </c>
+      <c r="S16">
+        <v>36.0741</v>
+      </c>
+      <c r="T16">
+        <v>36.1707</v>
       </c>
       <c r="U16">
-        <v>15.4548</v>
+        <v>16.2029</v>
       </c>
       <c r="V16">
-        <v>13.4785</v>
+        <v>9.335889999999999</v>
       </c>
       <c r="W16">
-        <v>13.6825</v>
+        <v>8.145519999999999</v>
       </c>
       <c r="X16">
-        <v>13.2205</v>
+        <v>13.4301</v>
       </c>
       <c r="Y16">
-        <v>13.2205</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>61</v>
+        <v>13.4301</v>
+      </c>
+      <c r="Z16">
+        <v>13.428</v>
       </c>
       <c r="AA16">
-        <v>15.5865</v>
+        <v>16.3694</v>
       </c>
       <c r="AB16">
-        <v>12.57</v>
+        <v>9.295160000000001</v>
       </c>
       <c r="AC16">
-        <v>13.0573</v>
+        <v>8.221680000000001</v>
       </c>
       <c r="AD16">
-        <v>13.66</v>
+        <v>13.1228</v>
       </c>
       <c r="AE16">
-        <v>13.66</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG16" s="2" t="s">
-        <v>61</v>
+        <v>13.1228</v>
+      </c>
+      <c r="AF16">
+        <v>13.1228</v>
+      </c>
+      <c r="AG16">
+        <v>0.835347</v>
       </c>
       <c r="AH16">
-        <v>1.56285</v>
+        <v>1.57692</v>
       </c>
       <c r="AI16">
-        <v>0.0684795</v>
+        <v>0.0684797</v>
       </c>
       <c r="AJ16">
-        <v>0.0622858</v>
+        <v>0.0664029</v>
       </c>
       <c r="AK16">
-        <v>0.06485589999999999</v>
+        <v>0.07070900000000001</v>
       </c>
       <c r="AL16">
-        <v>0.0669352</v>
+        <v>0.07052269999999999</v>
       </c>
       <c r="AM16">
-        <v>0.223989</v>
+        <v>0.223412</v>
       </c>
       <c r="AN16">
-        <v>879.327</v>
+        <v>0.431058</v>
       </c>
       <c r="AO16">
-        <v>839.3919999999999</v>
+        <v>879.771</v>
       </c>
       <c r="AP16">
-        <v>898.907</v>
+        <v>837.083</v>
       </c>
       <c r="AQ16">
-        <v>758.067</v>
+        <v>893.549</v>
       </c>
       <c r="AR16">
-        <v>816.5</v>
+        <v>751.7</v>
       </c>
       <c r="AS16">
-        <v>729.1990000000001</v>
+        <v>809.928</v>
       </c>
       <c r="AT16">
-        <v>788.76</v>
+        <v>729.5409999999999</v>
       </c>
       <c r="AU16">
-        <v>748.9589999999999</v>
+        <v>787.2020000000001</v>
       </c>
       <c r="AV16">
-        <v>808.383</v>
+        <v>743.3819999999999</v>
       </c>
       <c r="AW16">
-        <v>764.776</v>
+        <v>801.796</v>
+      </c>
+      <c r="AX16">
+        <v>758.524</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:50">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -3180,7 +3225,7 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
         <v>81</v>
@@ -3194,119 +3239,122 @@
       <c r="L17" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>61</v>
+      <c r="M17">
+        <v>49.7717</v>
+      </c>
+      <c r="N17">
+        <v>19.1737</v>
       </c>
       <c r="O17">
-        <v>20.3307</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>61</v>
+        <v>21.6066</v>
+      </c>
+      <c r="P17">
+        <v>46.7618</v>
+      </c>
+      <c r="Q17">
+        <v>49.7724</v>
+      </c>
+      <c r="R17">
+        <v>100.002</v>
+      </c>
+      <c r="S17">
+        <v>46.7618</v>
+      </c>
+      <c r="T17">
+        <v>46.5346</v>
       </c>
       <c r="U17">
-        <v>19.8539</v>
+        <v>20.884</v>
       </c>
       <c r="V17">
-        <v>19.3184</v>
+        <v>13.4036</v>
       </c>
       <c r="W17">
-        <v>19.5057</v>
+        <v>11.5928</v>
       </c>
       <c r="X17">
-        <v>18.9385</v>
+        <v>18.8827</v>
       </c>
       <c r="Y17">
-        <v>18.9385</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>61</v>
+        <v>18.8827</v>
+      </c>
+      <c r="Z17">
+        <v>18.883</v>
       </c>
       <c r="AA17">
-        <v>20.3307</v>
+        <v>21.6066</v>
       </c>
       <c r="AB17">
-        <v>18.4227</v>
+        <v>13.5067</v>
       </c>
       <c r="AC17">
-        <v>19.1437</v>
+        <v>11.9534</v>
       </c>
       <c r="AD17">
-        <v>20.104</v>
+        <v>19.1737</v>
       </c>
       <c r="AE17">
-        <v>20.104</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>61</v>
+        <v>19.1737</v>
+      </c>
+      <c r="AF17">
+        <v>19.1737</v>
+      </c>
+      <c r="AG17">
+        <v>0.680082</v>
       </c>
       <c r="AH17">
-        <v>1.31413</v>
+        <v>1.326</v>
       </c>
       <c r="AI17">
-        <v>0.0514044</v>
+        <v>0.0514337</v>
       </c>
       <c r="AJ17">
-        <v>0.0500251</v>
+        <v>0.0532789</v>
       </c>
       <c r="AK17">
-        <v>0.0527171</v>
+        <v>0.05836</v>
       </c>
       <c r="AL17">
-        <v>0.0535012</v>
+        <v>0.05699489999999999</v>
       </c>
       <c r="AM17">
-        <v>0.180748</v>
+        <v>0.179654</v>
       </c>
       <c r="AN17">
-        <v>881.063</v>
+        <v>0.350214</v>
       </c>
       <c r="AO17">
-        <v>845.471</v>
+        <v>881.547</v>
       </c>
       <c r="AP17">
-        <v>907.9440000000001</v>
+        <v>842.252</v>
       </c>
       <c r="AQ17">
-        <v>771.333</v>
+        <v>900.5840000000001</v>
       </c>
       <c r="AR17">
-        <v>832.023</v>
+        <v>762.388</v>
       </c>
       <c r="AS17">
-        <v>731.787</v>
+        <v>822.826</v>
       </c>
       <c r="AT17">
-        <v>794.269</v>
+        <v>732.183</v>
       </c>
       <c r="AU17">
-        <v>759.066</v>
+        <v>792.0170000000001</v>
       </c>
       <c r="AV17">
-        <v>821.355</v>
+        <v>751.217</v>
       </c>
       <c r="AW17">
-        <v>780.299</v>
+        <v>812.1600000000001</v>
+      </c>
+      <c r="AX17">
+        <v>771.4680000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:50">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -3329,7 +3377,7 @@
         <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
         <v>81</v>
@@ -3343,119 +3391,122 @@
       <c r="L18" t="s">
         <v>74</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>61</v>
+      <c r="M18">
+        <v>49.9654</v>
+      </c>
+      <c r="N18">
+        <v>15.3311</v>
       </c>
       <c r="O18">
-        <v>17.3441</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>61</v>
+        <v>18.6025</v>
+      </c>
+      <c r="P18">
+        <v>36.2876</v>
+      </c>
+      <c r="Q18">
+        <v>49.966</v>
+      </c>
+      <c r="R18">
+        <v>100.001</v>
+      </c>
+      <c r="S18">
+        <v>36.2876</v>
+      </c>
+      <c r="T18">
+        <v>36.2493</v>
       </c>
       <c r="U18">
-        <v>17.1161</v>
+        <v>18.0884</v>
       </c>
       <c r="V18">
-        <v>15.1404</v>
+        <v>10.6209</v>
       </c>
       <c r="W18">
-        <v>15.394</v>
+        <v>9.22439</v>
       </c>
       <c r="X18">
-        <v>15.0052</v>
+        <v>15.0747</v>
       </c>
       <c r="Y18">
-        <v>15.0052</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>61</v>
+        <v>15.0747</v>
+      </c>
+      <c r="Z18">
+        <v>15.0763</v>
       </c>
       <c r="AA18">
-        <v>17.3441</v>
+        <v>18.6025</v>
       </c>
       <c r="AB18">
-        <v>14.3719</v>
+        <v>10.7191</v>
       </c>
       <c r="AC18">
-        <v>15.0139</v>
+        <v>9.498099999999999</v>
       </c>
       <c r="AD18">
-        <v>15.99</v>
+        <v>15.3311</v>
       </c>
       <c r="AE18">
-        <v>15.99</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>61</v>
+        <v>15.3311</v>
+      </c>
+      <c r="AF18">
+        <v>15.3311</v>
+      </c>
+      <c r="AG18">
+        <v>0.8321499999999999</v>
       </c>
       <c r="AH18">
-        <v>1.75991</v>
+        <v>1.77423</v>
       </c>
       <c r="AI18">
-        <v>0.103143</v>
+        <v>0.103176</v>
       </c>
       <c r="AJ18">
-        <v>0.0647177</v>
+        <v>0.06890489999999999</v>
       </c>
       <c r="AK18">
-        <v>0.06665890000000001</v>
+        <v>0.0747051</v>
       </c>
       <c r="AL18">
-        <v>0.0686143</v>
+        <v>0.07274510000000001</v>
       </c>
       <c r="AM18">
-        <v>0.22882</v>
+        <v>0.225923</v>
       </c>
       <c r="AN18">
-        <v>878.4390000000001</v>
+        <v>0.444453</v>
       </c>
       <c r="AO18">
-        <v>839.183</v>
+        <v>878.9240000000001</v>
       </c>
       <c r="AP18">
-        <v>898.55</v>
+        <v>836.7049999999999</v>
       </c>
       <c r="AQ18">
-        <v>758.386</v>
+        <v>893.024</v>
       </c>
       <c r="AR18">
-        <v>816.866</v>
+        <v>751.915</v>
       </c>
       <c r="AS18">
-        <v>728.9960000000001</v>
+        <v>810.155</v>
       </c>
       <c r="AT18">
-        <v>788.303</v>
+        <v>729.386</v>
       </c>
       <c r="AU18">
-        <v>749.2460000000001</v>
+        <v>786.6350000000001</v>
       </c>
       <c r="AV18">
-        <v>808.592</v>
+        <v>743.4000000000001</v>
       </c>
       <c r="AW18">
-        <v>765.266</v>
+        <v>801.874</v>
+      </c>
+      <c r="AX18">
+        <v>758.8860000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:50">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -3478,7 +3529,7 @@
         <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
@@ -3492,119 +3543,122 @@
       <c r="L19" t="s">
         <v>72</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>61</v>
+      <c r="M19" s="2">
+        <v>53.299</v>
+      </c>
+      <c r="N19">
+        <v>17.1572</v>
       </c>
       <c r="O19">
-        <v>18.0614</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>61</v>
+        <v>19.5761</v>
+      </c>
+      <c r="P19">
+        <v>38.3876</v>
+      </c>
+      <c r="Q19">
+        <v>53.29940000000001</v>
+      </c>
+      <c r="R19">
+        <v>100.001</v>
+      </c>
+      <c r="S19">
+        <v>35.0912</v>
+      </c>
+      <c r="T19">
+        <v>38.3876</v>
       </c>
       <c r="U19">
-        <v>18.0614</v>
+        <v>19.5761</v>
       </c>
       <c r="V19">
-        <v>16.6083</v>
+        <v>10.8039</v>
       </c>
       <c r="W19">
-        <v>17.0369</v>
+        <v>9.93098</v>
       </c>
       <c r="X19">
-        <v>16.2466</v>
+        <v>17.1579</v>
       </c>
       <c r="Y19">
-        <v>16.2466</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>61</v>
+        <v>17.1579</v>
+      </c>
+      <c r="Z19">
+        <v>17.1572</v>
       </c>
       <c r="AA19">
-        <v>14.5068</v>
+        <v>14.9853</v>
       </c>
       <c r="AB19">
-        <v>11.3369</v>
+        <v>9.056710000000001</v>
       </c>
       <c r="AC19">
-        <v>11.6527</v>
+        <v>7.48007</v>
       </c>
       <c r="AD19">
-        <v>12.3557</v>
+        <v>11.0706</v>
       </c>
       <c r="AE19">
-        <v>12.3557</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG19" s="2" t="s">
-        <v>61</v>
+        <v>11.0706</v>
+      </c>
+      <c r="AF19">
+        <v>11.0706</v>
+      </c>
+      <c r="AG19">
+        <v>0.682899</v>
       </c>
       <c r="AH19">
-        <v>1.28668</v>
+        <v>1.29834</v>
       </c>
       <c r="AI19">
-        <v>0.0620583</v>
+        <v>0.06206069999999999</v>
       </c>
       <c r="AJ19">
-        <v>0.0516282</v>
+        <v>0.0549346</v>
       </c>
       <c r="AK19">
-        <v>0.0537104</v>
+        <v>0.0588145</v>
       </c>
       <c r="AL19">
-        <v>0.055475</v>
+        <v>0.0585602</v>
       </c>
       <c r="AM19">
-        <v>0.184485</v>
+        <v>0.183865</v>
       </c>
       <c r="AN19">
-        <v>882.3330000000001</v>
+        <v>0.356323</v>
       </c>
       <c r="AO19">
-        <v>838.2800000000001</v>
+        <v>882.8290000000001</v>
       </c>
       <c r="AP19">
-        <v>902.327</v>
+        <v>835.403</v>
       </c>
       <c r="AQ19">
-        <v>756.889</v>
+        <v>896.794</v>
       </c>
       <c r="AR19">
-        <v>820.232</v>
+        <v>750.716</v>
       </c>
       <c r="AS19">
-        <v>725.9110000000001</v>
+        <v>813.516</v>
       </c>
       <c r="AT19">
-        <v>790.121</v>
+        <v>726.2330000000001</v>
       </c>
       <c r="AU19">
-        <v>746.148</v>
+        <v>788.975</v>
       </c>
       <c r="AV19">
-        <v>810.571</v>
+        <v>740.692</v>
       </c>
       <c r="AW19">
-        <v>763.61</v>
+        <v>804.013</v>
+      </c>
+      <c r="AX19">
+        <v>757.61</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:50">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3627,7 +3681,7 @@
         <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
         <v>69</v>
@@ -3641,119 +3695,122 @@
       <c r="L20" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>61</v>
+      <c r="M20">
+        <v>52.905</v>
+      </c>
+      <c r="N20">
+        <v>13.0894</v>
       </c>
       <c r="O20">
-        <v>15.241</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>61</v>
+        <v>16.4077</v>
+      </c>
+      <c r="P20">
+        <v>30.1034</v>
+      </c>
+      <c r="Q20">
+        <v>52.9049</v>
+      </c>
+      <c r="R20">
+        <v>99.9999</v>
+      </c>
+      <c r="S20">
+        <v>27.2001</v>
+      </c>
+      <c r="T20">
+        <v>30.1034</v>
       </c>
       <c r="U20">
-        <v>15.241</v>
+        <v>16.4077</v>
       </c>
       <c r="V20">
-        <v>12.7065</v>
+        <v>8.5875</v>
       </c>
       <c r="W20">
-        <v>12.9562</v>
+        <v>7.64873</v>
       </c>
       <c r="X20">
-        <v>12.4533</v>
+        <v>13.0894</v>
       </c>
       <c r="Y20">
-        <v>12.4533</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>61</v>
+        <v>13.0894</v>
+      </c>
+      <c r="Z20">
+        <v>13.0894</v>
       </c>
       <c r="AA20">
-        <v>13.5023</v>
+        <v>14.0036</v>
       </c>
       <c r="AB20">
-        <v>9.375340000000001</v>
+        <v>7.4781</v>
       </c>
       <c r="AC20">
-        <v>9.560140000000001</v>
+        <v>6.24779</v>
       </c>
       <c r="AD20">
-        <v>10.3196</v>
+        <v>9.53262</v>
       </c>
       <c r="AE20">
-        <v>10.3196</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG20" s="2" t="s">
-        <v>61</v>
+        <v>9.53262</v>
+      </c>
+      <c r="AF20">
+        <v>9.53262</v>
+      </c>
+      <c r="AG20">
+        <v>0.833606</v>
       </c>
       <c r="AH20">
-        <v>1.74607</v>
+        <v>1.76225</v>
       </c>
       <c r="AI20">
-        <v>0.139193</v>
+        <v>0.139197</v>
       </c>
       <c r="AJ20">
-        <v>0.06723999999999999</v>
+        <v>0.07154110000000001</v>
       </c>
       <c r="AK20">
-        <v>0.0679766</v>
+        <v>0.07628989999999999</v>
       </c>
       <c r="AL20">
-        <v>0.0705995</v>
+        <v>0.07471170000000001</v>
       </c>
       <c r="AM20">
-        <v>0.233447</v>
+        <v>0.230881</v>
       </c>
       <c r="AN20">
-        <v>879.245</v>
+        <v>0.453618</v>
       </c>
       <c r="AO20">
-        <v>833.255</v>
+        <v>879.7040000000001</v>
       </c>
       <c r="AP20">
-        <v>894.083</v>
+        <v>831.2180000000001</v>
       </c>
       <c r="AQ20">
-        <v>747.2080000000001</v>
+        <v>889.994</v>
       </c>
       <c r="AR20">
-        <v>807.826</v>
+        <v>742.8249999999999</v>
       </c>
       <c r="AS20">
-        <v>723.9</v>
+        <v>803.057</v>
       </c>
       <c r="AT20">
-        <v>785.1170000000001</v>
+        <v>724.218</v>
       </c>
       <c r="AU20">
-        <v>739.273</v>
+        <v>784.258</v>
       </c>
       <c r="AV20">
-        <v>800.423</v>
+        <v>735.336</v>
       </c>
       <c r="AW20">
-        <v>752.364</v>
+        <v>795.728</v>
+      </c>
+      <c r="AX20">
+        <v>748.109</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:50">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -3776,7 +3833,7 @@
         <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
         <v>69</v>
@@ -3790,119 +3847,122 @@
       <c r="L21" t="s">
         <v>72</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>61</v>
+      <c r="M21">
+        <v>52.7211</v>
+      </c>
+      <c r="N21">
+        <v>17.9792</v>
       </c>
       <c r="O21">
-        <v>19.4331</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>61</v>
+        <v>20.9392</v>
+      </c>
+      <c r="P21">
+        <v>37.0712</v>
+      </c>
+      <c r="Q21">
+        <v>52.7202</v>
+      </c>
+      <c r="R21">
+        <v>99.9982</v>
+      </c>
+      <c r="S21">
+        <v>34.35279999999999</v>
+      </c>
+      <c r="T21">
+        <v>37.0712</v>
       </c>
       <c r="U21">
-        <v>19.4331</v>
+        <v>20.9392</v>
       </c>
       <c r="V21">
-        <v>17.8132</v>
+        <v>11.9533</v>
       </c>
       <c r="W21">
-        <v>18.2098</v>
+        <v>10.7195</v>
       </c>
       <c r="X21">
-        <v>17.3209</v>
+        <v>17.979</v>
       </c>
       <c r="Y21">
-        <v>17.3209</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>61</v>
+        <v>17.979</v>
+      </c>
+      <c r="Z21">
+        <v>17.9792</v>
       </c>
       <c r="AA21">
-        <v>16.2862</v>
+        <v>16.927</v>
       </c>
       <c r="AB21">
-        <v>12.967</v>
+        <v>10.3636</v>
       </c>
       <c r="AC21">
-        <v>13.43</v>
+        <v>8.6798</v>
       </c>
       <c r="AD21">
-        <v>14.384</v>
+        <v>13.0031</v>
       </c>
       <c r="AE21">
-        <v>14.384</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>61</v>
+        <v>13.0031</v>
+      </c>
+      <c r="AF21">
+        <v>13.0031</v>
+      </c>
+      <c r="AG21">
+        <v>0.679444</v>
       </c>
       <c r="AH21">
-        <v>1.51813</v>
+        <v>1.53029</v>
       </c>
       <c r="AI21">
-        <v>0.123037</v>
+        <v>0.123296</v>
       </c>
       <c r="AJ21">
-        <v>0.0549849</v>
+        <v>0.0583634</v>
       </c>
       <c r="AK21">
-        <v>0.0565771</v>
+        <v>0.0645423</v>
       </c>
       <c r="AL21">
-        <v>0.058051</v>
+        <v>0.0619417</v>
       </c>
       <c r="AM21">
-        <v>0.191597</v>
+        <v>0.187857</v>
       </c>
       <c r="AN21">
-        <v>881.12</v>
+        <v>0.39009</v>
       </c>
       <c r="AO21">
-        <v>837.538</v>
+        <v>881.624</v>
       </c>
       <c r="AP21">
-        <v>900.804</v>
+        <v>834.6799999999999</v>
       </c>
       <c r="AQ21">
-        <v>755.9690000000001</v>
+        <v>895.213</v>
       </c>
       <c r="AR21">
-        <v>818.712</v>
+        <v>749.975</v>
       </c>
       <c r="AS21">
-        <v>725.452</v>
+        <v>812.1880000000001</v>
       </c>
       <c r="AT21">
-        <v>788.768</v>
+        <v>725.812</v>
       </c>
       <c r="AU21">
-        <v>745.4100000000001</v>
+        <v>787.569</v>
       </c>
       <c r="AV21">
-        <v>809.0840000000001</v>
+        <v>740.062</v>
       </c>
       <c r="AW21">
-        <v>762.4640000000001</v>
+        <v>802.696</v>
+      </c>
+      <c r="AX21">
+        <v>756.601</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:50">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -3925,7 +3985,7 @@
         <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
         <v>69</v>
@@ -3939,119 +3999,122 @@
       <c r="L22" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>61</v>
+      <c r="M22">
+        <v>52.5284</v>
+      </c>
+      <c r="N22">
+        <v>14.555</v>
       </c>
       <c r="O22">
-        <v>17.0451</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>61</v>
+        <v>18.2728</v>
+      </c>
+      <c r="P22">
+        <v>30.6666</v>
+      </c>
+      <c r="Q22">
+        <v>52.52910000000001</v>
+      </c>
+      <c r="R22">
+        <v>100.001</v>
+      </c>
+      <c r="S22">
+        <v>28.1412</v>
+      </c>
+      <c r="T22">
+        <v>30.6666</v>
       </c>
       <c r="U22">
-        <v>17.0451</v>
+        <v>18.2728</v>
       </c>
       <c r="V22">
-        <v>14.4273</v>
+        <v>9.97273</v>
       </c>
       <c r="W22">
-        <v>14.6347</v>
+        <v>8.70063</v>
       </c>
       <c r="X22">
-        <v>14.051</v>
+        <v>14.5536</v>
       </c>
       <c r="Y22">
-        <v>14.051</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>61</v>
+        <v>14.5536</v>
+      </c>
+      <c r="Z22">
+        <v>14.555</v>
       </c>
       <c r="AA22">
-        <v>15.2091</v>
+        <v>15.8584</v>
       </c>
       <c r="AB22">
-        <v>11.0862</v>
+        <v>8.901400000000001</v>
       </c>
       <c r="AC22">
-        <v>11.3246</v>
+        <v>7.4274</v>
       </c>
       <c r="AD22">
-        <v>12.267</v>
+        <v>11.306</v>
       </c>
       <c r="AE22">
-        <v>12.267</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>61</v>
+        <v>11.306</v>
+      </c>
+      <c r="AF22">
+        <v>11.306</v>
+      </c>
+      <c r="AG22">
+        <v>0.830249</v>
       </c>
       <c r="AH22">
-        <v>2.03971</v>
+        <v>2.05645</v>
       </c>
       <c r="AI22">
-        <v>0.198313</v>
+        <v>0.198603</v>
       </c>
       <c r="AJ22">
-        <v>0.0728251</v>
+        <v>0.07712190000000001</v>
       </c>
       <c r="AK22">
-        <v>0.0722646</v>
+        <v>0.0848117</v>
       </c>
       <c r="AL22">
-        <v>0.0739073</v>
+        <v>0.07913619999999999</v>
       </c>
       <c r="AM22">
-        <v>0.242775</v>
+        <v>0.235772</v>
       </c>
       <c r="AN22">
-        <v>878.7810000000001</v>
+        <v>0.496111</v>
       </c>
       <c r="AO22">
-        <v>833.657</v>
+        <v>879.264</v>
       </c>
       <c r="AP22">
-        <v>894.391</v>
+        <v>831.467</v>
       </c>
       <c r="AQ22">
-        <v>748.3760000000001</v>
+        <v>890.039</v>
       </c>
       <c r="AR22">
-        <v>809.01</v>
+        <v>743.768</v>
       </c>
       <c r="AS22">
-        <v>724.024</v>
+        <v>804.0250000000001</v>
       </c>
       <c r="AT22">
-        <v>784.9820000000001</v>
+        <v>724.3670000000001</v>
       </c>
       <c r="AU22">
-        <v>740.103</v>
+        <v>784.069</v>
       </c>
       <c r="AV22">
-        <v>801.1940000000001</v>
+        <v>735.918</v>
       </c>
       <c r="AW22">
-        <v>753.6900000000001</v>
+        <v>796.292</v>
+      </c>
+      <c r="AX22">
+        <v>749.204</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:50">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -4074,7 +4137,7 @@
         <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I23" t="s">
         <v>81</v>
@@ -4088,119 +4151,122 @@
       <c r="L23" t="s">
         <v>72</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>61</v>
+      <c r="M23" s="2">
+        <v>53.299</v>
+      </c>
+      <c r="N23">
+        <v>17.1572</v>
       </c>
       <c r="O23">
-        <v>18.0614</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>61</v>
+        <v>19.5761</v>
+      </c>
+      <c r="P23">
+        <v>38.3876</v>
+      </c>
+      <c r="Q23">
+        <v>53.29940000000001</v>
+      </c>
+      <c r="R23">
+        <v>100.001</v>
+      </c>
+      <c r="S23">
+        <v>35.0912</v>
+      </c>
+      <c r="T23">
+        <v>38.3876</v>
       </c>
       <c r="U23">
-        <v>18.0614</v>
+        <v>19.5761</v>
       </c>
       <c r="V23">
-        <v>16.6083</v>
+        <v>10.8039</v>
       </c>
       <c r="W23">
-        <v>17.0369</v>
+        <v>9.93098</v>
       </c>
       <c r="X23">
-        <v>16.2466</v>
+        <v>17.1579</v>
       </c>
       <c r="Y23">
-        <v>16.2466</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>61</v>
+        <v>17.1579</v>
+      </c>
+      <c r="Z23">
+        <v>17.1572</v>
       </c>
       <c r="AA23">
-        <v>14.5068</v>
+        <v>14.9853</v>
       </c>
       <c r="AB23">
-        <v>11.3369</v>
+        <v>9.056710000000001</v>
       </c>
       <c r="AC23">
-        <v>11.6527</v>
+        <v>7.48007</v>
       </c>
       <c r="AD23">
-        <v>12.3557</v>
+        <v>11.0706</v>
       </c>
       <c r="AE23">
-        <v>12.3557</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>61</v>
+        <v>11.0706</v>
+      </c>
+      <c r="AF23">
+        <v>11.0706</v>
+      </c>
+      <c r="AG23">
+        <v>0.682899</v>
       </c>
       <c r="AH23">
-        <v>1.28668</v>
+        <v>1.29834</v>
       </c>
       <c r="AI23">
-        <v>0.0620583</v>
+        <v>0.06206069999999999</v>
       </c>
       <c r="AJ23">
-        <v>0.0516282</v>
+        <v>0.0549346</v>
       </c>
       <c r="AK23">
-        <v>0.0537104</v>
+        <v>0.0588145</v>
       </c>
       <c r="AL23">
-        <v>0.055475</v>
+        <v>0.0585602</v>
       </c>
       <c r="AM23">
-        <v>0.184485</v>
+        <v>0.183865</v>
       </c>
       <c r="AN23">
-        <v>882.3330000000001</v>
+        <v>0.356323</v>
       </c>
       <c r="AO23">
-        <v>838.2800000000001</v>
+        <v>882.8290000000001</v>
       </c>
       <c r="AP23">
-        <v>902.327</v>
+        <v>835.403</v>
       </c>
       <c r="AQ23">
-        <v>756.889</v>
+        <v>896.794</v>
       </c>
       <c r="AR23">
-        <v>820.232</v>
+        <v>750.716</v>
       </c>
       <c r="AS23">
-        <v>725.9110000000001</v>
+        <v>813.516</v>
       </c>
       <c r="AT23">
-        <v>790.121</v>
+        <v>726.2330000000001</v>
       </c>
       <c r="AU23">
-        <v>746.148</v>
+        <v>788.975</v>
       </c>
       <c r="AV23">
-        <v>810.571</v>
+        <v>740.692</v>
       </c>
       <c r="AW23">
-        <v>763.61</v>
+        <v>804.013</v>
+      </c>
+      <c r="AX23">
+        <v>757.61</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:50">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -4223,7 +4289,7 @@
         <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I24" t="s">
         <v>81</v>
@@ -4237,119 +4303,122 @@
       <c r="L24" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>61</v>
+      <c r="M24">
+        <v>52.905</v>
+      </c>
+      <c r="N24">
+        <v>13.0894</v>
       </c>
       <c r="O24">
-        <v>15.241</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>61</v>
+        <v>16.4077</v>
+      </c>
+      <c r="P24">
+        <v>30.1034</v>
+      </c>
+      <c r="Q24">
+        <v>52.9049</v>
+      </c>
+      <c r="R24">
+        <v>99.9999</v>
+      </c>
+      <c r="S24">
+        <v>27.2001</v>
+      </c>
+      <c r="T24">
+        <v>30.1034</v>
       </c>
       <c r="U24">
-        <v>15.241</v>
+        <v>16.4077</v>
       </c>
       <c r="V24">
-        <v>12.7065</v>
+        <v>8.5875</v>
       </c>
       <c r="W24">
-        <v>12.9562</v>
+        <v>7.64873</v>
       </c>
       <c r="X24">
-        <v>12.4533</v>
+        <v>13.0894</v>
       </c>
       <c r="Y24">
-        <v>12.4533</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>61</v>
+        <v>13.0894</v>
+      </c>
+      <c r="Z24">
+        <v>13.0894</v>
       </c>
       <c r="AA24">
-        <v>13.5023</v>
+        <v>14.0036</v>
       </c>
       <c r="AB24">
-        <v>9.375340000000001</v>
+        <v>7.4781</v>
       </c>
       <c r="AC24">
-        <v>9.560140000000001</v>
+        <v>6.24779</v>
       </c>
       <c r="AD24">
-        <v>10.3196</v>
+        <v>9.53262</v>
       </c>
       <c r="AE24">
-        <v>10.3196</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG24" s="2" t="s">
-        <v>61</v>
+        <v>9.53262</v>
+      </c>
+      <c r="AF24">
+        <v>9.53262</v>
+      </c>
+      <c r="AG24">
+        <v>0.833606</v>
       </c>
       <c r="AH24">
-        <v>1.74607</v>
+        <v>1.76225</v>
       </c>
       <c r="AI24">
-        <v>0.139193</v>
+        <v>0.139197</v>
       </c>
       <c r="AJ24">
-        <v>0.06723999999999999</v>
+        <v>0.07154110000000001</v>
       </c>
       <c r="AK24">
-        <v>0.0679766</v>
+        <v>0.07628989999999999</v>
       </c>
       <c r="AL24">
-        <v>0.0705995</v>
+        <v>0.07471170000000001</v>
       </c>
       <c r="AM24">
-        <v>0.233447</v>
+        <v>0.230881</v>
       </c>
       <c r="AN24">
-        <v>879.245</v>
+        <v>0.453618</v>
       </c>
       <c r="AO24">
-        <v>833.255</v>
+        <v>879.7040000000001</v>
       </c>
       <c r="AP24">
-        <v>894.083</v>
+        <v>831.2180000000001</v>
       </c>
       <c r="AQ24">
-        <v>747.2080000000001</v>
+        <v>889.994</v>
       </c>
       <c r="AR24">
-        <v>807.826</v>
+        <v>742.8249999999999</v>
       </c>
       <c r="AS24">
-        <v>723.9</v>
+        <v>803.057</v>
       </c>
       <c r="AT24">
-        <v>785.1170000000001</v>
+        <v>724.218</v>
       </c>
       <c r="AU24">
-        <v>739.273</v>
+        <v>784.258</v>
       </c>
       <c r="AV24">
-        <v>800.423</v>
+        <v>735.336</v>
       </c>
       <c r="AW24">
-        <v>752.364</v>
+        <v>795.728</v>
+      </c>
+      <c r="AX24">
+        <v>748.109</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:50">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -4372,7 +4441,7 @@
         <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s">
         <v>81</v>
@@ -4386,119 +4455,122 @@
       <c r="L25" t="s">
         <v>72</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>61</v>
+      <c r="M25">
+        <v>52.7211</v>
+      </c>
+      <c r="N25">
+        <v>17.9792</v>
       </c>
       <c r="O25">
-        <v>19.4331</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>61</v>
+        <v>20.9392</v>
+      </c>
+      <c r="P25">
+        <v>37.0712</v>
+      </c>
+      <c r="Q25">
+        <v>52.7202</v>
+      </c>
+      <c r="R25">
+        <v>99.9982</v>
+      </c>
+      <c r="S25">
+        <v>34.35279999999999</v>
+      </c>
+      <c r="T25">
+        <v>37.0712</v>
       </c>
       <c r="U25">
-        <v>19.4331</v>
+        <v>20.9392</v>
       </c>
       <c r="V25">
-        <v>17.8132</v>
+        <v>11.9533</v>
       </c>
       <c r="W25">
-        <v>18.2098</v>
+        <v>10.7195</v>
       </c>
       <c r="X25">
-        <v>17.3209</v>
+        <v>17.979</v>
       </c>
       <c r="Y25">
-        <v>17.3209</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>61</v>
+        <v>17.979</v>
+      </c>
+      <c r="Z25">
+        <v>17.9792</v>
       </c>
       <c r="AA25">
-        <v>16.2862</v>
+        <v>16.927</v>
       </c>
       <c r="AB25">
-        <v>12.967</v>
+        <v>10.3636</v>
       </c>
       <c r="AC25">
-        <v>13.43</v>
+        <v>8.6798</v>
       </c>
       <c r="AD25">
-        <v>14.384</v>
+        <v>13.0031</v>
       </c>
       <c r="AE25">
-        <v>14.384</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG25" s="2" t="s">
-        <v>61</v>
+        <v>13.0031</v>
+      </c>
+      <c r="AF25">
+        <v>13.0031</v>
+      </c>
+      <c r="AG25">
+        <v>0.679444</v>
       </c>
       <c r="AH25">
-        <v>1.51813</v>
+        <v>1.53029</v>
       </c>
       <c r="AI25">
-        <v>0.123037</v>
+        <v>0.123296</v>
       </c>
       <c r="AJ25">
-        <v>0.0549849</v>
+        <v>0.0583634</v>
       </c>
       <c r="AK25">
-        <v>0.0565771</v>
+        <v>0.0645423</v>
       </c>
       <c r="AL25">
-        <v>0.058051</v>
+        <v>0.0619417</v>
       </c>
       <c r="AM25">
-        <v>0.191597</v>
+        <v>0.187857</v>
       </c>
       <c r="AN25">
-        <v>881.12</v>
+        <v>0.39009</v>
       </c>
       <c r="AO25">
-        <v>837.538</v>
+        <v>881.624</v>
       </c>
       <c r="AP25">
-        <v>900.804</v>
+        <v>834.6799999999999</v>
       </c>
       <c r="AQ25">
-        <v>755.9690000000001</v>
+        <v>895.213</v>
       </c>
       <c r="AR25">
-        <v>818.712</v>
+        <v>749.975</v>
       </c>
       <c r="AS25">
-        <v>725.452</v>
+        <v>812.1880000000001</v>
       </c>
       <c r="AT25">
-        <v>788.768</v>
+        <v>725.812</v>
       </c>
       <c r="AU25">
-        <v>745.4100000000001</v>
+        <v>787.569</v>
       </c>
       <c r="AV25">
-        <v>809.0840000000001</v>
+        <v>740.062</v>
       </c>
       <c r="AW25">
-        <v>762.4640000000001</v>
+        <v>802.696</v>
+      </c>
+      <c r="AX25">
+        <v>756.601</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:50">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -4521,7 +4593,7 @@
         <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I26" t="s">
         <v>81</v>
@@ -4535,119 +4607,122 @@
       <c r="L26" t="s">
         <v>74</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>61</v>
+      <c r="M26">
+        <v>52.5284</v>
+      </c>
+      <c r="N26">
+        <v>14.555</v>
       </c>
       <c r="O26">
-        <v>17.0451</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>61</v>
+        <v>18.2728</v>
+      </c>
+      <c r="P26">
+        <v>30.6666</v>
+      </c>
+      <c r="Q26">
+        <v>52.52910000000001</v>
+      </c>
+      <c r="R26">
+        <v>100.001</v>
+      </c>
+      <c r="S26">
+        <v>28.1412</v>
+      </c>
+      <c r="T26">
+        <v>30.6666</v>
       </c>
       <c r="U26">
-        <v>17.0451</v>
+        <v>18.2728</v>
       </c>
       <c r="V26">
-        <v>14.4273</v>
+        <v>9.97273</v>
       </c>
       <c r="W26">
-        <v>14.6347</v>
+        <v>8.70063</v>
       </c>
       <c r="X26">
-        <v>14.051</v>
+        <v>14.5536</v>
       </c>
       <c r="Y26">
-        <v>14.051</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>61</v>
+        <v>14.5536</v>
+      </c>
+      <c r="Z26">
+        <v>14.555</v>
       </c>
       <c r="AA26">
-        <v>15.2091</v>
+        <v>15.8584</v>
       </c>
       <c r="AB26">
-        <v>11.0862</v>
+        <v>8.901400000000001</v>
       </c>
       <c r="AC26">
-        <v>11.3246</v>
+        <v>7.4274</v>
       </c>
       <c r="AD26">
-        <v>12.267</v>
+        <v>11.306</v>
       </c>
       <c r="AE26">
-        <v>12.267</v>
-      </c>
-      <c r="AF26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>61</v>
+        <v>11.306</v>
+      </c>
+      <c r="AF26">
+        <v>11.306</v>
+      </c>
+      <c r="AG26">
+        <v>0.830249</v>
       </c>
       <c r="AH26">
-        <v>2.03971</v>
+        <v>2.05645</v>
       </c>
       <c r="AI26">
-        <v>0.198313</v>
+        <v>0.198603</v>
       </c>
       <c r="AJ26">
-        <v>0.0728251</v>
+        <v>0.07712190000000001</v>
       </c>
       <c r="AK26">
-        <v>0.0722646</v>
+        <v>0.0848117</v>
       </c>
       <c r="AL26">
-        <v>0.0739073</v>
+        <v>0.07913619999999999</v>
       </c>
       <c r="AM26">
-        <v>0.242775</v>
+        <v>0.235772</v>
       </c>
       <c r="AN26">
-        <v>878.7810000000001</v>
+        <v>0.496111</v>
       </c>
       <c r="AO26">
-        <v>833.657</v>
+        <v>879.264</v>
       </c>
       <c r="AP26">
-        <v>894.391</v>
+        <v>831.467</v>
       </c>
       <c r="AQ26">
-        <v>748.3760000000001</v>
+        <v>890.039</v>
       </c>
       <c r="AR26">
-        <v>809.01</v>
+        <v>743.768</v>
       </c>
       <c r="AS26">
-        <v>724.024</v>
+        <v>804.0250000000001</v>
       </c>
       <c r="AT26">
-        <v>784.9820000000001</v>
+        <v>724.3670000000001</v>
       </c>
       <c r="AU26">
-        <v>740.103</v>
+        <v>784.069</v>
       </c>
       <c r="AV26">
-        <v>801.1940000000001</v>
+        <v>735.918</v>
       </c>
       <c r="AW26">
-        <v>753.6900000000001</v>
+        <v>796.292</v>
+      </c>
+      <c r="AX26">
+        <v>749.204</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:50">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -4670,7 +4745,7 @@
         <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I27" t="s">
         <v>69</v>
@@ -4684,119 +4759,122 @@
       <c r="L27" t="s">
         <v>72</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>61</v>
+      <c r="M27">
+        <v>47.6534</v>
+      </c>
+      <c r="N27">
+        <v>16.472</v>
       </c>
       <c r="O27">
-        <v>17.9044</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>61</v>
+        <v>19.8302</v>
+      </c>
+      <c r="P27">
+        <v>38.19520000000001</v>
+      </c>
+      <c r="Q27">
+        <v>47.6534</v>
+      </c>
+      <c r="R27">
+        <v>100</v>
+      </c>
+      <c r="S27">
+        <v>38.19520000000001</v>
+      </c>
+      <c r="T27">
+        <v>35.8487</v>
       </c>
       <c r="U27">
-        <v>14.7662</v>
+        <v>15.304</v>
       </c>
       <c r="V27">
-        <v>12.2895</v>
+        <v>9.099629999999999</v>
       </c>
       <c r="W27">
-        <v>12.3111</v>
+        <v>7.512970000000001</v>
       </c>
       <c r="X27">
-        <v>11.8341</v>
+        <v>11.2667</v>
       </c>
       <c r="Y27">
-        <v>11.8341</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>61</v>
+        <v>11.2667</v>
+      </c>
+      <c r="Z27">
+        <v>11.2668</v>
       </c>
       <c r="AA27">
-        <v>17.9044</v>
+        <v>19.8302</v>
       </c>
       <c r="AB27">
-        <v>15.0802</v>
+        <v>10.7538</v>
       </c>
       <c r="AC27">
-        <v>15.9075</v>
+        <v>9.942819999999999</v>
       </c>
       <c r="AD27">
-        <v>16.4466</v>
+        <v>16.472</v>
       </c>
       <c r="AE27">
-        <v>16.4466</v>
-      </c>
-      <c r="AF27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG27" s="2" t="s">
-        <v>61</v>
+        <v>16.472</v>
+      </c>
+      <c r="AF27">
+        <v>16.472</v>
+      </c>
+      <c r="AG27">
+        <v>0.682959</v>
       </c>
       <c r="AH27">
-        <v>1.2815</v>
+        <v>1.29332</v>
       </c>
       <c r="AI27">
-        <v>0.05941109999999999</v>
+        <v>0.0594132</v>
       </c>
       <c r="AJ27">
-        <v>0.051442</v>
+        <v>0.0550095</v>
       </c>
       <c r="AK27">
-        <v>0.053612</v>
+        <v>0.0589437</v>
       </c>
       <c r="AL27">
-        <v>0.0556691</v>
+        <v>0.0586979</v>
       </c>
       <c r="AM27">
-        <v>0.18392</v>
+        <v>0.183131</v>
       </c>
       <c r="AN27">
-        <v>876.764</v>
+        <v>0.355904</v>
       </c>
       <c r="AO27">
-        <v>840.7620000000001</v>
+        <v>877.21</v>
       </c>
       <c r="AP27">
-        <v>896.963</v>
+        <v>838.7470000000001</v>
       </c>
       <c r="AQ27">
-        <v>760.273</v>
+        <v>891.673</v>
       </c>
       <c r="AR27">
-        <v>816.24</v>
+        <v>753.8200000000001</v>
       </c>
       <c r="AS27">
-        <v>732.0100000000001</v>
+        <v>809.755</v>
       </c>
       <c r="AT27">
-        <v>788.21</v>
+        <v>732.408</v>
       </c>
       <c r="AU27">
-        <v>752.235</v>
+        <v>786.228</v>
       </c>
       <c r="AV27">
-        <v>808.0559999999999</v>
+        <v>746.417</v>
       </c>
       <c r="AW27">
-        <v>768.189</v>
+        <v>801.4739999999999</v>
+      </c>
+      <c r="AX27">
+        <v>761.745</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:50">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -4819,7 +4897,7 @@
         <v>68</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I28" t="s">
         <v>69</v>
@@ -4833,119 +4911,122 @@
       <c r="L28" t="s">
         <v>74</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>61</v>
+      <c r="M28">
+        <v>48.1174</v>
+      </c>
+      <c r="N28">
+        <v>12.847</v>
       </c>
       <c r="O28">
-        <v>15.2447</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>61</v>
+        <v>16.7372</v>
+      </c>
+      <c r="P28">
+        <v>29.8823</v>
+      </c>
+      <c r="Q28">
+        <v>48.1184</v>
+      </c>
+      <c r="R28">
+        <v>100.002</v>
+      </c>
+      <c r="S28">
+        <v>29.8823</v>
+      </c>
+      <c r="T28">
+        <v>28.0019</v>
       </c>
       <c r="U28">
-        <v>13.7227</v>
+        <v>14.264</v>
       </c>
       <c r="V28">
-        <v>10.1216</v>
+        <v>7.519830000000001</v>
       </c>
       <c r="W28">
-        <v>10.1436</v>
+        <v>6.251980000000001</v>
       </c>
       <c r="X28">
-        <v>9.844330000000001</v>
+        <v>9.57695</v>
       </c>
       <c r="Y28">
-        <v>9.844330000000001</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>61</v>
+        <v>9.57695</v>
+      </c>
+      <c r="Z28">
+        <v>9.578239999999999</v>
       </c>
       <c r="AA28">
-        <v>15.2447</v>
+        <v>16.7372</v>
       </c>
       <c r="AB28">
-        <v>11.7316</v>
+        <v>8.64771</v>
       </c>
       <c r="AC28">
-        <v>12.2749</v>
+        <v>7.764690000000001</v>
       </c>
       <c r="AD28">
-        <v>12.8729</v>
+        <v>12.847</v>
       </c>
       <c r="AE28">
-        <v>12.8729</v>
-      </c>
-      <c r="AF28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG28" s="2" t="s">
-        <v>61</v>
+        <v>12.847</v>
+      </c>
+      <c r="AF28">
+        <v>12.847</v>
+      </c>
+      <c r="AG28">
+        <v>0.833607</v>
       </c>
       <c r="AH28">
-        <v>1.7449</v>
+        <v>1.76191</v>
       </c>
       <c r="AI28">
-        <v>0.141287</v>
+        <v>0.14129</v>
       </c>
       <c r="AJ28">
-        <v>0.0668845</v>
+        <v>0.07142040000000001</v>
       </c>
       <c r="AK28">
-        <v>0.0677941</v>
+        <v>0.0763662</v>
       </c>
       <c r="AL28">
-        <v>0.0707386</v>
+        <v>0.0748432</v>
       </c>
       <c r="AM28">
-        <v>0.232581</v>
+        <v>0.230396</v>
       </c>
       <c r="AN28">
-        <v>874.58</v>
+        <v>0.453183</v>
       </c>
       <c r="AO28">
-        <v>835.586</v>
+        <v>875.018</v>
       </c>
       <c r="AP28">
-        <v>889.9880000000001</v>
+        <v>833.9929999999999</v>
       </c>
       <c r="AQ28">
-        <v>750.14</v>
+        <v>886.172</v>
       </c>
       <c r="AR28">
-        <v>804.631</v>
+        <v>745.5100000000001</v>
       </c>
       <c r="AS28">
-        <v>728.966</v>
+        <v>800.013</v>
       </c>
       <c r="AT28">
-        <v>783.29</v>
+        <v>729.3430000000001</v>
       </c>
       <c r="AU28">
-        <v>744.035</v>
+        <v>782.0020000000001</v>
       </c>
       <c r="AV28">
-        <v>798.3130000000001</v>
+        <v>739.711</v>
       </c>
       <c r="AW28">
-        <v>756.204</v>
+        <v>793.627</v>
+      </c>
+      <c r="AX28">
+        <v>751.6129999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:50">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -4968,7 +5049,7 @@
         <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I29" t="s">
         <v>69</v>
@@ -4982,119 +5063,122 @@
       <c r="L29" t="s">
         <v>72</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>61</v>
+      <c r="M29">
+        <v>47.8456</v>
+      </c>
+      <c r="N29">
+        <v>18.5562</v>
       </c>
       <c r="O29">
-        <v>19.8847</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>61</v>
+        <v>21.7554</v>
+      </c>
+      <c r="P29">
+        <v>37.2656</v>
+      </c>
+      <c r="Q29">
+        <v>47.8441</v>
+      </c>
+      <c r="R29">
+        <v>99.9967</v>
+      </c>
+      <c r="S29">
+        <v>37.2656</v>
+      </c>
+      <c r="T29">
+        <v>35.1117</v>
       </c>
       <c r="U29">
-        <v>16.6516</v>
+        <v>17.3175</v>
       </c>
       <c r="V29">
-        <v>13.9237</v>
+        <v>10.4714</v>
       </c>
       <c r="W29">
-        <v>14.0711</v>
+        <v>8.66422</v>
       </c>
       <c r="X29">
-        <v>13.6182</v>
+        <v>12.904</v>
       </c>
       <c r="Y29">
-        <v>13.6182</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>61</v>
+        <v>12.904</v>
+      </c>
+      <c r="Z29">
+        <v>12.9013</v>
       </c>
       <c r="AA29">
-        <v>19.8847</v>
+        <v>21.7554</v>
       </c>
       <c r="AB29">
-        <v>17.0051</v>
+        <v>12.499</v>
       </c>
       <c r="AC29">
-        <v>17.8994</v>
+        <v>11.2262</v>
       </c>
       <c r="AD29">
-        <v>18.7049</v>
+        <v>18.5562</v>
       </c>
       <c r="AE29">
-        <v>18.7049</v>
-      </c>
-      <c r="AF29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG29" s="2" t="s">
-        <v>61</v>
+        <v>18.5562</v>
+      </c>
+      <c r="AF29">
+        <v>18.5562</v>
+      </c>
+      <c r="AG29">
+        <v>0.6794</v>
       </c>
       <c r="AH29">
-        <v>1.54203</v>
+        <v>1.55412</v>
       </c>
       <c r="AI29">
-        <v>0.157824</v>
+        <v>0.158193</v>
       </c>
       <c r="AJ29">
-        <v>0.0545913</v>
+        <v>0.0581804</v>
       </c>
       <c r="AK29">
-        <v>0.0564827</v>
+        <v>0.06493890000000001</v>
       </c>
       <c r="AL29">
-        <v>0.0582672</v>
+        <v>0.06222519999999999</v>
       </c>
       <c r="AM29">
-        <v>0.191391</v>
+        <v>0.187496</v>
       </c>
       <c r="AN29">
-        <v>875.378</v>
+        <v>0.395239</v>
       </c>
       <c r="AO29">
-        <v>839.787</v>
+        <v>875.8480000000001</v>
       </c>
       <c r="AP29">
-        <v>895.537</v>
+        <v>837.6089999999999</v>
       </c>
       <c r="AQ29">
-        <v>759.2330000000001</v>
+        <v>890.383</v>
       </c>
       <c r="AR29">
-        <v>814.9340000000001</v>
+        <v>752.8920000000001</v>
       </c>
       <c r="AS29">
-        <v>731.621</v>
+        <v>808.558</v>
       </c>
       <c r="AT29">
-        <v>787.23</v>
+        <v>732.0690000000001</v>
       </c>
       <c r="AU29">
-        <v>751.736</v>
+        <v>785.274</v>
       </c>
       <c r="AV29">
-        <v>807.181</v>
+        <v>745.668</v>
       </c>
       <c r="AW29">
-        <v>767.311</v>
+        <v>800.7370000000001</v>
+      </c>
+      <c r="AX29">
+        <v>760.956</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:50">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -5117,7 +5201,7 @@
         <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I30" t="s">
         <v>69</v>
@@ -5131,119 +5215,122 @@
       <c r="L30" t="s">
         <v>74</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>61</v>
+      <c r="M30">
+        <v>48.11</v>
+      </c>
+      <c r="N30">
+        <v>14.9865</v>
       </c>
       <c r="O30">
-        <v>17.2312</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>61</v>
+        <v>18.772</v>
+      </c>
+      <c r="P30">
+        <v>30.6487</v>
+      </c>
+      <c r="Q30">
+        <v>48.1086</v>
+      </c>
+      <c r="R30">
+        <v>99.9971</v>
+      </c>
+      <c r="S30">
+        <v>30.6487</v>
+      </c>
+      <c r="T30">
+        <v>28.7561</v>
       </c>
       <c r="U30">
-        <v>15.4563</v>
+        <v>16.1112</v>
       </c>
       <c r="V30">
-        <v>11.8468</v>
+        <v>8.9658</v>
       </c>
       <c r="W30">
-        <v>11.8565</v>
+        <v>7.38005</v>
       </c>
       <c r="X30">
-        <v>11.5717</v>
+        <v>11.1792</v>
       </c>
       <c r="Y30">
-        <v>11.5717</v>
-      </c>
-      <c r="Z30" s="2" t="s">
-        <v>61</v>
+        <v>11.1792</v>
+      </c>
+      <c r="Z30">
+        <v>11.1789</v>
       </c>
       <c r="AA30">
-        <v>17.2312</v>
+        <v>18.772</v>
       </c>
       <c r="AB30">
-        <v>13.7194</v>
+        <v>10.3533</v>
       </c>
       <c r="AC30">
-        <v>14.3105</v>
+        <v>9.06446</v>
       </c>
       <c r="AD30">
-        <v>15.1392</v>
+        <v>14.9865</v>
       </c>
       <c r="AE30">
-        <v>15.1392</v>
-      </c>
-      <c r="AF30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG30" s="2" t="s">
-        <v>61</v>
+        <v>14.9865</v>
+      </c>
+      <c r="AF30">
+        <v>14.9865</v>
+      </c>
+      <c r="AG30">
+        <v>0.830207</v>
       </c>
       <c r="AH30">
-        <v>2.09034</v>
+        <v>2.1072</v>
       </c>
       <c r="AI30">
-        <v>0.259793</v>
+        <v>0.26022</v>
       </c>
       <c r="AJ30">
-        <v>0.0721637</v>
+        <v>0.07671219999999999</v>
       </c>
       <c r="AK30">
-        <v>0.0721705</v>
+        <v>0.08526719999999999</v>
       </c>
       <c r="AL30">
-        <v>0.0741265</v>
+        <v>0.07954589999999999</v>
       </c>
       <c r="AM30">
-        <v>0.242409</v>
+        <v>0.235704</v>
       </c>
       <c r="AN30">
-        <v>873.9480000000001</v>
+        <v>0.503008</v>
       </c>
       <c r="AO30">
-        <v>835.75</v>
+        <v>874.4</v>
       </c>
       <c r="AP30">
-        <v>890.153</v>
+        <v>833.986</v>
       </c>
       <c r="AQ30">
-        <v>751.117</v>
+        <v>886.168</v>
       </c>
       <c r="AR30">
-        <v>805.755</v>
+        <v>746.269</v>
       </c>
       <c r="AS30">
-        <v>729.147</v>
+        <v>800.876</v>
       </c>
       <c r="AT30">
-        <v>783.325</v>
+        <v>729.5630000000001</v>
       </c>
       <c r="AU30">
-        <v>744.996</v>
+        <v>781.9739999999999</v>
       </c>
       <c r="AV30">
-        <v>799.3150000000001</v>
+        <v>740.277</v>
       </c>
       <c r="AW30">
-        <v>757.583</v>
+        <v>794.381</v>
+      </c>
+      <c r="AX30">
+        <v>752.75</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:50">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -5266,7 +5353,7 @@
         <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I31" t="s">
         <v>81</v>
@@ -5280,119 +5367,122 @@
       <c r="L31" t="s">
         <v>72</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>61</v>
+      <c r="M31">
+        <v>47.6534</v>
+      </c>
+      <c r="N31">
+        <v>16.472</v>
       </c>
       <c r="O31">
-        <v>17.9044</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>61</v>
+        <v>19.8302</v>
+      </c>
+      <c r="P31">
+        <v>38.19520000000001</v>
+      </c>
+      <c r="Q31">
+        <v>47.6534</v>
+      </c>
+      <c r="R31">
+        <v>100</v>
+      </c>
+      <c r="S31">
+        <v>38.19520000000001</v>
+      </c>
+      <c r="T31">
+        <v>35.8487</v>
       </c>
       <c r="U31">
-        <v>14.7662</v>
+        <v>15.304</v>
       </c>
       <c r="V31">
-        <v>12.2895</v>
+        <v>9.099629999999999</v>
       </c>
       <c r="W31">
-        <v>12.3111</v>
+        <v>7.512970000000001</v>
       </c>
       <c r="X31">
-        <v>11.8341</v>
+        <v>11.2667</v>
       </c>
       <c r="Y31">
-        <v>11.8341</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>61</v>
+        <v>11.2667</v>
+      </c>
+      <c r="Z31">
+        <v>11.2668</v>
       </c>
       <c r="AA31">
-        <v>17.9044</v>
+        <v>19.8302</v>
       </c>
       <c r="AB31">
-        <v>15.0802</v>
+        <v>10.7538</v>
       </c>
       <c r="AC31">
-        <v>15.9075</v>
+        <v>9.942819999999999</v>
       </c>
       <c r="AD31">
-        <v>16.4466</v>
+        <v>16.472</v>
       </c>
       <c r="AE31">
-        <v>16.4466</v>
-      </c>
-      <c r="AF31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG31" s="2" t="s">
-        <v>61</v>
+        <v>16.472</v>
+      </c>
+      <c r="AF31">
+        <v>16.472</v>
+      </c>
+      <c r="AG31">
+        <v>0.682959</v>
       </c>
       <c r="AH31">
-        <v>1.2815</v>
+        <v>1.29332</v>
       </c>
       <c r="AI31">
-        <v>0.05941109999999999</v>
+        <v>0.0594132</v>
       </c>
       <c r="AJ31">
-        <v>0.051442</v>
+        <v>0.0550095</v>
       </c>
       <c r="AK31">
-        <v>0.053612</v>
+        <v>0.0589437</v>
       </c>
       <c r="AL31">
-        <v>0.0556691</v>
+        <v>0.0586979</v>
       </c>
       <c r="AM31">
-        <v>0.18392</v>
+        <v>0.183131</v>
       </c>
       <c r="AN31">
-        <v>876.764</v>
+        <v>0.355904</v>
       </c>
       <c r="AO31">
-        <v>840.7620000000001</v>
+        <v>877.21</v>
       </c>
       <c r="AP31">
-        <v>896.963</v>
+        <v>838.7470000000001</v>
       </c>
       <c r="AQ31">
-        <v>760.273</v>
+        <v>891.673</v>
       </c>
       <c r="AR31">
-        <v>816.24</v>
+        <v>753.8200000000001</v>
       </c>
       <c r="AS31">
-        <v>732.0100000000001</v>
+        <v>809.755</v>
       </c>
       <c r="AT31">
-        <v>788.21</v>
+        <v>732.408</v>
       </c>
       <c r="AU31">
-        <v>752.235</v>
+        <v>786.228</v>
       </c>
       <c r="AV31">
-        <v>808.0559999999999</v>
+        <v>746.417</v>
       </c>
       <c r="AW31">
-        <v>768.189</v>
+        <v>801.4739999999999</v>
+      </c>
+      <c r="AX31">
+        <v>761.745</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:50">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -5415,7 +5505,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I32" t="s">
         <v>81</v>
@@ -5429,119 +5519,122 @@
       <c r="L32" t="s">
         <v>74</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>61</v>
+      <c r="M32">
+        <v>48.1174</v>
+      </c>
+      <c r="N32">
+        <v>12.847</v>
       </c>
       <c r="O32">
-        <v>15.2447</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>61</v>
+        <v>16.7372</v>
+      </c>
+      <c r="P32">
+        <v>29.8823</v>
+      </c>
+      <c r="Q32">
+        <v>48.1184</v>
+      </c>
+      <c r="R32">
+        <v>100.002</v>
+      </c>
+      <c r="S32">
+        <v>29.8823</v>
+      </c>
+      <c r="T32">
+        <v>28.0019</v>
       </c>
       <c r="U32">
-        <v>13.7227</v>
+        <v>14.264</v>
       </c>
       <c r="V32">
-        <v>10.1216</v>
+        <v>7.519830000000001</v>
       </c>
       <c r="W32">
-        <v>10.1436</v>
+        <v>6.251980000000001</v>
       </c>
       <c r="X32">
-        <v>9.844330000000001</v>
+        <v>9.57695</v>
       </c>
       <c r="Y32">
-        <v>9.844330000000001</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>61</v>
+        <v>9.57695</v>
+      </c>
+      <c r="Z32">
+        <v>9.578239999999999</v>
       </c>
       <c r="AA32">
-        <v>15.2447</v>
+        <v>16.7372</v>
       </c>
       <c r="AB32">
-        <v>11.7316</v>
+        <v>8.64771</v>
       </c>
       <c r="AC32">
-        <v>12.2749</v>
+        <v>7.764690000000001</v>
       </c>
       <c r="AD32">
-        <v>12.8729</v>
+        <v>12.847</v>
       </c>
       <c r="AE32">
-        <v>12.8729</v>
-      </c>
-      <c r="AF32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG32" s="2" t="s">
-        <v>61</v>
+        <v>12.847</v>
+      </c>
+      <c r="AF32">
+        <v>12.847</v>
+      </c>
+      <c r="AG32">
+        <v>0.833607</v>
       </c>
       <c r="AH32">
-        <v>1.7449</v>
+        <v>1.76191</v>
       </c>
       <c r="AI32">
-        <v>0.141287</v>
+        <v>0.14129</v>
       </c>
       <c r="AJ32">
-        <v>0.0668845</v>
+        <v>0.07142040000000001</v>
       </c>
       <c r="AK32">
-        <v>0.0677941</v>
+        <v>0.0763662</v>
       </c>
       <c r="AL32">
-        <v>0.0707386</v>
+        <v>0.0748432</v>
       </c>
       <c r="AM32">
-        <v>0.232581</v>
+        <v>0.230396</v>
       </c>
       <c r="AN32">
-        <v>874.58</v>
+        <v>0.453183</v>
       </c>
       <c r="AO32">
-        <v>835.586</v>
+        <v>875.018</v>
       </c>
       <c r="AP32">
-        <v>889.9880000000001</v>
+        <v>833.9929999999999</v>
       </c>
       <c r="AQ32">
-        <v>750.14</v>
+        <v>886.172</v>
       </c>
       <c r="AR32">
-        <v>804.631</v>
+        <v>745.5100000000001</v>
       </c>
       <c r="AS32">
-        <v>728.966</v>
+        <v>800.013</v>
       </c>
       <c r="AT32">
-        <v>783.29</v>
+        <v>729.3430000000001</v>
       </c>
       <c r="AU32">
-        <v>744.035</v>
+        <v>782.0020000000001</v>
       </c>
       <c r="AV32">
-        <v>798.3130000000001</v>
+        <v>739.711</v>
       </c>
       <c r="AW32">
-        <v>756.204</v>
+        <v>793.627</v>
+      </c>
+      <c r="AX32">
+        <v>751.6129999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:50">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -5564,7 +5657,7 @@
         <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
         <v>81</v>
@@ -5578,119 +5671,122 @@
       <c r="L33" t="s">
         <v>72</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>61</v>
+      <c r="M33">
+        <v>47.8456</v>
+      </c>
+      <c r="N33">
+        <v>18.5562</v>
       </c>
       <c r="O33">
-        <v>19.8847</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>61</v>
+        <v>21.7554</v>
+      </c>
+      <c r="P33">
+        <v>37.2656</v>
+      </c>
+      <c r="Q33">
+        <v>47.8441</v>
+      </c>
+      <c r="R33">
+        <v>99.9967</v>
+      </c>
+      <c r="S33">
+        <v>37.2656</v>
+      </c>
+      <c r="T33">
+        <v>35.1117</v>
       </c>
       <c r="U33">
-        <v>16.6516</v>
+        <v>17.3175</v>
       </c>
       <c r="V33">
-        <v>13.9237</v>
+        <v>10.4714</v>
       </c>
       <c r="W33">
-        <v>14.0711</v>
+        <v>8.66422</v>
       </c>
       <c r="X33">
-        <v>13.6182</v>
+        <v>12.904</v>
       </c>
       <c r="Y33">
-        <v>13.6182</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>61</v>
+        <v>12.904</v>
+      </c>
+      <c r="Z33">
+        <v>12.9013</v>
       </c>
       <c r="AA33">
-        <v>19.8847</v>
+        <v>21.7554</v>
       </c>
       <c r="AB33">
-        <v>17.0051</v>
+        <v>12.499</v>
       </c>
       <c r="AC33">
-        <v>17.8994</v>
+        <v>11.2262</v>
       </c>
       <c r="AD33">
-        <v>18.7049</v>
+        <v>18.5562</v>
       </c>
       <c r="AE33">
-        <v>18.7049</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG33" s="2" t="s">
-        <v>61</v>
+        <v>18.5562</v>
+      </c>
+      <c r="AF33">
+        <v>18.5562</v>
+      </c>
+      <c r="AG33">
+        <v>0.6794</v>
       </c>
       <c r="AH33">
-        <v>1.54203</v>
+        <v>1.55412</v>
       </c>
       <c r="AI33">
-        <v>0.157824</v>
+        <v>0.158193</v>
       </c>
       <c r="AJ33">
-        <v>0.0545913</v>
+        <v>0.0581804</v>
       </c>
       <c r="AK33">
-        <v>0.0564827</v>
+        <v>0.06493890000000001</v>
       </c>
       <c r="AL33">
-        <v>0.0582672</v>
+        <v>0.06222519999999999</v>
       </c>
       <c r="AM33">
-        <v>0.191391</v>
+        <v>0.187496</v>
       </c>
       <c r="AN33">
-        <v>875.378</v>
+        <v>0.395239</v>
       </c>
       <c r="AO33">
-        <v>839.787</v>
+        <v>875.8480000000001</v>
       </c>
       <c r="AP33">
-        <v>895.537</v>
+        <v>837.6089999999999</v>
       </c>
       <c r="AQ33">
-        <v>759.2330000000001</v>
+        <v>890.383</v>
       </c>
       <c r="AR33">
-        <v>814.9340000000001</v>
+        <v>752.8920000000001</v>
       </c>
       <c r="AS33">
-        <v>731.621</v>
+        <v>808.558</v>
       </c>
       <c r="AT33">
-        <v>787.23</v>
+        <v>732.0690000000001</v>
       </c>
       <c r="AU33">
-        <v>751.736</v>
+        <v>785.274</v>
       </c>
       <c r="AV33">
-        <v>807.181</v>
+        <v>745.668</v>
       </c>
       <c r="AW33">
-        <v>767.311</v>
+        <v>800.7370000000001</v>
+      </c>
+      <c r="AX33">
+        <v>760.956</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:50">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -5713,7 +5809,7 @@
         <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I34" t="s">
         <v>81</v>
@@ -5727,119 +5823,122 @@
       <c r="L34" t="s">
         <v>74</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>61</v>
+      <c r="M34">
+        <v>48.11</v>
+      </c>
+      <c r="N34">
+        <v>14.9865</v>
       </c>
       <c r="O34">
-        <v>17.2312</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>61</v>
+        <v>18.772</v>
+      </c>
+      <c r="P34">
+        <v>30.6487</v>
+      </c>
+      <c r="Q34">
+        <v>48.1086</v>
+      </c>
+      <c r="R34">
+        <v>99.9971</v>
+      </c>
+      <c r="S34">
+        <v>30.6487</v>
+      </c>
+      <c r="T34">
+        <v>28.7561</v>
       </c>
       <c r="U34">
-        <v>15.4563</v>
+        <v>16.1112</v>
       </c>
       <c r="V34">
-        <v>11.8468</v>
+        <v>8.9658</v>
       </c>
       <c r="W34">
-        <v>11.8565</v>
+        <v>7.38005</v>
       </c>
       <c r="X34">
-        <v>11.5717</v>
+        <v>11.1792</v>
       </c>
       <c r="Y34">
-        <v>11.5717</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>61</v>
+        <v>11.1792</v>
+      </c>
+      <c r="Z34">
+        <v>11.1789</v>
       </c>
       <c r="AA34">
-        <v>17.2312</v>
+        <v>18.772</v>
       </c>
       <c r="AB34">
-        <v>13.7194</v>
+        <v>10.3533</v>
       </c>
       <c r="AC34">
-        <v>14.3105</v>
+        <v>9.06446</v>
       </c>
       <c r="AD34">
-        <v>15.1392</v>
+        <v>14.9865</v>
       </c>
       <c r="AE34">
-        <v>15.1392</v>
-      </c>
-      <c r="AF34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG34" s="2" t="s">
-        <v>61</v>
+        <v>14.9865</v>
+      </c>
+      <c r="AF34">
+        <v>14.9865</v>
+      </c>
+      <c r="AG34">
+        <v>0.830207</v>
       </c>
       <c r="AH34">
-        <v>2.09034</v>
+        <v>2.1072</v>
       </c>
       <c r="AI34">
-        <v>0.259793</v>
+        <v>0.26022</v>
       </c>
       <c r="AJ34">
-        <v>0.0721637</v>
+        <v>0.07671219999999999</v>
       </c>
       <c r="AK34">
-        <v>0.0721705</v>
+        <v>0.08526719999999999</v>
       </c>
       <c r="AL34">
-        <v>0.0741265</v>
+        <v>0.07954589999999999</v>
       </c>
       <c r="AM34">
-        <v>0.242409</v>
+        <v>0.235704</v>
       </c>
       <c r="AN34">
-        <v>873.9480000000001</v>
+        <v>0.503008</v>
       </c>
       <c r="AO34">
-        <v>835.75</v>
+        <v>874.4</v>
       </c>
       <c r="AP34">
-        <v>890.153</v>
+        <v>833.986</v>
       </c>
       <c r="AQ34">
-        <v>751.117</v>
+        <v>886.168</v>
       </c>
       <c r="AR34">
-        <v>805.755</v>
+        <v>746.269</v>
       </c>
       <c r="AS34">
-        <v>729.147</v>
+        <v>800.876</v>
       </c>
       <c r="AT34">
-        <v>783.325</v>
+        <v>729.5630000000001</v>
       </c>
       <c r="AU34">
-        <v>744.996</v>
+        <v>781.9739999999999</v>
       </c>
       <c r="AV34">
-        <v>799.3150000000001</v>
+        <v>740.277</v>
       </c>
       <c r="AW34">
-        <v>757.583</v>
+        <v>794.381</v>
+      </c>
+      <c r="AX34">
+        <v>752.75</v>
       </c>
     </row>
-    <row r="35" spans="1:49" s="1" customFormat="1">
+    <row r="35" spans="1:50" s="1" customFormat="1">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -5987,252 +6086,261 @@
       <c r="AW35" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="AX35" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="36" spans="1:49" s="1" customFormat="1">
+    <row r="36" spans="1:50" s="1" customFormat="1">
       <c r="L36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="1">
+        <v>47.6534</v>
+      </c>
+      <c r="N36" s="1">
+        <v>9.27651</v>
+      </c>
+      <c r="O36" s="1">
+        <v>14.3237</v>
+      </c>
+      <c r="P36" s="1">
+        <v>23.9102</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>47.6534</v>
+      </c>
+      <c r="R36" s="1">
+        <v>99.9967</v>
+      </c>
+      <c r="S36" s="1">
+        <v>23.0482</v>
+      </c>
+      <c r="T36" s="1">
+        <v>23.9102</v>
+      </c>
+      <c r="U36" s="1">
+        <v>14.264</v>
+      </c>
+      <c r="V36" s="1">
+        <v>6.985910000000001</v>
+      </c>
+      <c r="W36" s="1">
+        <v>5.83343</v>
+      </c>
+      <c r="X36" s="1">
+        <v>9.27679</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>9.27679</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>9.27651</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>14.0036</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>6.97422</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>5.852910000000001</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>9.156180000000001</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>9.156180000000001</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>9.156180000000001</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0.677546</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>1.19302</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>0.0204486</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>0.0520046</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>0.0562769</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0.0553613</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>0.177694</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>0.341341</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>874.4</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>829.3870000000001</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>884.218</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>738.672</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>795.465</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>724.218</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>780.2560000000001</v>
+      </c>
+      <c r="AV36" s="1">
+        <v>733.327</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>789.535</v>
+      </c>
+      <c r="AX36" s="1">
+        <v>743.5930000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" s="1" customFormat="1">
+      <c r="L37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O36" s="1">
-        <v>13.5432</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U36" s="1">
-        <v>13.5432</v>
-      </c>
-      <c r="V36" s="1">
-        <v>9.447859999999999</v>
-      </c>
-      <c r="W36" s="1">
-        <v>9.455769999999999</v>
-      </c>
-      <c r="X36" s="1">
-        <v>9.09474</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>9.09474</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>13.2721</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>8.766640000000001</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>8.843530000000001</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>9.532349999999999</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>9.532349999999999</v>
-      </c>
-      <c r="AF36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH36" s="1">
-        <v>1.18003</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>0.0204485</v>
-      </c>
-      <c r="AJ36" s="1">
-        <v>0.0487749</v>
-      </c>
-      <c r="AK36" s="1">
-        <v>0.0516284</v>
-      </c>
-      <c r="AL36" s="1">
-        <v>0.0523198</v>
-      </c>
-      <c r="AM36" s="1">
-        <v>0.177522</v>
-      </c>
-      <c r="AN36" s="1">
-        <v>873.9480000000001</v>
-      </c>
-      <c r="AO36" s="1">
-        <v>830.759</v>
-      </c>
-      <c r="AP36" s="1">
-        <v>887.088</v>
-      </c>
-      <c r="AQ36" s="1">
-        <v>741.957</v>
-      </c>
-      <c r="AR36" s="1">
-        <v>798.85</v>
-      </c>
-      <c r="AS36" s="1">
-        <v>723.9</v>
-      </c>
-      <c r="AT36" s="1">
-        <v>780.884</v>
-      </c>
-      <c r="AU36" s="1">
-        <v>736.389</v>
-      </c>
-      <c r="AV36" s="1">
-        <v>792.942</v>
-      </c>
-      <c r="AW36" s="1">
-        <v>746.788</v>
+      <c r="M37" s="2">
+        <v>53.299</v>
+      </c>
+      <c r="N37" s="1">
+        <v>19.1737</v>
+      </c>
+      <c r="O37" s="1">
+        <v>21.7554</v>
+      </c>
+      <c r="P37" s="1">
+        <v>49.2671</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>53.29940000000001</v>
+      </c>
+      <c r="R37" s="1">
+        <v>100.002</v>
+      </c>
+      <c r="S37" s="1">
+        <v>49.2671</v>
+      </c>
+      <c r="T37" s="1">
+        <v>49.2146</v>
+      </c>
+      <c r="U37" s="1">
+        <v>20.9392</v>
+      </c>
+      <c r="V37" s="1">
+        <v>13.4036</v>
+      </c>
+      <c r="W37" s="1">
+        <v>11.5928</v>
+      </c>
+      <c r="X37" s="1">
+        <v>18.8827</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>18.8827</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>18.883</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>21.7554</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>13.5067</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>11.9534</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>19.1737</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>19.1737</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>19.1737</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0.835347</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>2.50951</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>0.425881</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>0.0919864</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>0.103118</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0.0893133</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>0.248396</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>0.591548</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>883.197</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>844.159</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>903.384</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>764.889</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>826.136</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>732.91</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>794.194</v>
+      </c>
+      <c r="AV37" s="1">
+        <v>753.182</v>
+      </c>
+      <c r="AW37" s="1">
+        <v>814.8399999999999</v>
+      </c>
+      <c r="AX37" s="1">
+        <v>774.426</v>
       </c>
     </row>
-    <row r="37" spans="1:49" s="1" customFormat="1">
-      <c r="L37" s="1" t="s">
+    <row r="38" spans="1:50" s="1" customFormat="1">
+      <c r="L38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O37" s="1">
-        <v>20.3307</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U37" s="1">
-        <v>19.8539</v>
-      </c>
-      <c r="V37" s="1">
-        <v>19.3184</v>
-      </c>
-      <c r="W37" s="1">
-        <v>19.5057</v>
-      </c>
-      <c r="X37" s="1">
-        <v>18.9385</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>18.9385</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>20.3307</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>18.4227</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>19.1437</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>20.104</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>20.104</v>
-      </c>
-      <c r="AF37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH37" s="1">
-        <v>2.48748</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>0.424958</v>
-      </c>
-      <c r="AJ37" s="1">
-        <v>0.0873423</v>
-      </c>
-      <c r="AK37" s="1">
-        <v>0.0819236</v>
-      </c>
-      <c r="AL37" s="1">
-        <v>0.0815757</v>
-      </c>
-      <c r="AM37" s="1">
-        <v>0.261547</v>
-      </c>
-      <c r="AN37" s="1">
-        <v>882.6950000000001</v>
-      </c>
-      <c r="AO37" s="1">
-        <v>847.338</v>
-      </c>
-      <c r="AP37" s="1">
-        <v>911.042</v>
-      </c>
-      <c r="AQ37" s="1">
-        <v>774.444</v>
-      </c>
-      <c r="AR37" s="1">
-        <v>835.899</v>
-      </c>
-      <c r="AS37" s="1">
-        <v>732.538</v>
-      </c>
-      <c r="AT37" s="1">
-        <v>796.381</v>
-      </c>
-      <c r="AU37" s="1">
-        <v>761.264</v>
-      </c>
-      <c r="AV37" s="1">
-        <v>824.6320000000001</v>
-      </c>
-      <c r="AW37" s="1">
-        <v>783.785</v>
-      </c>
     </row>
-    <row r="38" spans="1:49" s="1" customFormat="1">
-      <c r="L38" s="1" t="s">
+    <row r="39" spans="1:50" s="1" customFormat="1">
+      <c r="L39" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:49" s="1" customFormat="1">
-      <c r="L39" s="1" t="s">
+    <row r="40" spans="1:50" s="1" customFormat="1">
+      <c r="L40" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:49" s="1" customFormat="1">
-      <c r="L40" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="M40" s="1">
         <v>53</v>
@@ -6247,363 +6355,372 @@
         <v>100000000000000</v>
       </c>
     </row>
-    <row r="41" spans="1:49" s="1" customFormat="1">
+    <row r="41" spans="1:50" s="1" customFormat="1">
       <c r="L41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M41" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:49" s="1" customFormat="1">
+    <row r="42" spans="1:50" s="1" customFormat="1">
       <c r="L42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M42" s="1">
+        <v>50.37532424242424</v>
+      </c>
+      <c r="N42" s="1">
+        <v>14.61815515151515</v>
+      </c>
+      <c r="O42" s="1">
+        <v>18.16907272727273</v>
+      </c>
+      <c r="P42" s="1">
+        <v>34.10822424242424</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>50.37507575757576</v>
+      </c>
+      <c r="R42" s="1">
+        <v>99.99947878787881</v>
+      </c>
+      <c r="S42" s="1">
+        <v>33.21287575757575</v>
+      </c>
+      <c r="T42" s="1">
+        <v>33.58753333333333</v>
+      </c>
+      <c r="U42" s="1">
+        <v>17.2252303030303</v>
+      </c>
+      <c r="V42" s="1">
+        <v>9.732751212121217</v>
+      </c>
+      <c r="W42" s="1">
+        <v>8.357980909090911</v>
+      </c>
+      <c r="X42" s="1">
+        <v>13.47790848484849</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>13.47790848484849</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>13.47756363636364</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>17.31653333333334</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>9.781866363636366</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>8.479427272727275</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>13.43133333333333</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>13.43133333333333</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>13.43133333333333</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0.7564667878787881</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>1.689802121212121</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>0.1531353878787878</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>0.0666402515151515</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>0.07255736666666665</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0.0692025121212121</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>0.2098089696969697</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>0.4304121515151516</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>878.3765454545457</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>835.0050303030304</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>891.2812727272728</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>748.8379696969696</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>807.2106060606062</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>728.1429090909091</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>785.3893636363634</v>
+      </c>
+      <c r="AV42" s="1">
+        <v>741.0063333333336</v>
+      </c>
+      <c r="AW42" s="1">
+        <v>799.2125757575759</v>
+      </c>
+      <c r="AX42" s="1">
+        <v>755.5534242424242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" s="1" customFormat="1">
+      <c r="L43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O42" s="1">
-        <v>16.93592121212122</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U42" s="1">
-        <v>16.29509696969697</v>
-      </c>
-      <c r="V42" s="1">
-        <v>13.73915515151515</v>
-      </c>
-      <c r="W42" s="1">
-        <v>13.88205575757576</v>
-      </c>
-      <c r="X42" s="1">
-        <v>13.36992242424243</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>13.36992242424243</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>16.24686363636364</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>12.83842303030303</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>13.27400727272727</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>14.03806060606061</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>14.03806060606061</v>
-      </c>
-      <c r="AF42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH42" s="1">
-        <v>1.674807575757576</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.1529430484848485</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.06269659090909091</v>
-      </c>
-      <c r="AK42" s="1">
-        <v>0.06322546060606059</v>
-      </c>
-      <c r="AL42" s="1">
-        <v>0.06489460606060607</v>
-      </c>
-      <c r="AM42" s="1">
-        <v>0.213642606060606</v>
-      </c>
-      <c r="AN42" s="1">
-        <v>877.9103939393939</v>
-      </c>
-      <c r="AO42" s="1">
-        <v>837.1954848484846</v>
-      </c>
-      <c r="AP42" s="1">
-        <v>896.0854848484846</v>
-      </c>
-      <c r="AQ42" s="1">
-        <v>754.4563636363636</v>
-      </c>
-      <c r="AR42" s="1">
-        <v>813.037484848485</v>
-      </c>
-      <c r="AS42" s="1">
-        <v>727.7723333333333</v>
-      </c>
-      <c r="AT42" s="1">
-        <v>786.7235757575756</v>
-      </c>
-      <c r="AU42" s="1">
-        <v>746.0898787878788</v>
-      </c>
-      <c r="AV42" s="1">
-        <v>805.037212121212</v>
-      </c>
-      <c r="AW42" s="1">
-        <v>761.0769090909092</v>
+      <c r="M43" s="1">
+        <v>1.750401938608682</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2.886082557649804</v>
+      </c>
+      <c r="O43" s="1">
+        <v>2.156062530053019</v>
+      </c>
+      <c r="P43" s="1">
+        <v>6.786502166936701</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1.750549333526271</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.001681946487051344</v>
+      </c>
+      <c r="S43" s="1">
+        <v>7.069482455620171</v>
+      </c>
+      <c r="T43" s="1">
+        <v>6.793390626977596</v>
+      </c>
+      <c r="U43" s="1">
+        <v>2.033171512460699</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1.714395600345317</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1.617017124090591</v>
+      </c>
+      <c r="X43" s="1">
+        <v>2.957060704364674</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>2.957060704364674</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>2.957059930843286</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>2.335604907392161</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>1.767004488051131</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1.707949711505569</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>2.978240102898545</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>2.978240102898545</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>2.978240102898545</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0.07432415688368187</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>0.3430268910366771</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>0.1020529898457355</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>0.011041692441039</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>0.0124292569556712</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0.00962970003934348</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>0.02443985837692049</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>0.06639835642869171</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>2.748724796248193</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>4.043698258419164</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>5.306508817924526</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>7.069269352691259</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>8.244008365820639</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>2.974387977419954</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>3.776829452894768</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>5.579844858637625</v>
+      </c>
+      <c r="AW43" s="1">
+        <v>6.793563932938848</v>
+      </c>
+      <c r="AX43" s="1">
+        <v>8.324742354845821</v>
       </c>
     </row>
-    <row r="43" spans="1:49" s="1" customFormat="1">
-      <c r="L43" s="1" t="s">
+    <row r="44" spans="1:50" s="1" customFormat="1">
+      <c r="L44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O43" s="1">
-        <v>1.919402470271251</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U43" s="1">
-        <v>1.837960959041436</v>
-      </c>
-      <c r="V43" s="1">
-        <v>2.835656717399705</v>
-      </c>
-      <c r="W43" s="1">
-        <v>2.920501918014685</v>
-      </c>
-      <c r="X43" s="1">
-        <v>2.79045441995215</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>2.79045441995215</v>
-      </c>
-      <c r="Z43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>2.033718149748652</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>2.723837350219617</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>2.927870746801746</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>2.932517421342697</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>2.932517421342697</v>
-      </c>
-      <c r="AF43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH43" s="1">
-        <v>0.3404051296575205</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.1018090755900091</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.01057825939632688</v>
-      </c>
-      <c r="AK43" s="1">
-        <v>0.00866043149509165</v>
-      </c>
-      <c r="AL43" s="1">
-        <v>0.008633678484370289</v>
-      </c>
-      <c r="AM43" s="1">
-        <v>0.02659016117304384</v>
-      </c>
-      <c r="AN43" s="1">
-        <v>2.730956841301999</v>
-      </c>
-      <c r="AO43" s="1">
-        <v>4.48991944397744</v>
-      </c>
-      <c r="AP43" s="1">
-        <v>6.591939766573584</v>
-      </c>
-      <c r="AQ43" s="1">
-        <v>8.753796166367705</v>
-      </c>
-      <c r="AR43" s="1">
-        <v>9.956968311024198</v>
-      </c>
-      <c r="AS43" s="1">
-        <v>2.95189752703258</v>
-      </c>
-      <c r="AT43" s="1">
-        <v>4.183068433218369</v>
-      </c>
-      <c r="AU43" s="1">
-        <v>6.940890763538092</v>
-      </c>
-      <c r="AV43" s="1">
-        <v>8.504669009138716</v>
-      </c>
-      <c r="AW43" s="1">
-        <v>9.994436517121184</v>
+      <c r="M44" s="1">
+        <v>3.474720937149935</v>
+      </c>
+      <c r="N44" s="1">
+        <v>19.74313808914982</v>
+      </c>
+      <c r="O44" s="1">
+        <v>11.86666244566601</v>
+      </c>
+      <c r="P44" s="1">
+        <v>19.89696713233041</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>3.475030671815936</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.001681955253605999</v>
+      </c>
+      <c r="S44" s="1">
+        <v>21.28536687765631</v>
+      </c>
+      <c r="T44" s="1">
+        <v>20.22592894678461</v>
+      </c>
+      <c r="U44" s="1">
+        <v>11.80345038465476</v>
+      </c>
+      <c r="V44" s="1">
+        <v>17.61470691052084</v>
+      </c>
+      <c r="W44" s="1">
+        <v>19.34698274234838</v>
+      </c>
+      <c r="X44" s="1">
+        <v>21.94005626087256</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>21.94005626087256</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>21.94061189861409</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>13.48771640624082</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>18.06408329825367</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>20.14227679030772</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>22.17382317142908</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>22.17382317142908</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>22.17382317142908</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>9.825171187236728</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>20.29982604061466</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>66.64232954861751</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>16.56910379236568</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>17.13024814251051</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>13.91524634608136</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>11.64862418047205</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>15.42669188008608</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>0.3129323990346045</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>0.4842723231202179</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>0.5953798178308958</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>0.9440319052667646</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>1.021295843231484</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>0.4084895891018832</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>0.4808862492621489</v>
+      </c>
+      <c r="AV44" s="1">
+        <v>0.7530090645159968</v>
+      </c>
+      <c r="AW44" s="1">
+        <v>0.850032161530893</v>
+      </c>
+      <c r="AX44" s="1">
+        <v>1.101807243239331</v>
       </c>
     </row>
-    <row r="44" spans="1:49" s="1" customFormat="1">
-      <c r="L44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O44" s="1">
-        <v>11.33332191518176</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U44" s="1">
-        <v>11.2792268892869</v>
-      </c>
-      <c r="V44" s="1">
-        <v>20.63923644596873</v>
-      </c>
-      <c r="W44" s="1">
-        <v>21.03796418207656</v>
-      </c>
-      <c r="X44" s="1">
-        <v>20.87113396329422</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>20.87113396329422</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>12.51760459906117</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>21.21629224859188</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>22.05717298963168</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>20.88976179570453</v>
-      </c>
-      <c r="AE44" s="1">
-        <v>20.88976179570453</v>
-      </c>
-      <c r="AF44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH44" s="1">
-        <v>20.32502925021359</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>66.56665771906263</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>16.87214447060637</v>
-      </c>
-      <c r="AK44" s="1">
-        <v>13.69769616871955</v>
-      </c>
-      <c r="AL44" s="1">
-        <v>13.30415424096598</v>
-      </c>
-      <c r="AM44" s="1">
-        <v>12.44609474830164</v>
-      </c>
-      <c r="AN44" s="1">
-        <v>0.311074667774184</v>
-      </c>
-      <c r="AO44" s="1">
-        <v>0.5363047848723198</v>
-      </c>
-      <c r="AP44" s="1">
-        <v>0.7356373781334253</v>
-      </c>
-      <c r="AQ44" s="1">
-        <v>1.160278657360083</v>
-      </c>
-      <c r="AR44" s="1">
-        <v>1.22466288413255</v>
-      </c>
-      <c r="AS44" s="1">
-        <v>0.4056072746695849</v>
-      </c>
-      <c r="AT44" s="1">
-        <v>0.5317075224535228</v>
-      </c>
-      <c r="AU44" s="1">
-        <v>0.9303022277710673</v>
-      </c>
-      <c r="AV44" s="1">
-        <v>1.056431787386518</v>
-      </c>
-      <c r="AW44" s="1">
-        <v>1.313196655651967</v>
-      </c>
-    </row>
-    <row r="45" spans="1:49" s="1" customFormat="1"/>
+    <row r="45" spans="1:50" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="133">
   <si>
     <t>Process</t>
   </si>
@@ -202,6 +202,9 @@
     <t>0.750</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>tsmc2p (1)</t>
   </si>
   <si>
@@ -239,6 +242,9 @@
   </si>
   <si>
     <t>0.825</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
   <si>
     <t>tsmc2p (3)</t>
@@ -437,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,7 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFE8B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6FFF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,10 +481,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,4983 +979,4983 @@
       <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="M2">
-        <v>50.4811</v>
-      </c>
-      <c r="N2">
-        <v>12.4959</v>
-      </c>
-      <c r="O2">
-        <v>16.2302</v>
-      </c>
-      <c r="P2">
-        <v>31.9644</v>
-      </c>
-      <c r="Q2">
-        <v>50.4811</v>
-      </c>
-      <c r="R2">
-        <v>100</v>
-      </c>
-      <c r="S2">
-        <v>31.4835</v>
-      </c>
-      <c r="T2">
-        <v>31.9644</v>
-      </c>
-      <c r="U2">
-        <v>16.2302</v>
-      </c>
-      <c r="V2">
-        <v>8.879510000000002</v>
-      </c>
-      <c r="W2">
-        <v>7.71257</v>
-      </c>
-      <c r="X2">
-        <v>12.4959</v>
-      </c>
-      <c r="Y2">
-        <v>12.4959</v>
-      </c>
-      <c r="Z2">
-        <v>12.4959</v>
-      </c>
-      <c r="AA2">
-        <v>16.1106</v>
-      </c>
-      <c r="AB2">
-        <v>8.880730000000002</v>
-      </c>
-      <c r="AC2">
-        <v>7.781440000000001</v>
-      </c>
-      <c r="AD2">
-        <v>12.3052</v>
-      </c>
-      <c r="AE2">
-        <v>12.3052</v>
-      </c>
-      <c r="AF2">
-        <v>12.3052</v>
-      </c>
-      <c r="AG2">
-        <v>0.757356</v>
-      </c>
-      <c r="AH2">
-        <v>1.58223</v>
-      </c>
-      <c r="AI2">
-        <v>0.108496</v>
-      </c>
-      <c r="AJ2">
-        <v>0.0642079</v>
-      </c>
-      <c r="AK2">
-        <v>0.0689645</v>
-      </c>
-      <c r="AL2">
-        <v>0.06744310000000001</v>
-      </c>
-      <c r="AM2">
-        <v>0.207936</v>
-      </c>
-      <c r="AN2">
-        <v>0.409155</v>
-      </c>
-      <c r="AO2">
-        <v>878.1799999999999</v>
-      </c>
-      <c r="AP2">
-        <v>834.1840000000001</v>
-      </c>
-      <c r="AQ2">
-        <v>890.198</v>
-      </c>
-      <c r="AR2">
-        <v>747.111</v>
-      </c>
-      <c r="AS2">
-        <v>805.254</v>
-      </c>
-      <c r="AT2">
-        <v>727.746</v>
-      </c>
-      <c r="AU2">
-        <v>784.665</v>
-      </c>
-      <c r="AV2">
-        <v>739.741</v>
-      </c>
-      <c r="AW2">
-        <v>797.5890000000001</v>
-      </c>
-      <c r="AX2">
-        <v>753.5210000000001</v>
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:50">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
         <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3">
-        <v>50.901</v>
-      </c>
-      <c r="N3">
-        <v>10.7711</v>
-      </c>
-      <c r="O3">
-        <v>15.206</v>
-      </c>
-      <c r="P3">
-        <v>28.4223</v>
-      </c>
-      <c r="Q3">
-        <v>50.9016</v>
-      </c>
-      <c r="R3">
-        <v>100.001</v>
-      </c>
-      <c r="S3">
-        <v>27.5221</v>
-      </c>
-      <c r="T3">
-        <v>28.4223</v>
-      </c>
-      <c r="U3">
-        <v>15.206</v>
-      </c>
-      <c r="V3">
-        <v>7.890779999999999</v>
-      </c>
-      <c r="W3">
-        <v>6.76806</v>
-      </c>
-      <c r="X3">
-        <v>10.7699</v>
-      </c>
-      <c r="Y3">
-        <v>10.7699</v>
-      </c>
-      <c r="Z3">
-        <v>10.7711</v>
-      </c>
-      <c r="AA3">
-        <v>14.8942</v>
-      </c>
-      <c r="AB3">
-        <v>7.85669</v>
-      </c>
-      <c r="AC3">
-        <v>6.74796</v>
-      </c>
-      <c r="AD3">
-        <v>10.4664</v>
-      </c>
-      <c r="AE3">
-        <v>10.4664</v>
-      </c>
-      <c r="AF3">
-        <v>10.4664</v>
-      </c>
-      <c r="AG3">
-        <v>0.681575</v>
-      </c>
-      <c r="AH3">
-        <v>1.46351</v>
-      </c>
-      <c r="AI3">
-        <v>0.129809</v>
-      </c>
-      <c r="AJ3">
-        <v>0.060757</v>
-      </c>
-      <c r="AK3">
-        <v>0.0650447</v>
-      </c>
-      <c r="AL3">
-        <v>0.06292349999999999</v>
-      </c>
-      <c r="AM3">
-        <v>0.190318</v>
-      </c>
-      <c r="AN3">
-        <v>0.379483</v>
-      </c>
-      <c r="AO3">
-        <v>877.284</v>
-      </c>
-      <c r="AP3">
-        <v>831.938</v>
-      </c>
-      <c r="AQ3">
-        <v>887.715</v>
-      </c>
-      <c r="AR3">
-        <v>743.149</v>
-      </c>
-      <c r="AS3">
-        <v>801.268</v>
-      </c>
-      <c r="AT3">
-        <v>726.2120000000001</v>
-      </c>
-      <c r="AU3">
-        <v>782.865</v>
-      </c>
-      <c r="AV3">
-        <v>736.6799999999999</v>
-      </c>
-      <c r="AW3">
-        <v>794.047</v>
-      </c>
-      <c r="AX3">
-        <v>749.158</v>
+        <v>73</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:50">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M4">
-        <v>50.8631</v>
+        <v>50.4463</v>
       </c>
       <c r="N4">
-        <v>9.27651</v>
-      </c>
-      <c r="O4">
-        <v>14.3237</v>
+        <v>2.50497</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P4">
-        <v>23.9102</v>
+        <v>22.6964</v>
       </c>
       <c r="Q4">
-        <v>50.8626</v>
+        <v>50.4478</v>
       </c>
       <c r="R4">
-        <v>99.99890000000001</v>
+        <v>100.003</v>
       </c>
       <c r="S4">
-        <v>23.0482</v>
+        <v>22.2512</v>
       </c>
       <c r="T4">
-        <v>23.9102</v>
+        <v>22.6964</v>
       </c>
       <c r="U4">
-        <v>14.3237</v>
+        <v>13.7512</v>
       </c>
       <c r="V4">
-        <v>6.985910000000001</v>
+        <v>9.747590000000001</v>
       </c>
       <c r="W4">
-        <v>5.83343</v>
-      </c>
-      <c r="X4">
-        <v>9.27679</v>
-      </c>
-      <c r="Y4">
-        <v>9.27679</v>
+        <v>7.83575</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z4">
-        <v>9.27651</v>
+        <v>2.47549</v>
       </c>
       <c r="AA4">
-        <v>14.1658</v>
+        <v>13.5284</v>
       </c>
       <c r="AB4">
-        <v>6.97422</v>
+        <v>9.65626</v>
       </c>
       <c r="AC4">
-        <v>5.852910000000001</v>
-      </c>
-      <c r="AD4">
-        <v>9.156180000000001</v>
-      </c>
-      <c r="AE4">
-        <v>9.156180000000001</v>
+        <v>7.80942</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF4">
-        <v>9.156180000000001</v>
+        <v>2.50497</v>
       </c>
       <c r="AG4">
-        <v>0.83209</v>
+        <v>0.834385</v>
       </c>
       <c r="AH4">
-        <v>2.02304</v>
+        <v>0.47612</v>
       </c>
       <c r="AI4">
-        <v>0.241094</v>
+        <v>0.240576</v>
       </c>
       <c r="AJ4">
-        <v>0.0828034</v>
+        <v>0.0821978</v>
       </c>
       <c r="AK4">
-        <v>0.08738659999999999</v>
+        <v>0.0802297</v>
       </c>
       <c r="AL4">
-        <v>0.08089250000000001</v>
+        <v>0.060586</v>
       </c>
       <c r="AM4">
-        <v>0.239484</v>
-      </c>
-      <c r="AN4">
-        <v>0.4911219999999999</v>
+        <v>0.0126484</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO4">
-        <v>875.586</v>
+        <v>875.4400000000001</v>
       </c>
       <c r="AP4">
-        <v>829.3870000000001</v>
+        <v>830.985</v>
       </c>
       <c r="AQ4">
-        <v>884.218</v>
-      </c>
-      <c r="AR4">
-        <v>738.672</v>
-      </c>
-      <c r="AS4">
-        <v>795.465</v>
+        <v>887.05</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT4">
-        <v>724.682</v>
+        <v>724.5649999999999</v>
       </c>
       <c r="AU4">
-        <v>780.2560000000001</v>
+        <v>781.8240000000001</v>
       </c>
       <c r="AV4">
-        <v>733.327</v>
-      </c>
-      <c r="AW4">
-        <v>789.535</v>
-      </c>
-      <c r="AX4">
-        <v>743.5930000000001</v>
+        <v>736.2170000000001</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5">
-        <v>50.6326</v>
+        <v>50.0217</v>
       </c>
       <c r="N5">
-        <v>12.5481</v>
-      </c>
-      <c r="O5">
-        <v>17.3804</v>
+        <v>3.75582</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P5">
-        <v>28.681</v>
+        <v>27.2577</v>
       </c>
       <c r="Q5">
-        <v>50.6314</v>
+        <v>50.02200000000001</v>
       </c>
       <c r="R5">
-        <v>99.99760000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S5">
-        <v>28.0482</v>
+        <v>27.2359</v>
       </c>
       <c r="T5">
-        <v>28.681</v>
+        <v>27.2577</v>
       </c>
       <c r="U5">
-        <v>17.3804</v>
+        <v>16.7092</v>
       </c>
       <c r="V5">
-        <v>9.49315</v>
+        <v>13.1958</v>
       </c>
       <c r="W5">
-        <v>7.9251</v>
-      </c>
-      <c r="X5">
-        <v>12.3873</v>
-      </c>
-      <c r="Y5">
-        <v>12.3873</v>
+        <v>10.8068</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z5">
-        <v>12.384</v>
+        <v>3.66414</v>
       </c>
       <c r="AA5">
-        <v>17.3089</v>
+        <v>16.5047</v>
       </c>
       <c r="AB5">
-        <v>9.592510000000001</v>
+        <v>13.4192</v>
       </c>
       <c r="AC5">
-        <v>8.07452</v>
-      </c>
-      <c r="AD5">
-        <v>12.5481</v>
-      </c>
-      <c r="AE5">
-        <v>12.5481</v>
+        <v>10.8872</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF5">
-        <v>12.5481</v>
+        <v>3.75582</v>
       </c>
       <c r="AG5">
-        <v>0.677546</v>
+        <v>0.678103</v>
       </c>
       <c r="AH5">
-        <v>1.86051</v>
+        <v>0.446393</v>
       </c>
       <c r="AI5">
-        <v>0.289891</v>
+        <v>0.246958</v>
       </c>
       <c r="AJ5">
-        <v>0.0680386</v>
+        <v>0.06758510000000001</v>
       </c>
       <c r="AK5">
-        <v>0.07713959999999999</v>
+        <v>0.06888230000000001</v>
       </c>
       <c r="AL5">
-        <v>0.06970459999999999</v>
+        <v>0.053038</v>
       </c>
       <c r="AM5">
-        <v>0.197897</v>
-      </c>
-      <c r="AN5">
-        <v>0.464528</v>
+        <v>0.0132991</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO5">
-        <v>876.538</v>
+        <v>876.3680000000001</v>
       </c>
       <c r="AP5">
-        <v>831.8869999999999</v>
+        <v>833.932</v>
       </c>
       <c r="AQ5">
-        <v>887.403</v>
-      </c>
-      <c r="AR5">
-        <v>743.6750000000001</v>
-      </c>
-      <c r="AS5">
-        <v>801.588</v>
+        <v>891.115</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT5">
-        <v>726.354</v>
+        <v>726.201</v>
       </c>
       <c r="AU5">
-        <v>782.518</v>
+        <v>784.581</v>
       </c>
       <c r="AV5">
-        <v>737.0509999999999</v>
-      </c>
-      <c r="AW5">
-        <v>794.306</v>
-      </c>
-      <c r="AX5">
-        <v>749.854</v>
+        <v>740.876</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:50">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>50.5976</v>
+        <v>50.0385</v>
       </c>
       <c r="N6">
-        <v>11.0375</v>
-      </c>
-      <c r="O6">
-        <v>16.4492</v>
+        <v>3.35044</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P6">
-        <v>25.0822</v>
+        <v>23.7367</v>
       </c>
       <c r="Q6">
-        <v>50.5963</v>
+        <v>50.03700000000001</v>
       </c>
       <c r="R6">
-        <v>99.9974</v>
+        <v>99.997</v>
       </c>
       <c r="S6">
-        <v>24.4845</v>
+        <v>23.6953</v>
       </c>
       <c r="T6">
-        <v>25.0822</v>
+        <v>23.7367</v>
       </c>
       <c r="U6">
-        <v>16.4492</v>
+        <v>15.8554</v>
       </c>
       <c r="V6">
-        <v>8.575519999999999</v>
+        <v>11.7883</v>
       </c>
       <c r="W6">
-        <v>6.98144</v>
-      </c>
-      <c r="X6">
-        <v>10.8649</v>
-      </c>
-      <c r="Y6">
-        <v>10.8649</v>
+        <v>9.41535</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z6">
-        <v>10.8638</v>
+        <v>3.28068</v>
       </c>
       <c r="AA6">
-        <v>16.4048</v>
+        <v>15.6852</v>
       </c>
       <c r="AB6">
-        <v>8.66023</v>
+        <v>11.9753</v>
       </c>
       <c r="AC6">
-        <v>7.10193</v>
-      </c>
-      <c r="AD6">
-        <v>11.0375</v>
-      </c>
-      <c r="AE6">
-        <v>11.0375</v>
+        <v>9.481399999999999</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF6">
-        <v>11.0375</v>
+        <v>3.35044</v>
       </c>
       <c r="AG6">
-        <v>0.827819</v>
+        <v>0.828355</v>
       </c>
       <c r="AH6">
-        <v>2.50951</v>
+        <v>0.6385149999999999</v>
       </c>
       <c r="AI6">
-        <v>0.425881</v>
+        <v>0.375298</v>
       </c>
       <c r="AJ6">
-        <v>0.0919864</v>
+        <v>0.0915782</v>
       </c>
       <c r="AK6">
-        <v>0.103118</v>
+        <v>0.08920379999999999</v>
       </c>
       <c r="AL6">
-        <v>0.0893133</v>
+        <v>0.06765310000000001</v>
       </c>
       <c r="AM6">
-        <v>0.248396</v>
-      </c>
-      <c r="AN6">
-        <v>0.591548</v>
+        <v>0.0183981</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO6">
-        <v>875.379</v>
+        <v>875.216</v>
       </c>
       <c r="AP6">
-        <v>829.9770000000001</v>
+        <v>831.724</v>
       </c>
       <c r="AQ6">
-        <v>884.729</v>
-      </c>
-      <c r="AR6">
-        <v>740.1080000000001</v>
-      </c>
-      <c r="AS6">
-        <v>796.994</v>
+        <v>887.86</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT6">
-        <v>725.204</v>
+        <v>725.0640000000001</v>
       </c>
       <c r="AU6">
-        <v>780.556</v>
+        <v>782.333</v>
       </c>
       <c r="AV6">
-        <v>734.414</v>
-      </c>
-      <c r="AW6">
-        <v>790.707</v>
-      </c>
-      <c r="AX6">
-        <v>745.374</v>
+        <v>737.6370000000001</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:50">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7">
-        <v>50.901</v>
-      </c>
-      <c r="N7">
-        <v>10.7711</v>
-      </c>
-      <c r="O7">
-        <v>15.206</v>
-      </c>
-      <c r="P7">
-        <v>28.4223</v>
-      </c>
-      <c r="Q7">
-        <v>50.9016</v>
-      </c>
-      <c r="R7">
-        <v>100.001</v>
-      </c>
-      <c r="S7">
-        <v>27.5221</v>
-      </c>
-      <c r="T7">
-        <v>28.4223</v>
-      </c>
-      <c r="U7">
-        <v>15.206</v>
-      </c>
-      <c r="V7">
-        <v>7.890779999999999</v>
-      </c>
-      <c r="W7">
-        <v>6.76806</v>
-      </c>
-      <c r="X7">
-        <v>10.7699</v>
-      </c>
-      <c r="Y7">
-        <v>10.7699</v>
-      </c>
-      <c r="Z7">
-        <v>10.7711</v>
-      </c>
-      <c r="AA7">
-        <v>14.8942</v>
-      </c>
-      <c r="AB7">
-        <v>7.85669</v>
-      </c>
-      <c r="AC7">
-        <v>6.74796</v>
-      </c>
-      <c r="AD7">
-        <v>10.4664</v>
-      </c>
-      <c r="AE7">
-        <v>10.4664</v>
-      </c>
-      <c r="AF7">
-        <v>10.4664</v>
-      </c>
-      <c r="AG7">
-        <v>0.681575</v>
-      </c>
-      <c r="AH7">
-        <v>1.46351</v>
-      </c>
-      <c r="AI7">
-        <v>0.129809</v>
-      </c>
-      <c r="AJ7">
-        <v>0.060757</v>
-      </c>
-      <c r="AK7">
-        <v>0.0650447</v>
-      </c>
-      <c r="AL7">
-        <v>0.06292349999999999</v>
-      </c>
-      <c r="AM7">
-        <v>0.190318</v>
-      </c>
-      <c r="AN7">
-        <v>0.379483</v>
-      </c>
-      <c r="AO7">
-        <v>877.284</v>
-      </c>
-      <c r="AP7">
-        <v>831.938</v>
-      </c>
-      <c r="AQ7">
-        <v>887.715</v>
-      </c>
-      <c r="AR7">
-        <v>743.149</v>
-      </c>
-      <c r="AS7">
-        <v>801.268</v>
-      </c>
-      <c r="AT7">
-        <v>726.2120000000001</v>
-      </c>
-      <c r="AU7">
-        <v>782.865</v>
-      </c>
-      <c r="AV7">
-        <v>736.6799999999999</v>
-      </c>
-      <c r="AW7">
-        <v>794.047</v>
-      </c>
-      <c r="AX7">
-        <v>749.158</v>
+        <v>73</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:50">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8">
-        <v>50.8631</v>
+        <v>50.454</v>
       </c>
       <c r="N8">
-        <v>9.27651</v>
-      </c>
-      <c r="O8">
-        <v>14.3237</v>
+        <v>2.47374</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P8">
-        <v>23.9102</v>
+        <v>22.6185</v>
       </c>
       <c r="Q8">
-        <v>50.8626</v>
+        <v>50.454</v>
       </c>
       <c r="R8">
-        <v>99.99890000000001</v>
+        <v>99.9999</v>
       </c>
       <c r="S8">
-        <v>23.0482</v>
+        <v>22.1644</v>
       </c>
       <c r="T8">
-        <v>23.9102</v>
+        <v>22.6185</v>
       </c>
       <c r="U8">
-        <v>14.3237</v>
+        <v>13.7595</v>
       </c>
       <c r="V8">
-        <v>6.985910000000001</v>
+        <v>9.74831</v>
       </c>
       <c r="W8">
-        <v>5.83343</v>
-      </c>
-      <c r="X8">
-        <v>9.27679</v>
-      </c>
-      <c r="Y8">
-        <v>9.27679</v>
+        <v>7.83447</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z8">
-        <v>9.27651</v>
+        <v>2.47374</v>
       </c>
       <c r="AA8">
-        <v>14.1658</v>
+        <v>13.5268</v>
       </c>
       <c r="AB8">
-        <v>6.97422</v>
+        <v>9.662239999999999</v>
       </c>
       <c r="AC8">
-        <v>5.852910000000001</v>
-      </c>
-      <c r="AD8">
-        <v>9.156180000000001</v>
-      </c>
-      <c r="AE8">
-        <v>9.156180000000001</v>
+        <v>7.80776</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF8">
-        <v>9.156180000000001</v>
+        <v>2.45174</v>
       </c>
       <c r="AG8">
-        <v>0.83209</v>
+        <v>0.834348</v>
       </c>
       <c r="AH8">
-        <v>2.02304</v>
+        <v>0.4759659999999999</v>
       </c>
       <c r="AI8">
-        <v>0.241094</v>
+        <v>0.240576</v>
       </c>
       <c r="AJ8">
-        <v>0.0828034</v>
+        <v>0.0821867</v>
       </c>
       <c r="AK8">
-        <v>0.08738659999999999</v>
+        <v>0.08022570000000001</v>
       </c>
       <c r="AL8">
-        <v>0.08089250000000001</v>
+        <v>0.0605861</v>
       </c>
       <c r="AM8">
-        <v>0.239484</v>
-      </c>
-      <c r="AN8">
-        <v>0.4911219999999999</v>
+        <v>0.0125084</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO8">
-        <v>875.586</v>
+        <v>875.436</v>
       </c>
       <c r="AP8">
-        <v>829.3870000000001</v>
+        <v>830.989</v>
       </c>
       <c r="AQ8">
-        <v>884.218</v>
-      </c>
-      <c r="AR8">
-        <v>738.672</v>
-      </c>
-      <c r="AS8">
-        <v>795.465</v>
+        <v>887.048</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT8">
-        <v>724.682</v>
+        <v>724.5590000000001</v>
       </c>
       <c r="AU8">
-        <v>780.2560000000001</v>
+        <v>781.825</v>
       </c>
       <c r="AV8">
-        <v>733.327</v>
-      </c>
-      <c r="AW8">
-        <v>789.535</v>
-      </c>
-      <c r="AX8">
-        <v>743.5930000000001</v>
+        <v>736.21</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:50">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M9">
-        <v>50.6326</v>
+        <v>50.0309</v>
       </c>
       <c r="N9">
-        <v>12.5481</v>
-      </c>
-      <c r="O9">
-        <v>17.3804</v>
+        <v>3.71587</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P9">
-        <v>28.681</v>
+        <v>27.1702</v>
       </c>
       <c r="Q9">
-        <v>50.6314</v>
+        <v>50.0309</v>
       </c>
       <c r="R9">
-        <v>99.99760000000001</v>
+        <v>100</v>
       </c>
       <c r="S9">
-        <v>28.0482</v>
+        <v>27.1393</v>
       </c>
       <c r="T9">
-        <v>28.681</v>
+        <v>27.1702</v>
       </c>
       <c r="U9">
-        <v>17.3804</v>
+        <v>16.7199</v>
       </c>
       <c r="V9">
-        <v>9.49315</v>
+        <v>13.1979</v>
       </c>
       <c r="W9">
-        <v>7.9251</v>
-      </c>
-      <c r="X9">
-        <v>12.3873</v>
-      </c>
-      <c r="Y9">
-        <v>12.3873</v>
+        <v>10.8045</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z9">
-        <v>12.384</v>
+        <v>3.66737</v>
       </c>
       <c r="AA9">
-        <v>17.3089</v>
+        <v>16.5076</v>
       </c>
       <c r="AB9">
-        <v>9.592510000000001</v>
+        <v>13.4188</v>
       </c>
       <c r="AC9">
-        <v>8.07452</v>
-      </c>
-      <c r="AD9">
-        <v>12.5481</v>
-      </c>
-      <c r="AE9">
-        <v>12.5481</v>
+        <v>10.8868</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF9">
-        <v>12.5481</v>
+        <v>3.71587</v>
       </c>
       <c r="AG9">
-        <v>0.677546</v>
+        <v>0.6780929999999999</v>
       </c>
       <c r="AH9">
-        <v>1.86051</v>
+        <v>0.446304</v>
       </c>
       <c r="AI9">
-        <v>0.289891</v>
+        <v>0.246958</v>
       </c>
       <c r="AJ9">
-        <v>0.0680386</v>
+        <v>0.0675959</v>
       </c>
       <c r="AK9">
-        <v>0.07713959999999999</v>
+        <v>0.06888330000000001</v>
       </c>
       <c r="AL9">
-        <v>0.06970459999999999</v>
+        <v>0.0530405</v>
       </c>
       <c r="AM9">
-        <v>0.197897</v>
-      </c>
-      <c r="AN9">
-        <v>0.464528</v>
+        <v>0.0131954</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO9">
-        <v>876.538</v>
+        <v>876.3680000000001</v>
       </c>
       <c r="AP9">
-        <v>831.8869999999999</v>
+        <v>833.9300000000001</v>
       </c>
       <c r="AQ9">
-        <v>887.403</v>
-      </c>
-      <c r="AR9">
-        <v>743.6750000000001</v>
-      </c>
-      <c r="AS9">
-        <v>801.588</v>
+        <v>891.116</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT9">
-        <v>726.354</v>
+        <v>726.204</v>
       </c>
       <c r="AU9">
-        <v>782.518</v>
+        <v>784.58</v>
       </c>
       <c r="AV9">
-        <v>737.0509999999999</v>
-      </c>
-      <c r="AW9">
-        <v>794.306</v>
-      </c>
-      <c r="AX9">
-        <v>749.854</v>
+        <v>740.8770000000001</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:50">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10">
-        <v>50.5976</v>
+        <v>50.0457</v>
       </c>
       <c r="N10">
-        <v>11.0375</v>
-      </c>
-      <c r="O10">
-        <v>16.4492</v>
+        <v>3.31863</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P10">
-        <v>25.0822</v>
+        <v>23.6548</v>
       </c>
       <c r="Q10">
-        <v>50.5963</v>
+        <v>50.04580000000001</v>
       </c>
       <c r="R10">
-        <v>99.9974</v>
+        <v>100</v>
       </c>
       <c r="S10">
-        <v>24.4845</v>
+        <v>23.6083</v>
       </c>
       <c r="T10">
-        <v>25.0822</v>
+        <v>23.6548</v>
       </c>
       <c r="U10">
-        <v>16.4492</v>
+        <v>15.8558</v>
       </c>
       <c r="V10">
-        <v>8.575519999999999</v>
+        <v>11.784</v>
       </c>
       <c r="W10">
-        <v>6.98144</v>
-      </c>
-      <c r="X10">
-        <v>10.8649</v>
-      </c>
-      <c r="Y10">
-        <v>10.8649</v>
+        <v>9.41328</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z10">
-        <v>10.8638</v>
+        <v>3.29099</v>
       </c>
       <c r="AA10">
-        <v>16.4048</v>
+        <v>15.6968</v>
       </c>
       <c r="AB10">
-        <v>8.66023</v>
+        <v>11.9702</v>
       </c>
       <c r="AC10">
-        <v>7.10193</v>
-      </c>
-      <c r="AD10">
-        <v>11.0375</v>
-      </c>
-      <c r="AE10">
-        <v>11.0375</v>
+        <v>9.47983</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF10">
-        <v>11.0375</v>
+        <v>3.31863</v>
       </c>
       <c r="AG10">
-        <v>0.827819</v>
+        <v>0.828344</v>
       </c>
       <c r="AH10">
-        <v>2.50951</v>
+        <v>0.638421</v>
       </c>
       <c r="AI10">
-        <v>0.425881</v>
+        <v>0.375298</v>
       </c>
       <c r="AJ10">
-        <v>0.0919864</v>
+        <v>0.0915783</v>
       </c>
       <c r="AK10">
-        <v>0.103118</v>
+        <v>0.0892085</v>
       </c>
       <c r="AL10">
-        <v>0.0893133</v>
+        <v>0.06764969999999999</v>
       </c>
       <c r="AM10">
-        <v>0.248396</v>
-      </c>
-      <c r="AN10">
-        <v>0.591548</v>
+        <v>0.0183023</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO10">
-        <v>875.379</v>
+        <v>875.218</v>
       </c>
       <c r="AP10">
-        <v>829.9770000000001</v>
+        <v>831.725</v>
       </c>
       <c r="AQ10">
-        <v>884.729</v>
-      </c>
-      <c r="AR10">
-        <v>740.1080000000001</v>
-      </c>
-      <c r="AS10">
-        <v>796.994</v>
+        <v>887.865</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT10">
-        <v>725.204</v>
+        <v>725.061</v>
       </c>
       <c r="AU10">
-        <v>780.556</v>
+        <v>782.333</v>
       </c>
       <c r="AV10">
-        <v>734.414</v>
-      </c>
-      <c r="AW10">
-        <v>790.707</v>
-      </c>
-      <c r="AX10">
-        <v>745.374</v>
+        <v>737.6360000000001</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX10" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:50">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11">
-        <v>49.9464</v>
+        <v>49.2732</v>
       </c>
       <c r="N11">
-        <v>17.7431</v>
-      </c>
-      <c r="O11">
-        <v>19.4462</v>
+        <v>4.46808</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P11">
-        <v>49.2671</v>
+        <v>48.9959</v>
       </c>
       <c r="Q11">
-        <v>49.9458</v>
+        <v>49.2731</v>
       </c>
       <c r="R11">
-        <v>99.9988</v>
+        <v>99.9997</v>
       </c>
       <c r="S11">
-        <v>49.2671</v>
+        <v>48.9959</v>
       </c>
       <c r="T11">
-        <v>49.2146</v>
+        <v>48.27070000000001</v>
       </c>
       <c r="U11">
-        <v>19.3741</v>
+        <v>19.0359</v>
       </c>
       <c r="V11">
-        <v>12.4708</v>
+        <v>18.0315</v>
       </c>
       <c r="W11">
-        <v>10.7706</v>
-      </c>
-      <c r="X11">
-        <v>17.7444</v>
-      </c>
-      <c r="Y11">
-        <v>17.7444</v>
+        <v>15.3246</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z11">
-        <v>17.7431</v>
+        <v>4.38482</v>
       </c>
       <c r="AA11">
-        <v>19.4462</v>
+        <v>19.0133</v>
       </c>
       <c r="AB11">
-        <v>12.3022</v>
+        <v>17.6683</v>
       </c>
       <c r="AC11">
-        <v>10.7361</v>
-      </c>
-      <c r="AD11">
-        <v>16.8546</v>
-      </c>
-      <c r="AE11">
-        <v>16.8546</v>
+        <v>15.2243</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF11">
-        <v>16.8546</v>
+        <v>4.46808</v>
       </c>
       <c r="AG11">
-        <v>0.684044</v>
+        <v>0.690164</v>
       </c>
       <c r="AH11">
-        <v>1.19302</v>
+        <v>0.173858</v>
       </c>
       <c r="AI11">
-        <v>0.0204486</v>
+        <v>0.0204354</v>
       </c>
       <c r="AJ11">
-        <v>0.0520046</v>
+        <v>0.0500527</v>
       </c>
       <c r="AK11">
-        <v>0.0562769</v>
+        <v>0.0549744</v>
       </c>
       <c r="AL11">
-        <v>0.0553613</v>
+        <v>0.0430053</v>
       </c>
       <c r="AM11">
-        <v>0.177694</v>
-      </c>
-      <c r="AN11">
-        <v>0.341341</v>
+        <v>0.005608159999999999</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO11">
-        <v>883.197</v>
+        <v>882.893</v>
       </c>
       <c r="AP11">
-        <v>844.159</v>
+        <v>847.302</v>
       </c>
       <c r="AQ11">
-        <v>903.384</v>
-      </c>
-      <c r="AR11">
-        <v>764.889</v>
-      </c>
-      <c r="AS11">
-        <v>826.136</v>
+        <v>910.005</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT11">
-        <v>732.91</v>
+        <v>732.6800000000001</v>
       </c>
       <c r="AU11">
-        <v>794.194</v>
+        <v>797.212</v>
       </c>
       <c r="AV11">
-        <v>753.182</v>
-      </c>
-      <c r="AW11">
-        <v>814.8399999999999</v>
-      </c>
-      <c r="AX11">
-        <v>774.426</v>
+        <v>759.9639999999999</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:50">
       <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12">
-        <v>50.0946</v>
+        <v>49.5187</v>
       </c>
       <c r="N12">
-        <v>13.428</v>
-      </c>
-      <c r="O12">
-        <v>16.3694</v>
+        <v>3.30475</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P12">
-        <v>36.1707</v>
+        <v>35.44900000000001</v>
       </c>
       <c r="Q12">
-        <v>50.094</v>
+        <v>49.5192</v>
       </c>
       <c r="R12">
-        <v>99.9988</v>
+        <v>100.001</v>
       </c>
       <c r="S12">
-        <v>36.0741</v>
+        <v>35.44900000000001</v>
       </c>
       <c r="T12">
-        <v>36.1707</v>
+        <v>34.9698</v>
       </c>
       <c r="U12">
-        <v>16.2029</v>
+        <v>15.7721</v>
       </c>
       <c r="V12">
-        <v>9.335889999999999</v>
+        <v>13.4393</v>
       </c>
       <c r="W12">
-        <v>8.145519999999999</v>
-      </c>
-      <c r="X12">
-        <v>13.4301</v>
-      </c>
-      <c r="Y12">
-        <v>13.4301</v>
+        <v>11.3889</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z12">
-        <v>13.428</v>
+        <v>3.26035</v>
       </c>
       <c r="AA12">
-        <v>16.3694</v>
+        <v>15.8873</v>
       </c>
       <c r="AB12">
-        <v>9.295160000000001</v>
+        <v>13.3425</v>
       </c>
       <c r="AC12">
-        <v>8.221680000000001</v>
-      </c>
-      <c r="AD12">
-        <v>13.1228</v>
-      </c>
-      <c r="AE12">
-        <v>13.1228</v>
+        <v>11.4168</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF12">
-        <v>13.1228</v>
+        <v>3.30475</v>
       </c>
       <c r="AG12">
-        <v>0.835347</v>
+        <v>0.839569</v>
       </c>
       <c r="AH12">
-        <v>1.57692</v>
+        <v>0.2647409999999999</v>
       </c>
       <c r="AI12">
-        <v>0.0684797</v>
+        <v>0.0684568</v>
       </c>
       <c r="AJ12">
-        <v>0.0664029</v>
+        <v>0.0651853</v>
       </c>
       <c r="AK12">
-        <v>0.07070900000000001</v>
+        <v>0.0696084</v>
       </c>
       <c r="AL12">
-        <v>0.07052269999999999</v>
+        <v>0.0538798</v>
       </c>
       <c r="AM12">
-        <v>0.223412</v>
-      </c>
-      <c r="AN12">
-        <v>0.431058</v>
+        <v>0.00759724</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO12">
-        <v>879.771</v>
+        <v>879.601</v>
       </c>
       <c r="AP12">
-        <v>837.083</v>
+        <v>839.501</v>
       </c>
       <c r="AQ12">
-        <v>893.549</v>
-      </c>
-      <c r="AR12">
-        <v>751.7</v>
-      </c>
-      <c r="AS12">
-        <v>809.928</v>
+        <v>898.2710000000001</v>
+      </c>
+      <c r="AR12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT12">
-        <v>729.5409999999999</v>
+        <v>729.403</v>
       </c>
       <c r="AU12">
-        <v>787.2020000000001</v>
+        <v>789.5899999999999</v>
       </c>
       <c r="AV12">
-        <v>743.3819999999999</v>
-      </c>
-      <c r="AW12">
-        <v>801.796</v>
-      </c>
-      <c r="AX12">
-        <v>758.524</v>
+        <v>748.1840000000001</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX12" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:50">
       <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
         <v>92</v>
       </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
         <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13">
-        <v>49.7717</v>
+        <v>48.8265</v>
       </c>
       <c r="N13">
-        <v>19.1737</v>
-      </c>
-      <c r="O13">
-        <v>21.6066</v>
+        <v>5.00841</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P13">
-        <v>46.7618</v>
+        <v>46.11170000000001</v>
       </c>
       <c r="Q13">
-        <v>49.7724</v>
+        <v>48.8259</v>
       </c>
       <c r="R13">
-        <v>100.002</v>
+        <v>99.9988</v>
       </c>
       <c r="S13">
-        <v>46.7618</v>
+        <v>46.11170000000001</v>
       </c>
       <c r="T13">
-        <v>46.5346</v>
+        <v>44.9335</v>
       </c>
       <c r="U13">
-        <v>20.884</v>
+        <v>20.41</v>
       </c>
       <c r="V13">
-        <v>13.4036</v>
+        <v>19.2631</v>
       </c>
       <c r="W13">
-        <v>11.5928</v>
-      </c>
-      <c r="X13">
-        <v>18.8827</v>
-      </c>
-      <c r="Y13">
-        <v>18.8827</v>
+        <v>16.4199</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z13">
-        <v>18.883</v>
+        <v>4.90866</v>
       </c>
       <c r="AA13">
-        <v>21.6066</v>
+        <v>20.804</v>
       </c>
       <c r="AB13">
-        <v>13.5067</v>
+        <v>19.5538</v>
       </c>
       <c r="AC13">
-        <v>11.9534</v>
-      </c>
-      <c r="AD13">
-        <v>19.1737</v>
-      </c>
-      <c r="AE13">
-        <v>19.1737</v>
+        <v>16.7353</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF13">
-        <v>19.1737</v>
+        <v>5.00841</v>
       </c>
       <c r="AG13">
-        <v>0.680082</v>
+        <v>0.683523</v>
       </c>
       <c r="AH13">
-        <v>1.326</v>
+        <v>0.206379</v>
       </c>
       <c r="AI13">
-        <v>0.0514337</v>
+        <v>0.0471105</v>
       </c>
       <c r="AJ13">
-        <v>0.0532789</v>
+        <v>0.0516744</v>
       </c>
       <c r="AK13">
-        <v>0.05836</v>
+        <v>0.0565574</v>
       </c>
       <c r="AL13">
-        <v>0.05699489999999999</v>
+        <v>0.0443198</v>
       </c>
       <c r="AM13">
-        <v>0.179654</v>
-      </c>
-      <c r="AN13">
-        <v>0.350214</v>
+        <v>0.006812319999999999</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO13">
-        <v>881.547</v>
+        <v>881.279</v>
       </c>
       <c r="AP13">
-        <v>842.252</v>
+        <v>845.466</v>
       </c>
       <c r="AQ13">
-        <v>900.5840000000001</v>
-      </c>
-      <c r="AR13">
-        <v>762.388</v>
-      </c>
-      <c r="AS13">
-        <v>822.826</v>
+        <v>907.087</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT13">
-        <v>732.183</v>
+        <v>731.958</v>
       </c>
       <c r="AU13">
-        <v>792.0170000000001</v>
+        <v>795.264</v>
       </c>
       <c r="AV13">
-        <v>751.217</v>
-      </c>
-      <c r="AW13">
-        <v>812.1600000000001</v>
-      </c>
-      <c r="AX13">
-        <v>771.4680000000001</v>
+        <v>757.9299999999999</v>
+      </c>
+      <c r="AW13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX13" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:50">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
         <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14">
-        <v>49.9654</v>
-      </c>
-      <c r="N14">
-        <v>15.3311</v>
-      </c>
-      <c r="O14">
-        <v>18.6025</v>
-      </c>
-      <c r="P14">
-        <v>36.2876</v>
-      </c>
-      <c r="Q14">
-        <v>49.966</v>
-      </c>
-      <c r="R14">
-        <v>100.001</v>
-      </c>
-      <c r="S14">
-        <v>36.2876</v>
-      </c>
-      <c r="T14">
-        <v>36.2493</v>
-      </c>
-      <c r="U14">
-        <v>18.0884</v>
-      </c>
-      <c r="V14">
-        <v>10.6209</v>
-      </c>
-      <c r="W14">
-        <v>9.22439</v>
-      </c>
-      <c r="X14">
-        <v>15.0747</v>
-      </c>
-      <c r="Y14">
-        <v>15.0747</v>
-      </c>
-      <c r="Z14">
-        <v>15.0763</v>
-      </c>
-      <c r="AA14">
-        <v>18.6025</v>
-      </c>
-      <c r="AB14">
-        <v>10.7191</v>
-      </c>
-      <c r="AC14">
-        <v>9.498099999999999</v>
-      </c>
-      <c r="AD14">
-        <v>15.3311</v>
-      </c>
-      <c r="AE14">
-        <v>15.3311</v>
-      </c>
-      <c r="AF14">
-        <v>15.3311</v>
-      </c>
-      <c r="AG14">
-        <v>0.8321499999999999</v>
-      </c>
-      <c r="AH14">
-        <v>1.77423</v>
-      </c>
-      <c r="AI14">
-        <v>0.103176</v>
-      </c>
-      <c r="AJ14">
-        <v>0.06890489999999999</v>
-      </c>
-      <c r="AK14">
-        <v>0.0747051</v>
-      </c>
-      <c r="AL14">
-        <v>0.07274510000000001</v>
-      </c>
-      <c r="AM14">
-        <v>0.225923</v>
-      </c>
-      <c r="AN14">
-        <v>0.444453</v>
-      </c>
-      <c r="AO14">
-        <v>878.9240000000001</v>
-      </c>
-      <c r="AP14">
-        <v>836.7049999999999</v>
-      </c>
-      <c r="AQ14">
-        <v>893.024</v>
-      </c>
-      <c r="AR14">
-        <v>751.915</v>
-      </c>
-      <c r="AS14">
-        <v>810.155</v>
-      </c>
-      <c r="AT14">
-        <v>729.386</v>
-      </c>
-      <c r="AU14">
-        <v>786.6350000000001</v>
-      </c>
-      <c r="AV14">
-        <v>743.4000000000001</v>
-      </c>
-      <c r="AW14">
-        <v>801.874</v>
-      </c>
-      <c r="AX14">
-        <v>758.8860000000001</v>
+        <v>75</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX14" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:50">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M15">
-        <v>49.9464</v>
+        <v>49.2814</v>
       </c>
       <c r="N15">
-        <v>17.7431</v>
-      </c>
-      <c r="O15">
-        <v>19.4462</v>
+        <v>4.39395</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P15">
-        <v>49.2671</v>
+        <v>48.8569</v>
       </c>
       <c r="Q15">
-        <v>49.9458</v>
+        <v>49.283</v>
       </c>
       <c r="R15">
-        <v>99.9988</v>
+        <v>100.003</v>
       </c>
       <c r="S15">
-        <v>49.2671</v>
+        <v>48.8569</v>
       </c>
       <c r="T15">
-        <v>49.2146</v>
+        <v>48.1422</v>
       </c>
       <c r="U15">
-        <v>19.3741</v>
+        <v>19.0319</v>
       </c>
       <c r="V15">
-        <v>12.4708</v>
+        <v>18.0317</v>
       </c>
       <c r="W15">
-        <v>10.7706</v>
-      </c>
-      <c r="X15">
-        <v>17.7444</v>
-      </c>
-      <c r="Y15">
-        <v>17.7444</v>
+        <v>15.3187</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z15">
-        <v>17.7431</v>
+        <v>4.355399999999999</v>
       </c>
       <c r="AA15">
-        <v>19.4462</v>
+        <v>19.0108</v>
       </c>
       <c r="AB15">
-        <v>12.3022</v>
+        <v>17.6706</v>
       </c>
       <c r="AC15">
-        <v>10.7361</v>
-      </c>
-      <c r="AD15">
-        <v>16.8546</v>
-      </c>
-      <c r="AE15">
-        <v>16.8546</v>
+        <v>15.2165</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF15">
-        <v>16.8546</v>
+        <v>4.39395</v>
       </c>
       <c r="AG15">
-        <v>0.684044</v>
+        <v>0.690279</v>
       </c>
       <c r="AH15">
-        <v>1.19302</v>
+        <v>0.173628</v>
       </c>
       <c r="AI15">
-        <v>0.0204486</v>
+        <v>0.0204354</v>
       </c>
       <c r="AJ15">
-        <v>0.0520046</v>
+        <v>0.0500519</v>
       </c>
       <c r="AK15">
-        <v>0.0562769</v>
+        <v>0.0549767</v>
       </c>
       <c r="AL15">
-        <v>0.0553613</v>
+        <v>0.0430048</v>
       </c>
       <c r="AM15">
-        <v>0.177694</v>
-      </c>
-      <c r="AN15">
-        <v>0.341341</v>
+        <v>0.005376649999999999</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO15">
-        <v>883.197</v>
+        <v>882.893</v>
       </c>
       <c r="AP15">
-        <v>844.159</v>
+        <v>847.3009999999999</v>
       </c>
       <c r="AQ15">
-        <v>903.384</v>
-      </c>
-      <c r="AR15">
-        <v>764.889</v>
-      </c>
-      <c r="AS15">
-        <v>826.136</v>
+        <v>910.005</v>
+      </c>
+      <c r="AR15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS15" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT15">
-        <v>732.91</v>
+        <v>732.679</v>
       </c>
       <c r="AU15">
-        <v>794.194</v>
+        <v>797.211</v>
       </c>
       <c r="AV15">
-        <v>753.182</v>
-      </c>
-      <c r="AW15">
-        <v>814.8399999999999</v>
-      </c>
-      <c r="AX15">
-        <v>774.426</v>
+        <v>759.961</v>
+      </c>
+      <c r="AW15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX15" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:50">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M16">
-        <v>50.0946</v>
+        <v>49.5365</v>
       </c>
       <c r="N16">
-        <v>13.428</v>
-      </c>
-      <c r="O16">
-        <v>16.3694</v>
+        <v>3.24043</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P16">
-        <v>36.1707</v>
+        <v>35.3331</v>
       </c>
       <c r="Q16">
-        <v>50.094</v>
+        <v>49.5342</v>
       </c>
       <c r="R16">
-        <v>99.9988</v>
+        <v>99.9954</v>
       </c>
       <c r="S16">
-        <v>36.0741</v>
+        <v>35.3331</v>
       </c>
       <c r="T16">
-        <v>36.1707</v>
+        <v>34.8716</v>
       </c>
       <c r="U16">
-        <v>16.2029</v>
+        <v>15.7748</v>
       </c>
       <c r="V16">
-        <v>9.335889999999999</v>
+        <v>13.4407</v>
       </c>
       <c r="W16">
-        <v>8.145519999999999</v>
-      </c>
-      <c r="X16">
-        <v>13.4301</v>
-      </c>
-      <c r="Y16">
-        <v>13.4301</v>
+        <v>11.3872</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z16">
-        <v>13.428</v>
+        <v>3.24043</v>
       </c>
       <c r="AA16">
-        <v>16.3694</v>
+        <v>15.8868</v>
       </c>
       <c r="AB16">
-        <v>9.295160000000001</v>
+        <v>13.349</v>
       </c>
       <c r="AC16">
-        <v>8.221680000000001</v>
-      </c>
-      <c r="AD16">
-        <v>13.1228</v>
-      </c>
-      <c r="AE16">
-        <v>13.1228</v>
+        <v>11.4153</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF16">
-        <v>13.1228</v>
+        <v>3.23156</v>
       </c>
       <c r="AG16">
-        <v>0.835347</v>
+        <v>0.839592</v>
       </c>
       <c r="AH16">
-        <v>1.57692</v>
+        <v>0.264471</v>
       </c>
       <c r="AI16">
-        <v>0.0684797</v>
+        <v>0.0684568</v>
       </c>
       <c r="AJ16">
-        <v>0.0664029</v>
+        <v>0.0651863</v>
       </c>
       <c r="AK16">
-        <v>0.07070900000000001</v>
+        <v>0.0696016</v>
       </c>
       <c r="AL16">
-        <v>0.07052269999999999</v>
+        <v>0.0538788</v>
       </c>
       <c r="AM16">
-        <v>0.223412</v>
-      </c>
-      <c r="AN16">
-        <v>0.431058</v>
+        <v>0.00733441</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO16">
-        <v>879.771</v>
+        <v>879.601</v>
       </c>
       <c r="AP16">
-        <v>837.083</v>
+        <v>839.505</v>
       </c>
       <c r="AQ16">
-        <v>893.549</v>
-      </c>
-      <c r="AR16">
-        <v>751.7</v>
-      </c>
-      <c r="AS16">
-        <v>809.928</v>
+        <v>898.2700000000001</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT16">
-        <v>729.5409999999999</v>
+        <v>729.403</v>
       </c>
       <c r="AU16">
-        <v>787.2020000000001</v>
+        <v>789.5899999999999</v>
       </c>
       <c r="AV16">
-        <v>743.3819999999999</v>
-      </c>
-      <c r="AW16">
-        <v>801.796</v>
-      </c>
-      <c r="AX16">
-        <v>758.524</v>
+        <v>748.1840000000001</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:50">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M17">
-        <v>49.7717</v>
+        <v>48.8374</v>
       </c>
       <c r="N17">
-        <v>19.1737</v>
-      </c>
-      <c r="O17">
-        <v>21.6066</v>
+        <v>4.91884</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P17">
-        <v>46.7618</v>
+        <v>45.9756</v>
       </c>
       <c r="Q17">
-        <v>49.7724</v>
+        <v>48.835</v>
       </c>
       <c r="R17">
-        <v>100.002</v>
+        <v>99.9952</v>
       </c>
       <c r="S17">
-        <v>46.7618</v>
+        <v>45.9756</v>
       </c>
       <c r="T17">
-        <v>46.5346</v>
+        <v>44.8092</v>
       </c>
       <c r="U17">
-        <v>20.884</v>
+        <v>20.4084</v>
       </c>
       <c r="V17">
-        <v>13.4036</v>
+        <v>19.2676</v>
       </c>
       <c r="W17">
-        <v>11.5928</v>
-      </c>
-      <c r="X17">
-        <v>18.8827</v>
-      </c>
-      <c r="Y17">
-        <v>18.8827</v>
+        <v>16.4176</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z17">
-        <v>18.883</v>
+        <v>4.86061</v>
       </c>
       <c r="AA17">
-        <v>21.6066</v>
+        <v>20.8055</v>
       </c>
       <c r="AB17">
-        <v>13.5067</v>
+        <v>19.544</v>
       </c>
       <c r="AC17">
-        <v>11.9534</v>
-      </c>
-      <c r="AD17">
-        <v>19.1737</v>
-      </c>
-      <c r="AE17">
-        <v>19.1737</v>
+        <v>16.7297</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF17">
-        <v>19.1737</v>
+        <v>4.91884</v>
       </c>
       <c r="AG17">
-        <v>0.680082</v>
+        <v>0.683525</v>
       </c>
       <c r="AH17">
-        <v>1.326</v>
+        <v>0.206178</v>
       </c>
       <c r="AI17">
-        <v>0.0514337</v>
+        <v>0.0471105</v>
       </c>
       <c r="AJ17">
-        <v>0.0532789</v>
+        <v>0.0516749</v>
       </c>
       <c r="AK17">
-        <v>0.05836</v>
+        <v>0.0565558</v>
       </c>
       <c r="AL17">
-        <v>0.05699489999999999</v>
+        <v>0.0443188</v>
       </c>
       <c r="AM17">
-        <v>0.179654</v>
-      </c>
-      <c r="AN17">
-        <v>0.350214</v>
+        <v>0.00661339</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO17">
-        <v>881.547</v>
+        <v>881.2769999999999</v>
       </c>
       <c r="AP17">
-        <v>842.252</v>
+        <v>845.467</v>
       </c>
       <c r="AQ17">
-        <v>900.5840000000001</v>
-      </c>
-      <c r="AR17">
-        <v>762.388</v>
-      </c>
-      <c r="AS17">
-        <v>822.826</v>
+        <v>907.088</v>
+      </c>
+      <c r="AR17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT17">
-        <v>732.183</v>
+        <v>731.96</v>
       </c>
       <c r="AU17">
-        <v>792.0170000000001</v>
+        <v>795.2669999999999</v>
       </c>
       <c r="AV17">
-        <v>751.217</v>
-      </c>
-      <c r="AW17">
-        <v>812.1600000000001</v>
-      </c>
-      <c r="AX17">
-        <v>771.4680000000001</v>
+        <v>757.932</v>
+      </c>
+      <c r="AW17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:50">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18">
-        <v>49.9654</v>
-      </c>
-      <c r="N18">
-        <v>15.3311</v>
-      </c>
-      <c r="O18">
-        <v>18.6025</v>
-      </c>
-      <c r="P18">
-        <v>36.2876</v>
-      </c>
-      <c r="Q18">
-        <v>49.966</v>
-      </c>
-      <c r="R18">
-        <v>100.001</v>
-      </c>
-      <c r="S18">
-        <v>36.2876</v>
-      </c>
-      <c r="T18">
-        <v>36.2493</v>
-      </c>
-      <c r="U18">
-        <v>18.0884</v>
-      </c>
-      <c r="V18">
-        <v>10.6209</v>
-      </c>
-      <c r="W18">
-        <v>9.22439</v>
-      </c>
-      <c r="X18">
-        <v>15.0747</v>
-      </c>
-      <c r="Y18">
-        <v>15.0747</v>
-      </c>
-      <c r="Z18">
-        <v>15.0763</v>
-      </c>
-      <c r="AA18">
-        <v>18.6025</v>
-      </c>
-      <c r="AB18">
-        <v>10.7191</v>
-      </c>
-      <c r="AC18">
-        <v>9.498099999999999</v>
-      </c>
-      <c r="AD18">
-        <v>15.3311</v>
-      </c>
-      <c r="AE18">
-        <v>15.3311</v>
-      </c>
-      <c r="AF18">
-        <v>15.3311</v>
-      </c>
-      <c r="AG18">
-        <v>0.8321499999999999</v>
-      </c>
-      <c r="AH18">
-        <v>1.77423</v>
-      </c>
-      <c r="AI18">
-        <v>0.103176</v>
-      </c>
-      <c r="AJ18">
-        <v>0.06890489999999999</v>
-      </c>
-      <c r="AK18">
-        <v>0.0747051</v>
-      </c>
-      <c r="AL18">
-        <v>0.07274510000000001</v>
-      </c>
-      <c r="AM18">
-        <v>0.225923</v>
-      </c>
-      <c r="AN18">
-        <v>0.444453</v>
-      </c>
-      <c r="AO18">
-        <v>878.9240000000001</v>
-      </c>
-      <c r="AP18">
-        <v>836.7049999999999</v>
-      </c>
-      <c r="AQ18">
-        <v>893.024</v>
-      </c>
-      <c r="AR18">
-        <v>751.915</v>
-      </c>
-      <c r="AS18">
-        <v>810.155</v>
-      </c>
-      <c r="AT18">
-        <v>729.386</v>
-      </c>
-      <c r="AU18">
-        <v>786.6350000000001</v>
-      </c>
-      <c r="AV18">
-        <v>743.4000000000001</v>
-      </c>
-      <c r="AW18">
-        <v>801.874</v>
-      </c>
-      <c r="AX18">
-        <v>758.8860000000001</v>
+        <v>75</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:50">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M19" s="2">
-        <v>53.299</v>
+        <v>73</v>
+      </c>
+      <c r="M19" s="3">
+        <v>53.5626</v>
       </c>
       <c r="N19">
-        <v>17.1572</v>
-      </c>
-      <c r="O19">
-        <v>19.5761</v>
+        <v>3.42871</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P19">
-        <v>38.3876</v>
+        <v>37.3443</v>
       </c>
       <c r="Q19">
-        <v>53.29940000000001</v>
+        <v>53.5627</v>
       </c>
       <c r="R19">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S19">
-        <v>35.0912</v>
+        <v>33.7811</v>
       </c>
       <c r="T19">
-        <v>38.3876</v>
+        <v>37.3443</v>
       </c>
       <c r="U19">
-        <v>19.5761</v>
+        <v>18.3905</v>
       </c>
       <c r="V19">
-        <v>10.8039</v>
+        <v>16.7585</v>
       </c>
       <c r="W19">
-        <v>9.93098</v>
-      </c>
-      <c r="X19">
-        <v>17.1579</v>
-      </c>
-      <c r="Y19">
-        <v>17.1579</v>
+        <v>13.4137</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z19">
-        <v>17.1572</v>
+        <v>3.41648</v>
       </c>
       <c r="AA19">
-        <v>14.9853</v>
+        <v>14.8097</v>
       </c>
       <c r="AB19">
-        <v>9.056710000000001</v>
+        <v>12.2475</v>
       </c>
       <c r="AC19">
-        <v>7.48007</v>
-      </c>
-      <c r="AD19">
-        <v>11.0706</v>
-      </c>
-      <c r="AE19">
-        <v>11.0706</v>
+        <v>10.6413</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF19">
-        <v>11.0706</v>
+        <v>3.42871</v>
       </c>
       <c r="AG19">
-        <v>0.682899</v>
+        <v>0.6858340000000001</v>
       </c>
       <c r="AH19">
-        <v>1.29834</v>
+        <v>0.224414</v>
       </c>
       <c r="AI19">
-        <v>0.06206069999999999</v>
+        <v>0.0619582</v>
       </c>
       <c r="AJ19">
-        <v>0.0549346</v>
+        <v>0.05395319999999999</v>
       </c>
       <c r="AK19">
-        <v>0.0588145</v>
+        <v>0.0576809</v>
       </c>
       <c r="AL19">
-        <v>0.0585602</v>
+        <v>0.0445655</v>
       </c>
       <c r="AM19">
-        <v>0.183865</v>
-      </c>
-      <c r="AN19">
-        <v>0.356323</v>
+        <v>0.00647056</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO19">
-        <v>882.8290000000001</v>
+        <v>882.6130000000001</v>
       </c>
       <c r="AP19">
-        <v>835.403</v>
+        <v>838.361</v>
       </c>
       <c r="AQ19">
-        <v>896.794</v>
-      </c>
-      <c r="AR19">
-        <v>750.716</v>
-      </c>
-      <c r="AS19">
-        <v>813.516</v>
+        <v>901.664</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT19">
-        <v>726.2330000000001</v>
+        <v>726.122</v>
       </c>
       <c r="AU19">
-        <v>788.975</v>
+        <v>791.1319999999999</v>
       </c>
       <c r="AV19">
-        <v>740.692</v>
-      </c>
-      <c r="AW19">
-        <v>804.013</v>
-      </c>
-      <c r="AX19">
-        <v>757.61</v>
+        <v>745.573</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:50">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
         <v>103</v>
       </c>
-      <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>101</v>
-      </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
         <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M20">
-        <v>52.905</v>
+        <v>52.9681</v>
       </c>
       <c r="N20">
-        <v>13.0894</v>
-      </c>
-      <c r="O20">
-        <v>16.4077</v>
+        <v>2.73963</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P20">
-        <v>30.1034</v>
+        <v>28.9933</v>
       </c>
       <c r="Q20">
-        <v>52.9049</v>
+        <v>52.9678</v>
       </c>
       <c r="R20">
-        <v>99.9999</v>
+        <v>99.9995</v>
       </c>
       <c r="S20">
-        <v>27.2001</v>
+        <v>26.0207</v>
       </c>
       <c r="T20">
-        <v>30.1034</v>
+        <v>28.9933</v>
       </c>
       <c r="U20">
-        <v>16.4077</v>
+        <v>15.5333</v>
       </c>
       <c r="V20">
-        <v>8.5875</v>
+        <v>13.0086</v>
       </c>
       <c r="W20">
-        <v>7.64873</v>
-      </c>
-      <c r="X20">
-        <v>13.0894</v>
-      </c>
-      <c r="Y20">
-        <v>13.0894</v>
+        <v>10.26</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z20">
-        <v>13.0894</v>
+        <v>2.72353</v>
       </c>
       <c r="AA20">
-        <v>14.0036</v>
+        <v>13.748</v>
       </c>
       <c r="AB20">
-        <v>7.4781</v>
+        <v>10.1867</v>
       </c>
       <c r="AC20">
-        <v>6.24779</v>
-      </c>
-      <c r="AD20">
-        <v>9.53262</v>
-      </c>
-      <c r="AE20">
-        <v>9.53262</v>
+        <v>8.66633</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF20">
-        <v>9.53262</v>
+        <v>2.73963</v>
       </c>
       <c r="AG20">
-        <v>0.833606</v>
+        <v>0.8366170000000001</v>
       </c>
       <c r="AH20">
-        <v>1.76225</v>
+        <v>0.348965</v>
       </c>
       <c r="AI20">
-        <v>0.139197</v>
+        <v>0.139051</v>
       </c>
       <c r="AJ20">
-        <v>0.07154110000000001</v>
+        <v>0.07074</v>
       </c>
       <c r="AK20">
-        <v>0.07628989999999999</v>
+        <v>0.0734566</v>
       </c>
       <c r="AL20">
-        <v>0.07471170000000001</v>
+        <v>0.05643459999999999</v>
       </c>
       <c r="AM20">
-        <v>0.230881</v>
-      </c>
-      <c r="AN20">
-        <v>0.453618</v>
+        <v>0.009349730000000001</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO20">
-        <v>879.7040000000001</v>
+        <v>879.5250000000001</v>
       </c>
       <c r="AP20">
-        <v>831.2180000000001</v>
+        <v>833.423</v>
       </c>
       <c r="AQ20">
-        <v>889.994</v>
-      </c>
-      <c r="AR20">
-        <v>742.8249999999999</v>
-      </c>
-      <c r="AS20">
-        <v>803.057</v>
+        <v>893.696</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT20">
-        <v>724.218</v>
+        <v>724.12</v>
       </c>
       <c r="AU20">
-        <v>784.258</v>
+        <v>786.035</v>
       </c>
       <c r="AV20">
-        <v>735.336</v>
-      </c>
-      <c r="AW20">
-        <v>795.728</v>
-      </c>
-      <c r="AX20">
-        <v>748.109</v>
+        <v>738.937</v>
+      </c>
+      <c r="AW20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:50">
       <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
         <v>104</v>
       </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" t="s">
-        <v>102</v>
-      </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
         <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>52.7211</v>
+        <v>52.8528</v>
       </c>
       <c r="N21">
-        <v>17.9792</v>
-      </c>
-      <c r="O21">
-        <v>20.9392</v>
+        <v>4.1437</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P21">
-        <v>37.0712</v>
+        <v>35.8064</v>
       </c>
       <c r="Q21">
-        <v>52.7202</v>
+        <v>52.853</v>
       </c>
       <c r="R21">
-        <v>99.9982</v>
+        <v>100</v>
       </c>
       <c r="S21">
-        <v>34.35279999999999</v>
+        <v>32.9511</v>
       </c>
       <c r="T21">
-        <v>37.0712</v>
+        <v>35.8064</v>
       </c>
       <c r="U21">
-        <v>20.9392</v>
+        <v>20.0565</v>
       </c>
       <c r="V21">
-        <v>11.9533</v>
+        <v>18.2759</v>
       </c>
       <c r="W21">
-        <v>10.7195</v>
-      </c>
-      <c r="X21">
-        <v>17.979</v>
-      </c>
-      <c r="Y21">
-        <v>17.979</v>
+        <v>14.5088</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z21">
-        <v>17.9792</v>
+        <v>4.0324</v>
       </c>
       <c r="AA21">
-        <v>16.927</v>
+        <v>16.6783</v>
       </c>
       <c r="AB21">
-        <v>10.3636</v>
+        <v>14.1275</v>
       </c>
       <c r="AC21">
-        <v>8.6798</v>
-      </c>
-      <c r="AD21">
-        <v>13.0031</v>
-      </c>
-      <c r="AE21">
-        <v>13.0031</v>
+        <v>12.2041</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF21">
-        <v>13.0031</v>
+        <v>4.1437</v>
       </c>
       <c r="AG21">
-        <v>0.679444</v>
+        <v>0.680862</v>
       </c>
       <c r="AH21">
-        <v>1.53029</v>
+        <v>0.285607</v>
       </c>
       <c r="AI21">
-        <v>0.123296</v>
+        <v>0.111309</v>
       </c>
       <c r="AJ21">
-        <v>0.0583634</v>
+        <v>0.0574961</v>
       </c>
       <c r="AK21">
-        <v>0.0645423</v>
+        <v>0.0611908</v>
       </c>
       <c r="AL21">
-        <v>0.0619417</v>
+        <v>0.0474821</v>
       </c>
       <c r="AM21">
-        <v>0.187857</v>
-      </c>
-      <c r="AN21">
-        <v>0.39009</v>
+        <v>0.009198290000000001</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO21">
-        <v>881.624</v>
+        <v>881.3969999999999</v>
       </c>
       <c r="AP21">
-        <v>834.6799999999999</v>
+        <v>837.635</v>
       </c>
       <c r="AQ21">
-        <v>895.213</v>
-      </c>
-      <c r="AR21">
-        <v>749.975</v>
-      </c>
-      <c r="AS21">
-        <v>812.1880000000001</v>
+        <v>900.274</v>
+      </c>
+      <c r="AR21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS21" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT21">
-        <v>725.812</v>
+        <v>725.6719999999999</v>
       </c>
       <c r="AU21">
-        <v>787.569</v>
+        <v>789.921</v>
       </c>
       <c r="AV21">
-        <v>740.062</v>
-      </c>
-      <c r="AW21">
-        <v>802.696</v>
-      </c>
-      <c r="AX21">
-        <v>756.601</v>
+        <v>744.924</v>
+      </c>
+      <c r="AW21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX21" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:50">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
         <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L22" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22">
-        <v>52.5284</v>
-      </c>
-      <c r="N22">
-        <v>14.555</v>
-      </c>
-      <c r="O22">
-        <v>18.2728</v>
-      </c>
-      <c r="P22">
-        <v>30.6666</v>
-      </c>
-      <c r="Q22">
-        <v>52.52910000000001</v>
-      </c>
-      <c r="R22">
-        <v>100.001</v>
-      </c>
-      <c r="S22">
-        <v>28.1412</v>
-      </c>
-      <c r="T22">
-        <v>30.6666</v>
-      </c>
-      <c r="U22">
-        <v>18.2728</v>
-      </c>
-      <c r="V22">
-        <v>9.97273</v>
-      </c>
-      <c r="W22">
-        <v>8.70063</v>
-      </c>
-      <c r="X22">
-        <v>14.5536</v>
-      </c>
-      <c r="Y22">
-        <v>14.5536</v>
-      </c>
-      <c r="Z22">
-        <v>14.555</v>
-      </c>
-      <c r="AA22">
-        <v>15.8584</v>
-      </c>
-      <c r="AB22">
-        <v>8.901400000000001</v>
-      </c>
-      <c r="AC22">
-        <v>7.4274</v>
-      </c>
-      <c r="AD22">
-        <v>11.306</v>
-      </c>
-      <c r="AE22">
-        <v>11.306</v>
-      </c>
-      <c r="AF22">
-        <v>11.306</v>
-      </c>
-      <c r="AG22">
-        <v>0.830249</v>
-      </c>
-      <c r="AH22">
-        <v>2.05645</v>
-      </c>
-      <c r="AI22">
-        <v>0.198603</v>
-      </c>
-      <c r="AJ22">
-        <v>0.07712190000000001</v>
-      </c>
-      <c r="AK22">
-        <v>0.0848117</v>
-      </c>
-      <c r="AL22">
-        <v>0.07913619999999999</v>
-      </c>
-      <c r="AM22">
-        <v>0.235772</v>
-      </c>
-      <c r="AN22">
-        <v>0.496111</v>
-      </c>
-      <c r="AO22">
-        <v>879.264</v>
-      </c>
-      <c r="AP22">
-        <v>831.467</v>
-      </c>
-      <c r="AQ22">
-        <v>890.039</v>
-      </c>
-      <c r="AR22">
-        <v>743.768</v>
-      </c>
-      <c r="AS22">
-        <v>804.0250000000001</v>
-      </c>
-      <c r="AT22">
-        <v>724.3670000000001</v>
-      </c>
-      <c r="AU22">
-        <v>784.069</v>
-      </c>
-      <c r="AV22">
-        <v>735.918</v>
-      </c>
-      <c r="AW22">
-        <v>796.292</v>
-      </c>
-      <c r="AX22">
-        <v>749.204</v>
+        <v>75</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:50">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L23" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" s="2">
-        <v>53.299</v>
+        <v>73</v>
+      </c>
+      <c r="M23" s="3">
+        <v>53.5793</v>
       </c>
       <c r="N23">
-        <v>17.1572</v>
-      </c>
-      <c r="O23">
-        <v>19.5761</v>
+        <v>3.39141</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P23">
-        <v>38.3876</v>
+        <v>37.2443</v>
       </c>
       <c r="Q23">
-        <v>53.29940000000001</v>
+        <v>53.5791</v>
       </c>
       <c r="R23">
-        <v>100.001</v>
+        <v>99.9996</v>
       </c>
       <c r="S23">
-        <v>35.0912</v>
+        <v>33.6668</v>
       </c>
       <c r="T23">
-        <v>38.3876</v>
+        <v>37.2443</v>
       </c>
       <c r="U23">
-        <v>19.5761</v>
+        <v>18.4031</v>
       </c>
       <c r="V23">
-        <v>10.8039</v>
+        <v>16.7542</v>
       </c>
       <c r="W23">
-        <v>9.93098</v>
-      </c>
-      <c r="X23">
-        <v>17.1579</v>
-      </c>
-      <c r="Y23">
-        <v>17.1579</v>
+        <v>13.4118</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z23">
-        <v>17.1572</v>
+        <v>3.39141</v>
       </c>
       <c r="AA23">
-        <v>14.9853</v>
+        <v>14.7973</v>
       </c>
       <c r="AB23">
-        <v>9.056710000000001</v>
+        <v>12.2476</v>
       </c>
       <c r="AC23">
-        <v>7.48007</v>
-      </c>
-      <c r="AD23">
-        <v>11.0706</v>
-      </c>
-      <c r="AE23">
-        <v>11.0706</v>
+        <v>10.6337</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF23">
-        <v>11.0706</v>
+        <v>3.36261</v>
       </c>
       <c r="AG23">
-        <v>0.682899</v>
+        <v>0.685846</v>
       </c>
       <c r="AH23">
-        <v>1.29834</v>
+        <v>0.224214</v>
       </c>
       <c r="AI23">
-        <v>0.06206069999999999</v>
+        <v>0.0619582</v>
       </c>
       <c r="AJ23">
-        <v>0.0549346</v>
+        <v>0.0539536</v>
       </c>
       <c r="AK23">
-        <v>0.0588145</v>
+        <v>0.0576899</v>
       </c>
       <c r="AL23">
-        <v>0.0585602</v>
+        <v>0.0445646</v>
       </c>
       <c r="AM23">
-        <v>0.183865</v>
-      </c>
-      <c r="AN23">
-        <v>0.356323</v>
+        <v>0.0062622</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO23">
-        <v>882.8290000000001</v>
+        <v>882.609</v>
       </c>
       <c r="AP23">
-        <v>835.403</v>
+        <v>838.3630000000001</v>
       </c>
       <c r="AQ23">
-        <v>896.794</v>
-      </c>
-      <c r="AR23">
-        <v>750.716</v>
-      </c>
-      <c r="AS23">
-        <v>813.516</v>
+        <v>901.6650000000001</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT23">
-        <v>726.2330000000001</v>
+        <v>726.122</v>
       </c>
       <c r="AU23">
-        <v>788.975</v>
+        <v>791.1300000000001</v>
       </c>
       <c r="AV23">
-        <v>740.692</v>
-      </c>
-      <c r="AW23">
-        <v>804.013</v>
-      </c>
-      <c r="AX23">
-        <v>757.61</v>
+        <v>745.575</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:50">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M24">
-        <v>52.905</v>
+        <v>52.9913</v>
       </c>
       <c r="N24">
-        <v>13.0894</v>
-      </c>
-      <c r="O24">
-        <v>16.4077</v>
+        <v>2.71574</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P24">
-        <v>30.1034</v>
+        <v>28.9069</v>
       </c>
       <c r="Q24">
-        <v>52.9049</v>
+        <v>52.99290000000001</v>
       </c>
       <c r="R24">
-        <v>99.9999</v>
+        <v>100.003</v>
       </c>
       <c r="S24">
-        <v>27.2001</v>
+        <v>25.9184</v>
       </c>
       <c r="T24">
-        <v>30.1034</v>
+        <v>28.9069</v>
       </c>
       <c r="U24">
-        <v>16.4077</v>
+        <v>15.5351</v>
       </c>
       <c r="V24">
-        <v>8.5875</v>
+        <v>13.006</v>
       </c>
       <c r="W24">
-        <v>7.64873</v>
-      </c>
-      <c r="X24">
-        <v>13.0894</v>
-      </c>
-      <c r="Y24">
-        <v>13.0894</v>
+        <v>10.2594</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z24">
-        <v>13.0894</v>
+        <v>2.71574</v>
       </c>
       <c r="AA24">
-        <v>14.0036</v>
+        <v>13.7488</v>
       </c>
       <c r="AB24">
-        <v>7.4781</v>
+        <v>10.184</v>
       </c>
       <c r="AC24">
-        <v>6.24779</v>
-      </c>
-      <c r="AD24">
-        <v>9.53262</v>
-      </c>
-      <c r="AE24">
-        <v>9.53262</v>
+        <v>8.662700000000001</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF24">
-        <v>9.53262</v>
+        <v>2.67618</v>
       </c>
       <c r="AG24">
-        <v>0.833606</v>
+        <v>0.836608</v>
       </c>
       <c r="AH24">
-        <v>1.76225</v>
+        <v>0.348758</v>
       </c>
       <c r="AI24">
-        <v>0.139197</v>
+        <v>0.139051</v>
       </c>
       <c r="AJ24">
-        <v>0.07154110000000001</v>
+        <v>0.070742</v>
       </c>
       <c r="AK24">
-        <v>0.07628989999999999</v>
+        <v>0.0734562</v>
       </c>
       <c r="AL24">
-        <v>0.07471170000000001</v>
+        <v>0.05643</v>
       </c>
       <c r="AM24">
-        <v>0.230881</v>
-      </c>
-      <c r="AN24">
-        <v>0.453618</v>
+        <v>0.00914565</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO24">
-        <v>879.7040000000001</v>
+        <v>879.527</v>
       </c>
       <c r="AP24">
-        <v>831.2180000000001</v>
+        <v>833.4240000000001</v>
       </c>
       <c r="AQ24">
-        <v>889.994</v>
-      </c>
-      <c r="AR24">
-        <v>742.8249999999999</v>
-      </c>
-      <c r="AS24">
-        <v>803.057</v>
+        <v>893.701</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT24">
-        <v>724.218</v>
+        <v>724.121</v>
       </c>
       <c r="AU24">
-        <v>784.258</v>
+        <v>786.029</v>
       </c>
       <c r="AV24">
-        <v>735.336</v>
-      </c>
-      <c r="AW24">
-        <v>795.728</v>
-      </c>
-      <c r="AX24">
-        <v>748.109</v>
+        <v>738.9350000000001</v>
+      </c>
+      <c r="AW24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX24" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:50">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M25">
-        <v>52.7211</v>
+        <v>52.8686</v>
       </c>
       <c r="N25">
-        <v>17.9792</v>
-      </c>
-      <c r="O25">
-        <v>20.9392</v>
+        <v>4.07795</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P25">
-        <v>37.0712</v>
+        <v>35.7059</v>
       </c>
       <c r="Q25">
-        <v>52.7202</v>
+        <v>52.8686</v>
       </c>
       <c r="R25">
-        <v>99.9982</v>
+        <v>99.9999</v>
       </c>
       <c r="S25">
-        <v>34.35279999999999</v>
+        <v>32.8415</v>
       </c>
       <c r="T25">
-        <v>37.0712</v>
+        <v>35.7059</v>
       </c>
       <c r="U25">
-        <v>20.9392</v>
+        <v>20.0587</v>
       </c>
       <c r="V25">
-        <v>11.9533</v>
+        <v>18.2746</v>
       </c>
       <c r="W25">
-        <v>10.7195</v>
-      </c>
-      <c r="X25">
-        <v>17.979</v>
-      </c>
-      <c r="Y25">
-        <v>17.979</v>
+        <v>14.5068</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z25">
-        <v>17.9792</v>
+        <v>4.017550000000001</v>
       </c>
       <c r="AA25">
-        <v>16.927</v>
+        <v>16.6764</v>
       </c>
       <c r="AB25">
-        <v>10.3636</v>
+        <v>14.1256</v>
       </c>
       <c r="AC25">
-        <v>8.6798</v>
-      </c>
-      <c r="AD25">
-        <v>13.0031</v>
-      </c>
-      <c r="AE25">
-        <v>13.0031</v>
+        <v>12.1999</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF25">
-        <v>13.0031</v>
+        <v>4.07795</v>
       </c>
       <c r="AG25">
-        <v>0.679444</v>
+        <v>0.680862</v>
       </c>
       <c r="AH25">
-        <v>1.53029</v>
+        <v>0.285451</v>
       </c>
       <c r="AI25">
-        <v>0.123296</v>
+        <v>0.111309</v>
       </c>
       <c r="AJ25">
-        <v>0.0583634</v>
+        <v>0.0574948</v>
       </c>
       <c r="AK25">
-        <v>0.0645423</v>
+        <v>0.06119239999999999</v>
       </c>
       <c r="AL25">
-        <v>0.0619417</v>
+        <v>0.047482</v>
       </c>
       <c r="AM25">
-        <v>0.187857</v>
-      </c>
-      <c r="AN25">
-        <v>0.39009</v>
+        <v>0.00904201</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO25">
-        <v>881.624</v>
+        <v>881.3969999999999</v>
       </c>
       <c r="AP25">
-        <v>834.6799999999999</v>
+        <v>837.636</v>
       </c>
       <c r="AQ25">
-        <v>895.213</v>
-      </c>
-      <c r="AR25">
-        <v>749.975</v>
-      </c>
-      <c r="AS25">
-        <v>812.1880000000001</v>
+        <v>900.277</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT25">
-        <v>725.812</v>
+        <v>725.6719999999999</v>
       </c>
       <c r="AU25">
-        <v>787.569</v>
+        <v>789.919</v>
       </c>
       <c r="AV25">
-        <v>740.062</v>
-      </c>
-      <c r="AW25">
-        <v>802.696</v>
-      </c>
-      <c r="AX25">
-        <v>756.601</v>
+        <v>744.924</v>
+      </c>
+      <c r="AW25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX25" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:50">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L26" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26">
-        <v>52.5284</v>
-      </c>
-      <c r="N26">
-        <v>14.555</v>
-      </c>
-      <c r="O26">
-        <v>18.2728</v>
-      </c>
-      <c r="P26">
-        <v>30.6666</v>
-      </c>
-      <c r="Q26">
-        <v>52.52910000000001</v>
-      </c>
-      <c r="R26">
-        <v>100.001</v>
-      </c>
-      <c r="S26">
-        <v>28.1412</v>
-      </c>
-      <c r="T26">
-        <v>30.6666</v>
-      </c>
-      <c r="U26">
-        <v>18.2728</v>
-      </c>
-      <c r="V26">
-        <v>9.97273</v>
-      </c>
-      <c r="W26">
-        <v>8.70063</v>
-      </c>
-      <c r="X26">
-        <v>14.5536</v>
-      </c>
-      <c r="Y26">
-        <v>14.5536</v>
-      </c>
-      <c r="Z26">
-        <v>14.555</v>
-      </c>
-      <c r="AA26">
-        <v>15.8584</v>
-      </c>
-      <c r="AB26">
-        <v>8.901400000000001</v>
-      </c>
-      <c r="AC26">
-        <v>7.4274</v>
-      </c>
-      <c r="AD26">
-        <v>11.306</v>
-      </c>
-      <c r="AE26">
-        <v>11.306</v>
-      </c>
-      <c r="AF26">
-        <v>11.306</v>
-      </c>
-      <c r="AG26">
-        <v>0.830249</v>
-      </c>
-      <c r="AH26">
-        <v>2.05645</v>
-      </c>
-      <c r="AI26">
-        <v>0.198603</v>
-      </c>
-      <c r="AJ26">
-        <v>0.07712190000000001</v>
-      </c>
-      <c r="AK26">
-        <v>0.0848117</v>
-      </c>
-      <c r="AL26">
-        <v>0.07913619999999999</v>
-      </c>
-      <c r="AM26">
-        <v>0.235772</v>
-      </c>
-      <c r="AN26">
-        <v>0.496111</v>
-      </c>
-      <c r="AO26">
-        <v>879.264</v>
-      </c>
-      <c r="AP26">
-        <v>831.467</v>
-      </c>
-      <c r="AQ26">
-        <v>890.039</v>
-      </c>
-      <c r="AR26">
-        <v>743.768</v>
-      </c>
-      <c r="AS26">
-        <v>804.0250000000001</v>
-      </c>
-      <c r="AT26">
-        <v>724.3670000000001</v>
-      </c>
-      <c r="AU26">
-        <v>784.069</v>
-      </c>
-      <c r="AV26">
-        <v>735.918</v>
-      </c>
-      <c r="AW26">
-        <v>796.292</v>
-      </c>
-      <c r="AX26">
-        <v>749.204</v>
+        <v>75</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:50">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
       </c>
       <c r="I27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>72</v>
-      </c>
-      <c r="M27">
-        <v>47.6534</v>
+        <v>73</v>
+      </c>
+      <c r="M27" s="4">
+        <v>46.3284</v>
       </c>
       <c r="N27">
-        <v>16.472</v>
-      </c>
-      <c r="O27">
-        <v>19.8302</v>
+        <v>3.63469</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P27">
-        <v>38.19520000000001</v>
+        <v>37.7828</v>
       </c>
       <c r="Q27">
-        <v>47.6534</v>
+        <v>46.3278</v>
       </c>
       <c r="R27">
-        <v>100</v>
+        <v>99.9987</v>
       </c>
       <c r="S27">
-        <v>38.19520000000001</v>
+        <v>37.7828</v>
       </c>
       <c r="T27">
-        <v>35.8487</v>
+        <v>34.1128</v>
       </c>
       <c r="U27">
-        <v>15.304</v>
+        <v>15.1058</v>
       </c>
       <c r="V27">
-        <v>9.099629999999999</v>
+        <v>12.4303</v>
       </c>
       <c r="W27">
-        <v>7.512970000000001</v>
-      </c>
-      <c r="X27">
-        <v>11.2667</v>
-      </c>
-      <c r="Y27">
-        <v>11.2667</v>
+        <v>10.6944</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z27">
-        <v>11.2668</v>
+        <v>3.50578</v>
       </c>
       <c r="AA27">
-        <v>19.8302</v>
+        <v>18.3407</v>
       </c>
       <c r="AB27">
-        <v>10.7538</v>
+        <v>16.4951</v>
       </c>
       <c r="AC27">
-        <v>9.942819999999999</v>
-      </c>
-      <c r="AD27">
-        <v>16.472</v>
-      </c>
-      <c r="AE27">
-        <v>16.472</v>
+        <v>13.3054</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF27">
-        <v>16.472</v>
+        <v>3.63469</v>
       </c>
       <c r="AG27">
-        <v>0.682959</v>
+        <v>0.686014</v>
       </c>
       <c r="AH27">
-        <v>1.29332</v>
+        <v>0.222172</v>
       </c>
       <c r="AI27">
-        <v>0.0594132</v>
+        <v>0.0592265</v>
       </c>
       <c r="AJ27">
-        <v>0.0550095</v>
+        <v>0.0539201</v>
       </c>
       <c r="AK27">
-        <v>0.0589437</v>
+        <v>0.0577937</v>
       </c>
       <c r="AL27">
-        <v>0.0586979</v>
+        <v>0.0445976</v>
       </c>
       <c r="AM27">
-        <v>0.183131</v>
-      </c>
-      <c r="AN27">
-        <v>0.355904</v>
+        <v>0.00664699</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO27">
-        <v>877.21</v>
+        <v>877.051</v>
       </c>
       <c r="AP27">
-        <v>838.7470000000001</v>
+        <v>840.946</v>
       </c>
       <c r="AQ27">
-        <v>891.673</v>
-      </c>
-      <c r="AR27">
-        <v>753.8200000000001</v>
-      </c>
-      <c r="AS27">
-        <v>809.755</v>
+        <v>896.47</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT27">
-        <v>732.408</v>
+        <v>732.218</v>
       </c>
       <c r="AU27">
-        <v>786.228</v>
+        <v>789.102</v>
       </c>
       <c r="AV27">
-        <v>746.417</v>
-      </c>
-      <c r="AW27">
-        <v>801.4739999999999</v>
-      </c>
-      <c r="AX27">
-        <v>761.745</v>
+        <v>751.3660000000001</v>
+      </c>
+      <c r="AW27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX27" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:50">
       <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
         <v>115</v>
       </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" t="s">
-        <v>113</v>
-      </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
         <v>57</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M28">
-        <v>48.1174</v>
+        <v>47.1002</v>
       </c>
       <c r="N28">
-        <v>12.847</v>
-      </c>
-      <c r="O28">
-        <v>16.7372</v>
+        <v>2.88743</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P28">
-        <v>29.8823</v>
+        <v>29.2963</v>
       </c>
       <c r="Q28">
-        <v>48.1184</v>
+        <v>47.1007</v>
       </c>
       <c r="R28">
-        <v>100.002</v>
+        <v>100.001</v>
       </c>
       <c r="S28">
-        <v>29.8823</v>
+        <v>29.2963</v>
       </c>
       <c r="T28">
-        <v>28.0019</v>
+        <v>26.3996</v>
       </c>
       <c r="U28">
-        <v>14.264</v>
+        <v>14.0111</v>
       </c>
       <c r="V28">
-        <v>7.519830000000001</v>
+        <v>10.3109</v>
       </c>
       <c r="W28">
-        <v>6.251980000000001</v>
-      </c>
-      <c r="X28">
-        <v>9.57695</v>
-      </c>
-      <c r="Y28">
-        <v>9.57695</v>
+        <v>8.695510000000001</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z28">
-        <v>9.578239999999999</v>
+        <v>2.82047</v>
       </c>
       <c r="AA28">
-        <v>16.7372</v>
+        <v>15.6429</v>
       </c>
       <c r="AB28">
-        <v>8.64771</v>
+        <v>13.0522</v>
       </c>
       <c r="AC28">
-        <v>7.764690000000001</v>
-      </c>
-      <c r="AD28">
-        <v>12.847</v>
-      </c>
-      <c r="AE28">
-        <v>12.847</v>
+        <v>10.31</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF28">
-        <v>12.847</v>
+        <v>2.88743</v>
       </c>
       <c r="AG28">
-        <v>0.833607</v>
+        <v>0.8367250000000001</v>
       </c>
       <c r="AH28">
-        <v>1.76191</v>
+        <v>0.351078</v>
       </c>
       <c r="AI28">
-        <v>0.14129</v>
+        <v>0.141039</v>
       </c>
       <c r="AJ28">
-        <v>0.07142040000000001</v>
+        <v>0.0705464</v>
       </c>
       <c r="AK28">
-        <v>0.0763662</v>
+        <v>0.07349649999999999</v>
       </c>
       <c r="AL28">
-        <v>0.0748432</v>
+        <v>0.0564258</v>
       </c>
       <c r="AM28">
-        <v>0.230396</v>
-      </c>
-      <c r="AN28">
-        <v>0.453183</v>
+        <v>0.009606369999999999</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO28">
-        <v>875.018</v>
+        <v>874.8870000000001</v>
       </c>
       <c r="AP28">
-        <v>833.9929999999999</v>
+        <v>835.793</v>
       </c>
       <c r="AQ28">
-        <v>886.172</v>
-      </c>
-      <c r="AR28">
-        <v>745.5100000000001</v>
-      </c>
-      <c r="AS28">
-        <v>800.013</v>
+        <v>889.731</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT28">
-        <v>729.3430000000001</v>
+        <v>729.193</v>
       </c>
       <c r="AU28">
-        <v>782.0020000000001</v>
+        <v>784.181</v>
       </c>
       <c r="AV28">
-        <v>739.711</v>
-      </c>
-      <c r="AW28">
-        <v>793.627</v>
-      </c>
-      <c r="AX28">
-        <v>751.6129999999999</v>
+        <v>743.5</v>
+      </c>
+      <c r="AW28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX28" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:50">
       <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
         <v>116</v>
       </c>
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" t="s">
-        <v>114</v>
-      </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
         <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L29" t="s">
-        <v>72</v>
-      </c>
-      <c r="M29">
-        <v>47.8456</v>
+        <v>73</v>
+      </c>
+      <c r="M29" s="4">
+        <v>46.2493</v>
       </c>
       <c r="N29">
-        <v>18.5562</v>
-      </c>
-      <c r="O29">
-        <v>21.7554</v>
+        <v>4.34764</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P29">
-        <v>37.2656</v>
+        <v>36.7415</v>
       </c>
       <c r="Q29">
-        <v>47.8441</v>
+        <v>46.2495</v>
       </c>
       <c r="R29">
-        <v>99.9967</v>
+        <v>100</v>
       </c>
       <c r="S29">
-        <v>37.2656</v>
+        <v>36.7415</v>
       </c>
       <c r="T29">
-        <v>35.1117</v>
+        <v>32.9894</v>
       </c>
       <c r="U29">
-        <v>17.3175</v>
+        <v>17.0945</v>
       </c>
       <c r="V29">
-        <v>10.4714</v>
+        <v>14.2356</v>
       </c>
       <c r="W29">
-        <v>8.66422</v>
-      </c>
-      <c r="X29">
-        <v>12.904</v>
-      </c>
-      <c r="Y29">
-        <v>12.904</v>
+        <v>12.2527</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z29">
-        <v>12.9013</v>
+        <v>4.24664</v>
       </c>
       <c r="AA29">
-        <v>21.7554</v>
+        <v>20.9455</v>
       </c>
       <c r="AB29">
-        <v>12.499</v>
+        <v>19.2121</v>
       </c>
       <c r="AC29">
-        <v>11.2262</v>
-      </c>
-      <c r="AD29">
-        <v>18.5562</v>
-      </c>
-      <c r="AE29">
-        <v>18.5562</v>
+        <v>14.9494</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF29">
-        <v>18.5562</v>
+        <v>4.34764</v>
       </c>
       <c r="AG29">
-        <v>0.6794</v>
+        <v>0.680856</v>
       </c>
       <c r="AH29">
-        <v>1.55412</v>
+        <v>0.305068</v>
       </c>
       <c r="AI29">
-        <v>0.158193</v>
+        <v>0.130723</v>
       </c>
       <c r="AJ29">
-        <v>0.0581804</v>
+        <v>0.0572681</v>
       </c>
       <c r="AK29">
-        <v>0.06493890000000001</v>
+        <v>0.0614084</v>
       </c>
       <c r="AL29">
-        <v>0.06222519999999999</v>
+        <v>0.0476162</v>
       </c>
       <c r="AM29">
-        <v>0.187496</v>
-      </c>
-      <c r="AN29">
-        <v>0.395239</v>
+        <v>0.009478139999999999</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO29">
-        <v>875.8480000000001</v>
+        <v>875.6690000000001</v>
       </c>
       <c r="AP29">
-        <v>837.6089999999999</v>
+        <v>839.948</v>
       </c>
       <c r="AQ29">
-        <v>890.383</v>
-      </c>
-      <c r="AR29">
-        <v>752.8920000000001</v>
-      </c>
-      <c r="AS29">
-        <v>808.558</v>
+        <v>895.152</v>
+      </c>
+      <c r="AR29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT29">
-        <v>732.0690000000001</v>
+        <v>731.845</v>
       </c>
       <c r="AU29">
-        <v>785.274</v>
+        <v>788.328</v>
       </c>
       <c r="AV29">
-        <v>745.668</v>
-      </c>
-      <c r="AW29">
-        <v>800.7370000000001</v>
-      </c>
-      <c r="AX29">
-        <v>760.956</v>
+        <v>750.9160000000001</v>
+      </c>
+      <c r="AW29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX29" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:50">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
         <v>57</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>74</v>
-      </c>
-      <c r="M30">
-        <v>48.11</v>
-      </c>
-      <c r="N30">
-        <v>14.9865</v>
-      </c>
-      <c r="O30">
-        <v>18.772</v>
-      </c>
-      <c r="P30">
-        <v>30.6487</v>
-      </c>
-      <c r="Q30">
-        <v>48.1086</v>
-      </c>
-      <c r="R30">
-        <v>99.9971</v>
-      </c>
-      <c r="S30">
-        <v>30.6487</v>
-      </c>
-      <c r="T30">
-        <v>28.7561</v>
-      </c>
-      <c r="U30">
-        <v>16.1112</v>
-      </c>
-      <c r="V30">
-        <v>8.9658</v>
-      </c>
-      <c r="W30">
-        <v>7.38005</v>
-      </c>
-      <c r="X30">
-        <v>11.1792</v>
-      </c>
-      <c r="Y30">
-        <v>11.1792</v>
-      </c>
-      <c r="Z30">
-        <v>11.1789</v>
-      </c>
-      <c r="AA30">
-        <v>18.772</v>
-      </c>
-      <c r="AB30">
-        <v>10.3533</v>
-      </c>
-      <c r="AC30">
-        <v>9.06446</v>
-      </c>
-      <c r="AD30">
-        <v>14.9865</v>
-      </c>
-      <c r="AE30">
-        <v>14.9865</v>
-      </c>
-      <c r="AF30">
-        <v>14.9865</v>
-      </c>
-      <c r="AG30">
-        <v>0.830207</v>
-      </c>
-      <c r="AH30">
-        <v>2.1072</v>
-      </c>
-      <c r="AI30">
-        <v>0.26022</v>
-      </c>
-      <c r="AJ30">
-        <v>0.07671219999999999</v>
-      </c>
-      <c r="AK30">
-        <v>0.08526719999999999</v>
-      </c>
-      <c r="AL30">
-        <v>0.07954589999999999</v>
-      </c>
-      <c r="AM30">
-        <v>0.235704</v>
-      </c>
-      <c r="AN30">
-        <v>0.503008</v>
-      </c>
-      <c r="AO30">
-        <v>874.4</v>
-      </c>
-      <c r="AP30">
-        <v>833.986</v>
-      </c>
-      <c r="AQ30">
-        <v>886.168</v>
-      </c>
-      <c r="AR30">
-        <v>746.269</v>
-      </c>
-      <c r="AS30">
-        <v>800.876</v>
-      </c>
-      <c r="AT30">
-        <v>729.5630000000001</v>
-      </c>
-      <c r="AU30">
-        <v>781.9739999999999</v>
-      </c>
-      <c r="AV30">
-        <v>740.277</v>
-      </c>
-      <c r="AW30">
-        <v>794.381</v>
-      </c>
-      <c r="AX30">
-        <v>752.75</v>
+        <v>75</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX30" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:50">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
         <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
-        <v>72</v>
-      </c>
-      <c r="M31">
-        <v>47.6534</v>
+        <v>73</v>
+      </c>
+      <c r="M31" s="4">
+        <v>46.3448</v>
       </c>
       <c r="N31">
-        <v>16.472</v>
-      </c>
-      <c r="O31">
-        <v>19.8302</v>
+        <v>3.5607</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P31">
-        <v>38.19520000000001</v>
+        <v>37.6615</v>
       </c>
       <c r="Q31">
-        <v>47.6534</v>
+        <v>46.3411</v>
       </c>
       <c r="R31">
-        <v>100</v>
+        <v>99.99210000000001</v>
       </c>
       <c r="S31">
-        <v>38.19520000000001</v>
+        <v>37.6615</v>
       </c>
       <c r="T31">
-        <v>35.8487</v>
+        <v>34.0052</v>
       </c>
       <c r="U31">
-        <v>15.304</v>
+        <v>15.1142</v>
       </c>
       <c r="V31">
-        <v>9.099629999999999</v>
+        <v>12.4368</v>
       </c>
       <c r="W31">
-        <v>7.512970000000001</v>
-      </c>
-      <c r="X31">
-        <v>11.2667</v>
-      </c>
-      <c r="Y31">
-        <v>11.2667</v>
+        <v>10.691</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z31">
-        <v>11.2668</v>
+        <v>3.48234</v>
       </c>
       <c r="AA31">
-        <v>19.8302</v>
+        <v>18.3406</v>
       </c>
       <c r="AB31">
-        <v>10.7538</v>
+        <v>16.4971</v>
       </c>
       <c r="AC31">
-        <v>9.942819999999999</v>
-      </c>
-      <c r="AD31">
-        <v>16.472</v>
-      </c>
-      <c r="AE31">
-        <v>16.472</v>
+        <v>13.305</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF31">
-        <v>16.472</v>
+        <v>3.5607</v>
       </c>
       <c r="AG31">
-        <v>0.682959</v>
+        <v>0.686048</v>
       </c>
       <c r="AH31">
-        <v>1.29332</v>
+        <v>0.221968</v>
       </c>
       <c r="AI31">
-        <v>0.0594132</v>
+        <v>0.0592265</v>
       </c>
       <c r="AJ31">
-        <v>0.0550095</v>
+        <v>0.0539222</v>
       </c>
       <c r="AK31">
-        <v>0.0589437</v>
+        <v>0.0577945</v>
       </c>
       <c r="AL31">
-        <v>0.0586979</v>
+        <v>0.0445984</v>
       </c>
       <c r="AM31">
-        <v>0.183131</v>
-      </c>
-      <c r="AN31">
-        <v>0.355904</v>
+        <v>0.00643959</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO31">
-        <v>877.21</v>
+        <v>877.052</v>
       </c>
       <c r="AP31">
-        <v>838.7470000000001</v>
+        <v>840.946</v>
       </c>
       <c r="AQ31">
-        <v>891.673</v>
-      </c>
-      <c r="AR31">
-        <v>753.8200000000001</v>
-      </c>
-      <c r="AS31">
-        <v>809.755</v>
+        <v>896.471</v>
+      </c>
+      <c r="AR31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS31" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT31">
-        <v>732.408</v>
+        <v>732.215</v>
       </c>
       <c r="AU31">
-        <v>786.228</v>
+        <v>789.101</v>
       </c>
       <c r="AV31">
-        <v>746.417</v>
-      </c>
-      <c r="AW31">
-        <v>801.4739999999999</v>
-      </c>
-      <c r="AX31">
-        <v>761.745</v>
+        <v>751.375</v>
+      </c>
+      <c r="AW31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX31" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:50">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
         <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M32">
-        <v>48.1174</v>
+        <v>47.1167</v>
       </c>
       <c r="N32">
-        <v>12.847</v>
-      </c>
-      <c r="O32">
-        <v>16.7372</v>
+        <v>2.82724</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P32">
-        <v>29.8823</v>
+        <v>29.1948</v>
       </c>
       <c r="Q32">
-        <v>48.1184</v>
+        <v>47.1149</v>
       </c>
       <c r="R32">
-        <v>100.002</v>
+        <v>99.9962</v>
       </c>
       <c r="S32">
-        <v>29.8823</v>
+        <v>29.1948</v>
       </c>
       <c r="T32">
-        <v>28.0019</v>
+        <v>26.3043</v>
       </c>
       <c r="U32">
-        <v>14.264</v>
+        <v>14.0065</v>
       </c>
       <c r="V32">
-        <v>7.519830000000001</v>
+        <v>10.3069</v>
       </c>
       <c r="W32">
-        <v>6.251980000000001</v>
-      </c>
-      <c r="X32">
-        <v>9.57695</v>
-      </c>
-      <c r="Y32">
-        <v>9.57695</v>
+        <v>8.69431</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z32">
-        <v>9.578239999999999</v>
+        <v>2.81022</v>
       </c>
       <c r="AA32">
-        <v>16.7372</v>
+        <v>15.633</v>
       </c>
       <c r="AB32">
-        <v>8.64771</v>
+        <v>13.0524</v>
       </c>
       <c r="AC32">
-        <v>7.764690000000001</v>
-      </c>
-      <c r="AD32">
-        <v>12.847</v>
-      </c>
-      <c r="AE32">
-        <v>12.847</v>
+        <v>10.3081</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF32">
-        <v>12.847</v>
+        <v>2.82724</v>
       </c>
       <c r="AG32">
-        <v>0.833607</v>
+        <v>0.836731</v>
       </c>
       <c r="AH32">
-        <v>1.76191</v>
+        <v>0.350865</v>
       </c>
       <c r="AI32">
-        <v>0.14129</v>
+        <v>0.141039</v>
       </c>
       <c r="AJ32">
-        <v>0.07142040000000001</v>
+        <v>0.0705533</v>
       </c>
       <c r="AK32">
-        <v>0.0763662</v>
+        <v>0.073488</v>
       </c>
       <c r="AL32">
-        <v>0.0748432</v>
+        <v>0.0564239</v>
       </c>
       <c r="AM32">
-        <v>0.230396</v>
-      </c>
-      <c r="AN32">
-        <v>0.453183</v>
+        <v>0.00939649</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO32">
-        <v>875.018</v>
+        <v>874.885</v>
       </c>
       <c r="AP32">
-        <v>833.9929999999999</v>
+        <v>835.797</v>
       </c>
       <c r="AQ32">
-        <v>886.172</v>
-      </c>
-      <c r="AR32">
-        <v>745.5100000000001</v>
-      </c>
-      <c r="AS32">
-        <v>800.013</v>
+        <v>889.7370000000001</v>
+      </c>
+      <c r="AR32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS32" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT32">
-        <v>729.3430000000001</v>
+        <v>729.194</v>
       </c>
       <c r="AU32">
-        <v>782.0020000000001</v>
+        <v>784.1799999999999</v>
       </c>
       <c r="AV32">
-        <v>739.711</v>
-      </c>
-      <c r="AW32">
-        <v>793.627</v>
-      </c>
-      <c r="AX32">
-        <v>751.6129999999999</v>
+        <v>743.4979999999999</v>
+      </c>
+      <c r="AW32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX32" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:50">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
-        <v>72</v>
-      </c>
-      <c r="M33">
-        <v>47.8456</v>
+        <v>73</v>
+      </c>
+      <c r="M33" s="4">
+        <v>46.256</v>
       </c>
       <c r="N33">
-        <v>18.5562</v>
-      </c>
-      <c r="O33">
-        <v>21.7554</v>
+        <v>4.28981</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="P33">
-        <v>37.2656</v>
+        <v>36.6201</v>
       </c>
       <c r="Q33">
-        <v>47.8441</v>
+        <v>46.2588</v>
       </c>
       <c r="R33">
-        <v>99.9967</v>
+        <v>100.006</v>
       </c>
       <c r="S33">
-        <v>37.2656</v>
+        <v>36.6201</v>
       </c>
       <c r="T33">
-        <v>35.1117</v>
+        <v>32.8798</v>
       </c>
       <c r="U33">
-        <v>17.3175</v>
+        <v>17.0972</v>
       </c>
       <c r="V33">
-        <v>10.4714</v>
+        <v>14.2435</v>
       </c>
       <c r="W33">
-        <v>8.66422</v>
-      </c>
-      <c r="X33">
-        <v>12.904</v>
-      </c>
-      <c r="Y33">
-        <v>12.904</v>
+        <v>12.2451</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="Z33">
-        <v>12.9013</v>
+        <v>4.22997</v>
       </c>
       <c r="AA33">
-        <v>21.7554</v>
+        <v>20.9521</v>
       </c>
       <c r="AB33">
-        <v>12.499</v>
+        <v>19.21</v>
       </c>
       <c r="AC33">
-        <v>11.2262</v>
-      </c>
-      <c r="AD33">
-        <v>18.5562</v>
-      </c>
-      <c r="AE33">
-        <v>18.5562</v>
+        <v>14.9491</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AF33">
-        <v>18.5562</v>
+        <v>4.28981</v>
       </c>
       <c r="AG33">
-        <v>0.6794</v>
+        <v>0.680855</v>
       </c>
       <c r="AH33">
-        <v>1.55412</v>
+        <v>0.304893</v>
       </c>
       <c r="AI33">
-        <v>0.158193</v>
+        <v>0.130723</v>
       </c>
       <c r="AJ33">
-        <v>0.0581804</v>
+        <v>0.0572644</v>
       </c>
       <c r="AK33">
-        <v>0.06493890000000001</v>
+        <v>0.0613928</v>
       </c>
       <c r="AL33">
-        <v>0.06222519999999999</v>
+        <v>0.0476174</v>
       </c>
       <c r="AM33">
-        <v>0.187496</v>
-      </c>
-      <c r="AN33">
-        <v>0.395239</v>
+        <v>0.00932148</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AO33">
-        <v>875.8480000000001</v>
+        <v>875.671</v>
       </c>
       <c r="AP33">
-        <v>837.6089999999999</v>
+        <v>839.942</v>
       </c>
       <c r="AQ33">
-        <v>890.383</v>
-      </c>
-      <c r="AR33">
-        <v>752.8920000000001</v>
-      </c>
-      <c r="AS33">
-        <v>808.558</v>
+        <v>895.15</v>
+      </c>
+      <c r="AR33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS33" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="AT33">
-        <v>732.0690000000001</v>
+        <v>731.846</v>
       </c>
       <c r="AU33">
-        <v>785.274</v>
+        <v>788.328</v>
       </c>
       <c r="AV33">
-        <v>745.668</v>
-      </c>
-      <c r="AW33">
-        <v>800.7370000000001</v>
-      </c>
-      <c r="AX33">
-        <v>760.956</v>
+        <v>750.918</v>
+      </c>
+      <c r="AW33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX33" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:50">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
         <v>57</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L34" t="s">
-        <v>74</v>
-      </c>
-      <c r="M34">
-        <v>48.11</v>
-      </c>
-      <c r="N34">
-        <v>14.9865</v>
-      </c>
-      <c r="O34">
-        <v>18.772</v>
-      </c>
-      <c r="P34">
-        <v>30.6487</v>
-      </c>
-      <c r="Q34">
-        <v>48.1086</v>
-      </c>
-      <c r="R34">
-        <v>99.9971</v>
-      </c>
-      <c r="S34">
-        <v>30.6487</v>
-      </c>
-      <c r="T34">
-        <v>28.7561</v>
-      </c>
-      <c r="U34">
-        <v>16.1112</v>
-      </c>
-      <c r="V34">
-        <v>8.9658</v>
-      </c>
-      <c r="W34">
-        <v>7.38005</v>
-      </c>
-      <c r="X34">
-        <v>11.1792</v>
-      </c>
-      <c r="Y34">
-        <v>11.1792</v>
-      </c>
-      <c r="Z34">
-        <v>11.1789</v>
-      </c>
-      <c r="AA34">
-        <v>18.772</v>
-      </c>
-      <c r="AB34">
-        <v>10.3533</v>
-      </c>
-      <c r="AC34">
-        <v>9.06446</v>
-      </c>
-      <c r="AD34">
-        <v>14.9865</v>
-      </c>
-      <c r="AE34">
-        <v>14.9865</v>
-      </c>
-      <c r="AF34">
-        <v>14.9865</v>
-      </c>
-      <c r="AG34">
-        <v>0.830207</v>
-      </c>
-      <c r="AH34">
-        <v>2.1072</v>
-      </c>
-      <c r="AI34">
-        <v>0.26022</v>
-      </c>
-      <c r="AJ34">
-        <v>0.07671219999999999</v>
-      </c>
-      <c r="AK34">
-        <v>0.08526719999999999</v>
-      </c>
-      <c r="AL34">
-        <v>0.07954589999999999</v>
-      </c>
-      <c r="AM34">
-        <v>0.235704</v>
-      </c>
-      <c r="AN34">
-        <v>0.503008</v>
-      </c>
-      <c r="AO34">
-        <v>874.4</v>
-      </c>
-      <c r="AP34">
-        <v>833.986</v>
-      </c>
-      <c r="AQ34">
-        <v>886.168</v>
-      </c>
-      <c r="AR34">
-        <v>746.269</v>
-      </c>
-      <c r="AS34">
-        <v>800.876</v>
-      </c>
-      <c r="AT34">
-        <v>729.5630000000001</v>
-      </c>
-      <c r="AU34">
-        <v>781.9739999999999</v>
-      </c>
-      <c r="AV34">
-        <v>740.277</v>
-      </c>
-      <c r="AW34">
-        <v>794.381</v>
-      </c>
-      <c r="AX34">
-        <v>752.75</v>
+        <v>75</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX34" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="1" customFormat="1">
@@ -6092,255 +6112,255 @@
     </row>
     <row r="36" spans="1:50" s="1" customFormat="1">
       <c r="L36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M36" s="1">
-        <v>47.6534</v>
+        <v>124</v>
+      </c>
+      <c r="M36" s="4">
+        <v>46.2493</v>
       </c>
       <c r="N36" s="1">
-        <v>9.27651</v>
-      </c>
-      <c r="O36" s="1">
-        <v>14.3237</v>
+        <v>2.47374</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="P36" s="1">
-        <v>23.9102</v>
+        <v>22.6185</v>
       </c>
       <c r="Q36" s="1">
-        <v>47.6534</v>
+        <v>46.2495</v>
       </c>
       <c r="R36" s="1">
-        <v>99.9967</v>
+        <v>99.99210000000001</v>
       </c>
       <c r="S36" s="1">
-        <v>23.0482</v>
+        <v>22.1644</v>
       </c>
       <c r="T36" s="1">
-        <v>23.9102</v>
+        <v>22.6185</v>
       </c>
       <c r="U36" s="1">
-        <v>14.264</v>
+        <v>13.7512</v>
       </c>
       <c r="V36" s="1">
-        <v>6.985910000000001</v>
+        <v>9.747590000000001</v>
       </c>
       <c r="W36" s="1">
-        <v>5.83343</v>
-      </c>
-      <c r="X36" s="1">
-        <v>9.27679</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>9.27679</v>
+        <v>7.83447</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="Z36" s="1">
-        <v>9.27651</v>
+        <v>2.47374</v>
       </c>
       <c r="AA36" s="1">
-        <v>14.0036</v>
+        <v>13.5268</v>
       </c>
       <c r="AB36" s="1">
-        <v>6.97422</v>
+        <v>9.65626</v>
       </c>
       <c r="AC36" s="1">
-        <v>5.852910000000001</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>9.156180000000001</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>9.156180000000001</v>
+        <v>7.80776</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AF36" s="1">
-        <v>9.156180000000001</v>
+        <v>2.45174</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.677546</v>
+        <v>0.6780929999999999</v>
       </c>
       <c r="AH36" s="1">
-        <v>1.19302</v>
+        <v>0.173628</v>
       </c>
       <c r="AI36" s="1">
-        <v>0.0204486</v>
+        <v>0.0204354</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.0520046</v>
+        <v>0.0500519</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.0562769</v>
+        <v>0.0549744</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.0553613</v>
+        <v>0.0430048</v>
       </c>
       <c r="AM36" s="1">
-        <v>0.177694</v>
-      </c>
-      <c r="AN36" s="1">
-        <v>0.341341</v>
+        <v>0.005376649999999999</v>
+      </c>
+      <c r="AN36" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AO36" s="1">
-        <v>874.4</v>
+        <v>874.885</v>
       </c>
       <c r="AP36" s="1">
-        <v>829.3870000000001</v>
+        <v>830.985</v>
       </c>
       <c r="AQ36" s="1">
-        <v>884.218</v>
-      </c>
-      <c r="AR36" s="1">
-        <v>738.672</v>
-      </c>
-      <c r="AS36" s="1">
-        <v>795.465</v>
+        <v>887.048</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AT36" s="1">
-        <v>724.218</v>
+        <v>724.12</v>
       </c>
       <c r="AU36" s="1">
-        <v>780.2560000000001</v>
+        <v>781.8240000000001</v>
       </c>
       <c r="AV36" s="1">
-        <v>733.327</v>
-      </c>
-      <c r="AW36" s="1">
-        <v>789.535</v>
-      </c>
-      <c r="AX36" s="1">
-        <v>743.5930000000001</v>
+        <v>736.21</v>
+      </c>
+      <c r="AW36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX36" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="1" customFormat="1">
       <c r="L37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M37" s="2">
-        <v>53.299</v>
+        <v>125</v>
+      </c>
+      <c r="M37" s="3">
+        <v>53.5793</v>
       </c>
       <c r="N37" s="1">
-        <v>19.1737</v>
-      </c>
-      <c r="O37" s="1">
-        <v>21.7554</v>
+        <v>5.00841</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="P37" s="1">
-        <v>49.2671</v>
+        <v>48.9959</v>
       </c>
       <c r="Q37" s="1">
-        <v>53.29940000000001</v>
+        <v>53.5791</v>
       </c>
       <c r="R37" s="1">
-        <v>100.002</v>
+        <v>100.006</v>
       </c>
       <c r="S37" s="1">
-        <v>49.2671</v>
+        <v>48.9959</v>
       </c>
       <c r="T37" s="1">
-        <v>49.2146</v>
+        <v>48.27070000000001</v>
       </c>
       <c r="U37" s="1">
-        <v>20.9392</v>
+        <v>20.41</v>
       </c>
       <c r="V37" s="1">
-        <v>13.4036</v>
+        <v>19.2676</v>
       </c>
       <c r="W37" s="1">
-        <v>11.5928</v>
-      </c>
-      <c r="X37" s="1">
-        <v>18.8827</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>18.8827</v>
+        <v>16.4199</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="Z37" s="1">
-        <v>18.883</v>
+        <v>4.90866</v>
       </c>
       <c r="AA37" s="1">
-        <v>21.7554</v>
+        <v>20.9521</v>
       </c>
       <c r="AB37" s="1">
-        <v>13.5067</v>
+        <v>19.5538</v>
       </c>
       <c r="AC37" s="1">
-        <v>11.9534</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>19.1737</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>19.1737</v>
+        <v>16.7353</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AF37" s="1">
-        <v>19.1737</v>
+        <v>5.00841</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.835347</v>
+        <v>0.839592</v>
       </c>
       <c r="AH37" s="1">
-        <v>2.50951</v>
+        <v>0.6385149999999999</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.425881</v>
+        <v>0.375298</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.0919864</v>
+        <v>0.0915783</v>
       </c>
       <c r="AK37" s="1">
-        <v>0.103118</v>
+        <v>0.0892085</v>
       </c>
       <c r="AL37" s="1">
-        <v>0.0893133</v>
+        <v>0.06765310000000001</v>
       </c>
       <c r="AM37" s="1">
-        <v>0.248396</v>
-      </c>
-      <c r="AN37" s="1">
-        <v>0.591548</v>
+        <v>0.0183981</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AO37" s="1">
-        <v>883.197</v>
+        <v>882.893</v>
       </c>
       <c r="AP37" s="1">
-        <v>844.159</v>
+        <v>847.302</v>
       </c>
       <c r="AQ37" s="1">
-        <v>903.384</v>
-      </c>
-      <c r="AR37" s="1">
-        <v>764.889</v>
-      </c>
-      <c r="AS37" s="1">
-        <v>826.136</v>
+        <v>910.005</v>
+      </c>
+      <c r="AR37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS37" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AT37" s="1">
-        <v>732.91</v>
+        <v>732.6800000000001</v>
       </c>
       <c r="AU37" s="1">
-        <v>794.194</v>
+        <v>797.212</v>
       </c>
       <c r="AV37" s="1">
-        <v>753.182</v>
-      </c>
-      <c r="AW37" s="1">
-        <v>814.8399999999999</v>
-      </c>
-      <c r="AX37" s="1">
-        <v>774.426</v>
+        <v>759.9639999999999</v>
+      </c>
+      <c r="AW37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX37" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="1" customFormat="1">
       <c r="L38" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="1" customFormat="1">
       <c r="L39" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="1" customFormat="1">
       <c r="L40" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M40" s="1">
         <v>53</v>
@@ -6357,7 +6377,7 @@
     </row>
     <row r="41" spans="1:50" s="1" customFormat="1">
       <c r="L41" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M41" s="1">
         <v>47</v>
@@ -6365,359 +6385,359 @@
     </row>
     <row r="42" spans="1:50" s="1" customFormat="1">
       <c r="L42" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>50.37532424242424</v>
+        <v>49.77203750000001</v>
       </c>
       <c r="N42" s="1">
-        <v>14.61815515151515</v>
-      </c>
-      <c r="O42" s="1">
-        <v>18.16907272727273</v>
+        <v>3.6041075</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="P42" s="1">
-        <v>34.10822424242424</v>
+        <v>34.13144166666666</v>
       </c>
       <c r="Q42" s="1">
-        <v>50.37507575757576</v>
+        <v>49.77186666666667</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99947878787881</v>
+        <v>99.99958333333332</v>
       </c>
       <c r="S42" s="1">
-        <v>33.21287575757575</v>
+        <v>33.30388333333332</v>
       </c>
       <c r="T42" s="1">
-        <v>33.58753333333333</v>
+        <v>33.07597916666667</v>
       </c>
       <c r="U42" s="1">
-        <v>17.2252303030303</v>
+        <v>16.81210833333333</v>
       </c>
       <c r="V42" s="1">
-        <v>9.732751212121217</v>
+        <v>14.2074</v>
       </c>
       <c r="W42" s="1">
-        <v>8.357980909090911</v>
-      </c>
-      <c r="X42" s="1">
-        <v>13.47790848484849</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>13.47790848484849</v>
+        <v>11.75002375</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="Z42" s="1">
-        <v>13.47756363636364</v>
+        <v>3.552300416666666</v>
       </c>
       <c r="AA42" s="1">
-        <v>17.31653333333334</v>
+        <v>16.79877083333333</v>
       </c>
       <c r="AB42" s="1">
-        <v>9.781866363636366</v>
+        <v>14.2445</v>
       </c>
       <c r="AC42" s="1">
-        <v>8.479427272727275</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>13.43133333333333</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>13.43133333333333</v>
+        <v>11.80105583333333</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AF42" s="1">
-        <v>13.43133333333333</v>
+        <v>3.599972916666667</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7564667878787881</v>
+        <v>0.7467557500000001</v>
       </c>
       <c r="AH42" s="1">
-        <v>1.689802121212121</v>
+        <v>0.3285177916666667</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1531353878787878</v>
+        <v>0.1368451166666667</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.0666402515151515</v>
+        <v>0.06435007083333334</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.07255736666666665</v>
+        <v>0.0670395125</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.0692025121212121</v>
+        <v>0.05163328333333333</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.2098089696969697</v>
-      </c>
-      <c r="AN42" s="1">
-        <v>0.4304121515151516</v>
+        <v>0.009502140416666666</v>
+      </c>
+      <c r="AN42" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AO42" s="1">
-        <v>878.3765454545457</v>
+        <v>878.4947083333332</v>
       </c>
       <c r="AP42" s="1">
-        <v>835.0050303030304</v>
+        <v>837.9183750000001</v>
       </c>
       <c r="AQ42" s="1">
-        <v>891.2812727272728</v>
-      </c>
-      <c r="AR42" s="1">
-        <v>748.8379696969696</v>
-      </c>
-      <c r="AS42" s="1">
-        <v>807.2106060606062</v>
+        <v>896.532</v>
+      </c>
+      <c r="AR42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS42" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AT42" s="1">
-        <v>728.1429090909091</v>
+        <v>728.2532083333334</v>
       </c>
       <c r="AU42" s="1">
-        <v>785.3893636363634</v>
+        <v>788.2915000000002</v>
       </c>
       <c r="AV42" s="1">
-        <v>741.0063333333336</v>
-      </c>
-      <c r="AW42" s="1">
-        <v>799.2125757575759</v>
-      </c>
-      <c r="AX42" s="1">
-        <v>755.5534242424242</v>
+        <v>746.3353750000001</v>
+      </c>
+      <c r="AW42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX42" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="1" customFormat="1">
       <c r="L43" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>1.750401938608682</v>
+        <v>2.368719335916299</v>
       </c>
       <c r="N43" s="1">
-        <v>2.886082557649804</v>
-      </c>
-      <c r="O43" s="1">
-        <v>2.156062530053019</v>
+        <v>0.7138848011773911</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="P43" s="1">
-        <v>6.786502166936701</v>
+        <v>7.818646031012269</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.750549333526271</v>
+        <v>2.368988355759104</v>
       </c>
       <c r="R43" s="1">
-        <v>0.001681946487051344</v>
+        <v>0.002854333936703695</v>
       </c>
       <c r="S43" s="1">
-        <v>7.069482455620171</v>
+        <v>7.989488613884427</v>
       </c>
       <c r="T43" s="1">
-        <v>6.793390626977596</v>
+        <v>7.586131157303833</v>
       </c>
       <c r="U43" s="1">
-        <v>2.033171512460699</v>
+        <v>2.13573342611632</v>
       </c>
       <c r="V43" s="1">
-        <v>1.714395600345317</v>
+        <v>3.033113657573407</v>
       </c>
       <c r="W43" s="1">
-        <v>1.617017124090591</v>
-      </c>
-      <c r="X43" s="1">
-        <v>2.957060704364674</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>2.957060704364674</v>
+        <v>2.576336033149941</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="Z43" s="1">
-        <v>2.957059930843286</v>
+        <v>0.6914720132169678</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.335604907392161</v>
+        <v>2.381165913384864</v>
       </c>
       <c r="AB43" s="1">
-        <v>1.767004488051131</v>
+        <v>3.151423594287721</v>
       </c>
       <c r="AC43" s="1">
-        <v>1.707949711505569</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>2.978240102898545</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>2.978240102898545</v>
+        <v>2.646872764989087</v>
+      </c>
+      <c r="AD43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AF43" s="1">
-        <v>2.978240102898545</v>
+        <v>0.7179957602502444</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07432415688368187</v>
+        <v>0.07478311898151994</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.3430268910366771</v>
+        <v>0.1291668941244166</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.1020529898457355</v>
+        <v>0.09931848363932426</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.011041692441039</v>
+        <v>0.01234675828191619</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.0124292569556712</v>
+        <v>0.0102163474623726</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.00962970003934348</v>
+        <v>0.007362652844687768</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.02443985837692049</v>
-      </c>
-      <c r="AN43" s="1">
-        <v>0.06639835642869171</v>
+        <v>0.003520140743359891</v>
+      </c>
+      <c r="AN43" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.748724796248193</v>
+        <v>2.921766339037138</v>
       </c>
       <c r="AP43" s="1">
-        <v>4.043698258419164</v>
+        <v>4.899818523956594</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.306508817924526</v>
-      </c>
-      <c r="AR43" s="1">
-        <v>7.069269352691259</v>
-      </c>
-      <c r="AS43" s="1">
-        <v>8.244008365820639</v>
+        <v>6.993434587763963</v>
+      </c>
+      <c r="AR43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS43" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.974387977419954</v>
+        <v>3.168048610464167</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.776829452894768</v>
+        <v>4.604023521153347</v>
       </c>
       <c r="AV43" s="1">
-        <v>5.579844858637625</v>
-      </c>
-      <c r="AW43" s="1">
-        <v>6.793563932938848</v>
-      </c>
-      <c r="AX43" s="1">
-        <v>8.324742354845821</v>
+        <v>7.32124660271105</v>
+      </c>
+      <c r="AW43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX43" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:50" s="1" customFormat="1">
       <c r="L44" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>3.474720937149935</v>
+        <v>4.759136766133592</v>
       </c>
       <c r="N44" s="1">
-        <v>19.74313808914982</v>
-      </c>
-      <c r="O44" s="1">
-        <v>11.86666244566601</v>
+        <v>19.80753352050101</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="P44" s="1">
-        <v>19.89696713233041</v>
+        <v>22.90745907357347</v>
       </c>
       <c r="Q44" s="1">
-        <v>3.475030671815936</v>
+        <v>4.759693606881874</v>
       </c>
       <c r="R44" s="1">
-        <v>0.001681955253605999</v>
+        <v>0.002854345829811319</v>
       </c>
       <c r="S44" s="1">
-        <v>21.28536687765631</v>
+        <v>23.98966070688782</v>
       </c>
       <c r="T44" s="1">
-        <v>20.22592894678461</v>
+        <v>22.93546963214014</v>
       </c>
       <c r="U44" s="1">
-        <v>11.80345038465476</v>
+        <v>12.70354308794101</v>
       </c>
       <c r="V44" s="1">
-        <v>17.61470691052084</v>
+        <v>21.34882988846241</v>
       </c>
       <c r="W44" s="1">
-        <v>19.34698274234838</v>
-      </c>
-      <c r="X44" s="1">
-        <v>21.94005626087256</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>21.94005626087256</v>
+        <v>21.92621979295949</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="Z44" s="1">
-        <v>21.94061189861409</v>
+        <v>19.46547116265062</v>
       </c>
       <c r="AA44" s="1">
-        <v>13.48771640624082</v>
+        <v>14.17464371059806</v>
       </c>
       <c r="AB44" s="1">
-        <v>18.06408329825367</v>
+        <v>22.12379230080186</v>
       </c>
       <c r="AC44" s="1">
-        <v>20.14227679030772</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>22.17382317142908</v>
-      </c>
-      <c r="AE44" s="1">
-        <v>22.17382317142908</v>
+        <v>22.42911822781749</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AF44" s="1">
-        <v>22.17382317142908</v>
+        <v>19.94447671887099</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.825171187236728</v>
+        <v>10.01440149359679</v>
       </c>
       <c r="AH44" s="1">
-        <v>20.29982604061466</v>
+        <v>39.31808182111394</v>
       </c>
       <c r="AI44" s="1">
-        <v>66.64232954861751</v>
+        <v>72.57729472455242</v>
       </c>
       <c r="AJ44" s="1">
-        <v>16.56910379236568</v>
+        <v>19.18686043702157</v>
       </c>
       <c r="AK44" s="1">
-        <v>17.13024814251051</v>
+        <v>15.23929259236872</v>
       </c>
       <c r="AL44" s="1">
-        <v>13.91524634608136</v>
+        <v>14.25950931137978</v>
       </c>
       <c r="AM44" s="1">
-        <v>11.64862418047205</v>
-      </c>
-      <c r="AN44" s="1">
-        <v>15.42669188008608</v>
+        <v>37.04576641685485</v>
+      </c>
+      <c r="AN44" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.3129323990346045</v>
+        <v>0.3325878131446311</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.4842723231202179</v>
+        <v>0.5847608394978322</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.5953798178308958</v>
-      </c>
-      <c r="AR44" s="1">
-        <v>0.9440319052667646</v>
-      </c>
-      <c r="AS44" s="1">
-        <v>1.021295843231484</v>
+        <v>0.780054095979169</v>
+      </c>
+      <c r="AR44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS44" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.4084895891018832</v>
+        <v>0.4350202064628734</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4808862492621489</v>
+        <v>0.5840508899503986</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.7530090645159968</v>
-      </c>
-      <c r="AW44" s="1">
-        <v>0.850032161530893</v>
-      </c>
-      <c r="AX44" s="1">
-        <v>1.101807243239331</v>
+        <v>0.9809593445454799</v>
+      </c>
+      <c r="AW44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX44" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:50" s="1" customFormat="1"/>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="133">
   <si>
     <t>Process</t>
   </si>
@@ -202,193 +202,193 @@
     <t>0.750</t>
   </si>
   <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>tsmc2p (1)</t>
+  </si>
+  <si>
+    <t>mos_ff</t>
+  </si>
+  <si>
+    <t>moslvt_ff</t>
+  </si>
+  <si>
+    <t>mosulvt_ff</t>
+  </si>
+  <si>
+    <t>moselvt_ff</t>
+  </si>
+  <si>
+    <t>res_l</t>
+  </si>
+  <si>
+    <t>cap_l</t>
+  </si>
+  <si>
+    <t>beol_rcbest</t>
+  </si>
+  <si>
+    <t>rcbest_ccbest</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>tsmc2p (2)</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>tsmc2p (3)</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>tsmc2p (4)</t>
+  </si>
+  <si>
+    <t>tsmc2p (5)</t>
+  </si>
+  <si>
+    <t>res_h</t>
+  </si>
+  <si>
+    <t>cap_h</t>
+  </si>
+  <si>
+    <t>beol_rcworst</t>
+  </si>
+  <si>
+    <t>rcworst_ccworst</t>
+  </si>
+  <si>
+    <t>tsmc2p (6)</t>
+  </si>
+  <si>
+    <t>tsmc2p (7)</t>
+  </si>
+  <si>
+    <t>tsmc2p (8)</t>
+  </si>
+  <si>
+    <t>tsmc2p (9)</t>
+  </si>
+  <si>
+    <t>mos_ss</t>
+  </si>
+  <si>
+    <t>moslvt_ss</t>
+  </si>
+  <si>
+    <t>mosulvt_ss</t>
+  </si>
+  <si>
+    <t>moselvt_ss</t>
+  </si>
+  <si>
+    <t>tsmc2p (10)</t>
+  </si>
+  <si>
+    <t>tsmc2p (11)</t>
+  </si>
+  <si>
+    <t>tsmc2p (12)</t>
+  </si>
+  <si>
+    <t>tsmc2p (13)</t>
+  </si>
+  <si>
+    <t>tsmc2p (14)</t>
+  </si>
+  <si>
+    <t>tsmc2p (15)</t>
+  </si>
+  <si>
+    <t>tsmc2p (16)</t>
+  </si>
+  <si>
+    <t>tsmc2p (17)</t>
+  </si>
+  <si>
+    <t>mos_fs</t>
+  </si>
+  <si>
+    <t>moslvt_fs</t>
+  </si>
+  <si>
+    <t>mosulvt_fs</t>
+  </si>
+  <si>
+    <t>moselvt_fs</t>
+  </si>
+  <si>
+    <t>tsmc2p (18)</t>
+  </si>
+  <si>
+    <t>tsmc2p (19)</t>
+  </si>
+  <si>
+    <t>tsmc2p (20)</t>
+  </si>
+  <si>
+    <t>tsmc2p (21)</t>
+  </si>
+  <si>
+    <t>tsmc2p (22)</t>
+  </si>
+  <si>
+    <t>tsmc2p (23)</t>
+  </si>
+  <si>
+    <t>tsmc2p (24)</t>
+  </si>
+  <si>
+    <t>tsmc2p (25)</t>
+  </si>
+  <si>
+    <t>mos_sf</t>
+  </si>
+  <si>
+    <t>moslvt_sf</t>
+  </si>
+  <si>
+    <t>mosulvt_sf</t>
+  </si>
+  <si>
+    <t>moselvt_sf</t>
+  </si>
+  <si>
+    <t>tsmc2p (26)</t>
+  </si>
+  <si>
+    <t>tsmc2p (27)</t>
+  </si>
+  <si>
+    <t>tsmc2p (28)</t>
+  </si>
+  <si>
+    <t>tsmc2p (29)</t>
+  </si>
+  <si>
+    <t>tsmc2p (30)</t>
+  </si>
+  <si>
+    <t>tsmc2p (31)</t>
+  </si>
+  <si>
+    <t>tsmc2p (32)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>tsmc2p (1)</t>
-  </si>
-  <si>
-    <t>mos_ff</t>
-  </si>
-  <si>
-    <t>moslvt_ff</t>
-  </si>
-  <si>
-    <t>mosulvt_ff</t>
-  </si>
-  <si>
-    <t>moselvt_ff</t>
-  </si>
-  <si>
-    <t>res_l</t>
-  </si>
-  <si>
-    <t>cap_l</t>
-  </si>
-  <si>
-    <t>beol_rcbest</t>
-  </si>
-  <si>
-    <t>rcbest_ccbest</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>tsmc2p (2)</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>tsmc2p (3)</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>tsmc2p (4)</t>
-  </si>
-  <si>
-    <t>tsmc2p (5)</t>
-  </si>
-  <si>
-    <t>res_h</t>
-  </si>
-  <si>
-    <t>cap_h</t>
-  </si>
-  <si>
-    <t>beol_rcworst</t>
-  </si>
-  <si>
-    <t>rcworst_ccworst</t>
-  </si>
-  <si>
-    <t>tsmc2p (6)</t>
-  </si>
-  <si>
-    <t>tsmc2p (7)</t>
-  </si>
-  <si>
-    <t>tsmc2p (8)</t>
-  </si>
-  <si>
-    <t>tsmc2p (9)</t>
-  </si>
-  <si>
-    <t>mos_ss</t>
-  </si>
-  <si>
-    <t>moslvt_ss</t>
-  </si>
-  <si>
-    <t>mosulvt_ss</t>
-  </si>
-  <si>
-    <t>moselvt_ss</t>
-  </si>
-  <si>
-    <t>tsmc2p (10)</t>
-  </si>
-  <si>
-    <t>tsmc2p (11)</t>
-  </si>
-  <si>
-    <t>tsmc2p (12)</t>
-  </si>
-  <si>
-    <t>tsmc2p (13)</t>
-  </si>
-  <si>
-    <t>tsmc2p (14)</t>
-  </si>
-  <si>
-    <t>tsmc2p (15)</t>
-  </si>
-  <si>
-    <t>tsmc2p (16)</t>
-  </si>
-  <si>
-    <t>tsmc2p (17)</t>
-  </si>
-  <si>
-    <t>mos_fs</t>
-  </si>
-  <si>
-    <t>moslvt_fs</t>
-  </si>
-  <si>
-    <t>mosulvt_fs</t>
-  </si>
-  <si>
-    <t>moselvt_fs</t>
-  </si>
-  <si>
-    <t>tsmc2p (18)</t>
-  </si>
-  <si>
-    <t>tsmc2p (19)</t>
-  </si>
-  <si>
-    <t>tsmc2p (20)</t>
-  </si>
-  <si>
-    <t>tsmc2p (21)</t>
-  </si>
-  <si>
-    <t>tsmc2p (22)</t>
-  </si>
-  <si>
-    <t>tsmc2p (23)</t>
-  </si>
-  <si>
-    <t>tsmc2p (24)</t>
-  </si>
-  <si>
-    <t>tsmc2p (25)</t>
-  </si>
-  <si>
-    <t>mos_sf</t>
-  </si>
-  <si>
-    <t>moslvt_sf</t>
-  </si>
-  <si>
-    <t>mosulvt_sf</t>
-  </si>
-  <si>
-    <t>moselvt_sf</t>
-  </si>
-  <si>
-    <t>tsmc2p (26)</t>
-  </si>
-  <si>
-    <t>tsmc2p (27)</t>
-  </si>
-  <si>
-    <t>tsmc2p (28)</t>
-  </si>
-  <si>
-    <t>tsmc2p (29)</t>
-  </si>
-  <si>
-    <t>tsmc2p (30)</t>
-  </si>
-  <si>
-    <t>tsmc2p (31)</t>
-  </si>
-  <si>
-    <t>tsmc2p (32)</t>
-  </si>
-  <si>
-    <t>Min</t>
   </si>
   <si>
     <t>Max</t>
@@ -979,38 +979,38 @@
       <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>62</v>
+      <c r="M2">
+        <v>49.9192</v>
+      </c>
+      <c r="N2">
+        <v>8.60561</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>62</v>
+      <c r="P2">
+        <v>31.02820000000001</v>
+      </c>
+      <c r="Q2">
+        <v>49.9194</v>
+      </c>
+      <c r="R2">
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <v>31.02820000000001</v>
+      </c>
+      <c r="T2">
+        <v>30.9522</v>
+      </c>
+      <c r="U2">
+        <v>16.4088</v>
+      </c>
+      <c r="V2">
+        <v>9.18032</v>
+      </c>
+      <c r="W2">
+        <v>8.84943</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>62</v>
@@ -1018,17 +1018,17 @@
       <c r="Y2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>62</v>
+      <c r="Z2">
+        <v>8.60561</v>
+      </c>
+      <c r="AA2">
+        <v>16.1441</v>
+      </c>
+      <c r="AB2">
+        <v>8.70234</v>
+      </c>
+      <c r="AC2">
+        <v>8.444540000000002</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>62</v>
@@ -1036,41 +1036,41 @@
       <c r="AE2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>62</v>
+      <c r="AF2">
+        <v>8.53345</v>
+      </c>
+      <c r="AG2">
+        <v>0.75827</v>
+      </c>
+      <c r="AH2">
+        <v>0.354164</v>
+      </c>
+      <c r="AI2">
+        <v>0.10753</v>
+      </c>
+      <c r="AJ2">
+        <v>0.06464819999999999</v>
+      </c>
+      <c r="AK2">
+        <v>0.06976599999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.07461959999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.0375716</v>
+      </c>
+      <c r="AN2">
+        <v>0.247211</v>
+      </c>
+      <c r="AO2">
+        <v>878.1780000000001</v>
+      </c>
+      <c r="AP2">
+        <v>834.4299999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>890.6030000000001</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>62</v>
@@ -1078,14 +1078,14 @@
       <c r="AS2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>62</v>
+      <c r="AT2">
+        <v>727.788</v>
+      </c>
+      <c r="AU2">
+        <v>784.4530000000001</v>
+      </c>
+      <c r="AV2">
+        <v>740.356</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>62</v>
@@ -1131,38 +1131,38 @@
       <c r="L3" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>62</v>
+      <c r="M3">
+        <v>50.4321</v>
+      </c>
+      <c r="N3">
+        <v>7.45886</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>62</v>
+      <c r="P3">
+        <v>27.4176</v>
+      </c>
+      <c r="Q3">
+        <v>50.4325</v>
+      </c>
+      <c r="R3">
+        <v>100.001</v>
+      </c>
+      <c r="S3">
+        <v>26.9854</v>
+      </c>
+      <c r="T3">
+        <v>27.4176</v>
+      </c>
+      <c r="U3">
+        <v>15.3938</v>
+      </c>
+      <c r="V3">
+        <v>8.11774</v>
+      </c>
+      <c r="W3">
+        <v>7.64996</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>62</v>
@@ -1170,17 +1170,17 @@
       <c r="Y3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>62</v>
+      <c r="Z3">
+        <v>7.45886</v>
+      </c>
+      <c r="AA3">
+        <v>14.9381</v>
+      </c>
+      <c r="AB3">
+        <v>7.69363</v>
+      </c>
+      <c r="AC3">
+        <v>7.20539</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>62</v>
@@ -1188,41 +1188,41 @@
       <c r="AE3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>62</v>
+      <c r="AF3">
+        <v>7.31745</v>
+      </c>
+      <c r="AG3">
+        <v>0.682414</v>
+      </c>
+      <c r="AH3">
+        <v>0.359761</v>
+      </c>
+      <c r="AI3">
+        <v>0.129436</v>
+      </c>
+      <c r="AJ3">
+        <v>0.06121429999999999</v>
+      </c>
+      <c r="AK3">
+        <v>0.06601599999999999</v>
+      </c>
+      <c r="AL3">
+        <v>0.06885480000000001</v>
+      </c>
+      <c r="AM3">
+        <v>0.0342527</v>
+      </c>
+      <c r="AN3">
+        <v>0.23078</v>
+      </c>
+      <c r="AO3">
+        <v>877.2910000000001</v>
+      </c>
+      <c r="AP3">
+        <v>832.151</v>
+      </c>
+      <c r="AQ3">
+        <v>887.9730000000001</v>
       </c>
       <c r="AR3" s="2" t="s">
         <v>62</v>
@@ -1230,14 +1230,14 @@
       <c r="AS3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AT3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>62</v>
+      <c r="AT3">
+        <v>726.2629999999999</v>
+      </c>
+      <c r="AU3">
+        <v>782.64</v>
+      </c>
+      <c r="AV3">
+        <v>737.13</v>
       </c>
       <c r="AW3" s="2" t="s">
         <v>62</v>
@@ -1284,123 +1284,123 @@
         <v>75</v>
       </c>
       <c r="M4">
-        <v>50.4463</v>
+        <v>50.4156</v>
       </c>
       <c r="N4">
-        <v>2.50497</v>
+        <v>6.31104</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P4">
-        <v>22.6964</v>
+        <v>22.8907</v>
       </c>
       <c r="Q4">
-        <v>50.4478</v>
+        <v>50.4104</v>
       </c>
       <c r="R4">
-        <v>100.003</v>
+        <v>99.9897</v>
       </c>
       <c r="S4">
-        <v>22.2512</v>
+        <v>22.4877</v>
       </c>
       <c r="T4">
-        <v>22.6964</v>
+        <v>22.8907</v>
       </c>
       <c r="U4">
-        <v>13.7512</v>
+        <v>14.5031</v>
       </c>
       <c r="V4">
-        <v>9.747590000000001</v>
+        <v>7.17849</v>
       </c>
       <c r="W4">
-        <v>7.83575</v>
+        <v>6.50122</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z4">
-        <v>2.47549</v>
+        <v>6.31104</v>
       </c>
       <c r="AA4">
-        <v>13.5284</v>
+        <v>14.1908</v>
       </c>
       <c r="AB4">
-        <v>9.65626</v>
+        <v>6.851059999999999</v>
       </c>
       <c r="AC4">
-        <v>7.80942</v>
+        <v>6.16668</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF4">
-        <v>2.50497</v>
+        <v>6.23939</v>
       </c>
       <c r="AG4">
-        <v>0.834385</v>
+        <v>0.833026</v>
       </c>
       <c r="AH4">
-        <v>0.47612</v>
+        <v>0.5433439999999999</v>
       </c>
       <c r="AI4">
-        <v>0.240576</v>
+        <v>0.240594</v>
       </c>
       <c r="AJ4">
-        <v>0.0821978</v>
+        <v>0.0834772</v>
       </c>
       <c r="AK4">
-        <v>0.0802297</v>
+        <v>0.08896140000000001</v>
       </c>
       <c r="AL4">
-        <v>0.060586</v>
+        <v>0.0876034</v>
       </c>
       <c r="AM4">
-        <v>0.0126484</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>62</v>
+        <v>0.0428352</v>
+      </c>
+      <c r="AN4">
+        <v>0.303434</v>
       </c>
       <c r="AO4">
-        <v>875.4400000000001</v>
+        <v>875.6070000000001</v>
       </c>
       <c r="AP4">
-        <v>830.985</v>
+        <v>829.59</v>
       </c>
       <c r="AQ4">
-        <v>887.05</v>
+        <v>884.379</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT4">
-        <v>724.5649999999999</v>
+        <v>724.739</v>
       </c>
       <c r="AU4">
-        <v>781.8240000000001</v>
+        <v>780.0319999999999</v>
       </c>
       <c r="AV4">
-        <v>736.2170000000001</v>
+        <v>733.675</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX4" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -1430,129 +1430,129 @@
         <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
         <v>73</v>
       </c>
       <c r="M5">
-        <v>50.0217</v>
+        <v>50.0197</v>
       </c>
       <c r="N5">
-        <v>3.75582</v>
+        <v>8.555290000000001</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P5">
-        <v>27.2577</v>
+        <v>27.461</v>
       </c>
       <c r="Q5">
-        <v>50.02200000000001</v>
+        <v>50.0182</v>
       </c>
       <c r="R5">
-        <v>100.001</v>
+        <v>99.9971</v>
       </c>
       <c r="S5">
-        <v>27.2359</v>
+        <v>27.4421</v>
       </c>
       <c r="T5">
-        <v>27.2577</v>
+        <v>27.461</v>
       </c>
       <c r="U5">
-        <v>16.7092</v>
+        <v>17.5814</v>
       </c>
       <c r="V5">
-        <v>13.1958</v>
+        <v>9.780419999999999</v>
       </c>
       <c r="W5">
-        <v>10.8068</v>
+        <v>8.858379999999999</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z5">
-        <v>3.66414</v>
+        <v>8.46542</v>
       </c>
       <c r="AA5">
-        <v>16.5047</v>
+        <v>17.3344</v>
       </c>
       <c r="AB5">
-        <v>13.4192</v>
+        <v>9.409509999999999</v>
       </c>
       <c r="AC5">
-        <v>10.8872</v>
+        <v>8.579499999999999</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF5">
-        <v>3.75582</v>
+        <v>8.555290000000001</v>
       </c>
       <c r="AG5">
-        <v>0.678103</v>
+        <v>0.677951</v>
       </c>
       <c r="AH5">
-        <v>0.446393</v>
+        <v>0.503061</v>
       </c>
       <c r="AI5">
-        <v>0.246958</v>
+        <v>0.248422</v>
       </c>
       <c r="AJ5">
-        <v>0.06758510000000001</v>
+        <v>0.0684544</v>
       </c>
       <c r="AK5">
-        <v>0.06888230000000001</v>
+        <v>0.07882500000000001</v>
       </c>
       <c r="AL5">
-        <v>0.053038</v>
+        <v>0.0755755</v>
       </c>
       <c r="AM5">
-        <v>0.0132991</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>62</v>
+        <v>0.0366148</v>
+      </c>
+      <c r="AN5">
+        <v>0.31122</v>
       </c>
       <c r="AO5">
-        <v>876.3680000000001</v>
+        <v>876.547</v>
       </c>
       <c r="AP5">
-        <v>833.932</v>
+        <v>832.1600000000001</v>
       </c>
       <c r="AQ5">
-        <v>891.115</v>
+        <v>887.655</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT5">
-        <v>726.201</v>
+        <v>726.399</v>
       </c>
       <c r="AU5">
-        <v>784.581</v>
+        <v>782.227</v>
       </c>
       <c r="AV5">
-        <v>740.876</v>
+        <v>737.543</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX5" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:50">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -1582,129 +1582,129 @@
         <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
         <v>75</v>
       </c>
       <c r="M6">
-        <v>50.0385</v>
+        <v>50.0289</v>
       </c>
       <c r="N6">
-        <v>3.35044</v>
+        <v>7.43289</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P6">
-        <v>23.7367</v>
+        <v>23.8813</v>
       </c>
       <c r="Q6">
-        <v>50.03700000000001</v>
+        <v>50.0286</v>
       </c>
       <c r="R6">
-        <v>99.997</v>
+        <v>99.99930000000001</v>
       </c>
       <c r="S6">
-        <v>23.6953</v>
+        <v>23.8542</v>
       </c>
       <c r="T6">
-        <v>23.7367</v>
+        <v>23.8813</v>
       </c>
       <c r="U6">
-        <v>15.8554</v>
+        <v>16.6228</v>
       </c>
       <c r="V6">
-        <v>11.7883</v>
+        <v>8.813690000000001</v>
       </c>
       <c r="W6">
-        <v>9.41535</v>
+        <v>7.721190000000001</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z6">
-        <v>3.28068</v>
+        <v>7.341290000000001</v>
       </c>
       <c r="AA6">
-        <v>15.6852</v>
+        <v>16.4364</v>
       </c>
       <c r="AB6">
-        <v>11.9753</v>
+        <v>8.495190000000001</v>
       </c>
       <c r="AC6">
-        <v>9.481399999999999</v>
+        <v>7.478619999999999</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF6">
-        <v>3.35044</v>
+        <v>7.43289</v>
       </c>
       <c r="AG6">
-        <v>0.828355</v>
+        <v>0.828259</v>
       </c>
       <c r="AH6">
-        <v>0.6385149999999999</v>
+        <v>0.7115039999999999</v>
       </c>
       <c r="AI6">
-        <v>0.375298</v>
+        <v>0.37694</v>
       </c>
       <c r="AJ6">
-        <v>0.0915782</v>
+        <v>0.09254620000000001</v>
       </c>
       <c r="AK6">
-        <v>0.08920379999999999</v>
+        <v>0.105428</v>
       </c>
       <c r="AL6">
-        <v>0.06765310000000001</v>
+        <v>0.0960473</v>
       </c>
       <c r="AM6">
-        <v>0.0183981</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>62</v>
+        <v>0.0457938</v>
+      </c>
+      <c r="AN6">
+        <v>0.398554</v>
       </c>
       <c r="AO6">
-        <v>875.216</v>
+        <v>875.395</v>
       </c>
       <c r="AP6">
-        <v>831.724</v>
+        <v>830.229</v>
       </c>
       <c r="AQ6">
-        <v>887.86</v>
+        <v>884.898</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT6">
-        <v>725.0640000000001</v>
+        <v>725.25</v>
       </c>
       <c r="AU6">
-        <v>782.333</v>
+        <v>780.2800000000001</v>
       </c>
       <c r="AV6">
-        <v>737.6370000000001</v>
+        <v>734.8050000000001</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:50">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -1719,19 +1719,19 @@
         <v>67</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
         <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
         <v>83</v>
-      </c>
-      <c r="J7" t="s">
-        <v>84</v>
       </c>
       <c r="K7" t="s">
         <v>72</v>
@@ -1739,38 +1739,38 @@
       <c r="L7" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>62</v>
+      <c r="M7">
+        <v>50.4445</v>
+      </c>
+      <c r="N7">
+        <v>7.433980000000001</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>62</v>
+      <c r="P7">
+        <v>27.3901</v>
+      </c>
+      <c r="Q7">
+        <v>50.4447</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>26.9475</v>
+      </c>
+      <c r="T7">
+        <v>27.3901</v>
+      </c>
+      <c r="U7">
+        <v>15.3923</v>
+      </c>
+      <c r="V7">
+        <v>8.11815</v>
+      </c>
+      <c r="W7">
+        <v>7.65053</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>62</v>
@@ -1778,17 +1778,17 @@
       <c r="Y7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>62</v>
+      <c r="Z7">
+        <v>7.433980000000001</v>
+      </c>
+      <c r="AA7">
+        <v>14.94</v>
+      </c>
+      <c r="AB7">
+        <v>7.68246</v>
+      </c>
+      <c r="AC7">
+        <v>7.205900000000001</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>62</v>
@@ -1796,41 +1796,41 @@
       <c r="AE7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>62</v>
+      <c r="AF7">
+        <v>7.278529999999999</v>
+      </c>
+      <c r="AG7">
+        <v>0.682438</v>
+      </c>
+      <c r="AH7">
+        <v>0.359543</v>
+      </c>
+      <c r="AI7">
+        <v>0.129436</v>
+      </c>
+      <c r="AJ7">
+        <v>0.0612166</v>
+      </c>
+      <c r="AK7">
+        <v>0.0660182</v>
+      </c>
+      <c r="AL7">
+        <v>0.06885620000000001</v>
+      </c>
+      <c r="AM7">
+        <v>0.0340288</v>
+      </c>
+      <c r="AN7">
+        <v>0.230562</v>
+      </c>
+      <c r="AO7">
+        <v>877.294</v>
+      </c>
+      <c r="AP7">
+        <v>832.151</v>
+      </c>
+      <c r="AQ7">
+        <v>887.9789999999999</v>
       </c>
       <c r="AR7" s="2" t="s">
         <v>62</v>
@@ -1838,14 +1838,14 @@
       <c r="AS7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AT7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>62</v>
+      <c r="AT7">
+        <v>726.264</v>
+      </c>
+      <c r="AU7">
+        <v>782.643</v>
+      </c>
+      <c r="AV7">
+        <v>737.1320000000001</v>
       </c>
       <c r="AW7" s="2" t="s">
         <v>62</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="8" spans="1:50">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -1871,19 +1871,19 @@
         <v>67</v>
       </c>
       <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
         <v>81</v>
-      </c>
-      <c r="G8" t="s">
-        <v>82</v>
       </c>
       <c r="H8" t="s">
         <v>57</v>
       </c>
       <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
         <v>83</v>
-      </c>
-      <c r="J8" t="s">
-        <v>84</v>
       </c>
       <c r="K8" t="s">
         <v>72</v>
@@ -1892,123 +1892,123 @@
         <v>75</v>
       </c>
       <c r="M8">
-        <v>50.454</v>
+        <v>50.4167</v>
       </c>
       <c r="N8">
-        <v>2.47374</v>
+        <v>6.292120000000001</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P8">
-        <v>22.6185</v>
+        <v>22.8706</v>
       </c>
       <c r="Q8">
-        <v>50.454</v>
+        <v>50.4202</v>
       </c>
       <c r="R8">
-        <v>99.9999</v>
+        <v>100.007</v>
       </c>
       <c r="S8">
-        <v>22.1644</v>
+        <v>22.4418</v>
       </c>
       <c r="T8">
-        <v>22.6185</v>
+        <v>22.8706</v>
       </c>
       <c r="U8">
-        <v>13.7595</v>
+        <v>14.508</v>
       </c>
       <c r="V8">
-        <v>9.74831</v>
+        <v>7.17268</v>
       </c>
       <c r="W8">
-        <v>7.83447</v>
+        <v>6.50034</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z8">
-        <v>2.47374</v>
+        <v>6.292120000000001</v>
       </c>
       <c r="AA8">
-        <v>13.5268</v>
+        <v>14.2043</v>
       </c>
       <c r="AB8">
-        <v>9.662239999999999</v>
+        <v>6.85144</v>
       </c>
       <c r="AC8">
-        <v>7.80776</v>
+        <v>6.16588</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF8">
-        <v>2.45174</v>
+        <v>6.20543</v>
       </c>
       <c r="AG8">
-        <v>0.834348</v>
+        <v>0.833087</v>
       </c>
       <c r="AH8">
-        <v>0.4759659999999999</v>
+        <v>0.543077</v>
       </c>
       <c r="AI8">
-        <v>0.240576</v>
+        <v>0.240594</v>
       </c>
       <c r="AJ8">
-        <v>0.0821867</v>
+        <v>0.0834592</v>
       </c>
       <c r="AK8">
-        <v>0.08022570000000001</v>
+        <v>0.08897380000000001</v>
       </c>
       <c r="AL8">
-        <v>0.0605861</v>
+        <v>0.0876035</v>
       </c>
       <c r="AM8">
-        <v>0.0125084</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>62</v>
+        <v>0.042574</v>
+      </c>
+      <c r="AN8">
+        <v>0.303168</v>
       </c>
       <c r="AO8">
-        <v>875.436</v>
+        <v>875.599</v>
       </c>
       <c r="AP8">
-        <v>830.989</v>
+        <v>829.5790000000001</v>
       </c>
       <c r="AQ8">
-        <v>887.048</v>
+        <v>884.3710000000001</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT8">
-        <v>724.5590000000001</v>
+        <v>724.739</v>
       </c>
       <c r="AU8">
-        <v>781.825</v>
+        <v>780.0400000000001</v>
       </c>
       <c r="AV8">
-        <v>736.21</v>
+        <v>733.673</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:50">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -2023,144 +2023,144 @@
         <v>67</v>
       </c>
       <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
         <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
       </c>
       <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
         <v>83</v>
       </c>
-      <c r="J9" t="s">
-        <v>84</v>
-      </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
         <v>73</v>
       </c>
       <c r="M9">
-        <v>50.0309</v>
+        <v>50.0208</v>
       </c>
       <c r="N9">
-        <v>3.71587</v>
+        <v>8.515000000000001</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P9">
-        <v>27.1702</v>
+        <v>27.4211</v>
       </c>
       <c r="Q9">
-        <v>50.0309</v>
+        <v>50.0217</v>
       </c>
       <c r="R9">
-        <v>100</v>
+        <v>100.002</v>
       </c>
       <c r="S9">
-        <v>27.1393</v>
+        <v>27.4001</v>
       </c>
       <c r="T9">
-        <v>27.1702</v>
+        <v>27.4211</v>
       </c>
       <c r="U9">
-        <v>16.7199</v>
+        <v>17.5829</v>
       </c>
       <c r="V9">
-        <v>13.1979</v>
+        <v>9.78078</v>
       </c>
       <c r="W9">
-        <v>10.8045</v>
+        <v>8.86307</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z9">
-        <v>3.66737</v>
+        <v>8.441360000000001</v>
       </c>
       <c r="AA9">
-        <v>16.5076</v>
+        <v>17.3392</v>
       </c>
       <c r="AB9">
-        <v>13.4188</v>
+        <v>9.410779999999999</v>
       </c>
       <c r="AC9">
-        <v>10.8868</v>
+        <v>8.58399</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF9">
-        <v>3.71587</v>
+        <v>8.515000000000001</v>
       </c>
       <c r="AG9">
-        <v>0.6780929999999999</v>
+        <v>0.677963</v>
       </c>
       <c r="AH9">
-        <v>0.446304</v>
+        <v>0.502838</v>
       </c>
       <c r="AI9">
-        <v>0.246958</v>
+        <v>0.248422</v>
       </c>
       <c r="AJ9">
-        <v>0.0675959</v>
+        <v>0.0684405</v>
       </c>
       <c r="AK9">
-        <v>0.06888330000000001</v>
+        <v>0.07882690000000001</v>
       </c>
       <c r="AL9">
-        <v>0.0530405</v>
+        <v>0.07557309999999999</v>
       </c>
       <c r="AM9">
-        <v>0.0131954</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>62</v>
+        <v>0.0364058</v>
+      </c>
+      <c r="AN9">
+        <v>0.310997</v>
       </c>
       <c r="AO9">
-        <v>876.3680000000001</v>
+        <v>876.542</v>
       </c>
       <c r="AP9">
-        <v>833.9300000000001</v>
+        <v>832.1560000000001</v>
       </c>
       <c r="AQ9">
-        <v>891.116</v>
+        <v>887.652</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT9">
-        <v>726.204</v>
+        <v>726.398</v>
       </c>
       <c r="AU9">
-        <v>784.58</v>
+        <v>782.2230000000001</v>
       </c>
       <c r="AV9">
-        <v>740.8770000000001</v>
+        <v>737.544</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:50">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -2175,156 +2175,156 @@
         <v>67</v>
       </c>
       <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
         <v>81</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
       </c>
       <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
         <v>83</v>
       </c>
-      <c r="J10" t="s">
-        <v>84</v>
-      </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
         <v>75</v>
       </c>
       <c r="M10">
-        <v>50.0457</v>
+        <v>50.0268</v>
       </c>
       <c r="N10">
-        <v>3.31863</v>
+        <v>7.39914</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P10">
-        <v>23.6548</v>
+        <v>23.8469</v>
       </c>
       <c r="Q10">
-        <v>50.04580000000001</v>
+        <v>50.02500000000001</v>
       </c>
       <c r="R10">
-        <v>100</v>
+        <v>99.9965</v>
       </c>
       <c r="S10">
-        <v>23.6083</v>
+        <v>23.8227</v>
       </c>
       <c r="T10">
-        <v>23.6548</v>
+        <v>23.8469</v>
       </c>
       <c r="U10">
-        <v>15.8558</v>
+        <v>16.623</v>
       </c>
       <c r="V10">
-        <v>11.784</v>
+        <v>8.820320000000001</v>
       </c>
       <c r="W10">
-        <v>9.41328</v>
+        <v>7.721369999999999</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z10">
-        <v>3.29099</v>
+        <v>7.324540000000001</v>
       </c>
       <c r="AA10">
-        <v>15.6968</v>
+        <v>16.4311</v>
       </c>
       <c r="AB10">
-        <v>11.9702</v>
+        <v>8.50642</v>
       </c>
       <c r="AC10">
-        <v>9.47983</v>
+        <v>7.481790000000001</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF10">
-        <v>3.31863</v>
+        <v>7.39914</v>
       </c>
       <c r="AG10">
-        <v>0.828344</v>
+        <v>0.828281</v>
       </c>
       <c r="AH10">
-        <v>0.638421</v>
+        <v>0.711282</v>
       </c>
       <c r="AI10">
-        <v>0.375298</v>
+        <v>0.37694</v>
       </c>
       <c r="AJ10">
-        <v>0.0915783</v>
+        <v>0.09254799999999999</v>
       </c>
       <c r="AK10">
-        <v>0.0892085</v>
+        <v>0.105435</v>
       </c>
       <c r="AL10">
-        <v>0.06764969999999999</v>
+        <v>0.0960498</v>
       </c>
       <c r="AM10">
-        <v>0.0183023</v>
-      </c>
-      <c r="AN10" s="2" t="s">
-        <v>62</v>
+        <v>0.0455608</v>
+      </c>
+      <c r="AN10">
+        <v>0.398332</v>
       </c>
       <c r="AO10">
-        <v>875.218</v>
+        <v>875.3910000000001</v>
       </c>
       <c r="AP10">
-        <v>831.725</v>
+        <v>830.232</v>
       </c>
       <c r="AQ10">
-        <v>887.865</v>
+        <v>884.895</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT10">
-        <v>725.061</v>
+        <v>725.249</v>
       </c>
       <c r="AU10">
-        <v>782.333</v>
+        <v>780.2800000000001</v>
       </c>
       <c r="AV10">
-        <v>737.6360000000001</v>
+        <v>734.8040000000001</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX10" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:50">
       <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
         <v>88</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>90</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2348,135 +2348,135 @@
         <v>73</v>
       </c>
       <c r="M11">
-        <v>49.2732</v>
+        <v>49.2039</v>
       </c>
       <c r="N11">
-        <v>4.46808</v>
+        <v>12.4991</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P11">
-        <v>48.9959</v>
+        <v>49.52979999999999</v>
       </c>
       <c r="Q11">
-        <v>49.2731</v>
+        <v>49.2025</v>
       </c>
       <c r="R11">
-        <v>99.9997</v>
+        <v>99.99720000000001</v>
       </c>
       <c r="S11">
-        <v>48.9959</v>
+        <v>49.52979999999999</v>
       </c>
       <c r="T11">
-        <v>48.27070000000001</v>
+        <v>48.7348</v>
       </c>
       <c r="U11">
-        <v>19.0359</v>
+        <v>19.4983</v>
       </c>
       <c r="V11">
-        <v>18.0315</v>
+        <v>13.0632</v>
       </c>
       <c r="W11">
-        <v>15.3246</v>
+        <v>12.8699</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z11">
-        <v>4.38482</v>
+        <v>12.4991</v>
       </c>
       <c r="AA11">
-        <v>19.0133</v>
+        <v>19.5013</v>
       </c>
       <c r="AB11">
-        <v>17.6683</v>
+        <v>12.1872</v>
       </c>
       <c r="AC11">
-        <v>15.2243</v>
+        <v>12.1709</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF11">
-        <v>4.46808</v>
+        <v>12.1829</v>
       </c>
       <c r="AG11">
-        <v>0.690164</v>
+        <v>0.685597</v>
       </c>
       <c r="AH11">
-        <v>0.173858</v>
+        <v>0.2252</v>
       </c>
       <c r="AI11">
-        <v>0.0204354</v>
+        <v>0.0204357</v>
       </c>
       <c r="AJ11">
-        <v>0.0500527</v>
+        <v>0.0522427</v>
       </c>
       <c r="AK11">
-        <v>0.0549744</v>
+        <v>0.0567213</v>
       </c>
       <c r="AL11">
-        <v>0.0430053</v>
+        <v>0.0630826</v>
       </c>
       <c r="AM11">
-        <v>0.005608159999999999</v>
-      </c>
-      <c r="AN11" s="2" t="s">
-        <v>62</v>
+        <v>0.0329294</v>
+      </c>
+      <c r="AN11">
+        <v>0.204981</v>
       </c>
       <c r="AO11">
-        <v>882.893</v>
+        <v>883.193</v>
       </c>
       <c r="AP11">
-        <v>847.302</v>
+        <v>844.604</v>
       </c>
       <c r="AQ11">
-        <v>910.005</v>
+        <v>904.4209999999999</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT11">
-        <v>732.6800000000001</v>
+        <v>732.9860000000001</v>
       </c>
       <c r="AU11">
-        <v>797.212</v>
+        <v>794.064</v>
       </c>
       <c r="AV11">
-        <v>759.9639999999999</v>
+        <v>754.554</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX11" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:50">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
         <v>89</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>90</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>92</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2500,135 +2500,135 @@
         <v>75</v>
       </c>
       <c r="M12">
-        <v>49.5187</v>
+        <v>49.5061</v>
       </c>
       <c r="N12">
-        <v>3.30475</v>
+        <v>9.27711</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P12">
-        <v>35.44900000000001</v>
+        <v>35.87730000000001</v>
       </c>
       <c r="Q12">
-        <v>49.5192</v>
+        <v>49.506</v>
       </c>
       <c r="R12">
-        <v>100.001</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S12">
-        <v>35.44900000000001</v>
+        <v>35.87730000000001</v>
       </c>
       <c r="T12">
-        <v>34.9698</v>
+        <v>35.3831</v>
       </c>
       <c r="U12">
-        <v>15.7721</v>
+        <v>16.3292</v>
       </c>
       <c r="V12">
-        <v>13.4393</v>
+        <v>9.708590000000001</v>
       </c>
       <c r="W12">
-        <v>11.3889</v>
+        <v>9.542900000000001</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z12">
-        <v>3.26035</v>
+        <v>9.27711</v>
       </c>
       <c r="AA12">
-        <v>15.8873</v>
+        <v>16.4332</v>
       </c>
       <c r="AB12">
-        <v>13.3425</v>
+        <v>9.161900000000001</v>
       </c>
       <c r="AC12">
-        <v>11.4168</v>
+        <v>9.13724</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF12">
-        <v>3.30475</v>
+        <v>9.151260000000001</v>
       </c>
       <c r="AG12">
-        <v>0.839569</v>
+        <v>0.836456</v>
       </c>
       <c r="AH12">
-        <v>0.2647409999999999</v>
+        <v>0.32632</v>
       </c>
       <c r="AI12">
-        <v>0.0684568</v>
+        <v>0.0684577</v>
       </c>
       <c r="AJ12">
-        <v>0.0651853</v>
+        <v>0.06678329999999999</v>
       </c>
       <c r="AK12">
-        <v>0.0696084</v>
+        <v>0.07132289999999999</v>
       </c>
       <c r="AL12">
-        <v>0.0538798</v>
+        <v>0.07916480000000001</v>
       </c>
       <c r="AM12">
-        <v>0.00759724</v>
-      </c>
-      <c r="AN12" s="2" t="s">
-        <v>62</v>
+        <v>0.0405645</v>
+      </c>
+      <c r="AN12">
+        <v>0.257849</v>
       </c>
       <c r="AO12">
-        <v>879.601</v>
+        <v>879.761</v>
       </c>
       <c r="AP12">
-        <v>839.501</v>
+        <v>837.357</v>
       </c>
       <c r="AQ12">
-        <v>898.2710000000001</v>
+        <v>894.163</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT12">
-        <v>729.403</v>
+        <v>729.5840000000001</v>
       </c>
       <c r="AU12">
-        <v>789.5899999999999</v>
+        <v>787.051</v>
       </c>
       <c r="AV12">
-        <v>748.1840000000001</v>
+        <v>744.2099999999999</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX12" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:50">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>91</v>
-      </c>
-      <c r="E13" t="s">
-        <v>92</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -2646,141 +2646,141 @@
         <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s">
         <v>73</v>
       </c>
       <c r="M13">
-        <v>48.8265</v>
+        <v>48.8709</v>
       </c>
       <c r="N13">
-        <v>5.00841</v>
+        <v>13.3148</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P13">
-        <v>46.11170000000001</v>
+        <v>46.8245</v>
       </c>
       <c r="Q13">
-        <v>48.8259</v>
+        <v>48.8708</v>
       </c>
       <c r="R13">
-        <v>99.9988</v>
+        <v>99.9999</v>
       </c>
       <c r="S13">
-        <v>46.11170000000001</v>
+        <v>46.8245</v>
       </c>
       <c r="T13">
-        <v>44.9335</v>
+        <v>45.6996</v>
       </c>
       <c r="U13">
-        <v>20.41</v>
+        <v>21.0283</v>
       </c>
       <c r="V13">
-        <v>19.2631</v>
+        <v>14.0285</v>
       </c>
       <c r="W13">
-        <v>16.4199</v>
+        <v>13.6364</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z13">
-        <v>4.90866</v>
+        <v>13.1341</v>
       </c>
       <c r="AA13">
-        <v>20.804</v>
+        <v>21.6075</v>
       </c>
       <c r="AB13">
-        <v>19.5538</v>
+        <v>13.3582</v>
       </c>
       <c r="AC13">
-        <v>16.7353</v>
+        <v>13.397</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF13">
-        <v>5.00841</v>
+        <v>13.3148</v>
       </c>
       <c r="AG13">
-        <v>0.683523</v>
+        <v>0.681986</v>
       </c>
       <c r="AH13">
-        <v>0.206379</v>
+        <v>0.257287</v>
       </c>
       <c r="AI13">
-        <v>0.0471105</v>
+        <v>0.047155</v>
       </c>
       <c r="AJ13">
-        <v>0.0516744</v>
+        <v>0.0535372</v>
       </c>
       <c r="AK13">
-        <v>0.0565574</v>
+        <v>0.0589487</v>
       </c>
       <c r="AL13">
-        <v>0.0443198</v>
+        <v>0.06447309999999999</v>
       </c>
       <c r="AM13">
-        <v>0.006812319999999999</v>
-      </c>
-      <c r="AN13" s="2" t="s">
-        <v>62</v>
+        <v>0.0333076</v>
+      </c>
+      <c r="AN13">
+        <v>0.212193</v>
       </c>
       <c r="AO13">
-        <v>881.279</v>
+        <v>881.556</v>
       </c>
       <c r="AP13">
-        <v>845.466</v>
+        <v>842.6900000000001</v>
       </c>
       <c r="AQ13">
-        <v>907.087</v>
+        <v>901.538</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT13">
-        <v>731.958</v>
+        <v>732.26</v>
       </c>
       <c r="AU13">
-        <v>795.264</v>
+        <v>791.827</v>
       </c>
       <c r="AV13">
-        <v>757.9299999999999</v>
+        <v>752.53</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX13" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:50">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>90</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>91</v>
-      </c>
-      <c r="E14" t="s">
-        <v>92</v>
       </c>
       <c r="F14" t="s">
         <v>68</v>
@@ -2798,43 +2798,43 @@
         <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>62</v>
+      <c r="M14">
+        <v>49.2503</v>
+      </c>
+      <c r="N14">
+        <v>10.4348</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>62</v>
+      <c r="P14">
+        <v>35.9975</v>
+      </c>
+      <c r="Q14">
+        <v>49.2494</v>
+      </c>
+      <c r="R14">
+        <v>99.9982</v>
+      </c>
+      <c r="S14">
+        <v>35.9975</v>
+      </c>
+      <c r="T14">
+        <v>35.248</v>
+      </c>
+      <c r="U14">
+        <v>18.2526</v>
+      </c>
+      <c r="V14">
+        <v>11.0449</v>
+      </c>
+      <c r="W14">
+        <v>10.7151</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>62</v>
@@ -2842,17 +2842,17 @@
       <c r="Y14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>62</v>
+      <c r="Z14">
+        <v>10.3014</v>
+      </c>
+      <c r="AA14">
+        <v>18.6074</v>
+      </c>
+      <c r="AB14">
+        <v>10.5359</v>
+      </c>
+      <c r="AC14">
+        <v>10.4959</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>62</v>
@@ -2860,41 +2860,41 @@
       <c r="AE14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ14" s="2" t="s">
-        <v>62</v>
+      <c r="AF14">
+        <v>10.4348</v>
+      </c>
+      <c r="AG14">
+        <v>0.833125</v>
+      </c>
+      <c r="AH14">
+        <v>0.365302</v>
+      </c>
+      <c r="AI14">
+        <v>0.09819119999999999</v>
+      </c>
+      <c r="AJ14">
+        <v>0.0692502</v>
+      </c>
+      <c r="AK14">
+        <v>0.0754884</v>
+      </c>
+      <c r="AL14">
+        <v>0.08119069999999999</v>
+      </c>
+      <c r="AM14">
+        <v>0.0412637</v>
+      </c>
+      <c r="AN14">
+        <v>0.26937</v>
+      </c>
+      <c r="AO14">
+        <v>878.921</v>
+      </c>
+      <c r="AP14">
+        <v>837.021</v>
+      </c>
+      <c r="AQ14">
+        <v>893.6559999999999</v>
       </c>
       <c r="AR14" s="2" t="s">
         <v>62</v>
@@ -2902,14 +2902,14 @@
       <c r="AS14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AT14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV14" s="2" t="s">
-        <v>62</v>
+      <c r="AT14">
+        <v>729.4300000000001</v>
+      </c>
+      <c r="AU14">
+        <v>786.447</v>
+      </c>
+      <c r="AV14">
+        <v>744.2810000000001</v>
       </c>
       <c r="AW14" s="2" t="s">
         <v>62</v>
@@ -2920,34 +2920,34 @@
     </row>
     <row r="15" spans="1:50">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
         <v>89</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>90</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
       <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" t="s">
-        <v>82</v>
       </c>
       <c r="H15" t="s">
         <v>57</v>
       </c>
       <c r="I15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
         <v>83</v>
-      </c>
-      <c r="J15" t="s">
-        <v>84</v>
       </c>
       <c r="K15" t="s">
         <v>72</v>
@@ -2956,150 +2956,150 @@
         <v>73</v>
       </c>
       <c r="M15">
-        <v>49.2814</v>
+        <v>49.2092</v>
       </c>
       <c r="N15">
-        <v>4.39395</v>
+        <v>12.4413</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P15">
-        <v>48.8569</v>
+        <v>49.4755</v>
       </c>
       <c r="Q15">
-        <v>49.283</v>
+        <v>49.2128</v>
       </c>
       <c r="R15">
-        <v>100.003</v>
+        <v>100.007</v>
       </c>
       <c r="S15">
-        <v>48.8569</v>
+        <v>49.4755</v>
       </c>
       <c r="T15">
-        <v>48.1422</v>
+        <v>48.6957</v>
       </c>
       <c r="U15">
-        <v>19.0319</v>
+        <v>19.4973</v>
       </c>
       <c r="V15">
-        <v>18.0317</v>
+        <v>13.0627</v>
       </c>
       <c r="W15">
-        <v>15.3187</v>
+        <v>12.8698</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z15">
-        <v>4.355399999999999</v>
+        <v>12.4413</v>
       </c>
       <c r="AA15">
-        <v>19.0108</v>
+        <v>19.4981</v>
       </c>
       <c r="AB15">
-        <v>17.6706</v>
+        <v>12.1874</v>
       </c>
       <c r="AC15">
-        <v>15.2165</v>
+        <v>12.1729</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF15">
-        <v>4.39395</v>
+        <v>12.1117</v>
       </c>
       <c r="AG15">
-        <v>0.690279</v>
+        <v>0.685661</v>
       </c>
       <c r="AH15">
-        <v>0.173628</v>
+        <v>0.224975</v>
       </c>
       <c r="AI15">
-        <v>0.0204354</v>
+        <v>0.0204357</v>
       </c>
       <c r="AJ15">
-        <v>0.0500519</v>
+        <v>0.052246</v>
       </c>
       <c r="AK15">
-        <v>0.0549767</v>
+        <v>0.05672899999999999</v>
       </c>
       <c r="AL15">
-        <v>0.0430048</v>
+        <v>0.063083</v>
       </c>
       <c r="AM15">
-        <v>0.005376649999999999</v>
-      </c>
-      <c r="AN15" s="2" t="s">
-        <v>62</v>
+        <v>0.0326931</v>
+      </c>
+      <c r="AN15">
+        <v>0.204756</v>
       </c>
       <c r="AO15">
-        <v>882.893</v>
+        <v>883.194</v>
       </c>
       <c r="AP15">
-        <v>847.3009999999999</v>
+        <v>844.5980000000001</v>
       </c>
       <c r="AQ15">
-        <v>910.005</v>
+        <v>904.422</v>
       </c>
       <c r="AR15" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT15">
-        <v>732.679</v>
+        <v>732.9860000000001</v>
       </c>
       <c r="AU15">
-        <v>797.211</v>
+        <v>794.064</v>
       </c>
       <c r="AV15">
-        <v>759.961</v>
+        <v>754.5490000000001</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX15" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:50">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>90</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>91</v>
       </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
       <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
         <v>81</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
       </c>
       <c r="I16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" t="s">
         <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>84</v>
       </c>
       <c r="K16" t="s">
         <v>72</v>
@@ -3108,341 +3108,341 @@
         <v>75</v>
       </c>
       <c r="M16">
-        <v>49.5365</v>
+        <v>49.5111</v>
       </c>
       <c r="N16">
-        <v>3.24043</v>
+        <v>9.238380000000001</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P16">
-        <v>35.3331</v>
+        <v>35.8357</v>
       </c>
       <c r="Q16">
-        <v>49.5342</v>
+        <v>49.51050000000001</v>
       </c>
       <c r="R16">
-        <v>99.9954</v>
+        <v>99.999</v>
       </c>
       <c r="S16">
-        <v>35.3331</v>
+        <v>35.8357</v>
       </c>
       <c r="T16">
-        <v>34.8716</v>
+        <v>35.3462</v>
       </c>
       <c r="U16">
-        <v>15.7748</v>
+        <v>16.3267</v>
       </c>
       <c r="V16">
-        <v>13.4407</v>
+        <v>9.71346</v>
       </c>
       <c r="W16">
-        <v>11.3872</v>
+        <v>9.543040000000001</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z16">
-        <v>3.24043</v>
+        <v>9.238380000000001</v>
       </c>
       <c r="AA16">
-        <v>15.8868</v>
+        <v>16.4328</v>
       </c>
       <c r="AB16">
-        <v>13.349</v>
+        <v>9.16737</v>
       </c>
       <c r="AC16">
-        <v>11.4153</v>
+        <v>9.13598</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF16">
-        <v>3.23156</v>
+        <v>9.100490000000001</v>
       </c>
       <c r="AG16">
-        <v>0.839592</v>
+        <v>0.836517</v>
       </c>
       <c r="AH16">
-        <v>0.264471</v>
+        <v>0.326051</v>
       </c>
       <c r="AI16">
-        <v>0.0684568</v>
+        <v>0.0684577</v>
       </c>
       <c r="AJ16">
-        <v>0.0651863</v>
+        <v>0.06678819999999999</v>
       </c>
       <c r="AK16">
-        <v>0.0696016</v>
+        <v>0.0713297</v>
       </c>
       <c r="AL16">
-        <v>0.0538788</v>
+        <v>0.07916909999999999</v>
       </c>
       <c r="AM16">
-        <v>0.00733441</v>
-      </c>
-      <c r="AN16" s="2" t="s">
-        <v>62</v>
+        <v>0.0402792</v>
+      </c>
+      <c r="AN16">
+        <v>0.257579</v>
       </c>
       <c r="AO16">
-        <v>879.601</v>
+        <v>879.7620000000001</v>
       </c>
       <c r="AP16">
-        <v>839.505</v>
+        <v>837.357</v>
       </c>
       <c r="AQ16">
-        <v>898.2700000000001</v>
+        <v>894.1600000000001</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT16">
-        <v>729.403</v>
+        <v>729.5840000000001</v>
       </c>
       <c r="AU16">
-        <v>789.5899999999999</v>
+        <v>787.048</v>
       </c>
       <c r="AV16">
-        <v>748.1840000000001</v>
+        <v>744.2080000000001</v>
       </c>
       <c r="AW16" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX16" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:50">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
         <v>89</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>90</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
       <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
         <v>81</v>
-      </c>
-      <c r="G17" t="s">
-        <v>82</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
       </c>
       <c r="I17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" t="s">
         <v>83</v>
       </c>
-      <c r="J17" t="s">
-        <v>84</v>
-      </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s">
         <v>73</v>
       </c>
       <c r="M17">
-        <v>48.8374</v>
+        <v>48.8782</v>
       </c>
       <c r="N17">
-        <v>4.91884</v>
+        <v>13.2445</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P17">
-        <v>45.9756</v>
+        <v>46.77160000000001</v>
       </c>
       <c r="Q17">
-        <v>48.835</v>
+        <v>48.8805</v>
       </c>
       <c r="R17">
-        <v>99.9952</v>
+        <v>100.005</v>
       </c>
       <c r="S17">
-        <v>45.9756</v>
+        <v>46.77160000000001</v>
       </c>
       <c r="T17">
-        <v>44.8092</v>
+        <v>45.6467</v>
       </c>
       <c r="U17">
-        <v>20.4084</v>
+        <v>21.0298</v>
       </c>
       <c r="V17">
-        <v>19.2676</v>
+        <v>14.0267</v>
       </c>
       <c r="W17">
-        <v>16.4176</v>
+        <v>13.6358</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z17">
-        <v>4.86061</v>
+        <v>13.0848</v>
       </c>
       <c r="AA17">
-        <v>20.8055</v>
+        <v>21.6078</v>
       </c>
       <c r="AB17">
-        <v>19.544</v>
+        <v>13.3594</v>
       </c>
       <c r="AC17">
-        <v>16.7297</v>
+        <v>13.3969</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF17">
-        <v>4.91884</v>
+        <v>13.2445</v>
       </c>
       <c r="AG17">
-        <v>0.683525</v>
+        <v>0.682007</v>
       </c>
       <c r="AH17">
-        <v>0.206178</v>
+        <v>0.25707</v>
       </c>
       <c r="AI17">
-        <v>0.0471105</v>
+        <v>0.047155</v>
       </c>
       <c r="AJ17">
-        <v>0.0516749</v>
+        <v>0.05353939999999999</v>
       </c>
       <c r="AK17">
-        <v>0.0565558</v>
+        <v>0.05895719999999999</v>
       </c>
       <c r="AL17">
-        <v>0.0443188</v>
+        <v>0.06447499999999999</v>
       </c>
       <c r="AM17">
-        <v>0.00661339</v>
-      </c>
-      <c r="AN17" s="2" t="s">
-        <v>62</v>
+        <v>0.03307760000000001</v>
+      </c>
+      <c r="AN17">
+        <v>0.211976</v>
       </c>
       <c r="AO17">
-        <v>881.2769999999999</v>
+        <v>881.558</v>
       </c>
       <c r="AP17">
-        <v>845.467</v>
+        <v>842.6900000000001</v>
       </c>
       <c r="AQ17">
-        <v>907.088</v>
+        <v>901.5360000000001</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT17">
-        <v>731.96</v>
+        <v>732.2610000000001</v>
       </c>
       <c r="AU17">
-        <v>795.2669999999999</v>
+        <v>791.824</v>
       </c>
       <c r="AV17">
-        <v>757.932</v>
+        <v>752.5310000000001</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX17" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:50">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>90</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>91</v>
       </c>
-      <c r="E18" t="s">
-        <v>92</v>
-      </c>
       <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
         <v>81</v>
-      </c>
-      <c r="G18" t="s">
-        <v>82</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
       </c>
       <c r="I18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
         <v>83</v>
       </c>
-      <c r="J18" t="s">
-        <v>84</v>
-      </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" t="s">
         <v>75</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>62</v>
+      <c r="M18">
+        <v>49.257</v>
+      </c>
+      <c r="N18">
+        <v>10.3874</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>62</v>
+      <c r="P18">
+        <v>35.95140000000001</v>
+      </c>
+      <c r="Q18">
+        <v>49.258</v>
+      </c>
+      <c r="R18">
+        <v>100.002</v>
+      </c>
+      <c r="S18">
+        <v>35.95140000000001</v>
+      </c>
+      <c r="T18">
+        <v>35.2092</v>
+      </c>
+      <c r="U18">
+        <v>18.2525</v>
+      </c>
+      <c r="V18">
+        <v>11.0432</v>
+      </c>
+      <c r="W18">
+        <v>10.716</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>62</v>
@@ -3450,17 +3450,17 @@
       <c r="Y18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>62</v>
+      <c r="Z18">
+        <v>10.2654</v>
+      </c>
+      <c r="AA18">
+        <v>18.6022</v>
+      </c>
+      <c r="AB18">
+        <v>10.5377</v>
+      </c>
+      <c r="AC18">
+        <v>10.4998</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>62</v>
@@ -3468,41 +3468,41 @@
       <c r="AE18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>62</v>
+      <c r="AF18">
+        <v>10.3874</v>
+      </c>
+      <c r="AG18">
+        <v>0.8331499999999999</v>
+      </c>
+      <c r="AH18">
+        <v>0.365029</v>
+      </c>
+      <c r="AI18">
+        <v>0.09819119999999999</v>
+      </c>
+      <c r="AJ18">
+        <v>0.06925100000000001</v>
+      </c>
+      <c r="AK18">
+        <v>0.0754818</v>
+      </c>
+      <c r="AL18">
+        <v>0.0811967</v>
+      </c>
+      <c r="AM18">
+        <v>0.0409904</v>
+      </c>
+      <c r="AN18">
+        <v>0.269097</v>
+      </c>
+      <c r="AO18">
+        <v>878.921</v>
+      </c>
+      <c r="AP18">
+        <v>837.022</v>
+      </c>
+      <c r="AQ18">
+        <v>893.6559999999999</v>
       </c>
       <c r="AR18" s="2" t="s">
         <v>62</v>
@@ -3510,14 +3510,14 @@
       <c r="AS18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AT18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV18" s="2" t="s">
-        <v>62</v>
+      <c r="AT18">
+        <v>729.427</v>
+      </c>
+      <c r="AU18">
+        <v>786.448</v>
+      </c>
+      <c r="AV18">
+        <v>744.2819999999999</v>
       </c>
       <c r="AW18" s="2" t="s">
         <v>62</v>
@@ -3528,19 +3528,19 @@
     </row>
     <row r="19" spans="1:50">
       <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
         <v>100</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>101</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>102</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>104</v>
       </c>
       <c r="F19" t="s">
         <v>68</v>
@@ -3564,135 +3564,135 @@
         <v>73</v>
       </c>
       <c r="M19" s="3">
-        <v>53.5626</v>
+        <v>53.4319</v>
       </c>
       <c r="N19">
-        <v>3.42871</v>
+        <v>10.9791</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P19">
-        <v>37.3443</v>
+        <v>37.8143</v>
       </c>
       <c r="Q19">
-        <v>53.5627</v>
+        <v>53.4322</v>
       </c>
       <c r="R19">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S19">
-        <v>33.7811</v>
+        <v>34.3771</v>
       </c>
       <c r="T19">
-        <v>37.3443</v>
+        <v>37.8143</v>
       </c>
       <c r="U19">
-        <v>18.3905</v>
+        <v>19.8111</v>
       </c>
       <c r="V19">
-        <v>16.7585</v>
+        <v>11.3736</v>
       </c>
       <c r="W19">
-        <v>13.4137</v>
+        <v>11.7501</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z19">
-        <v>3.41648</v>
+        <v>10.9791</v>
       </c>
       <c r="AA19">
-        <v>14.8097</v>
+        <v>15.0467</v>
       </c>
       <c r="AB19">
-        <v>12.2475</v>
+        <v>8.86905</v>
       </c>
       <c r="AC19">
-        <v>10.6413</v>
+        <v>8.15597</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF19">
-        <v>3.42871</v>
+        <v>8.573500000000001</v>
       </c>
       <c r="AG19">
-        <v>0.6858340000000001</v>
+        <v>0.683775</v>
       </c>
       <c r="AH19">
-        <v>0.224414</v>
+        <v>0.275218</v>
       </c>
       <c r="AI19">
-        <v>0.0619582</v>
+        <v>0.0619633</v>
       </c>
       <c r="AJ19">
-        <v>0.05395319999999999</v>
+        <v>0.0553045</v>
       </c>
       <c r="AK19">
-        <v>0.0576809</v>
+        <v>0.05946659999999999</v>
       </c>
       <c r="AL19">
-        <v>0.0445655</v>
+        <v>0.06540370000000001</v>
       </c>
       <c r="AM19">
-        <v>0.00647056</v>
-      </c>
-      <c r="AN19" s="2" t="s">
-        <v>62</v>
+        <v>0.0332922</v>
+      </c>
+      <c r="AN19">
+        <v>0.213617</v>
       </c>
       <c r="AO19">
-        <v>882.6130000000001</v>
+        <v>882.83</v>
       </c>
       <c r="AP19">
-        <v>838.361</v>
+        <v>835.763</v>
       </c>
       <c r="AQ19">
-        <v>901.664</v>
+        <v>897.47</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT19">
-        <v>726.122</v>
+        <v>726.297</v>
       </c>
       <c r="AU19">
-        <v>791.1319999999999</v>
+        <v>788.712</v>
       </c>
       <c r="AV19">
-        <v>745.573</v>
+        <v>741.427</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:50">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
         <v>101</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>102</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>104</v>
       </c>
       <c r="F20" t="s">
         <v>68</v>
@@ -3716,135 +3716,135 @@
         <v>75</v>
       </c>
       <c r="M20">
-        <v>52.9681</v>
+        <v>52.8159</v>
       </c>
       <c r="N20">
-        <v>2.73963</v>
+        <v>8.357150000000001</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P20">
-        <v>28.9933</v>
+        <v>29.326</v>
       </c>
       <c r="Q20">
-        <v>52.9678</v>
+        <v>52.8168</v>
       </c>
       <c r="R20">
-        <v>99.9995</v>
+        <v>100.002</v>
       </c>
       <c r="S20">
-        <v>26.0207</v>
+        <v>26.5063</v>
       </c>
       <c r="T20">
-        <v>28.9933</v>
+        <v>29.326</v>
       </c>
       <c r="U20">
-        <v>15.5333</v>
+        <v>16.6014</v>
       </c>
       <c r="V20">
-        <v>13.0086</v>
+        <v>8.962289999999999</v>
       </c>
       <c r="W20">
-        <v>10.26</v>
+        <v>8.88456</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z20">
-        <v>2.72353</v>
+        <v>8.357150000000001</v>
       </c>
       <c r="AA20">
-        <v>13.748</v>
+        <v>14.0848</v>
       </c>
       <c r="AB20">
-        <v>10.1867</v>
+        <v>7.31378</v>
       </c>
       <c r="AC20">
-        <v>8.66633</v>
+        <v>6.71303</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF20">
-        <v>2.73963</v>
+        <v>6.97268</v>
       </c>
       <c r="AG20">
-        <v>0.8366170000000001</v>
+        <v>0.834599</v>
       </c>
       <c r="AH20">
-        <v>0.348965</v>
+        <v>0.41219</v>
       </c>
       <c r="AI20">
-        <v>0.139051</v>
+        <v>0.139059</v>
       </c>
       <c r="AJ20">
-        <v>0.07074</v>
+        <v>0.07213689999999999</v>
       </c>
       <c r="AK20">
-        <v>0.0734566</v>
+        <v>0.07728649999999999</v>
       </c>
       <c r="AL20">
-        <v>0.05643459999999999</v>
+        <v>0.0824988</v>
       </c>
       <c r="AM20">
-        <v>0.009349730000000001</v>
-      </c>
-      <c r="AN20" s="2" t="s">
-        <v>62</v>
+        <v>0.0412692</v>
+      </c>
+      <c r="AN20">
+        <v>0.273388</v>
       </c>
       <c r="AO20">
-        <v>879.5250000000001</v>
+        <v>879.712</v>
       </c>
       <c r="AP20">
-        <v>833.423</v>
+        <v>831.4930000000001</v>
       </c>
       <c r="AQ20">
-        <v>893.696</v>
+        <v>890.394</v>
       </c>
       <c r="AR20" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS20" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT20">
-        <v>724.12</v>
+        <v>724.268</v>
       </c>
       <c r="AU20">
-        <v>786.035</v>
+        <v>784.032</v>
       </c>
       <c r="AV20">
-        <v>738.937</v>
+        <v>735.846</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:50">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
         <v>101</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>102</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>104</v>
       </c>
       <c r="F21" t="s">
         <v>68</v>
@@ -3862,141 +3862,141 @@
         <v>71</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L21" t="s">
         <v>73</v>
       </c>
       <c r="M21">
-        <v>52.8528</v>
+        <v>52.6053</v>
       </c>
       <c r="N21">
-        <v>4.1437</v>
+        <v>11.6</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P21">
-        <v>35.8064</v>
+        <v>36.18490000000001</v>
       </c>
       <c r="Q21">
-        <v>52.853</v>
+        <v>52.6044</v>
       </c>
       <c r="R21">
-        <v>100</v>
+        <v>99.9983</v>
       </c>
       <c r="S21">
-        <v>32.9511</v>
+        <v>33.588</v>
       </c>
       <c r="T21">
-        <v>35.8064</v>
+        <v>36.18490000000001</v>
       </c>
       <c r="U21">
-        <v>20.0565</v>
+        <v>21.1602</v>
       </c>
       <c r="V21">
-        <v>18.2759</v>
+        <v>12.5691</v>
       </c>
       <c r="W21">
-        <v>14.5088</v>
+        <v>12.5253</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z21">
-        <v>4.0324</v>
+        <v>11.6</v>
       </c>
       <c r="AA21">
-        <v>16.6783</v>
+        <v>17.0018</v>
       </c>
       <c r="AB21">
-        <v>14.1275</v>
+        <v>10.1606</v>
       </c>
       <c r="AC21">
-        <v>12.2041</v>
+        <v>9.42271</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF21">
-        <v>4.1437</v>
+        <v>9.70359</v>
       </c>
       <c r="AG21">
-        <v>0.680862</v>
+        <v>0.680067</v>
       </c>
       <c r="AH21">
-        <v>0.285607</v>
+        <v>0.33753</v>
       </c>
       <c r="AI21">
-        <v>0.111309</v>
+        <v>0.111836</v>
       </c>
       <c r="AJ21">
-        <v>0.0574961</v>
+        <v>0.0587109</v>
       </c>
       <c r="AK21">
-        <v>0.0611908</v>
+        <v>0.0655516</v>
       </c>
       <c r="AL21">
-        <v>0.0474821</v>
+        <v>0.06862449999999999</v>
       </c>
       <c r="AM21">
-        <v>0.009198290000000001</v>
-      </c>
-      <c r="AN21" s="2" t="s">
-        <v>62</v>
+        <v>0.0343977</v>
+      </c>
+      <c r="AN21">
+        <v>0.244672</v>
       </c>
       <c r="AO21">
-        <v>881.3969999999999</v>
+        <v>881.631</v>
       </c>
       <c r="AP21">
-        <v>837.635</v>
+        <v>835.0840000000001</v>
       </c>
       <c r="AQ21">
-        <v>900.274</v>
+        <v>895.842</v>
       </c>
       <c r="AR21" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS21" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT21">
-        <v>725.6719999999999</v>
+        <v>725.8760000000001</v>
       </c>
       <c r="AU21">
-        <v>789.921</v>
+        <v>787.252</v>
       </c>
       <c r="AV21">
-        <v>744.924</v>
+        <v>740.824</v>
       </c>
       <c r="AW21" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX21" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:50">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
         <v>101</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>102</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>103</v>
-      </c>
-      <c r="E22" t="s">
-        <v>104</v>
       </c>
       <c r="F22" t="s">
         <v>68</v>
@@ -4014,43 +4014,43 @@
         <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L22" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>62</v>
+      <c r="M22">
+        <v>52.2881</v>
+      </c>
+      <c r="N22">
+        <v>9.322749999999999</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>62</v>
+      <c r="P22">
+        <v>29.6787</v>
+      </c>
+      <c r="Q22">
+        <v>52.2889</v>
+      </c>
+      <c r="R22">
+        <v>100.002</v>
+      </c>
+      <c r="S22">
+        <v>27.3898</v>
+      </c>
+      <c r="T22">
+        <v>29.6787</v>
+      </c>
+      <c r="U22">
+        <v>18.4669</v>
+      </c>
+      <c r="V22">
+        <v>10.4188</v>
+      </c>
+      <c r="W22">
+        <v>10.0156</v>
       </c>
       <c r="X22" s="2" t="s">
         <v>62</v>
@@ -4058,17 +4058,17 @@
       <c r="Y22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>62</v>
+      <c r="Z22">
+        <v>9.322749999999999</v>
+      </c>
+      <c r="AA22">
+        <v>15.9237</v>
+      </c>
+      <c r="AB22">
+        <v>8.7521</v>
+      </c>
+      <c r="AC22">
+        <v>7.95797</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>62</v>
@@ -4076,41 +4076,41 @@
       <c r="AE22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ22" s="2" t="s">
-        <v>62</v>
+      <c r="AF22">
+        <v>8.141159999999999</v>
+      </c>
+      <c r="AG22">
+        <v>0.830938</v>
+      </c>
+      <c r="AH22">
+        <v>0.477174</v>
+      </c>
+      <c r="AI22">
+        <v>0.185317</v>
+      </c>
+      <c r="AJ22">
+        <v>0.07762769999999999</v>
+      </c>
+      <c r="AK22">
+        <v>0.0862615</v>
+      </c>
+      <c r="AL22">
+        <v>0.08675919999999999</v>
+      </c>
+      <c r="AM22">
+        <v>0.0429042</v>
+      </c>
+      <c r="AN22">
+        <v>0.312827</v>
+      </c>
+      <c r="AO22">
+        <v>879.272</v>
+      </c>
+      <c r="AP22">
+        <v>831.796</v>
+      </c>
+      <c r="AQ22">
+        <v>890.436</v>
       </c>
       <c r="AR22" s="2" t="s">
         <v>62</v>
@@ -4118,14 +4118,14 @@
       <c r="AS22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AT22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV22" s="2" t="s">
-        <v>62</v>
+      <c r="AT22">
+        <v>724.413</v>
+      </c>
+      <c r="AU22">
+        <v>783.785</v>
+      </c>
+      <c r="AV22">
+        <v>736.4820000000001</v>
       </c>
       <c r="AW22" s="2" t="s">
         <v>62</v>
@@ -4136,34 +4136,34 @@
     </row>
     <row r="23" spans="1:50">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
         <v>101</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>102</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>103</v>
       </c>
-      <c r="E23" t="s">
-        <v>104</v>
-      </c>
       <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
         <v>81</v>
-      </c>
-      <c r="G23" t="s">
-        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>57</v>
       </c>
       <c r="I23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" t="s">
         <v>83</v>
-      </c>
-      <c r="J23" t="s">
-        <v>84</v>
       </c>
       <c r="K23" t="s">
         <v>72</v>
@@ -4172,150 +4172,150 @@
         <v>73</v>
       </c>
       <c r="M23" s="3">
-        <v>53.5793</v>
+        <v>53.4545</v>
       </c>
       <c r="N23">
-        <v>3.39141</v>
+        <v>10.9214</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P23">
-        <v>37.2443</v>
+        <v>37.7828</v>
       </c>
       <c r="Q23">
-        <v>53.5791</v>
+        <v>53.4535</v>
       </c>
       <c r="R23">
-        <v>99.9996</v>
+        <v>99.99810000000001</v>
       </c>
       <c r="S23">
-        <v>33.6668</v>
+        <v>34.3322</v>
       </c>
       <c r="T23">
-        <v>37.2443</v>
+        <v>37.7828</v>
       </c>
       <c r="U23">
-        <v>18.4031</v>
+        <v>19.8056</v>
       </c>
       <c r="V23">
-        <v>16.7542</v>
+        <v>11.3754</v>
       </c>
       <c r="W23">
-        <v>13.4118</v>
+        <v>11.751</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z23">
-        <v>3.39141</v>
+        <v>10.9214</v>
       </c>
       <c r="AA23">
-        <v>14.7973</v>
+        <v>15.0529</v>
       </c>
       <c r="AB23">
-        <v>12.2476</v>
+        <v>8.863669999999999</v>
       </c>
       <c r="AC23">
-        <v>10.6337</v>
+        <v>8.156639999999999</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF23">
-        <v>3.36261</v>
+        <v>8.5291</v>
       </c>
       <c r="AG23">
-        <v>0.685846</v>
+        <v>0.68381</v>
       </c>
       <c r="AH23">
-        <v>0.224214</v>
+        <v>0.274974</v>
       </c>
       <c r="AI23">
-        <v>0.0619582</v>
+        <v>0.0619633</v>
       </c>
       <c r="AJ23">
-        <v>0.0539536</v>
+        <v>0.0553057</v>
       </c>
       <c r="AK23">
-        <v>0.0576899</v>
+        <v>0.0594614</v>
       </c>
       <c r="AL23">
-        <v>0.0445646</v>
+        <v>0.06540159999999999</v>
       </c>
       <c r="AM23">
-        <v>0.0062622</v>
-      </c>
-      <c r="AN23" s="2" t="s">
-        <v>62</v>
+        <v>0.0330545</v>
+      </c>
+      <c r="AN23">
+        <v>0.213373</v>
       </c>
       <c r="AO23">
-        <v>882.609</v>
+        <v>882.8290000000001</v>
       </c>
       <c r="AP23">
-        <v>838.3630000000001</v>
+        <v>835.765</v>
       </c>
       <c r="AQ23">
-        <v>901.6650000000001</v>
+        <v>897.476</v>
       </c>
       <c r="AR23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT23">
-        <v>726.122</v>
+        <v>726.297</v>
       </c>
       <c r="AU23">
-        <v>791.1300000000001</v>
+        <v>788.712</v>
       </c>
       <c r="AV23">
-        <v>745.575</v>
+        <v>741.428</v>
       </c>
       <c r="AW23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:50">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
         <v>101</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>102</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>103</v>
       </c>
-      <c r="E24" t="s">
-        <v>104</v>
-      </c>
       <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
         <v>81</v>
-      </c>
-      <c r="G24" t="s">
-        <v>82</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
       </c>
       <c r="I24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" t="s">
         <v>83</v>
-      </c>
-      <c r="J24" t="s">
-        <v>84</v>
       </c>
       <c r="K24" t="s">
         <v>72</v>
@@ -4324,341 +4324,341 @@
         <v>75</v>
       </c>
       <c r="M24">
-        <v>52.9913</v>
+        <v>52.8274</v>
       </c>
       <c r="N24">
-        <v>2.71574</v>
+        <v>8.319990000000001</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P24">
-        <v>28.9069</v>
+        <v>29.2889</v>
       </c>
       <c r="Q24">
-        <v>52.99290000000001</v>
+        <v>52.8293</v>
       </c>
       <c r="R24">
-        <v>100.003</v>
+        <v>100.004</v>
       </c>
       <c r="S24">
-        <v>25.9184</v>
+        <v>26.4662</v>
       </c>
       <c r="T24">
-        <v>28.9069</v>
+        <v>29.2889</v>
       </c>
       <c r="U24">
-        <v>15.5351</v>
+        <v>16.5996</v>
       </c>
       <c r="V24">
-        <v>13.006</v>
+        <v>8.962590000000001</v>
       </c>
       <c r="W24">
-        <v>10.2594</v>
+        <v>8.88467</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z24">
-        <v>2.71574</v>
+        <v>8.319990000000001</v>
       </c>
       <c r="AA24">
-        <v>13.7488</v>
+        <v>14.0818</v>
       </c>
       <c r="AB24">
-        <v>10.184</v>
+        <v>7.311190000000001</v>
       </c>
       <c r="AC24">
-        <v>8.662700000000001</v>
+        <v>6.716</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF24">
-        <v>2.67618</v>
+        <v>6.934950000000001</v>
       </c>
       <c r="AG24">
-        <v>0.836608</v>
+        <v>0.834589</v>
       </c>
       <c r="AH24">
-        <v>0.348758</v>
+        <v>0.411928</v>
       </c>
       <c r="AI24">
-        <v>0.139051</v>
+        <v>0.139059</v>
       </c>
       <c r="AJ24">
-        <v>0.070742</v>
+        <v>0.0721334</v>
       </c>
       <c r="AK24">
-        <v>0.0734562</v>
+        <v>0.07729860000000001</v>
       </c>
       <c r="AL24">
-        <v>0.05643</v>
+        <v>0.08250449999999999</v>
       </c>
       <c r="AM24">
-        <v>0.00914565</v>
-      </c>
-      <c r="AN24" s="2" t="s">
-        <v>62</v>
+        <v>0.0409926</v>
+      </c>
+      <c r="AN24">
+        <v>0.273126</v>
       </c>
       <c r="AO24">
-        <v>879.527</v>
+        <v>879.711</v>
       </c>
       <c r="AP24">
-        <v>833.4240000000001</v>
+        <v>831.4960000000001</v>
       </c>
       <c r="AQ24">
-        <v>893.701</v>
+        <v>890.394</v>
       </c>
       <c r="AR24" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS24" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT24">
-        <v>724.121</v>
+        <v>724.269</v>
       </c>
       <c r="AU24">
-        <v>786.029</v>
+        <v>784.0219999999999</v>
       </c>
       <c r="AV24">
-        <v>738.9350000000001</v>
+        <v>735.849</v>
       </c>
       <c r="AW24" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX24" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:50">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
         <v>101</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>102</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>103</v>
       </c>
-      <c r="E25" t="s">
-        <v>104</v>
-      </c>
       <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
         <v>81</v>
-      </c>
-      <c r="G25" t="s">
-        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>57</v>
       </c>
       <c r="I25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" t="s">
         <v>83</v>
       </c>
-      <c r="J25" t="s">
-        <v>84</v>
-      </c>
       <c r="K25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L25" t="s">
         <v>73</v>
       </c>
       <c r="M25">
-        <v>52.8686</v>
+        <v>52.6072</v>
       </c>
       <c r="N25">
-        <v>4.07795</v>
+        <v>11.551</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P25">
-        <v>35.7059</v>
+        <v>36.1506</v>
       </c>
       <c r="Q25">
-        <v>52.8686</v>
+        <v>52.6071</v>
       </c>
       <c r="R25">
-        <v>99.9999</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S25">
-        <v>32.8415</v>
+        <v>33.5423</v>
       </c>
       <c r="T25">
-        <v>35.7059</v>
+        <v>36.1506</v>
       </c>
       <c r="U25">
-        <v>20.0587</v>
+        <v>21.1675</v>
       </c>
       <c r="V25">
-        <v>18.2746</v>
+        <v>12.5709</v>
       </c>
       <c r="W25">
-        <v>14.5068</v>
+        <v>12.5249</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z25">
-        <v>4.017550000000001</v>
+        <v>11.551</v>
       </c>
       <c r="AA25">
-        <v>16.6764</v>
+        <v>17.0023</v>
       </c>
       <c r="AB25">
-        <v>14.1256</v>
+        <v>10.1697</v>
       </c>
       <c r="AC25">
-        <v>12.1999</v>
+        <v>9.423480000000001</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF25">
-        <v>4.07795</v>
+        <v>9.65578</v>
       </c>
       <c r="AG25">
-        <v>0.680862</v>
+        <v>0.680088</v>
       </c>
       <c r="AH25">
-        <v>0.285451</v>
+        <v>0.33733</v>
       </c>
       <c r="AI25">
-        <v>0.111309</v>
+        <v>0.111836</v>
       </c>
       <c r="AJ25">
-        <v>0.0574948</v>
+        <v>0.05870939999999999</v>
       </c>
       <c r="AK25">
-        <v>0.06119239999999999</v>
+        <v>0.06555759999999999</v>
       </c>
       <c r="AL25">
-        <v>0.047482</v>
+        <v>0.06863499999999999</v>
       </c>
       <c r="AM25">
-        <v>0.00904201</v>
-      </c>
-      <c r="AN25" s="2" t="s">
-        <v>62</v>
+        <v>0.0341826</v>
+      </c>
+      <c r="AN25">
+        <v>0.244472</v>
       </c>
       <c r="AO25">
-        <v>881.3969999999999</v>
+        <v>881.63</v>
       </c>
       <c r="AP25">
-        <v>837.636</v>
+        <v>835.0840000000001</v>
       </c>
       <c r="AQ25">
-        <v>900.277</v>
+        <v>895.836</v>
       </c>
       <c r="AR25" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS25" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT25">
-        <v>725.6719999999999</v>
+        <v>725.874</v>
       </c>
       <c r="AU25">
-        <v>789.919</v>
+        <v>787.255</v>
       </c>
       <c r="AV25">
-        <v>744.924</v>
+        <v>740.8200000000001</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX25" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:50">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s">
-        <v>104</v>
-      </c>
       <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
         <v>81</v>
-      </c>
-      <c r="G26" t="s">
-        <v>82</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" t="s">
         <v>83</v>
       </c>
-      <c r="J26" t="s">
-        <v>84</v>
-      </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L26" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>62</v>
+      <c r="M26">
+        <v>52.2997</v>
+      </c>
+      <c r="N26">
+        <v>9.29058</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>62</v>
+      <c r="P26">
+        <v>29.648</v>
+      </c>
+      <c r="Q26">
+        <v>52.2998</v>
+      </c>
+      <c r="R26">
+        <v>100</v>
+      </c>
+      <c r="S26">
+        <v>27.3493</v>
+      </c>
+      <c r="T26">
+        <v>29.648</v>
+      </c>
+      <c r="U26">
+        <v>18.4674</v>
+      </c>
+      <c r="V26">
+        <v>10.4177</v>
+      </c>
+      <c r="W26">
+        <v>10.0178</v>
       </c>
       <c r="X26" s="2" t="s">
         <v>62</v>
@@ -4666,17 +4666,17 @@
       <c r="Y26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>62</v>
+      <c r="Z26">
+        <v>9.29058</v>
+      </c>
+      <c r="AA26">
+        <v>15.9219</v>
+      </c>
+      <c r="AB26">
+        <v>8.75445</v>
+      </c>
+      <c r="AC26">
+        <v>7.962590000000001</v>
       </c>
       <c r="AD26" s="2" t="s">
         <v>62</v>
@@ -4684,41 +4684,41 @@
       <c r="AE26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ26" s="2" t="s">
-        <v>62</v>
+      <c r="AF26">
+        <v>8.10708</v>
+      </c>
+      <c r="AG26">
+        <v>0.830954</v>
+      </c>
+      <c r="AH26">
+        <v>0.47692</v>
+      </c>
+      <c r="AI26">
+        <v>0.185317</v>
+      </c>
+      <c r="AJ26">
+        <v>0.07761749999999999</v>
+      </c>
+      <c r="AK26">
+        <v>0.08627049999999999</v>
+      </c>
+      <c r="AL26">
+        <v>0.0867623</v>
+      </c>
+      <c r="AM26">
+        <v>0.0426476</v>
+      </c>
+      <c r="AN26">
+        <v>0.312572</v>
+      </c>
+      <c r="AO26">
+        <v>879.2710000000001</v>
+      </c>
+      <c r="AP26">
+        <v>831.796</v>
+      </c>
+      <c r="AQ26">
+        <v>890.438</v>
       </c>
       <c r="AR26" s="2" t="s">
         <v>62</v>
@@ -4726,14 +4726,14 @@
       <c r="AS26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AT26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV26" s="2" t="s">
-        <v>62</v>
+      <c r="AT26">
+        <v>724.414</v>
+      </c>
+      <c r="AU26">
+        <v>783.785</v>
+      </c>
+      <c r="AV26">
+        <v>736.485</v>
       </c>
       <c r="AW26" s="2" t="s">
         <v>62</v>
@@ -4744,19 +4744,19 @@
     </row>
     <row r="27" spans="1:50">
       <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
         <v>112</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>115</v>
-      </c>
-      <c r="E27" t="s">
-        <v>116</v>
       </c>
       <c r="F27" t="s">
         <v>68</v>
@@ -4780,135 +4780,135 @@
         <v>73</v>
       </c>
       <c r="M27" s="4">
-        <v>46.3284</v>
+        <v>46.3678</v>
       </c>
       <c r="N27">
-        <v>3.63469</v>
+        <v>10.6519</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P27">
-        <v>37.7828</v>
+        <v>38.158</v>
       </c>
       <c r="Q27">
-        <v>46.3278</v>
+        <v>46.3681</v>
       </c>
       <c r="R27">
-        <v>99.9987</v>
+        <v>100.001</v>
       </c>
       <c r="S27">
-        <v>37.7828</v>
+        <v>38.158</v>
       </c>
       <c r="T27">
-        <v>34.1128</v>
+        <v>34.5339</v>
       </c>
       <c r="U27">
-        <v>15.1058</v>
+        <v>15.3789</v>
       </c>
       <c r="V27">
-        <v>12.4303</v>
+        <v>9.35266</v>
       </c>
       <c r="W27">
-        <v>10.6944</v>
+        <v>8.532209999999999</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z27">
-        <v>3.50578</v>
+        <v>8.68083</v>
       </c>
       <c r="AA27">
-        <v>18.3407</v>
+        <v>19.8984</v>
       </c>
       <c r="AB27">
-        <v>16.4951</v>
+        <v>10.5491</v>
       </c>
       <c r="AC27">
-        <v>13.3054</v>
+        <v>10.9765</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF27">
-        <v>3.63469</v>
+        <v>10.6519</v>
       </c>
       <c r="AG27">
-        <v>0.686014</v>
+        <v>0.683914</v>
       </c>
       <c r="AH27">
-        <v>0.222172</v>
+        <v>0.27286</v>
       </c>
       <c r="AI27">
-        <v>0.0592265</v>
+        <v>0.0592296</v>
       </c>
       <c r="AJ27">
-        <v>0.0539201</v>
+        <v>0.0553279</v>
       </c>
       <c r="AK27">
-        <v>0.0577937</v>
+        <v>0.05946079999999999</v>
       </c>
       <c r="AL27">
-        <v>0.0445976</v>
+        <v>0.06536479999999999</v>
       </c>
       <c r="AM27">
-        <v>0.00664699</v>
-      </c>
-      <c r="AN27" s="2" t="s">
-        <v>62</v>
+        <v>0.03348019999999999</v>
+      </c>
+      <c r="AN27">
+        <v>0.213756</v>
       </c>
       <c r="AO27">
-        <v>877.051</v>
+        <v>877.211</v>
       </c>
       <c r="AP27">
-        <v>840.946</v>
+        <v>838.95</v>
       </c>
       <c r="AQ27">
-        <v>896.47</v>
+        <v>892.1560000000001</v>
       </c>
       <c r="AR27" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS27" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT27">
-        <v>732.218</v>
+        <v>732.448</v>
       </c>
       <c r="AU27">
-        <v>789.102</v>
+        <v>786.101</v>
       </c>
       <c r="AV27">
-        <v>751.3660000000001</v>
+        <v>747.269</v>
       </c>
       <c r="AW27" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX27" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:50">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
         <v>113</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>114</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>115</v>
-      </c>
-      <c r="E28" t="s">
-        <v>116</v>
       </c>
       <c r="F28" t="s">
         <v>68</v>
@@ -4932,135 +4932,135 @@
         <v>75</v>
       </c>
       <c r="M28">
-        <v>47.1002</v>
+        <v>47.2008</v>
       </c>
       <c r="N28">
-        <v>2.88743</v>
+        <v>8.257290000000001</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P28">
-        <v>29.2963</v>
+        <v>29.6027</v>
       </c>
       <c r="Q28">
-        <v>47.1007</v>
+        <v>47.2008</v>
       </c>
       <c r="R28">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S28">
-        <v>29.2963</v>
+        <v>29.6027</v>
       </c>
       <c r="T28">
-        <v>26.3996</v>
+        <v>26.8035</v>
       </c>
       <c r="U28">
-        <v>14.0111</v>
+        <v>14.3484</v>
       </c>
       <c r="V28">
-        <v>10.3109</v>
+        <v>7.707549999999999</v>
       </c>
       <c r="W28">
-        <v>8.695510000000001</v>
+        <v>7.02011</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z28">
-        <v>2.82047</v>
+        <v>7.065</v>
       </c>
       <c r="AA28">
-        <v>15.6429</v>
+        <v>16.7952</v>
       </c>
       <c r="AB28">
-        <v>13.0522</v>
+        <v>8.45495</v>
       </c>
       <c r="AC28">
-        <v>10.31</v>
+        <v>8.439919999999999</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF28">
-        <v>2.88743</v>
+        <v>8.257290000000001</v>
       </c>
       <c r="AG28">
-        <v>0.8367250000000001</v>
+        <v>0.834598</v>
       </c>
       <c r="AH28">
-        <v>0.351078</v>
+        <v>0.41398</v>
       </c>
       <c r="AI28">
-        <v>0.141039</v>
+        <v>0.141043</v>
       </c>
       <c r="AJ28">
-        <v>0.0705464</v>
+        <v>0.0718892</v>
       </c>
       <c r="AK28">
-        <v>0.07349649999999999</v>
+        <v>0.07710299999999999</v>
       </c>
       <c r="AL28">
-        <v>0.0564258</v>
+        <v>0.0823844</v>
       </c>
       <c r="AM28">
-        <v>0.009606369999999999</v>
-      </c>
-      <c r="AN28" s="2" t="s">
-        <v>62</v>
+        <v>0.04158849999999999</v>
+      </c>
+      <c r="AN28">
+        <v>0.273124</v>
       </c>
       <c r="AO28">
-        <v>874.8870000000001</v>
+        <v>875.015</v>
       </c>
       <c r="AP28">
-        <v>835.793</v>
+        <v>834.174</v>
       </c>
       <c r="AQ28">
-        <v>889.731</v>
+        <v>886.4930000000001</v>
       </c>
       <c r="AR28" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS28" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT28">
-        <v>729.193</v>
+        <v>729.3910000000001</v>
       </c>
       <c r="AU28">
-        <v>784.181</v>
+        <v>781.855</v>
       </c>
       <c r="AV28">
-        <v>743.5</v>
+        <v>740.2809999999999</v>
       </c>
       <c r="AW28" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX28" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:50">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
         <v>113</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>114</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>116</v>
       </c>
       <c r="F29" t="s">
         <v>68</v>
@@ -5078,141 +5078,141 @@
         <v>71</v>
       </c>
       <c r="K29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L29" t="s">
         <v>73</v>
       </c>
       <c r="M29" s="4">
-        <v>46.2493</v>
+        <v>46.5418</v>
       </c>
       <c r="N29">
-        <v>4.34764</v>
+        <v>11.8501</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P29">
-        <v>36.7415</v>
+        <v>37.0578</v>
       </c>
       <c r="Q29">
-        <v>46.2495</v>
+        <v>46.5387</v>
       </c>
       <c r="R29">
-        <v>100</v>
+        <v>99.99339999999999</v>
       </c>
       <c r="S29">
-        <v>36.7415</v>
+        <v>37.0578</v>
       </c>
       <c r="T29">
-        <v>32.9894</v>
+        <v>33.5945</v>
       </c>
       <c r="U29">
-        <v>17.0945</v>
+        <v>17.4054</v>
       </c>
       <c r="V29">
-        <v>14.2356</v>
+        <v>10.7557</v>
       </c>
       <c r="W29">
-        <v>12.2527</v>
+        <v>9.7346</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z29">
-        <v>4.24664</v>
+        <v>9.705580000000001</v>
       </c>
       <c r="AA29">
-        <v>20.9455</v>
+        <v>21.87</v>
       </c>
       <c r="AB29">
-        <v>19.2121</v>
+        <v>12.1753</v>
       </c>
       <c r="AC29">
-        <v>14.9494</v>
+        <v>12.2806</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF29">
-        <v>4.34764</v>
+        <v>11.8501</v>
       </c>
       <c r="AG29">
-        <v>0.680856</v>
+        <v>0.6800850000000001</v>
       </c>
       <c r="AH29">
-        <v>0.305068</v>
+        <v>0.356805</v>
       </c>
       <c r="AI29">
-        <v>0.130723</v>
+        <v>0.131292</v>
       </c>
       <c r="AJ29">
-        <v>0.0572681</v>
+        <v>0.05847169999999999</v>
       </c>
       <c r="AK29">
-        <v>0.0614084</v>
+        <v>0.0657474</v>
       </c>
       <c r="AL29">
-        <v>0.0476162</v>
+        <v>0.06865250000000001</v>
       </c>
       <c r="AM29">
-        <v>0.009478139999999999</v>
-      </c>
-      <c r="AN29" s="2" t="s">
-        <v>62</v>
+        <v>0.0346345</v>
+      </c>
+      <c r="AN29">
+        <v>0.249906</v>
       </c>
       <c r="AO29">
-        <v>875.6690000000001</v>
+        <v>875.86</v>
       </c>
       <c r="AP29">
-        <v>839.948</v>
+        <v>837.849</v>
       </c>
       <c r="AQ29">
-        <v>895.152</v>
+        <v>890.886</v>
       </c>
       <c r="AR29" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS29" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT29">
-        <v>731.845</v>
+        <v>732.106</v>
       </c>
       <c r="AU29">
-        <v>788.328</v>
+        <v>785.0930000000001</v>
       </c>
       <c r="AV29">
-        <v>750.9160000000001</v>
+        <v>746.53</v>
       </c>
       <c r="AW29" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX29" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:50">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>114</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>115</v>
-      </c>
-      <c r="E30" t="s">
-        <v>116</v>
       </c>
       <c r="F30" t="s">
         <v>68</v>
@@ -5230,43 +5230,43 @@
         <v>71</v>
       </c>
       <c r="K30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L30" t="s">
         <v>75</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>62</v>
+      <c r="M30">
+        <v>47.1046</v>
+      </c>
+      <c r="N30">
+        <v>9.53647</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>62</v>
+      <c r="P30">
+        <v>30.2638</v>
+      </c>
+      <c r="Q30">
+        <v>47.1029</v>
+      </c>
+      <c r="R30">
+        <v>99.99640000000001</v>
+      </c>
+      <c r="S30">
+        <v>30.2638</v>
+      </c>
+      <c r="T30">
+        <v>27.3658</v>
+      </c>
+      <c r="U30">
+        <v>16.2069</v>
+      </c>
+      <c r="V30">
+        <v>9.184360000000002</v>
+      </c>
+      <c r="W30">
+        <v>8.22204</v>
       </c>
       <c r="X30" s="2" t="s">
         <v>62</v>
@@ -5274,17 +5274,17 @@
       <c r="Y30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>62</v>
+      <c r="Z30">
+        <v>8.128349999999999</v>
+      </c>
+      <c r="AA30">
+        <v>18.8662</v>
+      </c>
+      <c r="AB30">
+        <v>10.0837</v>
+      </c>
+      <c r="AC30">
+        <v>9.79865</v>
       </c>
       <c r="AD30" s="2" t="s">
         <v>62</v>
@@ -5292,41 +5292,41 @@
       <c r="AE30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ30" s="2" t="s">
-        <v>62</v>
+      <c r="AF30">
+        <v>9.53647</v>
+      </c>
+      <c r="AG30">
+        <v>0.8309530000000001</v>
+      </c>
+      <c r="AH30">
+        <v>0.519943</v>
+      </c>
+      <c r="AI30">
+        <v>0.228349</v>
+      </c>
+      <c r="AJ30">
+        <v>0.0771193</v>
+      </c>
+      <c r="AK30">
+        <v>0.0864169</v>
+      </c>
+      <c r="AL30">
+        <v>0.08686199999999999</v>
+      </c>
+      <c r="AM30">
+        <v>0.0433213</v>
+      </c>
+      <c r="AN30">
+        <v>0.319499</v>
+      </c>
+      <c r="AO30">
+        <v>874.397</v>
+      </c>
+      <c r="AP30">
+        <v>834.1950000000001</v>
+      </c>
+      <c r="AQ30">
+        <v>886.509</v>
       </c>
       <c r="AR30" s="2" t="s">
         <v>62</v>
@@ -5334,14 +5334,14 @@
       <c r="AS30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AT30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV30" s="2" t="s">
-        <v>62</v>
+      <c r="AT30">
+        <v>729.605</v>
+      </c>
+      <c r="AU30">
+        <v>781.7760000000001</v>
+      </c>
+      <c r="AV30">
+        <v>740.894</v>
       </c>
       <c r="AW30" s="2" t="s">
         <v>62</v>
@@ -5352,34 +5352,34 @@
     </row>
     <row r="31" spans="1:50">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
         <v>113</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>114</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>115</v>
       </c>
-      <c r="E31" t="s">
-        <v>116</v>
-      </c>
       <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
         <v>81</v>
-      </c>
-      <c r="G31" t="s">
-        <v>82</v>
       </c>
       <c r="H31" t="s">
         <v>57</v>
       </c>
       <c r="I31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" t="s">
         <v>83</v>
-      </c>
-      <c r="J31" t="s">
-        <v>84</v>
       </c>
       <c r="K31" t="s">
         <v>72</v>
@@ -5388,150 +5388,150 @@
         <v>73</v>
       </c>
       <c r="M31" s="4">
-        <v>46.3448</v>
+        <v>46.3722</v>
       </c>
       <c r="N31">
-        <v>3.5607</v>
+        <v>10.5865</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P31">
-        <v>37.6615</v>
+        <v>38.11810000000001</v>
       </c>
       <c r="Q31">
-        <v>46.3411</v>
+        <v>46.3723</v>
       </c>
       <c r="R31">
-        <v>99.99210000000001</v>
+        <v>100</v>
       </c>
       <c r="S31">
-        <v>37.6615</v>
+        <v>38.11810000000001</v>
       </c>
       <c r="T31">
-        <v>34.0052</v>
+        <v>34.4878</v>
       </c>
       <c r="U31">
-        <v>15.1142</v>
+        <v>15.3663</v>
       </c>
       <c r="V31">
-        <v>12.4368</v>
+        <v>9.352740000000001</v>
       </c>
       <c r="W31">
-        <v>10.691</v>
+        <v>8.53445</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z31">
-        <v>3.48234</v>
+        <v>8.650409999999999</v>
       </c>
       <c r="AA31">
-        <v>18.3406</v>
+        <v>19.9006</v>
       </c>
       <c r="AB31">
-        <v>16.4971</v>
+        <v>10.5478</v>
       </c>
       <c r="AC31">
-        <v>13.305</v>
+        <v>10.977</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF31">
-        <v>3.5607</v>
+        <v>10.5865</v>
       </c>
       <c r="AG31">
-        <v>0.686048</v>
+        <v>0.683944</v>
       </c>
       <c r="AH31">
-        <v>0.221968</v>
+        <v>0.272598</v>
       </c>
       <c r="AI31">
-        <v>0.0592265</v>
+        <v>0.0592296</v>
       </c>
       <c r="AJ31">
-        <v>0.0539222</v>
+        <v>0.0553077</v>
       </c>
       <c r="AK31">
-        <v>0.0577945</v>
+        <v>0.0594561</v>
       </c>
       <c r="AL31">
-        <v>0.0445984</v>
+        <v>0.0653663</v>
       </c>
       <c r="AM31">
-        <v>0.00643959</v>
-      </c>
-      <c r="AN31" s="2" t="s">
-        <v>62</v>
+        <v>0.0332414</v>
+      </c>
+      <c r="AN31">
+        <v>0.213494</v>
       </c>
       <c r="AO31">
-        <v>877.052</v>
+        <v>877.211</v>
       </c>
       <c r="AP31">
-        <v>840.946</v>
+        <v>838.951</v>
       </c>
       <c r="AQ31">
-        <v>896.471</v>
+        <v>892.162</v>
       </c>
       <c r="AR31" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS31" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT31">
-        <v>732.215</v>
+        <v>732.452</v>
       </c>
       <c r="AU31">
-        <v>789.101</v>
+        <v>786.097</v>
       </c>
       <c r="AV31">
-        <v>751.375</v>
+        <v>747.264</v>
       </c>
       <c r="AW31" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX31" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:50">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
         <v>113</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>114</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>115</v>
       </c>
-      <c r="E32" t="s">
-        <v>116</v>
-      </c>
       <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
         <v>81</v>
-      </c>
-      <c r="G32" t="s">
-        <v>82</v>
       </c>
       <c r="H32" t="s">
         <v>57</v>
       </c>
       <c r="I32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" t="s">
         <v>83</v>
-      </c>
-      <c r="J32" t="s">
-        <v>84</v>
       </c>
       <c r="K32" t="s">
         <v>72</v>
@@ -5540,341 +5540,341 @@
         <v>75</v>
       </c>
       <c r="M32">
-        <v>47.1167</v>
+        <v>47.2062</v>
       </c>
       <c r="N32">
-        <v>2.82724</v>
+        <v>8.212159999999999</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P32">
-        <v>29.1948</v>
+        <v>29.5595</v>
       </c>
       <c r="Q32">
-        <v>47.1149</v>
+        <v>47.2079</v>
       </c>
       <c r="R32">
-        <v>99.9962</v>
+        <v>100.004</v>
       </c>
       <c r="S32">
-        <v>29.1948</v>
+        <v>29.5595</v>
       </c>
       <c r="T32">
-        <v>26.3043</v>
+        <v>26.7669</v>
       </c>
       <c r="U32">
-        <v>14.0065</v>
+        <v>14.349</v>
       </c>
       <c r="V32">
-        <v>10.3069</v>
+        <v>7.708400000000001</v>
       </c>
       <c r="W32">
-        <v>8.69431</v>
+        <v>7.02045</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z32">
-        <v>2.81022</v>
+        <v>7.04383</v>
       </c>
       <c r="AA32">
-        <v>15.633</v>
+        <v>16.7996</v>
       </c>
       <c r="AB32">
-        <v>13.0524</v>
+        <v>8.451220000000001</v>
       </c>
       <c r="AC32">
-        <v>10.3081</v>
+        <v>8.440560000000001</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF32">
-        <v>2.82724</v>
+        <v>8.212159999999999</v>
       </c>
       <c r="AG32">
-        <v>0.836731</v>
+        <v>0.834678</v>
       </c>
       <c r="AH32">
-        <v>0.350865</v>
+        <v>0.413708</v>
       </c>
       <c r="AI32">
-        <v>0.141039</v>
+        <v>0.141043</v>
       </c>
       <c r="AJ32">
-        <v>0.0705533</v>
+        <v>0.0718811</v>
       </c>
       <c r="AK32">
-        <v>0.073488</v>
+        <v>0.07710689999999999</v>
       </c>
       <c r="AL32">
-        <v>0.0564239</v>
+        <v>0.08239450000000001</v>
       </c>
       <c r="AM32">
-        <v>0.00939649</v>
-      </c>
-      <c r="AN32" s="2" t="s">
-        <v>62</v>
+        <v>0.0413107</v>
+      </c>
+      <c r="AN32">
+        <v>0.272852</v>
       </c>
       <c r="AO32">
-        <v>874.885</v>
+        <v>875.015</v>
       </c>
       <c r="AP32">
-        <v>835.797</v>
+        <v>834.1660000000001</v>
       </c>
       <c r="AQ32">
-        <v>889.7370000000001</v>
+        <v>886.4930000000001</v>
       </c>
       <c r="AR32" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS32" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT32">
-        <v>729.194</v>
+        <v>729.3920000000001</v>
       </c>
       <c r="AU32">
-        <v>784.1799999999999</v>
+        <v>781.855</v>
       </c>
       <c r="AV32">
-        <v>743.4979999999999</v>
+        <v>740.278</v>
       </c>
       <c r="AW32" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX32" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:50">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" t="s">
         <v>113</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>114</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>115</v>
       </c>
-      <c r="E33" t="s">
-        <v>116</v>
-      </c>
       <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
         <v>81</v>
-      </c>
-      <c r="G33" t="s">
-        <v>82</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
       </c>
       <c r="I33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" t="s">
         <v>83</v>
       </c>
-      <c r="J33" t="s">
-        <v>84</v>
-      </c>
       <c r="K33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L33" t="s">
         <v>73</v>
       </c>
       <c r="M33" s="4">
-        <v>46.256</v>
+        <v>46.5388</v>
       </c>
       <c r="N33">
-        <v>4.28981</v>
+        <v>11.7858</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P33">
-        <v>36.6201</v>
+        <v>37.0093</v>
       </c>
       <c r="Q33">
-        <v>46.2588</v>
+        <v>46.53830000000001</v>
       </c>
       <c r="R33">
-        <v>100.006</v>
+        <v>99.9991</v>
       </c>
       <c r="S33">
-        <v>36.6201</v>
+        <v>37.0093</v>
       </c>
       <c r="T33">
-        <v>32.8798</v>
+        <v>33.5505</v>
       </c>
       <c r="U33">
-        <v>17.0972</v>
+        <v>17.3798</v>
       </c>
       <c r="V33">
-        <v>14.2435</v>
+        <v>10.7557</v>
       </c>
       <c r="W33">
-        <v>12.2451</v>
+        <v>9.732390000000001</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z33">
-        <v>4.22997</v>
+        <v>9.677200000000001</v>
       </c>
       <c r="AA33">
-        <v>20.9521</v>
+        <v>21.8748</v>
       </c>
       <c r="AB33">
-        <v>19.21</v>
+        <v>12.1755</v>
       </c>
       <c r="AC33">
-        <v>14.9491</v>
+        <v>12.2798</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF33">
-        <v>4.28981</v>
+        <v>11.7858</v>
       </c>
       <c r="AG33">
-        <v>0.680855</v>
+        <v>0.680099</v>
       </c>
       <c r="AH33">
-        <v>0.304893</v>
+        <v>0.356586</v>
       </c>
       <c r="AI33">
-        <v>0.130723</v>
+        <v>0.131292</v>
       </c>
       <c r="AJ33">
-        <v>0.0572644</v>
+        <v>0.05846589999999999</v>
       </c>
       <c r="AK33">
-        <v>0.0613928</v>
+        <v>0.06574919999999999</v>
       </c>
       <c r="AL33">
-        <v>0.0476174</v>
+        <v>0.0686539</v>
       </c>
       <c r="AM33">
-        <v>0.00932148</v>
-      </c>
-      <c r="AN33" s="2" t="s">
-        <v>62</v>
+        <v>0.0344185</v>
+      </c>
+      <c r="AN33">
+        <v>0.249688</v>
       </c>
       <c r="AO33">
-        <v>875.671</v>
+        <v>875.86</v>
       </c>
       <c r="AP33">
-        <v>839.942</v>
+        <v>837.84</v>
       </c>
       <c r="AQ33">
-        <v>895.15</v>
+        <v>890.8820000000001</v>
       </c>
       <c r="AR33" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AS33" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AT33">
-        <v>731.846</v>
+        <v>732.106</v>
       </c>
       <c r="AU33">
-        <v>788.328</v>
+        <v>785.096</v>
       </c>
       <c r="AV33">
-        <v>750.918</v>
+        <v>746.53</v>
       </c>
       <c r="AW33" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AX33" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:50">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
         <v>113</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>114</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>115</v>
       </c>
-      <c r="E34" t="s">
-        <v>116</v>
-      </c>
       <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
         <v>81</v>
-      </c>
-      <c r="G34" t="s">
-        <v>82</v>
       </c>
       <c r="H34" t="s">
         <v>57</v>
       </c>
       <c r="I34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" t="s">
         <v>83</v>
       </c>
-      <c r="J34" t="s">
-        <v>84</v>
-      </c>
       <c r="K34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L34" t="s">
         <v>75</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>62</v>
+      <c r="M34">
+        <v>47.1</v>
+      </c>
+      <c r="N34">
+        <v>9.487439999999999</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>62</v>
+      <c r="P34">
+        <v>30.2284</v>
+      </c>
+      <c r="Q34">
+        <v>47.0985</v>
+      </c>
+      <c r="R34">
+        <v>99.9969</v>
+      </c>
+      <c r="S34">
+        <v>30.2284</v>
+      </c>
+      <c r="T34">
+        <v>27.3242</v>
+      </c>
+      <c r="U34">
+        <v>16.2121</v>
+      </c>
+      <c r="V34">
+        <v>9.18576</v>
+      </c>
+      <c r="W34">
+        <v>8.223650000000001</v>
       </c>
       <c r="X34" s="2" t="s">
         <v>62</v>
@@ -5882,17 +5882,17 @@
       <c r="Y34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>62</v>
+      <c r="Z34">
+        <v>8.10727</v>
+      </c>
+      <c r="AA34">
+        <v>18.8671</v>
+      </c>
+      <c r="AB34">
+        <v>10.0745</v>
+      </c>
+      <c r="AC34">
+        <v>9.799389999999999</v>
       </c>
       <c r="AD34" s="2" t="s">
         <v>62</v>
@@ -5900,41 +5900,41 @@
       <c r="AE34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ34" s="2" t="s">
-        <v>62</v>
+      <c r="AF34">
+        <v>9.487439999999999</v>
+      </c>
+      <c r="AG34">
+        <v>0.830965</v>
+      </c>
+      <c r="AH34">
+        <v>0.519698</v>
+      </c>
+      <c r="AI34">
+        <v>0.228349</v>
+      </c>
+      <c r="AJ34">
+        <v>0.0771215</v>
+      </c>
+      <c r="AK34">
+        <v>0.08642279999999999</v>
+      </c>
+      <c r="AL34">
+        <v>0.08685849999999999</v>
+      </c>
+      <c r="AM34">
+        <v>0.0430708</v>
+      </c>
+      <c r="AN34">
+        <v>0.319254</v>
+      </c>
+      <c r="AO34">
+        <v>874.396</v>
+      </c>
+      <c r="AP34">
+        <v>834.199</v>
+      </c>
+      <c r="AQ34">
+        <v>886.509</v>
       </c>
       <c r="AR34" s="2" t="s">
         <v>62</v>
@@ -5942,14 +5942,14 @@
       <c r="AS34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AT34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV34" s="2" t="s">
-        <v>62</v>
+      <c r="AT34">
+        <v>729.603</v>
+      </c>
+      <c r="AU34">
+        <v>781.774</v>
+      </c>
+      <c r="AV34">
+        <v>740.89</v>
       </c>
       <c r="AW34" s="2" t="s">
         <v>62</v>
@@ -6112,121 +6112,121 @@
     </row>
     <row r="36" spans="1:50" s="1" customFormat="1">
       <c r="L36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M36" s="4">
+        <v>46.3678</v>
+      </c>
+      <c r="N36" s="1">
+        <v>6.292120000000001</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M36" s="4">
-        <v>46.2493</v>
-      </c>
-      <c r="N36" s="1">
-        <v>2.47374</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="P36" s="1">
-        <v>22.6185</v>
+        <v>22.8706</v>
       </c>
       <c r="Q36" s="1">
-        <v>46.2495</v>
+        <v>46.3681</v>
       </c>
       <c r="R36" s="1">
-        <v>99.99210000000001</v>
+        <v>99.9897</v>
       </c>
       <c r="S36" s="1">
-        <v>22.1644</v>
+        <v>22.4418</v>
       </c>
       <c r="T36" s="1">
-        <v>22.6185</v>
+        <v>22.8706</v>
       </c>
       <c r="U36" s="1">
-        <v>13.7512</v>
+        <v>14.3484</v>
       </c>
       <c r="V36" s="1">
-        <v>9.747590000000001</v>
+        <v>7.17268</v>
       </c>
       <c r="W36" s="1">
-        <v>7.83447</v>
+        <v>6.50034</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="Z36" s="1">
-        <v>2.47374</v>
+        <v>6.292120000000001</v>
       </c>
       <c r="AA36" s="1">
-        <v>13.5268</v>
+        <v>14.0818</v>
       </c>
       <c r="AB36" s="1">
-        <v>9.65626</v>
+        <v>6.851059999999999</v>
       </c>
       <c r="AC36" s="1">
-        <v>7.80776</v>
+        <v>6.16588</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AF36" s="1">
-        <v>2.45174</v>
+        <v>6.20543</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.6780929999999999</v>
+        <v>0.677951</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.173628</v>
+        <v>0.224975</v>
       </c>
       <c r="AI36" s="1">
-        <v>0.0204354</v>
+        <v>0.0204357</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.0500519</v>
+        <v>0.0522427</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.0549744</v>
+        <v>0.0567213</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.0430048</v>
+        <v>0.0630826</v>
       </c>
       <c r="AM36" s="1">
-        <v>0.005376649999999999</v>
-      </c>
-      <c r="AN36" s="1" t="s">
-        <v>62</v>
+        <v>0.0326931</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>0.204756</v>
       </c>
       <c r="AO36" s="1">
-        <v>874.885</v>
+        <v>874.396</v>
       </c>
       <c r="AP36" s="1">
-        <v>830.985</v>
+        <v>829.5790000000001</v>
       </c>
       <c r="AQ36" s="1">
-        <v>887.048</v>
+        <v>884.3710000000001</v>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AT36" s="1">
-        <v>724.12</v>
+        <v>724.268</v>
       </c>
       <c r="AU36" s="1">
-        <v>781.8240000000001</v>
+        <v>780.0319999999999</v>
       </c>
       <c r="AV36" s="1">
-        <v>736.21</v>
+        <v>733.673</v>
       </c>
       <c r="AW36" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="1" customFormat="1">
@@ -6234,118 +6234,118 @@
         <v>125</v>
       </c>
       <c r="M37" s="3">
-        <v>53.5793</v>
+        <v>53.4545</v>
       </c>
       <c r="N37" s="1">
-        <v>5.00841</v>
+        <v>13.3148</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="P37" s="1">
-        <v>48.9959</v>
+        <v>49.52979999999999</v>
       </c>
       <c r="Q37" s="1">
-        <v>53.5791</v>
+        <v>53.4535</v>
       </c>
       <c r="R37" s="1">
-        <v>100.006</v>
+        <v>100.007</v>
       </c>
       <c r="S37" s="1">
-        <v>48.9959</v>
+        <v>49.52979999999999</v>
       </c>
       <c r="T37" s="1">
-        <v>48.27070000000001</v>
+        <v>48.7348</v>
       </c>
       <c r="U37" s="1">
-        <v>20.41</v>
+        <v>21.1675</v>
       </c>
       <c r="V37" s="1">
-        <v>19.2676</v>
+        <v>14.0285</v>
       </c>
       <c r="W37" s="1">
-        <v>16.4199</v>
+        <v>13.6364</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="Z37" s="1">
-        <v>4.90866</v>
+        <v>13.1341</v>
       </c>
       <c r="AA37" s="1">
-        <v>20.9521</v>
+        <v>21.8748</v>
       </c>
       <c r="AB37" s="1">
-        <v>19.5538</v>
+        <v>13.3594</v>
       </c>
       <c r="AC37" s="1">
-        <v>16.7353</v>
+        <v>13.397</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AF37" s="1">
-        <v>5.00841</v>
+        <v>13.3148</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.839592</v>
+        <v>0.836517</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.6385149999999999</v>
+        <v>0.7115039999999999</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.375298</v>
+        <v>0.37694</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.0915783</v>
+        <v>0.09254799999999999</v>
       </c>
       <c r="AK37" s="1">
-        <v>0.0892085</v>
+        <v>0.105435</v>
       </c>
       <c r="AL37" s="1">
-        <v>0.06765310000000001</v>
+        <v>0.0960498</v>
       </c>
       <c r="AM37" s="1">
-        <v>0.0183981</v>
-      </c>
-      <c r="AN37" s="1" t="s">
-        <v>62</v>
+        <v>0.0457938</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>0.398554</v>
       </c>
       <c r="AO37" s="1">
-        <v>882.893</v>
+        <v>883.194</v>
       </c>
       <c r="AP37" s="1">
-        <v>847.302</v>
+        <v>844.604</v>
       </c>
       <c r="AQ37" s="1">
-        <v>910.005</v>
+        <v>904.422</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AS37" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AT37" s="1">
-        <v>732.6800000000001</v>
+        <v>732.9860000000001</v>
       </c>
       <c r="AU37" s="1">
-        <v>797.212</v>
+        <v>794.064</v>
       </c>
       <c r="AV37" s="1">
-        <v>759.9639999999999</v>
+        <v>754.554</v>
       </c>
       <c r="AW37" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AX37" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="1" customFormat="1">
@@ -6388,118 +6388,118 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>49.77203750000001</v>
+        <v>49.76282424242424</v>
       </c>
       <c r="N42" s="1">
-        <v>3.6041075</v>
+        <v>9.68336212121212</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="P42" s="1">
-        <v>34.13144166666666</v>
+        <v>33.52553333333334</v>
       </c>
       <c r="Q42" s="1">
-        <v>49.77186666666667</v>
+        <v>49.76274848484849</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99958333333332</v>
+        <v>99.9999</v>
       </c>
       <c r="S42" s="1">
-        <v>33.30388333333332</v>
+        <v>32.7946</v>
       </c>
       <c r="T42" s="1">
-        <v>33.07597916666667</v>
+        <v>32.55745757575758</v>
       </c>
       <c r="U42" s="1">
-        <v>16.81210833333333</v>
+        <v>17.38052424242425</v>
       </c>
       <c r="V42" s="1">
-        <v>14.2074</v>
+        <v>10.10021484848485</v>
       </c>
       <c r="W42" s="1">
-        <v>11.75002375</v>
+        <v>9.612674545454546</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="Z42" s="1">
-        <v>3.552300416666666</v>
+        <v>9.252007575757577</v>
       </c>
       <c r="AA42" s="1">
-        <v>16.79877083333333</v>
+        <v>17.37080303030303</v>
       </c>
       <c r="AB42" s="1">
-        <v>14.2445</v>
+        <v>9.600136666666666</v>
       </c>
       <c r="AC42" s="1">
-        <v>11.80105583333333</v>
+        <v>9.249082424242424</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AF42" s="1">
-        <v>3.599972916666667</v>
+        <v>9.223936969696968</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7467557500000001</v>
+        <v>0.7574013333333334</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3285177916666667</v>
+        <v>0.3959166666666666</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1368451166666667</v>
+        <v>0.1419082121212121</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.06435007083333334</v>
+        <v>0.06705372424242424</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.0670395125</v>
+        <v>0.07357111212121209</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.05163328333333333</v>
+        <v>0.0763559</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.009502140416666666</v>
-      </c>
-      <c r="AN42" s="1" t="s">
-        <v>62</v>
+        <v>0.03813786363636362</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>0.2673236060606061</v>
       </c>
       <c r="AO42" s="1">
-        <v>878.4947083333332</v>
+        <v>878.3806363636365</v>
       </c>
       <c r="AP42" s="1">
-        <v>837.9183750000001</v>
+        <v>835.2914545454545</v>
       </c>
       <c r="AQ42" s="1">
-        <v>896.532</v>
+        <v>891.7676666666666</v>
       </c>
       <c r="AR42" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AS42" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AT42" s="1">
-        <v>728.2532083333334</v>
+        <v>728.1944848484849</v>
       </c>
       <c r="AU42" s="1">
-        <v>788.2915000000002</v>
+        <v>785.1755454545456</v>
       </c>
       <c r="AV42" s="1">
-        <v>746.3353750000001</v>
+        <v>741.7243636363635</v>
       </c>
       <c r="AW42" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AX42" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="1" customFormat="1">
@@ -6507,118 +6507,118 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>2.368719335916299</v>
+        <v>2.137287048265869</v>
       </c>
       <c r="N43" s="1">
-        <v>0.7138848011773911</v>
+        <v>1.900491832105984</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="P43" s="1">
-        <v>7.818646031012269</v>
+        <v>7.156176982484885</v>
       </c>
       <c r="Q43" s="1">
-        <v>2.368988355759104</v>
+        <v>2.137506252497849</v>
       </c>
       <c r="R43" s="1">
-        <v>0.002854333936703695</v>
+        <v>0.003422386195731166</v>
       </c>
       <c r="S43" s="1">
-        <v>7.989488613884427</v>
+        <v>7.309879935215949</v>
       </c>
       <c r="T43" s="1">
-        <v>7.586131157303833</v>
+        <v>6.946260603398162</v>
       </c>
       <c r="U43" s="1">
-        <v>2.13573342611632</v>
+        <v>2.053197488623803</v>
       </c>
       <c r="V43" s="1">
-        <v>3.033113657573407</v>
+        <v>1.851572521593995</v>
       </c>
       <c r="W43" s="1">
-        <v>2.576336033149941</v>
+        <v>2.053307702367219</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="Z43" s="1">
-        <v>0.6914720132169678</v>
+        <v>1.884116002055124</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.381165913384864</v>
+        <v>2.337473758917345</v>
       </c>
       <c r="AB43" s="1">
-        <v>3.151423594287721</v>
+        <v>1.751757847629436</v>
       </c>
       <c r="AC43" s="1">
-        <v>2.646872764989087</v>
+        <v>2.020135472372973</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AF43" s="1">
-        <v>0.7179957602502444</v>
+        <v>1.905081169613269</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07478311898151994</v>
+        <v>0.07427331034630123</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1291668941244166</v>
+        <v>0.1221898313369882</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.09931848363932426</v>
+        <v>0.08934766287239551</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.01234675828191619</v>
+        <v>0.01113670411689613</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.0102163474623726</v>
+        <v>0.01285456622656659</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.007362652844687768</v>
+        <v>0.009766686589099549</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.003520140743359891</v>
-      </c>
-      <c r="AN43" s="1" t="s">
-        <v>62</v>
+        <v>0.004306747409470483</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>0.04950624553371839</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.921766339037138</v>
+        <v>2.74701268949625</v>
       </c>
       <c r="AP43" s="1">
-        <v>4.899818523956594</v>
+        <v>4.09111320770239</v>
       </c>
       <c r="AQ43" s="1">
-        <v>6.993434587763963</v>
+        <v>5.548111153693416</v>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AS43" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AT43" s="1">
-        <v>3.168048610464167</v>
+        <v>2.9757957236955</v>
       </c>
       <c r="AU43" s="1">
-        <v>4.604023521153347</v>
+        <v>3.795147109305129</v>
       </c>
       <c r="AV43" s="1">
-        <v>7.32124660271105</v>
+        <v>5.855453484072108</v>
       </c>
       <c r="AW43" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AX43" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:50" s="1" customFormat="1">
@@ -6626,118 +6626,118 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>4.759136766133592</v>
+        <v>4.294947243857937</v>
       </c>
       <c r="N44" s="1">
-        <v>19.80753352050101</v>
+        <v>19.62636332625438</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="P44" s="1">
-        <v>22.90745907357347</v>
+        <v>21.34545306508139</v>
       </c>
       <c r="Q44" s="1">
-        <v>4.759693606881874</v>
+        <v>4.295394281022613</v>
       </c>
       <c r="R44" s="1">
-        <v>0.002854345829811319</v>
+        <v>0.003422389618120784</v>
       </c>
       <c r="S44" s="1">
-        <v>23.98966070688782</v>
+        <v>22.28988899152893</v>
       </c>
       <c r="T44" s="1">
-        <v>22.93546963214014</v>
+        <v>21.33539017054691</v>
       </c>
       <c r="U44" s="1">
-        <v>12.70354308794101</v>
+        <v>11.81320804819073</v>
       </c>
       <c r="V44" s="1">
-        <v>21.34882988846241</v>
+        <v>18.33201124302571</v>
       </c>
       <c r="W44" s="1">
-        <v>21.92621979295949</v>
+        <v>21.36042048087592</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="Z44" s="1">
-        <v>19.46547116265062</v>
+        <v>20.36440185146354</v>
       </c>
       <c r="AA44" s="1">
-        <v>14.17464371059806</v>
+        <v>13.45633679018562</v>
       </c>
       <c r="AB44" s="1">
-        <v>22.12379230080186</v>
+        <v>18.24721781005308</v>
       </c>
       <c r="AC44" s="1">
-        <v>22.42911822781749</v>
+        <v>21.8414690205168</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AF44" s="1">
-        <v>19.94447671887099</v>
+        <v>20.65366638857091</v>
       </c>
       <c r="AG44" s="1">
-        <v>10.01440149359679</v>
+        <v>9.806334776230642</v>
       </c>
       <c r="AH44" s="1">
-        <v>39.31808182111394</v>
+        <v>30.86251265089157</v>
       </c>
       <c r="AI44" s="1">
-        <v>72.57729472455242</v>
+        <v>62.96158730833592</v>
       </c>
       <c r="AJ44" s="1">
-        <v>19.18686043702157</v>
+        <v>16.60862874168299</v>
       </c>
       <c r="AK44" s="1">
-        <v>15.23929259236872</v>
+        <v>17.47230109202108</v>
       </c>
       <c r="AL44" s="1">
-        <v>14.25950931137978</v>
+        <v>12.79100447915557</v>
       </c>
       <c r="AM44" s="1">
-        <v>37.04576641685485</v>
-      </c>
-      <c r="AN44" s="1" t="s">
-        <v>62</v>
+        <v>11.29257645507992</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>18.51921955687468</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.3325878131446311</v>
+        <v>0.3127360253373149</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.5847608394978322</v>
+        <v>0.4897827202037732</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.780054095979169</v>
+        <v>0.6221476020129402</v>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AS44" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.4350202064628734</v>
+        <v>0.4086539771465961</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.5840508899503986</v>
+        <v>0.4833501414143103</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.9809593445454799</v>
+        <v>0.7894379328953515</v>
       </c>
       <c r="AW44" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AX44" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:50" s="1" customFormat="1"/>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="133">
   <si>
     <t>Process</t>
   </si>
@@ -443,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,12 +462,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6FFF5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -481,12 +475,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,115 +973,115 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>49.9192</v>
+        <v>50.6318</v>
       </c>
       <c r="N2">
-        <v>8.60561</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>62</v>
+        <v>8.55503</v>
+      </c>
+      <c r="O2">
+        <v>16.5743</v>
       </c>
       <c r="P2">
-        <v>31.02820000000001</v>
+        <v>31.2381</v>
       </c>
       <c r="Q2">
-        <v>49.9194</v>
+        <v>50.6319</v>
       </c>
       <c r="R2">
         <v>100</v>
       </c>
       <c r="S2">
-        <v>31.02820000000001</v>
+        <v>30.6092</v>
       </c>
       <c r="T2">
-        <v>30.9522</v>
+        <v>31.2381</v>
       </c>
       <c r="U2">
-        <v>16.4088</v>
+        <v>16.5743</v>
       </c>
       <c r="V2">
-        <v>9.18032</v>
+        <v>9.21899</v>
       </c>
       <c r="W2">
-        <v>8.84943</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>62</v>
+        <v>8.89479</v>
+      </c>
+      <c r="X2">
+        <v>7.54544</v>
+      </c>
+      <c r="Y2">
+        <v>7.54544</v>
       </c>
       <c r="Z2">
-        <v>8.60561</v>
+        <v>7.54605</v>
       </c>
       <c r="AA2">
-        <v>16.1441</v>
+        <v>16.2816</v>
       </c>
       <c r="AB2">
-        <v>8.70234</v>
+        <v>8.901149999999999</v>
       </c>
       <c r="AC2">
-        <v>8.444540000000002</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>62</v>
+        <v>8.57306</v>
+      </c>
+      <c r="AD2">
+        <v>8.55503</v>
+      </c>
+      <c r="AE2">
+        <v>8.55503</v>
       </c>
       <c r="AF2">
-        <v>8.53345</v>
+        <v>8.55503</v>
       </c>
       <c r="AG2">
-        <v>0.75827</v>
+        <v>0.758652</v>
       </c>
       <c r="AH2">
-        <v>0.354164</v>
+        <v>0.357536</v>
       </c>
       <c r="AI2">
-        <v>0.10753</v>
+        <v>0.107532</v>
       </c>
       <c r="AJ2">
-        <v>0.06464819999999999</v>
+        <v>0.06554610000000001</v>
       </c>
       <c r="AK2">
-        <v>0.06976599999999999</v>
+        <v>0.07119689999999999</v>
       </c>
       <c r="AL2">
-        <v>0.07461959999999999</v>
+        <v>0.07532709999999999</v>
       </c>
       <c r="AM2">
-        <v>0.0375716</v>
+        <v>0.0379068</v>
       </c>
       <c r="AN2">
-        <v>0.247211</v>
+        <v>0.250583</v>
       </c>
       <c r="AO2">
-        <v>878.1780000000001</v>
+        <v>878.2020000000001</v>
       </c>
       <c r="AP2">
-        <v>834.4299999999999</v>
+        <v>834.6420000000001</v>
       </c>
       <c r="AQ2">
-        <v>890.6030000000001</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>62</v>
+        <v>890.8489999999999</v>
+      </c>
+      <c r="AR2">
+        <v>746.234</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT2">
-        <v>727.788</v>
+        <v>727.917</v>
       </c>
       <c r="AU2">
-        <v>784.4530000000001</v>
+        <v>784.571</v>
       </c>
       <c r="AV2">
-        <v>740.356</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>62</v>
+        <v>740.61</v>
+      </c>
+      <c r="AW2">
+        <v>796.8630000000001</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>62</v>
@@ -1132,115 +1125,115 @@
         <v>73</v>
       </c>
       <c r="M3">
-        <v>50.4321</v>
+        <v>51.0545</v>
       </c>
       <c r="N3">
-        <v>7.45886</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>62</v>
+        <v>7.327290000000001</v>
+      </c>
+      <c r="O3">
+        <v>15.5718</v>
       </c>
       <c r="P3">
-        <v>27.4176</v>
+        <v>27.6898</v>
       </c>
       <c r="Q3">
-        <v>50.4325</v>
+        <v>51.0551</v>
       </c>
       <c r="R3">
         <v>100.001</v>
       </c>
       <c r="S3">
-        <v>26.9854</v>
+        <v>26.632</v>
       </c>
       <c r="T3">
-        <v>27.4176</v>
+        <v>27.6898</v>
       </c>
       <c r="U3">
-        <v>15.3938</v>
+        <v>15.5718</v>
       </c>
       <c r="V3">
-        <v>8.11774</v>
+        <v>8.14738</v>
       </c>
       <c r="W3">
-        <v>7.64996</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>62</v>
+        <v>7.691750000000001</v>
+      </c>
+      <c r="X3">
+        <v>6.54312</v>
+      </c>
+      <c r="Y3">
+        <v>6.54312</v>
       </c>
       <c r="Z3">
-        <v>7.45886</v>
+        <v>6.54548</v>
       </c>
       <c r="AA3">
-        <v>14.9381</v>
+        <v>15.0642</v>
       </c>
       <c r="AB3">
-        <v>7.69363</v>
+        <v>7.86344</v>
       </c>
       <c r="AC3">
-        <v>7.20539</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>62</v>
+        <v>7.31876</v>
+      </c>
+      <c r="AD3">
+        <v>7.327290000000001</v>
+      </c>
+      <c r="AE3">
+        <v>7.327290000000001</v>
       </c>
       <c r="AF3">
-        <v>7.31745</v>
+        <v>7.327290000000001</v>
       </c>
       <c r="AG3">
-        <v>0.682414</v>
+        <v>0.682752</v>
       </c>
       <c r="AH3">
-        <v>0.359761</v>
+        <v>0.362997</v>
       </c>
       <c r="AI3">
-        <v>0.129436</v>
+        <v>0.129438</v>
       </c>
       <c r="AJ3">
-        <v>0.06121429999999999</v>
+        <v>0.06211610000000001</v>
       </c>
       <c r="AK3">
-        <v>0.06601599999999999</v>
+        <v>0.0674067</v>
       </c>
       <c r="AL3">
-        <v>0.06885480000000001</v>
+        <v>0.06952120000000001</v>
       </c>
       <c r="AM3">
-        <v>0.0342527</v>
+        <v>0.0345298</v>
       </c>
       <c r="AN3">
-        <v>0.23078</v>
+        <v>0.234016</v>
       </c>
       <c r="AO3">
-        <v>877.2910000000001</v>
+        <v>877.318</v>
       </c>
       <c r="AP3">
-        <v>832.151</v>
+        <v>832.353</v>
       </c>
       <c r="AQ3">
-        <v>887.9730000000001</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>62</v>
+        <v>888.199</v>
+      </c>
+      <c r="AR3">
+        <v>742.2569999999999</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT3">
-        <v>726.2629999999999</v>
+        <v>726.3869999999999</v>
       </c>
       <c r="AU3">
-        <v>782.64</v>
+        <v>782.759</v>
       </c>
       <c r="AV3">
-        <v>737.13</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>62</v>
+        <v>737.371</v>
+      </c>
+      <c r="AW3">
+        <v>793.3149999999999</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>62</v>
@@ -1284,115 +1277,115 @@
         <v>75</v>
       </c>
       <c r="M4">
-        <v>50.4156</v>
+        <v>50.928</v>
       </c>
       <c r="N4">
-        <v>6.31104</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>62</v>
+        <v>6.24373</v>
+      </c>
+      <c r="O4">
+        <v>14.6895</v>
       </c>
       <c r="P4">
-        <v>22.8907</v>
+        <v>23.1267</v>
       </c>
       <c r="Q4">
-        <v>50.4104</v>
+        <v>50.9288</v>
       </c>
       <c r="R4">
-        <v>99.9897</v>
+        <v>100.002</v>
       </c>
       <c r="S4">
-        <v>22.4877</v>
+        <v>22.1971</v>
       </c>
       <c r="T4">
-        <v>22.8907</v>
+        <v>23.1267</v>
       </c>
       <c r="U4">
-        <v>14.5031</v>
+        <v>14.6895</v>
       </c>
       <c r="V4">
-        <v>7.17849</v>
+        <v>7.21039</v>
       </c>
       <c r="W4">
-        <v>6.50122</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>62</v>
+        <v>6.534960000000001</v>
+      </c>
+      <c r="X4">
+        <v>5.544110000000001</v>
+      </c>
+      <c r="Y4">
+        <v>5.544110000000001</v>
       </c>
       <c r="Z4">
-        <v>6.31104</v>
+        <v>5.54606</v>
       </c>
       <c r="AA4">
-        <v>14.1908</v>
+        <v>14.3168</v>
       </c>
       <c r="AB4">
-        <v>6.851059999999999</v>
+        <v>7.016500000000001</v>
       </c>
       <c r="AC4">
-        <v>6.16668</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>62</v>
+        <v>6.26639</v>
+      </c>
+      <c r="AD4">
+        <v>6.24373</v>
+      </c>
+      <c r="AE4">
+        <v>6.24373</v>
       </c>
       <c r="AF4">
-        <v>6.23939</v>
+        <v>6.24373</v>
       </c>
       <c r="AG4">
-        <v>0.833026</v>
+        <v>0.833388</v>
       </c>
       <c r="AH4">
-        <v>0.5433439999999999</v>
+        <v>0.5476139999999999</v>
       </c>
       <c r="AI4">
-        <v>0.240594</v>
+        <v>0.240596</v>
       </c>
       <c r="AJ4">
-        <v>0.0834772</v>
+        <v>0.0845402</v>
       </c>
       <c r="AK4">
-        <v>0.08896140000000001</v>
+        <v>0.0907945</v>
       </c>
       <c r="AL4">
-        <v>0.0876034</v>
+        <v>0.08848250000000001</v>
       </c>
       <c r="AM4">
-        <v>0.0428352</v>
+        <v>0.0433295</v>
       </c>
       <c r="AN4">
-        <v>0.303434</v>
+        <v>0.307704</v>
       </c>
       <c r="AO4">
-        <v>875.6070000000001</v>
+        <v>875.619</v>
       </c>
       <c r="AP4">
-        <v>829.59</v>
+        <v>829.775</v>
       </c>
       <c r="AQ4">
-        <v>884.379</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>62</v>
+        <v>884.559</v>
+      </c>
+      <c r="AR4">
+        <v>737.8200000000001</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT4">
-        <v>724.739</v>
+        <v>724.8510000000001</v>
       </c>
       <c r="AU4">
-        <v>780.0319999999999</v>
+        <v>780.1320000000001</v>
       </c>
       <c r="AV4">
-        <v>733.675</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>62</v>
+        <v>733.8910000000001</v>
+      </c>
+      <c r="AW4">
+        <v>788.7520000000001</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>62</v>
@@ -1436,115 +1429,115 @@
         <v>73</v>
       </c>
       <c r="M5">
-        <v>50.0197</v>
+        <v>50.7311</v>
       </c>
       <c r="N5">
-        <v>8.555290000000001</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>62</v>
+        <v>8.56762</v>
+      </c>
+      <c r="O5">
+        <v>17.8278</v>
       </c>
       <c r="P5">
-        <v>27.461</v>
+        <v>27.7809</v>
       </c>
       <c r="Q5">
-        <v>50.0182</v>
+        <v>50.73</v>
       </c>
       <c r="R5">
-        <v>99.9971</v>
+        <v>99.998</v>
       </c>
       <c r="S5">
-        <v>27.4421</v>
+        <v>27.0487</v>
       </c>
       <c r="T5">
-        <v>27.461</v>
+        <v>27.7809</v>
       </c>
       <c r="U5">
-        <v>17.5814</v>
+        <v>17.8278</v>
       </c>
       <c r="V5">
-        <v>9.780419999999999</v>
+        <v>9.857060000000001</v>
       </c>
       <c r="W5">
-        <v>8.858379999999999</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>62</v>
+        <v>8.91968</v>
+      </c>
+      <c r="X5">
+        <v>7.50073</v>
+      </c>
+      <c r="Y5">
+        <v>7.50073</v>
       </c>
       <c r="Z5">
-        <v>8.46542</v>
+        <v>7.50271</v>
       </c>
       <c r="AA5">
-        <v>17.3344</v>
+        <v>17.4892</v>
       </c>
       <c r="AB5">
-        <v>9.409509999999999</v>
+        <v>9.624650000000001</v>
       </c>
       <c r="AC5">
-        <v>8.579499999999999</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>62</v>
+        <v>8.726700000000001</v>
+      </c>
+      <c r="AD5">
+        <v>8.56762</v>
+      </c>
+      <c r="AE5">
+        <v>8.56762</v>
       </c>
       <c r="AF5">
-        <v>8.555290000000001</v>
+        <v>8.56762</v>
       </c>
       <c r="AG5">
-        <v>0.677951</v>
+        <v>0.678118</v>
       </c>
       <c r="AH5">
-        <v>0.503061</v>
+        <v>0.5069090000000001</v>
       </c>
       <c r="AI5">
-        <v>0.248422</v>
+        <v>0.248625</v>
       </c>
       <c r="AJ5">
-        <v>0.0684544</v>
+        <v>0.0693096</v>
       </c>
       <c r="AK5">
-        <v>0.07882500000000001</v>
+        <v>0.080369</v>
       </c>
       <c r="AL5">
-        <v>0.0755755</v>
+        <v>0.0764008</v>
       </c>
       <c r="AM5">
-        <v>0.0366148</v>
+        <v>0.0372371</v>
       </c>
       <c r="AN5">
-        <v>0.31122</v>
+        <v>0.315067</v>
       </c>
       <c r="AO5">
-        <v>876.547</v>
+        <v>876.5630000000001</v>
       </c>
       <c r="AP5">
-        <v>832.1600000000001</v>
+        <v>832.374</v>
       </c>
       <c r="AQ5">
-        <v>887.655</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>62</v>
+        <v>887.8920000000001</v>
+      </c>
+      <c r="AR5">
+        <v>742.6750000000001</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT5">
-        <v>726.399</v>
+        <v>726.53</v>
       </c>
       <c r="AU5">
-        <v>782.227</v>
+        <v>782.351</v>
       </c>
       <c r="AV5">
-        <v>737.543</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>62</v>
+        <v>737.812</v>
+      </c>
+      <c r="AW5">
+        <v>793.4060000000001</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>62</v>
@@ -1588,115 +1581,115 @@
         <v>75</v>
       </c>
       <c r="M6">
-        <v>50.0289</v>
+        <v>50.6464</v>
       </c>
       <c r="N6">
-        <v>7.43289</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>62</v>
+        <v>7.44069</v>
+      </c>
+      <c r="O6">
+        <v>16.8536</v>
       </c>
       <c r="P6">
-        <v>23.8813</v>
+        <v>24.173</v>
       </c>
       <c r="Q6">
-        <v>50.0286</v>
+        <v>50.6467</v>
       </c>
       <c r="R6">
-        <v>99.99930000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S6">
-        <v>23.8542</v>
+        <v>23.5249</v>
       </c>
       <c r="T6">
-        <v>23.8813</v>
+        <v>24.173</v>
       </c>
       <c r="U6">
-        <v>16.6228</v>
+        <v>16.8536</v>
       </c>
       <c r="V6">
-        <v>8.813690000000001</v>
+        <v>8.88973</v>
       </c>
       <c r="W6">
-        <v>7.721190000000001</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>62</v>
+        <v>7.77168</v>
+      </c>
+      <c r="X6">
+        <v>6.50901</v>
+      </c>
+      <c r="Y6">
+        <v>6.50901</v>
       </c>
       <c r="Z6">
-        <v>7.341290000000001</v>
+        <v>6.50924</v>
       </c>
       <c r="AA6">
-        <v>16.4364</v>
+        <v>16.5645</v>
       </c>
       <c r="AB6">
-        <v>8.495190000000001</v>
+        <v>8.697320000000001</v>
       </c>
       <c r="AC6">
-        <v>7.478619999999999</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>62</v>
+        <v>7.60567</v>
+      </c>
+      <c r="AD6">
+        <v>7.44069</v>
+      </c>
+      <c r="AE6">
+        <v>7.44069</v>
       </c>
       <c r="AF6">
-        <v>7.43289</v>
+        <v>7.44069</v>
       </c>
       <c r="AG6">
-        <v>0.828259</v>
+        <v>0.828441</v>
       </c>
       <c r="AH6">
-        <v>0.7115039999999999</v>
+        <v>0.7166089999999999</v>
       </c>
       <c r="AI6">
-        <v>0.37694</v>
+        <v>0.377166</v>
       </c>
       <c r="AJ6">
-        <v>0.09254620000000001</v>
+        <v>0.0936574</v>
       </c>
       <c r="AK6">
-        <v>0.105428</v>
+        <v>0.10744</v>
       </c>
       <c r="AL6">
-        <v>0.0960473</v>
+        <v>0.0971089</v>
       </c>
       <c r="AM6">
-        <v>0.0457938</v>
+        <v>0.0467132</v>
       </c>
       <c r="AN6">
-        <v>0.398554</v>
+        <v>0.403659</v>
       </c>
       <c r="AO6">
-        <v>875.395</v>
+        <v>875.41</v>
       </c>
       <c r="AP6">
-        <v>830.229</v>
+        <v>830.433</v>
       </c>
       <c r="AQ6">
-        <v>884.898</v>
-      </c>
-      <c r="AR6" s="2" t="s">
-        <v>62</v>
+        <v>885.104</v>
+      </c>
+      <c r="AR6">
+        <v>739.15</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT6">
-        <v>725.25</v>
+        <v>725.378</v>
       </c>
       <c r="AU6">
-        <v>780.2800000000001</v>
+        <v>780.395</v>
       </c>
       <c r="AV6">
-        <v>734.8050000000001</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>62</v>
+        <v>735.054</v>
+      </c>
+      <c r="AW6">
+        <v>789.798</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>62</v>
@@ -1740,115 +1733,115 @@
         <v>73</v>
       </c>
       <c r="M7">
-        <v>50.4445</v>
+        <v>51.056</v>
       </c>
       <c r="N7">
-        <v>7.433980000000001</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>62</v>
+        <v>7.28843</v>
+      </c>
+      <c r="O7">
+        <v>15.5727</v>
       </c>
       <c r="P7">
-        <v>27.3901</v>
+        <v>27.656</v>
       </c>
       <c r="Q7">
-        <v>50.4447</v>
+        <v>51.0576</v>
       </c>
       <c r="R7">
-        <v>100</v>
+        <v>100.003</v>
       </c>
       <c r="S7">
-        <v>26.9475</v>
+        <v>26.5979</v>
       </c>
       <c r="T7">
-        <v>27.3901</v>
+        <v>27.656</v>
       </c>
       <c r="U7">
-        <v>15.3923</v>
+        <v>15.5727</v>
       </c>
       <c r="V7">
-        <v>8.11815</v>
+        <v>8.1532</v>
       </c>
       <c r="W7">
-        <v>7.65053</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>62</v>
+        <v>7.69347</v>
+      </c>
+      <c r="X7">
+        <v>6.52358</v>
+      </c>
+      <c r="Y7">
+        <v>6.52358</v>
       </c>
       <c r="Z7">
-        <v>7.433980000000001</v>
+        <v>6.52658</v>
       </c>
       <c r="AA7">
-        <v>14.94</v>
+        <v>15.0587</v>
       </c>
       <c r="AB7">
-        <v>7.68246</v>
+        <v>7.868650000000001</v>
       </c>
       <c r="AC7">
-        <v>7.205900000000001</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>62</v>
+        <v>7.3198</v>
+      </c>
+      <c r="AD7">
+        <v>7.28843</v>
+      </c>
+      <c r="AE7">
+        <v>7.28843</v>
       </c>
       <c r="AF7">
-        <v>7.278529999999999</v>
+        <v>7.28843</v>
       </c>
       <c r="AG7">
-        <v>0.682438</v>
+        <v>0.68277</v>
       </c>
       <c r="AH7">
-        <v>0.359543</v>
+        <v>0.36278</v>
       </c>
       <c r="AI7">
-        <v>0.129436</v>
+        <v>0.129438</v>
       </c>
       <c r="AJ7">
-        <v>0.0612166</v>
+        <v>0.0621099</v>
       </c>
       <c r="AK7">
-        <v>0.0660182</v>
+        <v>0.0674117</v>
       </c>
       <c r="AL7">
-        <v>0.06885620000000001</v>
+        <v>0.0695245</v>
       </c>
       <c r="AM7">
-        <v>0.0340288</v>
+        <v>0.0343107</v>
       </c>
       <c r="AN7">
-        <v>0.230562</v>
+        <v>0.233799</v>
       </c>
       <c r="AO7">
-        <v>877.294</v>
+        <v>877.3150000000001</v>
       </c>
       <c r="AP7">
-        <v>832.151</v>
+        <v>832.3539999999999</v>
       </c>
       <c r="AQ7">
-        <v>887.9789999999999</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>62</v>
+        <v>888.197</v>
+      </c>
+      <c r="AR7">
+        <v>742.223</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT7">
-        <v>726.264</v>
+        <v>726.3869999999999</v>
       </c>
       <c r="AU7">
-        <v>782.643</v>
+        <v>782.756</v>
       </c>
       <c r="AV7">
-        <v>737.1320000000001</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>62</v>
+        <v>737.371</v>
+      </c>
+      <c r="AW7">
+        <v>793.2809999999999</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>62</v>
@@ -1892,115 +1885,115 @@
         <v>75</v>
       </c>
       <c r="M8">
-        <v>50.4167</v>
+        <v>50.9394</v>
       </c>
       <c r="N8">
-        <v>6.292120000000001</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>62</v>
+        <v>6.21023</v>
+      </c>
+      <c r="O8">
+        <v>14.6953</v>
       </c>
       <c r="P8">
-        <v>22.8706</v>
+        <v>23.0968</v>
       </c>
       <c r="Q8">
-        <v>50.4202</v>
+        <v>50.9371</v>
       </c>
       <c r="R8">
-        <v>100.007</v>
+        <v>99.99550000000001</v>
       </c>
       <c r="S8">
-        <v>22.4418</v>
+        <v>22.1649</v>
       </c>
       <c r="T8">
-        <v>22.8706</v>
+        <v>23.0968</v>
       </c>
       <c r="U8">
-        <v>14.508</v>
+        <v>14.6953</v>
       </c>
       <c r="V8">
-        <v>7.17268</v>
+        <v>7.212070000000001</v>
       </c>
       <c r="W8">
-        <v>6.50034</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>62</v>
+        <v>6.53729</v>
+      </c>
+      <c r="X8">
+        <v>5.53439</v>
+      </c>
+      <c r="Y8">
+        <v>5.53439</v>
       </c>
       <c r="Z8">
-        <v>6.292120000000001</v>
+        <v>5.534730000000001</v>
       </c>
       <c r="AA8">
-        <v>14.2043</v>
+        <v>14.318</v>
       </c>
       <c r="AB8">
-        <v>6.85144</v>
+        <v>7.01004</v>
       </c>
       <c r="AC8">
-        <v>6.16588</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>62</v>
+        <v>6.267370000000001</v>
+      </c>
+      <c r="AD8">
+        <v>6.21023</v>
+      </c>
+      <c r="AE8">
+        <v>6.21023</v>
       </c>
       <c r="AF8">
-        <v>6.20543</v>
+        <v>6.21023</v>
       </c>
       <c r="AG8">
-        <v>0.833087</v>
+        <v>0.833403</v>
       </c>
       <c r="AH8">
-        <v>0.543077</v>
+        <v>0.54739</v>
       </c>
       <c r="AI8">
-        <v>0.240594</v>
+        <v>0.240596</v>
       </c>
       <c r="AJ8">
-        <v>0.0834592</v>
+        <v>0.0845653</v>
       </c>
       <c r="AK8">
-        <v>0.08897380000000001</v>
+        <v>0.0907974</v>
       </c>
       <c r="AL8">
-        <v>0.0876035</v>
+        <v>0.0884853</v>
       </c>
       <c r="AM8">
-        <v>0.042574</v>
+        <v>0.0430751</v>
       </c>
       <c r="AN8">
-        <v>0.303168</v>
+        <v>0.30748</v>
       </c>
       <c r="AO8">
-        <v>875.599</v>
+        <v>875.6220000000001</v>
       </c>
       <c r="AP8">
-        <v>829.5790000000001</v>
+        <v>829.775</v>
       </c>
       <c r="AQ8">
-        <v>884.3710000000001</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>62</v>
+        <v>884.5640000000001</v>
+      </c>
+      <c r="AR8">
+        <v>737.787</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT8">
-        <v>724.739</v>
+        <v>724.8480000000001</v>
       </c>
       <c r="AU8">
-        <v>780.0400000000001</v>
+        <v>780.131</v>
       </c>
       <c r="AV8">
-        <v>733.673</v>
-      </c>
-      <c r="AW8" s="2" t="s">
-        <v>62</v>
+        <v>733.889</v>
+      </c>
+      <c r="AW8">
+        <v>788.722</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>62</v>
@@ -2044,115 +2037,115 @@
         <v>73</v>
       </c>
       <c r="M9">
-        <v>50.0208</v>
+        <v>50.7297</v>
       </c>
       <c r="N9">
-        <v>8.515000000000001</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>62</v>
+        <v>8.529160000000001</v>
+      </c>
+      <c r="O9">
+        <v>17.8283</v>
       </c>
       <c r="P9">
-        <v>27.4211</v>
+        <v>27.7479</v>
       </c>
       <c r="Q9">
-        <v>50.0217</v>
+        <v>50.7323</v>
       </c>
       <c r="R9">
-        <v>100.002</v>
+        <v>100.005</v>
       </c>
       <c r="S9">
-        <v>27.4001</v>
+        <v>27.0156</v>
       </c>
       <c r="T9">
-        <v>27.4211</v>
+        <v>27.7479</v>
       </c>
       <c r="U9">
-        <v>17.5829</v>
+        <v>17.8283</v>
       </c>
       <c r="V9">
-        <v>9.78078</v>
+        <v>9.85533</v>
       </c>
       <c r="W9">
-        <v>8.86307</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>62</v>
+        <v>8.921150000000001</v>
+      </c>
+      <c r="X9">
+        <v>7.48301</v>
+      </c>
+      <c r="Y9">
+        <v>7.48301</v>
       </c>
       <c r="Z9">
-        <v>8.441360000000001</v>
+        <v>7.482560000000001</v>
       </c>
       <c r="AA9">
-        <v>17.3392</v>
+        <v>17.4899</v>
       </c>
       <c r="AB9">
-        <v>9.410779999999999</v>
+        <v>9.62391</v>
       </c>
       <c r="AC9">
-        <v>8.58399</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>62</v>
+        <v>8.72598</v>
+      </c>
+      <c r="AD9">
+        <v>8.529160000000001</v>
+      </c>
+      <c r="AE9">
+        <v>8.529160000000001</v>
       </c>
       <c r="AF9">
-        <v>8.515000000000001</v>
+        <v>8.529160000000001</v>
       </c>
       <c r="AG9">
-        <v>0.677963</v>
+        <v>0.67813</v>
       </c>
       <c r="AH9">
-        <v>0.502838</v>
+        <v>0.50671</v>
       </c>
       <c r="AI9">
-        <v>0.248422</v>
+        <v>0.248625</v>
       </c>
       <c r="AJ9">
-        <v>0.0684405</v>
+        <v>0.06931180000000001</v>
       </c>
       <c r="AK9">
-        <v>0.07882690000000001</v>
+        <v>0.08037469999999999</v>
       </c>
       <c r="AL9">
-        <v>0.07557309999999999</v>
+        <v>0.07639950000000001</v>
       </c>
       <c r="AM9">
-        <v>0.0364058</v>
+        <v>0.037032</v>
       </c>
       <c r="AN9">
-        <v>0.310997</v>
+        <v>0.314869</v>
       </c>
       <c r="AO9">
-        <v>876.542</v>
+        <v>876.567</v>
       </c>
       <c r="AP9">
-        <v>832.1560000000001</v>
+        <v>832.375</v>
       </c>
       <c r="AQ9">
-        <v>887.652</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>62</v>
+        <v>887.893</v>
+      </c>
+      <c r="AR9">
+        <v>742.6410000000001</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT9">
-        <v>726.398</v>
+        <v>726.527</v>
       </c>
       <c r="AU9">
-        <v>782.2230000000001</v>
+        <v>782.354</v>
       </c>
       <c r="AV9">
-        <v>737.544</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>62</v>
+        <v>737.812</v>
+      </c>
+      <c r="AW9">
+        <v>793.373</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>62</v>
@@ -2196,115 +2189,115 @@
         <v>75</v>
       </c>
       <c r="M10">
-        <v>50.0268</v>
+        <v>50.6465</v>
       </c>
       <c r="N10">
-        <v>7.39914</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>62</v>
+        <v>7.405139999999999</v>
+      </c>
+      <c r="O10">
+        <v>16.8501</v>
       </c>
       <c r="P10">
-        <v>23.8469</v>
+        <v>24.1388</v>
       </c>
       <c r="Q10">
-        <v>50.02500000000001</v>
+        <v>50.6478</v>
       </c>
       <c r="R10">
-        <v>99.9965</v>
+        <v>100.003</v>
       </c>
       <c r="S10">
-        <v>23.8227</v>
+        <v>23.4919</v>
       </c>
       <c r="T10">
-        <v>23.8469</v>
+        <v>24.1388</v>
       </c>
       <c r="U10">
-        <v>16.623</v>
+        <v>16.8501</v>
       </c>
       <c r="V10">
-        <v>8.820320000000001</v>
+        <v>8.898790000000002</v>
       </c>
       <c r="W10">
-        <v>7.721369999999999</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>62</v>
+        <v>7.77138</v>
+      </c>
+      <c r="X10">
+        <v>6.49786</v>
+      </c>
+      <c r="Y10">
+        <v>6.49786</v>
       </c>
       <c r="Z10">
-        <v>7.324540000000001</v>
+        <v>6.49727</v>
       </c>
       <c r="AA10">
-        <v>16.4311</v>
+        <v>16.5743</v>
       </c>
       <c r="AB10">
-        <v>8.50642</v>
+        <v>8.71011</v>
       </c>
       <c r="AC10">
-        <v>7.481790000000001</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>62</v>
+        <v>7.60504</v>
+      </c>
+      <c r="AD10">
+        <v>7.405139999999999</v>
+      </c>
+      <c r="AE10">
+        <v>7.405139999999999</v>
       </c>
       <c r="AF10">
-        <v>7.39914</v>
+        <v>7.405139999999999</v>
       </c>
       <c r="AG10">
-        <v>0.828281</v>
+        <v>0.828452</v>
       </c>
       <c r="AH10">
-        <v>0.711282</v>
+        <v>0.716356</v>
       </c>
       <c r="AI10">
-        <v>0.37694</v>
+        <v>0.377166</v>
       </c>
       <c r="AJ10">
-        <v>0.09254799999999999</v>
+        <v>0.0936568</v>
       </c>
       <c r="AK10">
-        <v>0.105435</v>
+        <v>0.107429</v>
       </c>
       <c r="AL10">
-        <v>0.0960498</v>
+        <v>0.09709759999999999</v>
       </c>
       <c r="AM10">
-        <v>0.0455608</v>
+        <v>0.0464838</v>
       </c>
       <c r="AN10">
-        <v>0.398332</v>
+        <v>0.403406</v>
       </c>
       <c r="AO10">
-        <v>875.3910000000001</v>
+        <v>875.412</v>
       </c>
       <c r="AP10">
-        <v>830.232</v>
+        <v>830.432</v>
       </c>
       <c r="AQ10">
-        <v>884.895</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>62</v>
+        <v>885.104</v>
+      </c>
+      <c r="AR10">
+        <v>739.119</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT10">
-        <v>725.249</v>
+        <v>725.378</v>
       </c>
       <c r="AU10">
-        <v>780.2800000000001</v>
+        <v>780.3929999999999</v>
       </c>
       <c r="AV10">
-        <v>734.8040000000001</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>62</v>
+        <v>735.0550000000001</v>
+      </c>
+      <c r="AW10">
+        <v>789.764</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>62</v>
@@ -2348,115 +2341,115 @@
         <v>73</v>
       </c>
       <c r="M11">
-        <v>49.2039</v>
+        <v>50.2713</v>
       </c>
       <c r="N11">
-        <v>12.4991</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>62</v>
+        <v>12.215</v>
+      </c>
+      <c r="O11">
+        <v>19.7016</v>
       </c>
       <c r="P11">
-        <v>49.52979999999999</v>
+        <v>49.1204</v>
       </c>
       <c r="Q11">
-        <v>49.2025</v>
+        <v>50.2695</v>
       </c>
       <c r="R11">
-        <v>99.99720000000001</v>
+        <v>99.9965</v>
       </c>
       <c r="S11">
-        <v>49.52979999999999</v>
+        <v>48.8521</v>
       </c>
       <c r="T11">
-        <v>48.7348</v>
+        <v>49.1204</v>
       </c>
       <c r="U11">
-        <v>19.4983</v>
+        <v>19.5932</v>
       </c>
       <c r="V11">
-        <v>13.0632</v>
+        <v>13.1151</v>
       </c>
       <c r="W11">
-        <v>12.8699</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>62</v>
+        <v>12.9306</v>
+      </c>
+      <c r="X11">
+        <v>10.9394</v>
+      </c>
+      <c r="Y11">
+        <v>10.9394</v>
       </c>
       <c r="Z11">
-        <v>12.4991</v>
+        <v>10.9375</v>
       </c>
       <c r="AA11">
-        <v>19.5013</v>
+        <v>19.7016</v>
       </c>
       <c r="AB11">
-        <v>12.1872</v>
+        <v>12.4317</v>
       </c>
       <c r="AC11">
-        <v>12.1709</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>62</v>
+        <v>12.3259</v>
+      </c>
+      <c r="AD11">
+        <v>12.215</v>
+      </c>
+      <c r="AE11">
+        <v>12.215</v>
       </c>
       <c r="AF11">
-        <v>12.1829</v>
+        <v>12.215</v>
       </c>
       <c r="AG11">
-        <v>0.685597</v>
+        <v>0.686158</v>
       </c>
       <c r="AH11">
-        <v>0.2252</v>
+        <v>0.227499</v>
       </c>
       <c r="AI11">
         <v>0.0204357</v>
       </c>
       <c r="AJ11">
-        <v>0.0522427</v>
+        <v>0.0527809</v>
       </c>
       <c r="AK11">
-        <v>0.0567213</v>
+        <v>0.0578043</v>
       </c>
       <c r="AL11">
-        <v>0.0630826</v>
+        <v>0.0635971</v>
       </c>
       <c r="AM11">
-        <v>0.0329294</v>
+        <v>0.0330918</v>
       </c>
       <c r="AN11">
-        <v>0.204981</v>
+        <v>0.207279</v>
       </c>
       <c r="AO11">
-        <v>883.193</v>
+        <v>883.208</v>
       </c>
       <c r="AP11">
-        <v>844.604</v>
+        <v>844.847</v>
       </c>
       <c r="AQ11">
-        <v>904.4209999999999</v>
-      </c>
-      <c r="AR11" s="2" t="s">
-        <v>62</v>
+        <v>904.754</v>
+      </c>
+      <c r="AR11">
+        <v>764.477</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT11">
-        <v>732.9860000000001</v>
+        <v>733.086</v>
       </c>
       <c r="AU11">
-        <v>794.064</v>
+        <v>794.215</v>
       </c>
       <c r="AV11">
-        <v>754.554</v>
-      </c>
-      <c r="AW11" s="2" t="s">
-        <v>62</v>
+        <v>754.853</v>
+      </c>
+      <c r="AW11">
+        <v>814.745</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>62</v>
@@ -2500,115 +2493,115 @@
         <v>75</v>
       </c>
       <c r="M12">
-        <v>49.5061</v>
+        <v>50.2675</v>
       </c>
       <c r="N12">
-        <v>9.27711</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>62</v>
+        <v>9.17229</v>
+      </c>
+      <c r="O12">
+        <v>16.5717</v>
       </c>
       <c r="P12">
-        <v>35.87730000000001</v>
+        <v>35.6745</v>
       </c>
       <c r="Q12">
-        <v>49.506</v>
+        <v>50.2693</v>
       </c>
       <c r="R12">
-        <v>99.99980000000001</v>
+        <v>100.004</v>
       </c>
       <c r="S12">
-        <v>35.87730000000001</v>
+        <v>35.40280000000001</v>
       </c>
       <c r="T12">
-        <v>35.3831</v>
+        <v>35.6745</v>
       </c>
       <c r="U12">
-        <v>16.3292</v>
+        <v>16.4116</v>
       </c>
       <c r="V12">
-        <v>9.708590000000001</v>
+        <v>9.749560000000001</v>
       </c>
       <c r="W12">
-        <v>9.542900000000001</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>62</v>
+        <v>9.58845</v>
+      </c>
+      <c r="X12">
+        <v>8.12129</v>
+      </c>
+      <c r="Y12">
+        <v>8.12129</v>
       </c>
       <c r="Z12">
-        <v>9.27711</v>
+        <v>8.12269</v>
       </c>
       <c r="AA12">
-        <v>16.4332</v>
+        <v>16.5717</v>
       </c>
       <c r="AB12">
-        <v>9.161900000000001</v>
+        <v>9.36848</v>
       </c>
       <c r="AC12">
-        <v>9.13724</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>62</v>
+        <v>9.264990000000001</v>
+      </c>
+      <c r="AD12">
+        <v>9.17229</v>
+      </c>
+      <c r="AE12">
+        <v>9.17229</v>
       </c>
       <c r="AF12">
-        <v>9.151260000000001</v>
+        <v>9.17229</v>
       </c>
       <c r="AG12">
-        <v>0.836456</v>
+        <v>0.837105</v>
       </c>
       <c r="AH12">
-        <v>0.32632</v>
+        <v>0.329546</v>
       </c>
       <c r="AI12">
-        <v>0.0684577</v>
+        <v>0.0684578</v>
       </c>
       <c r="AJ12">
-        <v>0.06678329999999999</v>
+        <v>0.0676837</v>
       </c>
       <c r="AK12">
-        <v>0.07132289999999999</v>
+        <v>0.07274670000000001</v>
       </c>
       <c r="AL12">
-        <v>0.07916480000000001</v>
+        <v>0.07985829999999999</v>
       </c>
       <c r="AM12">
-        <v>0.0405645</v>
+        <v>0.0407722</v>
       </c>
       <c r="AN12">
-        <v>0.257849</v>
+        <v>0.261074</v>
       </c>
       <c r="AO12">
-        <v>879.761</v>
+        <v>879.784</v>
       </c>
       <c r="AP12">
-        <v>837.357</v>
+        <v>837.573</v>
       </c>
       <c r="AQ12">
-        <v>894.163</v>
-      </c>
-      <c r="AR12" s="2" t="s">
-        <v>62</v>
+        <v>894.4110000000001</v>
+      </c>
+      <c r="AR12">
+        <v>751.024</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT12">
-        <v>729.5840000000001</v>
+        <v>729.7040000000001</v>
       </c>
       <c r="AU12">
-        <v>787.051</v>
+        <v>787.172</v>
       </c>
       <c r="AV12">
-        <v>744.2099999999999</v>
-      </c>
-      <c r="AW12" s="2" t="s">
-        <v>62</v>
+        <v>744.4590000000001</v>
+      </c>
+      <c r="AW12">
+        <v>801.299</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>62</v>
@@ -2652,115 +2645,115 @@
         <v>73</v>
       </c>
       <c r="M13">
-        <v>48.8709</v>
+        <v>49.9452</v>
       </c>
       <c r="N13">
-        <v>13.3148</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>62</v>
+        <v>13.3466</v>
+      </c>
+      <c r="O13">
+        <v>21.8419</v>
       </c>
       <c r="P13">
-        <v>46.8245</v>
+        <v>46.15620000000001</v>
       </c>
       <c r="Q13">
-        <v>48.8708</v>
+        <v>49.9422</v>
       </c>
       <c r="R13">
-        <v>99.9999</v>
+        <v>99.994</v>
       </c>
       <c r="S13">
-        <v>46.8245</v>
+        <v>46.15620000000001</v>
       </c>
       <c r="T13">
-        <v>45.6996</v>
+        <v>46.0988</v>
       </c>
       <c r="U13">
-        <v>21.0283</v>
+        <v>21.1773</v>
       </c>
       <c r="V13">
-        <v>14.0285</v>
+        <v>14.1089</v>
       </c>
       <c r="W13">
-        <v>13.6364</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>62</v>
+        <v>13.7052</v>
+      </c>
+      <c r="X13">
+        <v>11.5776</v>
+      </c>
+      <c r="Y13">
+        <v>11.5776</v>
       </c>
       <c r="Z13">
-        <v>13.1341</v>
+        <v>11.5748</v>
       </c>
       <c r="AA13">
-        <v>21.6075</v>
+        <v>21.8419</v>
       </c>
       <c r="AB13">
-        <v>13.3582</v>
+        <v>13.6392</v>
       </c>
       <c r="AC13">
-        <v>13.397</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>62</v>
+        <v>13.5781</v>
+      </c>
+      <c r="AD13">
+        <v>13.3466</v>
+      </c>
+      <c r="AE13">
+        <v>13.3466</v>
       </c>
       <c r="AF13">
-        <v>13.3148</v>
+        <v>13.3466</v>
       </c>
       <c r="AG13">
-        <v>0.681986</v>
+        <v>0.682364</v>
       </c>
       <c r="AH13">
-        <v>0.257287</v>
+        <v>0.259794</v>
       </c>
       <c r="AI13">
-        <v>0.047155</v>
+        <v>0.047162</v>
       </c>
       <c r="AJ13">
-        <v>0.0535372</v>
+        <v>0.0541238</v>
       </c>
       <c r="AK13">
-        <v>0.0589487</v>
+        <v>0.0601061</v>
       </c>
       <c r="AL13">
-        <v>0.06447309999999999</v>
+        <v>0.0650283</v>
       </c>
       <c r="AM13">
-        <v>0.0333076</v>
+        <v>0.0335151</v>
       </c>
       <c r="AN13">
-        <v>0.212193</v>
+        <v>0.2147</v>
       </c>
       <c r="AO13">
-        <v>881.556</v>
+        <v>881.5700000000001</v>
       </c>
       <c r="AP13">
-        <v>842.6900000000001</v>
+        <v>842.951</v>
       </c>
       <c r="AQ13">
-        <v>901.538</v>
-      </c>
-      <c r="AR13" s="2" t="s">
-        <v>62</v>
+        <v>901.8680000000001</v>
+      </c>
+      <c r="AR13">
+        <v>761.778</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT13">
-        <v>732.26</v>
+        <v>732.37</v>
       </c>
       <c r="AU13">
-        <v>791.827</v>
+        <v>791.982</v>
       </c>
       <c r="AV13">
-        <v>752.53</v>
-      </c>
-      <c r="AW13" s="2" t="s">
-        <v>62</v>
+        <v>752.856</v>
+      </c>
+      <c r="AW13">
+        <v>811.724</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>62</v>
@@ -2804,115 +2797,115 @@
         <v>75</v>
       </c>
       <c r="M14">
-        <v>49.2503</v>
+        <v>50.087</v>
       </c>
       <c r="N14">
-        <v>10.4348</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>62</v>
+        <v>10.4553</v>
+      </c>
+      <c r="O14">
+        <v>18.7744</v>
       </c>
       <c r="P14">
-        <v>35.9975</v>
+        <v>35.57100000000001</v>
       </c>
       <c r="Q14">
-        <v>49.2494</v>
+        <v>50.0871</v>
       </c>
       <c r="R14">
-        <v>99.9982</v>
+        <v>100</v>
       </c>
       <c r="S14">
-        <v>35.9975</v>
+        <v>35.488</v>
       </c>
       <c r="T14">
-        <v>35.248</v>
+        <v>35.57100000000001</v>
       </c>
       <c r="U14">
-        <v>18.2526</v>
+        <v>18.4353</v>
       </c>
       <c r="V14">
-        <v>11.0449</v>
+        <v>11.0901</v>
       </c>
       <c r="W14">
-        <v>10.7151</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>62</v>
+        <v>10.7754</v>
+      </c>
+      <c r="X14">
+        <v>9.074629999999999</v>
+      </c>
+      <c r="Y14">
+        <v>9.074629999999999</v>
       </c>
       <c r="Z14">
-        <v>10.3014</v>
+        <v>9.07634</v>
       </c>
       <c r="AA14">
-        <v>18.6074</v>
+        <v>18.7744</v>
       </c>
       <c r="AB14">
-        <v>10.5359</v>
+        <v>10.7758</v>
       </c>
       <c r="AC14">
-        <v>10.4959</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>62</v>
+        <v>10.6539</v>
+      </c>
+      <c r="AD14">
+        <v>10.4553</v>
+      </c>
+      <c r="AE14">
+        <v>10.4553</v>
       </c>
       <c r="AF14">
-        <v>10.4348</v>
+        <v>10.4553</v>
       </c>
       <c r="AG14">
-        <v>0.833125</v>
+        <v>0.833527</v>
       </c>
       <c r="AH14">
-        <v>0.365302</v>
+        <v>0.368767</v>
       </c>
       <c r="AI14">
-        <v>0.09819119999999999</v>
+        <v>0.09819899999999999</v>
       </c>
       <c r="AJ14">
-        <v>0.0692502</v>
+        <v>0.07014569999999999</v>
       </c>
       <c r="AK14">
-        <v>0.0754884</v>
+        <v>0.0769937</v>
       </c>
       <c r="AL14">
-        <v>0.08119069999999999</v>
+        <v>0.0819256</v>
       </c>
       <c r="AM14">
-        <v>0.0412637</v>
+        <v>0.04159239999999999</v>
       </c>
       <c r="AN14">
-        <v>0.26937</v>
+        <v>0.272835</v>
       </c>
       <c r="AO14">
-        <v>878.921</v>
+        <v>878.941</v>
       </c>
       <c r="AP14">
-        <v>837.021</v>
+        <v>837.253</v>
       </c>
       <c r="AQ14">
-        <v>893.6559999999999</v>
-      </c>
-      <c r="AR14" s="2" t="s">
-        <v>62</v>
+        <v>893.924</v>
+      </c>
+      <c r="AR14">
+        <v>751.115</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT14">
-        <v>729.4300000000001</v>
+        <v>729.554</v>
       </c>
       <c r="AU14">
-        <v>786.447</v>
+        <v>786.58</v>
       </c>
       <c r="AV14">
-        <v>744.2810000000001</v>
-      </c>
-      <c r="AW14" s="2" t="s">
-        <v>62</v>
+        <v>744.563</v>
+      </c>
+      <c r="AW14">
+        <v>801.1959999999999</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>62</v>
@@ -2956,115 +2949,115 @@
         <v>73</v>
       </c>
       <c r="M15">
-        <v>49.2092</v>
+        <v>50.2739</v>
       </c>
       <c r="N15">
-        <v>12.4413</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>62</v>
+        <v>12.1458</v>
+      </c>
+      <c r="O15">
+        <v>19.7064</v>
       </c>
       <c r="P15">
-        <v>49.4755</v>
+        <v>49.0851</v>
       </c>
       <c r="Q15">
-        <v>49.2128</v>
+        <v>50.2736</v>
       </c>
       <c r="R15">
-        <v>100.007</v>
+        <v>99.9995</v>
       </c>
       <c r="S15">
-        <v>49.4755</v>
+        <v>48.81030000000001</v>
       </c>
       <c r="T15">
-        <v>48.6957</v>
+        <v>49.0851</v>
       </c>
       <c r="U15">
-        <v>19.4973</v>
+        <v>19.5911</v>
       </c>
       <c r="V15">
-        <v>13.0627</v>
+        <v>13.112</v>
       </c>
       <c r="W15">
-        <v>12.8698</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>62</v>
+        <v>12.9323</v>
+      </c>
+      <c r="X15">
+        <v>10.892</v>
+      </c>
+      <c r="Y15">
+        <v>10.892</v>
       </c>
       <c r="Z15">
-        <v>12.4413</v>
+        <v>10.8896</v>
       </c>
       <c r="AA15">
-        <v>19.4981</v>
+        <v>19.7064</v>
       </c>
       <c r="AB15">
-        <v>12.1874</v>
+        <v>12.4232</v>
       </c>
       <c r="AC15">
-        <v>12.1729</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>62</v>
+        <v>12.3263</v>
+      </c>
+      <c r="AD15">
+        <v>12.1458</v>
+      </c>
+      <c r="AE15">
+        <v>12.1458</v>
       </c>
       <c r="AF15">
-        <v>12.1117</v>
+        <v>12.1458</v>
       </c>
       <c r="AG15">
-        <v>0.685661</v>
+        <v>0.686219</v>
       </c>
       <c r="AH15">
-        <v>0.224975</v>
+        <v>0.227277</v>
       </c>
       <c r="AI15">
         <v>0.0204357</v>
       </c>
       <c r="AJ15">
-        <v>0.052246</v>
+        <v>0.0527802</v>
       </c>
       <c r="AK15">
-        <v>0.05672899999999999</v>
+        <v>0.0578032</v>
       </c>
       <c r="AL15">
-        <v>0.063083</v>
+        <v>0.0636091</v>
       </c>
       <c r="AM15">
-        <v>0.0326931</v>
+        <v>0.0328601</v>
       </c>
       <c r="AN15">
-        <v>0.204756</v>
+        <v>0.207058</v>
       </c>
       <c r="AO15">
-        <v>883.194</v>
+        <v>883.211</v>
       </c>
       <c r="AP15">
-        <v>844.5980000000001</v>
+        <v>844.847</v>
       </c>
       <c r="AQ15">
-        <v>904.422</v>
-      </c>
-      <c r="AR15" s="2" t="s">
-        <v>62</v>
+        <v>904.758</v>
+      </c>
+      <c r="AR15">
+        <v>764.436</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT15">
-        <v>732.9860000000001</v>
+        <v>733.0849999999999</v>
       </c>
       <c r="AU15">
-        <v>794.064</v>
+        <v>794.218</v>
       </c>
       <c r="AV15">
-        <v>754.5490000000001</v>
-      </c>
-      <c r="AW15" s="2" t="s">
-        <v>62</v>
+        <v>754.8510000000001</v>
+      </c>
+      <c r="AW15">
+        <v>814.71</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>62</v>
@@ -3108,115 +3101,115 @@
         <v>75</v>
       </c>
       <c r="M16">
-        <v>49.5111</v>
+        <v>50.2775</v>
       </c>
       <c r="N16">
-        <v>9.238380000000001</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>62</v>
+        <v>9.12262</v>
+      </c>
+      <c r="O16">
+        <v>16.5721</v>
       </c>
       <c r="P16">
-        <v>35.8357</v>
+        <v>35.6428</v>
       </c>
       <c r="Q16">
-        <v>49.51050000000001</v>
+        <v>50.2783</v>
       </c>
       <c r="R16">
-        <v>99.999</v>
+        <v>100.002</v>
       </c>
       <c r="S16">
-        <v>35.8357</v>
+        <v>35.3667</v>
       </c>
       <c r="T16">
-        <v>35.3462</v>
+        <v>35.6428</v>
       </c>
       <c r="U16">
-        <v>16.3267</v>
+        <v>16.4117</v>
       </c>
       <c r="V16">
-        <v>9.71346</v>
+        <v>9.750160000000001</v>
       </c>
       <c r="W16">
-        <v>9.543040000000001</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>62</v>
+        <v>9.587440000000001</v>
+      </c>
+      <c r="X16">
+        <v>8.093100000000002</v>
+      </c>
+      <c r="Y16">
+        <v>8.093100000000002</v>
       </c>
       <c r="Z16">
-        <v>9.238380000000001</v>
+        <v>8.09276</v>
       </c>
       <c r="AA16">
-        <v>16.4328</v>
+        <v>16.5721</v>
       </c>
       <c r="AB16">
-        <v>9.16737</v>
+        <v>9.35191</v>
       </c>
       <c r="AC16">
-        <v>9.13598</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>62</v>
+        <v>9.262219999999999</v>
+      </c>
+      <c r="AD16">
+        <v>9.12262</v>
+      </c>
+      <c r="AE16">
+        <v>9.12262</v>
       </c>
       <c r="AF16">
-        <v>9.100490000000001</v>
+        <v>9.12262</v>
       </c>
       <c r="AG16">
-        <v>0.836517</v>
+        <v>0.837069</v>
       </c>
       <c r="AH16">
-        <v>0.326051</v>
+        <v>0.329246</v>
       </c>
       <c r="AI16">
-        <v>0.0684577</v>
+        <v>0.0684578</v>
       </c>
       <c r="AJ16">
-        <v>0.06678819999999999</v>
+        <v>0.06767989999999999</v>
       </c>
       <c r="AK16">
-        <v>0.0713297</v>
+        <v>0.072743</v>
       </c>
       <c r="AL16">
-        <v>0.07916909999999999</v>
+        <v>0.0798517</v>
       </c>
       <c r="AM16">
-        <v>0.0402792</v>
+        <v>0.0404872</v>
       </c>
       <c r="AN16">
-        <v>0.257579</v>
+        <v>0.260775</v>
       </c>
       <c r="AO16">
-        <v>879.7620000000001</v>
+        <v>879.783</v>
       </c>
       <c r="AP16">
-        <v>837.357</v>
+        <v>837.572</v>
       </c>
       <c r="AQ16">
-        <v>894.1600000000001</v>
-      </c>
-      <c r="AR16" s="2" t="s">
-        <v>62</v>
+        <v>894.418</v>
+      </c>
+      <c r="AR16">
+        <v>750.989</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT16">
-        <v>729.5840000000001</v>
+        <v>729.705</v>
       </c>
       <c r="AU16">
-        <v>787.048</v>
+        <v>787.173</v>
       </c>
       <c r="AV16">
-        <v>744.2080000000001</v>
-      </c>
-      <c r="AW16" s="2" t="s">
-        <v>62</v>
+        <v>744.4620000000001</v>
+      </c>
+      <c r="AW16">
+        <v>801.268</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>62</v>
@@ -3260,115 +3253,115 @@
         <v>73</v>
       </c>
       <c r="M17">
-        <v>48.8782</v>
+        <v>49.9521</v>
       </c>
       <c r="N17">
-        <v>13.2445</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>62</v>
+        <v>13.2771</v>
+      </c>
+      <c r="O17">
+        <v>21.8416</v>
       </c>
       <c r="P17">
-        <v>46.77160000000001</v>
+        <v>46.1047</v>
       </c>
       <c r="Q17">
-        <v>48.8805</v>
+        <v>49.951</v>
       </c>
       <c r="R17">
-        <v>100.005</v>
+        <v>99.99769999999999</v>
       </c>
       <c r="S17">
-        <v>46.77160000000001</v>
+        <v>46.1047</v>
       </c>
       <c r="T17">
-        <v>45.6467</v>
+        <v>46.0575</v>
       </c>
       <c r="U17">
-        <v>21.0298</v>
+        <v>21.1773</v>
       </c>
       <c r="V17">
-        <v>14.0267</v>
+        <v>14.1208</v>
       </c>
       <c r="W17">
-        <v>13.6358</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>62</v>
+        <v>13.7094</v>
+      </c>
+      <c r="X17">
+        <v>11.5324</v>
+      </c>
+      <c r="Y17">
+        <v>11.5324</v>
       </c>
       <c r="Z17">
-        <v>13.0848</v>
+        <v>11.533</v>
       </c>
       <c r="AA17">
-        <v>21.6078</v>
+        <v>21.8416</v>
       </c>
       <c r="AB17">
-        <v>13.3594</v>
+        <v>13.6425</v>
       </c>
       <c r="AC17">
-        <v>13.3969</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>62</v>
+        <v>13.5834</v>
+      </c>
+      <c r="AD17">
+        <v>13.2771</v>
+      </c>
+      <c r="AE17">
+        <v>13.2771</v>
       </c>
       <c r="AF17">
-        <v>13.2445</v>
+        <v>13.2771</v>
       </c>
       <c r="AG17">
-        <v>0.682007</v>
+        <v>0.682388</v>
       </c>
       <c r="AH17">
-        <v>0.25707</v>
+        <v>0.259561</v>
       </c>
       <c r="AI17">
-        <v>0.047155</v>
+        <v>0.047162</v>
       </c>
       <c r="AJ17">
-        <v>0.05353939999999999</v>
+        <v>0.0541211</v>
       </c>
       <c r="AK17">
-        <v>0.05895719999999999</v>
+        <v>0.0601002</v>
       </c>
       <c r="AL17">
-        <v>0.06447499999999999</v>
+        <v>0.06503139999999999</v>
       </c>
       <c r="AM17">
-        <v>0.03307760000000001</v>
+        <v>0.0332882</v>
       </c>
       <c r="AN17">
-        <v>0.211976</v>
+        <v>0.214467</v>
       </c>
       <c r="AO17">
-        <v>881.558</v>
+        <v>881.5700000000001</v>
       </c>
       <c r="AP17">
-        <v>842.6900000000001</v>
+        <v>842.951</v>
       </c>
       <c r="AQ17">
-        <v>901.5360000000001</v>
-      </c>
-      <c r="AR17" s="2" t="s">
-        <v>62</v>
+        <v>901.8680000000001</v>
+      </c>
+      <c r="AR17">
+        <v>761.734</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT17">
-        <v>732.2610000000001</v>
+        <v>732.373</v>
       </c>
       <c r="AU17">
-        <v>791.824</v>
+        <v>791.9830000000001</v>
       </c>
       <c r="AV17">
-        <v>752.5310000000001</v>
-      </c>
-      <c r="AW17" s="2" t="s">
-        <v>62</v>
+        <v>752.8580000000001</v>
+      </c>
+      <c r="AW17">
+        <v>811.683</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>62</v>
@@ -3412,115 +3405,115 @@
         <v>75</v>
       </c>
       <c r="M18">
-        <v>49.257</v>
+        <v>50.0882</v>
       </c>
       <c r="N18">
-        <v>10.3874</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>62</v>
+        <v>10.4021</v>
+      </c>
+      <c r="O18">
+        <v>18.7727</v>
       </c>
       <c r="P18">
-        <v>35.95140000000001</v>
+        <v>35.5304</v>
       </c>
       <c r="Q18">
-        <v>49.258</v>
+        <v>50.0871</v>
       </c>
       <c r="R18">
-        <v>100.002</v>
+        <v>99.99769999999999</v>
       </c>
       <c r="S18">
-        <v>35.95140000000001</v>
+        <v>35.4489</v>
       </c>
       <c r="T18">
-        <v>35.2092</v>
+        <v>35.5304</v>
       </c>
       <c r="U18">
-        <v>18.2525</v>
+        <v>18.4406</v>
       </c>
       <c r="V18">
-        <v>11.0432</v>
+        <v>11.0971</v>
       </c>
       <c r="W18">
-        <v>10.716</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>62</v>
+        <v>10.7744</v>
+      </c>
+      <c r="X18">
+        <v>9.045760000000001</v>
+      </c>
+      <c r="Y18">
+        <v>9.045760000000001</v>
       </c>
       <c r="Z18">
-        <v>10.2654</v>
+        <v>9.040660000000001</v>
       </c>
       <c r="AA18">
-        <v>18.6022</v>
+        <v>18.7727</v>
       </c>
       <c r="AB18">
-        <v>10.5377</v>
+        <v>10.7758</v>
       </c>
       <c r="AC18">
-        <v>10.4998</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>62</v>
+        <v>10.652</v>
+      </c>
+      <c r="AD18">
+        <v>10.4021</v>
+      </c>
+      <c r="AE18">
+        <v>10.4021</v>
       </c>
       <c r="AF18">
-        <v>10.3874</v>
+        <v>10.4021</v>
       </c>
       <c r="AG18">
-        <v>0.8331499999999999</v>
+        <v>0.833571</v>
       </c>
       <c r="AH18">
-        <v>0.365029</v>
+        <v>0.368512</v>
       </c>
       <c r="AI18">
-        <v>0.09819119999999999</v>
+        <v>0.09819899999999999</v>
       </c>
       <c r="AJ18">
-        <v>0.06925100000000001</v>
+        <v>0.07015349999999999</v>
       </c>
       <c r="AK18">
-        <v>0.0754818</v>
+        <v>0.07699830000000001</v>
       </c>
       <c r="AL18">
-        <v>0.0811967</v>
+        <v>0.08193259999999999</v>
       </c>
       <c r="AM18">
-        <v>0.0409904</v>
+        <v>0.0413186</v>
       </c>
       <c r="AN18">
-        <v>0.269097</v>
+        <v>0.272581</v>
       </c>
       <c r="AO18">
-        <v>878.921</v>
+        <v>878.941</v>
       </c>
       <c r="AP18">
-        <v>837.022</v>
+        <v>837.254</v>
       </c>
       <c r="AQ18">
-        <v>893.6559999999999</v>
-      </c>
-      <c r="AR18" s="2" t="s">
-        <v>62</v>
+        <v>893.924</v>
+      </c>
+      <c r="AR18">
+        <v>751.073</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT18">
-        <v>729.427</v>
+        <v>729.553</v>
       </c>
       <c r="AU18">
-        <v>786.448</v>
+        <v>786.577</v>
       </c>
       <c r="AV18">
-        <v>744.2819999999999</v>
-      </c>
-      <c r="AW18" s="2" t="s">
-        <v>62</v>
+        <v>744.563</v>
+      </c>
+      <c r="AW18">
+        <v>801.155</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>62</v>
@@ -3564,115 +3557,115 @@
         <v>73</v>
       </c>
       <c r="M19" s="3">
-        <v>53.4319</v>
+        <v>54.3665</v>
       </c>
       <c r="N19">
-        <v>10.9791</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>62</v>
+        <v>9.460470000000001</v>
+      </c>
+      <c r="O19">
+        <v>20.202</v>
       </c>
       <c r="P19">
-        <v>37.8143</v>
+        <v>38.1581</v>
       </c>
       <c r="Q19">
-        <v>53.4322</v>
+        <v>54.3676</v>
       </c>
       <c r="R19">
-        <v>100.001</v>
+        <v>100.002</v>
       </c>
       <c r="S19">
-        <v>34.3771</v>
+        <v>33.7887</v>
       </c>
       <c r="T19">
-        <v>37.8143</v>
+        <v>38.1581</v>
       </c>
       <c r="U19">
-        <v>19.8111</v>
+        <v>20.202</v>
       </c>
       <c r="V19">
-        <v>11.3736</v>
+        <v>11.5208</v>
       </c>
       <c r="W19">
-        <v>11.7501</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>62</v>
+        <v>11.8161</v>
+      </c>
+      <c r="X19">
+        <v>9.455629999999999</v>
+      </c>
+      <c r="Y19">
+        <v>9.455629999999999</v>
       </c>
       <c r="Z19">
-        <v>10.9791</v>
+        <v>9.460470000000001</v>
       </c>
       <c r="AA19">
-        <v>15.0467</v>
+        <v>15.1778</v>
       </c>
       <c r="AB19">
-        <v>8.86905</v>
+        <v>9.07419</v>
       </c>
       <c r="AC19">
-        <v>8.15597</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>62</v>
+        <v>8.28228</v>
+      </c>
+      <c r="AD19">
+        <v>8.59135</v>
+      </c>
+      <c r="AE19">
+        <v>8.59135</v>
       </c>
       <c r="AF19">
-        <v>8.573500000000001</v>
+        <v>8.59135</v>
       </c>
       <c r="AG19">
-        <v>0.683775</v>
+        <v>0.684236</v>
       </c>
       <c r="AH19">
-        <v>0.275218</v>
+        <v>0.278188</v>
       </c>
       <c r="AI19">
-        <v>0.0619633</v>
+        <v>0.0619636</v>
       </c>
       <c r="AJ19">
-        <v>0.0553045</v>
+        <v>0.0561425</v>
       </c>
       <c r="AK19">
-        <v>0.05946659999999999</v>
+        <v>0.0608126</v>
       </c>
       <c r="AL19">
-        <v>0.06540370000000001</v>
+        <v>0.0659957</v>
       </c>
       <c r="AM19">
-        <v>0.0332922</v>
+        <v>0.03348540000000001</v>
       </c>
       <c r="AN19">
-        <v>0.213617</v>
+        <v>0.216587</v>
       </c>
       <c r="AO19">
-        <v>882.83</v>
+        <v>882.86</v>
       </c>
       <c r="AP19">
-        <v>835.763</v>
+        <v>835.999</v>
       </c>
       <c r="AQ19">
-        <v>897.47</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>62</v>
+        <v>897.774</v>
+      </c>
+      <c r="AR19">
+        <v>749.4140000000001</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT19">
-        <v>726.297</v>
+        <v>726.414</v>
       </c>
       <c r="AU19">
-        <v>788.712</v>
+        <v>788.845</v>
       </c>
       <c r="AV19">
-        <v>741.427</v>
-      </c>
-      <c r="AW19" s="2" t="s">
-        <v>62</v>
+        <v>741.701</v>
+      </c>
+      <c r="AW19">
+        <v>803.783</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>62</v>
@@ -3715,116 +3708,116 @@
       <c r="L20" t="s">
         <v>75</v>
       </c>
-      <c r="M20">
-        <v>52.8159</v>
+      <c r="M20" s="3">
+        <v>53.5058</v>
       </c>
       <c r="N20">
-        <v>8.357150000000001</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>62</v>
+        <v>7.230530000000001</v>
+      </c>
+      <c r="O20">
+        <v>16.8899</v>
       </c>
       <c r="P20">
-        <v>29.326</v>
+        <v>29.609</v>
       </c>
       <c r="Q20">
-        <v>52.8168</v>
+        <v>53.5047</v>
       </c>
       <c r="R20">
-        <v>100.002</v>
+        <v>99.998</v>
       </c>
       <c r="S20">
-        <v>26.5063</v>
+        <v>26.0997</v>
       </c>
       <c r="T20">
-        <v>29.326</v>
+        <v>29.609</v>
       </c>
       <c r="U20">
-        <v>16.6014</v>
+        <v>16.8899</v>
       </c>
       <c r="V20">
-        <v>8.962289999999999</v>
+        <v>9.06761</v>
       </c>
       <c r="W20">
-        <v>8.88456</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>62</v>
+        <v>8.930260000000001</v>
+      </c>
+      <c r="X20">
+        <v>7.23001</v>
+      </c>
+      <c r="Y20">
+        <v>7.23001</v>
       </c>
       <c r="Z20">
-        <v>8.357150000000001</v>
+        <v>7.230530000000001</v>
       </c>
       <c r="AA20">
-        <v>14.0848</v>
+        <v>14.1929</v>
       </c>
       <c r="AB20">
-        <v>7.31378</v>
+        <v>7.48646</v>
       </c>
       <c r="AC20">
-        <v>6.71303</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>62</v>
+        <v>6.81634</v>
+      </c>
+      <c r="AD20">
+        <v>6.97886</v>
+      </c>
+      <c r="AE20">
+        <v>6.97886</v>
       </c>
       <c r="AF20">
-        <v>6.97268</v>
+        <v>6.97886</v>
       </c>
       <c r="AG20">
-        <v>0.834599</v>
+        <v>0.835089</v>
       </c>
       <c r="AH20">
-        <v>0.41219</v>
+        <v>0.416089</v>
       </c>
       <c r="AI20">
-        <v>0.139059</v>
+        <v>0.13906</v>
       </c>
       <c r="AJ20">
-        <v>0.07213689999999999</v>
+        <v>0.0732743</v>
       </c>
       <c r="AK20">
-        <v>0.07728649999999999</v>
+        <v>0.0789893</v>
       </c>
       <c r="AL20">
-        <v>0.0824988</v>
+        <v>0.083261</v>
       </c>
       <c r="AM20">
-        <v>0.0412692</v>
+        <v>0.0415651</v>
       </c>
       <c r="AN20">
-        <v>0.273388</v>
+        <v>0.277287</v>
       </c>
       <c r="AO20">
-        <v>879.712</v>
+        <v>879.7380000000001</v>
       </c>
       <c r="AP20">
-        <v>831.4930000000001</v>
+        <v>831.711</v>
       </c>
       <c r="AQ20">
-        <v>890.394</v>
-      </c>
-      <c r="AR20" s="2" t="s">
-        <v>62</v>
+        <v>890.636</v>
+      </c>
+      <c r="AR20">
+        <v>741.722</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT20">
-        <v>724.268</v>
+        <v>724.393</v>
       </c>
       <c r="AU20">
-        <v>784.032</v>
+        <v>784.149</v>
       </c>
       <c r="AV20">
-        <v>735.846</v>
-      </c>
-      <c r="AW20" s="2" t="s">
-        <v>62</v>
+        <v>736.0940000000001</v>
+      </c>
+      <c r="AW20">
+        <v>795.234</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>62</v>
@@ -3867,116 +3860,116 @@
       <c r="L21" t="s">
         <v>73</v>
       </c>
-      <c r="M21">
-        <v>52.6053</v>
+      <c r="M21" s="3">
+        <v>53.5587</v>
       </c>
       <c r="N21">
-        <v>11.6</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>62</v>
+        <v>10.0795</v>
+      </c>
+      <c r="O21">
+        <v>21.5815</v>
       </c>
       <c r="P21">
-        <v>36.18490000000001</v>
+        <v>36.5686</v>
       </c>
       <c r="Q21">
-        <v>52.6044</v>
+        <v>53.5587</v>
       </c>
       <c r="R21">
-        <v>99.9983</v>
+        <v>100</v>
       </c>
       <c r="S21">
-        <v>33.588</v>
+        <v>33.0105</v>
       </c>
       <c r="T21">
-        <v>36.18490000000001</v>
+        <v>36.5686</v>
       </c>
       <c r="U21">
-        <v>21.1602</v>
+        <v>21.5815</v>
       </c>
       <c r="V21">
-        <v>12.5691</v>
+        <v>12.7716</v>
       </c>
       <c r="W21">
-        <v>12.5253</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>62</v>
+        <v>12.6003</v>
+      </c>
+      <c r="X21">
+        <v>10.0795</v>
+      </c>
+      <c r="Y21">
+        <v>10.0795</v>
       </c>
       <c r="Z21">
-        <v>11.6</v>
+        <v>10.0795</v>
       </c>
       <c r="AA21">
-        <v>17.0018</v>
+        <v>17.162</v>
       </c>
       <c r="AB21">
-        <v>10.1606</v>
+        <v>10.4123</v>
       </c>
       <c r="AC21">
-        <v>9.42271</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>62</v>
+        <v>9.567</v>
+      </c>
+      <c r="AD21">
+        <v>9.710089999999999</v>
+      </c>
+      <c r="AE21">
+        <v>9.710089999999999</v>
       </c>
       <c r="AF21">
-        <v>9.70359</v>
+        <v>9.710089999999999</v>
       </c>
       <c r="AG21">
-        <v>0.680067</v>
+        <v>0.680414</v>
       </c>
       <c r="AH21">
-        <v>0.33753</v>
+        <v>0.34083</v>
       </c>
       <c r="AI21">
-        <v>0.111836</v>
+        <v>0.111886</v>
       </c>
       <c r="AJ21">
-        <v>0.0587109</v>
+        <v>0.0595575</v>
       </c>
       <c r="AK21">
-        <v>0.0655516</v>
+        <v>0.0669766</v>
       </c>
       <c r="AL21">
-        <v>0.06862449999999999</v>
+        <v>0.0692974</v>
       </c>
       <c r="AM21">
-        <v>0.0343977</v>
+        <v>0.0347531</v>
       </c>
       <c r="AN21">
-        <v>0.244672</v>
+        <v>0.247972</v>
       </c>
       <c r="AO21">
-        <v>881.631</v>
+        <v>881.658</v>
       </c>
       <c r="AP21">
-        <v>835.0840000000001</v>
+        <v>835.3339999999999</v>
       </c>
       <c r="AQ21">
-        <v>895.842</v>
-      </c>
-      <c r="AR21" s="2" t="s">
-        <v>62</v>
+        <v>896.151</v>
+      </c>
+      <c r="AR21">
+        <v>748.6320000000001</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT21">
-        <v>725.8760000000001</v>
+        <v>726.001</v>
       </c>
       <c r="AU21">
-        <v>787.252</v>
+        <v>787.394</v>
       </c>
       <c r="AV21">
-        <v>740.824</v>
-      </c>
-      <c r="AW21" s="2" t="s">
-        <v>62</v>
+        <v>741.123</v>
+      </c>
+      <c r="AW21">
+        <v>802.1940000000001</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>62</v>
@@ -4019,116 +4012,116 @@
       <c r="L22" t="s">
         <v>75</v>
       </c>
-      <c r="M22">
-        <v>52.2881</v>
+      <c r="M22" s="3">
+        <v>53.058</v>
       </c>
       <c r="N22">
-        <v>9.322749999999999</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>62</v>
+        <v>8.14438</v>
+      </c>
+      <c r="O22">
+        <v>18.8067</v>
       </c>
       <c r="P22">
-        <v>29.6787</v>
+        <v>30.0048</v>
       </c>
       <c r="Q22">
-        <v>52.2889</v>
+        <v>53.0587</v>
       </c>
       <c r="R22">
-        <v>100.002</v>
+        <v>100.001</v>
       </c>
       <c r="S22">
-        <v>27.3898</v>
+        <v>26.9477</v>
       </c>
       <c r="T22">
-        <v>29.6787</v>
+        <v>30.0048</v>
       </c>
       <c r="U22">
-        <v>18.4669</v>
+        <v>18.8067</v>
       </c>
       <c r="V22">
-        <v>10.4188</v>
+        <v>10.5786</v>
       </c>
       <c r="W22">
-        <v>10.0156</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>62</v>
+        <v>10.0762</v>
+      </c>
+      <c r="X22">
+        <v>8.13313</v>
+      </c>
+      <c r="Y22">
+        <v>8.13313</v>
       </c>
       <c r="Z22">
-        <v>9.322749999999999</v>
+        <v>8.129960000000001</v>
       </c>
       <c r="AA22">
-        <v>15.9237</v>
+        <v>16.0494</v>
       </c>
       <c r="AB22">
-        <v>8.7521</v>
+        <v>8.946670000000001</v>
       </c>
       <c r="AC22">
-        <v>7.95797</v>
-      </c>
-      <c r="AD22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE22" s="2" t="s">
-        <v>62</v>
+        <v>8.08506</v>
+      </c>
+      <c r="AD22">
+        <v>8.14438</v>
+      </c>
+      <c r="AE22">
+        <v>8.14438</v>
       </c>
       <c r="AF22">
-        <v>8.141159999999999</v>
+        <v>8.14438</v>
       </c>
       <c r="AG22">
-        <v>0.830938</v>
+        <v>0.831311</v>
       </c>
       <c r="AH22">
-        <v>0.477174</v>
+        <v>0.481472</v>
       </c>
       <c r="AI22">
-        <v>0.185317</v>
+        <v>0.185368</v>
       </c>
       <c r="AJ22">
-        <v>0.07762769999999999</v>
+        <v>0.078735</v>
       </c>
       <c r="AK22">
-        <v>0.0862615</v>
+        <v>0.08806560000000001</v>
       </c>
       <c r="AL22">
-        <v>0.08675919999999999</v>
+        <v>0.08762759999999999</v>
       </c>
       <c r="AM22">
-        <v>0.0429042</v>
+        <v>0.0434227</v>
       </c>
       <c r="AN22">
-        <v>0.312827</v>
+        <v>0.317125</v>
       </c>
       <c r="AO22">
-        <v>879.272</v>
+        <v>879.296</v>
       </c>
       <c r="AP22">
-        <v>831.796</v>
+        <v>832.024</v>
       </c>
       <c r="AQ22">
-        <v>890.436</v>
-      </c>
-      <c r="AR22" s="2" t="s">
-        <v>62</v>
+        <v>890.6990000000001</v>
+      </c>
+      <c r="AR22">
+        <v>742.575</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT22">
-        <v>724.413</v>
+        <v>724.5409999999999</v>
       </c>
       <c r="AU22">
-        <v>783.785</v>
+        <v>783.907</v>
       </c>
       <c r="AV22">
-        <v>736.4820000000001</v>
-      </c>
-      <c r="AW22" s="2" t="s">
-        <v>62</v>
+        <v>736.758</v>
+      </c>
+      <c r="AW22">
+        <v>795.63</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>62</v>
@@ -4172,115 +4165,115 @@
         <v>73</v>
       </c>
       <c r="M23" s="3">
-        <v>53.4545</v>
+        <v>54.3749</v>
       </c>
       <c r="N23">
-        <v>10.9214</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>62</v>
+        <v>9.41451</v>
+      </c>
+      <c r="O23">
+        <v>20.2006</v>
       </c>
       <c r="P23">
-        <v>37.7828</v>
+        <v>38.126</v>
       </c>
       <c r="Q23">
-        <v>53.4535</v>
+        <v>54.3749</v>
       </c>
       <c r="R23">
-        <v>99.99810000000001</v>
+        <v>100</v>
       </c>
       <c r="S23">
-        <v>34.3322</v>
+        <v>33.7511</v>
       </c>
       <c r="T23">
-        <v>37.7828</v>
+        <v>38.126</v>
       </c>
       <c r="U23">
-        <v>19.8056</v>
+        <v>20.2006</v>
       </c>
       <c r="V23">
-        <v>11.3754</v>
+        <v>11.5143</v>
       </c>
       <c r="W23">
-        <v>11.751</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>62</v>
+        <v>11.8167</v>
+      </c>
+      <c r="X23">
+        <v>9.415050000000001</v>
+      </c>
+      <c r="Y23">
+        <v>9.415050000000001</v>
       </c>
       <c r="Z23">
-        <v>10.9214</v>
+        <v>9.41451</v>
       </c>
       <c r="AA23">
-        <v>15.0529</v>
+        <v>15.1548</v>
       </c>
       <c r="AB23">
-        <v>8.863669999999999</v>
+        <v>9.06704</v>
       </c>
       <c r="AC23">
-        <v>8.156639999999999</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>62</v>
+        <v>8.279500000000001</v>
+      </c>
+      <c r="AD23">
+        <v>8.547689999999999</v>
+      </c>
+      <c r="AE23">
+        <v>8.547689999999999</v>
       </c>
       <c r="AF23">
-        <v>8.5291</v>
+        <v>8.547689999999999</v>
       </c>
       <c r="AG23">
-        <v>0.68381</v>
+        <v>0.684254</v>
       </c>
       <c r="AH23">
-        <v>0.274974</v>
+        <v>0.277956</v>
       </c>
       <c r="AI23">
-        <v>0.0619633</v>
+        <v>0.0619636</v>
       </c>
       <c r="AJ23">
-        <v>0.0553057</v>
+        <v>0.0561413</v>
       </c>
       <c r="AK23">
-        <v>0.0594614</v>
+        <v>0.060819</v>
       </c>
       <c r="AL23">
-        <v>0.06540159999999999</v>
+        <v>0.0659988</v>
       </c>
       <c r="AM23">
-        <v>0.0330545</v>
+        <v>0.0332453</v>
       </c>
       <c r="AN23">
-        <v>0.213373</v>
+        <v>0.216355</v>
       </c>
       <c r="AO23">
-        <v>882.8290000000001</v>
+        <v>882.857</v>
       </c>
       <c r="AP23">
-        <v>835.765</v>
+        <v>836.0010000000001</v>
       </c>
       <c r="AQ23">
-        <v>897.476</v>
-      </c>
-      <c r="AR23" s="2" t="s">
-        <v>62</v>
+        <v>897.7769999999999</v>
+      </c>
+      <c r="AR23">
+        <v>749.375</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT23">
-        <v>726.297</v>
+        <v>726.4150000000001</v>
       </c>
       <c r="AU23">
-        <v>788.712</v>
+        <v>788.8439999999999</v>
       </c>
       <c r="AV23">
-        <v>741.428</v>
-      </c>
-      <c r="AW23" s="2" t="s">
-        <v>62</v>
+        <v>741.703</v>
+      </c>
+      <c r="AW23">
+        <v>803.7510000000001</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>62</v>
@@ -4323,116 +4316,116 @@
       <c r="L24" t="s">
         <v>75</v>
       </c>
-      <c r="M24">
-        <v>52.8274</v>
+      <c r="M24" s="3">
+        <v>53.5154</v>
       </c>
       <c r="N24">
-        <v>8.319990000000001</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>62</v>
+        <v>7.20453</v>
+      </c>
+      <c r="O24">
+        <v>16.8965</v>
       </c>
       <c r="P24">
-        <v>29.2889</v>
+        <v>29.5796</v>
       </c>
       <c r="Q24">
-        <v>52.8293</v>
+        <v>53.5177</v>
       </c>
       <c r="R24">
         <v>100.004</v>
       </c>
       <c r="S24">
-        <v>26.4662</v>
+        <v>26.0615</v>
       </c>
       <c r="T24">
-        <v>29.2889</v>
+        <v>29.5796</v>
       </c>
       <c r="U24">
-        <v>16.5996</v>
+        <v>16.8965</v>
       </c>
       <c r="V24">
-        <v>8.962590000000001</v>
+        <v>9.068049999999999</v>
       </c>
       <c r="W24">
-        <v>8.88467</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>62</v>
+        <v>8.930870000000001</v>
+      </c>
+      <c r="X24">
+        <v>7.20168</v>
+      </c>
+      <c r="Y24">
+        <v>7.20168</v>
       </c>
       <c r="Z24">
-        <v>8.319990000000001</v>
+        <v>7.20453</v>
       </c>
       <c r="AA24">
-        <v>14.0818</v>
+        <v>14.1935</v>
       </c>
       <c r="AB24">
-        <v>7.311190000000001</v>
+        <v>7.48446</v>
       </c>
       <c r="AC24">
-        <v>6.716</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>62</v>
+        <v>6.81831</v>
+      </c>
+      <c r="AD24">
+        <v>6.94385</v>
+      </c>
+      <c r="AE24">
+        <v>6.94385</v>
       </c>
       <c r="AF24">
-        <v>6.934950000000001</v>
+        <v>6.94385</v>
       </c>
       <c r="AG24">
-        <v>0.834589</v>
+        <v>0.835114</v>
       </c>
       <c r="AH24">
-        <v>0.411928</v>
+        <v>0.415807</v>
       </c>
       <c r="AI24">
-        <v>0.139059</v>
+        <v>0.13906</v>
       </c>
       <c r="AJ24">
-        <v>0.0721334</v>
+        <v>0.073272</v>
       </c>
       <c r="AK24">
-        <v>0.07729860000000001</v>
+        <v>0.07898989999999999</v>
       </c>
       <c r="AL24">
-        <v>0.08250449999999999</v>
+        <v>0.0832566</v>
       </c>
       <c r="AM24">
-        <v>0.0409926</v>
+        <v>0.0412895</v>
       </c>
       <c r="AN24">
-        <v>0.273126</v>
+        <v>0.277006</v>
       </c>
       <c r="AO24">
-        <v>879.711</v>
+        <v>879.7430000000001</v>
       </c>
       <c r="AP24">
-        <v>831.4960000000001</v>
+        <v>831.711</v>
       </c>
       <c r="AQ24">
-        <v>890.394</v>
-      </c>
-      <c r="AR24" s="2" t="s">
-        <v>62</v>
+        <v>890.6400000000001</v>
+      </c>
+      <c r="AR24">
+        <v>741.6880000000001</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT24">
-        <v>724.269</v>
+        <v>724.393</v>
       </c>
       <c r="AU24">
-        <v>784.0219999999999</v>
+        <v>784.146</v>
       </c>
       <c r="AV24">
-        <v>735.849</v>
-      </c>
-      <c r="AW24" s="2" t="s">
-        <v>62</v>
+        <v>736.095</v>
+      </c>
+      <c r="AW24">
+        <v>795.205</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>62</v>
@@ -4475,116 +4468,116 @@
       <c r="L25" t="s">
         <v>73</v>
       </c>
-      <c r="M25">
-        <v>52.6072</v>
+      <c r="M25" s="3">
+        <v>53.5718</v>
       </c>
       <c r="N25">
-        <v>11.551</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>62</v>
+        <v>10.0439</v>
+      </c>
+      <c r="O25">
+        <v>21.5742</v>
       </c>
       <c r="P25">
-        <v>36.1506</v>
+        <v>36.5416</v>
       </c>
       <c r="Q25">
-        <v>52.6071</v>
+        <v>53.5726</v>
       </c>
       <c r="R25">
-        <v>99.99980000000001</v>
+        <v>100.002</v>
       </c>
       <c r="S25">
-        <v>33.5423</v>
+        <v>32.9667</v>
       </c>
       <c r="T25">
-        <v>36.1506</v>
+        <v>36.5416</v>
       </c>
       <c r="U25">
-        <v>21.1675</v>
+        <v>21.5742</v>
       </c>
       <c r="V25">
-        <v>12.5709</v>
+        <v>12.7715</v>
       </c>
       <c r="W25">
-        <v>12.5249</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>62</v>
+        <v>12.5953</v>
+      </c>
+      <c r="X25">
+        <v>10.0363</v>
+      </c>
+      <c r="Y25">
+        <v>10.0363</v>
       </c>
       <c r="Z25">
-        <v>11.551</v>
+        <v>10.0439</v>
       </c>
       <c r="AA25">
-        <v>17.0023</v>
+        <v>17.1561</v>
       </c>
       <c r="AB25">
-        <v>10.1697</v>
+        <v>10.3952</v>
       </c>
       <c r="AC25">
-        <v>9.423480000000001</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>62</v>
+        <v>9.57103</v>
+      </c>
+      <c r="AD25">
+        <v>9.669460000000001</v>
+      </c>
+      <c r="AE25">
+        <v>9.669460000000001</v>
       </c>
       <c r="AF25">
-        <v>9.65578</v>
+        <v>9.669460000000001</v>
       </c>
       <c r="AG25">
-        <v>0.680088</v>
+        <v>0.680434</v>
       </c>
       <c r="AH25">
-        <v>0.33733</v>
+        <v>0.340585</v>
       </c>
       <c r="AI25">
-        <v>0.111836</v>
+        <v>0.111886</v>
       </c>
       <c r="AJ25">
-        <v>0.05870939999999999</v>
+        <v>0.0595478</v>
       </c>
       <c r="AK25">
-        <v>0.06555759999999999</v>
+        <v>0.06697210000000001</v>
       </c>
       <c r="AL25">
-        <v>0.06863499999999999</v>
+        <v>0.06928720000000001</v>
       </c>
       <c r="AM25">
-        <v>0.0341826</v>
+        <v>0.03453290000000001</v>
       </c>
       <c r="AN25">
-        <v>0.244472</v>
+        <v>0.247727</v>
       </c>
       <c r="AO25">
-        <v>881.63</v>
+        <v>881.657</v>
       </c>
       <c r="AP25">
-        <v>835.0840000000001</v>
+        <v>835.333</v>
       </c>
       <c r="AQ25">
-        <v>895.836</v>
-      </c>
-      <c r="AR25" s="2" t="s">
-        <v>62</v>
+        <v>896.158</v>
+      </c>
+      <c r="AR25">
+        <v>748.595</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT25">
-        <v>725.874</v>
+        <v>725.999</v>
       </c>
       <c r="AU25">
-        <v>787.255</v>
+        <v>787.402</v>
       </c>
       <c r="AV25">
-        <v>740.8200000000001</v>
-      </c>
-      <c r="AW25" s="2" t="s">
-        <v>62</v>
+        <v>741.127</v>
+      </c>
+      <c r="AW25">
+        <v>802.167</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>62</v>
@@ -4627,116 +4620,116 @@
       <c r="L26" t="s">
         <v>75</v>
       </c>
-      <c r="M26">
-        <v>52.2997</v>
+      <c r="M26" s="3">
+        <v>53.0533</v>
       </c>
       <c r="N26">
-        <v>9.29058</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>62</v>
+        <v>8.108680000000001</v>
+      </c>
+      <c r="O26">
+        <v>18.8132</v>
       </c>
       <c r="P26">
-        <v>29.648</v>
+        <v>29.9737</v>
       </c>
       <c r="Q26">
-        <v>52.2998</v>
+        <v>53.0522</v>
       </c>
       <c r="R26">
-        <v>100</v>
+        <v>99.9979</v>
       </c>
       <c r="S26">
-        <v>27.3493</v>
+        <v>26.9149</v>
       </c>
       <c r="T26">
-        <v>29.648</v>
+        <v>29.9737</v>
       </c>
       <c r="U26">
-        <v>18.4674</v>
+        <v>18.8132</v>
       </c>
       <c r="V26">
-        <v>10.4177</v>
+        <v>10.572</v>
       </c>
       <c r="W26">
-        <v>10.0178</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>62</v>
+        <v>10.0765</v>
+      </c>
+      <c r="X26">
+        <v>8.101700000000001</v>
+      </c>
+      <c r="Y26">
+        <v>8.101700000000001</v>
       </c>
       <c r="Z26">
-        <v>9.29058</v>
+        <v>8.10464</v>
       </c>
       <c r="AA26">
-        <v>15.9219</v>
+        <v>16.058</v>
       </c>
       <c r="AB26">
-        <v>8.75445</v>
+        <v>8.951870000000001</v>
       </c>
       <c r="AC26">
-        <v>7.962590000000001</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>62</v>
+        <v>8.08963</v>
+      </c>
+      <c r="AD26">
+        <v>8.108680000000001</v>
+      </c>
+      <c r="AE26">
+        <v>8.108680000000001</v>
       </c>
       <c r="AF26">
-        <v>8.10708</v>
+        <v>8.108680000000001</v>
       </c>
       <c r="AG26">
-        <v>0.830954</v>
+        <v>0.83133</v>
       </c>
       <c r="AH26">
-        <v>0.47692</v>
+        <v>0.481224</v>
       </c>
       <c r="AI26">
-        <v>0.185317</v>
+        <v>0.185368</v>
       </c>
       <c r="AJ26">
-        <v>0.07761749999999999</v>
+        <v>0.0787341</v>
       </c>
       <c r="AK26">
-        <v>0.08627049999999999</v>
+        <v>0.0880679</v>
       </c>
       <c r="AL26">
-        <v>0.0867623</v>
+        <v>0.0876314</v>
       </c>
       <c r="AM26">
-        <v>0.0426476</v>
+        <v>0.0431691</v>
       </c>
       <c r="AN26">
-        <v>0.312572</v>
+        <v>0.316876</v>
       </c>
       <c r="AO26">
-        <v>879.2710000000001</v>
+        <v>879.2950000000001</v>
       </c>
       <c r="AP26">
-        <v>831.796</v>
+        <v>832.027</v>
       </c>
       <c r="AQ26">
-        <v>890.438</v>
-      </c>
-      <c r="AR26" s="2" t="s">
-        <v>62</v>
+        <v>890.6899999999999</v>
+      </c>
+      <c r="AR26">
+        <v>742.543</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT26">
-        <v>724.414</v>
+        <v>724.543</v>
       </c>
       <c r="AU26">
-        <v>783.785</v>
+        <v>783.908</v>
       </c>
       <c r="AV26">
-        <v>736.485</v>
-      </c>
-      <c r="AW26" s="2" t="s">
-        <v>62</v>
+        <v>736.7600000000001</v>
+      </c>
+      <c r="AW26">
+        <v>795.599</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>62</v>
@@ -4779,116 +4772,116 @@
       <c r="L27" t="s">
         <v>73</v>
       </c>
-      <c r="M27" s="4">
-        <v>46.3678</v>
+      <c r="M27">
+        <v>47.0866</v>
       </c>
       <c r="N27">
-        <v>10.6519</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>62</v>
+        <v>10.6797</v>
+      </c>
+      <c r="O27">
+        <v>20.0929</v>
       </c>
       <c r="P27">
-        <v>38.158</v>
+        <v>37.7305</v>
       </c>
       <c r="Q27">
-        <v>46.3681</v>
+        <v>47.0873</v>
       </c>
       <c r="R27">
         <v>100.001</v>
       </c>
       <c r="S27">
-        <v>38.158</v>
+        <v>37.7305</v>
       </c>
       <c r="T27">
-        <v>34.5339</v>
+        <v>34.8179</v>
       </c>
       <c r="U27">
-        <v>15.3789</v>
+        <v>15.4198</v>
       </c>
       <c r="V27">
-        <v>9.35266</v>
+        <v>9.392770000000001</v>
       </c>
       <c r="W27">
-        <v>8.532209999999999</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>62</v>
+        <v>8.579160000000002</v>
+      </c>
+      <c r="X27">
+        <v>7.74317</v>
+      </c>
+      <c r="Y27">
+        <v>7.74317</v>
       </c>
       <c r="Z27">
-        <v>8.68083</v>
+        <v>7.7413</v>
       </c>
       <c r="AA27">
-        <v>19.8984</v>
+        <v>20.0929</v>
       </c>
       <c r="AB27">
-        <v>10.5491</v>
+        <v>10.7846</v>
       </c>
       <c r="AC27">
-        <v>10.9765</v>
-      </c>
-      <c r="AD27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>62</v>
+        <v>11.1352</v>
+      </c>
+      <c r="AD27">
+        <v>10.6797</v>
+      </c>
+      <c r="AE27">
+        <v>10.6797</v>
       </c>
       <c r="AF27">
-        <v>10.6519</v>
+        <v>10.6797</v>
       </c>
       <c r="AG27">
-        <v>0.683914</v>
+        <v>0.6843129999999999</v>
       </c>
       <c r="AH27">
-        <v>0.27286</v>
+        <v>0.275398</v>
       </c>
       <c r="AI27">
-        <v>0.0592296</v>
+        <v>0.0592302</v>
       </c>
       <c r="AJ27">
-        <v>0.0553279</v>
+        <v>0.0559839</v>
       </c>
       <c r="AK27">
-        <v>0.05946079999999999</v>
+        <v>0.0605935</v>
       </c>
       <c r="AL27">
-        <v>0.06536479999999999</v>
+        <v>0.06592870000000001</v>
       </c>
       <c r="AM27">
-        <v>0.03348019999999999</v>
+        <v>0.0336649</v>
       </c>
       <c r="AN27">
-        <v>0.213756</v>
+        <v>0.216294</v>
       </c>
       <c r="AO27">
-        <v>877.211</v>
+        <v>877.229</v>
       </c>
       <c r="AP27">
-        <v>838.95</v>
+        <v>839.1700000000001</v>
       </c>
       <c r="AQ27">
-        <v>892.1560000000001</v>
-      </c>
-      <c r="AR27" s="2" t="s">
-        <v>62</v>
+        <v>892.394</v>
+      </c>
+      <c r="AR27">
+        <v>753.3589999999999</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT27">
-        <v>732.448</v>
+        <v>732.579</v>
       </c>
       <c r="AU27">
-        <v>786.101</v>
+        <v>786.227</v>
       </c>
       <c r="AV27">
-        <v>747.269</v>
-      </c>
-      <c r="AW27" s="2" t="s">
-        <v>62</v>
+        <v>747.5359999999999</v>
+      </c>
+      <c r="AW27">
+        <v>800.443</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>62</v>
@@ -4932,115 +4925,115 @@
         <v>75</v>
       </c>
       <c r="M28">
-        <v>47.2008</v>
+        <v>47.7874</v>
       </c>
       <c r="N28">
-        <v>8.257290000000001</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>62</v>
+        <v>8.27585</v>
+      </c>
+      <c r="O28">
+        <v>16.9444</v>
       </c>
       <c r="P28">
-        <v>29.6027</v>
+        <v>29.2553</v>
       </c>
       <c r="Q28">
-        <v>47.2008</v>
+        <v>47.7877</v>
       </c>
       <c r="R28">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S28">
-        <v>29.6027</v>
+        <v>29.2553</v>
       </c>
       <c r="T28">
-        <v>26.8035</v>
+        <v>27.0419</v>
       </c>
       <c r="U28">
-        <v>14.3484</v>
+        <v>14.3956</v>
       </c>
       <c r="V28">
-        <v>7.707549999999999</v>
+        <v>7.72153</v>
       </c>
       <c r="W28">
-        <v>7.02011</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>62</v>
+        <v>7.05728</v>
+      </c>
+      <c r="X28">
+        <v>6.27815</v>
+      </c>
+      <c r="Y28">
+        <v>6.27815</v>
       </c>
       <c r="Z28">
-        <v>7.065</v>
+        <v>6.28074</v>
       </c>
       <c r="AA28">
-        <v>16.7952</v>
+        <v>16.9444</v>
       </c>
       <c r="AB28">
-        <v>8.45495</v>
+        <v>8.650160000000001</v>
       </c>
       <c r="AC28">
-        <v>8.439919999999999</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE28" s="2" t="s">
-        <v>62</v>
+        <v>8.571150000000001</v>
+      </c>
+      <c r="AD28">
+        <v>8.27585</v>
+      </c>
+      <c r="AE28">
+        <v>8.27585</v>
       </c>
       <c r="AF28">
-        <v>8.257290000000001</v>
+        <v>8.27585</v>
       </c>
       <c r="AG28">
-        <v>0.834598</v>
+        <v>0.83504</v>
       </c>
       <c r="AH28">
-        <v>0.41398</v>
+        <v>0.417437</v>
       </c>
       <c r="AI28">
-        <v>0.141043</v>
+        <v>0.141044</v>
       </c>
       <c r="AJ28">
-        <v>0.0718892</v>
+        <v>0.0728128</v>
       </c>
       <c r="AK28">
-        <v>0.07710299999999999</v>
+        <v>0.0786259</v>
       </c>
       <c r="AL28">
-        <v>0.0823844</v>
+        <v>0.08313180000000001</v>
       </c>
       <c r="AM28">
-        <v>0.04158849999999999</v>
+        <v>0.0418517</v>
       </c>
       <c r="AN28">
-        <v>0.273124</v>
+        <v>0.276581</v>
       </c>
       <c r="AO28">
-        <v>875.015</v>
+        <v>875.035</v>
       </c>
       <c r="AP28">
-        <v>834.174</v>
+        <v>834.364</v>
       </c>
       <c r="AQ28">
-        <v>886.4930000000001</v>
-      </c>
-      <c r="AR28" s="2" t="s">
-        <v>62</v>
+        <v>886.687</v>
+      </c>
+      <c r="AR28">
+        <v>744.879</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT28">
-        <v>729.3910000000001</v>
+        <v>729.5169999999999</v>
       </c>
       <c r="AU28">
-        <v>781.855</v>
+        <v>781.9640000000001</v>
       </c>
       <c r="AV28">
-        <v>740.2809999999999</v>
-      </c>
-      <c r="AW28" s="2" t="s">
-        <v>62</v>
+        <v>740.505</v>
+      </c>
+      <c r="AW28">
+        <v>792.667</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>62</v>
@@ -5083,116 +5076,116 @@
       <c r="L29" t="s">
         <v>73</v>
       </c>
-      <c r="M29" s="4">
-        <v>46.5418</v>
+      <c r="M29">
+        <v>47.333</v>
       </c>
       <c r="N29">
-        <v>11.8501</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>62</v>
+        <v>11.8847</v>
+      </c>
+      <c r="O29">
+        <v>22.0832</v>
       </c>
       <c r="P29">
-        <v>37.0578</v>
+        <v>36.5803</v>
       </c>
       <c r="Q29">
-        <v>46.5387</v>
+        <v>47.3335</v>
       </c>
       <c r="R29">
-        <v>99.99339999999999</v>
+        <v>100.001</v>
       </c>
       <c r="S29">
-        <v>37.0578</v>
+        <v>36.5803</v>
       </c>
       <c r="T29">
-        <v>33.5945</v>
+        <v>33.9152</v>
       </c>
       <c r="U29">
-        <v>17.4054</v>
+        <v>17.4789</v>
       </c>
       <c r="V29">
-        <v>10.7557</v>
+        <v>10.7957</v>
       </c>
       <c r="W29">
-        <v>9.7346</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>62</v>
+        <v>9.791230000000001</v>
+      </c>
+      <c r="X29">
+        <v>8.70852</v>
+      </c>
+      <c r="Y29">
+        <v>8.70852</v>
       </c>
       <c r="Z29">
-        <v>9.705580000000001</v>
+        <v>8.708179999999999</v>
       </c>
       <c r="AA29">
-        <v>21.87</v>
+        <v>22.0832</v>
       </c>
       <c r="AB29">
-        <v>12.1753</v>
+        <v>12.4688</v>
       </c>
       <c r="AC29">
-        <v>12.2806</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE29" s="2" t="s">
-        <v>62</v>
+        <v>12.4829</v>
+      </c>
+      <c r="AD29">
+        <v>11.8847</v>
+      </c>
+      <c r="AE29">
+        <v>11.8847</v>
       </c>
       <c r="AF29">
-        <v>11.8501</v>
+        <v>11.8847</v>
       </c>
       <c r="AG29">
-        <v>0.6800850000000001</v>
+        <v>0.6802510000000001</v>
       </c>
       <c r="AH29">
-        <v>0.356805</v>
+        <v>0.359744</v>
       </c>
       <c r="AI29">
-        <v>0.131292</v>
+        <v>0.131396</v>
       </c>
       <c r="AJ29">
-        <v>0.05847169999999999</v>
+        <v>0.0591735</v>
       </c>
       <c r="AK29">
-        <v>0.0657474</v>
+        <v>0.06696879999999999</v>
       </c>
       <c r="AL29">
-        <v>0.06865250000000001</v>
+        <v>0.0692902</v>
       </c>
       <c r="AM29">
-        <v>0.0346345</v>
+        <v>0.0350134</v>
       </c>
       <c r="AN29">
-        <v>0.249906</v>
+        <v>0.252845</v>
       </c>
       <c r="AO29">
-        <v>875.86</v>
+        <v>875.8760000000001</v>
       </c>
       <c r="AP29">
-        <v>837.849</v>
+        <v>838.075</v>
       </c>
       <c r="AQ29">
-        <v>890.886</v>
-      </c>
-      <c r="AR29" s="2" t="s">
-        <v>62</v>
+        <v>891.126</v>
+      </c>
+      <c r="AR29">
+        <v>752.2080000000001</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT29">
-        <v>732.106</v>
+        <v>732.25</v>
       </c>
       <c r="AU29">
-        <v>785.0930000000001</v>
+        <v>785.2370000000001</v>
       </c>
       <c r="AV29">
-        <v>746.53</v>
-      </c>
-      <c r="AW29" s="2" t="s">
-        <v>62</v>
+        <v>746.816</v>
+      </c>
+      <c r="AW29">
+        <v>799.5400000000001</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>62</v>
@@ -5236,115 +5229,115 @@
         <v>75</v>
       </c>
       <c r="M30">
-        <v>47.1046</v>
+        <v>47.7862</v>
       </c>
       <c r="N30">
-        <v>9.53647</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>62</v>
+        <v>9.55696</v>
+      </c>
+      <c r="O30">
+        <v>19.0384</v>
       </c>
       <c r="P30">
-        <v>30.2638</v>
+        <v>29.8655</v>
       </c>
       <c r="Q30">
-        <v>47.1029</v>
+        <v>47.7862</v>
       </c>
       <c r="R30">
-        <v>99.99640000000001</v>
+        <v>100</v>
       </c>
       <c r="S30">
-        <v>30.2638</v>
+        <v>29.8655</v>
       </c>
       <c r="T30">
-        <v>27.3658</v>
+        <v>27.6514</v>
       </c>
       <c r="U30">
-        <v>16.2069</v>
+        <v>16.2892</v>
       </c>
       <c r="V30">
-        <v>9.184360000000002</v>
+        <v>9.220320000000001</v>
       </c>
       <c r="W30">
-        <v>8.22204</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>62</v>
+        <v>8.27065</v>
+      </c>
+      <c r="X30">
+        <v>7.266570000000001</v>
+      </c>
+      <c r="Y30">
+        <v>7.266570000000001</v>
       </c>
       <c r="Z30">
-        <v>8.128349999999999</v>
+        <v>7.266570000000001</v>
       </c>
       <c r="AA30">
-        <v>18.8662</v>
+        <v>19.0384</v>
       </c>
       <c r="AB30">
-        <v>10.0837</v>
+        <v>10.3315</v>
       </c>
       <c r="AC30">
-        <v>9.79865</v>
-      </c>
-      <c r="AD30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE30" s="2" t="s">
-        <v>62</v>
+        <v>9.963000000000001</v>
+      </c>
+      <c r="AD30">
+        <v>9.55696</v>
+      </c>
+      <c r="AE30">
+        <v>9.55696</v>
       </c>
       <c r="AF30">
-        <v>9.53647</v>
+        <v>9.55696</v>
       </c>
       <c r="AG30">
-        <v>0.8309530000000001</v>
+        <v>0.831164</v>
       </c>
       <c r="AH30">
-        <v>0.519943</v>
+        <v>0.523872</v>
       </c>
       <c r="AI30">
-        <v>0.228349</v>
+        <v>0.228469</v>
       </c>
       <c r="AJ30">
-        <v>0.0771193</v>
+        <v>0.0780563</v>
       </c>
       <c r="AK30">
-        <v>0.0864169</v>
+        <v>0.0880169</v>
       </c>
       <c r="AL30">
-        <v>0.08686199999999999</v>
+        <v>0.0877072</v>
       </c>
       <c r="AM30">
-        <v>0.0433213</v>
+        <v>0.0438675</v>
       </c>
       <c r="AN30">
-        <v>0.319499</v>
+        <v>0.323427</v>
       </c>
       <c r="AO30">
-        <v>874.397</v>
+        <v>874.4160000000001</v>
       </c>
       <c r="AP30">
-        <v>834.1950000000001</v>
+        <v>834.394</v>
       </c>
       <c r="AQ30">
-        <v>886.509</v>
-      </c>
-      <c r="AR30" s="2" t="s">
-        <v>62</v>
+        <v>886.721</v>
+      </c>
+      <c r="AR30">
+        <v>745.49</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT30">
-        <v>729.605</v>
+        <v>729.7380000000001</v>
       </c>
       <c r="AU30">
-        <v>781.7760000000001</v>
+        <v>781.9060000000001</v>
       </c>
       <c r="AV30">
-        <v>740.894</v>
-      </c>
-      <c r="AW30" s="2" t="s">
-        <v>62</v>
+        <v>741.1369999999999</v>
+      </c>
+      <c r="AW30">
+        <v>793.2760000000001</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>62</v>
@@ -5387,116 +5380,116 @@
       <c r="L31" t="s">
         <v>73</v>
       </c>
-      <c r="M31" s="4">
-        <v>46.3722</v>
+      <c r="M31">
+        <v>47.0823</v>
       </c>
       <c r="N31">
-        <v>10.5865</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>62</v>
+        <v>10.6149</v>
+      </c>
+      <c r="O31">
+        <v>20.0915</v>
       </c>
       <c r="P31">
-        <v>38.11810000000001</v>
+        <v>37.6959</v>
       </c>
       <c r="Q31">
-        <v>46.3723</v>
+        <v>47.081</v>
       </c>
       <c r="R31">
-        <v>100</v>
+        <v>99.99720000000001</v>
       </c>
       <c r="S31">
-        <v>38.11810000000001</v>
+        <v>37.6959</v>
       </c>
       <c r="T31">
-        <v>34.4878</v>
+        <v>34.7783</v>
       </c>
       <c r="U31">
-        <v>15.3663</v>
+        <v>15.4201</v>
       </c>
       <c r="V31">
-        <v>9.352740000000001</v>
+        <v>9.39838</v>
       </c>
       <c r="W31">
-        <v>8.53445</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>62</v>
+        <v>8.57945</v>
+      </c>
+      <c r="X31">
+        <v>7.720420000000001</v>
+      </c>
+      <c r="Y31">
+        <v>7.720420000000001</v>
       </c>
       <c r="Z31">
-        <v>8.650409999999999</v>
+        <v>7.720540000000001</v>
       </c>
       <c r="AA31">
-        <v>19.9006</v>
+        <v>20.0915</v>
       </c>
       <c r="AB31">
-        <v>10.5478</v>
+        <v>10.7848</v>
       </c>
       <c r="AC31">
-        <v>10.977</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>62</v>
+        <v>11.1374</v>
+      </c>
+      <c r="AD31">
+        <v>10.6149</v>
+      </c>
+      <c r="AE31">
+        <v>10.6149</v>
       </c>
       <c r="AF31">
-        <v>10.5865</v>
+        <v>10.6149</v>
       </c>
       <c r="AG31">
-        <v>0.683944</v>
+        <v>0.684346</v>
       </c>
       <c r="AH31">
-        <v>0.272598</v>
+        <v>0.275168</v>
       </c>
       <c r="AI31">
-        <v>0.0592296</v>
+        <v>0.0592302</v>
       </c>
       <c r="AJ31">
-        <v>0.0553077</v>
+        <v>0.0559869</v>
       </c>
       <c r="AK31">
-        <v>0.0594561</v>
+        <v>0.0605983</v>
       </c>
       <c r="AL31">
-        <v>0.0653663</v>
+        <v>0.06592770000000001</v>
       </c>
       <c r="AM31">
-        <v>0.0332414</v>
+        <v>0.0334285</v>
       </c>
       <c r="AN31">
-        <v>0.213494</v>
+        <v>0.216065</v>
       </c>
       <c r="AO31">
-        <v>877.211</v>
+        <v>877.229</v>
       </c>
       <c r="AP31">
-        <v>838.951</v>
+        <v>839.1750000000001</v>
       </c>
       <c r="AQ31">
-        <v>892.162</v>
-      </c>
-      <c r="AR31" s="2" t="s">
-        <v>62</v>
+        <v>892.394</v>
+      </c>
+      <c r="AR31">
+        <v>753.322</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT31">
-        <v>732.452</v>
+        <v>732.579</v>
       </c>
       <c r="AU31">
-        <v>786.097</v>
+        <v>786.229</v>
       </c>
       <c r="AV31">
-        <v>747.264</v>
-      </c>
-      <c r="AW31" s="2" t="s">
-        <v>62</v>
+        <v>747.5369999999999</v>
+      </c>
+      <c r="AW31">
+        <v>800.403</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>62</v>
@@ -5540,115 +5533,115 @@
         <v>75</v>
       </c>
       <c r="M32">
-        <v>47.2062</v>
+        <v>47.7896</v>
       </c>
       <c r="N32">
-        <v>8.212159999999999</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>62</v>
+        <v>8.23113</v>
+      </c>
+      <c r="O32">
+        <v>16.9517</v>
       </c>
       <c r="P32">
-        <v>29.5595</v>
+        <v>29.2183</v>
       </c>
       <c r="Q32">
-        <v>47.2079</v>
+        <v>47.7899</v>
       </c>
       <c r="R32">
-        <v>100.004</v>
+        <v>100</v>
       </c>
       <c r="S32">
-        <v>29.5595</v>
+        <v>29.2183</v>
       </c>
       <c r="T32">
-        <v>26.7669</v>
+        <v>27.0085</v>
       </c>
       <c r="U32">
-        <v>14.349</v>
+        <v>14.3904</v>
       </c>
       <c r="V32">
-        <v>7.708400000000001</v>
+        <v>7.72336</v>
       </c>
       <c r="W32">
-        <v>7.02045</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>62</v>
+        <v>7.05501</v>
+      </c>
+      <c r="X32">
+        <v>6.26541</v>
+      </c>
+      <c r="Y32">
+        <v>6.26541</v>
       </c>
       <c r="Z32">
-        <v>7.04383</v>
+        <v>6.26557</v>
       </c>
       <c r="AA32">
-        <v>16.7996</v>
+        <v>16.9517</v>
       </c>
       <c r="AB32">
-        <v>8.451220000000001</v>
+        <v>8.650230000000001</v>
       </c>
       <c r="AC32">
-        <v>8.440560000000001</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE32" s="2" t="s">
-        <v>62</v>
+        <v>8.571570000000001</v>
+      </c>
+      <c r="AD32">
+        <v>8.23113</v>
+      </c>
+      <c r="AE32">
+        <v>8.23113</v>
       </c>
       <c r="AF32">
-        <v>8.212159999999999</v>
+        <v>8.23113</v>
       </c>
       <c r="AG32">
-        <v>0.834678</v>
+        <v>0.835058</v>
       </c>
       <c r="AH32">
-        <v>0.413708</v>
+        <v>0.417163</v>
       </c>
       <c r="AI32">
-        <v>0.141043</v>
+        <v>0.141044</v>
       </c>
       <c r="AJ32">
-        <v>0.0718811</v>
+        <v>0.07280440000000001</v>
       </c>
       <c r="AK32">
-        <v>0.07710689999999999</v>
+        <v>0.0786205</v>
       </c>
       <c r="AL32">
-        <v>0.08239450000000001</v>
+        <v>0.0831397</v>
       </c>
       <c r="AM32">
-        <v>0.0413107</v>
+        <v>0.0415837</v>
       </c>
       <c r="AN32">
-        <v>0.272852</v>
+        <v>0.276307</v>
       </c>
       <c r="AO32">
-        <v>875.015</v>
+        <v>875.034</v>
       </c>
       <c r="AP32">
-        <v>834.1660000000001</v>
+        <v>834.36</v>
       </c>
       <c r="AQ32">
-        <v>886.4930000000001</v>
-      </c>
-      <c r="AR32" s="2" t="s">
-        <v>62</v>
+        <v>886.6880000000001</v>
+      </c>
+      <c r="AR32">
+        <v>744.846</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT32">
-        <v>729.3920000000001</v>
+        <v>729.518</v>
       </c>
       <c r="AU32">
-        <v>781.855</v>
+        <v>781.965</v>
       </c>
       <c r="AV32">
-        <v>740.278</v>
-      </c>
-      <c r="AW32" s="2" t="s">
-        <v>62</v>
+        <v>740.5060000000001</v>
+      </c>
+      <c r="AW32">
+        <v>792.634</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>62</v>
@@ -5691,116 +5684,116 @@
       <c r="L33" t="s">
         <v>73</v>
       </c>
-      <c r="M33" s="4">
-        <v>46.5388</v>
+      <c r="M33">
+        <v>47.3262</v>
       </c>
       <c r="N33">
-        <v>11.7858</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>62</v>
+        <v>11.8138</v>
+      </c>
+      <c r="O33">
+        <v>22.0747</v>
       </c>
       <c r="P33">
-        <v>37.0093</v>
+        <v>36.5438</v>
       </c>
       <c r="Q33">
-        <v>46.53830000000001</v>
+        <v>47.326</v>
       </c>
       <c r="R33">
-        <v>99.9991</v>
+        <v>99.9996</v>
       </c>
       <c r="S33">
-        <v>37.0093</v>
+        <v>36.5438</v>
       </c>
       <c r="T33">
-        <v>33.5505</v>
+        <v>33.8732</v>
       </c>
       <c r="U33">
-        <v>17.3798</v>
+        <v>17.4576</v>
       </c>
       <c r="V33">
-        <v>10.7557</v>
+        <v>10.7912</v>
       </c>
       <c r="W33">
-        <v>9.732390000000001</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>62</v>
+        <v>9.788539999999999</v>
+      </c>
+      <c r="X33">
+        <v>8.685040000000001</v>
+      </c>
+      <c r="Y33">
+        <v>8.685040000000001</v>
       </c>
       <c r="Z33">
-        <v>9.677200000000001</v>
+        <v>8.68521</v>
       </c>
       <c r="AA33">
-        <v>21.8748</v>
+        <v>22.0747</v>
       </c>
       <c r="AB33">
-        <v>12.1755</v>
+        <v>12.4689</v>
       </c>
       <c r="AC33">
-        <v>12.2798</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>62</v>
+        <v>12.4858</v>
+      </c>
+      <c r="AD33">
+        <v>11.8138</v>
+      </c>
+      <c r="AE33">
+        <v>11.8138</v>
       </c>
       <c r="AF33">
-        <v>11.7858</v>
+        <v>11.8138</v>
       </c>
       <c r="AG33">
-        <v>0.680099</v>
+        <v>0.680273</v>
       </c>
       <c r="AH33">
-        <v>0.356586</v>
+        <v>0.359521</v>
       </c>
       <c r="AI33">
-        <v>0.131292</v>
+        <v>0.131396</v>
       </c>
       <c r="AJ33">
-        <v>0.05846589999999999</v>
+        <v>0.0591553</v>
       </c>
       <c r="AK33">
-        <v>0.06574919999999999</v>
+        <v>0.06697500000000001</v>
       </c>
       <c r="AL33">
-        <v>0.0686539</v>
+        <v>0.0692974</v>
       </c>
       <c r="AM33">
-        <v>0.0344185</v>
+        <v>0.0347948</v>
       </c>
       <c r="AN33">
-        <v>0.249688</v>
+        <v>0.252622</v>
       </c>
       <c r="AO33">
-        <v>875.86</v>
+        <v>875.875</v>
       </c>
       <c r="AP33">
-        <v>837.84</v>
+        <v>838.0780000000001</v>
       </c>
       <c r="AQ33">
-        <v>890.8820000000001</v>
-      </c>
-      <c r="AR33" s="2" t="s">
-        <v>62</v>
+        <v>891.126</v>
+      </c>
+      <c r="AR33">
+        <v>752.1659999999999</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT33">
-        <v>732.106</v>
+        <v>732.25</v>
       </c>
       <c r="AU33">
-        <v>785.096</v>
+        <v>785.24</v>
       </c>
       <c r="AV33">
-        <v>746.53</v>
-      </c>
-      <c r="AW33" s="2" t="s">
-        <v>62</v>
+        <v>746.8149999999999</v>
+      </c>
+      <c r="AW33">
+        <v>799.4979999999999</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>62</v>
@@ -5844,115 +5837,115 @@
         <v>75</v>
       </c>
       <c r="M34">
-        <v>47.1</v>
+        <v>47.7785</v>
       </c>
       <c r="N34">
-        <v>9.487439999999999</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>62</v>
+        <v>9.50761</v>
+      </c>
+      <c r="O34">
+        <v>19.036</v>
       </c>
       <c r="P34">
-        <v>30.2284</v>
+        <v>29.8357</v>
       </c>
       <c r="Q34">
-        <v>47.0985</v>
+        <v>47.7758</v>
       </c>
       <c r="R34">
-        <v>99.9969</v>
+        <v>99.9944</v>
       </c>
       <c r="S34">
-        <v>30.2284</v>
+        <v>29.8357</v>
       </c>
       <c r="T34">
-        <v>27.3242</v>
+        <v>27.6127</v>
       </c>
       <c r="U34">
-        <v>16.2121</v>
+        <v>16.2878</v>
       </c>
       <c r="V34">
-        <v>9.18576</v>
+        <v>9.22034</v>
       </c>
       <c r="W34">
-        <v>8.223650000000001</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>62</v>
+        <v>8.270950000000001</v>
+      </c>
+      <c r="X34">
+        <v>7.24933</v>
+      </c>
+      <c r="Y34">
+        <v>7.24933</v>
       </c>
       <c r="Z34">
-        <v>8.10727</v>
+        <v>7.24801</v>
       </c>
       <c r="AA34">
-        <v>18.8671</v>
+        <v>19.036</v>
       </c>
       <c r="AB34">
-        <v>10.0745</v>
+        <v>10.3309</v>
       </c>
       <c r="AC34">
-        <v>9.799389999999999</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE34" s="2" t="s">
-        <v>62</v>
+        <v>9.961830000000001</v>
+      </c>
+      <c r="AD34">
+        <v>9.50761</v>
+      </c>
+      <c r="AE34">
+        <v>9.50761</v>
       </c>
       <c r="AF34">
-        <v>9.487439999999999</v>
+        <v>9.50761</v>
       </c>
       <c r="AG34">
-        <v>0.830965</v>
+        <v>0.831168</v>
       </c>
       <c r="AH34">
-        <v>0.519698</v>
+        <v>0.523641</v>
       </c>
       <c r="AI34">
-        <v>0.228349</v>
+        <v>0.228469</v>
       </c>
       <c r="AJ34">
-        <v>0.0771215</v>
+        <v>0.0780578</v>
       </c>
       <c r="AK34">
-        <v>0.08642279999999999</v>
+        <v>0.08803369999999999</v>
       </c>
       <c r="AL34">
-        <v>0.08685849999999999</v>
+        <v>0.0877087</v>
       </c>
       <c r="AM34">
-        <v>0.0430708</v>
+        <v>0.0436178</v>
       </c>
       <c r="AN34">
-        <v>0.319254</v>
+        <v>0.323197</v>
       </c>
       <c r="AO34">
-        <v>874.396</v>
+        <v>874.4160000000001</v>
       </c>
       <c r="AP34">
-        <v>834.199</v>
+        <v>834.402</v>
       </c>
       <c r="AQ34">
-        <v>886.509</v>
-      </c>
-      <c r="AR34" s="2" t="s">
-        <v>62</v>
+        <v>886.721</v>
+      </c>
+      <c r="AR34">
+        <v>745.455</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT34">
-        <v>729.603</v>
+        <v>729.7380000000001</v>
       </c>
       <c r="AU34">
-        <v>781.774</v>
+        <v>781.907</v>
       </c>
       <c r="AV34">
-        <v>740.89</v>
-      </c>
-      <c r="AW34" s="2" t="s">
-        <v>62</v>
+        <v>741.1369999999999</v>
+      </c>
+      <c r="AW34">
+        <v>793.2380000000001</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>62</v>
@@ -6114,116 +6107,116 @@
       <c r="L36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="4">
-        <v>46.3678</v>
+      <c r="M36" s="1">
+        <v>47.0823</v>
       </c>
       <c r="N36" s="1">
-        <v>6.292120000000001</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>124</v>
+        <v>6.21023</v>
+      </c>
+      <c r="O36" s="1">
+        <v>14.6895</v>
       </c>
       <c r="P36" s="1">
-        <v>22.8706</v>
+        <v>23.0968</v>
       </c>
       <c r="Q36" s="1">
-        <v>46.3681</v>
+        <v>47.081</v>
       </c>
       <c r="R36" s="1">
-        <v>99.9897</v>
+        <v>99.994</v>
       </c>
       <c r="S36" s="1">
-        <v>22.4418</v>
+        <v>22.1649</v>
       </c>
       <c r="T36" s="1">
-        <v>22.8706</v>
+        <v>23.0968</v>
       </c>
       <c r="U36" s="1">
-        <v>14.3484</v>
+        <v>14.3904</v>
       </c>
       <c r="V36" s="1">
-        <v>7.17268</v>
+        <v>7.21039</v>
       </c>
       <c r="W36" s="1">
-        <v>6.50034</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>124</v>
+        <v>6.534960000000001</v>
+      </c>
+      <c r="X36" s="1">
+        <v>5.53439</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>5.53439</v>
       </c>
       <c r="Z36" s="1">
-        <v>6.292120000000001</v>
+        <v>5.534730000000001</v>
       </c>
       <c r="AA36" s="1">
-        <v>14.0818</v>
+        <v>14.1929</v>
       </c>
       <c r="AB36" s="1">
-        <v>6.851059999999999</v>
+        <v>7.01004</v>
       </c>
       <c r="AC36" s="1">
-        <v>6.16588</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE36" s="1" t="s">
-        <v>124</v>
+        <v>6.26639</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>6.21023</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>6.21023</v>
       </c>
       <c r="AF36" s="1">
-        <v>6.20543</v>
+        <v>6.21023</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.677951</v>
+        <v>0.678118</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.224975</v>
+        <v>0.227277</v>
       </c>
       <c r="AI36" s="1">
         <v>0.0204357</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.0522427</v>
+        <v>0.0527802</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.0567213</v>
+        <v>0.0578032</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.0630826</v>
+        <v>0.0635971</v>
       </c>
       <c r="AM36" s="1">
-        <v>0.0326931</v>
+        <v>0.0328601</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.204756</v>
+        <v>0.207058</v>
       </c>
       <c r="AO36" s="1">
-        <v>874.396</v>
+        <v>874.4160000000001</v>
       </c>
       <c r="AP36" s="1">
-        <v>829.5790000000001</v>
+        <v>829.775</v>
       </c>
       <c r="AQ36" s="1">
-        <v>884.3710000000001</v>
-      </c>
-      <c r="AR36" s="1" t="s">
-        <v>124</v>
+        <v>884.559</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>737.787</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT36" s="1">
-        <v>724.268</v>
+        <v>724.393</v>
       </c>
       <c r="AU36" s="1">
-        <v>780.0319999999999</v>
+        <v>780.131</v>
       </c>
       <c r="AV36" s="1">
-        <v>733.673</v>
-      </c>
-      <c r="AW36" s="1" t="s">
-        <v>124</v>
+        <v>733.889</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>788.722</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>124</v>
@@ -6234,115 +6227,115 @@
         <v>125</v>
       </c>
       <c r="M37" s="3">
-        <v>53.4545</v>
+        <v>54.3749</v>
       </c>
       <c r="N37" s="1">
-        <v>13.3148</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>124</v>
+        <v>13.3466</v>
+      </c>
+      <c r="O37" s="1">
+        <v>22.0832</v>
       </c>
       <c r="P37" s="1">
-        <v>49.52979999999999</v>
+        <v>49.1204</v>
       </c>
       <c r="Q37" s="1">
-        <v>53.4535</v>
+        <v>54.3749</v>
       </c>
       <c r="R37" s="1">
-        <v>100.007</v>
+        <v>100.005</v>
       </c>
       <c r="S37" s="1">
-        <v>49.52979999999999</v>
+        <v>48.8521</v>
       </c>
       <c r="T37" s="1">
-        <v>48.7348</v>
+        <v>49.1204</v>
       </c>
       <c r="U37" s="1">
-        <v>21.1675</v>
+        <v>21.5815</v>
       </c>
       <c r="V37" s="1">
-        <v>14.0285</v>
+        <v>14.1208</v>
       </c>
       <c r="W37" s="1">
-        <v>13.6364</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>124</v>
+        <v>13.7094</v>
+      </c>
+      <c r="X37" s="1">
+        <v>11.5776</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>11.5776</v>
       </c>
       <c r="Z37" s="1">
-        <v>13.1341</v>
+        <v>11.5748</v>
       </c>
       <c r="AA37" s="1">
-        <v>21.8748</v>
+        <v>22.0832</v>
       </c>
       <c r="AB37" s="1">
-        <v>13.3594</v>
+        <v>13.6425</v>
       </c>
       <c r="AC37" s="1">
-        <v>13.397</v>
-      </c>
-      <c r="AD37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE37" s="1" t="s">
-        <v>124</v>
+        <v>13.5834</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>13.3466</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>13.3466</v>
       </c>
       <c r="AF37" s="1">
-        <v>13.3148</v>
+        <v>13.3466</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.836517</v>
+        <v>0.837105</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.7115039999999999</v>
+        <v>0.7166089999999999</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.37694</v>
+        <v>0.377166</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.09254799999999999</v>
+        <v>0.0936574</v>
       </c>
       <c r="AK37" s="1">
-        <v>0.105435</v>
+        <v>0.10744</v>
       </c>
       <c r="AL37" s="1">
-        <v>0.0960498</v>
+        <v>0.0971089</v>
       </c>
       <c r="AM37" s="1">
-        <v>0.0457938</v>
+        <v>0.0467132</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.398554</v>
+        <v>0.403659</v>
       </c>
       <c r="AO37" s="1">
-        <v>883.194</v>
+        <v>883.211</v>
       </c>
       <c r="AP37" s="1">
-        <v>844.604</v>
+        <v>844.847</v>
       </c>
       <c r="AQ37" s="1">
-        <v>904.422</v>
-      </c>
-      <c r="AR37" s="1" t="s">
-        <v>124</v>
+        <v>904.758</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>764.477</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT37" s="1">
-        <v>732.9860000000001</v>
+        <v>733.086</v>
       </c>
       <c r="AU37" s="1">
-        <v>794.064</v>
+        <v>794.218</v>
       </c>
       <c r="AV37" s="1">
-        <v>754.554</v>
-      </c>
-      <c r="AW37" s="1" t="s">
-        <v>124</v>
+        <v>754.853</v>
+      </c>
+      <c r="AW37" s="1">
+        <v>814.745</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>124</v>
@@ -6388,115 +6381,115 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>49.76282424242424</v>
+        <v>50.53031212121213</v>
       </c>
       <c r="N42" s="1">
-        <v>9.68336212121212</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>124</v>
+        <v>9.331978181818183</v>
+      </c>
+      <c r="O42" s="1">
+        <v>18.53100606060606</v>
       </c>
       <c r="P42" s="1">
-        <v>33.52553333333334</v>
+        <v>33.47938787878788</v>
       </c>
       <c r="Q42" s="1">
-        <v>49.76274848484849</v>
+        <v>50.53030000000001</v>
       </c>
       <c r="R42" s="1">
-        <v>99.9999</v>
+        <v>99.99996969696969</v>
       </c>
       <c r="S42" s="1">
-        <v>32.7946</v>
+        <v>32.33872727272728</v>
       </c>
       <c r="T42" s="1">
-        <v>32.55745757575758</v>
+        <v>32.86936363636364</v>
       </c>
       <c r="U42" s="1">
-        <v>17.38052424242425</v>
+        <v>17.56986363636364</v>
       </c>
       <c r="V42" s="1">
-        <v>10.10021484848485</v>
+        <v>10.17317333333333</v>
       </c>
       <c r="W42" s="1">
-        <v>9.612674545454546</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y42" s="1" t="s">
-        <v>124</v>
+        <v>9.66587393939394</v>
+      </c>
+      <c r="X42" s="1">
+        <v>8.13718303030303</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>8.13718303030303</v>
       </c>
       <c r="Z42" s="1">
-        <v>9.252007575757577</v>
+        <v>8.137642121212121</v>
       </c>
       <c r="AA42" s="1">
-        <v>17.37080303030303</v>
+        <v>17.52717878787878</v>
       </c>
       <c r="AB42" s="1">
-        <v>9.600136666666666</v>
+        <v>9.818558787878791</v>
       </c>
       <c r="AC42" s="1">
-        <v>9.249082424242424</v>
-      </c>
-      <c r="AD42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE42" s="1" t="s">
-        <v>124</v>
+        <v>9.390108484848485</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>9.241307272727271</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>9.241307272727271</v>
       </c>
       <c r="AF42" s="1">
-        <v>9.223936969696968</v>
+        <v>9.241307272727271</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7574013333333334</v>
+        <v>0.7577667272727272</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3959166666666666</v>
+        <v>0.3993696363636364</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1419082121212121</v>
+        <v>0.1419552909090909</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.06705372424242424</v>
+        <v>0.06793083030303028</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.07357111212121209</v>
+        <v>0.07504972727272728</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.0763559</v>
+        <v>0.07708086666666668</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.03813786363636362</v>
+        <v>0.0385099696969697</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2673236060606061</v>
+        <v>0.2707765151515151</v>
       </c>
       <c r="AO42" s="1">
-        <v>878.3806363636365</v>
+        <v>878.4015151515151</v>
       </c>
       <c r="AP42" s="1">
-        <v>835.2914545454545</v>
+        <v>835.512696969697</v>
       </c>
       <c r="AQ42" s="1">
-        <v>891.7676666666666</v>
-      </c>
-      <c r="AR42" s="1" t="s">
-        <v>124</v>
+        <v>892.0202424242426</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>747.963666666667</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT42" s="1">
-        <v>728.1944848484849</v>
+        <v>728.3182121212124</v>
       </c>
       <c r="AU42" s="1">
-        <v>785.1755454545456</v>
+        <v>785.303393939394</v>
       </c>
       <c r="AV42" s="1">
-        <v>741.7243636363635</v>
-      </c>
-      <c r="AW42" s="1" t="s">
-        <v>124</v>
+        <v>741.990303030303</v>
+      </c>
+      <c r="AW42" s="1">
+        <v>798.4944242424243</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>124</v>
@@ -6507,115 +6500,115 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>2.137287048265869</v>
+        <v>2.168236030811134</v>
       </c>
       <c r="N43" s="1">
-        <v>1.900491832105984</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>124</v>
+        <v>1.894738991034969</v>
+      </c>
+      <c r="O43" s="1">
+        <v>2.168251912421812</v>
       </c>
       <c r="P43" s="1">
-        <v>7.156176982484885</v>
+        <v>6.935012497760586</v>
       </c>
       <c r="Q43" s="1">
-        <v>2.137506252497849</v>
+        <v>2.168514060294969</v>
       </c>
       <c r="R43" s="1">
-        <v>0.003422386195731166</v>
+        <v>0.002628916685342929</v>
       </c>
       <c r="S43" s="1">
-        <v>7.309879935215949</v>
+        <v>7.212247753365303</v>
       </c>
       <c r="T43" s="1">
-        <v>6.946260603398162</v>
+        <v>6.985961116706293</v>
       </c>
       <c r="U43" s="1">
-        <v>2.053197488623803</v>
+        <v>2.116277342169669</v>
       </c>
       <c r="V43" s="1">
-        <v>1.851572521593995</v>
+        <v>1.876673390071922</v>
       </c>
       <c r="W43" s="1">
-        <v>2.053307702367219</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y43" s="1" t="s">
-        <v>124</v>
+        <v>2.063342731685561</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1.629165260650996</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>1.629165260650996</v>
       </c>
       <c r="Z43" s="1">
-        <v>1.884116002055124</v>
+        <v>1.628714757398676</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.337473758917345</v>
+        <v>2.371633169646653</v>
       </c>
       <c r="AB43" s="1">
-        <v>1.751757847629436</v>
+        <v>1.785675282630784</v>
       </c>
       <c r="AC43" s="1">
-        <v>2.020135472372973</v>
-      </c>
-      <c r="AD43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE43" s="1" t="s">
-        <v>124</v>
+        <v>2.044876898562224</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1.913505757364822</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1.913505757364822</v>
       </c>
       <c r="AF43" s="1">
-        <v>1.905081169613269</v>
+        <v>1.913505757364822</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07427331034630123</v>
+        <v>0.07429042143456732</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1221898313369882</v>
+        <v>0.1228710172287894</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.08934766287239551</v>
+        <v>0.08940449506746685</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.01113670411689613</v>
+        <v>0.01128748716885031</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.01285456622656659</v>
+        <v>0.01309371310906839</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.009766686589099549</v>
+        <v>0.009895496788688755</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.004306747409470483</v>
+        <v>0.004434800911624825</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.04950624553371839</v>
+        <v>0.05018194023213821</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.74701268949625</v>
+        <v>2.748432546360127</v>
       </c>
       <c r="AP43" s="1">
-        <v>4.09111320770239</v>
+        <v>4.105318999784411</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.548111153693416</v>
-      </c>
-      <c r="AR43" s="1" t="s">
-        <v>124</v>
+        <v>5.590459194184009</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>7.212428795580103</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.9757957236955</v>
+        <v>2.974910406163771</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.795147109305129</v>
+        <v>3.807800740739381</v>
       </c>
       <c r="AV43" s="1">
-        <v>5.855453484072108</v>
-      </c>
-      <c r="AW43" s="1" t="s">
-        <v>124</v>
+        <v>5.875643410208804</v>
+      </c>
+      <c r="AW43" s="1">
+        <v>6.985902822417498</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>124</v>
@@ -6626,115 +6619,115 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>4.294947243857937</v>
+        <v>4.290961088089006</v>
       </c>
       <c r="N44" s="1">
-        <v>19.62636332625438</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>124</v>
+        <v>20.30372289903714</v>
+      </c>
+      <c r="O44" s="1">
+        <v>11.70067024602171</v>
       </c>
       <c r="P44" s="1">
-        <v>21.34545306508139</v>
+        <v>20.71427507237826</v>
       </c>
       <c r="Q44" s="1">
-        <v>4.295394281022613</v>
+        <v>4.291512340704426</v>
       </c>
       <c r="R44" s="1">
-        <v>0.003422389618120784</v>
+        <v>0.00262891748198459</v>
       </c>
       <c r="S44" s="1">
-        <v>22.28988899152893</v>
+        <v>22.3022003696717</v>
       </c>
       <c r="T44" s="1">
-        <v>21.33539017054691</v>
+        <v>21.2537157518245</v>
       </c>
       <c r="U44" s="1">
-        <v>11.81320804819073</v>
+        <v>12.0449275302837</v>
       </c>
       <c r="V44" s="1">
-        <v>18.33201124302571</v>
+        <v>18.44727626848576</v>
       </c>
       <c r="W44" s="1">
-        <v>21.36042048087592</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>124</v>
+        <v>21.34667537175573</v>
+      </c>
+      <c r="X44" s="1">
+        <v>20.02124389464945</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>20.02124389464945</v>
       </c>
       <c r="Z44" s="1">
-        <v>20.36440185146354</v>
+        <v>20.01457834024378</v>
       </c>
       <c r="AA44" s="1">
-        <v>13.45633679018562</v>
+        <v>13.53117463083561</v>
       </c>
       <c r="AB44" s="1">
-        <v>18.24721781005308</v>
+        <v>18.18673515338357</v>
       </c>
       <c r="AC44" s="1">
-        <v>21.8414690205168</v>
-      </c>
-      <c r="AD44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE44" s="1" t="s">
-        <v>124</v>
+        <v>21.77692517463199</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>20.70600728764766</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>20.70600728764766</v>
       </c>
       <c r="AF44" s="1">
-        <v>20.65366638857091</v>
+        <v>20.70600728764766</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.806334776230642</v>
+        <v>9.803864271257389</v>
       </c>
       <c r="AH44" s="1">
-        <v>30.86251265089157</v>
+        <v>30.766239103093</v>
       </c>
       <c r="AI44" s="1">
-        <v>62.96158730833592</v>
+        <v>62.98074167923903</v>
       </c>
       <c r="AJ44" s="1">
-        <v>16.60862874168299</v>
+        <v>16.61614780578767</v>
       </c>
       <c r="AK44" s="1">
-        <v>17.47230109202108</v>
+        <v>17.44671644373395</v>
       </c>
       <c r="AL44" s="1">
-        <v>12.79100447915557</v>
+        <v>12.83781204936558</v>
       </c>
       <c r="AM44" s="1">
-        <v>11.29257645507992</v>
+        <v>11.51598130697515</v>
       </c>
       <c r="AN44" s="1">
-        <v>18.51921955687468</v>
+        <v>18.53260435235992</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.3127360253373149</v>
+        <v>0.3128902328778487</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.4897827202037732</v>
+        <v>0.4913532750219002</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.6221476020129402</v>
-      </c>
-      <c r="AR44" s="1" t="s">
-        <v>124</v>
+        <v>0.6267188711985754</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>0.9642752872907062</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.4086539771465961</v>
+        <v>0.4084629982682162</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4833501414143103</v>
+        <v>0.484882756158475</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.7894379328953515</v>
-      </c>
-      <c r="AW44" s="1" t="s">
-        <v>124</v>
+        <v>0.7918760374916708</v>
+      </c>
+      <c r="AW44" s="1">
+        <v>0.8748843586535259</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>124</v>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -443,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +462,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6FFF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -475,11 +481,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,115 +980,115 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>50.6318</v>
+        <v>50.4494</v>
       </c>
       <c r="N2">
-        <v>8.55503</v>
+        <v>6.98421</v>
       </c>
       <c r="O2">
-        <v>16.5743</v>
+        <v>16.1631</v>
       </c>
       <c r="P2">
-        <v>31.2381</v>
+        <v>31.0044</v>
       </c>
       <c r="Q2">
-        <v>50.6319</v>
+        <v>50.4508</v>
       </c>
       <c r="R2">
-        <v>100</v>
+        <v>100.003</v>
       </c>
       <c r="S2">
-        <v>30.6092</v>
+        <v>30.5517</v>
       </c>
       <c r="T2">
-        <v>31.2381</v>
+        <v>31.0044</v>
       </c>
       <c r="U2">
-        <v>16.5743</v>
+        <v>16.1631</v>
       </c>
       <c r="V2">
-        <v>9.21899</v>
+        <v>9.76017</v>
       </c>
       <c r="W2">
-        <v>8.89479</v>
+        <v>10.0287</v>
       </c>
       <c r="X2">
-        <v>7.54544</v>
+        <v>6.397559999999999</v>
       </c>
       <c r="Y2">
-        <v>7.54544</v>
+        <v>6.397559999999999</v>
       </c>
       <c r="Z2">
-        <v>7.54605</v>
+        <v>6.39892</v>
       </c>
       <c r="AA2">
-        <v>16.2816</v>
+        <v>15.9216</v>
       </c>
       <c r="AB2">
-        <v>8.901149999999999</v>
+        <v>9.216380000000001</v>
       </c>
       <c r="AC2">
-        <v>8.57306</v>
+        <v>9.544459999999999</v>
       </c>
       <c r="AD2">
-        <v>8.55503</v>
+        <v>6.98421</v>
       </c>
       <c r="AE2">
-        <v>8.55503</v>
+        <v>6.98421</v>
       </c>
       <c r="AF2">
-        <v>8.55503</v>
+        <v>6.98421</v>
       </c>
       <c r="AG2">
-        <v>0.758652</v>
+        <v>0.7589669999999999</v>
       </c>
       <c r="AH2">
-        <v>0.357536</v>
+        <v>0.354707</v>
       </c>
       <c r="AI2">
         <v>0.107532</v>
       </c>
       <c r="AJ2">
-        <v>0.06554610000000001</v>
+        <v>0.06388930000000001</v>
       </c>
       <c r="AK2">
-        <v>0.07119689999999999</v>
+        <v>0.06817659999999999</v>
       </c>
       <c r="AL2">
-        <v>0.07532709999999999</v>
+        <v>0.0759465</v>
       </c>
       <c r="AM2">
-        <v>0.0379068</v>
+        <v>0.0391359</v>
       </c>
       <c r="AN2">
-        <v>0.250583</v>
+        <v>0.247754</v>
       </c>
       <c r="AO2">
-        <v>878.2020000000001</v>
+        <v>878.096</v>
       </c>
       <c r="AP2">
-        <v>834.6420000000001</v>
+        <v>834.7130000000001</v>
       </c>
       <c r="AQ2">
-        <v>890.8489999999999</v>
+        <v>891.539</v>
       </c>
       <c r="AR2">
-        <v>746.234</v>
+        <v>746.182</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT2">
-        <v>727.917</v>
+        <v>727.7099999999999</v>
       </c>
       <c r="AU2">
-        <v>784.571</v>
+        <v>784.711</v>
       </c>
       <c r="AV2">
-        <v>740.61</v>
+        <v>741.283</v>
       </c>
       <c r="AW2">
-        <v>796.8630000000001</v>
+        <v>796.629</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>62</v>
@@ -1125,115 +1132,115 @@
         <v>73</v>
       </c>
       <c r="M3">
-        <v>51.0545</v>
+        <v>50.9142</v>
       </c>
       <c r="N3">
-        <v>7.327290000000001</v>
+        <v>6.00695</v>
       </c>
       <c r="O3">
-        <v>15.5718</v>
+        <v>15.1505</v>
       </c>
       <c r="P3">
-        <v>27.6898</v>
+        <v>27.4145</v>
       </c>
       <c r="Q3">
-        <v>51.0551</v>
+        <v>50.9126</v>
       </c>
       <c r="R3">
-        <v>100.001</v>
+        <v>99.9969</v>
       </c>
       <c r="S3">
-        <v>26.632</v>
+        <v>26.5022</v>
       </c>
       <c r="T3">
-        <v>27.6898</v>
+        <v>27.4145</v>
       </c>
       <c r="U3">
-        <v>15.5718</v>
+        <v>15.1505</v>
       </c>
       <c r="V3">
-        <v>8.14738</v>
+        <v>8.59333</v>
       </c>
       <c r="W3">
-        <v>7.691750000000001</v>
+        <v>8.654439999999999</v>
       </c>
       <c r="X3">
-        <v>6.54312</v>
+        <v>5.542800000000001</v>
       </c>
       <c r="Y3">
-        <v>6.54312</v>
+        <v>5.542800000000001</v>
       </c>
       <c r="Z3">
-        <v>6.54548</v>
+        <v>5.54164</v>
       </c>
       <c r="AA3">
-        <v>15.0642</v>
+        <v>14.735</v>
       </c>
       <c r="AB3">
-        <v>7.86344</v>
+        <v>8.095330000000001</v>
       </c>
       <c r="AC3">
-        <v>7.31876</v>
+        <v>8.120090000000001</v>
       </c>
       <c r="AD3">
-        <v>7.327290000000001</v>
+        <v>6.00695</v>
       </c>
       <c r="AE3">
-        <v>7.327290000000001</v>
+        <v>6.00695</v>
       </c>
       <c r="AF3">
-        <v>7.327290000000001</v>
+        <v>6.00695</v>
       </c>
       <c r="AG3">
-        <v>0.682752</v>
+        <v>0.683046</v>
       </c>
       <c r="AH3">
-        <v>0.362997</v>
+        <v>0.360192</v>
       </c>
       <c r="AI3">
-        <v>0.129438</v>
+        <v>0.129437</v>
       </c>
       <c r="AJ3">
-        <v>0.06211610000000001</v>
+        <v>0.060516</v>
       </c>
       <c r="AK3">
-        <v>0.0674067</v>
+        <v>0.0642827</v>
       </c>
       <c r="AL3">
-        <v>0.06952120000000001</v>
+        <v>0.07012320000000001</v>
       </c>
       <c r="AM3">
-        <v>0.0345298</v>
+        <v>0.0358473</v>
       </c>
       <c r="AN3">
-        <v>0.234016</v>
+        <v>0.231211</v>
       </c>
       <c r="AO3">
-        <v>877.318</v>
+        <v>877.206</v>
       </c>
       <c r="AP3">
-        <v>832.353</v>
+        <v>832.3779999999999</v>
       </c>
       <c r="AQ3">
-        <v>888.199</v>
+        <v>888.7430000000001</v>
       </c>
       <c r="AR3">
-        <v>742.2569999999999</v>
+        <v>742.1239999999999</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT3">
-        <v>726.3869999999999</v>
+        <v>726.182</v>
       </c>
       <c r="AU3">
-        <v>782.759</v>
+        <v>782.8390000000001</v>
       </c>
       <c r="AV3">
-        <v>737.371</v>
+        <v>737.8800000000001</v>
       </c>
       <c r="AW3">
-        <v>793.3149999999999</v>
+        <v>793.039</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>62</v>
@@ -1277,115 +1284,115 @@
         <v>75</v>
       </c>
       <c r="M4">
-        <v>50.928</v>
+        <v>50.8248</v>
       </c>
       <c r="N4">
-        <v>6.24373</v>
+        <v>5.10778</v>
       </c>
       <c r="O4">
-        <v>14.6895</v>
+        <v>14.3031</v>
       </c>
       <c r="P4">
-        <v>23.1267</v>
+        <v>22.8498</v>
       </c>
       <c r="Q4">
-        <v>50.9288</v>
+        <v>50.8273</v>
       </c>
       <c r="R4">
-        <v>100.002</v>
+        <v>100.005</v>
       </c>
       <c r="S4">
-        <v>22.1971</v>
+        <v>22.0226</v>
       </c>
       <c r="T4">
-        <v>23.1267</v>
+        <v>22.8498</v>
       </c>
       <c r="U4">
-        <v>14.6895</v>
+        <v>14.3031</v>
       </c>
       <c r="V4">
-        <v>7.21039</v>
+        <v>7.56225</v>
       </c>
       <c r="W4">
-        <v>6.534960000000001</v>
+        <v>7.343719999999999</v>
       </c>
       <c r="X4">
-        <v>5.544110000000001</v>
+        <v>4.69927</v>
       </c>
       <c r="Y4">
-        <v>5.544110000000001</v>
+        <v>4.69927</v>
       </c>
       <c r="Z4">
-        <v>5.54606</v>
+        <v>4.702739999999999</v>
       </c>
       <c r="AA4">
-        <v>14.3168</v>
+        <v>13.9921</v>
       </c>
       <c r="AB4">
-        <v>7.016500000000001</v>
+        <v>7.17734</v>
       </c>
       <c r="AC4">
-        <v>6.26639</v>
+        <v>6.941190000000001</v>
       </c>
       <c r="AD4">
-        <v>6.24373</v>
+        <v>5.10778</v>
       </c>
       <c r="AE4">
-        <v>6.24373</v>
+        <v>5.10778</v>
       </c>
       <c r="AF4">
-        <v>6.24373</v>
+        <v>5.10778</v>
       </c>
       <c r="AG4">
-        <v>0.833388</v>
+        <v>0.833718</v>
       </c>
       <c r="AH4">
-        <v>0.5476139999999999</v>
+        <v>0.543719</v>
       </c>
       <c r="AI4">
-        <v>0.240596</v>
+        <v>0.240595</v>
       </c>
       <c r="AJ4">
-        <v>0.0845402</v>
+        <v>0.08249669999999999</v>
       </c>
       <c r="AK4">
-        <v>0.0907945</v>
+        <v>0.08588900000000001</v>
       </c>
       <c r="AL4">
-        <v>0.08848250000000001</v>
+        <v>0.0891168</v>
       </c>
       <c r="AM4">
-        <v>0.0433295</v>
+        <v>0.0457497</v>
       </c>
       <c r="AN4">
-        <v>0.307704</v>
+        <v>0.303809</v>
       </c>
       <c r="AO4">
-        <v>875.619</v>
+        <v>875.52</v>
       </c>
       <c r="AP4">
-        <v>829.775</v>
+        <v>829.751</v>
       </c>
       <c r="AQ4">
-        <v>884.559</v>
+        <v>884.991</v>
       </c>
       <c r="AR4">
-        <v>737.8200000000001</v>
+        <v>737.648</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT4">
-        <v>724.8510000000001</v>
+        <v>724.65</v>
       </c>
       <c r="AU4">
-        <v>780.1320000000001</v>
+        <v>780.186</v>
       </c>
       <c r="AV4">
-        <v>733.8910000000001</v>
+        <v>734.2650000000001</v>
       </c>
       <c r="AW4">
-        <v>788.7520000000001</v>
+        <v>788.475</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>62</v>
@@ -1429,115 +1436,115 @@
         <v>73</v>
       </c>
       <c r="M5">
-        <v>50.7311</v>
+        <v>50.5377</v>
       </c>
       <c r="N5">
-        <v>8.56762</v>
+        <v>7.09712</v>
       </c>
       <c r="O5">
-        <v>17.8278</v>
+        <v>17.3379</v>
       </c>
       <c r="P5">
-        <v>27.7809</v>
+        <v>27.4458</v>
       </c>
       <c r="Q5">
-        <v>50.73</v>
+        <v>50.5369</v>
       </c>
       <c r="R5">
-        <v>99.998</v>
+        <v>99.9983</v>
       </c>
       <c r="S5">
-        <v>27.0487</v>
+        <v>26.9058</v>
       </c>
       <c r="T5">
-        <v>27.7809</v>
+        <v>27.4458</v>
       </c>
       <c r="U5">
-        <v>17.8278</v>
+        <v>17.3379</v>
       </c>
       <c r="V5">
-        <v>9.857060000000001</v>
+        <v>10.3017</v>
       </c>
       <c r="W5">
-        <v>8.91968</v>
+        <v>10.0089</v>
       </c>
       <c r="X5">
-        <v>7.50073</v>
+        <v>6.47032</v>
       </c>
       <c r="Y5">
-        <v>7.50073</v>
+        <v>6.47032</v>
       </c>
       <c r="Z5">
-        <v>7.50271</v>
+        <v>6.46901</v>
       </c>
       <c r="AA5">
-        <v>17.4892</v>
+        <v>17.0479</v>
       </c>
       <c r="AB5">
-        <v>9.624650000000001</v>
+        <v>9.857100000000001</v>
       </c>
       <c r="AC5">
-        <v>8.726700000000001</v>
+        <v>9.680380000000001</v>
       </c>
       <c r="AD5">
-        <v>8.56762</v>
+        <v>7.09712</v>
       </c>
       <c r="AE5">
-        <v>8.56762</v>
+        <v>7.09712</v>
       </c>
       <c r="AF5">
-        <v>8.56762</v>
+        <v>7.09712</v>
       </c>
       <c r="AG5">
-        <v>0.678118</v>
+        <v>0.678173</v>
       </c>
       <c r="AH5">
-        <v>0.5069090000000001</v>
+        <v>0.503826</v>
       </c>
       <c r="AI5">
-        <v>0.248625</v>
+        <v>0.248599</v>
       </c>
       <c r="AJ5">
-        <v>0.0693096</v>
+        <v>0.0677436</v>
       </c>
       <c r="AK5">
-        <v>0.080369</v>
+        <v>0.075642</v>
       </c>
       <c r="AL5">
-        <v>0.0764008</v>
+        <v>0.07641529999999999</v>
       </c>
       <c r="AM5">
-        <v>0.0372371</v>
+        <v>0.040434</v>
       </c>
       <c r="AN5">
-        <v>0.315067</v>
+        <v>0.311985</v>
       </c>
       <c r="AO5">
-        <v>876.5630000000001</v>
+        <v>876.455</v>
       </c>
       <c r="AP5">
-        <v>832.374</v>
+        <v>832.3960000000001</v>
       </c>
       <c r="AQ5">
-        <v>887.8920000000001</v>
+        <v>888.461</v>
       </c>
       <c r="AR5">
-        <v>742.6750000000001</v>
+        <v>742.529</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT5">
-        <v>726.53</v>
+        <v>726.3100000000001</v>
       </c>
       <c r="AU5">
-        <v>782.351</v>
+        <v>782.441</v>
       </c>
       <c r="AV5">
-        <v>737.812</v>
+        <v>738.357</v>
       </c>
       <c r="AW5">
-        <v>793.4060000000001</v>
+        <v>793.071</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>62</v>
@@ -1581,115 +1588,115 @@
         <v>75</v>
       </c>
       <c r="M6">
-        <v>50.6464</v>
+        <v>50.4894</v>
       </c>
       <c r="N6">
-        <v>7.44069</v>
+        <v>6.16743</v>
       </c>
       <c r="O6">
-        <v>16.8536</v>
+        <v>16.405</v>
       </c>
       <c r="P6">
-        <v>24.173</v>
+        <v>23.8465</v>
       </c>
       <c r="Q6">
-        <v>50.6467</v>
+        <v>50.4894</v>
       </c>
       <c r="R6">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S6">
-        <v>23.5249</v>
+        <v>23.3572</v>
       </c>
       <c r="T6">
-        <v>24.173</v>
+        <v>23.8465</v>
       </c>
       <c r="U6">
-        <v>16.8536</v>
+        <v>16.405</v>
       </c>
       <c r="V6">
-        <v>8.88973</v>
+        <v>9.2552</v>
       </c>
       <c r="W6">
-        <v>7.77168</v>
+        <v>8.70684</v>
       </c>
       <c r="X6">
-        <v>6.50901</v>
+        <v>5.617970000000001</v>
       </c>
       <c r="Y6">
-        <v>6.50901</v>
+        <v>5.617970000000001</v>
       </c>
       <c r="Z6">
-        <v>6.50924</v>
+        <v>5.617850000000001</v>
       </c>
       <c r="AA6">
-        <v>16.5645</v>
+        <v>16.1972</v>
       </c>
       <c r="AB6">
-        <v>8.697320000000001</v>
+        <v>8.8756</v>
       </c>
       <c r="AC6">
-        <v>7.60567</v>
+        <v>8.42797</v>
       </c>
       <c r="AD6">
-        <v>7.44069</v>
+        <v>6.16743</v>
       </c>
       <c r="AE6">
-        <v>7.44069</v>
+        <v>6.16743</v>
       </c>
       <c r="AF6">
-        <v>7.44069</v>
+        <v>6.16743</v>
       </c>
       <c r="AG6">
-        <v>0.828441</v>
+        <v>0.828514</v>
       </c>
       <c r="AH6">
-        <v>0.7166089999999999</v>
+        <v>0.7121989999999999</v>
       </c>
       <c r="AI6">
-        <v>0.377166</v>
+        <v>0.377151</v>
       </c>
       <c r="AJ6">
-        <v>0.0936574</v>
+        <v>0.0916526</v>
       </c>
       <c r="AK6">
-        <v>0.10744</v>
+        <v>0.100461</v>
       </c>
       <c r="AL6">
-        <v>0.0971089</v>
+        <v>0.0969332</v>
       </c>
       <c r="AM6">
-        <v>0.0467132</v>
+        <v>0.051465</v>
       </c>
       <c r="AN6">
-        <v>0.403659</v>
+        <v>0.399249</v>
       </c>
       <c r="AO6">
-        <v>875.41</v>
+        <v>875.3090000000001</v>
       </c>
       <c r="AP6">
-        <v>830.433</v>
+        <v>830.417</v>
       </c>
       <c r="AQ6">
-        <v>885.104</v>
+        <v>885.568</v>
       </c>
       <c r="AR6">
-        <v>739.15</v>
+        <v>738.982</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT6">
-        <v>725.378</v>
+        <v>725.167</v>
       </c>
       <c r="AU6">
-        <v>780.395</v>
+        <v>780.451</v>
       </c>
       <c r="AV6">
-        <v>735.054</v>
+        <v>735.4810000000001</v>
       </c>
       <c r="AW6">
-        <v>789.798</v>
+        <v>789.472</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>62</v>
@@ -1733,115 +1740,115 @@
         <v>73</v>
       </c>
       <c r="M7">
-        <v>51.056</v>
+        <v>50.9196</v>
       </c>
       <c r="N7">
-        <v>7.28843</v>
+        <v>5.97566</v>
       </c>
       <c r="O7">
-        <v>15.5727</v>
+        <v>15.151</v>
       </c>
       <c r="P7">
-        <v>27.656</v>
+        <v>27.39</v>
       </c>
       <c r="Q7">
-        <v>51.0576</v>
+        <v>50.9186</v>
       </c>
       <c r="R7">
-        <v>100.003</v>
+        <v>99.9979</v>
       </c>
       <c r="S7">
-        <v>26.5979</v>
+        <v>26.4718</v>
       </c>
       <c r="T7">
-        <v>27.656</v>
+        <v>27.39</v>
       </c>
       <c r="U7">
-        <v>15.5727</v>
+        <v>15.151</v>
       </c>
       <c r="V7">
-        <v>8.1532</v>
+        <v>8.59525</v>
       </c>
       <c r="W7">
-        <v>7.69347</v>
+        <v>8.657629999999999</v>
       </c>
       <c r="X7">
-        <v>6.52358</v>
+        <v>5.53085</v>
       </c>
       <c r="Y7">
-        <v>6.52358</v>
+        <v>5.53085</v>
       </c>
       <c r="Z7">
-        <v>6.52658</v>
+        <v>5.53033</v>
       </c>
       <c r="AA7">
-        <v>15.0587</v>
+        <v>14.7404</v>
       </c>
       <c r="AB7">
-        <v>7.868650000000001</v>
+        <v>8.09305</v>
       </c>
       <c r="AC7">
-        <v>7.3198</v>
+        <v>8.122290000000001</v>
       </c>
       <c r="AD7">
-        <v>7.28843</v>
+        <v>5.97566</v>
       </c>
       <c r="AE7">
-        <v>7.28843</v>
+        <v>5.97566</v>
       </c>
       <c r="AF7">
-        <v>7.28843</v>
+        <v>5.97566</v>
       </c>
       <c r="AG7">
-        <v>0.68277</v>
+        <v>0.683059</v>
       </c>
       <c r="AH7">
-        <v>0.36278</v>
+        <v>0.359956</v>
       </c>
       <c r="AI7">
-        <v>0.129438</v>
+        <v>0.129437</v>
       </c>
       <c r="AJ7">
-        <v>0.0621099</v>
+        <v>0.0605113</v>
       </c>
       <c r="AK7">
-        <v>0.0674117</v>
+        <v>0.0642698</v>
       </c>
       <c r="AL7">
-        <v>0.0695245</v>
+        <v>0.07011930000000001</v>
       </c>
       <c r="AM7">
-        <v>0.0343107</v>
+        <v>0.0356327</v>
       </c>
       <c r="AN7">
-        <v>0.233799</v>
+        <v>0.230975</v>
       </c>
       <c r="AO7">
-        <v>877.3150000000001</v>
+        <v>877.207</v>
       </c>
       <c r="AP7">
-        <v>832.3539999999999</v>
+        <v>832.3779999999999</v>
       </c>
       <c r="AQ7">
-        <v>888.197</v>
+        <v>888.744</v>
       </c>
       <c r="AR7">
-        <v>742.223</v>
+        <v>742.096</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT7">
-        <v>726.3869999999999</v>
+        <v>726.1850000000001</v>
       </c>
       <c r="AU7">
-        <v>782.756</v>
+        <v>782.841</v>
       </c>
       <c r="AV7">
-        <v>737.371</v>
+        <v>737.8810000000001</v>
       </c>
       <c r="AW7">
-        <v>793.2809999999999</v>
+        <v>793.015</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>62</v>
@@ -1885,115 +1892,115 @@
         <v>75</v>
       </c>
       <c r="M8">
-        <v>50.9394</v>
+        <v>50.825</v>
       </c>
       <c r="N8">
-        <v>6.21023</v>
+        <v>5.082120000000001</v>
       </c>
       <c r="O8">
-        <v>14.6953</v>
+        <v>14.2971</v>
       </c>
       <c r="P8">
-        <v>23.0968</v>
+        <v>22.8258</v>
       </c>
       <c r="Q8">
-        <v>50.9371</v>
+        <v>50.8293</v>
       </c>
       <c r="R8">
-        <v>99.99550000000001</v>
+        <v>100.009</v>
       </c>
       <c r="S8">
-        <v>22.1649</v>
+        <v>21.9963</v>
       </c>
       <c r="T8">
-        <v>23.0968</v>
+        <v>22.8258</v>
       </c>
       <c r="U8">
-        <v>14.6953</v>
+        <v>14.2971</v>
       </c>
       <c r="V8">
-        <v>7.212070000000001</v>
+        <v>7.559840000000001</v>
       </c>
       <c r="W8">
-        <v>6.53729</v>
+        <v>7.34547</v>
       </c>
       <c r="X8">
-        <v>5.53439</v>
+        <v>4.69289</v>
       </c>
       <c r="Y8">
-        <v>5.53439</v>
+        <v>4.69289</v>
       </c>
       <c r="Z8">
-        <v>5.534730000000001</v>
+        <v>4.69153</v>
       </c>
       <c r="AA8">
-        <v>14.318</v>
+        <v>13.9968</v>
       </c>
       <c r="AB8">
-        <v>7.01004</v>
+        <v>7.17556</v>
       </c>
       <c r="AC8">
-        <v>6.267370000000001</v>
+        <v>6.94228</v>
       </c>
       <c r="AD8">
-        <v>6.21023</v>
+        <v>5.082120000000001</v>
       </c>
       <c r="AE8">
-        <v>6.21023</v>
+        <v>5.082120000000001</v>
       </c>
       <c r="AF8">
-        <v>6.21023</v>
+        <v>5.082120000000001</v>
       </c>
       <c r="AG8">
-        <v>0.833403</v>
+        <v>0.8337599999999999</v>
       </c>
       <c r="AH8">
-        <v>0.54739</v>
+        <v>0.543468</v>
       </c>
       <c r="AI8">
-        <v>0.240596</v>
+        <v>0.240595</v>
       </c>
       <c r="AJ8">
-        <v>0.0845653</v>
+        <v>0.08251750000000001</v>
       </c>
       <c r="AK8">
-        <v>0.0907974</v>
+        <v>0.0858611</v>
       </c>
       <c r="AL8">
-        <v>0.0884853</v>
+        <v>0.08911179999999999</v>
       </c>
       <c r="AM8">
-        <v>0.0430751</v>
+        <v>0.0455115</v>
       </c>
       <c r="AN8">
-        <v>0.30748</v>
+        <v>0.303559</v>
       </c>
       <c r="AO8">
-        <v>875.6220000000001</v>
+        <v>875.519</v>
       </c>
       <c r="AP8">
-        <v>829.775</v>
+        <v>829.751</v>
       </c>
       <c r="AQ8">
-        <v>884.5640000000001</v>
+        <v>884.991</v>
       </c>
       <c r="AR8">
-        <v>737.787</v>
+        <v>737.621</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT8">
-        <v>724.8480000000001</v>
+        <v>724.653</v>
       </c>
       <c r="AU8">
-        <v>780.131</v>
+        <v>780.1850000000001</v>
       </c>
       <c r="AV8">
-        <v>733.889</v>
+        <v>734.266</v>
       </c>
       <c r="AW8">
-        <v>788.722</v>
+        <v>788.451</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>62</v>
@@ -2037,115 +2044,115 @@
         <v>73</v>
       </c>
       <c r="M9">
-        <v>50.7297</v>
+        <v>50.5376</v>
       </c>
       <c r="N9">
-        <v>8.529160000000001</v>
+        <v>7.07012</v>
       </c>
       <c r="O9">
-        <v>17.8283</v>
+        <v>17.3402</v>
       </c>
       <c r="P9">
-        <v>27.7479</v>
+        <v>27.4164</v>
       </c>
       <c r="Q9">
-        <v>50.7323</v>
+        <v>50.5362</v>
       </c>
       <c r="R9">
-        <v>100.005</v>
+        <v>99.99720000000001</v>
       </c>
       <c r="S9">
-        <v>27.0156</v>
+        <v>26.8774</v>
       </c>
       <c r="T9">
-        <v>27.7479</v>
+        <v>27.4164</v>
       </c>
       <c r="U9">
-        <v>17.8283</v>
+        <v>17.3402</v>
       </c>
       <c r="V9">
-        <v>9.85533</v>
+        <v>10.292</v>
       </c>
       <c r="W9">
-        <v>8.921150000000001</v>
+        <v>10.0104</v>
       </c>
       <c r="X9">
-        <v>7.48301</v>
+        <v>6.45915</v>
       </c>
       <c r="Y9">
-        <v>7.48301</v>
+        <v>6.45915</v>
       </c>
       <c r="Z9">
-        <v>7.482560000000001</v>
+        <v>6.45807</v>
       </c>
       <c r="AA9">
-        <v>17.4899</v>
+        <v>17.0541</v>
       </c>
       <c r="AB9">
-        <v>9.62391</v>
+        <v>9.85671</v>
       </c>
       <c r="AC9">
-        <v>8.72598</v>
+        <v>9.68131</v>
       </c>
       <c r="AD9">
-        <v>8.529160000000001</v>
+        <v>7.07012</v>
       </c>
       <c r="AE9">
-        <v>8.529160000000001</v>
+        <v>7.07012</v>
       </c>
       <c r="AF9">
-        <v>8.529160000000001</v>
+        <v>7.07012</v>
       </c>
       <c r="AG9">
-        <v>0.67813</v>
+        <v>0.6781779999999999</v>
       </c>
       <c r="AH9">
-        <v>0.50671</v>
+        <v>0.503634</v>
       </c>
       <c r="AI9">
-        <v>0.248625</v>
+        <v>0.248599</v>
       </c>
       <c r="AJ9">
-        <v>0.06931180000000001</v>
+        <v>0.06774999999999999</v>
       </c>
       <c r="AK9">
-        <v>0.08037469999999999</v>
+        <v>0.0756377</v>
       </c>
       <c r="AL9">
-        <v>0.07639950000000001</v>
+        <v>0.07641050000000001</v>
       </c>
       <c r="AM9">
-        <v>0.037032</v>
+        <v>0.0402445</v>
       </c>
       <c r="AN9">
-        <v>0.314869</v>
+        <v>0.311793</v>
       </c>
       <c r="AO9">
-        <v>876.567</v>
+        <v>876.455</v>
       </c>
       <c r="AP9">
-        <v>832.375</v>
+        <v>832.398</v>
       </c>
       <c r="AQ9">
-        <v>887.893</v>
+        <v>888.461</v>
       </c>
       <c r="AR9">
-        <v>742.6410000000001</v>
+        <v>742.501</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT9">
-        <v>726.527</v>
+        <v>726.313</v>
       </c>
       <c r="AU9">
-        <v>782.354</v>
+        <v>782.4390000000001</v>
       </c>
       <c r="AV9">
-        <v>737.812</v>
+        <v>738.357</v>
       </c>
       <c r="AW9">
-        <v>793.373</v>
+        <v>793.0410000000001</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>62</v>
@@ -2189,115 +2196,115 @@
         <v>75</v>
       </c>
       <c r="M10">
-        <v>50.6465</v>
+        <v>50.4888</v>
       </c>
       <c r="N10">
-        <v>7.405139999999999</v>
+        <v>6.141940000000001</v>
       </c>
       <c r="O10">
-        <v>16.8501</v>
+        <v>16.4028</v>
       </c>
       <c r="P10">
-        <v>24.1388</v>
+        <v>23.8207</v>
       </c>
       <c r="Q10">
-        <v>50.6478</v>
+        <v>50.4884</v>
       </c>
       <c r="R10">
-        <v>100.003</v>
+        <v>99.99930000000001</v>
       </c>
       <c r="S10">
-        <v>23.4919</v>
+        <v>23.3323</v>
       </c>
       <c r="T10">
-        <v>24.1388</v>
+        <v>23.8207</v>
       </c>
       <c r="U10">
-        <v>16.8501</v>
+        <v>16.4028</v>
       </c>
       <c r="V10">
-        <v>8.898790000000002</v>
+        <v>9.254750000000001</v>
       </c>
       <c r="W10">
-        <v>7.77138</v>
+        <v>8.70809</v>
       </c>
       <c r="X10">
-        <v>6.49786</v>
+        <v>5.60974</v>
       </c>
       <c r="Y10">
-        <v>6.49786</v>
+        <v>5.60974</v>
       </c>
       <c r="Z10">
-        <v>6.49727</v>
+        <v>5.61274</v>
       </c>
       <c r="AA10">
-        <v>16.5743</v>
+        <v>16.213</v>
       </c>
       <c r="AB10">
-        <v>8.71011</v>
+        <v>8.87584</v>
       </c>
       <c r="AC10">
-        <v>7.60504</v>
+        <v>8.43211</v>
       </c>
       <c r="AD10">
-        <v>7.405139999999999</v>
+        <v>6.141940000000001</v>
       </c>
       <c r="AE10">
-        <v>7.405139999999999</v>
+        <v>6.141940000000001</v>
       </c>
       <c r="AF10">
-        <v>7.405139999999999</v>
+        <v>6.141940000000001</v>
       </c>
       <c r="AG10">
-        <v>0.828452</v>
+        <v>0.828515</v>
       </c>
       <c r="AH10">
-        <v>0.716356</v>
+        <v>0.712009</v>
       </c>
       <c r="AI10">
-        <v>0.377166</v>
+        <v>0.377151</v>
       </c>
       <c r="AJ10">
-        <v>0.0936568</v>
+        <v>0.09165710000000001</v>
       </c>
       <c r="AK10">
-        <v>0.107429</v>
+        <v>0.100467</v>
       </c>
       <c r="AL10">
-        <v>0.09709759999999999</v>
+        <v>0.0969469</v>
       </c>
       <c r="AM10">
-        <v>0.0464838</v>
+        <v>0.0512495</v>
       </c>
       <c r="AN10">
-        <v>0.403406</v>
+        <v>0.399058</v>
       </c>
       <c r="AO10">
-        <v>875.412</v>
+        <v>875.3090000000001</v>
       </c>
       <c r="AP10">
-        <v>830.432</v>
+        <v>830.4200000000001</v>
       </c>
       <c r="AQ10">
-        <v>885.104</v>
+        <v>885.569</v>
       </c>
       <c r="AR10">
-        <v>739.119</v>
+        <v>738.957</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT10">
-        <v>725.378</v>
+        <v>725.169</v>
       </c>
       <c r="AU10">
-        <v>780.3929999999999</v>
+        <v>780.451</v>
       </c>
       <c r="AV10">
-        <v>735.0550000000001</v>
+        <v>735.4829999999999</v>
       </c>
       <c r="AW10">
-        <v>789.764</v>
+        <v>789.446</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>62</v>
@@ -2341,115 +2348,115 @@
         <v>73</v>
       </c>
       <c r="M11">
-        <v>50.2713</v>
+        <v>50.0018</v>
       </c>
       <c r="N11">
-        <v>12.215</v>
+        <v>10.0035</v>
       </c>
       <c r="O11">
-        <v>19.7016</v>
+        <v>19.2856</v>
       </c>
       <c r="P11">
-        <v>49.1204</v>
+        <v>49.2209</v>
       </c>
       <c r="Q11">
-        <v>50.2695</v>
+        <v>49.9999</v>
       </c>
       <c r="R11">
-        <v>99.9965</v>
+        <v>99.9961</v>
       </c>
       <c r="S11">
-        <v>48.8521</v>
+        <v>49.216</v>
       </c>
       <c r="T11">
-        <v>49.1204</v>
+        <v>49.2209</v>
       </c>
       <c r="U11">
-        <v>19.5932</v>
+        <v>19.2848</v>
       </c>
       <c r="V11">
-        <v>13.1151</v>
+        <v>13.9847</v>
       </c>
       <c r="W11">
-        <v>12.9306</v>
+        <v>14.6087</v>
       </c>
       <c r="X11">
-        <v>10.9394</v>
+        <v>9.272399999999999</v>
       </c>
       <c r="Y11">
-        <v>10.9394</v>
+        <v>9.272399999999999</v>
       </c>
       <c r="Z11">
-        <v>10.9375</v>
+        <v>9.26779</v>
       </c>
       <c r="AA11">
-        <v>19.7016</v>
+        <v>19.2856</v>
       </c>
       <c r="AB11">
-        <v>12.4317</v>
+        <v>13.0245</v>
       </c>
       <c r="AC11">
-        <v>12.3259</v>
+        <v>13.7709</v>
       </c>
       <c r="AD11">
-        <v>12.215</v>
+        <v>10.0035</v>
       </c>
       <c r="AE11">
-        <v>12.215</v>
+        <v>10.0035</v>
       </c>
       <c r="AF11">
-        <v>12.215</v>
+        <v>10.0035</v>
       </c>
       <c r="AG11">
-        <v>0.686158</v>
+        <v>0.686903</v>
       </c>
       <c r="AH11">
-        <v>0.227499</v>
+        <v>0.225409</v>
       </c>
       <c r="AI11">
         <v>0.0204357</v>
       </c>
       <c r="AJ11">
-        <v>0.0527809</v>
+        <v>0.051601</v>
       </c>
       <c r="AK11">
-        <v>0.0578043</v>
+        <v>0.0558863</v>
       </c>
       <c r="AL11">
-        <v>0.0635971</v>
+        <v>0.06412419999999999</v>
       </c>
       <c r="AM11">
-        <v>0.0330918</v>
+        <v>0.0335728</v>
       </c>
       <c r="AN11">
-        <v>0.207279</v>
+        <v>0.205189</v>
       </c>
       <c r="AO11">
-        <v>883.208</v>
+        <v>883.104</v>
       </c>
       <c r="AP11">
-        <v>844.847</v>
+        <v>845.1020000000001</v>
       </c>
       <c r="AQ11">
-        <v>904.754</v>
+        <v>906.0210000000001</v>
       </c>
       <c r="AR11">
-        <v>764.477</v>
+        <v>764.8390000000001</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT11">
-        <v>733.086</v>
+        <v>732.903</v>
       </c>
       <c r="AU11">
-        <v>794.215</v>
+        <v>794.509</v>
       </c>
       <c r="AV11">
-        <v>754.853</v>
+        <v>756.147</v>
       </c>
       <c r="AW11">
-        <v>814.745</v>
+        <v>814.846</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>62</v>
@@ -2493,115 +2500,115 @@
         <v>75</v>
       </c>
       <c r="M12">
-        <v>50.2675</v>
+        <v>50.072</v>
       </c>
       <c r="N12">
-        <v>9.17229</v>
+        <v>7.476730000000001</v>
       </c>
       <c r="O12">
-        <v>16.5717</v>
+        <v>16.2424</v>
       </c>
       <c r="P12">
-        <v>35.6745</v>
+        <v>35.5619</v>
       </c>
       <c r="Q12">
-        <v>50.2693</v>
+        <v>50.0728</v>
       </c>
       <c r="R12">
-        <v>100.004</v>
+        <v>100.001</v>
       </c>
       <c r="S12">
-        <v>35.40280000000001</v>
+        <v>35.4878</v>
       </c>
       <c r="T12">
-        <v>35.6745</v>
+        <v>35.5619</v>
       </c>
       <c r="U12">
-        <v>16.4116</v>
+        <v>16.1351</v>
       </c>
       <c r="V12">
-        <v>9.749560000000001</v>
+        <v>10.3725</v>
       </c>
       <c r="W12">
-        <v>9.58845</v>
+        <v>10.8486</v>
       </c>
       <c r="X12">
-        <v>8.12129</v>
+        <v>6.870810000000001</v>
       </c>
       <c r="Y12">
-        <v>8.12129</v>
+        <v>6.870810000000001</v>
       </c>
       <c r="Z12">
-        <v>8.12269</v>
+        <v>6.87229</v>
       </c>
       <c r="AA12">
-        <v>16.5717</v>
+        <v>16.2424</v>
       </c>
       <c r="AB12">
-        <v>9.36848</v>
+        <v>9.757770000000001</v>
       </c>
       <c r="AC12">
-        <v>9.264990000000001</v>
+        <v>10.3632</v>
       </c>
       <c r="AD12">
-        <v>9.17229</v>
+        <v>7.476730000000001</v>
       </c>
       <c r="AE12">
-        <v>9.17229</v>
+        <v>7.476730000000001</v>
       </c>
       <c r="AF12">
-        <v>9.17229</v>
+        <v>7.476730000000001</v>
       </c>
       <c r="AG12">
-        <v>0.837105</v>
+        <v>0.837587</v>
       </c>
       <c r="AH12">
-        <v>0.329546</v>
+        <v>0.326701</v>
       </c>
       <c r="AI12">
         <v>0.0684578</v>
       </c>
       <c r="AJ12">
-        <v>0.0676837</v>
+        <v>0.06597389999999999</v>
       </c>
       <c r="AK12">
-        <v>0.07274670000000001</v>
+        <v>0.0701826</v>
       </c>
       <c r="AL12">
-        <v>0.07985829999999999</v>
+        <v>0.08056569999999999</v>
       </c>
       <c r="AM12">
-        <v>0.0407722</v>
+        <v>0.0414941</v>
       </c>
       <c r="AN12">
-        <v>0.261074</v>
+        <v>0.258229</v>
       </c>
       <c r="AO12">
-        <v>879.784</v>
+        <v>879.681</v>
       </c>
       <c r="AP12">
-        <v>837.573</v>
+        <v>837.702</v>
       </c>
       <c r="AQ12">
-        <v>894.4110000000001</v>
+        <v>895.264</v>
       </c>
       <c r="AR12">
-        <v>751.024</v>
+        <v>751.1130000000001</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT12">
-        <v>729.7040000000001</v>
+        <v>729.509</v>
       </c>
       <c r="AU12">
-        <v>787.172</v>
+        <v>787.365</v>
       </c>
       <c r="AV12">
-        <v>744.4590000000001</v>
+        <v>745.3059999999999</v>
       </c>
       <c r="AW12">
-        <v>801.299</v>
+        <v>801.187</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>62</v>
@@ -2645,115 +2652,115 @@
         <v>73</v>
       </c>
       <c r="M13">
-        <v>49.9452</v>
+        <v>49.6102</v>
       </c>
       <c r="N13">
-        <v>13.3466</v>
+        <v>10.9542</v>
       </c>
       <c r="O13">
-        <v>21.8419</v>
+        <v>21.2692</v>
       </c>
       <c r="P13">
-        <v>46.15620000000001</v>
+        <v>46.373</v>
       </c>
       <c r="Q13">
-        <v>49.9422</v>
+        <v>49.609</v>
       </c>
       <c r="R13">
-        <v>99.994</v>
+        <v>99.99769999999999</v>
       </c>
       <c r="S13">
-        <v>46.15620000000001</v>
+        <v>46.373</v>
       </c>
       <c r="T13">
-        <v>46.0988</v>
+        <v>45.981</v>
       </c>
       <c r="U13">
-        <v>21.1773</v>
+        <v>20.7534</v>
       </c>
       <c r="V13">
-        <v>14.1089</v>
+        <v>15.009</v>
       </c>
       <c r="W13">
-        <v>13.7052</v>
+        <v>15.4717</v>
       </c>
       <c r="X13">
-        <v>11.5776</v>
+        <v>9.9299</v>
       </c>
       <c r="Y13">
-        <v>11.5776</v>
+        <v>9.9299</v>
       </c>
       <c r="Z13">
-        <v>11.5748</v>
+        <v>9.92797</v>
       </c>
       <c r="AA13">
-        <v>21.8419</v>
+        <v>21.2692</v>
       </c>
       <c r="AB13">
-        <v>13.6392</v>
+        <v>14.2428</v>
       </c>
       <c r="AC13">
-        <v>13.5781</v>
+        <v>15.1734</v>
       </c>
       <c r="AD13">
-        <v>13.3466</v>
+        <v>10.9542</v>
       </c>
       <c r="AE13">
-        <v>13.3466</v>
+        <v>10.9542</v>
       </c>
       <c r="AF13">
-        <v>13.3466</v>
+        <v>10.9542</v>
       </c>
       <c r="AG13">
-        <v>0.682364</v>
+        <v>0.682627</v>
       </c>
       <c r="AH13">
-        <v>0.259794</v>
+        <v>0.257641</v>
       </c>
       <c r="AI13">
-        <v>0.047162</v>
+        <v>0.0471615</v>
       </c>
       <c r="AJ13">
-        <v>0.0541238</v>
+        <v>0.0528943</v>
       </c>
       <c r="AK13">
-        <v>0.0601061</v>
+        <v>0.0578739</v>
       </c>
       <c r="AL13">
-        <v>0.0650283</v>
+        <v>0.0654841</v>
       </c>
       <c r="AM13">
-        <v>0.0335151</v>
+        <v>0.0343685</v>
       </c>
       <c r="AN13">
-        <v>0.2147</v>
+        <v>0.212547</v>
       </c>
       <c r="AO13">
-        <v>881.5700000000001</v>
+        <v>881.47</v>
       </c>
       <c r="AP13">
-        <v>842.951</v>
+        <v>843.192</v>
       </c>
       <c r="AQ13">
-        <v>901.8680000000001</v>
+        <v>903.0920000000001</v>
       </c>
       <c r="AR13">
-        <v>761.778</v>
+        <v>761.9960000000001</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT13">
-        <v>732.37</v>
+        <v>732.173</v>
       </c>
       <c r="AU13">
-        <v>791.982</v>
+        <v>792.292</v>
       </c>
       <c r="AV13">
-        <v>752.856</v>
+        <v>754.1120000000001</v>
       </c>
       <c r="AW13">
-        <v>811.724</v>
+        <v>811.606</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>62</v>
@@ -2797,115 +2804,115 @@
         <v>75</v>
       </c>
       <c r="M14">
-        <v>50.087</v>
+        <v>49.8319</v>
       </c>
       <c r="N14">
-        <v>10.4553</v>
+        <v>8.54095</v>
       </c>
       <c r="O14">
-        <v>18.7744</v>
+        <v>18.28</v>
       </c>
       <c r="P14">
-        <v>35.57100000000001</v>
+        <v>35.5279</v>
       </c>
       <c r="Q14">
-        <v>50.0871</v>
+        <v>49.8307</v>
       </c>
       <c r="R14">
-        <v>100</v>
+        <v>99.99769999999999</v>
       </c>
       <c r="S14">
-        <v>35.488</v>
+        <v>35.5279</v>
       </c>
       <c r="T14">
-        <v>35.57100000000001</v>
+        <v>35.3563</v>
       </c>
       <c r="U14">
-        <v>18.4353</v>
+        <v>17.9831</v>
       </c>
       <c r="V14">
-        <v>11.0901</v>
+        <v>11.7768</v>
       </c>
       <c r="W14">
-        <v>10.7754</v>
+        <v>12.1663</v>
       </c>
       <c r="X14">
-        <v>9.074629999999999</v>
+        <v>7.74863</v>
       </c>
       <c r="Y14">
-        <v>9.074629999999999</v>
+        <v>7.74863</v>
       </c>
       <c r="Z14">
-        <v>9.07634</v>
+        <v>7.745690000000001</v>
       </c>
       <c r="AA14">
-        <v>18.7744</v>
+        <v>18.28</v>
       </c>
       <c r="AB14">
-        <v>10.7758</v>
+        <v>11.2163</v>
       </c>
       <c r="AC14">
-        <v>10.6539</v>
+        <v>11.893</v>
       </c>
       <c r="AD14">
-        <v>10.4553</v>
+        <v>8.54095</v>
       </c>
       <c r="AE14">
-        <v>10.4553</v>
+        <v>8.54095</v>
       </c>
       <c r="AF14">
-        <v>10.4553</v>
+        <v>8.54095</v>
       </c>
       <c r="AG14">
-        <v>0.833527</v>
+        <v>0.833865</v>
       </c>
       <c r="AH14">
-        <v>0.368767</v>
+        <v>0.365906</v>
       </c>
       <c r="AI14">
-        <v>0.09819899999999999</v>
+        <v>0.0981988</v>
       </c>
       <c r="AJ14">
-        <v>0.07014569999999999</v>
+        <v>0.0684433</v>
       </c>
       <c r="AK14">
-        <v>0.0769937</v>
+        <v>0.0738019</v>
       </c>
       <c r="AL14">
-        <v>0.0819256</v>
+        <v>0.0824985</v>
       </c>
       <c r="AM14">
-        <v>0.04159239999999999</v>
+        <v>0.0430534</v>
       </c>
       <c r="AN14">
-        <v>0.272835</v>
+        <v>0.269974</v>
       </c>
       <c r="AO14">
-        <v>878.941</v>
+        <v>878.8340000000001</v>
       </c>
       <c r="AP14">
-        <v>837.253</v>
+        <v>837.3900000000001</v>
       </c>
       <c r="AQ14">
-        <v>893.924</v>
+        <v>894.807</v>
       </c>
       <c r="AR14">
-        <v>751.115</v>
+        <v>751.1510000000001</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT14">
-        <v>729.554</v>
+        <v>729.3430000000001</v>
       </c>
       <c r="AU14">
-        <v>786.58</v>
+        <v>786.787</v>
       </c>
       <c r="AV14">
-        <v>744.563</v>
+        <v>745.454</v>
       </c>
       <c r="AW14">
-        <v>801.1959999999999</v>
+        <v>800.981</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>62</v>
@@ -2949,115 +2956,115 @@
         <v>73</v>
       </c>
       <c r="M15">
-        <v>50.2739</v>
+        <v>50.0088</v>
       </c>
       <c r="N15">
-        <v>12.1458</v>
+        <v>9.950650000000001</v>
       </c>
       <c r="O15">
-        <v>19.7064</v>
+        <v>19.2853</v>
       </c>
       <c r="P15">
-        <v>49.0851</v>
+        <v>49.1844</v>
       </c>
       <c r="Q15">
-        <v>50.2736</v>
+        <v>50.0079</v>
       </c>
       <c r="R15">
-        <v>99.9995</v>
+        <v>99.99810000000001</v>
       </c>
       <c r="S15">
-        <v>48.81030000000001</v>
+        <v>49.179</v>
       </c>
       <c r="T15">
-        <v>49.0851</v>
+        <v>49.1844</v>
       </c>
       <c r="U15">
-        <v>19.5911</v>
+        <v>19.2842</v>
       </c>
       <c r="V15">
-        <v>13.112</v>
+        <v>13.9856</v>
       </c>
       <c r="W15">
-        <v>12.9323</v>
+        <v>14.6084</v>
       </c>
       <c r="X15">
-        <v>10.892</v>
+        <v>9.231030000000001</v>
       </c>
       <c r="Y15">
-        <v>10.892</v>
+        <v>9.231030000000001</v>
       </c>
       <c r="Z15">
-        <v>10.8896</v>
+        <v>9.233470000000001</v>
       </c>
       <c r="AA15">
-        <v>19.7064</v>
+        <v>19.2853</v>
       </c>
       <c r="AB15">
-        <v>12.4232</v>
+        <v>13.0123</v>
       </c>
       <c r="AC15">
-        <v>12.3263</v>
+        <v>13.7709</v>
       </c>
       <c r="AD15">
-        <v>12.1458</v>
+        <v>9.950650000000001</v>
       </c>
       <c r="AE15">
-        <v>12.1458</v>
+        <v>9.950650000000001</v>
       </c>
       <c r="AF15">
-        <v>12.1458</v>
+        <v>9.950650000000001</v>
       </c>
       <c r="AG15">
-        <v>0.686219</v>
+        <v>0.686923</v>
       </c>
       <c r="AH15">
-        <v>0.227277</v>
+        <v>0.225159</v>
       </c>
       <c r="AI15">
         <v>0.0204357</v>
       </c>
       <c r="AJ15">
-        <v>0.0527802</v>
+        <v>0.0516052</v>
       </c>
       <c r="AK15">
-        <v>0.0578032</v>
+        <v>0.0558823</v>
       </c>
       <c r="AL15">
-        <v>0.0636091</v>
+        <v>0.06411170000000001</v>
       </c>
       <c r="AM15">
-        <v>0.0328601</v>
+        <v>0.033335</v>
       </c>
       <c r="AN15">
-        <v>0.207058</v>
+        <v>0.204939</v>
       </c>
       <c r="AO15">
-        <v>883.211</v>
+        <v>883.106</v>
       </c>
       <c r="AP15">
-        <v>844.847</v>
+        <v>845.1020000000001</v>
       </c>
       <c r="AQ15">
-        <v>904.758</v>
+        <v>906.0210000000001</v>
       </c>
       <c r="AR15">
-        <v>764.436</v>
+        <v>764.802</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT15">
-        <v>733.0849999999999</v>
+        <v>732.903</v>
       </c>
       <c r="AU15">
-        <v>794.218</v>
+        <v>794.51</v>
       </c>
       <c r="AV15">
-        <v>754.8510000000001</v>
+        <v>756.148</v>
       </c>
       <c r="AW15">
-        <v>814.71</v>
+        <v>814.809</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>62</v>
@@ -3101,115 +3108,115 @@
         <v>75</v>
       </c>
       <c r="M16">
-        <v>50.2775</v>
+        <v>50.0759</v>
       </c>
       <c r="N16">
-        <v>9.12262</v>
+        <v>7.4379</v>
       </c>
       <c r="O16">
-        <v>16.5721</v>
+        <v>16.2436</v>
       </c>
       <c r="P16">
-        <v>35.6428</v>
+        <v>35.53210000000001</v>
       </c>
       <c r="Q16">
-        <v>50.2783</v>
+        <v>50.0756</v>
       </c>
       <c r="R16">
-        <v>100.002</v>
+        <v>99.9995</v>
       </c>
       <c r="S16">
-        <v>35.3667</v>
+        <v>35.4547</v>
       </c>
       <c r="T16">
-        <v>35.6428</v>
+        <v>35.53210000000001</v>
       </c>
       <c r="U16">
-        <v>16.4117</v>
+        <v>16.1356</v>
       </c>
       <c r="V16">
-        <v>9.750160000000001</v>
+        <v>10.3772</v>
       </c>
       <c r="W16">
-        <v>9.587440000000001</v>
+        <v>10.8565</v>
       </c>
       <c r="X16">
-        <v>8.093100000000002</v>
+        <v>6.85303</v>
       </c>
       <c r="Y16">
-        <v>8.093100000000002</v>
+        <v>6.85303</v>
       </c>
       <c r="Z16">
-        <v>8.09276</v>
+        <v>6.852830000000001</v>
       </c>
       <c r="AA16">
-        <v>16.5721</v>
+        <v>16.2436</v>
       </c>
       <c r="AB16">
-        <v>9.35191</v>
+        <v>9.7624</v>
       </c>
       <c r="AC16">
-        <v>9.262219999999999</v>
+        <v>10.3588</v>
       </c>
       <c r="AD16">
-        <v>9.12262</v>
+        <v>7.4379</v>
       </c>
       <c r="AE16">
-        <v>9.12262</v>
+        <v>7.4379</v>
       </c>
       <c r="AF16">
-        <v>9.12262</v>
+        <v>7.4379</v>
       </c>
       <c r="AG16">
-        <v>0.837069</v>
+        <v>0.837614</v>
       </c>
       <c r="AH16">
-        <v>0.329246</v>
+        <v>0.326422</v>
       </c>
       <c r="AI16">
         <v>0.0684578</v>
       </c>
       <c r="AJ16">
-        <v>0.06767989999999999</v>
+        <v>0.0659754</v>
       </c>
       <c r="AK16">
-        <v>0.072743</v>
+        <v>0.0701857</v>
       </c>
       <c r="AL16">
-        <v>0.0798517</v>
+        <v>0.0805699</v>
       </c>
       <c r="AM16">
-        <v>0.0404872</v>
+        <v>0.0412068</v>
       </c>
       <c r="AN16">
-        <v>0.260775</v>
+        <v>0.257951</v>
       </c>
       <c r="AO16">
-        <v>879.783</v>
+        <v>879.6800000000001</v>
       </c>
       <c r="AP16">
-        <v>837.572</v>
+        <v>837.7030000000001</v>
       </c>
       <c r="AQ16">
-        <v>894.418</v>
+        <v>895.261</v>
       </c>
       <c r="AR16">
-        <v>750.989</v>
+        <v>751.077</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT16">
-        <v>729.705</v>
+        <v>729.508</v>
       </c>
       <c r="AU16">
-        <v>787.173</v>
+        <v>787.364</v>
       </c>
       <c r="AV16">
-        <v>744.4620000000001</v>
+        <v>745.302</v>
       </c>
       <c r="AW16">
-        <v>801.268</v>
+        <v>801.157</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>62</v>
@@ -3253,115 +3260,115 @@
         <v>73</v>
       </c>
       <c r="M17">
-        <v>49.9521</v>
+        <v>49.6182</v>
       </c>
       <c r="N17">
-        <v>13.2771</v>
+        <v>10.903</v>
       </c>
       <c r="O17">
-        <v>21.8416</v>
+        <v>21.2717</v>
       </c>
       <c r="P17">
-        <v>46.1047</v>
+        <v>46.326</v>
       </c>
       <c r="Q17">
-        <v>49.951</v>
+        <v>49.6199</v>
       </c>
       <c r="R17">
-        <v>99.99769999999999</v>
+        <v>100.004</v>
       </c>
       <c r="S17">
-        <v>46.1047</v>
+        <v>46.326</v>
       </c>
       <c r="T17">
-        <v>46.0575</v>
+        <v>45.9444</v>
       </c>
       <c r="U17">
-        <v>21.1773</v>
+        <v>20.7539</v>
       </c>
       <c r="V17">
-        <v>14.1208</v>
+        <v>15.0265</v>
       </c>
       <c r="W17">
-        <v>13.7094</v>
+        <v>15.4719</v>
       </c>
       <c r="X17">
-        <v>11.5324</v>
+        <v>9.9009</v>
       </c>
       <c r="Y17">
-        <v>11.5324</v>
+        <v>9.9009</v>
       </c>
       <c r="Z17">
-        <v>11.533</v>
+        <v>9.90011</v>
       </c>
       <c r="AA17">
-        <v>21.8416</v>
+        <v>21.2717</v>
       </c>
       <c r="AB17">
-        <v>13.6425</v>
+        <v>14.2577</v>
       </c>
       <c r="AC17">
-        <v>13.5834</v>
+        <v>15.176</v>
       </c>
       <c r="AD17">
-        <v>13.2771</v>
+        <v>10.903</v>
       </c>
       <c r="AE17">
-        <v>13.2771</v>
+        <v>10.903</v>
       </c>
       <c r="AF17">
-        <v>13.2771</v>
+        <v>10.903</v>
       </c>
       <c r="AG17">
-        <v>0.682388</v>
+        <v>0.682646</v>
       </c>
       <c r="AH17">
-        <v>0.259561</v>
+        <v>0.257428</v>
       </c>
       <c r="AI17">
-        <v>0.047162</v>
+        <v>0.0471615</v>
       </c>
       <c r="AJ17">
-        <v>0.0541211</v>
+        <v>0.0528942</v>
       </c>
       <c r="AK17">
-        <v>0.0601002</v>
+        <v>0.0578893</v>
       </c>
       <c r="AL17">
-        <v>0.06503139999999999</v>
+        <v>0.06548419999999999</v>
       </c>
       <c r="AM17">
-        <v>0.0332882</v>
+        <v>0.0341398</v>
       </c>
       <c r="AN17">
-        <v>0.214467</v>
+        <v>0.212333</v>
       </c>
       <c r="AO17">
-        <v>881.5700000000001</v>
+        <v>881.471</v>
       </c>
       <c r="AP17">
-        <v>842.951</v>
+        <v>843.189</v>
       </c>
       <c r="AQ17">
-        <v>901.8680000000001</v>
+        <v>903.0939999999999</v>
       </c>
       <c r="AR17">
-        <v>761.734</v>
+        <v>761.956</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT17">
-        <v>732.373</v>
+        <v>732.1750000000001</v>
       </c>
       <c r="AU17">
-        <v>791.9830000000001</v>
+        <v>792.294</v>
       </c>
       <c r="AV17">
-        <v>752.8580000000001</v>
+        <v>754.1120000000001</v>
       </c>
       <c r="AW17">
-        <v>811.683</v>
+        <v>811.5690000000001</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>62</v>
@@ -3405,115 +3412,115 @@
         <v>75</v>
       </c>
       <c r="M18">
-        <v>50.0882</v>
+        <v>49.8411</v>
       </c>
       <c r="N18">
-        <v>10.4021</v>
+        <v>8.499830000000001</v>
       </c>
       <c r="O18">
-        <v>18.7727</v>
+        <v>18.2833</v>
       </c>
       <c r="P18">
-        <v>35.5304</v>
+        <v>35.4892</v>
       </c>
       <c r="Q18">
-        <v>50.0871</v>
+        <v>49.8388</v>
       </c>
       <c r="R18">
-        <v>99.99769999999999</v>
+        <v>99.9954</v>
       </c>
       <c r="S18">
-        <v>35.4489</v>
+        <v>35.4892</v>
       </c>
       <c r="T18">
-        <v>35.5304</v>
+        <v>35.3271</v>
       </c>
       <c r="U18">
-        <v>18.4406</v>
+        <v>17.9858</v>
       </c>
       <c r="V18">
-        <v>11.0971</v>
+        <v>11.7876</v>
       </c>
       <c r="W18">
-        <v>10.7744</v>
+        <v>12.1783</v>
       </c>
       <c r="X18">
-        <v>9.045760000000001</v>
+        <v>7.72764</v>
       </c>
       <c r="Y18">
-        <v>9.045760000000001</v>
+        <v>7.72764</v>
       </c>
       <c r="Z18">
-        <v>9.040660000000001</v>
+        <v>7.72707</v>
       </c>
       <c r="AA18">
-        <v>18.7727</v>
+        <v>18.2833</v>
       </c>
       <c r="AB18">
-        <v>10.7758</v>
+        <v>11.215</v>
       </c>
       <c r="AC18">
-        <v>10.652</v>
+        <v>11.9</v>
       </c>
       <c r="AD18">
-        <v>10.4021</v>
+        <v>8.499830000000001</v>
       </c>
       <c r="AE18">
-        <v>10.4021</v>
+        <v>8.499830000000001</v>
       </c>
       <c r="AF18">
-        <v>10.4021</v>
+        <v>8.499830000000001</v>
       </c>
       <c r="AG18">
-        <v>0.833571</v>
+        <v>0.833877</v>
       </c>
       <c r="AH18">
-        <v>0.368512</v>
+        <v>0.365651</v>
       </c>
       <c r="AI18">
-        <v>0.09819899999999999</v>
+        <v>0.0981988</v>
       </c>
       <c r="AJ18">
-        <v>0.07015349999999999</v>
+        <v>0.0684506</v>
       </c>
       <c r="AK18">
-        <v>0.07699830000000001</v>
+        <v>0.0738021</v>
       </c>
       <c r="AL18">
-        <v>0.08193259999999999</v>
+        <v>0.08250379999999999</v>
       </c>
       <c r="AM18">
-        <v>0.0413186</v>
+        <v>0.0427853</v>
       </c>
       <c r="AN18">
-        <v>0.272581</v>
+        <v>0.269719</v>
       </c>
       <c r="AO18">
-        <v>878.941</v>
+        <v>878.833</v>
       </c>
       <c r="AP18">
-        <v>837.254</v>
+        <v>837.388</v>
       </c>
       <c r="AQ18">
-        <v>893.924</v>
+        <v>894.807</v>
       </c>
       <c r="AR18">
-        <v>751.073</v>
+        <v>751.117</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT18">
-        <v>729.553</v>
+        <v>729.345</v>
       </c>
       <c r="AU18">
-        <v>786.577</v>
+        <v>786.788</v>
       </c>
       <c r="AV18">
-        <v>744.563</v>
+        <v>745.454</v>
       </c>
       <c r="AW18">
-        <v>801.155</v>
+        <v>800.952</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>62</v>
@@ -3557,115 +3564,115 @@
         <v>73</v>
       </c>
       <c r="M19" s="3">
-        <v>54.3665</v>
+        <v>54.3847</v>
       </c>
       <c r="N19">
-        <v>9.460470000000001</v>
+        <v>7.731660000000001</v>
       </c>
       <c r="O19">
-        <v>20.202</v>
+        <v>19.5352</v>
       </c>
       <c r="P19">
-        <v>38.1581</v>
+        <v>38.0643</v>
       </c>
       <c r="Q19">
-        <v>54.3676</v>
+        <v>54.3838</v>
       </c>
       <c r="R19">
-        <v>100.002</v>
+        <v>99.9983</v>
       </c>
       <c r="S19">
-        <v>33.7887</v>
+        <v>33.6798</v>
       </c>
       <c r="T19">
-        <v>38.1581</v>
+        <v>38.0643</v>
       </c>
       <c r="U19">
-        <v>20.202</v>
+        <v>19.5352</v>
       </c>
       <c r="V19">
-        <v>11.5208</v>
+        <v>12.2905</v>
       </c>
       <c r="W19">
-        <v>11.8161</v>
+        <v>13.456</v>
       </c>
       <c r="X19">
-        <v>9.455629999999999</v>
+        <v>7.728660000000001</v>
       </c>
       <c r="Y19">
-        <v>9.455629999999999</v>
+        <v>7.728660000000001</v>
       </c>
       <c r="Z19">
-        <v>9.460470000000001</v>
+        <v>7.731660000000001</v>
       </c>
       <c r="AA19">
-        <v>15.1778</v>
+        <v>14.9317</v>
       </c>
       <c r="AB19">
-        <v>9.07419</v>
+        <v>9.30095</v>
       </c>
       <c r="AC19">
-        <v>8.28228</v>
+        <v>9.14026</v>
       </c>
       <c r="AD19">
-        <v>8.59135</v>
+        <v>7.341049999999999</v>
       </c>
       <c r="AE19">
-        <v>8.59135</v>
+        <v>7.341049999999999</v>
       </c>
       <c r="AF19">
-        <v>8.59135</v>
+        <v>7.341049999999999</v>
       </c>
       <c r="AG19">
-        <v>0.684236</v>
+        <v>0.684555</v>
       </c>
       <c r="AH19">
-        <v>0.278188</v>
+        <v>0.275575</v>
       </c>
       <c r="AI19">
-        <v>0.0619636</v>
+        <v>0.0619626</v>
       </c>
       <c r="AJ19">
-        <v>0.0561425</v>
+        <v>0.0546367</v>
       </c>
       <c r="AK19">
-        <v>0.0608126</v>
+        <v>0.0584315</v>
       </c>
       <c r="AL19">
-        <v>0.0659957</v>
+        <v>0.06655739999999999</v>
       </c>
       <c r="AM19">
-        <v>0.03348540000000001</v>
+        <v>0.0341974</v>
       </c>
       <c r="AN19">
-        <v>0.216587</v>
+        <v>0.213974</v>
       </c>
       <c r="AO19">
-        <v>882.86</v>
+        <v>882.734</v>
       </c>
       <c r="AP19">
-        <v>835.999</v>
+        <v>836.2040000000001</v>
       </c>
       <c r="AQ19">
-        <v>897.774</v>
+        <v>898.6809999999999</v>
       </c>
       <c r="AR19">
-        <v>749.4140000000001</v>
+        <v>749.3040000000001</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT19">
-        <v>726.414</v>
+        <v>726.226</v>
       </c>
       <c r="AU19">
-        <v>788.845</v>
+        <v>788.963</v>
       </c>
       <c r="AV19">
-        <v>741.701</v>
+        <v>742.484</v>
       </c>
       <c r="AW19">
-        <v>803.783</v>
+        <v>803.6890000000001</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>62</v>
@@ -3709,115 +3716,115 @@
         <v>75</v>
       </c>
       <c r="M20" s="3">
-        <v>53.5058</v>
+        <v>53.4907</v>
       </c>
       <c r="N20">
-        <v>7.230530000000001</v>
+        <v>5.951650000000001</v>
       </c>
       <c r="O20">
-        <v>16.8899</v>
+        <v>16.3806</v>
       </c>
       <c r="P20">
-        <v>29.609</v>
+        <v>29.4086</v>
       </c>
       <c r="Q20">
-        <v>53.5047</v>
+        <v>53.4917</v>
       </c>
       <c r="R20">
-        <v>99.998</v>
+        <v>100.002</v>
       </c>
       <c r="S20">
-        <v>26.0997</v>
+        <v>25.9218</v>
       </c>
       <c r="T20">
-        <v>29.609</v>
+        <v>29.4086</v>
       </c>
       <c r="U20">
-        <v>16.8899</v>
+        <v>16.3806</v>
       </c>
       <c r="V20">
-        <v>9.06761</v>
+        <v>9.603010000000001</v>
       </c>
       <c r="W20">
-        <v>8.930260000000001</v>
+        <v>10.1508</v>
       </c>
       <c r="X20">
-        <v>7.23001</v>
+        <v>5.95133</v>
       </c>
       <c r="Y20">
-        <v>7.23001</v>
+        <v>5.95133</v>
       </c>
       <c r="Z20">
-        <v>7.230530000000001</v>
+        <v>5.951650000000001</v>
       </c>
       <c r="AA20">
-        <v>14.1929</v>
+        <v>13.9683</v>
       </c>
       <c r="AB20">
-        <v>7.48646</v>
+        <v>7.66765</v>
       </c>
       <c r="AC20">
-        <v>6.81634</v>
+        <v>7.523910000000001</v>
       </c>
       <c r="AD20">
-        <v>6.97886</v>
+        <v>5.877140000000001</v>
       </c>
       <c r="AE20">
-        <v>6.97886</v>
+        <v>5.877140000000001</v>
       </c>
       <c r="AF20">
-        <v>6.97886</v>
+        <v>5.877140000000001</v>
       </c>
       <c r="AG20">
-        <v>0.835089</v>
+        <v>0.83543</v>
       </c>
       <c r="AH20">
-        <v>0.416089</v>
+        <v>0.412662</v>
       </c>
       <c r="AI20">
-        <v>0.13906</v>
+        <v>0.139059</v>
       </c>
       <c r="AJ20">
-        <v>0.0732743</v>
+        <v>0.07128019999999999</v>
       </c>
       <c r="AK20">
-        <v>0.0789893</v>
+        <v>0.0754972</v>
       </c>
       <c r="AL20">
-        <v>0.083261</v>
+        <v>0.08398899999999999</v>
       </c>
       <c r="AM20">
-        <v>0.0415651</v>
+        <v>0.0428971</v>
       </c>
       <c r="AN20">
-        <v>0.277287</v>
+        <v>0.273861</v>
       </c>
       <c r="AO20">
-        <v>879.7380000000001</v>
+        <v>879.629</v>
       </c>
       <c r="AP20">
-        <v>831.711</v>
+        <v>831.7869999999999</v>
       </c>
       <c r="AQ20">
-        <v>890.636</v>
+        <v>891.2900000000001</v>
       </c>
       <c r="AR20">
-        <v>741.722</v>
+        <v>741.549</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT20">
-        <v>724.393</v>
+        <v>724.196</v>
       </c>
       <c r="AU20">
-        <v>784.149</v>
+        <v>784.224</v>
       </c>
       <c r="AV20">
-        <v>736.0940000000001</v>
+        <v>736.614</v>
       </c>
       <c r="AW20">
-        <v>795.234</v>
+        <v>795.034</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>62</v>
@@ -3861,115 +3868,115 @@
         <v>73</v>
       </c>
       <c r="M21" s="3">
-        <v>53.5587</v>
+        <v>53.4887</v>
       </c>
       <c r="N21">
-        <v>10.0795</v>
+        <v>8.38386</v>
       </c>
       <c r="O21">
-        <v>21.5815</v>
+        <v>20.9085</v>
       </c>
       <c r="P21">
-        <v>36.5686</v>
+        <v>36.3451</v>
       </c>
       <c r="Q21">
-        <v>53.5587</v>
+        <v>53.4887</v>
       </c>
       <c r="R21">
-        <v>100</v>
+        <v>99.9999</v>
       </c>
       <c r="S21">
-        <v>33.0105</v>
+        <v>32.86620000000001</v>
       </c>
       <c r="T21">
-        <v>36.5686</v>
+        <v>36.3451</v>
       </c>
       <c r="U21">
-        <v>21.5815</v>
+        <v>20.9085</v>
       </c>
       <c r="V21">
-        <v>12.7716</v>
+        <v>13.5083</v>
       </c>
       <c r="W21">
-        <v>12.6003</v>
+        <v>14.3075</v>
       </c>
       <c r="X21">
-        <v>10.0795</v>
+        <v>8.3833</v>
       </c>
       <c r="Y21">
-        <v>10.0795</v>
+        <v>8.3833</v>
       </c>
       <c r="Z21">
-        <v>10.0795</v>
+        <v>8.38386</v>
       </c>
       <c r="AA21">
-        <v>17.162</v>
+        <v>16.8695</v>
       </c>
       <c r="AB21">
-        <v>10.4123</v>
+        <v>10.661</v>
       </c>
       <c r="AC21">
-        <v>9.567</v>
+        <v>10.5654</v>
       </c>
       <c r="AD21">
-        <v>9.710089999999999</v>
+        <v>8.28481</v>
       </c>
       <c r="AE21">
-        <v>9.710089999999999</v>
+        <v>8.28481</v>
       </c>
       <c r="AF21">
-        <v>9.710089999999999</v>
+        <v>8.28481</v>
       </c>
       <c r="AG21">
-        <v>0.680414</v>
+        <v>0.6805369999999999</v>
       </c>
       <c r="AH21">
-        <v>0.34083</v>
+        <v>0.33819</v>
       </c>
       <c r="AI21">
-        <v>0.111886</v>
+        <v>0.111773</v>
       </c>
       <c r="AJ21">
-        <v>0.0595575</v>
+        <v>0.0580313</v>
       </c>
       <c r="AK21">
-        <v>0.0669766</v>
+        <v>0.06379799999999999</v>
       </c>
       <c r="AL21">
-        <v>0.0692974</v>
+        <v>0.0696235</v>
       </c>
       <c r="AM21">
-        <v>0.0347531</v>
+        <v>0.0364921</v>
       </c>
       <c r="AN21">
-        <v>0.247972</v>
+        <v>0.245333</v>
       </c>
       <c r="AO21">
-        <v>881.658</v>
+        <v>881.532</v>
       </c>
       <c r="AP21">
-        <v>835.3339999999999</v>
+        <v>835.5100000000001</v>
       </c>
       <c r="AQ21">
-        <v>896.151</v>
+        <v>897.061</v>
       </c>
       <c r="AR21">
-        <v>748.6320000000001</v>
+        <v>748.491</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT21">
-        <v>726.001</v>
+        <v>725.796</v>
       </c>
       <c r="AU21">
-        <v>787.394</v>
+        <v>787.521</v>
       </c>
       <c r="AV21">
-        <v>741.123</v>
+        <v>741.8869999999999</v>
       </c>
       <c r="AW21">
-        <v>802.1940000000001</v>
+        <v>801.97</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>62</v>
@@ -4012,116 +4019,116 @@
       <c r="L22" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="3">
-        <v>53.058</v>
+      <c r="M22">
+        <v>52.9822</v>
       </c>
       <c r="N22">
-        <v>8.14438</v>
+        <v>6.88138</v>
       </c>
       <c r="O22">
-        <v>18.8067</v>
+        <v>18.2517</v>
       </c>
       <c r="P22">
-        <v>30.0048</v>
+        <v>29.7536</v>
       </c>
       <c r="Q22">
-        <v>53.0587</v>
+        <v>52.9818</v>
       </c>
       <c r="R22">
-        <v>100.001</v>
+        <v>99.9992</v>
       </c>
       <c r="S22">
-        <v>26.9477</v>
+        <v>26.7698</v>
       </c>
       <c r="T22">
-        <v>30.0048</v>
+        <v>29.7536</v>
       </c>
       <c r="U22">
-        <v>18.8067</v>
+        <v>18.2517</v>
       </c>
       <c r="V22">
-        <v>10.5786</v>
+        <v>11.1202</v>
       </c>
       <c r="W22">
-        <v>10.0762</v>
+        <v>11.4404</v>
       </c>
       <c r="X22">
-        <v>8.13313</v>
+        <v>6.796469999999999</v>
       </c>
       <c r="Y22">
-        <v>8.13313</v>
+        <v>6.796469999999999</v>
       </c>
       <c r="Z22">
-        <v>8.129960000000001</v>
+        <v>6.79169</v>
       </c>
       <c r="AA22">
-        <v>16.0494</v>
+        <v>15.7685</v>
       </c>
       <c r="AB22">
-        <v>8.946670000000001</v>
+        <v>9.155430000000001</v>
       </c>
       <c r="AC22">
-        <v>8.08506</v>
+        <v>8.92787</v>
       </c>
       <c r="AD22">
-        <v>8.14438</v>
+        <v>6.88138</v>
       </c>
       <c r="AE22">
-        <v>8.14438</v>
+        <v>6.88138</v>
       </c>
       <c r="AF22">
-        <v>8.14438</v>
+        <v>6.88138</v>
       </c>
       <c r="AG22">
-        <v>0.831311</v>
+        <v>0.831479</v>
       </c>
       <c r="AH22">
-        <v>0.481472</v>
+        <v>0.477979</v>
       </c>
       <c r="AI22">
-        <v>0.185368</v>
+        <v>0.185249</v>
       </c>
       <c r="AJ22">
-        <v>0.078735</v>
+        <v>0.0767867</v>
       </c>
       <c r="AK22">
-        <v>0.08806560000000001</v>
+        <v>0.0833773</v>
       </c>
       <c r="AL22">
-        <v>0.08762759999999999</v>
+        <v>0.0880118</v>
       </c>
       <c r="AM22">
-        <v>0.0434227</v>
+        <v>0.0461812</v>
       </c>
       <c r="AN22">
-        <v>0.317125</v>
+        <v>0.313631</v>
       </c>
       <c r="AO22">
-        <v>879.296</v>
+        <v>879.182</v>
       </c>
       <c r="AP22">
-        <v>832.024</v>
+        <v>832.105</v>
       </c>
       <c r="AQ22">
-        <v>890.6990000000001</v>
+        <v>891.3919999999999</v>
       </c>
       <c r="AR22">
-        <v>742.575</v>
+        <v>742.3960000000001</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT22">
-        <v>724.5409999999999</v>
+        <v>724.3349999999999</v>
       </c>
       <c r="AU22">
-        <v>783.907</v>
+        <v>784.004</v>
       </c>
       <c r="AV22">
-        <v>736.758</v>
+        <v>737.312</v>
       </c>
       <c r="AW22">
-        <v>795.63</v>
+        <v>795.379</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>62</v>
@@ -4165,115 +4172,115 @@
         <v>73</v>
       </c>
       <c r="M23" s="3">
-        <v>54.3749</v>
+        <v>54.3928</v>
       </c>
       <c r="N23">
-        <v>9.41451</v>
+        <v>7.703690000000001</v>
       </c>
       <c r="O23">
-        <v>20.2006</v>
+        <v>19.5296</v>
       </c>
       <c r="P23">
-        <v>38.126</v>
+        <v>38.0415</v>
       </c>
       <c r="Q23">
-        <v>54.3749</v>
+        <v>54.3937</v>
       </c>
       <c r="R23">
-        <v>100</v>
+        <v>100.002</v>
       </c>
       <c r="S23">
-        <v>33.7511</v>
+        <v>33.6442</v>
       </c>
       <c r="T23">
-        <v>38.126</v>
+        <v>38.0415</v>
       </c>
       <c r="U23">
-        <v>20.2006</v>
+        <v>19.5296</v>
       </c>
       <c r="V23">
-        <v>11.5143</v>
+        <v>12.2888</v>
       </c>
       <c r="W23">
-        <v>11.8167</v>
+        <v>13.457</v>
       </c>
       <c r="X23">
-        <v>9.415050000000001</v>
+        <v>7.708070000000001</v>
       </c>
       <c r="Y23">
-        <v>9.415050000000001</v>
+        <v>7.708070000000001</v>
       </c>
       <c r="Z23">
-        <v>9.41451</v>
+        <v>7.703690000000001</v>
       </c>
       <c r="AA23">
-        <v>15.1548</v>
+        <v>14.9364</v>
       </c>
       <c r="AB23">
-        <v>9.06704</v>
+        <v>9.300030000000001</v>
       </c>
       <c r="AC23">
-        <v>8.279500000000001</v>
+        <v>9.14066</v>
       </c>
       <c r="AD23">
-        <v>8.547689999999999</v>
+        <v>7.300790000000001</v>
       </c>
       <c r="AE23">
-        <v>8.547689999999999</v>
+        <v>7.300790000000001</v>
       </c>
       <c r="AF23">
-        <v>8.547689999999999</v>
+        <v>7.300790000000001</v>
       </c>
       <c r="AG23">
-        <v>0.684254</v>
+        <v>0.684575</v>
       </c>
       <c r="AH23">
-        <v>0.277956</v>
+        <v>0.275346</v>
       </c>
       <c r="AI23">
-        <v>0.0619636</v>
+        <v>0.0619626</v>
       </c>
       <c r="AJ23">
-        <v>0.0561413</v>
+        <v>0.0546381</v>
       </c>
       <c r="AK23">
-        <v>0.060819</v>
+        <v>0.0584351</v>
       </c>
       <c r="AL23">
-        <v>0.0659988</v>
+        <v>0.06655709999999999</v>
       </c>
       <c r="AM23">
-        <v>0.0332453</v>
+        <v>0.0339635</v>
       </c>
       <c r="AN23">
-        <v>0.216355</v>
+        <v>0.213745</v>
       </c>
       <c r="AO23">
-        <v>882.857</v>
+        <v>882.735</v>
       </c>
       <c r="AP23">
-        <v>836.0010000000001</v>
+        <v>836.205</v>
       </c>
       <c r="AQ23">
-        <v>897.7769999999999</v>
+        <v>898.683</v>
       </c>
       <c r="AR23">
-        <v>749.375</v>
+        <v>749.2700000000001</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT23">
-        <v>726.4150000000001</v>
+        <v>726.227</v>
       </c>
       <c r="AU23">
-        <v>788.8439999999999</v>
+        <v>788.967</v>
       </c>
       <c r="AV23">
-        <v>741.703</v>
+        <v>742.484</v>
       </c>
       <c r="AW23">
-        <v>803.7510000000001</v>
+        <v>803.6669999999999</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>62</v>
@@ -4317,115 +4324,115 @@
         <v>75</v>
       </c>
       <c r="M24" s="3">
-        <v>53.5154</v>
+        <v>53.4915</v>
       </c>
       <c r="N24">
-        <v>7.20453</v>
+        <v>5.936710000000001</v>
       </c>
       <c r="O24">
-        <v>16.8965</v>
+        <v>16.3737</v>
       </c>
       <c r="P24">
-        <v>29.5796</v>
+        <v>29.3858</v>
       </c>
       <c r="Q24">
-        <v>53.5177</v>
+        <v>53.4938</v>
       </c>
       <c r="R24">
         <v>100.004</v>
       </c>
       <c r="S24">
-        <v>26.0615</v>
+        <v>25.8919</v>
       </c>
       <c r="T24">
-        <v>29.5796</v>
+        <v>29.3858</v>
       </c>
       <c r="U24">
-        <v>16.8965</v>
+        <v>16.3737</v>
       </c>
       <c r="V24">
-        <v>9.068049999999999</v>
+        <v>9.603349999999999</v>
       </c>
       <c r="W24">
-        <v>8.930870000000001</v>
+        <v>10.1534</v>
       </c>
       <c r="X24">
-        <v>7.20168</v>
+        <v>5.93165</v>
       </c>
       <c r="Y24">
-        <v>7.20168</v>
+        <v>5.93165</v>
       </c>
       <c r="Z24">
-        <v>7.20453</v>
+        <v>5.936710000000001</v>
       </c>
       <c r="AA24">
-        <v>14.1935</v>
+        <v>13.9642</v>
       </c>
       <c r="AB24">
-        <v>7.48446</v>
+        <v>7.67749</v>
       </c>
       <c r="AC24">
-        <v>6.81831</v>
+        <v>7.525480000000001</v>
       </c>
       <c r="AD24">
-        <v>6.94385</v>
+        <v>5.849930000000001</v>
       </c>
       <c r="AE24">
-        <v>6.94385</v>
+        <v>5.849930000000001</v>
       </c>
       <c r="AF24">
-        <v>6.94385</v>
+        <v>5.849930000000001</v>
       </c>
       <c r="AG24">
-        <v>0.835114</v>
+        <v>0.835448</v>
       </c>
       <c r="AH24">
-        <v>0.415807</v>
+        <v>0.412421</v>
       </c>
       <c r="AI24">
-        <v>0.13906</v>
+        <v>0.139059</v>
       </c>
       <c r="AJ24">
-        <v>0.073272</v>
+        <v>0.0712884</v>
       </c>
       <c r="AK24">
-        <v>0.07898989999999999</v>
+        <v>0.0755011</v>
       </c>
       <c r="AL24">
-        <v>0.0832566</v>
+        <v>0.083999</v>
       </c>
       <c r="AM24">
-        <v>0.0412895</v>
+        <v>0.0426332</v>
       </c>
       <c r="AN24">
-        <v>0.277006</v>
+        <v>0.273619</v>
       </c>
       <c r="AO24">
-        <v>879.7430000000001</v>
+        <v>879.627</v>
       </c>
       <c r="AP24">
-        <v>831.711</v>
+        <v>831.788</v>
       </c>
       <c r="AQ24">
-        <v>890.6400000000001</v>
+        <v>891.287</v>
       </c>
       <c r="AR24">
-        <v>741.6880000000001</v>
+        <v>741.5170000000001</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT24">
-        <v>724.393</v>
+        <v>724.197</v>
       </c>
       <c r="AU24">
-        <v>784.146</v>
+        <v>784.226</v>
       </c>
       <c r="AV24">
-        <v>736.095</v>
+        <v>736.611</v>
       </c>
       <c r="AW24">
-        <v>795.205</v>
+        <v>795.0110000000001</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>62</v>
@@ -4469,115 +4476,115 @@
         <v>73</v>
       </c>
       <c r="M25" s="3">
-        <v>53.5718</v>
+        <v>53.4928</v>
       </c>
       <c r="N25">
-        <v>10.0439</v>
+        <v>8.350890000000001</v>
       </c>
       <c r="O25">
-        <v>21.5742</v>
+        <v>20.9057</v>
       </c>
       <c r="P25">
-        <v>36.5416</v>
+        <v>36.3233</v>
       </c>
       <c r="Q25">
-        <v>53.5726</v>
+        <v>53.49100000000001</v>
       </c>
       <c r="R25">
-        <v>100.002</v>
+        <v>99.9965</v>
       </c>
       <c r="S25">
-        <v>32.9667</v>
+        <v>32.8305</v>
       </c>
       <c r="T25">
-        <v>36.5416</v>
+        <v>36.3233</v>
       </c>
       <c r="U25">
-        <v>21.5742</v>
+        <v>20.9057</v>
       </c>
       <c r="V25">
-        <v>12.7715</v>
+        <v>13.5057</v>
       </c>
       <c r="W25">
-        <v>12.5953</v>
+        <v>14.3153</v>
       </c>
       <c r="X25">
-        <v>10.0363</v>
+        <v>8.35858</v>
       </c>
       <c r="Y25">
-        <v>10.0363</v>
+        <v>8.35858</v>
       </c>
       <c r="Z25">
-        <v>10.0439</v>
+        <v>8.350890000000001</v>
       </c>
       <c r="AA25">
-        <v>17.1561</v>
+        <v>16.8547</v>
       </c>
       <c r="AB25">
-        <v>10.3952</v>
+        <v>10.6611</v>
       </c>
       <c r="AC25">
-        <v>9.57103</v>
+        <v>10.5671</v>
       </c>
       <c r="AD25">
-        <v>9.669460000000001</v>
+        <v>8.25319</v>
       </c>
       <c r="AE25">
-        <v>9.669460000000001</v>
+        <v>8.25319</v>
       </c>
       <c r="AF25">
-        <v>9.669460000000001</v>
+        <v>8.25319</v>
       </c>
       <c r="AG25">
-        <v>0.680434</v>
+        <v>0.680546</v>
       </c>
       <c r="AH25">
-        <v>0.340585</v>
+        <v>0.337973</v>
       </c>
       <c r="AI25">
-        <v>0.111886</v>
+        <v>0.111773</v>
       </c>
       <c r="AJ25">
-        <v>0.0595478</v>
+        <v>0.0580318</v>
       </c>
       <c r="AK25">
-        <v>0.06697210000000001</v>
+        <v>0.0637977</v>
       </c>
       <c r="AL25">
-        <v>0.06928720000000001</v>
+        <v>0.0696225</v>
       </c>
       <c r="AM25">
-        <v>0.03453290000000001</v>
+        <v>0.0362752</v>
       </c>
       <c r="AN25">
-        <v>0.247727</v>
+        <v>0.245115</v>
       </c>
       <c r="AO25">
-        <v>881.657</v>
+        <v>881.5309999999999</v>
       </c>
       <c r="AP25">
-        <v>835.333</v>
+        <v>835.511</v>
       </c>
       <c r="AQ25">
-        <v>896.158</v>
+        <v>897.062</v>
       </c>
       <c r="AR25">
-        <v>748.595</v>
+        <v>748.456</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT25">
-        <v>725.999</v>
+        <v>725.796</v>
       </c>
       <c r="AU25">
-        <v>787.402</v>
+        <v>787.529</v>
       </c>
       <c r="AV25">
-        <v>741.127</v>
+        <v>741.8869999999999</v>
       </c>
       <c r="AW25">
-        <v>802.167</v>
+        <v>801.948</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>62</v>
@@ -4620,116 +4627,116 @@
       <c r="L26" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="3">
-        <v>53.0533</v>
+      <c r="M26">
+        <v>52.986</v>
       </c>
       <c r="N26">
-        <v>8.108680000000001</v>
+        <v>6.84814</v>
       </c>
       <c r="O26">
-        <v>18.8132</v>
+        <v>18.2482</v>
       </c>
       <c r="P26">
-        <v>29.9737</v>
+        <v>29.7248</v>
       </c>
       <c r="Q26">
-        <v>53.0522</v>
+        <v>52.9855</v>
       </c>
       <c r="R26">
-        <v>99.9979</v>
+        <v>99.9991</v>
       </c>
       <c r="S26">
-        <v>26.9149</v>
+        <v>26.74</v>
       </c>
       <c r="T26">
-        <v>29.9737</v>
+        <v>29.7248</v>
       </c>
       <c r="U26">
-        <v>18.8132</v>
+        <v>18.2482</v>
       </c>
       <c r="V26">
-        <v>10.572</v>
+        <v>11.1263</v>
       </c>
       <c r="W26">
-        <v>10.0765</v>
+        <v>11.4412</v>
       </c>
       <c r="X26">
-        <v>8.101700000000001</v>
+        <v>6.774550000000001</v>
       </c>
       <c r="Y26">
-        <v>8.101700000000001</v>
+        <v>6.774550000000001</v>
       </c>
       <c r="Z26">
-        <v>8.10464</v>
+        <v>6.77569</v>
       </c>
       <c r="AA26">
-        <v>16.058</v>
+        <v>15.778</v>
       </c>
       <c r="AB26">
-        <v>8.951870000000001</v>
+        <v>9.16323</v>
       </c>
       <c r="AC26">
-        <v>8.08963</v>
+        <v>8.929819999999999</v>
       </c>
       <c r="AD26">
-        <v>8.108680000000001</v>
+        <v>6.84814</v>
       </c>
       <c r="AE26">
-        <v>8.108680000000001</v>
+        <v>6.84814</v>
       </c>
       <c r="AF26">
-        <v>8.108680000000001</v>
+        <v>6.84814</v>
       </c>
       <c r="AG26">
-        <v>0.83133</v>
+        <v>0.831492</v>
       </c>
       <c r="AH26">
-        <v>0.481224</v>
+        <v>0.477721</v>
       </c>
       <c r="AI26">
-        <v>0.185368</v>
+        <v>0.185249</v>
       </c>
       <c r="AJ26">
-        <v>0.0787341</v>
+        <v>0.0767805</v>
       </c>
       <c r="AK26">
-        <v>0.0880679</v>
+        <v>0.0833777</v>
       </c>
       <c r="AL26">
-        <v>0.0876314</v>
+        <v>0.08801150000000001</v>
       </c>
       <c r="AM26">
-        <v>0.0431691</v>
+        <v>0.0459291</v>
       </c>
       <c r="AN26">
-        <v>0.316876</v>
+        <v>0.313373</v>
       </c>
       <c r="AO26">
-        <v>879.2950000000001</v>
+        <v>879.1799999999999</v>
       </c>
       <c r="AP26">
-        <v>832.027</v>
+        <v>832.105</v>
       </c>
       <c r="AQ26">
-        <v>890.6899999999999</v>
+        <v>891.393</v>
       </c>
       <c r="AR26">
-        <v>742.543</v>
+        <v>742.365</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT26">
-        <v>724.543</v>
+        <v>724.3349999999999</v>
       </c>
       <c r="AU26">
-        <v>783.908</v>
+        <v>784.0020000000001</v>
       </c>
       <c r="AV26">
-        <v>736.7600000000001</v>
+        <v>737.311</v>
       </c>
       <c r="AW26">
-        <v>795.599</v>
+        <v>795.35</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>62</v>
@@ -4772,116 +4779,116 @@
       <c r="L27" t="s">
         <v>73</v>
       </c>
-      <c r="M27">
-        <v>47.0866</v>
+      <c r="M27" s="4">
+        <v>46.6694</v>
       </c>
       <c r="N27">
-        <v>10.6797</v>
+        <v>8.401820000000001</v>
       </c>
       <c r="O27">
-        <v>20.0929</v>
+        <v>19.528</v>
       </c>
       <c r="P27">
-        <v>37.7305</v>
+        <v>37.8622</v>
       </c>
       <c r="Q27">
-        <v>47.0873</v>
+        <v>46.6687</v>
       </c>
       <c r="R27">
-        <v>100.001</v>
+        <v>99.99850000000001</v>
       </c>
       <c r="S27">
-        <v>37.7305</v>
+        <v>37.8622</v>
       </c>
       <c r="T27">
-        <v>34.8179</v>
+        <v>34.5291</v>
       </c>
       <c r="U27">
-        <v>15.4198</v>
+        <v>15.2562</v>
       </c>
       <c r="V27">
-        <v>9.392770000000001</v>
+        <v>9.85169</v>
       </c>
       <c r="W27">
-        <v>8.579160000000002</v>
+        <v>9.592040000000001</v>
       </c>
       <c r="X27">
-        <v>7.74317</v>
+        <v>6.80114</v>
       </c>
       <c r="Y27">
-        <v>7.74317</v>
+        <v>6.80114</v>
       </c>
       <c r="Z27">
-        <v>7.7413</v>
+        <v>6.79984</v>
       </c>
       <c r="AA27">
-        <v>20.0929</v>
+        <v>19.528</v>
       </c>
       <c r="AB27">
-        <v>10.7846</v>
+        <v>11.3381</v>
       </c>
       <c r="AC27">
-        <v>11.1352</v>
+        <v>12.5559</v>
       </c>
       <c r="AD27">
-        <v>10.6797</v>
+        <v>8.401820000000001</v>
       </c>
       <c r="AE27">
-        <v>10.6797</v>
+        <v>8.401820000000001</v>
       </c>
       <c r="AF27">
-        <v>10.6797</v>
+        <v>8.401820000000001</v>
       </c>
       <c r="AG27">
-        <v>0.6843129999999999</v>
+        <v>0.684647</v>
       </c>
       <c r="AH27">
-        <v>0.275398</v>
+        <v>0.273173</v>
       </c>
       <c r="AI27">
-        <v>0.0592302</v>
+        <v>0.0592307</v>
       </c>
       <c r="AJ27">
-        <v>0.0559839</v>
+        <v>0.0546303</v>
       </c>
       <c r="AK27">
-        <v>0.0605935</v>
+        <v>0.05841569999999999</v>
       </c>
       <c r="AL27">
-        <v>0.06592870000000001</v>
+        <v>0.06656959999999999</v>
       </c>
       <c r="AM27">
-        <v>0.0336649</v>
+        <v>0.0343306</v>
       </c>
       <c r="AN27">
-        <v>0.216294</v>
+        <v>0.214069</v>
       </c>
       <c r="AO27">
-        <v>877.229</v>
+        <v>877.133</v>
       </c>
       <c r="AP27">
-        <v>839.1700000000001</v>
+        <v>839.235</v>
       </c>
       <c r="AQ27">
-        <v>892.394</v>
+        <v>893.215</v>
       </c>
       <c r="AR27">
-        <v>753.3589999999999</v>
+        <v>753.4870000000001</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT27">
-        <v>732.579</v>
+        <v>732.3580000000001</v>
       </c>
       <c r="AU27">
-        <v>786.227</v>
+        <v>786.485</v>
       </c>
       <c r="AV27">
-        <v>747.5359999999999</v>
+        <v>748.442</v>
       </c>
       <c r="AW27">
-        <v>800.443</v>
+        <v>800.154</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>62</v>
@@ -4925,115 +4932,115 @@
         <v>75</v>
       </c>
       <c r="M28">
-        <v>47.7874</v>
+        <v>47.4967</v>
       </c>
       <c r="N28">
-        <v>8.27585</v>
+        <v>6.54657</v>
       </c>
       <c r="O28">
-        <v>16.9444</v>
+        <v>16.5371</v>
       </c>
       <c r="P28">
-        <v>29.2553</v>
+        <v>29.2373</v>
       </c>
       <c r="Q28">
-        <v>47.7877</v>
+        <v>47.5025</v>
       </c>
       <c r="R28">
-        <v>100.001</v>
+        <v>100.012</v>
       </c>
       <c r="S28">
-        <v>29.2553</v>
+        <v>29.2373</v>
       </c>
       <c r="T28">
-        <v>27.0419</v>
+        <v>26.7401</v>
       </c>
       <c r="U28">
-        <v>14.3956</v>
+        <v>14.2342</v>
       </c>
       <c r="V28">
-        <v>7.72153</v>
+        <v>8.114470000000001</v>
       </c>
       <c r="W28">
-        <v>7.05728</v>
+        <v>7.89205</v>
       </c>
       <c r="X28">
-        <v>6.27815</v>
+        <v>5.45838</v>
       </c>
       <c r="Y28">
-        <v>6.27815</v>
+        <v>5.45838</v>
       </c>
       <c r="Z28">
-        <v>6.28074</v>
+        <v>5.45833</v>
       </c>
       <c r="AA28">
-        <v>16.9444</v>
+        <v>16.5371</v>
       </c>
       <c r="AB28">
-        <v>8.650160000000001</v>
+        <v>9.0151</v>
       </c>
       <c r="AC28">
-        <v>8.571150000000001</v>
+        <v>9.637309999999999</v>
       </c>
       <c r="AD28">
-        <v>8.27585</v>
+        <v>6.54657</v>
       </c>
       <c r="AE28">
-        <v>8.27585</v>
+        <v>6.54657</v>
       </c>
       <c r="AF28">
-        <v>8.27585</v>
+        <v>6.54657</v>
       </c>
       <c r="AG28">
-        <v>0.83504</v>
+        <v>0.8354</v>
       </c>
       <c r="AH28">
-        <v>0.417437</v>
+        <v>0.414445</v>
       </c>
       <c r="AI28">
-        <v>0.141044</v>
+        <v>0.141045</v>
       </c>
       <c r="AJ28">
-        <v>0.0728128</v>
+        <v>0.07102219999999999</v>
       </c>
       <c r="AK28">
-        <v>0.0786259</v>
+        <v>0.0753293</v>
       </c>
       <c r="AL28">
-        <v>0.08313180000000001</v>
+        <v>0.0839319</v>
       </c>
       <c r="AM28">
-        <v>0.0418517</v>
+        <v>0.04314689999999999</v>
       </c>
       <c r="AN28">
-        <v>0.276581</v>
+        <v>0.273589</v>
       </c>
       <c r="AO28">
-        <v>875.035</v>
+        <v>874.939</v>
       </c>
       <c r="AP28">
-        <v>834.364</v>
+        <v>834.38</v>
       </c>
       <c r="AQ28">
-        <v>886.687</v>
+        <v>887.2669999999999</v>
       </c>
       <c r="AR28">
-        <v>744.879</v>
+        <v>744.864</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT28">
-        <v>729.5169999999999</v>
+        <v>729.306</v>
       </c>
       <c r="AU28">
-        <v>781.9640000000001</v>
+        <v>782.116</v>
       </c>
       <c r="AV28">
-        <v>740.505</v>
+        <v>741.147</v>
       </c>
       <c r="AW28">
-        <v>792.667</v>
+        <v>792.365</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>62</v>
@@ -5076,116 +5083,116 @@
       <c r="L29" t="s">
         <v>73</v>
       </c>
-      <c r="M29">
-        <v>47.333</v>
+      <c r="M29" s="4">
+        <v>46.8871</v>
       </c>
       <c r="N29">
-        <v>11.8847</v>
+        <v>9.43338</v>
       </c>
       <c r="O29">
-        <v>22.0832</v>
+        <v>21.5945</v>
       </c>
       <c r="P29">
-        <v>36.5803</v>
+        <v>36.6384</v>
       </c>
       <c r="Q29">
-        <v>47.3335</v>
+        <v>46.88800000000001</v>
       </c>
       <c r="R29">
-        <v>100.001</v>
+        <v>100.002</v>
       </c>
       <c r="S29">
-        <v>36.5803</v>
+        <v>36.6384</v>
       </c>
       <c r="T29">
-        <v>33.9152</v>
+        <v>33.5259</v>
       </c>
       <c r="U29">
-        <v>17.4789</v>
+        <v>17.2328</v>
       </c>
       <c r="V29">
-        <v>10.7957</v>
+        <v>11.302</v>
       </c>
       <c r="W29">
-        <v>9.791230000000001</v>
+        <v>10.9305</v>
       </c>
       <c r="X29">
-        <v>8.70852</v>
+        <v>7.708769999999999</v>
       </c>
       <c r="Y29">
-        <v>8.70852</v>
+        <v>7.708769999999999</v>
       </c>
       <c r="Z29">
-        <v>8.708179999999999</v>
+        <v>7.71353</v>
       </c>
       <c r="AA29">
-        <v>22.0832</v>
+        <v>21.5945</v>
       </c>
       <c r="AB29">
-        <v>12.4688</v>
+        <v>13.025</v>
       </c>
       <c r="AC29">
-        <v>12.4829</v>
+        <v>14.0361</v>
       </c>
       <c r="AD29">
-        <v>11.8847</v>
+        <v>9.43338</v>
       </c>
       <c r="AE29">
-        <v>11.8847</v>
+        <v>9.43338</v>
       </c>
       <c r="AF29">
-        <v>11.8847</v>
+        <v>9.43338</v>
       </c>
       <c r="AG29">
-        <v>0.6802510000000001</v>
+        <v>0.680378</v>
       </c>
       <c r="AH29">
-        <v>0.359744</v>
+        <v>0.357503</v>
       </c>
       <c r="AI29">
-        <v>0.131396</v>
+        <v>0.13149</v>
       </c>
       <c r="AJ29">
-        <v>0.0591735</v>
+        <v>0.05778229999999999</v>
       </c>
       <c r="AK29">
-        <v>0.06696879999999999</v>
+        <v>0.06396700000000001</v>
       </c>
       <c r="AL29">
-        <v>0.0692902</v>
+        <v>0.06970570000000001</v>
       </c>
       <c r="AM29">
-        <v>0.0350134</v>
+        <v>0.0367495</v>
       </c>
       <c r="AN29">
-        <v>0.252845</v>
+        <v>0.250604</v>
       </c>
       <c r="AO29">
-        <v>875.8760000000001</v>
+        <v>875.7760000000001</v>
       </c>
       <c r="AP29">
-        <v>838.075</v>
+        <v>838.145</v>
       </c>
       <c r="AQ29">
-        <v>891.126</v>
+        <v>891.937</v>
       </c>
       <c r="AR29">
-        <v>752.2080000000001</v>
+        <v>752.264</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT29">
-        <v>732.25</v>
+        <v>732.009</v>
       </c>
       <c r="AU29">
-        <v>785.2370000000001</v>
+        <v>785.492</v>
       </c>
       <c r="AV29">
-        <v>746.816</v>
+        <v>747.7669999999999</v>
       </c>
       <c r="AW29">
-        <v>799.5400000000001</v>
+        <v>799.151</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>62</v>
@@ -5229,115 +5236,115 @@
         <v>75</v>
       </c>
       <c r="M30">
-        <v>47.7862</v>
+        <v>47.4479</v>
       </c>
       <c r="N30">
-        <v>9.55696</v>
+        <v>7.628740000000001</v>
       </c>
       <c r="O30">
-        <v>19.0384</v>
+        <v>18.6287</v>
       </c>
       <c r="P30">
-        <v>29.8655</v>
+        <v>29.8395</v>
       </c>
       <c r="Q30">
-        <v>47.7862</v>
+        <v>47.44670000000001</v>
       </c>
       <c r="R30">
-        <v>100</v>
+        <v>99.9975</v>
       </c>
       <c r="S30">
-        <v>29.8655</v>
+        <v>29.8395</v>
       </c>
       <c r="T30">
-        <v>27.6514</v>
+        <v>27.2865</v>
       </c>
       <c r="U30">
-        <v>16.2892</v>
+        <v>16.0637</v>
       </c>
       <c r="V30">
-        <v>9.220320000000001</v>
+        <v>9.65809</v>
       </c>
       <c r="W30">
-        <v>8.27065</v>
+        <v>9.243910000000001</v>
       </c>
       <c r="X30">
-        <v>7.266570000000001</v>
+        <v>6.37943</v>
       </c>
       <c r="Y30">
-        <v>7.266570000000001</v>
+        <v>6.37943</v>
       </c>
       <c r="Z30">
-        <v>7.266570000000001</v>
+        <v>6.37843</v>
       </c>
       <c r="AA30">
-        <v>19.0384</v>
+        <v>18.6287</v>
       </c>
       <c r="AB30">
-        <v>10.3315</v>
+        <v>10.7261</v>
       </c>
       <c r="AC30">
-        <v>9.963000000000001</v>
+        <v>11.1927</v>
       </c>
       <c r="AD30">
-        <v>9.55696</v>
+        <v>7.628740000000001</v>
       </c>
       <c r="AE30">
-        <v>9.55696</v>
+        <v>7.628740000000001</v>
       </c>
       <c r="AF30">
-        <v>9.55696</v>
+        <v>7.628740000000001</v>
       </c>
       <c r="AG30">
-        <v>0.831164</v>
+        <v>0.83133</v>
       </c>
       <c r="AH30">
-        <v>0.523872</v>
+        <v>0.5207980000000001</v>
       </c>
       <c r="AI30">
-        <v>0.228469</v>
+        <v>0.228578</v>
       </c>
       <c r="AJ30">
-        <v>0.0780563</v>
+        <v>0.07628850000000001</v>
       </c>
       <c r="AK30">
-        <v>0.0880169</v>
+        <v>0.0835133</v>
       </c>
       <c r="AL30">
-        <v>0.0877072</v>
+        <v>0.08815339999999999</v>
       </c>
       <c r="AM30">
-        <v>0.0438675</v>
+        <v>0.0466199</v>
       </c>
       <c r="AN30">
-        <v>0.323427</v>
+        <v>0.320354</v>
       </c>
       <c r="AO30">
-        <v>874.4160000000001</v>
+        <v>874.316</v>
       </c>
       <c r="AP30">
-        <v>834.394</v>
+        <v>834.4340000000001</v>
       </c>
       <c r="AQ30">
-        <v>886.721</v>
+        <v>887.333</v>
       </c>
       <c r="AR30">
-        <v>745.49</v>
+        <v>745.457</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT30">
-        <v>729.7380000000001</v>
+        <v>729.5120000000001</v>
       </c>
       <c r="AU30">
-        <v>781.9060000000001</v>
+        <v>782.066</v>
       </c>
       <c r="AV30">
-        <v>741.1369999999999</v>
+        <v>741.848</v>
       </c>
       <c r="AW30">
-        <v>793.2760000000001</v>
+        <v>792.9110000000001</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>62</v>
@@ -5380,116 +5387,116 @@
       <c r="L31" t="s">
         <v>73</v>
       </c>
-      <c r="M31">
-        <v>47.0823</v>
+      <c r="M31" s="4">
+        <v>46.6691</v>
       </c>
       <c r="N31">
-        <v>10.6149</v>
+        <v>8.35807</v>
       </c>
       <c r="O31">
-        <v>20.0915</v>
+        <v>19.5373</v>
       </c>
       <c r="P31">
-        <v>37.6959</v>
+        <v>37.8255</v>
       </c>
       <c r="Q31">
-        <v>47.081</v>
+        <v>46.6714</v>
       </c>
       <c r="R31">
-        <v>99.99720000000001</v>
+        <v>100.005</v>
       </c>
       <c r="S31">
-        <v>37.6959</v>
+        <v>37.8255</v>
       </c>
       <c r="T31">
-        <v>34.7783</v>
+        <v>34.4977</v>
       </c>
       <c r="U31">
-        <v>15.4201</v>
+        <v>15.2688</v>
       </c>
       <c r="V31">
-        <v>9.39838</v>
+        <v>9.86204</v>
       </c>
       <c r="W31">
-        <v>8.57945</v>
+        <v>9.593450000000001</v>
       </c>
       <c r="X31">
-        <v>7.720420000000001</v>
+        <v>6.78598</v>
       </c>
       <c r="Y31">
-        <v>7.720420000000001</v>
+        <v>6.78598</v>
       </c>
       <c r="Z31">
-        <v>7.720540000000001</v>
+        <v>6.78572</v>
       </c>
       <c r="AA31">
-        <v>20.0915</v>
+        <v>19.5373</v>
       </c>
       <c r="AB31">
-        <v>10.7848</v>
+        <v>11.3344</v>
       </c>
       <c r="AC31">
-        <v>11.1374</v>
+        <v>12.5578</v>
       </c>
       <c r="AD31">
-        <v>10.6149</v>
+        <v>8.35807</v>
       </c>
       <c r="AE31">
-        <v>10.6149</v>
+        <v>8.35807</v>
       </c>
       <c r="AF31">
-        <v>10.6149</v>
+        <v>8.35807</v>
       </c>
       <c r="AG31">
-        <v>0.684346</v>
+        <v>0.684667</v>
       </c>
       <c r="AH31">
-        <v>0.275168</v>
+        <v>0.272965</v>
       </c>
       <c r="AI31">
-        <v>0.0592302</v>
+        <v>0.0592307</v>
       </c>
       <c r="AJ31">
-        <v>0.0559869</v>
+        <v>0.0546534</v>
       </c>
       <c r="AK31">
-        <v>0.0605983</v>
+        <v>0.0584146</v>
       </c>
       <c r="AL31">
-        <v>0.06592770000000001</v>
+        <v>0.06657199999999999</v>
       </c>
       <c r="AM31">
-        <v>0.0334285</v>
+        <v>0.0340982</v>
       </c>
       <c r="AN31">
-        <v>0.216065</v>
+        <v>0.213861</v>
       </c>
       <c r="AO31">
-        <v>877.229</v>
+        <v>877.1319999999999</v>
       </c>
       <c r="AP31">
-        <v>839.1750000000001</v>
+        <v>839.226</v>
       </c>
       <c r="AQ31">
-        <v>892.394</v>
+        <v>893.2140000000001</v>
       </c>
       <c r="AR31">
-        <v>753.322</v>
+        <v>753.452</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT31">
-        <v>732.579</v>
+        <v>732.359</v>
       </c>
       <c r="AU31">
-        <v>786.229</v>
+        <v>786.484</v>
       </c>
       <c r="AV31">
-        <v>747.5369999999999</v>
+        <v>748.4390000000001</v>
       </c>
       <c r="AW31">
-        <v>800.403</v>
+        <v>800.123</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>62</v>
@@ -5533,115 +5540,115 @@
         <v>75</v>
       </c>
       <c r="M32">
-        <v>47.7896</v>
+        <v>47.4973</v>
       </c>
       <c r="N32">
-        <v>8.23113</v>
+        <v>6.512460000000001</v>
       </c>
       <c r="O32">
-        <v>16.9517</v>
+        <v>16.5298</v>
       </c>
       <c r="P32">
-        <v>29.2183</v>
+        <v>29.21120000000001</v>
       </c>
       <c r="Q32">
-        <v>47.7899</v>
+        <v>47.49760000000001</v>
       </c>
       <c r="R32">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S32">
-        <v>29.2183</v>
+        <v>29.21120000000001</v>
       </c>
       <c r="T32">
-        <v>27.0085</v>
+        <v>26.7146</v>
       </c>
       <c r="U32">
-        <v>14.3904</v>
+        <v>14.236</v>
       </c>
       <c r="V32">
-        <v>7.72336</v>
+        <v>8.11697</v>
       </c>
       <c r="W32">
-        <v>7.05501</v>
+        <v>7.8967</v>
       </c>
       <c r="X32">
-        <v>6.26541</v>
+        <v>5.4476</v>
       </c>
       <c r="Y32">
-        <v>6.26541</v>
+        <v>5.4476</v>
       </c>
       <c r="Z32">
-        <v>6.26557</v>
+        <v>5.44914</v>
       </c>
       <c r="AA32">
-        <v>16.9517</v>
+        <v>16.5298</v>
       </c>
       <c r="AB32">
-        <v>8.650230000000001</v>
+        <v>9.016990000000002</v>
       </c>
       <c r="AC32">
-        <v>8.571570000000001</v>
+        <v>9.637510000000001</v>
       </c>
       <c r="AD32">
-        <v>8.23113</v>
+        <v>6.512460000000001</v>
       </c>
       <c r="AE32">
-        <v>8.23113</v>
+        <v>6.512460000000001</v>
       </c>
       <c r="AF32">
-        <v>8.23113</v>
+        <v>6.512460000000001</v>
       </c>
       <c r="AG32">
-        <v>0.835058</v>
+        <v>0.835432</v>
       </c>
       <c r="AH32">
-        <v>0.417163</v>
+        <v>0.414163</v>
       </c>
       <c r="AI32">
-        <v>0.141044</v>
+        <v>0.141045</v>
       </c>
       <c r="AJ32">
-        <v>0.07280440000000001</v>
+        <v>0.0710153</v>
       </c>
       <c r="AK32">
-        <v>0.0786205</v>
+        <v>0.0753221</v>
       </c>
       <c r="AL32">
-        <v>0.0831397</v>
+        <v>0.0839385</v>
       </c>
       <c r="AM32">
-        <v>0.0415837</v>
+        <v>0.0428722</v>
       </c>
       <c r="AN32">
-        <v>0.276307</v>
+        <v>0.273307</v>
       </c>
       <c r="AO32">
-        <v>875.034</v>
+        <v>874.937</v>
       </c>
       <c r="AP32">
-        <v>834.36</v>
+        <v>834.383</v>
       </c>
       <c r="AQ32">
-        <v>886.6880000000001</v>
+        <v>887.2660000000001</v>
       </c>
       <c r="AR32">
-        <v>744.846</v>
+        <v>744.8470000000001</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT32">
-        <v>729.518</v>
+        <v>729.316</v>
       </c>
       <c r="AU32">
-        <v>781.965</v>
+        <v>782.1179999999999</v>
       </c>
       <c r="AV32">
-        <v>740.5060000000001</v>
+        <v>741.1590000000001</v>
       </c>
       <c r="AW32">
-        <v>792.634</v>
+        <v>792.34</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>62</v>
@@ -5684,116 +5691,116 @@
       <c r="L33" t="s">
         <v>73</v>
       </c>
-      <c r="M33">
-        <v>47.3262</v>
+      <c r="M33" s="4">
+        <v>46.8932</v>
       </c>
       <c r="N33">
-        <v>11.8138</v>
+        <v>9.38977</v>
       </c>
       <c r="O33">
-        <v>22.0747</v>
+        <v>21.596</v>
       </c>
       <c r="P33">
-        <v>36.5438</v>
+        <v>36.6045</v>
       </c>
       <c r="Q33">
-        <v>47.326</v>
+        <v>46.89100000000001</v>
       </c>
       <c r="R33">
-        <v>99.9996</v>
+        <v>99.9952</v>
       </c>
       <c r="S33">
-        <v>36.5438</v>
+        <v>36.6045</v>
       </c>
       <c r="T33">
-        <v>33.8732</v>
+        <v>33.4912</v>
       </c>
       <c r="U33">
-        <v>17.4576</v>
+        <v>17.2314</v>
       </c>
       <c r="V33">
-        <v>10.7912</v>
+        <v>11.3293</v>
       </c>
       <c r="W33">
-        <v>9.788539999999999</v>
+        <v>10.9333</v>
       </c>
       <c r="X33">
-        <v>8.685040000000001</v>
+        <v>7.69469</v>
       </c>
       <c r="Y33">
-        <v>8.685040000000001</v>
+        <v>7.69469</v>
       </c>
       <c r="Z33">
-        <v>8.68521</v>
+        <v>7.69552</v>
       </c>
       <c r="AA33">
-        <v>22.0747</v>
+        <v>21.596</v>
       </c>
       <c r="AB33">
-        <v>12.4689</v>
+        <v>13.025</v>
       </c>
       <c r="AC33">
-        <v>12.4858</v>
+        <v>14.0365</v>
       </c>
       <c r="AD33">
-        <v>11.8138</v>
+        <v>9.38977</v>
       </c>
       <c r="AE33">
-        <v>11.8138</v>
+        <v>9.38977</v>
       </c>
       <c r="AF33">
-        <v>11.8138</v>
+        <v>9.38977</v>
       </c>
       <c r="AG33">
-        <v>0.680273</v>
+        <v>0.680387</v>
       </c>
       <c r="AH33">
-        <v>0.359521</v>
+        <v>0.357289</v>
       </c>
       <c r="AI33">
-        <v>0.131396</v>
+        <v>0.13149</v>
       </c>
       <c r="AJ33">
-        <v>0.0591553</v>
+        <v>0.0577822</v>
       </c>
       <c r="AK33">
-        <v>0.06697500000000001</v>
+        <v>0.06395909999999999</v>
       </c>
       <c r="AL33">
-        <v>0.0692974</v>
+        <v>0.06971289999999999</v>
       </c>
       <c r="AM33">
-        <v>0.0347948</v>
+        <v>0.03653629999999999</v>
       </c>
       <c r="AN33">
-        <v>0.252622</v>
+        <v>0.25039</v>
       </c>
       <c r="AO33">
-        <v>875.875</v>
+        <v>875.7760000000001</v>
       </c>
       <c r="AP33">
-        <v>838.0780000000001</v>
+        <v>838.145</v>
       </c>
       <c r="AQ33">
-        <v>891.126</v>
+        <v>891.9390000000001</v>
       </c>
       <c r="AR33">
-        <v>752.1659999999999</v>
+        <v>752.231</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT33">
-        <v>732.25</v>
+        <v>732.008</v>
       </c>
       <c r="AU33">
-        <v>785.24</v>
+        <v>785.496</v>
       </c>
       <c r="AV33">
-        <v>746.8149999999999</v>
+        <v>747.768</v>
       </c>
       <c r="AW33">
-        <v>799.4979999999999</v>
+        <v>799.116</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>62</v>
@@ -5837,115 +5844,115 @@
         <v>75</v>
       </c>
       <c r="M34">
-        <v>47.7785</v>
+        <v>47.4473</v>
       </c>
       <c r="N34">
-        <v>9.50761</v>
+        <v>7.59199</v>
       </c>
       <c r="O34">
-        <v>19.036</v>
+        <v>18.6436</v>
       </c>
       <c r="P34">
-        <v>29.8357</v>
+        <v>29.8024</v>
       </c>
       <c r="Q34">
-        <v>47.7758</v>
+        <v>47.4495</v>
       </c>
       <c r="R34">
-        <v>99.9944</v>
+        <v>100.005</v>
       </c>
       <c r="S34">
-        <v>29.8357</v>
+        <v>29.8024</v>
       </c>
       <c r="T34">
-        <v>27.6127</v>
+        <v>27.2552</v>
       </c>
       <c r="U34">
-        <v>16.2878</v>
+        <v>16.0576</v>
       </c>
       <c r="V34">
-        <v>9.22034</v>
+        <v>9.6578</v>
       </c>
       <c r="W34">
-        <v>8.270950000000001</v>
+        <v>9.24396</v>
       </c>
       <c r="X34">
-        <v>7.24933</v>
+        <v>6.364</v>
       </c>
       <c r="Y34">
-        <v>7.24933</v>
+        <v>6.364</v>
       </c>
       <c r="Z34">
-        <v>7.24801</v>
+        <v>6.36437</v>
       </c>
       <c r="AA34">
-        <v>19.036</v>
+        <v>18.6436</v>
       </c>
       <c r="AB34">
-        <v>10.3309</v>
+        <v>10.72</v>
       </c>
       <c r="AC34">
-        <v>9.961830000000001</v>
+        <v>11.1954</v>
       </c>
       <c r="AD34">
-        <v>9.50761</v>
+        <v>7.59199</v>
       </c>
       <c r="AE34">
-        <v>9.50761</v>
+        <v>7.59199</v>
       </c>
       <c r="AF34">
-        <v>9.50761</v>
+        <v>7.59199</v>
       </c>
       <c r="AG34">
-        <v>0.831168</v>
+        <v>0.831323</v>
       </c>
       <c r="AH34">
-        <v>0.523641</v>
+        <v>0.52052</v>
       </c>
       <c r="AI34">
-        <v>0.228469</v>
+        <v>0.228578</v>
       </c>
       <c r="AJ34">
-        <v>0.0780578</v>
+        <v>0.07628679999999999</v>
       </c>
       <c r="AK34">
-        <v>0.08803369999999999</v>
+        <v>0.0834959</v>
       </c>
       <c r="AL34">
-        <v>0.0877087</v>
+        <v>0.08814910000000001</v>
       </c>
       <c r="AM34">
-        <v>0.0436178</v>
+        <v>0.0463648</v>
       </c>
       <c r="AN34">
-        <v>0.323197</v>
+        <v>0.320075</v>
       </c>
       <c r="AO34">
-        <v>874.4160000000001</v>
+        <v>874.3150000000001</v>
       </c>
       <c r="AP34">
-        <v>834.402</v>
+        <v>834.426</v>
       </c>
       <c r="AQ34">
-        <v>886.721</v>
+        <v>887.331</v>
       </c>
       <c r="AR34">
-        <v>745.455</v>
+        <v>745.4250000000001</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT34">
-        <v>729.7380000000001</v>
+        <v>729.511</v>
       </c>
       <c r="AU34">
-        <v>781.907</v>
+        <v>782.0650000000001</v>
       </c>
       <c r="AV34">
-        <v>741.1369999999999</v>
+        <v>741.8460000000001</v>
       </c>
       <c r="AW34">
-        <v>793.2380000000001</v>
+        <v>792.88</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>62</v>
@@ -6107,116 +6114,116 @@
       <c r="L36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M36" s="1">
-        <v>47.0823</v>
+      <c r="M36" s="4">
+        <v>46.6691</v>
       </c>
       <c r="N36" s="1">
-        <v>6.21023</v>
+        <v>5.082120000000001</v>
       </c>
       <c r="O36" s="1">
-        <v>14.6895</v>
+        <v>14.2971</v>
       </c>
       <c r="P36" s="1">
-        <v>23.0968</v>
+        <v>22.8258</v>
       </c>
       <c r="Q36" s="1">
-        <v>47.081</v>
+        <v>46.6687</v>
       </c>
       <c r="R36" s="1">
-        <v>99.994</v>
+        <v>99.9952</v>
       </c>
       <c r="S36" s="1">
-        <v>22.1649</v>
+        <v>21.9963</v>
       </c>
       <c r="T36" s="1">
-        <v>23.0968</v>
+        <v>22.8258</v>
       </c>
       <c r="U36" s="1">
-        <v>14.3904</v>
+        <v>14.2342</v>
       </c>
       <c r="V36" s="1">
-        <v>7.21039</v>
+        <v>7.559840000000001</v>
       </c>
       <c r="W36" s="1">
-        <v>6.534960000000001</v>
+        <v>7.343719999999999</v>
       </c>
       <c r="X36" s="1">
-        <v>5.53439</v>
+        <v>4.69289</v>
       </c>
       <c r="Y36" s="1">
-        <v>5.53439</v>
+        <v>4.69289</v>
       </c>
       <c r="Z36" s="1">
-        <v>5.534730000000001</v>
+        <v>4.69153</v>
       </c>
       <c r="AA36" s="1">
-        <v>14.1929</v>
+        <v>13.9642</v>
       </c>
       <c r="AB36" s="1">
-        <v>7.01004</v>
+        <v>7.17556</v>
       </c>
       <c r="AC36" s="1">
-        <v>6.26639</v>
+        <v>6.941190000000001</v>
       </c>
       <c r="AD36" s="1">
-        <v>6.21023</v>
+        <v>5.082120000000001</v>
       </c>
       <c r="AE36" s="1">
-        <v>6.21023</v>
+        <v>5.082120000000001</v>
       </c>
       <c r="AF36" s="1">
-        <v>6.21023</v>
+        <v>5.082120000000001</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.678118</v>
+        <v>0.678173</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.227277</v>
+        <v>0.225159</v>
       </c>
       <c r="AI36" s="1">
         <v>0.0204357</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.0527802</v>
+        <v>0.051601</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.0578032</v>
+        <v>0.0558823</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.0635971</v>
+        <v>0.06411170000000001</v>
       </c>
       <c r="AM36" s="1">
-        <v>0.0328601</v>
+        <v>0.033335</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.207058</v>
+        <v>0.204939</v>
       </c>
       <c r="AO36" s="1">
-        <v>874.4160000000001</v>
+        <v>874.3150000000001</v>
       </c>
       <c r="AP36" s="1">
-        <v>829.775</v>
+        <v>829.751</v>
       </c>
       <c r="AQ36" s="1">
-        <v>884.559</v>
+        <v>884.991</v>
       </c>
       <c r="AR36" s="1">
-        <v>737.787</v>
+        <v>737.621</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT36" s="1">
-        <v>724.393</v>
+        <v>724.196</v>
       </c>
       <c r="AU36" s="1">
-        <v>780.131</v>
+        <v>780.1850000000001</v>
       </c>
       <c r="AV36" s="1">
-        <v>733.889</v>
+        <v>734.2650000000001</v>
       </c>
       <c r="AW36" s="1">
-        <v>788.722</v>
+        <v>788.451</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>124</v>
@@ -6227,115 +6234,115 @@
         <v>125</v>
       </c>
       <c r="M37" s="3">
-        <v>54.3749</v>
+        <v>54.3928</v>
       </c>
       <c r="N37" s="1">
-        <v>13.3466</v>
+        <v>10.9542</v>
       </c>
       <c r="O37" s="1">
-        <v>22.0832</v>
+        <v>21.596</v>
       </c>
       <c r="P37" s="1">
-        <v>49.1204</v>
+        <v>49.2209</v>
       </c>
       <c r="Q37" s="1">
-        <v>54.3749</v>
+        <v>54.3937</v>
       </c>
       <c r="R37" s="1">
-        <v>100.005</v>
+        <v>100.012</v>
       </c>
       <c r="S37" s="1">
-        <v>48.8521</v>
+        <v>49.216</v>
       </c>
       <c r="T37" s="1">
-        <v>49.1204</v>
+        <v>49.2209</v>
       </c>
       <c r="U37" s="1">
-        <v>21.5815</v>
+        <v>20.9085</v>
       </c>
       <c r="V37" s="1">
-        <v>14.1208</v>
+        <v>15.0265</v>
       </c>
       <c r="W37" s="1">
-        <v>13.7094</v>
+        <v>15.4719</v>
       </c>
       <c r="X37" s="1">
-        <v>11.5776</v>
+        <v>9.9299</v>
       </c>
       <c r="Y37" s="1">
-        <v>11.5776</v>
+        <v>9.9299</v>
       </c>
       <c r="Z37" s="1">
-        <v>11.5748</v>
+        <v>9.92797</v>
       </c>
       <c r="AA37" s="1">
-        <v>22.0832</v>
+        <v>21.596</v>
       </c>
       <c r="AB37" s="1">
-        <v>13.6425</v>
+        <v>14.2577</v>
       </c>
       <c r="AC37" s="1">
-        <v>13.5834</v>
+        <v>15.176</v>
       </c>
       <c r="AD37" s="1">
-        <v>13.3466</v>
+        <v>10.9542</v>
       </c>
       <c r="AE37" s="1">
-        <v>13.3466</v>
+        <v>10.9542</v>
       </c>
       <c r="AF37" s="1">
-        <v>13.3466</v>
+        <v>10.9542</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.837105</v>
+        <v>0.837614</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.7166089999999999</v>
+        <v>0.7121989999999999</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.377166</v>
+        <v>0.377151</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.0936574</v>
+        <v>0.09165710000000001</v>
       </c>
       <c r="AK37" s="1">
-        <v>0.10744</v>
+        <v>0.100467</v>
       </c>
       <c r="AL37" s="1">
-        <v>0.0971089</v>
+        <v>0.0969469</v>
       </c>
       <c r="AM37" s="1">
-        <v>0.0467132</v>
+        <v>0.051465</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.403659</v>
+        <v>0.399249</v>
       </c>
       <c r="AO37" s="1">
-        <v>883.211</v>
+        <v>883.106</v>
       </c>
       <c r="AP37" s="1">
-        <v>844.847</v>
+        <v>845.1020000000001</v>
       </c>
       <c r="AQ37" s="1">
-        <v>904.758</v>
+        <v>906.0210000000001</v>
       </c>
       <c r="AR37" s="1">
-        <v>764.477</v>
+        <v>764.8390000000001</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT37" s="1">
-        <v>733.086</v>
+        <v>732.903</v>
       </c>
       <c r="AU37" s="1">
-        <v>794.218</v>
+        <v>794.51</v>
       </c>
       <c r="AV37" s="1">
-        <v>754.853</v>
+        <v>756.148</v>
       </c>
       <c r="AW37" s="1">
-        <v>814.745</v>
+        <v>814.846</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>124</v>
@@ -6381,115 +6388,115 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>50.53031212121213</v>
+        <v>50.32617575757575</v>
       </c>
       <c r="N42" s="1">
-        <v>9.331978181818183</v>
+        <v>7.607602121212122</v>
       </c>
       <c r="O42" s="1">
-        <v>18.53100606060606</v>
+        <v>18.04363636363637</v>
       </c>
       <c r="P42" s="1">
-        <v>33.47938787878788</v>
+        <v>33.37264545454546</v>
       </c>
       <c r="Q42" s="1">
-        <v>50.53030000000001</v>
+        <v>50.32634848484848</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99996969696969</v>
+        <v>100.000403030303</v>
       </c>
       <c r="S42" s="1">
-        <v>32.33872727272728</v>
+        <v>32.31624545454546</v>
       </c>
       <c r="T42" s="1">
-        <v>32.86936363636364</v>
+        <v>32.64270606060606</v>
       </c>
       <c r="U42" s="1">
-        <v>17.56986363636364</v>
+        <v>17.16910606060606</v>
       </c>
       <c r="V42" s="1">
-        <v>10.17317333333333</v>
+        <v>10.74039121212121</v>
       </c>
       <c r="W42" s="1">
-        <v>9.66587393939394</v>
+        <v>10.9006696969697</v>
       </c>
       <c r="X42" s="1">
-        <v>8.13718303030303</v>
+        <v>6.934166363636364</v>
       </c>
       <c r="Y42" s="1">
-        <v>8.13718303030303</v>
+        <v>6.934166363636364</v>
       </c>
       <c r="Z42" s="1">
-        <v>8.137642121212121</v>
+        <v>6.933962727272726</v>
       </c>
       <c r="AA42" s="1">
-        <v>17.52717878787878</v>
+        <v>17.14319696969697</v>
       </c>
       <c r="AB42" s="1">
-        <v>9.818558787878791</v>
+        <v>10.16664393939394</v>
       </c>
       <c r="AC42" s="1">
-        <v>9.390108484848485</v>
+        <v>10.46872727272727</v>
       </c>
       <c r="AD42" s="1">
-        <v>9.241307272727271</v>
+        <v>7.572706666666666</v>
       </c>
       <c r="AE42" s="1">
-        <v>9.241307272727271</v>
+        <v>7.572706666666666</v>
       </c>
       <c r="AF42" s="1">
-        <v>9.241307272727271</v>
+        <v>7.572706666666666</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7577667272727272</v>
+        <v>0.7580484242424242</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3993696363636364</v>
+        <v>0.3964469696969697</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1419552909090909</v>
+        <v>0.1419508545454546</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.06793083030303028</v>
+        <v>0.06628808181818183</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.07504972727272728</v>
+        <v>0.0715401090909091</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.07708086666666668</v>
+        <v>0.07756274242424241</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.0385099696969697</v>
+        <v>0.04025796969696971</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2707765151515151</v>
+        <v>0.2678537575757576</v>
       </c>
       <c r="AO42" s="1">
-        <v>878.4015151515151</v>
+        <v>878.2948181818184</v>
       </c>
       <c r="AP42" s="1">
-        <v>835.512696969697</v>
+        <v>835.6048181818182</v>
       </c>
       <c r="AQ42" s="1">
-        <v>892.0202424242426</v>
+        <v>892.7813636363637</v>
       </c>
       <c r="AR42" s="1">
-        <v>747.963666666667</v>
+        <v>747.9413939393939</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT42" s="1">
-        <v>728.3182121212124</v>
+        <v>728.1116666666666</v>
       </c>
       <c r="AU42" s="1">
-        <v>785.303393939394</v>
+        <v>785.4609393939392</v>
       </c>
       <c r="AV42" s="1">
-        <v>741.990303030303</v>
+        <v>742.7361818181819</v>
       </c>
       <c r="AW42" s="1">
-        <v>798.4944242424243</v>
+        <v>798.2676969696969</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>124</v>
@@ -6500,115 +6507,115 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>2.168236030811134</v>
+        <v>2.291751525220764</v>
       </c>
       <c r="N43" s="1">
-        <v>1.894738991034969</v>
+        <v>1.516203926255459</v>
       </c>
       <c r="O43" s="1">
-        <v>2.168251912421812</v>
+        <v>2.10753601037831</v>
       </c>
       <c r="P43" s="1">
-        <v>6.935012497760586</v>
+        <v>7.067045278169048</v>
       </c>
       <c r="Q43" s="1">
-        <v>2.168514060294969</v>
+        <v>2.291546825091866</v>
       </c>
       <c r="R43" s="1">
-        <v>0.002628916685342929</v>
+        <v>0.003789257930749175</v>
       </c>
       <c r="S43" s="1">
-        <v>7.212247753365303</v>
+        <v>7.355554754518639</v>
       </c>
       <c r="T43" s="1">
-        <v>6.985961116706293</v>
+        <v>7.079792013891599</v>
       </c>
       <c r="U43" s="1">
-        <v>2.116277342169669</v>
+        <v>2.01978293732338</v>
       </c>
       <c r="V43" s="1">
-        <v>1.876673390071922</v>
+        <v>2.034661678678639</v>
       </c>
       <c r="W43" s="1">
-        <v>2.063342731685561</v>
+        <v>2.366982436016161</v>
       </c>
       <c r="X43" s="1">
-        <v>1.629165260650996</v>
+        <v>1.365973246838197</v>
       </c>
       <c r="Y43" s="1">
-        <v>1.629165260650996</v>
+        <v>1.365973246838197</v>
       </c>
       <c r="Z43" s="1">
-        <v>1.628714757398676</v>
+        <v>1.365190020323007</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.371633169646653</v>
+        <v>2.28467777284859</v>
       </c>
       <c r="AB43" s="1">
-        <v>1.785675282630784</v>
+        <v>1.921581531540415</v>
       </c>
       <c r="AC43" s="1">
-        <v>2.044876898562224</v>
+        <v>2.327344959875136</v>
       </c>
       <c r="AD43" s="1">
-        <v>1.913505757364822</v>
+        <v>1.519902544879544</v>
       </c>
       <c r="AE43" s="1">
-        <v>1.913505757364822</v>
+        <v>1.519902544879544</v>
       </c>
       <c r="AF43" s="1">
-        <v>1.913505757364822</v>
+        <v>1.519902544879544</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07429042143456732</v>
+        <v>0.07429955226670036</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1228710172287894</v>
+        <v>0.1223105237070136</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.08940449506746685</v>
+        <v>0.08940476779240238</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.01128748716885031</v>
+        <v>0.01104827546969277</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.01309371310906839</v>
+        <v>0.0118848248405487</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.009895496788688755</v>
+        <v>0.009837839829840395</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.004434800911624825</v>
+        <v>0.005240017249074365</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.05018194023213821</v>
+        <v>0.0496367086826909</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.748432546360127</v>
+        <v>2.743454374750207</v>
       </c>
       <c r="AP43" s="1">
-        <v>4.105318999784411</v>
+        <v>4.172433447765603</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.590459194184009</v>
+        <v>5.818656862709</v>
       </c>
       <c r="AR43" s="1">
-        <v>7.212428795580103</v>
+        <v>7.355493040926284</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.974910406163771</v>
+        <v>2.97191926219576</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.807800740739381</v>
+        <v>3.869811865596918</v>
       </c>
       <c r="AV43" s="1">
-        <v>5.875643410208804</v>
+        <v>6.131395587117997</v>
       </c>
       <c r="AW43" s="1">
-        <v>6.985902822417498</v>
+        <v>7.079707143767029</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>124</v>
@@ -6619,115 +6626,115 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>4.290961088089006</v>
+        <v>4.553796291338071</v>
       </c>
       <c r="N44" s="1">
-        <v>20.30372289903714</v>
+        <v>19.93011598264135</v>
       </c>
       <c r="O44" s="1">
-        <v>11.70067024602171</v>
+        <v>11.68021771168954</v>
       </c>
       <c r="P44" s="1">
-        <v>20.71427507237826</v>
+        <v>21.17616143974734</v>
       </c>
       <c r="Q44" s="1">
-        <v>4.291512340704426</v>
+        <v>4.55337391661104</v>
       </c>
       <c r="R44" s="1">
-        <v>0.00262891748198459</v>
+        <v>0.003789242658953004</v>
       </c>
       <c r="S44" s="1">
-        <v>22.3022003696717</v>
+        <v>22.76116749040238</v>
       </c>
       <c r="T44" s="1">
-        <v>21.2537157518245</v>
+        <v>21.68874112564966</v>
       </c>
       <c r="U44" s="1">
-        <v>12.0449275302837</v>
+        <v>11.76405416912011</v>
       </c>
       <c r="V44" s="1">
-        <v>18.44727626848576</v>
+        <v>18.94401831827498</v>
       </c>
       <c r="W44" s="1">
-        <v>21.34667537175573</v>
+        <v>21.71410107650693</v>
       </c>
       <c r="X44" s="1">
-        <v>20.02124389464945</v>
+        <v>19.69917038624184</v>
       </c>
       <c r="Y44" s="1">
-        <v>20.02124389464945</v>
+        <v>19.69917038624184</v>
       </c>
       <c r="Z44" s="1">
-        <v>20.01457834024378</v>
+        <v>19.68845339986368</v>
       </c>
       <c r="AA44" s="1">
-        <v>13.53117463083561</v>
+        <v>13.32702282361383</v>
       </c>
       <c r="AB44" s="1">
-        <v>18.18673515338357</v>
+        <v>18.90084420183762</v>
       </c>
       <c r="AC44" s="1">
-        <v>21.77692517463199</v>
+        <v>22.23140310416</v>
       </c>
       <c r="AD44" s="1">
-        <v>20.70600728764766</v>
+        <v>20.0707965035779</v>
       </c>
       <c r="AE44" s="1">
-        <v>20.70600728764766</v>
+        <v>20.0707965035779</v>
       </c>
       <c r="AF44" s="1">
-        <v>20.70600728764766</v>
+        <v>20.0707965035779</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.803864271257389</v>
+        <v>9.801425593747997</v>
       </c>
       <c r="AH44" s="1">
-        <v>30.766239103093</v>
+        <v>30.85167325165923</v>
       </c>
       <c r="AI44" s="1">
-        <v>62.98074167923903</v>
+        <v>62.98290213094404</v>
       </c>
       <c r="AJ44" s="1">
-        <v>16.61614780578767</v>
+        <v>16.66706165973623</v>
       </c>
       <c r="AK44" s="1">
-        <v>17.44671644373395</v>
+        <v>16.61281341554307</v>
       </c>
       <c r="AL44" s="1">
-        <v>12.83781204936558</v>
+        <v>12.68371839668933</v>
       </c>
       <c r="AM44" s="1">
-        <v>11.51598130697515</v>
+        <v>13.01609914388899</v>
       </c>
       <c r="AN44" s="1">
-        <v>18.53260435235992</v>
+        <v>18.53127211353459</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.3128902328778487</v>
+        <v>0.3123614437837064</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.4913532750219002</v>
+        <v>0.4993309465166019</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.6267188711985754</v>
+        <v>0.6517448839891982</v>
       </c>
       <c r="AR44" s="1">
-        <v>0.9642752872907062</v>
+        <v>0.9834317368350257</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.4084629982682162</v>
+        <v>0.4081680596880644</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.484882756158475</v>
+        <v>0.4926803704055431</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.7918760374916708</v>
+        <v>0.8255145955201267</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.8748843586535259</v>
+        <v>0.8868838324088897</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>124</v>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -980,115 +980,115 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>50.4494</v>
+        <v>49.877</v>
       </c>
       <c r="N2">
-        <v>6.98421</v>
+        <v>8.821420000000002</v>
       </c>
       <c r="O2">
-        <v>16.1631</v>
+        <v>16.3025</v>
       </c>
       <c r="P2">
-        <v>31.0044</v>
+        <v>32.4035</v>
       </c>
       <c r="Q2">
-        <v>50.4508</v>
+        <v>49.8783</v>
       </c>
       <c r="R2">
         <v>100.003</v>
       </c>
       <c r="S2">
-        <v>30.5517</v>
+        <v>32.4035</v>
       </c>
       <c r="T2">
-        <v>31.0044</v>
+        <v>32.2799</v>
       </c>
       <c r="U2">
-        <v>16.1631</v>
+        <v>16.3025</v>
       </c>
       <c r="V2">
-        <v>9.76017</v>
+        <v>9.80823</v>
       </c>
       <c r="W2">
-        <v>10.0287</v>
+        <v>9.855420000000001</v>
       </c>
       <c r="X2">
-        <v>6.397559999999999</v>
+        <v>8.822139999999999</v>
       </c>
       <c r="Y2">
-        <v>6.397559999999999</v>
+        <v>8.822139999999999</v>
       </c>
       <c r="Z2">
-        <v>6.39892</v>
+        <v>8.821420000000002</v>
       </c>
       <c r="AA2">
-        <v>15.9216</v>
+        <v>16.0483</v>
       </c>
       <c r="AB2">
-        <v>9.216380000000001</v>
+        <v>9.418520000000001</v>
       </c>
       <c r="AC2">
-        <v>9.544459999999999</v>
+        <v>9.45224</v>
       </c>
       <c r="AD2">
-        <v>6.98421</v>
+        <v>8.75207</v>
       </c>
       <c r="AE2">
-        <v>6.98421</v>
+        <v>8.75207</v>
       </c>
       <c r="AF2">
-        <v>6.98421</v>
+        <v>8.75207</v>
       </c>
       <c r="AG2">
-        <v>0.7589669999999999</v>
+        <v>0.757753</v>
       </c>
       <c r="AH2">
-        <v>0.354707</v>
+        <v>0.354485</v>
       </c>
       <c r="AI2">
-        <v>0.107532</v>
+        <v>0.107527</v>
       </c>
       <c r="AJ2">
-        <v>0.06388930000000001</v>
+        <v>0.06476539999999999</v>
       </c>
       <c r="AK2">
-        <v>0.06817659999999999</v>
+        <v>0.06962800000000001</v>
       </c>
       <c r="AL2">
-        <v>0.0759465</v>
+        <v>0.0749219</v>
       </c>
       <c r="AM2">
-        <v>0.0391359</v>
+        <v>0.0376111</v>
       </c>
       <c r="AN2">
-        <v>0.247754</v>
+        <v>0.247532</v>
       </c>
       <c r="AO2">
-        <v>878.096</v>
+        <v>878.1189999999999</v>
       </c>
       <c r="AP2">
-        <v>834.7130000000001</v>
+        <v>834.934</v>
       </c>
       <c r="AQ2">
-        <v>891.539</v>
+        <v>891.721</v>
       </c>
       <c r="AR2">
-        <v>746.182</v>
+        <v>748.0309999999999</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT2">
-        <v>727.7099999999999</v>
+        <v>727.8380000000001</v>
       </c>
       <c r="AU2">
-        <v>784.711</v>
+        <v>784.85</v>
       </c>
       <c r="AV2">
-        <v>741.283</v>
+        <v>741.487</v>
       </c>
       <c r="AW2">
-        <v>796.629</v>
+        <v>797.9050000000001</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>62</v>
@@ -1132,115 +1132,115 @@
         <v>73</v>
       </c>
       <c r="M3">
-        <v>50.9142</v>
+        <v>50.3847</v>
       </c>
       <c r="N3">
-        <v>6.00695</v>
+        <v>7.659940000000001</v>
       </c>
       <c r="O3">
-        <v>15.1505</v>
+        <v>15.3098</v>
       </c>
       <c r="P3">
-        <v>27.4145</v>
+        <v>28.5201</v>
       </c>
       <c r="Q3">
-        <v>50.9126</v>
+        <v>50.3847</v>
       </c>
       <c r="R3">
-        <v>99.9969</v>
+        <v>100</v>
       </c>
       <c r="S3">
-        <v>26.5022</v>
+        <v>28.1353</v>
       </c>
       <c r="T3">
-        <v>27.4145</v>
+        <v>28.5201</v>
       </c>
       <c r="U3">
-        <v>15.1505</v>
+        <v>15.3098</v>
       </c>
       <c r="V3">
-        <v>8.59333</v>
+        <v>8.634970000000001</v>
       </c>
       <c r="W3">
-        <v>8.654439999999999</v>
+        <v>8.496260000000001</v>
       </c>
       <c r="X3">
-        <v>5.542800000000001</v>
+        <v>7.659940000000001</v>
       </c>
       <c r="Y3">
-        <v>5.542800000000001</v>
+        <v>7.659940000000001</v>
       </c>
       <c r="Z3">
-        <v>5.54164</v>
+        <v>7.659940000000001</v>
       </c>
       <c r="AA3">
-        <v>14.735</v>
+        <v>14.8653</v>
       </c>
       <c r="AB3">
-        <v>8.095330000000001</v>
+        <v>8.273529999999999</v>
       </c>
       <c r="AC3">
-        <v>8.120090000000001</v>
+        <v>8.043000000000001</v>
       </c>
       <c r="AD3">
-        <v>6.00695</v>
+        <v>7.52202</v>
       </c>
       <c r="AE3">
-        <v>6.00695</v>
+        <v>7.52202</v>
       </c>
       <c r="AF3">
-        <v>6.00695</v>
+        <v>7.52202</v>
       </c>
       <c r="AG3">
-        <v>0.683046</v>
+        <v>0.681972</v>
       </c>
       <c r="AH3">
-        <v>0.360192</v>
+        <v>0.359955</v>
       </c>
       <c r="AI3">
-        <v>0.129437</v>
+        <v>0.129434</v>
       </c>
       <c r="AJ3">
-        <v>0.060516</v>
+        <v>0.061372</v>
       </c>
       <c r="AK3">
-        <v>0.0642827</v>
+        <v>0.0656582</v>
       </c>
       <c r="AL3">
-        <v>0.07012320000000001</v>
+        <v>0.0691113</v>
       </c>
       <c r="AM3">
-        <v>0.0358473</v>
+        <v>0.0343908</v>
       </c>
       <c r="AN3">
-        <v>0.231211</v>
+        <v>0.230974</v>
       </c>
       <c r="AO3">
-        <v>877.206</v>
+        <v>877.227</v>
       </c>
       <c r="AP3">
-        <v>832.3779999999999</v>
+        <v>832.581</v>
       </c>
       <c r="AQ3">
-        <v>888.7430000000001</v>
+        <v>888.9040000000001</v>
       </c>
       <c r="AR3">
-        <v>742.1239999999999</v>
+        <v>743.76</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT3">
-        <v>726.182</v>
+        <v>726.308</v>
       </c>
       <c r="AU3">
-        <v>782.8390000000001</v>
+        <v>782.966</v>
       </c>
       <c r="AV3">
-        <v>737.8800000000001</v>
+        <v>738.0730000000001</v>
       </c>
       <c r="AW3">
-        <v>793.039</v>
+        <v>794.145</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>62</v>
@@ -1284,115 +1284,115 @@
         <v>75</v>
       </c>
       <c r="M4">
-        <v>50.8248</v>
+        <v>50.3658</v>
       </c>
       <c r="N4">
-        <v>5.10778</v>
+        <v>6.47954</v>
       </c>
       <c r="O4">
-        <v>14.3031</v>
+        <v>14.469</v>
       </c>
       <c r="P4">
-        <v>22.8498</v>
+        <v>23.777</v>
       </c>
       <c r="Q4">
-        <v>50.8273</v>
+        <v>50.3656</v>
       </c>
       <c r="R4">
-        <v>100.005</v>
+        <v>99.9996</v>
       </c>
       <c r="S4">
-        <v>22.0226</v>
+        <v>23.4124</v>
       </c>
       <c r="T4">
-        <v>22.8498</v>
+        <v>23.777</v>
       </c>
       <c r="U4">
-        <v>14.3031</v>
+        <v>14.469</v>
       </c>
       <c r="V4">
-        <v>7.56225</v>
+        <v>7.602679999999999</v>
       </c>
       <c r="W4">
-        <v>7.343719999999999</v>
+        <v>7.20424</v>
       </c>
       <c r="X4">
-        <v>4.69927</v>
+        <v>6.47778</v>
       </c>
       <c r="Y4">
-        <v>4.69927</v>
+        <v>6.47778</v>
       </c>
       <c r="Z4">
-        <v>4.702739999999999</v>
+        <v>6.47954</v>
       </c>
       <c r="AA4">
-        <v>13.9921</v>
+        <v>14.0981</v>
       </c>
       <c r="AB4">
-        <v>7.17734</v>
+        <v>7.345390000000001</v>
       </c>
       <c r="AC4">
-        <v>6.941190000000001</v>
+        <v>6.87548</v>
       </c>
       <c r="AD4">
-        <v>5.10778</v>
+        <v>6.40686</v>
       </c>
       <c r="AE4">
-        <v>5.10778</v>
+        <v>6.40686</v>
       </c>
       <c r="AF4">
-        <v>5.10778</v>
+        <v>6.40686</v>
       </c>
       <c r="AG4">
-        <v>0.833718</v>
+        <v>0.832585</v>
       </c>
       <c r="AH4">
-        <v>0.543719</v>
+        <v>0.542706</v>
       </c>
       <c r="AI4">
-        <v>0.240595</v>
+        <v>0.240591</v>
       </c>
       <c r="AJ4">
-        <v>0.08249669999999999</v>
+        <v>0.0836623</v>
       </c>
       <c r="AK4">
-        <v>0.08588900000000001</v>
+        <v>0.0876324</v>
       </c>
       <c r="AL4">
-        <v>0.0891168</v>
+        <v>0.08782599999999999</v>
       </c>
       <c r="AM4">
-        <v>0.0457497</v>
+        <v>0.0431185</v>
       </c>
       <c r="AN4">
-        <v>0.303809</v>
+        <v>0.302796</v>
       </c>
       <c r="AO4">
-        <v>875.52</v>
+        <v>875.546</v>
       </c>
       <c r="AP4">
-        <v>829.751</v>
+        <v>829.946</v>
       </c>
       <c r="AQ4">
-        <v>884.991</v>
+        <v>885.134</v>
       </c>
       <c r="AR4">
-        <v>737.648</v>
+        <v>739.046</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT4">
-        <v>724.65</v>
+        <v>724.784</v>
       </c>
       <c r="AU4">
-        <v>780.186</v>
+        <v>780.302</v>
       </c>
       <c r="AV4">
-        <v>734.2650000000001</v>
+        <v>734.455</v>
       </c>
       <c r="AW4">
-        <v>788.475</v>
+        <v>789.402</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>62</v>
@@ -1436,115 +1436,115 @@
         <v>73</v>
       </c>
       <c r="M5">
-        <v>50.5377</v>
+        <v>49.9697</v>
       </c>
       <c r="N5">
-        <v>7.09712</v>
+        <v>8.816970000000001</v>
       </c>
       <c r="O5">
-        <v>17.3379</v>
+        <v>17.5433</v>
       </c>
       <c r="P5">
-        <v>27.4458</v>
+        <v>28.6522</v>
       </c>
       <c r="Q5">
-        <v>50.5369</v>
+        <v>49.9706</v>
       </c>
       <c r="R5">
-        <v>99.9983</v>
+        <v>100.002</v>
       </c>
       <c r="S5">
-        <v>26.9058</v>
+        <v>28.6522</v>
       </c>
       <c r="T5">
-        <v>27.4458</v>
+        <v>28.6234</v>
       </c>
       <c r="U5">
-        <v>17.3379</v>
+        <v>17.5433</v>
       </c>
       <c r="V5">
-        <v>10.3017</v>
+        <v>10.3907</v>
       </c>
       <c r="W5">
-        <v>10.0089</v>
+        <v>9.835330000000001</v>
       </c>
       <c r="X5">
-        <v>6.47032</v>
+        <v>8.73461</v>
       </c>
       <c r="Y5">
-        <v>6.47032</v>
+        <v>8.73461</v>
       </c>
       <c r="Z5">
-        <v>6.46901</v>
+        <v>8.735900000000001</v>
       </c>
       <c r="AA5">
-        <v>17.0479</v>
+        <v>17.2079</v>
       </c>
       <c r="AB5">
-        <v>9.857100000000001</v>
+        <v>10.0927</v>
       </c>
       <c r="AC5">
-        <v>9.680380000000001</v>
+        <v>9.57414</v>
       </c>
       <c r="AD5">
-        <v>7.09712</v>
+        <v>8.816970000000001</v>
       </c>
       <c r="AE5">
-        <v>7.09712</v>
+        <v>8.816970000000001</v>
       </c>
       <c r="AF5">
-        <v>7.09712</v>
+        <v>8.816970000000001</v>
       </c>
       <c r="AG5">
-        <v>0.678173</v>
+        <v>0.677682</v>
       </c>
       <c r="AH5">
-        <v>0.503826</v>
+        <v>0.501883</v>
       </c>
       <c r="AI5">
-        <v>0.248599</v>
+        <v>0.248148</v>
       </c>
       <c r="AJ5">
-        <v>0.0677436</v>
+        <v>0.068594</v>
       </c>
       <c r="AK5">
-        <v>0.075642</v>
+        <v>0.0771054</v>
       </c>
       <c r="AL5">
-        <v>0.07641529999999999</v>
+        <v>0.0755156</v>
       </c>
       <c r="AM5">
-        <v>0.040434</v>
+        <v>0.0370759</v>
       </c>
       <c r="AN5">
-        <v>0.311985</v>
+        <v>0.310042</v>
       </c>
       <c r="AO5">
-        <v>876.455</v>
+        <v>876.476</v>
       </c>
       <c r="AP5">
-        <v>832.3960000000001</v>
+        <v>832.615</v>
       </c>
       <c r="AQ5">
-        <v>888.461</v>
+        <v>888.645</v>
       </c>
       <c r="AR5">
-        <v>742.529</v>
+        <v>744.278</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT5">
-        <v>726.3100000000001</v>
+        <v>726.444</v>
       </c>
       <c r="AU5">
-        <v>782.441</v>
+        <v>782.59</v>
       </c>
       <c r="AV5">
-        <v>738.357</v>
+        <v>738.567</v>
       </c>
       <c r="AW5">
-        <v>793.071</v>
+        <v>794.248</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>62</v>
@@ -1588,115 +1588,115 @@
         <v>75</v>
       </c>
       <c r="M6">
-        <v>50.4894</v>
+        <v>49.9699</v>
       </c>
       <c r="N6">
-        <v>6.16743</v>
+        <v>7.65456</v>
       </c>
       <c r="O6">
-        <v>16.405</v>
+        <v>16.6391</v>
       </c>
       <c r="P6">
-        <v>23.8465</v>
+        <v>24.8763</v>
       </c>
       <c r="Q6">
-        <v>50.4894</v>
+        <v>49.9703</v>
       </c>
       <c r="R6">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S6">
-        <v>23.3572</v>
+        <v>24.8763</v>
       </c>
       <c r="T6">
-        <v>23.8465</v>
+        <v>24.8468</v>
       </c>
       <c r="U6">
-        <v>16.405</v>
+        <v>16.6391</v>
       </c>
       <c r="V6">
-        <v>9.2552</v>
+        <v>9.34474</v>
       </c>
       <c r="W6">
-        <v>8.70684</v>
+        <v>8.552709999999999</v>
       </c>
       <c r="X6">
-        <v>5.617970000000001</v>
+        <v>7.571410000000001</v>
       </c>
       <c r="Y6">
-        <v>5.617970000000001</v>
+        <v>7.571410000000001</v>
       </c>
       <c r="Z6">
-        <v>5.617850000000001</v>
+        <v>7.57363</v>
       </c>
       <c r="AA6">
-        <v>16.1972</v>
+        <v>16.3192</v>
       </c>
       <c r="AB6">
-        <v>8.8756</v>
+        <v>9.08061</v>
       </c>
       <c r="AC6">
-        <v>8.42797</v>
+        <v>8.325340000000001</v>
       </c>
       <c r="AD6">
-        <v>6.16743</v>
+        <v>7.65456</v>
       </c>
       <c r="AE6">
-        <v>6.16743</v>
+        <v>7.65456</v>
       </c>
       <c r="AF6">
-        <v>6.16743</v>
+        <v>7.65456</v>
       </c>
       <c r="AG6">
-        <v>0.828514</v>
+        <v>0.827998</v>
       </c>
       <c r="AH6">
-        <v>0.7121989999999999</v>
+        <v>0.7090589999999999</v>
       </c>
       <c r="AI6">
-        <v>0.377151</v>
+        <v>0.376629</v>
       </c>
       <c r="AJ6">
-        <v>0.0916526</v>
+        <v>0.09275850000000001</v>
       </c>
       <c r="AK6">
-        <v>0.100461</v>
+        <v>0.102347</v>
       </c>
       <c r="AL6">
-        <v>0.0969332</v>
+        <v>0.0958049</v>
       </c>
       <c r="AM6">
-        <v>0.051465</v>
+        <v>0.0464599</v>
       </c>
       <c r="AN6">
-        <v>0.399249</v>
+        <v>0.396109</v>
       </c>
       <c r="AO6">
-        <v>875.3090000000001</v>
+        <v>875.3220000000001</v>
       </c>
       <c r="AP6">
-        <v>830.417</v>
+        <v>830.6260000000001</v>
       </c>
       <c r="AQ6">
-        <v>885.568</v>
+        <v>885.72</v>
       </c>
       <c r="AR6">
-        <v>738.982</v>
+        <v>740.5060000000001</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT6">
-        <v>725.167</v>
+        <v>725.301</v>
       </c>
       <c r="AU6">
-        <v>780.451</v>
+        <v>780.581</v>
       </c>
       <c r="AV6">
-        <v>735.4810000000001</v>
+        <v>735.681</v>
       </c>
       <c r="AW6">
-        <v>789.472</v>
+        <v>790.472</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>62</v>
@@ -1740,115 +1740,115 @@
         <v>73</v>
       </c>
       <c r="M7">
-        <v>50.9196</v>
+        <v>50.3947</v>
       </c>
       <c r="N7">
-        <v>5.97566</v>
+        <v>7.633490000000001</v>
       </c>
       <c r="O7">
-        <v>15.151</v>
+        <v>15.3103</v>
       </c>
       <c r="P7">
-        <v>27.39</v>
+        <v>28.4931</v>
       </c>
       <c r="Q7">
-        <v>50.9186</v>
+        <v>50.3934</v>
       </c>
       <c r="R7">
-        <v>99.9979</v>
+        <v>99.9973</v>
       </c>
       <c r="S7">
-        <v>26.4718</v>
+        <v>28.0976</v>
       </c>
       <c r="T7">
-        <v>27.39</v>
+        <v>28.4931</v>
       </c>
       <c r="U7">
-        <v>15.151</v>
+        <v>15.3103</v>
       </c>
       <c r="V7">
-        <v>8.59525</v>
+        <v>8.634970000000001</v>
       </c>
       <c r="W7">
-        <v>8.657629999999999</v>
+        <v>8.49863</v>
       </c>
       <c r="X7">
-        <v>5.53085</v>
+        <v>7.6346</v>
       </c>
       <c r="Y7">
-        <v>5.53085</v>
+        <v>7.6346</v>
       </c>
       <c r="Z7">
-        <v>5.53033</v>
+        <v>7.633490000000001</v>
       </c>
       <c r="AA7">
-        <v>14.7404</v>
+        <v>14.8683</v>
       </c>
       <c r="AB7">
-        <v>8.09305</v>
+        <v>8.278180000000001</v>
       </c>
       <c r="AC7">
-        <v>8.122290000000001</v>
+        <v>8.04383</v>
       </c>
       <c r="AD7">
-        <v>5.97566</v>
+        <v>7.48258</v>
       </c>
       <c r="AE7">
-        <v>5.97566</v>
+        <v>7.48258</v>
       </c>
       <c r="AF7">
-        <v>5.97566</v>
+        <v>7.48258</v>
       </c>
       <c r="AG7">
-        <v>0.683059</v>
+        <v>0.681989</v>
       </c>
       <c r="AH7">
-        <v>0.359956</v>
+        <v>0.359736</v>
       </c>
       <c r="AI7">
-        <v>0.129437</v>
+        <v>0.129434</v>
       </c>
       <c r="AJ7">
-        <v>0.0605113</v>
+        <v>0.0613742</v>
       </c>
       <c r="AK7">
-        <v>0.0642698</v>
+        <v>0.065653</v>
       </c>
       <c r="AL7">
-        <v>0.07011930000000001</v>
+        <v>0.0691239</v>
       </c>
       <c r="AM7">
-        <v>0.0356327</v>
+        <v>0.0341617</v>
       </c>
       <c r="AN7">
-        <v>0.230975</v>
+        <v>0.230755</v>
       </c>
       <c r="AO7">
-        <v>877.207</v>
+        <v>877.228</v>
       </c>
       <c r="AP7">
-        <v>832.3779999999999</v>
+        <v>832.581</v>
       </c>
       <c r="AQ7">
-        <v>888.744</v>
+        <v>888.9059999999999</v>
       </c>
       <c r="AR7">
-        <v>742.096</v>
+        <v>743.721</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT7">
-        <v>726.1850000000001</v>
+        <v>726.308</v>
       </c>
       <c r="AU7">
-        <v>782.841</v>
+        <v>782.9680000000001</v>
       </c>
       <c r="AV7">
-        <v>737.8810000000001</v>
+        <v>738.072</v>
       </c>
       <c r="AW7">
-        <v>793.015</v>
+        <v>794.1180000000001</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>62</v>
@@ -1892,115 +1892,115 @@
         <v>75</v>
       </c>
       <c r="M8">
-        <v>50.825</v>
+        <v>50.3605</v>
       </c>
       <c r="N8">
-        <v>5.082120000000001</v>
+        <v>6.46149</v>
       </c>
       <c r="O8">
-        <v>14.2971</v>
+        <v>14.4575</v>
       </c>
       <c r="P8">
-        <v>22.8258</v>
+        <v>23.7399</v>
       </c>
       <c r="Q8">
-        <v>50.8293</v>
+        <v>50.3596</v>
       </c>
       <c r="R8">
-        <v>100.009</v>
+        <v>99.9982</v>
       </c>
       <c r="S8">
-        <v>21.9963</v>
+        <v>23.3793</v>
       </c>
       <c r="T8">
-        <v>22.8258</v>
+        <v>23.7399</v>
       </c>
       <c r="U8">
-        <v>14.2971</v>
+        <v>14.4575</v>
       </c>
       <c r="V8">
-        <v>7.559840000000001</v>
+        <v>7.60405</v>
       </c>
       <c r="W8">
-        <v>7.34547</v>
+        <v>7.20471</v>
       </c>
       <c r="X8">
-        <v>4.69289</v>
+        <v>6.46015</v>
       </c>
       <c r="Y8">
-        <v>4.69289</v>
+        <v>6.46015</v>
       </c>
       <c r="Z8">
-        <v>4.69153</v>
+        <v>6.46149</v>
       </c>
       <c r="AA8">
-        <v>13.9968</v>
+        <v>14.1</v>
       </c>
       <c r="AB8">
-        <v>7.17556</v>
+        <v>7.346090000000001</v>
       </c>
       <c r="AC8">
-        <v>6.94228</v>
+        <v>6.87501</v>
       </c>
       <c r="AD8">
-        <v>5.082120000000001</v>
+        <v>6.37467</v>
       </c>
       <c r="AE8">
-        <v>5.082120000000001</v>
+        <v>6.37467</v>
       </c>
       <c r="AF8">
-        <v>5.082120000000001</v>
+        <v>6.37467</v>
       </c>
       <c r="AG8">
-        <v>0.8337599999999999</v>
+        <v>0.832608</v>
       </c>
       <c r="AH8">
-        <v>0.543468</v>
+        <v>0.542442</v>
       </c>
       <c r="AI8">
-        <v>0.240595</v>
+        <v>0.240591</v>
       </c>
       <c r="AJ8">
-        <v>0.08251750000000001</v>
+        <v>0.0836513</v>
       </c>
       <c r="AK8">
-        <v>0.0858611</v>
+        <v>0.0876316</v>
       </c>
       <c r="AL8">
-        <v>0.08911179999999999</v>
+        <v>0.0878226</v>
       </c>
       <c r="AM8">
-        <v>0.0455115</v>
+        <v>0.0428698</v>
       </c>
       <c r="AN8">
-        <v>0.303559</v>
+        <v>0.302532</v>
       </c>
       <c r="AO8">
-        <v>875.519</v>
+        <v>875.5350000000001</v>
       </c>
       <c r="AP8">
-        <v>829.751</v>
+        <v>829.948</v>
       </c>
       <c r="AQ8">
-        <v>884.991</v>
+        <v>885.1229999999999</v>
       </c>
       <c r="AR8">
-        <v>737.621</v>
+        <v>739.0020000000001</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT8">
-        <v>724.653</v>
+        <v>724.773</v>
       </c>
       <c r="AU8">
-        <v>780.1850000000001</v>
+        <v>780.2940000000001</v>
       </c>
       <c r="AV8">
-        <v>734.266</v>
+        <v>734.446</v>
       </c>
       <c r="AW8">
-        <v>788.451</v>
+        <v>789.365</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>62</v>
@@ -2044,115 +2044,115 @@
         <v>73</v>
       </c>
       <c r="M9">
-        <v>50.5376</v>
+        <v>49.9725</v>
       </c>
       <c r="N9">
-        <v>7.07012</v>
+        <v>8.777620000000001</v>
       </c>
       <c r="O9">
-        <v>17.3402</v>
+        <v>17.5506</v>
       </c>
       <c r="P9">
-        <v>27.4164</v>
+        <v>28.6155</v>
       </c>
       <c r="Q9">
-        <v>50.5362</v>
+        <v>49.9727</v>
       </c>
       <c r="R9">
-        <v>99.99720000000001</v>
+        <v>100</v>
       </c>
       <c r="S9">
-        <v>26.8774</v>
+        <v>28.6155</v>
       </c>
       <c r="T9">
-        <v>27.4164</v>
+        <v>28.5886</v>
       </c>
       <c r="U9">
-        <v>17.3402</v>
+        <v>17.5506</v>
       </c>
       <c r="V9">
-        <v>10.292</v>
+        <v>10.3837</v>
       </c>
       <c r="W9">
-        <v>10.0104</v>
+        <v>9.835129999999999</v>
       </c>
       <c r="X9">
-        <v>6.45915</v>
+        <v>8.71138</v>
       </c>
       <c r="Y9">
-        <v>6.45915</v>
+        <v>8.71138</v>
       </c>
       <c r="Z9">
-        <v>6.45807</v>
+        <v>8.708820000000001</v>
       </c>
       <c r="AA9">
-        <v>17.0541</v>
+        <v>17.2063</v>
       </c>
       <c r="AB9">
-        <v>9.85671</v>
+        <v>10.0951</v>
       </c>
       <c r="AC9">
-        <v>9.68131</v>
+        <v>9.572460000000001</v>
       </c>
       <c r="AD9">
-        <v>7.07012</v>
+        <v>8.777620000000001</v>
       </c>
       <c r="AE9">
-        <v>7.07012</v>
+        <v>8.777620000000001</v>
       </c>
       <c r="AF9">
-        <v>7.07012</v>
+        <v>8.777620000000001</v>
       </c>
       <c r="AG9">
-        <v>0.6781779999999999</v>
+        <v>0.677689</v>
       </c>
       <c r="AH9">
-        <v>0.503634</v>
+        <v>0.501659</v>
       </c>
       <c r="AI9">
-        <v>0.248599</v>
+        <v>0.248148</v>
       </c>
       <c r="AJ9">
-        <v>0.06774999999999999</v>
+        <v>0.06859560000000001</v>
       </c>
       <c r="AK9">
-        <v>0.0756377</v>
+        <v>0.07710640000000001</v>
       </c>
       <c r="AL9">
-        <v>0.07641050000000001</v>
+        <v>0.0755088</v>
       </c>
       <c r="AM9">
-        <v>0.0402445</v>
+        <v>0.036856</v>
       </c>
       <c r="AN9">
-        <v>0.311793</v>
+        <v>0.309817</v>
       </c>
       <c r="AO9">
-        <v>876.455</v>
+        <v>876.4770000000001</v>
       </c>
       <c r="AP9">
-        <v>832.398</v>
+        <v>832.614</v>
       </c>
       <c r="AQ9">
-        <v>888.461</v>
+        <v>888.644</v>
       </c>
       <c r="AR9">
-        <v>742.501</v>
+        <v>744.239</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT9">
-        <v>726.313</v>
+        <v>726.444</v>
       </c>
       <c r="AU9">
-        <v>782.4390000000001</v>
+        <v>782.5889999999999</v>
       </c>
       <c r="AV9">
-        <v>738.357</v>
+        <v>738.5680000000001</v>
       </c>
       <c r="AW9">
-        <v>793.0410000000001</v>
+        <v>794.2140000000001</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>62</v>
@@ -2196,115 +2196,115 @@
         <v>75</v>
       </c>
       <c r="M10">
-        <v>50.4888</v>
+        <v>49.9703</v>
       </c>
       <c r="N10">
-        <v>6.141940000000001</v>
+        <v>7.62188</v>
       </c>
       <c r="O10">
-        <v>16.4028</v>
+        <v>16.6214</v>
       </c>
       <c r="P10">
-        <v>23.8207</v>
+        <v>24.8444</v>
       </c>
       <c r="Q10">
-        <v>50.4884</v>
+        <v>49.96870000000001</v>
       </c>
       <c r="R10">
-        <v>99.99930000000001</v>
+        <v>99.99680000000001</v>
       </c>
       <c r="S10">
-        <v>23.3323</v>
+        <v>24.8444</v>
       </c>
       <c r="T10">
-        <v>23.8207</v>
+        <v>24.8145</v>
       </c>
       <c r="U10">
-        <v>16.4028</v>
+        <v>16.6214</v>
       </c>
       <c r="V10">
-        <v>9.254750000000001</v>
+        <v>9.342379999999999</v>
       </c>
       <c r="W10">
-        <v>8.70809</v>
+        <v>8.55129</v>
       </c>
       <c r="X10">
-        <v>5.60974</v>
+        <v>7.552020000000001</v>
       </c>
       <c r="Y10">
-        <v>5.60974</v>
+        <v>7.552020000000001</v>
       </c>
       <c r="Z10">
-        <v>5.61274</v>
+        <v>7.552009999999999</v>
       </c>
       <c r="AA10">
-        <v>16.213</v>
+        <v>16.3206</v>
       </c>
       <c r="AB10">
-        <v>8.87584</v>
+        <v>9.08244</v>
       </c>
       <c r="AC10">
-        <v>8.43211</v>
+        <v>8.33029</v>
       </c>
       <c r="AD10">
-        <v>6.141940000000001</v>
+        <v>7.62188</v>
       </c>
       <c r="AE10">
-        <v>6.141940000000001</v>
+        <v>7.62188</v>
       </c>
       <c r="AF10">
-        <v>6.141940000000001</v>
+        <v>7.62188</v>
       </c>
       <c r="AG10">
-        <v>0.828515</v>
+        <v>0.828007</v>
       </c>
       <c r="AH10">
-        <v>0.712009</v>
+        <v>0.7088399999999999</v>
       </c>
       <c r="AI10">
-        <v>0.377151</v>
+        <v>0.376629</v>
       </c>
       <c r="AJ10">
-        <v>0.09165710000000001</v>
+        <v>0.0927612</v>
       </c>
       <c r="AK10">
-        <v>0.100467</v>
+        <v>0.102355</v>
       </c>
       <c r="AL10">
-        <v>0.0969469</v>
+        <v>0.0958106</v>
       </c>
       <c r="AM10">
-        <v>0.0512495</v>
+        <v>0.0462235</v>
       </c>
       <c r="AN10">
-        <v>0.399058</v>
+        <v>0.39589</v>
       </c>
       <c r="AO10">
-        <v>875.3090000000001</v>
+        <v>875.324</v>
       </c>
       <c r="AP10">
-        <v>830.4200000000001</v>
+        <v>830.63</v>
       </c>
       <c r="AQ10">
-        <v>885.569</v>
+        <v>885.72</v>
       </c>
       <c r="AR10">
-        <v>738.957</v>
+        <v>740.467</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT10">
-        <v>725.169</v>
+        <v>725.297</v>
       </c>
       <c r="AU10">
-        <v>780.451</v>
+        <v>780.58</v>
       </c>
       <c r="AV10">
-        <v>735.4829999999999</v>
+        <v>735.678</v>
       </c>
       <c r="AW10">
-        <v>789.446</v>
+        <v>790.4400000000001</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>62</v>
@@ -2348,115 +2348,115 @@
         <v>73</v>
       </c>
       <c r="M11">
-        <v>50.0018</v>
+        <v>49.1684</v>
       </c>
       <c r="N11">
-        <v>10.0035</v>
+        <v>12.8502</v>
       </c>
       <c r="O11">
-        <v>19.2856</v>
+        <v>19.4868</v>
       </c>
       <c r="P11">
-        <v>49.2209</v>
+        <v>51.898</v>
       </c>
       <c r="Q11">
-        <v>49.9999</v>
+        <v>49.1699</v>
       </c>
       <c r="R11">
-        <v>99.9961</v>
+        <v>100.003</v>
       </c>
       <c r="S11">
-        <v>49.216</v>
+        <v>51.898</v>
       </c>
       <c r="T11">
-        <v>49.2209</v>
+        <v>51.0726</v>
       </c>
       <c r="U11">
-        <v>19.2848</v>
+        <v>19.3834</v>
       </c>
       <c r="V11">
-        <v>13.9847</v>
+        <v>14.0419</v>
       </c>
       <c r="W11">
-        <v>14.6087</v>
+        <v>14.4073</v>
       </c>
       <c r="X11">
-        <v>9.272399999999999</v>
+        <v>12.8481</v>
       </c>
       <c r="Y11">
-        <v>9.272399999999999</v>
+        <v>12.8481</v>
       </c>
       <c r="Z11">
-        <v>9.26779</v>
+        <v>12.8502</v>
       </c>
       <c r="AA11">
-        <v>19.2856</v>
+        <v>19.4868</v>
       </c>
       <c r="AB11">
-        <v>13.0245</v>
+        <v>13.267</v>
       </c>
       <c r="AC11">
-        <v>13.7709</v>
+        <v>13.6928</v>
       </c>
       <c r="AD11">
-        <v>10.0035</v>
+        <v>12.5402</v>
       </c>
       <c r="AE11">
-        <v>10.0035</v>
+        <v>12.5402</v>
       </c>
       <c r="AF11">
-        <v>10.0035</v>
+        <v>12.5402</v>
       </c>
       <c r="AG11">
-        <v>0.686903</v>
+        <v>0.684857</v>
       </c>
       <c r="AH11">
-        <v>0.225409</v>
+        <v>0.225535</v>
       </c>
       <c r="AI11">
         <v>0.0204357</v>
       </c>
       <c r="AJ11">
-        <v>0.051601</v>
+        <v>0.0521201</v>
       </c>
       <c r="AK11">
-        <v>0.0558863</v>
+        <v>0.056961</v>
       </c>
       <c r="AL11">
-        <v>0.06412419999999999</v>
+        <v>0.06331239999999999</v>
       </c>
       <c r="AM11">
-        <v>0.0335728</v>
+        <v>0.0329165</v>
       </c>
       <c r="AN11">
-        <v>0.205189</v>
+        <v>0.205316</v>
       </c>
       <c r="AO11">
-        <v>883.104</v>
+        <v>883.115</v>
       </c>
       <c r="AP11">
-        <v>845.1020000000001</v>
+        <v>845.3460000000001</v>
       </c>
       <c r="AQ11">
-        <v>906.0210000000001</v>
+        <v>906.273</v>
       </c>
       <c r="AR11">
-        <v>764.8390000000001</v>
+        <v>767.523</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT11">
-        <v>732.903</v>
+        <v>732.9970000000001</v>
       </c>
       <c r="AU11">
-        <v>794.509</v>
+        <v>794.677</v>
       </c>
       <c r="AV11">
-        <v>756.147</v>
+        <v>756.374</v>
       </c>
       <c r="AW11">
-        <v>814.846</v>
+        <v>816.698</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>62</v>
@@ -2500,115 +2500,115 @@
         <v>75</v>
       </c>
       <c r="M12">
-        <v>50.072</v>
+        <v>49.4581</v>
       </c>
       <c r="N12">
-        <v>7.476730000000001</v>
+        <v>9.530950000000001</v>
       </c>
       <c r="O12">
-        <v>16.2424</v>
+        <v>16.3658</v>
       </c>
       <c r="P12">
-        <v>35.5619</v>
+        <v>37.5074</v>
       </c>
       <c r="Q12">
-        <v>50.0728</v>
+        <v>49.4583</v>
       </c>
       <c r="R12">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S12">
-        <v>35.4878</v>
+        <v>37.5074</v>
       </c>
       <c r="T12">
-        <v>35.5619</v>
+        <v>36.9641</v>
       </c>
       <c r="U12">
-        <v>16.1351</v>
+        <v>16.1832</v>
       </c>
       <c r="V12">
-        <v>10.3725</v>
+        <v>10.4175</v>
       </c>
       <c r="W12">
-        <v>10.8486</v>
+        <v>10.6948</v>
       </c>
       <c r="X12">
-        <v>6.870810000000001</v>
+        <v>9.531639999999999</v>
       </c>
       <c r="Y12">
-        <v>6.870810000000001</v>
+        <v>9.531639999999999</v>
       </c>
       <c r="Z12">
-        <v>6.87229</v>
+        <v>9.530950000000001</v>
       </c>
       <c r="AA12">
-        <v>16.2424</v>
+        <v>16.3658</v>
       </c>
       <c r="AB12">
-        <v>9.757770000000001</v>
+        <v>9.95712</v>
       </c>
       <c r="AC12">
-        <v>10.3632</v>
+        <v>10.2839</v>
       </c>
       <c r="AD12">
-        <v>7.476730000000001</v>
+        <v>9.404060000000001</v>
       </c>
       <c r="AE12">
-        <v>7.476730000000001</v>
+        <v>9.404060000000001</v>
       </c>
       <c r="AF12">
-        <v>7.476730000000001</v>
+        <v>9.404060000000001</v>
       </c>
       <c r="AG12">
-        <v>0.837587</v>
+        <v>0.835781</v>
       </c>
       <c r="AH12">
-        <v>0.326701</v>
+        <v>0.327022</v>
       </c>
       <c r="AI12">
         <v>0.0684578</v>
       </c>
       <c r="AJ12">
-        <v>0.06597389999999999</v>
+        <v>0.0668651</v>
       </c>
       <c r="AK12">
-        <v>0.0701826</v>
+        <v>0.0715956</v>
       </c>
       <c r="AL12">
-        <v>0.08056569999999999</v>
+        <v>0.07952670000000001</v>
       </c>
       <c r="AM12">
-        <v>0.0414941</v>
+        <v>0.04055</v>
       </c>
       <c r="AN12">
-        <v>0.258229</v>
+        <v>0.258551</v>
       </c>
       <c r="AO12">
-        <v>879.681</v>
+        <v>879.705</v>
       </c>
       <c r="AP12">
-        <v>837.702</v>
+        <v>837.928</v>
       </c>
       <c r="AQ12">
-        <v>895.264</v>
+        <v>895.465</v>
       </c>
       <c r="AR12">
-        <v>751.1130000000001</v>
+        <v>753.131</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT12">
-        <v>729.509</v>
+        <v>729.631</v>
       </c>
       <c r="AU12">
-        <v>787.365</v>
+        <v>787.51</v>
       </c>
       <c r="AV12">
-        <v>745.3059999999999</v>
+        <v>745.508</v>
       </c>
       <c r="AW12">
-        <v>801.187</v>
+        <v>802.5890000000001</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>62</v>
@@ -2652,115 +2652,115 @@
         <v>73</v>
       </c>
       <c r="M13">
-        <v>49.6102</v>
+        <v>48.8247</v>
       </c>
       <c r="N13">
-        <v>10.9542</v>
+        <v>13.7128</v>
       </c>
       <c r="O13">
-        <v>21.2692</v>
+        <v>21.5122</v>
       </c>
       <c r="P13">
-        <v>46.373</v>
+        <v>49.1042</v>
       </c>
       <c r="Q13">
-        <v>49.609</v>
+        <v>48.825</v>
       </c>
       <c r="R13">
-        <v>99.99769999999999</v>
+        <v>100.001</v>
       </c>
       <c r="S13">
-        <v>46.373</v>
+        <v>49.1042</v>
       </c>
       <c r="T13">
-        <v>45.981</v>
+        <v>47.9346</v>
       </c>
       <c r="U13">
-        <v>20.7534</v>
+        <v>20.8817</v>
       </c>
       <c r="V13">
-        <v>15.009</v>
+        <v>15.0889</v>
       </c>
       <c r="W13">
-        <v>15.4717</v>
+        <v>15.2443</v>
       </c>
       <c r="X13">
-        <v>9.9299</v>
+        <v>13.549</v>
       </c>
       <c r="Y13">
-        <v>9.9299</v>
+        <v>13.549</v>
       </c>
       <c r="Z13">
-        <v>9.92797</v>
+        <v>13.5529</v>
       </c>
       <c r="AA13">
-        <v>21.2692</v>
+        <v>21.5122</v>
       </c>
       <c r="AB13">
-        <v>14.2428</v>
+        <v>14.5524</v>
       </c>
       <c r="AC13">
-        <v>15.1734</v>
+        <v>15.0404</v>
       </c>
       <c r="AD13">
-        <v>10.9542</v>
+        <v>13.7128</v>
       </c>
       <c r="AE13">
-        <v>10.9542</v>
+        <v>13.7128</v>
       </c>
       <c r="AF13">
-        <v>10.9542</v>
+        <v>13.7128</v>
       </c>
       <c r="AG13">
-        <v>0.682627</v>
+        <v>0.681511</v>
       </c>
       <c r="AH13">
-        <v>0.257641</v>
+        <v>0.257509</v>
       </c>
       <c r="AI13">
-        <v>0.0471615</v>
+        <v>0.0471454</v>
       </c>
       <c r="AJ13">
-        <v>0.0528943</v>
+        <v>0.0534649</v>
       </c>
       <c r="AK13">
-        <v>0.0578739</v>
+        <v>0.0589913</v>
       </c>
       <c r="AL13">
-        <v>0.0654841</v>
+        <v>0.06467859999999999</v>
       </c>
       <c r="AM13">
-        <v>0.0343685</v>
+        <v>0.0333537</v>
       </c>
       <c r="AN13">
-        <v>0.212547</v>
+        <v>0.212415</v>
       </c>
       <c r="AO13">
-        <v>881.47</v>
+        <v>881.475</v>
       </c>
       <c r="AP13">
-        <v>843.192</v>
+        <v>843.45</v>
       </c>
       <c r="AQ13">
-        <v>903.0920000000001</v>
+        <v>903.3430000000001</v>
       </c>
       <c r="AR13">
-        <v>761.9960000000001</v>
+        <v>764.729</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT13">
-        <v>732.173</v>
+        <v>732.28</v>
       </c>
       <c r="AU13">
-        <v>792.292</v>
+        <v>792.472</v>
       </c>
       <c r="AV13">
-        <v>754.1120000000001</v>
+        <v>754.3630000000001</v>
       </c>
       <c r="AW13">
-        <v>811.606</v>
+        <v>813.5600000000001</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>62</v>
@@ -2804,115 +2804,115 @@
         <v>75</v>
       </c>
       <c r="M14">
-        <v>49.8319</v>
+        <v>49.2022</v>
       </c>
       <c r="N14">
-        <v>8.54095</v>
+        <v>10.733</v>
       </c>
       <c r="O14">
-        <v>18.28</v>
+        <v>18.4562</v>
       </c>
       <c r="P14">
-        <v>35.5279</v>
+        <v>37.6721</v>
       </c>
       <c r="Q14">
-        <v>49.8307</v>
+        <v>49.2058</v>
       </c>
       <c r="R14">
-        <v>99.99769999999999</v>
+        <v>100.007</v>
       </c>
       <c r="S14">
-        <v>35.5279</v>
+        <v>37.6721</v>
       </c>
       <c r="T14">
-        <v>35.3563</v>
+        <v>36.8761</v>
       </c>
       <c r="U14">
-        <v>17.9831</v>
+        <v>18.1252</v>
       </c>
       <c r="V14">
-        <v>11.7768</v>
+        <v>11.8388</v>
       </c>
       <c r="W14">
-        <v>12.1663</v>
+        <v>12.0059</v>
       </c>
       <c r="X14">
-        <v>7.74863</v>
+        <v>10.613</v>
       </c>
       <c r="Y14">
-        <v>7.74863</v>
+        <v>10.613</v>
       </c>
       <c r="Z14">
-        <v>7.745690000000001</v>
+        <v>10.6136</v>
       </c>
       <c r="AA14">
-        <v>18.28</v>
+        <v>18.4562</v>
       </c>
       <c r="AB14">
-        <v>11.2163</v>
+        <v>11.4638</v>
       </c>
       <c r="AC14">
-        <v>11.893</v>
+        <v>11.7936</v>
       </c>
       <c r="AD14">
-        <v>8.54095</v>
+        <v>10.733</v>
       </c>
       <c r="AE14">
-        <v>8.54095</v>
+        <v>10.733</v>
       </c>
       <c r="AF14">
-        <v>8.54095</v>
+        <v>10.733</v>
       </c>
       <c r="AG14">
-        <v>0.833865</v>
+        <v>0.832597</v>
       </c>
       <c r="AH14">
-        <v>0.365906</v>
+        <v>0.36562</v>
       </c>
       <c r="AI14">
-        <v>0.0981988</v>
+        <v>0.0981804</v>
       </c>
       <c r="AJ14">
-        <v>0.0684433</v>
+        <v>0.06934309999999999</v>
       </c>
       <c r="AK14">
-        <v>0.0738019</v>
+        <v>0.0752775</v>
       </c>
       <c r="AL14">
-        <v>0.0824985</v>
+        <v>0.08151439999999999</v>
       </c>
       <c r="AM14">
-        <v>0.0430534</v>
+        <v>0.0413759</v>
       </c>
       <c r="AN14">
-        <v>0.269974</v>
+        <v>0.269688</v>
       </c>
       <c r="AO14">
-        <v>878.8340000000001</v>
+        <v>878.8579999999999</v>
       </c>
       <c r="AP14">
-        <v>837.3900000000001</v>
+        <v>837.6200000000001</v>
       </c>
       <c r="AQ14">
-        <v>894.807</v>
+        <v>895.0160000000001</v>
       </c>
       <c r="AR14">
-        <v>751.1510000000001</v>
+        <v>753.3050000000001</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT14">
-        <v>729.3430000000001</v>
+        <v>729.473</v>
       </c>
       <c r="AU14">
-        <v>786.787</v>
+        <v>786.943</v>
       </c>
       <c r="AV14">
-        <v>745.454</v>
+        <v>745.6750000000001</v>
       </c>
       <c r="AW14">
-        <v>800.981</v>
+        <v>802.501</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>62</v>
@@ -2956,115 +2956,115 @@
         <v>73</v>
       </c>
       <c r="M15">
-        <v>50.0088</v>
+        <v>49.1847</v>
       </c>
       <c r="N15">
-        <v>9.950650000000001</v>
+        <v>12.7914</v>
       </c>
       <c r="O15">
-        <v>19.2853</v>
+        <v>19.4891</v>
       </c>
       <c r="P15">
-        <v>49.1844</v>
+        <v>51.8472</v>
       </c>
       <c r="Q15">
-        <v>50.0079</v>
+        <v>49.18530000000001</v>
       </c>
       <c r="R15">
-        <v>99.99810000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S15">
-        <v>49.179</v>
+        <v>51.8472</v>
       </c>
       <c r="T15">
-        <v>49.1844</v>
+        <v>51.0262</v>
       </c>
       <c r="U15">
-        <v>19.2842</v>
+        <v>19.3837</v>
       </c>
       <c r="V15">
-        <v>13.9856</v>
+        <v>14.042</v>
       </c>
       <c r="W15">
-        <v>14.6084</v>
+        <v>14.4033</v>
       </c>
       <c r="X15">
-        <v>9.231030000000001</v>
+        <v>12.7907</v>
       </c>
       <c r="Y15">
-        <v>9.231030000000001</v>
+        <v>12.7907</v>
       </c>
       <c r="Z15">
-        <v>9.233470000000001</v>
+        <v>12.7914</v>
       </c>
       <c r="AA15">
-        <v>19.2853</v>
+        <v>19.4891</v>
       </c>
       <c r="AB15">
-        <v>13.0123</v>
+        <v>13.2582</v>
       </c>
       <c r="AC15">
-        <v>13.7709</v>
+        <v>13.6911</v>
       </c>
       <c r="AD15">
-        <v>9.950650000000001</v>
+        <v>12.4677</v>
       </c>
       <c r="AE15">
-        <v>9.950650000000001</v>
+        <v>12.4677</v>
       </c>
       <c r="AF15">
-        <v>9.950650000000001</v>
+        <v>12.4677</v>
       </c>
       <c r="AG15">
-        <v>0.686923</v>
+        <v>0.684908</v>
       </c>
       <c r="AH15">
-        <v>0.225159</v>
+        <v>0.225309</v>
       </c>
       <c r="AI15">
         <v>0.0204357</v>
       </c>
       <c r="AJ15">
-        <v>0.0516052</v>
+        <v>0.0521274</v>
       </c>
       <c r="AK15">
-        <v>0.0558823</v>
+        <v>0.0569619</v>
       </c>
       <c r="AL15">
-        <v>0.06411170000000001</v>
+        <v>0.0633088</v>
       </c>
       <c r="AM15">
-        <v>0.033335</v>
+        <v>0.0326851</v>
       </c>
       <c r="AN15">
-        <v>0.204939</v>
+        <v>0.205089</v>
       </c>
       <c r="AO15">
-        <v>883.106</v>
+        <v>883.115</v>
       </c>
       <c r="AP15">
-        <v>845.1020000000001</v>
+        <v>845.3460000000001</v>
       </c>
       <c r="AQ15">
-        <v>906.0210000000001</v>
+        <v>906.273</v>
       </c>
       <c r="AR15">
-        <v>764.802</v>
+        <v>767.473</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT15">
-        <v>732.903</v>
+        <v>732.9970000000001</v>
       </c>
       <c r="AU15">
-        <v>794.51</v>
+        <v>794.679</v>
       </c>
       <c r="AV15">
-        <v>756.148</v>
+        <v>756.376</v>
       </c>
       <c r="AW15">
-        <v>814.809</v>
+        <v>816.651</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>62</v>
@@ -3108,115 +3108,115 @@
         <v>75</v>
       </c>
       <c r="M16">
-        <v>50.0759</v>
+        <v>49.4654</v>
       </c>
       <c r="N16">
-        <v>7.4379</v>
+        <v>9.49325</v>
       </c>
       <c r="O16">
-        <v>16.2436</v>
+        <v>16.3661</v>
       </c>
       <c r="P16">
-        <v>35.53210000000001</v>
+        <v>37.4625</v>
       </c>
       <c r="Q16">
-        <v>50.0756</v>
+        <v>49.4648</v>
       </c>
       <c r="R16">
-        <v>99.9995</v>
+        <v>99.9987</v>
       </c>
       <c r="S16">
-        <v>35.4547</v>
+        <v>37.4625</v>
       </c>
       <c r="T16">
-        <v>35.53210000000001</v>
+        <v>36.927</v>
       </c>
       <c r="U16">
-        <v>16.1356</v>
+        <v>16.1859</v>
       </c>
       <c r="V16">
-        <v>10.3772</v>
+        <v>10.4217</v>
       </c>
       <c r="W16">
-        <v>10.8565</v>
+        <v>10.6818</v>
       </c>
       <c r="X16">
-        <v>6.85303</v>
+        <v>9.49568</v>
       </c>
       <c r="Y16">
-        <v>6.85303</v>
+        <v>9.49568</v>
       </c>
       <c r="Z16">
-        <v>6.852830000000001</v>
+        <v>9.49325</v>
       </c>
       <c r="AA16">
-        <v>16.2436</v>
+        <v>16.3661</v>
       </c>
       <c r="AB16">
-        <v>9.7624</v>
+        <v>9.965259999999999</v>
       </c>
       <c r="AC16">
-        <v>10.3588</v>
+        <v>10.2852</v>
       </c>
       <c r="AD16">
-        <v>7.4379</v>
+        <v>9.350859999999999</v>
       </c>
       <c r="AE16">
-        <v>7.4379</v>
+        <v>9.350859999999999</v>
       </c>
       <c r="AF16">
-        <v>7.4379</v>
+        <v>9.350859999999999</v>
       </c>
       <c r="AG16">
-        <v>0.837614</v>
+        <v>0.835836</v>
       </c>
       <c r="AH16">
-        <v>0.326422</v>
+        <v>0.326736</v>
       </c>
       <c r="AI16">
         <v>0.0684578</v>
       </c>
       <c r="AJ16">
-        <v>0.0659754</v>
+        <v>0.06686389999999999</v>
       </c>
       <c r="AK16">
-        <v>0.0701857</v>
+        <v>0.0716007</v>
       </c>
       <c r="AL16">
-        <v>0.0805699</v>
+        <v>0.079527</v>
       </c>
       <c r="AM16">
-        <v>0.0412068</v>
+        <v>0.0402598</v>
       </c>
       <c r="AN16">
-        <v>0.257951</v>
+        <v>0.258265</v>
       </c>
       <c r="AO16">
-        <v>879.6800000000001</v>
+        <v>879.706</v>
       </c>
       <c r="AP16">
-        <v>837.7030000000001</v>
+        <v>837.927</v>
       </c>
       <c r="AQ16">
-        <v>895.261</v>
+        <v>895.461</v>
       </c>
       <c r="AR16">
-        <v>751.077</v>
+        <v>753.087</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT16">
-        <v>729.508</v>
+        <v>729.631</v>
       </c>
       <c r="AU16">
-        <v>787.364</v>
+        <v>787.5110000000001</v>
       </c>
       <c r="AV16">
-        <v>745.302</v>
+        <v>745.508</v>
       </c>
       <c r="AW16">
-        <v>801.157</v>
+        <v>802.552</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>62</v>
@@ -3260,115 +3260,115 @@
         <v>73</v>
       </c>
       <c r="M17">
-        <v>49.6182</v>
+        <v>48.8362</v>
       </c>
       <c r="N17">
-        <v>10.903</v>
+        <v>13.6455</v>
       </c>
       <c r="O17">
-        <v>21.2717</v>
+        <v>21.5122</v>
       </c>
       <c r="P17">
-        <v>46.326</v>
+        <v>49.0499</v>
       </c>
       <c r="Q17">
-        <v>49.6199</v>
+        <v>48.8361</v>
       </c>
       <c r="R17">
-        <v>100.004</v>
+        <v>99.9997</v>
       </c>
       <c r="S17">
-        <v>46.326</v>
+        <v>49.0499</v>
       </c>
       <c r="T17">
-        <v>45.9444</v>
+        <v>47.8846</v>
       </c>
       <c r="U17">
-        <v>20.7539</v>
+        <v>20.8803</v>
       </c>
       <c r="V17">
-        <v>15.0265</v>
+        <v>15.0912</v>
       </c>
       <c r="W17">
-        <v>15.4719</v>
+        <v>15.2478</v>
       </c>
       <c r="X17">
-        <v>9.9009</v>
+        <v>13.4944</v>
       </c>
       <c r="Y17">
-        <v>9.9009</v>
+        <v>13.4944</v>
       </c>
       <c r="Z17">
-        <v>9.90011</v>
+        <v>13.4933</v>
       </c>
       <c r="AA17">
-        <v>21.2717</v>
+        <v>21.5122</v>
       </c>
       <c r="AB17">
-        <v>14.2577</v>
+        <v>14.5537</v>
       </c>
       <c r="AC17">
-        <v>15.176</v>
+        <v>15.038</v>
       </c>
       <c r="AD17">
-        <v>10.903</v>
+        <v>13.6455</v>
       </c>
       <c r="AE17">
-        <v>10.903</v>
+        <v>13.6455</v>
       </c>
       <c r="AF17">
-        <v>10.903</v>
+        <v>13.6455</v>
       </c>
       <c r="AG17">
-        <v>0.682646</v>
+        <v>0.681534</v>
       </c>
       <c r="AH17">
-        <v>0.257428</v>
+        <v>0.25729</v>
       </c>
       <c r="AI17">
-        <v>0.0471615</v>
+        <v>0.0471454</v>
       </c>
       <c r="AJ17">
-        <v>0.0528942</v>
+        <v>0.0534597</v>
       </c>
       <c r="AK17">
-        <v>0.0578893</v>
+        <v>0.0590067</v>
       </c>
       <c r="AL17">
-        <v>0.06548419999999999</v>
+        <v>0.06468169999999999</v>
       </c>
       <c r="AM17">
-        <v>0.0341398</v>
+        <v>0.033121</v>
       </c>
       <c r="AN17">
-        <v>0.212333</v>
+        <v>0.212195</v>
       </c>
       <c r="AO17">
-        <v>881.471</v>
+        <v>881.476</v>
       </c>
       <c r="AP17">
-        <v>843.189</v>
+        <v>843.45</v>
       </c>
       <c r="AQ17">
-        <v>903.0939999999999</v>
+        <v>903.341</v>
       </c>
       <c r="AR17">
-        <v>761.956</v>
+        <v>764.669</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT17">
-        <v>732.1750000000001</v>
+        <v>732.279</v>
       </c>
       <c r="AU17">
-        <v>792.294</v>
+        <v>792.4690000000001</v>
       </c>
       <c r="AV17">
-        <v>754.1120000000001</v>
+        <v>754.355</v>
       </c>
       <c r="AW17">
-        <v>811.5690000000001</v>
+        <v>813.51</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>62</v>
@@ -3412,115 +3412,115 @@
         <v>75</v>
       </c>
       <c r="M18">
-        <v>49.8411</v>
+        <v>49.2146</v>
       </c>
       <c r="N18">
-        <v>8.499830000000001</v>
+        <v>10.6776</v>
       </c>
       <c r="O18">
-        <v>18.2833</v>
+        <v>18.4552</v>
       </c>
       <c r="P18">
-        <v>35.4892</v>
+        <v>37.62580000000001</v>
       </c>
       <c r="Q18">
-        <v>49.8388</v>
+        <v>49.2155</v>
       </c>
       <c r="R18">
-        <v>99.9954</v>
+        <v>100.002</v>
       </c>
       <c r="S18">
-        <v>35.4892</v>
+        <v>37.62580000000001</v>
       </c>
       <c r="T18">
-        <v>35.3271</v>
+        <v>36.8457</v>
       </c>
       <c r="U18">
-        <v>17.9858</v>
+        <v>18.1273</v>
       </c>
       <c r="V18">
-        <v>11.7876</v>
+        <v>11.8614</v>
       </c>
       <c r="W18">
-        <v>12.1783</v>
+        <v>11.9856</v>
       </c>
       <c r="X18">
-        <v>7.72764</v>
+        <v>10.5739</v>
       </c>
       <c r="Y18">
-        <v>7.72764</v>
+        <v>10.5739</v>
       </c>
       <c r="Z18">
-        <v>7.72707</v>
+        <v>10.5743</v>
       </c>
       <c r="AA18">
-        <v>18.2833</v>
+        <v>18.4552</v>
       </c>
       <c r="AB18">
-        <v>11.215</v>
+        <v>11.4619</v>
       </c>
       <c r="AC18">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="AD18">
-        <v>8.499830000000001</v>
+        <v>10.6776</v>
       </c>
       <c r="AE18">
-        <v>8.499830000000001</v>
+        <v>10.6776</v>
       </c>
       <c r="AF18">
-        <v>8.499830000000001</v>
+        <v>10.6776</v>
       </c>
       <c r="AG18">
-        <v>0.833877</v>
+        <v>0.832619</v>
       </c>
       <c r="AH18">
-        <v>0.365651</v>
+        <v>0.365364</v>
       </c>
       <c r="AI18">
-        <v>0.0981988</v>
+        <v>0.0981804</v>
       </c>
       <c r="AJ18">
-        <v>0.0684506</v>
+        <v>0.0693428</v>
       </c>
       <c r="AK18">
-        <v>0.0738021</v>
+        <v>0.07530009999999999</v>
       </c>
       <c r="AL18">
-        <v>0.08250379999999999</v>
+        <v>0.0815068</v>
       </c>
       <c r="AM18">
-        <v>0.0427853</v>
+        <v>0.0411054</v>
       </c>
       <c r="AN18">
-        <v>0.269719</v>
+        <v>0.269432</v>
       </c>
       <c r="AO18">
-        <v>878.833</v>
+        <v>878.8579999999999</v>
       </c>
       <c r="AP18">
-        <v>837.388</v>
+        <v>837.6200000000001</v>
       </c>
       <c r="AQ18">
-        <v>894.807</v>
+        <v>895.0160000000001</v>
       </c>
       <c r="AR18">
-        <v>751.117</v>
+        <v>753.2600000000001</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT18">
-        <v>729.345</v>
+        <v>729.475</v>
       </c>
       <c r="AU18">
-        <v>786.788</v>
+        <v>786.954</v>
       </c>
       <c r="AV18">
-        <v>745.454</v>
+        <v>745.674</v>
       </c>
       <c r="AW18">
-        <v>800.952</v>
+        <v>802.471</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>62</v>
@@ -3564,115 +3564,115 @@
         <v>73</v>
       </c>
       <c r="M19" s="3">
-        <v>54.3847</v>
+        <v>53.4241</v>
       </c>
       <c r="N19">
-        <v>7.731660000000001</v>
+        <v>11.1651</v>
       </c>
       <c r="O19">
-        <v>19.5352</v>
+        <v>19.9214</v>
       </c>
       <c r="P19">
-        <v>38.0643</v>
+        <v>39.4565</v>
       </c>
       <c r="Q19">
-        <v>54.3838</v>
+        <v>53.4247</v>
       </c>
       <c r="R19">
-        <v>99.9983</v>
+        <v>100.001</v>
       </c>
       <c r="S19">
-        <v>33.6798</v>
+        <v>36.035</v>
       </c>
       <c r="T19">
-        <v>38.0643</v>
+        <v>39.4565</v>
       </c>
       <c r="U19">
-        <v>19.5352</v>
+        <v>19.9214</v>
       </c>
       <c r="V19">
-        <v>12.2905</v>
+        <v>12.467</v>
       </c>
       <c r="W19">
-        <v>13.456</v>
+        <v>13.1615</v>
       </c>
       <c r="X19">
-        <v>7.728660000000001</v>
+        <v>11.1684</v>
       </c>
       <c r="Y19">
-        <v>7.728660000000001</v>
+        <v>11.1684</v>
       </c>
       <c r="Z19">
-        <v>7.731660000000001</v>
+        <v>11.1651</v>
       </c>
       <c r="AA19">
-        <v>14.9317</v>
+        <v>15.0494</v>
       </c>
       <c r="AB19">
-        <v>9.30095</v>
+        <v>9.492700000000001</v>
       </c>
       <c r="AC19">
-        <v>9.14026</v>
+        <v>9.126010000000001</v>
       </c>
       <c r="AD19">
-        <v>7.341049999999999</v>
+        <v>8.93281</v>
       </c>
       <c r="AE19">
-        <v>7.341049999999999</v>
+        <v>8.93281</v>
       </c>
       <c r="AF19">
-        <v>7.341049999999999</v>
+        <v>8.93281</v>
       </c>
       <c r="AG19">
-        <v>0.684555</v>
+        <v>0.683216</v>
       </c>
       <c r="AH19">
-        <v>0.275575</v>
+        <v>0.275994</v>
       </c>
       <c r="AI19">
-        <v>0.0619626</v>
+        <v>0.0619625</v>
       </c>
       <c r="AJ19">
-        <v>0.0546367</v>
+        <v>0.0554783</v>
       </c>
       <c r="AK19">
-        <v>0.0584315</v>
+        <v>0.0597864</v>
       </c>
       <c r="AL19">
-        <v>0.06655739999999999</v>
+        <v>0.0656818</v>
       </c>
       <c r="AM19">
-        <v>0.0341974</v>
+        <v>0.0332947</v>
       </c>
       <c r="AN19">
-        <v>0.213974</v>
+        <v>0.214392</v>
       </c>
       <c r="AO19">
-        <v>882.734</v>
+        <v>882.764</v>
       </c>
       <c r="AP19">
-        <v>836.2040000000001</v>
+        <v>836.4480000000001</v>
       </c>
       <c r="AQ19">
-        <v>898.6809999999999</v>
+        <v>898.91</v>
       </c>
       <c r="AR19">
-        <v>749.3040000000001</v>
+        <v>751.66</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT19">
-        <v>726.226</v>
+        <v>726.3460000000001</v>
       </c>
       <c r="AU19">
-        <v>788.963</v>
+        <v>789.1180000000001</v>
       </c>
       <c r="AV19">
-        <v>742.484</v>
+        <v>742.721</v>
       </c>
       <c r="AW19">
-        <v>803.6890000000001</v>
+        <v>805.082</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>62</v>
@@ -3715,116 +3715,116 @@
       <c r="L20" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="3">
-        <v>53.4907</v>
+      <c r="M20">
+        <v>52.7843</v>
       </c>
       <c r="N20">
-        <v>5.951650000000001</v>
+        <v>8.515559999999999</v>
       </c>
       <c r="O20">
-        <v>16.3806</v>
+        <v>16.6892</v>
       </c>
       <c r="P20">
-        <v>29.4086</v>
+        <v>30.5122</v>
       </c>
       <c r="Q20">
-        <v>53.4917</v>
+        <v>52.7866</v>
       </c>
       <c r="R20">
-        <v>100.002</v>
+        <v>100.004</v>
       </c>
       <c r="S20">
-        <v>25.9218</v>
+        <v>27.729</v>
       </c>
       <c r="T20">
-        <v>29.4086</v>
+        <v>30.5122</v>
       </c>
       <c r="U20">
-        <v>16.3806</v>
+        <v>16.6892</v>
       </c>
       <c r="V20">
-        <v>9.603010000000001</v>
+        <v>9.73564</v>
       </c>
       <c r="W20">
-        <v>10.1508</v>
+        <v>9.923349999999999</v>
       </c>
       <c r="X20">
-        <v>5.95133</v>
+        <v>8.513210000000001</v>
       </c>
       <c r="Y20">
-        <v>5.95133</v>
+        <v>8.513210000000001</v>
       </c>
       <c r="Z20">
-        <v>5.951650000000001</v>
+        <v>8.515559999999999</v>
       </c>
       <c r="AA20">
-        <v>13.9683</v>
+        <v>14.0706</v>
       </c>
       <c r="AB20">
-        <v>7.66765</v>
+        <v>7.842040000000001</v>
       </c>
       <c r="AC20">
-        <v>7.523910000000001</v>
+        <v>7.496519999999999</v>
       </c>
       <c r="AD20">
-        <v>5.877140000000001</v>
+        <v>7.22565</v>
       </c>
       <c r="AE20">
-        <v>5.877140000000001</v>
+        <v>7.22565</v>
       </c>
       <c r="AF20">
-        <v>5.877140000000001</v>
+        <v>7.22565</v>
       </c>
       <c r="AG20">
-        <v>0.83543</v>
+        <v>0.834052</v>
       </c>
       <c r="AH20">
-        <v>0.412662</v>
+        <v>0.412795</v>
       </c>
       <c r="AI20">
         <v>0.139059</v>
       </c>
       <c r="AJ20">
-        <v>0.07128019999999999</v>
+        <v>0.07238159999999999</v>
       </c>
       <c r="AK20">
-        <v>0.0754972</v>
+        <v>0.07719479999999999</v>
       </c>
       <c r="AL20">
-        <v>0.08398899999999999</v>
+        <v>0.0828187</v>
       </c>
       <c r="AM20">
-        <v>0.0428971</v>
+        <v>0.0414015</v>
       </c>
       <c r="AN20">
-        <v>0.273861</v>
+        <v>0.273994</v>
       </c>
       <c r="AO20">
-        <v>879.629</v>
+        <v>879.65</v>
       </c>
       <c r="AP20">
-        <v>831.7869999999999</v>
+        <v>832.005</v>
       </c>
       <c r="AQ20">
-        <v>891.2900000000001</v>
+        <v>891.456</v>
       </c>
       <c r="AR20">
-        <v>741.549</v>
+        <v>743.355</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT20">
-        <v>724.196</v>
+        <v>724.322</v>
       </c>
       <c r="AU20">
-        <v>784.224</v>
+        <v>784.347</v>
       </c>
       <c r="AV20">
-        <v>736.614</v>
+        <v>736.8200000000001</v>
       </c>
       <c r="AW20">
-        <v>795.034</v>
+        <v>796.1369999999999</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>62</v>
@@ -3867,116 +3867,116 @@
       <c r="L21" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="3">
-        <v>53.4887</v>
+      <c r="M21">
+        <v>52.5777</v>
       </c>
       <c r="N21">
-        <v>8.38386</v>
+        <v>11.8456</v>
       </c>
       <c r="O21">
-        <v>20.9085</v>
+        <v>21.325</v>
       </c>
       <c r="P21">
-        <v>36.3451</v>
+        <v>37.8214</v>
       </c>
       <c r="Q21">
-        <v>53.4887</v>
+        <v>52.5784</v>
       </c>
       <c r="R21">
-        <v>99.9999</v>
+        <v>100.001</v>
       </c>
       <c r="S21">
-        <v>32.86620000000001</v>
+        <v>35.2454</v>
       </c>
       <c r="T21">
-        <v>36.3451</v>
+        <v>37.8214</v>
       </c>
       <c r="U21">
-        <v>20.9085</v>
+        <v>21.325</v>
       </c>
       <c r="V21">
-        <v>13.5083</v>
+        <v>13.7532</v>
       </c>
       <c r="W21">
-        <v>14.3075</v>
+        <v>14.0051</v>
       </c>
       <c r="X21">
-        <v>8.3833</v>
+        <v>11.8444</v>
       </c>
       <c r="Y21">
-        <v>8.3833</v>
+        <v>11.8444</v>
       </c>
       <c r="Z21">
-        <v>8.38386</v>
+        <v>11.8456</v>
       </c>
       <c r="AA21">
-        <v>16.8695</v>
+        <v>17.0072</v>
       </c>
       <c r="AB21">
-        <v>10.661</v>
+        <v>10.903</v>
       </c>
       <c r="AC21">
-        <v>10.5654</v>
+        <v>10.5313</v>
       </c>
       <c r="AD21">
-        <v>8.28481</v>
+        <v>10.0926</v>
       </c>
       <c r="AE21">
-        <v>8.28481</v>
+        <v>10.0926</v>
       </c>
       <c r="AF21">
-        <v>8.28481</v>
+        <v>10.0926</v>
       </c>
       <c r="AG21">
-        <v>0.6805369999999999</v>
+        <v>0.679681</v>
       </c>
       <c r="AH21">
-        <v>0.33819</v>
+        <v>0.337646</v>
       </c>
       <c r="AI21">
-        <v>0.111773</v>
+        <v>0.111734</v>
       </c>
       <c r="AJ21">
-        <v>0.0580313</v>
+        <v>0.0588867</v>
       </c>
       <c r="AK21">
-        <v>0.06379799999999999</v>
+        <v>0.065177</v>
       </c>
       <c r="AL21">
-        <v>0.0696235</v>
+        <v>0.06876940000000001</v>
       </c>
       <c r="AM21">
-        <v>0.0364921</v>
+        <v>0.0345678</v>
       </c>
       <c r="AN21">
-        <v>0.245333</v>
+        <v>0.244789</v>
       </c>
       <c r="AO21">
-        <v>881.532</v>
+        <v>881.561</v>
       </c>
       <c r="AP21">
-        <v>835.5100000000001</v>
+        <v>835.773</v>
       </c>
       <c r="AQ21">
-        <v>897.061</v>
+        <v>897.293</v>
       </c>
       <c r="AR21">
-        <v>748.491</v>
+        <v>750.869</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT21">
-        <v>725.796</v>
+        <v>725.9240000000001</v>
       </c>
       <c r="AU21">
-        <v>787.521</v>
+        <v>787.7</v>
       </c>
       <c r="AV21">
-        <v>741.8869999999999</v>
+        <v>742.141</v>
       </c>
       <c r="AW21">
-        <v>801.97</v>
+        <v>803.446</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>62</v>
@@ -4020,115 +4020,115 @@
         <v>75</v>
       </c>
       <c r="M22">
-        <v>52.9822</v>
+        <v>52.2505</v>
       </c>
       <c r="N22">
-        <v>6.88138</v>
+        <v>9.543810000000001</v>
       </c>
       <c r="O22">
-        <v>18.2517</v>
+        <v>18.609</v>
       </c>
       <c r="P22">
-        <v>29.7536</v>
+        <v>30.945</v>
       </c>
       <c r="Q22">
-        <v>52.9818</v>
+        <v>52.2493</v>
       </c>
       <c r="R22">
-        <v>99.9992</v>
+        <v>99.99769999999999</v>
       </c>
       <c r="S22">
-        <v>26.7698</v>
+        <v>28.6952</v>
       </c>
       <c r="T22">
-        <v>29.7536</v>
+        <v>30.945</v>
       </c>
       <c r="U22">
-        <v>18.2517</v>
+        <v>18.609</v>
       </c>
       <c r="V22">
-        <v>11.1202</v>
+        <v>11.3154</v>
       </c>
       <c r="W22">
-        <v>11.4404</v>
+        <v>11.1898</v>
       </c>
       <c r="X22">
-        <v>6.796469999999999</v>
+        <v>9.54711</v>
       </c>
       <c r="Y22">
-        <v>6.796469999999999</v>
+        <v>9.54711</v>
       </c>
       <c r="Z22">
-        <v>6.79169</v>
+        <v>9.543810000000001</v>
       </c>
       <c r="AA22">
-        <v>15.7685</v>
+        <v>15.9019</v>
       </c>
       <c r="AB22">
-        <v>9.155430000000001</v>
+        <v>9.36397</v>
       </c>
       <c r="AC22">
-        <v>8.92787</v>
+        <v>8.88191</v>
       </c>
       <c r="AD22">
-        <v>6.88138</v>
+        <v>8.48799</v>
       </c>
       <c r="AE22">
-        <v>6.88138</v>
+        <v>8.48799</v>
       </c>
       <c r="AF22">
-        <v>6.88138</v>
+        <v>8.48799</v>
       </c>
       <c r="AG22">
-        <v>0.831479</v>
+        <v>0.830508</v>
       </c>
       <c r="AH22">
-        <v>0.477979</v>
+        <v>0.476896</v>
       </c>
       <c r="AI22">
-        <v>0.185249</v>
+        <v>0.185203</v>
       </c>
       <c r="AJ22">
-        <v>0.0767867</v>
+        <v>0.0778913</v>
       </c>
       <c r="AK22">
-        <v>0.0833773</v>
+        <v>0.085148</v>
       </c>
       <c r="AL22">
-        <v>0.0880118</v>
+        <v>0.08692979999999999</v>
       </c>
       <c r="AM22">
-        <v>0.0461812</v>
+        <v>0.0433056</v>
       </c>
       <c r="AN22">
-        <v>0.313631</v>
+        <v>0.312549</v>
       </c>
       <c r="AO22">
-        <v>879.182</v>
+        <v>879.2020000000001</v>
       </c>
       <c r="AP22">
-        <v>832.105</v>
+        <v>832.34</v>
       </c>
       <c r="AQ22">
-        <v>891.3919999999999</v>
+        <v>891.576</v>
       </c>
       <c r="AR22">
-        <v>742.3960000000001</v>
+        <v>744.3199999999999</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT22">
-        <v>724.3349999999999</v>
+        <v>724.46</v>
       </c>
       <c r="AU22">
-        <v>784.004</v>
+        <v>784.143</v>
       </c>
       <c r="AV22">
-        <v>737.312</v>
+        <v>737.5359999999999</v>
       </c>
       <c r="AW22">
-        <v>795.379</v>
+        <v>796.5699999999999</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>62</v>
@@ -4172,115 +4172,115 @@
         <v>73</v>
       </c>
       <c r="M23" s="3">
-        <v>54.3928</v>
+        <v>53.4364</v>
       </c>
       <c r="N23">
-        <v>7.703690000000001</v>
+        <v>11.1161</v>
       </c>
       <c r="O23">
-        <v>19.5296</v>
+        <v>19.9218</v>
       </c>
       <c r="P23">
-        <v>38.0415</v>
+        <v>39.4275</v>
       </c>
       <c r="Q23">
-        <v>54.3937</v>
+        <v>53.4367</v>
       </c>
       <c r="R23">
-        <v>100.002</v>
+        <v>100.001</v>
       </c>
       <c r="S23">
-        <v>33.6442</v>
+        <v>35.9881</v>
       </c>
       <c r="T23">
-        <v>38.0415</v>
+        <v>39.4275</v>
       </c>
       <c r="U23">
-        <v>19.5296</v>
+        <v>19.9218</v>
       </c>
       <c r="V23">
-        <v>12.2888</v>
+        <v>12.4716</v>
       </c>
       <c r="W23">
-        <v>13.457</v>
+        <v>13.1628</v>
       </c>
       <c r="X23">
-        <v>7.708070000000001</v>
+        <v>11.1191</v>
       </c>
       <c r="Y23">
-        <v>7.708070000000001</v>
+        <v>11.1191</v>
       </c>
       <c r="Z23">
-        <v>7.703690000000001</v>
+        <v>11.1161</v>
       </c>
       <c r="AA23">
-        <v>14.9364</v>
+        <v>15.049</v>
       </c>
       <c r="AB23">
-        <v>9.300030000000001</v>
+        <v>9.503629999999999</v>
       </c>
       <c r="AC23">
-        <v>9.14066</v>
+        <v>9.12744</v>
       </c>
       <c r="AD23">
-        <v>7.300790000000001</v>
+        <v>8.88467</v>
       </c>
       <c r="AE23">
-        <v>7.300790000000001</v>
+        <v>8.88467</v>
       </c>
       <c r="AF23">
-        <v>7.300790000000001</v>
+        <v>8.88467</v>
       </c>
       <c r="AG23">
-        <v>0.684575</v>
+        <v>0.683253</v>
       </c>
       <c r="AH23">
-        <v>0.275346</v>
+        <v>0.275756</v>
       </c>
       <c r="AI23">
-        <v>0.0619626</v>
+        <v>0.0619625</v>
       </c>
       <c r="AJ23">
-        <v>0.0546381</v>
+        <v>0.0554787</v>
       </c>
       <c r="AK23">
-        <v>0.0584351</v>
+        <v>0.0597831</v>
       </c>
       <c r="AL23">
-        <v>0.06655709999999999</v>
+        <v>0.0656827</v>
       </c>
       <c r="AM23">
-        <v>0.0339635</v>
+        <v>0.03305900000000001</v>
       </c>
       <c r="AN23">
-        <v>0.213745</v>
+        <v>0.214155</v>
       </c>
       <c r="AO23">
-        <v>882.735</v>
+        <v>882.7670000000001</v>
       </c>
       <c r="AP23">
-        <v>836.205</v>
+        <v>836.4490000000001</v>
       </c>
       <c r="AQ23">
-        <v>898.683</v>
+        <v>898.903</v>
       </c>
       <c r="AR23">
-        <v>749.2700000000001</v>
+        <v>751.614</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT23">
-        <v>726.227</v>
+        <v>726.3460000000001</v>
       </c>
       <c r="AU23">
-        <v>788.967</v>
+        <v>789.123</v>
       </c>
       <c r="AV23">
-        <v>742.484</v>
+        <v>742.721</v>
       </c>
       <c r="AW23">
-        <v>803.6669999999999</v>
+        <v>805.052</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>62</v>
@@ -4323,116 +4323,116 @@
       <c r="L24" t="s">
         <v>75</v>
       </c>
-      <c r="M24" s="3">
-        <v>53.4915</v>
+      <c r="M24">
+        <v>52.7956</v>
       </c>
       <c r="N24">
-        <v>5.936710000000001</v>
+        <v>8.48147</v>
       </c>
       <c r="O24">
-        <v>16.3737</v>
+        <v>16.6853</v>
       </c>
       <c r="P24">
-        <v>29.3858</v>
+        <v>30.4934</v>
       </c>
       <c r="Q24">
-        <v>53.4938</v>
+        <v>52.7968</v>
       </c>
       <c r="R24">
-        <v>100.004</v>
+        <v>100.002</v>
       </c>
       <c r="S24">
-        <v>25.8919</v>
+        <v>27.6935</v>
       </c>
       <c r="T24">
-        <v>29.3858</v>
+        <v>30.4934</v>
       </c>
       <c r="U24">
-        <v>16.3737</v>
+        <v>16.6853</v>
       </c>
       <c r="V24">
-        <v>9.603349999999999</v>
+        <v>9.73451</v>
       </c>
       <c r="W24">
-        <v>10.1534</v>
+        <v>9.92379</v>
       </c>
       <c r="X24">
-        <v>5.93165</v>
+        <v>8.48274</v>
       </c>
       <c r="Y24">
-        <v>5.93165</v>
+        <v>8.48274</v>
       </c>
       <c r="Z24">
-        <v>5.936710000000001</v>
+        <v>8.48147</v>
       </c>
       <c r="AA24">
-        <v>13.9642</v>
+        <v>14.0749</v>
       </c>
       <c r="AB24">
-        <v>7.67749</v>
+        <v>7.843940000000001</v>
       </c>
       <c r="AC24">
-        <v>7.525480000000001</v>
+        <v>7.49206</v>
       </c>
       <c r="AD24">
-        <v>5.849930000000001</v>
+        <v>7.18506</v>
       </c>
       <c r="AE24">
-        <v>5.849930000000001</v>
+        <v>7.18506</v>
       </c>
       <c r="AF24">
-        <v>5.849930000000001</v>
+        <v>7.18506</v>
       </c>
       <c r="AG24">
-        <v>0.835448</v>
+        <v>0.834044</v>
       </c>
       <c r="AH24">
-        <v>0.412421</v>
+        <v>0.412531</v>
       </c>
       <c r="AI24">
         <v>0.139059</v>
       </c>
       <c r="AJ24">
-        <v>0.0712884</v>
+        <v>0.0723857</v>
       </c>
       <c r="AK24">
-        <v>0.0755011</v>
+        <v>0.07718700000000001</v>
       </c>
       <c r="AL24">
-        <v>0.083999</v>
+        <v>0.08282249999999999</v>
       </c>
       <c r="AM24">
-        <v>0.0426332</v>
+        <v>0.041137</v>
       </c>
       <c r="AN24">
-        <v>0.273619</v>
+        <v>0.27373</v>
       </c>
       <c r="AO24">
-        <v>879.627</v>
+        <v>879.651</v>
       </c>
       <c r="AP24">
-        <v>831.788</v>
+        <v>832.0069999999999</v>
       </c>
       <c r="AQ24">
-        <v>891.287</v>
+        <v>891.4590000000001</v>
       </c>
       <c r="AR24">
-        <v>741.5170000000001</v>
+        <v>743.3170000000001</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT24">
-        <v>724.197</v>
+        <v>724.321</v>
       </c>
       <c r="AU24">
-        <v>784.226</v>
+        <v>784.3579999999999</v>
       </c>
       <c r="AV24">
-        <v>736.611</v>
+        <v>736.822</v>
       </c>
       <c r="AW24">
-        <v>795.0110000000001</v>
+        <v>796.1180000000001</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>62</v>
@@ -4475,116 +4475,116 @@
       <c r="L25" t="s">
         <v>73</v>
       </c>
-      <c r="M25" s="3">
-        <v>53.4928</v>
+      <c r="M25">
+        <v>52.5892</v>
       </c>
       <c r="N25">
-        <v>8.350890000000001</v>
+        <v>11.7949</v>
       </c>
       <c r="O25">
-        <v>20.9057</v>
+        <v>21.321</v>
       </c>
       <c r="P25">
-        <v>36.3233</v>
+        <v>37.7861</v>
       </c>
       <c r="Q25">
-        <v>53.49100000000001</v>
+        <v>52.59010000000001</v>
       </c>
       <c r="R25">
-        <v>99.9965</v>
+        <v>100.002</v>
       </c>
       <c r="S25">
-        <v>32.8305</v>
+        <v>35.1977</v>
       </c>
       <c r="T25">
-        <v>36.3233</v>
+        <v>37.7861</v>
       </c>
       <c r="U25">
-        <v>20.9057</v>
+        <v>21.321</v>
       </c>
       <c r="V25">
-        <v>13.5057</v>
+        <v>13.7495</v>
       </c>
       <c r="W25">
-        <v>14.3153</v>
+        <v>14.0083</v>
       </c>
       <c r="X25">
-        <v>8.35858</v>
+        <v>11.7952</v>
       </c>
       <c r="Y25">
-        <v>8.35858</v>
+        <v>11.7952</v>
       </c>
       <c r="Z25">
-        <v>8.350890000000001</v>
+        <v>11.7949</v>
       </c>
       <c r="AA25">
-        <v>16.8547</v>
+        <v>17.02</v>
       </c>
       <c r="AB25">
-        <v>10.6611</v>
+        <v>10.8888</v>
       </c>
       <c r="AC25">
-        <v>10.5671</v>
+        <v>10.5326</v>
       </c>
       <c r="AD25">
-        <v>8.25319</v>
+        <v>10.0499</v>
       </c>
       <c r="AE25">
-        <v>8.25319</v>
+        <v>10.0499</v>
       </c>
       <c r="AF25">
-        <v>8.25319</v>
+        <v>10.0499</v>
       </c>
       <c r="AG25">
-        <v>0.680546</v>
+        <v>0.679689</v>
       </c>
       <c r="AH25">
-        <v>0.337973</v>
+        <v>0.337417</v>
       </c>
       <c r="AI25">
-        <v>0.111773</v>
+        <v>0.111734</v>
       </c>
       <c r="AJ25">
-        <v>0.0580318</v>
+        <v>0.0588809</v>
       </c>
       <c r="AK25">
-        <v>0.0637977</v>
+        <v>0.0651697</v>
       </c>
       <c r="AL25">
-        <v>0.0696225</v>
+        <v>0.06876929999999999</v>
       </c>
       <c r="AM25">
-        <v>0.0362752</v>
+        <v>0.0343512</v>
       </c>
       <c r="AN25">
-        <v>0.245115</v>
+        <v>0.244559</v>
       </c>
       <c r="AO25">
-        <v>881.5309999999999</v>
+        <v>881.561</v>
       </c>
       <c r="AP25">
-        <v>835.511</v>
+        <v>835.772</v>
       </c>
       <c r="AQ25">
-        <v>897.062</v>
+        <v>897.297</v>
       </c>
       <c r="AR25">
-        <v>748.456</v>
+        <v>750.822</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT25">
-        <v>725.796</v>
+        <v>725.9240000000001</v>
       </c>
       <c r="AU25">
-        <v>787.529</v>
+        <v>787.7</v>
       </c>
       <c r="AV25">
-        <v>741.8869999999999</v>
+        <v>742.1420000000001</v>
       </c>
       <c r="AW25">
-        <v>801.948</v>
+        <v>803.4110000000001</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>62</v>
@@ -4628,115 +4628,115 @@
         <v>75</v>
       </c>
       <c r="M26">
-        <v>52.986</v>
+        <v>52.2539</v>
       </c>
       <c r="N26">
-        <v>6.84814</v>
+        <v>9.508319999999999</v>
       </c>
       <c r="O26">
-        <v>18.2482</v>
+        <v>18.6059</v>
       </c>
       <c r="P26">
-        <v>29.7248</v>
+        <v>30.9104</v>
       </c>
       <c r="Q26">
-        <v>52.9855</v>
+        <v>52.2545</v>
       </c>
       <c r="R26">
-        <v>99.9991</v>
+        <v>100.001</v>
       </c>
       <c r="S26">
-        <v>26.74</v>
+        <v>28.6568</v>
       </c>
       <c r="T26">
-        <v>29.7248</v>
+        <v>30.9104</v>
       </c>
       <c r="U26">
-        <v>18.2482</v>
+        <v>18.6059</v>
       </c>
       <c r="V26">
-        <v>11.1263</v>
+        <v>11.3137</v>
       </c>
       <c r="W26">
-        <v>11.4412</v>
+        <v>11.1919</v>
       </c>
       <c r="X26">
-        <v>6.774550000000001</v>
+        <v>9.50797</v>
       </c>
       <c r="Y26">
-        <v>6.774550000000001</v>
+        <v>9.50797</v>
       </c>
       <c r="Z26">
-        <v>6.77569</v>
+        <v>9.508319999999999</v>
       </c>
       <c r="AA26">
-        <v>15.778</v>
+        <v>15.8892</v>
       </c>
       <c r="AB26">
-        <v>9.16323</v>
+        <v>9.36129</v>
       </c>
       <c r="AC26">
-        <v>8.929819999999999</v>
+        <v>8.88138</v>
       </c>
       <c r="AD26">
-        <v>6.84814</v>
+        <v>8.452400000000001</v>
       </c>
       <c r="AE26">
-        <v>6.84814</v>
+        <v>8.452400000000001</v>
       </c>
       <c r="AF26">
-        <v>6.84814</v>
+        <v>8.452400000000001</v>
       </c>
       <c r="AG26">
-        <v>0.831492</v>
+        <v>0.830522</v>
       </c>
       <c r="AH26">
-        <v>0.477721</v>
+        <v>0.476655</v>
       </c>
       <c r="AI26">
-        <v>0.185249</v>
+        <v>0.185203</v>
       </c>
       <c r="AJ26">
-        <v>0.0767805</v>
+        <v>0.0778928</v>
       </c>
       <c r="AK26">
-        <v>0.0833777</v>
+        <v>0.0851522</v>
       </c>
       <c r="AL26">
-        <v>0.08801150000000001</v>
+        <v>0.0869234</v>
       </c>
       <c r="AM26">
-        <v>0.0459291</v>
+        <v>0.0430651</v>
       </c>
       <c r="AN26">
-        <v>0.313373</v>
+        <v>0.312307</v>
       </c>
       <c r="AO26">
-        <v>879.1799999999999</v>
+        <v>879.2020000000001</v>
       </c>
       <c r="AP26">
-        <v>832.105</v>
+        <v>832.341</v>
       </c>
       <c r="AQ26">
-        <v>891.393</v>
+        <v>891.576</v>
       </c>
       <c r="AR26">
-        <v>742.365</v>
+        <v>744.2819999999999</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT26">
-        <v>724.3349999999999</v>
+        <v>724.46</v>
       </c>
       <c r="AU26">
-        <v>784.0020000000001</v>
+        <v>784.139</v>
       </c>
       <c r="AV26">
-        <v>737.311</v>
+        <v>737.539</v>
       </c>
       <c r="AW26">
-        <v>795.35</v>
+        <v>796.535</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>62</v>
@@ -4780,115 +4780,115 @@
         <v>73</v>
       </c>
       <c r="M27" s="4">
-        <v>46.6694</v>
+        <v>46.2972</v>
       </c>
       <c r="N27">
-        <v>8.401820000000001</v>
+        <v>10.843</v>
       </c>
       <c r="O27">
-        <v>19.528</v>
+        <v>19.7097</v>
       </c>
       <c r="P27">
-        <v>37.8622</v>
+        <v>39.797</v>
       </c>
       <c r="Q27">
-        <v>46.6687</v>
+        <v>46.2981</v>
       </c>
       <c r="R27">
-        <v>99.99850000000001</v>
+        <v>100.002</v>
       </c>
       <c r="S27">
-        <v>37.8622</v>
+        <v>39.797</v>
       </c>
       <c r="T27">
-        <v>34.5291</v>
+        <v>36.0951</v>
       </c>
       <c r="U27">
-        <v>15.2562</v>
+        <v>15.2904</v>
       </c>
       <c r="V27">
-        <v>9.85169</v>
+        <v>9.884790000000001</v>
       </c>
       <c r="W27">
-        <v>9.592040000000001</v>
+        <v>9.481869999999999</v>
       </c>
       <c r="X27">
-        <v>6.80114</v>
+        <v>9.02155</v>
       </c>
       <c r="Y27">
-        <v>6.80114</v>
+        <v>9.02155</v>
       </c>
       <c r="Z27">
-        <v>6.79984</v>
+        <v>9.024380000000001</v>
       </c>
       <c r="AA27">
-        <v>19.528</v>
+        <v>19.7097</v>
       </c>
       <c r="AB27">
-        <v>11.3381</v>
+        <v>11.586</v>
       </c>
       <c r="AC27">
-        <v>12.5559</v>
+        <v>12.336</v>
       </c>
       <c r="AD27">
-        <v>8.401820000000001</v>
+        <v>10.843</v>
       </c>
       <c r="AE27">
-        <v>8.401820000000001</v>
+        <v>10.843</v>
       </c>
       <c r="AF27">
-        <v>8.401820000000001</v>
+        <v>10.843</v>
       </c>
       <c r="AG27">
-        <v>0.684647</v>
+        <v>0.683325</v>
       </c>
       <c r="AH27">
-        <v>0.273173</v>
+        <v>0.273232</v>
       </c>
       <c r="AI27">
-        <v>0.0592307</v>
+        <v>0.059229</v>
       </c>
       <c r="AJ27">
-        <v>0.0546303</v>
+        <v>0.0553188</v>
       </c>
       <c r="AK27">
-        <v>0.05841569999999999</v>
+        <v>0.0595355</v>
       </c>
       <c r="AL27">
-        <v>0.06656959999999999</v>
+        <v>0.06565599999999999</v>
       </c>
       <c r="AM27">
-        <v>0.0343306</v>
+        <v>0.0334953</v>
       </c>
       <c r="AN27">
-        <v>0.214069</v>
+        <v>0.214129</v>
       </c>
       <c r="AO27">
-        <v>877.133</v>
+        <v>877.1540000000001</v>
       </c>
       <c r="AP27">
-        <v>839.235</v>
+        <v>839.46</v>
       </c>
       <c r="AQ27">
-        <v>893.215</v>
+        <v>893.405</v>
       </c>
       <c r="AR27">
-        <v>753.4870000000001</v>
+        <v>755.42</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT27">
-        <v>732.3580000000001</v>
+        <v>732.497</v>
       </c>
       <c r="AU27">
-        <v>786.485</v>
+        <v>786.64</v>
       </c>
       <c r="AV27">
-        <v>748.442</v>
+        <v>748.635</v>
       </c>
       <c r="AW27">
-        <v>800.154</v>
+        <v>801.72</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>62</v>
@@ -4932,115 +4932,115 @@
         <v>75</v>
       </c>
       <c r="M28">
-        <v>47.4967</v>
+        <v>47.1392</v>
       </c>
       <c r="N28">
-        <v>6.54657</v>
+        <v>8.419790000000001</v>
       </c>
       <c r="O28">
-        <v>16.5371</v>
+        <v>16.6702</v>
       </c>
       <c r="P28">
-        <v>29.2373</v>
+        <v>30.8056</v>
       </c>
       <c r="Q28">
-        <v>47.5025</v>
+        <v>47.13910000000001</v>
       </c>
       <c r="R28">
-        <v>100.012</v>
+        <v>99.9999</v>
       </c>
       <c r="S28">
-        <v>29.2373</v>
+        <v>30.8056</v>
       </c>
       <c r="T28">
-        <v>26.7401</v>
+        <v>27.9455</v>
       </c>
       <c r="U28">
-        <v>14.2342</v>
+        <v>14.2647</v>
       </c>
       <c r="V28">
-        <v>8.114470000000001</v>
+        <v>8.137179999999999</v>
       </c>
       <c r="W28">
-        <v>7.89205</v>
+        <v>7.78206</v>
       </c>
       <c r="X28">
-        <v>5.45838</v>
+        <v>7.31925</v>
       </c>
       <c r="Y28">
-        <v>5.45838</v>
+        <v>7.31925</v>
       </c>
       <c r="Z28">
-        <v>5.45833</v>
+        <v>7.31991</v>
       </c>
       <c r="AA28">
-        <v>16.5371</v>
+        <v>16.6702</v>
       </c>
       <c r="AB28">
-        <v>9.0151</v>
+        <v>9.22392</v>
       </c>
       <c r="AC28">
-        <v>9.637309999999999</v>
+        <v>9.47261</v>
       </c>
       <c r="AD28">
-        <v>6.54657</v>
+        <v>8.419790000000001</v>
       </c>
       <c r="AE28">
-        <v>6.54657</v>
+        <v>8.419790000000001</v>
       </c>
       <c r="AF28">
-        <v>6.54657</v>
+        <v>8.419790000000001</v>
       </c>
       <c r="AG28">
-        <v>0.8354</v>
+        <v>0.8340340000000001</v>
       </c>
       <c r="AH28">
-        <v>0.414445</v>
+        <v>0.414262</v>
       </c>
       <c r="AI28">
-        <v>0.141045</v>
+        <v>0.141043</v>
       </c>
       <c r="AJ28">
-        <v>0.07102219999999999</v>
+        <v>0.0719245</v>
       </c>
       <c r="AK28">
-        <v>0.0753293</v>
+        <v>0.07684870000000001</v>
       </c>
       <c r="AL28">
-        <v>0.0839319</v>
+        <v>0.08271519999999999</v>
       </c>
       <c r="AM28">
-        <v>0.04314689999999999</v>
+        <v>0.0417582</v>
       </c>
       <c r="AN28">
-        <v>0.273589</v>
+        <v>0.273406</v>
       </c>
       <c r="AO28">
-        <v>874.939</v>
+        <v>874.955</v>
       </c>
       <c r="AP28">
-        <v>834.38</v>
+        <v>834.581</v>
       </c>
       <c r="AQ28">
-        <v>887.2669999999999</v>
+        <v>887.418</v>
       </c>
       <c r="AR28">
-        <v>744.864</v>
+        <v>746.428</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT28">
-        <v>729.306</v>
+        <v>729.433</v>
       </c>
       <c r="AU28">
-        <v>782.116</v>
+        <v>782.245</v>
       </c>
       <c r="AV28">
-        <v>741.147</v>
+        <v>741.311</v>
       </c>
       <c r="AW28">
-        <v>792.365</v>
+        <v>793.5700000000001</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>62</v>
@@ -5084,115 +5084,115 @@
         <v>73</v>
       </c>
       <c r="M29" s="4">
-        <v>46.8871</v>
+        <v>46.4717</v>
       </c>
       <c r="N29">
-        <v>9.43338</v>
+        <v>12.0903</v>
       </c>
       <c r="O29">
-        <v>21.5945</v>
+        <v>21.8016</v>
       </c>
       <c r="P29">
-        <v>36.6384</v>
+        <v>38.6964</v>
       </c>
       <c r="Q29">
-        <v>46.88800000000001</v>
+        <v>46.4705</v>
       </c>
       <c r="R29">
-        <v>100.002</v>
+        <v>99.9973</v>
       </c>
       <c r="S29">
-        <v>36.6384</v>
+        <v>38.6964</v>
       </c>
       <c r="T29">
-        <v>33.5259</v>
+        <v>35.1658</v>
       </c>
       <c r="U29">
-        <v>17.2328</v>
+        <v>17.2847</v>
       </c>
       <c r="V29">
-        <v>11.302</v>
+        <v>11.3728</v>
       </c>
       <c r="W29">
-        <v>10.9305</v>
+        <v>10.8053</v>
       </c>
       <c r="X29">
-        <v>7.708769999999999</v>
+        <v>10.109</v>
       </c>
       <c r="Y29">
-        <v>7.708769999999999</v>
+        <v>10.109</v>
       </c>
       <c r="Z29">
-        <v>7.71353</v>
+        <v>10.1116</v>
       </c>
       <c r="AA29">
-        <v>21.5945</v>
+        <v>21.8016</v>
       </c>
       <c r="AB29">
-        <v>13.025</v>
+        <v>13.337</v>
       </c>
       <c r="AC29">
-        <v>14.0361</v>
+        <v>13.7824</v>
       </c>
       <c r="AD29">
-        <v>9.43338</v>
+        <v>12.0903</v>
       </c>
       <c r="AE29">
-        <v>9.43338</v>
+        <v>12.0903</v>
       </c>
       <c r="AF29">
-        <v>9.43338</v>
+        <v>12.0903</v>
       </c>
       <c r="AG29">
-        <v>0.680378</v>
+        <v>0.67968</v>
       </c>
       <c r="AH29">
-        <v>0.357503</v>
+        <v>0.356614</v>
       </c>
       <c r="AI29">
-        <v>0.13149</v>
+        <v>0.131183</v>
       </c>
       <c r="AJ29">
-        <v>0.05778229999999999</v>
+        <v>0.0584723</v>
       </c>
       <c r="AK29">
-        <v>0.06396700000000001</v>
+        <v>0.06517999999999999</v>
       </c>
       <c r="AL29">
-        <v>0.06970570000000001</v>
+        <v>0.06882249999999999</v>
       </c>
       <c r="AM29">
-        <v>0.0367495</v>
+        <v>0.0348409</v>
       </c>
       <c r="AN29">
-        <v>0.250604</v>
+        <v>0.249715</v>
       </c>
       <c r="AO29">
-        <v>875.7760000000001</v>
+        <v>875.796</v>
       </c>
       <c r="AP29">
-        <v>838.145</v>
+        <v>838.381</v>
       </c>
       <c r="AQ29">
-        <v>891.937</v>
+        <v>892.1350000000001</v>
       </c>
       <c r="AR29">
-        <v>752.264</v>
+        <v>754.324</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT29">
-        <v>732.009</v>
+        <v>732.144</v>
       </c>
       <c r="AU29">
-        <v>785.492</v>
+        <v>785.6700000000001</v>
       </c>
       <c r="AV29">
-        <v>747.7669999999999</v>
+        <v>747.976</v>
       </c>
       <c r="AW29">
-        <v>799.151</v>
+        <v>800.7910000000001</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>62</v>
@@ -5236,115 +5236,115 @@
         <v>75</v>
       </c>
       <c r="M30">
-        <v>47.4479</v>
+        <v>47.0435</v>
       </c>
       <c r="N30">
-        <v>7.628740000000001</v>
+        <v>9.74314</v>
       </c>
       <c r="O30">
-        <v>18.6287</v>
+        <v>18.8016</v>
       </c>
       <c r="P30">
-        <v>29.8395</v>
+        <v>31.5419</v>
       </c>
       <c r="Q30">
-        <v>47.44670000000001</v>
+        <v>47.0445</v>
       </c>
       <c r="R30">
-        <v>99.9975</v>
+        <v>100.002</v>
       </c>
       <c r="S30">
-        <v>29.8395</v>
+        <v>31.5419</v>
       </c>
       <c r="T30">
-        <v>27.2865</v>
+        <v>28.5879</v>
       </c>
       <c r="U30">
-        <v>16.0637</v>
+        <v>16.111</v>
       </c>
       <c r="V30">
-        <v>9.65809</v>
+        <v>9.694239999999999</v>
       </c>
       <c r="W30">
-        <v>9.243910000000001</v>
+        <v>9.11402</v>
       </c>
       <c r="X30">
-        <v>6.37943</v>
+        <v>8.450670000000001</v>
       </c>
       <c r="Y30">
-        <v>6.37943</v>
+        <v>8.450670000000001</v>
       </c>
       <c r="Z30">
-        <v>6.37843</v>
+        <v>8.438590000000001</v>
       </c>
       <c r="AA30">
-        <v>18.6287</v>
+        <v>18.8016</v>
       </c>
       <c r="AB30">
-        <v>10.7261</v>
+        <v>10.9753</v>
       </c>
       <c r="AC30">
-        <v>11.1927</v>
+        <v>10.9926</v>
       </c>
       <c r="AD30">
-        <v>7.628740000000001</v>
+        <v>9.74314</v>
       </c>
       <c r="AE30">
-        <v>7.628740000000001</v>
+        <v>9.74314</v>
       </c>
       <c r="AF30">
-        <v>7.628740000000001</v>
+        <v>9.74314</v>
       </c>
       <c r="AG30">
-        <v>0.83133</v>
+        <v>0.830514</v>
       </c>
       <c r="AH30">
-        <v>0.5207980000000001</v>
+        <v>0.519103</v>
       </c>
       <c r="AI30">
-        <v>0.228578</v>
+        <v>0.228224</v>
       </c>
       <c r="AJ30">
-        <v>0.07628850000000001</v>
+        <v>0.0771676</v>
       </c>
       <c r="AK30">
-        <v>0.0835133</v>
+        <v>0.0851156</v>
       </c>
       <c r="AL30">
-        <v>0.08815339999999999</v>
+        <v>0.0869789</v>
       </c>
       <c r="AM30">
-        <v>0.0466199</v>
+        <v>0.0436177</v>
       </c>
       <c r="AN30">
-        <v>0.320354</v>
+        <v>0.318659</v>
       </c>
       <c r="AO30">
-        <v>874.316</v>
+        <v>874.3330000000001</v>
       </c>
       <c r="AP30">
-        <v>834.4340000000001</v>
+        <v>834.6370000000001</v>
       </c>
       <c r="AQ30">
-        <v>887.333</v>
+        <v>887.494</v>
       </c>
       <c r="AR30">
-        <v>745.457</v>
+        <v>747.169</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT30">
-        <v>729.5120000000001</v>
+        <v>729.647</v>
       </c>
       <c r="AU30">
-        <v>782.066</v>
+        <v>782.211</v>
       </c>
       <c r="AV30">
-        <v>741.848</v>
+        <v>742.0309999999999</v>
       </c>
       <c r="AW30">
-        <v>792.9110000000001</v>
+        <v>794.2130000000001</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>62</v>
@@ -5388,115 +5388,115 @@
         <v>73</v>
       </c>
       <c r="M31" s="4">
-        <v>46.6691</v>
+        <v>46.2988</v>
       </c>
       <c r="N31">
-        <v>8.35807</v>
+        <v>10.7841</v>
       </c>
       <c r="O31">
-        <v>19.5373</v>
+        <v>19.7097</v>
       </c>
       <c r="P31">
-        <v>37.8255</v>
+        <v>39.7555</v>
       </c>
       <c r="Q31">
-        <v>46.6714</v>
+        <v>46.29880000000001</v>
       </c>
       <c r="R31">
-        <v>100.005</v>
+        <v>100</v>
       </c>
       <c r="S31">
-        <v>37.8255</v>
+        <v>39.7555</v>
       </c>
       <c r="T31">
-        <v>34.4977</v>
+        <v>36.0564</v>
       </c>
       <c r="U31">
-        <v>15.2688</v>
+        <v>15.2946</v>
       </c>
       <c r="V31">
-        <v>9.86204</v>
+        <v>9.88491</v>
       </c>
       <c r="W31">
-        <v>9.593450000000001</v>
+        <v>9.48194</v>
       </c>
       <c r="X31">
-        <v>6.78598</v>
+        <v>8.99535</v>
       </c>
       <c r="Y31">
-        <v>6.78598</v>
+        <v>8.99535</v>
       </c>
       <c r="Z31">
-        <v>6.78572</v>
+        <v>9.001199999999999</v>
       </c>
       <c r="AA31">
-        <v>19.5373</v>
+        <v>19.7097</v>
       </c>
       <c r="AB31">
-        <v>11.3344</v>
+        <v>11.5857</v>
       </c>
       <c r="AC31">
-        <v>12.5578</v>
+        <v>12.336</v>
       </c>
       <c r="AD31">
-        <v>8.35807</v>
+        <v>10.7841</v>
       </c>
       <c r="AE31">
-        <v>8.35807</v>
+        <v>10.7841</v>
       </c>
       <c r="AF31">
-        <v>8.35807</v>
+        <v>10.7841</v>
       </c>
       <c r="AG31">
-        <v>0.684667</v>
+        <v>0.683355</v>
       </c>
       <c r="AH31">
-        <v>0.272965</v>
+        <v>0.272997</v>
       </c>
       <c r="AI31">
-        <v>0.0592307</v>
+        <v>0.059229</v>
       </c>
       <c r="AJ31">
-        <v>0.0546534</v>
+        <v>0.0553154</v>
       </c>
       <c r="AK31">
-        <v>0.0584146</v>
+        <v>0.0595382</v>
       </c>
       <c r="AL31">
-        <v>0.06657199999999999</v>
+        <v>0.0656568</v>
       </c>
       <c r="AM31">
-        <v>0.0340982</v>
+        <v>0.03326</v>
       </c>
       <c r="AN31">
-        <v>0.213861</v>
+        <v>0.213894</v>
       </c>
       <c r="AO31">
-        <v>877.1319999999999</v>
+        <v>877.1540000000001</v>
       </c>
       <c r="AP31">
-        <v>839.226</v>
+        <v>839.461</v>
       </c>
       <c r="AQ31">
-        <v>893.2140000000001</v>
+        <v>893.4059999999999</v>
       </c>
       <c r="AR31">
-        <v>753.452</v>
+        <v>755.3810000000001</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT31">
-        <v>732.359</v>
+        <v>732.4920000000001</v>
       </c>
       <c r="AU31">
-        <v>786.484</v>
+        <v>786.643</v>
       </c>
       <c r="AV31">
-        <v>748.4390000000001</v>
+        <v>748.639</v>
       </c>
       <c r="AW31">
-        <v>800.123</v>
+        <v>801.681</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>62</v>
@@ -5540,115 +5540,115 @@
         <v>75</v>
       </c>
       <c r="M32">
-        <v>47.4973</v>
+        <v>47.1432</v>
       </c>
       <c r="N32">
-        <v>6.512460000000001</v>
+        <v>8.371639999999999</v>
       </c>
       <c r="O32">
-        <v>16.5298</v>
+        <v>16.6736</v>
       </c>
       <c r="P32">
-        <v>29.21120000000001</v>
+        <v>30.7668</v>
       </c>
       <c r="Q32">
-        <v>47.49760000000001</v>
+        <v>47.1439</v>
       </c>
       <c r="R32">
         <v>100.001</v>
       </c>
       <c r="S32">
-        <v>29.21120000000001</v>
+        <v>30.7668</v>
       </c>
       <c r="T32">
-        <v>26.7146</v>
+        <v>27.9083</v>
       </c>
       <c r="U32">
-        <v>14.236</v>
+        <v>14.2648</v>
       </c>
       <c r="V32">
-        <v>8.11697</v>
+        <v>8.13686</v>
       </c>
       <c r="W32">
-        <v>7.8967</v>
+        <v>7.78269</v>
       </c>
       <c r="X32">
-        <v>5.4476</v>
+        <v>7.296830000000001</v>
       </c>
       <c r="Y32">
-        <v>5.4476</v>
+        <v>7.296830000000001</v>
       </c>
       <c r="Z32">
-        <v>5.44914</v>
+        <v>7.296489999999999</v>
       </c>
       <c r="AA32">
-        <v>16.5298</v>
+        <v>16.6736</v>
       </c>
       <c r="AB32">
-        <v>9.016990000000002</v>
+        <v>9.22546</v>
       </c>
       <c r="AC32">
-        <v>9.637510000000001</v>
+        <v>9.47254</v>
       </c>
       <c r="AD32">
-        <v>6.512460000000001</v>
+        <v>8.371639999999999</v>
       </c>
       <c r="AE32">
-        <v>6.512460000000001</v>
+        <v>8.371639999999999</v>
       </c>
       <c r="AF32">
-        <v>6.512460000000001</v>
+        <v>8.371639999999999</v>
       </c>
       <c r="AG32">
-        <v>0.835432</v>
+        <v>0.83406</v>
       </c>
       <c r="AH32">
-        <v>0.414163</v>
+        <v>0.413955</v>
       </c>
       <c r="AI32">
-        <v>0.141045</v>
+        <v>0.141043</v>
       </c>
       <c r="AJ32">
-        <v>0.0710153</v>
+        <v>0.0719211</v>
       </c>
       <c r="AK32">
-        <v>0.0753221</v>
+        <v>0.0768498</v>
       </c>
       <c r="AL32">
-        <v>0.0839385</v>
+        <v>0.08270799999999999</v>
       </c>
       <c r="AM32">
-        <v>0.0428722</v>
+        <v>0.0414606</v>
       </c>
       <c r="AN32">
-        <v>0.273307</v>
+        <v>0.273099</v>
       </c>
       <c r="AO32">
-        <v>874.937</v>
+        <v>874.956</v>
       </c>
       <c r="AP32">
-        <v>834.383</v>
+        <v>834.5790000000001</v>
       </c>
       <c r="AQ32">
-        <v>887.2660000000001</v>
+        <v>887.418</v>
       </c>
       <c r="AR32">
-        <v>744.8470000000001</v>
+        <v>746.393</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT32">
-        <v>729.316</v>
+        <v>729.436</v>
       </c>
       <c r="AU32">
-        <v>782.1179999999999</v>
+        <v>782.2430000000001</v>
       </c>
       <c r="AV32">
-        <v>741.1590000000001</v>
+        <v>741.3140000000001</v>
       </c>
       <c r="AW32">
-        <v>792.34</v>
+        <v>793.533</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>62</v>
@@ -5692,115 +5692,115 @@
         <v>73</v>
       </c>
       <c r="M33" s="4">
-        <v>46.8932</v>
+        <v>46.4674</v>
       </c>
       <c r="N33">
-        <v>9.38977</v>
+        <v>12.0249</v>
       </c>
       <c r="O33">
-        <v>21.596</v>
+        <v>21.8004</v>
       </c>
       <c r="P33">
-        <v>36.6045</v>
+        <v>38.655</v>
       </c>
       <c r="Q33">
-        <v>46.89100000000001</v>
+        <v>46.4652</v>
       </c>
       <c r="R33">
         <v>99.9952</v>
       </c>
       <c r="S33">
-        <v>36.6045</v>
+        <v>38.655</v>
       </c>
       <c r="T33">
-        <v>33.4912</v>
+        <v>35.1195</v>
       </c>
       <c r="U33">
-        <v>17.2314</v>
+        <v>17.2881</v>
       </c>
       <c r="V33">
-        <v>11.3293</v>
+        <v>11.3624</v>
       </c>
       <c r="W33">
-        <v>10.9333</v>
+        <v>10.8024</v>
       </c>
       <c r="X33">
-        <v>7.69469</v>
+        <v>10.0808</v>
       </c>
       <c r="Y33">
-        <v>7.69469</v>
+        <v>10.0808</v>
       </c>
       <c r="Z33">
-        <v>7.69552</v>
+        <v>10.0793</v>
       </c>
       <c r="AA33">
-        <v>21.596</v>
+        <v>21.8004</v>
       </c>
       <c r="AB33">
-        <v>13.025</v>
+        <v>13.3333</v>
       </c>
       <c r="AC33">
-        <v>14.0365</v>
+        <v>13.7851</v>
       </c>
       <c r="AD33">
-        <v>9.38977</v>
+        <v>12.0249</v>
       </c>
       <c r="AE33">
-        <v>9.38977</v>
+        <v>12.0249</v>
       </c>
       <c r="AF33">
-        <v>9.38977</v>
+        <v>12.0249</v>
       </c>
       <c r="AG33">
-        <v>0.680387</v>
+        <v>0.679689</v>
       </c>
       <c r="AH33">
-        <v>0.357289</v>
+        <v>0.356389</v>
       </c>
       <c r="AI33">
-        <v>0.13149</v>
+        <v>0.131183</v>
       </c>
       <c r="AJ33">
-        <v>0.0577822</v>
+        <v>0.05846879999999999</v>
       </c>
       <c r="AK33">
-        <v>0.06395909999999999</v>
+        <v>0.0651886</v>
       </c>
       <c r="AL33">
-        <v>0.06971289999999999</v>
+        <v>0.068817</v>
       </c>
       <c r="AM33">
-        <v>0.03653629999999999</v>
+        <v>0.034616</v>
       </c>
       <c r="AN33">
-        <v>0.25039</v>
+        <v>0.24949</v>
       </c>
       <c r="AO33">
-        <v>875.7760000000001</v>
+        <v>875.797</v>
       </c>
       <c r="AP33">
-        <v>838.145</v>
+        <v>838.383</v>
       </c>
       <c r="AQ33">
-        <v>891.9390000000001</v>
+        <v>892.1360000000001</v>
       </c>
       <c r="AR33">
-        <v>752.231</v>
+        <v>754.276</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT33">
-        <v>732.008</v>
+        <v>732.146</v>
       </c>
       <c r="AU33">
-        <v>785.496</v>
+        <v>785.671</v>
       </c>
       <c r="AV33">
-        <v>747.768</v>
+        <v>747.974</v>
       </c>
       <c r="AW33">
-        <v>799.116</v>
+        <v>800.744</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>62</v>
@@ -5844,115 +5844,115 @@
         <v>75</v>
       </c>
       <c r="M34">
-        <v>47.4473</v>
+        <v>47.0417</v>
       </c>
       <c r="N34">
-        <v>7.59199</v>
+        <v>9.69407</v>
       </c>
       <c r="O34">
-        <v>18.6436</v>
+        <v>18.7984</v>
       </c>
       <c r="P34">
-        <v>29.8024</v>
+        <v>31.5061</v>
       </c>
       <c r="Q34">
-        <v>47.4495</v>
+        <v>47.0413</v>
       </c>
       <c r="R34">
-        <v>100.005</v>
+        <v>99.99930000000001</v>
       </c>
       <c r="S34">
-        <v>29.8024</v>
+        <v>31.5061</v>
       </c>
       <c r="T34">
-        <v>27.2552</v>
+        <v>28.5449</v>
       </c>
       <c r="U34">
-        <v>16.0576</v>
+        <v>16.115</v>
       </c>
       <c r="V34">
-        <v>9.6578</v>
+        <v>9.694379999999999</v>
       </c>
       <c r="W34">
-        <v>9.24396</v>
+        <v>9.115450000000001</v>
       </c>
       <c r="X34">
-        <v>6.364</v>
+        <v>8.42305</v>
       </c>
       <c r="Y34">
-        <v>6.364</v>
+        <v>8.42305</v>
       </c>
       <c r="Z34">
-        <v>6.36437</v>
+        <v>8.42948</v>
       </c>
       <c r="AA34">
-        <v>18.6436</v>
+        <v>18.7984</v>
       </c>
       <c r="AB34">
-        <v>10.72</v>
+        <v>10.9749</v>
       </c>
       <c r="AC34">
-        <v>11.1954</v>
+        <v>10.9923</v>
       </c>
       <c r="AD34">
-        <v>7.59199</v>
+        <v>9.69407</v>
       </c>
       <c r="AE34">
-        <v>7.59199</v>
+        <v>9.69407</v>
       </c>
       <c r="AF34">
-        <v>7.59199</v>
+        <v>9.69407</v>
       </c>
       <c r="AG34">
-        <v>0.831323</v>
+        <v>0.830527</v>
       </c>
       <c r="AH34">
-        <v>0.52052</v>
+        <v>0.5188630000000001</v>
       </c>
       <c r="AI34">
-        <v>0.228578</v>
+        <v>0.228224</v>
       </c>
       <c r="AJ34">
-        <v>0.07628679999999999</v>
+        <v>0.07716880000000001</v>
       </c>
       <c r="AK34">
-        <v>0.0834959</v>
+        <v>0.0851222</v>
       </c>
       <c r="AL34">
-        <v>0.08814910000000001</v>
+        <v>0.0869818</v>
       </c>
       <c r="AM34">
-        <v>0.0463648</v>
+        <v>0.0433668</v>
       </c>
       <c r="AN34">
-        <v>0.320075</v>
+        <v>0.318418</v>
       </c>
       <c r="AO34">
-        <v>874.3150000000001</v>
+        <v>874.3339999999999</v>
       </c>
       <c r="AP34">
-        <v>834.426</v>
+        <v>834.64</v>
       </c>
       <c r="AQ34">
-        <v>887.331</v>
+        <v>887.4950000000001</v>
       </c>
       <c r="AR34">
-        <v>745.4250000000001</v>
+        <v>747.131</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT34">
-        <v>729.511</v>
+        <v>729.647</v>
       </c>
       <c r="AU34">
-        <v>782.0650000000001</v>
+        <v>782.21</v>
       </c>
       <c r="AV34">
-        <v>741.8460000000001</v>
+        <v>742.032</v>
       </c>
       <c r="AW34">
-        <v>792.88</v>
+        <v>794.17</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>62</v>
@@ -6115,115 +6115,115 @@
         <v>123</v>
       </c>
       <c r="M36" s="4">
-        <v>46.6691</v>
+        <v>46.2972</v>
       </c>
       <c r="N36" s="1">
-        <v>5.082120000000001</v>
+        <v>6.46149</v>
       </c>
       <c r="O36" s="1">
-        <v>14.2971</v>
+        <v>14.4575</v>
       </c>
       <c r="P36" s="1">
-        <v>22.8258</v>
+        <v>23.7399</v>
       </c>
       <c r="Q36" s="1">
-        <v>46.6687</v>
+        <v>46.2981</v>
       </c>
       <c r="R36" s="1">
         <v>99.9952</v>
       </c>
       <c r="S36" s="1">
-        <v>21.9963</v>
+        <v>23.3793</v>
       </c>
       <c r="T36" s="1">
-        <v>22.8258</v>
+        <v>23.7399</v>
       </c>
       <c r="U36" s="1">
-        <v>14.2342</v>
+        <v>14.2647</v>
       </c>
       <c r="V36" s="1">
-        <v>7.559840000000001</v>
+        <v>7.602679999999999</v>
       </c>
       <c r="W36" s="1">
-        <v>7.343719999999999</v>
+        <v>7.20424</v>
       </c>
       <c r="X36" s="1">
-        <v>4.69289</v>
+        <v>6.46015</v>
       </c>
       <c r="Y36" s="1">
-        <v>4.69289</v>
+        <v>6.46015</v>
       </c>
       <c r="Z36" s="1">
-        <v>4.69153</v>
+        <v>6.46149</v>
       </c>
       <c r="AA36" s="1">
-        <v>13.9642</v>
+        <v>14.0706</v>
       </c>
       <c r="AB36" s="1">
-        <v>7.17556</v>
+        <v>7.345390000000001</v>
       </c>
       <c r="AC36" s="1">
-        <v>6.941190000000001</v>
+        <v>6.87501</v>
       </c>
       <c r="AD36" s="1">
-        <v>5.082120000000001</v>
+        <v>6.37467</v>
       </c>
       <c r="AE36" s="1">
-        <v>5.082120000000001</v>
+        <v>6.37467</v>
       </c>
       <c r="AF36" s="1">
-        <v>5.082120000000001</v>
+        <v>6.37467</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.678173</v>
+        <v>0.677682</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.225159</v>
+        <v>0.225309</v>
       </c>
       <c r="AI36" s="1">
         <v>0.0204357</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.051601</v>
+        <v>0.0521201</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.0558823</v>
+        <v>0.056961</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.06411170000000001</v>
+        <v>0.0633088</v>
       </c>
       <c r="AM36" s="1">
-        <v>0.033335</v>
+        <v>0.0326851</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.204939</v>
+        <v>0.205089</v>
       </c>
       <c r="AO36" s="1">
-        <v>874.3150000000001</v>
+        <v>874.3330000000001</v>
       </c>
       <c r="AP36" s="1">
-        <v>829.751</v>
+        <v>829.946</v>
       </c>
       <c r="AQ36" s="1">
-        <v>884.991</v>
+        <v>885.1229999999999</v>
       </c>
       <c r="AR36" s="1">
-        <v>737.621</v>
+        <v>739.0020000000001</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT36" s="1">
-        <v>724.196</v>
+        <v>724.321</v>
       </c>
       <c r="AU36" s="1">
-        <v>780.1850000000001</v>
+        <v>780.2940000000001</v>
       </c>
       <c r="AV36" s="1">
-        <v>734.2650000000001</v>
+        <v>734.446</v>
       </c>
       <c r="AW36" s="1">
-        <v>788.451</v>
+        <v>789.365</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>124</v>
@@ -6234,115 +6234,115 @@
         <v>125</v>
       </c>
       <c r="M37" s="3">
-        <v>54.3928</v>
+        <v>53.4364</v>
       </c>
       <c r="N37" s="1">
-        <v>10.9542</v>
+        <v>13.7128</v>
       </c>
       <c r="O37" s="1">
-        <v>21.596</v>
+        <v>21.8016</v>
       </c>
       <c r="P37" s="1">
-        <v>49.2209</v>
+        <v>51.898</v>
       </c>
       <c r="Q37" s="1">
-        <v>54.3937</v>
+        <v>53.4367</v>
       </c>
       <c r="R37" s="1">
-        <v>100.012</v>
+        <v>100.007</v>
       </c>
       <c r="S37" s="1">
-        <v>49.216</v>
+        <v>51.898</v>
       </c>
       <c r="T37" s="1">
-        <v>49.2209</v>
+        <v>51.0726</v>
       </c>
       <c r="U37" s="1">
-        <v>20.9085</v>
+        <v>21.325</v>
       </c>
       <c r="V37" s="1">
-        <v>15.0265</v>
+        <v>15.0912</v>
       </c>
       <c r="W37" s="1">
-        <v>15.4719</v>
+        <v>15.2478</v>
       </c>
       <c r="X37" s="1">
-        <v>9.9299</v>
+        <v>13.549</v>
       </c>
       <c r="Y37" s="1">
-        <v>9.9299</v>
+        <v>13.549</v>
       </c>
       <c r="Z37" s="1">
-        <v>9.92797</v>
+        <v>13.5529</v>
       </c>
       <c r="AA37" s="1">
-        <v>21.596</v>
+        <v>21.8016</v>
       </c>
       <c r="AB37" s="1">
-        <v>14.2577</v>
+        <v>14.5537</v>
       </c>
       <c r="AC37" s="1">
-        <v>15.176</v>
+        <v>15.0404</v>
       </c>
       <c r="AD37" s="1">
-        <v>10.9542</v>
+        <v>13.7128</v>
       </c>
       <c r="AE37" s="1">
-        <v>10.9542</v>
+        <v>13.7128</v>
       </c>
       <c r="AF37" s="1">
-        <v>10.9542</v>
+        <v>13.7128</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.837614</v>
+        <v>0.835836</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.7121989999999999</v>
+        <v>0.7090589999999999</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.377151</v>
+        <v>0.376629</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.09165710000000001</v>
+        <v>0.0927612</v>
       </c>
       <c r="AK37" s="1">
-        <v>0.100467</v>
+        <v>0.102355</v>
       </c>
       <c r="AL37" s="1">
-        <v>0.0969469</v>
+        <v>0.0958106</v>
       </c>
       <c r="AM37" s="1">
-        <v>0.051465</v>
+        <v>0.0464599</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.399249</v>
+        <v>0.396109</v>
       </c>
       <c r="AO37" s="1">
-        <v>883.106</v>
+        <v>883.115</v>
       </c>
       <c r="AP37" s="1">
-        <v>845.1020000000001</v>
+        <v>845.3460000000001</v>
       </c>
       <c r="AQ37" s="1">
-        <v>906.0210000000001</v>
+        <v>906.273</v>
       </c>
       <c r="AR37" s="1">
-        <v>764.8390000000001</v>
+        <v>767.523</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT37" s="1">
-        <v>732.903</v>
+        <v>732.9970000000001</v>
       </c>
       <c r="AU37" s="1">
-        <v>794.51</v>
+        <v>794.679</v>
       </c>
       <c r="AV37" s="1">
-        <v>756.148</v>
+        <v>756.376</v>
       </c>
       <c r="AW37" s="1">
-        <v>814.846</v>
+        <v>816.698</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>124</v>
@@ -6388,115 +6388,115 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>50.32617575757575</v>
+        <v>49.71617575757576</v>
       </c>
       <c r="N42" s="1">
-        <v>7.607602121212122</v>
+        <v>9.918285151515153</v>
       </c>
       <c r="O42" s="1">
-        <v>18.04363636363637</v>
+        <v>18.26942121212121</v>
       </c>
       <c r="P42" s="1">
-        <v>33.37264545454546</v>
+        <v>34.99896666666667</v>
       </c>
       <c r="Q42" s="1">
-        <v>50.32634848484848</v>
+        <v>49.71645757575758</v>
       </c>
       <c r="R42" s="1">
-        <v>100.000403030303</v>
+        <v>100.0005060606061</v>
       </c>
       <c r="S42" s="1">
-        <v>32.31624545454546</v>
+        <v>34.28329090909092</v>
       </c>
       <c r="T42" s="1">
-        <v>32.64270606060606</v>
+        <v>33.9997</v>
       </c>
       <c r="U42" s="1">
-        <v>17.16910606060606</v>
+        <v>17.34382121212121</v>
       </c>
       <c r="V42" s="1">
-        <v>10.74039121212121</v>
+        <v>10.82599787878788</v>
       </c>
       <c r="W42" s="1">
-        <v>10.9006696969697</v>
+        <v>10.71626636363636</v>
       </c>
       <c r="X42" s="1">
-        <v>6.934166363636364</v>
+        <v>9.521063030303029</v>
       </c>
       <c r="Y42" s="1">
-        <v>6.934166363636364</v>
+        <v>9.521063030303029</v>
       </c>
       <c r="Z42" s="1">
-        <v>6.933962727272726</v>
+        <v>9.52115</v>
       </c>
       <c r="AA42" s="1">
-        <v>17.14319696969697</v>
+        <v>17.29409090909091</v>
       </c>
       <c r="AB42" s="1">
-        <v>10.16664393939394</v>
+        <v>10.39190575757576</v>
       </c>
       <c r="AC42" s="1">
-        <v>10.46872727272727</v>
+        <v>10.3622896969697</v>
       </c>
       <c r="AD42" s="1">
-        <v>7.572706666666666</v>
+        <v>9.491605151515154</v>
       </c>
       <c r="AE42" s="1">
-        <v>7.572706666666666</v>
+        <v>9.491605151515154</v>
       </c>
       <c r="AF42" s="1">
-        <v>7.572706666666666</v>
+        <v>9.491605151515154</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7580484242424242</v>
+        <v>0.7569113636363636</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3964469696969697</v>
+        <v>0.3958259090909091</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1419508545454546</v>
+        <v>0.1418437757575757</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.06628808181818183</v>
+        <v>0.06715620606060606</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.0715401090909091</v>
+        <v>0.07299359393939393</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.07756274242424241</v>
+        <v>0.07655260000000001</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.04025796969696971</v>
+        <v>0.03832521212121212</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2678537575757576</v>
+        <v>0.2672328181818182</v>
       </c>
       <c r="AO42" s="1">
-        <v>878.2948181818184</v>
+        <v>878.3151212121212</v>
       </c>
       <c r="AP42" s="1">
-        <v>835.6048181818182</v>
+        <v>835.830878787879</v>
       </c>
       <c r="AQ42" s="1">
-        <v>892.7813636363637</v>
+        <v>892.9721818181815</v>
       </c>
       <c r="AR42" s="1">
-        <v>747.9413939393939</v>
+        <v>749.9087272727273</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT42" s="1">
-        <v>728.1116666666666</v>
+        <v>728.2365151515153</v>
       </c>
       <c r="AU42" s="1">
-        <v>785.4609393939392</v>
+        <v>785.6089696969697</v>
       </c>
       <c r="AV42" s="1">
-        <v>742.7361818181819</v>
+        <v>742.9458787878784</v>
       </c>
       <c r="AW42" s="1">
-        <v>798.2676969696969</v>
+        <v>799.6246666666666</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>124</v>
@@ -6507,115 +6507,115 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>2.291751525220764</v>
+        <v>2.150564554494626</v>
       </c>
       <c r="N43" s="1">
-        <v>1.516203926255459</v>
+        <v>1.945989837308979</v>
       </c>
       <c r="O43" s="1">
-        <v>2.10753601037831</v>
+        <v>2.147558616797304</v>
       </c>
       <c r="P43" s="1">
-        <v>7.067045278169048</v>
+        <v>7.555277768379779</v>
       </c>
       <c r="Q43" s="1">
-        <v>2.291546825091866</v>
+        <v>2.150805063512379</v>
       </c>
       <c r="R43" s="1">
-        <v>0.003789257930749175</v>
+        <v>0.002238633158999665</v>
       </c>
       <c r="S43" s="1">
-        <v>7.355554754518639</v>
+        <v>7.693662553090463</v>
       </c>
       <c r="T43" s="1">
-        <v>7.079792013891599</v>
+        <v>7.338227476424914</v>
       </c>
       <c r="U43" s="1">
-        <v>2.01978293732338</v>
+        <v>2.087021723799408</v>
       </c>
       <c r="V43" s="1">
-        <v>2.034661678678639</v>
+        <v>2.062801992196695</v>
       </c>
       <c r="W43" s="1">
-        <v>2.366982436016161</v>
+        <v>2.32534672784423</v>
       </c>
       <c r="X43" s="1">
-        <v>1.365973246838197</v>
+        <v>1.926138205278438</v>
       </c>
       <c r="Y43" s="1">
-        <v>1.365973246838197</v>
+        <v>1.926138205278438</v>
       </c>
       <c r="Z43" s="1">
-        <v>1.365190020323007</v>
+        <v>1.926199641056466</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.28467777284859</v>
+        <v>2.321212145509929</v>
       </c>
       <c r="AB43" s="1">
-        <v>1.921581531540415</v>
+        <v>1.959048606862185</v>
       </c>
       <c r="AC43" s="1">
-        <v>2.327344959875136</v>
+        <v>2.289635665951437</v>
       </c>
       <c r="AD43" s="1">
-        <v>1.519902544879544</v>
+        <v>1.944679718984861</v>
       </c>
       <c r="AE43" s="1">
-        <v>1.519902544879544</v>
+        <v>1.944679718984861</v>
       </c>
       <c r="AF43" s="1">
-        <v>1.519902544879544</v>
+        <v>1.944679718984861</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07429955226670036</v>
+        <v>0.0742661013750118</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1223105237070136</v>
+        <v>0.1214951055765307</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.08940476779240238</v>
+        <v>0.08927134456766857</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.01104827546969277</v>
+        <v>0.01120201382087139</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.0118848248405487</v>
+        <v>0.01210469685657845</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.009837839829840395</v>
+        <v>0.009711235399985904</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.005240017249074365</v>
+        <v>0.004422188024849893</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.0496367086826909</v>
+        <v>0.04882640517579791</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.743454374750207</v>
+        <v>2.743942493848953</v>
       </c>
       <c r="AP43" s="1">
-        <v>4.172433447765603</v>
+        <v>4.185475931502484</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.818656862709</v>
+        <v>5.851109904834923</v>
       </c>
       <c r="AR43" s="1">
-        <v>7.355493040926284</v>
+        <v>7.693207749117026</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.97191926219576</v>
+        <v>2.968776966027056</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.869811865596918</v>
+        <v>3.88466070032602</v>
       </c>
       <c r="AV43" s="1">
-        <v>6.131395587117997</v>
+        <v>6.140840243354203</v>
       </c>
       <c r="AW43" s="1">
-        <v>7.079707143767029</v>
+        <v>7.338277601836555</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>124</v>
@@ -6626,115 +6626,115 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>4.553796291338071</v>
+        <v>4.325683787468152</v>
       </c>
       <c r="N44" s="1">
-        <v>19.93011598264135</v>
+        <v>19.62022474229532</v>
       </c>
       <c r="O44" s="1">
-        <v>11.68021771168954</v>
+        <v>11.75493515564939</v>
       </c>
       <c r="P44" s="1">
-        <v>21.17616143974734</v>
+        <v>21.58714524442086</v>
       </c>
       <c r="Q44" s="1">
-        <v>4.55337391661104</v>
+        <v>4.326143028664095</v>
       </c>
       <c r="R44" s="1">
-        <v>0.003789242658953004</v>
+        <v>0.002238621830216464</v>
       </c>
       <c r="S44" s="1">
-        <v>22.76116749040238</v>
+        <v>22.44143531463116</v>
       </c>
       <c r="T44" s="1">
-        <v>21.68874112564966</v>
+        <v>21.58321242959471</v>
       </c>
       <c r="U44" s="1">
-        <v>11.76405416912011</v>
+        <v>12.03322899996706</v>
       </c>
       <c r="V44" s="1">
-        <v>18.94401831827498</v>
+        <v>19.05415108420153</v>
       </c>
       <c r="W44" s="1">
-        <v>21.71410107650693</v>
+        <v>21.69922479469956</v>
       </c>
       <c r="X44" s="1">
-        <v>19.69917038624184</v>
+        <v>20.23028520185245</v>
       </c>
       <c r="Y44" s="1">
-        <v>19.69917038624184</v>
+        <v>20.23028520185245</v>
       </c>
       <c r="Z44" s="1">
-        <v>19.68845339986368</v>
+        <v>20.23074566682035</v>
       </c>
       <c r="AA44" s="1">
-        <v>13.32702282361383</v>
+        <v>13.42199574242869</v>
       </c>
       <c r="AB44" s="1">
-        <v>18.90084420183762</v>
+        <v>18.85167795554755</v>
       </c>
       <c r="AC44" s="1">
-        <v>22.23140310416</v>
+        <v>22.09584689203399</v>
       </c>
       <c r="AD44" s="1">
-        <v>20.0707965035779</v>
+        <v>20.48841779595551</v>
       </c>
       <c r="AE44" s="1">
-        <v>20.0707965035779</v>
+        <v>20.48841779595551</v>
       </c>
       <c r="AF44" s="1">
-        <v>20.0707965035779</v>
+        <v>20.48841779595551</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.801425593747997</v>
+        <v>9.811730268947425</v>
       </c>
       <c r="AH44" s="1">
-        <v>30.85167325165923</v>
+        <v>30.69407605367918</v>
       </c>
       <c r="AI44" s="1">
-        <v>62.98290213094404</v>
+        <v>62.93638482963231</v>
       </c>
       <c r="AJ44" s="1">
-        <v>16.66706165973623</v>
+        <v>16.68053405334121</v>
       </c>
       <c r="AK44" s="1">
-        <v>16.61281341554307</v>
+        <v>16.58323176500789</v>
       </c>
       <c r="AL44" s="1">
-        <v>12.68371839668933</v>
+        <v>12.68570290229973</v>
       </c>
       <c r="AM44" s="1">
-        <v>13.01609914388899</v>
+        <v>11.53858721215613</v>
       </c>
       <c r="AN44" s="1">
-        <v>18.53127211353459</v>
+        <v>18.27111112624562</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.3123614437837064</v>
+        <v>0.3124097977571157</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.4993309465166019</v>
+        <v>0.5007563177819245</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.6517448839891982</v>
+        <v>0.6552398858519279</v>
       </c>
       <c r="AR44" s="1">
-        <v>0.9834317368350257</v>
+        <v>1.025885880418505</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.4081680596880644</v>
+        <v>0.407666589666872</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4926803704055431</v>
+        <v>0.4944776409343236</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.8255145955201267</v>
+        <v>0.8265528376539389</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.8868838324088897</v>
+        <v>0.917715261639822</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>124</v>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -980,115 +980,115 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>49.877</v>
+        <v>49.8485</v>
       </c>
       <c r="N2">
-        <v>8.821420000000002</v>
+        <v>8.92666</v>
       </c>
       <c r="O2">
-        <v>16.3025</v>
+        <v>20.0508</v>
       </c>
       <c r="P2">
-        <v>32.4035</v>
+        <v>35.6538</v>
       </c>
       <c r="Q2">
-        <v>49.8783</v>
+        <v>49.8478</v>
       </c>
       <c r="R2">
-        <v>100.003</v>
+        <v>99.9986</v>
       </c>
       <c r="S2">
-        <v>32.4035</v>
+        <v>35.6538</v>
       </c>
       <c r="T2">
-        <v>32.2799</v>
+        <v>35.5048</v>
       </c>
       <c r="U2">
-        <v>16.3025</v>
+        <v>14.4055</v>
       </c>
       <c r="V2">
-        <v>9.80823</v>
+        <v>8.391910000000001</v>
       </c>
       <c r="W2">
-        <v>9.855420000000001</v>
+        <v>11.7788</v>
       </c>
       <c r="X2">
-        <v>8.822139999999999</v>
+        <v>8.926900000000002</v>
       </c>
       <c r="Y2">
-        <v>8.822139999999999</v>
+        <v>8.926900000000002</v>
       </c>
       <c r="Z2">
-        <v>8.821420000000002</v>
+        <v>8.92666</v>
       </c>
       <c r="AA2">
-        <v>16.0483</v>
+        <v>14.9093</v>
       </c>
       <c r="AB2">
-        <v>9.418520000000001</v>
+        <v>16.5395</v>
       </c>
       <c r="AC2">
-        <v>9.45224</v>
+        <v>20.0508</v>
       </c>
       <c r="AD2">
-        <v>8.75207</v>
+        <v>7.20399</v>
       </c>
       <c r="AE2">
-        <v>8.75207</v>
+        <v>7.20399</v>
       </c>
       <c r="AF2">
-        <v>8.75207</v>
+        <v>7.20399</v>
       </c>
       <c r="AG2">
-        <v>0.757753</v>
+        <v>0.756582</v>
       </c>
       <c r="AH2">
-        <v>0.354485</v>
+        <v>0.344714</v>
       </c>
       <c r="AI2">
-        <v>0.107527</v>
+        <v>0.107523</v>
       </c>
       <c r="AJ2">
-        <v>0.06476539999999999</v>
+        <v>0.057373</v>
       </c>
       <c r="AK2">
-        <v>0.06962800000000001</v>
+        <v>0.0614711</v>
       </c>
       <c r="AL2">
-        <v>0.0749219</v>
+        <v>0.0775682</v>
       </c>
       <c r="AM2">
-        <v>0.0376111</v>
+        <v>0.0407411</v>
       </c>
       <c r="AN2">
-        <v>0.247532</v>
+        <v>0.237761</v>
       </c>
       <c r="AO2">
-        <v>878.1189999999999</v>
+        <v>877.087</v>
       </c>
       <c r="AP2">
-        <v>834.934</v>
+        <v>833.261</v>
       </c>
       <c r="AQ2">
-        <v>891.721</v>
+        <v>895.855</v>
       </c>
       <c r="AR2">
-        <v>748.0309999999999</v>
+        <v>751.279</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT2">
-        <v>727.8380000000001</v>
+        <v>726.853</v>
       </c>
       <c r="AU2">
-        <v>784.85</v>
+        <v>787.1669999999999</v>
       </c>
       <c r="AV2">
-        <v>741.487</v>
+        <v>744.625</v>
       </c>
       <c r="AW2">
-        <v>797.9050000000001</v>
+        <v>801.13</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>62</v>
@@ -1132,115 +1132,115 @@
         <v>73</v>
       </c>
       <c r="M3">
-        <v>50.3847</v>
+        <v>50.3704</v>
       </c>
       <c r="N3">
-        <v>7.659940000000001</v>
+        <v>7.85002</v>
       </c>
       <c r="O3">
-        <v>15.3098</v>
+        <v>17.4744</v>
       </c>
       <c r="P3">
-        <v>28.5201</v>
+        <v>31.5379</v>
       </c>
       <c r="Q3">
-        <v>50.3847</v>
+        <v>50.3701</v>
       </c>
       <c r="R3">
-        <v>100</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S3">
-        <v>28.1353</v>
+        <v>31.1655</v>
       </c>
       <c r="T3">
-        <v>28.5201</v>
+        <v>31.5379</v>
       </c>
       <c r="U3">
-        <v>15.3098</v>
+        <v>13.5666</v>
       </c>
       <c r="V3">
-        <v>8.634970000000001</v>
+        <v>7.433580000000001</v>
       </c>
       <c r="W3">
-        <v>8.496260000000001</v>
+        <v>10.2184</v>
       </c>
       <c r="X3">
-        <v>7.659940000000001</v>
+        <v>7.84261</v>
       </c>
       <c r="Y3">
-        <v>7.659940000000001</v>
+        <v>7.84261</v>
       </c>
       <c r="Z3">
-        <v>7.659940000000001</v>
+        <v>7.85002</v>
       </c>
       <c r="AA3">
-        <v>14.8653</v>
+        <v>13.9345</v>
       </c>
       <c r="AB3">
-        <v>8.273529999999999</v>
+        <v>14.586</v>
       </c>
       <c r="AC3">
-        <v>8.043000000000001</v>
+        <v>17.4744</v>
       </c>
       <c r="AD3">
-        <v>7.52202</v>
+        <v>6.23792</v>
       </c>
       <c r="AE3">
-        <v>7.52202</v>
+        <v>6.23792</v>
       </c>
       <c r="AF3">
-        <v>7.52202</v>
+        <v>6.23792</v>
       </c>
       <c r="AG3">
-        <v>0.681972</v>
+        <v>0.6808</v>
       </c>
       <c r="AH3">
-        <v>0.359955</v>
+        <v>0.35157</v>
       </c>
       <c r="AI3">
-        <v>0.129434</v>
+        <v>0.129428</v>
       </c>
       <c r="AJ3">
-        <v>0.061372</v>
+        <v>0.0549297</v>
       </c>
       <c r="AK3">
-        <v>0.0656582</v>
+        <v>0.0575488</v>
       </c>
       <c r="AL3">
-        <v>0.0691113</v>
+        <v>0.0716408</v>
       </c>
       <c r="AM3">
-        <v>0.0343908</v>
+        <v>0.0380283</v>
       </c>
       <c r="AN3">
-        <v>0.230974</v>
+        <v>0.222589</v>
       </c>
       <c r="AO3">
-        <v>877.227</v>
+        <v>876.258</v>
       </c>
       <c r="AP3">
-        <v>832.581</v>
+        <v>831.071</v>
       </c>
       <c r="AQ3">
-        <v>888.9040000000001</v>
+        <v>892.7090000000001</v>
       </c>
       <c r="AR3">
-        <v>743.76</v>
+        <v>746.79</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT3">
-        <v>726.308</v>
+        <v>725.4309999999999</v>
       </c>
       <c r="AU3">
-        <v>782.966</v>
+        <v>785.1980000000001</v>
       </c>
       <c r="AV3">
-        <v>738.0730000000001</v>
+        <v>740.982</v>
       </c>
       <c r="AW3">
-        <v>794.145</v>
+        <v>797.163</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>62</v>
@@ -1284,115 +1284,115 @@
         <v>75</v>
       </c>
       <c r="M4">
-        <v>50.3658</v>
+        <v>50.3708</v>
       </c>
       <c r="N4">
-        <v>6.47954</v>
+        <v>6.76802</v>
       </c>
       <c r="O4">
-        <v>14.469</v>
+        <v>15.1639</v>
       </c>
       <c r="P4">
-        <v>23.777</v>
+        <v>26.3783</v>
       </c>
       <c r="Q4">
-        <v>50.3656</v>
+        <v>50.3677</v>
       </c>
       <c r="R4">
-        <v>99.9996</v>
+        <v>99.99380000000001</v>
       </c>
       <c r="S4">
-        <v>23.4124</v>
+        <v>26.0084</v>
       </c>
       <c r="T4">
-        <v>23.777</v>
+        <v>26.3783</v>
       </c>
       <c r="U4">
-        <v>14.469</v>
+        <v>12.7669</v>
       </c>
       <c r="V4">
-        <v>7.602679999999999</v>
+        <v>6.624099999999999</v>
       </c>
       <c r="W4">
-        <v>7.20424</v>
+        <v>8.757199999999999</v>
       </c>
       <c r="X4">
-        <v>6.47778</v>
+        <v>6.76531</v>
       </c>
       <c r="Y4">
-        <v>6.47778</v>
+        <v>6.76531</v>
       </c>
       <c r="Z4">
-        <v>6.47954</v>
+        <v>6.76802</v>
       </c>
       <c r="AA4">
-        <v>14.0981</v>
+        <v>13.3257</v>
       </c>
       <c r="AB4">
-        <v>7.345390000000001</v>
+        <v>12.8994</v>
       </c>
       <c r="AC4">
-        <v>6.87548</v>
+        <v>15.1639</v>
       </c>
       <c r="AD4">
-        <v>6.40686</v>
+        <v>5.307650000000001</v>
       </c>
       <c r="AE4">
-        <v>6.40686</v>
+        <v>5.307650000000001</v>
       </c>
       <c r="AF4">
-        <v>6.40686</v>
+        <v>5.307650000000001</v>
       </c>
       <c r="AG4">
-        <v>0.832585</v>
+        <v>0.831236</v>
       </c>
       <c r="AH4">
-        <v>0.542706</v>
+        <v>0.5330069999999999</v>
       </c>
       <c r="AI4">
-        <v>0.240591</v>
+        <v>0.240584</v>
       </c>
       <c r="AJ4">
-        <v>0.0836623</v>
+        <v>0.07622269999999999</v>
       </c>
       <c r="AK4">
-        <v>0.0876324</v>
+        <v>0.07486960000000001</v>
       </c>
       <c r="AL4">
-        <v>0.08782599999999999</v>
+        <v>0.090882</v>
       </c>
       <c r="AM4">
-        <v>0.0431185</v>
+        <v>0.05056919999999999</v>
       </c>
       <c r="AN4">
-        <v>0.302796</v>
+        <v>0.293094</v>
       </c>
       <c r="AO4">
-        <v>875.546</v>
+        <v>874.664</v>
       </c>
       <c r="AP4">
-        <v>829.946</v>
+        <v>828.556</v>
       </c>
       <c r="AQ4">
-        <v>885.134</v>
+        <v>888.397</v>
       </c>
       <c r="AR4">
-        <v>739.046</v>
+        <v>741.6319999999999</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT4">
-        <v>724.784</v>
+        <v>724.035</v>
       </c>
       <c r="AU4">
-        <v>780.302</v>
+        <v>782.438</v>
       </c>
       <c r="AV4">
-        <v>734.455</v>
+        <v>737.0600000000001</v>
       </c>
       <c r="AW4">
-        <v>789.402</v>
+        <v>792.003</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>62</v>
@@ -1436,115 +1436,115 @@
         <v>73</v>
       </c>
       <c r="M5">
-        <v>49.9697</v>
+        <v>50.1482</v>
       </c>
       <c r="N5">
-        <v>8.816970000000001</v>
+        <v>9.471299999999999</v>
       </c>
       <c r="O5">
-        <v>17.5433</v>
+        <v>20.3444</v>
       </c>
       <c r="P5">
-        <v>28.6522</v>
+        <v>31.9767</v>
       </c>
       <c r="Q5">
-        <v>49.9706</v>
+        <v>50.1474</v>
       </c>
       <c r="R5">
-        <v>100.002</v>
+        <v>99.99850000000001</v>
       </c>
       <c r="S5">
-        <v>28.6522</v>
+        <v>31.8319</v>
       </c>
       <c r="T5">
-        <v>28.6234</v>
+        <v>31.9767</v>
       </c>
       <c r="U5">
-        <v>17.5433</v>
+        <v>15.4997</v>
       </c>
       <c r="V5">
-        <v>10.3907</v>
+        <v>9.04752</v>
       </c>
       <c r="W5">
-        <v>9.835330000000001</v>
+        <v>12.1423</v>
       </c>
       <c r="X5">
-        <v>8.73461</v>
+        <v>9.46261</v>
       </c>
       <c r="Y5">
-        <v>8.73461</v>
+        <v>9.46261</v>
       </c>
       <c r="Z5">
-        <v>8.735900000000001</v>
+        <v>9.471299999999999</v>
       </c>
       <c r="AA5">
-        <v>17.2079</v>
+        <v>16.2861</v>
       </c>
       <c r="AB5">
-        <v>10.0927</v>
+        <v>17.7172</v>
       </c>
       <c r="AC5">
-        <v>9.57414</v>
+        <v>20.3444</v>
       </c>
       <c r="AD5">
-        <v>8.816970000000001</v>
+        <v>7.489100000000001</v>
       </c>
       <c r="AE5">
-        <v>8.816970000000001</v>
+        <v>7.489100000000001</v>
       </c>
       <c r="AF5">
-        <v>8.816970000000001</v>
+        <v>7.489100000000001</v>
       </c>
       <c r="AG5">
-        <v>0.677682</v>
+        <v>0.677045</v>
       </c>
       <c r="AH5">
-        <v>0.501883</v>
+        <v>0.493414</v>
       </c>
       <c r="AI5">
-        <v>0.248148</v>
+        <v>0.247792</v>
       </c>
       <c r="AJ5">
-        <v>0.068594</v>
+        <v>0.06252770000000001</v>
       </c>
       <c r="AK5">
-        <v>0.0771054</v>
+        <v>0.0643203</v>
       </c>
       <c r="AL5">
-        <v>0.0755156</v>
+        <v>0.0767737</v>
       </c>
       <c r="AM5">
-        <v>0.0370759</v>
+        <v>0.04620009999999999</v>
       </c>
       <c r="AN5">
-        <v>0.310042</v>
+        <v>0.301572</v>
       </c>
       <c r="AO5">
-        <v>876.476</v>
+        <v>875.47</v>
       </c>
       <c r="AP5">
-        <v>832.615</v>
+        <v>830.838</v>
       </c>
       <c r="AQ5">
-        <v>888.645</v>
+        <v>892.802</v>
       </c>
       <c r="AR5">
-        <v>744.278</v>
+        <v>747.453</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT5">
-        <v>726.444</v>
+        <v>725.5870000000001</v>
       </c>
       <c r="AU5">
-        <v>782.59</v>
+        <v>785.6129999999999</v>
       </c>
       <c r="AV5">
-        <v>738.567</v>
+        <v>742.034</v>
       </c>
       <c r="AW5">
-        <v>794.248</v>
+        <v>797.6020000000001</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>62</v>
@@ -1588,115 +1588,115 @@
         <v>75</v>
       </c>
       <c r="M6">
-        <v>49.9699</v>
+        <v>50.186</v>
       </c>
       <c r="N6">
-        <v>7.65456</v>
+        <v>8.387259999999999</v>
       </c>
       <c r="O6">
-        <v>16.6391</v>
+        <v>17.9043</v>
       </c>
       <c r="P6">
-        <v>24.8763</v>
+        <v>27.8612</v>
       </c>
       <c r="Q6">
-        <v>49.9703</v>
+        <v>50.1846</v>
       </c>
       <c r="R6">
-        <v>100.001</v>
+        <v>99.9973</v>
       </c>
       <c r="S6">
-        <v>24.8763</v>
+        <v>27.6847</v>
       </c>
       <c r="T6">
-        <v>24.8468</v>
+        <v>27.8612</v>
       </c>
       <c r="U6">
-        <v>16.6391</v>
+        <v>14.79</v>
       </c>
       <c r="V6">
-        <v>9.34474</v>
+        <v>8.224590000000001</v>
       </c>
       <c r="W6">
-        <v>8.552709999999999</v>
+        <v>10.6209</v>
       </c>
       <c r="X6">
-        <v>7.571410000000001</v>
+        <v>8.383940000000001</v>
       </c>
       <c r="Y6">
-        <v>7.571410000000001</v>
+        <v>8.383940000000001</v>
       </c>
       <c r="Z6">
-        <v>7.57363</v>
+        <v>8.387259999999999</v>
       </c>
       <c r="AA6">
-        <v>16.3192</v>
+        <v>15.5764</v>
       </c>
       <c r="AB6">
-        <v>9.08061</v>
+        <v>15.7307</v>
       </c>
       <c r="AC6">
-        <v>8.325340000000001</v>
+        <v>17.9043</v>
       </c>
       <c r="AD6">
-        <v>7.65456</v>
+        <v>6.49901</v>
       </c>
       <c r="AE6">
-        <v>7.65456</v>
+        <v>6.49901</v>
       </c>
       <c r="AF6">
-        <v>7.65456</v>
+        <v>6.49901</v>
       </c>
       <c r="AG6">
-        <v>0.827998</v>
+        <v>0.8274010000000001</v>
       </c>
       <c r="AH6">
-        <v>0.7090589999999999</v>
+        <v>0.698747</v>
       </c>
       <c r="AI6">
-        <v>0.376629</v>
+        <v>0.376259</v>
       </c>
       <c r="AJ6">
-        <v>0.09275850000000001</v>
+        <v>0.08572479999999999</v>
       </c>
       <c r="AK6">
-        <v>0.102347</v>
+        <v>0.0834698</v>
       </c>
       <c r="AL6">
-        <v>0.0958049</v>
+        <v>0.09709719999999999</v>
       </c>
       <c r="AM6">
-        <v>0.0464599</v>
+        <v>0.0607775</v>
       </c>
       <c r="AN6">
-        <v>0.396109</v>
+        <v>0.385797</v>
       </c>
       <c r="AO6">
-        <v>875.3220000000001</v>
+        <v>874.41</v>
       </c>
       <c r="AP6">
-        <v>830.6260000000001</v>
+        <v>828.9490000000001</v>
       </c>
       <c r="AQ6">
-        <v>885.72</v>
+        <v>889.4300000000001</v>
       </c>
       <c r="AR6">
-        <v>740.5060000000001</v>
+        <v>743.311</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT6">
-        <v>725.301</v>
+        <v>724.567</v>
       </c>
       <c r="AU6">
-        <v>780.581</v>
+        <v>783.424</v>
       </c>
       <c r="AV6">
-        <v>735.681</v>
+        <v>738.765</v>
       </c>
       <c r="AW6">
-        <v>790.472</v>
+        <v>793.486</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>62</v>
@@ -1740,115 +1740,115 @@
         <v>73</v>
       </c>
       <c r="M7">
-        <v>50.3947</v>
+        <v>50.3805</v>
       </c>
       <c r="N7">
-        <v>7.633490000000001</v>
+        <v>7.826410000000001</v>
       </c>
       <c r="O7">
-        <v>15.3103</v>
+        <v>17.472</v>
       </c>
       <c r="P7">
-        <v>28.4931</v>
+        <v>31.5073</v>
       </c>
       <c r="Q7">
-        <v>50.3934</v>
+        <v>50.381</v>
       </c>
       <c r="R7">
-        <v>99.9973</v>
+        <v>100.001</v>
       </c>
       <c r="S7">
-        <v>28.0976</v>
+        <v>31.1314</v>
       </c>
       <c r="T7">
-        <v>28.4931</v>
+        <v>31.5073</v>
       </c>
       <c r="U7">
-        <v>15.3103</v>
+        <v>13.5602</v>
       </c>
       <c r="V7">
-        <v>8.634970000000001</v>
+        <v>7.433999999999999</v>
       </c>
       <c r="W7">
-        <v>8.49863</v>
+        <v>10.2185</v>
       </c>
       <c r="X7">
-        <v>7.6346</v>
+        <v>7.82853</v>
       </c>
       <c r="Y7">
-        <v>7.6346</v>
+        <v>7.82853</v>
       </c>
       <c r="Z7">
-        <v>7.633490000000001</v>
+        <v>7.826410000000001</v>
       </c>
       <c r="AA7">
-        <v>14.8683</v>
+        <v>13.9454</v>
       </c>
       <c r="AB7">
-        <v>8.278180000000001</v>
+        <v>14.587</v>
       </c>
       <c r="AC7">
-        <v>8.04383</v>
+        <v>17.472</v>
       </c>
       <c r="AD7">
-        <v>7.48258</v>
+        <v>6.21214</v>
       </c>
       <c r="AE7">
-        <v>7.48258</v>
+        <v>6.21214</v>
       </c>
       <c r="AF7">
-        <v>7.48258</v>
+        <v>6.21214</v>
       </c>
       <c r="AG7">
-        <v>0.681989</v>
+        <v>0.680804</v>
       </c>
       <c r="AH7">
-        <v>0.359736</v>
+        <v>0.351356</v>
       </c>
       <c r="AI7">
-        <v>0.129434</v>
+        <v>0.129428</v>
       </c>
       <c r="AJ7">
-        <v>0.0613742</v>
+        <v>0.0549263</v>
       </c>
       <c r="AK7">
-        <v>0.065653</v>
+        <v>0.0575508</v>
       </c>
       <c r="AL7">
-        <v>0.0691239</v>
+        <v>0.07164240000000001</v>
       </c>
       <c r="AM7">
-        <v>0.0341617</v>
+        <v>0.0378133</v>
       </c>
       <c r="AN7">
-        <v>0.230755</v>
+        <v>0.222375</v>
       </c>
       <c r="AO7">
-        <v>877.228</v>
+        <v>876.259</v>
       </c>
       <c r="AP7">
-        <v>832.581</v>
+        <v>831.072</v>
       </c>
       <c r="AQ7">
-        <v>888.9059999999999</v>
+        <v>892.7130000000001</v>
       </c>
       <c r="AR7">
-        <v>743.721</v>
+        <v>746.756</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT7">
-        <v>726.308</v>
+        <v>725.4290000000001</v>
       </c>
       <c r="AU7">
-        <v>782.9680000000001</v>
+        <v>785.194</v>
       </c>
       <c r="AV7">
-        <v>738.072</v>
+        <v>740.9829999999999</v>
       </c>
       <c r="AW7">
-        <v>794.1180000000001</v>
+        <v>797.1320000000001</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>62</v>
@@ -1892,115 +1892,115 @@
         <v>75</v>
       </c>
       <c r="M8">
-        <v>50.3605</v>
+        <v>50.382</v>
       </c>
       <c r="N8">
-        <v>6.46149</v>
+        <v>6.761640000000001</v>
       </c>
       <c r="O8">
-        <v>14.4575</v>
+        <v>15.1637</v>
       </c>
       <c r="P8">
-        <v>23.7399</v>
+        <v>26.3533</v>
       </c>
       <c r="Q8">
-        <v>50.3596</v>
+        <v>50.383</v>
       </c>
       <c r="R8">
-        <v>99.9982</v>
+        <v>100.002</v>
       </c>
       <c r="S8">
-        <v>23.3793</v>
+        <v>25.9719</v>
       </c>
       <c r="T8">
-        <v>23.7399</v>
+        <v>26.3533</v>
       </c>
       <c r="U8">
-        <v>14.4575</v>
+        <v>12.7689</v>
       </c>
       <c r="V8">
-        <v>7.60405</v>
+        <v>6.62028</v>
       </c>
       <c r="W8">
-        <v>7.20471</v>
+        <v>8.75966</v>
       </c>
       <c r="X8">
-        <v>6.46015</v>
+        <v>6.75664</v>
       </c>
       <c r="Y8">
-        <v>6.46015</v>
+        <v>6.75664</v>
       </c>
       <c r="Z8">
-        <v>6.46149</v>
+        <v>6.761640000000001</v>
       </c>
       <c r="AA8">
-        <v>14.1</v>
+        <v>13.3353</v>
       </c>
       <c r="AB8">
-        <v>7.346090000000001</v>
+        <v>12.8991</v>
       </c>
       <c r="AC8">
-        <v>6.87501</v>
+        <v>15.1637</v>
       </c>
       <c r="AD8">
-        <v>6.37467</v>
+        <v>5.2802</v>
       </c>
       <c r="AE8">
-        <v>6.37467</v>
+        <v>5.2802</v>
       </c>
       <c r="AF8">
-        <v>6.37467</v>
+        <v>5.2802</v>
       </c>
       <c r="AG8">
-        <v>0.832608</v>
+        <v>0.831241</v>
       </c>
       <c r="AH8">
-        <v>0.542442</v>
+        <v>0.5327799999999999</v>
       </c>
       <c r="AI8">
-        <v>0.240591</v>
+        <v>0.240584</v>
       </c>
       <c r="AJ8">
-        <v>0.0836513</v>
+        <v>0.07622229999999999</v>
       </c>
       <c r="AK8">
-        <v>0.0876316</v>
+        <v>0.0748543</v>
       </c>
       <c r="AL8">
-        <v>0.0878226</v>
+        <v>0.09088300000000001</v>
       </c>
       <c r="AM8">
-        <v>0.0428698</v>
+        <v>0.0503554</v>
       </c>
       <c r="AN8">
-        <v>0.302532</v>
+        <v>0.292867</v>
       </c>
       <c r="AO8">
-        <v>875.5350000000001</v>
+        <v>874.665</v>
       </c>
       <c r="AP8">
-        <v>829.948</v>
+        <v>828.549</v>
       </c>
       <c r="AQ8">
-        <v>885.1229999999999</v>
+        <v>888.3990000000001</v>
       </c>
       <c r="AR8">
-        <v>739.0020000000001</v>
+        <v>741.598</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT8">
-        <v>724.773</v>
+        <v>724.0310000000001</v>
       </c>
       <c r="AU8">
-        <v>780.2940000000001</v>
+        <v>782.436</v>
       </c>
       <c r="AV8">
-        <v>734.446</v>
+        <v>737.0550000000001</v>
       </c>
       <c r="AW8">
-        <v>789.365</v>
+        <v>791.978</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>62</v>
@@ -2044,115 +2044,115 @@
         <v>73</v>
       </c>
       <c r="M9">
-        <v>49.9725</v>
+        <v>50.1542</v>
       </c>
       <c r="N9">
-        <v>8.777620000000001</v>
+        <v>9.453899999999999</v>
       </c>
       <c r="O9">
-        <v>17.5506</v>
+        <v>20.3475</v>
       </c>
       <c r="P9">
-        <v>28.6155</v>
+        <v>31.9494</v>
       </c>
       <c r="Q9">
-        <v>49.9727</v>
+        <v>50.1556</v>
       </c>
       <c r="R9">
-        <v>100</v>
+        <v>100.003</v>
       </c>
       <c r="S9">
-        <v>28.6155</v>
+        <v>31.7948</v>
       </c>
       <c r="T9">
-        <v>28.5886</v>
+        <v>31.9494</v>
       </c>
       <c r="U9">
-        <v>17.5506</v>
+        <v>15.4932</v>
       </c>
       <c r="V9">
-        <v>10.3837</v>
+        <v>9.05043</v>
       </c>
       <c r="W9">
-        <v>9.835129999999999</v>
+        <v>12.1432</v>
       </c>
       <c r="X9">
-        <v>8.71138</v>
+        <v>9.45626</v>
       </c>
       <c r="Y9">
-        <v>8.71138</v>
+        <v>9.45626</v>
       </c>
       <c r="Z9">
-        <v>8.708820000000001</v>
+        <v>9.453899999999999</v>
       </c>
       <c r="AA9">
-        <v>17.2063</v>
+        <v>16.2868</v>
       </c>
       <c r="AB9">
-        <v>10.0951</v>
+        <v>17.7164</v>
       </c>
       <c r="AC9">
-        <v>9.572460000000001</v>
+        <v>20.3475</v>
       </c>
       <c r="AD9">
-        <v>8.777620000000001</v>
+        <v>7.45437</v>
       </c>
       <c r="AE9">
-        <v>8.777620000000001</v>
+        <v>7.45437</v>
       </c>
       <c r="AF9">
-        <v>8.777620000000001</v>
+        <v>7.45437</v>
       </c>
       <c r="AG9">
-        <v>0.677689</v>
+        <v>0.677046</v>
       </c>
       <c r="AH9">
-        <v>0.501659</v>
+        <v>0.4932409999999999</v>
       </c>
       <c r="AI9">
-        <v>0.248148</v>
+        <v>0.247792</v>
       </c>
       <c r="AJ9">
-        <v>0.06859560000000001</v>
+        <v>0.0625319</v>
       </c>
       <c r="AK9">
-        <v>0.07710640000000001</v>
+        <v>0.06432270000000001</v>
       </c>
       <c r="AL9">
-        <v>0.0755088</v>
+        <v>0.0767695</v>
       </c>
       <c r="AM9">
-        <v>0.036856</v>
+        <v>0.0460248</v>
       </c>
       <c r="AN9">
-        <v>0.309817</v>
+        <v>0.301399</v>
       </c>
       <c r="AO9">
-        <v>876.4770000000001</v>
+        <v>875.4689999999999</v>
       </c>
       <c r="AP9">
-        <v>832.614</v>
+        <v>830.8340000000001</v>
       </c>
       <c r="AQ9">
-        <v>888.644</v>
+        <v>892.802</v>
       </c>
       <c r="AR9">
-        <v>744.239</v>
+        <v>747.4250000000001</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT9">
-        <v>726.444</v>
+        <v>725.591</v>
       </c>
       <c r="AU9">
-        <v>782.5889999999999</v>
+        <v>785.61</v>
       </c>
       <c r="AV9">
-        <v>738.5680000000001</v>
+        <v>742.0390000000001</v>
       </c>
       <c r="AW9">
-        <v>794.2140000000001</v>
+        <v>797.5740000000001</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>62</v>
@@ -2196,115 +2196,115 @@
         <v>75</v>
       </c>
       <c r="M10">
-        <v>49.9703</v>
+        <v>50.1777</v>
       </c>
       <c r="N10">
-        <v>7.62188</v>
+        <v>8.37236</v>
       </c>
       <c r="O10">
-        <v>16.6214</v>
+        <v>17.9041</v>
       </c>
       <c r="P10">
-        <v>24.8444</v>
+        <v>27.8369</v>
       </c>
       <c r="Q10">
-        <v>49.96870000000001</v>
+        <v>50.1768</v>
       </c>
       <c r="R10">
-        <v>99.99680000000001</v>
+        <v>99.9982</v>
       </c>
       <c r="S10">
-        <v>24.8444</v>
+        <v>27.656</v>
       </c>
       <c r="T10">
-        <v>24.8145</v>
+        <v>27.8369</v>
       </c>
       <c r="U10">
-        <v>16.6214</v>
+        <v>14.7648</v>
       </c>
       <c r="V10">
-        <v>9.342379999999999</v>
+        <v>8.21869</v>
       </c>
       <c r="W10">
-        <v>8.55129</v>
+        <v>10.62</v>
       </c>
       <c r="X10">
-        <v>7.552020000000001</v>
+        <v>8.37269</v>
       </c>
       <c r="Y10">
-        <v>7.552020000000001</v>
+        <v>8.37269</v>
       </c>
       <c r="Z10">
-        <v>7.552009999999999</v>
+        <v>8.37236</v>
       </c>
       <c r="AA10">
-        <v>16.3206</v>
+        <v>15.5714</v>
       </c>
       <c r="AB10">
-        <v>9.08244</v>
+        <v>15.728</v>
       </c>
       <c r="AC10">
-        <v>8.33029</v>
+        <v>17.9041</v>
       </c>
       <c r="AD10">
-        <v>7.62188</v>
+        <v>6.46968</v>
       </c>
       <c r="AE10">
-        <v>7.62188</v>
+        <v>6.46968</v>
       </c>
       <c r="AF10">
-        <v>7.62188</v>
+        <v>6.46968</v>
       </c>
       <c r="AG10">
-        <v>0.828007</v>
+        <v>0.827399</v>
       </c>
       <c r="AH10">
-        <v>0.7088399999999999</v>
+        <v>0.698525</v>
       </c>
       <c r="AI10">
-        <v>0.376629</v>
+        <v>0.376259</v>
       </c>
       <c r="AJ10">
-        <v>0.0927612</v>
+        <v>0.0857149</v>
       </c>
       <c r="AK10">
-        <v>0.102355</v>
+        <v>0.0834573</v>
       </c>
       <c r="AL10">
-        <v>0.0958106</v>
+        <v>0.09709309999999999</v>
       </c>
       <c r="AM10">
-        <v>0.0462235</v>
+        <v>0.0605798</v>
       </c>
       <c r="AN10">
-        <v>0.39589</v>
+        <v>0.385574</v>
       </c>
       <c r="AO10">
-        <v>875.324</v>
+        <v>874.404</v>
       </c>
       <c r="AP10">
-        <v>830.63</v>
+        <v>828.95</v>
       </c>
       <c r="AQ10">
-        <v>885.72</v>
+        <v>889.4200000000001</v>
       </c>
       <c r="AR10">
-        <v>740.467</v>
+        <v>743.2800000000001</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT10">
-        <v>725.297</v>
+        <v>724.5649999999999</v>
       </c>
       <c r="AU10">
-        <v>780.58</v>
+        <v>783.426</v>
       </c>
       <c r="AV10">
-        <v>735.678</v>
+        <v>738.764</v>
       </c>
       <c r="AW10">
-        <v>790.4400000000001</v>
+        <v>793.462</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>62</v>
@@ -2348,115 +2348,115 @@
         <v>73</v>
       </c>
       <c r="M11">
-        <v>49.1684</v>
+        <v>49.1599</v>
       </c>
       <c r="N11">
-        <v>12.8502</v>
+        <v>12.7192</v>
       </c>
       <c r="O11">
-        <v>19.4868</v>
+        <v>27.5096</v>
       </c>
       <c r="P11">
-        <v>51.898</v>
+        <v>56.2225</v>
       </c>
       <c r="Q11">
-        <v>49.1699</v>
+        <v>49.1569</v>
       </c>
       <c r="R11">
-        <v>100.003</v>
+        <v>99.9939</v>
       </c>
       <c r="S11">
-        <v>51.898</v>
+        <v>56.2225</v>
       </c>
       <c r="T11">
-        <v>51.0726</v>
+        <v>55.3796</v>
       </c>
       <c r="U11">
-        <v>19.3834</v>
+        <v>16.7578</v>
       </c>
       <c r="V11">
-        <v>14.0419</v>
+        <v>11.969</v>
       </c>
       <c r="W11">
-        <v>14.4073</v>
+        <v>16.9973</v>
       </c>
       <c r="X11">
-        <v>12.8481</v>
+        <v>12.7188</v>
       </c>
       <c r="Y11">
-        <v>12.8481</v>
+        <v>12.7188</v>
       </c>
       <c r="Z11">
-        <v>12.8502</v>
+        <v>12.7192</v>
       </c>
       <c r="AA11">
-        <v>19.4868</v>
+        <v>17.7724</v>
       </c>
       <c r="AB11">
-        <v>13.267</v>
+        <v>22.0328</v>
       </c>
       <c r="AC11">
-        <v>13.6928</v>
+        <v>27.5096</v>
       </c>
       <c r="AD11">
-        <v>12.5402</v>
+        <v>10.2735</v>
       </c>
       <c r="AE11">
-        <v>12.5402</v>
+        <v>10.2735</v>
       </c>
       <c r="AF11">
-        <v>12.5402</v>
+        <v>10.2735</v>
       </c>
       <c r="AG11">
-        <v>0.684857</v>
+        <v>0.683702</v>
       </c>
       <c r="AH11">
-        <v>0.225535</v>
+        <v>0.212768</v>
       </c>
       <c r="AI11">
-        <v>0.0204357</v>
+        <v>0.0204356</v>
       </c>
       <c r="AJ11">
-        <v>0.0521201</v>
+        <v>0.0450451</v>
       </c>
       <c r="AK11">
-        <v>0.056961</v>
+        <v>0.0494631</v>
       </c>
       <c r="AL11">
-        <v>0.06331239999999999</v>
+        <v>0.0645048</v>
       </c>
       <c r="AM11">
-        <v>0.0329165</v>
+        <v>0.0335235</v>
       </c>
       <c r="AN11">
-        <v>0.205316</v>
+        <v>0.192548</v>
       </c>
       <c r="AO11">
-        <v>883.115</v>
+        <v>882.057</v>
       </c>
       <c r="AP11">
-        <v>845.3460000000001</v>
+        <v>842.3920000000001</v>
       </c>
       <c r="AQ11">
-        <v>906.273</v>
+        <v>911.823</v>
       </c>
       <c r="AR11">
-        <v>767.523</v>
+        <v>771.8489999999999</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT11">
-        <v>732.9970000000001</v>
+        <v>731.647</v>
       </c>
       <c r="AU11">
-        <v>794.677</v>
+        <v>796.813</v>
       </c>
       <c r="AV11">
-        <v>756.374</v>
+        <v>759.1890000000001</v>
       </c>
       <c r="AW11">
-        <v>816.698</v>
+        <v>821.005</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>62</v>
@@ -2500,115 +2500,115 @@
         <v>75</v>
       </c>
       <c r="M12">
-        <v>49.4581</v>
+        <v>49.4101</v>
       </c>
       <c r="N12">
-        <v>9.530950000000001</v>
+        <v>9.425599999999999</v>
       </c>
       <c r="O12">
-        <v>16.3658</v>
+        <v>21.2126</v>
       </c>
       <c r="P12">
-        <v>37.5074</v>
+        <v>40.8417</v>
       </c>
       <c r="Q12">
-        <v>49.4583</v>
+        <v>49.4104</v>
       </c>
       <c r="R12">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S12">
-        <v>37.5074</v>
+        <v>40.8417</v>
       </c>
       <c r="T12">
-        <v>36.9641</v>
+        <v>40.2552</v>
       </c>
       <c r="U12">
-        <v>16.1832</v>
+        <v>14.3513</v>
       </c>
       <c r="V12">
-        <v>10.4175</v>
+        <v>8.80894</v>
       </c>
       <c r="W12">
-        <v>10.6948</v>
+        <v>12.5264</v>
       </c>
       <c r="X12">
-        <v>9.531639999999999</v>
+        <v>9.42821</v>
       </c>
       <c r="Y12">
-        <v>9.531639999999999</v>
+        <v>9.42821</v>
       </c>
       <c r="Z12">
-        <v>9.530950000000001</v>
+        <v>9.425599999999999</v>
       </c>
       <c r="AA12">
-        <v>16.3658</v>
+        <v>15.064</v>
       </c>
       <c r="AB12">
-        <v>9.95712</v>
+        <v>17.0511</v>
       </c>
       <c r="AC12">
-        <v>10.2839</v>
+        <v>21.2126</v>
       </c>
       <c r="AD12">
-        <v>9.404060000000001</v>
+        <v>7.69657</v>
       </c>
       <c r="AE12">
-        <v>9.404060000000001</v>
+        <v>7.69657</v>
       </c>
       <c r="AF12">
-        <v>9.404060000000001</v>
+        <v>7.69657</v>
       </c>
       <c r="AG12">
-        <v>0.835781</v>
+        <v>0.834242</v>
       </c>
       <c r="AH12">
-        <v>0.327022</v>
+        <v>0.314634</v>
       </c>
       <c r="AI12">
-        <v>0.0684578</v>
+        <v>0.0684575</v>
       </c>
       <c r="AJ12">
-        <v>0.0668651</v>
+        <v>0.0584178</v>
       </c>
       <c r="AK12">
-        <v>0.0715956</v>
+        <v>0.06376949999999999</v>
       </c>
       <c r="AL12">
-        <v>0.07952670000000001</v>
+        <v>0.0820457</v>
       </c>
       <c r="AM12">
-        <v>0.04055</v>
+        <v>0.041908</v>
       </c>
       <c r="AN12">
-        <v>0.258551</v>
+        <v>0.246162</v>
       </c>
       <c r="AO12">
-        <v>879.705</v>
+        <v>878.689</v>
       </c>
       <c r="AP12">
-        <v>837.928</v>
+        <v>836.059</v>
       </c>
       <c r="AQ12">
-        <v>895.465</v>
+        <v>899.725</v>
       </c>
       <c r="AR12">
-        <v>753.131</v>
+        <v>756.4689999999999</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT12">
-        <v>729.631</v>
+        <v>728.578</v>
       </c>
       <c r="AU12">
-        <v>787.51</v>
+        <v>789.456</v>
       </c>
       <c r="AV12">
-        <v>745.508</v>
+        <v>748.324</v>
       </c>
       <c r="AW12">
-        <v>802.5890000000001</v>
+        <v>805.88</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>62</v>
@@ -2652,115 +2652,115 @@
         <v>73</v>
       </c>
       <c r="M13">
-        <v>48.8247</v>
+        <v>48.9221</v>
       </c>
       <c r="N13">
-        <v>13.7128</v>
+        <v>13.7436</v>
       </c>
       <c r="O13">
-        <v>21.5122</v>
+        <v>30.2824</v>
       </c>
       <c r="P13">
-        <v>49.1042</v>
+        <v>53.148</v>
       </c>
       <c r="Q13">
-        <v>48.825</v>
+        <v>48.9207</v>
       </c>
       <c r="R13">
-        <v>100.001</v>
+        <v>99.997</v>
       </c>
       <c r="S13">
-        <v>49.1042</v>
+        <v>53.148</v>
       </c>
       <c r="T13">
-        <v>47.9346</v>
+        <v>52.0762</v>
       </c>
       <c r="U13">
-        <v>20.8817</v>
+        <v>18.1063</v>
       </c>
       <c r="V13">
-        <v>15.0889</v>
+        <v>12.9253</v>
       </c>
       <c r="W13">
-        <v>15.2443</v>
+        <v>18.4601</v>
       </c>
       <c r="X13">
-        <v>13.549</v>
+        <v>13.7428</v>
       </c>
       <c r="Y13">
-        <v>13.549</v>
+        <v>13.7428</v>
       </c>
       <c r="Z13">
-        <v>13.5529</v>
+        <v>13.7436</v>
       </c>
       <c r="AA13">
-        <v>21.5122</v>
+        <v>19.6421</v>
       </c>
       <c r="AB13">
-        <v>14.5524</v>
+        <v>24.6816</v>
       </c>
       <c r="AC13">
-        <v>15.0404</v>
+        <v>30.2824</v>
       </c>
       <c r="AD13">
-        <v>13.7128</v>
+        <v>11.3526</v>
       </c>
       <c r="AE13">
-        <v>13.7128</v>
+        <v>11.3526</v>
       </c>
       <c r="AF13">
-        <v>13.7128</v>
+        <v>11.3526</v>
       </c>
       <c r="AG13">
-        <v>0.681511</v>
+        <v>0.680417</v>
       </c>
       <c r="AH13">
-        <v>0.257509</v>
+        <v>0.244982</v>
       </c>
       <c r="AI13">
-        <v>0.0471454</v>
+        <v>0.0471391</v>
       </c>
       <c r="AJ13">
-        <v>0.0534649</v>
+        <v>0.046558</v>
       </c>
       <c r="AK13">
-        <v>0.0589913</v>
+        <v>0.0508267</v>
       </c>
       <c r="AL13">
-        <v>0.06467859999999999</v>
+        <v>0.0653736</v>
       </c>
       <c r="AM13">
-        <v>0.0333537</v>
+        <v>0.0351944</v>
       </c>
       <c r="AN13">
-        <v>0.212415</v>
+        <v>0.199887</v>
       </c>
       <c r="AO13">
-        <v>881.475</v>
+        <v>880.402</v>
       </c>
       <c r="AP13">
-        <v>843.45</v>
+        <v>840.5830000000001</v>
       </c>
       <c r="AQ13">
-        <v>903.3430000000001</v>
+        <v>908.7800000000001</v>
       </c>
       <c r="AR13">
-        <v>764.729</v>
+        <v>768.773</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT13">
-        <v>732.28</v>
+        <v>730.927</v>
       </c>
       <c r="AU13">
-        <v>792.472</v>
+        <v>795.325</v>
       </c>
       <c r="AV13">
-        <v>754.3630000000001</v>
+        <v>758.052</v>
       </c>
       <c r="AW13">
-        <v>813.5600000000001</v>
+        <v>817.701</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>62</v>
@@ -2804,115 +2804,115 @@
         <v>75</v>
       </c>
       <c r="M14">
-        <v>49.2022</v>
+        <v>49.2696</v>
       </c>
       <c r="N14">
-        <v>10.733</v>
+        <v>10.7207</v>
       </c>
       <c r="O14">
-        <v>18.4562</v>
+        <v>24.2074</v>
       </c>
       <c r="P14">
-        <v>37.6721</v>
+        <v>41.0709</v>
       </c>
       <c r="Q14">
-        <v>49.2058</v>
+        <v>49.268</v>
       </c>
       <c r="R14">
-        <v>100.007</v>
+        <v>99.99680000000001</v>
       </c>
       <c r="S14">
-        <v>37.6721</v>
+        <v>41.0709</v>
       </c>
       <c r="T14">
-        <v>36.8761</v>
+        <v>40.3388</v>
       </c>
       <c r="U14">
-        <v>18.1252</v>
+        <v>15.9162</v>
       </c>
       <c r="V14">
-        <v>11.8388</v>
+        <v>10.0919</v>
       </c>
       <c r="W14">
-        <v>12.0059</v>
+        <v>14.29</v>
       </c>
       <c r="X14">
-        <v>10.613</v>
+        <v>10.7228</v>
       </c>
       <c r="Y14">
-        <v>10.613</v>
+        <v>10.7228</v>
       </c>
       <c r="Z14">
-        <v>10.6136</v>
+        <v>10.7207</v>
       </c>
       <c r="AA14">
-        <v>18.4562</v>
+        <v>17.0112</v>
       </c>
       <c r="AB14">
-        <v>11.4638</v>
+        <v>20.0024</v>
       </c>
       <c r="AC14">
-        <v>11.7936</v>
+        <v>24.2074</v>
       </c>
       <c r="AD14">
-        <v>10.733</v>
+        <v>8.844620000000001</v>
       </c>
       <c r="AE14">
-        <v>10.733</v>
+        <v>8.844620000000001</v>
       </c>
       <c r="AF14">
-        <v>10.733</v>
+        <v>8.844620000000001</v>
       </c>
       <c r="AG14">
-        <v>0.832597</v>
+        <v>0.831522</v>
       </c>
       <c r="AH14">
-        <v>0.36562</v>
+        <v>0.354045</v>
       </c>
       <c r="AI14">
-        <v>0.0981804</v>
+        <v>0.09817379999999999</v>
       </c>
       <c r="AJ14">
-        <v>0.06934309999999999</v>
+        <v>0.06107249999999999</v>
       </c>
       <c r="AK14">
-        <v>0.0752775</v>
+        <v>0.0660273</v>
       </c>
       <c r="AL14">
-        <v>0.08151439999999999</v>
+        <v>0.0837579</v>
       </c>
       <c r="AM14">
-        <v>0.0413759</v>
+        <v>0.0450745</v>
       </c>
       <c r="AN14">
-        <v>0.269688</v>
+        <v>0.258114</v>
       </c>
       <c r="AO14">
-        <v>878.8579999999999</v>
+        <v>877.765</v>
       </c>
       <c r="AP14">
-        <v>837.6200000000001</v>
+        <v>835.619</v>
       </c>
       <c r="AQ14">
-        <v>895.0160000000001</v>
+        <v>899.534</v>
       </c>
       <c r="AR14">
-        <v>753.3050000000001</v>
+        <v>756.701</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT14">
-        <v>729.473</v>
+        <v>728.36</v>
       </c>
       <c r="AU14">
-        <v>786.943</v>
+        <v>789.51</v>
       </c>
       <c r="AV14">
-        <v>745.6750000000001</v>
+        <v>749.141</v>
       </c>
       <c r="AW14">
-        <v>802.501</v>
+        <v>805.9640000000001</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>62</v>
@@ -2956,115 +2956,115 @@
         <v>73</v>
       </c>
       <c r="M15">
-        <v>49.1847</v>
+        <v>49.1763</v>
       </c>
       <c r="N15">
-        <v>12.7914</v>
+        <v>12.684</v>
       </c>
       <c r="O15">
-        <v>19.4891</v>
+        <v>27.5141</v>
       </c>
       <c r="P15">
-        <v>51.8472</v>
+        <v>56.1736</v>
       </c>
       <c r="Q15">
-        <v>49.18530000000001</v>
+        <v>49.1785</v>
       </c>
       <c r="R15">
-        <v>100.001</v>
+        <v>100.005</v>
       </c>
       <c r="S15">
-        <v>51.8472</v>
+        <v>56.1736</v>
       </c>
       <c r="T15">
-        <v>51.0262</v>
+        <v>55.3481</v>
       </c>
       <c r="U15">
-        <v>19.3837</v>
+        <v>16.7618</v>
       </c>
       <c r="V15">
-        <v>14.042</v>
+        <v>11.9708</v>
       </c>
       <c r="W15">
-        <v>14.4033</v>
+        <v>16.9979</v>
       </c>
       <c r="X15">
-        <v>12.7907</v>
+        <v>12.6824</v>
       </c>
       <c r="Y15">
-        <v>12.7907</v>
+        <v>12.6824</v>
       </c>
       <c r="Z15">
-        <v>12.7914</v>
+        <v>12.684</v>
       </c>
       <c r="AA15">
-        <v>19.4891</v>
+        <v>17.7738</v>
       </c>
       <c r="AB15">
-        <v>13.2582</v>
+        <v>22.0287</v>
       </c>
       <c r="AC15">
-        <v>13.6911</v>
+        <v>27.5141</v>
       </c>
       <c r="AD15">
-        <v>12.4677</v>
+        <v>10.2087</v>
       </c>
       <c r="AE15">
-        <v>12.4677</v>
+        <v>10.2087</v>
       </c>
       <c r="AF15">
-        <v>12.4677</v>
+        <v>10.2087</v>
       </c>
       <c r="AG15">
-        <v>0.684908</v>
+        <v>0.6837259999999999</v>
       </c>
       <c r="AH15">
-        <v>0.225309</v>
+        <v>0.212533</v>
       </c>
       <c r="AI15">
-        <v>0.0204357</v>
+        <v>0.0204356</v>
       </c>
       <c r="AJ15">
-        <v>0.0521274</v>
+        <v>0.0450441</v>
       </c>
       <c r="AK15">
-        <v>0.0569619</v>
+        <v>0.0494641</v>
       </c>
       <c r="AL15">
-        <v>0.0633088</v>
+        <v>0.06450880000000001</v>
       </c>
       <c r="AM15">
-        <v>0.0326851</v>
+        <v>0.0332843</v>
       </c>
       <c r="AN15">
-        <v>0.205089</v>
+        <v>0.192313</v>
       </c>
       <c r="AO15">
-        <v>883.115</v>
+        <v>882.056</v>
       </c>
       <c r="AP15">
-        <v>845.3460000000001</v>
+        <v>842.3920000000001</v>
       </c>
       <c r="AQ15">
-        <v>906.273</v>
+        <v>911.821</v>
       </c>
       <c r="AR15">
-        <v>767.473</v>
+        <v>771.7980000000001</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT15">
-        <v>732.9970000000001</v>
+        <v>731.6460000000001</v>
       </c>
       <c r="AU15">
-        <v>794.679</v>
+        <v>796.8150000000001</v>
       </c>
       <c r="AV15">
-        <v>756.376</v>
+        <v>759.193</v>
       </c>
       <c r="AW15">
-        <v>816.651</v>
+        <v>820.9730000000001</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>62</v>
@@ -3108,115 +3108,115 @@
         <v>75</v>
       </c>
       <c r="M16">
-        <v>49.4654</v>
+        <v>49.4279</v>
       </c>
       <c r="N16">
-        <v>9.49325</v>
+        <v>9.40907</v>
       </c>
       <c r="O16">
-        <v>16.3661</v>
+        <v>21.213</v>
       </c>
       <c r="P16">
-        <v>37.4625</v>
+        <v>40.8018</v>
       </c>
       <c r="Q16">
-        <v>49.4648</v>
+        <v>49.4286</v>
       </c>
       <c r="R16">
-        <v>99.9987</v>
+        <v>100.001</v>
       </c>
       <c r="S16">
-        <v>37.4625</v>
+        <v>40.8018</v>
       </c>
       <c r="T16">
-        <v>36.927</v>
+        <v>40.2273</v>
       </c>
       <c r="U16">
-        <v>16.1859</v>
+        <v>14.3551</v>
       </c>
       <c r="V16">
-        <v>10.4217</v>
+        <v>8.80466</v>
       </c>
       <c r="W16">
-        <v>10.6818</v>
+        <v>12.5273</v>
       </c>
       <c r="X16">
-        <v>9.49568</v>
+        <v>9.402940000000001</v>
       </c>
       <c r="Y16">
-        <v>9.49568</v>
+        <v>9.402940000000001</v>
       </c>
       <c r="Z16">
-        <v>9.49325</v>
+        <v>9.40907</v>
       </c>
       <c r="AA16">
-        <v>16.3661</v>
+        <v>15.0607</v>
       </c>
       <c r="AB16">
-        <v>9.965259999999999</v>
+        <v>17.0433</v>
       </c>
       <c r="AC16">
-        <v>10.2852</v>
+        <v>21.213</v>
       </c>
       <c r="AD16">
-        <v>9.350859999999999</v>
+        <v>7.657819999999999</v>
       </c>
       <c r="AE16">
-        <v>9.350859999999999</v>
+        <v>7.657819999999999</v>
       </c>
       <c r="AF16">
-        <v>9.350859999999999</v>
+        <v>7.657819999999999</v>
       </c>
       <c r="AG16">
-        <v>0.835836</v>
+        <v>0.834187</v>
       </c>
       <c r="AH16">
-        <v>0.326736</v>
+        <v>0.314347</v>
       </c>
       <c r="AI16">
-        <v>0.0684578</v>
+        <v>0.06845759999999999</v>
       </c>
       <c r="AJ16">
-        <v>0.06686389999999999</v>
+        <v>0.0584095</v>
       </c>
       <c r="AK16">
-        <v>0.0716007</v>
+        <v>0.0637759</v>
       </c>
       <c r="AL16">
-        <v>0.079527</v>
+        <v>0.0820437</v>
       </c>
       <c r="AM16">
-        <v>0.0402598</v>
+        <v>0.0416243</v>
       </c>
       <c r="AN16">
-        <v>0.258265</v>
+        <v>0.245875</v>
       </c>
       <c r="AO16">
-        <v>879.706</v>
+        <v>878.688</v>
       </c>
       <c r="AP16">
-        <v>837.927</v>
+        <v>836.061</v>
       </c>
       <c r="AQ16">
-        <v>895.461</v>
+        <v>899.7329999999999</v>
       </c>
       <c r="AR16">
-        <v>753.087</v>
+        <v>756.4300000000001</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT16">
-        <v>729.631</v>
+        <v>728.576</v>
       </c>
       <c r="AU16">
-        <v>787.5110000000001</v>
+        <v>789.457</v>
       </c>
       <c r="AV16">
-        <v>745.508</v>
+        <v>748.326</v>
       </c>
       <c r="AW16">
-        <v>802.552</v>
+        <v>805.852</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>62</v>
@@ -3260,115 +3260,115 @@
         <v>73</v>
       </c>
       <c r="M17">
-        <v>48.8362</v>
+        <v>48.9421</v>
       </c>
       <c r="N17">
-        <v>13.6455</v>
+        <v>13.7071</v>
       </c>
       <c r="O17">
-        <v>21.5122</v>
+        <v>30.2825</v>
       </c>
       <c r="P17">
-        <v>49.0499</v>
+        <v>53.096</v>
       </c>
       <c r="Q17">
-        <v>48.8361</v>
+        <v>48.9429</v>
       </c>
       <c r="R17">
-        <v>99.9997</v>
+        <v>100.002</v>
       </c>
       <c r="S17">
-        <v>49.0499</v>
+        <v>53.096</v>
       </c>
       <c r="T17">
-        <v>47.8846</v>
+        <v>52.0376</v>
       </c>
       <c r="U17">
-        <v>20.8803</v>
+        <v>18.1095</v>
       </c>
       <c r="V17">
-        <v>15.0912</v>
+        <v>12.9113</v>
       </c>
       <c r="W17">
-        <v>15.2478</v>
+        <v>18.4675</v>
       </c>
       <c r="X17">
-        <v>13.4944</v>
+        <v>13.7041</v>
       </c>
       <c r="Y17">
-        <v>13.4944</v>
+        <v>13.7041</v>
       </c>
       <c r="Z17">
-        <v>13.4933</v>
+        <v>13.7071</v>
       </c>
       <c r="AA17">
-        <v>21.5122</v>
+        <v>19.6452</v>
       </c>
       <c r="AB17">
-        <v>14.5537</v>
+        <v>24.6589</v>
       </c>
       <c r="AC17">
-        <v>15.038</v>
+        <v>30.2825</v>
       </c>
       <c r="AD17">
-        <v>13.6455</v>
+        <v>11.2965</v>
       </c>
       <c r="AE17">
-        <v>13.6455</v>
+        <v>11.2965</v>
       </c>
       <c r="AF17">
-        <v>13.6455</v>
+        <v>11.2965</v>
       </c>
       <c r="AG17">
-        <v>0.681534</v>
+        <v>0.680439</v>
       </c>
       <c r="AH17">
-        <v>0.25729</v>
+        <v>0.244773</v>
       </c>
       <c r="AI17">
-        <v>0.0471454</v>
+        <v>0.0471391</v>
       </c>
       <c r="AJ17">
-        <v>0.0534597</v>
+        <v>0.0465564</v>
       </c>
       <c r="AK17">
-        <v>0.0590067</v>
+        <v>0.0508279</v>
       </c>
       <c r="AL17">
-        <v>0.06468169999999999</v>
+        <v>0.0653902</v>
       </c>
       <c r="AM17">
-        <v>0.033121</v>
+        <v>0.0349691</v>
       </c>
       <c r="AN17">
-        <v>0.212195</v>
+        <v>0.199678</v>
       </c>
       <c r="AO17">
-        <v>881.476</v>
+        <v>880.4050000000001</v>
       </c>
       <c r="AP17">
-        <v>843.45</v>
+        <v>840.582</v>
       </c>
       <c r="AQ17">
-        <v>903.341</v>
+        <v>908.792</v>
       </c>
       <c r="AR17">
-        <v>764.669</v>
+        <v>768.721</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT17">
-        <v>732.279</v>
+        <v>730.926</v>
       </c>
       <c r="AU17">
-        <v>792.4690000000001</v>
+        <v>795.3230000000001</v>
       </c>
       <c r="AV17">
-        <v>754.355</v>
+        <v>758.052</v>
       </c>
       <c r="AW17">
-        <v>813.51</v>
+        <v>817.663</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>62</v>
@@ -3412,115 +3412,115 @@
         <v>75</v>
       </c>
       <c r="M18">
-        <v>49.2146</v>
+        <v>49.2709</v>
       </c>
       <c r="N18">
-        <v>10.6776</v>
+        <v>10.6815</v>
       </c>
       <c r="O18">
-        <v>18.4552</v>
+        <v>24.2038</v>
       </c>
       <c r="P18">
-        <v>37.62580000000001</v>
+        <v>41.034</v>
       </c>
       <c r="Q18">
-        <v>49.2155</v>
+        <v>49.2711</v>
       </c>
       <c r="R18">
-        <v>100.002</v>
+        <v>100</v>
       </c>
       <c r="S18">
-        <v>37.62580000000001</v>
+        <v>41.034</v>
       </c>
       <c r="T18">
-        <v>36.8457</v>
+        <v>40.3062</v>
       </c>
       <c r="U18">
-        <v>18.1273</v>
+        <v>15.9028</v>
       </c>
       <c r="V18">
-        <v>11.8614</v>
+        <v>10.0867</v>
       </c>
       <c r="W18">
-        <v>11.9856</v>
+        <v>14.2903</v>
       </c>
       <c r="X18">
-        <v>10.5739</v>
+        <v>10.6811</v>
       </c>
       <c r="Y18">
-        <v>10.5739</v>
+        <v>10.6811</v>
       </c>
       <c r="Z18">
-        <v>10.5743</v>
+        <v>10.6815</v>
       </c>
       <c r="AA18">
-        <v>18.4552</v>
+        <v>17.0096</v>
       </c>
       <c r="AB18">
-        <v>11.4619</v>
+        <v>20.0094</v>
       </c>
       <c r="AC18">
-        <v>11.8</v>
+        <v>24.2038</v>
       </c>
       <c r="AD18">
-        <v>10.6776</v>
+        <v>8.805000000000001</v>
       </c>
       <c r="AE18">
-        <v>10.6776</v>
+        <v>8.805000000000001</v>
       </c>
       <c r="AF18">
-        <v>10.6776</v>
+        <v>8.805000000000001</v>
       </c>
       <c r="AG18">
-        <v>0.832619</v>
+        <v>0.831523</v>
       </c>
       <c r="AH18">
-        <v>0.365364</v>
+        <v>0.353786</v>
       </c>
       <c r="AI18">
-        <v>0.0981804</v>
+        <v>0.09817379999999999</v>
       </c>
       <c r="AJ18">
-        <v>0.0693428</v>
+        <v>0.0610704</v>
       </c>
       <c r="AK18">
-        <v>0.07530009999999999</v>
+        <v>0.06602659999999999</v>
       </c>
       <c r="AL18">
-        <v>0.0815068</v>
+        <v>0.0837584</v>
       </c>
       <c r="AM18">
-        <v>0.0411054</v>
+        <v>0.0448179</v>
       </c>
       <c r="AN18">
-        <v>0.269432</v>
+        <v>0.257854</v>
       </c>
       <c r="AO18">
-        <v>878.8579999999999</v>
+        <v>877.764</v>
       </c>
       <c r="AP18">
-        <v>837.6200000000001</v>
+        <v>835.62</v>
       </c>
       <c r="AQ18">
-        <v>895.0160000000001</v>
+        <v>899.532</v>
       </c>
       <c r="AR18">
-        <v>753.2600000000001</v>
+        <v>756.66</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT18">
-        <v>729.475</v>
+        <v>728.362</v>
       </c>
       <c r="AU18">
-        <v>786.954</v>
+        <v>789.51</v>
       </c>
       <c r="AV18">
-        <v>745.674</v>
+        <v>749.1419999999999</v>
       </c>
       <c r="AW18">
-        <v>802.471</v>
+        <v>805.931</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>62</v>
@@ -3564,115 +3564,115 @@
         <v>73</v>
       </c>
       <c r="M19" s="3">
-        <v>53.4241</v>
+        <v>53.649</v>
       </c>
       <c r="N19">
-        <v>11.1651</v>
+        <v>9.96059</v>
       </c>
       <c r="O19">
-        <v>19.9214</v>
+        <v>18.166</v>
       </c>
       <c r="P19">
-        <v>39.4565</v>
+        <v>43.1745</v>
       </c>
       <c r="Q19">
-        <v>53.4247</v>
+        <v>53.6488</v>
       </c>
       <c r="R19">
-        <v>100.001</v>
+        <v>99.9996</v>
       </c>
       <c r="S19">
-        <v>36.035</v>
+        <v>39.5271</v>
       </c>
       <c r="T19">
-        <v>39.4565</v>
+        <v>43.1745</v>
       </c>
       <c r="U19">
-        <v>19.9214</v>
+        <v>16.3425</v>
       </c>
       <c r="V19">
-        <v>12.467</v>
+        <v>10.2843</v>
       </c>
       <c r="W19">
-        <v>13.1615</v>
+        <v>14.7436</v>
       </c>
       <c r="X19">
-        <v>11.1684</v>
+        <v>9.961260000000001</v>
       </c>
       <c r="Y19">
-        <v>11.1684</v>
+        <v>9.961260000000001</v>
       </c>
       <c r="Z19">
-        <v>11.1651</v>
+        <v>9.96059</v>
       </c>
       <c r="AA19">
-        <v>15.0494</v>
+        <v>14.1094</v>
       </c>
       <c r="AB19">
-        <v>9.492700000000001</v>
+        <v>15.4445</v>
       </c>
       <c r="AC19">
-        <v>9.126010000000001</v>
+        <v>18.166</v>
       </c>
       <c r="AD19">
-        <v>8.93281</v>
+        <v>7.52467</v>
       </c>
       <c r="AE19">
-        <v>8.93281</v>
+        <v>7.52467</v>
       </c>
       <c r="AF19">
-        <v>8.93281</v>
+        <v>7.52467</v>
       </c>
       <c r="AG19">
-        <v>0.683216</v>
+        <v>0.681952</v>
       </c>
       <c r="AH19">
-        <v>0.275994</v>
+        <v>0.2662659999999999</v>
       </c>
       <c r="AI19">
-        <v>0.0619625</v>
+        <v>0.0619575</v>
       </c>
       <c r="AJ19">
-        <v>0.0554783</v>
+        <v>0.0486039</v>
       </c>
       <c r="AK19">
-        <v>0.0597864</v>
+        <v>0.0533982</v>
       </c>
       <c r="AL19">
-        <v>0.0656818</v>
+        <v>0.0679911</v>
       </c>
       <c r="AM19">
-        <v>0.0332947</v>
+        <v>0.0345129</v>
       </c>
       <c r="AN19">
-        <v>0.214392</v>
+        <v>0.204664</v>
       </c>
       <c r="AO19">
-        <v>882.764</v>
+        <v>881.597</v>
       </c>
       <c r="AP19">
-        <v>836.4480000000001</v>
+        <v>834.525</v>
       </c>
       <c r="AQ19">
-        <v>898.91</v>
+        <v>903.723</v>
       </c>
       <c r="AR19">
-        <v>751.66</v>
+        <v>755.154</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT19">
-        <v>726.3460000000001</v>
+        <v>725.316</v>
       </c>
       <c r="AU19">
-        <v>789.1180000000001</v>
+        <v>791.176</v>
       </c>
       <c r="AV19">
-        <v>742.721</v>
+        <v>745.326</v>
       </c>
       <c r="AW19">
-        <v>805.082</v>
+        <v>808.8000000000001</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>62</v>
@@ -3716,115 +3716,115 @@
         <v>75</v>
       </c>
       <c r="M20">
-        <v>52.7843</v>
+        <v>52.9379</v>
       </c>
       <c r="N20">
-        <v>8.515559999999999</v>
+        <v>7.84832</v>
       </c>
       <c r="O20">
-        <v>16.6892</v>
+        <v>15.5527</v>
       </c>
       <c r="P20">
-        <v>30.5122</v>
+        <v>33.6047</v>
       </c>
       <c r="Q20">
-        <v>52.7866</v>
+        <v>52.9386</v>
       </c>
       <c r="R20">
-        <v>100.004</v>
+        <v>100.001</v>
       </c>
       <c r="S20">
-        <v>27.729</v>
+        <v>30.6682</v>
       </c>
       <c r="T20">
-        <v>30.5122</v>
+        <v>33.6047</v>
       </c>
       <c r="U20">
-        <v>16.6892</v>
+        <v>14.013</v>
       </c>
       <c r="V20">
-        <v>9.73564</v>
+        <v>8.07438</v>
       </c>
       <c r="W20">
-        <v>9.923349999999999</v>
+        <v>11.3209</v>
       </c>
       <c r="X20">
-        <v>8.513210000000001</v>
+        <v>7.849860000000001</v>
       </c>
       <c r="Y20">
-        <v>8.513210000000001</v>
+        <v>7.849860000000001</v>
       </c>
       <c r="Z20">
-        <v>8.515559999999999</v>
+        <v>7.84832</v>
       </c>
       <c r="AA20">
-        <v>14.0706</v>
+        <v>13.1734</v>
       </c>
       <c r="AB20">
-        <v>7.842040000000001</v>
+        <v>13.086</v>
       </c>
       <c r="AC20">
-        <v>7.496519999999999</v>
+        <v>15.5527</v>
       </c>
       <c r="AD20">
-        <v>7.22565</v>
+        <v>6.045970000000001</v>
       </c>
       <c r="AE20">
-        <v>7.22565</v>
+        <v>6.045970000000001</v>
       </c>
       <c r="AF20">
-        <v>7.22565</v>
+        <v>6.045970000000001</v>
       </c>
       <c r="AG20">
-        <v>0.834052</v>
+        <v>0.832554</v>
       </c>
       <c r="AH20">
-        <v>0.412795</v>
+        <v>0.402097</v>
       </c>
       <c r="AI20">
-        <v>0.139059</v>
+        <v>0.139052</v>
       </c>
       <c r="AJ20">
-        <v>0.07238159999999999</v>
+        <v>0.06433979999999999</v>
       </c>
       <c r="AK20">
-        <v>0.07719479999999999</v>
+        <v>0.0683043</v>
       </c>
       <c r="AL20">
-        <v>0.0828187</v>
+        <v>0.08583289999999999</v>
       </c>
       <c r="AM20">
-        <v>0.0414015</v>
+        <v>0.0446251</v>
       </c>
       <c r="AN20">
-        <v>0.273994</v>
+        <v>0.2632949999999999</v>
       </c>
       <c r="AO20">
-        <v>879.65</v>
+        <v>878.623</v>
       </c>
       <c r="AP20">
-        <v>832.005</v>
+        <v>830.3920000000001</v>
       </c>
       <c r="AQ20">
-        <v>891.456</v>
+        <v>895.439</v>
       </c>
       <c r="AR20">
-        <v>743.355</v>
+        <v>746.295</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT20">
-        <v>724.322</v>
+        <v>723.422</v>
       </c>
       <c r="AU20">
-        <v>784.347</v>
+        <v>786.342</v>
       </c>
       <c r="AV20">
-        <v>736.8200000000001</v>
+        <v>739.236</v>
       </c>
       <c r="AW20">
-        <v>796.1369999999999</v>
+        <v>799.23</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>62</v>
@@ -3868,115 +3868,115 @@
         <v>73</v>
       </c>
       <c r="M21">
-        <v>52.5777</v>
+        <v>52.946</v>
       </c>
       <c r="N21">
-        <v>11.8456</v>
+        <v>11.1224</v>
       </c>
       <c r="O21">
-        <v>21.325</v>
+        <v>21.0197</v>
       </c>
       <c r="P21">
-        <v>37.8214</v>
+        <v>41.9314</v>
       </c>
       <c r="Q21">
-        <v>52.5784</v>
+        <v>52.9343</v>
       </c>
       <c r="R21">
-        <v>100.001</v>
+        <v>99.97790000000001</v>
       </c>
       <c r="S21">
-        <v>35.2454</v>
+        <v>38.9876</v>
       </c>
       <c r="T21">
-        <v>37.8214</v>
+        <v>41.9314</v>
       </c>
       <c r="U21">
-        <v>21.325</v>
+        <v>17.8327</v>
       </c>
       <c r="V21">
-        <v>13.7532</v>
+        <v>11.346</v>
       </c>
       <c r="W21">
-        <v>14.0051</v>
+        <v>16.0744</v>
       </c>
       <c r="X21">
-        <v>11.8444</v>
+        <v>11.139</v>
       </c>
       <c r="Y21">
-        <v>11.8444</v>
+        <v>11.139</v>
       </c>
       <c r="Z21">
-        <v>11.8456</v>
+        <v>11.1224</v>
       </c>
       <c r="AA21">
-        <v>17.0072</v>
+        <v>15.9778</v>
       </c>
       <c r="AB21">
-        <v>10.903</v>
+        <v>17.8346</v>
       </c>
       <c r="AC21">
-        <v>10.5313</v>
+        <v>21.0197</v>
       </c>
       <c r="AD21">
-        <v>10.0926</v>
+        <v>8.608280000000001</v>
       </c>
       <c r="AE21">
-        <v>10.0926</v>
+        <v>8.608280000000001</v>
       </c>
       <c r="AF21">
-        <v>10.0926</v>
+        <v>8.608280000000001</v>
       </c>
       <c r="AG21">
-        <v>0.679681</v>
+        <v>0.678796</v>
       </c>
       <c r="AH21">
-        <v>0.337646</v>
+        <v>0.328506</v>
       </c>
       <c r="AI21">
-        <v>0.111734</v>
+        <v>0.111203</v>
       </c>
       <c r="AJ21">
-        <v>0.0588867</v>
+        <v>0.052224</v>
       </c>
       <c r="AK21">
-        <v>0.065177</v>
+        <v>0.05669100000000001</v>
       </c>
       <c r="AL21">
-        <v>0.06876940000000001</v>
+        <v>0.0706261</v>
       </c>
       <c r="AM21">
-        <v>0.0345678</v>
+        <v>0.0387118</v>
       </c>
       <c r="AN21">
-        <v>0.244789</v>
+        <v>0.235649</v>
       </c>
       <c r="AO21">
-        <v>881.561</v>
+        <v>880.3810000000001</v>
       </c>
       <c r="AP21">
-        <v>835.773</v>
+        <v>833.6559999999999</v>
       </c>
       <c r="AQ21">
-        <v>897.293</v>
+        <v>902.558</v>
       </c>
       <c r="AR21">
-        <v>750.869</v>
+        <v>754.611</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT21">
-        <v>725.9240000000001</v>
+        <v>724.847</v>
       </c>
       <c r="AU21">
-        <v>787.7</v>
+        <v>790.527</v>
       </c>
       <c r="AV21">
-        <v>742.141</v>
+        <v>745.3770000000001</v>
       </c>
       <c r="AW21">
-        <v>803.446</v>
+        <v>807.556</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>62</v>
@@ -4020,115 +4020,115 @@
         <v>75</v>
       </c>
       <c r="M22">
-        <v>52.2505</v>
+        <v>52.4781</v>
       </c>
       <c r="N22">
-        <v>9.543810000000001</v>
+        <v>9.25262</v>
       </c>
       <c r="O22">
-        <v>18.609</v>
+        <v>18.296</v>
       </c>
       <c r="P22">
-        <v>30.945</v>
+        <v>34.4469</v>
       </c>
       <c r="Q22">
-        <v>52.2493</v>
+        <v>52.4808</v>
       </c>
       <c r="R22">
-        <v>99.99769999999999</v>
+        <v>100.005</v>
       </c>
       <c r="S22">
-        <v>28.6952</v>
+        <v>31.9683</v>
       </c>
       <c r="T22">
-        <v>30.945</v>
+        <v>34.4469</v>
       </c>
       <c r="U22">
-        <v>18.609</v>
+        <v>15.8505</v>
       </c>
       <c r="V22">
-        <v>11.3154</v>
+        <v>9.38231</v>
       </c>
       <c r="W22">
-        <v>11.1898</v>
+        <v>13.051</v>
       </c>
       <c r="X22">
-        <v>9.54711</v>
+        <v>9.257380000000001</v>
       </c>
       <c r="Y22">
-        <v>9.54711</v>
+        <v>9.257380000000001</v>
       </c>
       <c r="Z22">
-        <v>9.543810000000001</v>
+        <v>9.25262</v>
       </c>
       <c r="AA22">
-        <v>15.9019</v>
+        <v>14.9728</v>
       </c>
       <c r="AB22">
-        <v>9.36397</v>
+        <v>15.4682</v>
       </c>
       <c r="AC22">
-        <v>8.88191</v>
+        <v>18.296</v>
       </c>
       <c r="AD22">
-        <v>8.48799</v>
+        <v>7.15444</v>
       </c>
       <c r="AE22">
-        <v>8.48799</v>
+        <v>7.15444</v>
       </c>
       <c r="AF22">
-        <v>8.48799</v>
+        <v>7.15444</v>
       </c>
       <c r="AG22">
-        <v>0.830508</v>
+        <v>0.82947</v>
       </c>
       <c r="AH22">
-        <v>0.476896</v>
+        <v>0.466708</v>
       </c>
       <c r="AI22">
-        <v>0.185203</v>
+        <v>0.184618</v>
       </c>
       <c r="AJ22">
-        <v>0.0778913</v>
+        <v>0.070188</v>
       </c>
       <c r="AK22">
-        <v>0.085148</v>
+        <v>0.07289609999999999</v>
       </c>
       <c r="AL22">
-        <v>0.08692979999999999</v>
+        <v>0.0892511</v>
       </c>
       <c r="AM22">
-        <v>0.0433056</v>
+        <v>0.0507538</v>
       </c>
       <c r="AN22">
-        <v>0.312549</v>
+        <v>0.30236</v>
       </c>
       <c r="AO22">
-        <v>879.2020000000001</v>
+        <v>878.124</v>
       </c>
       <c r="AP22">
-        <v>832.34</v>
+        <v>830.503</v>
       </c>
       <c r="AQ22">
-        <v>891.576</v>
+        <v>896.0419999999999</v>
       </c>
       <c r="AR22">
-        <v>744.3199999999999</v>
+        <v>747.596</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT22">
-        <v>724.46</v>
+        <v>723.5450000000001</v>
       </c>
       <c r="AU22">
-        <v>784.143</v>
+        <v>786.771</v>
       </c>
       <c r="AV22">
-        <v>737.5359999999999</v>
+        <v>740.485</v>
       </c>
       <c r="AW22">
-        <v>796.5699999999999</v>
+        <v>800.072</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>62</v>
@@ -4172,115 +4172,115 @@
         <v>73</v>
       </c>
       <c r="M23" s="3">
-        <v>53.4364</v>
+        <v>53.6505</v>
       </c>
       <c r="N23">
-        <v>11.1161</v>
+        <v>9.93519</v>
       </c>
       <c r="O23">
-        <v>19.9218</v>
+        <v>18.1674</v>
       </c>
       <c r="P23">
-        <v>39.4275</v>
+        <v>43.1413</v>
       </c>
       <c r="Q23">
-        <v>53.4367</v>
+        <v>53.65</v>
       </c>
       <c r="R23">
-        <v>100.001</v>
+        <v>99.9991</v>
       </c>
       <c r="S23">
-        <v>35.9881</v>
+        <v>39.4874</v>
       </c>
       <c r="T23">
-        <v>39.4275</v>
+        <v>43.1413</v>
       </c>
       <c r="U23">
-        <v>19.9218</v>
+        <v>16.3428</v>
       </c>
       <c r="V23">
-        <v>12.4716</v>
+        <v>10.2831</v>
       </c>
       <c r="W23">
-        <v>13.1628</v>
+        <v>14.7458</v>
       </c>
       <c r="X23">
-        <v>11.1191</v>
+        <v>9.936259999999999</v>
       </c>
       <c r="Y23">
-        <v>11.1191</v>
+        <v>9.936259999999999</v>
       </c>
       <c r="Z23">
-        <v>11.1161</v>
+        <v>9.93519</v>
       </c>
       <c r="AA23">
-        <v>15.049</v>
+        <v>14.1157</v>
       </c>
       <c r="AB23">
-        <v>9.503629999999999</v>
+        <v>15.4467</v>
       </c>
       <c r="AC23">
-        <v>9.12744</v>
+        <v>18.1674</v>
       </c>
       <c r="AD23">
-        <v>8.88467</v>
+        <v>7.49823</v>
       </c>
       <c r="AE23">
-        <v>8.88467</v>
+        <v>7.49823</v>
       </c>
       <c r="AF23">
-        <v>8.88467</v>
+        <v>7.49823</v>
       </c>
       <c r="AG23">
-        <v>0.683253</v>
+        <v>0.681966</v>
       </c>
       <c r="AH23">
-        <v>0.275756</v>
+        <v>0.266037</v>
       </c>
       <c r="AI23">
-        <v>0.0619625</v>
+        <v>0.0619575</v>
       </c>
       <c r="AJ23">
-        <v>0.0554787</v>
+        <v>0.0486091</v>
       </c>
       <c r="AK23">
-        <v>0.0597831</v>
+        <v>0.0533964</v>
       </c>
       <c r="AL23">
-        <v>0.0656827</v>
+        <v>0.06797689999999999</v>
       </c>
       <c r="AM23">
-        <v>0.03305900000000001</v>
+        <v>0.03429289999999999</v>
       </c>
       <c r="AN23">
-        <v>0.214155</v>
+        <v>0.204435</v>
       </c>
       <c r="AO23">
-        <v>882.7670000000001</v>
+        <v>881.599</v>
       </c>
       <c r="AP23">
-        <v>836.4490000000001</v>
+        <v>834.523</v>
       </c>
       <c r="AQ23">
-        <v>898.903</v>
+        <v>903.716</v>
       </c>
       <c r="AR23">
-        <v>751.614</v>
+        <v>755.11</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT23">
-        <v>726.3460000000001</v>
+        <v>725.317</v>
       </c>
       <c r="AU23">
-        <v>789.123</v>
+        <v>791.1790000000001</v>
       </c>
       <c r="AV23">
-        <v>742.721</v>
+        <v>745.3240000000001</v>
       </c>
       <c r="AW23">
-        <v>805.052</v>
+        <v>808.766</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>62</v>
@@ -4324,115 +4324,115 @@
         <v>75</v>
       </c>
       <c r="M24">
-        <v>52.7956</v>
+        <v>52.9508</v>
       </c>
       <c r="N24">
-        <v>8.48147</v>
+        <v>7.830770000000001</v>
       </c>
       <c r="O24">
-        <v>16.6853</v>
+        <v>15.5545</v>
       </c>
       <c r="P24">
-        <v>30.4934</v>
+        <v>33.5808</v>
       </c>
       <c r="Q24">
-        <v>52.7968</v>
+        <v>52.948</v>
       </c>
       <c r="R24">
-        <v>100.002</v>
+        <v>99.99490000000002</v>
       </c>
       <c r="S24">
-        <v>27.6935</v>
+        <v>30.6371</v>
       </c>
       <c r="T24">
-        <v>30.4934</v>
+        <v>33.5808</v>
       </c>
       <c r="U24">
-        <v>16.6853</v>
+        <v>14.0166</v>
       </c>
       <c r="V24">
-        <v>9.73451</v>
+        <v>8.07029</v>
       </c>
       <c r="W24">
-        <v>9.92379</v>
+        <v>11.3244</v>
       </c>
       <c r="X24">
-        <v>8.48274</v>
+        <v>7.82963</v>
       </c>
       <c r="Y24">
-        <v>8.48274</v>
+        <v>7.82963</v>
       </c>
       <c r="Z24">
-        <v>8.48147</v>
+        <v>7.830770000000001</v>
       </c>
       <c r="AA24">
-        <v>14.0749</v>
+        <v>13.1741</v>
       </c>
       <c r="AB24">
-        <v>7.843940000000001</v>
+        <v>13.0873</v>
       </c>
       <c r="AC24">
-        <v>7.49206</v>
+        <v>15.5545</v>
       </c>
       <c r="AD24">
-        <v>7.18506</v>
+        <v>6.01583</v>
       </c>
       <c r="AE24">
-        <v>7.18506</v>
+        <v>6.01583</v>
       </c>
       <c r="AF24">
-        <v>7.18506</v>
+        <v>6.01583</v>
       </c>
       <c r="AG24">
-        <v>0.834044</v>
+        <v>0.832557</v>
       </c>
       <c r="AH24">
-        <v>0.412531</v>
+        <v>0.401829</v>
       </c>
       <c r="AI24">
-        <v>0.139059</v>
+        <v>0.139052</v>
       </c>
       <c r="AJ24">
-        <v>0.0723857</v>
+        <v>0.064336</v>
       </c>
       <c r="AK24">
-        <v>0.07718700000000001</v>
+        <v>0.0683047</v>
       </c>
       <c r="AL24">
-        <v>0.08282249999999999</v>
+        <v>0.0858332</v>
       </c>
       <c r="AM24">
-        <v>0.041137</v>
+        <v>0.0443599</v>
       </c>
       <c r="AN24">
-        <v>0.27373</v>
+        <v>0.263028</v>
       </c>
       <c r="AO24">
-        <v>879.651</v>
+        <v>878.623</v>
       </c>
       <c r="AP24">
-        <v>832.0069999999999</v>
+        <v>830.3920000000001</v>
       </c>
       <c r="AQ24">
-        <v>891.4590000000001</v>
+        <v>895.442</v>
       </c>
       <c r="AR24">
-        <v>743.3170000000001</v>
+        <v>746.261</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT24">
-        <v>724.321</v>
+        <v>723.422</v>
       </c>
       <c r="AU24">
-        <v>784.3579999999999</v>
+        <v>786.341</v>
       </c>
       <c r="AV24">
-        <v>736.822</v>
+        <v>739.236</v>
       </c>
       <c r="AW24">
-        <v>796.1180000000001</v>
+        <v>799.206</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>62</v>
@@ -4476,115 +4476,115 @@
         <v>73</v>
       </c>
       <c r="M25">
-        <v>52.5892</v>
+        <v>52.9567</v>
       </c>
       <c r="N25">
-        <v>11.7949</v>
+        <v>11.1159</v>
       </c>
       <c r="O25">
-        <v>21.321</v>
+        <v>21.0237</v>
       </c>
       <c r="P25">
-        <v>37.7861</v>
+        <v>41.9023</v>
       </c>
       <c r="Q25">
-        <v>52.59010000000001</v>
+        <v>52.9579</v>
       </c>
       <c r="R25">
         <v>100.002</v>
       </c>
       <c r="S25">
-        <v>35.1977</v>
+        <v>38.9449</v>
       </c>
       <c r="T25">
-        <v>37.7861</v>
+        <v>41.9023</v>
       </c>
       <c r="U25">
-        <v>21.321</v>
+        <v>17.8362</v>
       </c>
       <c r="V25">
-        <v>13.7495</v>
+        <v>11.3483</v>
       </c>
       <c r="W25">
-        <v>14.0083</v>
+        <v>16.0758</v>
       </c>
       <c r="X25">
-        <v>11.7952</v>
+        <v>11.1104</v>
       </c>
       <c r="Y25">
-        <v>11.7952</v>
+        <v>11.1104</v>
       </c>
       <c r="Z25">
-        <v>11.7949</v>
+        <v>11.1159</v>
       </c>
       <c r="AA25">
-        <v>17.02</v>
+        <v>15.977</v>
       </c>
       <c r="AB25">
-        <v>10.8888</v>
+        <v>17.8119</v>
       </c>
       <c r="AC25">
-        <v>10.5326</v>
+        <v>21.0237</v>
       </c>
       <c r="AD25">
-        <v>10.0499</v>
+        <v>8.57067</v>
       </c>
       <c r="AE25">
-        <v>10.0499</v>
+        <v>8.57067</v>
       </c>
       <c r="AF25">
-        <v>10.0499</v>
+        <v>8.57067</v>
       </c>
       <c r="AG25">
-        <v>0.679689</v>
+        <v>0.678805</v>
       </c>
       <c r="AH25">
-        <v>0.337417</v>
+        <v>0.328329</v>
       </c>
       <c r="AI25">
-        <v>0.111734</v>
+        <v>0.111203</v>
       </c>
       <c r="AJ25">
-        <v>0.0588809</v>
+        <v>0.0522265</v>
       </c>
       <c r="AK25">
-        <v>0.0651697</v>
+        <v>0.0566956</v>
       </c>
       <c r="AL25">
-        <v>0.06876929999999999</v>
+        <v>0.0706324</v>
       </c>
       <c r="AM25">
-        <v>0.0343512</v>
+        <v>0.0385226</v>
       </c>
       <c r="AN25">
-        <v>0.244559</v>
+        <v>0.235472</v>
       </c>
       <c r="AO25">
-        <v>881.561</v>
+        <v>880.3810000000001</v>
       </c>
       <c r="AP25">
-        <v>835.772</v>
+        <v>833.6559999999999</v>
       </c>
       <c r="AQ25">
-        <v>897.297</v>
+        <v>902.568</v>
       </c>
       <c r="AR25">
-        <v>750.822</v>
+        <v>754.5700000000001</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT25">
-        <v>725.9240000000001</v>
+        <v>724.849</v>
       </c>
       <c r="AU25">
-        <v>787.7</v>
+        <v>790.527</v>
       </c>
       <c r="AV25">
-        <v>742.1420000000001</v>
+        <v>745.375</v>
       </c>
       <c r="AW25">
-        <v>803.4110000000001</v>
+        <v>807.527</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>62</v>
@@ -4628,115 +4628,115 @@
         <v>75</v>
       </c>
       <c r="M26">
-        <v>52.2539</v>
+        <v>52.487</v>
       </c>
       <c r="N26">
-        <v>9.508319999999999</v>
+        <v>9.23841</v>
       </c>
       <c r="O26">
-        <v>18.6059</v>
+        <v>18.2971</v>
       </c>
       <c r="P26">
-        <v>30.9104</v>
+        <v>34.421</v>
       </c>
       <c r="Q26">
-        <v>52.2545</v>
+        <v>52.4873</v>
       </c>
       <c r="R26">
         <v>100.001</v>
       </c>
       <c r="S26">
-        <v>28.6568</v>
+        <v>31.9359</v>
       </c>
       <c r="T26">
-        <v>30.9104</v>
+        <v>34.421</v>
       </c>
       <c r="U26">
-        <v>18.6059</v>
+        <v>15.8499</v>
       </c>
       <c r="V26">
-        <v>11.3137</v>
+        <v>9.383509999999999</v>
       </c>
       <c r="W26">
-        <v>11.1919</v>
+        <v>13.0529</v>
       </c>
       <c r="X26">
-        <v>9.50797</v>
+        <v>9.236930000000001</v>
       </c>
       <c r="Y26">
-        <v>9.50797</v>
+        <v>9.236930000000001</v>
       </c>
       <c r="Z26">
-        <v>9.508319999999999</v>
+        <v>9.23841</v>
       </c>
       <c r="AA26">
-        <v>15.8892</v>
+        <v>14.9702</v>
       </c>
       <c r="AB26">
-        <v>9.36129</v>
+        <v>15.4657</v>
       </c>
       <c r="AC26">
-        <v>8.88138</v>
+        <v>18.2971</v>
       </c>
       <c r="AD26">
-        <v>8.452400000000001</v>
+        <v>7.12594</v>
       </c>
       <c r="AE26">
-        <v>8.452400000000001</v>
+        <v>7.12594</v>
       </c>
       <c r="AF26">
-        <v>8.452400000000001</v>
+        <v>7.12594</v>
       </c>
       <c r="AG26">
-        <v>0.830522</v>
+        <v>0.829469</v>
       </c>
       <c r="AH26">
-        <v>0.476655</v>
+        <v>0.466519</v>
       </c>
       <c r="AI26">
-        <v>0.185203</v>
+        <v>0.184618</v>
       </c>
       <c r="AJ26">
-        <v>0.0778928</v>
+        <v>0.07018909999999999</v>
       </c>
       <c r="AK26">
-        <v>0.0851522</v>
+        <v>0.07289619999999999</v>
       </c>
       <c r="AL26">
-        <v>0.0869234</v>
+        <v>0.0892713</v>
       </c>
       <c r="AM26">
-        <v>0.0430651</v>
+        <v>0.0505436</v>
       </c>
       <c r="AN26">
-        <v>0.312307</v>
+        <v>0.302172</v>
       </c>
       <c r="AO26">
-        <v>879.2020000000001</v>
+        <v>878.123</v>
       </c>
       <c r="AP26">
-        <v>832.341</v>
+        <v>830.503</v>
       </c>
       <c r="AQ26">
-        <v>891.576</v>
+        <v>896.043</v>
       </c>
       <c r="AR26">
-        <v>744.2819999999999</v>
+        <v>747.566</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT26">
-        <v>724.46</v>
+        <v>723.543</v>
       </c>
       <c r="AU26">
-        <v>784.139</v>
+        <v>786.772</v>
       </c>
       <c r="AV26">
-        <v>737.539</v>
+        <v>740.4879999999999</v>
       </c>
       <c r="AW26">
-        <v>796.535</v>
+        <v>800.046</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>62</v>
@@ -4780,115 +4780,115 @@
         <v>73</v>
       </c>
       <c r="M27" s="4">
-        <v>46.2972</v>
+        <v>46.0673</v>
       </c>
       <c r="N27">
-        <v>10.843</v>
+        <v>9.858730000000001</v>
       </c>
       <c r="O27">
-        <v>19.7097</v>
+        <v>26.0753</v>
       </c>
       <c r="P27">
-        <v>39.797</v>
+        <v>43.2958</v>
       </c>
       <c r="Q27">
-        <v>46.2981</v>
+        <v>46.0684</v>
       </c>
       <c r="R27">
-        <v>100.002</v>
+        <v>100.003</v>
       </c>
       <c r="S27">
-        <v>39.797</v>
+        <v>43.2958</v>
       </c>
       <c r="T27">
-        <v>36.0951</v>
+        <v>39.3625</v>
       </c>
       <c r="U27">
-        <v>15.2904</v>
+        <v>13.9208</v>
       </c>
       <c r="V27">
-        <v>9.884790000000001</v>
+        <v>8.435030000000001</v>
       </c>
       <c r="W27">
-        <v>9.481869999999999</v>
+        <v>11.9836</v>
       </c>
       <c r="X27">
-        <v>9.02155</v>
+        <v>9.85467</v>
       </c>
       <c r="Y27">
-        <v>9.02155</v>
+        <v>9.85467</v>
       </c>
       <c r="Z27">
-        <v>9.024380000000001</v>
+        <v>9.858730000000001</v>
       </c>
       <c r="AA27">
-        <v>19.7097</v>
+        <v>18.0346</v>
       </c>
       <c r="AB27">
-        <v>11.586</v>
+        <v>21.7059</v>
       </c>
       <c r="AC27">
-        <v>12.336</v>
+        <v>26.0753</v>
       </c>
       <c r="AD27">
-        <v>10.843</v>
+        <v>8.68267</v>
       </c>
       <c r="AE27">
-        <v>10.843</v>
+        <v>8.68267</v>
       </c>
       <c r="AF27">
-        <v>10.843</v>
+        <v>8.68267</v>
       </c>
       <c r="AG27">
-        <v>0.683325</v>
+        <v>0.681964</v>
       </c>
       <c r="AH27">
-        <v>0.273232</v>
+        <v>0.262484</v>
       </c>
       <c r="AI27">
-        <v>0.059229</v>
+        <v>0.0592306</v>
       </c>
       <c r="AJ27">
-        <v>0.0553188</v>
+        <v>0.04853619999999999</v>
       </c>
       <c r="AK27">
-        <v>0.0595355</v>
+        <v>0.0526257</v>
       </c>
       <c r="AL27">
-        <v>0.06565599999999999</v>
+        <v>0.067177</v>
       </c>
       <c r="AM27">
-        <v>0.0334953</v>
+        <v>0.034911</v>
       </c>
       <c r="AN27">
-        <v>0.214129</v>
+        <v>0.20338</v>
       </c>
       <c r="AO27">
-        <v>877.1540000000001</v>
+        <v>876.2</v>
       </c>
       <c r="AP27">
-        <v>839.46</v>
+        <v>837.54</v>
       </c>
       <c r="AQ27">
-        <v>893.405</v>
+        <v>897.5700000000001</v>
       </c>
       <c r="AR27">
-        <v>755.42</v>
+        <v>758.922</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT27">
-        <v>732.497</v>
+        <v>731.378</v>
       </c>
       <c r="AU27">
-        <v>786.64</v>
+        <v>789.163</v>
       </c>
       <c r="AV27">
-        <v>748.635</v>
+        <v>752.496</v>
       </c>
       <c r="AW27">
-        <v>801.72</v>
+        <v>804.987</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>62</v>
@@ -4931,116 +4931,116 @@
       <c r="L28" t="s">
         <v>75</v>
       </c>
-      <c r="M28">
-        <v>47.1392</v>
+      <c r="M28" s="4">
+        <v>46.9751</v>
       </c>
       <c r="N28">
-        <v>8.419790000000001</v>
+        <v>7.867729999999999</v>
       </c>
       <c r="O28">
-        <v>16.6702</v>
+        <v>20.3754</v>
       </c>
       <c r="P28">
-        <v>30.8056</v>
+        <v>33.5055</v>
       </c>
       <c r="Q28">
-        <v>47.13910000000001</v>
+        <v>46.9794</v>
       </c>
       <c r="R28">
-        <v>99.9999</v>
+        <v>100.009</v>
       </c>
       <c r="S28">
-        <v>30.8056</v>
+        <v>33.5055</v>
       </c>
       <c r="T28">
-        <v>27.9455</v>
+        <v>30.4832</v>
       </c>
       <c r="U28">
-        <v>14.2647</v>
+        <v>13.0182</v>
       </c>
       <c r="V28">
-        <v>8.137179999999999</v>
+        <v>7.05742</v>
       </c>
       <c r="W28">
-        <v>7.78206</v>
+        <v>9.66521</v>
       </c>
       <c r="X28">
-        <v>7.31925</v>
+        <v>7.86535</v>
       </c>
       <c r="Y28">
-        <v>7.31925</v>
+        <v>7.86535</v>
       </c>
       <c r="Z28">
-        <v>7.31991</v>
+        <v>7.867729999999999</v>
       </c>
       <c r="AA28">
-        <v>16.6702</v>
+        <v>15.4376</v>
       </c>
       <c r="AB28">
-        <v>9.22392</v>
+        <v>17.2263</v>
       </c>
       <c r="AC28">
-        <v>9.47261</v>
+        <v>20.3754</v>
       </c>
       <c r="AD28">
-        <v>8.419790000000001</v>
+        <v>6.75714</v>
       </c>
       <c r="AE28">
-        <v>8.419790000000001</v>
+        <v>6.75714</v>
       </c>
       <c r="AF28">
-        <v>8.419790000000001</v>
+        <v>6.75714</v>
       </c>
       <c r="AG28">
-        <v>0.8340340000000001</v>
+        <v>0.832755</v>
       </c>
       <c r="AH28">
-        <v>0.414262</v>
+        <v>0.403272</v>
       </c>
       <c r="AI28">
-        <v>0.141043</v>
+        <v>0.141044</v>
       </c>
       <c r="AJ28">
-        <v>0.0719245</v>
+        <v>0.06385779999999999</v>
       </c>
       <c r="AK28">
-        <v>0.07684870000000001</v>
+        <v>0.0677302</v>
       </c>
       <c r="AL28">
-        <v>0.08271519999999999</v>
+        <v>0.0855717</v>
       </c>
       <c r="AM28">
-        <v>0.0417582</v>
+        <v>0.0450909</v>
       </c>
       <c r="AN28">
-        <v>0.273406</v>
+        <v>0.262415</v>
       </c>
       <c r="AO28">
-        <v>874.955</v>
+        <v>874.032</v>
       </c>
       <c r="AP28">
-        <v>834.581</v>
+        <v>833.107</v>
       </c>
       <c r="AQ28">
-        <v>887.418</v>
+        <v>890.7130000000001</v>
       </c>
       <c r="AR28">
-        <v>746.428</v>
+        <v>749.134</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT28">
-        <v>729.433</v>
+        <v>728.5169999999999</v>
       </c>
       <c r="AU28">
-        <v>782.245</v>
+        <v>784.398</v>
       </c>
       <c r="AV28">
-        <v>741.311</v>
+        <v>744.591</v>
       </c>
       <c r="AW28">
-        <v>793.5700000000001</v>
+        <v>796.1080000000001</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>62</v>
@@ -5084,115 +5084,115 @@
         <v>73</v>
       </c>
       <c r="M29" s="4">
-        <v>46.4717</v>
+        <v>46.304</v>
       </c>
       <c r="N29">
-        <v>12.0903</v>
+        <v>11.2788</v>
       </c>
       <c r="O29">
-        <v>21.8016</v>
+        <v>28.9124</v>
       </c>
       <c r="P29">
-        <v>38.6964</v>
+        <v>41.9757</v>
       </c>
       <c r="Q29">
-        <v>46.4705</v>
+        <v>46.3043</v>
       </c>
       <c r="R29">
-        <v>99.9973</v>
+        <v>100</v>
       </c>
       <c r="S29">
-        <v>38.6964</v>
+        <v>41.9757</v>
       </c>
       <c r="T29">
-        <v>35.1658</v>
+        <v>38.2758</v>
       </c>
       <c r="U29">
-        <v>17.2847</v>
+        <v>15.7005</v>
       </c>
       <c r="V29">
-        <v>11.3728</v>
+        <v>9.891220000000001</v>
       </c>
       <c r="W29">
-        <v>10.8053</v>
+        <v>14.0033</v>
       </c>
       <c r="X29">
-        <v>10.109</v>
+        <v>11.2768</v>
       </c>
       <c r="Y29">
-        <v>10.109</v>
+        <v>11.2768</v>
       </c>
       <c r="Z29">
-        <v>10.1116</v>
+        <v>11.2788</v>
       </c>
       <c r="AA29">
-        <v>21.8016</v>
+        <v>19.986</v>
       </c>
       <c r="AB29">
-        <v>13.337</v>
+        <v>24.4819</v>
       </c>
       <c r="AC29">
-        <v>13.7824</v>
+        <v>28.9124</v>
       </c>
       <c r="AD29">
-        <v>12.0903</v>
+        <v>9.818059999999999</v>
       </c>
       <c r="AE29">
-        <v>12.0903</v>
+        <v>9.818059999999999</v>
       </c>
       <c r="AF29">
-        <v>12.0903</v>
+        <v>9.818059999999999</v>
       </c>
       <c r="AG29">
-        <v>0.67968</v>
+        <v>0.678696</v>
       </c>
       <c r="AH29">
-        <v>0.356614</v>
+        <v>0.346458</v>
       </c>
       <c r="AI29">
-        <v>0.131183</v>
+        <v>0.131465</v>
       </c>
       <c r="AJ29">
-        <v>0.0584723</v>
+        <v>0.0519885</v>
       </c>
       <c r="AK29">
-        <v>0.06517999999999999</v>
+        <v>0.0560824</v>
       </c>
       <c r="AL29">
-        <v>0.06882249999999999</v>
+        <v>0.06955070000000001</v>
       </c>
       <c r="AM29">
-        <v>0.0348409</v>
+        <v>0.039538</v>
       </c>
       <c r="AN29">
-        <v>0.249715</v>
+        <v>0.239559</v>
       </c>
       <c r="AO29">
-        <v>875.796</v>
+        <v>874.788</v>
       </c>
       <c r="AP29">
-        <v>838.381</v>
+        <v>836.361</v>
       </c>
       <c r="AQ29">
-        <v>892.1350000000001</v>
+        <v>896.164</v>
       </c>
       <c r="AR29">
-        <v>754.324</v>
+        <v>757.599</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT29">
-        <v>732.144</v>
+        <v>731.037</v>
       </c>
       <c r="AU29">
-        <v>785.6700000000001</v>
+        <v>788.89</v>
       </c>
       <c r="AV29">
-        <v>747.976</v>
+        <v>752.554</v>
       </c>
       <c r="AW29">
-        <v>800.7910000000001</v>
+        <v>803.901</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>62</v>
@@ -5235,116 +5235,116 @@
       <c r="L30" t="s">
         <v>75</v>
       </c>
-      <c r="M30">
-        <v>47.0435</v>
+      <c r="M30" s="4">
+        <v>46.9937</v>
       </c>
       <c r="N30">
-        <v>9.74314</v>
+        <v>9.352069999999999</v>
       </c>
       <c r="O30">
-        <v>18.8016</v>
+        <v>23.4135</v>
       </c>
       <c r="P30">
-        <v>31.5419</v>
+        <v>34.328</v>
       </c>
       <c r="Q30">
-        <v>47.0445</v>
+        <v>46.9943</v>
       </c>
       <c r="R30">
-        <v>100.002</v>
+        <v>100.001</v>
       </c>
       <c r="S30">
-        <v>31.5419</v>
+        <v>34.328</v>
       </c>
       <c r="T30">
-        <v>28.5879</v>
+        <v>31.3186</v>
       </c>
       <c r="U30">
-        <v>16.111</v>
+        <v>14.6852</v>
       </c>
       <c r="V30">
-        <v>9.694239999999999</v>
+        <v>8.53444</v>
       </c>
       <c r="W30">
-        <v>9.11402</v>
+        <v>11.5176</v>
       </c>
       <c r="X30">
-        <v>8.450670000000001</v>
+        <v>9.355460000000001</v>
       </c>
       <c r="Y30">
-        <v>8.450670000000001</v>
+        <v>9.355460000000001</v>
       </c>
       <c r="Z30">
-        <v>8.438590000000001</v>
+        <v>9.352069999999999</v>
       </c>
       <c r="AA30">
-        <v>18.8016</v>
+        <v>17.3938</v>
       </c>
       <c r="AB30">
-        <v>10.9753</v>
+        <v>20.0433</v>
       </c>
       <c r="AC30">
-        <v>10.9926</v>
+        <v>23.4135</v>
       </c>
       <c r="AD30">
-        <v>9.74314</v>
+        <v>7.97501</v>
       </c>
       <c r="AE30">
-        <v>9.74314</v>
+        <v>7.97501</v>
       </c>
       <c r="AF30">
-        <v>9.74314</v>
+        <v>7.97501</v>
       </c>
       <c r="AG30">
-        <v>0.830514</v>
+        <v>0.8295</v>
       </c>
       <c r="AH30">
-        <v>0.519103</v>
+        <v>0.509112</v>
       </c>
       <c r="AI30">
-        <v>0.228224</v>
+        <v>0.228551</v>
       </c>
       <c r="AJ30">
-        <v>0.0771676</v>
+        <v>0.0694521</v>
       </c>
       <c r="AK30">
-        <v>0.0851156</v>
+        <v>0.0727313</v>
       </c>
       <c r="AL30">
-        <v>0.0869789</v>
+        <v>0.0891313</v>
       </c>
       <c r="AM30">
-        <v>0.0436177</v>
+        <v>0.0515679</v>
       </c>
       <c r="AN30">
-        <v>0.318659</v>
+        <v>0.308668</v>
       </c>
       <c r="AO30">
-        <v>874.3330000000001</v>
+        <v>873.37</v>
       </c>
       <c r="AP30">
-        <v>834.6370000000001</v>
+        <v>832.979</v>
       </c>
       <c r="AQ30">
-        <v>887.494</v>
+        <v>891.0150000000001</v>
       </c>
       <c r="AR30">
-        <v>747.169</v>
+        <v>749.952</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT30">
-        <v>729.647</v>
+        <v>728.736</v>
       </c>
       <c r="AU30">
-        <v>782.211</v>
+        <v>785.0410000000001</v>
       </c>
       <c r="AV30">
-        <v>742.0309999999999</v>
+        <v>745.924</v>
       </c>
       <c r="AW30">
-        <v>794.2130000000001</v>
+        <v>796.944</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>62</v>
@@ -5388,115 +5388,115 @@
         <v>73</v>
       </c>
       <c r="M31" s="4">
-        <v>46.2988</v>
+        <v>46.0772</v>
       </c>
       <c r="N31">
-        <v>10.7841</v>
+        <v>9.837680000000001</v>
       </c>
       <c r="O31">
-        <v>19.7097</v>
+        <v>26.0732</v>
       </c>
       <c r="P31">
-        <v>39.7555</v>
+        <v>43.2542</v>
       </c>
       <c r="Q31">
-        <v>46.29880000000001</v>
+        <v>46.0765</v>
       </c>
       <c r="R31">
-        <v>100</v>
+        <v>99.99850000000001</v>
       </c>
       <c r="S31">
-        <v>39.7555</v>
+        <v>43.2542</v>
       </c>
       <c r="T31">
-        <v>36.0564</v>
+        <v>39.3304</v>
       </c>
       <c r="U31">
-        <v>15.2946</v>
+        <v>13.9235</v>
       </c>
       <c r="V31">
-        <v>9.88491</v>
+        <v>8.438920000000001</v>
       </c>
       <c r="W31">
-        <v>9.48194</v>
+        <v>11.9871</v>
       </c>
       <c r="X31">
-        <v>8.99535</v>
+        <v>9.83737</v>
       </c>
       <c r="Y31">
-        <v>8.99535</v>
+        <v>9.83737</v>
       </c>
       <c r="Z31">
-        <v>9.001199999999999</v>
+        <v>9.837680000000001</v>
       </c>
       <c r="AA31">
-        <v>19.7097</v>
+        <v>18.0349</v>
       </c>
       <c r="AB31">
-        <v>11.5857</v>
+        <v>21.7046</v>
       </c>
       <c r="AC31">
-        <v>12.336</v>
+        <v>26.0732</v>
       </c>
       <c r="AD31">
-        <v>10.7841</v>
+        <v>8.636600000000001</v>
       </c>
       <c r="AE31">
-        <v>10.7841</v>
+        <v>8.636600000000001</v>
       </c>
       <c r="AF31">
-        <v>10.7841</v>
+        <v>8.636600000000001</v>
       </c>
       <c r="AG31">
-        <v>0.683355</v>
+        <v>0.681972</v>
       </c>
       <c r="AH31">
-        <v>0.272997</v>
+        <v>0.262266</v>
       </c>
       <c r="AI31">
-        <v>0.059229</v>
+        <v>0.0592306</v>
       </c>
       <c r="AJ31">
-        <v>0.0553154</v>
+        <v>0.0485321</v>
       </c>
       <c r="AK31">
-        <v>0.0595382</v>
+        <v>0.0526332</v>
       </c>
       <c r="AL31">
-        <v>0.0656568</v>
+        <v>0.06718</v>
       </c>
       <c r="AM31">
-        <v>0.03326</v>
+        <v>0.0346866</v>
       </c>
       <c r="AN31">
-        <v>0.213894</v>
+        <v>0.203162</v>
       </c>
       <c r="AO31">
-        <v>877.1540000000001</v>
+        <v>876.1990000000001</v>
       </c>
       <c r="AP31">
-        <v>839.461</v>
+        <v>837.54</v>
       </c>
       <c r="AQ31">
-        <v>893.4059999999999</v>
+        <v>897.5700000000001</v>
       </c>
       <c r="AR31">
-        <v>755.3810000000001</v>
+        <v>758.8779999999999</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT31">
-        <v>732.4920000000001</v>
+        <v>731.378</v>
       </c>
       <c r="AU31">
-        <v>786.643</v>
+        <v>789.163</v>
       </c>
       <c r="AV31">
-        <v>748.639</v>
+        <v>752.496</v>
       </c>
       <c r="AW31">
-        <v>801.681</v>
+        <v>804.955</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>62</v>
@@ -5539,116 +5539,116 @@
       <c r="L32" t="s">
         <v>75</v>
       </c>
-      <c r="M32">
-        <v>47.1432</v>
+      <c r="M32" s="4">
+        <v>46.9769</v>
       </c>
       <c r="N32">
-        <v>8.371639999999999</v>
+        <v>7.85161</v>
       </c>
       <c r="O32">
-        <v>16.6736</v>
+        <v>20.3743</v>
       </c>
       <c r="P32">
-        <v>30.7668</v>
+        <v>33.4734</v>
       </c>
       <c r="Q32">
-        <v>47.1439</v>
+        <v>46.9775</v>
       </c>
       <c r="R32">
         <v>100.001</v>
       </c>
       <c r="S32">
-        <v>30.7668</v>
+        <v>33.4734</v>
       </c>
       <c r="T32">
-        <v>27.9083</v>
+        <v>30.4542</v>
       </c>
       <c r="U32">
-        <v>14.2648</v>
+        <v>13.02</v>
       </c>
       <c r="V32">
-        <v>8.13686</v>
+        <v>7.057</v>
       </c>
       <c r="W32">
-        <v>7.78269</v>
+        <v>9.66648</v>
       </c>
       <c r="X32">
-        <v>7.296830000000001</v>
+        <v>7.85012</v>
       </c>
       <c r="Y32">
-        <v>7.296830000000001</v>
+        <v>7.85012</v>
       </c>
       <c r="Z32">
-        <v>7.296489999999999</v>
+        <v>7.85161</v>
       </c>
       <c r="AA32">
-        <v>16.6736</v>
+        <v>15.4266</v>
       </c>
       <c r="AB32">
-        <v>9.22546</v>
+        <v>17.2279</v>
       </c>
       <c r="AC32">
-        <v>9.47254</v>
+        <v>20.3743</v>
       </c>
       <c r="AD32">
-        <v>8.371639999999999</v>
+        <v>6.722390000000001</v>
       </c>
       <c r="AE32">
-        <v>8.371639999999999</v>
+        <v>6.722390000000001</v>
       </c>
       <c r="AF32">
-        <v>8.371639999999999</v>
+        <v>6.722390000000001</v>
       </c>
       <c r="AG32">
-        <v>0.83406</v>
+        <v>0.832769</v>
       </c>
       <c r="AH32">
-        <v>0.413955</v>
+        <v>0.403036</v>
       </c>
       <c r="AI32">
-        <v>0.141043</v>
+        <v>0.141044</v>
       </c>
       <c r="AJ32">
-        <v>0.0719211</v>
+        <v>0.06386800000000001</v>
       </c>
       <c r="AK32">
-        <v>0.0768498</v>
+        <v>0.0677386</v>
       </c>
       <c r="AL32">
-        <v>0.08270799999999999</v>
+        <v>0.08557329999999999</v>
       </c>
       <c r="AM32">
-        <v>0.0414606</v>
+        <v>0.044834</v>
       </c>
       <c r="AN32">
-        <v>0.273099</v>
+        <v>0.26218</v>
       </c>
       <c r="AO32">
-        <v>874.956</v>
+        <v>874.033</v>
       </c>
       <c r="AP32">
-        <v>834.5790000000001</v>
+        <v>833.11</v>
       </c>
       <c r="AQ32">
-        <v>887.418</v>
+        <v>890.7090000000001</v>
       </c>
       <c r="AR32">
-        <v>746.393</v>
+        <v>749.1039999999999</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT32">
-        <v>729.436</v>
+        <v>728.519</v>
       </c>
       <c r="AU32">
-        <v>782.2430000000001</v>
+        <v>784.396</v>
       </c>
       <c r="AV32">
-        <v>741.3140000000001</v>
+        <v>744.598</v>
       </c>
       <c r="AW32">
-        <v>793.533</v>
+        <v>796.0790000000001</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>62</v>
@@ -5692,115 +5692,115 @@
         <v>73</v>
       </c>
       <c r="M33" s="4">
-        <v>46.4674</v>
+        <v>46.3155</v>
       </c>
       <c r="N33">
-        <v>12.0249</v>
+        <v>11.2538</v>
       </c>
       <c r="O33">
-        <v>21.8004</v>
+        <v>28.9114</v>
       </c>
       <c r="P33">
-        <v>38.655</v>
+        <v>41.9322</v>
       </c>
       <c r="Q33">
-        <v>46.4652</v>
+        <v>46.3133</v>
       </c>
       <c r="R33">
-        <v>99.9952</v>
+        <v>99.9953</v>
       </c>
       <c r="S33">
-        <v>38.655</v>
+        <v>41.9322</v>
       </c>
       <c r="T33">
-        <v>35.1195</v>
+        <v>38.2361</v>
       </c>
       <c r="U33">
-        <v>17.2881</v>
+        <v>15.7025</v>
       </c>
       <c r="V33">
-        <v>11.3624</v>
+        <v>9.89198</v>
       </c>
       <c r="W33">
-        <v>10.8024</v>
+        <v>14.0141</v>
       </c>
       <c r="X33">
-        <v>10.0808</v>
+        <v>11.2531</v>
       </c>
       <c r="Y33">
-        <v>10.0808</v>
+        <v>11.2531</v>
       </c>
       <c r="Z33">
-        <v>10.0793</v>
+        <v>11.2538</v>
       </c>
       <c r="AA33">
-        <v>21.8004</v>
+        <v>19.9879</v>
       </c>
       <c r="AB33">
-        <v>13.3333</v>
+        <v>24.4808</v>
       </c>
       <c r="AC33">
-        <v>13.7851</v>
+        <v>28.9114</v>
       </c>
       <c r="AD33">
-        <v>12.0249</v>
+        <v>9.774749999999999</v>
       </c>
       <c r="AE33">
-        <v>12.0249</v>
+        <v>9.774749999999999</v>
       </c>
       <c r="AF33">
-        <v>12.0249</v>
+        <v>9.774749999999999</v>
       </c>
       <c r="AG33">
-        <v>0.679689</v>
+        <v>0.678701</v>
       </c>
       <c r="AH33">
-        <v>0.356389</v>
+        <v>0.346243</v>
       </c>
       <c r="AI33">
-        <v>0.131183</v>
+        <v>0.131465</v>
       </c>
       <c r="AJ33">
-        <v>0.05846879999999999</v>
+        <v>0.0519769</v>
       </c>
       <c r="AK33">
-        <v>0.0651886</v>
+        <v>0.0560815</v>
       </c>
       <c r="AL33">
-        <v>0.068817</v>
+        <v>0.0695511</v>
       </c>
       <c r="AM33">
-        <v>0.034616</v>
+        <v>0.0393349</v>
       </c>
       <c r="AN33">
-        <v>0.24949</v>
+        <v>0.239345</v>
       </c>
       <c r="AO33">
-        <v>875.797</v>
+        <v>874.7890000000001</v>
       </c>
       <c r="AP33">
-        <v>838.383</v>
+        <v>836.36</v>
       </c>
       <c r="AQ33">
-        <v>892.1360000000001</v>
+        <v>896.164</v>
       </c>
       <c r="AR33">
-        <v>754.276</v>
+        <v>757.558</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT33">
-        <v>732.146</v>
+        <v>731.0359999999999</v>
       </c>
       <c r="AU33">
-        <v>785.671</v>
+        <v>788.891</v>
       </c>
       <c r="AV33">
-        <v>747.974</v>
+        <v>752.554</v>
       </c>
       <c r="AW33">
-        <v>800.744</v>
+        <v>803.861</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>62</v>
@@ -5843,116 +5843,116 @@
       <c r="L34" t="s">
         <v>75</v>
       </c>
-      <c r="M34">
-        <v>47.0417</v>
+      <c r="M34" s="4">
+        <v>46.9978</v>
       </c>
       <c r="N34">
-        <v>9.69407</v>
+        <v>9.338380000000001</v>
       </c>
       <c r="O34">
-        <v>18.7984</v>
+        <v>23.4122</v>
       </c>
       <c r="P34">
-        <v>31.5061</v>
+        <v>34.2909</v>
       </c>
       <c r="Q34">
-        <v>47.0413</v>
+        <v>46.9969</v>
       </c>
       <c r="R34">
-        <v>99.99930000000001</v>
+        <v>99.99810000000001</v>
       </c>
       <c r="S34">
-        <v>31.5061</v>
+        <v>34.2909</v>
       </c>
       <c r="T34">
-        <v>28.5449</v>
+        <v>31.2896</v>
       </c>
       <c r="U34">
-        <v>16.115</v>
+        <v>14.6765</v>
       </c>
       <c r="V34">
-        <v>9.694379999999999</v>
+        <v>8.53754</v>
       </c>
       <c r="W34">
-        <v>9.115450000000001</v>
+        <v>11.5181</v>
       </c>
       <c r="X34">
-        <v>8.42305</v>
+        <v>9.33825</v>
       </c>
       <c r="Y34">
-        <v>8.42305</v>
+        <v>9.33825</v>
       </c>
       <c r="Z34">
-        <v>8.42948</v>
+        <v>9.338380000000001</v>
       </c>
       <c r="AA34">
-        <v>18.7984</v>
+        <v>17.3909</v>
       </c>
       <c r="AB34">
-        <v>10.9749</v>
+        <v>20.0442</v>
       </c>
       <c r="AC34">
-        <v>10.9923</v>
+        <v>23.4122</v>
       </c>
       <c r="AD34">
-        <v>9.69407</v>
+        <v>7.928749999999999</v>
       </c>
       <c r="AE34">
-        <v>9.69407</v>
+        <v>7.928749999999999</v>
       </c>
       <c r="AF34">
-        <v>9.69407</v>
+        <v>7.928749999999999</v>
       </c>
       <c r="AG34">
-        <v>0.830527</v>
+        <v>0.8295090000000001</v>
       </c>
       <c r="AH34">
-        <v>0.5188630000000001</v>
+        <v>0.508875</v>
       </c>
       <c r="AI34">
-        <v>0.228224</v>
+        <v>0.228551</v>
       </c>
       <c r="AJ34">
-        <v>0.07716880000000001</v>
+        <v>0.06945319999999999</v>
       </c>
       <c r="AK34">
-        <v>0.0851222</v>
+        <v>0.0727193</v>
       </c>
       <c r="AL34">
-        <v>0.0869818</v>
+        <v>0.0891327</v>
       </c>
       <c r="AM34">
-        <v>0.0433668</v>
+        <v>0.0513406</v>
       </c>
       <c r="AN34">
-        <v>0.318418</v>
+        <v>0.308431</v>
       </c>
       <c r="AO34">
-        <v>874.3339999999999</v>
+        <v>873.37</v>
       </c>
       <c r="AP34">
-        <v>834.64</v>
+        <v>832.979</v>
       </c>
       <c r="AQ34">
-        <v>887.4950000000001</v>
+        <v>891.014</v>
       </c>
       <c r="AR34">
-        <v>747.131</v>
+        <v>749.918</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT34">
-        <v>729.647</v>
+        <v>728.737</v>
       </c>
       <c r="AU34">
-        <v>782.21</v>
+        <v>785.0440000000001</v>
       </c>
       <c r="AV34">
-        <v>742.032</v>
+        <v>745.926</v>
       </c>
       <c r="AW34">
-        <v>794.17</v>
+        <v>796.9150000000001</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>62</v>
@@ -6115,115 +6115,115 @@
         <v>123</v>
       </c>
       <c r="M36" s="4">
-        <v>46.2972</v>
+        <v>46.0673</v>
       </c>
       <c r="N36" s="1">
-        <v>6.46149</v>
+        <v>6.761640000000001</v>
       </c>
       <c r="O36" s="1">
-        <v>14.4575</v>
+        <v>15.1637</v>
       </c>
       <c r="P36" s="1">
-        <v>23.7399</v>
+        <v>26.3533</v>
       </c>
       <c r="Q36" s="1">
-        <v>46.2981</v>
+        <v>46.0684</v>
       </c>
       <c r="R36" s="1">
-        <v>99.9952</v>
+        <v>99.97790000000001</v>
       </c>
       <c r="S36" s="1">
-        <v>23.3793</v>
+        <v>25.9719</v>
       </c>
       <c r="T36" s="1">
-        <v>23.7399</v>
+        <v>26.3533</v>
       </c>
       <c r="U36" s="1">
-        <v>14.2647</v>
+        <v>12.7669</v>
       </c>
       <c r="V36" s="1">
-        <v>7.602679999999999</v>
+        <v>6.62028</v>
       </c>
       <c r="W36" s="1">
-        <v>7.20424</v>
+        <v>8.757199999999999</v>
       </c>
       <c r="X36" s="1">
-        <v>6.46015</v>
+        <v>6.75664</v>
       </c>
       <c r="Y36" s="1">
-        <v>6.46015</v>
+        <v>6.75664</v>
       </c>
       <c r="Z36" s="1">
-        <v>6.46149</v>
+        <v>6.761640000000001</v>
       </c>
       <c r="AA36" s="1">
-        <v>14.0706</v>
+        <v>13.1734</v>
       </c>
       <c r="AB36" s="1">
-        <v>7.345390000000001</v>
+        <v>12.8991</v>
       </c>
       <c r="AC36" s="1">
-        <v>6.87501</v>
+        <v>15.1637</v>
       </c>
       <c r="AD36" s="1">
-        <v>6.37467</v>
+        <v>5.2802</v>
       </c>
       <c r="AE36" s="1">
-        <v>6.37467</v>
+        <v>5.2802</v>
       </c>
       <c r="AF36" s="1">
-        <v>6.37467</v>
+        <v>5.2802</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.677682</v>
+        <v>0.677045</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.225309</v>
+        <v>0.212533</v>
       </c>
       <c r="AI36" s="1">
-        <v>0.0204357</v>
+        <v>0.0204356</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.0521201</v>
+        <v>0.0450441</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.056961</v>
+        <v>0.0494631</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.0633088</v>
+        <v>0.0645048</v>
       </c>
       <c r="AM36" s="1">
-        <v>0.0326851</v>
+        <v>0.0332843</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.205089</v>
+        <v>0.192313</v>
       </c>
       <c r="AO36" s="1">
-        <v>874.3330000000001</v>
+        <v>873.37</v>
       </c>
       <c r="AP36" s="1">
-        <v>829.946</v>
+        <v>828.549</v>
       </c>
       <c r="AQ36" s="1">
-        <v>885.1229999999999</v>
+        <v>888.397</v>
       </c>
       <c r="AR36" s="1">
-        <v>739.0020000000001</v>
+        <v>741.598</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT36" s="1">
-        <v>724.321</v>
+        <v>723.422</v>
       </c>
       <c r="AU36" s="1">
-        <v>780.2940000000001</v>
+        <v>782.436</v>
       </c>
       <c r="AV36" s="1">
-        <v>734.446</v>
+        <v>737.0550000000001</v>
       </c>
       <c r="AW36" s="1">
-        <v>789.365</v>
+        <v>791.978</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>124</v>
@@ -6234,115 +6234,115 @@
         <v>125</v>
       </c>
       <c r="M37" s="3">
-        <v>53.4364</v>
+        <v>53.6505</v>
       </c>
       <c r="N37" s="1">
-        <v>13.7128</v>
+        <v>13.7436</v>
       </c>
       <c r="O37" s="1">
-        <v>21.8016</v>
+        <v>30.2825</v>
       </c>
       <c r="P37" s="1">
-        <v>51.898</v>
+        <v>56.2225</v>
       </c>
       <c r="Q37" s="1">
-        <v>53.4367</v>
+        <v>53.65</v>
       </c>
       <c r="R37" s="1">
-        <v>100.007</v>
+        <v>100.009</v>
       </c>
       <c r="S37" s="1">
-        <v>51.898</v>
+        <v>56.2225</v>
       </c>
       <c r="T37" s="1">
-        <v>51.0726</v>
+        <v>55.3796</v>
       </c>
       <c r="U37" s="1">
-        <v>21.325</v>
+        <v>18.1095</v>
       </c>
       <c r="V37" s="1">
-        <v>15.0912</v>
+        <v>12.9253</v>
       </c>
       <c r="W37" s="1">
-        <v>15.2478</v>
+        <v>18.4675</v>
       </c>
       <c r="X37" s="1">
-        <v>13.549</v>
+        <v>13.7428</v>
       </c>
       <c r="Y37" s="1">
-        <v>13.549</v>
+        <v>13.7428</v>
       </c>
       <c r="Z37" s="1">
-        <v>13.5529</v>
+        <v>13.7436</v>
       </c>
       <c r="AA37" s="1">
-        <v>21.8016</v>
+        <v>19.9879</v>
       </c>
       <c r="AB37" s="1">
-        <v>14.5537</v>
+        <v>24.6816</v>
       </c>
       <c r="AC37" s="1">
-        <v>15.0404</v>
+        <v>30.2825</v>
       </c>
       <c r="AD37" s="1">
-        <v>13.7128</v>
+        <v>11.3526</v>
       </c>
       <c r="AE37" s="1">
-        <v>13.7128</v>
+        <v>11.3526</v>
       </c>
       <c r="AF37" s="1">
-        <v>13.7128</v>
+        <v>11.3526</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.835836</v>
+        <v>0.834242</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.7090589999999999</v>
+        <v>0.698747</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.376629</v>
+        <v>0.376259</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.0927612</v>
+        <v>0.08572479999999999</v>
       </c>
       <c r="AK37" s="1">
-        <v>0.102355</v>
+        <v>0.0834698</v>
       </c>
       <c r="AL37" s="1">
-        <v>0.0958106</v>
+        <v>0.09709719999999999</v>
       </c>
       <c r="AM37" s="1">
-        <v>0.0464599</v>
+        <v>0.0607775</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.396109</v>
+        <v>0.385797</v>
       </c>
       <c r="AO37" s="1">
-        <v>883.115</v>
+        <v>882.057</v>
       </c>
       <c r="AP37" s="1">
-        <v>845.3460000000001</v>
+        <v>842.3920000000001</v>
       </c>
       <c r="AQ37" s="1">
-        <v>906.273</v>
+        <v>911.823</v>
       </c>
       <c r="AR37" s="1">
-        <v>767.523</v>
+        <v>771.8489999999999</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT37" s="1">
-        <v>732.9970000000001</v>
+        <v>731.647</v>
       </c>
       <c r="AU37" s="1">
-        <v>794.679</v>
+        <v>796.8150000000001</v>
       </c>
       <c r="AV37" s="1">
-        <v>756.376</v>
+        <v>759.193</v>
       </c>
       <c r="AW37" s="1">
-        <v>816.698</v>
+        <v>821.005</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>124</v>
@@ -6388,115 +6388,115 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>49.71617575757576</v>
+        <v>49.76850606060606</v>
       </c>
       <c r="N42" s="1">
-        <v>9.918285151515153</v>
+        <v>9.69246484848485</v>
       </c>
       <c r="O42" s="1">
-        <v>18.26942121212121</v>
+        <v>21.57197878787879</v>
       </c>
       <c r="P42" s="1">
-        <v>34.99896666666667</v>
+        <v>38.35460303030302</v>
       </c>
       <c r="Q42" s="1">
-        <v>49.71645757575758</v>
+        <v>49.76810303030304</v>
       </c>
       <c r="R42" s="1">
-        <v>100.0005060606061</v>
+        <v>99.99923939393943</v>
       </c>
       <c r="S42" s="1">
-        <v>34.28329090909092</v>
+        <v>37.56057878787879</v>
       </c>
       <c r="T42" s="1">
-        <v>33.9997</v>
+        <v>37.32812424242424</v>
       </c>
       <c r="U42" s="1">
-        <v>17.34382121212121</v>
+        <v>15.16993939393939</v>
       </c>
       <c r="V42" s="1">
-        <v>10.82599787878788</v>
+        <v>9.231195151515152</v>
       </c>
       <c r="W42" s="1">
-        <v>10.71626636363636</v>
+        <v>12.86545606060606</v>
       </c>
       <c r="X42" s="1">
-        <v>9.521063030303029</v>
+        <v>9.691832727272729</v>
       </c>
       <c r="Y42" s="1">
-        <v>9.521063030303029</v>
+        <v>9.691832727272729</v>
       </c>
       <c r="Z42" s="1">
-        <v>9.52115</v>
+        <v>9.69246484848485</v>
       </c>
       <c r="AA42" s="1">
-        <v>17.29409090909091</v>
+        <v>16.07007878787879</v>
       </c>
       <c r="AB42" s="1">
-        <v>10.39190575757576</v>
+        <v>18.07488787878789</v>
       </c>
       <c r="AC42" s="1">
-        <v>10.3622896969697</v>
+        <v>21.57197878787879</v>
       </c>
       <c r="AD42" s="1">
-        <v>9.491605151515154</v>
+        <v>7.852386969696969</v>
       </c>
       <c r="AE42" s="1">
-        <v>9.491605151515154</v>
+        <v>7.852386969696969</v>
       </c>
       <c r="AF42" s="1">
-        <v>9.491605151515154</v>
+        <v>7.852386969696969</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7569113636363636</v>
+        <v>0.7557802121212123</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3958259090909091</v>
+        <v>0.3853714848484849</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1418437757575757</v>
+        <v>0.1417667666666667</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.06715620606060606</v>
+        <v>0.05990085757575758</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.07299359393939393</v>
+        <v>0.06312031818181818</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.07655260000000001</v>
+        <v>0.07854593333333333</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.03832521212121212</v>
+        <v>0.04300339393939393</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2672328181818182</v>
+        <v>0.256778</v>
       </c>
       <c r="AO42" s="1">
-        <v>878.3151212121212</v>
+        <v>877.2952727272727</v>
       </c>
       <c r="AP42" s="1">
-        <v>835.830878787879</v>
+        <v>833.9246666666668</v>
       </c>
       <c r="AQ42" s="1">
-        <v>892.9721818181815</v>
+        <v>897.2338484848485</v>
       </c>
       <c r="AR42" s="1">
-        <v>749.9087272727273</v>
+        <v>753.1864545454544</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT42" s="1">
-        <v>728.2365151515153</v>
+        <v>727.2336363636365</v>
       </c>
       <c r="AU42" s="1">
-        <v>785.6089696969697</v>
+        <v>788.1010909090911</v>
       </c>
       <c r="AV42" s="1">
-        <v>742.9458787878784</v>
+        <v>746.173090909091</v>
       </c>
       <c r="AW42" s="1">
-        <v>799.6246666666666</v>
+        <v>802.953090909091</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>124</v>
@@ -6507,115 +6507,115 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>2.150564554494626</v>
+        <v>2.286290107647519</v>
       </c>
       <c r="N43" s="1">
-        <v>1.945989837308979</v>
+        <v>1.778784793795219</v>
       </c>
       <c r="O43" s="1">
-        <v>2.147558616797304</v>
+        <v>4.472215320530354</v>
       </c>
       <c r="P43" s="1">
-        <v>7.555277768379779</v>
+        <v>7.962468345267361</v>
       </c>
       <c r="Q43" s="1">
-        <v>2.150805063512379</v>
+        <v>2.285722603929013</v>
       </c>
       <c r="R43" s="1">
-        <v>0.002238633158999665</v>
+        <v>0.004930544219388151</v>
       </c>
       <c r="S43" s="1">
-        <v>7.693662553090463</v>
+        <v>8.105528233539228</v>
       </c>
       <c r="T43" s="1">
-        <v>7.338227476424914</v>
+        <v>7.783055859074437</v>
       </c>
       <c r="U43" s="1">
-        <v>2.087021723799408</v>
+        <v>1.522637489227043</v>
       </c>
       <c r="V43" s="1">
-        <v>2.062801992196695</v>
+        <v>1.682015674874032</v>
       </c>
       <c r="W43" s="1">
-        <v>2.32534672784423</v>
+        <v>2.593361567403296</v>
       </c>
       <c r="X43" s="1">
-        <v>1.926138205278438</v>
+        <v>1.779370312525929</v>
       </c>
       <c r="Y43" s="1">
-        <v>1.926138205278438</v>
+        <v>1.779370312525929</v>
       </c>
       <c r="Z43" s="1">
-        <v>1.926199641056466</v>
+        <v>1.778784793795219</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.321212145509929</v>
+        <v>1.990482106023194</v>
       </c>
       <c r="AB43" s="1">
-        <v>1.959048606862185</v>
+        <v>3.543455215819687</v>
       </c>
       <c r="AC43" s="1">
-        <v>2.289635665951437</v>
+        <v>4.472215320530354</v>
       </c>
       <c r="AD43" s="1">
-        <v>1.944679718984861</v>
+        <v>1.563375444094245</v>
       </c>
       <c r="AE43" s="1">
-        <v>1.944679718984861</v>
+        <v>1.563375444094245</v>
       </c>
       <c r="AF43" s="1">
-        <v>1.944679718984861</v>
+        <v>1.563375444094245</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.0742661013750118</v>
+        <v>0.07420536051565302</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1214951055765307</v>
+        <v>0.122027120167738</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.08927134456766857</v>
+        <v>0.08919819036832212</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.01120201382087139</v>
+        <v>0.01095730296339083</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.01210469685657845</v>
+        <v>0.009417822096959171</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.009711235399985904</v>
+        <v>0.01006365246321652</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.004422188024849893</v>
+        <v>0.007285063973968367</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.04882640517579791</v>
+        <v>0.04920700019675694</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.743942493848953</v>
+        <v>2.676574294863292</v>
       </c>
       <c r="AP43" s="1">
-        <v>4.185475931502484</v>
+        <v>3.815049677317981</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.851109904834923</v>
+        <v>6.492238364157845</v>
       </c>
       <c r="AR43" s="1">
-        <v>7.693207749117026</v>
+        <v>8.105371825508819</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.968776966027056</v>
+        <v>2.83518266012147</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.88466070032602</v>
+        <v>3.860981131107211</v>
       </c>
       <c r="AV43" s="1">
-        <v>6.140840243354203</v>
+        <v>6.383281213634691</v>
       </c>
       <c r="AW43" s="1">
-        <v>7.338277601836555</v>
+        <v>7.783086196960129</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>124</v>
@@ -6626,115 +6626,115 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>4.325683787468152</v>
+        <v>4.593849180169018</v>
       </c>
       <c r="N44" s="1">
-        <v>19.62022474229532</v>
+        <v>18.35224395034337</v>
       </c>
       <c r="O44" s="1">
-        <v>11.75493515564939</v>
+        <v>20.73159520740524</v>
       </c>
       <c r="P44" s="1">
-        <v>21.58714524442086</v>
+        <v>20.76013754848776</v>
       </c>
       <c r="Q44" s="1">
-        <v>4.326143028664095</v>
+        <v>4.592746085855978</v>
       </c>
       <c r="R44" s="1">
-        <v>0.002238621830216464</v>
+        <v>0.004930581721691548</v>
       </c>
       <c r="S44" s="1">
-        <v>22.44143531463116</v>
+        <v>21.57988107508868</v>
       </c>
       <c r="T44" s="1">
-        <v>21.58321242959471</v>
+        <v>20.85038028840683</v>
       </c>
       <c r="U44" s="1">
-        <v>12.03322899996706</v>
+        <v>10.03720219103419</v>
       </c>
       <c r="V44" s="1">
-        <v>19.05415108420153</v>
+        <v>18.22099573529172</v>
       </c>
       <c r="W44" s="1">
-        <v>21.69922479469956</v>
+        <v>20.15755644562148</v>
       </c>
       <c r="X44" s="1">
-        <v>20.23028520185245</v>
+        <v>18.3594822836634</v>
       </c>
       <c r="Y44" s="1">
-        <v>20.23028520185245</v>
+        <v>18.3594822836634</v>
       </c>
       <c r="Z44" s="1">
-        <v>20.23074566682035</v>
+        <v>18.35224395034337</v>
       </c>
       <c r="AA44" s="1">
-        <v>13.42199574242869</v>
+        <v>12.38626227224573</v>
       </c>
       <c r="AB44" s="1">
-        <v>18.85167795554755</v>
+        <v>19.60429984176097</v>
       </c>
       <c r="AC44" s="1">
-        <v>22.09584689203399</v>
+        <v>20.73159520740524</v>
       </c>
       <c r="AD44" s="1">
-        <v>20.48841779595551</v>
+        <v>19.9095568026314</v>
       </c>
       <c r="AE44" s="1">
-        <v>20.48841779595551</v>
+        <v>19.9095568026314</v>
       </c>
       <c r="AF44" s="1">
-        <v>20.48841779595551</v>
+        <v>19.9095568026314</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.811730268947425</v>
+        <v>9.81837832289686</v>
       </c>
       <c r="AH44" s="1">
-        <v>30.69407605367918</v>
+        <v>31.66480265547282</v>
       </c>
       <c r="AI44" s="1">
-        <v>62.93638482963231</v>
+        <v>62.91897069081924</v>
       </c>
       <c r="AJ44" s="1">
-        <v>16.68053405334121</v>
+        <v>18.29239748284564</v>
       </c>
       <c r="AK44" s="1">
-        <v>16.58323176500789</v>
+        <v>14.92042874345329</v>
       </c>
       <c r="AL44" s="1">
-        <v>12.68570290229973</v>
+        <v>12.81244239661445</v>
       </c>
       <c r="AM44" s="1">
-        <v>11.53858721215613</v>
+        <v>16.94067213447255</v>
       </c>
       <c r="AN44" s="1">
-        <v>18.27111112624562</v>
+        <v>19.16324614910815</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.3124097977571157</v>
+        <v>0.3050938923382717</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.5007563177819245</v>
+        <v>0.4574813325245982</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.6552398858519279</v>
+        <v>0.7235837541262219</v>
       </c>
       <c r="AR44" s="1">
-        <v>1.025885880418505</v>
+        <v>1.076144130924445</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.407666589666872</v>
+        <v>0.3898585706648752</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4944776409343236</v>
+        <v>0.4899093752875647</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.8265528376539389</v>
+        <v>0.8554692324615589</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.917715261639822</v>
+        <v>0.9693077073964856</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>124</v>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -980,115 +980,115 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>49.8485</v>
+        <v>49.8162</v>
       </c>
       <c r="N2">
-        <v>8.92666</v>
+        <v>10.4424</v>
       </c>
       <c r="O2">
-        <v>20.0508</v>
+        <v>16.2976</v>
       </c>
       <c r="P2">
-        <v>35.6538</v>
+        <v>33.3503</v>
       </c>
       <c r="Q2">
-        <v>49.8478</v>
+        <v>49.8174</v>
       </c>
       <c r="R2">
-        <v>99.9986</v>
+        <v>100.003</v>
       </c>
       <c r="S2">
-        <v>35.6538</v>
+        <v>33.3503</v>
       </c>
       <c r="T2">
-        <v>35.5048</v>
+        <v>33.17100000000001</v>
       </c>
       <c r="U2">
-        <v>14.4055</v>
+        <v>16.2976</v>
       </c>
       <c r="V2">
-        <v>8.391910000000001</v>
+        <v>9.81166</v>
       </c>
       <c r="W2">
-        <v>11.7788</v>
+        <v>9.75924</v>
       </c>
       <c r="X2">
-        <v>8.926900000000002</v>
+        <v>10.4368</v>
       </c>
       <c r="Y2">
-        <v>8.926900000000002</v>
+        <v>10.4368</v>
       </c>
       <c r="Z2">
-        <v>8.92666</v>
+        <v>10.4424</v>
       </c>
       <c r="AA2">
-        <v>14.9093</v>
+        <v>16.0429</v>
       </c>
       <c r="AB2">
-        <v>16.5395</v>
+        <v>9.41586</v>
       </c>
       <c r="AC2">
-        <v>20.0508</v>
+        <v>9.366379999999999</v>
       </c>
       <c r="AD2">
-        <v>7.20399</v>
+        <v>10.3103</v>
       </c>
       <c r="AE2">
-        <v>7.20399</v>
+        <v>10.3103</v>
       </c>
       <c r="AF2">
-        <v>7.20399</v>
+        <v>10.3103</v>
       </c>
       <c r="AG2">
-        <v>0.756582</v>
+        <v>0.757015</v>
       </c>
       <c r="AH2">
-        <v>0.344714</v>
+        <v>0.353172</v>
       </c>
       <c r="AI2">
-        <v>0.107523</v>
+        <v>0.107526</v>
       </c>
       <c r="AJ2">
-        <v>0.057373</v>
+        <v>0.06476499999999999</v>
       </c>
       <c r="AK2">
-        <v>0.0614711</v>
+        <v>0.0696529</v>
       </c>
       <c r="AL2">
-        <v>0.0775682</v>
+        <v>0.0741188</v>
       </c>
       <c r="AM2">
-        <v>0.0407411</v>
+        <v>0.03707650000000001</v>
       </c>
       <c r="AN2">
-        <v>0.237761</v>
+        <v>0.246219</v>
       </c>
       <c r="AO2">
-        <v>877.087</v>
+        <v>878.1189999999999</v>
       </c>
       <c r="AP2">
-        <v>833.261</v>
+        <v>834.934</v>
       </c>
       <c r="AQ2">
-        <v>895.855</v>
+        <v>891.6780000000001</v>
       </c>
       <c r="AR2">
-        <v>751.279</v>
+        <v>748.9780000000001</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT2">
-        <v>726.853</v>
+        <v>727.8390000000001</v>
       </c>
       <c r="AU2">
-        <v>787.1669999999999</v>
+        <v>784.8539999999999</v>
       </c>
       <c r="AV2">
-        <v>744.625</v>
+        <v>741.449</v>
       </c>
       <c r="AW2">
-        <v>801.13</v>
+        <v>798.796</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>62</v>
@@ -1132,115 +1132,115 @@
         <v>73</v>
       </c>
       <c r="M3">
-        <v>50.3704</v>
+        <v>50.3194</v>
       </c>
       <c r="N3">
-        <v>7.85002</v>
+        <v>9.073270000000001</v>
       </c>
       <c r="O3">
-        <v>17.4744</v>
+        <v>15.3109</v>
       </c>
       <c r="P3">
-        <v>31.5379</v>
+        <v>29.2865</v>
       </c>
       <c r="Q3">
-        <v>50.3701</v>
+        <v>50.3208</v>
       </c>
       <c r="R3">
-        <v>99.99940000000001</v>
+        <v>100.003</v>
       </c>
       <c r="S3">
-        <v>31.1655</v>
+        <v>28.9655</v>
       </c>
       <c r="T3">
-        <v>31.5379</v>
+        <v>29.2865</v>
       </c>
       <c r="U3">
-        <v>13.5666</v>
+        <v>15.3109</v>
       </c>
       <c r="V3">
-        <v>7.433580000000001</v>
+        <v>8.635520000000001</v>
       </c>
       <c r="W3">
-        <v>10.2184</v>
+        <v>8.41179</v>
       </c>
       <c r="X3">
-        <v>7.84261</v>
+        <v>9.074100000000001</v>
       </c>
       <c r="Y3">
-        <v>7.84261</v>
+        <v>9.074100000000001</v>
       </c>
       <c r="Z3">
-        <v>7.85002</v>
+        <v>9.073270000000001</v>
       </c>
       <c r="AA3">
-        <v>13.9345</v>
+        <v>14.8698</v>
       </c>
       <c r="AB3">
-        <v>14.586</v>
+        <v>8.277030000000002</v>
       </c>
       <c r="AC3">
-        <v>17.4744</v>
+        <v>7.969230000000001</v>
       </c>
       <c r="AD3">
-        <v>6.23792</v>
+        <v>8.858370000000001</v>
       </c>
       <c r="AE3">
-        <v>6.23792</v>
+        <v>8.858370000000001</v>
       </c>
       <c r="AF3">
-        <v>6.23792</v>
+        <v>8.858370000000001</v>
       </c>
       <c r="AG3">
-        <v>0.6808</v>
+        <v>0.6813090000000001</v>
       </c>
       <c r="AH3">
-        <v>0.35157</v>
+        <v>0.35867</v>
       </c>
       <c r="AI3">
-        <v>0.129428</v>
+        <v>0.129433</v>
       </c>
       <c r="AJ3">
-        <v>0.0549297</v>
+        <v>0.0613593</v>
       </c>
       <c r="AK3">
-        <v>0.0575488</v>
+        <v>0.0656702</v>
       </c>
       <c r="AL3">
-        <v>0.0716408</v>
+        <v>0.06833210000000001</v>
       </c>
       <c r="AM3">
-        <v>0.0380283</v>
+        <v>0.0338858</v>
       </c>
       <c r="AN3">
-        <v>0.222589</v>
+        <v>0.229689</v>
       </c>
       <c r="AO3">
-        <v>876.258</v>
+        <v>877.227</v>
       </c>
       <c r="AP3">
-        <v>831.071</v>
+        <v>832.58</v>
       </c>
       <c r="AQ3">
-        <v>892.7090000000001</v>
+        <v>888.8680000000001</v>
       </c>
       <c r="AR3">
-        <v>746.79</v>
+        <v>744.5940000000001</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT3">
-        <v>725.4309999999999</v>
+        <v>726.3109999999999</v>
       </c>
       <c r="AU3">
-        <v>785.1980000000001</v>
+        <v>782.967</v>
       </c>
       <c r="AV3">
-        <v>740.982</v>
+        <v>738.042</v>
       </c>
       <c r="AW3">
-        <v>797.163</v>
+        <v>794.9110000000001</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>62</v>
@@ -1284,115 +1284,115 @@
         <v>75</v>
       </c>
       <c r="M4">
-        <v>50.3708</v>
+        <v>50.314</v>
       </c>
       <c r="N4">
-        <v>6.76802</v>
+        <v>7.67123</v>
       </c>
       <c r="O4">
-        <v>15.1639</v>
+        <v>14.4609</v>
       </c>
       <c r="P4">
-        <v>26.3783</v>
+        <v>24.419</v>
       </c>
       <c r="Q4">
-        <v>50.3677</v>
+        <v>50.3146</v>
       </c>
       <c r="R4">
-        <v>99.99380000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S4">
-        <v>26.0084</v>
+        <v>24.1053</v>
       </c>
       <c r="T4">
-        <v>26.3783</v>
+        <v>24.419</v>
       </c>
       <c r="U4">
-        <v>12.7669</v>
+        <v>14.4609</v>
       </c>
       <c r="V4">
-        <v>6.624099999999999</v>
+        <v>7.60406</v>
       </c>
       <c r="W4">
-        <v>8.757199999999999</v>
+        <v>7.1281</v>
       </c>
       <c r="X4">
-        <v>6.76531</v>
+        <v>7.67159</v>
       </c>
       <c r="Y4">
-        <v>6.76531</v>
+        <v>7.67159</v>
       </c>
       <c r="Z4">
-        <v>6.76802</v>
+        <v>7.67123</v>
       </c>
       <c r="AA4">
-        <v>13.3257</v>
+        <v>14.1025</v>
       </c>
       <c r="AB4">
-        <v>12.8994</v>
+        <v>7.35053</v>
       </c>
       <c r="AC4">
-        <v>15.1639</v>
+        <v>6.80698</v>
       </c>
       <c r="AD4">
-        <v>5.307650000000001</v>
+        <v>7.55261</v>
       </c>
       <c r="AE4">
-        <v>5.307650000000001</v>
+        <v>7.55261</v>
       </c>
       <c r="AF4">
-        <v>5.307650000000001</v>
+        <v>7.55261</v>
       </c>
       <c r="AG4">
-        <v>0.831236</v>
+        <v>0.8318719999999999</v>
       </c>
       <c r="AH4">
-        <v>0.5330069999999999</v>
+        <v>0.5407339999999999</v>
       </c>
       <c r="AI4">
-        <v>0.240584</v>
+        <v>0.24059</v>
       </c>
       <c r="AJ4">
-        <v>0.07622269999999999</v>
+        <v>0.0836557</v>
       </c>
       <c r="AK4">
-        <v>0.07486960000000001</v>
+        <v>0.08762930000000001</v>
       </c>
       <c r="AL4">
-        <v>0.090882</v>
+        <v>0.08682869999999999</v>
       </c>
       <c r="AM4">
-        <v>0.05056919999999999</v>
+        <v>0.0421501</v>
       </c>
       <c r="AN4">
-        <v>0.293094</v>
+        <v>0.300821</v>
       </c>
       <c r="AO4">
-        <v>874.664</v>
+        <v>875.5390000000001</v>
       </c>
       <c r="AP4">
-        <v>828.556</v>
+        <v>829.9449999999999</v>
       </c>
       <c r="AQ4">
-        <v>888.397</v>
+        <v>885.092</v>
       </c>
       <c r="AR4">
-        <v>741.6319999999999</v>
+        <v>739.73</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT4">
-        <v>724.035</v>
+        <v>724.773</v>
       </c>
       <c r="AU4">
-        <v>782.438</v>
+        <v>780.2959999999999</v>
       </c>
       <c r="AV4">
-        <v>737.0600000000001</v>
+        <v>734.415</v>
       </c>
       <c r="AW4">
-        <v>792.003</v>
+        <v>790.0440000000001</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>62</v>
@@ -1436,115 +1436,115 @@
         <v>73</v>
       </c>
       <c r="M5">
-        <v>50.1482</v>
+        <v>49.9479</v>
       </c>
       <c r="N5">
-        <v>9.471299999999999</v>
+        <v>10.3552</v>
       </c>
       <c r="O5">
-        <v>20.3444</v>
+        <v>17.5462</v>
       </c>
       <c r="P5">
-        <v>31.9767</v>
+        <v>29.5204</v>
       </c>
       <c r="Q5">
-        <v>50.1474</v>
+        <v>49.9467</v>
       </c>
       <c r="R5">
-        <v>99.99850000000001</v>
+        <v>99.99760000000001</v>
       </c>
       <c r="S5">
-        <v>31.8319</v>
+        <v>29.5204</v>
       </c>
       <c r="T5">
-        <v>31.9767</v>
+        <v>29.4668</v>
       </c>
       <c r="U5">
-        <v>15.4997</v>
+        <v>17.5462</v>
       </c>
       <c r="V5">
-        <v>9.04752</v>
+        <v>10.395</v>
       </c>
       <c r="W5">
-        <v>12.1423</v>
+        <v>9.729089999999999</v>
       </c>
       <c r="X5">
-        <v>9.46261</v>
+        <v>10.293</v>
       </c>
       <c r="Y5">
-        <v>9.46261</v>
+        <v>10.293</v>
       </c>
       <c r="Z5">
-        <v>9.471299999999999</v>
+        <v>10.2926</v>
       </c>
       <c r="AA5">
-        <v>16.2861</v>
+        <v>17.2039</v>
       </c>
       <c r="AB5">
-        <v>17.7172</v>
+        <v>10.0848</v>
       </c>
       <c r="AC5">
-        <v>20.3444</v>
+        <v>9.47667</v>
       </c>
       <c r="AD5">
-        <v>7.489100000000001</v>
+        <v>10.3552</v>
       </c>
       <c r="AE5">
-        <v>7.489100000000001</v>
+        <v>10.3552</v>
       </c>
       <c r="AF5">
-        <v>7.489100000000001</v>
+        <v>10.3552</v>
       </c>
       <c r="AG5">
-        <v>0.677045</v>
+        <v>0.677381</v>
       </c>
       <c r="AH5">
-        <v>0.493414</v>
+        <v>0.499793</v>
       </c>
       <c r="AI5">
-        <v>0.247792</v>
+        <v>0.248005</v>
       </c>
       <c r="AJ5">
-        <v>0.06252770000000001</v>
+        <v>0.0685702</v>
       </c>
       <c r="AK5">
-        <v>0.0643203</v>
+        <v>0.07708950000000001</v>
       </c>
       <c r="AL5">
-        <v>0.0767737</v>
+        <v>0.0747273</v>
       </c>
       <c r="AM5">
-        <v>0.04620009999999999</v>
+        <v>0.0358146</v>
       </c>
       <c r="AN5">
-        <v>0.301572</v>
+        <v>0.307952</v>
       </c>
       <c r="AO5">
-        <v>875.47</v>
+        <v>876.476</v>
       </c>
       <c r="AP5">
-        <v>830.838</v>
+        <v>832.614</v>
       </c>
       <c r="AQ5">
-        <v>892.802</v>
+        <v>888.6030000000001</v>
       </c>
       <c r="AR5">
-        <v>747.453</v>
+        <v>745.143</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT5">
-        <v>725.5870000000001</v>
+        <v>726.441</v>
       </c>
       <c r="AU5">
-        <v>785.6129999999999</v>
+        <v>782.591</v>
       </c>
       <c r="AV5">
-        <v>742.034</v>
+        <v>738.5260000000001</v>
       </c>
       <c r="AW5">
-        <v>797.6020000000001</v>
+        <v>795.092</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>62</v>
@@ -1588,115 +1588,115 @@
         <v>75</v>
       </c>
       <c r="M6">
-        <v>50.186</v>
+        <v>49.9498</v>
       </c>
       <c r="N6">
-        <v>8.387259999999999</v>
+        <v>8.96697</v>
       </c>
       <c r="O6">
-        <v>17.9043</v>
+        <v>16.6444</v>
       </c>
       <c r="P6">
-        <v>27.8612</v>
+        <v>25.6194</v>
       </c>
       <c r="Q6">
-        <v>50.1846</v>
+        <v>49.95059999999999</v>
       </c>
       <c r="R6">
-        <v>99.9973</v>
+        <v>100.002</v>
       </c>
       <c r="S6">
-        <v>27.6847</v>
+        <v>25.6194</v>
       </c>
       <c r="T6">
-        <v>27.8612</v>
+        <v>25.5736</v>
       </c>
       <c r="U6">
-        <v>14.79</v>
+        <v>16.6444</v>
       </c>
       <c r="V6">
-        <v>8.224590000000001</v>
+        <v>9.34999</v>
       </c>
       <c r="W6">
-        <v>10.6209</v>
+        <v>8.46327</v>
       </c>
       <c r="X6">
-        <v>8.383940000000001</v>
+        <v>8.88198</v>
       </c>
       <c r="Y6">
-        <v>8.383940000000001</v>
+        <v>8.88198</v>
       </c>
       <c r="Z6">
-        <v>8.387259999999999</v>
+        <v>8.87847</v>
       </c>
       <c r="AA6">
-        <v>15.5764</v>
+        <v>16.3201</v>
       </c>
       <c r="AB6">
-        <v>15.7307</v>
+        <v>9.087399999999999</v>
       </c>
       <c r="AC6">
-        <v>17.9043</v>
+        <v>8.242740000000001</v>
       </c>
       <c r="AD6">
-        <v>6.49901</v>
+        <v>8.96697</v>
       </c>
       <c r="AE6">
-        <v>6.49901</v>
+        <v>8.96697</v>
       </c>
       <c r="AF6">
-        <v>6.49901</v>
+        <v>8.96697</v>
       </c>
       <c r="AG6">
-        <v>0.8274010000000001</v>
+        <v>0.827669</v>
       </c>
       <c r="AH6">
-        <v>0.698747</v>
+        <v>0.706189</v>
       </c>
       <c r="AI6">
-        <v>0.376259</v>
+        <v>0.376464</v>
       </c>
       <c r="AJ6">
-        <v>0.08572479999999999</v>
+        <v>0.0927258</v>
       </c>
       <c r="AK6">
-        <v>0.0834698</v>
+        <v>0.102344</v>
       </c>
       <c r="AL6">
-        <v>0.09709719999999999</v>
+        <v>0.09483</v>
       </c>
       <c r="AM6">
-        <v>0.0607775</v>
+        <v>0.0446004</v>
       </c>
       <c r="AN6">
-        <v>0.385797</v>
+        <v>0.3932389999999999</v>
       </c>
       <c r="AO6">
-        <v>874.41</v>
+        <v>875.321</v>
       </c>
       <c r="AP6">
-        <v>828.9490000000001</v>
+        <v>830.625</v>
       </c>
       <c r="AQ6">
-        <v>889.4300000000001</v>
+        <v>885.681</v>
       </c>
       <c r="AR6">
-        <v>743.311</v>
+        <v>741.246</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT6">
-        <v>724.567</v>
+        <v>725.2950000000001</v>
       </c>
       <c r="AU6">
-        <v>783.424</v>
+        <v>780.578</v>
       </c>
       <c r="AV6">
-        <v>738.765</v>
+        <v>735.641</v>
       </c>
       <c r="AW6">
-        <v>793.486</v>
+        <v>791.1990000000001</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>62</v>
@@ -1740,115 +1740,115 @@
         <v>73</v>
       </c>
       <c r="M7">
-        <v>50.3805</v>
+        <v>50.3253</v>
       </c>
       <c r="N7">
-        <v>7.826410000000001</v>
+        <v>9.04111</v>
       </c>
       <c r="O7">
-        <v>17.472</v>
+        <v>15.318</v>
       </c>
       <c r="P7">
-        <v>31.5073</v>
+        <v>29.2478</v>
       </c>
       <c r="Q7">
-        <v>50.381</v>
+        <v>50.325</v>
       </c>
       <c r="R7">
-        <v>100.001</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S7">
-        <v>31.1314</v>
+        <v>28.9244</v>
       </c>
       <c r="T7">
-        <v>31.5073</v>
+        <v>29.2478</v>
       </c>
       <c r="U7">
-        <v>13.5602</v>
+        <v>15.318</v>
       </c>
       <c r="V7">
-        <v>7.433999999999999</v>
+        <v>8.634789999999999</v>
       </c>
       <c r="W7">
-        <v>10.2185</v>
+        <v>8.411389999999999</v>
       </c>
       <c r="X7">
-        <v>7.82853</v>
+        <v>9.038920000000001</v>
       </c>
       <c r="Y7">
-        <v>7.82853</v>
+        <v>9.038920000000001</v>
       </c>
       <c r="Z7">
-        <v>7.826410000000001</v>
+        <v>9.04111</v>
       </c>
       <c r="AA7">
-        <v>13.9454</v>
+        <v>14.857</v>
       </c>
       <c r="AB7">
-        <v>14.587</v>
+        <v>8.27922</v>
       </c>
       <c r="AC7">
-        <v>17.472</v>
+        <v>7.967030000000001</v>
       </c>
       <c r="AD7">
-        <v>6.21214</v>
+        <v>8.81082</v>
       </c>
       <c r="AE7">
-        <v>6.21214</v>
+        <v>8.81082</v>
       </c>
       <c r="AF7">
-        <v>6.21214</v>
+        <v>8.81082</v>
       </c>
       <c r="AG7">
-        <v>0.680804</v>
+        <v>0.681337</v>
       </c>
       <c r="AH7">
-        <v>0.351356</v>
+        <v>0.358453</v>
       </c>
       <c r="AI7">
-        <v>0.129428</v>
+        <v>0.129433</v>
       </c>
       <c r="AJ7">
-        <v>0.0549263</v>
+        <v>0.0613549</v>
       </c>
       <c r="AK7">
-        <v>0.0575508</v>
+        <v>0.0656588</v>
       </c>
       <c r="AL7">
-        <v>0.07164240000000001</v>
+        <v>0.06833930000000001</v>
       </c>
       <c r="AM7">
-        <v>0.0378133</v>
+        <v>0.0336766</v>
       </c>
       <c r="AN7">
-        <v>0.222375</v>
+        <v>0.229472</v>
       </c>
       <c r="AO7">
-        <v>876.259</v>
+        <v>877.2260000000001</v>
       </c>
       <c r="AP7">
-        <v>831.072</v>
+        <v>832.5820000000001</v>
       </c>
       <c r="AQ7">
-        <v>892.7130000000001</v>
+        <v>888.8680000000001</v>
       </c>
       <c r="AR7">
-        <v>746.756</v>
+        <v>744.548</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT7">
-        <v>725.4290000000001</v>
+        <v>726.3100000000001</v>
       </c>
       <c r="AU7">
-        <v>785.194</v>
+        <v>782.965</v>
       </c>
       <c r="AV7">
-        <v>740.9829999999999</v>
+        <v>738.037</v>
       </c>
       <c r="AW7">
-        <v>797.1320000000001</v>
+        <v>794.873</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>62</v>
@@ -1892,115 +1892,115 @@
         <v>75</v>
       </c>
       <c r="M8">
-        <v>50.382</v>
+        <v>50.3179</v>
       </c>
       <c r="N8">
-        <v>6.761640000000001</v>
+        <v>7.64798</v>
       </c>
       <c r="O8">
-        <v>15.1637</v>
+        <v>14.4533</v>
       </c>
       <c r="P8">
-        <v>26.3533</v>
+        <v>24.388</v>
       </c>
       <c r="Q8">
-        <v>50.383</v>
+        <v>50.316</v>
       </c>
       <c r="R8">
-        <v>100.002</v>
+        <v>99.9962</v>
       </c>
       <c r="S8">
-        <v>25.9719</v>
+        <v>24.0721</v>
       </c>
       <c r="T8">
-        <v>26.3533</v>
+        <v>24.388</v>
       </c>
       <c r="U8">
-        <v>12.7689</v>
+        <v>14.4533</v>
       </c>
       <c r="V8">
-        <v>6.62028</v>
+        <v>7.604090000000001</v>
       </c>
       <c r="W8">
-        <v>8.75966</v>
+        <v>7.12907</v>
       </c>
       <c r="X8">
-        <v>6.75664</v>
+        <v>7.64364</v>
       </c>
       <c r="Y8">
-        <v>6.75664</v>
+        <v>7.64364</v>
       </c>
       <c r="Z8">
-        <v>6.761640000000001</v>
+        <v>7.64798</v>
       </c>
       <c r="AA8">
-        <v>13.3353</v>
+        <v>14.0935</v>
       </c>
       <c r="AB8">
-        <v>12.8991</v>
+        <v>7.344550000000001</v>
       </c>
       <c r="AC8">
-        <v>15.1637</v>
+        <v>6.806640000000001</v>
       </c>
       <c r="AD8">
-        <v>5.2802</v>
+        <v>7.511240000000001</v>
       </c>
       <c r="AE8">
-        <v>5.2802</v>
+        <v>7.511240000000001</v>
       </c>
       <c r="AF8">
-        <v>5.2802</v>
+        <v>7.511240000000001</v>
       </c>
       <c r="AG8">
-        <v>0.831241</v>
+        <v>0.831906</v>
       </c>
       <c r="AH8">
-        <v>0.5327799999999999</v>
+        <v>0.540483</v>
       </c>
       <c r="AI8">
-        <v>0.240584</v>
+        <v>0.24059</v>
       </c>
       <c r="AJ8">
-        <v>0.07622229999999999</v>
+        <v>0.08366409999999999</v>
       </c>
       <c r="AK8">
-        <v>0.0748543</v>
+        <v>0.0876212</v>
       </c>
       <c r="AL8">
-        <v>0.09088300000000001</v>
+        <v>0.08683399999999999</v>
       </c>
       <c r="AM8">
-        <v>0.0503554</v>
+        <v>0.0418972</v>
       </c>
       <c r="AN8">
-        <v>0.292867</v>
+        <v>0.300574</v>
       </c>
       <c r="AO8">
-        <v>874.665</v>
+        <v>875.538</v>
       </c>
       <c r="AP8">
-        <v>828.549</v>
+        <v>829.952</v>
       </c>
       <c r="AQ8">
-        <v>888.3990000000001</v>
+        <v>885.095</v>
       </c>
       <c r="AR8">
-        <v>741.598</v>
+        <v>739.694</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT8">
-        <v>724.0310000000001</v>
+        <v>724.7760000000001</v>
       </c>
       <c r="AU8">
-        <v>782.436</v>
+        <v>780.297</v>
       </c>
       <c r="AV8">
-        <v>737.0550000000001</v>
+        <v>734.417</v>
       </c>
       <c r="AW8">
-        <v>791.978</v>
+        <v>790.013</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>62</v>
@@ -2044,115 +2044,115 @@
         <v>73</v>
       </c>
       <c r="M9">
-        <v>50.1542</v>
+        <v>49.9487</v>
       </c>
       <c r="N9">
-        <v>9.453899999999999</v>
+        <v>10.3074</v>
       </c>
       <c r="O9">
-        <v>20.3475</v>
+        <v>17.5371</v>
       </c>
       <c r="P9">
-        <v>31.9494</v>
+        <v>29.4757</v>
       </c>
       <c r="Q9">
-        <v>50.1556</v>
+        <v>49.9483</v>
       </c>
       <c r="R9">
-        <v>100.003</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S9">
-        <v>31.7948</v>
+        <v>29.4757</v>
       </c>
       <c r="T9">
-        <v>31.9494</v>
+        <v>29.4247</v>
       </c>
       <c r="U9">
-        <v>15.4932</v>
+        <v>17.5371</v>
       </c>
       <c r="V9">
-        <v>9.05043</v>
+        <v>10.3935</v>
       </c>
       <c r="W9">
-        <v>12.1432</v>
+        <v>9.731389999999999</v>
       </c>
       <c r="X9">
-        <v>9.45626</v>
+        <v>10.2608</v>
       </c>
       <c r="Y9">
-        <v>9.45626</v>
+        <v>10.2608</v>
       </c>
       <c r="Z9">
-        <v>9.453899999999999</v>
+        <v>10.2468</v>
       </c>
       <c r="AA9">
-        <v>16.2868</v>
+        <v>17.2045</v>
       </c>
       <c r="AB9">
-        <v>17.7164</v>
+        <v>10.085</v>
       </c>
       <c r="AC9">
-        <v>20.3475</v>
+        <v>9.47855</v>
       </c>
       <c r="AD9">
-        <v>7.45437</v>
+        <v>10.3074</v>
       </c>
       <c r="AE9">
-        <v>7.45437</v>
+        <v>10.3074</v>
       </c>
       <c r="AF9">
-        <v>7.45437</v>
+        <v>10.3074</v>
       </c>
       <c r="AG9">
-        <v>0.677046</v>
+        <v>0.677391</v>
       </c>
       <c r="AH9">
-        <v>0.4932409999999999</v>
+        <v>0.499603</v>
       </c>
       <c r="AI9">
-        <v>0.247792</v>
+        <v>0.248005</v>
       </c>
       <c r="AJ9">
-        <v>0.0625319</v>
+        <v>0.0685735</v>
       </c>
       <c r="AK9">
-        <v>0.06432270000000001</v>
+        <v>0.07709150000000001</v>
       </c>
       <c r="AL9">
-        <v>0.0767695</v>
+        <v>0.07473909999999999</v>
       </c>
       <c r="AM9">
-        <v>0.0460248</v>
+        <v>0.0356065</v>
       </c>
       <c r="AN9">
-        <v>0.301399</v>
+        <v>0.307761</v>
       </c>
       <c r="AO9">
-        <v>875.4689999999999</v>
+        <v>876.475</v>
       </c>
       <c r="AP9">
-        <v>830.8340000000001</v>
+        <v>832.6130000000001</v>
       </c>
       <c r="AQ9">
-        <v>892.802</v>
+        <v>888.601</v>
       </c>
       <c r="AR9">
-        <v>747.4250000000001</v>
+        <v>745.099</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT9">
-        <v>725.591</v>
+        <v>726.4400000000001</v>
       </c>
       <c r="AU9">
-        <v>785.61</v>
+        <v>782.59</v>
       </c>
       <c r="AV9">
-        <v>742.0390000000001</v>
+        <v>738.525</v>
       </c>
       <c r="AW9">
-        <v>797.5740000000001</v>
+        <v>795.05</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>62</v>
@@ -2196,115 +2196,115 @@
         <v>75</v>
       </c>
       <c r="M10">
-        <v>50.1777</v>
+        <v>49.9549</v>
       </c>
       <c r="N10">
-        <v>8.37236</v>
+        <v>8.925170000000001</v>
       </c>
       <c r="O10">
-        <v>17.9041</v>
+        <v>16.6406</v>
       </c>
       <c r="P10">
-        <v>27.8369</v>
+        <v>25.581</v>
       </c>
       <c r="Q10">
-        <v>50.1768</v>
+        <v>49.95489999999999</v>
       </c>
       <c r="R10">
-        <v>99.9982</v>
+        <v>100</v>
       </c>
       <c r="S10">
-        <v>27.656</v>
+        <v>25.581</v>
       </c>
       <c r="T10">
-        <v>27.8369</v>
+        <v>25.5329</v>
       </c>
       <c r="U10">
-        <v>14.7648</v>
+        <v>16.6406</v>
       </c>
       <c r="V10">
-        <v>8.21869</v>
+        <v>9.347009999999999</v>
       </c>
       <c r="W10">
-        <v>10.62</v>
+        <v>8.46396</v>
       </c>
       <c r="X10">
-        <v>8.37269</v>
+        <v>8.853809999999999</v>
       </c>
       <c r="Y10">
-        <v>8.37269</v>
+        <v>8.853809999999999</v>
       </c>
       <c r="Z10">
-        <v>8.37236</v>
+        <v>8.854419999999999</v>
       </c>
       <c r="AA10">
-        <v>15.5714</v>
+        <v>16.3257</v>
       </c>
       <c r="AB10">
-        <v>15.728</v>
+        <v>9.085140000000001</v>
       </c>
       <c r="AC10">
-        <v>17.9041</v>
+        <v>8.246079999999999</v>
       </c>
       <c r="AD10">
-        <v>6.46968</v>
+        <v>8.925170000000001</v>
       </c>
       <c r="AE10">
-        <v>6.46968</v>
+        <v>8.925170000000001</v>
       </c>
       <c r="AF10">
-        <v>6.46968</v>
+        <v>8.925170000000001</v>
       </c>
       <c r="AG10">
-        <v>0.827399</v>
+        <v>0.827677</v>
       </c>
       <c r="AH10">
-        <v>0.698525</v>
+        <v>0.7059460000000001</v>
       </c>
       <c r="AI10">
-        <v>0.376259</v>
+        <v>0.376464</v>
       </c>
       <c r="AJ10">
-        <v>0.0857149</v>
+        <v>0.09271789999999999</v>
       </c>
       <c r="AK10">
-        <v>0.0834573</v>
+        <v>0.102347</v>
       </c>
       <c r="AL10">
-        <v>0.09709309999999999</v>
+        <v>0.09483209999999999</v>
       </c>
       <c r="AM10">
-        <v>0.0605798</v>
+        <v>0.0443599</v>
       </c>
       <c r="AN10">
-        <v>0.385574</v>
+        <v>0.392995</v>
       </c>
       <c r="AO10">
-        <v>874.404</v>
+        <v>875.3220000000001</v>
       </c>
       <c r="AP10">
-        <v>828.95</v>
+        <v>830.625</v>
       </c>
       <c r="AQ10">
-        <v>889.4200000000001</v>
+        <v>885.682</v>
       </c>
       <c r="AR10">
-        <v>743.2800000000001</v>
+        <v>741.206</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT10">
-        <v>724.5649999999999</v>
+        <v>725.296</v>
       </c>
       <c r="AU10">
-        <v>783.426</v>
+        <v>780.578</v>
       </c>
       <c r="AV10">
-        <v>738.764</v>
+        <v>735.641</v>
       </c>
       <c r="AW10">
-        <v>793.462</v>
+        <v>791.158</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>62</v>
@@ -2348,115 +2348,115 @@
         <v>73</v>
       </c>
       <c r="M11">
-        <v>49.1599</v>
+        <v>49.0231</v>
       </c>
       <c r="N11">
-        <v>12.7192</v>
+        <v>15.2438</v>
       </c>
       <c r="O11">
-        <v>27.5096</v>
+        <v>19.4929</v>
       </c>
       <c r="P11">
-        <v>56.2225</v>
+        <v>53.3178</v>
       </c>
       <c r="Q11">
-        <v>49.1569</v>
+        <v>49.0226</v>
       </c>
       <c r="R11">
-        <v>99.9939</v>
+        <v>99.999</v>
       </c>
       <c r="S11">
-        <v>56.2225</v>
+        <v>53.3178</v>
       </c>
       <c r="T11">
-        <v>55.3796</v>
+        <v>52.3393</v>
       </c>
       <c r="U11">
-        <v>16.7578</v>
+        <v>19.3869</v>
       </c>
       <c r="V11">
-        <v>11.969</v>
+        <v>14.0439</v>
       </c>
       <c r="W11">
-        <v>16.9973</v>
+        <v>14.2944</v>
       </c>
       <c r="X11">
-        <v>12.7188</v>
+        <v>15.2453</v>
       </c>
       <c r="Y11">
-        <v>12.7188</v>
+        <v>15.2453</v>
       </c>
       <c r="Z11">
-        <v>12.7192</v>
+        <v>15.2438</v>
       </c>
       <c r="AA11">
-        <v>17.7724</v>
+        <v>19.4929</v>
       </c>
       <c r="AB11">
-        <v>22.0328</v>
+        <v>13.2768</v>
       </c>
       <c r="AC11">
-        <v>27.5096</v>
+        <v>13.5925</v>
       </c>
       <c r="AD11">
-        <v>10.2735</v>
+        <v>14.8009</v>
       </c>
       <c r="AE11">
-        <v>10.2735</v>
+        <v>14.8009</v>
       </c>
       <c r="AF11">
-        <v>10.2735</v>
+        <v>14.8009</v>
       </c>
       <c r="AG11">
-        <v>0.683702</v>
+        <v>0.683686</v>
       </c>
       <c r="AH11">
-        <v>0.212768</v>
+        <v>0.224649</v>
       </c>
       <c r="AI11">
-        <v>0.0204356</v>
+        <v>0.0204357</v>
       </c>
       <c r="AJ11">
-        <v>0.0450451</v>
+        <v>0.0521103</v>
       </c>
       <c r="AK11">
-        <v>0.0494631</v>
+        <v>0.0569612</v>
       </c>
       <c r="AL11">
-        <v>0.0645048</v>
+        <v>0.06270139999999999</v>
       </c>
       <c r="AM11">
-        <v>0.0335235</v>
+        <v>0.0326511</v>
       </c>
       <c r="AN11">
-        <v>0.192548</v>
+        <v>0.20443</v>
       </c>
       <c r="AO11">
-        <v>882.057</v>
+        <v>883.111</v>
       </c>
       <c r="AP11">
-        <v>842.3920000000001</v>
+        <v>845.345</v>
       </c>
       <c r="AQ11">
-        <v>911.823</v>
+        <v>906.2149999999999</v>
       </c>
       <c r="AR11">
-        <v>771.8489999999999</v>
+        <v>768.941</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT11">
-        <v>731.647</v>
+        <v>732.994</v>
       </c>
       <c r="AU11">
-        <v>796.813</v>
+        <v>794.6750000000001</v>
       </c>
       <c r="AV11">
-        <v>759.1890000000001</v>
+        <v>756.324</v>
       </c>
       <c r="AW11">
-        <v>821.005</v>
+        <v>817.9639999999999</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>62</v>
@@ -2500,115 +2500,115 @@
         <v>75</v>
       </c>
       <c r="M12">
-        <v>49.4101</v>
+        <v>49.3708</v>
       </c>
       <c r="N12">
-        <v>9.425599999999999</v>
+        <v>11.3028</v>
       </c>
       <c r="O12">
-        <v>21.2126</v>
+        <v>16.3678</v>
       </c>
       <c r="P12">
-        <v>40.8417</v>
+        <v>38.5538</v>
       </c>
       <c r="Q12">
-        <v>49.4104</v>
+        <v>49.37090000000001</v>
       </c>
       <c r="R12">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S12">
-        <v>40.8417</v>
+        <v>38.5538</v>
       </c>
       <c r="T12">
-        <v>40.2552</v>
+        <v>37.9255</v>
       </c>
       <c r="U12">
-        <v>14.3513</v>
+        <v>16.1834</v>
       </c>
       <c r="V12">
-        <v>8.80894</v>
+        <v>10.4224</v>
       </c>
       <c r="W12">
-        <v>12.5264</v>
+        <v>10.5758</v>
       </c>
       <c r="X12">
-        <v>9.42821</v>
+        <v>11.3016</v>
       </c>
       <c r="Y12">
-        <v>9.42821</v>
+        <v>11.3016</v>
       </c>
       <c r="Z12">
-        <v>9.425599999999999</v>
+        <v>11.3028</v>
       </c>
       <c r="AA12">
-        <v>15.064</v>
+        <v>16.3678</v>
       </c>
       <c r="AB12">
-        <v>17.0511</v>
+        <v>9.963150000000001</v>
       </c>
       <c r="AC12">
-        <v>21.2126</v>
+        <v>10.2038</v>
       </c>
       <c r="AD12">
-        <v>7.69657</v>
+        <v>11.1056</v>
       </c>
       <c r="AE12">
-        <v>7.69657</v>
+        <v>11.1056</v>
       </c>
       <c r="AF12">
-        <v>7.69657</v>
+        <v>11.1056</v>
       </c>
       <c r="AG12">
-        <v>0.834242</v>
+        <v>0.83472</v>
       </c>
       <c r="AH12">
-        <v>0.314634</v>
+        <v>0.325832</v>
       </c>
       <c r="AI12">
-        <v>0.0684575</v>
+        <v>0.0684577</v>
       </c>
       <c r="AJ12">
-        <v>0.0584178</v>
+        <v>0.066871</v>
       </c>
       <c r="AK12">
-        <v>0.06376949999999999</v>
+        <v>0.0715817</v>
       </c>
       <c r="AL12">
-        <v>0.0820457</v>
+        <v>0.0787163</v>
       </c>
       <c r="AM12">
-        <v>0.041908</v>
+        <v>0.040178</v>
       </c>
       <c r="AN12">
-        <v>0.246162</v>
+        <v>0.25736</v>
       </c>
       <c r="AO12">
-        <v>878.689</v>
+        <v>879.706</v>
       </c>
       <c r="AP12">
-        <v>836.059</v>
+        <v>837.926</v>
       </c>
       <c r="AQ12">
-        <v>899.725</v>
+        <v>895.419</v>
       </c>
       <c r="AR12">
-        <v>756.4689999999999</v>
+        <v>754.176</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT12">
-        <v>728.578</v>
+        <v>729.6320000000001</v>
       </c>
       <c r="AU12">
-        <v>789.456</v>
+        <v>787.51</v>
       </c>
       <c r="AV12">
-        <v>748.324</v>
+        <v>745.465</v>
       </c>
       <c r="AW12">
-        <v>805.88</v>
+        <v>803.55</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>62</v>
@@ -2652,115 +2652,115 @@
         <v>73</v>
       </c>
       <c r="M13">
-        <v>48.9221</v>
+        <v>48.7778</v>
       </c>
       <c r="N13">
-        <v>13.7436</v>
+        <v>16.1528</v>
       </c>
       <c r="O13">
-        <v>30.2824</v>
+        <v>21.5092</v>
       </c>
       <c r="P13">
-        <v>53.148</v>
+        <v>50.5151</v>
       </c>
       <c r="Q13">
-        <v>48.9207</v>
+        <v>48.7779</v>
       </c>
       <c r="R13">
-        <v>99.997</v>
+        <v>100</v>
       </c>
       <c r="S13">
-        <v>53.148</v>
+        <v>50.5151</v>
       </c>
       <c r="T13">
-        <v>52.0762</v>
+        <v>49.293</v>
       </c>
       <c r="U13">
-        <v>18.1063</v>
+        <v>20.8911</v>
       </c>
       <c r="V13">
-        <v>12.9253</v>
+        <v>15.0783</v>
       </c>
       <c r="W13">
-        <v>18.4601</v>
+        <v>15.1177</v>
       </c>
       <c r="X13">
-        <v>13.7428</v>
+        <v>15.9538</v>
       </c>
       <c r="Y13">
-        <v>13.7428</v>
+        <v>15.9538</v>
       </c>
       <c r="Z13">
-        <v>13.7436</v>
+        <v>15.9538</v>
       </c>
       <c r="AA13">
-        <v>19.6421</v>
+        <v>21.5092</v>
       </c>
       <c r="AB13">
-        <v>24.6816</v>
+        <v>14.559</v>
       </c>
       <c r="AC13">
-        <v>30.2824</v>
+        <v>14.9237</v>
       </c>
       <c r="AD13">
-        <v>11.3526</v>
+        <v>16.1528</v>
       </c>
       <c r="AE13">
-        <v>11.3526</v>
+        <v>16.1528</v>
       </c>
       <c r="AF13">
-        <v>11.3526</v>
+        <v>16.1528</v>
       </c>
       <c r="AG13">
-        <v>0.680417</v>
+        <v>0.6807299999999999</v>
       </c>
       <c r="AH13">
-        <v>0.244982</v>
+        <v>0.256505</v>
       </c>
       <c r="AI13">
-        <v>0.0471391</v>
+        <v>0.0471402</v>
       </c>
       <c r="AJ13">
-        <v>0.046558</v>
+        <v>0.0534664</v>
       </c>
       <c r="AK13">
-        <v>0.0508267</v>
+        <v>0.0590149</v>
       </c>
       <c r="AL13">
-        <v>0.0653736</v>
+        <v>0.0640418</v>
       </c>
       <c r="AM13">
-        <v>0.0351944</v>
+        <v>0.0329611</v>
       </c>
       <c r="AN13">
-        <v>0.199887</v>
+        <v>0.211411</v>
       </c>
       <c r="AO13">
-        <v>880.402</v>
+        <v>881.4780000000001</v>
       </c>
       <c r="AP13">
-        <v>840.5830000000001</v>
+        <v>843.451</v>
       </c>
       <c r="AQ13">
-        <v>908.7800000000001</v>
+        <v>903.2850000000001</v>
       </c>
       <c r="AR13">
-        <v>768.773</v>
+        <v>766.14</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT13">
-        <v>730.927</v>
+        <v>732.272</v>
       </c>
       <c r="AU13">
-        <v>795.325</v>
+        <v>792.4699999999999</v>
       </c>
       <c r="AV13">
-        <v>758.052</v>
+        <v>754.3050000000001</v>
       </c>
       <c r="AW13">
-        <v>817.701</v>
+        <v>814.918</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>62</v>
@@ -2804,115 +2804,115 @@
         <v>75</v>
       </c>
       <c r="M14">
-        <v>49.2696</v>
+        <v>49.1597</v>
       </c>
       <c r="N14">
-        <v>10.7207</v>
+        <v>12.6562</v>
       </c>
       <c r="O14">
-        <v>24.2074</v>
+        <v>18.4387</v>
       </c>
       <c r="P14">
-        <v>41.0709</v>
+        <v>38.7865</v>
       </c>
       <c r="Q14">
-        <v>49.268</v>
+        <v>49.16</v>
       </c>
       <c r="R14">
-        <v>99.99680000000001</v>
+        <v>100</v>
       </c>
       <c r="S14">
-        <v>41.0709</v>
+        <v>38.7865</v>
       </c>
       <c r="T14">
-        <v>40.3388</v>
+        <v>37.9455</v>
       </c>
       <c r="U14">
-        <v>15.9162</v>
+        <v>18.1201</v>
       </c>
       <c r="V14">
-        <v>10.0919</v>
+        <v>11.8424</v>
       </c>
       <c r="W14">
-        <v>14.29</v>
+        <v>11.9022</v>
       </c>
       <c r="X14">
-        <v>10.7228</v>
+        <v>12.5134</v>
       </c>
       <c r="Y14">
-        <v>10.7228</v>
+        <v>12.5134</v>
       </c>
       <c r="Z14">
-        <v>10.7207</v>
+        <v>12.5131</v>
       </c>
       <c r="AA14">
-        <v>17.0112</v>
+        <v>18.4387</v>
       </c>
       <c r="AB14">
-        <v>20.0024</v>
+        <v>11.4624</v>
       </c>
       <c r="AC14">
-        <v>24.2074</v>
+        <v>11.7021</v>
       </c>
       <c r="AD14">
-        <v>8.844620000000001</v>
+        <v>12.6562</v>
       </c>
       <c r="AE14">
-        <v>8.844620000000001</v>
+        <v>12.6562</v>
       </c>
       <c r="AF14">
-        <v>8.844620000000001</v>
+        <v>12.6562</v>
       </c>
       <c r="AG14">
-        <v>0.831522</v>
+        <v>0.831833</v>
       </c>
       <c r="AH14">
-        <v>0.354045</v>
+        <v>0.364243</v>
       </c>
       <c r="AI14">
-        <v>0.09817379999999999</v>
+        <v>0.0981744</v>
       </c>
       <c r="AJ14">
-        <v>0.06107249999999999</v>
+        <v>0.06935529999999999</v>
       </c>
       <c r="AK14">
-        <v>0.0660273</v>
+        <v>0.075308</v>
       </c>
       <c r="AL14">
-        <v>0.0837579</v>
+        <v>0.08071489999999999</v>
       </c>
       <c r="AM14">
-        <v>0.0450745</v>
+        <v>0.0407557</v>
       </c>
       <c r="AN14">
-        <v>0.258114</v>
+        <v>0.268311</v>
       </c>
       <c r="AO14">
-        <v>877.765</v>
+        <v>878.8579999999999</v>
       </c>
       <c r="AP14">
-        <v>835.619</v>
+        <v>837.63</v>
       </c>
       <c r="AQ14">
-        <v>899.534</v>
+        <v>894.971</v>
       </c>
       <c r="AR14">
-        <v>756.701</v>
+        <v>754.412</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT14">
-        <v>728.36</v>
+        <v>729.473</v>
       </c>
       <c r="AU14">
-        <v>789.51</v>
+        <v>786.952</v>
       </c>
       <c r="AV14">
-        <v>749.141</v>
+        <v>745.629</v>
       </c>
       <c r="AW14">
-        <v>805.9640000000001</v>
+        <v>803.571</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>62</v>
@@ -2956,115 +2956,115 @@
         <v>73</v>
       </c>
       <c r="M15">
-        <v>49.1763</v>
+        <v>49.0423</v>
       </c>
       <c r="N15">
-        <v>12.684</v>
+        <v>15.168</v>
       </c>
       <c r="O15">
-        <v>27.5141</v>
+        <v>19.4906</v>
       </c>
       <c r="P15">
-        <v>56.1736</v>
+        <v>53.2559</v>
       </c>
       <c r="Q15">
-        <v>49.1785</v>
+        <v>49.042</v>
       </c>
       <c r="R15">
-        <v>100.005</v>
+        <v>99.99930000000001</v>
       </c>
       <c r="S15">
-        <v>56.1736</v>
+        <v>53.2559</v>
       </c>
       <c r="T15">
-        <v>55.3481</v>
+        <v>52.2932</v>
       </c>
       <c r="U15">
-        <v>16.7618</v>
+        <v>19.3883</v>
       </c>
       <c r="V15">
-        <v>11.9708</v>
+        <v>14.0451</v>
       </c>
       <c r="W15">
-        <v>16.9979</v>
+        <v>14.2932</v>
       </c>
       <c r="X15">
-        <v>12.6824</v>
+        <v>15.1699</v>
       </c>
       <c r="Y15">
-        <v>12.6824</v>
+        <v>15.1699</v>
       </c>
       <c r="Z15">
-        <v>12.684</v>
+        <v>15.168</v>
       </c>
       <c r="AA15">
-        <v>17.7738</v>
+        <v>19.4906</v>
       </c>
       <c r="AB15">
-        <v>22.0287</v>
+        <v>13.257</v>
       </c>
       <c r="AC15">
-        <v>27.5141</v>
+        <v>13.5928</v>
       </c>
       <c r="AD15">
-        <v>10.2087</v>
+        <v>14.7113</v>
       </c>
       <c r="AE15">
-        <v>10.2087</v>
+        <v>14.7113</v>
       </c>
       <c r="AF15">
-        <v>10.2087</v>
+        <v>14.7113</v>
       </c>
       <c r="AG15">
-        <v>0.6837259999999999</v>
+        <v>0.683733</v>
       </c>
       <c r="AH15">
-        <v>0.212533</v>
+        <v>0.224419</v>
       </c>
       <c r="AI15">
-        <v>0.0204356</v>
+        <v>0.0204357</v>
       </c>
       <c r="AJ15">
-        <v>0.0450441</v>
+        <v>0.0521119</v>
       </c>
       <c r="AK15">
-        <v>0.0494641</v>
+        <v>0.0569602</v>
       </c>
       <c r="AL15">
-        <v>0.06450880000000001</v>
+        <v>0.0627018</v>
       </c>
       <c r="AM15">
-        <v>0.0332843</v>
+        <v>0.0324205</v>
       </c>
       <c r="AN15">
-        <v>0.192313</v>
+        <v>0.2042</v>
       </c>
       <c r="AO15">
-        <v>882.056</v>
+        <v>883.1070000000001</v>
       </c>
       <c r="AP15">
-        <v>842.3920000000001</v>
+        <v>845.341</v>
       </c>
       <c r="AQ15">
-        <v>911.821</v>
+        <v>906.2140000000001</v>
       </c>
       <c r="AR15">
-        <v>771.7980000000001</v>
+        <v>768.884</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT15">
-        <v>731.6460000000001</v>
+        <v>732.996</v>
       </c>
       <c r="AU15">
-        <v>796.8150000000001</v>
+        <v>794.6759999999999</v>
       </c>
       <c r="AV15">
-        <v>759.193</v>
+        <v>756.3249999999999</v>
       </c>
       <c r="AW15">
-        <v>820.9730000000001</v>
+        <v>817.918</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>62</v>
@@ -3108,115 +3108,115 @@
         <v>75</v>
       </c>
       <c r="M16">
-        <v>49.4279</v>
+        <v>49.3826</v>
       </c>
       <c r="N16">
-        <v>9.40907</v>
+        <v>11.2494</v>
       </c>
       <c r="O16">
-        <v>21.213</v>
+        <v>16.368</v>
       </c>
       <c r="P16">
-        <v>40.8018</v>
+        <v>38.5026</v>
       </c>
       <c r="Q16">
-        <v>49.4286</v>
+        <v>49.3841</v>
       </c>
       <c r="R16">
-        <v>100.001</v>
+        <v>100.003</v>
       </c>
       <c r="S16">
-        <v>40.8018</v>
+        <v>38.5026</v>
       </c>
       <c r="T16">
-        <v>40.2273</v>
+        <v>37.8892</v>
       </c>
       <c r="U16">
-        <v>14.3551</v>
+        <v>16.181</v>
       </c>
       <c r="V16">
-        <v>8.80466</v>
+        <v>10.4157</v>
       </c>
       <c r="W16">
-        <v>12.5273</v>
+        <v>10.5787</v>
       </c>
       <c r="X16">
-        <v>9.402940000000001</v>
+        <v>11.249</v>
       </c>
       <c r="Y16">
-        <v>9.402940000000001</v>
+        <v>11.249</v>
       </c>
       <c r="Z16">
-        <v>9.40907</v>
+        <v>11.2494</v>
       </c>
       <c r="AA16">
-        <v>15.0607</v>
+        <v>16.368</v>
       </c>
       <c r="AB16">
-        <v>17.0433</v>
+        <v>9.95722</v>
       </c>
       <c r="AC16">
-        <v>21.213</v>
+        <v>10.2045</v>
       </c>
       <c r="AD16">
-        <v>7.657819999999999</v>
+        <v>11.0436</v>
       </c>
       <c r="AE16">
-        <v>7.657819999999999</v>
+        <v>11.0436</v>
       </c>
       <c r="AF16">
-        <v>7.657819999999999</v>
+        <v>11.0436</v>
       </c>
       <c r="AG16">
-        <v>0.834187</v>
+        <v>0.834775</v>
       </c>
       <c r="AH16">
-        <v>0.314347</v>
+        <v>0.32553</v>
       </c>
       <c r="AI16">
-        <v>0.06845759999999999</v>
+        <v>0.0684577</v>
       </c>
       <c r="AJ16">
-        <v>0.0584095</v>
+        <v>0.0668636</v>
       </c>
       <c r="AK16">
-        <v>0.0637759</v>
+        <v>0.0715927</v>
       </c>
       <c r="AL16">
-        <v>0.0820437</v>
+        <v>0.07869949999999999</v>
       </c>
       <c r="AM16">
-        <v>0.0416243</v>
+        <v>0.0398891</v>
       </c>
       <c r="AN16">
-        <v>0.245875</v>
+        <v>0.257058</v>
       </c>
       <c r="AO16">
-        <v>878.688</v>
+        <v>879.705</v>
       </c>
       <c r="AP16">
-        <v>836.061</v>
+        <v>837.925</v>
       </c>
       <c r="AQ16">
-        <v>899.7329999999999</v>
+        <v>895.423</v>
       </c>
       <c r="AR16">
-        <v>756.4300000000001</v>
+        <v>754.129</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT16">
-        <v>728.576</v>
+        <v>729.633</v>
       </c>
       <c r="AU16">
-        <v>789.457</v>
+        <v>787.5110000000001</v>
       </c>
       <c r="AV16">
-        <v>748.326</v>
+        <v>745.467</v>
       </c>
       <c r="AW16">
-        <v>805.852</v>
+        <v>803.514</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>62</v>
@@ -3260,115 +3260,115 @@
         <v>73</v>
       </c>
       <c r="M17">
-        <v>48.9421</v>
+        <v>48.782</v>
       </c>
       <c r="N17">
-        <v>13.7071</v>
+        <v>16.0612</v>
       </c>
       <c r="O17">
-        <v>30.2825</v>
+        <v>21.5138</v>
       </c>
       <c r="P17">
-        <v>53.096</v>
+        <v>50.4532</v>
       </c>
       <c r="Q17">
-        <v>48.9429</v>
+        <v>48.78190000000001</v>
       </c>
       <c r="R17">
-        <v>100.002</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S17">
-        <v>53.096</v>
+        <v>50.4532</v>
       </c>
       <c r="T17">
-        <v>52.0376</v>
+        <v>49.2366</v>
       </c>
       <c r="U17">
-        <v>18.1095</v>
+        <v>20.8863</v>
       </c>
       <c r="V17">
-        <v>12.9113</v>
+        <v>15.0849</v>
       </c>
       <c r="W17">
-        <v>18.4675</v>
+        <v>15.1227</v>
       </c>
       <c r="X17">
-        <v>13.7041</v>
+        <v>15.8835</v>
       </c>
       <c r="Y17">
-        <v>13.7041</v>
+        <v>15.8835</v>
       </c>
       <c r="Z17">
-        <v>13.7071</v>
+        <v>15.8841</v>
       </c>
       <c r="AA17">
-        <v>19.6452</v>
+        <v>21.5138</v>
       </c>
       <c r="AB17">
-        <v>24.6589</v>
+        <v>14.5575</v>
       </c>
       <c r="AC17">
-        <v>30.2825</v>
+        <v>14.9202</v>
       </c>
       <c r="AD17">
-        <v>11.2965</v>
+        <v>16.0612</v>
       </c>
       <c r="AE17">
-        <v>11.2965</v>
+        <v>16.0612</v>
       </c>
       <c r="AF17">
-        <v>11.2965</v>
+        <v>16.0612</v>
       </c>
       <c r="AG17">
-        <v>0.680439</v>
+        <v>0.680735</v>
       </c>
       <c r="AH17">
-        <v>0.244773</v>
+        <v>0.256272</v>
       </c>
       <c r="AI17">
-        <v>0.0471391</v>
+        <v>0.0471402</v>
       </c>
       <c r="AJ17">
-        <v>0.0465564</v>
+        <v>0.0534604</v>
       </c>
       <c r="AK17">
-        <v>0.0508279</v>
+        <v>0.0590171</v>
       </c>
       <c r="AL17">
-        <v>0.0653902</v>
+        <v>0.0640415</v>
       </c>
       <c r="AM17">
-        <v>0.0349691</v>
+        <v>0.03273239999999999</v>
       </c>
       <c r="AN17">
-        <v>0.199678</v>
+        <v>0.211177</v>
       </c>
       <c r="AO17">
-        <v>880.4050000000001</v>
+        <v>881.475</v>
       </c>
       <c r="AP17">
-        <v>840.582</v>
+        <v>843.447</v>
       </c>
       <c r="AQ17">
-        <v>908.792</v>
+        <v>903.2840000000001</v>
       </c>
       <c r="AR17">
-        <v>768.721</v>
+        <v>766.074</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT17">
-        <v>730.926</v>
+        <v>732.2769999999999</v>
       </c>
       <c r="AU17">
-        <v>795.3230000000001</v>
+        <v>792.472</v>
       </c>
       <c r="AV17">
-        <v>758.052</v>
+        <v>754.299</v>
       </c>
       <c r="AW17">
-        <v>817.663</v>
+        <v>814.8620000000001</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>62</v>
@@ -3412,115 +3412,115 @@
         <v>75</v>
       </c>
       <c r="M18">
-        <v>49.2709</v>
+        <v>49.1685</v>
       </c>
       <c r="N18">
-        <v>10.6815</v>
+        <v>12.5956</v>
       </c>
       <c r="O18">
-        <v>24.2038</v>
+        <v>18.4408</v>
       </c>
       <c r="P18">
-        <v>41.034</v>
+        <v>38.7363</v>
       </c>
       <c r="Q18">
-        <v>49.2711</v>
+        <v>49.1665</v>
       </c>
       <c r="R18">
-        <v>100</v>
+        <v>99.99590000000001</v>
       </c>
       <c r="S18">
-        <v>41.034</v>
+        <v>38.7363</v>
       </c>
       <c r="T18">
-        <v>40.3062</v>
+        <v>37.9002</v>
       </c>
       <c r="U18">
-        <v>15.9028</v>
+        <v>18.1233</v>
       </c>
       <c r="V18">
-        <v>10.0867</v>
+        <v>11.8493</v>
       </c>
       <c r="W18">
-        <v>14.2903</v>
+        <v>11.8812</v>
       </c>
       <c r="X18">
-        <v>10.6811</v>
+        <v>12.4603</v>
       </c>
       <c r="Y18">
-        <v>10.6811</v>
+        <v>12.4603</v>
       </c>
       <c r="Z18">
-        <v>10.6815</v>
+        <v>12.4594</v>
       </c>
       <c r="AA18">
-        <v>17.0096</v>
+        <v>18.4408</v>
       </c>
       <c r="AB18">
-        <v>20.0094</v>
+        <v>11.4634</v>
       </c>
       <c r="AC18">
-        <v>24.2038</v>
+        <v>11.6967</v>
       </c>
       <c r="AD18">
-        <v>8.805000000000001</v>
+        <v>12.5956</v>
       </c>
       <c r="AE18">
-        <v>8.805000000000001</v>
+        <v>12.5956</v>
       </c>
       <c r="AF18">
-        <v>8.805000000000001</v>
+        <v>12.5956</v>
       </c>
       <c r="AG18">
-        <v>0.831523</v>
+        <v>0.83186</v>
       </c>
       <c r="AH18">
-        <v>0.353786</v>
+        <v>0.363957</v>
       </c>
       <c r="AI18">
-        <v>0.09817379999999999</v>
+        <v>0.0981744</v>
       </c>
       <c r="AJ18">
-        <v>0.0610704</v>
+        <v>0.0693566</v>
       </c>
       <c r="AK18">
-        <v>0.06602659999999999</v>
+        <v>0.07530969999999999</v>
       </c>
       <c r="AL18">
-        <v>0.0837584</v>
+        <v>0.0807008</v>
       </c>
       <c r="AM18">
-        <v>0.0448179</v>
+        <v>0.0404806</v>
       </c>
       <c r="AN18">
-        <v>0.257854</v>
+        <v>0.268025</v>
       </c>
       <c r="AO18">
-        <v>877.764</v>
+        <v>878.859</v>
       </c>
       <c r="AP18">
-        <v>835.62</v>
+        <v>837.6310000000001</v>
       </c>
       <c r="AQ18">
-        <v>899.532</v>
+        <v>894.972</v>
       </c>
       <c r="AR18">
-        <v>756.66</v>
+        <v>754.36</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT18">
-        <v>728.362</v>
+        <v>729.474</v>
       </c>
       <c r="AU18">
-        <v>789.51</v>
+        <v>786.953</v>
       </c>
       <c r="AV18">
-        <v>749.1419999999999</v>
+        <v>745.6319999999999</v>
       </c>
       <c r="AW18">
-        <v>805.931</v>
+        <v>803.525</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>62</v>
@@ -3564,115 +3564,115 @@
         <v>73</v>
       </c>
       <c r="M19" s="3">
-        <v>53.649</v>
+        <v>53.0375</v>
       </c>
       <c r="N19">
-        <v>9.96059</v>
+        <v>13.4834</v>
       </c>
       <c r="O19">
-        <v>18.166</v>
+        <v>19.9208</v>
       </c>
       <c r="P19">
-        <v>43.1745</v>
+        <v>40.3526</v>
       </c>
       <c r="Q19">
-        <v>53.6488</v>
+        <v>53.0376</v>
       </c>
       <c r="R19">
-        <v>99.9996</v>
+        <v>100</v>
       </c>
       <c r="S19">
-        <v>39.5271</v>
+        <v>37.3138</v>
       </c>
       <c r="T19">
-        <v>43.1745</v>
+        <v>40.3526</v>
       </c>
       <c r="U19">
-        <v>16.3425</v>
+        <v>19.9208</v>
       </c>
       <c r="V19">
-        <v>10.2843</v>
+        <v>12.4752</v>
       </c>
       <c r="W19">
-        <v>14.7436</v>
+        <v>13.0106</v>
       </c>
       <c r="X19">
-        <v>9.961260000000001</v>
+        <v>13.4834</v>
       </c>
       <c r="Y19">
-        <v>9.961260000000001</v>
+        <v>13.4834</v>
       </c>
       <c r="Z19">
-        <v>9.96059</v>
+        <v>13.4834</v>
       </c>
       <c r="AA19">
-        <v>14.1094</v>
+        <v>15.0444</v>
       </c>
       <c r="AB19">
-        <v>15.4445</v>
+        <v>9.4993</v>
       </c>
       <c r="AC19">
-        <v>18.166</v>
+        <v>9.068</v>
       </c>
       <c r="AD19">
-        <v>7.52467</v>
+        <v>10.3022</v>
       </c>
       <c r="AE19">
-        <v>7.52467</v>
+        <v>10.3022</v>
       </c>
       <c r="AF19">
-        <v>7.52467</v>
+        <v>10.3022</v>
       </c>
       <c r="AG19">
-        <v>0.681952</v>
+        <v>0.682407</v>
       </c>
       <c r="AH19">
-        <v>0.2662659999999999</v>
+        <v>0.274984</v>
       </c>
       <c r="AI19">
-        <v>0.0619575</v>
+        <v>0.0619624</v>
       </c>
       <c r="AJ19">
-        <v>0.0486039</v>
+        <v>0.0554792</v>
       </c>
       <c r="AK19">
-        <v>0.0533982</v>
+        <v>0.0598035</v>
       </c>
       <c r="AL19">
-        <v>0.0679911</v>
+        <v>0.06499829999999999</v>
       </c>
       <c r="AM19">
-        <v>0.0345129</v>
+        <v>0.0329506</v>
       </c>
       <c r="AN19">
-        <v>0.204664</v>
+        <v>0.213383</v>
       </c>
       <c r="AO19">
-        <v>881.597</v>
+        <v>882.7670000000001</v>
       </c>
       <c r="AP19">
-        <v>834.525</v>
+        <v>836.451</v>
       </c>
       <c r="AQ19">
-        <v>903.723</v>
+        <v>898.852</v>
       </c>
       <c r="AR19">
-        <v>755.154</v>
+        <v>752.938</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT19">
-        <v>725.316</v>
+        <v>726.348</v>
       </c>
       <c r="AU19">
-        <v>791.176</v>
+        <v>789.124</v>
       </c>
       <c r="AV19">
-        <v>745.326</v>
+        <v>742.686</v>
       </c>
       <c r="AW19">
-        <v>808.8000000000001</v>
+        <v>805.9780000000001</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>62</v>
@@ -3716,115 +3716,115 @@
         <v>75</v>
       </c>
       <c r="M20">
-        <v>52.9379</v>
+        <v>52.5612</v>
       </c>
       <c r="N20">
-        <v>7.84832</v>
+        <v>10.2433</v>
       </c>
       <c r="O20">
-        <v>15.5527</v>
+        <v>16.6867</v>
       </c>
       <c r="P20">
-        <v>33.6047</v>
+        <v>31.243</v>
       </c>
       <c r="Q20">
-        <v>52.9386</v>
+        <v>52.5604</v>
       </c>
       <c r="R20">
-        <v>100.001</v>
+        <v>99.99850000000001</v>
       </c>
       <c r="S20">
-        <v>30.6682</v>
+        <v>28.6859</v>
       </c>
       <c r="T20">
-        <v>33.6047</v>
+        <v>31.243</v>
       </c>
       <c r="U20">
-        <v>14.013</v>
+        <v>16.6867</v>
       </c>
       <c r="V20">
-        <v>8.07438</v>
+        <v>9.74508</v>
       </c>
       <c r="W20">
-        <v>11.3209</v>
+        <v>9.806279999999999</v>
       </c>
       <c r="X20">
-        <v>7.849860000000001</v>
+        <v>10.2433</v>
       </c>
       <c r="Y20">
-        <v>7.849860000000001</v>
+        <v>10.2433</v>
       </c>
       <c r="Z20">
-        <v>7.84832</v>
+        <v>10.2433</v>
       </c>
       <c r="AA20">
-        <v>13.1734</v>
+        <v>14.068</v>
       </c>
       <c r="AB20">
-        <v>13.086</v>
+        <v>7.84484</v>
       </c>
       <c r="AC20">
-        <v>15.5527</v>
+        <v>7.4361</v>
       </c>
       <c r="AD20">
-        <v>6.045970000000001</v>
+        <v>8.396839999999999</v>
       </c>
       <c r="AE20">
-        <v>6.045970000000001</v>
+        <v>8.396839999999999</v>
       </c>
       <c r="AF20">
-        <v>6.045970000000001</v>
+        <v>8.396839999999999</v>
       </c>
       <c r="AG20">
-        <v>0.832554</v>
+        <v>0.833199</v>
       </c>
       <c r="AH20">
-        <v>0.402097</v>
+        <v>0.411369</v>
       </c>
       <c r="AI20">
-        <v>0.139052</v>
+        <v>0.139058</v>
       </c>
       <c r="AJ20">
-        <v>0.06433979999999999</v>
+        <v>0.0723644</v>
       </c>
       <c r="AK20">
-        <v>0.0683043</v>
+        <v>0.077195</v>
       </c>
       <c r="AL20">
-        <v>0.08583289999999999</v>
+        <v>0.081931</v>
       </c>
       <c r="AM20">
-        <v>0.0446251</v>
+        <v>0.0408801</v>
       </c>
       <c r="AN20">
-        <v>0.2632949999999999</v>
+        <v>0.272568</v>
       </c>
       <c r="AO20">
-        <v>878.623</v>
+        <v>879.65</v>
       </c>
       <c r="AP20">
-        <v>830.3920000000001</v>
+        <v>832.009</v>
       </c>
       <c r="AQ20">
-        <v>895.439</v>
+        <v>891.4100000000001</v>
       </c>
       <c r="AR20">
-        <v>746.295</v>
+        <v>744.311</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT20">
-        <v>723.422</v>
+        <v>724.324</v>
       </c>
       <c r="AU20">
-        <v>786.342</v>
+        <v>784.347</v>
       </c>
       <c r="AV20">
-        <v>739.236</v>
+        <v>736.792</v>
       </c>
       <c r="AW20">
-        <v>799.23</v>
+        <v>796.8680000000001</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>62</v>
@@ -3868,115 +3868,115 @@
         <v>73</v>
       </c>
       <c r="M21">
-        <v>52.946</v>
+        <v>52.2958</v>
       </c>
       <c r="N21">
-        <v>11.1224</v>
+        <v>14.182</v>
       </c>
       <c r="O21">
-        <v>21.0197</v>
+        <v>21.3223</v>
       </c>
       <c r="P21">
-        <v>41.9314</v>
+        <v>38.7935</v>
       </c>
       <c r="Q21">
-        <v>52.9343</v>
+        <v>52.2956</v>
       </c>
       <c r="R21">
-        <v>99.97790000000001</v>
+        <v>99.9997</v>
       </c>
       <c r="S21">
-        <v>38.9876</v>
+        <v>36.5002</v>
       </c>
       <c r="T21">
-        <v>41.9314</v>
+        <v>38.7935</v>
       </c>
       <c r="U21">
-        <v>17.8327</v>
+        <v>21.3223</v>
       </c>
       <c r="V21">
-        <v>11.346</v>
+        <v>13.7629</v>
       </c>
       <c r="W21">
-        <v>16.0744</v>
+        <v>13.8448</v>
       </c>
       <c r="X21">
-        <v>11.139</v>
+        <v>14.182</v>
       </c>
       <c r="Y21">
-        <v>11.139</v>
+        <v>14.182</v>
       </c>
       <c r="Z21">
-        <v>11.1224</v>
+        <v>14.182</v>
       </c>
       <c r="AA21">
-        <v>15.9778</v>
+        <v>17.0197</v>
       </c>
       <c r="AB21">
-        <v>17.8346</v>
+        <v>10.8974</v>
       </c>
       <c r="AC21">
-        <v>21.0197</v>
+        <v>10.4547</v>
       </c>
       <c r="AD21">
-        <v>8.608280000000001</v>
+        <v>11.651</v>
       </c>
       <c r="AE21">
-        <v>8.608280000000001</v>
+        <v>11.651</v>
       </c>
       <c r="AF21">
-        <v>8.608280000000001</v>
+        <v>11.651</v>
       </c>
       <c r="AG21">
-        <v>0.678796</v>
+        <v>0.679196</v>
       </c>
       <c r="AH21">
-        <v>0.328506</v>
+        <v>0.336237</v>
       </c>
       <c r="AI21">
-        <v>0.111203</v>
+        <v>0.111727</v>
       </c>
       <c r="AJ21">
-        <v>0.052224</v>
+        <v>0.0588931</v>
       </c>
       <c r="AK21">
-        <v>0.05669100000000001</v>
+        <v>0.06516870000000001</v>
       </c>
       <c r="AL21">
-        <v>0.0706261</v>
+        <v>0.0680719</v>
       </c>
       <c r="AM21">
-        <v>0.0387118</v>
+        <v>0.03385709999999999</v>
       </c>
       <c r="AN21">
-        <v>0.235649</v>
+        <v>0.243379</v>
       </c>
       <c r="AO21">
-        <v>880.3810000000001</v>
+        <v>881.561</v>
       </c>
       <c r="AP21">
-        <v>833.6559999999999</v>
+        <v>835.772</v>
       </c>
       <c r="AQ21">
-        <v>902.558</v>
+        <v>897.235</v>
       </c>
       <c r="AR21">
-        <v>754.611</v>
+        <v>752.124</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT21">
-        <v>724.847</v>
+        <v>725.921</v>
       </c>
       <c r="AU21">
-        <v>790.527</v>
+        <v>787.6940000000001</v>
       </c>
       <c r="AV21">
-        <v>745.3770000000001</v>
+        <v>742.102</v>
       </c>
       <c r="AW21">
-        <v>807.556</v>
+        <v>804.418</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>62</v>
@@ -4020,115 +4020,115 @@
         <v>75</v>
       </c>
       <c r="M22">
-        <v>52.4781</v>
+        <v>52.0649</v>
       </c>
       <c r="N22">
-        <v>9.25262</v>
+        <v>11.4736</v>
       </c>
       <c r="O22">
-        <v>18.296</v>
+        <v>18.6034</v>
       </c>
       <c r="P22">
-        <v>34.4469</v>
+        <v>31.7549</v>
       </c>
       <c r="Q22">
-        <v>52.4808</v>
+        <v>52.0649</v>
       </c>
       <c r="R22">
-        <v>100.005</v>
+        <v>100</v>
       </c>
       <c r="S22">
-        <v>31.9683</v>
+        <v>29.6927</v>
       </c>
       <c r="T22">
-        <v>34.4469</v>
+        <v>31.7549</v>
       </c>
       <c r="U22">
-        <v>15.8505</v>
+        <v>18.6034</v>
       </c>
       <c r="V22">
-        <v>9.38231</v>
+        <v>11.3121</v>
       </c>
       <c r="W22">
-        <v>13.051</v>
+        <v>11.0556</v>
       </c>
       <c r="X22">
-        <v>9.257380000000001</v>
+        <v>11.5119</v>
       </c>
       <c r="Y22">
-        <v>9.257380000000001</v>
+        <v>11.5119</v>
       </c>
       <c r="Z22">
-        <v>9.25262</v>
+        <v>11.4736</v>
       </c>
       <c r="AA22">
-        <v>14.9728</v>
+        <v>15.903</v>
       </c>
       <c r="AB22">
-        <v>15.4682</v>
+        <v>9.362770000000001</v>
       </c>
       <c r="AC22">
-        <v>18.296</v>
+        <v>8.810090000000001</v>
       </c>
       <c r="AD22">
-        <v>7.15444</v>
+        <v>9.79091</v>
       </c>
       <c r="AE22">
-        <v>7.15444</v>
+        <v>9.79091</v>
       </c>
       <c r="AF22">
-        <v>7.15444</v>
+        <v>9.79091</v>
       </c>
       <c r="AG22">
-        <v>0.82947</v>
+        <v>0.8299569999999999</v>
       </c>
       <c r="AH22">
-        <v>0.466708</v>
+        <v>0.474882</v>
       </c>
       <c r="AI22">
-        <v>0.184618</v>
+        <v>0.185194</v>
       </c>
       <c r="AJ22">
-        <v>0.070188</v>
+        <v>0.0778696</v>
       </c>
       <c r="AK22">
-        <v>0.07289609999999999</v>
+        <v>0.08513349999999999</v>
       </c>
       <c r="AL22">
-        <v>0.0892511</v>
+        <v>0.086019</v>
       </c>
       <c r="AM22">
-        <v>0.0507538</v>
+        <v>0.042239</v>
       </c>
       <c r="AN22">
-        <v>0.30236</v>
+        <v>0.310535</v>
       </c>
       <c r="AO22">
-        <v>878.124</v>
+        <v>879.2049999999999</v>
       </c>
       <c r="AP22">
-        <v>830.503</v>
+        <v>832.342</v>
       </c>
       <c r="AQ22">
-        <v>896.0419999999999</v>
+        <v>891.523</v>
       </c>
       <c r="AR22">
-        <v>747.596</v>
+        <v>745.318</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT22">
-        <v>723.5450000000001</v>
+        <v>724.46</v>
       </c>
       <c r="AU22">
-        <v>786.771</v>
+        <v>784.1360000000001</v>
       </c>
       <c r="AV22">
-        <v>740.485</v>
+        <v>737.505</v>
       </c>
       <c r="AW22">
-        <v>800.072</v>
+        <v>797.38</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>62</v>
@@ -4172,115 +4172,115 @@
         <v>73</v>
       </c>
       <c r="M23" s="3">
-        <v>53.6505</v>
+        <v>53.0584</v>
       </c>
       <c r="N23">
-        <v>9.93519</v>
+        <v>13.4144</v>
       </c>
       <c r="O23">
-        <v>18.1674</v>
+        <v>19.9206</v>
       </c>
       <c r="P23">
-        <v>43.1413</v>
+        <v>40.3177</v>
       </c>
       <c r="Q23">
-        <v>53.65</v>
+        <v>53.0578</v>
       </c>
       <c r="R23">
-        <v>99.9991</v>
+        <v>99.9988</v>
       </c>
       <c r="S23">
-        <v>39.4874</v>
+        <v>37.2599</v>
       </c>
       <c r="T23">
-        <v>43.1413</v>
+        <v>40.3177</v>
       </c>
       <c r="U23">
-        <v>16.3428</v>
+        <v>19.9206</v>
       </c>
       <c r="V23">
-        <v>10.2831</v>
+        <v>12.4749</v>
       </c>
       <c r="W23">
-        <v>14.7458</v>
+        <v>13.0111</v>
       </c>
       <c r="X23">
-        <v>9.936259999999999</v>
+        <v>13.4161</v>
       </c>
       <c r="Y23">
-        <v>9.936259999999999</v>
+        <v>13.4161</v>
       </c>
       <c r="Z23">
-        <v>9.93519</v>
+        <v>13.4144</v>
       </c>
       <c r="AA23">
-        <v>14.1157</v>
+        <v>15.041</v>
       </c>
       <c r="AB23">
-        <v>15.4467</v>
+        <v>9.49661</v>
       </c>
       <c r="AC23">
-        <v>18.1674</v>
+        <v>9.06686</v>
       </c>
       <c r="AD23">
-        <v>7.49823</v>
+        <v>10.2411</v>
       </c>
       <c r="AE23">
-        <v>7.49823</v>
+        <v>10.2411</v>
       </c>
       <c r="AF23">
-        <v>7.49823</v>
+        <v>10.2411</v>
       </c>
       <c r="AG23">
-        <v>0.681966</v>
+        <v>0.6824480000000001</v>
       </c>
       <c r="AH23">
-        <v>0.266037</v>
+        <v>0.274747</v>
       </c>
       <c r="AI23">
-        <v>0.0619575</v>
+        <v>0.0619624</v>
       </c>
       <c r="AJ23">
-        <v>0.0486091</v>
+        <v>0.0554791</v>
       </c>
       <c r="AK23">
-        <v>0.0533964</v>
+        <v>0.0598012</v>
       </c>
       <c r="AL23">
-        <v>0.06797689999999999</v>
+        <v>0.0649975</v>
       </c>
       <c r="AM23">
-        <v>0.03429289999999999</v>
+        <v>0.03271669999999999</v>
       </c>
       <c r="AN23">
-        <v>0.204435</v>
+        <v>0.213146</v>
       </c>
       <c r="AO23">
-        <v>881.599</v>
+        <v>882.7660000000001</v>
       </c>
       <c r="AP23">
-        <v>834.523</v>
+        <v>836.452</v>
       </c>
       <c r="AQ23">
-        <v>903.716</v>
+        <v>898.852</v>
       </c>
       <c r="AR23">
-        <v>755.11</v>
+        <v>752.8820000000001</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT23">
-        <v>725.317</v>
+        <v>726.347</v>
       </c>
       <c r="AU23">
-        <v>791.1790000000001</v>
+        <v>789.123</v>
       </c>
       <c r="AV23">
-        <v>745.3240000000001</v>
+        <v>742.6850000000001</v>
       </c>
       <c r="AW23">
-        <v>808.766</v>
+        <v>805.9430000000001</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>62</v>
@@ -4324,115 +4324,115 @@
         <v>75</v>
       </c>
       <c r="M24">
-        <v>52.9508</v>
+        <v>52.5754</v>
       </c>
       <c r="N24">
-        <v>7.830770000000001</v>
+        <v>10.1956</v>
       </c>
       <c r="O24">
-        <v>15.5545</v>
+        <v>16.6869</v>
       </c>
       <c r="P24">
-        <v>33.5808</v>
+        <v>31.2152</v>
       </c>
       <c r="Q24">
-        <v>52.948</v>
+        <v>52.5754</v>
       </c>
       <c r="R24">
-        <v>99.99490000000002</v>
+        <v>100</v>
       </c>
       <c r="S24">
-        <v>30.6371</v>
+        <v>28.64</v>
       </c>
       <c r="T24">
-        <v>33.5808</v>
+        <v>31.2152</v>
       </c>
       <c r="U24">
-        <v>14.0166</v>
+        <v>16.6869</v>
       </c>
       <c r="V24">
-        <v>8.07029</v>
+        <v>9.742979999999999</v>
       </c>
       <c r="W24">
-        <v>11.3244</v>
+        <v>9.806940000000001</v>
       </c>
       <c r="X24">
-        <v>7.82963</v>
+        <v>10.1956</v>
       </c>
       <c r="Y24">
-        <v>7.82963</v>
+        <v>10.1956</v>
       </c>
       <c r="Z24">
-        <v>7.830770000000001</v>
+        <v>10.1956</v>
       </c>
       <c r="AA24">
-        <v>13.1741</v>
+        <v>14.0683</v>
       </c>
       <c r="AB24">
-        <v>13.0873</v>
+        <v>7.84624</v>
       </c>
       <c r="AC24">
-        <v>15.5545</v>
+        <v>7.436250000000001</v>
       </c>
       <c r="AD24">
-        <v>6.01583</v>
+        <v>8.37913</v>
       </c>
       <c r="AE24">
-        <v>6.01583</v>
+        <v>8.37913</v>
       </c>
       <c r="AF24">
-        <v>6.01583</v>
+        <v>8.37913</v>
       </c>
       <c r="AG24">
-        <v>0.832557</v>
+        <v>0.833236</v>
       </c>
       <c r="AH24">
-        <v>0.401829</v>
+        <v>0.411076</v>
       </c>
       <c r="AI24">
-        <v>0.139052</v>
+        <v>0.139058</v>
       </c>
       <c r="AJ24">
-        <v>0.064336</v>
+        <v>0.072362</v>
       </c>
       <c r="AK24">
-        <v>0.0683047</v>
+        <v>0.0771908</v>
       </c>
       <c r="AL24">
-        <v>0.0858332</v>
+        <v>0.0819351</v>
       </c>
       <c r="AM24">
-        <v>0.0443599</v>
+        <v>0.0405898</v>
       </c>
       <c r="AN24">
-        <v>0.263028</v>
+        <v>0.272275</v>
       </c>
       <c r="AO24">
-        <v>878.623</v>
+        <v>879.651</v>
       </c>
       <c r="AP24">
-        <v>830.3920000000001</v>
+        <v>832.009</v>
       </c>
       <c r="AQ24">
-        <v>895.442</v>
+        <v>891.4110000000001</v>
       </c>
       <c r="AR24">
-        <v>746.261</v>
+        <v>744.265</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT24">
-        <v>723.422</v>
+        <v>724.324</v>
       </c>
       <c r="AU24">
-        <v>786.341</v>
+        <v>784.3530000000001</v>
       </c>
       <c r="AV24">
-        <v>739.236</v>
+        <v>736.792</v>
       </c>
       <c r="AW24">
-        <v>799.206</v>
+        <v>796.84</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>62</v>
@@ -4476,115 +4476,115 @@
         <v>73</v>
       </c>
       <c r="M25">
-        <v>52.9567</v>
+        <v>52.3092</v>
       </c>
       <c r="N25">
-        <v>11.1159</v>
+        <v>14.1074</v>
       </c>
       <c r="O25">
-        <v>21.0237</v>
+        <v>21.3184</v>
       </c>
       <c r="P25">
-        <v>41.9023</v>
+        <v>38.7495</v>
       </c>
       <c r="Q25">
-        <v>52.9579</v>
+        <v>52.3104</v>
       </c>
       <c r="R25">
         <v>100.002</v>
       </c>
       <c r="S25">
-        <v>38.9449</v>
+        <v>36.4434</v>
       </c>
       <c r="T25">
-        <v>41.9023</v>
+        <v>38.7495</v>
       </c>
       <c r="U25">
-        <v>17.8362</v>
+        <v>21.3184</v>
       </c>
       <c r="V25">
-        <v>11.3483</v>
+        <v>13.7623</v>
       </c>
       <c r="W25">
-        <v>16.0758</v>
+        <v>13.8437</v>
       </c>
       <c r="X25">
-        <v>11.1104</v>
+        <v>14.1068</v>
       </c>
       <c r="Y25">
-        <v>11.1104</v>
+        <v>14.1068</v>
       </c>
       <c r="Z25">
-        <v>11.1159</v>
+        <v>14.1074</v>
       </c>
       <c r="AA25">
-        <v>15.977</v>
+        <v>17.0183</v>
       </c>
       <c r="AB25">
-        <v>17.8119</v>
+        <v>10.9105</v>
       </c>
       <c r="AC25">
-        <v>21.0237</v>
+        <v>10.4551</v>
       </c>
       <c r="AD25">
-        <v>8.57067</v>
+        <v>11.5982</v>
       </c>
       <c r="AE25">
-        <v>8.57067</v>
+        <v>11.5982</v>
       </c>
       <c r="AF25">
-        <v>8.57067</v>
+        <v>11.5982</v>
       </c>
       <c r="AG25">
-        <v>0.678805</v>
+        <v>0.679207</v>
       </c>
       <c r="AH25">
-        <v>0.328329</v>
+        <v>0.336018</v>
       </c>
       <c r="AI25">
-        <v>0.111203</v>
+        <v>0.111727</v>
       </c>
       <c r="AJ25">
-        <v>0.0522265</v>
+        <v>0.0588929</v>
       </c>
       <c r="AK25">
-        <v>0.0566956</v>
+        <v>0.06516520000000001</v>
       </c>
       <c r="AL25">
-        <v>0.0706324</v>
+        <v>0.06807640000000001</v>
       </c>
       <c r="AM25">
-        <v>0.0385226</v>
+        <v>0.0336372</v>
       </c>
       <c r="AN25">
-        <v>0.235472</v>
+        <v>0.24316</v>
       </c>
       <c r="AO25">
-        <v>880.3810000000001</v>
+        <v>881.5630000000001</v>
       </c>
       <c r="AP25">
-        <v>833.6559999999999</v>
+        <v>835.773</v>
       </c>
       <c r="AQ25">
-        <v>902.568</v>
+        <v>897.2330000000001</v>
       </c>
       <c r="AR25">
-        <v>754.5700000000001</v>
+        <v>752.072</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT25">
-        <v>724.849</v>
+        <v>725.923</v>
       </c>
       <c r="AU25">
-        <v>790.527</v>
+        <v>787.6950000000001</v>
       </c>
       <c r="AV25">
-        <v>745.375</v>
+        <v>742.105</v>
       </c>
       <c r="AW25">
-        <v>807.527</v>
+        <v>804.374</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>62</v>
@@ -4628,115 +4628,115 @@
         <v>75</v>
       </c>
       <c r="M26">
-        <v>52.487</v>
+        <v>52.0807</v>
       </c>
       <c r="N26">
-        <v>9.23841</v>
+        <v>11.374</v>
       </c>
       <c r="O26">
-        <v>18.2971</v>
+        <v>18.6051</v>
       </c>
       <c r="P26">
-        <v>34.421</v>
+        <v>31.725</v>
       </c>
       <c r="Q26">
-        <v>52.4873</v>
+        <v>52.0824</v>
       </c>
       <c r="R26">
-        <v>100.001</v>
+        <v>100.003</v>
       </c>
       <c r="S26">
-        <v>31.9359</v>
+        <v>29.6424</v>
       </c>
       <c r="T26">
-        <v>34.421</v>
+        <v>31.725</v>
       </c>
       <c r="U26">
-        <v>15.8499</v>
+        <v>18.6051</v>
       </c>
       <c r="V26">
-        <v>9.383509999999999</v>
+        <v>11.3178</v>
       </c>
       <c r="W26">
-        <v>13.0529</v>
+        <v>11.0585</v>
       </c>
       <c r="X26">
-        <v>9.236930000000001</v>
+        <v>11.4116</v>
       </c>
       <c r="Y26">
-        <v>9.236930000000001</v>
+        <v>11.4116</v>
       </c>
       <c r="Z26">
-        <v>9.23841</v>
+        <v>11.374</v>
       </c>
       <c r="AA26">
-        <v>14.9702</v>
+        <v>15.8866</v>
       </c>
       <c r="AB26">
-        <v>15.4657</v>
+        <v>9.37021</v>
       </c>
       <c r="AC26">
-        <v>18.2971</v>
+        <v>8.808370000000002</v>
       </c>
       <c r="AD26">
-        <v>7.12594</v>
+        <v>9.754470000000001</v>
       </c>
       <c r="AE26">
-        <v>7.12594</v>
+        <v>9.754470000000001</v>
       </c>
       <c r="AF26">
-        <v>7.12594</v>
+        <v>9.754470000000001</v>
       </c>
       <c r="AG26">
-        <v>0.829469</v>
+        <v>0.829974</v>
       </c>
       <c r="AH26">
-        <v>0.466519</v>
+        <v>0.47458</v>
       </c>
       <c r="AI26">
-        <v>0.184618</v>
+        <v>0.185194</v>
       </c>
       <c r="AJ26">
-        <v>0.07018909999999999</v>
+        <v>0.077876</v>
       </c>
       <c r="AK26">
-        <v>0.07289619999999999</v>
+        <v>0.0851317</v>
       </c>
       <c r="AL26">
-        <v>0.0892713</v>
+        <v>0.08601490000000001</v>
       </c>
       <c r="AM26">
-        <v>0.0505436</v>
+        <v>0.041936</v>
       </c>
       <c r="AN26">
-        <v>0.302172</v>
+        <v>0.310232</v>
       </c>
       <c r="AO26">
-        <v>878.123</v>
+        <v>879.2049999999999</v>
       </c>
       <c r="AP26">
-        <v>830.503</v>
+        <v>832.3380000000001</v>
       </c>
       <c r="AQ26">
-        <v>896.043</v>
+        <v>891.528</v>
       </c>
       <c r="AR26">
-        <v>747.566</v>
+        <v>745.2719999999999</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT26">
-        <v>723.543</v>
+        <v>724.465</v>
       </c>
       <c r="AU26">
-        <v>786.772</v>
+        <v>784.143</v>
       </c>
       <c r="AV26">
-        <v>740.4879999999999</v>
+        <v>737.5070000000001</v>
       </c>
       <c r="AW26">
-        <v>800.046</v>
+        <v>797.35</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>62</v>
@@ -4780,115 +4780,115 @@
         <v>73</v>
       </c>
       <c r="M27" s="4">
-        <v>46.0673</v>
+        <v>46.4858</v>
       </c>
       <c r="N27">
-        <v>9.858730000000001</v>
+        <v>13.0329</v>
       </c>
       <c r="O27">
-        <v>26.0753</v>
+        <v>19.7086</v>
       </c>
       <c r="P27">
-        <v>43.2958</v>
+        <v>40.7581</v>
       </c>
       <c r="Q27">
-        <v>46.0684</v>
+        <v>46.4839</v>
       </c>
       <c r="R27">
-        <v>100.003</v>
+        <v>99.996</v>
       </c>
       <c r="S27">
-        <v>43.2958</v>
+        <v>40.7581</v>
       </c>
       <c r="T27">
-        <v>39.3625</v>
+        <v>37.2423</v>
       </c>
       <c r="U27">
-        <v>13.9208</v>
+        <v>15.29</v>
       </c>
       <c r="V27">
-        <v>8.435030000000001</v>
+        <v>9.90291</v>
       </c>
       <c r="W27">
-        <v>11.9836</v>
+        <v>9.415649999999999</v>
       </c>
       <c r="X27">
-        <v>9.85467</v>
+        <v>10.4641</v>
       </c>
       <c r="Y27">
-        <v>9.85467</v>
+        <v>10.4641</v>
       </c>
       <c r="Z27">
-        <v>9.858730000000001</v>
+        <v>10.4664</v>
       </c>
       <c r="AA27">
-        <v>18.0346</v>
+        <v>19.7086</v>
       </c>
       <c r="AB27">
-        <v>21.7059</v>
+        <v>11.5898</v>
       </c>
       <c r="AC27">
-        <v>26.0753</v>
+        <v>12.2036</v>
       </c>
       <c r="AD27">
-        <v>8.68267</v>
+        <v>13.0329</v>
       </c>
       <c r="AE27">
-        <v>8.68267</v>
+        <v>13.0329</v>
       </c>
       <c r="AF27">
-        <v>8.68267</v>
+        <v>13.0329</v>
       </c>
       <c r="AG27">
-        <v>0.681964</v>
+        <v>0.682521</v>
       </c>
       <c r="AH27">
-        <v>0.262484</v>
+        <v>0.272214</v>
       </c>
       <c r="AI27">
-        <v>0.0592306</v>
+        <v>0.0592285</v>
       </c>
       <c r="AJ27">
-        <v>0.04853619999999999</v>
+        <v>0.0553023</v>
       </c>
       <c r="AK27">
-        <v>0.0526257</v>
+        <v>0.0595474</v>
       </c>
       <c r="AL27">
-        <v>0.067177</v>
+        <v>0.0649766</v>
       </c>
       <c r="AM27">
-        <v>0.034911</v>
+        <v>0.0331608</v>
       </c>
       <c r="AN27">
-        <v>0.20338</v>
+        <v>0.213111</v>
       </c>
       <c r="AO27">
-        <v>876.2</v>
+        <v>877.1540000000001</v>
       </c>
       <c r="AP27">
-        <v>837.54</v>
+        <v>839.4630000000001</v>
       </c>
       <c r="AQ27">
-        <v>897.5700000000001</v>
+        <v>893.3679999999999</v>
       </c>
       <c r="AR27">
-        <v>758.922</v>
+        <v>756.38</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT27">
-        <v>731.378</v>
+        <v>732.498</v>
       </c>
       <c r="AU27">
-        <v>789.163</v>
+        <v>786.643</v>
       </c>
       <c r="AV27">
-        <v>752.496</v>
+        <v>748.586</v>
       </c>
       <c r="AW27">
-        <v>804.987</v>
+        <v>802.8670000000001</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>62</v>
@@ -4931,116 +4931,116 @@
       <c r="L28" t="s">
         <v>75</v>
       </c>
-      <c r="M28" s="4">
-        <v>46.9751</v>
+      <c r="M28">
+        <v>47.242</v>
       </c>
       <c r="N28">
-        <v>7.867729999999999</v>
+        <v>10.0964</v>
       </c>
       <c r="O28">
-        <v>20.3754</v>
+        <v>16.6752</v>
       </c>
       <c r="P28">
-        <v>33.5055</v>
+        <v>31.5845</v>
       </c>
       <c r="Q28">
-        <v>46.9794</v>
+        <v>47.2418</v>
       </c>
       <c r="R28">
-        <v>100.009</v>
+        <v>99.9996</v>
       </c>
       <c r="S28">
-        <v>33.5055</v>
+        <v>31.5845</v>
       </c>
       <c r="T28">
-        <v>30.4832</v>
+        <v>28.827</v>
       </c>
       <c r="U28">
-        <v>13.0182</v>
+        <v>14.2622</v>
       </c>
       <c r="V28">
-        <v>7.05742</v>
+        <v>8.138710000000001</v>
       </c>
       <c r="W28">
-        <v>9.66521</v>
+        <v>7.719110000000001</v>
       </c>
       <c r="X28">
-        <v>7.86535</v>
+        <v>8.543100000000001</v>
       </c>
       <c r="Y28">
-        <v>7.86535</v>
+        <v>8.543100000000001</v>
       </c>
       <c r="Z28">
-        <v>7.867729999999999</v>
+        <v>8.539260000000001</v>
       </c>
       <c r="AA28">
-        <v>15.4376</v>
+        <v>16.6752</v>
       </c>
       <c r="AB28">
-        <v>17.2263</v>
+        <v>9.231199999999999</v>
       </c>
       <c r="AC28">
-        <v>20.3754</v>
+        <v>9.365259999999999</v>
       </c>
       <c r="AD28">
-        <v>6.75714</v>
+        <v>10.0964</v>
       </c>
       <c r="AE28">
-        <v>6.75714</v>
+        <v>10.0964</v>
       </c>
       <c r="AF28">
-        <v>6.75714</v>
+        <v>10.0964</v>
       </c>
       <c r="AG28">
-        <v>0.832755</v>
+        <v>0.833201</v>
       </c>
       <c r="AH28">
-        <v>0.403272</v>
+        <v>0.412695</v>
       </c>
       <c r="AI28">
-        <v>0.141044</v>
+        <v>0.141042</v>
       </c>
       <c r="AJ28">
-        <v>0.06385779999999999</v>
+        <v>0.0719195</v>
       </c>
       <c r="AK28">
-        <v>0.0677302</v>
+        <v>0.0768456</v>
       </c>
       <c r="AL28">
-        <v>0.0855717</v>
+        <v>0.0817956</v>
       </c>
       <c r="AM28">
-        <v>0.0450909</v>
+        <v>0.0411184</v>
       </c>
       <c r="AN28">
-        <v>0.262415</v>
+        <v>0.271839</v>
       </c>
       <c r="AO28">
-        <v>874.032</v>
+        <v>874.956</v>
       </c>
       <c r="AP28">
-        <v>833.107</v>
+        <v>834.578</v>
       </c>
       <c r="AQ28">
-        <v>890.7130000000001</v>
+        <v>887.3860000000001</v>
       </c>
       <c r="AR28">
-        <v>749.134</v>
+        <v>747.212</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT28">
-        <v>728.5169999999999</v>
+        <v>729.434</v>
       </c>
       <c r="AU28">
-        <v>784.398</v>
+        <v>782.2460000000001</v>
       </c>
       <c r="AV28">
-        <v>744.591</v>
+        <v>741.274</v>
       </c>
       <c r="AW28">
-        <v>796.1080000000001</v>
+        <v>794.452</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>62</v>
@@ -5084,115 +5084,115 @@
         <v>73</v>
       </c>
       <c r="M29" s="4">
-        <v>46.304</v>
+        <v>46.6733</v>
       </c>
       <c r="N29">
-        <v>11.2788</v>
+        <v>14.4595</v>
       </c>
       <c r="O29">
-        <v>28.9124</v>
+        <v>21.8014</v>
       </c>
       <c r="P29">
-        <v>41.9757</v>
+        <v>39.7068</v>
       </c>
       <c r="Q29">
-        <v>46.3043</v>
+        <v>46.6746</v>
       </c>
       <c r="R29">
-        <v>100</v>
+        <v>100.003</v>
       </c>
       <c r="S29">
-        <v>41.9757</v>
+        <v>39.7068</v>
       </c>
       <c r="T29">
-        <v>38.2758</v>
+        <v>36.3768</v>
       </c>
       <c r="U29">
-        <v>15.7005</v>
+        <v>17.2845</v>
       </c>
       <c r="V29">
-        <v>9.891220000000001</v>
+        <v>11.3558</v>
       </c>
       <c r="W29">
-        <v>14.0033</v>
+        <v>10.7244</v>
       </c>
       <c r="X29">
-        <v>11.2768</v>
+        <v>11.6743</v>
       </c>
       <c r="Y29">
-        <v>11.2768</v>
+        <v>11.6743</v>
       </c>
       <c r="Z29">
-        <v>11.2788</v>
+        <v>11.6748</v>
       </c>
       <c r="AA29">
-        <v>19.986</v>
+        <v>21.8014</v>
       </c>
       <c r="AB29">
-        <v>24.4819</v>
+        <v>13.346</v>
       </c>
       <c r="AC29">
-        <v>28.9124</v>
+        <v>13.6262</v>
       </c>
       <c r="AD29">
-        <v>9.818059999999999</v>
+        <v>14.4595</v>
       </c>
       <c r="AE29">
-        <v>9.818059999999999</v>
+        <v>14.4595</v>
       </c>
       <c r="AF29">
-        <v>9.818059999999999</v>
+        <v>14.4595</v>
       </c>
       <c r="AG29">
-        <v>0.678696</v>
+        <v>0.6792010000000001</v>
       </c>
       <c r="AH29">
-        <v>0.346458</v>
+        <v>0.355219</v>
       </c>
       <c r="AI29">
-        <v>0.131465</v>
+        <v>0.131081</v>
       </c>
       <c r="AJ29">
-        <v>0.0519885</v>
+        <v>0.0584868</v>
       </c>
       <c r="AK29">
-        <v>0.0560824</v>
+        <v>0.0651718</v>
       </c>
       <c r="AL29">
-        <v>0.06955070000000001</v>
+        <v>0.06812739999999999</v>
       </c>
       <c r="AM29">
-        <v>0.039538</v>
+        <v>0.0341353</v>
       </c>
       <c r="AN29">
-        <v>0.239559</v>
+        <v>0.248321</v>
       </c>
       <c r="AO29">
-        <v>874.788</v>
+        <v>875.796</v>
       </c>
       <c r="AP29">
-        <v>836.361</v>
+        <v>838.378</v>
       </c>
       <c r="AQ29">
-        <v>896.164</v>
+        <v>892.0940000000001</v>
       </c>
       <c r="AR29">
-        <v>757.599</v>
+        <v>755.33</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT29">
-        <v>731.037</v>
+        <v>732.1469999999999</v>
       </c>
       <c r="AU29">
-        <v>788.89</v>
+        <v>785.667</v>
       </c>
       <c r="AV29">
-        <v>752.554</v>
+        <v>747.913</v>
       </c>
       <c r="AW29">
-        <v>803.901</v>
+        <v>802.0020000000001</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>62</v>
@@ -5235,116 +5235,116 @@
       <c r="L30" t="s">
         <v>75</v>
       </c>
-      <c r="M30" s="4">
-        <v>46.9937</v>
+      <c r="M30">
+        <v>47.1711</v>
       </c>
       <c r="N30">
-        <v>9.352069999999999</v>
+        <v>11.6403</v>
       </c>
       <c r="O30">
-        <v>23.4135</v>
+        <v>18.8022</v>
       </c>
       <c r="P30">
-        <v>34.328</v>
+        <v>32.3879</v>
       </c>
       <c r="Q30">
-        <v>46.9943</v>
+        <v>47.1698</v>
       </c>
       <c r="R30">
-        <v>100.001</v>
+        <v>99.9973</v>
       </c>
       <c r="S30">
-        <v>34.328</v>
+        <v>32.3879</v>
       </c>
       <c r="T30">
-        <v>31.3186</v>
+        <v>29.5575</v>
       </c>
       <c r="U30">
-        <v>14.6852</v>
+        <v>16.1112</v>
       </c>
       <c r="V30">
-        <v>8.53444</v>
+        <v>9.6858</v>
       </c>
       <c r="W30">
-        <v>11.5176</v>
+        <v>9.03641</v>
       </c>
       <c r="X30">
-        <v>9.355460000000001</v>
+        <v>9.781000000000001</v>
       </c>
       <c r="Y30">
-        <v>9.355460000000001</v>
+        <v>9.781000000000001</v>
       </c>
       <c r="Z30">
-        <v>9.352069999999999</v>
+        <v>9.78016</v>
       </c>
       <c r="AA30">
-        <v>17.3938</v>
+        <v>18.8022</v>
       </c>
       <c r="AB30">
-        <v>20.0433</v>
+        <v>10.9824</v>
       </c>
       <c r="AC30">
-        <v>23.4135</v>
+        <v>10.865</v>
       </c>
       <c r="AD30">
-        <v>7.97501</v>
+        <v>11.6403</v>
       </c>
       <c r="AE30">
-        <v>7.97501</v>
+        <v>11.6403</v>
       </c>
       <c r="AF30">
-        <v>7.97501</v>
+        <v>11.6403</v>
       </c>
       <c r="AG30">
-        <v>0.8295</v>
+        <v>0.829966</v>
       </c>
       <c r="AH30">
-        <v>0.509112</v>
+        <v>0.5170450000000001</v>
       </c>
       <c r="AI30">
-        <v>0.228551</v>
+        <v>0.228107</v>
       </c>
       <c r="AJ30">
-        <v>0.0694521</v>
+        <v>0.0771641</v>
       </c>
       <c r="AK30">
-        <v>0.0727313</v>
+        <v>0.08511569999999999</v>
       </c>
       <c r="AL30">
-        <v>0.0891313</v>
+        <v>0.08607429999999999</v>
       </c>
       <c r="AM30">
-        <v>0.0515679</v>
+        <v>0.0424677</v>
       </c>
       <c r="AN30">
-        <v>0.308668</v>
+        <v>0.316601</v>
       </c>
       <c r="AO30">
-        <v>873.37</v>
+        <v>874.3390000000001</v>
       </c>
       <c r="AP30">
-        <v>832.979</v>
+        <v>834.638</v>
       </c>
       <c r="AQ30">
-        <v>891.0150000000001</v>
+        <v>887.461</v>
       </c>
       <c r="AR30">
-        <v>749.952</v>
+        <v>748.0120000000001</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT30">
-        <v>728.736</v>
+        <v>729.645</v>
       </c>
       <c r="AU30">
-        <v>785.0410000000001</v>
+        <v>782.216</v>
       </c>
       <c r="AV30">
-        <v>745.924</v>
+        <v>741.984</v>
       </c>
       <c r="AW30">
-        <v>796.944</v>
+        <v>795.182</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>62</v>
@@ -5388,115 +5388,115 @@
         <v>73</v>
       </c>
       <c r="M31" s="4">
-        <v>46.0772</v>
+        <v>46.4844</v>
       </c>
       <c r="N31">
-        <v>9.837680000000001</v>
+        <v>12.95</v>
       </c>
       <c r="O31">
-        <v>26.0732</v>
+        <v>19.7072</v>
       </c>
       <c r="P31">
-        <v>43.2542</v>
+        <v>40.7086</v>
       </c>
       <c r="Q31">
-        <v>46.0765</v>
+        <v>46.4845</v>
       </c>
       <c r="R31">
-        <v>99.99850000000001</v>
+        <v>100</v>
       </c>
       <c r="S31">
-        <v>43.2542</v>
+        <v>40.7086</v>
       </c>
       <c r="T31">
-        <v>39.3304</v>
+        <v>37.19</v>
       </c>
       <c r="U31">
-        <v>13.9235</v>
+        <v>15.2853</v>
       </c>
       <c r="V31">
-        <v>8.438920000000001</v>
+        <v>9.88701</v>
       </c>
       <c r="W31">
-        <v>11.9871</v>
+        <v>9.416729999999999</v>
       </c>
       <c r="X31">
-        <v>9.83737</v>
+        <v>10.434</v>
       </c>
       <c r="Y31">
-        <v>9.83737</v>
+        <v>10.434</v>
       </c>
       <c r="Z31">
-        <v>9.837680000000001</v>
+        <v>10.4314</v>
       </c>
       <c r="AA31">
-        <v>18.0349</v>
+        <v>19.7072</v>
       </c>
       <c r="AB31">
-        <v>21.7046</v>
+        <v>11.5889</v>
       </c>
       <c r="AC31">
-        <v>26.0732</v>
+        <v>12.2065</v>
       </c>
       <c r="AD31">
-        <v>8.636600000000001</v>
+        <v>12.95</v>
       </c>
       <c r="AE31">
-        <v>8.636600000000001</v>
+        <v>12.95</v>
       </c>
       <c r="AF31">
-        <v>8.636600000000001</v>
+        <v>12.95</v>
       </c>
       <c r="AG31">
-        <v>0.681972</v>
+        <v>0.682555</v>
       </c>
       <c r="AH31">
-        <v>0.262266</v>
+        <v>0.271988</v>
       </c>
       <c r="AI31">
-        <v>0.0592306</v>
+        <v>0.0592285</v>
       </c>
       <c r="AJ31">
-        <v>0.0485321</v>
+        <v>0.0553</v>
       </c>
       <c r="AK31">
-        <v>0.0526332</v>
+        <v>0.0595652</v>
       </c>
       <c r="AL31">
-        <v>0.06718</v>
+        <v>0.06497130000000001</v>
       </c>
       <c r="AM31">
-        <v>0.0346866</v>
+        <v>0.0329238</v>
       </c>
       <c r="AN31">
-        <v>0.203162</v>
+        <v>0.212884</v>
       </c>
       <c r="AO31">
-        <v>876.1990000000001</v>
+        <v>877.153</v>
       </c>
       <c r="AP31">
-        <v>837.54</v>
+        <v>839.4630000000001</v>
       </c>
       <c r="AQ31">
-        <v>897.5700000000001</v>
+        <v>893.37</v>
       </c>
       <c r="AR31">
-        <v>758.8779999999999</v>
+        <v>756.3349999999999</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT31">
-        <v>731.378</v>
+        <v>732.4930000000001</v>
       </c>
       <c r="AU31">
-        <v>789.163</v>
+        <v>786.639</v>
       </c>
       <c r="AV31">
-        <v>752.496</v>
+        <v>748.591</v>
       </c>
       <c r="AW31">
-        <v>804.955</v>
+        <v>802.8150000000001</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>62</v>
@@ -5539,116 +5539,116 @@
       <c r="L32" t="s">
         <v>75</v>
       </c>
-      <c r="M32" s="4">
-        <v>46.9769</v>
+      <c r="M32">
+        <v>47.2424</v>
       </c>
       <c r="N32">
-        <v>7.85161</v>
+        <v>10.0359</v>
       </c>
       <c r="O32">
-        <v>20.3743</v>
+        <v>16.6712</v>
       </c>
       <c r="P32">
-        <v>33.4734</v>
+        <v>31.5418</v>
       </c>
       <c r="Q32">
-        <v>46.9775</v>
+        <v>47.2415</v>
       </c>
       <c r="R32">
-        <v>100.001</v>
+        <v>99.9982</v>
       </c>
       <c r="S32">
-        <v>33.4734</v>
+        <v>31.5418</v>
       </c>
       <c r="T32">
-        <v>30.4542</v>
+        <v>28.7846</v>
       </c>
       <c r="U32">
-        <v>13.02</v>
+        <v>14.2576</v>
       </c>
       <c r="V32">
-        <v>7.057</v>
+        <v>8.13902</v>
       </c>
       <c r="W32">
-        <v>9.66648</v>
+        <v>7.719480000000001</v>
       </c>
       <c r="X32">
-        <v>7.85012</v>
+        <v>8.505649999999999</v>
       </c>
       <c r="Y32">
-        <v>7.85012</v>
+        <v>8.505649999999999</v>
       </c>
       <c r="Z32">
-        <v>7.85161</v>
+        <v>8.50723</v>
       </c>
       <c r="AA32">
-        <v>15.4266</v>
+        <v>16.6712</v>
       </c>
       <c r="AB32">
-        <v>17.2279</v>
+        <v>9.23179</v>
       </c>
       <c r="AC32">
-        <v>20.3743</v>
+        <v>9.36731</v>
       </c>
       <c r="AD32">
-        <v>6.722390000000001</v>
+        <v>10.0359</v>
       </c>
       <c r="AE32">
-        <v>6.722390000000001</v>
+        <v>10.0359</v>
       </c>
       <c r="AF32">
-        <v>6.722390000000001</v>
+        <v>10.0359</v>
       </c>
       <c r="AG32">
-        <v>0.832769</v>
+        <v>0.833218</v>
       </c>
       <c r="AH32">
-        <v>0.403036</v>
+        <v>0.412393</v>
       </c>
       <c r="AI32">
-        <v>0.141044</v>
+        <v>0.141042</v>
       </c>
       <c r="AJ32">
-        <v>0.06386800000000001</v>
+        <v>0.0719152</v>
       </c>
       <c r="AK32">
-        <v>0.0677386</v>
+        <v>0.0768365</v>
       </c>
       <c r="AL32">
-        <v>0.08557329999999999</v>
+        <v>0.0817996</v>
       </c>
       <c r="AM32">
-        <v>0.044834</v>
+        <v>0.0408259</v>
       </c>
       <c r="AN32">
-        <v>0.26218</v>
+        <v>0.271537</v>
       </c>
       <c r="AO32">
-        <v>874.033</v>
+        <v>874.9580000000001</v>
       </c>
       <c r="AP32">
-        <v>833.11</v>
+        <v>834.58</v>
       </c>
       <c r="AQ32">
-        <v>890.7090000000001</v>
+        <v>887.3850000000001</v>
       </c>
       <c r="AR32">
-        <v>749.1039999999999</v>
+        <v>747.169</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT32">
-        <v>728.519</v>
+        <v>729.433</v>
       </c>
       <c r="AU32">
-        <v>784.396</v>
+        <v>782.244</v>
       </c>
       <c r="AV32">
-        <v>744.598</v>
+        <v>741.273</v>
       </c>
       <c r="AW32">
-        <v>796.0790000000001</v>
+        <v>794.4100000000001</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>62</v>
@@ -5692,115 +5692,115 @@
         <v>73</v>
       </c>
       <c r="M33" s="4">
-        <v>46.3155</v>
+        <v>46.6613</v>
       </c>
       <c r="N33">
-        <v>11.2538</v>
+        <v>14.3764</v>
       </c>
       <c r="O33">
-        <v>28.9114</v>
+        <v>21.8</v>
       </c>
       <c r="P33">
-        <v>41.9322</v>
+        <v>39.6598</v>
       </c>
       <c r="Q33">
-        <v>46.3133</v>
+        <v>46.66</v>
       </c>
       <c r="R33">
-        <v>99.9953</v>
+        <v>99.9971</v>
       </c>
       <c r="S33">
-        <v>41.9322</v>
+        <v>39.6598</v>
       </c>
       <c r="T33">
-        <v>38.2361</v>
+        <v>36.3196</v>
       </c>
       <c r="U33">
-        <v>15.7025</v>
+        <v>17.2895</v>
       </c>
       <c r="V33">
-        <v>9.89198</v>
+        <v>11.3595</v>
       </c>
       <c r="W33">
-        <v>14.0141</v>
+        <v>10.7222</v>
       </c>
       <c r="X33">
-        <v>11.2531</v>
+        <v>11.6356</v>
       </c>
       <c r="Y33">
-        <v>11.2531</v>
+        <v>11.6356</v>
       </c>
       <c r="Z33">
-        <v>11.2538</v>
+        <v>11.6343</v>
       </c>
       <c r="AA33">
-        <v>19.9879</v>
+        <v>21.8</v>
       </c>
       <c r="AB33">
-        <v>24.4808</v>
+        <v>13.3472</v>
       </c>
       <c r="AC33">
-        <v>28.9114</v>
+        <v>13.6249</v>
       </c>
       <c r="AD33">
-        <v>9.774749999999999</v>
+        <v>14.3764</v>
       </c>
       <c r="AE33">
-        <v>9.774749999999999</v>
+        <v>14.3764</v>
       </c>
       <c r="AF33">
-        <v>9.774749999999999</v>
+        <v>14.3764</v>
       </c>
       <c r="AG33">
-        <v>0.678701</v>
+        <v>0.679214</v>
       </c>
       <c r="AH33">
-        <v>0.346243</v>
+        <v>0.355014</v>
       </c>
       <c r="AI33">
-        <v>0.131465</v>
+        <v>0.131081</v>
       </c>
       <c r="AJ33">
-        <v>0.0519769</v>
+        <v>0.0585073</v>
       </c>
       <c r="AK33">
-        <v>0.0560815</v>
+        <v>0.0651601</v>
       </c>
       <c r="AL33">
-        <v>0.0695511</v>
+        <v>0.0681348</v>
       </c>
       <c r="AM33">
-        <v>0.0393349</v>
+        <v>0.0339141</v>
       </c>
       <c r="AN33">
-        <v>0.239345</v>
+        <v>0.248115</v>
       </c>
       <c r="AO33">
-        <v>874.7890000000001</v>
+        <v>875.794</v>
       </c>
       <c r="AP33">
-        <v>836.36</v>
+        <v>838.381</v>
       </c>
       <c r="AQ33">
-        <v>896.164</v>
+        <v>892.088</v>
       </c>
       <c r="AR33">
-        <v>757.558</v>
+        <v>755.282</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT33">
-        <v>731.0359999999999</v>
+        <v>732.148</v>
       </c>
       <c r="AU33">
-        <v>788.891</v>
+        <v>785.667</v>
       </c>
       <c r="AV33">
-        <v>752.554</v>
+        <v>747.915</v>
       </c>
       <c r="AW33">
-        <v>803.861</v>
+        <v>801.9449999999999</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>62</v>
@@ -5843,116 +5843,116 @@
       <c r="L34" t="s">
         <v>75</v>
       </c>
-      <c r="M34" s="4">
-        <v>46.9978</v>
+      <c r="M34">
+        <v>47.1642</v>
       </c>
       <c r="N34">
-        <v>9.338380000000001</v>
+        <v>11.6084</v>
       </c>
       <c r="O34">
-        <v>23.4122</v>
+        <v>18.7926</v>
       </c>
       <c r="P34">
-        <v>34.2909</v>
+        <v>32.3458</v>
       </c>
       <c r="Q34">
-        <v>46.9969</v>
+        <v>47.1648</v>
       </c>
       <c r="R34">
-        <v>99.99810000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S34">
-        <v>34.2909</v>
+        <v>32.3458</v>
       </c>
       <c r="T34">
-        <v>31.2896</v>
+        <v>29.5091</v>
       </c>
       <c r="U34">
-        <v>14.6765</v>
+        <v>16.1135</v>
       </c>
       <c r="V34">
-        <v>8.53754</v>
+        <v>9.694189999999999</v>
       </c>
       <c r="W34">
-        <v>11.5181</v>
+        <v>9.03853</v>
       </c>
       <c r="X34">
-        <v>9.33825</v>
+        <v>9.748860000000001</v>
       </c>
       <c r="Y34">
-        <v>9.33825</v>
+        <v>9.748860000000001</v>
       </c>
       <c r="Z34">
-        <v>9.338380000000001</v>
+        <v>9.749169999999999</v>
       </c>
       <c r="AA34">
-        <v>17.3909</v>
+        <v>18.7926</v>
       </c>
       <c r="AB34">
-        <v>20.0442</v>
+        <v>10.981</v>
       </c>
       <c r="AC34">
-        <v>23.4122</v>
+        <v>10.8655</v>
       </c>
       <c r="AD34">
-        <v>7.928749999999999</v>
+        <v>11.6084</v>
       </c>
       <c r="AE34">
-        <v>7.928749999999999</v>
+        <v>11.6084</v>
       </c>
       <c r="AF34">
-        <v>7.928749999999999</v>
+        <v>11.6084</v>
       </c>
       <c r="AG34">
-        <v>0.8295090000000001</v>
+        <v>0.829983</v>
       </c>
       <c r="AH34">
-        <v>0.508875</v>
+        <v>0.5167929999999999</v>
       </c>
       <c r="AI34">
-        <v>0.228551</v>
+        <v>0.228107</v>
       </c>
       <c r="AJ34">
-        <v>0.06945319999999999</v>
+        <v>0.0771666</v>
       </c>
       <c r="AK34">
-        <v>0.0727193</v>
+        <v>0.0851195</v>
       </c>
       <c r="AL34">
-        <v>0.0891327</v>
+        <v>0.08607679999999999</v>
       </c>
       <c r="AM34">
-        <v>0.0513406</v>
+        <v>0.0422072</v>
       </c>
       <c r="AN34">
-        <v>0.308431</v>
+        <v>0.316349</v>
       </c>
       <c r="AO34">
-        <v>873.37</v>
+        <v>874.338</v>
       </c>
       <c r="AP34">
-        <v>832.979</v>
+        <v>834.6410000000001</v>
       </c>
       <c r="AQ34">
-        <v>891.014</v>
+        <v>887.4599999999999</v>
       </c>
       <c r="AR34">
-        <v>749.918</v>
+        <v>747.9699999999999</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AT34">
-        <v>728.737</v>
+        <v>729.6460000000001</v>
       </c>
       <c r="AU34">
-        <v>785.0440000000001</v>
+        <v>782.2139999999999</v>
       </c>
       <c r="AV34">
-        <v>745.926</v>
+        <v>741.9870000000001</v>
       </c>
       <c r="AW34">
-        <v>796.9150000000001</v>
+        <v>795.134</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>62</v>
@@ -6115,115 +6115,115 @@
         <v>123</v>
       </c>
       <c r="M36" s="4">
-        <v>46.0673</v>
+        <v>46.4844</v>
       </c>
       <c r="N36" s="1">
-        <v>6.761640000000001</v>
+        <v>7.64798</v>
       </c>
       <c r="O36" s="1">
-        <v>15.1637</v>
+        <v>14.4533</v>
       </c>
       <c r="P36" s="1">
-        <v>26.3533</v>
+        <v>24.388</v>
       </c>
       <c r="Q36" s="1">
-        <v>46.0684</v>
+        <v>46.4839</v>
       </c>
       <c r="R36" s="1">
-        <v>99.97790000000001</v>
+        <v>99.99590000000001</v>
       </c>
       <c r="S36" s="1">
-        <v>25.9719</v>
+        <v>24.0721</v>
       </c>
       <c r="T36" s="1">
-        <v>26.3533</v>
+        <v>24.388</v>
       </c>
       <c r="U36" s="1">
-        <v>12.7669</v>
+        <v>14.2576</v>
       </c>
       <c r="V36" s="1">
-        <v>6.62028</v>
+        <v>7.60406</v>
       </c>
       <c r="W36" s="1">
-        <v>8.757199999999999</v>
+        <v>7.1281</v>
       </c>
       <c r="X36" s="1">
-        <v>6.75664</v>
+        <v>7.64364</v>
       </c>
       <c r="Y36" s="1">
-        <v>6.75664</v>
+        <v>7.64364</v>
       </c>
       <c r="Z36" s="1">
-        <v>6.761640000000001</v>
+        <v>7.64798</v>
       </c>
       <c r="AA36" s="1">
-        <v>13.1734</v>
+        <v>14.068</v>
       </c>
       <c r="AB36" s="1">
-        <v>12.8991</v>
+        <v>7.344550000000001</v>
       </c>
       <c r="AC36" s="1">
-        <v>15.1637</v>
+        <v>6.806640000000001</v>
       </c>
       <c r="AD36" s="1">
-        <v>5.2802</v>
+        <v>7.511240000000001</v>
       </c>
       <c r="AE36" s="1">
-        <v>5.2802</v>
+        <v>7.511240000000001</v>
       </c>
       <c r="AF36" s="1">
-        <v>5.2802</v>
+        <v>7.511240000000001</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.677045</v>
+        <v>0.677381</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.212533</v>
+        <v>0.224419</v>
       </c>
       <c r="AI36" s="1">
-        <v>0.0204356</v>
+        <v>0.0204357</v>
       </c>
       <c r="AJ36" s="1">
-        <v>0.0450441</v>
+        <v>0.0521103</v>
       </c>
       <c r="AK36" s="1">
-        <v>0.0494631</v>
+        <v>0.0569602</v>
       </c>
       <c r="AL36" s="1">
-        <v>0.0645048</v>
+        <v>0.06270139999999999</v>
       </c>
       <c r="AM36" s="1">
-        <v>0.0332843</v>
+        <v>0.0324205</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.192313</v>
+        <v>0.2042</v>
       </c>
       <c r="AO36" s="1">
-        <v>873.37</v>
+        <v>874.338</v>
       </c>
       <c r="AP36" s="1">
-        <v>828.549</v>
+        <v>829.9449999999999</v>
       </c>
       <c r="AQ36" s="1">
-        <v>888.397</v>
+        <v>885.092</v>
       </c>
       <c r="AR36" s="1">
-        <v>741.598</v>
+        <v>739.694</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT36" s="1">
-        <v>723.422</v>
+        <v>724.324</v>
       </c>
       <c r="AU36" s="1">
-        <v>782.436</v>
+        <v>780.2959999999999</v>
       </c>
       <c r="AV36" s="1">
-        <v>737.0550000000001</v>
+        <v>734.415</v>
       </c>
       <c r="AW36" s="1">
-        <v>791.978</v>
+        <v>790.013</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>124</v>
@@ -6234,115 +6234,115 @@
         <v>125</v>
       </c>
       <c r="M37" s="3">
-        <v>53.6505</v>
+        <v>53.0584</v>
       </c>
       <c r="N37" s="1">
-        <v>13.7436</v>
+        <v>16.1528</v>
       </c>
       <c r="O37" s="1">
-        <v>30.2825</v>
+        <v>21.8014</v>
       </c>
       <c r="P37" s="1">
-        <v>56.2225</v>
+        <v>53.3178</v>
       </c>
       <c r="Q37" s="1">
-        <v>53.65</v>
+        <v>53.0578</v>
       </c>
       <c r="R37" s="1">
-        <v>100.009</v>
+        <v>100.003</v>
       </c>
       <c r="S37" s="1">
-        <v>56.2225</v>
+        <v>53.3178</v>
       </c>
       <c r="T37" s="1">
-        <v>55.3796</v>
+        <v>52.3393</v>
       </c>
       <c r="U37" s="1">
-        <v>18.1095</v>
+        <v>21.3223</v>
       </c>
       <c r="V37" s="1">
-        <v>12.9253</v>
+        <v>15.0849</v>
       </c>
       <c r="W37" s="1">
-        <v>18.4675</v>
+        <v>15.1227</v>
       </c>
       <c r="X37" s="1">
-        <v>13.7428</v>
+        <v>15.9538</v>
       </c>
       <c r="Y37" s="1">
-        <v>13.7428</v>
+        <v>15.9538</v>
       </c>
       <c r="Z37" s="1">
-        <v>13.7436</v>
+        <v>15.9538</v>
       </c>
       <c r="AA37" s="1">
-        <v>19.9879</v>
+        <v>21.8014</v>
       </c>
       <c r="AB37" s="1">
-        <v>24.6816</v>
+        <v>14.559</v>
       </c>
       <c r="AC37" s="1">
-        <v>30.2825</v>
+        <v>14.9237</v>
       </c>
       <c r="AD37" s="1">
-        <v>11.3526</v>
+        <v>16.1528</v>
       </c>
       <c r="AE37" s="1">
-        <v>11.3526</v>
+        <v>16.1528</v>
       </c>
       <c r="AF37" s="1">
-        <v>11.3526</v>
+        <v>16.1528</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.834242</v>
+        <v>0.834775</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.698747</v>
+        <v>0.706189</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.376259</v>
+        <v>0.376464</v>
       </c>
       <c r="AJ37" s="1">
-        <v>0.08572479999999999</v>
+        <v>0.0927258</v>
       </c>
       <c r="AK37" s="1">
-        <v>0.0834698</v>
+        <v>0.102347</v>
       </c>
       <c r="AL37" s="1">
-        <v>0.09709719999999999</v>
+        <v>0.09483209999999999</v>
       </c>
       <c r="AM37" s="1">
-        <v>0.0607775</v>
+        <v>0.0446004</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.385797</v>
+        <v>0.3932389999999999</v>
       </c>
       <c r="AO37" s="1">
-        <v>882.057</v>
+        <v>883.111</v>
       </c>
       <c r="AP37" s="1">
-        <v>842.3920000000001</v>
+        <v>845.345</v>
       </c>
       <c r="AQ37" s="1">
-        <v>911.823</v>
+        <v>906.2149999999999</v>
       </c>
       <c r="AR37" s="1">
-        <v>771.8489999999999</v>
+        <v>768.941</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT37" s="1">
-        <v>731.647</v>
+        <v>732.996</v>
       </c>
       <c r="AU37" s="1">
-        <v>796.8150000000001</v>
+        <v>794.6759999999999</v>
       </c>
       <c r="AV37" s="1">
-        <v>759.193</v>
+        <v>756.3249999999999</v>
       </c>
       <c r="AW37" s="1">
-        <v>821.005</v>
+        <v>817.9639999999999</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>124</v>
@@ -6388,115 +6388,115 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>49.76850606060606</v>
+        <v>49.65783333333332</v>
       </c>
       <c r="N42" s="1">
-        <v>9.69246484848485</v>
+        <v>11.80406151515152</v>
       </c>
       <c r="O42" s="1">
-        <v>21.57197878787879</v>
+        <v>18.26828484848485</v>
       </c>
       <c r="P42" s="1">
-        <v>38.35460303030302</v>
+        <v>35.9349696969697</v>
       </c>
       <c r="Q42" s="1">
-        <v>49.76810303030304</v>
+        <v>49.65774545454546</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99923939393943</v>
+        <v>99.99978181818183</v>
       </c>
       <c r="S42" s="1">
-        <v>37.56057878787879</v>
+        <v>35.29111818181818</v>
       </c>
       <c r="T42" s="1">
-        <v>37.32812424242424</v>
+        <v>34.94821515151516</v>
       </c>
       <c r="U42" s="1">
-        <v>15.16993939393939</v>
+        <v>17.34325454545455</v>
       </c>
       <c r="V42" s="1">
-        <v>9.231195151515152</v>
+        <v>10.82769151515152</v>
       </c>
       <c r="W42" s="1">
-        <v>12.86545606060606</v>
+        <v>10.61282515151515</v>
       </c>
       <c r="X42" s="1">
-        <v>9.691832727272729</v>
+        <v>11.25056818181818</v>
       </c>
       <c r="Y42" s="1">
-        <v>9.691832727272729</v>
+        <v>11.25056818181818</v>
       </c>
       <c r="Z42" s="1">
-        <v>9.69246484848485</v>
+        <v>11.24785151515152</v>
       </c>
       <c r="AA42" s="1">
-        <v>16.07007878787879</v>
+        <v>17.29240606060606</v>
       </c>
       <c r="AB42" s="1">
-        <v>18.07488787878789</v>
+        <v>10.39491393939394</v>
       </c>
       <c r="AC42" s="1">
-        <v>21.57197878787879</v>
+        <v>10.26837393939394</v>
       </c>
       <c r="AD42" s="1">
-        <v>7.852386969696969</v>
+        <v>11.18299787878788</v>
       </c>
       <c r="AE42" s="1">
-        <v>7.852386969696969</v>
+        <v>11.18299787878788</v>
       </c>
       <c r="AF42" s="1">
-        <v>7.852386969696969</v>
+        <v>11.18299787878788</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7557802121212123</v>
+        <v>0.7562155151515152</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3853714848484849</v>
+        <v>0.3942940606060605</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1417667666666667</v>
+        <v>0.1418098727272727</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.05990085757575758</v>
+        <v>0.06715030303030305</v>
       </c>
       <c r="AK42" s="1">
-        <v>0.06312031818181818</v>
+        <v>0.07299397878787879</v>
       </c>
       <c r="AL42" s="1">
-        <v>0.07854593333333333</v>
+        <v>0.07575454242424241</v>
       </c>
       <c r="AM42" s="1">
-        <v>0.04300339393939393</v>
+        <v>0.03759684242424243</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.256778</v>
+        <v>0.2657008787878788</v>
       </c>
       <c r="AO42" s="1">
-        <v>877.2952727272727</v>
+        <v>878.3150909090911</v>
       </c>
       <c r="AP42" s="1">
-        <v>833.9246666666668</v>
+        <v>835.8313333333335</v>
       </c>
       <c r="AQ42" s="1">
-        <v>897.2338484848485</v>
+        <v>892.9274848484846</v>
       </c>
       <c r="AR42" s="1">
-        <v>753.1864545454544</v>
+        <v>750.9159393939395</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT42" s="1">
-        <v>727.2336363636365</v>
+        <v>728.2360000000001</v>
       </c>
       <c r="AU42" s="1">
-        <v>788.1010909090911</v>
+        <v>785.6086666666664</v>
       </c>
       <c r="AV42" s="1">
-        <v>746.173090909091</v>
+        <v>742.9041212121214</v>
       </c>
       <c r="AW42" s="1">
-        <v>802.953090909091</v>
+        <v>800.573212121212</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>124</v>
@@ -6507,115 +6507,115 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>2.286290107647519</v>
+        <v>2.005735113431613</v>
       </c>
       <c r="N43" s="1">
-        <v>1.778784793795219</v>
+        <v>2.324825119999901</v>
       </c>
       <c r="O43" s="1">
-        <v>4.472215320530354</v>
+        <v>2.146932438439779</v>
       </c>
       <c r="P43" s="1">
-        <v>7.962468345267361</v>
+        <v>7.75602906676711</v>
       </c>
       <c r="Q43" s="1">
-        <v>2.285722603929013</v>
+        <v>2.00594051863397</v>
       </c>
       <c r="R43" s="1">
-        <v>0.004930544219388151</v>
+        <v>0.00199673286865265</v>
       </c>
       <c r="S43" s="1">
-        <v>8.105528233539228</v>
+        <v>7.880251225208283</v>
       </c>
       <c r="T43" s="1">
-        <v>7.783055859074437</v>
+        <v>7.506474871013981</v>
       </c>
       <c r="U43" s="1">
-        <v>1.522637489227043</v>
+        <v>2.088338805974726</v>
       </c>
       <c r="V43" s="1">
-        <v>1.682015674874032</v>
+        <v>2.061957366173192</v>
       </c>
       <c r="W43" s="1">
-        <v>2.593361567403296</v>
+        <v>2.304001733239459</v>
       </c>
       <c r="X43" s="1">
-        <v>1.779370312525929</v>
+        <v>2.315076996816873</v>
       </c>
       <c r="Y43" s="1">
-        <v>1.779370312525929</v>
+        <v>2.315076996816873</v>
       </c>
       <c r="Z43" s="1">
-        <v>1.778784793795219</v>
+        <v>2.314780649095067</v>
       </c>
       <c r="AA43" s="1">
-        <v>1.990482106023194</v>
+        <v>2.321632318387528</v>
       </c>
       <c r="AB43" s="1">
-        <v>3.543455215819687</v>
+        <v>1.960585162763433</v>
       </c>
       <c r="AC43" s="1">
-        <v>4.472215320530354</v>
+        <v>2.269421553986081</v>
       </c>
       <c r="AD43" s="1">
-        <v>1.563375444094245</v>
+        <v>2.336544526355309</v>
       </c>
       <c r="AE43" s="1">
-        <v>1.563375444094245</v>
+        <v>2.336544526355309</v>
       </c>
       <c r="AF43" s="1">
-        <v>1.563375444094245</v>
+        <v>2.336544526355309</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07420536051565302</v>
+        <v>0.07425155720849316</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.122027120167738</v>
+        <v>0.1209904038926953</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.08919819036832212</v>
+        <v>0.0892289932918337</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.01095730296339083</v>
+        <v>0.01119578914350161</v>
       </c>
       <c r="AK43" s="1">
-        <v>0.009417822096959171</v>
+        <v>0.01209895502334076</v>
       </c>
       <c r="AL43" s="1">
-        <v>0.01006365246321652</v>
+        <v>0.009599313371815786</v>
       </c>
       <c r="AM43" s="1">
-        <v>0.007285063973968367</v>
+        <v>0.004145953057740531</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.04920700019675694</v>
+        <v>0.04832313369940697</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.676574294863292</v>
+        <v>2.743443173510432</v>
       </c>
       <c r="AP43" s="1">
-        <v>3.815049677317981</v>
+        <v>4.185235532756369</v>
       </c>
       <c r="AQ43" s="1">
-        <v>6.492238364157845</v>
+        <v>5.843735589818364</v>
       </c>
       <c r="AR43" s="1">
-        <v>8.105371825508819</v>
+        <v>7.879880655685217</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.83518266012147</v>
+        <v>2.968581418180006</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.860981131107211</v>
+        <v>3.884501158775119</v>
       </c>
       <c r="AV43" s="1">
-        <v>6.383281213634691</v>
+        <v>6.13391789749311</v>
       </c>
       <c r="AW43" s="1">
-        <v>7.783086196960129</v>
+        <v>7.506440171340445</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>124</v>
@@ -6626,115 +6626,115 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>4.593849180169018</v>
+        <v>4.03911121125223</v>
       </c>
       <c r="N44" s="1">
-        <v>18.35224395034337</v>
+        <v>19.69512880812922</v>
       </c>
       <c r="O44" s="1">
-        <v>20.73159520740524</v>
+        <v>11.7522386816617</v>
       </c>
       <c r="P44" s="1">
-        <v>20.76013754848776</v>
+        <v>21.58351358626902</v>
       </c>
       <c r="Q44" s="1">
-        <v>4.592746085855978</v>
+        <v>4.039532001045277</v>
       </c>
       <c r="R44" s="1">
-        <v>0.004930581721691548</v>
+        <v>0.001996737225170232</v>
       </c>
       <c r="S44" s="1">
-        <v>21.57988107508868</v>
+        <v>22.32927612157144</v>
       </c>
       <c r="T44" s="1">
-        <v>20.85038028840683</v>
+        <v>21.47885046051784</v>
       </c>
       <c r="U44" s="1">
-        <v>10.03720219103419</v>
+        <v>12.0412163732098</v>
       </c>
       <c r="V44" s="1">
-        <v>18.22099573529172</v>
+        <v>19.04337007835726</v>
       </c>
       <c r="W44" s="1">
-        <v>20.15755644562148</v>
+        <v>21.70959853145726</v>
       </c>
       <c r="X44" s="1">
-        <v>18.3594822836634</v>
+        <v>20.57742293014341</v>
       </c>
       <c r="Y44" s="1">
-        <v>18.3594822836634</v>
+        <v>20.57742293014341</v>
       </c>
       <c r="Z44" s="1">
-        <v>18.35224395034337</v>
+        <v>20.57975824073533</v>
       </c>
       <c r="AA44" s="1">
-        <v>12.38626227224573</v>
+        <v>13.42573329732554</v>
       </c>
       <c r="AB44" s="1">
-        <v>19.60429984176097</v>
+        <v>18.86100427761446</v>
       </c>
       <c r="AC44" s="1">
-        <v>20.73159520740524</v>
+        <v>22.10108014550965</v>
       </c>
       <c r="AD44" s="1">
-        <v>19.9095568026314</v>
+        <v>20.89372234244371</v>
       </c>
       <c r="AE44" s="1">
-        <v>19.9095568026314</v>
+        <v>20.89372234244371</v>
       </c>
       <c r="AF44" s="1">
-        <v>19.9095568026314</v>
+        <v>20.89372234244371</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.81837832289686</v>
+        <v>9.818835466978767</v>
       </c>
       <c r="AH44" s="1">
-        <v>31.66480265547282</v>
+        <v>30.685322448612</v>
       </c>
       <c r="AI44" s="1">
-        <v>62.91897069081924</v>
+        <v>62.92156644371155</v>
       </c>
       <c r="AJ44" s="1">
-        <v>18.29239748284564</v>
+        <v>16.67273063302374</v>
       </c>
       <c r="AK44" s="1">
-        <v>14.92042874345329</v>
+        <v>16.57527815890191</v>
       </c>
       <c r="AL44" s="1">
-        <v>12.81244239661445</v>
+        <v>12.67160102170175</v>
       </c>
       <c r="AM44" s="1">
-        <v>16.94067213447255</v>
+        <v>11.02739695785522</v>
       </c>
       <c r="AN44" s="1">
-        <v>19.16324614910815</v>
+        <v>18.18704323442812</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.3050938923382717</v>
+        <v>0.3123529587395407</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.4574813325245982</v>
+        <v>0.5007272838247711</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.7235837541262219</v>
+        <v>0.6544468267554729</v>
       </c>
       <c r="AR44" s="1">
-        <v>1.076144130924445</v>
+        <v>1.049369209294589</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.3898585706648752</v>
+        <v>0.4076400257855978</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4899093752875647</v>
+        <v>0.4944575236494064</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.8554692324615589</v>
+        <v>0.8256675016804346</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.9693077073964856</v>
+        <v>0.9376331930281876</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>124</v>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="133">
   <si>
     <t>Process</t>
   </si>
@@ -202,6 +202,9 @@
     <t>0.750</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>error</t>
   </si>
   <si>
@@ -229,7 +232,7 @@
     <t>beol_rcbest</t>
   </si>
   <si>
-    <t>rcbest_ccbest</t>
+    <t>rcbest_ccbest_t</t>
   </si>
   <si>
     <t>-40</t>
@@ -265,7 +268,7 @@
     <t>beol_rcworst</t>
   </si>
   <si>
-    <t>rcworst_ccworst</t>
+    <t>rcworst_ccworst_t</t>
   </si>
   <si>
     <t>tsmc2p (6)</t>
@@ -386,9 +389,6 @@
   </si>
   <si>
     <t>Min</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Max</t>
@@ -443,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,18 +453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8B8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6FFF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,12 +469,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,4982 +966,4982 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>49.8162</v>
+        <v>50.539</v>
       </c>
       <c r="N2">
-        <v>10.4424</v>
+        <v>13.3102</v>
       </c>
       <c r="O2">
-        <v>16.2976</v>
+        <v>21.163</v>
       </c>
       <c r="P2">
-        <v>33.3503</v>
+        <v>36.3716</v>
       </c>
       <c r="Q2">
-        <v>49.8174</v>
+        <v>50.5399</v>
       </c>
       <c r="R2">
-        <v>100.003</v>
+        <v>100.002</v>
       </c>
       <c r="S2">
-        <v>33.3503</v>
+        <v>35.83390000000001</v>
       </c>
       <c r="T2">
-        <v>33.17100000000001</v>
+        <v>36.3716</v>
       </c>
       <c r="U2">
-        <v>16.2976</v>
+        <v>21.0259</v>
       </c>
       <c r="V2">
-        <v>9.81166</v>
+        <v>16.2395</v>
       </c>
       <c r="W2">
-        <v>9.75924</v>
+        <v>12.2345</v>
       </c>
       <c r="X2">
-        <v>10.4368</v>
+        <v>13.3218</v>
       </c>
       <c r="Y2">
-        <v>10.4368</v>
+        <v>13.3218</v>
       </c>
       <c r="Z2">
-        <v>10.4424</v>
+        <v>13.3102</v>
       </c>
       <c r="AA2">
-        <v>16.0429</v>
+        <v>21.163</v>
       </c>
       <c r="AB2">
-        <v>9.41586</v>
+        <v>14.5604</v>
       </c>
       <c r="AC2">
-        <v>9.366379999999999</v>
+        <v>11.1696</v>
       </c>
       <c r="AD2">
-        <v>10.3103</v>
+        <v>13.2842</v>
       </c>
       <c r="AE2">
-        <v>10.3103</v>
+        <v>13.2842</v>
       </c>
       <c r="AF2">
-        <v>10.3103</v>
+        <v>13.2842</v>
       </c>
       <c r="AG2">
-        <v>0.757015</v>
+        <v>0.772369</v>
       </c>
       <c r="AH2">
-        <v>0.353172</v>
+        <v>0.228416</v>
       </c>
       <c r="AI2">
-        <v>0.107526</v>
-      </c>
-      <c r="AJ2">
-        <v>0.06476499999999999</v>
-      </c>
-      <c r="AK2">
-        <v>0.0696529</v>
-      </c>
-      <c r="AL2">
-        <v>0.0741188</v>
-      </c>
-      <c r="AM2">
-        <v>0.03707650000000001</v>
+        <v>0.00039306</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN2">
-        <v>0.246219</v>
+        <v>0.229162</v>
       </c>
       <c r="AO2">
-        <v>878.1189999999999</v>
+        <v>875.032</v>
       </c>
       <c r="AP2">
-        <v>834.934</v>
+        <v>833.734</v>
       </c>
       <c r="AQ2">
-        <v>891.6780000000001</v>
+        <v>891.95</v>
       </c>
       <c r="AR2">
-        <v>748.9780000000001</v>
+        <v>751.461</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT2">
-        <v>727.8390000000001</v>
+        <v>725.557</v>
       </c>
       <c r="AU2">
-        <v>784.8539999999999</v>
+        <v>784.121</v>
       </c>
       <c r="AV2">
-        <v>741.449</v>
+        <v>741.079</v>
       </c>
       <c r="AW2">
-        <v>798.796</v>
+        <v>801.997</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:50">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M3">
-        <v>50.3194</v>
+        <v>50.4592</v>
       </c>
       <c r="N3">
-        <v>9.073270000000001</v>
+        <v>11.6009</v>
       </c>
       <c r="O3">
-        <v>15.3109</v>
+        <v>19.5323</v>
       </c>
       <c r="P3">
-        <v>29.2865</v>
+        <v>32.4837</v>
       </c>
       <c r="Q3">
-        <v>50.3208</v>
+        <v>50.4592</v>
       </c>
       <c r="R3">
-        <v>100.003</v>
+        <v>100</v>
       </c>
       <c r="S3">
-        <v>28.9655</v>
+        <v>32.0264</v>
       </c>
       <c r="T3">
-        <v>29.2865</v>
+        <v>32.4837</v>
       </c>
       <c r="U3">
-        <v>15.3109</v>
+        <v>19.5323</v>
       </c>
       <c r="V3">
-        <v>8.635520000000001</v>
+        <v>14.5052</v>
       </c>
       <c r="W3">
-        <v>8.41179</v>
+        <v>10.8083</v>
       </c>
       <c r="X3">
-        <v>9.074100000000001</v>
+        <v>11.609</v>
       </c>
       <c r="Y3">
-        <v>9.074100000000001</v>
+        <v>11.609</v>
       </c>
       <c r="Z3">
-        <v>9.073270000000001</v>
+        <v>11.6009</v>
       </c>
       <c r="AA3">
-        <v>14.8698</v>
+        <v>19.4424</v>
       </c>
       <c r="AB3">
-        <v>8.277030000000002</v>
+        <v>13.0377</v>
       </c>
       <c r="AC3">
-        <v>7.969230000000001</v>
+        <v>9.856120000000001</v>
       </c>
       <c r="AD3">
-        <v>8.858370000000001</v>
+        <v>11.4175</v>
       </c>
       <c r="AE3">
-        <v>8.858370000000001</v>
+        <v>11.4175</v>
       </c>
       <c r="AF3">
-        <v>8.858370000000001</v>
+        <v>11.4175</v>
       </c>
       <c r="AG3">
-        <v>0.6813090000000001</v>
+        <v>0.6947</v>
       </c>
       <c r="AH3">
-        <v>0.35867</v>
+        <v>0.216004</v>
       </c>
       <c r="AI3">
-        <v>0.129433</v>
-      </c>
-      <c r="AJ3">
-        <v>0.0613593</v>
-      </c>
-      <c r="AK3">
-        <v>0.0656702</v>
-      </c>
-      <c r="AL3">
-        <v>0.06833210000000001</v>
-      </c>
-      <c r="AM3">
-        <v>0.0338858</v>
+        <v>0.000244805</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN3">
-        <v>0.229689</v>
+        <v>0.216872</v>
       </c>
       <c r="AO3">
-        <v>877.227</v>
+        <v>874.5120000000001</v>
       </c>
       <c r="AP3">
-        <v>832.58</v>
+        <v>832.152</v>
       </c>
       <c r="AQ3">
-        <v>888.8680000000001</v>
+        <v>889.537</v>
       </c>
       <c r="AR3">
-        <v>744.5940000000001</v>
+        <v>747.65</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT3">
-        <v>726.3109999999999</v>
+        <v>724.7809999999999</v>
       </c>
       <c r="AU3">
-        <v>782.967</v>
+        <v>782.578</v>
       </c>
       <c r="AV3">
-        <v>738.042</v>
+        <v>738.549</v>
       </c>
       <c r="AW3">
-        <v>794.9110000000001</v>
+        <v>798.109</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:50">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4">
-        <v>50.314</v>
+        <v>50.6854</v>
       </c>
       <c r="N4">
-        <v>7.67123</v>
+        <v>10.1365</v>
       </c>
       <c r="O4">
-        <v>14.4609</v>
+        <v>18.7245</v>
       </c>
       <c r="P4">
-        <v>24.419</v>
+        <v>27.9738</v>
       </c>
       <c r="Q4">
-        <v>50.3146</v>
+        <v>50.6859</v>
       </c>
       <c r="R4">
         <v>100.001</v>
       </c>
       <c r="S4">
-        <v>24.1053</v>
+        <v>27.2877</v>
       </c>
       <c r="T4">
-        <v>24.419</v>
+        <v>27.9738</v>
       </c>
       <c r="U4">
-        <v>14.4609</v>
+        <v>18.7245</v>
       </c>
       <c r="V4">
-        <v>7.60406</v>
+        <v>13.2939</v>
       </c>
       <c r="W4">
-        <v>7.1281</v>
+        <v>9.954219999999999</v>
       </c>
       <c r="X4">
-        <v>7.67159</v>
+        <v>10.1445</v>
       </c>
       <c r="Y4">
-        <v>7.67159</v>
+        <v>10.1445</v>
       </c>
       <c r="Z4">
-        <v>7.67123</v>
+        <v>10.1365</v>
       </c>
       <c r="AA4">
-        <v>14.1025</v>
+        <v>18.037</v>
       </c>
       <c r="AB4">
-        <v>7.35053</v>
+        <v>12.2283</v>
       </c>
       <c r="AC4">
-        <v>6.80698</v>
+        <v>9.07404</v>
       </c>
       <c r="AD4">
-        <v>7.55261</v>
+        <v>10.0678</v>
       </c>
       <c r="AE4">
-        <v>7.55261</v>
+        <v>10.0678</v>
       </c>
       <c r="AF4">
-        <v>7.55261</v>
+        <v>10.0678</v>
       </c>
       <c r="AG4">
-        <v>0.8318719999999999</v>
+        <v>0.845959</v>
       </c>
       <c r="AH4">
-        <v>0.5407339999999999</v>
+        <v>0.289272</v>
       </c>
       <c r="AI4">
-        <v>0.24059</v>
-      </c>
-      <c r="AJ4">
-        <v>0.0836557</v>
-      </c>
-      <c r="AK4">
-        <v>0.08762930000000001</v>
-      </c>
-      <c r="AL4">
-        <v>0.08682869999999999</v>
-      </c>
-      <c r="AM4">
-        <v>0.0421501</v>
+        <v>0.00032727</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN4">
-        <v>0.300821</v>
+        <v>0.29126</v>
       </c>
       <c r="AO4">
-        <v>875.5390000000001</v>
+        <v>873.133</v>
       </c>
       <c r="AP4">
-        <v>829.9449999999999</v>
+        <v>829.739</v>
       </c>
       <c r="AQ4">
-        <v>885.092</v>
+        <v>886.2280000000001</v>
       </c>
       <c r="AR4">
-        <v>739.73</v>
+        <v>742.913</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT4">
-        <v>724.773</v>
+        <v>723.443</v>
       </c>
       <c r="AU4">
         <v>780.2959999999999</v>
       </c>
       <c r="AV4">
-        <v>734.415</v>
+        <v>735.168</v>
       </c>
       <c r="AW4">
-        <v>790.0440000000001</v>
+        <v>793.599</v>
       </c>
       <c r="AX4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>49.9479</v>
+        <v>50.2825</v>
       </c>
       <c r="N5">
-        <v>10.3552</v>
+        <v>13.1319</v>
       </c>
       <c r="O5">
-        <v>17.5462</v>
+        <v>23.0636</v>
       </c>
       <c r="P5">
-        <v>29.5204</v>
+        <v>33.3595</v>
       </c>
       <c r="Q5">
-        <v>49.9467</v>
+        <v>50.2837</v>
       </c>
       <c r="R5">
-        <v>99.99760000000001</v>
+        <v>100.002</v>
       </c>
       <c r="S5">
-        <v>29.5204</v>
+        <v>33.0738</v>
       </c>
       <c r="T5">
-        <v>29.4668</v>
+        <v>33.3595</v>
       </c>
       <c r="U5">
-        <v>17.5462</v>
+        <v>23.0636</v>
       </c>
       <c r="V5">
-        <v>10.395</v>
+        <v>17.1374</v>
       </c>
       <c r="W5">
-        <v>9.729089999999999</v>
+        <v>12.803</v>
       </c>
       <c r="X5">
-        <v>10.293</v>
+        <v>12.9814</v>
       </c>
       <c r="Y5">
-        <v>10.293</v>
+        <v>12.9814</v>
       </c>
       <c r="Z5">
-        <v>10.2926</v>
+        <v>12.984</v>
       </c>
       <c r="AA5">
-        <v>17.2039</v>
+        <v>22.1082</v>
       </c>
       <c r="AB5">
-        <v>10.0848</v>
+        <v>16.1871</v>
       </c>
       <c r="AC5">
-        <v>9.47667</v>
+        <v>11.9846</v>
       </c>
       <c r="AD5">
-        <v>10.3552</v>
+        <v>13.1319</v>
       </c>
       <c r="AE5">
-        <v>10.3552</v>
+        <v>13.1319</v>
       </c>
       <c r="AF5">
-        <v>10.3552</v>
+        <v>13.1319</v>
       </c>
       <c r="AG5">
-        <v>0.677381</v>
+        <v>0.68689</v>
       </c>
       <c r="AH5">
-        <v>0.499793</v>
+        <v>0.289333</v>
       </c>
       <c r="AI5">
-        <v>0.248005</v>
-      </c>
-      <c r="AJ5">
-        <v>0.0685702</v>
-      </c>
-      <c r="AK5">
-        <v>0.07708950000000001</v>
-      </c>
-      <c r="AL5">
-        <v>0.0747273</v>
-      </c>
-      <c r="AM5">
-        <v>0.0358146</v>
+        <v>0.038733</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN5">
-        <v>0.307952</v>
+        <v>0.283358</v>
       </c>
       <c r="AO5">
-        <v>876.476</v>
+        <v>873.705</v>
       </c>
       <c r="AP5">
-        <v>832.614</v>
+        <v>832.398</v>
       </c>
       <c r="AQ5">
-        <v>888.6030000000001</v>
+        <v>889.8150000000001</v>
       </c>
       <c r="AR5">
-        <v>745.143</v>
+        <v>748.701</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT5">
-        <v>726.441</v>
+        <v>724.946</v>
       </c>
       <c r="AU5">
-        <v>782.591</v>
+        <v>782.5120000000001</v>
       </c>
       <c r="AV5">
-        <v>738.5260000000001</v>
+        <v>739.4720000000001</v>
       </c>
       <c r="AW5">
-        <v>795.092</v>
+        <v>798.985</v>
       </c>
       <c r="AX5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:50">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>49.9498</v>
+        <v>50.4961</v>
       </c>
       <c r="N6">
-        <v>8.96697</v>
+        <v>11.825</v>
       </c>
       <c r="O6">
-        <v>16.6444</v>
+        <v>22.0933</v>
       </c>
       <c r="P6">
-        <v>25.6194</v>
+        <v>29.925</v>
       </c>
       <c r="Q6">
-        <v>49.95059999999999</v>
+        <v>50.49780000000001</v>
       </c>
       <c r="R6">
-        <v>100.002</v>
+        <v>100.004</v>
       </c>
       <c r="S6">
-        <v>25.6194</v>
+        <v>29.43</v>
       </c>
       <c r="T6">
-        <v>25.5736</v>
+        <v>29.925</v>
       </c>
       <c r="U6">
-        <v>16.6444</v>
+        <v>22.0933</v>
       </c>
       <c r="V6">
-        <v>9.34999</v>
+        <v>15.9897</v>
       </c>
       <c r="W6">
-        <v>8.46327</v>
+        <v>12.0247</v>
       </c>
       <c r="X6">
-        <v>8.88198</v>
+        <v>11.6949</v>
       </c>
       <c r="Y6">
-        <v>8.88198</v>
+        <v>11.6949</v>
       </c>
       <c r="Z6">
-        <v>8.87847</v>
+        <v>11.6947</v>
       </c>
       <c r="AA6">
-        <v>16.3201</v>
+        <v>20.7629</v>
       </c>
       <c r="AB6">
-        <v>9.087399999999999</v>
+        <v>15.1115</v>
       </c>
       <c r="AC6">
-        <v>8.242740000000001</v>
+        <v>11.2119</v>
       </c>
       <c r="AD6">
-        <v>8.96697</v>
+        <v>11.825</v>
       </c>
       <c r="AE6">
-        <v>8.96697</v>
+        <v>11.825</v>
       </c>
       <c r="AF6">
-        <v>8.96697</v>
+        <v>11.825</v>
       </c>
       <c r="AG6">
-        <v>0.827669</v>
+        <v>0.837737</v>
       </c>
       <c r="AH6">
-        <v>0.706189</v>
+        <v>0.381098</v>
       </c>
       <c r="AI6">
-        <v>0.376464</v>
-      </c>
-      <c r="AJ6">
-        <v>0.0927258</v>
-      </c>
-      <c r="AK6">
-        <v>0.102344</v>
-      </c>
-      <c r="AL6">
-        <v>0.09483</v>
-      </c>
-      <c r="AM6">
-        <v>0.0446004</v>
+        <v>0.04410799999999999</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN6">
-        <v>0.3932389999999999</v>
+        <v>0.374385</v>
       </c>
       <c r="AO6">
-        <v>875.321</v>
+        <v>872.826</v>
       </c>
       <c r="AP6">
-        <v>830.625</v>
+        <v>830.631</v>
       </c>
       <c r="AQ6">
-        <v>885.681</v>
+        <v>887.426</v>
       </c>
       <c r="AR6">
-        <v>741.246</v>
+        <v>745.057</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT6">
-        <v>725.2950000000001</v>
+        <v>723.984</v>
       </c>
       <c r="AU6">
-        <v>780.578</v>
+        <v>780.866</v>
       </c>
       <c r="AV6">
-        <v>735.641</v>
+        <v>736.879</v>
       </c>
       <c r="AW6">
-        <v>791.1990000000001</v>
+        <v>795.5500000000001</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:50">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M7">
-        <v>50.3253</v>
+        <v>50.3998</v>
       </c>
       <c r="N7">
-        <v>9.04111</v>
+        <v>12.4009</v>
       </c>
       <c r="O7">
-        <v>15.318</v>
+        <v>20.2765</v>
       </c>
       <c r="P7">
-        <v>29.2478</v>
+        <v>33.6768</v>
       </c>
       <c r="Q7">
-        <v>50.325</v>
+        <v>50.39980000000001</v>
       </c>
       <c r="R7">
-        <v>99.99940000000001</v>
+        <v>100</v>
       </c>
       <c r="S7">
-        <v>28.9244</v>
+        <v>33.2798</v>
       </c>
       <c r="T7">
-        <v>29.2478</v>
+        <v>33.6768</v>
       </c>
       <c r="U7">
-        <v>15.318</v>
+        <v>19.6513</v>
       </c>
       <c r="V7">
-        <v>8.634789999999999</v>
+        <v>15.4211</v>
       </c>
       <c r="W7">
-        <v>8.411389999999999</v>
+        <v>11.7259</v>
       </c>
       <c r="X7">
-        <v>9.038920000000001</v>
+        <v>12.4009</v>
       </c>
       <c r="Y7">
-        <v>9.038920000000001</v>
+        <v>12.4009</v>
       </c>
       <c r="Z7">
-        <v>9.04111</v>
+        <v>12.4009</v>
       </c>
       <c r="AA7">
-        <v>14.857</v>
+        <v>20.2765</v>
       </c>
       <c r="AB7">
-        <v>8.27922</v>
+        <v>14.0358</v>
       </c>
       <c r="AC7">
-        <v>7.967030000000001</v>
+        <v>10.7362</v>
       </c>
       <c r="AD7">
-        <v>8.81082</v>
+        <v>12.235</v>
       </c>
       <c r="AE7">
-        <v>8.81082</v>
+        <v>12.235</v>
       </c>
       <c r="AF7">
-        <v>8.81082</v>
+        <v>12.235</v>
       </c>
       <c r="AG7">
-        <v>0.681337</v>
+        <v>0.69378</v>
       </c>
       <c r="AH7">
-        <v>0.358453</v>
+        <v>0.211757</v>
       </c>
       <c r="AI7">
-        <v>0.129433</v>
-      </c>
-      <c r="AJ7">
-        <v>0.0613549</v>
-      </c>
-      <c r="AK7">
-        <v>0.0656588</v>
-      </c>
-      <c r="AL7">
-        <v>0.06833930000000001</v>
-      </c>
-      <c r="AM7">
-        <v>0.0336766</v>
+        <v>0.000244805</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN7">
-        <v>0.229472</v>
+        <v>0.212529</v>
       </c>
       <c r="AO7">
-        <v>877.2260000000001</v>
+        <v>874.144</v>
       </c>
       <c r="AP7">
-        <v>832.5820000000001</v>
+        <v>832.412</v>
       </c>
       <c r="AQ7">
-        <v>888.8680000000001</v>
+        <v>890.046</v>
       </c>
       <c r="AR7">
-        <v>744.548</v>
+        <v>748.902</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT7">
-        <v>726.3100000000001</v>
+        <v>724.734</v>
       </c>
       <c r="AU7">
-        <v>782.965</v>
+        <v>782.7900000000001</v>
       </c>
       <c r="AV7">
-        <v>738.037</v>
+        <v>739.102</v>
       </c>
       <c r="AW7">
-        <v>794.873</v>
+        <v>799.302</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:50">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8">
-        <v>50.3179</v>
+        <v>50.6296</v>
       </c>
       <c r="N8">
-        <v>7.64798</v>
+        <v>10.9807</v>
       </c>
       <c r="O8">
-        <v>14.4533</v>
+        <v>19.0353</v>
       </c>
       <c r="P8">
-        <v>24.388</v>
+        <v>29.2384</v>
       </c>
       <c r="Q8">
-        <v>50.316</v>
+        <v>50.6302</v>
       </c>
       <c r="R8">
-        <v>99.9962</v>
+        <v>100.001</v>
       </c>
       <c r="S8">
-        <v>24.0721</v>
+        <v>28.609</v>
       </c>
       <c r="T8">
-        <v>24.388</v>
+        <v>29.2384</v>
       </c>
       <c r="U8">
-        <v>14.4533</v>
+        <v>19.0353</v>
       </c>
       <c r="V8">
-        <v>7.604090000000001</v>
+        <v>14.2598</v>
       </c>
       <c r="W8">
-        <v>7.12907</v>
+        <v>10.9576</v>
       </c>
       <c r="X8">
-        <v>7.64364</v>
+        <v>10.9775</v>
       </c>
       <c r="Y8">
-        <v>7.64364</v>
+        <v>10.9775</v>
       </c>
       <c r="Z8">
-        <v>7.64798</v>
+        <v>10.9807</v>
       </c>
       <c r="AA8">
-        <v>14.0935</v>
+        <v>18.8684</v>
       </c>
       <c r="AB8">
-        <v>7.344550000000001</v>
+        <v>13.1838</v>
       </c>
       <c r="AC8">
-        <v>6.806640000000001</v>
+        <v>10.0239</v>
       </c>
       <c r="AD8">
-        <v>7.511240000000001</v>
+        <v>10.9042</v>
       </c>
       <c r="AE8">
-        <v>7.511240000000001</v>
+        <v>10.9042</v>
       </c>
       <c r="AF8">
-        <v>7.511240000000001</v>
+        <v>10.9042</v>
       </c>
       <c r="AG8">
-        <v>0.831906</v>
+        <v>0.844955</v>
       </c>
       <c r="AH8">
-        <v>0.540483</v>
+        <v>0.285528</v>
       </c>
       <c r="AI8">
-        <v>0.24059</v>
-      </c>
-      <c r="AJ8">
-        <v>0.08366409999999999</v>
-      </c>
-      <c r="AK8">
-        <v>0.0876212</v>
-      </c>
-      <c r="AL8">
-        <v>0.08683399999999999</v>
-      </c>
-      <c r="AM8">
-        <v>0.0418972</v>
+        <v>0.00032727</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN8">
-        <v>0.300574</v>
+        <v>0.287428</v>
       </c>
       <c r="AO8">
-        <v>875.538</v>
+        <v>872.769</v>
       </c>
       <c r="AP8">
-        <v>829.952</v>
+        <v>830.052</v>
       </c>
       <c r="AQ8">
-        <v>885.095</v>
+        <v>886.812</v>
       </c>
       <c r="AR8">
-        <v>739.694</v>
+        <v>744.236</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT8">
-        <v>724.7760000000001</v>
+        <v>723.444</v>
       </c>
       <c r="AU8">
-        <v>780.297</v>
+        <v>780.5600000000001</v>
       </c>
       <c r="AV8">
-        <v>734.417</v>
+        <v>735.797</v>
       </c>
       <c r="AW8">
-        <v>790.013</v>
+        <v>794.8630000000001</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:50">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M9">
-        <v>49.9487</v>
+        <v>50.2477</v>
       </c>
       <c r="N9">
-        <v>10.3074</v>
+        <v>14.0405</v>
       </c>
       <c r="O9">
-        <v>17.5371</v>
+        <v>23.4832</v>
       </c>
       <c r="P9">
-        <v>29.4757</v>
+        <v>34.66670000000001</v>
       </c>
       <c r="Q9">
-        <v>49.9483</v>
+        <v>50.2481</v>
       </c>
       <c r="R9">
-        <v>99.99940000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S9">
-        <v>29.4757</v>
+        <v>34.419</v>
       </c>
       <c r="T9">
-        <v>29.4247</v>
+        <v>34.66670000000001</v>
       </c>
       <c r="U9">
-        <v>17.5371</v>
+        <v>23.4832</v>
       </c>
       <c r="V9">
-        <v>10.3935</v>
+        <v>18.2179</v>
       </c>
       <c r="W9">
-        <v>9.731389999999999</v>
+        <v>13.9049</v>
       </c>
       <c r="X9">
-        <v>10.2608</v>
+        <v>13.8894</v>
       </c>
       <c r="Y9">
-        <v>10.2608</v>
+        <v>13.8894</v>
       </c>
       <c r="Z9">
-        <v>10.2468</v>
+        <v>13.8952</v>
       </c>
       <c r="AA9">
-        <v>17.2045</v>
+        <v>22.9946</v>
       </c>
       <c r="AB9">
-        <v>10.085</v>
+        <v>17.2266</v>
       </c>
       <c r="AC9">
-        <v>9.47855</v>
+        <v>13.0407</v>
       </c>
       <c r="AD9">
-        <v>10.3074</v>
+        <v>14.0405</v>
       </c>
       <c r="AE9">
-        <v>10.3074</v>
+        <v>14.0405</v>
       </c>
       <c r="AF9">
-        <v>10.3074</v>
+        <v>14.0405</v>
       </c>
       <c r="AG9">
-        <v>0.677391</v>
+        <v>0.685993</v>
       </c>
       <c r="AH9">
-        <v>0.499603</v>
+        <v>0.28696</v>
       </c>
       <c r="AI9">
-        <v>0.248005</v>
-      </c>
-      <c r="AJ9">
-        <v>0.0685735</v>
-      </c>
-      <c r="AK9">
-        <v>0.07709150000000001</v>
-      </c>
-      <c r="AL9">
-        <v>0.07473909999999999</v>
-      </c>
-      <c r="AM9">
-        <v>0.0356065</v>
+        <v>0.0387351</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN9">
-        <v>0.307761</v>
+        <v>0.280952</v>
       </c>
       <c r="AO9">
-        <v>876.475</v>
+        <v>873.269</v>
       </c>
       <c r="AP9">
-        <v>832.6130000000001</v>
+        <v>832.681</v>
       </c>
       <c r="AQ9">
-        <v>888.601</v>
+        <v>890.4100000000001</v>
       </c>
       <c r="AR9">
-        <v>745.099</v>
+        <v>750.044</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT9">
-        <v>726.4400000000001</v>
+        <v>724.922</v>
       </c>
       <c r="AU9">
-        <v>782.59</v>
+        <v>782.76</v>
       </c>
       <c r="AV9">
-        <v>738.525</v>
+        <v>740.1070000000001</v>
       </c>
       <c r="AW9">
-        <v>795.05</v>
+        <v>800.2919999999999</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:50">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M10">
-        <v>49.9549</v>
+        <v>50.4658</v>
       </c>
       <c r="N10">
-        <v>8.925170000000001</v>
+        <v>12.7638</v>
       </c>
       <c r="O10">
-        <v>16.6406</v>
+        <v>22.6032</v>
       </c>
       <c r="P10">
-        <v>25.581</v>
+        <v>31.3344</v>
       </c>
       <c r="Q10">
-        <v>49.95489999999999</v>
+        <v>50.4678</v>
       </c>
       <c r="R10">
-        <v>100</v>
+        <v>100.004</v>
       </c>
       <c r="S10">
-        <v>25.581</v>
+        <v>30.8696</v>
       </c>
       <c r="T10">
-        <v>25.5329</v>
+        <v>31.3344</v>
       </c>
       <c r="U10">
-        <v>16.6406</v>
+        <v>22.6032</v>
       </c>
       <c r="V10">
-        <v>9.347009999999999</v>
+        <v>17.1479</v>
       </c>
       <c r="W10">
-        <v>8.46396</v>
+        <v>13.2248</v>
       </c>
       <c r="X10">
-        <v>8.853809999999999</v>
+        <v>12.6437</v>
       </c>
       <c r="Y10">
-        <v>8.853809999999999</v>
+        <v>12.6437</v>
       </c>
       <c r="Z10">
-        <v>8.854419999999999</v>
+        <v>12.6397</v>
       </c>
       <c r="AA10">
-        <v>16.3257</v>
+        <v>21.6523</v>
       </c>
       <c r="AB10">
-        <v>9.085140000000001</v>
+        <v>16.2125</v>
       </c>
       <c r="AC10">
-        <v>8.246079999999999</v>
+        <v>12.3576</v>
       </c>
       <c r="AD10">
-        <v>8.925170000000001</v>
+        <v>12.7638</v>
       </c>
       <c r="AE10">
-        <v>8.925170000000001</v>
+        <v>12.7638</v>
       </c>
       <c r="AF10">
-        <v>8.925170000000001</v>
+        <v>12.7638</v>
       </c>
       <c r="AG10">
-        <v>0.827677</v>
+        <v>0.836805</v>
       </c>
       <c r="AH10">
-        <v>0.7059460000000001</v>
+        <v>0.379604</v>
       </c>
       <c r="AI10">
-        <v>0.376464</v>
-      </c>
-      <c r="AJ10">
-        <v>0.09271789999999999</v>
-      </c>
-      <c r="AK10">
-        <v>0.102347</v>
-      </c>
-      <c r="AL10">
-        <v>0.09483209999999999</v>
-      </c>
-      <c r="AM10">
-        <v>0.0443599</v>
+        <v>0.0441107</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN10">
-        <v>0.392995</v>
+        <v>0.373211</v>
       </c>
       <c r="AO10">
-        <v>875.3220000000001</v>
+        <v>872.3800000000001</v>
       </c>
       <c r="AP10">
-        <v>830.625</v>
+        <v>830.971</v>
       </c>
       <c r="AQ10">
-        <v>885.682</v>
+        <v>888.111</v>
       </c>
       <c r="AR10">
-        <v>741.206</v>
+        <v>746.498</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT10">
-        <v>725.296</v>
+        <v>724.0119999999999</v>
       </c>
       <c r="AU10">
-        <v>780.578</v>
+        <v>781.169</v>
       </c>
       <c r="AV10">
-        <v>735.641</v>
+        <v>737.597</v>
       </c>
       <c r="AW10">
-        <v>791.158</v>
+        <v>796.9590000000001</v>
       </c>
       <c r="AX10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:50">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11">
-        <v>49.0231</v>
+        <v>50.6684</v>
       </c>
       <c r="N11">
-        <v>15.2438</v>
+        <v>17.658</v>
       </c>
       <c r="O11">
-        <v>19.4929</v>
+        <v>24.364</v>
       </c>
       <c r="P11">
-        <v>53.3178</v>
+        <v>52.16780000000001</v>
       </c>
       <c r="Q11">
-        <v>49.0226</v>
+        <v>50.6678</v>
       </c>
       <c r="R11">
-        <v>99.999</v>
+        <v>99.9987</v>
       </c>
       <c r="S11">
-        <v>53.3178</v>
+        <v>51.4981</v>
       </c>
       <c r="T11">
-        <v>52.3393</v>
+        <v>52.16780000000001</v>
       </c>
       <c r="U11">
-        <v>19.3869</v>
+        <v>24.364</v>
       </c>
       <c r="V11">
-        <v>14.0439</v>
+        <v>18.4144</v>
       </c>
       <c r="W11">
-        <v>14.2944</v>
+        <v>14.2878</v>
       </c>
       <c r="X11">
-        <v>15.2453</v>
+        <v>17.6531</v>
       </c>
       <c r="Y11">
-        <v>15.2453</v>
+        <v>17.6531</v>
       </c>
       <c r="Z11">
-        <v>15.2438</v>
+        <v>17.658</v>
       </c>
       <c r="AA11">
-        <v>19.4929</v>
+        <v>23.7529</v>
       </c>
       <c r="AB11">
-        <v>13.2768</v>
+        <v>15.3752</v>
       </c>
       <c r="AC11">
-        <v>13.5925</v>
+        <v>12.8359</v>
       </c>
       <c r="AD11">
-        <v>14.8009</v>
+        <v>17.2969</v>
       </c>
       <c r="AE11">
-        <v>14.8009</v>
+        <v>17.2969</v>
       </c>
       <c r="AF11">
-        <v>14.8009</v>
+        <v>17.2969</v>
       </c>
       <c r="AG11">
-        <v>0.683686</v>
+        <v>0.7056210000000001</v>
       </c>
       <c r="AH11">
-        <v>0.224649</v>
+        <v>0.183202</v>
       </c>
       <c r="AI11">
-        <v>0.0204357</v>
-      </c>
-      <c r="AJ11">
-        <v>0.0521103</v>
-      </c>
-      <c r="AK11">
-        <v>0.0569612</v>
-      </c>
-      <c r="AL11">
-        <v>0.06270139999999999</v>
-      </c>
-      <c r="AM11">
-        <v>0.0326511</v>
+        <v>3.97663E-06</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN11">
-        <v>0.20443</v>
+        <v>0.184601</v>
       </c>
       <c r="AO11">
-        <v>883.111</v>
+        <v>879.508</v>
       </c>
       <c r="AP11">
-        <v>845.345</v>
+        <v>841.1840000000001</v>
       </c>
       <c r="AQ11">
-        <v>906.2149999999999</v>
+        <v>903.495</v>
       </c>
       <c r="AR11">
-        <v>768.941</v>
+        <v>767.122</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT11">
-        <v>732.994</v>
+        <v>729.386</v>
       </c>
       <c r="AU11">
-        <v>794.6750000000001</v>
+        <v>791.71</v>
       </c>
       <c r="AV11">
-        <v>756.324</v>
+        <v>752.145</v>
       </c>
       <c r="AW11">
-        <v>817.9639999999999</v>
+        <v>817.793</v>
       </c>
       <c r="AX11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:50">
       <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12">
-        <v>49.3708</v>
+        <v>50.7756</v>
       </c>
       <c r="N12">
-        <v>11.3028</v>
+        <v>13.5556</v>
       </c>
       <c r="O12">
-        <v>16.3678</v>
+        <v>20.8442</v>
       </c>
       <c r="P12">
-        <v>38.5538</v>
+        <v>39.43</v>
       </c>
       <c r="Q12">
-        <v>49.37090000000001</v>
+        <v>50.7748</v>
       </c>
       <c r="R12">
-        <v>100</v>
+        <v>99.9983</v>
       </c>
       <c r="S12">
-        <v>38.5538</v>
+        <v>38.6575</v>
       </c>
       <c r="T12">
-        <v>37.9255</v>
+        <v>39.43</v>
       </c>
       <c r="U12">
-        <v>16.1834</v>
+        <v>20.8442</v>
       </c>
       <c r="V12">
-        <v>10.4224</v>
+        <v>15.7075</v>
       </c>
       <c r="W12">
-        <v>10.5758</v>
+        <v>11.804</v>
       </c>
       <c r="X12">
-        <v>11.3016</v>
+        <v>13.5584</v>
       </c>
       <c r="Y12">
-        <v>11.3016</v>
+        <v>13.5584</v>
       </c>
       <c r="Z12">
-        <v>11.3028</v>
+        <v>13.5556</v>
       </c>
       <c r="AA12">
-        <v>16.3678</v>
+        <v>20.7778</v>
       </c>
       <c r="AB12">
-        <v>9.963150000000001</v>
+        <v>13.2446</v>
       </c>
       <c r="AC12">
-        <v>10.2038</v>
+        <v>10.6148</v>
       </c>
       <c r="AD12">
-        <v>11.1056</v>
+        <v>13.4952</v>
       </c>
       <c r="AE12">
-        <v>11.1056</v>
+        <v>13.4952</v>
       </c>
       <c r="AF12">
-        <v>11.1056</v>
+        <v>13.4952</v>
       </c>
       <c r="AG12">
-        <v>0.83472</v>
+        <v>0.856118</v>
       </c>
       <c r="AH12">
-        <v>0.325832</v>
+        <v>0.235899</v>
       </c>
       <c r="AI12">
-        <v>0.0684577</v>
-      </c>
-      <c r="AJ12">
-        <v>0.066871</v>
-      </c>
-      <c r="AK12">
-        <v>0.0715817</v>
-      </c>
-      <c r="AL12">
-        <v>0.0787163</v>
-      </c>
-      <c r="AM12">
-        <v>0.040178</v>
+        <v>1.2018E-05</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN12">
-        <v>0.25736</v>
+        <v>0.236635</v>
       </c>
       <c r="AO12">
-        <v>879.706</v>
+        <v>876.722</v>
       </c>
       <c r="AP12">
-        <v>837.926</v>
+        <v>835.4879999999999</v>
       </c>
       <c r="AQ12">
-        <v>895.419</v>
+        <v>894.471</v>
       </c>
       <c r="AR12">
-        <v>754.176</v>
+        <v>754.278</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT12">
-        <v>729.6320000000001</v>
+        <v>726.6900000000001</v>
       </c>
       <c r="AU12">
-        <v>787.51</v>
+        <v>786.029</v>
       </c>
       <c r="AV12">
-        <v>745.465</v>
+        <v>743.287</v>
       </c>
       <c r="AW12">
-        <v>803.55</v>
+        <v>805.0549999999999</v>
       </c>
       <c r="AX12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:50">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
         <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13">
-        <v>48.7778</v>
+        <v>50.6267</v>
       </c>
       <c r="N13">
-        <v>16.1528</v>
+        <v>18.612</v>
       </c>
       <c r="O13">
-        <v>21.5092</v>
+        <v>27.237</v>
       </c>
       <c r="P13">
-        <v>50.5151</v>
+        <v>49.3464</v>
       </c>
       <c r="Q13">
-        <v>48.7779</v>
+        <v>50.6269</v>
       </c>
       <c r="R13">
         <v>100</v>
       </c>
       <c r="S13">
-        <v>50.5151</v>
+        <v>48.7198</v>
       </c>
       <c r="T13">
-        <v>49.293</v>
+        <v>49.3464</v>
       </c>
       <c r="U13">
-        <v>20.8911</v>
+        <v>27.237</v>
       </c>
       <c r="V13">
-        <v>15.0783</v>
+        <v>20.71</v>
       </c>
       <c r="W13">
-        <v>15.1177</v>
+        <v>15.4755</v>
       </c>
       <c r="X13">
-        <v>15.9538</v>
+        <v>18.2006</v>
       </c>
       <c r="Y13">
-        <v>15.9538</v>
+        <v>18.2006</v>
       </c>
       <c r="Z13">
-        <v>15.9538</v>
+        <v>18.2105</v>
       </c>
       <c r="AA13">
-        <v>21.5092</v>
+        <v>26.7797</v>
       </c>
       <c r="AB13">
-        <v>14.559</v>
+        <v>18.4762</v>
       </c>
       <c r="AC13">
-        <v>14.9237</v>
+        <v>14.3548</v>
       </c>
       <c r="AD13">
-        <v>16.1528</v>
+        <v>18.612</v>
       </c>
       <c r="AE13">
-        <v>16.1528</v>
+        <v>18.612</v>
       </c>
       <c r="AF13">
-        <v>16.1528</v>
+        <v>18.612</v>
       </c>
       <c r="AG13">
-        <v>0.6807299999999999</v>
+        <v>0.697102</v>
       </c>
       <c r="AH13">
-        <v>0.256505</v>
+        <v>0.192866</v>
       </c>
       <c r="AI13">
-        <v>0.0471402</v>
-      </c>
-      <c r="AJ13">
-        <v>0.0534664</v>
-      </c>
-      <c r="AK13">
-        <v>0.0590149</v>
-      </c>
-      <c r="AL13">
-        <v>0.0640418</v>
-      </c>
-      <c r="AM13">
-        <v>0.0329611</v>
+        <v>0.00144437</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN13">
-        <v>0.211411</v>
+        <v>0.193145</v>
       </c>
       <c r="AO13">
-        <v>881.4780000000001</v>
+        <v>877.745</v>
       </c>
       <c r="AP13">
-        <v>843.451</v>
+        <v>839.51</v>
       </c>
       <c r="AQ13">
-        <v>903.2850000000001</v>
+        <v>900.71</v>
       </c>
       <c r="AR13">
-        <v>766.14</v>
+        <v>764.3480000000001</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT13">
-        <v>732.272</v>
+        <v>728.544</v>
       </c>
       <c r="AU13">
-        <v>792.4699999999999</v>
+        <v>789.775</v>
       </c>
       <c r="AV13">
-        <v>754.3050000000001</v>
+        <v>750.217</v>
       </c>
       <c r="AW13">
-        <v>814.918</v>
+        <v>814.971</v>
       </c>
       <c r="AX13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:50">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
         <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>49.1597</v>
+        <v>50.6889</v>
       </c>
       <c r="N14">
-        <v>12.6562</v>
+        <v>15.103</v>
       </c>
       <c r="O14">
-        <v>18.4387</v>
+        <v>23.61</v>
       </c>
       <c r="P14">
-        <v>38.7865</v>
+        <v>39.57360000000001</v>
       </c>
       <c r="Q14">
-        <v>49.16</v>
+        <v>50.6869</v>
       </c>
       <c r="R14">
-        <v>100</v>
+        <v>99.996</v>
       </c>
       <c r="S14">
-        <v>38.7865</v>
+        <v>38.8882</v>
       </c>
       <c r="T14">
-        <v>37.9455</v>
+        <v>39.57360000000001</v>
       </c>
       <c r="U14">
-        <v>18.1201</v>
+        <v>23.61</v>
       </c>
       <c r="V14">
-        <v>11.8424</v>
+        <v>17.8646</v>
       </c>
       <c r="W14">
-        <v>11.9022</v>
+        <v>13.3058</v>
       </c>
       <c r="X14">
-        <v>12.5134</v>
+        <v>14.7922</v>
       </c>
       <c r="Y14">
-        <v>12.5134</v>
+        <v>14.7922</v>
       </c>
       <c r="Z14">
-        <v>12.5131</v>
+        <v>14.7893</v>
       </c>
       <c r="AA14">
-        <v>18.4387</v>
+        <v>22.9907</v>
       </c>
       <c r="AB14">
-        <v>11.4624</v>
+        <v>16.1257</v>
       </c>
       <c r="AC14">
-        <v>11.7021</v>
+        <v>12.2203</v>
       </c>
       <c r="AD14">
-        <v>12.6562</v>
+        <v>15.103</v>
       </c>
       <c r="AE14">
-        <v>12.6562</v>
+        <v>15.103</v>
       </c>
       <c r="AF14">
-        <v>12.6562</v>
+        <v>15.103</v>
       </c>
       <c r="AG14">
-        <v>0.831833</v>
+        <v>0.849137</v>
       </c>
       <c r="AH14">
-        <v>0.364243</v>
+        <v>0.250966</v>
       </c>
       <c r="AI14">
-        <v>0.0981744</v>
-      </c>
-      <c r="AJ14">
-        <v>0.06935529999999999</v>
-      </c>
-      <c r="AK14">
-        <v>0.075308</v>
-      </c>
-      <c r="AL14">
-        <v>0.08071489999999999</v>
-      </c>
-      <c r="AM14">
-        <v>0.0407557</v>
+        <v>0.00164729</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN14">
-        <v>0.268311</v>
+        <v>0.251632</v>
       </c>
       <c r="AO14">
-        <v>878.8579999999999</v>
+        <v>875.7070000000001</v>
       </c>
       <c r="AP14">
-        <v>837.63</v>
+        <v>835.1800000000001</v>
       </c>
       <c r="AQ14">
-        <v>894.971</v>
+        <v>894.047</v>
       </c>
       <c r="AR14">
-        <v>754.412</v>
+        <v>754.515</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT14">
-        <v>729.473</v>
+        <v>726.41</v>
       </c>
       <c r="AU14">
-        <v>786.952</v>
+        <v>785.5169999999999</v>
       </c>
       <c r="AV14">
-        <v>745.629</v>
+        <v>743.427</v>
       </c>
       <c r="AW14">
-        <v>803.571</v>
+        <v>805.199</v>
       </c>
       <c r="AX14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:50">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>49.0423</v>
+        <v>50.5855</v>
       </c>
       <c r="N15">
-        <v>15.168</v>
+        <v>18.4485</v>
       </c>
       <c r="O15">
-        <v>19.4906</v>
+        <v>24.9298</v>
       </c>
       <c r="P15">
-        <v>53.2559</v>
+        <v>53.16079999999999</v>
       </c>
       <c r="Q15">
-        <v>49.042</v>
+        <v>50.5857</v>
       </c>
       <c r="R15">
-        <v>99.99930000000001</v>
+        <v>100</v>
       </c>
       <c r="S15">
-        <v>53.2559</v>
+        <v>52.5752</v>
       </c>
       <c r="T15">
-        <v>52.2932</v>
+        <v>53.16079999999999</v>
       </c>
       <c r="U15">
-        <v>19.3883</v>
+        <v>23.5999</v>
       </c>
       <c r="V15">
-        <v>14.0451</v>
+        <v>19.2896</v>
       </c>
       <c r="W15">
-        <v>14.2932</v>
+        <v>14.9973</v>
       </c>
       <c r="X15">
-        <v>15.1699</v>
+        <v>18.4473</v>
       </c>
       <c r="Y15">
-        <v>15.1699</v>
+        <v>18.4473</v>
       </c>
       <c r="Z15">
-        <v>15.168</v>
+        <v>18.4485</v>
       </c>
       <c r="AA15">
-        <v>19.4906</v>
+        <v>24.9298</v>
       </c>
       <c r="AB15">
-        <v>13.257</v>
+        <v>16.1609</v>
       </c>
       <c r="AC15">
-        <v>13.5928</v>
+        <v>13.5246</v>
       </c>
       <c r="AD15">
-        <v>14.7113</v>
+        <v>18.1207</v>
       </c>
       <c r="AE15">
-        <v>14.7113</v>
+        <v>18.1207</v>
       </c>
       <c r="AF15">
-        <v>14.7113</v>
+        <v>18.1207</v>
       </c>
       <c r="AG15">
-        <v>0.683733</v>
+        <v>0.704346</v>
       </c>
       <c r="AH15">
-        <v>0.224419</v>
+        <v>0.177352</v>
       </c>
       <c r="AI15">
-        <v>0.0204357</v>
-      </c>
-      <c r="AJ15">
-        <v>0.0521119</v>
-      </c>
-      <c r="AK15">
-        <v>0.0569602</v>
-      </c>
-      <c r="AL15">
-        <v>0.0627018</v>
-      </c>
-      <c r="AM15">
-        <v>0.0324205</v>
+        <v>3.97664E-06</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN15">
-        <v>0.2042</v>
+        <v>0.178749</v>
       </c>
       <c r="AO15">
-        <v>883.1070000000001</v>
+        <v>879.11</v>
       </c>
       <c r="AP15">
-        <v>845.341</v>
+        <v>841.306</v>
       </c>
       <c r="AQ15">
-        <v>906.2140000000001</v>
+        <v>903.777</v>
       </c>
       <c r="AR15">
-        <v>768.884</v>
+        <v>768.201</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT15">
-        <v>732.996</v>
+        <v>729.2669999999999</v>
       </c>
       <c r="AU15">
-        <v>794.6759999999999</v>
+        <v>791.759</v>
       </c>
       <c r="AV15">
-        <v>756.3249999999999</v>
+        <v>752.5</v>
       </c>
       <c r="AW15">
-        <v>817.918</v>
+        <v>818.7860000000001</v>
       </c>
       <c r="AX15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:50">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>49.3826</v>
+        <v>50.7224</v>
       </c>
       <c r="N16">
-        <v>11.2494</v>
+        <v>14.3407</v>
       </c>
       <c r="O16">
-        <v>16.368</v>
+        <v>21.6356</v>
       </c>
       <c r="P16">
-        <v>38.5026</v>
+        <v>40.54600000000001</v>
       </c>
       <c r="Q16">
-        <v>49.3841</v>
+        <v>50.723</v>
       </c>
       <c r="R16">
-        <v>100.003</v>
+        <v>100.001</v>
       </c>
       <c r="S16">
-        <v>38.5026</v>
+        <v>39.8243</v>
       </c>
       <c r="T16">
-        <v>37.8892</v>
+        <v>40.54600000000001</v>
       </c>
       <c r="U16">
-        <v>16.181</v>
+        <v>20.6435</v>
       </c>
       <c r="V16">
-        <v>10.4157</v>
+        <v>16.5576</v>
       </c>
       <c r="W16">
-        <v>10.5787</v>
+        <v>12.607</v>
       </c>
       <c r="X16">
-        <v>11.249</v>
+        <v>14.3395</v>
       </c>
       <c r="Y16">
-        <v>11.249</v>
+        <v>14.3395</v>
       </c>
       <c r="Z16">
-        <v>11.2494</v>
+        <v>14.3407</v>
       </c>
       <c r="AA16">
-        <v>16.368</v>
+        <v>21.6356</v>
       </c>
       <c r="AB16">
-        <v>9.95722</v>
+        <v>14.2136</v>
       </c>
       <c r="AC16">
-        <v>10.2045</v>
+        <v>11.4082</v>
       </c>
       <c r="AD16">
-        <v>11.0436</v>
+        <v>14.3028</v>
       </c>
       <c r="AE16">
-        <v>11.0436</v>
+        <v>14.3028</v>
       </c>
       <c r="AF16">
-        <v>11.0436</v>
+        <v>14.3028</v>
       </c>
       <c r="AG16">
-        <v>0.834775</v>
+        <v>0.854868</v>
       </c>
       <c r="AH16">
-        <v>0.32553</v>
+        <v>0.229371</v>
       </c>
       <c r="AI16">
-        <v>0.0684577</v>
-      </c>
-      <c r="AJ16">
-        <v>0.0668636</v>
-      </c>
-      <c r="AK16">
-        <v>0.0715927</v>
-      </c>
-      <c r="AL16">
-        <v>0.07869949999999999</v>
-      </c>
-      <c r="AM16">
-        <v>0.0398891</v>
+        <v>1.2018E-05</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN16">
-        <v>0.257058</v>
+        <v>0.230106</v>
       </c>
       <c r="AO16">
-        <v>879.705</v>
+        <v>876.348</v>
       </c>
       <c r="AP16">
-        <v>837.925</v>
+        <v>835.688</v>
       </c>
       <c r="AQ16">
-        <v>895.423</v>
+        <v>894.888</v>
       </c>
       <c r="AR16">
-        <v>754.129</v>
+        <v>755.45</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT16">
-        <v>729.633</v>
+        <v>726.612</v>
       </c>
       <c r="AU16">
-        <v>787.5110000000001</v>
+        <v>786.179</v>
       </c>
       <c r="AV16">
-        <v>745.467</v>
+        <v>743.755</v>
       </c>
       <c r="AW16">
-        <v>803.514</v>
+        <v>806.171</v>
       </c>
       <c r="AX16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:50">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>48.782</v>
+        <v>50.6053</v>
       </c>
       <c r="N17">
-        <v>16.0612</v>
+        <v>19.4689</v>
       </c>
       <c r="O17">
-        <v>21.5138</v>
+        <v>27.4972</v>
       </c>
       <c r="P17">
-        <v>50.4532</v>
+        <v>50.2894</v>
       </c>
       <c r="Q17">
-        <v>48.78190000000001</v>
+        <v>50.605</v>
       </c>
       <c r="R17">
-        <v>99.99980000000001</v>
+        <v>99.9995</v>
       </c>
       <c r="S17">
-        <v>50.4532</v>
+        <v>49.6874</v>
       </c>
       <c r="T17">
-        <v>49.2366</v>
+        <v>50.2894</v>
       </c>
       <c r="U17">
-        <v>20.8863</v>
+        <v>27.0479</v>
       </c>
       <c r="V17">
-        <v>15.0849</v>
+        <v>21.5278</v>
       </c>
       <c r="W17">
-        <v>15.1227</v>
+        <v>16.2499</v>
       </c>
       <c r="X17">
-        <v>15.8835</v>
+        <v>19.0443</v>
       </c>
       <c r="Y17">
-        <v>15.8835</v>
+        <v>19.0443</v>
       </c>
       <c r="Z17">
-        <v>15.8841</v>
+        <v>19.0427</v>
       </c>
       <c r="AA17">
-        <v>21.5138</v>
+        <v>27.4972</v>
       </c>
       <c r="AB17">
-        <v>14.5575</v>
+        <v>19.3963</v>
       </c>
       <c r="AC17">
-        <v>14.9202</v>
+        <v>15.1041</v>
       </c>
       <c r="AD17">
-        <v>16.0612</v>
+        <v>19.4689</v>
       </c>
       <c r="AE17">
-        <v>16.0612</v>
+        <v>19.4689</v>
       </c>
       <c r="AF17">
-        <v>16.0612</v>
+        <v>19.4689</v>
       </c>
       <c r="AG17">
-        <v>0.680735</v>
+        <v>0.695978</v>
       </c>
       <c r="AH17">
-        <v>0.256272</v>
+        <v>0.187249</v>
       </c>
       <c r="AI17">
-        <v>0.0471402</v>
-      </c>
-      <c r="AJ17">
-        <v>0.0534604</v>
-      </c>
-      <c r="AK17">
-        <v>0.0590171</v>
-      </c>
-      <c r="AL17">
-        <v>0.0640415</v>
-      </c>
-      <c r="AM17">
-        <v>0.03273239999999999</v>
+        <v>0.00144437</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN17">
-        <v>0.211177</v>
+        <v>0.187692</v>
       </c>
       <c r="AO17">
-        <v>881.475</v>
+        <v>877.297</v>
       </c>
       <c r="AP17">
-        <v>843.447</v>
+        <v>839.5720000000001</v>
       </c>
       <c r="AQ17">
-        <v>903.2840000000001</v>
+        <v>900.943</v>
       </c>
       <c r="AR17">
-        <v>766.074</v>
+        <v>765.314</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT17">
-        <v>732.2769999999999</v>
+        <v>728.41</v>
       </c>
       <c r="AU17">
-        <v>792.472</v>
+        <v>789.8040000000001</v>
       </c>
       <c r="AV17">
-        <v>754.299</v>
+        <v>750.501</v>
       </c>
       <c r="AW17">
-        <v>814.8620000000001</v>
+        <v>815.914</v>
       </c>
       <c r="AX17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:50">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18">
-        <v>49.1685</v>
+        <v>50.6632</v>
       </c>
       <c r="N18">
-        <v>12.5956</v>
+        <v>15.9549</v>
       </c>
       <c r="O18">
-        <v>18.4408</v>
+        <v>23.7727</v>
       </c>
       <c r="P18">
-        <v>38.7363</v>
+        <v>40.6789</v>
       </c>
       <c r="Q18">
-        <v>49.1665</v>
+        <v>50.6631</v>
       </c>
       <c r="R18">
-        <v>99.99590000000001</v>
+        <v>99.9997</v>
       </c>
       <c r="S18">
-        <v>38.7363</v>
+        <v>40.0146</v>
       </c>
       <c r="T18">
-        <v>37.9002</v>
+        <v>40.6789</v>
       </c>
       <c r="U18">
-        <v>18.1233</v>
+        <v>23.7128</v>
       </c>
       <c r="V18">
-        <v>11.8493</v>
+        <v>18.7234</v>
       </c>
       <c r="W18">
-        <v>11.8812</v>
+        <v>14.1781</v>
       </c>
       <c r="X18">
-        <v>12.4603</v>
+        <v>15.6306</v>
       </c>
       <c r="Y18">
-        <v>12.4603</v>
+        <v>15.6306</v>
       </c>
       <c r="Z18">
-        <v>12.4594</v>
+        <v>15.6303</v>
       </c>
       <c r="AA18">
-        <v>18.4408</v>
+        <v>23.7727</v>
       </c>
       <c r="AB18">
-        <v>11.4634</v>
+        <v>17.0541</v>
       </c>
       <c r="AC18">
-        <v>11.6967</v>
+        <v>13.0599</v>
       </c>
       <c r="AD18">
-        <v>12.5956</v>
+        <v>15.9549</v>
       </c>
       <c r="AE18">
-        <v>12.5956</v>
+        <v>15.9549</v>
       </c>
       <c r="AF18">
-        <v>12.5956</v>
+        <v>15.9549</v>
       </c>
       <c r="AG18">
-        <v>0.83186</v>
+        <v>0.848035</v>
       </c>
       <c r="AH18">
-        <v>0.363957</v>
+        <v>0.245302</v>
       </c>
       <c r="AI18">
-        <v>0.0981744</v>
-      </c>
-      <c r="AJ18">
-        <v>0.0693566</v>
-      </c>
-      <c r="AK18">
-        <v>0.07530969999999999</v>
-      </c>
-      <c r="AL18">
-        <v>0.0807008</v>
-      </c>
-      <c r="AM18">
-        <v>0.0404806</v>
+        <v>0.00164729</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN18">
-        <v>0.268025</v>
+        <v>0.24578</v>
       </c>
       <c r="AO18">
-        <v>878.859</v>
+        <v>875.277</v>
       </c>
       <c r="AP18">
-        <v>837.6310000000001</v>
+        <v>835.341</v>
       </c>
       <c r="AQ18">
-        <v>894.972</v>
+        <v>894.4340000000001</v>
       </c>
       <c r="AR18">
-        <v>754.36</v>
+        <v>755.641</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT18">
-        <v>729.474</v>
+        <v>726.306</v>
       </c>
       <c r="AU18">
-        <v>786.953</v>
+        <v>785.651</v>
       </c>
       <c r="AV18">
-        <v>745.6319999999999</v>
+        <v>743.864</v>
       </c>
       <c r="AW18">
-        <v>803.525</v>
+        <v>806.3040000000001</v>
       </c>
       <c r="AX18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:50">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" s="3">
-        <v>53.0375</v>
+        <v>74</v>
+      </c>
+      <c r="M19">
+        <v>52.116</v>
       </c>
       <c r="N19">
-        <v>13.4834</v>
+        <v>16.3529</v>
       </c>
       <c r="O19">
-        <v>19.9208</v>
+        <v>23.8914</v>
       </c>
       <c r="P19">
-        <v>40.3526</v>
+        <v>41.9771</v>
       </c>
       <c r="Q19">
-        <v>53.0376</v>
+        <v>52.1164</v>
       </c>
       <c r="R19">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S19">
-        <v>37.3138</v>
+        <v>39.858</v>
       </c>
       <c r="T19">
-        <v>40.3526</v>
+        <v>41.9771</v>
       </c>
       <c r="U19">
-        <v>19.9208</v>
+        <v>23.8914</v>
       </c>
       <c r="V19">
-        <v>12.4752</v>
+        <v>18.2864</v>
       </c>
       <c r="W19">
-        <v>13.0106</v>
+        <v>13.9651</v>
       </c>
       <c r="X19">
-        <v>13.4834</v>
+        <v>16.347</v>
       </c>
       <c r="Y19">
-        <v>13.4834</v>
+        <v>16.347</v>
       </c>
       <c r="Z19">
-        <v>13.4834</v>
+        <v>16.3529</v>
       </c>
       <c r="AA19">
-        <v>15.0444</v>
+        <v>17.5596</v>
       </c>
       <c r="AB19">
-        <v>9.4993</v>
+        <v>12.0671</v>
       </c>
       <c r="AC19">
-        <v>9.068</v>
+        <v>10.234</v>
       </c>
       <c r="AD19">
-        <v>10.3022</v>
+        <v>12.3029</v>
       </c>
       <c r="AE19">
-        <v>10.3022</v>
+        <v>12.3029</v>
       </c>
       <c r="AF19">
-        <v>10.3022</v>
+        <v>12.3029</v>
       </c>
       <c r="AG19">
-        <v>0.682407</v>
+        <v>0.698784</v>
       </c>
       <c r="AH19">
-        <v>0.274984</v>
+        <v>0.194683</v>
       </c>
       <c r="AI19">
-        <v>0.0619624</v>
-      </c>
-      <c r="AJ19">
-        <v>0.0554792</v>
-      </c>
-      <c r="AK19">
-        <v>0.0598035</v>
-      </c>
-      <c r="AL19">
-        <v>0.06499829999999999</v>
-      </c>
-      <c r="AM19">
-        <v>0.0329506</v>
+        <v>6.913359999999999E-05</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN19">
-        <v>0.213383</v>
+        <v>0.195883</v>
       </c>
       <c r="AO19">
-        <v>882.7670000000001</v>
+        <v>879.624</v>
       </c>
       <c r="AP19">
-        <v>836.451</v>
+        <v>835.246</v>
       </c>
       <c r="AQ19">
-        <v>898.852</v>
+        <v>898.3679999999999</v>
       </c>
       <c r="AR19">
-        <v>752.938</v>
+        <v>755.4829999999999</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT19">
-        <v>726.348</v>
+        <v>724.27</v>
       </c>
       <c r="AU19">
-        <v>789.124</v>
+        <v>787.825</v>
       </c>
       <c r="AV19">
-        <v>742.686</v>
+        <v>742.0490000000001</v>
       </c>
       <c r="AW19">
-        <v>805.9780000000001</v>
+        <v>807.602</v>
       </c>
       <c r="AX19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:50">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
         <v>104</v>
       </c>
-      <c r="B20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>103</v>
-      </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
         <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M20">
-        <v>52.5612</v>
+        <v>52.4643</v>
       </c>
       <c r="N20">
-        <v>10.2433</v>
+        <v>12.8818</v>
       </c>
       <c r="O20">
-        <v>16.6867</v>
+        <v>20.6118</v>
       </c>
       <c r="P20">
-        <v>31.243</v>
+        <v>33.77030000000001</v>
       </c>
       <c r="Q20">
-        <v>52.5604</v>
+        <v>52.4655</v>
       </c>
       <c r="R20">
-        <v>99.99850000000001</v>
+        <v>100.002</v>
       </c>
       <c r="S20">
-        <v>28.6859</v>
+        <v>31.3061</v>
       </c>
       <c r="T20">
-        <v>31.243</v>
+        <v>33.77030000000001</v>
       </c>
       <c r="U20">
-        <v>16.6867</v>
+        <v>20.6118</v>
       </c>
       <c r="V20">
-        <v>9.74508</v>
+        <v>15.2725</v>
       </c>
       <c r="W20">
-        <v>9.806279999999999</v>
+        <v>11.7165</v>
       </c>
       <c r="X20">
-        <v>10.2433</v>
+        <v>12.8822</v>
       </c>
       <c r="Y20">
-        <v>10.2433</v>
+        <v>12.8822</v>
       </c>
       <c r="Z20">
-        <v>10.2433</v>
+        <v>12.8818</v>
       </c>
       <c r="AA20">
-        <v>14.068</v>
+        <v>17.6552</v>
       </c>
       <c r="AB20">
-        <v>7.84484</v>
+        <v>11.2809</v>
       </c>
       <c r="AC20">
-        <v>7.4361</v>
+        <v>9.13781</v>
       </c>
       <c r="AD20">
-        <v>8.396839999999999</v>
+        <v>10.5326</v>
       </c>
       <c r="AE20">
-        <v>8.396839999999999</v>
+        <v>10.5326</v>
       </c>
       <c r="AF20">
-        <v>8.396839999999999</v>
+        <v>10.5326</v>
       </c>
       <c r="AG20">
-        <v>0.833199</v>
+        <v>0.8503309999999999</v>
       </c>
       <c r="AH20">
-        <v>0.411369</v>
+        <v>0.254659</v>
       </c>
       <c r="AI20">
-        <v>0.139058</v>
-      </c>
-      <c r="AJ20">
-        <v>0.0723644</v>
-      </c>
-      <c r="AK20">
-        <v>0.077195</v>
-      </c>
-      <c r="AL20">
-        <v>0.081931</v>
-      </c>
-      <c r="AM20">
-        <v>0.0408801</v>
+        <v>0.000105637</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN20">
-        <v>0.272568</v>
+        <v>0.255542</v>
       </c>
       <c r="AO20">
-        <v>879.65</v>
+        <v>876.9639999999999</v>
       </c>
       <c r="AP20">
-        <v>832.009</v>
+        <v>831.215</v>
       </c>
       <c r="AQ20">
-        <v>891.4100000000001</v>
+        <v>891.812</v>
       </c>
       <c r="AR20">
-        <v>744.311</v>
+        <v>746.9330000000001</v>
       </c>
       <c r="AS20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT20">
-        <v>724.324</v>
+        <v>722.547</v>
       </c>
       <c r="AU20">
-        <v>784.347</v>
+        <v>783.783</v>
       </c>
       <c r="AV20">
-        <v>736.792</v>
+        <v>736.6039999999999</v>
       </c>
       <c r="AW20">
-        <v>796.8680000000001</v>
+        <v>799.395</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:50">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
         <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M21">
-        <v>52.2958</v>
+        <v>52.0592</v>
       </c>
       <c r="N21">
-        <v>14.182</v>
+        <v>17.027</v>
       </c>
       <c r="O21">
-        <v>21.3223</v>
+        <v>26.1415</v>
       </c>
       <c r="P21">
-        <v>38.7935</v>
+        <v>40.9025</v>
       </c>
       <c r="Q21">
-        <v>52.2956</v>
+        <v>52.0592</v>
       </c>
       <c r="R21">
-        <v>99.9997</v>
+        <v>99.9999</v>
       </c>
       <c r="S21">
-        <v>36.5002</v>
+        <v>38.8502</v>
       </c>
       <c r="T21">
-        <v>38.7935</v>
+        <v>40.9025</v>
       </c>
       <c r="U21">
-        <v>21.3223</v>
+        <v>26.1415</v>
       </c>
       <c r="V21">
-        <v>13.7629</v>
+        <v>19.996</v>
       </c>
       <c r="W21">
-        <v>13.8448</v>
+        <v>15.3361</v>
       </c>
       <c r="X21">
-        <v>14.182</v>
+        <v>17.0335</v>
       </c>
       <c r="Y21">
-        <v>14.182</v>
+        <v>17.0335</v>
       </c>
       <c r="Z21">
-        <v>14.182</v>
+        <v>17.027</v>
       </c>
       <c r="AA21">
-        <v>17.0197</v>
+        <v>21.6309</v>
       </c>
       <c r="AB21">
-        <v>10.8974</v>
+        <v>14.7901</v>
       </c>
       <c r="AC21">
-        <v>10.4547</v>
+        <v>11.892</v>
       </c>
       <c r="AD21">
-        <v>11.651</v>
+        <v>13.8146</v>
       </c>
       <c r="AE21">
-        <v>11.651</v>
+        <v>13.8146</v>
       </c>
       <c r="AF21">
-        <v>11.651</v>
+        <v>13.8146</v>
       </c>
       <c r="AG21">
-        <v>0.679196</v>
+        <v>0.691751</v>
       </c>
       <c r="AH21">
-        <v>0.336237</v>
+        <v>0.223583</v>
       </c>
       <c r="AI21">
-        <v>0.111727</v>
-      </c>
-      <c r="AJ21">
-        <v>0.0588931</v>
-      </c>
-      <c r="AK21">
-        <v>0.06516870000000001</v>
-      </c>
-      <c r="AL21">
-        <v>0.0680719</v>
-      </c>
-      <c r="AM21">
-        <v>0.03385709999999999</v>
+        <v>0.0109465</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM21" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN21">
-        <v>0.243379</v>
+        <v>0.222692</v>
       </c>
       <c r="AO21">
-        <v>881.561</v>
+        <v>878.426</v>
       </c>
       <c r="AP21">
-        <v>835.772</v>
+        <v>834.515</v>
       </c>
       <c r="AQ21">
-        <v>897.235</v>
+        <v>897.083</v>
       </c>
       <c r="AR21">
-        <v>752.124</v>
+        <v>754.475</v>
       </c>
       <c r="AS21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT21">
-        <v>725.921</v>
+        <v>723.6709999999999</v>
       </c>
       <c r="AU21">
-        <v>787.6940000000001</v>
+        <v>786.6609999999999</v>
       </c>
       <c r="AV21">
-        <v>742.102</v>
+        <v>741.409</v>
       </c>
       <c r="AW21">
-        <v>804.418</v>
+        <v>806.528</v>
       </c>
       <c r="AX21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:50">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
         <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M22">
-        <v>52.0649</v>
+        <v>52.2674</v>
       </c>
       <c r="N22">
-        <v>11.4736</v>
+        <v>14.1447</v>
       </c>
       <c r="O22">
-        <v>18.6034</v>
+        <v>23.4748</v>
       </c>
       <c r="P22">
-        <v>31.7549</v>
+        <v>34.7714</v>
       </c>
       <c r="Q22">
-        <v>52.0649</v>
+        <v>52.2674</v>
       </c>
       <c r="R22">
         <v>100</v>
       </c>
       <c r="S22">
-        <v>29.6927</v>
+        <v>32.5039</v>
       </c>
       <c r="T22">
-        <v>31.7549</v>
+        <v>34.7714</v>
       </c>
       <c r="U22">
-        <v>18.6034</v>
+        <v>23.4748</v>
       </c>
       <c r="V22">
-        <v>11.3121</v>
+        <v>17.4424</v>
       </c>
       <c r="W22">
-        <v>11.0556</v>
+        <v>13.4158</v>
       </c>
       <c r="X22">
-        <v>11.5119</v>
+        <v>14.1447</v>
       </c>
       <c r="Y22">
-        <v>11.5119</v>
+        <v>14.1447</v>
       </c>
       <c r="Z22">
-        <v>11.4736</v>
+        <v>14.1447</v>
       </c>
       <c r="AA22">
-        <v>15.903</v>
+        <v>20.5766</v>
       </c>
       <c r="AB22">
-        <v>9.362770000000001</v>
+        <v>13.9564</v>
       </c>
       <c r="AC22">
-        <v>8.810090000000001</v>
+        <v>10.8019</v>
       </c>
       <c r="AD22">
-        <v>9.79091</v>
+        <v>12.0767</v>
       </c>
       <c r="AE22">
-        <v>9.79091</v>
+        <v>12.0767</v>
       </c>
       <c r="AF22">
-        <v>9.79091</v>
+        <v>12.0767</v>
       </c>
       <c r="AG22">
-        <v>0.8299569999999999</v>
+        <v>0.8435009999999999</v>
       </c>
       <c r="AH22">
-        <v>0.474882</v>
+        <v>0.294007</v>
       </c>
       <c r="AI22">
-        <v>0.185194</v>
-      </c>
-      <c r="AJ22">
-        <v>0.0778696</v>
-      </c>
-      <c r="AK22">
-        <v>0.08513349999999999</v>
-      </c>
-      <c r="AL22">
-        <v>0.086019</v>
-      </c>
-      <c r="AM22">
-        <v>0.042239</v>
+        <v>0.0121924</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN22">
-        <v>0.310535</v>
+        <v>0.293202</v>
       </c>
       <c r="AO22">
-        <v>879.2049999999999</v>
+        <v>876.481</v>
       </c>
       <c r="AP22">
-        <v>832.342</v>
+        <v>831.62</v>
       </c>
       <c r="AQ22">
-        <v>891.523</v>
+        <v>892.288</v>
       </c>
       <c r="AR22">
-        <v>745.318</v>
+        <v>748.135</v>
       </c>
       <c r="AS22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT22">
-        <v>724.46</v>
+        <v>722.576</v>
       </c>
       <c r="AU22">
-        <v>784.1360000000001</v>
+        <v>783.756</v>
       </c>
       <c r="AV22">
-        <v>737.505</v>
+        <v>737.4710000000001</v>
       </c>
       <c r="AW22">
-        <v>797.38</v>
+        <v>800.3960000000001</v>
       </c>
       <c r="AX22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:50">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
-      </c>
-      <c r="M23" s="3">
-        <v>53.0584</v>
+        <v>74</v>
+      </c>
+      <c r="M23">
+        <v>51.8278</v>
       </c>
       <c r="N23">
-        <v>13.4144</v>
+        <v>17.1602</v>
       </c>
       <c r="O23">
-        <v>19.9206</v>
+        <v>24.0765</v>
       </c>
       <c r="P23">
-        <v>40.3177</v>
+        <v>42.97110000000001</v>
       </c>
       <c r="Q23">
-        <v>53.0578</v>
+        <v>51.8294</v>
       </c>
       <c r="R23">
-        <v>99.9988</v>
+        <v>100.003</v>
       </c>
       <c r="S23">
-        <v>37.2599</v>
+        <v>41.1412</v>
       </c>
       <c r="T23">
-        <v>40.3177</v>
+        <v>42.97110000000001</v>
       </c>
       <c r="U23">
-        <v>19.9206</v>
+        <v>24.0765</v>
       </c>
       <c r="V23">
-        <v>12.4749</v>
+        <v>19.0688</v>
       </c>
       <c r="W23">
-        <v>13.0111</v>
+        <v>14.7758</v>
       </c>
       <c r="X23">
-        <v>13.4161</v>
+        <v>17.1677</v>
       </c>
       <c r="Y23">
-        <v>13.4161</v>
+        <v>17.1677</v>
       </c>
       <c r="Z23">
-        <v>13.4144</v>
+        <v>17.1602</v>
       </c>
       <c r="AA23">
-        <v>15.041</v>
+        <v>18.9208</v>
       </c>
       <c r="AB23">
-        <v>9.49661</v>
+        <v>12.8822</v>
       </c>
       <c r="AC23">
-        <v>9.06686</v>
+        <v>11.0082</v>
       </c>
       <c r="AD23">
-        <v>10.2411</v>
+        <v>13.0752</v>
       </c>
       <c r="AE23">
-        <v>10.2411</v>
+        <v>13.0752</v>
       </c>
       <c r="AF23">
-        <v>10.2411</v>
+        <v>13.0752</v>
       </c>
       <c r="AG23">
-        <v>0.6824480000000001</v>
+        <v>0.697715</v>
       </c>
       <c r="AH23">
-        <v>0.274747</v>
+        <v>0.189342</v>
       </c>
       <c r="AI23">
-        <v>0.0619624</v>
-      </c>
-      <c r="AJ23">
-        <v>0.0554791</v>
-      </c>
-      <c r="AK23">
-        <v>0.0598012</v>
-      </c>
-      <c r="AL23">
-        <v>0.0649975</v>
-      </c>
-      <c r="AM23">
-        <v>0.03271669999999999</v>
+        <v>6.91335E-05</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN23">
-        <v>0.213146</v>
+        <v>0.190532</v>
       </c>
       <c r="AO23">
-        <v>882.7660000000001</v>
+        <v>879.224</v>
       </c>
       <c r="AP23">
-        <v>836.452</v>
+        <v>835.5</v>
       </c>
       <c r="AQ23">
-        <v>898.852</v>
+        <v>898.7710000000001</v>
       </c>
       <c r="AR23">
-        <v>752.8820000000001</v>
+        <v>756.77</v>
       </c>
       <c r="AS23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT23">
-        <v>726.347</v>
+        <v>724.172</v>
       </c>
       <c r="AU23">
-        <v>789.123</v>
+        <v>787.898</v>
       </c>
       <c r="AV23">
-        <v>742.6850000000001</v>
+        <v>742.51</v>
       </c>
       <c r="AW23">
-        <v>805.9430000000001</v>
+        <v>808.5960000000001</v>
       </c>
       <c r="AX23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:50">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M24">
-        <v>52.5754</v>
+        <v>52.2337</v>
       </c>
       <c r="N24">
-        <v>10.1956</v>
+        <v>13.6805</v>
       </c>
       <c r="O24">
-        <v>16.6869</v>
+        <v>20.9005</v>
       </c>
       <c r="P24">
-        <v>31.2152</v>
+        <v>34.8626</v>
       </c>
       <c r="Q24">
-        <v>52.5754</v>
+        <v>52.2351</v>
       </c>
       <c r="R24">
-        <v>100</v>
+        <v>100.003</v>
       </c>
       <c r="S24">
-        <v>28.64</v>
+        <v>32.6279</v>
       </c>
       <c r="T24">
-        <v>31.2152</v>
+        <v>34.8626</v>
       </c>
       <c r="U24">
-        <v>16.6869</v>
+        <v>20.9005</v>
       </c>
       <c r="V24">
-        <v>9.742979999999999</v>
+        <v>16.1208</v>
       </c>
       <c r="W24">
-        <v>9.806940000000001</v>
+        <v>12.6089</v>
       </c>
       <c r="X24">
-        <v>10.1956</v>
+        <v>13.6806</v>
       </c>
       <c r="Y24">
-        <v>10.1956</v>
+        <v>13.6806</v>
       </c>
       <c r="Z24">
-        <v>10.1956</v>
+        <v>13.6805</v>
       </c>
       <c r="AA24">
-        <v>14.0683</v>
+        <v>18.8262</v>
       </c>
       <c r="AB24">
-        <v>7.84624</v>
+        <v>12.2656</v>
       </c>
       <c r="AC24">
-        <v>7.436250000000001</v>
+        <v>9.98254</v>
       </c>
       <c r="AD24">
-        <v>8.37913</v>
+        <v>11.3064</v>
       </c>
       <c r="AE24">
-        <v>8.37913</v>
+        <v>11.3064</v>
       </c>
       <c r="AF24">
-        <v>8.37913</v>
+        <v>11.3064</v>
       </c>
       <c r="AG24">
-        <v>0.833236</v>
+        <v>0.849251</v>
       </c>
       <c r="AH24">
-        <v>0.411076</v>
+        <v>0.24885</v>
       </c>
       <c r="AI24">
-        <v>0.139058</v>
-      </c>
-      <c r="AJ24">
-        <v>0.072362</v>
-      </c>
-      <c r="AK24">
-        <v>0.0771908</v>
-      </c>
-      <c r="AL24">
-        <v>0.0819351</v>
-      </c>
-      <c r="AM24">
-        <v>0.0405898</v>
+        <v>0.000105637</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN24">
-        <v>0.272275</v>
+        <v>0.24991</v>
       </c>
       <c r="AO24">
-        <v>879.651</v>
+        <v>876.58</v>
       </c>
       <c r="AP24">
-        <v>832.009</v>
+        <v>831.526</v>
       </c>
       <c r="AQ24">
-        <v>891.4110000000001</v>
+        <v>892.307</v>
       </c>
       <c r="AR24">
-        <v>744.265</v>
+        <v>748.2570000000001</v>
       </c>
       <c r="AS24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT24">
-        <v>724.324</v>
+        <v>722.4929999999999</v>
       </c>
       <c r="AU24">
-        <v>784.3530000000001</v>
+        <v>783.9359999999999</v>
       </c>
       <c r="AV24">
-        <v>736.792</v>
+        <v>737.138</v>
       </c>
       <c r="AW24">
-        <v>796.84</v>
+        <v>800.4879999999999</v>
       </c>
       <c r="AX24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:50">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M25">
-        <v>52.3092</v>
+        <v>51.8332</v>
       </c>
       <c r="N25">
-        <v>14.1074</v>
+        <v>17.9061</v>
       </c>
       <c r="O25">
-        <v>21.3184</v>
+        <v>26.4891</v>
       </c>
       <c r="P25">
-        <v>38.7495</v>
+        <v>41.93770000000001</v>
       </c>
       <c r="Q25">
-        <v>52.3104</v>
+        <v>51.8328</v>
       </c>
       <c r="R25">
-        <v>100.002</v>
+        <v>99.99930000000001</v>
       </c>
       <c r="S25">
-        <v>36.4434</v>
+        <v>40.1049</v>
       </c>
       <c r="T25">
-        <v>38.7495</v>
+        <v>41.93770000000001</v>
       </c>
       <c r="U25">
-        <v>21.3184</v>
+        <v>26.4891</v>
       </c>
       <c r="V25">
-        <v>13.7623</v>
+        <v>20.8731</v>
       </c>
       <c r="W25">
-        <v>13.8437</v>
+        <v>16.256</v>
       </c>
       <c r="X25">
-        <v>14.1068</v>
+        <v>17.9105</v>
       </c>
       <c r="Y25">
-        <v>14.1068</v>
+        <v>17.9105</v>
       </c>
       <c r="Z25">
-        <v>14.1074</v>
+        <v>17.9061</v>
       </c>
       <c r="AA25">
-        <v>17.0183</v>
+        <v>22.8844</v>
       </c>
       <c r="AB25">
-        <v>10.9105</v>
+        <v>15.8028</v>
       </c>
       <c r="AC25">
-        <v>10.4551</v>
+        <v>12.7644</v>
       </c>
       <c r="AD25">
-        <v>11.5982</v>
+        <v>14.6425</v>
       </c>
       <c r="AE25">
-        <v>11.5982</v>
+        <v>14.6425</v>
       </c>
       <c r="AF25">
-        <v>11.5982</v>
+        <v>14.6425</v>
       </c>
       <c r="AG25">
-        <v>0.679207</v>
+        <v>0.690868</v>
       </c>
       <c r="AH25">
-        <v>0.336018</v>
+        <v>0.219164</v>
       </c>
       <c r="AI25">
-        <v>0.111727</v>
-      </c>
-      <c r="AJ25">
-        <v>0.0588929</v>
-      </c>
-      <c r="AK25">
-        <v>0.06516520000000001</v>
-      </c>
-      <c r="AL25">
-        <v>0.06807640000000001</v>
-      </c>
-      <c r="AM25">
-        <v>0.0336372</v>
+        <v>0.010946</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN25">
-        <v>0.24316</v>
+        <v>0.218263</v>
       </c>
       <c r="AO25">
-        <v>881.5630000000001</v>
+        <v>877.967</v>
       </c>
       <c r="AP25">
-        <v>835.773</v>
+        <v>834.7470000000001</v>
       </c>
       <c r="AQ25">
-        <v>897.2330000000001</v>
+        <v>897.501</v>
       </c>
       <c r="AR25">
-        <v>752.072</v>
+        <v>755.73</v>
       </c>
       <c r="AS25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT25">
-        <v>725.923</v>
+        <v>723.5600000000001</v>
       </c>
       <c r="AU25">
-        <v>787.6950000000001</v>
+        <v>786.746</v>
       </c>
       <c r="AV25">
-        <v>742.105</v>
+        <v>741.854</v>
       </c>
       <c r="AW25">
-        <v>804.374</v>
+        <v>807.563</v>
       </c>
       <c r="AX25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:50">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M26">
-        <v>52.0807</v>
+        <v>52.0613</v>
       </c>
       <c r="N26">
-        <v>11.374</v>
+        <v>15.025</v>
       </c>
       <c r="O26">
-        <v>18.6051</v>
+        <v>23.9554</v>
       </c>
       <c r="P26">
-        <v>31.725</v>
+        <v>35.9415</v>
       </c>
       <c r="Q26">
-        <v>52.0824</v>
+        <v>52.0596</v>
       </c>
       <c r="R26">
-        <v>100.003</v>
+        <v>99.9969</v>
       </c>
       <c r="S26">
-        <v>29.6424</v>
+        <v>33.881</v>
       </c>
       <c r="T26">
-        <v>31.725</v>
+        <v>35.9415</v>
       </c>
       <c r="U26">
-        <v>18.6051</v>
+        <v>23.9554</v>
       </c>
       <c r="V26">
-        <v>11.3178</v>
+        <v>18.426</v>
       </c>
       <c r="W26">
-        <v>11.0585</v>
+        <v>14.4345</v>
       </c>
       <c r="X26">
-        <v>11.4116</v>
+        <v>15.0291</v>
       </c>
       <c r="Y26">
-        <v>11.4116</v>
+        <v>15.0291</v>
       </c>
       <c r="Z26">
-        <v>11.374</v>
+        <v>15.025</v>
       </c>
       <c r="AA26">
-        <v>15.8866</v>
+        <v>21.5805</v>
       </c>
       <c r="AB26">
-        <v>9.37021</v>
+        <v>15.073</v>
       </c>
       <c r="AC26">
-        <v>8.808370000000002</v>
+        <v>11.7528</v>
       </c>
       <c r="AD26">
-        <v>9.754470000000001</v>
+        <v>12.9177</v>
       </c>
       <c r="AE26">
-        <v>9.754470000000001</v>
+        <v>12.9177</v>
       </c>
       <c r="AF26">
-        <v>9.754470000000001</v>
+        <v>12.9177</v>
       </c>
       <c r="AG26">
-        <v>0.829974</v>
+        <v>0.842552</v>
       </c>
       <c r="AH26">
-        <v>0.47458</v>
+        <v>0.289989</v>
       </c>
       <c r="AI26">
-        <v>0.185194</v>
-      </c>
-      <c r="AJ26">
-        <v>0.077876</v>
-      </c>
-      <c r="AK26">
-        <v>0.0851317</v>
-      </c>
-      <c r="AL26">
-        <v>0.08601490000000001</v>
-      </c>
-      <c r="AM26">
-        <v>0.041936</v>
+        <v>0.0121917</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN26">
-        <v>0.310232</v>
+        <v>0.289079</v>
       </c>
       <c r="AO26">
-        <v>879.2049999999999</v>
+        <v>876.0400000000001</v>
       </c>
       <c r="AP26">
-        <v>832.3380000000001</v>
+        <v>831.947</v>
       </c>
       <c r="AQ26">
-        <v>891.528</v>
+        <v>892.837</v>
       </c>
       <c r="AR26">
-        <v>745.2719999999999</v>
+        <v>749.502</v>
       </c>
       <c r="AS26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT26">
-        <v>724.465</v>
+        <v>722.516</v>
       </c>
       <c r="AU26">
-        <v>784.143</v>
+        <v>783.924</v>
       </c>
       <c r="AV26">
-        <v>737.5070000000001</v>
+        <v>738.038</v>
       </c>
       <c r="AW26">
-        <v>797.35</v>
+        <v>801.567</v>
       </c>
       <c r="AX26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:50">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
-      </c>
-      <c r="M27" s="4">
-        <v>46.4858</v>
+        <v>74</v>
+      </c>
+      <c r="M27">
+        <v>48.8902</v>
       </c>
       <c r="N27">
-        <v>13.0329</v>
+        <v>15.9443</v>
       </c>
       <c r="O27">
-        <v>19.7086</v>
+        <v>22.8242</v>
       </c>
       <c r="P27">
-        <v>40.7581</v>
+        <v>40.935</v>
       </c>
       <c r="Q27">
-        <v>46.4839</v>
+        <v>48.8911</v>
       </c>
       <c r="R27">
-        <v>99.996</v>
+        <v>100.002</v>
       </c>
       <c r="S27">
-        <v>40.7581</v>
+        <v>40.935</v>
       </c>
       <c r="T27">
-        <v>37.2423</v>
+        <v>39.8277</v>
       </c>
       <c r="U27">
-        <v>15.29</v>
+        <v>16.8431</v>
       </c>
       <c r="V27">
-        <v>9.90291</v>
+        <v>13.625</v>
       </c>
       <c r="W27">
-        <v>9.415649999999999</v>
+        <v>11.0469</v>
       </c>
       <c r="X27">
-        <v>10.4641</v>
+        <v>12.3904</v>
       </c>
       <c r="Y27">
-        <v>10.4641</v>
+        <v>12.3904</v>
       </c>
       <c r="Z27">
-        <v>10.4664</v>
+        <v>12.3894</v>
       </c>
       <c r="AA27">
-        <v>19.7086</v>
+        <v>22.8242</v>
       </c>
       <c r="AB27">
-        <v>11.5898</v>
+        <v>16.5572</v>
       </c>
       <c r="AC27">
-        <v>12.2036</v>
+        <v>12.3683</v>
       </c>
       <c r="AD27">
-        <v>13.0329</v>
+        <v>15.9443</v>
       </c>
       <c r="AE27">
-        <v>13.0329</v>
+        <v>15.9443</v>
       </c>
       <c r="AF27">
-        <v>13.0329</v>
+        <v>15.9443</v>
       </c>
       <c r="AG27">
-        <v>0.682521</v>
+        <v>0.699488</v>
       </c>
       <c r="AH27">
-        <v>0.272214</v>
+        <v>0.195696</v>
       </c>
       <c r="AI27">
-        <v>0.0592285</v>
-      </c>
-      <c r="AJ27">
-        <v>0.0553023</v>
-      </c>
-      <c r="AK27">
-        <v>0.0595474</v>
-      </c>
-      <c r="AL27">
-        <v>0.0649766</v>
-      </c>
-      <c r="AM27">
-        <v>0.0331608</v>
+        <v>8.50069E-05</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN27">
-        <v>0.213111</v>
+        <v>0.196713</v>
       </c>
       <c r="AO27">
-        <v>877.1540000000001</v>
+        <v>874.131</v>
       </c>
       <c r="AP27">
-        <v>839.4630000000001</v>
+        <v>837.13</v>
       </c>
       <c r="AQ27">
-        <v>893.3679999999999</v>
+        <v>892.7470000000001</v>
       </c>
       <c r="AR27">
-        <v>756.38</v>
+        <v>756.561</v>
       </c>
       <c r="AS27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT27">
-        <v>732.498</v>
+        <v>729.6420000000001</v>
       </c>
       <c r="AU27">
-        <v>786.643</v>
+        <v>785.399</v>
       </c>
       <c r="AV27">
-        <v>748.586</v>
+        <v>746.7860000000001</v>
       </c>
       <c r="AW27">
-        <v>802.8670000000001</v>
+        <v>805.453</v>
       </c>
       <c r="AX27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:50">
       <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
         <v>116</v>
       </c>
-      <c r="B28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>115</v>
-      </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
         <v>57</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M28">
-        <v>47.242</v>
+        <v>48.9347</v>
       </c>
       <c r="N28">
-        <v>10.0964</v>
+        <v>12.7815</v>
       </c>
       <c r="O28">
-        <v>16.6752</v>
+        <v>19.7122</v>
       </c>
       <c r="P28">
-        <v>31.5845</v>
+        <v>32.841</v>
       </c>
       <c r="Q28">
-        <v>47.2418</v>
+        <v>48.93380000000001</v>
       </c>
       <c r="R28">
-        <v>99.9996</v>
+        <v>99.9982</v>
       </c>
       <c r="S28">
-        <v>31.5845</v>
+        <v>32.841</v>
       </c>
       <c r="T28">
-        <v>28.827</v>
+        <v>31.7744</v>
       </c>
       <c r="U28">
-        <v>14.2622</v>
+        <v>16.873</v>
       </c>
       <c r="V28">
-        <v>8.138710000000001</v>
+        <v>12.9767</v>
       </c>
       <c r="W28">
-        <v>7.719110000000001</v>
+        <v>9.939760000000001</v>
       </c>
       <c r="X28">
-        <v>8.543100000000001</v>
+        <v>10.5924</v>
       </c>
       <c r="Y28">
-        <v>8.543100000000001</v>
+        <v>10.5924</v>
       </c>
       <c r="Z28">
-        <v>8.539260000000001</v>
+        <v>10.5859</v>
       </c>
       <c r="AA28">
-        <v>16.6752</v>
+        <v>19.7122</v>
       </c>
       <c r="AB28">
-        <v>9.231199999999999</v>
+        <v>13.958</v>
       </c>
       <c r="AC28">
-        <v>9.365259999999999</v>
+        <v>10.4468</v>
       </c>
       <c r="AD28">
-        <v>10.0964</v>
+        <v>12.7815</v>
       </c>
       <c r="AE28">
-        <v>10.0964</v>
+        <v>12.7815</v>
       </c>
       <c r="AF28">
-        <v>10.0964</v>
+        <v>12.7815</v>
       </c>
       <c r="AG28">
-        <v>0.833201</v>
+        <v>0.850672</v>
       </c>
       <c r="AH28">
-        <v>0.412695</v>
+        <v>0.255275</v>
       </c>
       <c r="AI28">
-        <v>0.141042</v>
-      </c>
-      <c r="AJ28">
-        <v>0.0719195</v>
-      </c>
-      <c r="AK28">
-        <v>0.0768456</v>
-      </c>
-      <c r="AL28">
-        <v>0.0817956</v>
-      </c>
-      <c r="AM28">
-        <v>0.0411184</v>
+        <v>0.000115102</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN28">
-        <v>0.271839</v>
+        <v>0.256582</v>
       </c>
       <c r="AO28">
-        <v>874.956</v>
+        <v>872.354</v>
       </c>
       <c r="AP28">
-        <v>834.578</v>
+        <v>833.12</v>
       </c>
       <c r="AQ28">
-        <v>887.3860000000001</v>
+        <v>887.4710000000001</v>
       </c>
       <c r="AR28">
-        <v>747.212</v>
+        <v>748.4649999999999</v>
       </c>
       <c r="AS28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT28">
-        <v>729.434</v>
+        <v>727.053</v>
       </c>
       <c r="AU28">
-        <v>782.2460000000001</v>
+        <v>781.59</v>
       </c>
       <c r="AV28">
-        <v>741.274</v>
+        <v>740.499</v>
       </c>
       <c r="AW28">
-        <v>794.452</v>
+        <v>797.3990000000001</v>
       </c>
       <c r="AX28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:50">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H29" t="s">
         <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
-      </c>
-      <c r="M29" s="4">
-        <v>46.6733</v>
+        <v>74</v>
+      </c>
+      <c r="M29">
+        <v>48.7668</v>
       </c>
       <c r="N29">
-        <v>14.4595</v>
+        <v>17.4256</v>
       </c>
       <c r="O29">
-        <v>21.8014</v>
+        <v>24.814</v>
       </c>
       <c r="P29">
-        <v>39.7068</v>
+        <v>40.3929</v>
       </c>
       <c r="Q29">
-        <v>46.6746</v>
+        <v>48.7672</v>
       </c>
       <c r="R29">
-        <v>100.003</v>
+        <v>100.001</v>
       </c>
       <c r="S29">
-        <v>39.7068</v>
+        <v>40.3929</v>
       </c>
       <c r="T29">
-        <v>36.3768</v>
+        <v>39.15880000000001</v>
       </c>
       <c r="U29">
-        <v>17.2845</v>
+        <v>20.7008</v>
       </c>
       <c r="V29">
-        <v>11.3558</v>
+        <v>16.359</v>
       </c>
       <c r="W29">
-        <v>10.7244</v>
+        <v>12.7289</v>
       </c>
       <c r="X29">
-        <v>11.6743</v>
+        <v>13.6774</v>
       </c>
       <c r="Y29">
-        <v>11.6743</v>
+        <v>13.6774</v>
       </c>
       <c r="Z29">
-        <v>11.6748</v>
+        <v>13.6822</v>
       </c>
       <c r="AA29">
-        <v>21.8014</v>
+        <v>24.814</v>
       </c>
       <c r="AB29">
-        <v>13.346</v>
+        <v>18.808</v>
       </c>
       <c r="AC29">
-        <v>13.6262</v>
+        <v>14.1981</v>
       </c>
       <c r="AD29">
-        <v>14.4595</v>
+        <v>17.4256</v>
       </c>
       <c r="AE29">
-        <v>14.4595</v>
+        <v>17.4256</v>
       </c>
       <c r="AF29">
-        <v>14.4595</v>
+        <v>17.4256</v>
       </c>
       <c r="AG29">
-        <v>0.6792010000000001</v>
+        <v>0.691847</v>
       </c>
       <c r="AH29">
-        <v>0.355219</v>
+        <v>0.232572</v>
       </c>
       <c r="AI29">
-        <v>0.131081</v>
-      </c>
-      <c r="AJ29">
-        <v>0.0584868</v>
-      </c>
-      <c r="AK29">
-        <v>0.0651718</v>
-      </c>
-      <c r="AL29">
-        <v>0.06812739999999999</v>
-      </c>
-      <c r="AM29">
-        <v>0.0341353</v>
+        <v>0.0189613</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN29">
-        <v>0.248321</v>
+        <v>0.229431</v>
       </c>
       <c r="AO29">
-        <v>875.796</v>
+        <v>872.6070000000001</v>
       </c>
       <c r="AP29">
-        <v>838.378</v>
+        <v>836.3579999999999</v>
       </c>
       <c r="AQ29">
-        <v>892.0940000000001</v>
+        <v>891.638</v>
       </c>
       <c r="AR29">
-        <v>755.33</v>
+        <v>756.019</v>
       </c>
       <c r="AS29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT29">
-        <v>732.1469999999999</v>
+        <v>729.372</v>
       </c>
       <c r="AU29">
-        <v>785.667</v>
+        <v>784.557</v>
       </c>
       <c r="AV29">
-        <v>747.913</v>
+        <v>746.5100000000001</v>
       </c>
       <c r="AW29">
-        <v>802.0020000000001</v>
+        <v>804.784</v>
       </c>
       <c r="AX29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:50">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
         <v>57</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M30">
-        <v>47.1711</v>
+        <v>48.8649</v>
       </c>
       <c r="N30">
-        <v>11.6403</v>
+        <v>14.4673</v>
       </c>
       <c r="O30">
-        <v>18.8022</v>
+        <v>22.0077</v>
       </c>
       <c r="P30">
-        <v>32.3879</v>
+        <v>34.1385</v>
       </c>
       <c r="Q30">
-        <v>47.1698</v>
+        <v>48.8655</v>
       </c>
       <c r="R30">
-        <v>99.9973</v>
+        <v>100.001</v>
       </c>
       <c r="S30">
-        <v>32.3879</v>
+        <v>34.1385</v>
       </c>
       <c r="T30">
-        <v>29.5575</v>
+        <v>33.0068</v>
       </c>
       <c r="U30">
-        <v>16.1112</v>
+        <v>20.1762</v>
       </c>
       <c r="V30">
-        <v>9.6858</v>
+        <v>15.5006</v>
       </c>
       <c r="W30">
-        <v>9.03641</v>
+        <v>11.645</v>
       </c>
       <c r="X30">
-        <v>9.781000000000001</v>
+        <v>11.9733</v>
       </c>
       <c r="Y30">
-        <v>9.781000000000001</v>
+        <v>11.9733</v>
       </c>
       <c r="Z30">
-        <v>9.78016</v>
+        <v>11.9713</v>
       </c>
       <c r="AA30">
-        <v>18.8022</v>
+        <v>22.0077</v>
       </c>
       <c r="AB30">
-        <v>10.9824</v>
+        <v>16.3757</v>
       </c>
       <c r="AC30">
-        <v>10.865</v>
+        <v>12.3593</v>
       </c>
       <c r="AD30">
-        <v>11.6403</v>
+        <v>14.4673</v>
       </c>
       <c r="AE30">
-        <v>11.6403</v>
+        <v>14.4673</v>
       </c>
       <c r="AF30">
-        <v>11.6403</v>
+        <v>14.4673</v>
       </c>
       <c r="AG30">
-        <v>0.829966</v>
+        <v>0.8436439999999999</v>
       </c>
       <c r="AH30">
-        <v>0.5170450000000001</v>
+        <v>0.305439</v>
       </c>
       <c r="AI30">
-        <v>0.228107</v>
-      </c>
-      <c r="AJ30">
-        <v>0.0771641</v>
-      </c>
-      <c r="AK30">
-        <v>0.08511569999999999</v>
-      </c>
-      <c r="AL30">
-        <v>0.08607429999999999</v>
-      </c>
-      <c r="AM30">
-        <v>0.0424677</v>
+        <v>0.0218528</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN30">
-        <v>0.316601</v>
+        <v>0.301998</v>
       </c>
       <c r="AO30">
-        <v>874.3390000000001</v>
+        <v>871.629</v>
       </c>
       <c r="AP30">
-        <v>834.638</v>
+        <v>833.373</v>
       </c>
       <c r="AQ30">
-        <v>887.461</v>
+        <v>887.9069999999999</v>
       </c>
       <c r="AR30">
-        <v>748.0120000000001</v>
+        <v>749.763</v>
       </c>
       <c r="AS30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT30">
-        <v>729.645</v>
+        <v>727.324</v>
       </c>
       <c r="AU30">
-        <v>782.216</v>
+        <v>781.8049999999999</v>
       </c>
       <c r="AV30">
-        <v>741.984</v>
+        <v>741.6</v>
       </c>
       <c r="AW30">
-        <v>795.182</v>
+        <v>798.6319999999999</v>
       </c>
       <c r="AX30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:50">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
         <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L31" t="s">
-        <v>73</v>
-      </c>
-      <c r="M31" s="4">
-        <v>46.4844</v>
+        <v>74</v>
+      </c>
+      <c r="M31">
+        <v>49.05</v>
       </c>
       <c r="N31">
-        <v>12.95</v>
+        <v>16.7908</v>
       </c>
       <c r="O31">
-        <v>19.7072</v>
+        <v>23.5228</v>
       </c>
       <c r="P31">
-        <v>40.7086</v>
+        <v>42.0196</v>
       </c>
       <c r="Q31">
-        <v>46.4845</v>
+        <v>49.0492</v>
       </c>
       <c r="R31">
-        <v>100</v>
+        <v>99.9983</v>
       </c>
       <c r="S31">
-        <v>40.7086</v>
+        <v>42.0196</v>
       </c>
       <c r="T31">
-        <v>37.19</v>
+        <v>41.06950000000001</v>
       </c>
       <c r="U31">
-        <v>15.2853</v>
+        <v>16.9295</v>
       </c>
       <c r="V31">
-        <v>9.88701</v>
+        <v>14.6602</v>
       </c>
       <c r="W31">
-        <v>9.416729999999999</v>
+        <v>11.8718</v>
       </c>
       <c r="X31">
-        <v>10.434</v>
+        <v>13.1559</v>
       </c>
       <c r="Y31">
-        <v>10.434</v>
+        <v>13.1559</v>
       </c>
       <c r="Z31">
-        <v>10.4314</v>
+        <v>13.1608</v>
       </c>
       <c r="AA31">
-        <v>19.7072</v>
+        <v>23.5228</v>
       </c>
       <c r="AB31">
-        <v>11.5889</v>
+        <v>17.336</v>
       </c>
       <c r="AC31">
-        <v>12.2065</v>
+        <v>13.1606</v>
       </c>
       <c r="AD31">
-        <v>12.95</v>
+        <v>16.7908</v>
       </c>
       <c r="AE31">
-        <v>12.95</v>
+        <v>16.7908</v>
       </c>
       <c r="AF31">
-        <v>12.95</v>
+        <v>16.7908</v>
       </c>
       <c r="AG31">
-        <v>0.682555</v>
+        <v>0.698273</v>
       </c>
       <c r="AH31">
-        <v>0.271988</v>
+        <v>0.190332</v>
       </c>
       <c r="AI31">
-        <v>0.0592285</v>
-      </c>
-      <c r="AJ31">
-        <v>0.0553</v>
-      </c>
-      <c r="AK31">
-        <v>0.0595652</v>
-      </c>
-      <c r="AL31">
-        <v>0.06497130000000001</v>
-      </c>
-      <c r="AM31">
-        <v>0.0329238</v>
+        <v>8.500680000000001E-05</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN31">
-        <v>0.212884</v>
+        <v>0.191374</v>
       </c>
       <c r="AO31">
-        <v>877.153</v>
+        <v>873.7420000000001</v>
       </c>
       <c r="AP31">
-        <v>839.4630000000001</v>
+        <v>837.269</v>
       </c>
       <c r="AQ31">
-        <v>893.37</v>
+        <v>893.1660000000001</v>
       </c>
       <c r="AR31">
-        <v>756.3349999999999</v>
+        <v>757.643</v>
       </c>
       <c r="AS31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT31">
-        <v>732.4930000000001</v>
+        <v>729.5640000000001</v>
       </c>
       <c r="AU31">
-        <v>786.639</v>
+        <v>785.6080000000001</v>
       </c>
       <c r="AV31">
-        <v>748.591</v>
+        <v>747.263</v>
       </c>
       <c r="AW31">
-        <v>802.8150000000001</v>
+        <v>806.6949999999999</v>
       </c>
       <c r="AX31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:50">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
         <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M32">
-        <v>47.2424</v>
+        <v>49.0569</v>
       </c>
       <c r="N32">
-        <v>10.0359</v>
+        <v>13.618</v>
       </c>
       <c r="O32">
-        <v>16.6712</v>
+        <v>20.4433</v>
       </c>
       <c r="P32">
-        <v>31.5418</v>
+        <v>33.9922</v>
       </c>
       <c r="Q32">
-        <v>47.2415</v>
+        <v>49.057</v>
       </c>
       <c r="R32">
-        <v>99.9982</v>
+        <v>100</v>
       </c>
       <c r="S32">
-        <v>31.5418</v>
+        <v>33.9922</v>
       </c>
       <c r="T32">
-        <v>28.7846</v>
+        <v>33.0501</v>
       </c>
       <c r="U32">
-        <v>14.2576</v>
+        <v>17.0656</v>
       </c>
       <c r="V32">
-        <v>8.13902</v>
+        <v>14.0306</v>
       </c>
       <c r="W32">
-        <v>7.719480000000001</v>
+        <v>10.835</v>
       </c>
       <c r="X32">
-        <v>8.505649999999999</v>
+        <v>11.3604</v>
       </c>
       <c r="Y32">
-        <v>8.505649999999999</v>
+        <v>11.3604</v>
       </c>
       <c r="Z32">
-        <v>8.50723</v>
+        <v>11.3604</v>
       </c>
       <c r="AA32">
-        <v>16.6712</v>
+        <v>20.4433</v>
       </c>
       <c r="AB32">
-        <v>9.23179</v>
+        <v>14.7714</v>
       </c>
       <c r="AC32">
-        <v>9.36731</v>
+        <v>11.3077</v>
       </c>
       <c r="AD32">
-        <v>10.0359</v>
+        <v>13.618</v>
       </c>
       <c r="AE32">
-        <v>10.0359</v>
+        <v>13.618</v>
       </c>
       <c r="AF32">
-        <v>10.0359</v>
+        <v>13.618</v>
       </c>
       <c r="AG32">
-        <v>0.833218</v>
+        <v>0.849665</v>
       </c>
       <c r="AH32">
-        <v>0.412393</v>
+        <v>0.249553</v>
       </c>
       <c r="AI32">
-        <v>0.141042</v>
-      </c>
-      <c r="AJ32">
-        <v>0.0719152</v>
-      </c>
-      <c r="AK32">
-        <v>0.0768365</v>
-      </c>
-      <c r="AL32">
-        <v>0.0817996</v>
-      </c>
-      <c r="AM32">
-        <v>0.0408259</v>
+        <v>0.000115102</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN32">
-        <v>0.271537</v>
+        <v>0.250999</v>
       </c>
       <c r="AO32">
-        <v>874.9580000000001</v>
+        <v>872.001</v>
       </c>
       <c r="AP32">
-        <v>834.58</v>
+        <v>833.3199999999999</v>
       </c>
       <c r="AQ32">
-        <v>887.3850000000001</v>
+        <v>887.965</v>
       </c>
       <c r="AR32">
-        <v>747.169</v>
+        <v>749.616</v>
       </c>
       <c r="AS32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT32">
-        <v>729.433</v>
+        <v>727.005</v>
       </c>
       <c r="AU32">
-        <v>782.244</v>
+        <v>781.852</v>
       </c>
       <c r="AV32">
-        <v>741.273</v>
+        <v>741.043</v>
       </c>
       <c r="AW32">
-        <v>794.4100000000001</v>
+        <v>798.6750000000001</v>
       </c>
       <c r="AX32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:50">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
-        <v>73</v>
-      </c>
-      <c r="M33" s="4">
-        <v>46.6613</v>
+        <v>74</v>
+      </c>
+      <c r="M33">
+        <v>48.9374</v>
       </c>
       <c r="N33">
-        <v>14.3764</v>
+        <v>18.3266</v>
       </c>
       <c r="O33">
-        <v>21.8</v>
+        <v>25.4934</v>
       </c>
       <c r="P33">
-        <v>39.6598</v>
+        <v>41.4788</v>
       </c>
       <c r="Q33">
-        <v>46.66</v>
+        <v>48.9372</v>
       </c>
       <c r="R33">
-        <v>99.9971</v>
+        <v>99.9995</v>
       </c>
       <c r="S33">
-        <v>39.6598</v>
+        <v>41.4788</v>
       </c>
       <c r="T33">
-        <v>36.3196</v>
+        <v>40.4143</v>
       </c>
       <c r="U33">
-        <v>17.2895</v>
+        <v>20.889</v>
       </c>
       <c r="V33">
-        <v>11.3595</v>
+        <v>17.4611</v>
       </c>
       <c r="W33">
-        <v>10.7222</v>
+        <v>13.6491</v>
       </c>
       <c r="X33">
-        <v>11.6356</v>
+        <v>14.5178</v>
       </c>
       <c r="Y33">
-        <v>11.6356</v>
+        <v>14.5178</v>
       </c>
       <c r="Z33">
-        <v>11.6343</v>
+        <v>14.5146</v>
       </c>
       <c r="AA33">
-        <v>21.8</v>
+        <v>25.4934</v>
       </c>
       <c r="AB33">
-        <v>13.3472</v>
+        <v>19.6535</v>
       </c>
       <c r="AC33">
-        <v>13.6249</v>
+        <v>15.1029</v>
       </c>
       <c r="AD33">
-        <v>14.3764</v>
+        <v>18.3266</v>
       </c>
       <c r="AE33">
-        <v>14.3764</v>
+        <v>18.3266</v>
       </c>
       <c r="AF33">
-        <v>14.3764</v>
+        <v>18.3266</v>
       </c>
       <c r="AG33">
-        <v>0.679214</v>
+        <v>0.691095</v>
       </c>
       <c r="AH33">
-        <v>0.355014</v>
+        <v>0.228082</v>
       </c>
       <c r="AI33">
-        <v>0.131081</v>
-      </c>
-      <c r="AJ33">
-        <v>0.0585073</v>
-      </c>
-      <c r="AK33">
-        <v>0.0651601</v>
-      </c>
-      <c r="AL33">
-        <v>0.0681348</v>
-      </c>
-      <c r="AM33">
-        <v>0.0339141</v>
+        <v>0.0189596</v>
+      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN33">
-        <v>0.248115</v>
+        <v>0.225115</v>
       </c>
       <c r="AO33">
-        <v>875.794</v>
+        <v>872.173</v>
       </c>
       <c r="AP33">
-        <v>838.381</v>
+        <v>836.477</v>
       </c>
       <c r="AQ33">
-        <v>892.088</v>
+        <v>892.058</v>
       </c>
       <c r="AR33">
-        <v>755.282</v>
+        <v>757.1030000000001</v>
       </c>
       <c r="AS33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT33">
-        <v>732.148</v>
+        <v>729.2810000000001</v>
       </c>
       <c r="AU33">
-        <v>785.667</v>
+        <v>784.772</v>
       </c>
       <c r="AV33">
-        <v>747.915</v>
+        <v>747.001</v>
       </c>
       <c r="AW33">
-        <v>801.9449999999999</v>
+        <v>806.0390000000001</v>
       </c>
       <c r="AX33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:50">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
         <v>57</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M34">
-        <v>47.1642</v>
+        <v>49.0081</v>
       </c>
       <c r="N34">
-        <v>11.6084</v>
+        <v>15.3705</v>
       </c>
       <c r="O34">
-        <v>18.7926</v>
+        <v>22.7632</v>
       </c>
       <c r="P34">
-        <v>32.3458</v>
+        <v>35.3481</v>
       </c>
       <c r="Q34">
-        <v>47.1648</v>
+        <v>49.008</v>
       </c>
       <c r="R34">
-        <v>100.001</v>
+        <v>99.9999</v>
       </c>
       <c r="S34">
-        <v>32.3458</v>
+        <v>35.3481</v>
       </c>
       <c r="T34">
-        <v>29.5091</v>
+        <v>34.3561</v>
       </c>
       <c r="U34">
-        <v>16.1135</v>
+        <v>20.3953</v>
       </c>
       <c r="V34">
-        <v>9.694189999999999</v>
+        <v>16.5862</v>
       </c>
       <c r="W34">
-        <v>9.03853</v>
+        <v>12.6585</v>
       </c>
       <c r="X34">
-        <v>9.748860000000001</v>
+        <v>12.8132</v>
       </c>
       <c r="Y34">
-        <v>9.748860000000001</v>
+        <v>12.8132</v>
       </c>
       <c r="Z34">
-        <v>9.749169999999999</v>
+        <v>12.8122</v>
       </c>
       <c r="AA34">
-        <v>18.7926</v>
+        <v>22.7632</v>
       </c>
       <c r="AB34">
-        <v>10.981</v>
+        <v>17.3131</v>
       </c>
       <c r="AC34">
-        <v>10.8655</v>
+        <v>13.3584</v>
       </c>
       <c r="AD34">
-        <v>11.6084</v>
+        <v>15.3705</v>
       </c>
       <c r="AE34">
-        <v>11.6084</v>
+        <v>15.3705</v>
       </c>
       <c r="AF34">
-        <v>11.6084</v>
+        <v>15.3705</v>
       </c>
       <c r="AG34">
-        <v>0.829983</v>
+        <v>0.842708</v>
       </c>
       <c r="AH34">
-        <v>0.5167929999999999</v>
+        <v>0.301589</v>
       </c>
       <c r="AI34">
-        <v>0.228107</v>
-      </c>
-      <c r="AJ34">
-        <v>0.0771666</v>
-      </c>
-      <c r="AK34">
-        <v>0.0851195</v>
-      </c>
-      <c r="AL34">
-        <v>0.08607679999999999</v>
-      </c>
-      <c r="AM34">
-        <v>0.0422072</v>
+        <v>0.0218506</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM34" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="AN34">
-        <v>0.316349</v>
+        <v>0.298039</v>
       </c>
       <c r="AO34">
-        <v>874.338</v>
+        <v>871.218</v>
       </c>
       <c r="AP34">
-        <v>834.6410000000001</v>
+        <v>833.573</v>
       </c>
       <c r="AQ34">
-        <v>887.4599999999999</v>
+        <v>888.4470000000001</v>
       </c>
       <c r="AR34">
-        <v>747.9699999999999</v>
+        <v>750.975</v>
       </c>
       <c r="AS34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT34">
-        <v>729.6460000000001</v>
+        <v>727.2810000000001</v>
       </c>
       <c r="AU34">
-        <v>782.2139999999999</v>
+        <v>782.095</v>
       </c>
       <c r="AV34">
-        <v>741.9870000000001</v>
+        <v>742.205</v>
       </c>
       <c r="AW34">
-        <v>795.134</v>
+        <v>799.981</v>
       </c>
       <c r="AX34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="1" customFormat="1">
@@ -6112,240 +6098,240 @@
     </row>
     <row r="36" spans="1:50" s="1" customFormat="1">
       <c r="L36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M36" s="4">
-        <v>46.4844</v>
+        <v>124</v>
+      </c>
+      <c r="M36" s="1">
+        <v>48.7668</v>
       </c>
       <c r="N36" s="1">
-        <v>7.64798</v>
+        <v>10.1365</v>
       </c>
       <c r="O36" s="1">
-        <v>14.4533</v>
+        <v>18.7245</v>
       </c>
       <c r="P36" s="1">
-        <v>24.388</v>
+        <v>27.9738</v>
       </c>
       <c r="Q36" s="1">
-        <v>46.4839</v>
+        <v>48.7672</v>
       </c>
       <c r="R36" s="1">
-        <v>99.99590000000001</v>
+        <v>99.996</v>
       </c>
       <c r="S36" s="1">
-        <v>24.0721</v>
+        <v>27.2877</v>
       </c>
       <c r="T36" s="1">
-        <v>24.388</v>
+        <v>27.9738</v>
       </c>
       <c r="U36" s="1">
-        <v>14.2576</v>
+        <v>16.8431</v>
       </c>
       <c r="V36" s="1">
-        <v>7.60406</v>
+        <v>12.9767</v>
       </c>
       <c r="W36" s="1">
-        <v>7.1281</v>
+        <v>9.939760000000001</v>
       </c>
       <c r="X36" s="1">
-        <v>7.64364</v>
+        <v>10.1445</v>
       </c>
       <c r="Y36" s="1">
-        <v>7.64364</v>
+        <v>10.1445</v>
       </c>
       <c r="Z36" s="1">
-        <v>7.64798</v>
+        <v>10.1365</v>
       </c>
       <c r="AA36" s="1">
-        <v>14.068</v>
+        <v>17.5596</v>
       </c>
       <c r="AB36" s="1">
-        <v>7.344550000000001</v>
+        <v>11.2809</v>
       </c>
       <c r="AC36" s="1">
-        <v>6.806640000000001</v>
+        <v>9.07404</v>
       </c>
       <c r="AD36" s="1">
-        <v>7.511240000000001</v>
+        <v>10.0678</v>
       </c>
       <c r="AE36" s="1">
-        <v>7.511240000000001</v>
+        <v>10.0678</v>
       </c>
       <c r="AF36" s="1">
-        <v>7.511240000000001</v>
+        <v>10.0678</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.677381</v>
+        <v>0.685993</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.224419</v>
+        <v>0.177352</v>
       </c>
       <c r="AI36" s="1">
-        <v>0.0204357</v>
-      </c>
-      <c r="AJ36" s="1">
-        <v>0.0521103</v>
-      </c>
-      <c r="AK36" s="1">
-        <v>0.0569602</v>
-      </c>
-      <c r="AL36" s="1">
-        <v>0.06270139999999999</v>
-      </c>
-      <c r="AM36" s="1">
-        <v>0.0324205</v>
+        <v>3.97663E-06</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.2042</v>
+        <v>0.178749</v>
       </c>
       <c r="AO36" s="1">
-        <v>874.338</v>
+        <v>871.218</v>
       </c>
       <c r="AP36" s="1">
-        <v>829.9449999999999</v>
+        <v>829.739</v>
       </c>
       <c r="AQ36" s="1">
-        <v>885.092</v>
+        <v>886.2280000000001</v>
       </c>
       <c r="AR36" s="1">
-        <v>739.694</v>
+        <v>742.913</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AT36" s="1">
-        <v>724.324</v>
+        <v>722.4929999999999</v>
       </c>
       <c r="AU36" s="1">
         <v>780.2959999999999</v>
       </c>
       <c r="AV36" s="1">
-        <v>734.415</v>
+        <v>735.168</v>
       </c>
       <c r="AW36" s="1">
-        <v>790.013</v>
+        <v>793.599</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="1" customFormat="1">
       <c r="L37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M37" s="3">
-        <v>53.0584</v>
+      <c r="M37" s="1">
+        <v>52.4643</v>
       </c>
       <c r="N37" s="1">
-        <v>16.1528</v>
+        <v>19.4689</v>
       </c>
       <c r="O37" s="1">
-        <v>21.8014</v>
+        <v>27.4972</v>
       </c>
       <c r="P37" s="1">
-        <v>53.3178</v>
+        <v>53.16079999999999</v>
       </c>
       <c r="Q37" s="1">
-        <v>53.0578</v>
+        <v>52.4655</v>
       </c>
       <c r="R37" s="1">
-        <v>100.003</v>
+        <v>100.004</v>
       </c>
       <c r="S37" s="1">
-        <v>53.3178</v>
+        <v>52.5752</v>
       </c>
       <c r="T37" s="1">
-        <v>52.3393</v>
+        <v>53.16079999999999</v>
       </c>
       <c r="U37" s="1">
-        <v>21.3223</v>
+        <v>27.237</v>
       </c>
       <c r="V37" s="1">
-        <v>15.0849</v>
+        <v>21.5278</v>
       </c>
       <c r="W37" s="1">
-        <v>15.1227</v>
+        <v>16.256</v>
       </c>
       <c r="X37" s="1">
-        <v>15.9538</v>
+        <v>19.0443</v>
       </c>
       <c r="Y37" s="1">
-        <v>15.9538</v>
+        <v>19.0443</v>
       </c>
       <c r="Z37" s="1">
-        <v>15.9538</v>
+        <v>19.0427</v>
       </c>
       <c r="AA37" s="1">
-        <v>21.8014</v>
+        <v>27.4972</v>
       </c>
       <c r="AB37" s="1">
-        <v>14.559</v>
+        <v>19.6535</v>
       </c>
       <c r="AC37" s="1">
-        <v>14.9237</v>
+        <v>15.1041</v>
       </c>
       <c r="AD37" s="1">
-        <v>16.1528</v>
+        <v>19.4689</v>
       </c>
       <c r="AE37" s="1">
-        <v>16.1528</v>
+        <v>19.4689</v>
       </c>
       <c r="AF37" s="1">
-        <v>16.1528</v>
+        <v>19.4689</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.834775</v>
+        <v>0.856118</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.706189</v>
+        <v>0.381098</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.376464</v>
-      </c>
-      <c r="AJ37" s="1">
-        <v>0.0927258</v>
-      </c>
-      <c r="AK37" s="1">
-        <v>0.102347</v>
-      </c>
-      <c r="AL37" s="1">
-        <v>0.09483209999999999</v>
-      </c>
-      <c r="AM37" s="1">
-        <v>0.0446004</v>
+        <v>0.0441107</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.3932389999999999</v>
+        <v>0.374385</v>
       </c>
       <c r="AO37" s="1">
-        <v>883.111</v>
+        <v>879.624</v>
       </c>
       <c r="AP37" s="1">
-        <v>845.345</v>
+        <v>841.306</v>
       </c>
       <c r="AQ37" s="1">
-        <v>906.2149999999999</v>
+        <v>903.777</v>
       </c>
       <c r="AR37" s="1">
-        <v>768.941</v>
+        <v>768.201</v>
       </c>
       <c r="AS37" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AT37" s="1">
-        <v>732.996</v>
+        <v>729.6420000000001</v>
       </c>
       <c r="AU37" s="1">
-        <v>794.6759999999999</v>
+        <v>791.759</v>
       </c>
       <c r="AV37" s="1">
-        <v>756.3249999999999</v>
+        <v>752.5</v>
       </c>
       <c r="AW37" s="1">
-        <v>817.9639999999999</v>
+        <v>818.7860000000001</v>
       </c>
       <c r="AX37" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="1" customFormat="1">
@@ -6388,118 +6374,118 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>49.65783333333332</v>
+        <v>50.54281818181819</v>
       </c>
       <c r="N42" s="1">
-        <v>11.80406151515152</v>
+        <v>14.91620606060606</v>
       </c>
       <c r="O42" s="1">
-        <v>18.26828484848485</v>
+        <v>22.8784</v>
       </c>
       <c r="P42" s="1">
-        <v>35.9349696969697</v>
+        <v>38.2576696969697</v>
       </c>
       <c r="Q42" s="1">
-        <v>49.65774545454546</v>
+        <v>50.54303030303032</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99978181818183</v>
+        <v>100.0004</v>
       </c>
       <c r="S42" s="1">
-        <v>35.29111818181818</v>
+        <v>37.45798787878788</v>
       </c>
       <c r="T42" s="1">
-        <v>34.94821515151516</v>
+        <v>38.00044545454545</v>
       </c>
       <c r="U42" s="1">
-        <v>17.34325454545455</v>
+        <v>21.80864848484849</v>
       </c>
       <c r="V42" s="1">
-        <v>10.82769151515152</v>
+        <v>16.89977878787879</v>
       </c>
       <c r="W42" s="1">
-        <v>10.61282515151515</v>
+        <v>12.95233272727273</v>
       </c>
       <c r="X42" s="1">
-        <v>11.25056818181818</v>
+        <v>14.1213696969697</v>
       </c>
       <c r="Y42" s="1">
-        <v>11.25056818181818</v>
+        <v>14.1213696969697</v>
       </c>
       <c r="Z42" s="1">
-        <v>11.24785151515152</v>
+        <v>14.12040606060606</v>
       </c>
       <c r="AA42" s="1">
-        <v>17.29240606060606</v>
+        <v>21.77747575757576</v>
       </c>
       <c r="AB42" s="1">
-        <v>10.39491393939394</v>
+        <v>15.29458484848485</v>
       </c>
       <c r="AC42" s="1">
-        <v>10.26837393939394</v>
+        <v>11.89251545454545</v>
       </c>
       <c r="AD42" s="1">
-        <v>11.18299787878788</v>
+        <v>14.16416666666666</v>
       </c>
       <c r="AE42" s="1">
-        <v>11.18299787878788</v>
+        <v>14.16416666666666</v>
       </c>
       <c r="AF42" s="1">
-        <v>11.18299787878788</v>
+        <v>14.16416666666666</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7562155151515152</v>
+        <v>0.7709859999999999</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.3942940606060605</v>
+        <v>0.2467573939393939</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.1418098727272727</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.06715030303030305</v>
-      </c>
-      <c r="AK42" s="1">
-        <v>0.07299397878787879</v>
-      </c>
-      <c r="AL42" s="1">
-        <v>0.07575454242424241</v>
-      </c>
-      <c r="AM42" s="1">
-        <v>0.03759684242424243</v>
+        <v>0.009154241759696969</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM42" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2657008787878788</v>
+        <v>0.246147</v>
       </c>
       <c r="AO42" s="1">
-        <v>878.3150909090911</v>
+        <v>875.1710606060607</v>
       </c>
       <c r="AP42" s="1">
-        <v>835.8313333333335</v>
+        <v>834.3931818181818</v>
       </c>
       <c r="AQ42" s="1">
-        <v>892.9274848484846</v>
+        <v>893.0141212121213</v>
       </c>
       <c r="AR42" s="1">
-        <v>750.9159393939395</v>
+        <v>753.0836666666668</v>
       </c>
       <c r="AS42" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AT42" s="1">
-        <v>728.2360000000001</v>
+        <v>725.8719696969696</v>
       </c>
       <c r="AU42" s="1">
-        <v>785.6086666666664</v>
+        <v>784.7358484848487</v>
       </c>
       <c r="AV42" s="1">
-        <v>742.9041212121214</v>
+        <v>742.2250303030303</v>
       </c>
       <c r="AW42" s="1">
-        <v>800.573212121212</v>
+        <v>803.6255151515153</v>
       </c>
       <c r="AX42" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="1" customFormat="1">
@@ -6507,118 +6493,118 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>2.005735113431613</v>
+        <v>1.113918096780948</v>
       </c>
       <c r="N43" s="1">
-        <v>2.324825119999901</v>
+        <v>2.399262854590513</v>
       </c>
       <c r="O43" s="1">
-        <v>2.146932438439779</v>
+        <v>2.284529771654499</v>
       </c>
       <c r="P43" s="1">
-        <v>7.75602906676711</v>
+        <v>6.304767098982726</v>
       </c>
       <c r="Q43" s="1">
-        <v>2.00594051863397</v>
+        <v>1.114000828160523</v>
       </c>
       <c r="R43" s="1">
-        <v>0.00199673286865265</v>
+        <v>0.00178495395068458</v>
       </c>
       <c r="S43" s="1">
-        <v>7.880251225208283</v>
+        <v>6.321132127010619</v>
       </c>
       <c r="T43" s="1">
-        <v>7.506474871013981</v>
+        <v>6.343994071995153</v>
       </c>
       <c r="U43" s="1">
-        <v>2.088338805974726</v>
+        <v>2.862587284271602</v>
       </c>
       <c r="V43" s="1">
-        <v>2.061957366173192</v>
+        <v>2.206429041873491</v>
       </c>
       <c r="W43" s="1">
-        <v>2.304001733239459</v>
+        <v>1.682452583083061</v>
       </c>
       <c r="X43" s="1">
-        <v>2.315076996816873</v>
+        <v>2.402652927240782</v>
       </c>
       <c r="Y43" s="1">
-        <v>2.315076996816873</v>
+        <v>2.402652927240782</v>
       </c>
       <c r="Z43" s="1">
-        <v>2.314780649095067</v>
+        <v>2.403685832209207</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.321632318387528</v>
+        <v>2.460871718675303</v>
       </c>
       <c r="AB43" s="1">
-        <v>1.960585162763433</v>
+        <v>2.143516057876986</v>
       </c>
       <c r="AC43" s="1">
-        <v>2.269421553986081</v>
+        <v>1.573553632616875</v>
       </c>
       <c r="AD43" s="1">
-        <v>2.336544526355309</v>
+        <v>2.461604536792122</v>
       </c>
       <c r="AE43" s="1">
-        <v>2.336544526355309</v>
+        <v>2.461604536792122</v>
       </c>
       <c r="AF43" s="1">
-        <v>2.336544526355309</v>
+        <v>2.461604536792122</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07425155720849316</v>
+        <v>0.07470606020162278</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.1209904038926953</v>
+        <v>0.05076113855192016</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.0892289932918337</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.01119578914350161</v>
-      </c>
-      <c r="AK43" s="1">
-        <v>0.01209895502334076</v>
-      </c>
-      <c r="AL43" s="1">
-        <v>0.009599313371815786</v>
-      </c>
-      <c r="AM43" s="1">
-        <v>0.004145953057740531</v>
+        <v>0.01386908836831896</v>
+      </c>
+      <c r="AJ43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM43" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.04832313369940697</v>
+        <v>0.04903706603080053</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.743443173510432</v>
+        <v>2.505926925092321</v>
       </c>
       <c r="AP43" s="1">
-        <v>4.185235532756369</v>
+        <v>2.997484192134082</v>
       </c>
       <c r="AQ43" s="1">
-        <v>5.843735589818364</v>
+        <v>4.743075544588254</v>
       </c>
       <c r="AR43" s="1">
-        <v>7.879880655685217</v>
+        <v>6.320993035077235</v>
       </c>
       <c r="AS43" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.968581418180006</v>
+        <v>2.342276249588161</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.884501158775119</v>
+        <v>3.026298880883569</v>
       </c>
       <c r="AV43" s="1">
-        <v>6.13391789749311</v>
+        <v>4.646119935346821</v>
       </c>
       <c r="AW43" s="1">
-        <v>7.506440171340445</v>
+        <v>6.343998558032293</v>
       </c>
       <c r="AX43" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:50" s="1" customFormat="1">
@@ -6626,118 +6612,118 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>4.03911121125223</v>
+        <v>2.203909747916784</v>
       </c>
       <c r="N44" s="1">
-        <v>19.69512880812922</v>
+        <v>16.08494039866481</v>
       </c>
       <c r="O44" s="1">
-        <v>11.7522386816617</v>
+        <v>9.985531206965955</v>
       </c>
       <c r="P44" s="1">
-        <v>21.58351358626902</v>
+        <v>16.47974680350725</v>
       </c>
       <c r="Q44" s="1">
-        <v>4.039532001045277</v>
+        <v>2.204064183491849</v>
       </c>
       <c r="R44" s="1">
-        <v>0.001996737225170232</v>
+        <v>0.001784946810897336</v>
       </c>
       <c r="S44" s="1">
-        <v>22.32927612157144</v>
+        <v>16.87525808237612</v>
       </c>
       <c r="T44" s="1">
-        <v>21.47885046051784</v>
+        <v>16.69452554071655</v>
       </c>
       <c r="U44" s="1">
-        <v>12.0412163732098</v>
+        <v>13.12592702046795</v>
       </c>
       <c r="V44" s="1">
-        <v>19.04337007835726</v>
+        <v>13.0559640428905</v>
       </c>
       <c r="W44" s="1">
-        <v>21.70959853145726</v>
+        <v>12.98957198297146</v>
       </c>
       <c r="X44" s="1">
-        <v>20.57742293014341</v>
+        <v>17.01430511911579</v>
       </c>
       <c r="Y44" s="1">
-        <v>20.57742293014341</v>
+        <v>17.01430511911579</v>
       </c>
       <c r="Z44" s="1">
-        <v>20.57975824073533</v>
+        <v>17.02278122804946</v>
       </c>
       <c r="AA44" s="1">
-        <v>13.42573329732554</v>
+        <v>11.30007786976522</v>
       </c>
       <c r="AB44" s="1">
-        <v>18.86100427761446</v>
+        <v>14.01486917828523</v>
       </c>
       <c r="AC44" s="1">
-        <v>22.10108014550965</v>
+        <v>13.2314617427337</v>
       </c>
       <c r="AD44" s="1">
-        <v>20.89372234244371</v>
+        <v>17.37909892422514</v>
       </c>
       <c r="AE44" s="1">
-        <v>20.89372234244371</v>
+        <v>17.37909892422514</v>
       </c>
       <c r="AF44" s="1">
-        <v>20.89372234244371</v>
+        <v>17.37909892422514</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.818835466978767</v>
+        <v>9.689677919135081</v>
       </c>
       <c r="AH44" s="1">
-        <v>30.685322448612</v>
+        <v>20.57127356612771</v>
       </c>
       <c r="AI44" s="1">
-        <v>62.92156644371155</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>16.67273063302374</v>
-      </c>
-      <c r="AK44" s="1">
-        <v>16.57527815890191</v>
-      </c>
-      <c r="AL44" s="1">
-        <v>12.67160102170175</v>
-      </c>
-      <c r="AM44" s="1">
-        <v>11.02739695785522</v>
+        <v>151.504501764197</v>
+      </c>
+      <c r="AJ44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM44" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AN44" s="1">
-        <v>18.18704323442812</v>
+        <v>19.92186215180381</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.3123529587395407</v>
+        <v>0.2863356705781557</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.5007272838247711</v>
+        <v>0.3592412135490398</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.6544468267554729</v>
+        <v>0.5311310797807207</v>
       </c>
       <c r="AR44" s="1">
-        <v>1.049369209294589</v>
+        <v>0.8393480452252406</v>
       </c>
       <c r="AS44" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.4076400257855978</v>
+        <v>0.322684488087616</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.4944575236494064</v>
+        <v>0.38564555024811</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.8256675016804346</v>
+        <v>0.6259718745203104</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.9376331930281876</v>
+        <v>0.7894222418804359</v>
       </c>
       <c r="AX44" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:50" s="1" customFormat="1"/>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -966,73 +966,73 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>50.539</v>
+        <v>50.5167</v>
       </c>
       <c r="N2">
-        <v>13.3102</v>
+        <v>13.1872</v>
       </c>
       <c r="O2">
-        <v>21.163</v>
+        <v>21.2652</v>
       </c>
       <c r="P2">
-        <v>36.3716</v>
+        <v>36.2582</v>
       </c>
       <c r="Q2">
-        <v>50.5399</v>
+        <v>50.5162</v>
       </c>
       <c r="R2">
-        <v>100.002</v>
+        <v>99.999</v>
       </c>
       <c r="S2">
-        <v>35.83390000000001</v>
+        <v>35.7421</v>
       </c>
       <c r="T2">
-        <v>36.3716</v>
+        <v>36.2582</v>
       </c>
       <c r="U2">
-        <v>21.0259</v>
+        <v>21.1124</v>
       </c>
       <c r="V2">
-        <v>16.2395</v>
+        <v>16.3528</v>
       </c>
       <c r="W2">
-        <v>12.2345</v>
+        <v>12.4868</v>
       </c>
       <c r="X2">
-        <v>13.3218</v>
+        <v>13.1869</v>
       </c>
       <c r="Y2">
-        <v>13.3218</v>
+        <v>13.1869</v>
       </c>
       <c r="Z2">
-        <v>13.3102</v>
+        <v>13.186</v>
       </c>
       <c r="AA2">
-        <v>21.163</v>
+        <v>21.2652</v>
       </c>
       <c r="AB2">
-        <v>14.5604</v>
+        <v>14.2842</v>
       </c>
       <c r="AC2">
-        <v>11.1696</v>
+        <v>11.3101</v>
       </c>
       <c r="AD2">
-        <v>13.2842</v>
+        <v>13.1872</v>
       </c>
       <c r="AE2">
-        <v>13.2842</v>
+        <v>13.1872</v>
       </c>
       <c r="AF2">
-        <v>13.2842</v>
+        <v>13.1872</v>
       </c>
       <c r="AG2">
-        <v>0.772369</v>
+        <v>0.773744</v>
       </c>
       <c r="AH2">
-        <v>0.228416</v>
+        <v>0.23236</v>
       </c>
       <c r="AI2">
-        <v>0.00039306</v>
+        <v>0.000393019</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>62</v>
@@ -1047,34 +1047,34 @@
         <v>62</v>
       </c>
       <c r="AN2">
-        <v>0.229162</v>
+        <v>0.233194</v>
       </c>
       <c r="AO2">
-        <v>875.032</v>
+        <v>875.028</v>
       </c>
       <c r="AP2">
-        <v>833.734</v>
+        <v>833.7289999999999</v>
       </c>
       <c r="AQ2">
-        <v>891.95</v>
+        <v>892.511</v>
       </c>
       <c r="AR2">
-        <v>751.461</v>
+        <v>751.3660000000001</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT2">
-        <v>725.557</v>
+        <v>725.552</v>
       </c>
       <c r="AU2">
-        <v>784.121</v>
+        <v>784.119</v>
       </c>
       <c r="AV2">
-        <v>741.079</v>
+        <v>741.605</v>
       </c>
       <c r="AW2">
-        <v>801.997</v>
+        <v>801.8829999999999</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>63</v>
@@ -1118,73 +1118,73 @@
         <v>74</v>
       </c>
       <c r="M3">
-        <v>50.4592</v>
+        <v>50.4593</v>
       </c>
       <c r="N3">
-        <v>11.6009</v>
+        <v>11.5107</v>
       </c>
       <c r="O3">
-        <v>19.5323</v>
+        <v>19.6015</v>
       </c>
       <c r="P3">
-        <v>32.4837</v>
+        <v>32.434</v>
       </c>
       <c r="Q3">
-        <v>50.4592</v>
+        <v>50.45970000000001</v>
       </c>
       <c r="R3">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S3">
-        <v>32.0264</v>
+        <v>31.9717</v>
       </c>
       <c r="T3">
-        <v>32.4837</v>
+        <v>32.434</v>
       </c>
       <c r="U3">
-        <v>19.5323</v>
+        <v>19.6015</v>
       </c>
       <c r="V3">
-        <v>14.5052</v>
+        <v>14.6074</v>
       </c>
       <c r="W3">
-        <v>10.8083</v>
+        <v>11.0617</v>
       </c>
       <c r="X3">
-        <v>11.609</v>
+        <v>11.5044</v>
       </c>
       <c r="Y3">
-        <v>11.609</v>
+        <v>11.5044</v>
       </c>
       <c r="Z3">
-        <v>11.6009</v>
+        <v>11.5107</v>
       </c>
       <c r="AA3">
-        <v>19.4424</v>
+        <v>19.5272</v>
       </c>
       <c r="AB3">
-        <v>13.0377</v>
+        <v>12.7667</v>
       </c>
       <c r="AC3">
-        <v>9.856120000000001</v>
+        <v>10.0107</v>
       </c>
       <c r="AD3">
-        <v>11.4175</v>
+        <v>11.3557</v>
       </c>
       <c r="AE3">
-        <v>11.4175</v>
+        <v>11.3557</v>
       </c>
       <c r="AF3">
-        <v>11.4175</v>
+        <v>11.3557</v>
       </c>
       <c r="AG3">
-        <v>0.6947</v>
+        <v>0.69612</v>
       </c>
       <c r="AH3">
-        <v>0.216004</v>
+        <v>0.219741</v>
       </c>
       <c r="AI3">
-        <v>0.000244805</v>
+        <v>0.000244774</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>62</v>
@@ -1199,34 +1199,34 @@
         <v>62</v>
       </c>
       <c r="AN3">
-        <v>0.216872</v>
+        <v>0.220689</v>
       </c>
       <c r="AO3">
-        <v>874.5120000000001</v>
+        <v>874.508</v>
       </c>
       <c r="AP3">
-        <v>832.152</v>
+        <v>832.148</v>
       </c>
       <c r="AQ3">
-        <v>889.537</v>
+        <v>890.038</v>
       </c>
       <c r="AR3">
-        <v>747.65</v>
+        <v>747.5940000000001</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT3">
-        <v>724.7809999999999</v>
+        <v>724.7760000000001</v>
       </c>
       <c r="AU3">
-        <v>782.578</v>
+        <v>782.577</v>
       </c>
       <c r="AV3">
-        <v>738.549</v>
+        <v>739.0169999999999</v>
       </c>
       <c r="AW3">
-        <v>798.109</v>
+        <v>798.0590000000001</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>63</v>
@@ -1270,73 +1270,73 @@
         <v>76</v>
       </c>
       <c r="M4">
-        <v>50.6854</v>
+        <v>50.6736</v>
       </c>
       <c r="N4">
-        <v>10.1365</v>
+        <v>10.0281</v>
       </c>
       <c r="O4">
-        <v>18.7245</v>
+        <v>18.7715</v>
       </c>
       <c r="P4">
-        <v>27.9738</v>
+        <v>27.8033</v>
       </c>
       <c r="Q4">
-        <v>50.6859</v>
+        <v>50.6725</v>
       </c>
       <c r="R4">
-        <v>100.001</v>
+        <v>99.9978</v>
       </c>
       <c r="S4">
-        <v>27.2877</v>
+        <v>27.1333</v>
       </c>
       <c r="T4">
-        <v>27.9738</v>
+        <v>27.8033</v>
       </c>
       <c r="U4">
-        <v>18.7245</v>
+        <v>18.7715</v>
       </c>
       <c r="V4">
-        <v>13.2939</v>
+        <v>13.4416</v>
       </c>
       <c r="W4">
-        <v>9.954219999999999</v>
+        <v>10.1271</v>
       </c>
       <c r="X4">
-        <v>10.1445</v>
+        <v>10.0241</v>
       </c>
       <c r="Y4">
-        <v>10.1445</v>
+        <v>10.0241</v>
       </c>
       <c r="Z4">
-        <v>10.1365</v>
+        <v>10.0281</v>
       </c>
       <c r="AA4">
-        <v>18.037</v>
+        <v>18.099</v>
       </c>
       <c r="AB4">
-        <v>12.2283</v>
+        <v>12.1944</v>
       </c>
       <c r="AC4">
-        <v>9.07404</v>
+        <v>9.14485</v>
       </c>
       <c r="AD4">
-        <v>10.0678</v>
+        <v>9.962060000000001</v>
       </c>
       <c r="AE4">
-        <v>10.0678</v>
+        <v>9.962060000000001</v>
       </c>
       <c r="AF4">
-        <v>10.0678</v>
+        <v>9.962060000000001</v>
       </c>
       <c r="AG4">
-        <v>0.845959</v>
+        <v>0.847621</v>
       </c>
       <c r="AH4">
-        <v>0.289272</v>
+        <v>0.293336</v>
       </c>
       <c r="AI4">
-        <v>0.00032727</v>
+        <v>0.000327161</v>
       </c>
       <c r="AJ4" s="2" t="s">
         <v>62</v>
@@ -1351,34 +1351,34 @@
         <v>62</v>
       </c>
       <c r="AN4">
-        <v>0.29126</v>
+        <v>0.295442</v>
       </c>
       <c r="AO4">
-        <v>873.133</v>
+        <v>873.1370000000001</v>
       </c>
       <c r="AP4">
-        <v>829.739</v>
+        <v>829.734</v>
       </c>
       <c r="AQ4">
-        <v>886.2280000000001</v>
+        <v>886.6990000000001</v>
       </c>
       <c r="AR4">
-        <v>742.913</v>
+        <v>742.756</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT4">
-        <v>723.443</v>
+        <v>723.442</v>
       </c>
       <c r="AU4">
         <v>780.2959999999999</v>
       </c>
       <c r="AV4">
-        <v>735.168</v>
+        <v>735.6020000000001</v>
       </c>
       <c r="AW4">
-        <v>793.599</v>
+        <v>793.428</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>63</v>
@@ -1422,73 +1422,73 @@
         <v>74</v>
       </c>
       <c r="M5">
-        <v>50.2825</v>
+        <v>50.3013</v>
       </c>
       <c r="N5">
-        <v>13.1319</v>
+        <v>13.0683</v>
       </c>
       <c r="O5">
-        <v>23.0636</v>
+        <v>23.1337</v>
       </c>
       <c r="P5">
-        <v>33.3595</v>
+        <v>33.2493</v>
       </c>
       <c r="Q5">
-        <v>50.2837</v>
+        <v>50.301</v>
       </c>
       <c r="R5">
-        <v>100.002</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S5">
-        <v>33.0738</v>
+        <v>32.9495</v>
       </c>
       <c r="T5">
-        <v>33.3595</v>
+        <v>33.2493</v>
       </c>
       <c r="U5">
-        <v>23.0636</v>
+        <v>23.1337</v>
       </c>
       <c r="V5">
-        <v>17.1374</v>
+        <v>17.2697</v>
       </c>
       <c r="W5">
-        <v>12.803</v>
+        <v>13.0546</v>
       </c>
       <c r="X5">
-        <v>12.9814</v>
+        <v>12.8671</v>
       </c>
       <c r="Y5">
-        <v>12.9814</v>
+        <v>12.8671</v>
       </c>
       <c r="Z5">
-        <v>12.984</v>
+        <v>12.867</v>
       </c>
       <c r="AA5">
-        <v>22.1082</v>
+        <v>22.1879</v>
       </c>
       <c r="AB5">
-        <v>16.1871</v>
+        <v>16.2348</v>
       </c>
       <c r="AC5">
-        <v>11.9846</v>
+        <v>12.159</v>
       </c>
       <c r="AD5">
-        <v>13.1319</v>
+        <v>13.0683</v>
       </c>
       <c r="AE5">
-        <v>13.1319</v>
+        <v>13.0683</v>
       </c>
       <c r="AF5">
-        <v>13.1319</v>
+        <v>13.0683</v>
       </c>
       <c r="AG5">
-        <v>0.68689</v>
+        <v>0.688062</v>
       </c>
       <c r="AH5">
-        <v>0.289333</v>
+        <v>0.292336</v>
       </c>
       <c r="AI5">
-        <v>0.038733</v>
+        <v>0.0387329</v>
       </c>
       <c r="AJ5" s="2" t="s">
         <v>62</v>
@@ -1503,34 +1503,34 @@
         <v>62</v>
       </c>
       <c r="AN5">
-        <v>0.283358</v>
+        <v>0.28649</v>
       </c>
       <c r="AO5">
-        <v>873.705</v>
+        <v>873.7030000000001</v>
       </c>
       <c r="AP5">
-        <v>832.398</v>
+        <v>832.391</v>
       </c>
       <c r="AQ5">
-        <v>889.8150000000001</v>
+        <v>890.321</v>
       </c>
       <c r="AR5">
-        <v>748.701</v>
+        <v>748.574</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT5">
-        <v>724.946</v>
+        <v>724.947</v>
       </c>
       <c r="AU5">
-        <v>782.5120000000001</v>
+        <v>782.5029999999999</v>
       </c>
       <c r="AV5">
-        <v>739.4720000000001</v>
+        <v>739.958</v>
       </c>
       <c r="AW5">
-        <v>798.985</v>
+        <v>798.874</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>63</v>
@@ -1574,73 +1574,73 @@
         <v>76</v>
       </c>
       <c r="M6">
-        <v>50.4961</v>
+        <v>50.499</v>
       </c>
       <c r="N6">
-        <v>11.825</v>
+        <v>11.7205</v>
       </c>
       <c r="O6">
-        <v>22.0933</v>
+        <v>22.1472</v>
       </c>
       <c r="P6">
-        <v>29.925</v>
+        <v>29.709</v>
       </c>
       <c r="Q6">
-        <v>50.49780000000001</v>
+        <v>50.4987</v>
       </c>
       <c r="R6">
-        <v>100.004</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S6">
-        <v>29.43</v>
+        <v>29.2104</v>
       </c>
       <c r="T6">
-        <v>29.925</v>
+        <v>29.709</v>
       </c>
       <c r="U6">
-        <v>22.0933</v>
+        <v>22.1472</v>
       </c>
       <c r="V6">
-        <v>15.9897</v>
+        <v>16.1314</v>
       </c>
       <c r="W6">
-        <v>12.0247</v>
+        <v>12.1968</v>
       </c>
       <c r="X6">
-        <v>11.6949</v>
+        <v>11.5455</v>
       </c>
       <c r="Y6">
-        <v>11.6949</v>
+        <v>11.5455</v>
       </c>
       <c r="Z6">
-        <v>11.6947</v>
+        <v>11.5431</v>
       </c>
       <c r="AA6">
-        <v>20.7629</v>
+        <v>20.8258</v>
       </c>
       <c r="AB6">
-        <v>15.1115</v>
+        <v>15.2002</v>
       </c>
       <c r="AC6">
-        <v>11.2119</v>
+        <v>11.3043</v>
       </c>
       <c r="AD6">
-        <v>11.825</v>
+        <v>11.7205</v>
       </c>
       <c r="AE6">
-        <v>11.825</v>
+        <v>11.7205</v>
       </c>
       <c r="AF6">
-        <v>11.825</v>
+        <v>11.7205</v>
       </c>
       <c r="AG6">
-        <v>0.837737</v>
+        <v>0.839066</v>
       </c>
       <c r="AH6">
-        <v>0.381098</v>
+        <v>0.384379</v>
       </c>
       <c r="AI6">
-        <v>0.04410799999999999</v>
+        <v>0.0441077</v>
       </c>
       <c r="AJ6" s="2" t="s">
         <v>62</v>
@@ -1655,34 +1655,34 @@
         <v>62</v>
       </c>
       <c r="AN6">
-        <v>0.374385</v>
+        <v>0.377742</v>
       </c>
       <c r="AO6">
-        <v>872.826</v>
+        <v>872.823</v>
       </c>
       <c r="AP6">
-        <v>830.631</v>
+        <v>830.619</v>
       </c>
       <c r="AQ6">
-        <v>887.426</v>
+        <v>887.896</v>
       </c>
       <c r="AR6">
-        <v>745.057</v>
+        <v>744.838</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT6">
-        <v>723.984</v>
+        <v>723.987</v>
       </c>
       <c r="AU6">
-        <v>780.866</v>
+        <v>780.8580000000001</v>
       </c>
       <c r="AV6">
-        <v>736.879</v>
+        <v>737.331</v>
       </c>
       <c r="AW6">
-        <v>795.5500000000001</v>
+        <v>795.3340000000001</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>63</v>
@@ -1726,73 +1726,73 @@
         <v>74</v>
       </c>
       <c r="M7">
-        <v>50.3998</v>
+        <v>50.3534</v>
       </c>
       <c r="N7">
-        <v>12.4009</v>
+        <v>12.2287</v>
       </c>
       <c r="O7">
-        <v>20.2765</v>
+        <v>20.3676</v>
       </c>
       <c r="P7">
-        <v>33.6768</v>
+        <v>33.3961</v>
       </c>
       <c r="Q7">
-        <v>50.39980000000001</v>
+        <v>50.3539</v>
       </c>
       <c r="R7">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S7">
-        <v>33.2798</v>
+        <v>33.0455</v>
       </c>
       <c r="T7">
-        <v>33.6768</v>
+        <v>33.3961</v>
       </c>
       <c r="U7">
-        <v>19.6513</v>
+        <v>19.7166</v>
       </c>
       <c r="V7">
-        <v>15.4211</v>
+        <v>15.6017</v>
       </c>
       <c r="W7">
-        <v>11.7259</v>
+        <v>11.855</v>
       </c>
       <c r="X7">
-        <v>12.4009</v>
+        <v>12.2266</v>
       </c>
       <c r="Y7">
-        <v>12.4009</v>
+        <v>12.2266</v>
       </c>
       <c r="Z7">
-        <v>12.4009</v>
+        <v>12.2287</v>
       </c>
       <c r="AA7">
-        <v>20.2765</v>
+        <v>20.3676</v>
       </c>
       <c r="AB7">
-        <v>14.0358</v>
+        <v>13.909</v>
       </c>
       <c r="AC7">
-        <v>10.7362</v>
+        <v>10.7453</v>
       </c>
       <c r="AD7">
-        <v>12.235</v>
+        <v>12.0707</v>
       </c>
       <c r="AE7">
-        <v>12.235</v>
+        <v>12.0707</v>
       </c>
       <c r="AF7">
-        <v>12.235</v>
+        <v>12.0707</v>
       </c>
       <c r="AG7">
-        <v>0.69378</v>
+        <v>0.69519</v>
       </c>
       <c r="AH7">
-        <v>0.211757</v>
+        <v>0.214854</v>
       </c>
       <c r="AI7">
-        <v>0.000244805</v>
+        <v>0.000244774</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>62</v>
@@ -1807,34 +1807,34 @@
         <v>62</v>
       </c>
       <c r="AN7">
-        <v>0.212529</v>
+        <v>0.215751</v>
       </c>
       <c r="AO7">
-        <v>874.144</v>
+        <v>874.141</v>
       </c>
       <c r="AP7">
-        <v>832.412</v>
+        <v>832.407</v>
       </c>
       <c r="AQ7">
-        <v>890.046</v>
+        <v>890.6020000000001</v>
       </c>
       <c r="AR7">
-        <v>748.902</v>
+        <v>748.672</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT7">
-        <v>724.734</v>
+        <v>724.7329999999999</v>
       </c>
       <c r="AU7">
-        <v>782.7900000000001</v>
+        <v>782.7860000000001</v>
       </c>
       <c r="AV7">
-        <v>739.102</v>
+        <v>739.6260000000001</v>
       </c>
       <c r="AW7">
-        <v>799.302</v>
+        <v>799.0210000000001</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>63</v>
@@ -1878,73 +1878,73 @@
         <v>76</v>
       </c>
       <c r="M8">
-        <v>50.6296</v>
+        <v>50.5689</v>
       </c>
       <c r="N8">
-        <v>10.9807</v>
+        <v>10.7776</v>
       </c>
       <c r="O8">
-        <v>19.0353</v>
+        <v>19.0822</v>
       </c>
       <c r="P8">
-        <v>29.2384</v>
+        <v>28.8404</v>
       </c>
       <c r="Q8">
-        <v>50.6302</v>
+        <v>50.5673</v>
       </c>
       <c r="R8">
-        <v>100.001</v>
+        <v>99.9969</v>
       </c>
       <c r="S8">
-        <v>28.609</v>
+        <v>28.2741</v>
       </c>
       <c r="T8">
-        <v>29.2384</v>
+        <v>28.8404</v>
       </c>
       <c r="U8">
-        <v>19.0353</v>
+        <v>19.0822</v>
       </c>
       <c r="V8">
-        <v>14.2598</v>
+        <v>14.4695</v>
       </c>
       <c r="W8">
-        <v>10.9576</v>
+        <v>10.9928</v>
       </c>
       <c r="X8">
-        <v>10.9775</v>
+        <v>10.7778</v>
       </c>
       <c r="Y8">
-        <v>10.9775</v>
+        <v>10.7778</v>
       </c>
       <c r="Z8">
-        <v>10.9807</v>
+        <v>10.7776</v>
       </c>
       <c r="AA8">
-        <v>18.8684</v>
+        <v>18.9367</v>
       </c>
       <c r="AB8">
-        <v>13.1838</v>
+        <v>13.248</v>
       </c>
       <c r="AC8">
-        <v>10.0239</v>
+        <v>9.94707</v>
       </c>
       <c r="AD8">
-        <v>10.9042</v>
+        <v>10.7013</v>
       </c>
       <c r="AE8">
-        <v>10.9042</v>
+        <v>10.7013</v>
       </c>
       <c r="AF8">
-        <v>10.9042</v>
+        <v>10.7013</v>
       </c>
       <c r="AG8">
-        <v>0.844955</v>
+        <v>0.846498</v>
       </c>
       <c r="AH8">
-        <v>0.285528</v>
+        <v>0.288661</v>
       </c>
       <c r="AI8">
-        <v>0.00032727</v>
+        <v>0.000327162</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>62</v>
@@ -1959,34 +1959,34 @@
         <v>62</v>
       </c>
       <c r="AN8">
-        <v>0.287428</v>
+        <v>0.290721</v>
       </c>
       <c r="AO8">
-        <v>872.769</v>
+        <v>872.7660000000001</v>
       </c>
       <c r="AP8">
         <v>830.052</v>
       </c>
       <c r="AQ8">
-        <v>886.812</v>
+        <v>887.3370000000001</v>
       </c>
       <c r="AR8">
-        <v>744.236</v>
+        <v>743.899</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT8">
-        <v>723.444</v>
+        <v>723.446</v>
       </c>
       <c r="AU8">
-        <v>780.5600000000001</v>
+        <v>780.556</v>
       </c>
       <c r="AV8">
-        <v>735.797</v>
+        <v>736.288</v>
       </c>
       <c r="AW8">
-        <v>794.8630000000001</v>
+        <v>794.465</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>63</v>
@@ -2030,73 +2030,73 @@
         <v>74</v>
       </c>
       <c r="M9">
-        <v>50.2477</v>
+        <v>50.2252</v>
       </c>
       <c r="N9">
-        <v>14.0405</v>
+        <v>13.8716</v>
       </c>
       <c r="O9">
-        <v>23.4832</v>
+        <v>23.558</v>
       </c>
       <c r="P9">
-        <v>34.66670000000001</v>
+        <v>34.3197</v>
       </c>
       <c r="Q9">
-        <v>50.2481</v>
+        <v>50.2249</v>
       </c>
       <c r="R9">
-        <v>100.001</v>
+        <v>99.9996</v>
       </c>
       <c r="S9">
-        <v>34.419</v>
+        <v>34.0906</v>
       </c>
       <c r="T9">
-        <v>34.66670000000001</v>
+        <v>34.3197</v>
       </c>
       <c r="U9">
-        <v>23.4832</v>
+        <v>23.558</v>
       </c>
       <c r="V9">
-        <v>18.2179</v>
+        <v>18.4037</v>
       </c>
       <c r="W9">
-        <v>13.9049</v>
+        <v>14.0168</v>
       </c>
       <c r="X9">
-        <v>13.8894</v>
+        <v>13.6844</v>
       </c>
       <c r="Y9">
-        <v>13.8894</v>
+        <v>13.6844</v>
       </c>
       <c r="Z9">
-        <v>13.8952</v>
+        <v>13.6844</v>
       </c>
       <c r="AA9">
-        <v>22.9946</v>
+        <v>23.0585</v>
       </c>
       <c r="AB9">
-        <v>17.2266</v>
+        <v>17.3459</v>
       </c>
       <c r="AC9">
-        <v>13.0407</v>
+        <v>13.0635</v>
       </c>
       <c r="AD9">
-        <v>14.0405</v>
+        <v>13.8716</v>
       </c>
       <c r="AE9">
-        <v>14.0405</v>
+        <v>13.8716</v>
       </c>
       <c r="AF9">
-        <v>14.0405</v>
+        <v>13.8716</v>
       </c>
       <c r="AG9">
-        <v>0.685993</v>
+        <v>0.687146</v>
       </c>
       <c r="AH9">
-        <v>0.28696</v>
+        <v>0.289366</v>
       </c>
       <c r="AI9">
-        <v>0.0387351</v>
+        <v>0.038735</v>
       </c>
       <c r="AJ9" s="2" t="s">
         <v>62</v>
@@ -2111,34 +2111,34 @@
         <v>62</v>
       </c>
       <c r="AN9">
-        <v>0.280952</v>
+        <v>0.283369</v>
       </c>
       <c r="AO9">
-        <v>873.269</v>
+        <v>873.263</v>
       </c>
       <c r="AP9">
-        <v>832.681</v>
+        <v>832.669</v>
       </c>
       <c r="AQ9">
-        <v>890.4100000000001</v>
+        <v>890.966</v>
       </c>
       <c r="AR9">
-        <v>750.044</v>
+        <v>749.7170000000001</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT9">
-        <v>724.922</v>
+        <v>724.919</v>
       </c>
       <c r="AU9">
-        <v>782.76</v>
+        <v>782.75</v>
       </c>
       <c r="AV9">
-        <v>740.1070000000001</v>
+        <v>740.639</v>
       </c>
       <c r="AW9">
-        <v>800.2919999999999</v>
+        <v>799.9449999999999</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>63</v>
@@ -2182,73 +2182,73 @@
         <v>76</v>
       </c>
       <c r="M10">
-        <v>50.4658</v>
+        <v>50.4327</v>
       </c>
       <c r="N10">
-        <v>12.7638</v>
+        <v>12.5564</v>
       </c>
       <c r="O10">
-        <v>22.6032</v>
+        <v>22.6552</v>
       </c>
       <c r="P10">
-        <v>31.3344</v>
+        <v>30.8823</v>
       </c>
       <c r="Q10">
-        <v>50.4678</v>
+        <v>50.4325</v>
       </c>
       <c r="R10">
-        <v>100.004</v>
+        <v>99.9995</v>
       </c>
       <c r="S10">
-        <v>30.8696</v>
+        <v>30.4499</v>
       </c>
       <c r="T10">
-        <v>31.3344</v>
+        <v>30.8823</v>
       </c>
       <c r="U10">
-        <v>22.6032</v>
+        <v>22.6552</v>
       </c>
       <c r="V10">
-        <v>17.1479</v>
+        <v>17.3404</v>
       </c>
       <c r="W10">
-        <v>13.2248</v>
+        <v>13.2472</v>
       </c>
       <c r="X10">
-        <v>12.6437</v>
+        <v>12.3867</v>
       </c>
       <c r="Y10">
-        <v>12.6437</v>
+        <v>12.3867</v>
       </c>
       <c r="Z10">
-        <v>12.6397</v>
+        <v>12.3857</v>
       </c>
       <c r="AA10">
-        <v>21.6523</v>
+        <v>21.7124</v>
       </c>
       <c r="AB10">
-        <v>16.2125</v>
+        <v>16.3588</v>
       </c>
       <c r="AC10">
-        <v>12.3576</v>
+        <v>12.3001</v>
       </c>
       <c r="AD10">
-        <v>12.7638</v>
+        <v>12.5564</v>
       </c>
       <c r="AE10">
-        <v>12.7638</v>
+        <v>12.5564</v>
       </c>
       <c r="AF10">
-        <v>12.7638</v>
+        <v>12.5564</v>
       </c>
       <c r="AG10">
-        <v>0.836805</v>
+        <v>0.837974</v>
       </c>
       <c r="AH10">
-        <v>0.379604</v>
+        <v>0.381975</v>
       </c>
       <c r="AI10">
-        <v>0.0441107</v>
+        <v>0.04411039999999999</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>62</v>
@@ -2263,34 +2263,34 @@
         <v>62</v>
       </c>
       <c r="AN10">
-        <v>0.373211</v>
+        <v>0.375565</v>
       </c>
       <c r="AO10">
-        <v>872.3800000000001</v>
+        <v>872.3770000000001</v>
       </c>
       <c r="AP10">
-        <v>830.971</v>
+        <v>830.96</v>
       </c>
       <c r="AQ10">
-        <v>888.111</v>
+        <v>888.6370000000001</v>
       </c>
       <c r="AR10">
-        <v>746.498</v>
+        <v>746.073</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT10">
-        <v>724.0119999999999</v>
+        <v>724.005</v>
       </c>
       <c r="AU10">
-        <v>781.169</v>
+        <v>781.1610000000001</v>
       </c>
       <c r="AV10">
-        <v>737.597</v>
+        <v>738.0970000000001</v>
       </c>
       <c r="AW10">
-        <v>796.9590000000001</v>
+        <v>796.5070000000001</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>63</v>
@@ -2334,73 +2334,73 @@
         <v>74</v>
       </c>
       <c r="M11">
-        <v>50.6684</v>
+        <v>50.8047</v>
       </c>
       <c r="N11">
-        <v>17.658</v>
+        <v>17.5795</v>
       </c>
       <c r="O11">
-        <v>24.364</v>
+        <v>24.4355</v>
       </c>
       <c r="P11">
-        <v>52.16780000000001</v>
+        <v>52.6174</v>
       </c>
       <c r="Q11">
-        <v>50.6678</v>
+        <v>50.805</v>
       </c>
       <c r="R11">
-        <v>99.9987</v>
+        <v>100.001</v>
       </c>
       <c r="S11">
-        <v>51.4981</v>
+        <v>51.814</v>
       </c>
       <c r="T11">
-        <v>52.16780000000001</v>
+        <v>52.6174</v>
       </c>
       <c r="U11">
-        <v>24.364</v>
+        <v>24.4355</v>
       </c>
       <c r="V11">
-        <v>18.4144</v>
+        <v>17.9212</v>
       </c>
       <c r="W11">
-        <v>14.2878</v>
+        <v>14.8534</v>
       </c>
       <c r="X11">
-        <v>17.6531</v>
+        <v>17.5806</v>
       </c>
       <c r="Y11">
-        <v>17.6531</v>
+        <v>17.5806</v>
       </c>
       <c r="Z11">
-        <v>17.658</v>
+        <v>17.5795</v>
       </c>
       <c r="AA11">
-        <v>23.7529</v>
+        <v>23.8882</v>
       </c>
       <c r="AB11">
-        <v>15.3752</v>
+        <v>15.0194</v>
       </c>
       <c r="AC11">
-        <v>12.8359</v>
+        <v>13.2598</v>
       </c>
       <c r="AD11">
-        <v>17.2969</v>
+        <v>17.3701</v>
       </c>
       <c r="AE11">
-        <v>17.2969</v>
+        <v>17.3701</v>
       </c>
       <c r="AF11">
-        <v>17.2969</v>
+        <v>17.3701</v>
       </c>
       <c r="AG11">
-        <v>0.7056210000000001</v>
+        <v>0.707878</v>
       </c>
       <c r="AH11">
-        <v>0.183202</v>
+        <v>0.187336</v>
       </c>
       <c r="AI11">
-        <v>3.97663E-06</v>
+        <v>3.96992E-06</v>
       </c>
       <c r="AJ11" s="2" t="s">
         <v>62</v>
@@ -2415,34 +2415,34 @@
         <v>62</v>
       </c>
       <c r="AN11">
-        <v>0.184601</v>
+        <v>0.188775</v>
       </c>
       <c r="AO11">
-        <v>879.508</v>
+        <v>879.51</v>
       </c>
       <c r="AP11">
-        <v>841.1840000000001</v>
+        <v>841.188</v>
       </c>
       <c r="AQ11">
-        <v>903.495</v>
+        <v>904.148</v>
       </c>
       <c r="AR11">
-        <v>767.122</v>
+        <v>767.438</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT11">
-        <v>729.386</v>
+        <v>729.389</v>
       </c>
       <c r="AU11">
-        <v>791.71</v>
+        <v>791.713</v>
       </c>
       <c r="AV11">
-        <v>752.145</v>
+        <v>752.7329999999999</v>
       </c>
       <c r="AW11">
-        <v>817.793</v>
+        <v>818.242</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>63</v>
@@ -2486,73 +2486,73 @@
         <v>76</v>
       </c>
       <c r="M12">
-        <v>50.7756</v>
+        <v>50.7961</v>
       </c>
       <c r="N12">
-        <v>13.5556</v>
+        <v>13.47</v>
       </c>
       <c r="O12">
-        <v>20.8442</v>
+        <v>20.9378</v>
       </c>
       <c r="P12">
-        <v>39.43</v>
+        <v>39.545</v>
       </c>
       <c r="Q12">
-        <v>50.7748</v>
+        <v>50.7972</v>
       </c>
       <c r="R12">
-        <v>99.9983</v>
+        <v>100.002</v>
       </c>
       <c r="S12">
-        <v>38.6575</v>
+        <v>38.7469</v>
       </c>
       <c r="T12">
-        <v>39.43</v>
+        <v>39.545</v>
       </c>
       <c r="U12">
-        <v>20.8442</v>
+        <v>20.9378</v>
       </c>
       <c r="V12">
-        <v>15.7075</v>
+        <v>15.594</v>
       </c>
       <c r="W12">
-        <v>11.804</v>
+        <v>12.1648</v>
       </c>
       <c r="X12">
-        <v>13.5584</v>
+        <v>13.471</v>
       </c>
       <c r="Y12">
-        <v>13.5584</v>
+        <v>13.471</v>
       </c>
       <c r="Z12">
-        <v>13.5556</v>
+        <v>13.47</v>
       </c>
       <c r="AA12">
-        <v>20.7778</v>
+        <v>20.9075</v>
       </c>
       <c r="AB12">
-        <v>13.2446</v>
+        <v>12.8866</v>
       </c>
       <c r="AC12">
-        <v>10.6148</v>
+        <v>10.8635</v>
       </c>
       <c r="AD12">
-        <v>13.4952</v>
+        <v>13.4678</v>
       </c>
       <c r="AE12">
-        <v>13.4952</v>
+        <v>13.4678</v>
       </c>
       <c r="AF12">
-        <v>13.4952</v>
+        <v>13.4678</v>
       </c>
       <c r="AG12">
-        <v>0.856118</v>
+        <v>0.85841</v>
       </c>
       <c r="AH12">
-        <v>0.235899</v>
+        <v>0.240847</v>
       </c>
       <c r="AI12">
-        <v>1.2018E-05</v>
+        <v>1.19933E-05</v>
       </c>
       <c r="AJ12" s="2" t="s">
         <v>62</v>
@@ -2567,34 +2567,34 @@
         <v>62</v>
       </c>
       <c r="AN12">
-        <v>0.236635</v>
+        <v>0.241692</v>
       </c>
       <c r="AO12">
-        <v>876.722</v>
+        <v>876.7170000000001</v>
       </c>
       <c r="AP12">
-        <v>835.4879999999999</v>
+        <v>835.482</v>
       </c>
       <c r="AQ12">
-        <v>894.471</v>
+        <v>895.021</v>
       </c>
       <c r="AR12">
-        <v>754.278</v>
+        <v>754.375</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT12">
-        <v>726.6900000000001</v>
+        <v>726.692</v>
       </c>
       <c r="AU12">
         <v>786.029</v>
       </c>
       <c r="AV12">
-        <v>743.287</v>
+        <v>743.7990000000001</v>
       </c>
       <c r="AW12">
-        <v>805.0549999999999</v>
+        <v>805.1700000000001</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>63</v>
@@ -2638,73 +2638,73 @@
         <v>74</v>
       </c>
       <c r="M13">
-        <v>50.6267</v>
+        <v>50.7195</v>
       </c>
       <c r="N13">
-        <v>18.612</v>
+        <v>18.6893</v>
       </c>
       <c r="O13">
-        <v>27.237</v>
+        <v>27.3224</v>
       </c>
       <c r="P13">
-        <v>49.3464</v>
+        <v>49.68600000000001</v>
       </c>
       <c r="Q13">
-        <v>50.6269</v>
+        <v>50.7196</v>
       </c>
       <c r="R13">
         <v>100</v>
       </c>
       <c r="S13">
-        <v>48.7198</v>
+        <v>48.9654</v>
       </c>
       <c r="T13">
-        <v>49.3464</v>
+        <v>49.68600000000001</v>
       </c>
       <c r="U13">
-        <v>27.237</v>
+        <v>27.3224</v>
       </c>
       <c r="V13">
-        <v>20.71</v>
+        <v>20.4408</v>
       </c>
       <c r="W13">
-        <v>15.4755</v>
+        <v>16.0193</v>
       </c>
       <c r="X13">
-        <v>18.2006</v>
+        <v>18.155</v>
       </c>
       <c r="Y13">
-        <v>18.2006</v>
+        <v>18.155</v>
       </c>
       <c r="Z13">
-        <v>18.2105</v>
+        <v>18.149</v>
       </c>
       <c r="AA13">
-        <v>26.7797</v>
+        <v>26.878</v>
       </c>
       <c r="AB13">
-        <v>18.4762</v>
+        <v>17.9943</v>
       </c>
       <c r="AC13">
-        <v>14.3548</v>
+        <v>14.8092</v>
       </c>
       <c r="AD13">
-        <v>18.612</v>
+        <v>18.6893</v>
       </c>
       <c r="AE13">
-        <v>18.612</v>
+        <v>18.6893</v>
       </c>
       <c r="AF13">
-        <v>18.612</v>
+        <v>18.6893</v>
       </c>
       <c r="AG13">
-        <v>0.697102</v>
+        <v>0.698871</v>
       </c>
       <c r="AH13">
-        <v>0.192866</v>
+        <v>0.196743</v>
       </c>
       <c r="AI13">
-        <v>0.00144437</v>
+        <v>0.00144435</v>
       </c>
       <c r="AJ13" s="2" t="s">
         <v>62</v>
@@ -2719,34 +2719,34 @@
         <v>62</v>
       </c>
       <c r="AN13">
-        <v>0.193145</v>
+        <v>0.197095</v>
       </c>
       <c r="AO13">
-        <v>877.745</v>
+        <v>877.744</v>
       </c>
       <c r="AP13">
-        <v>839.51</v>
+        <v>839.506</v>
       </c>
       <c r="AQ13">
-        <v>900.71</v>
+        <v>901.361</v>
       </c>
       <c r="AR13">
-        <v>764.3480000000001</v>
+        <v>764.591</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT13">
-        <v>728.544</v>
+        <v>728.545</v>
       </c>
       <c r="AU13">
-        <v>789.775</v>
+        <v>789.773</v>
       </c>
       <c r="AV13">
-        <v>750.217</v>
+        <v>750.8340000000001</v>
       </c>
       <c r="AW13">
-        <v>814.971</v>
+        <v>815.3109999999999</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>63</v>
@@ -2790,73 +2790,73 @@
         <v>76</v>
       </c>
       <c r="M14">
-        <v>50.6889</v>
+        <v>50.7029</v>
       </c>
       <c r="N14">
-        <v>15.103</v>
+        <v>15.0865</v>
       </c>
       <c r="O14">
-        <v>23.61</v>
+        <v>23.707</v>
       </c>
       <c r="P14">
-        <v>39.57360000000001</v>
+        <v>39.64210000000001</v>
       </c>
       <c r="Q14">
-        <v>50.6869</v>
+        <v>50.7034</v>
       </c>
       <c r="R14">
-        <v>99.996</v>
+        <v>100.001</v>
       </c>
       <c r="S14">
-        <v>38.8882</v>
+        <v>38.9383</v>
       </c>
       <c r="T14">
-        <v>39.57360000000001</v>
+        <v>39.64210000000001</v>
       </c>
       <c r="U14">
-        <v>23.61</v>
+        <v>23.707</v>
       </c>
       <c r="V14">
-        <v>17.8646</v>
+        <v>17.9086</v>
       </c>
       <c r="W14">
-        <v>13.3058</v>
+        <v>13.6938</v>
       </c>
       <c r="X14">
-        <v>14.7922</v>
+        <v>14.7182</v>
       </c>
       <c r="Y14">
-        <v>14.7922</v>
+        <v>14.7182</v>
       </c>
       <c r="Z14">
-        <v>14.7893</v>
+        <v>14.7259</v>
       </c>
       <c r="AA14">
-        <v>22.9907</v>
+        <v>23.0966</v>
       </c>
       <c r="AB14">
-        <v>16.1257</v>
+        <v>15.8345</v>
       </c>
       <c r="AC14">
-        <v>12.2203</v>
+        <v>12.5243</v>
       </c>
       <c r="AD14">
-        <v>15.103</v>
+        <v>15.0865</v>
       </c>
       <c r="AE14">
-        <v>15.103</v>
+        <v>15.0865</v>
       </c>
       <c r="AF14">
-        <v>15.103</v>
+        <v>15.0865</v>
       </c>
       <c r="AG14">
-        <v>0.849137</v>
+        <v>0.850912</v>
       </c>
       <c r="AH14">
-        <v>0.250966</v>
+        <v>0.255662</v>
       </c>
       <c r="AI14">
-        <v>0.00164729</v>
+        <v>0.00164722</v>
       </c>
       <c r="AJ14" s="2" t="s">
         <v>62</v>
@@ -2871,34 +2871,34 @@
         <v>62</v>
       </c>
       <c r="AN14">
-        <v>0.251632</v>
+        <v>0.256336</v>
       </c>
       <c r="AO14">
-        <v>875.7070000000001</v>
+        <v>875.703</v>
       </c>
       <c r="AP14">
-        <v>835.1800000000001</v>
+        <v>835.1730000000001</v>
       </c>
       <c r="AQ14">
-        <v>894.047</v>
+        <v>894.62</v>
       </c>
       <c r="AR14">
-        <v>754.515</v>
+        <v>754.563</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT14">
-        <v>726.41</v>
+        <v>726.399</v>
       </c>
       <c r="AU14">
-        <v>785.5169999999999</v>
+        <v>785.5110000000001</v>
       </c>
       <c r="AV14">
-        <v>743.427</v>
+        <v>743.9670000000001</v>
       </c>
       <c r="AW14">
-        <v>805.199</v>
+        <v>805.2670000000001</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>63</v>
@@ -2942,73 +2942,73 @@
         <v>74</v>
       </c>
       <c r="M15">
-        <v>50.5855</v>
+        <v>50.6428</v>
       </c>
       <c r="N15">
-        <v>18.4485</v>
+        <v>18.2904</v>
       </c>
       <c r="O15">
-        <v>24.9298</v>
+        <v>25.0816</v>
       </c>
       <c r="P15">
-        <v>53.16079999999999</v>
+        <v>53.3349</v>
       </c>
       <c r="Q15">
-        <v>50.5857</v>
+        <v>50.64510000000001</v>
       </c>
       <c r="R15">
-        <v>100</v>
+        <v>100.004</v>
       </c>
       <c r="S15">
-        <v>52.5752</v>
+        <v>52.688</v>
       </c>
       <c r="T15">
-        <v>53.16079999999999</v>
+        <v>53.3349</v>
       </c>
       <c r="U15">
-        <v>23.5999</v>
+        <v>23.603</v>
       </c>
       <c r="V15">
-        <v>19.2896</v>
+        <v>18.8543</v>
       </c>
       <c r="W15">
-        <v>14.9973</v>
+        <v>15.4134</v>
       </c>
       <c r="X15">
-        <v>18.4473</v>
+        <v>18.2938</v>
       </c>
       <c r="Y15">
-        <v>18.4473</v>
+        <v>18.2938</v>
       </c>
       <c r="Z15">
-        <v>18.4485</v>
+        <v>18.2904</v>
       </c>
       <c r="AA15">
-        <v>24.9298</v>
+        <v>25.0816</v>
       </c>
       <c r="AB15">
-        <v>16.1609</v>
+        <v>15.7712</v>
       </c>
       <c r="AC15">
-        <v>13.5246</v>
+        <v>13.7969</v>
       </c>
       <c r="AD15">
-        <v>18.1207</v>
+        <v>18.0738</v>
       </c>
       <c r="AE15">
-        <v>18.1207</v>
+        <v>18.0738</v>
       </c>
       <c r="AF15">
-        <v>18.1207</v>
+        <v>18.0738</v>
       </c>
       <c r="AG15">
-        <v>0.704346</v>
+        <v>0.70639</v>
       </c>
       <c r="AH15">
-        <v>0.177352</v>
+        <v>0.180975</v>
       </c>
       <c r="AI15">
-        <v>3.97664E-06</v>
+        <v>3.96993E-06</v>
       </c>
       <c r="AJ15" s="2" t="s">
         <v>62</v>
@@ -3023,34 +3023,34 @@
         <v>62</v>
       </c>
       <c r="AN15">
-        <v>0.178749</v>
+        <v>0.182425</v>
       </c>
       <c r="AO15">
-        <v>879.11</v>
+        <v>879.1170000000001</v>
       </c>
       <c r="AP15">
-        <v>841.306</v>
+        <v>841.311</v>
       </c>
       <c r="AQ15">
-        <v>903.777</v>
+        <v>904.4549999999999</v>
       </c>
       <c r="AR15">
-        <v>768.201</v>
+        <v>768.318</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT15">
-        <v>729.2669999999999</v>
+        <v>729.276</v>
       </c>
       <c r="AU15">
-        <v>791.759</v>
+        <v>791.764</v>
       </c>
       <c r="AV15">
-        <v>752.5</v>
+        <v>753.1270000000001</v>
       </c>
       <c r="AW15">
-        <v>818.7860000000001</v>
+        <v>818.96</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>63</v>
@@ -3094,73 +3094,73 @@
         <v>76</v>
       </c>
       <c r="M16">
-        <v>50.7224</v>
+        <v>50.675</v>
       </c>
       <c r="N16">
-        <v>14.3407</v>
+        <v>14.1804</v>
       </c>
       <c r="O16">
-        <v>21.6356</v>
+        <v>21.7705</v>
       </c>
       <c r="P16">
-        <v>40.54600000000001</v>
+        <v>40.4118</v>
       </c>
       <c r="Q16">
-        <v>50.723</v>
+        <v>50.6738</v>
       </c>
       <c r="R16">
-        <v>100.001</v>
+        <v>99.99769999999999</v>
       </c>
       <c r="S16">
-        <v>39.8243</v>
+        <v>39.7377</v>
       </c>
       <c r="T16">
-        <v>40.54600000000001</v>
+        <v>40.4118</v>
       </c>
       <c r="U16">
-        <v>20.6435</v>
+        <v>20.7321</v>
       </c>
       <c r="V16">
-        <v>16.5576</v>
+        <v>16.5852</v>
       </c>
       <c r="W16">
-        <v>12.607</v>
+        <v>12.8367</v>
       </c>
       <c r="X16">
-        <v>14.3395</v>
+        <v>14.1814</v>
       </c>
       <c r="Y16">
-        <v>14.3395</v>
+        <v>14.1814</v>
       </c>
       <c r="Z16">
-        <v>14.3407</v>
+        <v>14.1804</v>
       </c>
       <c r="AA16">
-        <v>21.6356</v>
+        <v>21.7705</v>
       </c>
       <c r="AB16">
-        <v>14.2136</v>
+        <v>13.8316</v>
       </c>
       <c r="AC16">
-        <v>11.4082</v>
+        <v>11.4949</v>
       </c>
       <c r="AD16">
-        <v>14.3028</v>
+        <v>14.1643</v>
       </c>
       <c r="AE16">
-        <v>14.3028</v>
+        <v>14.1643</v>
       </c>
       <c r="AF16">
-        <v>14.3028</v>
+        <v>14.1643</v>
       </c>
       <c r="AG16">
-        <v>0.854868</v>
+        <v>0.856853</v>
       </c>
       <c r="AH16">
-        <v>0.229371</v>
+        <v>0.233706</v>
       </c>
       <c r="AI16">
-        <v>1.2018E-05</v>
+        <v>1.19934E-05</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>62</v>
@@ -3175,34 +3175,34 @@
         <v>62</v>
       </c>
       <c r="AN16">
-        <v>0.230106</v>
+        <v>0.234527</v>
       </c>
       <c r="AO16">
-        <v>876.348</v>
+        <v>876.3440000000001</v>
       </c>
       <c r="AP16">
-        <v>835.688</v>
+        <v>835.686</v>
       </c>
       <c r="AQ16">
-        <v>894.888</v>
+        <v>895.474</v>
       </c>
       <c r="AR16">
-        <v>755.45</v>
+        <v>755.364</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT16">
-        <v>726.612</v>
+        <v>726.606</v>
       </c>
       <c r="AU16">
-        <v>786.179</v>
+        <v>786.178</v>
       </c>
       <c r="AV16">
-        <v>743.755</v>
+        <v>744.3099999999999</v>
       </c>
       <c r="AW16">
-        <v>806.171</v>
+        <v>806.037</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>63</v>
@@ -3246,73 +3246,73 @@
         <v>74</v>
       </c>
       <c r="M17">
-        <v>50.6053</v>
+        <v>50.6264</v>
       </c>
       <c r="N17">
-        <v>19.4689</v>
+        <v>19.4306</v>
       </c>
       <c r="O17">
-        <v>27.4972</v>
+        <v>27.5978</v>
       </c>
       <c r="P17">
-        <v>50.2894</v>
+        <v>50.3502</v>
       </c>
       <c r="Q17">
-        <v>50.605</v>
+        <v>50.6265</v>
       </c>
       <c r="R17">
-        <v>99.9995</v>
+        <v>100</v>
       </c>
       <c r="S17">
-        <v>49.6874</v>
+        <v>49.7269</v>
       </c>
       <c r="T17">
-        <v>50.2894</v>
+        <v>50.3502</v>
       </c>
       <c r="U17">
-        <v>27.0479</v>
+        <v>27.136</v>
       </c>
       <c r="V17">
-        <v>21.5278</v>
+        <v>21.4091</v>
       </c>
       <c r="W17">
-        <v>16.2499</v>
+        <v>16.6355</v>
       </c>
       <c r="X17">
-        <v>19.0443</v>
+        <v>18.907</v>
       </c>
       <c r="Y17">
-        <v>19.0443</v>
+        <v>18.907</v>
       </c>
       <c r="Z17">
-        <v>19.0427</v>
+        <v>18.9076</v>
       </c>
       <c r="AA17">
-        <v>27.4972</v>
+        <v>27.5978</v>
       </c>
       <c r="AB17">
-        <v>19.3963</v>
+        <v>18.9525</v>
       </c>
       <c r="AC17">
-        <v>15.1041</v>
+        <v>15.3974</v>
       </c>
       <c r="AD17">
-        <v>19.4689</v>
+        <v>19.4306</v>
       </c>
       <c r="AE17">
-        <v>19.4689</v>
+        <v>19.4306</v>
       </c>
       <c r="AF17">
-        <v>19.4689</v>
+        <v>19.4306</v>
       </c>
       <c r="AG17">
-        <v>0.695978</v>
+        <v>0.697542</v>
       </c>
       <c r="AH17">
-        <v>0.187249</v>
+        <v>0.190657</v>
       </c>
       <c r="AI17">
-        <v>0.00144437</v>
+        <v>0.00144435</v>
       </c>
       <c r="AJ17" s="2" t="s">
         <v>62</v>
@@ -3327,34 +3327,34 @@
         <v>62</v>
       </c>
       <c r="AN17">
-        <v>0.187692</v>
+        <v>0.191109</v>
       </c>
       <c r="AO17">
-        <v>877.297</v>
+        <v>877.2910000000001</v>
       </c>
       <c r="AP17">
-        <v>839.5720000000001</v>
+        <v>839.563</v>
       </c>
       <c r="AQ17">
-        <v>900.943</v>
+        <v>901.6229999999999</v>
       </c>
       <c r="AR17">
-        <v>765.314</v>
+        <v>765.351</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT17">
-        <v>728.41</v>
+        <v>728.404</v>
       </c>
       <c r="AU17">
-        <v>789.8040000000001</v>
+        <v>789.797</v>
       </c>
       <c r="AV17">
-        <v>750.501</v>
+        <v>751.1519999999999</v>
       </c>
       <c r="AW17">
-        <v>815.914</v>
+        <v>815.975</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>63</v>
@@ -3398,73 +3398,73 @@
         <v>76</v>
       </c>
       <c r="M18">
-        <v>50.6632</v>
+        <v>50.6156</v>
       </c>
       <c r="N18">
-        <v>15.9549</v>
+        <v>15.8307</v>
       </c>
       <c r="O18">
-        <v>23.7727</v>
+        <v>23.8766</v>
       </c>
       <c r="P18">
-        <v>40.6789</v>
+        <v>40.4931</v>
       </c>
       <c r="Q18">
-        <v>50.6631</v>
+        <v>50.6156</v>
       </c>
       <c r="R18">
-        <v>99.9997</v>
+        <v>100</v>
       </c>
       <c r="S18">
-        <v>40.0146</v>
+        <v>39.8745</v>
       </c>
       <c r="T18">
-        <v>40.6789</v>
+        <v>40.4931</v>
       </c>
       <c r="U18">
-        <v>23.7128</v>
+        <v>23.8189</v>
       </c>
       <c r="V18">
-        <v>18.7234</v>
+        <v>18.8638</v>
       </c>
       <c r="W18">
-        <v>14.1781</v>
+        <v>14.4134</v>
       </c>
       <c r="X18">
-        <v>15.6306</v>
+        <v>15.4771</v>
       </c>
       <c r="Y18">
-        <v>15.6306</v>
+        <v>15.4771</v>
       </c>
       <c r="Z18">
-        <v>15.6303</v>
+        <v>15.4794</v>
       </c>
       <c r="AA18">
-        <v>23.7727</v>
+        <v>23.8766</v>
       </c>
       <c r="AB18">
-        <v>17.0541</v>
+        <v>16.9024</v>
       </c>
       <c r="AC18">
-        <v>13.0599</v>
+        <v>13.2011</v>
       </c>
       <c r="AD18">
-        <v>15.9549</v>
+        <v>15.8307</v>
       </c>
       <c r="AE18">
-        <v>15.9549</v>
+        <v>15.8307</v>
       </c>
       <c r="AF18">
-        <v>15.9549</v>
+        <v>15.8307</v>
       </c>
       <c r="AG18">
-        <v>0.848035</v>
+        <v>0.849704</v>
       </c>
       <c r="AH18">
-        <v>0.245302</v>
+        <v>0.249339</v>
       </c>
       <c r="AI18">
-        <v>0.00164729</v>
+        <v>0.00164722</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>62</v>
@@ -3479,34 +3479,34 @@
         <v>62</v>
       </c>
       <c r="AN18">
-        <v>0.24578</v>
+        <v>0.249799</v>
       </c>
       <c r="AO18">
-        <v>875.277</v>
+        <v>875.268</v>
       </c>
       <c r="AP18">
-        <v>835.341</v>
+        <v>835.3339999999999</v>
       </c>
       <c r="AQ18">
-        <v>894.4340000000001</v>
+        <v>895.051</v>
       </c>
       <c r="AR18">
-        <v>755.641</v>
+        <v>755.5</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT18">
-        <v>726.306</v>
+        <v>726.3</v>
       </c>
       <c r="AU18">
-        <v>785.651</v>
+        <v>785.644</v>
       </c>
       <c r="AV18">
-        <v>743.864</v>
+        <v>744.452</v>
       </c>
       <c r="AW18">
-        <v>806.3040000000001</v>
+        <v>806.1180000000001</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>63</v>
@@ -3550,73 +3550,73 @@
         <v>74</v>
       </c>
       <c r="M19">
-        <v>52.116</v>
+        <v>52.3465</v>
       </c>
       <c r="N19">
-        <v>16.3529</v>
+        <v>16.2338</v>
       </c>
       <c r="O19">
-        <v>23.8914</v>
+        <v>23.9348</v>
       </c>
       <c r="P19">
-        <v>41.9771</v>
+        <v>42.2179</v>
       </c>
       <c r="Q19">
-        <v>52.1164</v>
+        <v>52.3468</v>
       </c>
       <c r="R19">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S19">
-        <v>39.858</v>
+        <v>39.8708</v>
       </c>
       <c r="T19">
-        <v>41.9771</v>
+        <v>42.2179</v>
       </c>
       <c r="U19">
-        <v>23.8914</v>
+        <v>23.9348</v>
       </c>
       <c r="V19">
-        <v>18.2864</v>
+        <v>18.4514</v>
       </c>
       <c r="W19">
-        <v>13.9651</v>
+        <v>14.524</v>
       </c>
       <c r="X19">
-        <v>16.347</v>
+        <v>16.2299</v>
       </c>
       <c r="Y19">
-        <v>16.347</v>
+        <v>16.2299</v>
       </c>
       <c r="Z19">
-        <v>16.3529</v>
+        <v>16.2338</v>
       </c>
       <c r="AA19">
-        <v>17.5596</v>
+        <v>17.5631</v>
       </c>
       <c r="AB19">
-        <v>12.0671</v>
+        <v>11.8228</v>
       </c>
       <c r="AC19">
-        <v>10.234</v>
+        <v>10.3912</v>
       </c>
       <c r="AD19">
-        <v>12.3029</v>
+        <v>12.3217</v>
       </c>
       <c r="AE19">
-        <v>12.3029</v>
+        <v>12.3217</v>
       </c>
       <c r="AF19">
-        <v>12.3029</v>
+        <v>12.3217</v>
       </c>
       <c r="AG19">
-        <v>0.698784</v>
+        <v>0.700677</v>
       </c>
       <c r="AH19">
-        <v>0.194683</v>
+        <v>0.198646</v>
       </c>
       <c r="AI19">
-        <v>6.913359999999999E-05</v>
+        <v>6.910669999999999E-05</v>
       </c>
       <c r="AJ19" s="2" t="s">
         <v>62</v>
@@ -3631,34 +3631,34 @@
         <v>62</v>
       </c>
       <c r="AN19">
-        <v>0.195883</v>
+        <v>0.199974</v>
       </c>
       <c r="AO19">
-        <v>879.624</v>
+        <v>879.62</v>
       </c>
       <c r="AP19">
-        <v>835.246</v>
+        <v>835.2339999999999</v>
       </c>
       <c r="AQ19">
-        <v>898.3679999999999</v>
+        <v>899.0170000000001</v>
       </c>
       <c r="AR19">
-        <v>755.4829999999999</v>
+        <v>755.496</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT19">
-        <v>724.27</v>
+        <v>724.268</v>
       </c>
       <c r="AU19">
-        <v>787.825</v>
+        <v>787.8280000000001</v>
       </c>
       <c r="AV19">
-        <v>742.0490000000001</v>
+        <v>742.515</v>
       </c>
       <c r="AW19">
-        <v>807.602</v>
+        <v>807.843</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>63</v>
@@ -3702,73 +3702,73 @@
         <v>76</v>
       </c>
       <c r="M20">
-        <v>52.4643</v>
+        <v>52.5731</v>
       </c>
       <c r="N20">
-        <v>12.8818</v>
+        <v>12.7647</v>
       </c>
       <c r="O20">
-        <v>20.6118</v>
+        <v>20.6589</v>
       </c>
       <c r="P20">
-        <v>33.77030000000001</v>
+        <v>33.7766</v>
       </c>
       <c r="Q20">
-        <v>52.4655</v>
+        <v>52.5737</v>
       </c>
       <c r="R20">
-        <v>100.002</v>
+        <v>100.001</v>
       </c>
       <c r="S20">
-        <v>31.3061</v>
+        <v>31.204</v>
       </c>
       <c r="T20">
-        <v>33.77030000000001</v>
+        <v>33.7766</v>
       </c>
       <c r="U20">
-        <v>20.6118</v>
+        <v>20.6589</v>
       </c>
       <c r="V20">
-        <v>15.2725</v>
+        <v>15.451</v>
       </c>
       <c r="W20">
-        <v>11.7165</v>
+        <v>12.0888</v>
       </c>
       <c r="X20">
-        <v>12.8822</v>
+        <v>12.7636</v>
       </c>
       <c r="Y20">
-        <v>12.8822</v>
+        <v>12.7636</v>
       </c>
       <c r="Z20">
-        <v>12.8818</v>
+        <v>12.7647</v>
       </c>
       <c r="AA20">
-        <v>17.6552</v>
+        <v>17.8009</v>
       </c>
       <c r="AB20">
-        <v>11.2809</v>
+        <v>11.0043</v>
       </c>
       <c r="AC20">
-        <v>9.13781</v>
+        <v>9.219530000000001</v>
       </c>
       <c r="AD20">
-        <v>10.5326</v>
+        <v>10.4891</v>
       </c>
       <c r="AE20">
-        <v>10.5326</v>
+        <v>10.4891</v>
       </c>
       <c r="AF20">
-        <v>10.5326</v>
+        <v>10.4891</v>
       </c>
       <c r="AG20">
-        <v>0.8503309999999999</v>
+        <v>0.852306</v>
       </c>
       <c r="AH20">
-        <v>0.254659</v>
+        <v>0.259365</v>
       </c>
       <c r="AI20">
-        <v>0.000105637</v>
+        <v>0.000105543</v>
       </c>
       <c r="AJ20" s="2" t="s">
         <v>62</v>
@@ -3783,34 +3783,34 @@
         <v>62</v>
       </c>
       <c r="AN20">
-        <v>0.255542</v>
+        <v>0.260314</v>
       </c>
       <c r="AO20">
         <v>876.9639999999999</v>
       </c>
       <c r="AP20">
-        <v>831.215</v>
+        <v>831.206</v>
       </c>
       <c r="AQ20">
-        <v>891.812</v>
+        <v>892.366</v>
       </c>
       <c r="AR20">
-        <v>746.9330000000001</v>
+        <v>746.829</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT20">
-        <v>722.547</v>
+        <v>722.54</v>
       </c>
       <c r="AU20">
         <v>783.783</v>
       </c>
       <c r="AV20">
-        <v>736.6039999999999</v>
+        <v>737.04</v>
       </c>
       <c r="AW20">
-        <v>799.395</v>
+        <v>799.4019999999999</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>63</v>
@@ -3854,70 +3854,70 @@
         <v>74</v>
       </c>
       <c r="M21">
-        <v>52.0592</v>
+        <v>52.238</v>
       </c>
       <c r="N21">
-        <v>17.027</v>
+        <v>16.9103</v>
       </c>
       <c r="O21">
-        <v>26.1415</v>
+        <v>26.1896</v>
       </c>
       <c r="P21">
-        <v>40.9025</v>
+        <v>41.0394</v>
       </c>
       <c r="Q21">
-        <v>52.0592</v>
+        <v>52.2354</v>
       </c>
       <c r="R21">
-        <v>99.9999</v>
+        <v>99.995</v>
       </c>
       <c r="S21">
-        <v>38.8502</v>
+        <v>38.803</v>
       </c>
       <c r="T21">
-        <v>40.9025</v>
+        <v>41.0394</v>
       </c>
       <c r="U21">
-        <v>26.1415</v>
+        <v>26.1896</v>
       </c>
       <c r="V21">
-        <v>19.996</v>
+        <v>20.176</v>
       </c>
       <c r="W21">
-        <v>15.3361</v>
+        <v>15.87</v>
       </c>
       <c r="X21">
-        <v>17.0335</v>
+        <v>16.9163</v>
       </c>
       <c r="Y21">
-        <v>17.0335</v>
+        <v>16.9163</v>
       </c>
       <c r="Z21">
-        <v>17.027</v>
+        <v>16.9103</v>
       </c>
       <c r="AA21">
-        <v>21.6309</v>
+        <v>21.7706</v>
       </c>
       <c r="AB21">
-        <v>14.7901</v>
+        <v>14.4626</v>
       </c>
       <c r="AC21">
-        <v>11.892</v>
+        <v>12.0882</v>
       </c>
       <c r="AD21">
-        <v>13.8146</v>
+        <v>13.8432</v>
       </c>
       <c r="AE21">
-        <v>13.8146</v>
+        <v>13.8432</v>
       </c>
       <c r="AF21">
-        <v>13.8146</v>
+        <v>13.8432</v>
       </c>
       <c r="AG21">
-        <v>0.691751</v>
+        <v>0.693223</v>
       </c>
       <c r="AH21">
-        <v>0.223583</v>
+        <v>0.227228</v>
       </c>
       <c r="AI21">
         <v>0.0109465</v>
@@ -3935,34 +3935,34 @@
         <v>62</v>
       </c>
       <c r="AN21">
-        <v>0.222692</v>
+        <v>0.226327</v>
       </c>
       <c r="AO21">
-        <v>878.426</v>
+        <v>878.418</v>
       </c>
       <c r="AP21">
-        <v>834.515</v>
+        <v>834.491</v>
       </c>
       <c r="AQ21">
-        <v>897.083</v>
+        <v>897.71</v>
       </c>
       <c r="AR21">
-        <v>754.475</v>
+        <v>754.4290000000001</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT21">
-        <v>723.6709999999999</v>
+        <v>723.668</v>
       </c>
       <c r="AU21">
-        <v>786.6609999999999</v>
+        <v>786.662</v>
       </c>
       <c r="AV21">
-        <v>741.409</v>
+        <v>741.909</v>
       </c>
       <c r="AW21">
-        <v>806.528</v>
+        <v>806.664</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>63</v>
@@ -4006,73 +4006,73 @@
         <v>76</v>
       </c>
       <c r="M22">
-        <v>52.2674</v>
+        <v>52.3719</v>
       </c>
       <c r="N22">
-        <v>14.1447</v>
+        <v>14.0167</v>
       </c>
       <c r="O22">
-        <v>23.4748</v>
+        <v>23.5218</v>
       </c>
       <c r="P22">
-        <v>34.7714</v>
+        <v>34.7227</v>
       </c>
       <c r="Q22">
-        <v>52.2674</v>
+        <v>52.3718</v>
       </c>
       <c r="R22">
-        <v>100</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S22">
-        <v>32.5039</v>
+        <v>32.3524</v>
       </c>
       <c r="T22">
-        <v>34.7714</v>
+        <v>34.7227</v>
       </c>
       <c r="U22">
-        <v>23.4748</v>
+        <v>23.5218</v>
       </c>
       <c r="V22">
-        <v>17.4424</v>
+        <v>17.6243</v>
       </c>
       <c r="W22">
-        <v>13.4158</v>
+        <v>13.7808</v>
       </c>
       <c r="X22">
-        <v>14.1447</v>
+        <v>14.0167</v>
       </c>
       <c r="Y22">
-        <v>14.1447</v>
+        <v>14.0167</v>
       </c>
       <c r="Z22">
-        <v>14.1447</v>
+        <v>14.0167</v>
       </c>
       <c r="AA22">
-        <v>20.5766</v>
+        <v>20.7035</v>
       </c>
       <c r="AB22">
-        <v>13.9564</v>
+        <v>13.6206</v>
       </c>
       <c r="AC22">
-        <v>10.8019</v>
+        <v>10.9156</v>
       </c>
       <c r="AD22">
-        <v>12.0767</v>
+        <v>12.0443</v>
       </c>
       <c r="AE22">
-        <v>12.0767</v>
+        <v>12.0443</v>
       </c>
       <c r="AF22">
-        <v>12.0767</v>
+        <v>12.0443</v>
       </c>
       <c r="AG22">
-        <v>0.8435009999999999</v>
+        <v>0.845153</v>
       </c>
       <c r="AH22">
-        <v>0.294007</v>
+        <v>0.298123</v>
       </c>
       <c r="AI22">
-        <v>0.0121924</v>
+        <v>0.0121922</v>
       </c>
       <c r="AJ22" s="2" t="s">
         <v>62</v>
@@ -4087,34 +4087,34 @@
         <v>62</v>
       </c>
       <c r="AN22">
-        <v>0.293202</v>
+        <v>0.297346</v>
       </c>
       <c r="AO22">
-        <v>876.481</v>
+        <v>876.4780000000001</v>
       </c>
       <c r="AP22">
-        <v>831.62</v>
+        <v>831.606</v>
       </c>
       <c r="AQ22">
-        <v>892.288</v>
+        <v>892.8440000000001</v>
       </c>
       <c r="AR22">
-        <v>748.135</v>
+        <v>747.9780000000001</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT22">
-        <v>722.576</v>
+        <v>722.571</v>
       </c>
       <c r="AU22">
-        <v>783.756</v>
+        <v>783.7520000000001</v>
       </c>
       <c r="AV22">
-        <v>737.4710000000001</v>
+        <v>737.936</v>
       </c>
       <c r="AW22">
-        <v>800.3960000000001</v>
+        <v>800.3480000000001</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>63</v>
@@ -4158,73 +4158,73 @@
         <v>74</v>
       </c>
       <c r="M23">
-        <v>51.8278</v>
+        <v>52.0374</v>
       </c>
       <c r="N23">
-        <v>17.1602</v>
+        <v>16.9659</v>
       </c>
       <c r="O23">
-        <v>24.0765</v>
+        <v>24.1304</v>
       </c>
       <c r="P23">
-        <v>42.97110000000001</v>
+        <v>42.982</v>
       </c>
       <c r="Q23">
-        <v>51.8294</v>
+        <v>52.0376</v>
       </c>
       <c r="R23">
-        <v>100.003</v>
+        <v>100</v>
       </c>
       <c r="S23">
-        <v>41.1412</v>
+        <v>40.9444</v>
       </c>
       <c r="T23">
-        <v>42.97110000000001</v>
+        <v>42.982</v>
       </c>
       <c r="U23">
-        <v>24.0765</v>
+        <v>24.1304</v>
       </c>
       <c r="V23">
-        <v>19.0688</v>
+        <v>19.2822</v>
       </c>
       <c r="W23">
-        <v>14.7758</v>
+        <v>15.1852</v>
       </c>
       <c r="X23">
-        <v>17.1677</v>
+        <v>16.9638</v>
       </c>
       <c r="Y23">
-        <v>17.1677</v>
+        <v>16.9638</v>
       </c>
       <c r="Z23">
-        <v>17.1602</v>
+        <v>16.9659</v>
       </c>
       <c r="AA23">
-        <v>18.9208</v>
+        <v>18.9543</v>
       </c>
       <c r="AB23">
-        <v>12.8822</v>
+        <v>12.5897</v>
       </c>
       <c r="AC23">
-        <v>11.0082</v>
+        <v>11.024</v>
       </c>
       <c r="AD23">
-        <v>13.0752</v>
+        <v>12.9913</v>
       </c>
       <c r="AE23">
-        <v>13.0752</v>
+        <v>12.9913</v>
       </c>
       <c r="AF23">
-        <v>13.0752</v>
+        <v>12.9913</v>
       </c>
       <c r="AG23">
-        <v>0.697715</v>
+        <v>0.699523</v>
       </c>
       <c r="AH23">
-        <v>0.189342</v>
+        <v>0.192864</v>
       </c>
       <c r="AI23">
-        <v>6.91335E-05</v>
+        <v>6.910669999999999E-05</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>62</v>
@@ -4239,19 +4239,19 @@
         <v>62</v>
       </c>
       <c r="AN23">
-        <v>0.190532</v>
+        <v>0.194095</v>
       </c>
       <c r="AO23">
-        <v>879.224</v>
+        <v>879.222</v>
       </c>
       <c r="AP23">
-        <v>835.5</v>
+        <v>835.489</v>
       </c>
       <c r="AQ23">
-        <v>898.7710000000001</v>
+        <v>899.457</v>
       </c>
       <c r="AR23">
-        <v>756.77</v>
+        <v>756.5700000000001</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>63</v>
@@ -4263,10 +4263,10 @@
         <v>787.898</v>
       </c>
       <c r="AV23">
-        <v>742.51</v>
+        <v>743.021</v>
       </c>
       <c r="AW23">
-        <v>808.5960000000001</v>
+        <v>808.6070000000001</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>63</v>
@@ -4310,73 +4310,73 @@
         <v>76</v>
       </c>
       <c r="M24">
-        <v>52.2337</v>
+        <v>52.3367</v>
       </c>
       <c r="N24">
-        <v>13.6805</v>
+        <v>13.49</v>
       </c>
       <c r="O24">
-        <v>20.9005</v>
+        <v>20.9602</v>
       </c>
       <c r="P24">
-        <v>34.8626</v>
+        <v>34.661</v>
       </c>
       <c r="Q24">
-        <v>52.2351</v>
+        <v>52.3364</v>
       </c>
       <c r="R24">
-        <v>100.003</v>
+        <v>99.99930000000001</v>
       </c>
       <c r="S24">
-        <v>32.6279</v>
+        <v>32.3244</v>
       </c>
       <c r="T24">
-        <v>34.8626</v>
+        <v>34.661</v>
       </c>
       <c r="U24">
-        <v>20.9005</v>
+        <v>20.9602</v>
       </c>
       <c r="V24">
-        <v>16.1208</v>
+        <v>16.3473</v>
       </c>
       <c r="W24">
-        <v>12.6089</v>
+        <v>12.8408</v>
       </c>
       <c r="X24">
-        <v>13.6806</v>
+        <v>13.5032</v>
       </c>
       <c r="Y24">
-        <v>13.6806</v>
+        <v>13.5032</v>
       </c>
       <c r="Z24">
-        <v>13.6805</v>
+        <v>13.49</v>
       </c>
       <c r="AA24">
-        <v>18.8262</v>
+        <v>19.0022</v>
       </c>
       <c r="AB24">
-        <v>12.2656</v>
+        <v>11.9428</v>
       </c>
       <c r="AC24">
-        <v>9.98254</v>
+        <v>9.91935</v>
       </c>
       <c r="AD24">
-        <v>11.3064</v>
+        <v>11.1643</v>
       </c>
       <c r="AE24">
-        <v>11.3064</v>
+        <v>11.1643</v>
       </c>
       <c r="AF24">
-        <v>11.3064</v>
+        <v>11.1643</v>
       </c>
       <c r="AG24">
-        <v>0.849251</v>
+        <v>0.851227</v>
       </c>
       <c r="AH24">
-        <v>0.24885</v>
+        <v>0.252789</v>
       </c>
       <c r="AI24">
-        <v>0.000105637</v>
+        <v>0.000105543</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>62</v>
@@ -4391,34 +4391,34 @@
         <v>62</v>
       </c>
       <c r="AN24">
-        <v>0.24991</v>
+        <v>0.25398</v>
       </c>
       <c r="AO24">
-        <v>876.58</v>
+        <v>876.578</v>
       </c>
       <c r="AP24">
-        <v>831.526</v>
+        <v>831.513</v>
       </c>
       <c r="AQ24">
-        <v>892.307</v>
+        <v>892.914</v>
       </c>
       <c r="AR24">
-        <v>748.2570000000001</v>
+        <v>747.95</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT24">
-        <v>722.4929999999999</v>
+        <v>722.4880000000001</v>
       </c>
       <c r="AU24">
-        <v>783.9359999999999</v>
+        <v>783.9400000000001</v>
       </c>
       <c r="AV24">
-        <v>737.138</v>
+        <v>737.6260000000001</v>
       </c>
       <c r="AW24">
-        <v>800.4879999999999</v>
+        <v>800.2860000000001</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>63</v>
@@ -4462,73 +4462,73 @@
         <v>74</v>
       </c>
       <c r="M25">
-        <v>51.8332</v>
+        <v>52.0025</v>
       </c>
       <c r="N25">
-        <v>17.9061</v>
+        <v>17.6985</v>
       </c>
       <c r="O25">
-        <v>26.4891</v>
+        <v>26.5432</v>
       </c>
       <c r="P25">
-        <v>41.93770000000001</v>
+        <v>41.8425</v>
       </c>
       <c r="Q25">
-        <v>51.8328</v>
+        <v>52.0038</v>
       </c>
       <c r="R25">
-        <v>99.99930000000001</v>
+        <v>100.003</v>
       </c>
       <c r="S25">
-        <v>40.1049</v>
+        <v>39.8348</v>
       </c>
       <c r="T25">
-        <v>41.93770000000001</v>
+        <v>41.8425</v>
       </c>
       <c r="U25">
-        <v>26.4891</v>
+        <v>26.5432</v>
       </c>
       <c r="V25">
-        <v>20.8731</v>
+        <v>21.0933</v>
       </c>
       <c r="W25">
-        <v>16.256</v>
+        <v>16.6197</v>
       </c>
       <c r="X25">
-        <v>17.9105</v>
+        <v>17.6985</v>
       </c>
       <c r="Y25">
-        <v>17.9105</v>
+        <v>17.6985</v>
       </c>
       <c r="Z25">
-        <v>17.9061</v>
+        <v>17.6985</v>
       </c>
       <c r="AA25">
-        <v>22.8844</v>
+        <v>23.04</v>
       </c>
       <c r="AB25">
-        <v>15.8028</v>
+        <v>15.4393</v>
       </c>
       <c r="AC25">
-        <v>12.7644</v>
+        <v>12.8089</v>
       </c>
       <c r="AD25">
-        <v>14.6425</v>
+        <v>14.5609</v>
       </c>
       <c r="AE25">
-        <v>14.6425</v>
+        <v>14.5609</v>
       </c>
       <c r="AF25">
-        <v>14.6425</v>
+        <v>14.5609</v>
       </c>
       <c r="AG25">
-        <v>0.690868</v>
+        <v>0.692261</v>
       </c>
       <c r="AH25">
-        <v>0.219164</v>
+        <v>0.22232</v>
       </c>
       <c r="AI25">
-        <v>0.010946</v>
+        <v>0.0109459</v>
       </c>
       <c r="AJ25" s="2" t="s">
         <v>62</v>
@@ -4543,34 +4543,34 @@
         <v>62</v>
       </c>
       <c r="AN25">
-        <v>0.218263</v>
+        <v>0.221321</v>
       </c>
       <c r="AO25">
-        <v>877.967</v>
+        <v>877.963</v>
       </c>
       <c r="AP25">
-        <v>834.7470000000001</v>
+        <v>834.72</v>
       </c>
       <c r="AQ25">
-        <v>897.501</v>
+        <v>898.1740000000001</v>
       </c>
       <c r="AR25">
-        <v>755.73</v>
+        <v>755.462</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT25">
-        <v>723.5600000000001</v>
+        <v>723.5590000000001</v>
       </c>
       <c r="AU25">
-        <v>786.746</v>
+        <v>786.744</v>
       </c>
       <c r="AV25">
-        <v>741.854</v>
+        <v>742.4019999999999</v>
       </c>
       <c r="AW25">
-        <v>807.563</v>
+        <v>807.468</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>63</v>
@@ -4614,73 +4614,73 @@
         <v>76</v>
       </c>
       <c r="M26">
-        <v>52.0613</v>
+        <v>52.1665</v>
       </c>
       <c r="N26">
-        <v>15.025</v>
+        <v>14.8045</v>
       </c>
       <c r="O26">
-        <v>23.9554</v>
+        <v>24.0087</v>
       </c>
       <c r="P26">
-        <v>35.9415</v>
+        <v>35.6701</v>
       </c>
       <c r="Q26">
-        <v>52.0596</v>
+        <v>52.1655</v>
       </c>
       <c r="R26">
-        <v>99.9969</v>
+        <v>99.99810000000001</v>
       </c>
       <c r="S26">
-        <v>33.881</v>
+        <v>33.5064</v>
       </c>
       <c r="T26">
-        <v>35.9415</v>
+        <v>35.6701</v>
       </c>
       <c r="U26">
-        <v>23.9554</v>
+        <v>24.0087</v>
       </c>
       <c r="V26">
-        <v>18.426</v>
+        <v>18.6456</v>
       </c>
       <c r="W26">
-        <v>14.4345</v>
+        <v>14.6398</v>
       </c>
       <c r="X26">
-        <v>15.0291</v>
+        <v>14.8015</v>
       </c>
       <c r="Y26">
-        <v>15.0291</v>
+        <v>14.8015</v>
       </c>
       <c r="Z26">
-        <v>15.025</v>
+        <v>14.8045</v>
       </c>
       <c r="AA26">
-        <v>21.5805</v>
+        <v>21.7108</v>
       </c>
       <c r="AB26">
-        <v>15.073</v>
+        <v>14.7614</v>
       </c>
       <c r="AC26">
-        <v>11.7528</v>
+        <v>11.7144</v>
       </c>
       <c r="AD26">
-        <v>12.9177</v>
+        <v>12.7819</v>
       </c>
       <c r="AE26">
-        <v>12.9177</v>
+        <v>12.7819</v>
       </c>
       <c r="AF26">
-        <v>12.9177</v>
+        <v>12.7819</v>
       </c>
       <c r="AG26">
-        <v>0.842552</v>
+        <v>0.844106</v>
       </c>
       <c r="AH26">
-        <v>0.289989</v>
+        <v>0.29327</v>
       </c>
       <c r="AI26">
-        <v>0.0121917</v>
+        <v>0.0121915</v>
       </c>
       <c r="AJ26" s="2" t="s">
         <v>62</v>
@@ -4695,34 +4695,34 @@
         <v>62</v>
       </c>
       <c r="AN26">
-        <v>0.289079</v>
+        <v>0.2924119999999999</v>
       </c>
       <c r="AO26">
-        <v>876.0400000000001</v>
+        <v>876.0410000000001</v>
       </c>
       <c r="AP26">
-        <v>831.947</v>
+        <v>831.923</v>
       </c>
       <c r="AQ26">
-        <v>892.837</v>
+        <v>893.447</v>
       </c>
       <c r="AR26">
-        <v>749.502</v>
+        <v>749.129</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT26">
-        <v>722.516</v>
+        <v>722.5110000000001</v>
       </c>
       <c r="AU26">
-        <v>783.924</v>
+        <v>783.9200000000001</v>
       </c>
       <c r="AV26">
-        <v>738.038</v>
+        <v>738.557</v>
       </c>
       <c r="AW26">
-        <v>801.567</v>
+        <v>801.295</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>63</v>
@@ -4766,73 +4766,73 @@
         <v>74</v>
       </c>
       <c r="M27">
-        <v>48.8902</v>
+        <v>48.759</v>
       </c>
       <c r="N27">
-        <v>15.9443</v>
+        <v>15.9392</v>
       </c>
       <c r="O27">
-        <v>22.8242</v>
+        <v>22.8734</v>
       </c>
       <c r="P27">
-        <v>40.935</v>
+        <v>41.1398</v>
       </c>
       <c r="Q27">
-        <v>48.8911</v>
+        <v>48.7588</v>
       </c>
       <c r="R27">
-        <v>100.002</v>
+        <v>99.9996</v>
       </c>
       <c r="S27">
-        <v>40.935</v>
+        <v>41.1398</v>
       </c>
       <c r="T27">
-        <v>39.8277</v>
+        <v>39.8992</v>
       </c>
       <c r="U27">
-        <v>16.8431</v>
+        <v>16.8413</v>
       </c>
       <c r="V27">
-        <v>13.625</v>
+        <v>13.28</v>
       </c>
       <c r="W27">
-        <v>11.0469</v>
+        <v>11.3052</v>
       </c>
       <c r="X27">
-        <v>12.3904</v>
+        <v>12.3538</v>
       </c>
       <c r="Y27">
-        <v>12.3904</v>
+        <v>12.3538</v>
       </c>
       <c r="Z27">
-        <v>12.3894</v>
+        <v>12.3531</v>
       </c>
       <c r="AA27">
-        <v>22.8242</v>
+        <v>22.8734</v>
       </c>
       <c r="AB27">
-        <v>16.5572</v>
+        <v>16.5975</v>
       </c>
       <c r="AC27">
-        <v>12.3683</v>
+        <v>12.7791</v>
       </c>
       <c r="AD27">
-        <v>15.9443</v>
+        <v>15.9392</v>
       </c>
       <c r="AE27">
-        <v>15.9443</v>
+        <v>15.9392</v>
       </c>
       <c r="AF27">
-        <v>15.9443</v>
+        <v>15.9392</v>
       </c>
       <c r="AG27">
-        <v>0.699488</v>
+        <v>0.70109</v>
       </c>
       <c r="AH27">
-        <v>0.195696</v>
+        <v>0.199904</v>
       </c>
       <c r="AI27">
-        <v>8.50069E-05</v>
+        <v>8.4999E-05</v>
       </c>
       <c r="AJ27" s="2" t="s">
         <v>62</v>
@@ -4847,34 +4847,34 @@
         <v>62</v>
       </c>
       <c r="AN27">
-        <v>0.196713</v>
+        <v>0.200807</v>
       </c>
       <c r="AO27">
-        <v>874.131</v>
+        <v>874.124</v>
       </c>
       <c r="AP27">
-        <v>837.13</v>
+        <v>837.134</v>
       </c>
       <c r="AQ27">
-        <v>892.7470000000001</v>
+        <v>893.24</v>
       </c>
       <c r="AR27">
-        <v>756.561</v>
+        <v>756.761</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT27">
-        <v>729.6420000000001</v>
+        <v>729.6379999999999</v>
       </c>
       <c r="AU27">
-        <v>785.399</v>
+        <v>785.39</v>
       </c>
       <c r="AV27">
-        <v>746.7860000000001</v>
+        <v>747.371</v>
       </c>
       <c r="AW27">
-        <v>805.453</v>
+        <v>805.524</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>63</v>
@@ -4918,73 +4918,73 @@
         <v>76</v>
       </c>
       <c r="M28">
-        <v>48.9347</v>
+        <v>48.8035</v>
       </c>
       <c r="N28">
-        <v>12.7815</v>
+        <v>12.7066</v>
       </c>
       <c r="O28">
-        <v>19.7122</v>
+        <v>19.7611</v>
       </c>
       <c r="P28">
-        <v>32.841</v>
+        <v>32.8641</v>
       </c>
       <c r="Q28">
-        <v>48.93380000000001</v>
+        <v>48.8037</v>
       </c>
       <c r="R28">
-        <v>99.9982</v>
+        <v>100</v>
       </c>
       <c r="S28">
-        <v>32.841</v>
+        <v>32.8641</v>
       </c>
       <c r="T28">
-        <v>31.7744</v>
+        <v>31.6683</v>
       </c>
       <c r="U28">
-        <v>16.873</v>
+        <v>16.8933</v>
       </c>
       <c r="V28">
-        <v>12.9767</v>
+        <v>12.6948</v>
       </c>
       <c r="W28">
-        <v>9.939760000000001</v>
+        <v>10.1174</v>
       </c>
       <c r="X28">
-        <v>10.5924</v>
+        <v>10.5242</v>
       </c>
       <c r="Y28">
-        <v>10.5924</v>
+        <v>10.5242</v>
       </c>
       <c r="Z28">
-        <v>10.5859</v>
+        <v>10.5285</v>
       </c>
       <c r="AA28">
-        <v>19.7122</v>
+        <v>19.7611</v>
       </c>
       <c r="AB28">
-        <v>13.958</v>
+        <v>14.0617</v>
       </c>
       <c r="AC28">
-        <v>10.4468</v>
+        <v>10.699</v>
       </c>
       <c r="AD28">
-        <v>12.7815</v>
+        <v>12.7066</v>
       </c>
       <c r="AE28">
-        <v>12.7815</v>
+        <v>12.7066</v>
       </c>
       <c r="AF28">
-        <v>12.7815</v>
+        <v>12.7066</v>
       </c>
       <c r="AG28">
-        <v>0.850672</v>
+        <v>0.852611</v>
       </c>
       <c r="AH28">
-        <v>0.255275</v>
+        <v>0.260056</v>
       </c>
       <c r="AI28">
-        <v>0.000115102</v>
+        <v>0.000115073</v>
       </c>
       <c r="AJ28" s="2" t="s">
         <v>62</v>
@@ -4999,34 +4999,34 @@
         <v>62</v>
       </c>
       <c r="AN28">
-        <v>0.256582</v>
+        <v>0.261366</v>
       </c>
       <c r="AO28">
-        <v>872.354</v>
+        <v>872.352</v>
       </c>
       <c r="AP28">
         <v>833.12</v>
       </c>
       <c r="AQ28">
-        <v>887.4710000000001</v>
+        <v>887.934</v>
       </c>
       <c r="AR28">
-        <v>748.4649999999999</v>
+        <v>748.4889999999999</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT28">
-        <v>727.053</v>
+        <v>727.051</v>
       </c>
       <c r="AU28">
-        <v>781.59</v>
+        <v>781.581</v>
       </c>
       <c r="AV28">
-        <v>740.499</v>
+        <v>741.0069999999999</v>
       </c>
       <c r="AW28">
-        <v>797.3990000000001</v>
+        <v>797.293</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>63</v>
@@ -5070,73 +5070,73 @@
         <v>74</v>
       </c>
       <c r="M29">
-        <v>48.7668</v>
+        <v>48.6763</v>
       </c>
       <c r="N29">
-        <v>17.4256</v>
+        <v>17.4188</v>
       </c>
       <c r="O29">
-        <v>24.814</v>
+        <v>24.8627</v>
       </c>
       <c r="P29">
-        <v>40.3929</v>
+        <v>40.503</v>
       </c>
       <c r="Q29">
-        <v>48.7672</v>
+        <v>48.6761</v>
       </c>
       <c r="R29">
-        <v>100.001</v>
+        <v>99.9996</v>
       </c>
       <c r="S29">
-        <v>40.3929</v>
+        <v>40.503</v>
       </c>
       <c r="T29">
-        <v>39.15880000000001</v>
+        <v>39.1814</v>
       </c>
       <c r="U29">
-        <v>20.7008</v>
+        <v>20.7088</v>
       </c>
       <c r="V29">
-        <v>16.359</v>
+        <v>15.9895</v>
       </c>
       <c r="W29">
-        <v>12.7289</v>
+        <v>12.9974</v>
       </c>
       <c r="X29">
-        <v>13.6774</v>
+        <v>13.6669</v>
       </c>
       <c r="Y29">
-        <v>13.6774</v>
+        <v>13.6669</v>
       </c>
       <c r="Z29">
-        <v>13.6822</v>
+        <v>13.6618</v>
       </c>
       <c r="AA29">
-        <v>24.814</v>
+        <v>24.8627</v>
       </c>
       <c r="AB29">
-        <v>18.808</v>
+        <v>18.9516</v>
       </c>
       <c r="AC29">
-        <v>14.1981</v>
+        <v>14.6369</v>
       </c>
       <c r="AD29">
-        <v>17.4256</v>
+        <v>17.4188</v>
       </c>
       <c r="AE29">
-        <v>17.4256</v>
+        <v>17.4188</v>
       </c>
       <c r="AF29">
-        <v>17.4256</v>
+        <v>17.4188</v>
       </c>
       <c r="AG29">
-        <v>0.691847</v>
+        <v>0.69323</v>
       </c>
       <c r="AH29">
-        <v>0.232572</v>
+        <v>0.236089</v>
       </c>
       <c r="AI29">
-        <v>0.0189613</v>
+        <v>0.0189612</v>
       </c>
       <c r="AJ29" s="2" t="s">
         <v>62</v>
@@ -5151,34 +5151,34 @@
         <v>62</v>
       </c>
       <c r="AN29">
-        <v>0.229431</v>
+        <v>0.233082</v>
       </c>
       <c r="AO29">
-        <v>872.6070000000001</v>
+        <v>872.605</v>
       </c>
       <c r="AP29">
-        <v>836.3579999999999</v>
+        <v>836.357</v>
       </c>
       <c r="AQ29">
-        <v>891.638</v>
+        <v>892.158</v>
       </c>
       <c r="AR29">
-        <v>756.019</v>
+        <v>756.129</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT29">
-        <v>729.372</v>
+        <v>729.3670000000001</v>
       </c>
       <c r="AU29">
-        <v>784.557</v>
+        <v>784.538</v>
       </c>
       <c r="AV29">
-        <v>746.5100000000001</v>
+        <v>747.1039999999999</v>
       </c>
       <c r="AW29">
-        <v>804.784</v>
+        <v>804.806</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>63</v>
@@ -5222,70 +5222,70 @@
         <v>76</v>
       </c>
       <c r="M30">
-        <v>48.8649</v>
+        <v>48.7682</v>
       </c>
       <c r="N30">
-        <v>14.4673</v>
+        <v>14.3856</v>
       </c>
       <c r="O30">
-        <v>22.0077</v>
+        <v>22.0465</v>
       </c>
       <c r="P30">
-        <v>34.1385</v>
+        <v>34.0986</v>
       </c>
       <c r="Q30">
-        <v>48.8655</v>
+        <v>48.76710000000001</v>
       </c>
       <c r="R30">
-        <v>100.001</v>
+        <v>99.9978</v>
       </c>
       <c r="S30">
-        <v>34.1385</v>
+        <v>34.0986</v>
       </c>
       <c r="T30">
-        <v>33.0068</v>
+        <v>32.8653</v>
       </c>
       <c r="U30">
-        <v>20.1762</v>
+        <v>20.2227</v>
       </c>
       <c r="V30">
-        <v>15.5006</v>
+        <v>15.3548</v>
       </c>
       <c r="W30">
-        <v>11.645</v>
+        <v>11.842</v>
       </c>
       <c r="X30">
-        <v>11.9733</v>
+        <v>11.9102</v>
       </c>
       <c r="Y30">
-        <v>11.9733</v>
+        <v>11.9102</v>
       </c>
       <c r="Z30">
-        <v>11.9713</v>
+        <v>11.9109</v>
       </c>
       <c r="AA30">
-        <v>22.0077</v>
+        <v>22.0465</v>
       </c>
       <c r="AB30">
-        <v>16.3757</v>
+        <v>16.5286</v>
       </c>
       <c r="AC30">
-        <v>12.3593</v>
+        <v>12.6395</v>
       </c>
       <c r="AD30">
-        <v>14.4673</v>
+        <v>14.3856</v>
       </c>
       <c r="AE30">
-        <v>14.4673</v>
+        <v>14.3856</v>
       </c>
       <c r="AF30">
-        <v>14.4673</v>
+        <v>14.3856</v>
       </c>
       <c r="AG30">
-        <v>0.8436439999999999</v>
+        <v>0.845212</v>
       </c>
       <c r="AH30">
-        <v>0.305439</v>
+        <v>0.309802</v>
       </c>
       <c r="AI30">
         <v>0.0218528</v>
@@ -5303,34 +5303,34 @@
         <v>62</v>
       </c>
       <c r="AN30">
-        <v>0.301998</v>
+        <v>0.30617</v>
       </c>
       <c r="AO30">
-        <v>871.629</v>
+        <v>871.6270000000001</v>
       </c>
       <c r="AP30">
-        <v>833.373</v>
+        <v>833.371</v>
       </c>
       <c r="AQ30">
-        <v>887.9069999999999</v>
+        <v>888.397</v>
       </c>
       <c r="AR30">
-        <v>749.763</v>
+        <v>749.723</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT30">
-        <v>727.324</v>
+        <v>727.321</v>
       </c>
       <c r="AU30">
-        <v>781.8049999999999</v>
+        <v>781.7909999999999</v>
       </c>
       <c r="AV30">
-        <v>741.6</v>
+        <v>742.1239999999999</v>
       </c>
       <c r="AW30">
-        <v>798.6319999999999</v>
+        <v>798.49</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>63</v>
@@ -5374,73 +5374,73 @@
         <v>74</v>
       </c>
       <c r="M31">
-        <v>49.05</v>
+        <v>48.808</v>
       </c>
       <c r="N31">
-        <v>16.7908</v>
+        <v>16.6712</v>
       </c>
       <c r="O31">
-        <v>23.5228</v>
+        <v>23.5809</v>
       </c>
       <c r="P31">
-        <v>42.0196</v>
+        <v>42.0601</v>
       </c>
       <c r="Q31">
-        <v>49.0492</v>
+        <v>48.8085</v>
       </c>
       <c r="R31">
-        <v>99.9983</v>
+        <v>100.001</v>
       </c>
       <c r="S31">
-        <v>42.0196</v>
+        <v>42.0601</v>
       </c>
       <c r="T31">
-        <v>41.06950000000001</v>
+        <v>40.8688</v>
       </c>
       <c r="U31">
-        <v>16.9295</v>
+        <v>16.9269</v>
       </c>
       <c r="V31">
-        <v>14.6602</v>
+        <v>14.2846</v>
       </c>
       <c r="W31">
-        <v>11.8718</v>
+        <v>12.0077</v>
       </c>
       <c r="X31">
-        <v>13.1559</v>
+        <v>13.0415</v>
       </c>
       <c r="Y31">
-        <v>13.1559</v>
+        <v>13.0415</v>
       </c>
       <c r="Z31">
-        <v>13.1608</v>
+        <v>13.041</v>
       </c>
       <c r="AA31">
-        <v>23.5228</v>
+        <v>23.5809</v>
       </c>
       <c r="AB31">
-        <v>17.336</v>
+        <v>17.4574</v>
       </c>
       <c r="AC31">
-        <v>13.1606</v>
+        <v>13.4197</v>
       </c>
       <c r="AD31">
-        <v>16.7908</v>
+        <v>16.6712</v>
       </c>
       <c r="AE31">
-        <v>16.7908</v>
+        <v>16.6712</v>
       </c>
       <c r="AF31">
-        <v>16.7908</v>
+        <v>16.6712</v>
       </c>
       <c r="AG31">
-        <v>0.698273</v>
+        <v>0.700036</v>
       </c>
       <c r="AH31">
-        <v>0.190332</v>
+        <v>0.193975</v>
       </c>
       <c r="AI31">
-        <v>8.500680000000001E-05</v>
+        <v>8.49989E-05</v>
       </c>
       <c r="AJ31" s="2" t="s">
         <v>62</v>
@@ -5455,34 +5455,34 @@
         <v>62</v>
       </c>
       <c r="AN31">
-        <v>0.191374</v>
+        <v>0.194948</v>
       </c>
       <c r="AO31">
-        <v>873.7420000000001</v>
+        <v>873.737</v>
       </c>
       <c r="AP31">
-        <v>837.269</v>
+        <v>837.2700000000001</v>
       </c>
       <c r="AQ31">
-        <v>893.1660000000001</v>
+        <v>893.7020000000001</v>
       </c>
       <c r="AR31">
-        <v>757.643</v>
+        <v>757.6859999999999</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT31">
-        <v>729.5640000000001</v>
+        <v>729.561</v>
       </c>
       <c r="AU31">
-        <v>785.6080000000001</v>
+        <v>785.599</v>
       </c>
       <c r="AV31">
-        <v>747.263</v>
+        <v>747.8920000000001</v>
       </c>
       <c r="AW31">
-        <v>806.6949999999999</v>
+        <v>806.494</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>63</v>
@@ -5526,73 +5526,73 @@
         <v>76</v>
       </c>
       <c r="M32">
-        <v>49.0569</v>
+        <v>48.8269</v>
       </c>
       <c r="N32">
-        <v>13.618</v>
+        <v>13.4351</v>
       </c>
       <c r="O32">
-        <v>20.4433</v>
+        <v>20.4994</v>
       </c>
       <c r="P32">
-        <v>33.9922</v>
+        <v>33.8627</v>
       </c>
       <c r="Q32">
-        <v>49.057</v>
+        <v>48.8273</v>
       </c>
       <c r="R32">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S32">
-        <v>33.9922</v>
+        <v>33.8627</v>
       </c>
       <c r="T32">
-        <v>33.0501</v>
+        <v>32.68770000000001</v>
       </c>
       <c r="U32">
-        <v>17.0656</v>
+        <v>17.0822</v>
       </c>
       <c r="V32">
-        <v>14.0306</v>
+        <v>13.8542</v>
       </c>
       <c r="W32">
-        <v>10.835</v>
+        <v>10.8825</v>
       </c>
       <c r="X32">
-        <v>11.3604</v>
+        <v>11.2295</v>
       </c>
       <c r="Y32">
-        <v>11.3604</v>
+        <v>11.2295</v>
       </c>
       <c r="Z32">
-        <v>11.3604</v>
+        <v>11.229</v>
       </c>
       <c r="AA32">
-        <v>20.4433</v>
+        <v>20.4994</v>
       </c>
       <c r="AB32">
-        <v>14.7714</v>
+        <v>14.9423</v>
       </c>
       <c r="AC32">
-        <v>11.3077</v>
+        <v>11.4163</v>
       </c>
       <c r="AD32">
-        <v>13.618</v>
+        <v>13.4351</v>
       </c>
       <c r="AE32">
-        <v>13.618</v>
+        <v>13.4351</v>
       </c>
       <c r="AF32">
-        <v>13.618</v>
+        <v>13.4351</v>
       </c>
       <c r="AG32">
-        <v>0.849665</v>
+        <v>0.8514350000000001</v>
       </c>
       <c r="AH32">
-        <v>0.249553</v>
+        <v>0.253669</v>
       </c>
       <c r="AI32">
-        <v>0.000115102</v>
+        <v>0.000115073</v>
       </c>
       <c r="AJ32" s="2" t="s">
         <v>62</v>
@@ -5607,34 +5607,34 @@
         <v>62</v>
       </c>
       <c r="AN32">
-        <v>0.250999</v>
+        <v>0.255088</v>
       </c>
       <c r="AO32">
         <v>872.001</v>
       </c>
       <c r="AP32">
-        <v>833.3199999999999</v>
+        <v>833.321</v>
       </c>
       <c r="AQ32">
-        <v>887.965</v>
+        <v>888.475</v>
       </c>
       <c r="AR32">
-        <v>749.616</v>
+        <v>749.486</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT32">
-        <v>727.005</v>
+        <v>727.003</v>
       </c>
       <c r="AU32">
-        <v>781.852</v>
+        <v>781.84</v>
       </c>
       <c r="AV32">
-        <v>741.043</v>
+        <v>741.606</v>
       </c>
       <c r="AW32">
-        <v>798.6750000000001</v>
+        <v>798.3130000000001</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>63</v>
@@ -5678,73 +5678,73 @@
         <v>74</v>
       </c>
       <c r="M33">
-        <v>48.9374</v>
+        <v>48.7439</v>
       </c>
       <c r="N33">
-        <v>18.3266</v>
+        <v>18.2114</v>
       </c>
       <c r="O33">
-        <v>25.4934</v>
+        <v>25.5407</v>
       </c>
       <c r="P33">
-        <v>41.4788</v>
+        <v>41.4133</v>
       </c>
       <c r="Q33">
-        <v>48.9372</v>
+        <v>48.7428</v>
       </c>
       <c r="R33">
-        <v>99.9995</v>
+        <v>99.99769999999999</v>
       </c>
       <c r="S33">
-        <v>41.4788</v>
+        <v>41.4133</v>
       </c>
       <c r="T33">
-        <v>40.4143</v>
+        <v>40.1545</v>
       </c>
       <c r="U33">
-        <v>20.889</v>
+        <v>20.8885</v>
       </c>
       <c r="V33">
-        <v>17.4611</v>
+        <v>17.1408</v>
       </c>
       <c r="W33">
-        <v>13.6491</v>
+        <v>13.7783</v>
       </c>
       <c r="X33">
-        <v>14.5178</v>
+        <v>14.4157</v>
       </c>
       <c r="Y33">
-        <v>14.5178</v>
+        <v>14.4157</v>
       </c>
       <c r="Z33">
-        <v>14.5146</v>
+        <v>14.4125</v>
       </c>
       <c r="AA33">
-        <v>25.4934</v>
+        <v>25.5407</v>
       </c>
       <c r="AB33">
-        <v>19.6535</v>
+        <v>19.8464</v>
       </c>
       <c r="AC33">
-        <v>15.1029</v>
+        <v>15.3759</v>
       </c>
       <c r="AD33">
-        <v>18.3266</v>
+        <v>18.2114</v>
       </c>
       <c r="AE33">
-        <v>18.3266</v>
+        <v>18.2114</v>
       </c>
       <c r="AF33">
-        <v>18.3266</v>
+        <v>18.2114</v>
       </c>
       <c r="AG33">
-        <v>0.691095</v>
+        <v>0.692266</v>
       </c>
       <c r="AH33">
-        <v>0.228082</v>
+        <v>0.231283</v>
       </c>
       <c r="AI33">
-        <v>0.0189596</v>
+        <v>0.0189595</v>
       </c>
       <c r="AJ33" s="2" t="s">
         <v>62</v>
@@ -5759,34 +5759,34 @@
         <v>62</v>
       </c>
       <c r="AN33">
-        <v>0.225115</v>
+        <v>0.228179</v>
       </c>
       <c r="AO33">
-        <v>872.173</v>
+        <v>872.1659999999999</v>
       </c>
       <c r="AP33">
-        <v>836.477</v>
+        <v>836.4730000000001</v>
       </c>
       <c r="AQ33">
-        <v>892.058</v>
+        <v>892.621</v>
       </c>
       <c r="AR33">
-        <v>757.1030000000001</v>
+        <v>757.038</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT33">
-        <v>729.2810000000001</v>
+        <v>729.2769999999999</v>
       </c>
       <c r="AU33">
-        <v>784.772</v>
+        <v>784.751</v>
       </c>
       <c r="AV33">
-        <v>747.001</v>
+        <v>747.639</v>
       </c>
       <c r="AW33">
-        <v>806.0390000000001</v>
+        <v>805.78</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>63</v>
@@ -5830,73 +5830,73 @@
         <v>76</v>
       </c>
       <c r="M34">
-        <v>49.0081</v>
+        <v>48.8215</v>
       </c>
       <c r="N34">
-        <v>15.3705</v>
+        <v>15.1841</v>
       </c>
       <c r="O34">
-        <v>22.7632</v>
+        <v>22.81</v>
       </c>
       <c r="P34">
-        <v>35.3481</v>
+        <v>35.1398</v>
       </c>
       <c r="Q34">
-        <v>49.008</v>
+        <v>48.8203</v>
       </c>
       <c r="R34">
-        <v>99.9999</v>
+        <v>99.9975</v>
       </c>
       <c r="S34">
-        <v>35.3481</v>
+        <v>35.1398</v>
       </c>
       <c r="T34">
-        <v>34.3561</v>
+        <v>33.9578</v>
       </c>
       <c r="U34">
-        <v>20.3953</v>
+        <v>20.4299</v>
       </c>
       <c r="V34">
-        <v>16.5862</v>
+        <v>16.556</v>
       </c>
       <c r="W34">
-        <v>12.6585</v>
+        <v>12.7117</v>
       </c>
       <c r="X34">
-        <v>12.8132</v>
+        <v>12.6762</v>
       </c>
       <c r="Y34">
-        <v>12.8132</v>
+        <v>12.6762</v>
       </c>
       <c r="Z34">
-        <v>12.8122</v>
+        <v>12.6729</v>
       </c>
       <c r="AA34">
-        <v>22.7632</v>
+        <v>22.81</v>
       </c>
       <c r="AB34">
-        <v>17.3131</v>
+        <v>17.5116</v>
       </c>
       <c r="AC34">
-        <v>13.3584</v>
+        <v>13.472</v>
       </c>
       <c r="AD34">
-        <v>15.3705</v>
+        <v>15.1841</v>
       </c>
       <c r="AE34">
-        <v>15.3705</v>
+        <v>15.1841</v>
       </c>
       <c r="AF34">
-        <v>15.3705</v>
+        <v>15.1841</v>
       </c>
       <c r="AG34">
-        <v>0.842708</v>
+        <v>0.844139</v>
       </c>
       <c r="AH34">
-        <v>0.301589</v>
+        <v>0.305237</v>
       </c>
       <c r="AI34">
-        <v>0.0218506</v>
+        <v>0.0218505</v>
       </c>
       <c r="AJ34" s="2" t="s">
         <v>62</v>
@@ -5911,34 +5911,34 @@
         <v>62</v>
       </c>
       <c r="AN34">
-        <v>0.298039</v>
+        <v>0.301413</v>
       </c>
       <c r="AO34">
-        <v>871.218</v>
+        <v>871.211</v>
       </c>
       <c r="AP34">
-        <v>833.573</v>
+        <v>833.572</v>
       </c>
       <c r="AQ34">
-        <v>888.4470000000001</v>
+        <v>888.989</v>
       </c>
       <c r="AR34">
-        <v>750.975</v>
+        <v>750.764</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT34">
-        <v>727.2810000000001</v>
+        <v>727.2769999999999</v>
       </c>
       <c r="AU34">
-        <v>782.095</v>
+        <v>782.0790000000001</v>
       </c>
       <c r="AV34">
-        <v>742.205</v>
+        <v>742.778</v>
       </c>
       <c r="AW34">
-        <v>799.981</v>
+        <v>799.583</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>63</v>
@@ -6101,73 +6101,73 @@
         <v>124</v>
       </c>
       <c r="M36" s="1">
-        <v>48.7668</v>
+        <v>48.6763</v>
       </c>
       <c r="N36" s="1">
-        <v>10.1365</v>
+        <v>10.0281</v>
       </c>
       <c r="O36" s="1">
-        <v>18.7245</v>
+        <v>18.7715</v>
       </c>
       <c r="P36" s="1">
-        <v>27.9738</v>
+        <v>27.8033</v>
       </c>
       <c r="Q36" s="1">
-        <v>48.7672</v>
+        <v>48.6761</v>
       </c>
       <c r="R36" s="1">
-        <v>99.996</v>
+        <v>99.995</v>
       </c>
       <c r="S36" s="1">
-        <v>27.2877</v>
+        <v>27.1333</v>
       </c>
       <c r="T36" s="1">
-        <v>27.9738</v>
+        <v>27.8033</v>
       </c>
       <c r="U36" s="1">
-        <v>16.8431</v>
+        <v>16.8413</v>
       </c>
       <c r="V36" s="1">
-        <v>12.9767</v>
+        <v>12.6948</v>
       </c>
       <c r="W36" s="1">
-        <v>9.939760000000001</v>
+        <v>10.1174</v>
       </c>
       <c r="X36" s="1">
-        <v>10.1445</v>
+        <v>10.0241</v>
       </c>
       <c r="Y36" s="1">
-        <v>10.1445</v>
+        <v>10.0241</v>
       </c>
       <c r="Z36" s="1">
-        <v>10.1365</v>
+        <v>10.0281</v>
       </c>
       <c r="AA36" s="1">
-        <v>17.5596</v>
+        <v>17.5631</v>
       </c>
       <c r="AB36" s="1">
-        <v>11.2809</v>
+        <v>11.0043</v>
       </c>
       <c r="AC36" s="1">
-        <v>9.07404</v>
+        <v>9.14485</v>
       </c>
       <c r="AD36" s="1">
-        <v>10.0678</v>
+        <v>9.962060000000001</v>
       </c>
       <c r="AE36" s="1">
-        <v>10.0678</v>
+        <v>9.962060000000001</v>
       </c>
       <c r="AF36" s="1">
-        <v>10.0678</v>
+        <v>9.962060000000001</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.685993</v>
+        <v>0.687146</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.177352</v>
+        <v>0.180975</v>
       </c>
       <c r="AI36" s="1">
-        <v>3.97663E-06</v>
+        <v>3.96992E-06</v>
       </c>
       <c r="AJ36" s="1" t="s">
         <v>62</v>
@@ -6182,34 +6182,34 @@
         <v>62</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.178749</v>
+        <v>0.182425</v>
       </c>
       <c r="AO36" s="1">
-        <v>871.218</v>
+        <v>871.211</v>
       </c>
       <c r="AP36" s="1">
-        <v>829.739</v>
+        <v>829.734</v>
       </c>
       <c r="AQ36" s="1">
-        <v>886.2280000000001</v>
+        <v>886.6990000000001</v>
       </c>
       <c r="AR36" s="1">
-        <v>742.913</v>
+        <v>742.756</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT36" s="1">
-        <v>722.4929999999999</v>
+        <v>722.4880000000001</v>
       </c>
       <c r="AU36" s="1">
         <v>780.2959999999999</v>
       </c>
       <c r="AV36" s="1">
-        <v>735.168</v>
+        <v>735.6020000000001</v>
       </c>
       <c r="AW36" s="1">
-        <v>793.599</v>
+        <v>793.428</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>62</v>
@@ -6220,73 +6220,73 @@
         <v>125</v>
       </c>
       <c r="M37" s="1">
-        <v>52.4643</v>
+        <v>52.5731</v>
       </c>
       <c r="N37" s="1">
-        <v>19.4689</v>
+        <v>19.4306</v>
       </c>
       <c r="O37" s="1">
-        <v>27.4972</v>
+        <v>27.5978</v>
       </c>
       <c r="P37" s="1">
-        <v>53.16079999999999</v>
+        <v>53.3349</v>
       </c>
       <c r="Q37" s="1">
-        <v>52.4655</v>
+        <v>52.5737</v>
       </c>
       <c r="R37" s="1">
         <v>100.004</v>
       </c>
       <c r="S37" s="1">
-        <v>52.5752</v>
+        <v>52.688</v>
       </c>
       <c r="T37" s="1">
-        <v>53.16079999999999</v>
+        <v>53.3349</v>
       </c>
       <c r="U37" s="1">
-        <v>27.237</v>
+        <v>27.3224</v>
       </c>
       <c r="V37" s="1">
-        <v>21.5278</v>
+        <v>21.4091</v>
       </c>
       <c r="W37" s="1">
-        <v>16.256</v>
+        <v>16.6355</v>
       </c>
       <c r="X37" s="1">
-        <v>19.0443</v>
+        <v>18.907</v>
       </c>
       <c r="Y37" s="1">
-        <v>19.0443</v>
+        <v>18.907</v>
       </c>
       <c r="Z37" s="1">
-        <v>19.0427</v>
+        <v>18.9076</v>
       </c>
       <c r="AA37" s="1">
-        <v>27.4972</v>
+        <v>27.5978</v>
       </c>
       <c r="AB37" s="1">
-        <v>19.6535</v>
+        <v>19.8464</v>
       </c>
       <c r="AC37" s="1">
-        <v>15.1041</v>
+        <v>15.3974</v>
       </c>
       <c r="AD37" s="1">
-        <v>19.4689</v>
+        <v>19.4306</v>
       </c>
       <c r="AE37" s="1">
-        <v>19.4689</v>
+        <v>19.4306</v>
       </c>
       <c r="AF37" s="1">
-        <v>19.4689</v>
+        <v>19.4306</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.856118</v>
+        <v>0.85841</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.381098</v>
+        <v>0.384379</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.0441107</v>
+        <v>0.04411039999999999</v>
       </c>
       <c r="AJ37" s="1" t="s">
         <v>62</v>
@@ -6301,34 +6301,34 @@
         <v>62</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.374385</v>
+        <v>0.377742</v>
       </c>
       <c r="AO37" s="1">
-        <v>879.624</v>
+        <v>879.62</v>
       </c>
       <c r="AP37" s="1">
-        <v>841.306</v>
+        <v>841.311</v>
       </c>
       <c r="AQ37" s="1">
-        <v>903.777</v>
+        <v>904.4549999999999</v>
       </c>
       <c r="AR37" s="1">
-        <v>768.201</v>
+        <v>768.318</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT37" s="1">
-        <v>729.6420000000001</v>
+        <v>729.6379999999999</v>
       </c>
       <c r="AU37" s="1">
-        <v>791.759</v>
+        <v>791.764</v>
       </c>
       <c r="AV37" s="1">
-        <v>752.5</v>
+        <v>753.1270000000001</v>
       </c>
       <c r="AW37" s="1">
-        <v>818.7860000000001</v>
+        <v>818.96</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>62</v>
@@ -6374,73 +6374,73 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>50.54281818181819</v>
+        <v>50.54221212121212</v>
       </c>
       <c r="N42" s="1">
-        <v>14.91620606060606</v>
+        <v>14.7982696969697</v>
       </c>
       <c r="O42" s="1">
-        <v>22.8784</v>
+        <v>22.94647272727273</v>
       </c>
       <c r="P42" s="1">
-        <v>38.2576696969697</v>
+        <v>38.21110303030301</v>
       </c>
       <c r="Q42" s="1">
-        <v>50.54303030303032</v>
+        <v>50.54207575757575</v>
       </c>
       <c r="R42" s="1">
-        <v>100.0004</v>
+        <v>99.99968787878788</v>
       </c>
       <c r="S42" s="1">
-        <v>37.45798787878788</v>
+        <v>37.37213333333332</v>
       </c>
       <c r="T42" s="1">
-        <v>38.00044545454545</v>
+        <v>37.91418181818181</v>
       </c>
       <c r="U42" s="1">
-        <v>21.80864848484849</v>
+        <v>21.86097575757576</v>
       </c>
       <c r="V42" s="1">
-        <v>16.89977878787879</v>
+        <v>16.89154545454545</v>
       </c>
       <c r="W42" s="1">
-        <v>12.95233272727273</v>
+        <v>13.22001212121212</v>
       </c>
       <c r="X42" s="1">
-        <v>14.1213696969697</v>
+        <v>13.99088181818182</v>
       </c>
       <c r="Y42" s="1">
-        <v>14.1213696969697</v>
+        <v>13.99088181818182</v>
       </c>
       <c r="Z42" s="1">
-        <v>14.12040606060606</v>
+        <v>13.99053333333333</v>
       </c>
       <c r="AA42" s="1">
-        <v>21.77747575757576</v>
+        <v>21.86658181818182</v>
       </c>
       <c r="AB42" s="1">
-        <v>15.29458484848485</v>
+        <v>15.15985151515152</v>
       </c>
       <c r="AC42" s="1">
-        <v>11.89251545454545</v>
+        <v>12.05610909090909</v>
       </c>
       <c r="AD42" s="1">
-        <v>14.16416666666666</v>
+        <v>14.08350181818182</v>
       </c>
       <c r="AE42" s="1">
-        <v>14.16416666666666</v>
+        <v>14.08350181818182</v>
       </c>
       <c r="AF42" s="1">
-        <v>14.16416666666666</v>
+        <v>14.08350181818182</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7709859999999999</v>
+        <v>0.7726204848484848</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.2467573939393939</v>
+        <v>0.2505119090909091</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.009154241759696969</v>
+        <v>0.009154166662121216</v>
       </c>
       <c r="AJ42" s="1" t="s">
         <v>62</v>
@@ -6455,34 +6455,34 @@
         <v>62</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.246147</v>
+        <v>0.2499255454545454</v>
       </c>
       <c r="AO42" s="1">
-        <v>875.1710606060607</v>
+        <v>875.1680909090911</v>
       </c>
       <c r="AP42" s="1">
-        <v>834.3931818181818</v>
+        <v>834.3864242424244</v>
       </c>
       <c r="AQ42" s="1">
-        <v>893.0141212121213</v>
+        <v>893.5819696969698</v>
       </c>
       <c r="AR42" s="1">
-        <v>753.0836666666668</v>
+        <v>752.9972121212122</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT42" s="1">
-        <v>725.8719696969696</v>
+        <v>725.8693939393938</v>
       </c>
       <c r="AU42" s="1">
-        <v>784.7358484848487</v>
+        <v>784.7306363636362</v>
       </c>
       <c r="AV42" s="1">
-        <v>742.2250303030303</v>
+        <v>742.759515151515</v>
       </c>
       <c r="AW42" s="1">
-        <v>803.6255151515153</v>
+        <v>803.5391515151515</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>62</v>
@@ -6493,73 +6493,73 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>1.113918096780948</v>
+        <v>1.221903589847979</v>
       </c>
       <c r="N43" s="1">
-        <v>2.399262854590513</v>
+        <v>2.418793986051833</v>
       </c>
       <c r="O43" s="1">
-        <v>2.284529771654499</v>
+        <v>2.288482936327527</v>
       </c>
       <c r="P43" s="1">
-        <v>6.304767098982726</v>
+        <v>6.455168603787523</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.114000828160523</v>
+        <v>1.221964992562663</v>
       </c>
       <c r="R43" s="1">
-        <v>0.00178495395068458</v>
+        <v>0.001745080978543504</v>
       </c>
       <c r="S43" s="1">
-        <v>6.321132127010619</v>
+        <v>6.445162251556503</v>
       </c>
       <c r="T43" s="1">
-        <v>6.343994071995153</v>
+        <v>6.499525648493666</v>
       </c>
       <c r="U43" s="1">
-        <v>2.862587284271602</v>
+        <v>2.877431283336128</v>
       </c>
       <c r="V43" s="1">
-        <v>2.206429041873491</v>
+        <v>2.238585090211159</v>
       </c>
       <c r="W43" s="1">
-        <v>1.682452583083061</v>
+        <v>1.773769359260971</v>
       </c>
       <c r="X43" s="1">
-        <v>2.402652927240782</v>
+        <v>2.399431919693739</v>
       </c>
       <c r="Y43" s="1">
-        <v>2.402652927240782</v>
+        <v>2.399431919693739</v>
       </c>
       <c r="Z43" s="1">
-        <v>2.403685832209207</v>
+        <v>2.39866019744946</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.460871718675303</v>
+        <v>2.464965303395191</v>
       </c>
       <c r="AB43" s="1">
-        <v>2.143516057876986</v>
+        <v>2.215047883896023</v>
       </c>
       <c r="AC43" s="1">
-        <v>1.573553632616875</v>
+        <v>1.657093636626386</v>
       </c>
       <c r="AD43" s="1">
-        <v>2.461604536792122</v>
+        <v>2.489278963167732</v>
       </c>
       <c r="AE43" s="1">
-        <v>2.461604536792122</v>
+        <v>2.489278963167732</v>
       </c>
       <c r="AF43" s="1">
-        <v>2.461604536792122</v>
+        <v>2.489278963167732</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07470606020162278</v>
+        <v>0.07478746343335375</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.05076113855192016</v>
+        <v>0.05059597042666519</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.01386908836831896</v>
+        <v>0.01386903615353814</v>
       </c>
       <c r="AJ43" s="1" t="s">
         <v>62</v>
@@ -6574,34 +6574,34 @@
         <v>62</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.04903706603080053</v>
+        <v>0.0488776291203834</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.505926925092321</v>
+        <v>2.506562034771885</v>
       </c>
       <c r="AP43" s="1">
-        <v>2.997484192134082</v>
+        <v>3.000221598182402</v>
       </c>
       <c r="AQ43" s="1">
-        <v>4.743075544588254</v>
+        <v>4.801692949460615</v>
       </c>
       <c r="AR43" s="1">
-        <v>6.320993035077235</v>
+        <v>6.445654739094442</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.342276249588161</v>
+        <v>2.342872633786357</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.026298880883569</v>
+        <v>3.029020411890186</v>
       </c>
       <c r="AV43" s="1">
-        <v>4.646119935346821</v>
+        <v>4.697793925335792</v>
       </c>
       <c r="AW43" s="1">
-        <v>6.343998558032293</v>
+        <v>6.499542958855855</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>62</v>
@@ -6612,73 +6612,73 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>2.203909747916784</v>
+        <v>2.41759024499673</v>
       </c>
       <c r="N44" s="1">
-        <v>16.08494039866481</v>
+        <v>16.34511355437142</v>
       </c>
       <c r="O44" s="1">
-        <v>9.985531206965955</v>
+        <v>9.973136017578774</v>
       </c>
       <c r="P44" s="1">
-        <v>16.47974680350725</v>
+        <v>16.89343696429884</v>
       </c>
       <c r="Q44" s="1">
-        <v>2.204064183491849</v>
+        <v>2.417718256020584</v>
       </c>
       <c r="R44" s="1">
-        <v>0.001784946810897336</v>
+        <v>0.001745086425328408</v>
       </c>
       <c r="S44" s="1">
-        <v>16.87525808237612</v>
+        <v>17.24590403782989</v>
       </c>
       <c r="T44" s="1">
-        <v>16.69452554071655</v>
+        <v>17.14272954553593</v>
       </c>
       <c r="U44" s="1">
-        <v>13.12592702046795</v>
+        <v>13.16241011034914</v>
       </c>
       <c r="V44" s="1">
-        <v>13.0559640428905</v>
+        <v>13.25269553478758</v>
       </c>
       <c r="W44" s="1">
-        <v>12.98957198297146</v>
+        <v>13.41730509017368</v>
       </c>
       <c r="X44" s="1">
-        <v>17.01430511911579</v>
+        <v>17.14996917903747</v>
       </c>
       <c r="Y44" s="1">
-        <v>17.01430511911579</v>
+        <v>17.14996917903747</v>
       </c>
       <c r="Z44" s="1">
-        <v>17.02278122804946</v>
+        <v>17.14488032943319</v>
       </c>
       <c r="AA44" s="1">
-        <v>11.30007786976522</v>
+        <v>11.27275092143391</v>
       </c>
       <c r="AB44" s="1">
-        <v>14.01486917828523</v>
+        <v>14.61127690915833</v>
       </c>
       <c r="AC44" s="1">
-        <v>13.2314617427337</v>
+        <v>13.74484607041186</v>
       </c>
       <c r="AD44" s="1">
-        <v>17.37909892422514</v>
+        <v>17.67514212945299</v>
       </c>
       <c r="AE44" s="1">
-        <v>17.37909892422514</v>
+        <v>17.67514212945299</v>
       </c>
       <c r="AF44" s="1">
-        <v>17.37909892422514</v>
+        <v>17.67514212945299</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.689677919135081</v>
+        <v>9.679715319484442</v>
       </c>
       <c r="AH44" s="1">
-        <v>20.57127356612771</v>
+        <v>20.19703199351861</v>
       </c>
       <c r="AI44" s="1">
-        <v>151.504501764197</v>
+        <v>151.5051742604432</v>
       </c>
       <c r="AJ44" s="1" t="s">
         <v>62</v>
@@ -6693,34 +6693,34 @@
         <v>62</v>
       </c>
       <c r="AN44" s="1">
-        <v>19.92186215180381</v>
+        <v>19.55687604141806</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.2863356705781557</v>
+        <v>0.2864092122198107</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.3592412135490398</v>
+        <v>0.35957219712754</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.5311310797807207</v>
+        <v>0.5373533836060902</v>
       </c>
       <c r="AR44" s="1">
-        <v>0.8393480452252406</v>
+        <v>0.8559998145194814</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.322684488087616</v>
+        <v>0.3227677945024328</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.38564555024811</v>
+        <v>0.3859949225286227</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.6259718745203104</v>
+        <v>0.6324784576307303</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.7894222418804359</v>
+        <v>0.8088645023208056</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>62</v>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -966,73 +966,73 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>50.5167</v>
+        <v>50.4374</v>
       </c>
       <c r="N2">
-        <v>13.1872</v>
+        <v>13.2393</v>
       </c>
       <c r="O2">
-        <v>21.2652</v>
+        <v>17.0949</v>
       </c>
       <c r="P2">
-        <v>36.2582</v>
+        <v>35.207</v>
       </c>
       <c r="Q2">
-        <v>50.5162</v>
+        <v>50.4383</v>
       </c>
       <c r="R2">
-        <v>99.999</v>
+        <v>100.002</v>
       </c>
       <c r="S2">
-        <v>35.7421</v>
+        <v>34.7688</v>
       </c>
       <c r="T2">
-        <v>36.2582</v>
+        <v>35.207</v>
       </c>
       <c r="U2">
-        <v>21.1124</v>
+        <v>16.9301</v>
       </c>
       <c r="V2">
-        <v>16.3528</v>
+        <v>14.7455</v>
       </c>
       <c r="W2">
-        <v>12.4868</v>
+        <v>13.5722</v>
       </c>
       <c r="X2">
-        <v>13.1869</v>
+        <v>13.2143</v>
       </c>
       <c r="Y2">
-        <v>13.1869</v>
+        <v>13.2143</v>
       </c>
       <c r="Z2">
-        <v>13.186</v>
+        <v>13.2173</v>
       </c>
       <c r="AA2">
-        <v>21.2652</v>
+        <v>17.0949</v>
       </c>
       <c r="AB2">
-        <v>14.2842</v>
+        <v>12.2982</v>
       </c>
       <c r="AC2">
-        <v>11.3101</v>
+        <v>12.1213</v>
       </c>
       <c r="AD2">
-        <v>13.1872</v>
+        <v>13.2393</v>
       </c>
       <c r="AE2">
-        <v>13.1872</v>
+        <v>13.2393</v>
       </c>
       <c r="AF2">
-        <v>13.1872</v>
+        <v>13.2393</v>
       </c>
       <c r="AG2">
-        <v>0.773744</v>
+        <v>0.771156</v>
       </c>
       <c r="AH2">
-        <v>0.23236</v>
+        <v>0.196956</v>
       </c>
       <c r="AI2">
-        <v>0.000393019</v>
+        <v>0.000377823</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>62</v>
@@ -1047,34 +1047,34 @@
         <v>62</v>
       </c>
       <c r="AN2">
-        <v>0.233194</v>
+        <v>0.197579</v>
       </c>
       <c r="AO2">
-        <v>875.028</v>
+        <v>874.301</v>
       </c>
       <c r="AP2">
-        <v>833.7289999999999</v>
+        <v>832.8090000000001</v>
       </c>
       <c r="AQ2">
-        <v>892.511</v>
+        <v>890.79</v>
       </c>
       <c r="AR2">
-        <v>751.3660000000001</v>
+        <v>750.3920000000001</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT2">
-        <v>725.552</v>
+        <v>724.907</v>
       </c>
       <c r="AU2">
-        <v>784.119</v>
+        <v>782.49</v>
       </c>
       <c r="AV2">
-        <v>741.605</v>
+        <v>740.069</v>
       </c>
       <c r="AW2">
-        <v>801.8829999999999</v>
+        <v>800.832</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>63</v>
@@ -1118,73 +1118,73 @@
         <v>74</v>
       </c>
       <c r="M3">
-        <v>50.4593</v>
+        <v>50.3629</v>
       </c>
       <c r="N3">
-        <v>11.5107</v>
+        <v>11.5618</v>
       </c>
       <c r="O3">
-        <v>19.6015</v>
+        <v>16.0347</v>
       </c>
       <c r="P3">
-        <v>32.434</v>
+        <v>31.4031</v>
       </c>
       <c r="Q3">
-        <v>50.45970000000001</v>
+        <v>50.3627</v>
       </c>
       <c r="R3">
-        <v>100.001</v>
+        <v>99.99980000000001</v>
       </c>
       <c r="S3">
-        <v>31.9717</v>
+        <v>31.0405</v>
       </c>
       <c r="T3">
-        <v>32.434</v>
+        <v>31.4031</v>
       </c>
       <c r="U3">
-        <v>19.6015</v>
+        <v>16.0347</v>
       </c>
       <c r="V3">
-        <v>14.6074</v>
+        <v>13.2337</v>
       </c>
       <c r="W3">
-        <v>11.0617</v>
+        <v>12.0473</v>
       </c>
       <c r="X3">
-        <v>11.5044</v>
+        <v>11.5621</v>
       </c>
       <c r="Y3">
-        <v>11.5044</v>
+        <v>11.5621</v>
       </c>
       <c r="Z3">
-        <v>11.5107</v>
+        <v>11.5618</v>
       </c>
       <c r="AA3">
-        <v>19.5272</v>
+        <v>15.9135</v>
       </c>
       <c r="AB3">
-        <v>12.7667</v>
+        <v>11.0012</v>
       </c>
       <c r="AC3">
-        <v>10.0107</v>
+        <v>10.7437</v>
       </c>
       <c r="AD3">
-        <v>11.3557</v>
+        <v>11.4354</v>
       </c>
       <c r="AE3">
-        <v>11.3557</v>
+        <v>11.4354</v>
       </c>
       <c r="AF3">
-        <v>11.3557</v>
+        <v>11.4354</v>
       </c>
       <c r="AG3">
-        <v>0.69612</v>
+        <v>0.693739</v>
       </c>
       <c r="AH3">
-        <v>0.219741</v>
+        <v>0.185369</v>
       </c>
       <c r="AI3">
-        <v>0.000244774</v>
+        <v>0.000233715</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>62</v>
@@ -1199,34 +1199,34 @@
         <v>62</v>
       </c>
       <c r="AN3">
-        <v>0.220689</v>
+        <v>0.186197</v>
       </c>
       <c r="AO3">
-        <v>874.508</v>
+        <v>873.759</v>
       </c>
       <c r="AP3">
-        <v>832.148</v>
+        <v>831.237</v>
       </c>
       <c r="AQ3">
-        <v>890.038</v>
+        <v>888.465</v>
       </c>
       <c r="AR3">
-        <v>747.5940000000001</v>
+        <v>746.6660000000001</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT3">
-        <v>724.7760000000001</v>
+        <v>724.107</v>
       </c>
       <c r="AU3">
-        <v>782.577</v>
+        <v>781.033</v>
       </c>
       <c r="AV3">
-        <v>739.0169999999999</v>
+        <v>737.607</v>
       </c>
       <c r="AW3">
-        <v>798.0590000000001</v>
+        <v>797.028</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>63</v>
@@ -1270,73 +1270,73 @@
         <v>76</v>
       </c>
       <c r="M4">
-        <v>50.6736</v>
+        <v>50.5768</v>
       </c>
       <c r="N4">
-        <v>10.0281</v>
+        <v>10.0947</v>
       </c>
       <c r="O4">
-        <v>18.7715</v>
+        <v>16.2382</v>
       </c>
       <c r="P4">
-        <v>27.8033</v>
+        <v>26.7469</v>
       </c>
       <c r="Q4">
-        <v>50.6725</v>
+        <v>50.5758</v>
       </c>
       <c r="R4">
-        <v>99.9978</v>
+        <v>99.998</v>
       </c>
       <c r="S4">
-        <v>27.1333</v>
+        <v>26.1714</v>
       </c>
       <c r="T4">
-        <v>27.8033</v>
+        <v>26.7469</v>
       </c>
       <c r="U4">
-        <v>18.7715</v>
+        <v>16.2382</v>
       </c>
       <c r="V4">
-        <v>13.4416</v>
+        <v>12.2073</v>
       </c>
       <c r="W4">
-        <v>10.1271</v>
+        <v>10.9998</v>
       </c>
       <c r="X4">
-        <v>10.0241</v>
+        <v>10.0918</v>
       </c>
       <c r="Y4">
-        <v>10.0241</v>
+        <v>10.0918</v>
       </c>
       <c r="Z4">
-        <v>10.0281</v>
+        <v>10.0947</v>
       </c>
       <c r="AA4">
-        <v>18.099</v>
+        <v>15.3546</v>
       </c>
       <c r="AB4">
-        <v>12.1944</v>
+        <v>10.395</v>
       </c>
       <c r="AC4">
-        <v>9.14485</v>
+        <v>9.857719999999999</v>
       </c>
       <c r="AD4">
-        <v>9.962060000000001</v>
+        <v>10.0563</v>
       </c>
       <c r="AE4">
-        <v>9.962060000000001</v>
+        <v>10.0563</v>
       </c>
       <c r="AF4">
-        <v>9.962060000000001</v>
+        <v>10.0563</v>
       </c>
       <c r="AG4">
-        <v>0.847621</v>
+        <v>0.845502</v>
       </c>
       <c r="AH4">
-        <v>0.293336</v>
+        <v>0.245794</v>
       </c>
       <c r="AI4">
-        <v>0.000327161</v>
+        <v>0.000313153</v>
       </c>
       <c r="AJ4" s="2" t="s">
         <v>62</v>
@@ -1351,34 +1351,34 @@
         <v>62</v>
       </c>
       <c r="AN4">
-        <v>0.295442</v>
+        <v>0.247764</v>
       </c>
       <c r="AO4">
-        <v>873.1370000000001</v>
+        <v>872.49</v>
       </c>
       <c r="AP4">
-        <v>829.734</v>
+        <v>828.8349999999999</v>
       </c>
       <c r="AQ4">
-        <v>886.6990000000001</v>
+        <v>885.062</v>
       </c>
       <c r="AR4">
-        <v>742.756</v>
+        <v>741.796</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT4">
-        <v>723.442</v>
+        <v>722.842</v>
       </c>
       <c r="AU4">
-        <v>780.2959999999999</v>
+        <v>778.8240000000001</v>
       </c>
       <c r="AV4">
-        <v>735.6020000000001</v>
+        <v>734.1180000000001</v>
       </c>
       <c r="AW4">
-        <v>793.428</v>
+        <v>792.3720000000001</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>63</v>
@@ -1422,73 +1422,73 @@
         <v>74</v>
       </c>
       <c r="M5">
-        <v>50.3013</v>
+        <v>50.1621</v>
       </c>
       <c r="N5">
-        <v>13.0683</v>
+        <v>13.1346</v>
       </c>
       <c r="O5">
-        <v>23.1337</v>
+        <v>19.5923</v>
       </c>
       <c r="P5">
-        <v>33.2493</v>
+        <v>31.9729</v>
       </c>
       <c r="Q5">
-        <v>50.301</v>
+        <v>50.1634</v>
       </c>
       <c r="R5">
-        <v>99.99940000000001</v>
+        <v>100.002</v>
       </c>
       <c r="S5">
-        <v>32.9495</v>
+        <v>31.8106</v>
       </c>
       <c r="T5">
-        <v>33.2493</v>
+        <v>31.9729</v>
       </c>
       <c r="U5">
-        <v>23.1337</v>
+        <v>19.5923</v>
       </c>
       <c r="V5">
-        <v>17.2697</v>
+        <v>15.6826</v>
       </c>
       <c r="W5">
-        <v>13.0546</v>
+        <v>13.9286</v>
       </c>
       <c r="X5">
-        <v>12.8671</v>
+        <v>12.9135</v>
       </c>
       <c r="Y5">
-        <v>12.8671</v>
+        <v>12.9135</v>
       </c>
       <c r="Z5">
-        <v>12.867</v>
+        <v>12.914</v>
       </c>
       <c r="AA5">
-        <v>22.1879</v>
+        <v>18.6285</v>
       </c>
       <c r="AB5">
-        <v>16.2348</v>
+        <v>13.7989</v>
       </c>
       <c r="AC5">
-        <v>12.159</v>
+        <v>12.7781</v>
       </c>
       <c r="AD5">
-        <v>13.0683</v>
+        <v>13.1346</v>
       </c>
       <c r="AE5">
-        <v>13.0683</v>
+        <v>13.1346</v>
       </c>
       <c r="AF5">
-        <v>13.0683</v>
+        <v>13.1346</v>
       </c>
       <c r="AG5">
-        <v>0.688062</v>
+        <v>0.686706</v>
       </c>
       <c r="AH5">
-        <v>0.292336</v>
+        <v>0.246808</v>
       </c>
       <c r="AI5">
-        <v>0.0387329</v>
+        <v>0.037509</v>
       </c>
       <c r="AJ5" s="2" t="s">
         <v>62</v>
@@ -1503,34 +1503,34 @@
         <v>62</v>
       </c>
       <c r="AN5">
-        <v>0.28649</v>
+        <v>0.240835</v>
       </c>
       <c r="AO5">
-        <v>873.7030000000001</v>
+        <v>872.9710000000001</v>
       </c>
       <c r="AP5">
-        <v>832.391</v>
+        <v>831.4100000000001</v>
       </c>
       <c r="AQ5">
-        <v>890.321</v>
+        <v>888.4920000000001</v>
       </c>
       <c r="AR5">
-        <v>748.574</v>
+        <v>747.4390000000001</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT5">
-        <v>724.947</v>
+        <v>724.241</v>
       </c>
       <c r="AU5">
-        <v>782.5029999999999</v>
+        <v>780.772</v>
       </c>
       <c r="AV5">
-        <v>739.958</v>
+        <v>738.3240000000001</v>
       </c>
       <c r="AW5">
-        <v>798.874</v>
+        <v>797.5980000000001</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>63</v>
@@ -1574,73 +1574,73 @@
         <v>76</v>
       </c>
       <c r="M6">
-        <v>50.499</v>
+        <v>50.391</v>
       </c>
       <c r="N6">
-        <v>11.7205</v>
+        <v>11.7909</v>
       </c>
       <c r="O6">
-        <v>22.1472</v>
+        <v>19.2559</v>
       </c>
       <c r="P6">
-        <v>29.709</v>
+        <v>28.4408</v>
       </c>
       <c r="Q6">
-        <v>50.4987</v>
+        <v>50.39100000000001</v>
       </c>
       <c r="R6">
-        <v>99.99940000000001</v>
+        <v>99.9999</v>
       </c>
       <c r="S6">
-        <v>29.2104</v>
+        <v>28.0501</v>
       </c>
       <c r="T6">
-        <v>29.709</v>
+        <v>28.4408</v>
       </c>
       <c r="U6">
-        <v>22.1472</v>
+        <v>19.2559</v>
       </c>
       <c r="V6">
-        <v>16.1314</v>
+        <v>14.5786</v>
       </c>
       <c r="W6">
-        <v>12.1968</v>
+        <v>12.9337</v>
       </c>
       <c r="X6">
-        <v>11.5455</v>
+        <v>11.582</v>
       </c>
       <c r="Y6">
-        <v>11.5455</v>
+        <v>11.582</v>
       </c>
       <c r="Z6">
-        <v>11.5431</v>
+        <v>11.5817</v>
       </c>
       <c r="AA6">
-        <v>20.8258</v>
+        <v>17.7634</v>
       </c>
       <c r="AB6">
-        <v>15.2002</v>
+        <v>13.0206</v>
       </c>
       <c r="AC6">
-        <v>11.3043</v>
+        <v>11.859</v>
       </c>
       <c r="AD6">
-        <v>11.7205</v>
+        <v>11.7909</v>
       </c>
       <c r="AE6">
-        <v>11.7205</v>
+        <v>11.7909</v>
       </c>
       <c r="AF6">
-        <v>11.7205</v>
+        <v>11.7909</v>
       </c>
       <c r="AG6">
-        <v>0.839066</v>
+        <v>0.837959</v>
       </c>
       <c r="AH6">
-        <v>0.384379</v>
+        <v>0.322152</v>
       </c>
       <c r="AI6">
-        <v>0.0441077</v>
+        <v>0.0427265</v>
       </c>
       <c r="AJ6" s="2" t="s">
         <v>62</v>
@@ -1655,34 +1655,34 @@
         <v>62</v>
       </c>
       <c r="AN6">
-        <v>0.377742</v>
+        <v>0.315478</v>
       </c>
       <c r="AO6">
-        <v>872.823</v>
+        <v>872.172</v>
       </c>
       <c r="AP6">
-        <v>830.619</v>
+        <v>829.643</v>
       </c>
       <c r="AQ6">
-        <v>887.896</v>
+        <v>886.0360000000001</v>
       </c>
       <c r="AR6">
-        <v>744.838</v>
+        <v>743.6799999999999</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT6">
-        <v>723.987</v>
+        <v>723.3339999999999</v>
       </c>
       <c r="AU6">
-        <v>780.8580000000001</v>
+        <v>779.2180000000001</v>
       </c>
       <c r="AV6">
-        <v>737.331</v>
+        <v>735.6360000000001</v>
       </c>
       <c r="AW6">
-        <v>795.3340000000001</v>
+        <v>794.066</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>63</v>
@@ -1726,73 +1726,73 @@
         <v>74</v>
       </c>
       <c r="M7">
-        <v>50.3534</v>
+        <v>50.3037</v>
       </c>
       <c r="N7">
-        <v>12.2287</v>
+        <v>12.3233</v>
       </c>
       <c r="O7">
-        <v>20.3676</v>
+        <v>16.7389</v>
       </c>
       <c r="P7">
-        <v>33.3961</v>
+        <v>32.4234</v>
       </c>
       <c r="Q7">
-        <v>50.3539</v>
+        <v>50.3032</v>
       </c>
       <c r="R7">
-        <v>100.001</v>
+        <v>99.999</v>
       </c>
       <c r="S7">
-        <v>33.0455</v>
+        <v>32.12130000000001</v>
       </c>
       <c r="T7">
-        <v>33.3961</v>
+        <v>32.4234</v>
       </c>
       <c r="U7">
-        <v>19.7166</v>
+        <v>16.1574</v>
       </c>
       <c r="V7">
-        <v>15.6017</v>
+        <v>14.0533</v>
       </c>
       <c r="W7">
-        <v>11.855</v>
+        <v>12.9423</v>
       </c>
       <c r="X7">
-        <v>12.2266</v>
+        <v>12.3242</v>
       </c>
       <c r="Y7">
-        <v>12.2266</v>
+        <v>12.3242</v>
       </c>
       <c r="Z7">
-        <v>12.2287</v>
+        <v>12.3233</v>
       </c>
       <c r="AA7">
-        <v>20.3676</v>
+        <v>16.7389</v>
       </c>
       <c r="AB7">
-        <v>13.909</v>
+        <v>11.8734</v>
       </c>
       <c r="AC7">
-        <v>10.7453</v>
+        <v>11.626</v>
       </c>
       <c r="AD7">
-        <v>12.0707</v>
+        <v>12.1944</v>
       </c>
       <c r="AE7">
-        <v>12.0707</v>
+        <v>12.1944</v>
       </c>
       <c r="AF7">
-        <v>12.0707</v>
+        <v>12.1944</v>
       </c>
       <c r="AG7">
-        <v>0.69519</v>
+        <v>0.693098</v>
       </c>
       <c r="AH7">
-        <v>0.214854</v>
+        <v>0.181613</v>
       </c>
       <c r="AI7">
-        <v>0.000244774</v>
+        <v>0.000233716</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>62</v>
@@ -1807,34 +1807,34 @@
         <v>62</v>
       </c>
       <c r="AN7">
-        <v>0.215751</v>
+        <v>0.182337</v>
       </c>
       <c r="AO7">
-        <v>874.141</v>
+        <v>873.4830000000001</v>
       </c>
       <c r="AP7">
-        <v>832.407</v>
+        <v>831.4590000000001</v>
       </c>
       <c r="AQ7">
-        <v>890.6020000000001</v>
+        <v>888.8430000000001</v>
       </c>
       <c r="AR7">
-        <v>748.672</v>
+        <v>747.748</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT7">
-        <v>724.7329999999999</v>
+        <v>724.115</v>
       </c>
       <c r="AU7">
-        <v>782.7860000000001</v>
+        <v>781.206</v>
       </c>
       <c r="AV7">
-        <v>739.6260000000001</v>
+        <v>738.018</v>
       </c>
       <c r="AW7">
-        <v>799.0210000000001</v>
+        <v>798.048</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>63</v>
@@ -1878,73 +1878,73 @@
         <v>76</v>
       </c>
       <c r="M8">
-        <v>50.5689</v>
+        <v>50.5217</v>
       </c>
       <c r="N8">
-        <v>10.7776</v>
+        <v>10.8822</v>
       </c>
       <c r="O8">
-        <v>19.0822</v>
+        <v>16.4763</v>
       </c>
       <c r="P8">
-        <v>28.8404</v>
+        <v>27.8371</v>
       </c>
       <c r="Q8">
-        <v>50.5673</v>
+        <v>50.52200000000001</v>
       </c>
       <c r="R8">
-        <v>99.9969</v>
+        <v>100</v>
       </c>
       <c r="S8">
-        <v>28.2741</v>
+        <v>27.3159</v>
       </c>
       <c r="T8">
-        <v>28.8404</v>
+        <v>27.8371</v>
       </c>
       <c r="U8">
-        <v>19.0822</v>
+        <v>16.4763</v>
       </c>
       <c r="V8">
-        <v>14.4695</v>
+        <v>13.0118</v>
       </c>
       <c r="W8">
-        <v>10.9928</v>
+        <v>11.9764</v>
       </c>
       <c r="X8">
-        <v>10.7778</v>
+        <v>10.8751</v>
       </c>
       <c r="Y8">
-        <v>10.7778</v>
+        <v>10.8751</v>
       </c>
       <c r="Z8">
-        <v>10.7776</v>
+        <v>10.8822</v>
       </c>
       <c r="AA8">
-        <v>18.9367</v>
+        <v>15.9813</v>
       </c>
       <c r="AB8">
-        <v>13.248</v>
+        <v>11.3103</v>
       </c>
       <c r="AC8">
-        <v>9.94707</v>
+        <v>10.8264</v>
       </c>
       <c r="AD8">
-        <v>10.7013</v>
+        <v>10.826</v>
       </c>
       <c r="AE8">
-        <v>10.7013</v>
+        <v>10.826</v>
       </c>
       <c r="AF8">
-        <v>10.7013</v>
+        <v>10.826</v>
       </c>
       <c r="AG8">
-        <v>0.846498</v>
+        <v>0.844814</v>
       </c>
       <c r="AH8">
-        <v>0.288661</v>
+        <v>0.241789</v>
       </c>
       <c r="AI8">
-        <v>0.000327162</v>
+        <v>0.000313154</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>62</v>
@@ -1959,34 +1959,34 @@
         <v>62</v>
       </c>
       <c r="AN8">
-        <v>0.290721</v>
+        <v>0.243952</v>
       </c>
       <c r="AO8">
-        <v>872.7660000000001</v>
+        <v>872.207</v>
       </c>
       <c r="AP8">
-        <v>830.052</v>
+        <v>829.102</v>
       </c>
       <c r="AQ8">
-        <v>887.3370000000001</v>
+        <v>885.5069999999999</v>
       </c>
       <c r="AR8">
-        <v>743.899</v>
+        <v>742.938</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT8">
-        <v>723.446</v>
+        <v>722.885</v>
       </c>
       <c r="AU8">
-        <v>780.556</v>
+        <v>779.0410000000001</v>
       </c>
       <c r="AV8">
-        <v>736.288</v>
+        <v>734.5890000000001</v>
       </c>
       <c r="AW8">
-        <v>794.465</v>
+        <v>793.462</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>63</v>
@@ -2030,73 +2030,73 @@
         <v>74</v>
       </c>
       <c r="M9">
-        <v>50.2252</v>
+        <v>50.1383</v>
       </c>
       <c r="N9">
-        <v>13.8716</v>
+        <v>13.9804</v>
       </c>
       <c r="O9">
-        <v>23.558</v>
+        <v>19.8558</v>
       </c>
       <c r="P9">
-        <v>34.3197</v>
+        <v>33.085</v>
       </c>
       <c r="Q9">
-        <v>50.2249</v>
+        <v>50.1378</v>
       </c>
       <c r="R9">
-        <v>99.9996</v>
+        <v>99.9991</v>
       </c>
       <c r="S9">
-        <v>34.0906</v>
+        <v>32.9451</v>
       </c>
       <c r="T9">
-        <v>34.3197</v>
+        <v>33.085</v>
       </c>
       <c r="U9">
-        <v>23.558</v>
+        <v>19.8558</v>
       </c>
       <c r="V9">
-        <v>18.4037</v>
+        <v>16.5565</v>
       </c>
       <c r="W9">
-        <v>14.0168</v>
+        <v>14.9491</v>
       </c>
       <c r="X9">
-        <v>13.6844</v>
+        <v>13.7691</v>
       </c>
       <c r="Y9">
-        <v>13.6844</v>
+        <v>13.7691</v>
       </c>
       <c r="Z9">
-        <v>13.6844</v>
+        <v>13.7696</v>
       </c>
       <c r="AA9">
-        <v>23.0585</v>
+        <v>19.3368</v>
       </c>
       <c r="AB9">
-        <v>17.3459</v>
+        <v>14.7417</v>
       </c>
       <c r="AC9">
-        <v>13.0635</v>
+        <v>13.7881</v>
       </c>
       <c r="AD9">
-        <v>13.8716</v>
+        <v>13.9804</v>
       </c>
       <c r="AE9">
-        <v>13.8716</v>
+        <v>13.9804</v>
       </c>
       <c r="AF9">
-        <v>13.8716</v>
+        <v>13.9804</v>
       </c>
       <c r="AG9">
-        <v>0.687146</v>
+        <v>0.686082</v>
       </c>
       <c r="AH9">
-        <v>0.289366</v>
+        <v>0.244204</v>
       </c>
       <c r="AI9">
-        <v>0.038735</v>
+        <v>0.0375112</v>
       </c>
       <c r="AJ9" s="2" t="s">
         <v>62</v>
@@ -2111,34 +2111,34 @@
         <v>62</v>
       </c>
       <c r="AN9">
-        <v>0.283369</v>
+        <v>0.238214</v>
       </c>
       <c r="AO9">
-        <v>873.263</v>
+        <v>872.633</v>
       </c>
       <c r="AP9">
-        <v>832.669</v>
+        <v>831.6510000000001</v>
       </c>
       <c r="AQ9">
-        <v>890.966</v>
+        <v>888.932</v>
       </c>
       <c r="AR9">
-        <v>749.7170000000001</v>
+        <v>748.571</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT9">
-        <v>724.919</v>
+        <v>724.266</v>
       </c>
       <c r="AU9">
-        <v>782.75</v>
+        <v>780.976</v>
       </c>
       <c r="AV9">
-        <v>740.639</v>
+        <v>738.7840000000001</v>
       </c>
       <c r="AW9">
-        <v>799.9449999999999</v>
+        <v>798.71</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>63</v>
@@ -2182,73 +2182,73 @@
         <v>76</v>
       </c>
       <c r="M10">
-        <v>50.4327</v>
+        <v>50.3489</v>
       </c>
       <c r="N10">
-        <v>12.5564</v>
+        <v>12.6852</v>
       </c>
       <c r="O10">
-        <v>22.6552</v>
+        <v>19.6388</v>
       </c>
       <c r="P10">
-        <v>30.8823</v>
+        <v>29.6327</v>
       </c>
       <c r="Q10">
-        <v>50.4325</v>
+        <v>50.3489</v>
       </c>
       <c r="R10">
-        <v>99.9995</v>
+        <v>100</v>
       </c>
       <c r="S10">
-        <v>30.4499</v>
+        <v>29.284</v>
       </c>
       <c r="T10">
-        <v>30.8823</v>
+        <v>29.6327</v>
       </c>
       <c r="U10">
-        <v>22.6552</v>
+        <v>19.6388</v>
       </c>
       <c r="V10">
-        <v>17.3404</v>
+        <v>15.497</v>
       </c>
       <c r="W10">
-        <v>13.2472</v>
+        <v>14.0443</v>
       </c>
       <c r="X10">
-        <v>12.3867</v>
+        <v>12.505</v>
       </c>
       <c r="Y10">
-        <v>12.3867</v>
+        <v>12.505</v>
       </c>
       <c r="Z10">
-        <v>12.3857</v>
+        <v>12.505</v>
       </c>
       <c r="AA10">
-        <v>21.7124</v>
+        <v>18.444</v>
       </c>
       <c r="AB10">
-        <v>16.3588</v>
+        <v>13.987</v>
       </c>
       <c r="AC10">
-        <v>12.3001</v>
+        <v>12.9579</v>
       </c>
       <c r="AD10">
-        <v>12.5564</v>
+        <v>12.6852</v>
       </c>
       <c r="AE10">
-        <v>12.5564</v>
+        <v>12.6852</v>
       </c>
       <c r="AF10">
-        <v>12.5564</v>
+        <v>12.6852</v>
       </c>
       <c r="AG10">
-        <v>0.837974</v>
+        <v>0.837224</v>
       </c>
       <c r="AH10">
-        <v>0.381975</v>
+        <v>0.320506</v>
       </c>
       <c r="AI10">
-        <v>0.04411039999999999</v>
+        <v>0.04272919999999999</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>62</v>
@@ -2263,34 +2263,34 @@
         <v>62</v>
       </c>
       <c r="AN10">
-        <v>0.375565</v>
+        <v>0.313543</v>
       </c>
       <c r="AO10">
-        <v>872.3770000000001</v>
+        <v>871.808</v>
       </c>
       <c r="AP10">
-        <v>830.96</v>
+        <v>829.943</v>
       </c>
       <c r="AQ10">
-        <v>888.6370000000001</v>
+        <v>886.552</v>
       </c>
       <c r="AR10">
-        <v>746.073</v>
+        <v>744.908</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT10">
-        <v>724.005</v>
+        <v>723.397</v>
       </c>
       <c r="AU10">
-        <v>781.1610000000001</v>
+        <v>779.456</v>
       </c>
       <c r="AV10">
-        <v>738.0970000000001</v>
+        <v>736.176</v>
       </c>
       <c r="AW10">
-        <v>796.5070000000001</v>
+        <v>795.258</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>63</v>
@@ -2334,73 +2334,73 @@
         <v>74</v>
       </c>
       <c r="M11">
-        <v>50.8047</v>
+        <v>50.6194</v>
       </c>
       <c r="N11">
-        <v>17.5795</v>
+        <v>17.565</v>
       </c>
       <c r="O11">
-        <v>24.4355</v>
+        <v>17.5705</v>
       </c>
       <c r="P11">
-        <v>52.6174</v>
+        <v>51.70959999999999</v>
       </c>
       <c r="Q11">
-        <v>50.805</v>
+        <v>50.6188</v>
       </c>
       <c r="R11">
-        <v>100.001</v>
+        <v>99.9988</v>
       </c>
       <c r="S11">
-        <v>51.814</v>
+        <v>51.0901</v>
       </c>
       <c r="T11">
-        <v>52.6174</v>
+        <v>51.70959999999999</v>
       </c>
       <c r="U11">
-        <v>24.4355</v>
+        <v>17.0617</v>
       </c>
       <c r="V11">
-        <v>17.9212</v>
+        <v>16.5</v>
       </c>
       <c r="W11">
-        <v>14.8534</v>
+        <v>16.2532</v>
       </c>
       <c r="X11">
-        <v>17.5806</v>
+        <v>17.5705</v>
       </c>
       <c r="Y11">
-        <v>17.5806</v>
+        <v>17.5705</v>
       </c>
       <c r="Z11">
-        <v>17.5795</v>
+        <v>17.565</v>
       </c>
       <c r="AA11">
-        <v>23.8882</v>
+        <v>15.6969</v>
       </c>
       <c r="AB11">
-        <v>15.0194</v>
+        <v>13.2057</v>
       </c>
       <c r="AC11">
-        <v>13.2598</v>
+        <v>14.0302</v>
       </c>
       <c r="AD11">
-        <v>17.3701</v>
+        <v>17.3552</v>
       </c>
       <c r="AE11">
-        <v>17.3701</v>
+        <v>17.3552</v>
       </c>
       <c r="AF11">
-        <v>17.3701</v>
+        <v>17.3552</v>
       </c>
       <c r="AG11">
-        <v>0.707878</v>
+        <v>0.703441</v>
       </c>
       <c r="AH11">
-        <v>0.187336</v>
+        <v>0.160238</v>
       </c>
       <c r="AI11">
-        <v>3.96992E-06</v>
+        <v>3.84434E-06</v>
       </c>
       <c r="AJ11" s="2" t="s">
         <v>62</v>
@@ -2415,34 +2415,34 @@
         <v>62</v>
       </c>
       <c r="AN11">
-        <v>0.188775</v>
+        <v>0.16171</v>
       </c>
       <c r="AO11">
-        <v>879.51</v>
+        <v>878.857</v>
       </c>
       <c r="AP11">
-        <v>841.188</v>
+        <v>840.3929999999999</v>
       </c>
       <c r="AQ11">
-        <v>904.148</v>
+        <v>902.6890000000001</v>
       </c>
       <c r="AR11">
-        <v>767.438</v>
+        <v>766.718</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT11">
-        <v>729.389</v>
+        <v>728.923</v>
       </c>
       <c r="AU11">
-        <v>791.713</v>
+        <v>789.932</v>
       </c>
       <c r="AV11">
-        <v>752.7329999999999</v>
+        <v>751.629</v>
       </c>
       <c r="AW11">
-        <v>818.242</v>
+        <v>817.3349999999999</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>63</v>
@@ -2486,73 +2486,73 @@
         <v>76</v>
       </c>
       <c r="M12">
-        <v>50.7961</v>
+        <v>50.7126</v>
       </c>
       <c r="N12">
-        <v>13.47</v>
+        <v>13.4942</v>
       </c>
       <c r="O12">
-        <v>20.9378</v>
+        <v>16.0244</v>
       </c>
       <c r="P12">
-        <v>39.545</v>
+        <v>38.4691</v>
       </c>
       <c r="Q12">
-        <v>50.7972</v>
+        <v>50.7124</v>
       </c>
       <c r="R12">
-        <v>100.002</v>
+        <v>99.9996</v>
       </c>
       <c r="S12">
-        <v>38.7469</v>
+        <v>37.756</v>
       </c>
       <c r="T12">
-        <v>39.545</v>
+        <v>38.4691</v>
       </c>
       <c r="U12">
-        <v>20.9378</v>
+        <v>16.0244</v>
       </c>
       <c r="V12">
-        <v>15.594</v>
+        <v>13.9313</v>
       </c>
       <c r="W12">
-        <v>12.1648</v>
+        <v>13.2132</v>
       </c>
       <c r="X12">
-        <v>13.471</v>
+        <v>13.4796</v>
       </c>
       <c r="Y12">
-        <v>13.471</v>
+        <v>13.4796</v>
       </c>
       <c r="Z12">
-        <v>13.47</v>
+        <v>13.4821</v>
       </c>
       <c r="AA12">
-        <v>20.9075</v>
+        <v>15.537</v>
       </c>
       <c r="AB12">
-        <v>12.8866</v>
+        <v>11.2847</v>
       </c>
       <c r="AC12">
-        <v>10.8635</v>
+        <v>11.5422</v>
       </c>
       <c r="AD12">
-        <v>13.4678</v>
+        <v>13.4942</v>
       </c>
       <c r="AE12">
-        <v>13.4678</v>
+        <v>13.4942</v>
       </c>
       <c r="AF12">
-        <v>13.4678</v>
+        <v>13.4942</v>
       </c>
       <c r="AG12">
-        <v>0.85841</v>
+        <v>0.854244</v>
       </c>
       <c r="AH12">
-        <v>0.240847</v>
+        <v>0.204924</v>
       </c>
       <c r="AI12">
-        <v>1.19933E-05</v>
+        <v>1.169E-05</v>
       </c>
       <c r="AJ12" s="2" t="s">
         <v>62</v>
@@ -2567,34 +2567,34 @@
         <v>62</v>
       </c>
       <c r="AN12">
-        <v>0.241692</v>
+        <v>0.205895</v>
       </c>
       <c r="AO12">
-        <v>876.7170000000001</v>
+        <v>875.927</v>
       </c>
       <c r="AP12">
-        <v>835.482</v>
+        <v>834.564</v>
       </c>
       <c r="AQ12">
-        <v>895.021</v>
+        <v>893.408</v>
       </c>
       <c r="AR12">
-        <v>754.375</v>
+        <v>753.3810000000001</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT12">
-        <v>726.692</v>
+        <v>726.0459999999999</v>
       </c>
       <c r="AU12">
-        <v>786.029</v>
+        <v>784.398</v>
       </c>
       <c r="AV12">
-        <v>743.7990000000001</v>
+        <v>742.388</v>
       </c>
       <c r="AW12">
-        <v>805.1700000000001</v>
+        <v>804.0940000000001</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>63</v>
@@ -2638,73 +2638,73 @@
         <v>74</v>
       </c>
       <c r="M13">
-        <v>50.7195</v>
+        <v>50.5502</v>
       </c>
       <c r="N13">
-        <v>18.6893</v>
+        <v>18.6412</v>
       </c>
       <c r="O13">
-        <v>27.3224</v>
+        <v>20.2618</v>
       </c>
       <c r="P13">
-        <v>49.68600000000001</v>
+        <v>48.5626</v>
       </c>
       <c r="Q13">
-        <v>50.7196</v>
+        <v>50.5483</v>
       </c>
       <c r="R13">
-        <v>100</v>
+        <v>99.99630000000001</v>
       </c>
       <c r="S13">
-        <v>48.9654</v>
+        <v>48.0159</v>
       </c>
       <c r="T13">
-        <v>49.68600000000001</v>
+        <v>48.5626</v>
       </c>
       <c r="U13">
-        <v>27.3224</v>
+        <v>20.2618</v>
       </c>
       <c r="V13">
-        <v>20.4408</v>
+        <v>18.37</v>
       </c>
       <c r="W13">
-        <v>16.0193</v>
+        <v>17.3744</v>
       </c>
       <c r="X13">
-        <v>18.155</v>
+        <v>18.124</v>
       </c>
       <c r="Y13">
-        <v>18.155</v>
+        <v>18.124</v>
       </c>
       <c r="Z13">
-        <v>18.149</v>
+        <v>18.1295</v>
       </c>
       <c r="AA13">
-        <v>26.878</v>
+        <v>19.6784</v>
       </c>
       <c r="AB13">
-        <v>17.9943</v>
+        <v>15.4839</v>
       </c>
       <c r="AC13">
-        <v>14.8092</v>
+        <v>15.6538</v>
       </c>
       <c r="AD13">
-        <v>18.6893</v>
+        <v>18.6412</v>
       </c>
       <c r="AE13">
-        <v>18.6893</v>
+        <v>18.6412</v>
       </c>
       <c r="AF13">
-        <v>18.6893</v>
+        <v>18.6412</v>
       </c>
       <c r="AG13">
-        <v>0.698871</v>
+        <v>0.695246</v>
       </c>
       <c r="AH13">
-        <v>0.196743</v>
+        <v>0.167362</v>
       </c>
       <c r="AI13">
-        <v>0.00144435</v>
+        <v>0.00139677</v>
       </c>
       <c r="AJ13" s="2" t="s">
         <v>62</v>
@@ -2719,34 +2719,34 @@
         <v>62</v>
       </c>
       <c r="AN13">
-        <v>0.197095</v>
+        <v>0.167695</v>
       </c>
       <c r="AO13">
-        <v>877.744</v>
+        <v>877.034</v>
       </c>
       <c r="AP13">
-        <v>839.506</v>
+        <v>838.6560000000001</v>
       </c>
       <c r="AQ13">
-        <v>901.361</v>
+        <v>899.74</v>
       </c>
       <c r="AR13">
-        <v>764.591</v>
+        <v>763.6419999999999</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT13">
-        <v>728.545</v>
+        <v>727.976</v>
       </c>
       <c r="AU13">
-        <v>789.773</v>
+        <v>787.9340000000001</v>
       </c>
       <c r="AV13">
-        <v>750.8340000000001</v>
+        <v>749.491</v>
       </c>
       <c r="AW13">
-        <v>815.3109999999999</v>
+        <v>814.1880000000001</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>63</v>
@@ -2790,73 +2790,73 @@
         <v>76</v>
       </c>
       <c r="M14">
-        <v>50.7029</v>
+        <v>50.5806</v>
       </c>
       <c r="N14">
-        <v>15.0865</v>
+        <v>15.0803</v>
       </c>
       <c r="O14">
-        <v>23.707</v>
+        <v>18.9452</v>
       </c>
       <c r="P14">
-        <v>39.64210000000001</v>
+        <v>38.4082</v>
       </c>
       <c r="Q14">
-        <v>50.7034</v>
+        <v>50.5807</v>
       </c>
       <c r="R14">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="S14">
-        <v>38.9383</v>
+        <v>37.8237</v>
       </c>
       <c r="T14">
-        <v>39.64210000000001</v>
+        <v>38.4082</v>
       </c>
       <c r="U14">
-        <v>23.707</v>
+        <v>18.9452</v>
       </c>
       <c r="V14">
-        <v>17.9086</v>
+        <v>16.1741</v>
       </c>
       <c r="W14">
-        <v>13.6938</v>
+        <v>14.8113</v>
       </c>
       <c r="X14">
-        <v>14.7182</v>
+        <v>14.6912</v>
       </c>
       <c r="Y14">
-        <v>14.7182</v>
+        <v>14.6912</v>
       </c>
       <c r="Z14">
-        <v>14.7259</v>
+        <v>14.6912</v>
       </c>
       <c r="AA14">
-        <v>23.0966</v>
+        <v>18.3345</v>
       </c>
       <c r="AB14">
-        <v>15.8345</v>
+        <v>13.5379</v>
       </c>
       <c r="AC14">
-        <v>12.5243</v>
+        <v>13.2686</v>
       </c>
       <c r="AD14">
-        <v>15.0865</v>
+        <v>15.0803</v>
       </c>
       <c r="AE14">
-        <v>15.0865</v>
+        <v>15.0803</v>
       </c>
       <c r="AF14">
-        <v>15.0865</v>
+        <v>15.0803</v>
       </c>
       <c r="AG14">
-        <v>0.850912</v>
+        <v>0.847879</v>
       </c>
       <c r="AH14">
-        <v>0.255662</v>
+        <v>0.216273</v>
       </c>
       <c r="AI14">
-        <v>0.00164722</v>
+        <v>0.0015936</v>
       </c>
       <c r="AJ14" s="2" t="s">
         <v>62</v>
@@ -2871,34 +2871,34 @@
         <v>62</v>
       </c>
       <c r="AN14">
-        <v>0.256336</v>
+        <v>0.216712</v>
       </c>
       <c r="AO14">
-        <v>875.703</v>
+        <v>874.9160000000001</v>
       </c>
       <c r="AP14">
-        <v>835.1730000000001</v>
+        <v>834.2239999999999</v>
       </c>
       <c r="AQ14">
-        <v>894.62</v>
+        <v>892.835</v>
       </c>
       <c r="AR14">
-        <v>754.563</v>
+        <v>753.451</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT14">
-        <v>726.399</v>
+        <v>725.73</v>
       </c>
       <c r="AU14">
-        <v>785.5110000000001</v>
+        <v>783.7420000000001</v>
       </c>
       <c r="AV14">
-        <v>743.9670000000001</v>
+        <v>742.4100000000001</v>
       </c>
       <c r="AW14">
-        <v>805.2670000000001</v>
+        <v>804.033</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>63</v>
@@ -2942,73 +2942,73 @@
         <v>74</v>
       </c>
       <c r="M15">
-        <v>50.6428</v>
+        <v>50.5389</v>
       </c>
       <c r="N15">
-        <v>18.2904</v>
+        <v>18.3273</v>
       </c>
       <c r="O15">
-        <v>25.0816</v>
+        <v>18.324</v>
       </c>
       <c r="P15">
-        <v>53.3349</v>
+        <v>52.5179</v>
       </c>
       <c r="Q15">
-        <v>50.64510000000001</v>
+        <v>50.5386</v>
       </c>
       <c r="R15">
-        <v>100.004</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S15">
-        <v>52.688</v>
+        <v>51.98350000000001</v>
       </c>
       <c r="T15">
-        <v>53.3349</v>
+        <v>52.5179</v>
       </c>
       <c r="U15">
-        <v>23.603</v>
+        <v>17.0464</v>
       </c>
       <c r="V15">
-        <v>18.8543</v>
+        <v>17.2009</v>
       </c>
       <c r="W15">
-        <v>15.4134</v>
+        <v>16.876</v>
       </c>
       <c r="X15">
-        <v>18.2938</v>
+        <v>18.324</v>
       </c>
       <c r="Y15">
-        <v>18.2938</v>
+        <v>18.324</v>
       </c>
       <c r="Z15">
-        <v>18.2904</v>
+        <v>18.3273</v>
       </c>
       <c r="AA15">
-        <v>25.0816</v>
+        <v>16.4994</v>
       </c>
       <c r="AB15">
-        <v>15.7712</v>
+        <v>13.7765</v>
       </c>
       <c r="AC15">
-        <v>13.7969</v>
+        <v>14.6809</v>
       </c>
       <c r="AD15">
-        <v>18.0738</v>
+        <v>18.1173</v>
       </c>
       <c r="AE15">
-        <v>18.0738</v>
+        <v>18.1173</v>
       </c>
       <c r="AF15">
-        <v>18.0738</v>
+        <v>18.1173</v>
       </c>
       <c r="AG15">
-        <v>0.70639</v>
+        <v>0.702339</v>
       </c>
       <c r="AH15">
-        <v>0.180975</v>
+        <v>0.155514</v>
       </c>
       <c r="AI15">
-        <v>3.96993E-06</v>
+        <v>3.84435E-06</v>
       </c>
       <c r="AJ15" s="2" t="s">
         <v>62</v>
@@ -3023,34 +3023,34 @@
         <v>62</v>
       </c>
       <c r="AN15">
-        <v>0.182425</v>
+        <v>0.156886</v>
       </c>
       <c r="AO15">
-        <v>879.1170000000001</v>
+        <v>878.554</v>
       </c>
       <c r="AP15">
-        <v>841.311</v>
+        <v>840.5000000000001</v>
       </c>
       <c r="AQ15">
-        <v>904.4549999999999</v>
+        <v>902.865</v>
       </c>
       <c r="AR15">
-        <v>768.318</v>
+        <v>767.611</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT15">
-        <v>729.276</v>
+        <v>728.866</v>
       </c>
       <c r="AU15">
-        <v>791.764</v>
+        <v>789.984</v>
       </c>
       <c r="AV15">
-        <v>753.1270000000001</v>
+        <v>751.85</v>
       </c>
       <c r="AW15">
-        <v>818.96</v>
+        <v>818.1429999999999</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>63</v>
@@ -3094,73 +3094,73 @@
         <v>76</v>
       </c>
       <c r="M16">
-        <v>50.675</v>
+        <v>50.6523</v>
       </c>
       <c r="N16">
-        <v>14.1804</v>
+        <v>14.2429</v>
       </c>
       <c r="O16">
-        <v>21.7705</v>
+        <v>16.5949</v>
       </c>
       <c r="P16">
-        <v>40.4118</v>
+        <v>39.4104</v>
       </c>
       <c r="Q16">
-        <v>50.6738</v>
+        <v>50.6506</v>
       </c>
       <c r="R16">
-        <v>99.99769999999999</v>
+        <v>99.9967</v>
       </c>
       <c r="S16">
-        <v>39.7377</v>
+        <v>38.7595</v>
       </c>
       <c r="T16">
-        <v>40.4118</v>
+        <v>39.4104</v>
       </c>
       <c r="U16">
-        <v>20.7321</v>
+        <v>16.0394</v>
       </c>
       <c r="V16">
-        <v>16.5852</v>
+        <v>14.7386</v>
       </c>
       <c r="W16">
-        <v>12.8367</v>
+        <v>13.9798</v>
       </c>
       <c r="X16">
-        <v>14.1814</v>
+        <v>14.2328</v>
       </c>
       <c r="Y16">
-        <v>14.1814</v>
+        <v>14.2328</v>
       </c>
       <c r="Z16">
-        <v>14.1804</v>
+        <v>14.2312</v>
       </c>
       <c r="AA16">
-        <v>21.7705</v>
+        <v>16.5949</v>
       </c>
       <c r="AB16">
-        <v>13.8316</v>
+        <v>12.0328</v>
       </c>
       <c r="AC16">
-        <v>11.4949</v>
+        <v>12.3165</v>
       </c>
       <c r="AD16">
-        <v>14.1643</v>
+        <v>14.2429</v>
       </c>
       <c r="AE16">
-        <v>14.1643</v>
+        <v>14.2429</v>
       </c>
       <c r="AF16">
-        <v>14.1643</v>
+        <v>14.2429</v>
       </c>
       <c r="AG16">
-        <v>0.856853</v>
+        <v>0.853272</v>
       </c>
       <c r="AH16">
-        <v>0.233706</v>
+        <v>0.199612</v>
       </c>
       <c r="AI16">
-        <v>1.19934E-05</v>
+        <v>1.169E-05</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>62</v>
@@ -3175,34 +3175,34 @@
         <v>62</v>
       </c>
       <c r="AN16">
-        <v>0.234527</v>
+        <v>0.200449</v>
       </c>
       <c r="AO16">
-        <v>876.3440000000001</v>
+        <v>875.644</v>
       </c>
       <c r="AP16">
-        <v>835.686</v>
+        <v>834.735</v>
       </c>
       <c r="AQ16">
-        <v>895.474</v>
+        <v>893.703</v>
       </c>
       <c r="AR16">
-        <v>755.364</v>
+        <v>754.3819999999999</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT16">
-        <v>726.606</v>
+        <v>726.0210000000001</v>
       </c>
       <c r="AU16">
-        <v>786.178</v>
+        <v>784.519</v>
       </c>
       <c r="AV16">
-        <v>744.3099999999999</v>
+        <v>742.72</v>
       </c>
       <c r="AW16">
-        <v>806.037</v>
+        <v>805.035</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>63</v>
@@ -3246,73 +3246,73 @@
         <v>74</v>
       </c>
       <c r="M17">
-        <v>50.6264</v>
+        <v>50.5215</v>
       </c>
       <c r="N17">
-        <v>19.4306</v>
+        <v>19.4288</v>
       </c>
       <c r="O17">
-        <v>27.5978</v>
+        <v>20.7784</v>
       </c>
       <c r="P17">
-        <v>50.3502</v>
+        <v>49.3249</v>
       </c>
       <c r="Q17">
-        <v>50.6265</v>
+        <v>50.52070000000001</v>
       </c>
       <c r="R17">
-        <v>100</v>
+        <v>99.9984</v>
       </c>
       <c r="S17">
-        <v>49.7269</v>
+        <v>48.8028</v>
       </c>
       <c r="T17">
-        <v>50.3502</v>
+        <v>49.3249</v>
       </c>
       <c r="U17">
-        <v>27.136</v>
+        <v>20.2535</v>
       </c>
       <c r="V17">
-        <v>21.4091</v>
+        <v>19.1429</v>
       </c>
       <c r="W17">
-        <v>16.6355</v>
+        <v>18.0795</v>
       </c>
       <c r="X17">
-        <v>18.907</v>
+        <v>18.9091</v>
       </c>
       <c r="Y17">
-        <v>18.907</v>
+        <v>18.9091</v>
       </c>
       <c r="Z17">
-        <v>18.9076</v>
+        <v>18.9056</v>
       </c>
       <c r="AA17">
-        <v>27.5978</v>
+        <v>20.7784</v>
       </c>
       <c r="AB17">
-        <v>18.9525</v>
+        <v>16.1901</v>
       </c>
       <c r="AC17">
-        <v>15.3974</v>
+        <v>16.3619</v>
       </c>
       <c r="AD17">
-        <v>19.4306</v>
+        <v>19.4288</v>
       </c>
       <c r="AE17">
-        <v>19.4306</v>
+        <v>19.4288</v>
       </c>
       <c r="AF17">
-        <v>19.4306</v>
+        <v>19.4288</v>
       </c>
       <c r="AG17">
-        <v>0.697542</v>
+        <v>0.6943550000000001</v>
       </c>
       <c r="AH17">
-        <v>0.190657</v>
+        <v>0.162782</v>
       </c>
       <c r="AI17">
-        <v>0.00144435</v>
+        <v>0.00139678</v>
       </c>
       <c r="AJ17" s="2" t="s">
         <v>62</v>
@@ -3327,34 +3327,34 @@
         <v>62</v>
       </c>
       <c r="AN17">
-        <v>0.191109</v>
+        <v>0.163148</v>
       </c>
       <c r="AO17">
-        <v>877.2910000000001</v>
+        <v>876.689</v>
       </c>
       <c r="AP17">
-        <v>839.563</v>
+        <v>838.708</v>
       </c>
       <c r="AQ17">
-        <v>901.6229999999999</v>
+        <v>899.853</v>
       </c>
       <c r="AR17">
-        <v>765.351</v>
+        <v>764.428</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT17">
-        <v>728.404</v>
+        <v>727.897</v>
       </c>
       <c r="AU17">
-        <v>789.797</v>
+        <v>787.9590000000001</v>
       </c>
       <c r="AV17">
-        <v>751.1519999999999</v>
+        <v>749.6420000000001</v>
       </c>
       <c r="AW17">
-        <v>815.975</v>
+        <v>814.9499999999999</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>63</v>
@@ -3398,73 +3398,73 @@
         <v>76</v>
       </c>
       <c r="M18">
-        <v>50.6156</v>
+        <v>50.5569</v>
       </c>
       <c r="N18">
-        <v>15.8307</v>
+        <v>15.8712</v>
       </c>
       <c r="O18">
-        <v>23.8766</v>
+        <v>19.1774</v>
       </c>
       <c r="P18">
-        <v>40.4931</v>
+        <v>39.3276</v>
       </c>
       <c r="Q18">
-        <v>50.6156</v>
+        <v>50.5571</v>
       </c>
       <c r="R18">
         <v>100</v>
       </c>
       <c r="S18">
-        <v>39.8745</v>
+        <v>38.7708</v>
       </c>
       <c r="T18">
-        <v>40.4931</v>
+        <v>39.3276</v>
       </c>
       <c r="U18">
-        <v>23.8189</v>
+        <v>18.957</v>
       </c>
       <c r="V18">
-        <v>18.8638</v>
+        <v>16.9592</v>
       </c>
       <c r="W18">
-        <v>14.4134</v>
+        <v>15.6468</v>
       </c>
       <c r="X18">
-        <v>15.4771</v>
+        <v>15.484</v>
       </c>
       <c r="Y18">
-        <v>15.4771</v>
+        <v>15.484</v>
       </c>
       <c r="Z18">
-        <v>15.4794</v>
+        <v>15.484</v>
       </c>
       <c r="AA18">
-        <v>23.8766</v>
+        <v>19.1774</v>
       </c>
       <c r="AB18">
-        <v>16.9024</v>
+        <v>14.3607</v>
       </c>
       <c r="AC18">
-        <v>13.2011</v>
+        <v>14.095</v>
       </c>
       <c r="AD18">
-        <v>15.8307</v>
+        <v>15.8712</v>
       </c>
       <c r="AE18">
-        <v>15.8307</v>
+        <v>15.8712</v>
       </c>
       <c r="AF18">
-        <v>15.8307</v>
+        <v>15.8712</v>
       </c>
       <c r="AG18">
-        <v>0.849704</v>
+        <v>0.84705</v>
       </c>
       <c r="AH18">
-        <v>0.249339</v>
+        <v>0.211039</v>
       </c>
       <c r="AI18">
-        <v>0.00164722</v>
+        <v>0.00159361</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>62</v>
@@ -3479,34 +3479,34 @@
         <v>62</v>
       </c>
       <c r="AN18">
-        <v>0.249799</v>
+        <v>0.211703</v>
       </c>
       <c r="AO18">
-        <v>875.268</v>
+        <v>874.591</v>
       </c>
       <c r="AP18">
-        <v>835.3339999999999</v>
+        <v>834.3620000000001</v>
       </c>
       <c r="AQ18">
-        <v>895.051</v>
+        <v>893.0970000000001</v>
       </c>
       <c r="AR18">
-        <v>755.5</v>
+        <v>754.395</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT18">
-        <v>726.3</v>
+        <v>725.6849999999999</v>
       </c>
       <c r="AU18">
-        <v>785.644</v>
+        <v>783.847</v>
       </c>
       <c r="AV18">
-        <v>744.452</v>
+        <v>742.7020000000001</v>
       </c>
       <c r="AW18">
-        <v>806.1180000000001</v>
+        <v>804.9530000000001</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>63</v>
@@ -3550,73 +3550,73 @@
         <v>74</v>
       </c>
       <c r="M19">
-        <v>52.3465</v>
+        <v>52.1026</v>
       </c>
       <c r="N19">
-        <v>16.2338</v>
+        <v>16.1948</v>
       </c>
       <c r="O19">
-        <v>23.9348</v>
+        <v>20.3225</v>
       </c>
       <c r="P19">
-        <v>42.2179</v>
+        <v>41.3252</v>
       </c>
       <c r="Q19">
-        <v>52.3468</v>
+        <v>52.1026</v>
       </c>
       <c r="R19">
-        <v>100</v>
+        <v>99.9999</v>
       </c>
       <c r="S19">
-        <v>39.8708</v>
+        <v>39.22260000000001</v>
       </c>
       <c r="T19">
-        <v>42.2179</v>
+        <v>41.3252</v>
       </c>
       <c r="U19">
-        <v>23.9348</v>
+        <v>20.3225</v>
       </c>
       <c r="V19">
-        <v>18.4514</v>
+        <v>17.7709</v>
       </c>
       <c r="W19">
-        <v>14.524</v>
+        <v>16.0455</v>
       </c>
       <c r="X19">
-        <v>16.2299</v>
+        <v>16.1946</v>
       </c>
       <c r="Y19">
-        <v>16.2299</v>
+        <v>16.1946</v>
       </c>
       <c r="Z19">
-        <v>16.2338</v>
+        <v>16.1948</v>
       </c>
       <c r="AA19">
-        <v>17.5631</v>
+        <v>14.1192</v>
       </c>
       <c r="AB19">
-        <v>11.8228</v>
+        <v>10.5018</v>
       </c>
       <c r="AC19">
-        <v>10.3912</v>
+        <v>11.114</v>
       </c>
       <c r="AD19">
-        <v>12.3217</v>
+        <v>12.4786</v>
       </c>
       <c r="AE19">
-        <v>12.3217</v>
+        <v>12.4786</v>
       </c>
       <c r="AF19">
-        <v>12.3217</v>
+        <v>12.4786</v>
       </c>
       <c r="AG19">
-        <v>0.700677</v>
+        <v>0.697174</v>
       </c>
       <c r="AH19">
-        <v>0.198646</v>
+        <v>0.169253</v>
       </c>
       <c r="AI19">
-        <v>6.910669999999999E-05</v>
+        <v>6.615489999999999E-05</v>
       </c>
       <c r="AJ19" s="2" t="s">
         <v>62</v>
@@ -3631,34 +3631,34 @@
         <v>62</v>
       </c>
       <c r="AN19">
-        <v>0.199974</v>
+        <v>0.170564</v>
       </c>
       <c r="AO19">
-        <v>879.62</v>
+        <v>878.76</v>
       </c>
       <c r="AP19">
-        <v>835.2339999999999</v>
+        <v>834.479</v>
       </c>
       <c r="AQ19">
-        <v>899.0170000000001</v>
+        <v>897.653</v>
       </c>
       <c r="AR19">
-        <v>755.496</v>
+        <v>754.847</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT19">
-        <v>724.268</v>
+        <v>723.745</v>
       </c>
       <c r="AU19">
-        <v>787.8280000000001</v>
+        <v>786.1850000000001</v>
       </c>
       <c r="AV19">
-        <v>742.515</v>
+        <v>741.397</v>
       </c>
       <c r="AW19">
-        <v>807.843</v>
+        <v>806.95</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>63</v>
@@ -3702,73 +3702,73 @@
         <v>76</v>
       </c>
       <c r="M20">
-        <v>52.5731</v>
+        <v>52.4911</v>
       </c>
       <c r="N20">
-        <v>12.7647</v>
+        <v>12.7737</v>
       </c>
       <c r="O20">
-        <v>20.6589</v>
+        <v>17.7404</v>
       </c>
       <c r="P20">
-        <v>33.7766</v>
+        <v>32.8254</v>
       </c>
       <c r="Q20">
-        <v>52.5737</v>
+        <v>52.4909</v>
       </c>
       <c r="R20">
-        <v>100.001</v>
+        <v>99.9997</v>
       </c>
       <c r="S20">
-        <v>31.204</v>
+        <v>30.3346</v>
       </c>
       <c r="T20">
-        <v>33.7766</v>
+        <v>32.8254</v>
       </c>
       <c r="U20">
-        <v>20.6589</v>
+        <v>17.7404</v>
       </c>
       <c r="V20">
-        <v>15.451</v>
+        <v>14.6096</v>
       </c>
       <c r="W20">
-        <v>12.0888</v>
+        <v>13.2457</v>
       </c>
       <c r="X20">
-        <v>12.7636</v>
+        <v>12.7788</v>
       </c>
       <c r="Y20">
-        <v>12.7636</v>
+        <v>12.7788</v>
       </c>
       <c r="Z20">
-        <v>12.7647</v>
+        <v>12.7737</v>
       </c>
       <c r="AA20">
-        <v>17.8009</v>
+        <v>14.1489</v>
       </c>
       <c r="AB20">
-        <v>11.0043</v>
+        <v>9.824670000000001</v>
       </c>
       <c r="AC20">
-        <v>9.219530000000001</v>
+        <v>9.926360000000001</v>
       </c>
       <c r="AD20">
-        <v>10.4891</v>
+        <v>10.6013</v>
       </c>
       <c r="AE20">
-        <v>10.4891</v>
+        <v>10.6013</v>
       </c>
       <c r="AF20">
-        <v>10.4891</v>
+        <v>10.6013</v>
       </c>
       <c r="AG20">
-        <v>0.852306</v>
+        <v>0.849171</v>
       </c>
       <c r="AH20">
-        <v>0.259365</v>
+        <v>0.219694</v>
       </c>
       <c r="AI20">
-        <v>0.000105543</v>
+        <v>0.000101581</v>
       </c>
       <c r="AJ20" s="2" t="s">
         <v>62</v>
@@ -3783,34 +3783,34 @@
         <v>62</v>
       </c>
       <c r="AN20">
-        <v>0.260314</v>
+        <v>0.220841</v>
       </c>
       <c r="AO20">
-        <v>876.9639999999999</v>
+        <v>876.17</v>
       </c>
       <c r="AP20">
-        <v>831.206</v>
+        <v>830.299</v>
       </c>
       <c r="AQ20">
-        <v>892.366</v>
+        <v>890.9180000000001</v>
       </c>
       <c r="AR20">
-        <v>746.829</v>
+        <v>745.96</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT20">
-        <v>722.54</v>
+        <v>721.957</v>
       </c>
       <c r="AU20">
-        <v>783.783</v>
+        <v>782.3339999999999</v>
       </c>
       <c r="AV20">
-        <v>737.04</v>
+        <v>735.648</v>
       </c>
       <c r="AW20">
-        <v>799.4019999999999</v>
+        <v>798.4499999999999</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>63</v>
@@ -3854,73 +3854,73 @@
         <v>74</v>
       </c>
       <c r="M21">
-        <v>52.238</v>
+        <v>51.9961</v>
       </c>
       <c r="N21">
-        <v>16.9103</v>
+        <v>16.8776</v>
       </c>
       <c r="O21">
-        <v>26.1896</v>
+        <v>22.3973</v>
       </c>
       <c r="P21">
-        <v>41.0394</v>
+        <v>39.9269</v>
       </c>
       <c r="Q21">
-        <v>52.2354</v>
+        <v>51.998</v>
       </c>
       <c r="R21">
-        <v>99.995</v>
+        <v>100.004</v>
       </c>
       <c r="S21">
-        <v>38.803</v>
+        <v>37.9316</v>
       </c>
       <c r="T21">
-        <v>41.0394</v>
+        <v>39.9269</v>
       </c>
       <c r="U21">
-        <v>26.1896</v>
+        <v>22.3973</v>
       </c>
       <c r="V21">
-        <v>20.176</v>
+        <v>19.2434</v>
       </c>
       <c r="W21">
-        <v>15.87</v>
+        <v>17.3311</v>
       </c>
       <c r="X21">
-        <v>16.9163</v>
+        <v>16.8743</v>
       </c>
       <c r="Y21">
-        <v>16.9163</v>
+        <v>16.8743</v>
       </c>
       <c r="Z21">
-        <v>16.9103</v>
+        <v>16.8776</v>
       </c>
       <c r="AA21">
-        <v>21.7706</v>
+        <v>16.7505</v>
       </c>
       <c r="AB21">
-        <v>14.4626</v>
+        <v>12.7283</v>
       </c>
       <c r="AC21">
-        <v>12.0882</v>
+        <v>12.8464</v>
       </c>
       <c r="AD21">
-        <v>13.8432</v>
+        <v>13.9511</v>
       </c>
       <c r="AE21">
-        <v>13.8432</v>
+        <v>13.9511</v>
       </c>
       <c r="AF21">
-        <v>13.8432</v>
+        <v>13.9511</v>
       </c>
       <c r="AG21">
-        <v>0.693223</v>
+        <v>0.69073</v>
       </c>
       <c r="AH21">
-        <v>0.227228</v>
+        <v>0.192411</v>
       </c>
       <c r="AI21">
-        <v>0.0109465</v>
+        <v>0.0105981</v>
       </c>
       <c r="AJ21" s="2" t="s">
         <v>62</v>
@@ -3935,34 +3935,34 @@
         <v>62</v>
       </c>
       <c r="AN21">
-        <v>0.226327</v>
+        <v>0.191515</v>
       </c>
       <c r="AO21">
-        <v>878.418</v>
+        <v>877.53</v>
       </c>
       <c r="AP21">
-        <v>834.491</v>
+        <v>833.607</v>
       </c>
       <c r="AQ21">
-        <v>897.71</v>
+        <v>896.148</v>
       </c>
       <c r="AR21">
-        <v>754.4290000000001</v>
+        <v>753.558</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT21">
-        <v>723.668</v>
+        <v>723.1179999999999</v>
       </c>
       <c r="AU21">
-        <v>786.662</v>
+        <v>784.963</v>
       </c>
       <c r="AV21">
-        <v>741.909</v>
+        <v>740.511</v>
       </c>
       <c r="AW21">
-        <v>806.664</v>
+        <v>805.552</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>63</v>
@@ -4006,73 +4006,73 @@
         <v>76</v>
       </c>
       <c r="M22">
-        <v>52.3719</v>
+        <v>52.2419</v>
       </c>
       <c r="N22">
-        <v>14.0167</v>
+        <v>14.0331</v>
       </c>
       <c r="O22">
-        <v>23.5218</v>
+        <v>20.3189</v>
       </c>
       <c r="P22">
-        <v>34.7227</v>
+        <v>33.5622</v>
       </c>
       <c r="Q22">
-        <v>52.3718</v>
+        <v>52.2421</v>
       </c>
       <c r="R22">
-        <v>99.99980000000001</v>
+        <v>100</v>
       </c>
       <c r="S22">
-        <v>32.3524</v>
+        <v>31.3192</v>
       </c>
       <c r="T22">
-        <v>34.7227</v>
+        <v>33.5622</v>
       </c>
       <c r="U22">
-        <v>23.5218</v>
+        <v>20.3189</v>
       </c>
       <c r="V22">
-        <v>17.6243</v>
+        <v>16.5251</v>
       </c>
       <c r="W22">
-        <v>13.7808</v>
+        <v>14.9437</v>
       </c>
       <c r="X22">
-        <v>14.0167</v>
+        <v>14.0331</v>
       </c>
       <c r="Y22">
-        <v>14.0167</v>
+        <v>14.0331</v>
       </c>
       <c r="Z22">
-        <v>14.0167</v>
+        <v>14.0331</v>
       </c>
       <c r="AA22">
-        <v>20.7035</v>
+        <v>16.6051</v>
       </c>
       <c r="AB22">
-        <v>13.6206</v>
+        <v>11.9056</v>
       </c>
       <c r="AC22">
-        <v>10.9156</v>
+        <v>11.6259</v>
       </c>
       <c r="AD22">
-        <v>12.0443</v>
+        <v>12.1338</v>
       </c>
       <c r="AE22">
-        <v>12.0443</v>
+        <v>12.1338</v>
       </c>
       <c r="AF22">
-        <v>12.0443</v>
+        <v>12.1338</v>
       </c>
       <c r="AG22">
-        <v>0.845153</v>
+        <v>0.842883</v>
       </c>
       <c r="AH22">
-        <v>0.298123</v>
+        <v>0.250479</v>
       </c>
       <c r="AI22">
-        <v>0.0121922</v>
+        <v>0.0118054</v>
       </c>
       <c r="AJ22" s="2" t="s">
         <v>62</v>
@@ -4087,34 +4087,34 @@
         <v>62</v>
       </c>
       <c r="AN22">
-        <v>0.297346</v>
+        <v>0.24985</v>
       </c>
       <c r="AO22">
-        <v>876.4780000000001</v>
+        <v>875.688</v>
       </c>
       <c r="AP22">
-        <v>831.606</v>
+        <v>830.6030000000001</v>
       </c>
       <c r="AQ22">
-        <v>892.8440000000001</v>
+        <v>891.1800000000001</v>
       </c>
       <c r="AR22">
-        <v>747.9780000000001</v>
+        <v>746.9450000000001</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT22">
-        <v>722.571</v>
+        <v>721.9820000000001</v>
       </c>
       <c r="AU22">
-        <v>783.7520000000001</v>
+        <v>782.169</v>
       </c>
       <c r="AV22">
-        <v>737.936</v>
+        <v>736.3370000000001</v>
       </c>
       <c r="AW22">
-        <v>800.3480000000001</v>
+        <v>799.187</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>63</v>
@@ -4158,73 +4158,73 @@
         <v>74</v>
       </c>
       <c r="M23">
-        <v>52.0374</v>
+        <v>51.827</v>
       </c>
       <c r="N23">
-        <v>16.9659</v>
+        <v>16.976</v>
       </c>
       <c r="O23">
-        <v>24.1304</v>
+        <v>20.3501</v>
       </c>
       <c r="P23">
-        <v>42.982</v>
+        <v>42.159</v>
       </c>
       <c r="Q23">
-        <v>52.0376</v>
+        <v>51.8285</v>
       </c>
       <c r="R23">
-        <v>100</v>
+        <v>100.003</v>
       </c>
       <c r="S23">
-        <v>40.9444</v>
+        <v>40.3288</v>
       </c>
       <c r="T23">
-        <v>42.982</v>
+        <v>42.159</v>
       </c>
       <c r="U23">
-        <v>24.1304</v>
+        <v>20.3501</v>
       </c>
       <c r="V23">
-        <v>19.2822</v>
+        <v>18.3369</v>
       </c>
       <c r="W23">
-        <v>15.1852</v>
+        <v>16.7829</v>
       </c>
       <c r="X23">
-        <v>16.9638</v>
+        <v>16.9773</v>
       </c>
       <c r="Y23">
-        <v>16.9638</v>
+        <v>16.9773</v>
       </c>
       <c r="Z23">
-        <v>16.9659</v>
+        <v>16.976</v>
       </c>
       <c r="AA23">
-        <v>18.9543</v>
+        <v>14.8054</v>
       </c>
       <c r="AB23">
-        <v>12.5897</v>
+        <v>11.1487</v>
       </c>
       <c r="AC23">
-        <v>11.024</v>
+        <v>11.8817</v>
       </c>
       <c r="AD23">
-        <v>12.9913</v>
+        <v>13.1797</v>
       </c>
       <c r="AE23">
-        <v>12.9913</v>
+        <v>13.1797</v>
       </c>
       <c r="AF23">
-        <v>12.9913</v>
+        <v>13.1797</v>
       </c>
       <c r="AG23">
-        <v>0.699523</v>
+        <v>0.696366</v>
       </c>
       <c r="AH23">
-        <v>0.192864</v>
+        <v>0.164873</v>
       </c>
       <c r="AI23">
-        <v>6.910669999999999E-05</v>
+        <v>6.615489999999999E-05</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>62</v>
@@ -4239,34 +4239,34 @@
         <v>62</v>
       </c>
       <c r="AN23">
-        <v>0.194095</v>
+        <v>0.166044</v>
       </c>
       <c r="AO23">
-        <v>879.222</v>
+        <v>878.452</v>
       </c>
       <c r="AP23">
-        <v>835.489</v>
+        <v>834.686</v>
       </c>
       <c r="AQ23">
-        <v>899.457</v>
+        <v>897.947</v>
       </c>
       <c r="AR23">
-        <v>756.5700000000001</v>
+        <v>755.9580000000001</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT23">
-        <v>724.172</v>
+        <v>723.7089999999999</v>
       </c>
       <c r="AU23">
-        <v>787.898</v>
+        <v>786.258</v>
       </c>
       <c r="AV23">
-        <v>743.021</v>
+        <v>741.7149999999999</v>
       </c>
       <c r="AW23">
-        <v>808.6070000000001</v>
+        <v>807.784</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>63</v>
@@ -4310,73 +4310,73 @@
         <v>76</v>
       </c>
       <c r="M24">
-        <v>52.3367</v>
+        <v>52.2638</v>
       </c>
       <c r="N24">
-        <v>13.49</v>
+        <v>13.5465</v>
       </c>
       <c r="O24">
-        <v>20.9602</v>
+        <v>17.8829</v>
       </c>
       <c r="P24">
-        <v>34.661</v>
+        <v>33.7575</v>
       </c>
       <c r="Q24">
-        <v>52.3364</v>
+        <v>52.2633</v>
       </c>
       <c r="R24">
-        <v>99.99930000000001</v>
+        <v>99.9991</v>
       </c>
       <c r="S24">
-        <v>32.3244</v>
+        <v>31.4922</v>
       </c>
       <c r="T24">
-        <v>34.661</v>
+        <v>33.7575</v>
       </c>
       <c r="U24">
-        <v>20.9602</v>
+        <v>17.8829</v>
       </c>
       <c r="V24">
-        <v>16.3473</v>
+        <v>15.2651</v>
       </c>
       <c r="W24">
-        <v>12.8408</v>
+        <v>14.1023</v>
       </c>
       <c r="X24">
-        <v>13.5032</v>
+        <v>13.5478</v>
       </c>
       <c r="Y24">
-        <v>13.5032</v>
+        <v>13.5478</v>
       </c>
       <c r="Z24">
-        <v>13.49</v>
+        <v>13.5465</v>
       </c>
       <c r="AA24">
-        <v>19.0022</v>
+        <v>15.1036</v>
       </c>
       <c r="AB24">
-        <v>11.9428</v>
+        <v>10.6051</v>
       </c>
       <c r="AC24">
-        <v>9.91935</v>
+        <v>10.7815</v>
       </c>
       <c r="AD24">
-        <v>11.1643</v>
+        <v>11.3087</v>
       </c>
       <c r="AE24">
-        <v>11.1643</v>
+        <v>11.3087</v>
       </c>
       <c r="AF24">
-        <v>11.1643</v>
+        <v>11.3087</v>
       </c>
       <c r="AG24">
-        <v>0.851227</v>
+        <v>0.848425</v>
       </c>
       <c r="AH24">
-        <v>0.252789</v>
+        <v>0.215138</v>
       </c>
       <c r="AI24">
-        <v>0.000105543</v>
+        <v>0.000101581</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>62</v>
@@ -4391,34 +4391,34 @@
         <v>62</v>
       </c>
       <c r="AN24">
-        <v>0.25398</v>
+        <v>0.215949</v>
       </c>
       <c r="AO24">
-        <v>876.578</v>
+        <v>875.88</v>
       </c>
       <c r="AP24">
-        <v>831.513</v>
+        <v>830.558</v>
       </c>
       <c r="AQ24">
-        <v>892.914</v>
+        <v>891.292</v>
       </c>
       <c r="AR24">
-        <v>747.95</v>
+        <v>747.116</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT24">
-        <v>722.4880000000001</v>
+        <v>721.956</v>
       </c>
       <c r="AU24">
-        <v>783.9400000000001</v>
+        <v>782.4630000000001</v>
       </c>
       <c r="AV24">
-        <v>737.6260000000001</v>
+        <v>736.0409999999999</v>
       </c>
       <c r="AW24">
-        <v>800.2860000000001</v>
+        <v>799.3820000000001</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>63</v>
@@ -4462,73 +4462,73 @@
         <v>74</v>
       </c>
       <c r="M25">
-        <v>52.0025</v>
+        <v>51.7734</v>
       </c>
       <c r="N25">
-        <v>17.6985</v>
+        <v>17.7074</v>
       </c>
       <c r="O25">
-        <v>26.5432</v>
+        <v>22.6018</v>
       </c>
       <c r="P25">
-        <v>41.8425</v>
+        <v>40.7701</v>
       </c>
       <c r="Q25">
-        <v>52.0038</v>
+        <v>51.7736</v>
       </c>
       <c r="R25">
-        <v>100.003</v>
+        <v>100</v>
       </c>
       <c r="S25">
-        <v>39.8348</v>
+        <v>38.9969</v>
       </c>
       <c r="T25">
-        <v>41.8425</v>
+        <v>40.7701</v>
       </c>
       <c r="U25">
-        <v>26.5432</v>
+        <v>22.6018</v>
       </c>
       <c r="V25">
-        <v>21.0933</v>
+        <v>19.8752</v>
       </c>
       <c r="W25">
-        <v>16.6197</v>
+        <v>18.1723</v>
       </c>
       <c r="X25">
-        <v>17.6985</v>
+        <v>17.7047</v>
       </c>
       <c r="Y25">
-        <v>17.6985</v>
+        <v>17.7047</v>
       </c>
       <c r="Z25">
-        <v>17.6985</v>
+        <v>17.7074</v>
       </c>
       <c r="AA25">
-        <v>23.04</v>
+        <v>17.6144</v>
       </c>
       <c r="AB25">
-        <v>15.4393</v>
+        <v>13.5044</v>
       </c>
       <c r="AC25">
-        <v>12.8089</v>
+        <v>13.6917</v>
       </c>
       <c r="AD25">
-        <v>14.5609</v>
+        <v>14.7011</v>
       </c>
       <c r="AE25">
-        <v>14.5609</v>
+        <v>14.7011</v>
       </c>
       <c r="AF25">
-        <v>14.5609</v>
+        <v>14.7011</v>
       </c>
       <c r="AG25">
-        <v>0.692261</v>
+        <v>0.690147</v>
       </c>
       <c r="AH25">
-        <v>0.22232</v>
+        <v>0.188401</v>
       </c>
       <c r="AI25">
-        <v>0.0109459</v>
+        <v>0.0105978</v>
       </c>
       <c r="AJ25" s="2" t="s">
         <v>62</v>
@@ -4543,34 +4543,34 @@
         <v>62</v>
       </c>
       <c r="AN25">
-        <v>0.221321</v>
+        <v>0.187604</v>
       </c>
       <c r="AO25">
-        <v>877.963</v>
+        <v>877.183</v>
       </c>
       <c r="AP25">
-        <v>834.72</v>
+        <v>833.8</v>
       </c>
       <c r="AQ25">
-        <v>898.1740000000001</v>
+        <v>896.4390000000001</v>
       </c>
       <c r="AR25">
-        <v>755.462</v>
+        <v>754.6210000000001</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT25">
-        <v>723.5590000000001</v>
+        <v>723.075</v>
       </c>
       <c r="AU25">
-        <v>786.744</v>
+        <v>785.033</v>
       </c>
       <c r="AV25">
-        <v>742.4019999999999</v>
+        <v>740.8109999999999</v>
       </c>
       <c r="AW25">
-        <v>807.468</v>
+        <v>806.395</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>63</v>
@@ -4614,73 +4614,73 @@
         <v>76</v>
       </c>
       <c r="M26">
-        <v>52.1665</v>
+        <v>52.0386</v>
       </c>
       <c r="N26">
-        <v>14.8045</v>
+        <v>14.8729</v>
       </c>
       <c r="O26">
-        <v>24.0087</v>
+        <v>20.6558</v>
       </c>
       <c r="P26">
-        <v>35.6701</v>
+        <v>34.5351</v>
       </c>
       <c r="Q26">
-        <v>52.1655</v>
+        <v>52.039</v>
       </c>
       <c r="R26">
-        <v>99.99810000000001</v>
+        <v>100.001</v>
       </c>
       <c r="S26">
-        <v>33.5064</v>
+        <v>32.4966</v>
       </c>
       <c r="T26">
-        <v>35.6701</v>
+        <v>34.5351</v>
       </c>
       <c r="U26">
-        <v>24.0087</v>
+        <v>20.6558</v>
       </c>
       <c r="V26">
-        <v>18.6456</v>
+        <v>17.2562</v>
       </c>
       <c r="W26">
-        <v>14.6398</v>
+        <v>15.8937</v>
       </c>
       <c r="X26">
-        <v>14.8015</v>
+        <v>14.8714</v>
       </c>
       <c r="Y26">
-        <v>14.8015</v>
+        <v>14.8714</v>
       </c>
       <c r="Z26">
-        <v>14.8045</v>
+        <v>14.8729</v>
       </c>
       <c r="AA26">
-        <v>21.7108</v>
+        <v>17.4255</v>
       </c>
       <c r="AB26">
-        <v>14.7614</v>
+        <v>12.7872</v>
       </c>
       <c r="AC26">
-        <v>11.7144</v>
+        <v>12.5653</v>
       </c>
       <c r="AD26">
-        <v>12.7819</v>
+        <v>12.89</v>
       </c>
       <c r="AE26">
-        <v>12.7819</v>
+        <v>12.89</v>
       </c>
       <c r="AF26">
-        <v>12.7819</v>
+        <v>12.89</v>
       </c>
       <c r="AG26">
-        <v>0.844106</v>
+        <v>0.842077</v>
       </c>
       <c r="AH26">
-        <v>0.29327</v>
+        <v>0.246857</v>
       </c>
       <c r="AI26">
-        <v>0.0121915</v>
+        <v>0.011805</v>
       </c>
       <c r="AJ26" s="2" t="s">
         <v>62</v>
@@ -4695,34 +4695,34 @@
         <v>62</v>
       </c>
       <c r="AN26">
-        <v>0.2924119999999999</v>
+        <v>0.245897</v>
       </c>
       <c r="AO26">
-        <v>876.0410000000001</v>
+        <v>875.35</v>
       </c>
       <c r="AP26">
-        <v>831.923</v>
+        <v>830.869</v>
       </c>
       <c r="AQ26">
-        <v>893.447</v>
+        <v>891.581</v>
       </c>
       <c r="AR26">
-        <v>749.129</v>
+        <v>748.1220000000001</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT26">
-        <v>722.5110000000001</v>
+        <v>721.985</v>
       </c>
       <c r="AU26">
-        <v>783.9200000000001</v>
+        <v>782.302</v>
       </c>
       <c r="AV26">
-        <v>738.557</v>
+        <v>736.748</v>
       </c>
       <c r="AW26">
-        <v>801.295</v>
+        <v>800.16</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>63</v>
@@ -4766,73 +4766,73 @@
         <v>74</v>
       </c>
       <c r="M27">
-        <v>48.759</v>
+        <v>48.7432</v>
       </c>
       <c r="N27">
-        <v>15.9392</v>
+        <v>15.8211</v>
       </c>
       <c r="O27">
-        <v>22.8734</v>
+        <v>19.181</v>
       </c>
       <c r="P27">
-        <v>41.1398</v>
+        <v>40.0408</v>
       </c>
       <c r="Q27">
-        <v>48.7588</v>
+        <v>48.7427</v>
       </c>
       <c r="R27">
-        <v>99.9996</v>
+        <v>99.999</v>
       </c>
       <c r="S27">
-        <v>41.1398</v>
+        <v>40.0408</v>
       </c>
       <c r="T27">
-        <v>39.8992</v>
+        <v>38.7845</v>
       </c>
       <c r="U27">
-        <v>16.8413</v>
+        <v>14.3551</v>
       </c>
       <c r="V27">
-        <v>13.28</v>
+        <v>11.9351</v>
       </c>
       <c r="W27">
-        <v>11.3052</v>
+        <v>12.1332</v>
       </c>
       <c r="X27">
-        <v>12.3538</v>
+        <v>12.3975</v>
       </c>
       <c r="Y27">
-        <v>12.3538</v>
+        <v>12.3975</v>
       </c>
       <c r="Z27">
-        <v>12.3531</v>
+        <v>12.4001</v>
       </c>
       <c r="AA27">
-        <v>22.8734</v>
+        <v>19.181</v>
       </c>
       <c r="AB27">
-        <v>16.5975</v>
+        <v>14.1439</v>
       </c>
       <c r="AC27">
-        <v>12.7791</v>
+        <v>13.5496</v>
       </c>
       <c r="AD27">
-        <v>15.9392</v>
+        <v>15.8211</v>
       </c>
       <c r="AE27">
-        <v>15.9392</v>
+        <v>15.8211</v>
       </c>
       <c r="AF27">
-        <v>15.9392</v>
+        <v>15.8211</v>
       </c>
       <c r="AG27">
-        <v>0.70109</v>
+        <v>0.697834</v>
       </c>
       <c r="AH27">
-        <v>0.199904</v>
+        <v>0.169618</v>
       </c>
       <c r="AI27">
-        <v>8.4999E-05</v>
+        <v>8.10928E-05</v>
       </c>
       <c r="AJ27" s="2" t="s">
         <v>62</v>
@@ -4847,34 +4847,34 @@
         <v>62</v>
       </c>
       <c r="AN27">
-        <v>0.200807</v>
+        <v>0.170597</v>
       </c>
       <c r="AO27">
-        <v>874.124</v>
+        <v>873.4050000000001</v>
       </c>
       <c r="AP27">
-        <v>837.134</v>
+        <v>836.1490000000001</v>
       </c>
       <c r="AQ27">
-        <v>893.24</v>
+        <v>891.5939999999999</v>
       </c>
       <c r="AR27">
-        <v>756.761</v>
+        <v>755.6660000000001</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT27">
-        <v>729.6379999999999</v>
+        <v>728.871</v>
       </c>
       <c r="AU27">
-        <v>785.39</v>
+        <v>783.7180000000001</v>
       </c>
       <c r="AV27">
-        <v>747.371</v>
+        <v>745.9160000000001</v>
       </c>
       <c r="AW27">
-        <v>805.524</v>
+        <v>804.409</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>63</v>
@@ -4918,73 +4918,73 @@
         <v>76</v>
       </c>
       <c r="M28">
-        <v>48.8035</v>
+        <v>48.7126</v>
       </c>
       <c r="N28">
-        <v>12.7066</v>
+        <v>12.7025</v>
       </c>
       <c r="O28">
-        <v>19.7611</v>
+        <v>16.7201</v>
       </c>
       <c r="P28">
-        <v>32.8641</v>
+        <v>31.8003</v>
       </c>
       <c r="Q28">
-        <v>48.8037</v>
+        <v>48.7116</v>
       </c>
       <c r="R28">
-        <v>100</v>
+        <v>99.9979</v>
       </c>
       <c r="S28">
-        <v>32.8641</v>
+        <v>31.8003</v>
       </c>
       <c r="T28">
-        <v>31.6683</v>
+        <v>30.5129</v>
       </c>
       <c r="U28">
-        <v>16.8933</v>
+        <v>14.3243</v>
       </c>
       <c r="V28">
-        <v>12.6948</v>
+        <v>11.2809</v>
       </c>
       <c r="W28">
-        <v>10.1174</v>
+        <v>10.9066</v>
       </c>
       <c r="X28">
-        <v>10.5242</v>
+        <v>10.5714</v>
       </c>
       <c r="Y28">
-        <v>10.5242</v>
+        <v>10.5714</v>
       </c>
       <c r="Z28">
-        <v>10.5285</v>
+        <v>10.5712</v>
       </c>
       <c r="AA28">
-        <v>19.7611</v>
+        <v>16.7201</v>
       </c>
       <c r="AB28">
-        <v>14.0617</v>
+        <v>12.1546</v>
       </c>
       <c r="AC28">
-        <v>10.699</v>
+        <v>11.4164</v>
       </c>
       <c r="AD28">
-        <v>12.7066</v>
+        <v>12.7025</v>
       </c>
       <c r="AE28">
-        <v>12.7066</v>
+        <v>12.7025</v>
       </c>
       <c r="AF28">
-        <v>12.7066</v>
+        <v>12.7025</v>
       </c>
       <c r="AG28">
-        <v>0.852611</v>
+        <v>0.849448</v>
       </c>
       <c r="AH28">
-        <v>0.260056</v>
+        <v>0.219692</v>
       </c>
       <c r="AI28">
-        <v>0.000115073</v>
+        <v>0.000110044</v>
       </c>
       <c r="AJ28" s="2" t="s">
         <v>62</v>
@@ -4999,34 +4999,34 @@
         <v>62</v>
       </c>
       <c r="AN28">
-        <v>0.261366</v>
+        <v>0.221046</v>
       </c>
       <c r="AO28">
-        <v>872.352</v>
+        <v>871.6420000000001</v>
       </c>
       <c r="AP28">
-        <v>833.12</v>
+        <v>832.215</v>
       </c>
       <c r="AQ28">
-        <v>887.934</v>
+        <v>886.181</v>
       </c>
       <c r="AR28">
-        <v>748.4889999999999</v>
+        <v>747.4250000000001</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT28">
-        <v>727.051</v>
+        <v>726.3200000000001</v>
       </c>
       <c r="AU28">
-        <v>781.581</v>
+        <v>779.9330000000001</v>
       </c>
       <c r="AV28">
-        <v>741.0069999999999</v>
+        <v>739.533</v>
       </c>
       <c r="AW28">
-        <v>797.293</v>
+        <v>796.138</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>63</v>
@@ -5070,73 +5070,73 @@
         <v>74</v>
       </c>
       <c r="M29">
-        <v>48.6763</v>
+        <v>48.5996</v>
       </c>
       <c r="N29">
-        <v>17.4188</v>
+        <v>17.2999</v>
       </c>
       <c r="O29">
-        <v>24.8627</v>
+        <v>20.9223</v>
       </c>
       <c r="P29">
-        <v>40.503</v>
+        <v>39.25680000000001</v>
       </c>
       <c r="Q29">
-        <v>48.6761</v>
+        <v>48.6003</v>
       </c>
       <c r="R29">
-        <v>99.9996</v>
+        <v>100.002</v>
       </c>
       <c r="S29">
-        <v>40.503</v>
+        <v>39.25680000000001</v>
       </c>
       <c r="T29">
-        <v>39.1814</v>
+        <v>37.85910000000001</v>
       </c>
       <c r="U29">
-        <v>20.7088</v>
+        <v>17.2394</v>
       </c>
       <c r="V29">
-        <v>15.9895</v>
+        <v>14.1808</v>
       </c>
       <c r="W29">
-        <v>12.9974</v>
+        <v>13.8476</v>
       </c>
       <c r="X29">
-        <v>13.6669</v>
+        <v>13.6491</v>
       </c>
       <c r="Y29">
-        <v>13.6669</v>
+        <v>13.6491</v>
       </c>
       <c r="Z29">
-        <v>13.6618</v>
+        <v>13.6499</v>
       </c>
       <c r="AA29">
-        <v>24.8627</v>
+        <v>20.9223</v>
       </c>
       <c r="AB29">
-        <v>18.9516</v>
+        <v>16.6835</v>
       </c>
       <c r="AC29">
-        <v>14.6369</v>
+        <v>15.408</v>
       </c>
       <c r="AD29">
-        <v>17.4188</v>
+        <v>17.2999</v>
       </c>
       <c r="AE29">
-        <v>17.4188</v>
+        <v>17.2999</v>
       </c>
       <c r="AF29">
-        <v>17.4188</v>
+        <v>17.2999</v>
       </c>
       <c r="AG29">
-        <v>0.69323</v>
+        <v>0.690937</v>
       </c>
       <c r="AH29">
-        <v>0.236089</v>
+        <v>0.200148</v>
       </c>
       <c r="AI29">
-        <v>0.0189612</v>
+        <v>0.0183602</v>
       </c>
       <c r="AJ29" s="2" t="s">
         <v>62</v>
@@ -5151,34 +5151,34 @@
         <v>62</v>
       </c>
       <c r="AN29">
-        <v>0.233082</v>
+        <v>0.197079</v>
       </c>
       <c r="AO29">
-        <v>872.605</v>
+        <v>871.932</v>
       </c>
       <c r="AP29">
-        <v>836.357</v>
+        <v>835.391</v>
       </c>
       <c r="AQ29">
-        <v>892.158</v>
+        <v>890.273</v>
       </c>
       <c r="AR29">
-        <v>756.129</v>
+        <v>754.884</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT29">
-        <v>729.3670000000001</v>
+        <v>728.5169999999999</v>
       </c>
       <c r="AU29">
-        <v>784.538</v>
+        <v>782.643</v>
       </c>
       <c r="AV29">
-        <v>747.1039999999999</v>
+        <v>745.487</v>
       </c>
       <c r="AW29">
-        <v>804.806</v>
+        <v>803.484</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>63</v>
@@ -5222,73 +5222,73 @@
         <v>76</v>
       </c>
       <c r="M30">
-        <v>48.7682</v>
+        <v>48.6472</v>
       </c>
       <c r="N30">
-        <v>14.3856</v>
+        <v>14.3852</v>
       </c>
       <c r="O30">
-        <v>22.0465</v>
+        <v>18.6824</v>
       </c>
       <c r="P30">
-        <v>34.0986</v>
+        <v>32.8636</v>
       </c>
       <c r="Q30">
-        <v>48.76710000000001</v>
+        <v>48.6465</v>
       </c>
       <c r="R30">
-        <v>99.9978</v>
+        <v>99.9986</v>
       </c>
       <c r="S30">
-        <v>34.0986</v>
+        <v>32.8636</v>
       </c>
       <c r="T30">
-        <v>32.8653</v>
+        <v>31.5149</v>
       </c>
       <c r="U30">
-        <v>20.2227</v>
+        <v>17.071</v>
       </c>
       <c r="V30">
-        <v>15.3548</v>
+        <v>13.4447</v>
       </c>
       <c r="W30">
-        <v>11.842</v>
+        <v>12.6349</v>
       </c>
       <c r="X30">
-        <v>11.9102</v>
+        <v>11.9081</v>
       </c>
       <c r="Y30">
-        <v>11.9102</v>
+        <v>11.9081</v>
       </c>
       <c r="Z30">
-        <v>11.9109</v>
+        <v>11.9064</v>
       </c>
       <c r="AA30">
-        <v>22.0465</v>
+        <v>18.6824</v>
       </c>
       <c r="AB30">
-        <v>16.5286</v>
+        <v>14.4575</v>
       </c>
       <c r="AC30">
-        <v>12.6395</v>
+        <v>13.3118</v>
       </c>
       <c r="AD30">
-        <v>14.3856</v>
+        <v>14.3852</v>
       </c>
       <c r="AE30">
-        <v>14.3856</v>
+        <v>14.3852</v>
       </c>
       <c r="AF30">
-        <v>14.3856</v>
+        <v>14.3852</v>
       </c>
       <c r="AG30">
-        <v>0.845212</v>
+        <v>0.843159</v>
       </c>
       <c r="AH30">
-        <v>0.309802</v>
+        <v>0.260944</v>
       </c>
       <c r="AI30">
-        <v>0.0218528</v>
+        <v>0.0211683</v>
       </c>
       <c r="AJ30" s="2" t="s">
         <v>62</v>
@@ -5303,34 +5303,34 @@
         <v>62</v>
       </c>
       <c r="AN30">
-        <v>0.30617</v>
+        <v>0.257056</v>
       </c>
       <c r="AO30">
-        <v>871.6270000000001</v>
+        <v>870.952</v>
       </c>
       <c r="AP30">
-        <v>833.371</v>
+        <v>832.438</v>
       </c>
       <c r="AQ30">
-        <v>888.397</v>
+        <v>886.4119999999999</v>
       </c>
       <c r="AR30">
-        <v>749.723</v>
+        <v>748.485</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT30">
-        <v>727.321</v>
+        <v>726.551</v>
       </c>
       <c r="AU30">
-        <v>781.7909999999999</v>
+        <v>779.925</v>
       </c>
       <c r="AV30">
-        <v>742.1239999999999</v>
+        <v>740.4590000000001</v>
       </c>
       <c r="AW30">
-        <v>798.49</v>
+        <v>797.14</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>63</v>
@@ -5374,73 +5374,73 @@
         <v>74</v>
       </c>
       <c r="M31">
-        <v>48.808</v>
+        <v>48.895</v>
       </c>
       <c r="N31">
-        <v>16.6712</v>
+        <v>16.6263</v>
       </c>
       <c r="O31">
-        <v>23.5809</v>
+        <v>19.7513</v>
       </c>
       <c r="P31">
-        <v>42.0601</v>
+        <v>40.9618</v>
       </c>
       <c r="Q31">
-        <v>48.8085</v>
+        <v>48.8947</v>
       </c>
       <c r="R31">
-        <v>100.001</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S31">
-        <v>42.0601</v>
+        <v>40.9618</v>
       </c>
       <c r="T31">
-        <v>40.8688</v>
+        <v>39.8572</v>
       </c>
       <c r="U31">
-        <v>16.9269</v>
+        <v>14.5114</v>
       </c>
       <c r="V31">
-        <v>14.2846</v>
+        <v>12.729</v>
       </c>
       <c r="W31">
-        <v>12.0077</v>
+        <v>12.9244</v>
       </c>
       <c r="X31">
-        <v>13.0415</v>
+        <v>13.1171</v>
       </c>
       <c r="Y31">
-        <v>13.0415</v>
+        <v>13.1171</v>
       </c>
       <c r="Z31">
-        <v>13.041</v>
+        <v>13.1196</v>
       </c>
       <c r="AA31">
-        <v>23.5809</v>
+        <v>19.7513</v>
       </c>
       <c r="AB31">
-        <v>17.4574</v>
+        <v>14.9276</v>
       </c>
       <c r="AC31">
-        <v>13.4197</v>
+        <v>14.3274</v>
       </c>
       <c r="AD31">
-        <v>16.6712</v>
+        <v>16.6263</v>
       </c>
       <c r="AE31">
-        <v>16.6712</v>
+        <v>16.6263</v>
       </c>
       <c r="AF31">
-        <v>16.6712</v>
+        <v>16.6263</v>
       </c>
       <c r="AG31">
-        <v>0.700036</v>
+        <v>0.697003</v>
       </c>
       <c r="AH31">
-        <v>0.193975</v>
+        <v>0.165209</v>
       </c>
       <c r="AI31">
-        <v>8.49989E-05</v>
+        <v>8.10928E-05</v>
       </c>
       <c r="AJ31" s="2" t="s">
         <v>62</v>
@@ -5455,34 +5455,34 @@
         <v>62</v>
       </c>
       <c r="AN31">
-        <v>0.194948</v>
+        <v>0.166159</v>
       </c>
       <c r="AO31">
-        <v>873.737</v>
+        <v>873.121</v>
       </c>
       <c r="AP31">
-        <v>837.2700000000001</v>
+        <v>836.278</v>
       </c>
       <c r="AQ31">
-        <v>893.7020000000001</v>
+        <v>891.8950000000001</v>
       </c>
       <c r="AR31">
-        <v>757.6859999999999</v>
+        <v>756.5870000000001</v>
       </c>
       <c r="AS31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT31">
-        <v>729.561</v>
+        <v>728.846</v>
       </c>
       <c r="AU31">
-        <v>785.599</v>
+        <v>783.891</v>
       </c>
       <c r="AV31">
-        <v>747.8920000000001</v>
+        <v>746.2670000000001</v>
       </c>
       <c r="AW31">
-        <v>806.494</v>
+        <v>805.482</v>
       </c>
       <c r="AX31" s="2" t="s">
         <v>63</v>
@@ -5526,73 +5526,73 @@
         <v>76</v>
       </c>
       <c r="M32">
-        <v>48.8269</v>
+        <v>48.8362</v>
       </c>
       <c r="N32">
-        <v>13.4351</v>
+        <v>13.4965</v>
       </c>
       <c r="O32">
-        <v>20.4994</v>
+        <v>17.2865</v>
       </c>
       <c r="P32">
-        <v>33.8627</v>
+        <v>32.787</v>
       </c>
       <c r="Q32">
-        <v>48.8273</v>
+        <v>48.8366</v>
       </c>
       <c r="R32">
         <v>100.001</v>
       </c>
       <c r="S32">
-        <v>33.8627</v>
+        <v>32.787</v>
       </c>
       <c r="T32">
-        <v>32.68770000000001</v>
+        <v>31.6221</v>
       </c>
       <c r="U32">
-        <v>17.0822</v>
+        <v>14.5436</v>
       </c>
       <c r="V32">
-        <v>13.8542</v>
+        <v>12.1805</v>
       </c>
       <c r="W32">
-        <v>10.8825</v>
+        <v>11.7885</v>
       </c>
       <c r="X32">
-        <v>11.2295</v>
+        <v>11.3025</v>
       </c>
       <c r="Y32">
-        <v>11.2295</v>
+        <v>11.3025</v>
       </c>
       <c r="Z32">
-        <v>11.229</v>
+        <v>11.2995</v>
       </c>
       <c r="AA32">
-        <v>20.4994</v>
+        <v>17.2865</v>
       </c>
       <c r="AB32">
-        <v>14.9423</v>
+        <v>12.9205</v>
       </c>
       <c r="AC32">
-        <v>11.4163</v>
+        <v>12.284</v>
       </c>
       <c r="AD32">
-        <v>13.4351</v>
+        <v>13.4965</v>
       </c>
       <c r="AE32">
-        <v>13.4351</v>
+        <v>13.4965</v>
       </c>
       <c r="AF32">
-        <v>13.4351</v>
+        <v>13.4965</v>
       </c>
       <c r="AG32">
-        <v>0.8514350000000001</v>
+        <v>0.848763</v>
       </c>
       <c r="AH32">
-        <v>0.253669</v>
+        <v>0.214819</v>
       </c>
       <c r="AI32">
-        <v>0.000115073</v>
+        <v>0.000110044</v>
       </c>
       <c r="AJ32" s="2" t="s">
         <v>62</v>
@@ -5607,34 +5607,34 @@
         <v>62</v>
       </c>
       <c r="AN32">
-        <v>0.255088</v>
+        <v>0.216209</v>
       </c>
       <c r="AO32">
-        <v>872.001</v>
+        <v>871.384</v>
       </c>
       <c r="AP32">
-        <v>833.321</v>
+        <v>832.39</v>
       </c>
       <c r="AQ32">
-        <v>888.475</v>
+        <v>886.549</v>
       </c>
       <c r="AR32">
-        <v>749.486</v>
+        <v>748.4140000000001</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT32">
-        <v>727.003</v>
+        <v>726.3220000000001</v>
       </c>
       <c r="AU32">
-        <v>781.84</v>
+        <v>780.1419999999999</v>
       </c>
       <c r="AV32">
-        <v>741.606</v>
+        <v>739.943</v>
       </c>
       <c r="AW32">
-        <v>798.3130000000001</v>
+        <v>797.247</v>
       </c>
       <c r="AX32" s="2" t="s">
         <v>63</v>
@@ -5678,73 +5678,73 @@
         <v>74</v>
       </c>
       <c r="M33">
-        <v>48.7439</v>
+        <v>48.769</v>
       </c>
       <c r="N33">
-        <v>18.2114</v>
+        <v>18.1494</v>
       </c>
       <c r="O33">
-        <v>25.5407</v>
+        <v>21.4442</v>
       </c>
       <c r="P33">
-        <v>41.4133</v>
+        <v>40.149</v>
       </c>
       <c r="Q33">
-        <v>48.7428</v>
+        <v>48.77030000000001</v>
       </c>
       <c r="R33">
-        <v>99.99769999999999</v>
+        <v>100.003</v>
       </c>
       <c r="S33">
-        <v>41.4133</v>
+        <v>40.149</v>
       </c>
       <c r="T33">
-        <v>40.1545</v>
+        <v>38.9169</v>
       </c>
       <c r="U33">
-        <v>20.8885</v>
+        <v>17.5276</v>
       </c>
       <c r="V33">
-        <v>17.1408</v>
+        <v>15.0749</v>
       </c>
       <c r="W33">
-        <v>13.7783</v>
+        <v>14.7324</v>
       </c>
       <c r="X33">
-        <v>14.4157</v>
+        <v>14.4274</v>
       </c>
       <c r="Y33">
-        <v>14.4157</v>
+        <v>14.4274</v>
       </c>
       <c r="Z33">
-        <v>14.4125</v>
+        <v>14.4175</v>
       </c>
       <c r="AA33">
-        <v>25.5407</v>
+        <v>21.4442</v>
       </c>
       <c r="AB33">
-        <v>19.8464</v>
+        <v>17.3797</v>
       </c>
       <c r="AC33">
-        <v>15.3759</v>
+        <v>16.2633</v>
       </c>
       <c r="AD33">
-        <v>18.2114</v>
+        <v>18.1494</v>
       </c>
       <c r="AE33">
-        <v>18.2114</v>
+        <v>18.1494</v>
       </c>
       <c r="AF33">
-        <v>18.2114</v>
+        <v>18.1494</v>
       </c>
       <c r="AG33">
-        <v>0.692266</v>
+        <v>0.690456</v>
       </c>
       <c r="AH33">
-        <v>0.231283</v>
+        <v>0.196444</v>
       </c>
       <c r="AI33">
-        <v>0.0189595</v>
+        <v>0.018359</v>
       </c>
       <c r="AJ33" s="2" t="s">
         <v>62</v>
@@ -5759,34 +5759,34 @@
         <v>62</v>
       </c>
       <c r="AN33">
-        <v>0.228179</v>
+        <v>0.193248</v>
       </c>
       <c r="AO33">
-        <v>872.1659999999999</v>
+        <v>871.606</v>
       </c>
       <c r="AP33">
-        <v>836.4730000000001</v>
+        <v>835.495</v>
       </c>
       <c r="AQ33">
-        <v>892.621</v>
+        <v>890.551</v>
       </c>
       <c r="AR33">
-        <v>757.038</v>
+        <v>755.7760000000001</v>
       </c>
       <c r="AS33" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT33">
-        <v>729.2769999999999</v>
+        <v>728.485</v>
       </c>
       <c r="AU33">
-        <v>784.751</v>
+        <v>782.804</v>
       </c>
       <c r="AV33">
-        <v>747.639</v>
+        <v>745.828</v>
       </c>
       <c r="AW33">
-        <v>805.78</v>
+        <v>804.542</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>63</v>
@@ -5830,73 +5830,73 @@
         <v>76</v>
       </c>
       <c r="M34">
-        <v>48.8215</v>
+        <v>48.8063</v>
       </c>
       <c r="N34">
-        <v>15.1841</v>
+        <v>15.2354</v>
       </c>
       <c r="O34">
-        <v>22.81</v>
+        <v>19.2492</v>
       </c>
       <c r="P34">
-        <v>35.1398</v>
+        <v>33.87280000000001</v>
       </c>
       <c r="Q34">
-        <v>48.8203</v>
+        <v>48.8064</v>
       </c>
       <c r="R34">
-        <v>99.9975</v>
+        <v>100</v>
       </c>
       <c r="S34">
-        <v>35.1398</v>
+        <v>33.87280000000001</v>
       </c>
       <c r="T34">
-        <v>33.9578</v>
+        <v>32.6792</v>
       </c>
       <c r="U34">
-        <v>20.4299</v>
+        <v>17.4299</v>
       </c>
       <c r="V34">
-        <v>16.556</v>
+        <v>14.4253</v>
       </c>
       <c r="W34">
-        <v>12.7117</v>
+        <v>13.6017</v>
       </c>
       <c r="X34">
-        <v>12.6762</v>
+        <v>12.694</v>
       </c>
       <c r="Y34">
-        <v>12.6762</v>
+        <v>12.694</v>
       </c>
       <c r="Z34">
-        <v>12.6729</v>
+        <v>12.6936</v>
       </c>
       <c r="AA34">
-        <v>22.81</v>
+        <v>19.2492</v>
       </c>
       <c r="AB34">
-        <v>17.5116</v>
+        <v>15.2209</v>
       </c>
       <c r="AC34">
-        <v>13.472</v>
+        <v>14.2701</v>
       </c>
       <c r="AD34">
-        <v>15.1841</v>
+        <v>15.2354</v>
       </c>
       <c r="AE34">
-        <v>15.1841</v>
+        <v>15.2354</v>
       </c>
       <c r="AF34">
-        <v>15.1841</v>
+        <v>15.2354</v>
       </c>
       <c r="AG34">
-        <v>0.844139</v>
+        <v>0.842338</v>
       </c>
       <c r="AH34">
-        <v>0.305237</v>
+        <v>0.256991</v>
       </c>
       <c r="AI34">
-        <v>0.0218505</v>
+        <v>0.0211668</v>
       </c>
       <c r="AJ34" s="2" t="s">
         <v>62</v>
@@ -5911,34 +5911,34 @@
         <v>62</v>
       </c>
       <c r="AN34">
-        <v>0.301413</v>
+        <v>0.25325</v>
       </c>
       <c r="AO34">
-        <v>871.211</v>
+        <v>870.6450000000001</v>
       </c>
       <c r="AP34">
-        <v>833.572</v>
+        <v>832.607</v>
       </c>
       <c r="AQ34">
-        <v>888.989</v>
+        <v>886.8050000000001</v>
       </c>
       <c r="AR34">
-        <v>750.764</v>
+        <v>749.4970000000001</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT34">
-        <v>727.2769999999999</v>
+        <v>726.557</v>
       </c>
       <c r="AU34">
-        <v>782.0790000000001</v>
+        <v>780.155</v>
       </c>
       <c r="AV34">
-        <v>742.778</v>
+        <v>740.896</v>
       </c>
       <c r="AW34">
-        <v>799.583</v>
+        <v>798.304</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>63</v>
@@ -6101,73 +6101,73 @@
         <v>124</v>
       </c>
       <c r="M36" s="1">
-        <v>48.6763</v>
+        <v>48.5996</v>
       </c>
       <c r="N36" s="1">
-        <v>10.0281</v>
+        <v>10.0947</v>
       </c>
       <c r="O36" s="1">
-        <v>18.7715</v>
+        <v>16.0244</v>
       </c>
       <c r="P36" s="1">
-        <v>27.8033</v>
+        <v>26.7469</v>
       </c>
       <c r="Q36" s="1">
-        <v>48.6761</v>
+        <v>48.6003</v>
       </c>
       <c r="R36" s="1">
-        <v>99.995</v>
+        <v>99.99630000000001</v>
       </c>
       <c r="S36" s="1">
-        <v>27.1333</v>
+        <v>26.1714</v>
       </c>
       <c r="T36" s="1">
-        <v>27.8033</v>
+        <v>26.7469</v>
       </c>
       <c r="U36" s="1">
-        <v>16.8413</v>
+        <v>14.3243</v>
       </c>
       <c r="V36" s="1">
-        <v>12.6948</v>
+        <v>11.2809</v>
       </c>
       <c r="W36" s="1">
-        <v>10.1174</v>
+        <v>10.9066</v>
       </c>
       <c r="X36" s="1">
-        <v>10.0241</v>
+        <v>10.0918</v>
       </c>
       <c r="Y36" s="1">
-        <v>10.0241</v>
+        <v>10.0918</v>
       </c>
       <c r="Z36" s="1">
-        <v>10.0281</v>
+        <v>10.0947</v>
       </c>
       <c r="AA36" s="1">
-        <v>17.5631</v>
+        <v>14.1192</v>
       </c>
       <c r="AB36" s="1">
-        <v>11.0043</v>
+        <v>9.824670000000001</v>
       </c>
       <c r="AC36" s="1">
-        <v>9.14485</v>
+        <v>9.857719999999999</v>
       </c>
       <c r="AD36" s="1">
-        <v>9.962060000000001</v>
+        <v>10.0563</v>
       </c>
       <c r="AE36" s="1">
-        <v>9.962060000000001</v>
+        <v>10.0563</v>
       </c>
       <c r="AF36" s="1">
-        <v>9.962060000000001</v>
+        <v>10.0563</v>
       </c>
       <c r="AG36" s="1">
-        <v>0.687146</v>
+        <v>0.686082</v>
       </c>
       <c r="AH36" s="1">
-        <v>0.180975</v>
+        <v>0.155514</v>
       </c>
       <c r="AI36" s="1">
-        <v>3.96992E-06</v>
+        <v>3.84434E-06</v>
       </c>
       <c r="AJ36" s="1" t="s">
         <v>62</v>
@@ -6182,34 +6182,34 @@
         <v>62</v>
       </c>
       <c r="AN36" s="1">
-        <v>0.182425</v>
+        <v>0.156886</v>
       </c>
       <c r="AO36" s="1">
-        <v>871.211</v>
+        <v>870.6450000000001</v>
       </c>
       <c r="AP36" s="1">
-        <v>829.734</v>
+        <v>828.8349999999999</v>
       </c>
       <c r="AQ36" s="1">
-        <v>886.6990000000001</v>
+        <v>885.062</v>
       </c>
       <c r="AR36" s="1">
-        <v>742.756</v>
+        <v>741.796</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT36" s="1">
-        <v>722.4880000000001</v>
+        <v>721.956</v>
       </c>
       <c r="AU36" s="1">
-        <v>780.2959999999999</v>
+        <v>778.8240000000001</v>
       </c>
       <c r="AV36" s="1">
-        <v>735.6020000000001</v>
+        <v>734.1180000000001</v>
       </c>
       <c r="AW36" s="1">
-        <v>793.428</v>
+        <v>792.3720000000001</v>
       </c>
       <c r="AX36" s="1" t="s">
         <v>62</v>
@@ -6220,73 +6220,73 @@
         <v>125</v>
       </c>
       <c r="M37" s="1">
-        <v>52.5731</v>
+        <v>52.4911</v>
       </c>
       <c r="N37" s="1">
-        <v>19.4306</v>
+        <v>19.4288</v>
       </c>
       <c r="O37" s="1">
-        <v>27.5978</v>
+        <v>22.6018</v>
       </c>
       <c r="P37" s="1">
-        <v>53.3349</v>
+        <v>52.5179</v>
       </c>
       <c r="Q37" s="1">
-        <v>52.5737</v>
+        <v>52.4909</v>
       </c>
       <c r="R37" s="1">
         <v>100.004</v>
       </c>
       <c r="S37" s="1">
-        <v>52.688</v>
+        <v>51.98350000000001</v>
       </c>
       <c r="T37" s="1">
-        <v>53.3349</v>
+        <v>52.5179</v>
       </c>
       <c r="U37" s="1">
-        <v>27.3224</v>
+        <v>22.6018</v>
       </c>
       <c r="V37" s="1">
-        <v>21.4091</v>
+        <v>19.8752</v>
       </c>
       <c r="W37" s="1">
-        <v>16.6355</v>
+        <v>18.1723</v>
       </c>
       <c r="X37" s="1">
-        <v>18.907</v>
+        <v>18.9091</v>
       </c>
       <c r="Y37" s="1">
-        <v>18.907</v>
+        <v>18.9091</v>
       </c>
       <c r="Z37" s="1">
-        <v>18.9076</v>
+        <v>18.9056</v>
       </c>
       <c r="AA37" s="1">
-        <v>27.5978</v>
+        <v>21.4442</v>
       </c>
       <c r="AB37" s="1">
-        <v>19.8464</v>
+        <v>17.3797</v>
       </c>
       <c r="AC37" s="1">
-        <v>15.3974</v>
+        <v>16.3619</v>
       </c>
       <c r="AD37" s="1">
-        <v>19.4306</v>
+        <v>19.4288</v>
       </c>
       <c r="AE37" s="1">
-        <v>19.4306</v>
+        <v>19.4288</v>
       </c>
       <c r="AF37" s="1">
-        <v>19.4306</v>
+        <v>19.4288</v>
       </c>
       <c r="AG37" s="1">
-        <v>0.85841</v>
+        <v>0.854244</v>
       </c>
       <c r="AH37" s="1">
-        <v>0.384379</v>
+        <v>0.322152</v>
       </c>
       <c r="AI37" s="1">
-        <v>0.04411039999999999</v>
+        <v>0.04272919999999999</v>
       </c>
       <c r="AJ37" s="1" t="s">
         <v>62</v>
@@ -6301,34 +6301,34 @@
         <v>62</v>
       </c>
       <c r="AN37" s="1">
-        <v>0.377742</v>
+        <v>0.315478</v>
       </c>
       <c r="AO37" s="1">
-        <v>879.62</v>
+        <v>878.857</v>
       </c>
       <c r="AP37" s="1">
-        <v>841.311</v>
+        <v>840.5000000000001</v>
       </c>
       <c r="AQ37" s="1">
-        <v>904.4549999999999</v>
+        <v>902.865</v>
       </c>
       <c r="AR37" s="1">
-        <v>768.318</v>
+        <v>767.611</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT37" s="1">
-        <v>729.6379999999999</v>
+        <v>728.923</v>
       </c>
       <c r="AU37" s="1">
-        <v>791.764</v>
+        <v>789.984</v>
       </c>
       <c r="AV37" s="1">
-        <v>753.1270000000001</v>
+        <v>751.85</v>
       </c>
       <c r="AW37" s="1">
-        <v>818.96</v>
+        <v>818.1429999999999</v>
       </c>
       <c r="AX37" s="1" t="s">
         <v>62</v>
@@ -6374,73 +6374,73 @@
         <v>130</v>
       </c>
       <c r="M42" s="1">
-        <v>50.54221212121212</v>
+        <v>50.44602424242425</v>
       </c>
       <c r="N42" s="1">
-        <v>14.7982696969697</v>
+        <v>14.81944242424242</v>
       </c>
       <c r="O42" s="1">
-        <v>22.94647272727273</v>
+        <v>18.91239696969697</v>
       </c>
       <c r="P42" s="1">
-        <v>38.21110303030301</v>
+        <v>37.12341515151515</v>
       </c>
       <c r="Q42" s="1">
-        <v>50.54207575757575</v>
+        <v>50.44598181818183</v>
       </c>
       <c r="R42" s="1">
-        <v>99.99968787878788</v>
+        <v>99.99989696969696</v>
       </c>
       <c r="S42" s="1">
-        <v>37.37213333333332</v>
+        <v>36.37468484848486</v>
       </c>
       <c r="T42" s="1">
-        <v>37.91418181818181</v>
+        <v>36.82083030303029</v>
       </c>
       <c r="U42" s="1">
-        <v>21.86097575757576</v>
+        <v>18.00123939393939</v>
       </c>
       <c r="V42" s="1">
-        <v>16.89154545454545</v>
+        <v>15.35505757575757</v>
       </c>
       <c r="W42" s="1">
-        <v>13.22001212121212</v>
+        <v>14.32467878787879</v>
       </c>
       <c r="X42" s="1">
-        <v>13.99088181818182</v>
+        <v>14.02125454545454</v>
       </c>
       <c r="Y42" s="1">
-        <v>13.99088181818182</v>
+        <v>14.02125454545454</v>
       </c>
       <c r="Z42" s="1">
-        <v>13.99053333333333</v>
+        <v>14.02137272727273</v>
       </c>
       <c r="AA42" s="1">
-        <v>21.86658181818182</v>
+        <v>17.4958303030303</v>
       </c>
       <c r="AB42" s="1">
-        <v>15.15985151515152</v>
+        <v>13.12704757575757</v>
       </c>
       <c r="AC42" s="1">
-        <v>12.05610909090909</v>
+        <v>12.84153878787879</v>
       </c>
       <c r="AD42" s="1">
-        <v>14.08350181818182</v>
+        <v>14.1374</v>
       </c>
       <c r="AE42" s="1">
-        <v>14.08350181818182</v>
+        <v>14.1374</v>
       </c>
       <c r="AF42" s="1">
-        <v>14.08350181818182</v>
+        <v>14.1374</v>
       </c>
       <c r="AG42" s="1">
-        <v>0.7726204848484848</v>
+        <v>0.7700308181818182</v>
       </c>
       <c r="AH42" s="1">
-        <v>0.2505119090909091</v>
+        <v>0.2119365454545455</v>
       </c>
       <c r="AI42" s="1">
-        <v>0.009154166662121216</v>
+        <v>0.008864776820909089</v>
       </c>
       <c r="AJ42" s="1" t="s">
         <v>62</v>
@@ -6455,34 +6455,34 @@
         <v>62</v>
       </c>
       <c r="AN42" s="1">
-        <v>0.2499255454545454</v>
+        <v>0.2113031818181819</v>
       </c>
       <c r="AO42" s="1">
-        <v>875.1680909090911</v>
+        <v>874.4768484848485</v>
       </c>
       <c r="AP42" s="1">
-        <v>834.3864242424244</v>
+        <v>833.4574242424242</v>
       </c>
       <c r="AQ42" s="1">
-        <v>893.5819696969698</v>
+        <v>891.8268787878787</v>
       </c>
       <c r="AR42" s="1">
-        <v>752.9972121212122</v>
+        <v>752.0002121212121</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT42" s="1">
-        <v>725.8693939393938</v>
+        <v>725.2495151515153</v>
       </c>
       <c r="AU42" s="1">
-        <v>784.7306363636362</v>
+        <v>783.0378484848485</v>
       </c>
       <c r="AV42" s="1">
-        <v>742.759515151515</v>
+        <v>741.2027272727273</v>
       </c>
       <c r="AW42" s="1">
-        <v>803.5391515151515</v>
+        <v>802.445787878788</v>
       </c>
       <c r="AX42" s="1" t="s">
         <v>62</v>
@@ -6493,73 +6493,73 @@
         <v>131</v>
       </c>
       <c r="M43" s="1">
-        <v>1.221903589847979</v>
+        <v>1.174849244237333</v>
       </c>
       <c r="N43" s="1">
-        <v>2.418793986051833</v>
+        <v>2.380734166753113</v>
       </c>
       <c r="O43" s="1">
-        <v>2.288482936327527</v>
+        <v>1.815164952264727</v>
       </c>
       <c r="P43" s="1">
-        <v>6.455168603787523</v>
+        <v>6.503873989802152</v>
       </c>
       <c r="Q43" s="1">
-        <v>1.221964992562663</v>
+        <v>1.174952373362181</v>
       </c>
       <c r="R43" s="1">
-        <v>0.001745080978543504</v>
+        <v>0.001662871712554032</v>
       </c>
       <c r="S43" s="1">
-        <v>6.445162251556503</v>
+        <v>6.505090536538159</v>
       </c>
       <c r="T43" s="1">
-        <v>6.499525648493666</v>
+        <v>6.558014079456863</v>
       </c>
       <c r="U43" s="1">
-        <v>2.877431283336128</v>
+        <v>2.218752230139983</v>
       </c>
       <c r="V43" s="1">
-        <v>2.238585090211159</v>
+        <v>2.236149518504805</v>
       </c>
       <c r="W43" s="1">
-        <v>1.773769359260971</v>
+        <v>1.979564974977105</v>
       </c>
       <c r="X43" s="1">
-        <v>2.399431919693739</v>
+        <v>2.375096829552864</v>
       </c>
       <c r="Y43" s="1">
-        <v>2.399431919693739</v>
+        <v>2.375096829552864</v>
       </c>
       <c r="Z43" s="1">
-        <v>2.39866019744946</v>
+        <v>2.374983553151694</v>
       </c>
       <c r="AA43" s="1">
-        <v>2.464965303395191</v>
+        <v>1.915046133234148</v>
       </c>
       <c r="AB43" s="1">
-        <v>2.215047883896023</v>
+        <v>1.867843745526701</v>
       </c>
       <c r="AC43" s="1">
-        <v>1.657093636626386</v>
+        <v>1.69301779813401</v>
       </c>
       <c r="AD43" s="1">
-        <v>2.489278963167732</v>
+        <v>2.436505656331077</v>
       </c>
       <c r="AE43" s="1">
-        <v>2.489278963167732</v>
+        <v>2.436505656331077</v>
       </c>
       <c r="AF43" s="1">
-        <v>2.489278963167732</v>
+        <v>2.436505656331077</v>
       </c>
       <c r="AG43" s="1">
-        <v>0.07478746343335375</v>
+        <v>0.07487859244842848</v>
       </c>
       <c r="AH43" s="1">
-        <v>0.05059597042666519</v>
+        <v>0.0416187775453478</v>
       </c>
       <c r="AI43" s="1">
-        <v>0.01386903615353814</v>
+        <v>0.01343357141855132</v>
       </c>
       <c r="AJ43" s="1" t="s">
         <v>62</v>
@@ -6574,34 +6574,34 @@
         <v>62</v>
       </c>
       <c r="AN43" s="1">
-        <v>0.0488776291203834</v>
+        <v>0.03985736781244641</v>
       </c>
       <c r="AO43" s="1">
-        <v>2.506562034771885</v>
+        <v>2.461342121211338</v>
       </c>
       <c r="AP43" s="1">
-        <v>3.000221598182402</v>
+        <v>3.035409013728539</v>
       </c>
       <c r="AQ43" s="1">
-        <v>4.801692949460615</v>
+        <v>4.907213890500986</v>
       </c>
       <c r="AR43" s="1">
-        <v>6.445654739094442</v>
+        <v>6.50555861975007</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT43" s="1">
-        <v>2.342872633786357</v>
+        <v>2.307255697973468</v>
       </c>
       <c r="AU43" s="1">
-        <v>3.029020411890186</v>
+        <v>2.989305150042981</v>
       </c>
       <c r="AV43" s="1">
-        <v>4.697793925335792</v>
+        <v>4.775787222258383</v>
       </c>
       <c r="AW43" s="1">
-        <v>6.499542958855855</v>
+        <v>6.558072119510533</v>
       </c>
       <c r="AX43" s="1" t="s">
         <v>62</v>
@@ -6612,73 +6612,73 @@
         <v>132</v>
       </c>
       <c r="M44" s="1">
-        <v>2.41759024499673</v>
+        <v>2.328923362902611</v>
       </c>
       <c r="N44" s="1">
-        <v>16.34511355437142</v>
+        <v>16.06493752328079</v>
       </c>
       <c r="O44" s="1">
-        <v>9.973136017578774</v>
+        <v>9.597751967522344</v>
       </c>
       <c r="P44" s="1">
-        <v>16.89343696429884</v>
+        <v>17.51960040114117</v>
       </c>
       <c r="Q44" s="1">
-        <v>2.417718256020584</v>
+        <v>2.329129756254843</v>
       </c>
       <c r="R44" s="1">
-        <v>0.001745086425328408</v>
+        <v>0.001662873425817562</v>
       </c>
       <c r="S44" s="1">
-        <v>17.24590403782989</v>
+        <v>17.88356535220708</v>
       </c>
       <c r="T44" s="1">
-        <v>17.14272954553593</v>
+        <v>17.81060890122608</v>
       </c>
       <c r="U44" s="1">
-        <v>13.16241011034914</v>
+        <v>12.32555259993368</v>
       </c>
       <c r="V44" s="1">
-        <v>13.25269553478758</v>
+        <v>14.56295105031204</v>
       </c>
       <c r="W44" s="1">
-        <v>13.41730509017368</v>
+        <v>13.81926257677881</v>
       </c>
       <c r="X44" s="1">
-        <v>17.14996917903747</v>
+        <v>16.93926047667989</v>
       </c>
       <c r="Y44" s="1">
-        <v>17.14996917903747</v>
+        <v>16.93926047667989</v>
       </c>
       <c r="Z44" s="1">
-        <v>17.14488032943319</v>
+        <v>16.93830981707058</v>
       </c>
       <c r="AA44" s="1">
-        <v>11.27275092143391</v>
+        <v>10.9457287826029</v>
       </c>
       <c r="AB44" s="1">
-        <v>14.61127690915833</v>
+        <v>14.22897064055857</v>
       </c>
       <c r="AC44" s="1">
-        <v>13.74484607041186</v>
+        <v>13.18391686619411</v>
       </c>
       <c r="AD44" s="1">
-        <v>17.67514212945299</v>
+        <v>17.23446783942647</v>
       </c>
       <c r="AE44" s="1">
-        <v>17.67514212945299</v>
+        <v>17.23446783942647</v>
       </c>
       <c r="AF44" s="1">
-        <v>17.67514212945299</v>
+        <v>17.23446783942647</v>
       </c>
       <c r="AG44" s="1">
-        <v>9.679715319484442</v>
+        <v>9.724103332023823</v>
       </c>
       <c r="AH44" s="1">
-        <v>20.19703199351861</v>
+        <v>19.63737658179102</v>
       </c>
       <c r="AI44" s="1">
-        <v>151.5051742604432</v>
+        <v>151.5387436135555</v>
       </c>
       <c r="AJ44" s="1" t="s">
         <v>62</v>
@@ -6693,34 +6693,34 @@
         <v>62</v>
       </c>
       <c r="AN44" s="1">
-        <v>19.55687604141806</v>
+        <v>18.86264440955845</v>
       </c>
       <c r="AO44" s="1">
-        <v>0.2864092122198107</v>
+        <v>0.2814645265310285</v>
       </c>
       <c r="AP44" s="1">
-        <v>0.35957219712754</v>
+        <v>0.3641948497234386</v>
       </c>
       <c r="AQ44" s="1">
-        <v>0.5373533836060902</v>
+        <v>0.5502428786594319</v>
       </c>
       <c r="AR44" s="1">
-        <v>0.8559998145194814</v>
+        <v>0.8651006362617173</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AT44" s="1">
-        <v>0.3227677945024328</v>
+        <v>0.3181326770678983</v>
       </c>
       <c r="AU44" s="1">
-        <v>0.3859949225286227</v>
+        <v>0.381757427923463</v>
       </c>
       <c r="AV44" s="1">
-        <v>0.6324784576307303</v>
+        <v>0.6443294184616674</v>
       </c>
       <c r="AW44" s="1">
-        <v>0.8088645023208056</v>
+        <v>0.8172604577869815</v>
       </c>
       <c r="AX44" s="1" t="s">
         <v>62</v>

--- a/dca_mission_timing_post_tsmc2p_meas.xlsx
+++ b/dca_mission_timing_post_tsmc2p_meas.xlsx
@@ -966,73 +966,73 @@
         <v>61</v>
       </c>
       <c r="M2">
-        <v>50.4374</v>
+        <v>50.3974</v>
       </c>
       <c r="N2">
-        <v>13.2393</v>
+        <v>13.3423</v>
       </c>
       <c r="O2">
-        <v>17.0949</v>
+        <v>17.838</v>
       </c>
       <c r="P2">
-        <v>35.207</v>
+        <v>35.8264</v>
       </c>
       <c r="Q2">
-        <v>50.4383</v>
+        <v>50.39700000000001</v>
       </c>
       <c r="R2">
-        <v>100.002</v>
+        <v>99.9992</v>
       </c>
       <c r="S2">
-        <v>34.7688</v>
+        <v>35.4293</v>
       </c>
       <c r="T2">
-        <v>35.207</v>
+        <v>35.8264</v>
       </c>
       <c r="U2">
-        <v>16.9301</v>
+        <v>17.838</v>
       </c>
       <c r="V2">
-        <v>14.7455</v>
+        <v>16.016</v>
       </c>
       <c r="W2">
-        <v>13.5722</v>
+        <v>13.8578</v>
       </c>
       <c r="X2">
-        <v>13.2143</v>
+        <v>13.2559</v>
       </c>
       <c r="Y2">
-        <v>13.2143</v>
+        <v>13.2559</v>
       </c>
       <c r="Z2">
-        <v>13.2173</v>
+        <v>13.2552</v>
       </c>
       <c r="AA2">
-        <v>17.0949</v>
+        <v>17.7681</v>
       </c>
       <c r="AB2">
-        <v>12.2982</v>
+        <v>12.616</v>
       </c>
       <c r="AC2">
-        <v>12.1213</v>
+        <v>12.0878</v>
       </c>
       <c r="AD2">
-        <v>13.2393</v>
+        <v>13.3423</v>
       </c>
       <c r="AE2">
-        <v>13.2393</v>
+        <v>13.3423</v>
       </c>
       <c r="AF2">
-        <v>13.2393</v>
+        <v>13.3423</v>
       </c>
       <c r="AG2">
-        <v>0.771156</v>
+        <v>0.77174</v>
       </c>
       <c r="AH2">
-        <v>0.196956</v>
+        <v>0.20409</v>
       </c>
       <c r="AI2">
-        <v>0.000377823</v>
+        <v>0.000380372</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>62</v>
@@ -1047,34 +1047,34 @@
         <v>62</v>
       </c>
       <c r="AN2">
-        <v>0.197579</v>
+        <v>0.204829</v>
       </c>
       <c r="AO2">
-        <v>874.301</v>
+        <v>874.437</v>
       </c>
       <c r="AP2">
-        <v>832.8090000000001</v>
+        <v>833.468</v>
       </c>
       <c r="AQ2">
-        <v>890.79</v>
+        <v>891.307</v>
       </c>
       <c r="AR2">
-        <v>750.3920000000001</v>
+        <v>751.0540000000001</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT2">
-        <v>724.907</v>
+        <v>725.177</v>
       </c>
       <c r="AU2">
-        <v>782.49</v>
+        <v>782.698</v>
       </c>
       <c r="AV2">
-        <v>740.069</v>
+        <v>740.6890000000001</v>
       </c>
       <c r="AW2">
-        <v>800.832</v>
+        <v>801.451</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>63</v>
@@ -1118,73 +1118,73 @@
         <v>74</v>
       </c>
       <c r="M3">
-        <v>50.3629</v>
+        <v>50.3146</v>
       </c>
       <c r="N3">
-        <v>11.5618</v>
+        <v>11.5863</v>
       </c>
       <c r="O3">
-        <v>16.0347</v>
+        <v>16.8265</v>
       </c>
       <c r="P3">
-        <v>31.4031</v>
+        <v>31.9238</v>
       </c>
       <c r="Q3">
-        <v>50.3627</v>
+        <v>50.3146</v>
       </c>
       <c r="R3">
-        <v>99.99980000000001</v>
+        <v>99.9999</v>
       </c>
       <c r="S3">
-        <v>31.0405</v>
+        <v>31.6072</v>
       </c>
       <c r="T3">
-        <v>31.4031</v>
+        <v>31.9238</v>
       </c>
       <c r="U3">
-        <v>16.0347</v>
+        <v>16.8265</v>
       </c>
       <c r="V3">
-        <v>13.2337</v>
+        <v>14.2818</v>
       </c>
       <c r="W3">
-        <v>12.0473</v>
+        <v>12.2745</v>
       </c>
       <c r="X3">
-        <v>11.5621</v>
+        <v>11.586</v>
       </c>
       <c r="Y3">
-        <v>11.5621</v>
+        <v>11.586</v>
       </c>
       <c r="Z3">
-        <v>11.5618</v>
+        <v>11.5863</v>
       </c>
       <c r="AA3">
-        <v>15.9135</v>
+        <v>16.4393</v>
       </c>
       <c r="AB3">
-        <v>11.0012</v>
+        <v>11.25</v>
       </c>
       <c r="AC3">
-        <v>10.7437</v>
+        <v>10.6814</v>
       </c>
       <c r="AD3">
-        <v>11.4354</v>
+        <v>11.5186</v>
       </c>
       <c r="AE3">
-        <v>11.4354</v>
+        <v>11.5186</v>
       </c>
       <c r="AF3">
-        <v>11.4354</v>
+        <v>11.5186</v>
       </c>
       <c r="AG3">
-        <v>0.693739</v>
+        <v>0.694163</v>
       </c>
       <c r="AH3">
-        <v>0.185369</v>
+        <v>0.192174</v>
       </c>
       <c r="AI3">
-        <v>0.000233715</v>
+        <v>0.0002354</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>62</v>
@@ -1199,34 +1199,34 @@
         <v>62</v>
       </c>
       <c r="AN3">
-        <v>0.186197</v>
+        <v>0.192888</v>
       </c>
       <c r="AO3">
-        <v>873.759</v>
+        <v>873.9019999999999</v>
       </c>
       <c r="AP3">
-        <v>831.237</v>
+        <v>831.8489999999999</v>
       </c>
       <c r="AQ3">
-        <v>888.465</v>
+        <v>888.899</v>
       </c>
       <c r="AR3">
-        <v>746.6660000000001</v>
+        <v>747.2330000000001</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT3">
-        <v>724.107</v>
+        <v>724.369</v>
       </c>
       <c r="AU3">
-        <v>781.033</v>
+        <v>781.2190000000001</v>
       </c>
       <c r="AV3">
-        <v>737.607</v>
+        <v>738.149</v>
       </c>
       <c r="AW3">
-        <v>797.028</v>
+        <v>797.549</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>63</v>
@@ -1270,73 +1270,73 @@
         <v>76</v>
       </c>
       <c r="M4">
-        <v>50.5768</v>
+        <v>50.5218</v>
       </c>
       <c r="N4">
-        <v>10.0947</v>
+        <v>10.1291</v>
       </c>
       <c r="O4">
-        <v>16.2382</v>
+        <v>16.7743</v>
       </c>
       <c r="P4">
-        <v>26.7469</v>
+        <v>27.2361</v>
       </c>
       <c r="Q4">
-        <v>50.5758</v>
+        <v>50.52180000000001</v>
       </c>
       <c r="R4">
-        <v>99.998</v>
+        <v>100</v>
       </c>
       <c r="S4">
-        <v>26.1714</v>
+        <v>26.7143</v>
       </c>
       <c r="T4">
-        <v>26.7469</v>
+        <v>27.2361</v>
       </c>
       <c r="U4">
-        <v>16.2382</v>
+        <v>16.7743</v>
       </c>
       <c r="V4">
-        <v>12.2073</v>
+        <v>13.0323</v>
       </c>
       <c r="W4">
-        <v>10.9998</v>
+        <v>11.209</v>
       </c>
       <c r="X4">
-        <v>10.0918</v>
+        <v>10.1126</v>
       </c>
       <c r="Y4">
-        <v>10.0918</v>
+        <v>10.1126</v>
       </c>
       <c r="Z4">
-        <v>10.0947</v>
+        <v>10.1126</v>
       </c>
       <c r="AA4">
-        <v>15.3546</v>
+        <v>15.8273</v>
       </c>
       <c r="AB4">
-        <v>10.395</v>
+        <v>10.6724</v>
       </c>
       <c r="AC4">
-        <v>9.857719999999999</v>
+        <v>9.8171</v>
       </c>
       <c r="AD4">
-        <v>10.0563</v>
+        <v>10.1291</v>
       </c>
       <c r="AE4">
-        <v>10.0563</v>
+        <v>10.1291</v>
       </c>
       <c r="AF4">
-        <v>10.0563</v>
+        <v>10.1291</v>
       </c>
       <c r="AG4">
-        <v>0.845502</v>
+        <v>0.845987</v>
       </c>
       <c r="AH4">
-        <v>0.245794</v>
+        <v>0.254927</v>
       </c>
       <c r="AI4">
-        <v>0.000313153</v>
+        <v>0.00031537</v>
       </c>
       <c r="AJ4" s="2" t="s">
         <v>62</v>
@@ -1351,34 +1351,34 @@
         <v>62</v>
       </c>
       <c r="AN4">
-        <v>0.247764</v>
+        <v>0.257163</v>
       </c>
       <c r="AO4">
-        <v>872.49</v>
+        <v>872.62</v>
       </c>
       <c r="AP4">
-        <v>828.8349999999999</v>
+        <v>829.407</v>
       </c>
       <c r="AQ4">
-        <v>885.062</v>
+        <v>885.4829999999999</v>
       </c>
       <c r="AR4">
-        <v>741.796</v>
+        <v>742.3390000000001</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT4">
-        <v>722.842</v>
+        <v>723.073</v>
       </c>
       <c r="AU4">
-        <v>778.8240000000001</v>
+        <v>778.997</v>
       </c>
       <c r="AV4">
-        <v>734.1180000000001</v>
+        <v>734.638</v>
       </c>
       <c r="AW4">
-        <v>792.3720000000001</v>
+        <v>792.861</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>63</v>
@@ -1422,73 +1422,73 @@
         <v>74</v>
       </c>
       <c r="M5">
-        <v>50.1621</v>
+        <v>50.1091</v>
       </c>
       <c r="N5">
-        <v>13.1346</v>
+        <v>13.2384</v>
       </c>
       <c r="O5">
-        <v>19.5923</v>
+        <v>20.5195</v>
       </c>
       <c r="P5">
-        <v>31.9729</v>
+        <v>32.563</v>
       </c>
       <c r="Q5">
-        <v>50.1634</v>
+        <v>50.1078</v>
       </c>
       <c r="R5">
-        <v>100.002</v>
+        <v>99.9974</v>
       </c>
       <c r="S5">
-        <v>31.8106</v>
+        <v>32.4559</v>
       </c>
       <c r="T5">
-        <v>31.9729</v>
+        <v>32.563</v>
       </c>
       <c r="U5">
-        <v>19.5923</v>
+        <v>20.5195</v>
       </c>
       <c r="V5">
-        <v>15.6826</v>
+        <v>16.7505</v>
       </c>
       <c r="W5">
-        <v>13.9286</v>
+        <v>14.2319</v>
       </c>
       <c r="X5">
-        <v>12.9135</v>
+        <v>12.9429</v>
       </c>
       <c r="Y5">
-        <v>12.9135</v>
+        <v>12.9429</v>
       </c>
       <c r="Z5">
-        <v>12.914</v>
+        <v>12.9466</v>
       </c>
       <c r="AA5">
-        <v>18.6285</v>
+        <v>19.3026</v>
       </c>
       <c r="AB5">
-        <v>13.7989</v>
+        <v>14.2043</v>
       </c>
       <c r="AC5">
-        <v>12.7781</v>
+        <v>12.7815</v>
       </c>
       <c r="AD5">
-        <v>13.1346</v>
+        <v>13.2384</v>
       </c>
       <c r="AE5">
-        <v>13.1346</v>
+        <v>13.2384</v>
       </c>
       <c r="AF5">
-        <v>13.1346</v>
+        <v>13.2384</v>
       </c>
       <c r="AG5">
-        <v>0.686706</v>
+        <v>0.687005</v>
       </c>
       <c r="AH5">
-        <v>0.246808</v>
+        <v>0.255338</v>
       </c>
       <c r="AI5">
-        <v>0.037509</v>
+        <v>0.03767939999999999</v>
       </c>
       <c r="AJ5" s="2" t="s">
         <v>62</v>
@@ -1503,34 +1503,34 @@
         <v>62</v>
       </c>
       <c r="AN5">
-        <v>0.240835</v>
+        <v>0.249411</v>
       </c>
       <c r="AO5">
-        <v>872.9710000000001</v>
+        <v>873.1130000000001</v>
       </c>
       <c r="AP5">
-        <v>831.4100000000001</v>
+        <v>832.096</v>
       </c>
       <c r="AQ5">
-        <v>888.4920000000001</v>
+        <v>888.991</v>
       </c>
       <c r="AR5">
-        <v>747.4390000000001</v>
+        <v>748.079</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT5">
-        <v>724.241</v>
+        <v>724.4929999999999</v>
       </c>
       <c r="AU5">
-        <v>780.772</v>
+        <v>780.946</v>
       </c>
       <c r="AV5">
-        <v>738.3240000000001</v>
+        <v>738.922</v>
       </c>
       <c r="AW5">
-        <v>797.5980000000001</v>
+        <v>798.188</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>63</v>
@@ -1574,73 +1574,73 @@
         <v>76</v>
       </c>
       <c r="M6">
-        <v>50.391</v>
+        <v>50.3231</v>
       </c>
       <c r="N6">
-        <v>11.7909</v>
+        <v>11.8998</v>
       </c>
       <c r="O6">
-        <v>19.2559</v>
+        <v>19.9882</v>
       </c>
       <c r="P6">
-        <v>28.4408</v>
+        <v>28.9937</v>
       </c>
       <c r="Q6">
-        <v>50.39100000000001</v>
+        <v>50.3232</v>
       </c>
       <c r="R6">
-        <v>99.9999</v>
+        <v>100</v>
       </c>
       <c r="S6">
-        <v>28.0501</v>
+        <v>28.6751</v>
       </c>
       <c r="T6">
-        <v>28.4408</v>
+        <v>28.9937</v>
       </c>
       <c r="U6">
-        <v>19.2559</v>
+        <v>19.9882</v>
       </c>
       <c r="V6">
-        <v>14.5786</v>
+        <v>15.4921</v>
       </c>
       <c r="W6">
-        <v>12.9337</v>
+        <v>13.2123</v>
       </c>
       <c r="X6">
-        <v>11.582</v>
+        <v>11.6265</v>
       </c>
       <c r="Y6">
-        <v>11.582</v>
+        <v>11.6265</v>
       </c>
       <c r="Z6">
-        <v>11.5817</v>
+        <v>11.6265</v>
       </c>
       <c r="AA6">
-        <v>17.7634</v>
+        <v>18.3684</v>
       </c>
       <c r="AB6">
-        <v>13.0206</v>
+        <v>13.4385</v>
       </c>
       <c r="AC6">
-        <v>11.859</v>
+        <v>11.8783</v>
       </c>
       <c r="AD6">
-        <v>11.7909</v>
+        <v>11.8998</v>
       </c>
       <c r="AE6">
-        <v>11.7909</v>
+        <v>11.8998</v>
       </c>
       <c r="AF6">
-        <v>11.7909</v>
+        <v>11.8998</v>
       </c>
       <c r="AG6">
-        <v>0.837959</v>
+        <v>0.838287</v>
       </c>
       <c r="AH6">
-        <v>0.322152</v>
+        <v>0.333934</v>
       </c>
       <c r="AI6">
-        <v>0.0427265</v>
+        <v>0.0429136</v>
       </c>
       <c r="AJ6" s="2" t="s">
         <v>62</v>
@@ -1655,34 +1655,34 @@
         <v>62</v>
       </c>
       <c r="AN6">
-        <v>0.315478</v>
+        <v>0.32726</v>
       </c>
       <c r="AO6">
-        <v>872.172</v>
+        <v>872.306</v>
       </c>
       <c r="AP6">
-        <v>829.643</v>
+        <v>830.3000000000001</v>
       </c>
       <c r="AQ6">
-        <v>886.0360000000001</v>
+        <v>886.52</v>
       </c>
       <c r="AR6">
-        <v>743.6799999999999</v>
+        <v>744.301</v>
       </c>
       <c r="AS6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT6">
-        <v>723.3339999999999</v>
+        <v>723.5649999999999</v>
       </c>
       <c r="AU6">
-        <v>779.2180000000001</v>
+        <v>779.373</v>
       </c>
       <c r="AV6">
-        <v>735.6360000000001</v>
+        <v>736.2170000000001</v>
       </c>
       <c r="AW6">
-        <v>794.066</v>
+        <v>794.619</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>63</v>
@@ -1726,73 +1726,73 @@
         <v>74</v>
       </c>
       <c r="M7">
-        <v>50.3037</v>
+        <v>50.2459</v>
       </c>
       <c r="N7">
-        <v>12.3233</v>
+        <v>12.353</v>
       </c>
       <c r="O7">
-        <v>16.7389</v>
+        <v>17.3642</v>
       </c>
       <c r="P7">
-        <v>32.4234</v>
+        <v>32.9922</v>
       </c>
       <c r="Q7">
-        <v>50.3032</v>
+        <v>50.2463</v>
       </c>
       <c r="R7">
-        <v>99.999</v>
+        <v>100.001</v>
       </c>
       <c r="S7">
-        <v>32.12130000000001</v>
+        <v>32.7464</v>
       </c>
       <c r="T7">
-        <v>32.4234</v>
+        <v>32.9922</v>
       </c>
       <c r="U7">
-        <v>16.1574</v>
+        <v>16.8276</v>
       </c>
       <c r="V7">
-        <v>14.0533</v>
+        <v>15.1197</v>
       </c>
       <c r="W7">
-        <v>12.9423</v>
+        <v>13.2008</v>
       </c>
       <c r="X7">
-        <v>12.3242</v>
+        <v>12.3489</v>
       </c>
       <c r="Y7">
-        <v>12.3242</v>
+        <v>12.3489</v>
       </c>
       <c r="Z7">
-        <v>12.3233</v>
+        <v>12.353</v>
       </c>
       <c r="AA7">
-        <v>16.7389</v>
+        <v>17.3642</v>
       </c>
       <c r="AB7">
-        <v>11.8734</v>
+        <v>12.1859</v>
       </c>
       <c r="AC7">
-        <v>11.626</v>
+        <v>11.5855</v>
       </c>
       <c r="AD7">
-        <v>12.1944</v>
+        <v>12.279</v>
       </c>
       <c r="AE7">
-        <v>12.1944</v>
+        <v>12.279</v>
       </c>
       <c r="AF7">
-        <v>12.1944</v>
+        <v>12.279</v>
       </c>
       <c r="AG7">
-        <v>0.693098</v>
+        <v>0.693568</v>
       </c>
       <c r="AH7">
-        <v>0.181613</v>
+        <v>0.188265</v>
       </c>
       <c r="AI7">
-        <v>0.000233716</v>
+        <v>0.000235401</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>62</v>
@@ -1807,34 +1807,34 @@
         <v>62</v>
       </c>
       <c r="AN7">
-        <v>0.182337</v>
+        <v>0.189055</v>
       </c>
       <c r="AO7">
-        <v>873.4830000000001</v>
+        <v>873.606</v>
       </c>
       <c r="AP7">
-        <v>831.4590000000001</v>
+        <v>832.1</v>
       </c>
       <c r="AQ7">
-        <v>888.8430000000001</v>
+        <v>889.3240000000001</v>
       </c>
       <c r="AR7">
-        <v>747.748</v>
+        <v>748.371</v>
       </c>
       <c r="AS7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT7">
-        <v>724.115</v>
+        <v>724.364</v>
       </c>
       <c r="AU7">
-        <v>781.206</v>
+        <v>781.399</v>
       </c>
       <c r="AV7">
-        <v>738.018</v>
+        <v>738.6130000000001</v>
       </c>
       <c r="AW7">
-        <v>798.048</v>
+        <v>798.617</v>
       </c>
       <c r="AX7" s="2" t="s">
         <v>63</v>
@@ -1878,73 +1878,73 @@
         <v>76</v>
       </c>
       <c r="M8">
-        <v>50.5217</v>
+        <v>50.4572</v>
       </c>
       <c r="N8">
-        <v>10.8822</v>
+        <v>10.9086</v>
       </c>
       <c r="O8">
-        <v>16.4763</v>
+        <v>17.0266</v>
       </c>
       <c r="P8">
-        <v>27.8371</v>
+        <v>28.3771</v>
       </c>
       <c r="Q8">
-        <v>50.52200000000001</v>
+        <v>50.4575</v>
       </c>
       <c r="R8">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S8">
-        <v>27.3159</v>
+        <v>27.9182</v>
       </c>
       <c r="T8">
-        <v>27.8371</v>
+        <v>28.3771</v>
       </c>
       <c r="U8">
-        <v>16.4763</v>
+        <v>17.0266</v>
       </c>
       <c r="V8">
-        <v>13.0118</v>
+        <v>13.896</v>
       </c>
       <c r="W8">
-        <v>11.9764</v>
+        <v>12.2169</v>
       </c>
       <c r="X8">
-        <v>10.8751</v>
+        <v>10.9023</v>
       </c>
       <c r="Y8">
-        <v>10.8751</v>
+        <v>10.9023</v>
       </c>
       <c r="Z8">
-        <v>10.8822</v>
+        <v>10.8958</v>
       </c>
       <c r="AA8">
-        <v>15.9813</v>
+        <v>16.5612</v>
       </c>
       <c r="AB8">
-        <v>11.3103</v>
+        <v>11.651</v>
       </c>
       <c r="AC8">
-        <v>10.8264</v>
+        <v>10.7976</v>
       </c>
       <c r="AD8">
-        <v>10.826</v>
+        <v>10.9086</v>
       </c>
       <c r="AE8">
-        <v>10.826</v>
+        <v>10.9086</v>
       </c>
       <c r="AF8">
-        <v>10.826</v>
+        <v>10.9086</v>
       </c>
       <c r="AG8">
-        <v>0.844814</v>
+        <v>0.845172</v>
       </c>
       <c r="AH8">
-        <v>0.241789</v>
+        <v>0.251644</v>
       </c>
       <c r="AI8">
-        <v>0.000313154</v>
+        <v>0.000315371</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>62</v>
@@ -1959,34 +1959,34 @@
         <v>62</v>
       </c>
       <c r="AN8">
-        <v>0.243952</v>
+        <v>0.253523</v>
       </c>
       <c r="AO8">
-        <v>872.207</v>
+        <v>872.313</v>
       </c>
       <c r="AP8">
-        <v>829.102</v>
+        <v>829.706</v>
       </c>
       <c r="AQ8">
-        <v>885.5069999999999</v>
+        <v>885.9760000000001</v>
       </c>
       <c r="AR8">
-        <v>742.938</v>
+        <v>743.546</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT8">
-        <v>722.885</v>
+        <v>723.109</v>
       </c>
       <c r="AU8">
-        <v>779.0410000000001</v>
+        <v>779.2190000000001</v>
       </c>
       <c r="AV8">
-        <v>734.5890000000001</v>
+        <v>735.172</v>
       </c>
       <c r="AW8">
-        <v>793.462</v>
+        <v>794.002</v>
       </c>
       <c r="AX8" s="2" t="s">
         <v>63</v>
@@ -2030,73 +2030,73 @@
         <v>74</v>
       </c>
       <c r="M9">
-        <v>50.1383</v>
+        <v>50.0753</v>
       </c>
       <c r="N9">
-        <v>13.9804</v>
+        <v>14.0931</v>
       </c>
       <c r="O9">
-        <v>19.8558</v>
+        <v>20.7762</v>
       </c>
       <c r="P9">
-        <v>33.085</v>
+        <v>33.7229</v>
       </c>
       <c r="Q9">
-        <v>50.1378</v>
+        <v>50.0753</v>
       </c>
       <c r="R9">
-        <v>99.9991</v>
+        <v>100</v>
       </c>
       <c r="S9">
-        <v>32.9451</v>
+        <v>33.64810000000001</v>
       </c>
       <c r="T9">
-        <v>33.085</v>
+        <v>33.7229</v>
       </c>
       <c r="U9">
-        <v>19.8558</v>
+        <v>20.7762</v>
       </c>
       <c r="V9">
-        <v>16.5565</v>
+        <v>17.6918</v>
       </c>
       <c r="W9">
-        <v>14.9491</v>
+        <v>15.3032</v>
       </c>
       <c r="X9">
-        <v>13.7691</v>
+        <v>13.8014</v>
       </c>
       <c r="Y9">
-        <v>13.7691</v>
+        <v>13.8014</v>
       </c>
       <c r="Z9">
-        <v>13.7696</v>
+        <v>13.8013</v>
       </c>
       <c r="AA9">
-        <v>19.3368</v>
+        <v>20.0985</v>
       </c>
       <c r="AB9">
-        <v>14.7417</v>
+        <v>15.2263</v>
       </c>
       <c r="AC9">
-        <v>13.7881</v>
+        <v>13.8168</v>
       </c>
       <c r="AD9">
-        <v>13.9804</v>
+        <v>14.0931</v>
       </c>
       <c r="AE9">
-        <v>13.9804</v>
+        <v>14.0931</v>
       </c>
       <c r="AF9">
-        <v>13.9804</v>
+        <v>14.0931</v>
       </c>
       <c r="AG9">
-        <v>0.686082</v>
+        <v>0.686345</v>
       </c>
       <c r="AH9">
-        <v>0.244204</v>
+        <v>0.252994</v>
       </c>
       <c r="AI9">
-        <v>0.0375112</v>
+        <v>0.0376817</v>
       </c>
       <c r="AJ9" s="2" t="s">
         <v>62</v>
@@ -2111,34 +2111,34 @@
         <v>62</v>
       </c>
       <c r="AN9">
-        <v>0.238214</v>
+        <v>0.246973</v>
       </c>
       <c r="AO9">
-        <v>872.633</v>
+        <v>872.753</v>
       </c>
       <c r="AP9">
-        <v>831.6510000000001</v>
+        <v>832.37</v>
       </c>
       <c r="AQ9">
-        <v>888.932</v>
+        <v>889.479</v>
       </c>
       <c r="AR9">
-        <v>748.571</v>
+        <v>749.268</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT9">
-        <v>724.266</v>
+        <v>724.505</v>
       </c>
       <c r="AU9">
-        <v>780.976</v>
+        <v>781.149</v>
       </c>
       <c r="AV9">
-        <v>738.7840000000001</v>
+        <v>739.4399999999999</v>
       </c>
       <c r="AW9">
-        <v>798.71</v>
+        <v>799.3480000000001</v>
       </c>
       <c r="AX9" s="2" t="s">
         <v>63</v>
@@ -2182,73 +2182,73 @@
         <v>76</v>
       </c>
       <c r="M10">
-        <v>50.3489</v>
+        <v>50.2851</v>
       </c>
       <c r="N10">
-        <v>12.6852</v>
+        <v>12.7924</v>
       </c>
       <c r="O10">
-        <v>19.6388</v>
+        <v>20.3643</v>
       </c>
       <c r="P10">
-        <v>29.6327</v>
+        <v>30.2548</v>
       </c>
       <c r="Q10">
-        <v>50.3489</v>
+        <v>50.2849</v>
       </c>
       <c r="R10">
-        <v>100</v>
+        <v>99.9996</v>
       </c>
       <c r="S10">
-        <v>29.284</v>
+        <v>29.9657</v>
       </c>
       <c r="T10">
-        <v>29.6327</v>
+        <v>30.2548</v>
       </c>
       <c r="U10">
-        <v>19.6388</v>
+        <v>20.3643</v>
       </c>
       <c r="V10">
-        <v>15.497</v>
+        <v>16.5005</v>
       </c>
       <c r="W10">
-        <v>14.0443</v>
+        <v>14.3764</v>
       </c>
       <c r="X10">
-        <v>12.505</v>
+        <v>12.5397</v>
       </c>
       <c r="Y10">
-        <v>12.505</v>
+        <v>12.5397</v>
       </c>
       <c r="Z10">
-        <v>12.505</v>
+        <v>12.5397</v>
       </c>
       <c r="AA10">
-        <v>18.444</v>
+        <v>19.122</v>
       </c>
       <c r="AB10">
-        <v>13.987</v>
+        <v>14.4856</v>
       </c>
       <c r="AC10">
-        <v>12.9579</v>
+        <v>13.0107</v>
       </c>
       <c r="AD10">
-        <v>12.6852</v>
+        <v>12.7924</v>
       </c>
       <c r="AE10">
-        <v>12.6852</v>
+        <v>12.7924</v>
       </c>
       <c r="AF10">
-        <v>12.6852</v>
+        <v>12.7924</v>
       </c>
       <c r="AG10">
-        <v>0.837224</v>
+        <v>0.8375010000000001</v>
       </c>
       <c r="AH10">
-        <v>0.320506</v>
+        <v>0.332431</v>
       </c>
       <c r="AI10">
-        <v>0.04272919999999999</v>
+        <v>0.0429165</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>62</v>
@@ -2263,34 +2263,34 @@
         <v>62</v>
       </c>
       <c r="AN10">
-        <v>0.313543</v>
+        <v>0.325679</v>
       </c>
       <c r="AO10">
-        <v>871.808</v>
+        <v>871.918</v>
       </c>
       <c r="AP10">
-        <v>829.943</v>
+        <v>830.636</v>
       </c>
       <c r="AQ10">
-        <v>886.552</v>
+        <v>887.09</v>
       </c>
       <c r="AR10">
-        <v>744.908</v>
+        <v>745.586</v>
       </c>
       <c r="AS10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT10">
-        <v>723.397</v>
+        <v>723.616</v>
       </c>
       <c r="AU10">
-        <v>779.456</v>
+        <v>779.619</v>
       </c>
       <c r="AV10">
-        <v>736.176</v>
+        <v>736.816</v>
       </c>
       <c r="AW10">
-        <v>795.258</v>
+        <v>795.8800000000001</v>
       </c>
       <c r="AX10" s="2" t="s">
         <v>63</v>
@@ -2334,73 +2334,73 @@
         <v>74</v>
       </c>
       <c r="M11">
-        <v>50.6194</v>
+        <v>50.5799</v>
       </c>
       <c r="N11">
-        <v>17.565</v>
+        <v>17.6438</v>
       </c>
       <c r="O11">
-        <v>17.5705</v>
+        <v>17.9801</v>
       </c>
       <c r="P11">
-        <v>51.70959999999999</v>
+        <v>52.4153</v>
       </c>
       <c r="Q11">
-        <v>50.6188</v>
+        <v>50.5812</v>
       </c>
       <c r="R11">
-        <v>99.9988</v>
+        <v>100.003</v>
       </c>
       <c r="S11">
-        <v>51.0901</v>
+        <v>51.836</v>
       </c>
       <c r="T11">
-        <v>51.70959999999999</v>
+        <v>52.4153</v>
       </c>
       <c r="U11">
-        <v>17.0617</v>
+        <v>17.9801</v>
       </c>
       <c r="V11">
-        <v>16.5</v>
+        <v>17.7797</v>
       </c>
       <c r="W11">
-        <v>16.2532</v>
+        <v>16.5995</v>
       </c>
       <c r="X11">
-        <v>17.5705</v>
+        <v>17.6373</v>
       </c>
       <c r="Y11">
-        <v>17.5705</v>
+        <v>17.6373</v>
       </c>
       <c r="Z11">
-        <v>17.565</v>
+        <v>17.6438</v>
       </c>
       <c r="AA11">
-        <v>15.6969</v>
+        <v>16.3109</v>
       </c>
       <c r="AB11">
-        <v>13.2057</v>
+        <v>13.5122</v>
       </c>
       <c r="AC11">
-        <v>14.0302</v>
+        <v>13.9985</v>
       </c>
       <c r="AD11">
-        <v>17.3552</v>
+        <v>17.5011</v>
       </c>
       <c r="AE11">
-        <v>17.3552</v>
+        <v>17.5011</v>
       </c>
       <c r="AF11">
-        <v>17.3552</v>
+        <v>17.5011</v>
       </c>
       <c r="AG11">
-        <v>0.703441</v>
+        <v>0.704088</v>
       </c>
       <c r="AH11">
-        <v>0.160238</v>
+        <v>0.165329</v>
       </c>
       <c r="AI11">
-        <v>3.84434E-06</v>
+        <v>3.88363E-06</v>
       </c>
       <c r="AJ11" s="2" t="s">
         <v>62</v>
@@ -2415,34 +2415,34 @@
         <v>62</v>
       </c>
       <c r="AN11">
-        <v>0.16171</v>
+        <v>0.16677</v>
       </c>
       <c r="AO11">
-        <v>878.857</v>
+        <v>878.95</v>
       </c>
       <c r="AP11">
-        <v>840.3929999999999</v>
+        <v>841.1279999999999</v>
       </c>
       <c r="AQ11">
-        <v>902.6890000000001</v>
+        <v>903.2090000000001</v>
       </c>
       <c r="AR11">
-        <v>766.718</v>
+        <v>767.463</v>
       </c>
       <c r="AS11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT11">
-        <v>728.923</v>
+        <v>729.176</v>
       </c>
       <c r="AU11">
-        <v>789.932</v>
+        <v>790.098</v>
       </c>
       <c r="AV11">
-        <v>751.629</v>
+        <v>752.3099999999999</v>
       </c>
       <c r="AW11">
-        <v>817.3349999999999</v>
+        <v>818.04</v>
       </c>
       <c r="AX11" s="2" t="s">
         <v>63</v>
@@ -2486,73 +2486,73 @@
         <v>76</v>
       </c>
       <c r="M12">
-        <v>50.7126</v>
+        <v>50.6785</v>
       </c>
       <c r="N12">
-        <v>13.4942</v>
+        <v>13.5993</v>
       </c>
       <c r="O12">
-        <v>16.0244</v>
+        <v>16.8218</v>
       </c>
       <c r="P12">
-        <v>38.4691</v>
+        <v>39.10210000000001</v>
       </c>
       <c r="Q12">
-        <v>50.7124</v>
+        <v>50.678</v>
       </c>
       <c r="R12">
-        <v>99.9996</v>
+        <v>99.99890000000001</v>
       </c>
       <c r="S12">
-        <v>37.756</v>
+        <v>38.4232</v>
       </c>
       <c r="T12">
-        <v>38.4691</v>
+        <v>39.10210000000001</v>
       </c>
       <c r="U12">
-        <v>16.0244</v>
+        <v>16.8218</v>
       </c>
       <c r="V12">
-        <v>13.9313</v>
+        <v>15.3356</v>
       </c>
       <c r="W12">
-        <v>13.2132</v>
+        <v>13.4843</v>
       </c>
       <c r="X12">
-        <v>13.4796</v>
+        <v>13.5206</v>
       </c>
       <c r="Y12">
-        <v>13.4796</v>
+        <v>13.5206</v>
       </c>
       <c r="Z12">
-        <v>13.4821</v>
+        <v>13.5285</v>
       </c>
       <c r="AA12">
-        <v>15.537</v>
+        <v>16.0808</v>
       </c>
       <c r="AB12">
-        <v>11.2847</v>
+        <v>11.5596</v>
       </c>
       <c r="AC12">
-        <v>11.5422</v>
+        <v>11.5203</v>
       </c>
       <c r="AD12">
-        <v>13.4942</v>
+        <v>13.5993</v>
       </c>
       <c r="AE12">
-        <v>13.4942</v>
+        <v>13.5993</v>
       </c>
       <c r="AF12">
-        <v>13.4942</v>
+        <v>13.5993</v>
       </c>
       <c r="AG12">
-        <v>0.854244</v>
+        <v>0.8549020000000001</v>
       </c>
       <c r="AH12">
-        <v>0.204924</v>
+        <v>0.212418</v>
       </c>
       <c r="AI12">
-        <v>1.169E-05</v>
+        <v>1.18104E-05</v>
       </c>
       <c r="AJ12" s="2" t="s">
         <v>62</v>
@@ -2567,34 +2567,34 @@
         <v>62</v>
       </c>
       <c r="AN12">
-        <v>0.205895</v>
+        <v>0.213106</v>
       </c>
       <c r="AO12">
-        <v>875.927</v>
+        <v>876.0690000000001</v>
       </c>
       <c r="AP12">
-        <v>834.564</v>
+        <v>835.2140000000001</v>
       </c>
       <c r="AQ12">
-        <v>893.408</v>
+        <v>893.913</v>
       </c>
       <c r="AR12">
-        <v>753.3810000000001</v>
+        <v>754.047</v>
       </c>
       <c r="AS12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT12">
-        <v>726.0459999999999</v>
+        <v>726.328</v>
       </c>
       <c r="AU12">
-        <v>784.398</v>
+        <v>784.6129999999999</v>
       </c>
       <c r="AV12">
-        <v>742.388</v>
+        <v>743.004</v>
       </c>
       <c r="AW12">
-        <v>804.0940000000001</v>
+        <v>804.7270000000001</v>
       </c>
       <c r="AX12" s="2" t="s">
         <v>63</v>
@@ -2638,73 +2638,73 @@
         <v>74</v>
       </c>
       <c r="M13">
-        <v>50.5502</v>
+        <v>50.5059</v>
       </c>
       <c r="N13">
-        <v>18.6412</v>
+        <v>18.8062</v>
       </c>
       <c r="O13">
-        <v>20.2618</v>
+        <v>21.672</v>
       </c>
       <c r="P13">
-        <v>48.5626</v>
+        <v>49.3064</v>
       </c>
       <c r="Q13">
-        <v>50.5483</v>
+        <v>50.5058</v>
       </c>
       <c r="R13">
-        <v>99.99630000000001</v>
+        <v>99.9999</v>
       </c>
       <c r="S13">
-        <v>48.0159</v>
+        <v>48.803</v>
       </c>
       <c r="T13">
-        <v>48.5626</v>
+        <v>49.3064</v>
       </c>
       <c r="U13">
-        <v>20.2618</v>
+        <v>21.672</v>
       </c>
       <c r="V13">
-        <v>18.37</v>
+        <v>20.1739</v>
       </c>
       <c r="W13">
-        <v>17.3744</v>
+        <v>17.7622</v>
       </c>
       <c r="X13">
-        <v>18.124</v>
+        <v>18.1994</v>
       </c>
       <c r="Y13">
-        <v>18.124</v>
+        <v>18.1994</v>
       </c>
       <c r="Z13">
-        <v>18.1295</v>
+        <v>18.2059</v>
       </c>
       <c r="AA13">
-        <v>19.6784</v>
+        <v>20.5446</v>
       </c>
       <c r="AB13">
-        <v>15.4839</v>
+        <v>15.8942</v>
       </c>
       <c r="AC13">
-        <v>15.6538</v>
+        <v>15.651</v>
       </c>
       <c r="AD13">
-        <v>18.6412</v>
+        <v>18.8062</v>
       </c>
       <c r="AE13">
-        <v>18.6412</v>
+        <v>18.8062</v>
       </c>
       <c r="AF13">
-        <v>18.6412</v>
+        <v>18.8062</v>
       </c>
       <c r="AG13">
-        <v>0.695246</v>
+        <v>0.695807</v>
       </c>
       <c r="AH13">
-        <v>0.167362</v>
+        <v>0.172963</v>
       </c>
       <c r="AI13">
-        <v>0.00139677</v>
+        <v>0.00140524</v>
       </c>
       <c r="AJ13" s="2" t="s">
         <v>62</v>
@@ -2719,34 +2719,34 @@
         <v>62</v>
       </c>
       <c r="AN13">
-        <v>0.167695</v>
+        <v>0.173381</v>
       </c>
       <c r="AO13">
-        <v>877.034</v>
+        <v>877.1410000000001</v>
       </c>
       <c r="AP13">
-        <v>838.6560000000001</v>
+        <v>839.421</v>
       </c>
       <c r="AQ13">
-        <v>899.74</v>
+        <v>900.2959999999999</v>
       </c>
       <c r="AR13">
-        <v>763.6419999999999</v>
+        <v>764.4300000000001</v>
       </c>
       <c r="AS13" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT13">
-        <v>727.976</v>
+        <v>728.245</v>
       </c>
       <c r="AU13">
-        <v>787.9340000000001</v>
+        <v>788.1030000000001</v>
       </c>
       <c r="AV13">
-        <v>749.491</v>
+        <v>750.1950000000001</v>
       </c>
       <c r="AW13">
-        <v>814.1880000000001</v>
+        <v>814.931</v>
       </c>
       <c r="AX13" s="2" t="s">
         <v>63</v>
@@ -2790,73 +2790,73 @@
         <v>76</v>
       </c>
       <c r="M14">
-        <v>50.5806</v>
+        <v>50.5416</v>
       </c>
       <c r="N14">
-        <v>15.0803</v>
+        <v>15.209</v>
       </c>
       <c r="O14">
-        <v>18.9452</v>
+        <v>20.2949</v>
       </c>
       <c r="P14">
-        <v>38.4082</v>
+        <v>39.0893</v>
       </c>
       <c r="Q14">
-        <v>50.5807</v>
+        <v>50.5417</v>
       </c>
       <c r="R14">
         <v>100</v>
       </c>
       <c r="S14">
-        <v>37.8237</v>
+        <v>38.5444</v>
       </c>
       <c r="T14">
-        <v>38.4082</v>
+        <v>39.0893</v>
       </c>
       <c r="U14">
-        <v>18.9452</v>
+        <v>20.2949</v>
       </c>
       <c r="V14">
-        <v>16.1741</v>
+        <v>17.6663</v>
       </c>
       <c r="W14">
-        <v>14.8113</v>
+        <v>15.1277</v>
       </c>
       <c r="X14">
-        <v>14.6912</v>
+        <v>14.7433</v>
       </c>
       <c r="Y14">
-        <v>14.6912</v>
+        <v>14.7433</v>
       </c>
       <c r="Z14">
-        <v>14.6912</v>
+        <v>14.7397</v>
       </c>
       <c r="AA14">
-        <v>18.3345</v>
+        <v>19.1224</v>
       </c>
       <c r="AB14">
-        <v>13.5379</v>
+        <v>13.9125</v>
       </c>
       <c r="AC14">
-        <v>13.2686</v>
+        <v>13.2667</v>
       </c>
       <c r="AD14">
-        <v>15.0803</v>
+        <v>15.209</v>
       </c>
       <c r="AE14">
-        <v>15.0803</v>
+        <v>15.209</v>
       </c>
       <c r="AF14">
-        <v>15.0803</v>
+        <v>15.209</v>
       </c>
       <c r="AG14">
-        <v>0.847879</v>
+        <v>0.848429</v>
       </c>
       <c r="AH14">
-        <v>0.216273</v>
+        <v>0.224184</v>
       </c>
       <c r="AI14">
-        <v>0.0015936</v>
+        <v>0.00160296</v>
       </c>
       <c r="AJ14" s="2" t="s">
         <v>62</v>
@@ -2871,34 +2871,34 @@
         <v>62</v>
       </c>
       <c r="AN14">
-        <v>0.216712</v>
+        <v>0.224709</v>
       </c>
       <c r="AO14">
-        <v>874.9160000000001</v>
+        <v>875.059</v>
       </c>
       <c r="AP14">
-        <v>834.2239999999999</v>
+        <v>834.928</v>
       </c>
       <c r="AQ14">
-        <v>892.835</v>
+        <v>893.388</v>
       </c>
       <c r="AR14">
-        <v>753.451</v>
+        <v>754.171</v>
       </c>
       <c r="AS14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT14">
-        <v>725.73</v>
+        <v>726.009</v>
       </c>
       <c r="AU14">
-        <v>783.7420000000001</v>
+        <v>783.956</v>
       </c>
       <c r="AV14">
-        <v>742.4100000000001</v>
+        <v>743.0730000000001</v>
       </c>
       <c r="AW14">
-        <v>804.033</v>
+        <v>804.7140000000001</v>
       </c>
       <c r="AX14" s="2" t="s">
         <v>63</v>
@@ -2942,73 +2942,73 @@
         <v>74</v>
       </c>
       <c r="M15">
-        <v>50.5389</v>
+        <v>50.492</v>
       </c>
       <c r="N15">
-        <v>18.3273</v>
+        <v>18.4047</v>
       </c>
       <c r="O15">
-        <v>18.324</v>
+        <v>18.562</v>
       </c>
       <c r="P15">
-        <v>52.5179</v>
+        <v>53.2696</v>
       </c>
       <c r="Q15">
-        <v>50.5386</v>
+        <v>50.4931</v>
       </c>
       <c r="R15">
-        <v>99.99940000000001</v>
+        <v>100.002</v>
       </c>
       <c r="S15">
-        <v>51.98350000000001</v>
+        <v>52.7775</v>
       </c>
       <c r="T15">
-        <v>52.5179</v>
+        <v>53.2696</v>
       </c>
       <c r="U15">
-        <v>17.0464</v>
+        <v>17.9055</v>
       </c>
       <c r="V15">
-        <v>17.2009</v>
+        <v>18.562</v>
       </c>
       <c r="W15">
-        <v>16.876</v>
+        <v>17.2552</v>
       </c>
       <c r="X15">
-        <v>18.324</v>
+        <v>18.4046</v>
       </c>
       <c r="Y15">
-        <v>18.324</v>
+        <v>18.4046</v>
       </c>
       <c r="Z15">
-        <v>18.3273</v>
+        <v>18.4047</v>
       </c>
       <c r="AA15">
-        <v>16.4994</v>
+        <v>17.2052</v>
       </c>
       <c r="AB15">
-        <v>13.7765</v>
+        <v>14.1279</v>
       </c>
       <c r="AC15">
-        <v>14.6809</v>
+        <v>14.6666</v>
       </c>
       <c r="AD15">
-        <v>18.1173</v>
+        <v>18.2666</v>
       </c>
       <c r="AE15">
-        <v>18.1173</v>
+        <v>18.2666</v>
       </c>
       <c r="AF15">
-        <v>18.1173</v>
+        <v>18.2666</v>
       </c>
       <c r="AG15">
-        <v>0.702339</v>
+        <v>0.7030650000000001</v>
       </c>
       <c r="AH15">
-        <v>0.155514</v>
+        <v>0.160418</v>
       </c>
       <c r="AI15">
-        <v>3.84435E-06</v>
+        <v>3.88364E-06</v>
       </c>
       <c r="AJ15" s="2" t="s">
         <v>62</v>
@@ -3023,34 +3023,34 @@
         <v>62</v>
       </c>
       <c r="AN15">
-        <v>0.156886</v>
+        <v>0.161803</v>
       </c>
       <c r="AO15">
-        <v>878.554</v>
+        <v>878.63</v>
       </c>
       <c r="AP15">
-        <v>840.5000000000001</v>
+        <v>841.249</v>
       </c>
       <c r="AQ15">
-        <v>902.865</v>
+        <v>903.418</v>
       </c>
       <c r="AR15">
-        <v>767.611</v>
+        <v>768.403</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT15">
-        <v>728.866</v>
+        <v>729.107</v>
       </c>
       <c r="AU15">
-        <v>789.984</v>
+        <v>790.1550000000001</v>
       </c>
       <c r="AV15">
-        <v>751.85</v>
+        <v>752.5700000000001</v>
       </c>
       <c r="AW15">
-        <v>818.1429999999999</v>
+        <v>818.895</v>
       </c>
       <c r="AX15" s="2" t="s">
         <v>63</v>
@@ -3094,73 +3094,73 @@
         <v>76</v>
       </c>
       <c r="M16">
-        <v>50.6523</v>
+        <v>50.6144</v>
       </c>
       <c r="N16">
-        <v>14.2429</v>
+        <v>14.3556</v>
       </c>
       <c r="O16">
-        <v>16.5949</v>
+        <v>17.2396</v>
       </c>
       <c r="P16">
-        <v>39.4104</v>
+        <v>40.0951</v>
       </c>
       <c r="Q16">
-        <v>50.6506</v>
+        <v>50.6138</v>
       </c>
       <c r="R16">
-        <v>99.9967</v>
+        <v>99.9988</v>
       </c>
       <c r="S16">
-        <v>38.7595</v>
+        <v>39.4802</v>
       </c>
       <c r="T16">
-        <v>39.4104</v>
+        <v>40.0951</v>
       </c>
       <c r="U16">
-        <v>16.0394</v>
+        <v>16.7621</v>
       </c>
       <c r="V16">
-        <v>14.7386</v>
+        <v>16.1752</v>
       </c>
       <c r="W16">
-        <v>13.9798</v>
+        <v>14.2832</v>
       </c>
       <c r="X16">
-        <v>14.2328</v>
+        <v>14.2731</v>
       </c>
       <c r="Y16">
-        <v>14.2328</v>
+        <v>14.2731</v>
       </c>
       <c r="Z16">
-        <v>14.2312</v>
+        <v>14.2745</v>
       </c>
       <c r="AA16">
-        <v>16.5949</v>
+        <v>17.2396</v>
       </c>
       <c r="AB16">
-        <v>12.0328</v>
+        <v>12.3579</v>
       </c>
       <c r="AC16">
-        <v>12.3165</v>
+        <v>12.3069</v>
       </c>
       <c r="AD16">
-        <v>14.2429</v>
+        <v>14.3556</v>
       </c>
       <c r="AE16">
-        <v>14.2429</v>
+        <v>14.3556</v>
       </c>
       <c r="AF16">
-        <v>14.2429</v>
+        <v>14.3556</v>
       </c>
       <c r="AG16">
-        <v>0.853272</v>
+        <v>0.853886</v>
       </c>
       <c r="AH16">
-        <v>0.199612</v>
+        <v>0.206747</v>
       </c>
       <c r="AI16">
-        <v>1.169E-05</v>
+        <v>1.18104E-05</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>62</v>
@@ -3175,34 +3175,34 @@
         <v>62</v>
       </c>
       <c r="AN16">
-        <v>0.200449</v>
+        <v>0.207565</v>
       </c>
       <c r="AO16">
-        <v>875.644</v>
+        <v>875.769</v>
       </c>
       <c r="AP16">
-        <v>834.735</v>
+        <v>835.4110000000001</v>
       </c>
       <c r="AQ16">
-        <v>893.703</v>
+        <v>894.254</v>
       </c>
       <c r="AR16">
-        <v>754.3819999999999</v>
+        <v>755.1020000000001</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT16">
-        <v>726.0210000000001</v>
+        <v>726.2950000000001</v>
       </c>
       <c r="AU16">
-        <v>784.519</v>
+        <v>784.745</v>
       </c>
       <c r="AV16">
-        <v>742.72</v>
+        <v>743.384</v>
       </c>
       <c r="AW16">
-        <v>805.035</v>
+        <v>805.72</v>
       </c>
       <c r="AX16" s="2" t="s">
         <v>63</v>
@@ -3246,73 +3246,73 @@
         <v>74</v>
       </c>
       <c r="M17">
-        <v>50.5215</v>
+        <v>50.4711</v>
       </c>
       <c r="N17">
-        <v>19.4288</v>
+        <v>19.5974</v>
       </c>
       <c r="O17">
-        <v>20.7784</v>
+        <v>21.7423</v>
       </c>
       <c r="P17">
-        <v>49.3249</v>
+        <v>50.1137</v>
       </c>
       <c r="Q17">
-        <v>50.52070000000001</v>
+        <v>50.4701</v>
       </c>
       <c r="R17">
-        <v>99.9984</v>
+        <v>99.998</v>
       </c>
       <c r="S17">
-        <v>48.8028</v>
+        <v>49.6397</v>
       </c>
       <c r="T17">
-        <v>49.3249</v>
+        <v>50.1137</v>
       </c>
       <c r="U17">
-        <v>20.2535</v>
+        <v>21.4794</v>
       </c>
       <c r="V17">
-        <v>19.1429</v>
+        <v>21.0296</v>
       </c>
       <c r="W17">
-        <v>18.0795</v>
+        <v>18.5011</v>
       </c>
       <c r="X17">
-        <v>18.9091</v>
+        <v>18.9903</v>
       </c>
       <c r="Y17">
-        <v>18.9091</v>
+        <v>18.9903</v>
       </c>
       <c r="Z17">
-        <v>18.9056</v>
+        <v>18.9828</v>
       </c>
       <c r="AA17">
-        <v>20.7784</v>
+        <v>21.7423</v>
       </c>
       <c r="AB17">
-        <v>16.1901</v>
+        <v>16.6723</v>
       </c>
       <c r="AC17">
-        <v>16.3619</v>
+        <v>16.3831</v>
       </c>
       <c r="AD17">
-        <v>19.4288</v>
+        <v>19.5974</v>
       </c>
       <c r="AE17">
-        <v>19.4288</v>
+        <v>19.5974</v>
       </c>
       <c r="AF17">
-        <v>19.4288</v>
+        <v>19.5974</v>
       </c>
       <c r="AG17">
-        <v>0.6943550000000001</v>
+        <v>0.694937</v>
       </c>
       <c r="AH17">
-        <v>0.162782</v>
+        <v>0.16839</v>
       </c>
       <c r="AI17">
-        <v>0.00139678</v>
+        <v>0.00140524</v>
       </c>
       <c r="AJ17" s="2" t="s">
         <v>62</v>
@@ -3327,34 +3327,34 @@
         <v>62</v>
       </c>
       <c r="AN17">
-        <v>0.163148</v>
+        <v>0.168723</v>
       </c>
       <c r="AO17">
-        <v>876.689</v>
+        <v>876.777</v>
       </c>
       <c r="AP17">
-        <v>838.708</v>
+        <v>839.491</v>
       </c>
       <c r="AQ17">
-        <v>899.853</v>
+        <v>900.442</v>
       </c>
       <c r="AR17">
-        <v>764.428</v>
+        <v>765.2650000000001</v>
       </c>
       <c r="AS17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT17">
-        <v>727.897</v>
+        <v>728.153</v>
       </c>
       <c r="AU17">
-        <v>787.9590000000001</v>
+        <v>788.1319999999999</v>
       </c>
       <c r="AV17">
-        <v>749.6420000000001</v>
+        <v>750.3920000000001</v>
       </c>
       <c r="AW17">
-        <v>814.9499999999999</v>
+        <v>815.739</v>
       </c>
       <c r="AX17" s="2" t="s">
         <v>63</v>
@@ -3398,73 +3398,73 @@
         <v>76</v>
       </c>
       <c r="M18">
-        <v>50.5569</v>
+        <v>50.5169</v>
       </c>
       <c r="N18">
-        <v>15.8712</v>
+        <v>15.9949</v>
       </c>
       <c r="O18">
-        <v>19.1774</v>
+        <v>20.1275</v>
       </c>
       <c r="P18">
-        <v>39.3276</v>
+        <v>40.063</v>
       </c>
       <c r="Q18">
-        <v>50.5571</v>
+        <v>50.5172</v>
       </c>
       <c r="R18">
-        <v>100</v>
+        <v>100.001</v>
       </c>
       <c r="S18">
-        <v>38.7708</v>
+        <v>39.5461</v>
       </c>
       <c r="T18">
-        <v>39.3276</v>
+        <v>40.063</v>
       </c>
       <c r="U18">
-        <v>18.957</v>
+        <v>20.1275</v>
       </c>
       <c r="V18">
-        <v>16.9592</v>
+        <v>18.4597</v>
       </c>
       <c r="W18">
-        <v>15.6468</v>
+        <v>15.9969</v>
       </c>
       <c r="X18">
-        <v>15.484</v>
+        <v>15.5404</v>
       </c>
       <c r="Y18">
-        <v>15.484</v>
+        <v>15.5404</v>
       </c>
       <c r="Z18">
-        <v>15.484</v>
+        <v>15.54</v>
       </c>
       <c r="AA18">
-        <v>19.1774</v>
+        <v>20.0429</v>
       </c>
       <c r="AB18">
-        <v>14.3607</v>
+        <v>14.803</v>
       </c>
       <c r="AC18">
-        <v>14.095</v>
+        <v>14.1108</v>
       </c>
       <c r="AD18">
-        <v>15.8712</v>
+        <v>15.9949</v>
       </c>
       <c r="AE18">
-        <v>15.8712</v>
+        <v>15.9949</v>
       </c>
       <c r="AF18">
-        <v>15.8712</v>
+        <v>15.9949</v>
       </c>
       <c r="AG18">
-        <v>0.84705</v>
+        <v>0.847513</v>
       </c>
       <c r="AH18">
-        <v>0.211039</v>
+        <v>0.219039</v>
       </c>
       <c r="AI18">
-        <v>0.00159361</v>
+        <v>0.00160297</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>62</v>
@@ -3479,34 +3479,34 @@
         <v>62</v>
       </c>
       <c r="AN18">
-        <v>0.211703</v>
+        <v>0.21967</v>
       </c>
       <c r="AO18">
-        <v>874.591</v>
+        <v>874.712</v>
       </c>
       <c r="AP18">
-        <v>834.3620000000001</v>
+        <v>835.0899999999999</v>
       </c>
       <c r="AQ18">
-        <v>893.0970000000001</v>
+        <v>893.698</v>
       </c>
       <c r="AR18">
-        <v>754.395</v>
+        <v>755.173</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT18">
-        <v>725.6849999999999</v>
+        <v>725.9580000000001</v>
       </c>
       <c r="AU18">
-        <v>783.847</v>
+        <v>784.069</v>
       </c>
       <c r="AV18">
-        <v>742.7020000000001</v>
+        <v>743.418</v>
       </c>
       <c r="AW18">
-        <v>804.9530000000001</v>
+        <v>805.688</v>
       </c>
       <c r="AX18" s="2" t="s">
         <v>63</v>
@@ -3550,73 +3550,73 @@
         <v>74</v>
       </c>
       <c r="M19">
-        <v>52.1026</v>
+        <v>52.0686</v>
       </c>
       <c r="N19">
-        <v>16.1948</v>
+        <v>16.26</v>
       </c>
       <c r="O19">
-        <v>20.3225</v>
+        <v>21.2993</v>
       </c>
       <c r="P19">
-        <v>41.3252</v>
+        <v>41.9685</v>
       </c>
       <c r="Q19">
-        <v>52.1026</v>
+        <v>52.0687</v>
       </c>
       <c r="R19">
-        <v>99.9999</v>
+        <v>100</v>
       </c>
       <c r="S19">
-        <v>39.22260000000001</v>
+        <v>39.8987</v>
       </c>
       <c r="T19">
-        <v>41.3252</v>
+        <v>41.9685</v>
       </c>
       <c r="U19">
-        <v>20.3225</v>
+        <v>21.2993</v>
       </c>
       <c r="V19">
-        <v>17.7709</v>
+        <v>18.8583</v>
       </c>
       <c r="W19">
-        <v>16.0455</v>
+        <v>16.397</v>
       </c>
       <c r="X19">
-        <v>16.1946</v>
+        <v>16.2664</v>
       </c>
       <c r="Y19">
-        <v>16.1946</v>
+        <v>16.2664</v>
       </c>
       <c r="Z19">
-        <v>16.1948</v>
+        <v>16.26</v>
       </c>
       <c r="AA19">
-        <v>14.1192</v>
+        <v>14.5265</v>
       </c>
       <c r="AB19">
-        <v>10.5018</v>
+        <v>10.7561</v>
       </c>
       <c r="AC19">
-        <v>11.114</v>
+        <v>11.1007</v>
       </c>
       <c r="AD19">
-        <v>12.4786</v>
+        <v>12.5944</v>
       </c>
       <c r="AE19">
-        <v>12.4786</v>
+        <v>12.5944</v>
       </c>
       <c r="AF19">
-        <v>12.4786</v>
+        <v>12.5944</v>
       </c>
       <c r="AG19">
-        <v>0.697174</v>
+        <v>0.697758</v>
       </c>
       <c r="AH19">
-        <v>0.169253</v>
+        <v>0.175084</v>
       </c>
       <c r="AI19">
-        <v>6.615489999999999E-05</v>
+        <v>6.712639999999999E-05</v>
       </c>
       <c r="AJ19" s="2" t="s">
         <v>62</v>
@@ -3631,34 +3631,34 @@
         <v>62</v>
       </c>
       <c r="AN19">
-        <v>0.170564</v>
+        <v>0.176366</v>
       </c>
       <c r="AO19">
-        <v>878.76</v>
+        <v>878.9200000000001</v>
       </c>
       <c r="AP19">
-        <v>834.479</v>
+        <v>835.189</v>
       </c>
       <c r="AQ19">
-        <v>897.653</v>
+        <v>898.1850000000001</v>
       </c>
       <c r="AR19">
-        <v>754.847</v>
+        <v>755.5250000000001</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT19">
-        <v>723.745</v>
+        <v>724.001</v>
       </c>
       <c r="AU19">
-        <v>786.1850000000001</v>
+        <v>786.3910000000001</v>
       </c>
       <c r="AV19">
-        <v>741.397</v>
+        <v>742.018</v>
       </c>
       <c r="AW19">
-        <v>806.95</v>
+        <v>807.5930000000001</v>
       </c>
       <c r="AX19" s="2" t="s">
         <v>63</v>
@@ -3702,73 +3702,73 @@
         <v>76</v>
       </c>
       <c r="M20">
-        <v>52.4911</v>
+        <v>52.4171</v>
       </c>
       <c r="N20">
-        <v>12.7737</v>
+        <v>12.816</v>
       </c>
       <c r="O20">
-        <v>17.7404</v>
+        <v>18.5316</v>
       </c>
       <c r="P20">
-        <v>32.8254</v>
+        <v>33.37889999999999</v>
       </c>
       <c r="Q20">
-        <v>52.4909</v>
+        <v>52.4177</v>
       </c>
       <c r="R20">
-        <v>99.9997</v>
+        <v>100.001</v>
       </c>
       <c r="S20">
-        <v>30.3346</v>
+        <v>30.9614</v>
       </c>
       <c r="T20">
-        <v>32.8254</v>
+        <v>33.37889999999999</v>
       </c>
       <c r="U20">
-        <v>17.7404</v>
+        <v>18.5316</v>
       </c>
       <c r="V20">
-        <v>14.6096</v>
+        <v>15.5058</v>
       </c>
       <c r="W20">
-        <v>13.2457</v>
+        <v>13.5236</v>
       </c>
       <c r="X20">
-        <v>12.7788</v>
+        <v>12.8202</v>
       </c>
       <c r="Y20">
-        <v>12.7788</v>
+        <v>12.8202</v>
       </c>
       <c r="Z20">
-        <v>12.7737</v>
+        <v>12.816</v>
       </c>
       <c r="AA20">
-        <v>14.1489</v>
+        <v>14.6144</v>
       </c>
       <c r="AB20">
-        <v>9.824670000000001</v>
+        <v>10.0746</v>
       </c>
       <c r="AC20">
-        <v>9.926360000000001</v>
+        <v>9.89583</v>
       </c>
       <c r="AD20">
-        <v>10.6013</v>
+        <v>10.6879</v>
       </c>
       <c r="AE20">
-        <v>10.6013</v>
+        <v>10.6879</v>
       </c>
       <c r="AF20">
-        <v>10.6013</v>
+        <v>10.6879</v>
       </c>
       <c r="AG20">
-        <v>0.849171</v>
+        <v>0.849803</v>
       </c>
       <c r="AH20">
-        <v>0.219694</v>
+        <v>0.227981</v>
       </c>
       <c r="AI20">
-        <v>0.000101581</v>
+        <v>0.000102939</v>
       </c>
       <c r="AJ20" s="2" t="s">
         <v>62</v>
@@ -3783,34 +3783,34 @@
         <v>62</v>
       </c>
       <c r="AN20">
-        <v>0.220841</v>
+        <v>0.228957</v>
       </c>
       <c r="AO20">
-        <v>876.17</v>
+        <v>876.33</v>
       </c>
       <c r="AP20">
-        <v>830.299</v>
+        <v>830.961</v>
       </c>
       <c r="AQ20">
-        <v>890.9180000000001</v>
+        <v>891.394</v>
       </c>
       <c r="AR20">
-        <v>745.96</v>
+        <v>746.5849999999999</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT20">
-        <v>721.957</v>
+        <v>722.215</v>
       </c>
       <c r="AU20">
-        <v>782.3339999999999</v>
+        <v>782.5269999999999</v>
       </c>
       <c r="AV20">
-        <v>735.648</v>
+        <v>736.2380000000001</v>
       </c>
       <c r="AW20">
-        <v>798.4499999999999</v>
+        <v>799.004</v>
       </c>
       <c r="AX20" s="2" t="s">
         <v>63</v>
@@ -3854,73 +3854,73 @@
         <v>74</v>
       </c>
       <c r="M21">
-        <v>51.9961</v>
+        <v>51.9391</v>
       </c>
       <c r="N21">
-        <v>16.8776</v>
+        <v>16.9434</v>
       </c>
       <c r="O21">
-        <v>22.3973</v>
+        <v>23.4234</v>
       </c>
       <c r="P21">
-        <v>39.9269</v>
+        <v>40.6061</v>
       </c>
       <c r="Q21">
-        <v>51.998</v>
+        <v>51.9394</v>
       </c>
       <c r="R21">
-        <v>100.004</v>
+        <v>100.001</v>
       </c>
       <c r="S21">
-        <v>37.9316</v>
+        <v>38.6676</v>
       </c>
       <c r="T21">
-        <v>39.9269</v>
+        <v>40.6061</v>
       </c>
       <c r="U21">
-        <v>22.3973</v>
+        <v>23.4234</v>
       </c>
       <c r="V21">
-        <v>19.2434</v>
+        <v>20.3971</v>
       </c>
       <c r="W21">
-        <v>17.3311</v>
+        <v>17.7434</v>
       </c>
       <c r="X21">
-        <v>16.8743</v>
+        <v>16.9519</v>
       </c>
       <c r="Y21">
-        <v>16.8743</v>
+        <v>16.9519</v>
       </c>
       <c r="Z21">
-        <v>16.8776</v>
+        <v>16.9434</v>
       </c>
       <c r="AA21">
-        <v>16.7505</v>
+        <v>17.277</v>
       </c>
       <c r="AB21">
-        <v>12.7283</v>
+        <v>13.0834</v>
       </c>
       <c r="AC21">
-        <v>12.8464</v>
+        <v>12.87</v>
       </c>
       <c r="AD21">
-        <v>13.9511</v>
+        <v>14.0869</v>
       </c>
       <c r="AE21">
-        <v>13.9511</v>
+        <v>14.0869</v>
       </c>
       <c r="AF21">
-        <v>13.9511</v>
+        <v>14.0869</v>
       </c>
       <c r="AG21">
-        <v>0.69073</v>
+        <v>0.691199</v>
       </c>
       <c r="AH21">
-        <v>0.192411</v>
+        <v>0.199305</v>
       </c>
       <c r="AI21">
-        <v>0.0105981</v>
+        <v>0.0107088</v>
       </c>
       <c r="AJ21" s="2" t="s">
         <v>62</v>
@@ -3935,34 +3935,34 @@
         <v>62</v>
       </c>
       <c r="AN21">
-        <v>0.191515</v>
+        <v>0.198464</v>
       </c>
       <c r="AO21">
-        <v>877.53</v>
+        <v>877.706</v>
       </c>
       <c r="AP21">
-        <v>833.607</v>
+        <v>834.393</v>
       </c>
       <c r="AQ21">
-        <v>896.148</v>
+        <v>896.726</v>
       </c>
       <c r="AR21">
-        <v>753.558</v>
+        <v>754.293</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT21">
-        <v>723.1179999999999</v>
+        <v>723.374</v>
       </c>
       <c r="AU21">
-        <v>784.963</v>
+        <v>785.1510000000001</v>
       </c>
       <c r="AV21">
-        <v>740.511</v>
+        <v>741.189</v>
       </c>
       <c r="AW21">
-        <v>805.552</v>
+        <v>806.231</v>
       </c>
       <c r="AX21" s="2" t="s">
         <v>63</v>
@@ -4006,73 +4006,73 @@
         <v>76</v>
       </c>
       <c r="M22">
-        <v>52.2419</v>
+        <v>52.1702</v>
       </c>
       <c r="N22">
-        <v>14.0331</v>
+        <v>14.0731</v>
       </c>
       <c r="O22">
-        <v>20.3189</v>
+        <v>21.1841</v>
       </c>
       <c r="P22">
-        <v>33.5622</v>
+        <v>34.1797</v>
       </c>
       <c r="Q22">
-        <v>52.2421</v>
+        <v>52.17</v>
       </c>
       <c r="R22">
-        <v>100</v>
+        <v>99.9996</v>
       </c>
       <c r="S22">
-        <v>31.3192</v>
+        <v>32.011</v>
       </c>
       <c r="T22">
-        <v>33.5622</v>
+        <v>34.1797</v>
       </c>
       <c r="U22">
-        <v>20.3189</v>
+        <v>21.1841</v>
       </c>
       <c r="V22">
-        <v>16.5251</v>
+        <v>17.5181</v>
       </c>
       <c r="W22">
-        <v>14.9437</v>
+        <v>15.2848</v>
       </c>
       <c r="X22">
-        <v>14.0331</v>
+        <v>14.0735</v>
       </c>
       <c r="Y22">
-        <v>14.0331</v>
+        <v>14.0735</v>
       </c>
       <c r="Z22">
-        <v>14.0331</v>
+        <v>14.0731</v>
       </c>
       <c r="AA22">
-        <v>16.6051</v>
+        <v>17.0332</v>
       </c>
       <c r="AB22">
-        <v>11.9056</v>
+        <v>12.2637</v>
       </c>
       <c r="AC22">
-        <v>11.6259</v>
+        <v>11.6392</v>
       </c>
       <c r="AD22">
-        <v>12.1338</v>
+        <v>12.2369</v>
       </c>
       <c r="AE22">
-        <v>12.1338</v>
+        <v>12.2369</v>
       </c>
       <c r="AF22">
-        <v>12.1338</v>
+        <v>12.2369</v>
       </c>
       <c r="AG22">
-        <v>0.842883</v>
+        <v>0.843391</v>
       </c>
       <c r="AH22">
-        <v>0.250479</v>
+        <v>0.2601619999999999</v>
       </c>
       <c r="AI22">
-        <v>0.0118054</v>
+        <v>0.011927</v>
       </c>
       <c r="AJ22" s="2" t="s">
         <v>62</v>
@@ -4087,34 +4087,34 @@
         <v>62</v>
       </c>
       <c r="AN22">
-        <v>0.24985</v>
+        <v>0.259456</v>
       </c>
       <c r="AO22">
-        <v>875.688</v>
+        <v>875.85</v>
       </c>
       <c r="AP22">
-        <v>830.6030000000001</v>
+        <v>831.34</v>
       </c>
       <c r="AQ22">
-        <v>891.1800000000001</v>
+        <v>891.721</v>
       </c>
       <c r="AR22">
-        <v>746.9450000000001</v>
+        <v>747.636</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT22">
-        <v>721.9820000000001</v>
+        <v>722.231</v>
       </c>
       <c r="AU22">
-        <v>782.169</v>
+        <v>782.354</v>
       </c>
       <c r="AV22">
-        <v>736.3370000000001</v>
+        <v>736.986</v>
       </c>
       <c r="AW22">
-        <v>799.187</v>
+        <v>799.8050000000001</v>
       </c>
       <c r="AX22" s="2" t="s">
         <v>63</v>
@@ -4158,73 +4158,73 @@
         <v>74</v>
       </c>
       <c r="M23">
-        <v>51.827</v>
+        <v>51.7805</v>
       </c>
       <c r="N23">
-        <v>16.976</v>
+        <v>17.05</v>
       </c>
       <c r="O23">
-        <v>20.3501</v>
+        <v>21.3853</v>
       </c>
       <c r="P23">
-        <v>42.159</v>
+        <v>42.8461</v>
       </c>
       <c r="Q23">
-        <v>51.8285</v>
+        <v>51.7799</v>
       </c>
       <c r="R23">
-        <v>100.003</v>
+        <v>99.999</v>
       </c>
       <c r="S23">
-        <v>40.3288</v>
+        <v>41.0674</v>
       </c>
       <c r="T23">
-        <v>42.159</v>
+        <v>42.8461</v>
       </c>
       <c r="U23">
-        <v>20.3501</v>
+        <v>21.3853</v>
       </c>
       <c r="V23">
-        <v>18.3369</v>
+        <v>19.5049</v>
       </c>
       <c r="W23">
-        <v>16.7829</v>
+        <v>17.1686</v>
       </c>
       <c r="X23">
-        <v>16.9773</v>
+        <v>17.0456</v>
       </c>
       <c r="Y23">
-        <v>16.9773</v>
+        <v>17.0456</v>
       </c>
       <c r="Z23">
-        <v>16.976</v>
+        <v>17.05</v>
       </c>
       <c r="AA23">
-        <v>14.8054</v>
+        <v>15.2726</v>
       </c>
       <c r="AB23">
-        <v>11.1487</v>
+        <v>11.4419</v>
       </c>
       <c r="AC23">
-        <v>11.8817</v>
+        <v>11.8939</v>
       </c>
       <c r="AD23">
-        <v>13.1797</v>
+        <v>13.2953</v>
       </c>
       <c r="AE23">
-        <v>13.1797</v>
+        <v>13.2953</v>
       </c>
       <c r="AF23">
-        <v>13.1797</v>
+        <v>13.2953</v>
       </c>
       <c r="AG23">
-        <v>0.696366</v>
+        <v>0.696995</v>
       </c>
       <c r="AH23">
-        <v>0.164873</v>
+        <v>0.170571</v>
       </c>
       <c r="AI23">
-        <v>6.615489999999999E-05</v>
+        <v>6.712639999999999E-05</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>62</v>
@@ -4239,34 +4239,34 @@
         <v>62</v>
       </c>
       <c r="AN23">
-        <v>0.166044</v>
+        <v>0.171785</v>
       </c>
       <c r="AO23">
-        <v>878.452</v>
+        <v>878.596</v>
       </c>
       <c r="AP23">
-        <v>834.686</v>
+        <v>835.432</v>
       </c>
       <c r="AQ23">
-        <v>897.947</v>
+        <v>898.526</v>
       </c>
       <c r="AR23">
-        <v>755.9580000000001</v>
+        <v>756.691</v>
       </c>
       <c r="AS23" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT23">
-        <v>723.7089999999999</v>
+        <v>723.955</v>
       </c>
       <c r="AU23">
-        <v>786.258</v>
+        <v>786.4689999999999</v>
       </c>
       <c r="AV23">
-        <v>741.7149999999999</v>
+        <v>742.391</v>
       </c>
       <c r="AW23">
-        <v>807.784</v>
+        <v>808.471</v>
       </c>
       <c r="AX23" s="2" t="s">
         <v>63</v>
@@ -4310,73 +4310,73 @@
         <v>76</v>
       </c>
       <c r="M24">
-        <v>52.2638</v>
+        <v>52.1845</v>
       </c>
       <c r="N24">
-        <v>13.5465</v>
+        <v>13.5911</v>
       </c>
       <c r="O24">
-        <v>17.8829</v>
+        <v>18.7168</v>
       </c>
       <c r="P24">
-        <v>33.7575</v>
+        <v>34.363</v>
       </c>
       <c r="Q24">
-        <v>52.2633</v>
+        <v>52.1846</v>
       </c>
       <c r="R24">
-        <v>99.9991</v>
+        <v>100</v>
       </c>
       <c r="S24">
-        <v>31.4922</v>
+        <v>32.1779</v>
       </c>
       <c r="T24">
-        <v>33.7575</v>
+        <v>34.363</v>
       </c>
       <c r="U24">
-        <v>17.8829</v>
+        <v>18.7168</v>
       </c>
       <c r="V24">
-        <v>15.2651</v>
+        <v>16.2408</v>
       </c>
       <c r="W24">
-        <v>14.1023</v>
+        <v>14.4062</v>
       </c>
       <c r="X24">
-        <v>13.5478</v>
+        <v>13.5917</v>
       </c>
       <c r="Y24">
-        <v>13.5478</v>
+        <v>13.5917</v>
       </c>
       <c r="Z24">
-        <v>13.5465</v>
+        <v>13.5911</v>
       </c>
       <c r="AA24">
-        <v>15.1036</v>
+        <v>15.563</v>
       </c>
       <c r="AB24">
-        <v>10.6051</v>
+        <v>10.9005</v>
       </c>
       <c r="AC24">
-        <v>10.7815</v>
+        <v>10.7727</v>
       </c>
       <c r="AD24">
-        <v>11.3087</v>
+        <v>11.4016</v>
       </c>
       <c r="AE24">
-        <v>11.3087</v>
+        <v>11.4016</v>
       </c>
       <c r="AF24">
-        <v>11.3087</v>
+        <v>11.4016</v>
       </c>
       <c r="AG24">
-        <v>0.848425</v>
+        <v>0.849016</v>
       </c>
       <c r="AH24">
-        <v>0.215138</v>
+        <v>0.222917</v>
       </c>
       <c r="AI24">
-        <v>0.000101581</v>
+        <v>0.000102938</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>62</v>
@@ -4391,34 +4391,34 @@
         <v>62</v>
       </c>
       <c r="AN24">
-        <v>0.215949</v>
+        <v>0.224066</v>
       </c>
       <c r="AO24">
-        <v>875.88</v>
+        <v>876.019</v>
       </c>
       <c r="AP24">
-        <v>830.558</v>
+        <v>831.254</v>
       </c>
       <c r="AQ24">
-        <v>891.292</v>
+        <v>891.8190000000001</v>
       </c>
       <c r="AR24">
-        <v>747.116</v>
+        <v>747.804</v>
       </c>
       <c r="AS24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT24">
-        <v>721.956</v>
+        <v>722.207</v>
       </c>
       <c r="AU24">
-        <v>782.4630000000001</v>
+        <v>782.6650000000001</v>
       </c>
       <c r="AV24">
-        <v>736.0409999999999</v>
+        <v>736.694</v>
       </c>
       <c r="AW24">
-        <v>799.3820000000001</v>
+        <v>799.9880000000001</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>63</v>
@@ -4462,73 +4462,73 @@
         <v>74</v>
       </c>
       <c r="M25">
-        <v>51.7734</v>
+        <v>51.721</v>
       </c>
       <c r="N25">
-        <v>17.7074</v>
+        <v>17.7895</v>
       </c>
       <c r="O25">
-        <v>22.6018</v>
+        <v>23.6769</v>
       </c>
       <c r="P25">
-        <v>40.7701</v>
+        <v>41.5094</v>
       </c>
       <c r="Q25">
-        <v>51.7736</v>
+        <v>51.7194</v>
       </c>
       <c r="R25">
-        <v>100</v>
+        <v>99.9969</v>
       </c>
       <c r="S25">
-        <v>38.9969</v>
+        <v>39.7895</v>
       </c>
       <c r="T25">
-        <v>40.7701</v>
+        <v>41.5094</v>
       </c>
       <c r="U25">
-        <v>22.6018</v>
+        <v>23.6769</v>
       </c>
       <c r="V25">
-        <v>19.8752</v>
+        <v>21.1207</v>
       </c>
       <c r="W25">
-        <v>18.1723</v>
+        <v>18.6252</v>
       </c>
       <c r="X25">
-        <v>17.7047</v>
+        <v>17.7913</v>
       </c>
       <c r="Y25">
-        <v>17.7047</v>
+        <v>17.7913</v>
       </c>
       <c r="Z25">
-        <v>17.7074</v>
+        <v>17.7895</v>
       </c>
       <c r="AA25">
-        <v>17.6144</v>
+        <v>18.2432</v>
       </c>
       <c r="AB25">
-        <v>13.5044</v>
+        <v>13.9161</v>
       </c>
       <c r="AC25">
-        <v>13.6917</v>
+        <v>13.7447</v>
       </c>
       <c r="AD25">
-        <v>14.7011</v>
+        <v>14.8437</v>
       </c>
       <c r="AE25">
-        <v>14.7011</v>
+        <v>14.8437</v>
       </c>
       <c r="AF25">
-        <v>14.7011</v>
+        <v>14.8437</v>
       </c>
       <c r="AG25">
-        <v>0.690147</v>
+        <v>0.690519</v>
       </c>
       <c r="AH25">
-        <v>0.188401</v>
+        <v>0.195448</v>
       </c>
       <c r="AI25">
-        <v>0.0105978</v>
+        <v>0.0107084</v>
       </c>
       <c r="AJ25" s="2" t="s">
         <v>62</v>
@@ -4543,34 +4543,34 @@
         <v>62</v>
       </c>
       <c r="AN25">
-        <v>0.187604</v>
+        <v>0.194541</v>
       </c>
       <c r="AO25">
-        <v>877.183</v>
+        <v>877.332</v>
       </c>
       <c r="AP25">
-        <v>833.8</v>
+        <v>834.6189999999999</v>
       </c>
       <c r="AQ25">
-        <v>896.4390000000001</v>
+        <v>897.0700000000001</v>
       </c>
       <c r="AR25">
-        <v>754.6210000000001</v>
+        <v>755.4110000000001</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT25">
-        <v>723.075</v>
+        <v>723.3150000000001</v>
       </c>
       <c r="AU25">
-        <v>785.033</v>
+        <v>785.226</v>
       </c>
       <c r="AV25">
-        <v>740.8109999999999</v>
+        <v>741.539</v>
       </c>
       <c r="AW25">
-        <v>806.395</v>
+        <v>807.134</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>63</v>
@@ -4614,73 +4614,73 @@
         <v>76</v>
       </c>
       <c r="M26">
-        <v>52.0386</v>
+        <v>51.966</v>
       </c>
       <c r="N26">
-        <v>14.8729</v>
+        <v>14.916</v>
       </c>
       <c r="O26">
-        <v>20.6558</v>
+        <v>21.5622</v>
       </c>
       <c r="P26">
-        <v>34.5351</v>
+        <v>35.2144</v>
       </c>
       <c r="Q26">
-        <v>52.039</v>
+        <v>51.9671</v>
       </c>
       <c r="R26">
-        <v>100.001</v>
+        <v>100.002</v>
       </c>
       <c r="S26">
-        <v>32.4966</v>
+        <v>33.2472</v>
       </c>
       <c r="T26">
-        <v>34.5351</v>
+        <v>35.2144</v>
       </c>
       <c r="U26">
-        <v>20.6558</v>
+        <v>21.5622</v>
       </c>
       <c r="V26">
-        <v>17.2562</v>
+        <v>18.3507</v>
       </c>
       <c r="W26">
-        <v>15.8937</v>
+        <v>16.2734</v>
       </c>
       <c r="X26">
-        <v>14.8714</v>
+        <v>14.9181</v>
       </c>
       <c r="Y26">
-        <v>14.8714</v>
+        <v>14.9181</v>
       </c>
       <c r="Z26">
-        <v>14.8729</v>
+        <v>14.916</v>
       </c>
       <c r="AA26">
-        <v>17.4255</v>
+        <v>17.997</v>
       </c>
       <c r="AB26">
-        <v>12.7872</v>
+        <v>13.2153</v>
       </c>
       <c r="AC26">
-        <v>12.5653</v>
+        <v>12.6005</v>
       </c>
       <c r="AD26">
-        <v>12.89</v>
+        <v>13.0044</v>
       </c>
       <c r="AE26">
-        <v>12.89</v>
+        <v>13.0044</v>
       </c>
       <c r="AF26">
-        <v>12.89</v>
+        <v>13.0044</v>
       </c>
       <c r="AG26">
-        <v>0.842077</v>
+        <v>0.842526</v>
       </c>
       <c r="AH26">
-        <v>0.246857</v>
+        <v>0.256704</v>
       </c>
       <c r="AI26">
-        <v>0.011805</v>
+        <v>0.0119266</v>
       </c>
       <c r="AJ26" s="2" t="s">
         <v>62</v>
@@ -4695,34 +4695,34 @@
         <v>62</v>
       </c>
       <c r="AN26">
-        <v>0.245897</v>
+        <v>0.255637</v>
       </c>
       <c r="AO26">
-        <v>875.35</v>
+        <v>875.491</v>
       </c>
       <c r="AP26">
-        <v>830.869</v>
+        <v>831.645</v>
       </c>
       <c r="AQ26">
-        <v>891.581</v>
+        <v>892.1800000000001</v>
       </c>
       <c r="AR26">
-        <v>748.1220000000001</v>
+        <v>748.873</v>
       </c>
       <c r="AS26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT26">
-        <v>721.985</v>
+        <v>722.218</v>
       </c>
       <c r="AU26">
-        <v>782.302</v>
+        <v>782.496</v>
       </c>
       <c r="AV26">
-        <v>736.748</v>
+        <v>737.453</v>
       </c>
       <c r="AW26">
-        <v>800.16</v>
+        <v>800.8390000000001</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>63</v>
@@ -4766,73 +4766,73 @@
         <v>74</v>
       </c>
       <c r="M27">
-        <v>48.7432</v>
+        <v>48.7279</v>
       </c>
       <c r="N27">
-        <v>15.8211</v>
+        <v>15.9355</v>
       </c>
       <c r="O27">
-        <v>19.181</v>
+        <v>19.9682</v>
       </c>
       <c r="P27">
-        <v>40.0408</v>
+        <v>40.635</v>
       </c>
       <c r="Q27">
-        <v>48.7427</v>
+        <v>48.7276</v>
       </c>
       <c r="R27">
-        <v>99.999</v>
+        <v>99.99940000000001</v>
       </c>
       <c r="S27">
-        <v>40.0408</v>
+        <v>40.635</v>
       </c>
       <c r="T27">
-        <v>38.7845</v>
+        <v>39.3619</v>
       </c>
       <c r="U27">
-        <v>14.3551</v>
+        <v>14.7697</v>
       </c>
       <c r="V27">
-        <v>11.9351</v>
+        <v>12.6923</v>
       </c>
       <c r="W27">
-        <v>12.1332</v>
+        <v>12.3608</v>
       </c>
       <c r="X27">
-        <v>12.3975</v>
+        <v>12.425</v>
       </c>
       <c r="Y27">
-        <v>12.3975</v>
+        <v>12.425</v>
       </c>
       <c r="Z27">
-        <v>12.4001</v>
+        <v>12.4225</v>
       </c>
       <c r="AA27">
-        <v>19.181</v>
+        <v>19.9682</v>
       </c>
       <c r="AB27">
-        <v>14.1439</v>
+        <v>14.4377</v>
       </c>
       <c r="AC27">
-        <v>13.5496</v>
+        <v>13.4602</v>
       </c>
       <c r="AD27">
-        <v>15.8211</v>
+        <v>15.9355</v>
       </c>
       <c r="AE27">
-        <v>15.8211</v>
+        <v>15.9355</v>
       </c>
       <c r="AF27">
-        <v>15.8211</v>
+        <v>15.9355</v>
       </c>
       <c r="AG27">
-        <v>0.697834</v>
+        <v>0.6983239999999999</v>
       </c>
       <c r="AH27">
-        <v>0.169618</v>
+        <v>0.175536</v>
       </c>
       <c r="AI27">
-        <v>8.10928E-05</v>
+        <v>8.123149999999999E-05</v>
       </c>
       <c r="AJ27" s="2" t="s">
         <v>62</v>
@@ -4847,34 +4847,34 @@
         <v>62</v>
       </c>
       <c r="AN27">
-        <v>0.170597</v>
+        <v>0.176358</v>
       </c>
       <c r="AO27">
-        <v>873.4050000000001</v>
+        <v>873.529</v>
       </c>
       <c r="AP27">
-        <v>836.1490000000001</v>
+        <v>836.774</v>
       </c>
       <c r="AQ27">
-        <v>891.5939999999999</v>
+        <v>892.032</v>
       </c>
       <c r="AR27">
-        <v>755.6660000000001</v>
+        <v>756.2629999999999</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT27">
-        <v>728.871</v>
+        <v>729.1660000000001</v>
       </c>
       <c r="AU27">
-        <v>783.7180000000001</v>
+        <v>783.908</v>
       </c>
       <c r="AV27">
-        <v>745.9160000000001</v>
+        <v>746.4730000000001</v>
       </c>
       <c r="AW27">
-        <v>804.409</v>
+        <v>804.987</v>
       </c>
       <c r="AX27" s="2" t="s">
         <v>63</v>
@@ -4918,73 +4918,73 @@
         <v>76</v>
       </c>
       <c r="M28">
-        <v>48.7126</v>
+        <v>48.691</v>
       </c>
       <c r="N28">
-        <v>12.7025</v>
+        <v>12.7833</v>
       </c>
       <c r="O28">
-        <v>16.7201</v>
+        <v>17.3714</v>
       </c>
       <c r="P28">
-        <v>31.8003</v>
+        <v>32.36490000000001</v>
       </c>
       <c r="Q28">
-        <v>48.7116</v>
+        <v>48.6911</v>
       </c>
       <c r="R28">
-        <v>99.9979</v>
+        <v>100</v>
       </c>
       <c r="S28">
-        <v>31.8003</v>
+        <v>32.36490000000001</v>
       </c>
       <c r="T28">
-        <v>30.5129</v>
+        <v>31.0577</v>
       </c>
       <c r="U28">
-        <v>14.3243</v>
+        <v>14.7547</v>
       </c>
       <c r="V28">
-        <v>11.2809</v>
+        <v>12.0689</v>
       </c>
       <c r="W28">
-        <v>10.9066</v>
+        <v>11.1097</v>
       </c>
       <c r="X28">
-        <v>10.5714</v>
+        <v>10.5883</v>
       </c>
       <c r="Y28">
-        <v>10.5714</v>
+        <v>10.5883</v>
       </c>
       <c r="Z28">
-        <v>10.5712</v>
+        <v>10.5858</v>
       </c>
       <c r="AA28">
-        <v>16.7201</v>
+        <v>17.3714</v>
       </c>
       <c r="AB28">
-        <v>12.1546</v>
+        <v>12.4599</v>
       </c>
       <c r="AC28">
-        <v>11.4164</v>
+        <v>11.3514</v>
       </c>
       <c r="AD28">
-        <v>12.7025</v>
+        <v>12.7833</v>
       </c>
       <c r="AE28">
-        <v>12.7025</v>
+        <v>12.7833</v>
       </c>
       <c r="AF28">
-        <v>12.7025</v>
+        <v>12.7833</v>
       </c>
       <c r="AG28">
-        <v>0.849448</v>
+        <v>0.850096</v>
       </c>
       <c r="AH28">
-        <v>0.219692</v>
+        <v>0.227627</v>
       </c>
       <c r="AI28">
-        <v>0.000110044</v>
+        <v>0.000110289</v>
       </c>
       <c r="AJ28" s="2" t="s">
         <v>62</v>
@@ -4999,34 +4999,34 @@
         <v>62</v>
       </c>
       <c r="AN28">
-        <v>0.221046</v>
+        <v>0.229025</v>
       </c>
       <c r="AO28">
-        <v>871.6420000000001</v>
+        <v>871.7669999999999</v>
       </c>
       <c r="AP28">
-        <v>832.215</v>
+        <v>832.784</v>
       </c>
       <c r="AQ28">
-        <v>886.181</v>
+        <v>886.624</v>
       </c>
       <c r="AR28">
-        <v>747.4250000000001</v>
+        <v>747.9880000000001</v>
       </c>
       <c r="AS28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT28">
-        <v>726.3200000000001</v>
+        <v>726.5940000000001</v>
       </c>
       <c r="AU28">
-        <v>779.9330000000001</v>
+        <v>780.14</v>
       </c>
       <c r="AV28">
-        <v>739.533</v>
+        <v>740.0590000000001</v>
       </c>
       <c r="AW28">
-        <v>796.138</v>
+        <v>796.683</v>
       </c>
       <c r="AX28" s="2" t="s">
         <v>63</v>
@@ -5070,73 +5070,73 @@
         <v>74</v>
       </c>
       <c r="M29">
-        <v>48.5996</v>
+        <v>48.5644</v>
       </c>
       <c r="N29">
-        <v>17.2999</v>
+        <v>17.4225</v>
       </c>
       <c r="O29">
-        <v>20.9223</v>
+        <v>21.7939</v>
       </c>
       <c r="P29">
-        <v>39.25680000000001</v>
+        <v>39.92160000000001</v>
       </c>
       <c r="Q29">
-        <v>48.6003</v>
+        <v>48.5645</v>
       </c>
       <c r="R29">
-        <v>100.002</v>
+        <v>100</v>
       </c>
       <c r="S29">
-        <v>39.25680000000001</v>
+        <v>39.92160000000001</v>
       </c>
       <c r="T29">
-        <v>37.85910000000001</v>
+        <v>38.4864</v>
       </c>
       <c r="U29">
-        <v>17.2394</v>
+        <v>17.7727</v>
       </c>
       <c r="V29">
-        <v>14.1808</v>
+        <v>15.1387</v>
       </c>
       <c r="W29">
-        <v>13.8476</v>
+        <v>14.1253</v>
       </c>
       <c r="X29">
-        <v>13.6491</v>
+        <v>13.6838</v>
       </c>
       <c r="Y29">
-        <v>13.6491</v>
+        <v>13.6838</v>
       </c>
       <c r="Z29">
-        <v>13.6499</v>
+        <v>13.6838</v>
       </c>
       <c r="AA29">
-        <v>20.9223</v>
+        <v>21.7939</v>
       </c>
       <c r="AB29">
-        <v>16.6835</v>
+        <v>17.1164</v>
       </c>
       <c r="AC29">
-        <v>15.408</v>
+        <v>15.3561</v>
       </c>
       <c r="AD29">
-        <v>17.2999</v>
+        <v>17.4225</v>
       </c>
       <c r="AE29">
-        <v>17.2999</v>
+        <v>17.4225</v>
       </c>
       <c r="AF29">
-        <v>17.2999</v>
+        <v>17.4225</v>
       </c>
       <c r="AG29">
-        <v>0.690937</v>
+        <v>0.691375</v>
       </c>
       <c r="AH29">
-        <v>0.200148</v>
+        <v>0.20703</v>
       </c>
       <c r="AI29">
-        <v>0.0183602</v>
+        <v>0.0183875</v>
       </c>
       <c r="AJ29" s="2" t="s">
         <v>62</v>
@@ -5151,34 +5151,34 @@
         <v>62</v>
       </c>
       <c r="AN29">
-        <v>0.197079</v>
+        <v>0.203842</v>
       </c>
       <c r="AO29">
-        <v>871.932</v>
+        <v>872.044</v>
       </c>
       <c r="AP29">
-        <v>835.391</v>
+        <v>836.062</v>
       </c>
       <c r="AQ29">
-        <v>890.273</v>
+        <v>890.7600000000001</v>
       </c>
       <c r="AR29">
-        <v>754.884</v>
+        <v>755.547</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT29">
-        <v>728.5169999999999</v>
+        <v>728.8140000000001</v>
       </c>
       <c r="AU29">
-        <v>782.643</v>
+        <v>782.829</v>
       </c>
       <c r="AV29">
-        <v>745.487</v>
+        <v>746.099</v>
       </c>
       <c r="AW29">
-        <v>803.484</v>
+        <v>804.1110000000001</v>
       </c>
       <c r="AX29" s="2" t="s">
         <v>63</v>
@@ -5222,73 +5222,73 @@
         <v>76</v>
       </c>
       <c r="M30">
-        <v>48.6472</v>
+        <v>48.6228</v>
       </c>
       <c r="N30">
-        <v>14.3852</v>
+        <v>14.48</v>
       </c>
       <c r="O30">
-        <v>18.6824</v>
+        <v>19.4147</v>
       </c>
       <c r="P30">
-        <v>32.8636</v>
+        <v>33.4907</v>
       </c>
       <c r="Q30">
-        <v>48.6465</v>
+        <v>48.6226</v>
       </c>
       <c r="R30">
-        <v>99.9986</v>
+        <v>99.9997</v>
       </c>
       <c r="S30">
-        <v>32.8636</v>
+        <v>33.4907</v>
       </c>
       <c r="T30">
-        <v>31.5149</v>
+        <v>32.1145</v>
       </c>
       <c r="U30">
-        <v>17.071</v>
+        <v>17.6522</v>
       </c>
       <c r="V30">
-        <v>13.4447</v>
+        <v>14.6145</v>
       </c>
       <c r="W30">
-        <v>12.6349</v>
+        <v>12.8797</v>
       </c>
       <c r="X30">
-        <v>11.9081</v>
+        <v>11.9359</v>
       </c>
       <c r="Y30">
-        <v>11.9081</v>
+        <v>11.9359</v>
       </c>
       <c r="Z30">
-        <v>11.9064</v>
+        <v>11.9362</v>
       </c>
       <c r="AA30">
-        <v>18.6824</v>
+        <v>19.4147</v>
       </c>
       <c r="AB30">
-        <v>14.4575</v>
+        <v>14.8775</v>
       </c>
       <c r="AC30">
-        <v>13.3118</v>
+        <v>13.2909</v>
       </c>
       <c r="AD30">
-        <v>14.3852</v>
+        <v>14.48</v>
       </c>
       <c r="AE30">
-        <v>14.3852</v>
+        <v>14.48</v>
       </c>
       <c r="AF30">
-        <v>14.3852</v>
+        <v>14.48</v>
       </c>
       <c r="AG30">
-        <v>0.843159</v>
+        <v>0.843567</v>
       </c>
       <c r="AH30">
-        <v>0.260944</v>
+        <v>0.270229</v>
       </c>
       <c r="AI30">
-        <v>0.0211683</v>
+        <v>0.0211981</v>
       </c>
       <c r="AJ30" s="2" t="s">
         <v>62</v>
@@ -5303,34 +5303,34 @@
         <v>62</v>
       </c>
       <c r="AN30">
-        <v>0.257056</v>
+        <v>0.266428</v>
       </c>
       <c r="AO30">
-        <v>870.952</v>
+        <v>871.0780000000001</v>
       </c>
       <c r="AP30">
-        <v>832.438</v>
+        <v>833.058</v>
       </c>
       <c r="AQ30">
-        <v>886.4119999999999</v>
+        <v>886.908</v>
       </c>
       <c r="AR30">
-        <v>748.485</v>
+        <v>749.117</v>
       </c>
       <c r="AS30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AT30">
-        <v>726.551</v>
+        <v>726.821</v>
       </c>
       <c r="AU30">
-        <v>779.925</v>
+        <v>780.1279999999999</v>
       </c>
       <c r="AV30">
-        <v>740.4590000000001</v>
+        <v>741.044</v>
       </c>
       <c r="AW30">
-        <v>797.14</v>
+        <v>797.74</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>63</v>
@@ -5374,73 +5374,73 @@
         <v>74</v>
       </c>
       <c r="M31">
-        <v>48.895</v>
+        <v>48.8702</v>
       </c>
       <c r="N31">
-        <v>16.6263</v>
+        <v>16.7466</v>
       </c>
       <c r="O31">
-        <v>19.7513</v>
+        <v>20.5879</v>
       </c>
       <c r="P31">
-        <v>40.9618</v>
+        <v>41.6089</v>
       </c>
       <c r="Q31">
-        <v>48.8947</v>
+        <v>48.8696</v>
       </c>
       <c r="R31">
-        <v>99.99940000000001</v>
+        <v>99.9988</v>
       </c>
       <c r="S31">
-        <v>40.9618</v>
+        <v>41.6089</v>
       </c>
       <c r="T31">
-        <v>39.8572</v>
+        <v>40.4785</v>
       </c>
       <c r="U31">
-        <v>14.5114</v>
+        <v>14.9393</v>
       </c>
       <c r="V31">
-        <v>12.729</v>
+        <v>13.5957</v>
       </c>
       <c r="W31">
-        <v>12.9244</v>
+        <v>13.1791</v>
       </c>
       <c r="X31">
-        <v>13.1171</v>
+        <v>13.1478</v>
       </c>
       <c r="Y31">
-        <v>13.1171</v>
+        <v>13.1478</v>
       </c>
       <c r="Z31">
-        <v>13.1196</v>
+        <v>13.1553</v>
       </c>
       <c r="AA31">
-        <v>19.7513</v>
+        <v>20.5879</v>
       </c>
       <c r="AB31">
-        <v>14.9276</v>
+        <v>15.2834</v>
       </c>
       <c r="AC31">
-        <v>14.3274</v>
+        <v>14.2524</v>
       </c>
       <c r="AD31">
-        <v>16.6263</v>
+        <v>16.7466</v>
       </c>
       <c r="AE31">
-        <v>16.6263</v>
+        <v>16.7466</v>
       </c>
       <c r="AF31">
-        <v>16.6263</v>
+        <v>16.7466</v>
       </c>
       <c r="AG31">
-        <v>0.697003</v>
+        <v>0.697551</v>
       </c>
       <c r="AH31">
-        <v>0.165209</v>
+        <v>0.17092</v>
       </c>
       <c r="AI31">
-        <v>8.10928E-05</v>
+        <v>8.123149999999999E-05</v>
       </c>
       <c r="AJ31" s="2" t="s">
         <v>62</v>
@@ -5455,34 +5455,34 @@
         <v>62</v>
       </c>
       <c r="AN31">
-        <v>0.166159</v>
+        <v>0.171836</v>
       </c>
       <c r="AO31">
-        <v>873.121</v>
+        <v>873.225</v>
       </c>
       <c r="AP31">
-        <v>836.278</v>
+        <v>836.925</v>
       </c>
       <c r="AQ31">
-        <v>891.8950000000001</v>
+        <v>892.3